--- a/data/02_intermediate/cleaned_GUIZMO_songs.xlsx
+++ b/data/02_intermediate/cleaned_GUIZMO_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Han ! Yonea Willy Willy Yonea Guiz' Et tous les autres G.P. Gang ! Sonny Digital Attendez-moi, attendez-moi, attendez-moi, attendez-moi S'il vous plaît, attendez-moi J'ai vu nos vies seffriter Venir s'écraser dans le cendar J'voulais me changer les idées Mais ils ont tué un de mes semblables Pow Et j'ai pleuré sur tant de tombes Crois-moi, j'en ai perdu du monde J'croyais qu'on avait rien à craindre Non Mais ça s'est fait en trente secondes Mes erreurs, c'est pas ta faute J't'en supplie, de tout là haut Sèche tes larmes Rappelle-toi mon sourire et tous nos fous rires avant que viennent les drames Je sais qu'c'est grave Je sais On a tous fini balafrés On a promis de pas lâcher Ouais On a fait tout l'inverse par lâcheté Ouais You might also like On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes On s'en sort plus sans nos surettes On s'en sort plus sans nos négros On s'en sort plus sans nos frérots On s'en sort plus sans nos frérots On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes J'me suis demandé pourquoi, j'ai jamais trouvé Mon pote a mis une rotte-ca, il s'est fait trouer Et ça s'est passé dans la tess' d'à côté hier soir On a connu la hess, traîné dans les mêmes squares On voulait de la fraîche de Villeneuve à bés-Bar Toujours dans les émeutes, on caillassait les mêmes shtars Mais qu'est-ce qui nous arrive ? J'ai l'impression qu'on pète les plombs Et moi j'suis trop naïf J'crois qu'j'vais tout régler avec des sons C'est faux, c'est faux Souvent la vie n'a pas de pitié Frérot, frérot Y a pas d'amour, ni d'amitié Tous ces gens sont mauvais Mais on n'est pas mieux qu'eux Ulysse t'as vu, t'as un petit neveu Noir c'est noir, y a plus d'espoir Laissez-moi vivre, laissez-moi survivre Laissez-moi vivre, laissez-moi survivre Laissez-moi vivre, laissez-moi survivre Motherfuck' On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes On s'en sort plus sans nos surettes On s'en sort plus sans nos négros On s'en sort plus sans nos frérots On s'en sort plus sans nos frérots On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes Vous me manqu'rez à jamais Attendez-moi, attendez-moi, attendez-moi Vous me manqu'rez à jamais, manqu'rez à jamais Attendez-moi, attendez-moi S'il vous plaît J'vous rejoindrai, j'vous rejoindrai Tôt ou tard, tôt ou tard Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi, attendez-moi4</t>
+          <t>Han ! Yonea Willy Willy Yonea Guiz' Et tous les autres G.P. Gang ! Sonny Digital Attendez-moi, attendez-moi, attendez-moi, attendez-moi S'il vous plaît, attendez-moi J'ai vu nos vies seffriter Venir s'écraser dans le cendar J'voulais me changer les idées Mais ils ont tué un de mes semblables Pow Et j'ai pleuré sur tant de tombes Crois-moi, j'en ai perdu du monde J'croyais qu'on avait rien à craindre Non Mais ça s'est fait en trente secondes Mes erreurs, c'est pas ta faute J't'en supplie, de tout là haut Sèche tes larmes Rappelle-toi mon sourire et tous nos fous rires avant que viennent les drames Je sais qu'c'est grave Je sais On a tous fini balafrés On a promis de pas lâcher Ouais On a fait tout l'inverse par lâcheté Ouais On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes On s'en sort plus sans nos surettes On s'en sort plus sans nos négros On s'en sort plus sans nos frérots On s'en sort plus sans nos frérots On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes J'me suis demandé pourquoi, j'ai jamais trouvé Mon pote a mis une rotte-ca, il s'est fait trouer Et ça s'est passé dans la tess' d'à côté hier soir On a connu la hess, traîné dans les mêmes squares On voulait de la fraîche de Villeneuve à bés-Bar Toujours dans les émeutes, on caillassait les mêmes shtars Mais qu'est-ce qui nous arrive ? J'ai l'impression qu'on pète les plombs Et moi j'suis trop naïf J'crois qu'j'vais tout régler avec des sons C'est faux, c'est faux Souvent la vie n'a pas de pitié Frérot, frérot Y a pas d'amour, ni d'amitié Tous ces gens sont mauvais Mais on n'est pas mieux qu'eux Ulysse t'as vu, t'as un petit neveu Noir c'est noir, y a plus d'espoir Laissez-moi vivre, laissez-moi survivre Laissez-moi vivre, laissez-moi survivre Laissez-moi vivre, laissez-moi survivre Motherfuck' On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes On s'en sort plus sans nos surettes On s'en sort plus sans nos négros On s'en sort plus sans nos frérots On s'en sort plus sans nos frérots On s'en sort plus sans nos darons On s'en sort plus sans nos daronnes Vous me manqu'rez à jamais Attendez-moi, attendez-moi, attendez-moi Vous me manqu'rez à jamais, manqu'rez à jamais Attendez-moi, attendez-moi S'il vous plaît J'vous rejoindrai, j'vous rejoindrai Tôt ou tard, tôt ou tard Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi Attendez-moi, attendez-moi, attendez-moi4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'ai déjà pensé à la fin, pourtant j'en suis qu'au début J'peux encore m'tenir debout et assumer mon débit Combien d'temps ça va durer ? J'en sais rien Quand j'veux stopper, une voix vient me susurrer qu'j'en ai b'soin Pourtant je sais bien qu'c'est faux, putain c'est dingue, c'est chaud À croire qu'ça m'aide à oublier que j'ai plein d'défauts En fait j'suis pensif, j'sais pas trop où j'veux en venir Et si j'tourne autour du pot c'est pour mieux l'remplir tu vois c'que j'veux dire ? D'l'argent pour mes proches et la ZS au top, là tu vois c'que j'veux vivre Faut qu'j'me concentre, que j'sois scred, et que j'aille dans la bonne direction Faut du bon sens dans mes cahiers pour être au top quand j'vais kicker l'son Faut qu'j'parle à ma génération, que j'les calme un peu Parce que, crois-moi, ils sont vénèr à fond ! Font que zoner sous les tours, contrôlés à tous les coups Tout à prendre, rien à donner, donc forcément ils jouent des coudes Tant qu'il y'a des sommes pour eux c'est cool, mais l'téléphone est sur écoute Une commission, un mandat, des menottes et tout s'écroule J'essuie ma peine et j'm'accroche, c'matin j'parlais avec un pote Il avait 18 mois ferme dans la poche, putain J'sais même pas quoi penser, à part qu'ça doit changer C'est quand tu t'es cassé la cheville que tu les vois danser C'est quand t'as rien dans l'bide que tu vois qu'ils bouffent Et c'est seulement quand tu t'étouffes que tu t'aperçois qu'ils soufflent C'est ma vision d'la chose, c'est comme ça, t'as ou t'as pas Alors bats-toi pour ta part avant d'finir au tapis, t'as vu ? J'gratte le papier, ils grattent des thunes J'me casse la tête, ça casse les burnes J'fais pas la fête, c'est rap et stud' J'suis moins au quartier, moins dans ma cave Moins dans les dièses crades, mais j'suis bien dans ma vibe Des fois j'me laisse aller, j'm'en donne le droit de rêver Des disques d'or, une villa et trois ou quatre Féfés J'suis ce p'tit, qu'a étonné les doyens Mais une fois alcoolisé j'ai comme du mal à m'donner les moyens Comme du mal à faire le vide... la rue me manque Des fois j'me vois péter les plombs et m'remettre au deal, me remettre au vol À la bagarre, aux escroqueries, c'est pas des conneries Dans ma nouvelle vie y'a que des mecs trop peace, c'est bizarre hein ? Dans la rue j'avais des problèmes, et même eux ils me manquent Faut qu'je fasse le tri, j'ai des potes qui m'ont baisé la gueule J'ai pété les plombs et j'ai blessé ma feuille J'ai fumé du shit, énervé, stressé, angoissé Comme une envie d'buter du flic Comme une envie d'partir mais ma passion m'oblige à rester là J'aime quand ça kicke dans les concerts j'aime quand ça lève les bras En fait je pige plus, des fois j'ai envie de tout plaquer Des fois j'me vois crever pour la sique-mu, j'hésite plus Si y'a du flouze à prendre, on l'prend Si y'a un cou à pendre, on l'pend J'en ai marre des états d'âme, moi j'veux changer la donne Pourquoi pas quitter Paname pour écrire le prochain album ? En attendant j'suis là, j'me tue à la tâche Rimes sales, freestyles, j'fais ce truc à l'arrache J'suis pas dans celui de la mienne, j'suis dans le ul-c à ta femme Les mc's grattent sur iPhone donc ils sont plus à la page J'ai mis un bail avant d'quitter mon quartier Avant d'comprendre que mon salut c'était mon Bic et mon cahier Des enfoirés m'en veulent, pensent que j'suis millionnaire Ils ont pas vu ma gueule, moi j'suis qu'un visionnaire J'suis encore loin de mon dernier tour de piste J'espère que c'est pareil pour mon dernier jour de vie J'me vois mal crever tout d'suite starf'Allah À deux pas d'la réussite, j'vois ma mère en larmes après ce coup d'fil... Priant pour qu'on m'ressuscite Non, sérieux, Paris c'est moche, il faut s'faire la belle Le déficit, rien dans les poches, hé ouais ça fait d'la peine Ça fait des délinquants, des mômes qui vont faire le mur 10 ans plus tard, ils ont des gov' et une paire de burnes Ils ont des armes, des spliffs au bec, serrent des femmes en discothèque Passent du gramme, au kilo d'herbe, à cause de ça les flics aux fesses Voilà mon constat, on a du mal a rester constant En fait il est vraiment temps qu'on s'tire J'ai soif de victoire, j'suis pas là pour figurer À ma famille j'ai juré que j'marquerai l'histoire Wesh Maman, elle est loin l'époque du foyer Maintenant on a de quoi payer le loyer Ouais les sous ça va, mais c'est la merde à la son-mai On croyait qu'c'était un bon, on s'est trompés J'suis pas mélancolique, j'raconte juste un passé pas facile Avec toutes ces merdes j'aurais pu aller à l'asile J'étais désorienté, des gens biens m'ont ouvert la porte Et j'ai pas fait l'effort d'entrer M'demande pas pourquoi, même moi j'en sais rien Mais s'il faut trouver des excuses, t'inquiète pas, j'en ai plein C'est la nature de l'Homme, on s'ment pour se rassurer Même si on est conscients que ça va pas durer J'ai qu'ma bite et mon couteau, t'façon il m'en faut pas plus Pour claquer des schnecks et schlasser des traîtres Les armes et l'espèce, y'en a plein qui en sont morts À force de tenir les murs, bah on fait que pleurer nos mères Faut qu'on trouve l'échappatoire, on est voués à la gloire Même si on nous donne perdants depuis le Cours Préparatoire Et même sans poison, l'antidote se pavane Un oinj', une boisson, les antipops de Paname Demande à Rémi Rem de Météore, à Matthieu de Planète Sun Face à toutes mes punchs' ils ont pas assez d'gun J'flingue sur le rap, bien sûr j'veux brasser Si j'fais un feat y'a qu'des dingues sur le track du genre Lascar Cayenne, Saké, Zakariens Laisse-les ricaner c'est nous qu'on va s'marrer à la fin C'est sûr qu'depuis qu'j'pratique... j'suis perçu comme un mec énigmatique J'm'applique à faire fusionner fond et forme À écrire des images pour implanter mon décor Y'a pas qu'du shit et d'la bière, y'a des amis, y'a ma mère Y'a tous les mecs avec qui j'ai connu la vie de galère Écrire des rimes je savais que ce serait risqué Parce que tu triples de salaire quand t'enlèves le slip que t'avais Comment se vider la tête, dans cette industrie ? Ils ont faim du fric et pour l'avoir ils font du vice de femmelette J'avoue c'est triste de l'admettre, mais c'est véridique On nous élimine quand on sort pas d'un réseau élitiste Mais j'suis pas pessimiste, on s'en sortira Au pire les pieds devant, allongés dans un corbillard C'est toujours mieux que de vivre en chien, à pachave dans l'métro À te ressasser l'époque où t'étais l'pacha dans l'ghetto Bah ouais ça va méga-vite, quand t'en fais les frais Tu peux rouler des mécaniques et le lendemain mendier des pièces Pour boire un peu d'vinaigre, taper d'la came Dans l'noir avec 10 mecs, frappés du crâne, non ! Il faut des centaines de milliers, des millions, des milliards Des virées des histoires à raconter à nos progénitures inch'Allah Du genre En 2011 j'ai sorti un projet qui tue À l'époque, j'étais tox' et alcoolique, j'me tuais à la zeb' J'y ai laissé des neurones, petit ne fais pas la même Ou tu goûteras ma ceinture, comme j'ai goûté celle de mon père J'taperai par amour pour que tu manques pas de repères Voilà deux trois trucs que j'dirais à mon fils NTM avait raison il faudra pas qu'il glisse Laisse-moi j'suis dans ma ruche J'écris avec la rage, j'cherche une solution pour devenir riche J'en ai marre de courir après les lovés J'voudrais qu'ils viennent à moi pour qu'ensemble on puisse se sauver Qu'est-c'que t'as fait de ta... vie ? J'ken le rap, bêtes de phases dès qu'je gratte et toi ? Qu'est-c'que t'as fait de ta... rime ? Dis-moi... Tu l'as travesti pour du fric BoisDeBoulogne Tu lui as fait baissé son slip BoisDeBoulogne On n'est pas pareil tu t'crois en Jamaïque à Paris-Plage Moi c'est dans ma grotte que j'écoute Vybz Kartel Bédave la beuh devant les bleus, finit avec les yeux rouges Bicrave d'la marron dans le noir, c'est plus des gueush' c'est des oufs Wesh sista, j'sais qu'tu suces mais j'suis pas une glace J'veux juste gratter ma place, bref... j'sais qu'tu suces, voilà Les MCs c'est tous des 'tasses, wAllah T'as beau parler d'rafale, on va t'faire avaler Cousin j'sais qu'tu suces, d'ailleurs faut qu't'arrêtes Tu cé-su bien en c'moment tu pompes pour un oinj Nous on roule des barrettes J'ai plus envie d'faire semblant qu'ça va J'veux pas d'ton feat, j'veux pas entendre ta voix T'as aucune éthique t'es qu'une langance-baga À quoi bon faire le fou ? Tu t'travestis pour ton rap, pour gagner les bacs Saches que tu perds le zoo, tu perds ta réputation pour monter ta côte Mais cirer les bottes ça fait pas partie d'notre éducation On s'est jurés d'être fiers et dignes, de protéger mères et fils Quitte à être un requin à la Jr. Ewing J'reste fort et indomptable Depuis qu'tes potes se sont retournés contre moi Parce que j'ai signé un contrat On marchait ensemble putain, on était comme cul et chemise J'commence à peine à m'en sortir qu'ils veulent tuer l'Guiz Tu sais quoi ? Ça m'a donné deux fois plus de force que jamais Vu le mord que j'avais Yonea Willy, Willy Yonea 92, Villeneuve-La-Garenne 94, logne-Po You might also likeC'est tout RapGenius France17</t>
+          <t>J'ai déjà pensé à la fin, pourtant j'en suis qu'au début J'peux encore m'tenir debout et assumer mon débit Combien d'temps ça va durer ? J'en sais rien Quand j'veux stopper, une voix vient me susurrer qu'j'en ai b'soin Pourtant je sais bien qu'c'est faux, putain c'est dingue, c'est chaud À croire qu'ça m'aide à oublier que j'ai plein d'défauts En fait j'suis pensif, j'sais pas trop où j'veux en venir Et si j'tourne autour du pot c'est pour mieux l'remplir tu vois c'que j'veux dire ? D'l'argent pour mes proches et la ZS au top, là tu vois c'que j'veux vivre Faut qu'j'me concentre, que j'sois scred, et que j'aille dans la bonne direction Faut du bon sens dans mes cahiers pour être au top quand j'vais kicker l'son Faut qu'j'parle à ma génération, que j'les calme un peu Parce que, crois-moi, ils sont vénèr à fond ! Font que zoner sous les tours, contrôlés à tous les coups Tout à prendre, rien à donner, donc forcément ils jouent des coudes Tant qu'il y'a des sommes pour eux c'est cool, mais l'téléphone est sur écoute Une commission, un mandat, des menottes et tout s'écroule J'essuie ma peine et j'm'accroche, c'matin j'parlais avec un pote Il avait 18 mois ferme dans la poche, putain J'sais même pas quoi penser, à part qu'ça doit changer C'est quand tu t'es cassé la cheville que tu les vois danser C'est quand t'as rien dans l'bide que tu vois qu'ils bouffent Et c'est seulement quand tu t'étouffes que tu t'aperçois qu'ils soufflent C'est ma vision d'la chose, c'est comme ça, t'as ou t'as pas Alors bats-toi pour ta part avant d'finir au tapis, t'as vu ? J'gratte le papier, ils grattent des thunes J'me casse la tête, ça casse les burnes J'fais pas la fête, c'est rap et stud' J'suis moins au quartier, moins dans ma cave Moins dans les dièses crades, mais j'suis bien dans ma vibe Des fois j'me laisse aller, j'm'en donne le droit de rêver Des disques d'or, une villa et trois ou quatre Féfés J'suis ce p'tit, qu'a étonné les doyens Mais une fois alcoolisé j'ai comme du mal à m'donner les moyens Comme du mal à faire le vide... la rue me manque Des fois j'me vois péter les plombs et m'remettre au deal, me remettre au vol À la bagarre, aux escroqueries, c'est pas des conneries Dans ma nouvelle vie y'a que des mecs trop peace, c'est bizarre hein ? Dans la rue j'avais des problèmes, et même eux ils me manquent Faut qu'je fasse le tri, j'ai des potes qui m'ont baisé la gueule J'ai pété les plombs et j'ai blessé ma feuille J'ai fumé du shit, énervé, stressé, angoissé Comme une envie d'buter du flic Comme une envie d'partir mais ma passion m'oblige à rester là J'aime quand ça kicke dans les concerts j'aime quand ça lève les bras En fait je pige plus, des fois j'ai envie de tout plaquer Des fois j'me vois crever pour la sique-mu, j'hésite plus Si y'a du flouze à prendre, on l'prend Si y'a un cou à pendre, on l'pend J'en ai marre des états d'âme, moi j'veux changer la donne Pourquoi pas quitter Paname pour écrire le prochain album ? En attendant j'suis là, j'me tue à la tâche Rimes sales, freestyles, j'fais ce truc à l'arrache J'suis pas dans celui de la mienne, j'suis dans le ul-c à ta femme Les mc's grattent sur iPhone donc ils sont plus à la page J'ai mis un bail avant d'quitter mon quartier Avant d'comprendre que mon salut c'était mon Bic et mon cahier Des enfoirés m'en veulent, pensent que j'suis millionnaire Ils ont pas vu ma gueule, moi j'suis qu'un visionnaire J'suis encore loin de mon dernier tour de piste J'espère que c'est pareil pour mon dernier jour de vie J'me vois mal crever tout d'suite starf'Allah À deux pas d'la réussite, j'vois ma mère en larmes après ce coup d'fil... Priant pour qu'on m'ressuscite Non, sérieux, Paris c'est moche, il faut s'faire la belle Le déficit, rien dans les poches, hé ouais ça fait d'la peine Ça fait des délinquants, des mômes qui vont faire le mur 10 ans plus tard, ils ont des gov' et une paire de burnes Ils ont des armes, des spliffs au bec, serrent des femmes en discothèque Passent du gramme, au kilo d'herbe, à cause de ça les flics aux fesses Voilà mon constat, on a du mal a rester constant En fait il est vraiment temps qu'on s'tire J'ai soif de victoire, j'suis pas là pour figurer À ma famille j'ai juré que j'marquerai l'histoire Wesh Maman, elle est loin l'époque du foyer Maintenant on a de quoi payer le loyer Ouais les sous ça va, mais c'est la merde à la son-mai On croyait qu'c'était un bon, on s'est trompés J'suis pas mélancolique, j'raconte juste un passé pas facile Avec toutes ces merdes j'aurais pu aller à l'asile J'étais désorienté, des gens biens m'ont ouvert la porte Et j'ai pas fait l'effort d'entrer M'demande pas pourquoi, même moi j'en sais rien Mais s'il faut trouver des excuses, t'inquiète pas, j'en ai plein C'est la nature de l'Homme, on s'ment pour se rassurer Même si on est conscients que ça va pas durer J'ai qu'ma bite et mon couteau, t'façon il m'en faut pas plus Pour claquer des schnecks et schlasser des traîtres Les armes et l'espèce, y'en a plein qui en sont morts À force de tenir les murs, bah on fait que pleurer nos mères Faut qu'on trouve l'échappatoire, on est voués à la gloire Même si on nous donne perdants depuis le Cours Préparatoire Et même sans poison, l'antidote se pavane Un oinj', une boisson, les antipops de Paname Demande à Rémi Rem de Météore, à Matthieu de Planète Sun Face à toutes mes punchs' ils ont pas assez d'gun J'flingue sur le rap, bien sûr j'veux brasser Si j'fais un feat y'a qu'des dingues sur le track du genre Lascar Cayenne, Saké, Zakariens Laisse-les ricaner c'est nous qu'on va s'marrer à la fin C'est sûr qu'depuis qu'j'pratique... j'suis perçu comme un mec énigmatique J'm'applique à faire fusionner fond et forme À écrire des images pour implanter mon décor Y'a pas qu'du shit et d'la bière, y'a des amis, y'a ma mère Y'a tous les mecs avec qui j'ai connu la vie de galère Écrire des rimes je savais que ce serait risqué Parce que tu triples de salaire quand t'enlèves le slip que t'avais Comment se vider la tête, dans cette industrie ? Ils ont faim du fric et pour l'avoir ils font du vice de femmelette J'avoue c'est triste de l'admettre, mais c'est véridique On nous élimine quand on sort pas d'un réseau élitiste Mais j'suis pas pessimiste, on s'en sortira Au pire les pieds devant, allongés dans un corbillard C'est toujours mieux que de vivre en chien, à pachave dans l'métro À te ressasser l'époque où t'étais l'pacha dans l'ghetto Bah ouais ça va méga-vite, quand t'en fais les frais Tu peux rouler des mécaniques et le lendemain mendier des pièces Pour boire un peu d'vinaigre, taper d'la came Dans l'noir avec 10 mecs, frappés du crâne, non ! Il faut des centaines de milliers, des millions, des milliards Des virées des histoires à raconter à nos progénitures inch'Allah Du genre En 2011 j'ai sorti un projet qui tue À l'époque, j'étais tox' et alcoolique, j'me tuais à la zeb' J'y ai laissé des neurones, petit ne fais pas la même Ou tu goûteras ma ceinture, comme j'ai goûté celle de mon père J'taperai par amour pour que tu manques pas de repères Voilà deux trois trucs que j'dirais à mon fils NTM avait raison il faudra pas qu'il glisse Laisse-moi j'suis dans ma ruche J'écris avec la rage, j'cherche une solution pour devenir riche J'en ai marre de courir après les lovés J'voudrais qu'ils viennent à moi pour qu'ensemble on puisse se sauver Qu'est-c'que t'as fait de ta... vie ? J'ken le rap, bêtes de phases dès qu'je gratte et toi ? Qu'est-c'que t'as fait de ta... rime ? Dis-moi... Tu l'as travesti pour du fric BoisDeBoulogne Tu lui as fait baissé son slip BoisDeBoulogne On n'est pas pareil tu t'crois en Jamaïque à Paris-Plage Moi c'est dans ma grotte que j'écoute Vybz Kartel Bédave la beuh devant les bleus, finit avec les yeux rouges Bicrave d'la marron dans le noir, c'est plus des gueush' c'est des oufs Wesh sista, j'sais qu'tu suces mais j'suis pas une glace J'veux juste gratter ma place, bref... j'sais qu'tu suces, voilà Les MCs c'est tous des 'tasses, wAllah T'as beau parler d'rafale, on va t'faire avaler Cousin j'sais qu'tu suces, d'ailleurs faut qu't'arrêtes Tu cé-su bien en c'moment tu pompes pour un oinj Nous on roule des barrettes J'ai plus envie d'faire semblant qu'ça va J'veux pas d'ton feat, j'veux pas entendre ta voix T'as aucune éthique t'es qu'une langance-baga À quoi bon faire le fou ? Tu t'travestis pour ton rap, pour gagner les bacs Saches que tu perds le zoo, tu perds ta réputation pour monter ta côte Mais cirer les bottes ça fait pas partie d'notre éducation On s'est jurés d'être fiers et dignes, de protéger mères et fils Quitte à être un requin à la Jr. Ewing J'reste fort et indomptable Depuis qu'tes potes se sont retournés contre moi Parce que j'ai signé un contrat On marchait ensemble putain, on était comme cul et chemise J'commence à peine à m'en sortir qu'ils veulent tuer l'Guiz Tu sais quoi ? Ça m'a donné deux fois plus de force que jamais Vu le mord que j'avais Yonea Willy, Willy Yonea 92, Villeneuve-La-Garenne 94, logne-Po C'est tout RapGenius France17</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L'Entourage, bébé DJ Lo', Guizmo, 92 La Caravelle, tour des Feujs, poto Villeneuve Les yeux rouges, purple, mec, j'ai le blues d'Urkel tchek' Si tes troupes veulent me test, Guizmo shoote leurs gueules sec J'suis un foureur de schneks, elles s'arrachent le Guiz A croire que si j'amasse le biff, elles en profiteront C'est hors de question, j'suis pas un beau p'tit con J'trempe mon saucisson et j'taille, c'est c'que les OG's font Mets-toi en position, c'est la guerre, p'tit J't'avertis, c'est dur donc déserte ou fais tes provisions Nique la police et l'juge c'est signé la banquise Moi j'ai trop tisé de us-j, j'ai kické ma hantise L'équipe est affranchie, tu connais les bails Du rhum et des tasses et Nekfeu a peut-être niqué ta frangine J'aime kicker tard en ville, mec, signer ça rend libre J'ai plus l'impression qu'ma destiné part en vrille Ves-qui les darmes-gen vite quand j'ai des barrettes Sans gêne et à l'aise traîne, weed et 'sky dans l'bide J'reste illégal dans l'biz mais pas pour longtemps Stress, deal et accent street c'est l'parcours qu'on prend ×2 5 'teilles de Ballantine's, c'est normal Quand les deks prennent mes gars en flag', on dort mal Et je tords ça quand je rime, j'adore ça quand tu cries Tous ces gangstas sont futiles et c'est normal dans ce biz' You might also like Haut les mains, videz les poches et les sacs Moi j'veux l'or et les thunes pour croquer les studs et donner des thunes Moi j'dis fuck les études, les procs' et les stups Les tox' et les putes qui t'bouffent la bite quand ta drogue elle est pure Cousin, moi, j'en ai trop fait c'est sûr J'ai crossé des gus, motif les potes et les culs Mais faut qu'ça change, marre de s'frotter les burnes De frauder dans l'tro-mé, puis d'stocker des prunes Fait chier ! Il a flotté toute la semaine Mais j'ai quand même trainé dehors, shit en dessous d'la semelle Bah, ouais ! Mais t'façon, y'a quoi d'mieux à faire ? S'tailler ? S'caner ? Dis-moi, y'a quoi d'mieux à faire, putain ! T'es mort si tu fais partie des tendres Alors c'est la tise, les bandes, évolue parmi les grands Tu captes ? J'crois qu'ouais, j'te fais pas d'dessin J'veux palper zinc' et dans mon zoo ya pas qu'des singes ×3 5 'teilles de Ballantine's, c'est normal Quand les deks prennent mes gars en flag', on dort mal Et je tords ça quand je rime, j'adore ça quand tu cries Tous ces gangstas sont futiles et c'est normal dans ce biz'11</t>
+          <t>L'Entourage, bébé DJ Lo', Guizmo, 92 La Caravelle, tour des Feujs, poto Villeneuve Les yeux rouges, purple, mec, j'ai le blues d'Urkel tchek' Si tes troupes veulent me test, Guizmo shoote leurs gueules sec J'suis un foureur de schneks, elles s'arrachent le Guiz A croire que si j'amasse le biff, elles en profiteront C'est hors de question, j'suis pas un beau p'tit con J'trempe mon saucisson et j'taille, c'est c'que les OG's font Mets-toi en position, c'est la guerre, p'tit J't'avertis, c'est dur donc déserte ou fais tes provisions Nique la police et l'juge c'est signé la banquise Moi j'ai trop tisé de us-j, j'ai kické ma hantise L'équipe est affranchie, tu connais les bails Du rhum et des tasses et Nekfeu a peut-être niqué ta frangine J'aime kicker tard en ville, mec, signer ça rend libre J'ai plus l'impression qu'ma destiné part en vrille Ves-qui les darmes-gen vite quand j'ai des barrettes Sans gêne et à l'aise traîne, weed et 'sky dans l'bide J'reste illégal dans l'biz mais pas pour longtemps Stress, deal et accent street c'est l'parcours qu'on prend ×2 5 'teilles de Ballantine's, c'est normal Quand les deks prennent mes gars en flag', on dort mal Et je tords ça quand je rime, j'adore ça quand tu cries Tous ces gangstas sont futiles et c'est normal dans ce biz' Haut les mains, videz les poches et les sacs Moi j'veux l'or et les thunes pour croquer les studs et donner des thunes Moi j'dis fuck les études, les procs' et les stups Les tox' et les putes qui t'bouffent la bite quand ta drogue elle est pure Cousin, moi, j'en ai trop fait c'est sûr J'ai crossé des gus, motif les potes et les culs Mais faut qu'ça change, marre de s'frotter les burnes De frauder dans l'tro-mé, puis d'stocker des prunes Fait chier ! Il a flotté toute la semaine Mais j'ai quand même trainé dehors, shit en dessous d'la semelle Bah, ouais ! Mais t'façon, y'a quoi d'mieux à faire ? S'tailler ? S'caner ? Dis-moi, y'a quoi d'mieux à faire, putain ! T'es mort si tu fais partie des tendres Alors c'est la tise, les bandes, évolue parmi les grands Tu captes ? J'crois qu'ouais, j'te fais pas d'dessin J'veux palper zinc' et dans mon zoo ya pas qu'des singes ×3 5 'teilles de Ballantine's, c'est normal Quand les deks prennent mes gars en flag', on dort mal Et je tords ça quand je rime, j'adore ça quand tu cries Tous ces gangstas sont futiles et c'est normal dans ce biz'11</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>This man is in your control Just a word from you You light my world with a billion stars And make my dreams come true Guizigui Kadhafigui Figuis de pugute J'vais te niquer ta regueum Moi j'suis posé avec l'équipe on a la dalle tu sais On débarque dans ta breuch' et de la chatte tu saignes Tu remarques le sex-appeal, tu regardes mon Vis-lé tu sais que ça brille Et de la journée tu seras ma 8ème pétasse J't'emmènerai au 7ème ciel, au 18ème étage Si t'es charmante et que t'es une vraie beauté T'auras le droit à mon bre-chi dans ton gros GN Ne sois pas vex' si tu n'es pas la seule T'auras le maximum si tu n'as pas le seum Laisse-moi le temps de m'occuper de tes copines On m'a dit que Charlotte et Lucie c'était des coquines Et si t'as des seins de ouf et des jambes de femme Je visiterais ta fouf et je serais un gentleman Ramène tes copines, j'te présenterai mon clan Vous ouvrirez la bouche et dégusterez mon gland You might also like Ouais ouais j'allume ma clope Ouais on fait du sexe mais t'es juste ma pote T'inquiète avec moi t'en auras pour ton grade Avec Guizmo t'oblieras même ton gars J'ai la dalle j'serai aussi violent qu'au Pride Après mon passage faudra changer les draps Attention réveille pas tes parents De ton plaisir je me porte garant T'es celle qu'il me faut si tu fais le grand écart Dans ton gros pétard j'vais tremper mon dard T'as l'air pressée qu'on fasse la farandole Bah ouais mais attends que tes parents dorment T'as envie ? Tu n'es pas en tort non Mais excité, je ne suis pas encore non Si t'es chaude t'allumeras mon cigare C'est quand même suspect que tu sois excitée si tard Je ferai selon tes préférences ou références Et tard dans la nuit je tirerai ma révérence J'suis pas comme ces mecs que t'as mis sur la touche On le fera dans ta chambre, cuisine et même sous la douche Ouais on évitera les bisous sur la bouche Car j'veux pas d'sentiments, l'important c'est qu'on couche Sale putain de catin, sale putain de catin Ouais ouais j'allume ma clope Ouais on fait du sexe mais t'es juste ma pote T'inquiète avec moi t'en auras pour ton grade Avec Guizmo t'oublieras même ton gars J'ai la dalle j'serai aussi violent qu'au Pride Après mon passage faudra changer les draps Attention réveille pas tes parents De ton plaisir je me porte garant Encore mieux si t'habites dans le 7e loin de chez moi Sale putain de sale pute8</t>
+          <t>This man is in your control Just a word from you You light my world with a billion stars And make my dreams come true Guizigui Kadhafigui Figuis de pugute J'vais te niquer ta regueum Moi j'suis posé avec l'équipe on a la dalle tu sais On débarque dans ta breuch' et de la chatte tu saignes Tu remarques le sex-appeal, tu regardes mon Vis-lé tu sais que ça brille Et de la journée tu seras ma 8ème pétasse J't'emmènerai au 7ème ciel, au 18ème étage Si t'es charmante et que t'es une vraie beauté T'auras le droit à mon bre-chi dans ton gros GN Ne sois pas vex' si tu n'es pas la seule T'auras le maximum si tu n'as pas le seum Laisse-moi le temps de m'occuper de tes copines On m'a dit que Charlotte et Lucie c'était des coquines Et si t'as des seins de ouf et des jambes de femme Je visiterais ta fouf et je serais un gentleman Ramène tes copines, j'te présenterai mon clan Vous ouvrirez la bouche et dégusterez mon gland Ouais ouais j'allume ma clope Ouais on fait du sexe mais t'es juste ma pote T'inquiète avec moi t'en auras pour ton grade Avec Guizmo t'oblieras même ton gars J'ai la dalle j'serai aussi violent qu'au Pride Après mon passage faudra changer les draps Attention réveille pas tes parents De ton plaisir je me porte garant T'es celle qu'il me faut si tu fais le grand écart Dans ton gros pétard j'vais tremper mon dard T'as l'air pressée qu'on fasse la farandole Bah ouais mais attends que tes parents dorment T'as envie ? Tu n'es pas en tort non Mais excité, je ne suis pas encore non Si t'es chaude t'allumeras mon cigare C'est quand même suspect que tu sois excitée si tard Je ferai selon tes préférences ou références Et tard dans la nuit je tirerai ma révérence J'suis pas comme ces mecs que t'as mis sur la touche On le fera dans ta chambre, cuisine et même sous la douche Ouais on évitera les bisous sur la bouche Car j'veux pas d'sentiments, l'important c'est qu'on couche Sale putain de catin, sale putain de catin Ouais ouais j'allume ma clope Ouais on fait du sexe mais t'es juste ma pote T'inquiète avec moi t'en auras pour ton grade Avec Guizmo t'oublieras même ton gars J'ai la dalle j'serai aussi violent qu'au Pride Après mon passage faudra changer les draps Attention réveille pas tes parents De ton plaisir je me porte garant Encore mieux si t'habites dans le 7e loin de chez moi Sale putain de sale pute8</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Le premier chagrin du jour, han, le premier chagrin du jour C'est la porte qui se ferme, ça va mal dès qu'j'me lève, 92, La Caravelle Le premier chagrin du jour, Guizmo, L'Entourage, pour les miens et tous les autres C'est la porte qui se ferme, qui savent c'que c'est J'fais pas l'mytho, parfois j'picole, le premier chagrin du jour Ouais, j'fais pas l'mytho, parfois j'picole, c'est la porte qui se ferme Et tu sais c'que c'est J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer puis se déchirer, j'en vois qui souffrent le martyr J'ai décidé d'éviter tout ce que j'admire car on m'le f'ra payer le jour de partir Qu'il est fou ce regard triste, abîmé par la vie, chagriné par la tise, chaque jour, attiré par la street On a les crocs dans ma ville parce qu'on est trop dans la mouise À Villeneuve, les rimes pleuvent, on a du flow en cabine, putain, j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière, j'me bute la tête avec mes deux joints d'shit Ce mode de vie me tue, les potes de rue me suivent Les porcs, je pisse dessus, j'm'efforce de vivre ici et fuck les p'tites tes-pu Et j'donne des rimes de brutes, elles sont tabous, les potes méditent dessus chaque jour et boxent les fils de putes Le premier chagrin du jour, le premier chagrin du jour, cousin C'est la porte qui se ferme, infernal, j'connais ça ouais Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, check You might also like Cousin, j'ai trop maigri j'm'assassine le foie, j'ai un gros débit j'm'aplatis le crane, mec il faut qu'j'réduise Les bimbos sexy savent pas si je brasse, pas facile de m'voir, qu'à part si j'me crashe, elles sont possessives Banalise le hasch', dans l'ghetto, j'effrite un cannabis de barge, dans l'rétro des flics, j'analyse le rap Et c'en est trop, j'hésite m'avachir ce soir autour d'un spliff et un verre Kicker un diéz' Guizmo juste un beat et un frère Et j'ai mille et un textes, là j'vais tiser un verre puis j'me taperai une p'tite pute avec un dîner infect Et griller un pét' pour oublier qu'je souffre hardcore, c'est tout c'que j'adore, sans ça j'mène un blues de rat mort Et griller un pét' pour oublier qu'je souffre hardcore, c'est tout c'que j'adore, sans ça j'mène un blues de rat mort Le premier chagrin du jour, le premier chagrin du jour, cousin C'est la porte qui se ferme, infernal, j'connais ça ouais Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, check Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, c'est pour les miens et tous les autres Le premier chagrin du jour, mes sales manies, c'est trop malsain C'est la porte qui se ferme, ouais, mes sales manies, c'est trop malsain 92, La Caravelle, Zone Sensible, bleh10</t>
+          <t>Le premier chagrin du jour, han, le premier chagrin du jour C'est la porte qui se ferme, ça va mal dès qu'j'me lève, 92, La Caravelle Le premier chagrin du jour, Guizmo, L'Entourage, pour les miens et tous les autres C'est la porte qui se ferme, qui savent c'que c'est J'fais pas l'mytho, parfois j'picole, le premier chagrin du jour Ouais, j'fais pas l'mytho, parfois j'picole, c'est la porte qui se ferme Et tu sais c'que c'est J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer puis se déchirer, j'en vois qui souffrent le martyr J'ai décidé d'éviter tout ce que j'admire car on m'le f'ra payer le jour de partir Qu'il est fou ce regard triste, abîmé par la vie, chagriné par la tise, chaque jour, attiré par la street On a les crocs dans ma ville parce qu'on est trop dans la mouise À Villeneuve, les rimes pleuvent, on a du flow en cabine, putain, j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière, j'me bute la tête avec mes deux joints d'shit Ce mode de vie me tue, les potes de rue me suivent Les porcs, je pisse dessus, j'm'efforce de vivre ici et fuck les p'tites tes-pu Et j'donne des rimes de brutes, elles sont tabous, les potes méditent dessus chaque jour et boxent les fils de putes Le premier chagrin du jour, le premier chagrin du jour, cousin C'est la porte qui se ferme, infernal, j'connais ça ouais Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, check Cousin, j'ai trop maigri j'm'assassine le foie, j'ai un gros débit j'm'aplatis le crane, mec il faut qu'j'réduise Les bimbos sexy savent pas si je brasse, pas facile de m'voir, qu'à part si j'me crashe, elles sont possessives Banalise le hasch', dans l'ghetto, j'effrite un cannabis de barge, dans l'rétro des flics, j'analyse le rap Et c'en est trop, j'hésite m'avachir ce soir autour d'un spliff et un verre Kicker un diéz' Guizmo juste un beat et un frère Et j'ai mille et un textes, là j'vais tiser un verre puis j'me taperai une p'tite pute avec un dîner infect Et griller un pét' pour oublier qu'je souffre hardcore, c'est tout c'que j'adore, sans ça j'mène un blues de rat mort Et griller un pét' pour oublier qu'je souffre hardcore, c'est tout c'que j'adore, sans ça j'mène un blues de rat mort Le premier chagrin du jour, le premier chagrin du jour, cousin C'est la porte qui se ferme, infernal, j'connais ça ouais Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, check Le premier chagrin du jour, c'est la porte qui se ferme C'est la porte qui se ferme, c'est pour les miens et tous les autres Le premier chagrin du jour, mes sales manies, c'est trop malsain C'est la porte qui se ferme, ouais, mes sales manies, c'est trop malsain 92, La Caravelle, Zone Sensible, bleh10</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Zone Sensible Yonea Willy, Willy Yonea Woop Ma mère va m'enterrer à 31 Parce que j'ai niqué mon foie, mon pancréas Sors ton pocheton, vas-y on s'en fait un On est beaux, on est jeunes, on réalise pas que Ce sera la merde le jour où ils légalisent la beuh Mais pour l'instant j'm'en fous, j'ai qu'vingt et une piges Des joints et du biff, au bois d'Vincennes, j'vais m'rincer une pipe Et j'irai boire histoire de noyer mon chagrin Maman culpabilise pas, t'as bien choyé ton gamin Mais j'me sens seul et le monde est froid, il est glacial Alors j'suis d'ceux qui ouvrent leurs gueules et qui font des choix Alors oui, j'ai choisi d'me guer-dro Une sale mine, levé tôt, la fatigue, le métro Des nuits entières à réfléchir dans l'vide À sentir mon foie se rétrécir dans l'bide Ouais, j'me la cogne, en cachette gentiment Il s'ra sûrement trop tard si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street You might also like Et nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais, nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais, il sera sûrement trop tard avec un ulcère et les poumons percés Mes adultères et mes millions d'péchés Et y'a tout c'monde perché, la coke est à la mode J'vois qu'ma côte est en descente donc j'vais m'droguer à la mort Parce que si j'arrête dans 10 ans, j'accumulerais les dettes de jeux Fréquenterais les dièz de geuches et les dits-ban Fini l'Guizmo avec des groupies et des fans À force de tout pillave, j'ai déclenché un truc irrémédiable J'aurais pris l'melon, lâché ma meuf pour une tasse-pé d'passage Insomniaque, mort-vivant, j'oublie c'que ça fait d'pachave J'ai tourné l'dos à tous mes potes, j't'explique les choses La solitude a tellement d'charme dans un fix d'héro Vingt-et-un ans, c'est bien trop tôt pour les feux d'la rampe On fait semblant d'kiffer nos vies, en vrai, on veut qu'ça change J'irais trouver ma rue, vendrais mes sachets en silence Si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street J'vais foirer ma carrière, Willy va m'jeter du label Déboussolé, j'irais m'buter avec les reu-frés du cartel Et puis le shit me fera plus rien Ça s'ra pas assez, complètement ravagé J'me vois tirer sur un cul d'joint J'me vois voler ma mère, lui mentir Genre Passe-moi d'l'argent, une dernière dose et j'vais m'en sortir Si j'arrête dans 10 ans, j'oublierais c'que mon père m'a dit De ma carrière jusqu'au verbatim J'aurais provoqué ma chute une fois tombé dans l'piège J'apprécierai la neige quand mes potes vont m'proposer la luge Trop zoner, ça tue et une décennie ça passe trop vite J'réfléchis, j'ai pas d'logique, dépressif et alcoolique Et j'rédige des tas d'folies, même si j'ai laissé tomber J'aurai préféré qu'on dise de moi Merde, il s'est fait plomber Je sens un mal être grandissant Ainsi sera ma fin si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street Et nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière31</t>
+          <t>Zone Sensible Yonea Willy, Willy Yonea Woop Ma mère va m'enterrer à 31 Parce que j'ai niqué mon foie, mon pancréas Sors ton pocheton, vas-y on s'en fait un On est beaux, on est jeunes, on réalise pas que Ce sera la merde le jour où ils légalisent la beuh Mais pour l'instant j'm'en fous, j'ai qu'vingt et une piges Des joints et du biff, au bois d'Vincennes, j'vais m'rincer une pipe Et j'irai boire histoire de noyer mon chagrin Maman culpabilise pas, t'as bien choyé ton gamin Mais j'me sens seul et le monde est froid, il est glacial Alors j'suis d'ceux qui ouvrent leurs gueules et qui font des choix Alors oui, j'ai choisi d'me guer-dro Une sale mine, levé tôt, la fatigue, le métro Des nuits entières à réfléchir dans l'vide À sentir mon foie se rétrécir dans l'bide Ouais, j'me la cogne, en cachette gentiment Il s'ra sûrement trop tard si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street Et nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais, nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais, il sera sûrement trop tard avec un ulcère et les poumons percés Mes adultères et mes millions d'péchés Et y'a tout c'monde perché, la coke est à la mode J'vois qu'ma côte est en descente donc j'vais m'droguer à la mort Parce que si j'arrête dans 10 ans, j'accumulerais les dettes de jeux Fréquenterais les dièz de geuches et les dits-ban Fini l'Guizmo avec des groupies et des fans À force de tout pillave, j'ai déclenché un truc irrémédiable J'aurais pris l'melon, lâché ma meuf pour une tasse-pé d'passage Insomniaque, mort-vivant, j'oublie c'que ça fait d'pachave J'ai tourné l'dos à tous mes potes, j't'explique les choses La solitude a tellement d'charme dans un fix d'héro Vingt-et-un ans, c'est bien trop tôt pour les feux d'la rampe On fait semblant d'kiffer nos vies, en vrai, on veut qu'ça change J'irais trouver ma rue, vendrais mes sachets en silence Si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street J'vais foirer ma carrière, Willy va m'jeter du label Déboussolé, j'irais m'buter avec les reu-frés du cartel Et puis le shit me fera plus rien Ça s'ra pas assez, complètement ravagé J'me vois tirer sur un cul d'joint J'me vois voler ma mère, lui mentir Genre Passe-moi d'l'argent, une dernière dose et j'vais m'en sortir Si j'arrête dans 10 ans, j'oublierais c'que mon père m'a dit De ma carrière jusqu'au verbatim J'aurais provoqué ma chute une fois tombé dans l'piège J'apprécierai la neige quand mes potes vont m'proposer la luge Trop zoner, ça tue et une décennie ça passe trop vite J'réfléchis, j'ai pas d'logique, dépressif et alcoolique Et j'rédige des tas d'folies, même si j'ai laissé tomber J'aurai préféré qu'on dise de moi Merde, il s'est fait plomber Je sens un mal être grandissant Ainsi sera ma fin si j'arrête dans 10 ans On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street On s'est dit qu'on arrête tout dans 10 ans La beuh, l'alcool et l'shit On s'retrouvera quand on aura 30 ans Dans un bar glauque ou dans la street Et nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière Ouais nos parents pleurent des rivières À force de venir voir leurs fils au parloir ou au cimetière31</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ah, Guizy in this bitch, woo woo Alkali, what up? 18e, 92, hé! J'vous vois, les gars Valenton, ça fait J'me sens pas bien, j'pète les plombs, j'ai envie d'tous me les faire Casse pas les couilles j'suis détér Une fois qu'ma fougue se déchaîne Franchement le boug est pépère, mais fallait pas l'chercher J'vais tous vous monter en l'air chat perché Alors comme ça on veut jouer, pas d'ça entre nous Demande à Willy on n'se graille pas entre loups YW, ZS, quelques initiales qui riment avec BMW Yes yes, venez m'soulever Je n'ai aucunes faiblesses, j'peux te smasher pour le blé Moi j'suis marqué pour de vrai Négro à trois reprises ils m'ont fait bouffer la gamelle J'voulais la maille j'ai trouvé la calèche Le flouz et la galère t'y connais rien Ferme ta gueule mec jt'accueille avec mes youv et d'la galette Vas-y fume du crack, comme ça tes couilles tu pourras t'les imaginer Tu fais l'voyou mais t'es qu'une diva d'cité C'est tah les oufs nan? Ils font la zizanie, quand Guiz arrive ils s'mettent tous à parler doucement Et l'autre binoclard, putain ça m'a fait mal Un mec qui t'regarde pas dans les yeux quant ça vire au drame Hé y en a qui ont parlé face à l'action Doums, Deen et Eff c'est pas l'même panier à salade J'peux vous passez un salam Vous, vous êtes pas des fils de pute, les autres j'leur pisse dessus Et ils vont mâcher ma banane 2zer, Malfrat et Momo, dans vos regards j'ai vu qu'on lâche pas les potos Y a pas de place pour ceux qui baisent tout Donc d'abord c'est Guizmo logiquement après c'est le S-Crew Et j'le pense, sincèrement, le rap j'ai qu'un pied dedans J'comprends pas pourquoi vous m'enviez, bande d'enculé Ça part en fumée, y en a plein qui disait que ça allait s'passer Ça allait s'passer, ça va laisse passer Ouais insomniaque et dé, insomniaque et dé-dé Insomniaque et dé-dé, insomniaque et dépressif J'suis pas de ceux que le danger effraie J'viens venger mes frères, car un soldat fait chier les flics Un gros niaks et des belles filles, pour oublier qu'on a grave morflé Pour roupiller dans les bras d'Morphée J'suis hanté par ce truc Aujourd'hui j'ai fait de l'oseille c'est décidé ce soir je nique elle va pas par le ul-c À l'époque c'était ma p'tite routine C'est dégueulasse mais j'ai que ça et mes sheufla quand j'me suis mis au shit Et j'suis misogyne, des fois j'parle des meufs Dis moi quand tu parles de rue, tu parles de bluff ? Ou euh.. vas t'faire cuire un uf, s'te plaît Ou trouve un poste au McDo, Mc Doom J'casse tout, j'casse tout, babtou Ouais j'fais palper les petites feuilles Tu t'rappeleras du Guiz et d'notre histoire à cause d'une affaire de t-shirt Palper les les petites feuilles Négro tu t'rappeleras du Guiz et d'notre histoire à cause d'une affaire de t-shirt A cause de vos putains d'conneries j'ai priguili, priguili, pris l'seum A cause de vos putains d'conneries j'ai priguili, priguili, pris l'seum Viguili, Viguili, Viguili, Villeneuve Banlieue dégueulasse, les envieux j'ai que aç Autour de moi c'est banlieue dégueulasse Les envieux j'ai que aç Ouais ouais, vous irez nul part, les gars vous irez nul part C'est interdit, comme dirait l'autre j'te rentre dedans Comme la vachette d'Interville c'est interdit et c'est interminable J'sais même pas pourquoi tu m'en fais une affaire d'minable Lâchez du lestYou might also like3</t>
+          <t>Ah, Guizy in this bitch, woo woo Alkali, what up? 18e, 92, hé! J'vous vois, les gars Valenton, ça fait J'me sens pas bien, j'pète les plombs, j'ai envie d'tous me les faire Casse pas les couilles j'suis détér Une fois qu'ma fougue se déchaîne Franchement le boug est pépère, mais fallait pas l'chercher J'vais tous vous monter en l'air chat perché Alors comme ça on veut jouer, pas d'ça entre nous Demande à Willy on n'se graille pas entre loups YW, ZS, quelques initiales qui riment avec BMW Yes yes, venez m'soulever Je n'ai aucunes faiblesses, j'peux te smasher pour le blé Moi j'suis marqué pour de vrai Négro à trois reprises ils m'ont fait bouffer la gamelle J'voulais la maille j'ai trouvé la calèche Le flouz et la galère t'y connais rien Ferme ta gueule mec jt'accueille avec mes youv et d'la galette Vas-y fume du crack, comme ça tes couilles tu pourras t'les imaginer Tu fais l'voyou mais t'es qu'une diva d'cité C'est tah les oufs nan? Ils font la zizanie, quand Guiz arrive ils s'mettent tous à parler doucement Et l'autre binoclard, putain ça m'a fait mal Un mec qui t'regarde pas dans les yeux quant ça vire au drame Hé y en a qui ont parlé face à l'action Doums, Deen et Eff c'est pas l'même panier à salade J'peux vous passez un salam Vous, vous êtes pas des fils de pute, les autres j'leur pisse dessus Et ils vont mâcher ma banane 2zer, Malfrat et Momo, dans vos regards j'ai vu qu'on lâche pas les potos Y a pas de place pour ceux qui baisent tout Donc d'abord c'est Guizmo logiquement après c'est le S-Crew Et j'le pense, sincèrement, le rap j'ai qu'un pied dedans J'comprends pas pourquoi vous m'enviez, bande d'enculé Ça part en fumée, y en a plein qui disait que ça allait s'passer Ça allait s'passer, ça va laisse passer Ouais insomniaque et dé, insomniaque et dé-dé Insomniaque et dé-dé, insomniaque et dépressif J'suis pas de ceux que le danger effraie J'viens venger mes frères, car un soldat fait chier les flics Un gros niaks et des belles filles, pour oublier qu'on a grave morflé Pour roupiller dans les bras d'Morphée J'suis hanté par ce truc Aujourd'hui j'ai fait de l'oseille c'est décidé ce soir je nique elle va pas par le ul-c À l'époque c'était ma p'tite routine C'est dégueulasse mais j'ai que ça et mes sheufla quand j'me suis mis au shit Et j'suis misogyne, des fois j'parle des meufs Dis moi quand tu parles de rue, tu parles de bluff ? Ou euh.. vas t'faire cuire un uf, s'te plaît Ou trouve un poste au McDo, Mc Doom J'casse tout, j'casse tout, babtou Ouais j'fais palper les petites feuilles Tu t'rappeleras du Guiz et d'notre histoire à cause d'une affaire de t-shirt Palper les les petites feuilles Négro tu t'rappeleras du Guiz et d'notre histoire à cause d'une affaire de t-shirt A cause de vos putains d'conneries j'ai priguili, priguili, pris l'seum A cause de vos putains d'conneries j'ai priguili, priguili, pris l'seum Viguili, Viguili, Viguili, Villeneuve Banlieue dégueulasse, les envieux j'ai que aç Autour de moi c'est banlieue dégueulasse Les envieux j'ai que aç Ouais ouais, vous irez nul part, les gars vous irez nul part C'est interdit, comme dirait l'autre j'te rentre dedans Comme la vachette d'Interville c'est interdit et c'est interminable J'sais même pas pourquoi tu m'en fais une affaire d'minable Lâchez du lest3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J'entends la voix des bobos qui résonne Genre c'est la sère-mi mec On s'lavait à cinq avec un chauffe-eau qui déconne J'peux pas raisonner mes frères ils ont vu la même merde Longtemps j'ai critiqué mon père et j'ai bu la même bière On n'est pas pire ou mieux qu'un autre, même les gens pieux ont fait des fautes Y a qu'devant Dieu qu'on jugera tous les pêchés sur tes épaules Moi, j'ai servi de cobaye à toutes les marques de tise, fils J'ai vite compris qu'ça rime avec le mal de vivre, clean Génération fuck tout, fais pêter ton zbar Quand la rue t'fais des appels, apprend à baisser ton regard Merde, nous aussi on veut l'Axe qui fait kiffer les meufs Le Clio trois à treize milles balles et pourquoi pas une télé neuve J'rappe pas la rue, j'rappe la vie moi J'ai vu le tiers monde en France sur le tournage du clip de Dis-moi La vérité n'a qu'un seul visage Vieille comme le monde mais tellement belle qu'elle a moins de ride que son miroir Mec c'est l'anarchie, dans ma tête une pharmacie Une barrette de cannabis et j'apparais comme par magie J'rap la merde et la panique, trois ballets qu'j'déprave la 'sique L'attaque est dévastatrice, malade mais j'bédave ma weed Normal avec mes gars on vise le top On sera premiers des disques d'or Dans la son-mai une tire de sport La vie se corse comme diraient les anciens À force de tous traîner en chien évidemment les p'tits te mordent Merde, j'ai cogité là-dessus, obligé ça fume Pour profiter de la vue faut économiser la thune Scolarité renvoie les chances qu'on n'a pas saisies Tous la gueule de l'emploi pour ça qu'on est aux Assedics Villeneuve-La-Garenne, putain j'y ai laissé des frères J'en ai des pincements au cur mais faut qu'j'reste fier Ça bougouge paga les lougoujaga Rêve de tougou savoir mais poto tout doux ça va Faut pas m'casser les couilles en freestyle J'rap et les foules sentent qui parle Un petit d'la tess qui veut brasser les sous sans bikrav Et mes gremlin's, ils savent que c'est pas l'issue Y'a des solutions loin de la street et d'ses salissures J'kicke et c'est quasi sûr que ma figure Affichera des sourires si j'quitte mes vieilles habitudes Ma tour des feuj' ma pillave et mes reuguefton Brave mais depuis qu'j'ai pris du grade bah ils veulent que j'tombe Motherfucker, j'traine en bas du block Tu crois quoi ? J'me ferai jamais balance par un moggow Affranchi des galères, garanti d'être à sec J'attendris mes aspects et ralentis la zeb Et c'est lassant d'vivre à sec entre taule et Assedics J'suis fier de la rage que mon projet a fait vivre Où sont passés tous mes rêves moi qui n'avait qu'ça en tête Rejoindre ma villa en jet besoin d'la pillav en fait Avec ma poisse car elle suit tous les lascars Du falzar au calbar youpi j'ai mes paplars Groupies, haine et sales shtars mon gava ça va ça vient Ouais j'suis gavé des envieux qui papotent pour trois fois rien J'connais les squats bizarres où ça tape des cuites disons vices bidons, weed chichon même quand y a les shtars qui passent Des délits et des crimes, des récits et des histoires Qui sont racontées parce qu'y a des teci et des riches qui Vivent sans la compassion bikrav et sensation D'être une homme libre quand les flics font des rotations Ils tournent plus que Stromae oui couz' il faut mailler Dans nos HLM mec, c'est piquouse, et faux-papiers T'as qu'à demander aux déclans, qui se font té-cla bêtement À cause de quelques clopes et des vêtements Merde, fais-moi fumer sur ton joint d'peuf Tout va vite on devient deuss, j'ai qu'une bite mais quinze teuchs Tout gentil sous drogue, j'crois que je suis baisé À chaque fois que j'ai pêché il y a eu anguille sous roche Et toutes ces envies nous forcent à faire des trucs illégaux Oui, les gars illico sur le té-cô j'ai mis les gows Et j'parle pas de ptites poufs de tass-pé big boule Et Black B qui fouillent tes sages-mé Et quand j'écris beat lourd et amné Guizou est damné, j'kicke pour des années C'est pas fini il s'trouve que ça le fait Ptites bouffes et face B j'm'y retrouve et ça m'plait Défoncé mais effronté à démonter des sons Débloquez des fonds aux ptits oufs des quartier Arrêtez les promesses, aucune ne sont tenues La pudeur est toute nue, à 16 ans arrêtez les grossesses Ah ouais, j'ai les poches pleines ?! C'est pas c'que dit le banquier 10 ans qu'j'ai mes problèmes de fric et mon envie de chanter 92 grave gravé dans ma teté ma cave Et puis ma che-frai macabre avec les reufrés Ça me fait penser qu'on sort pour danser Comme s'ils demandaient une rançon Les majors veulent te faire chanter Wesh Guizmo ! T'as la vingtaine tu parles comme un vieux ! Dis-nous c'est quoi le bordel En fait c'est qu'on est que des pions admirés comme des dieux invités à des cocktails Et ça assombri ma vision qui est déjà foutue Coup d'jus un peu comme la tombe et la prison Fouille pas dans ma vie tu vas trouver beaucoup d'sale J'ai grandi dans des villes où on est formé aux coups de schlass On est fort, mais beaucoup clamsent ou finissent handicapés Marre des porcs et de tout c'drame qui nous donne envie d'braquer Nike Air à bas prix, sacoche de contrefaçon Hardcore et drôles de boissons, ma gorge est pleine de poison Alors dis moi qui va m'stopper ?! Nan c'est pas ton gang de pute Maintenant qu'ils ont sucé tout le monde, ils vont s'laisser prendre le uc' Y a qu'des louveteaux dans l'zoo hash dans le jean Pas de balles dans le bide que des couteaux dans l'dos Ouais, ça sent la putain de traîtrise ça fait longtemps qu'j'ai la maîtrise De leur vice et de leur bêtise demande pas pourquoi j'les méprise Faut qu'ça marche avant qu'ça me les brise, f'voir le cash enfoiré d'tes fils Que j'mette les liasses dans mon Lévis, une biatch autour d'mon pénis On est des banlieusards habitués aux palpations Les rappeurs, c'est des bimbos Y'a les formes, mais y'a pas l'fond Et j'peux t'en citer des centaines sans identité mais dans c'game Y'a une quantité démentielle de p'tits gens friqués, C dans le zen Merde ! Ils nous parlent de lance-roquette, z'ont jamais vu un neuf A part pour faire une omelette et la ramener à leur meuf J'ai que des images de salaud, balance des freestyles de paro Le pe-ra, c'est comme chez moi donc même en slibard, je baraude Toujours efficace quand j'arrose, j'suis venu pour tous les plier Bah ouais, j'm'en branle de votre relève j'suis avec les piliers Faut une tisse-mé qui déchire, une sse-lia dans la poche Un p'tit équipier vif qui fait pas le che-lâ quand ça s'cogne Et les spliffs défilent dans ma gorge, hystérique sans ma drogue Mystérieux, j'plisse mes yeux dans ma grotte On met du temps à faire le tour de tous nos vices On n'a pas eu d'papa poule, mais sache qu'on fera tout pour nos fils On a l'mort, on n'est pas venu pour jacter Mes concurrents sont forts seulement à la course à pied Avoue qu'ça le fait quand j'la découpe Aboule la fraîche, j'm'en bats les couilles Parle sur ma tess et v'là les crouilles viendront danser sur ta dépouille Et c'est garanti sur facture. Attentif Moi j'suis plus un apprenti, j'suis un affranchi des fractures La vente libre de came pure, ça rend riche mais pas sûr En une perquis', tu perds la penderie, les voitures C'est véridique, j'te préviens j'ai l'seum ! Et s'il m'annonce un cancer, y'a des chances que j'élimine le médecin Des silhouettes de North Face se baladent dans le noir Quand ça caille, sans tracas, ça bavarde dans le bat Souvent dehors quand la Tour Eiffel s'met à briller Soudain des rêves de billets nous parlent et nous font vriller Problème d'identité quand tu sais pas, ton père, c'est qui T'as l'impression qu'l'enfer c'est toi, qu'le monde entier te persécute La solution, c'est d'mettre les voiles avant de connaître le Rest In Peace Il faut pas qu'on enrichisse le 5 étoiles de Belzébuth Faut pas qu'on flanche nan ! Franchement, j'regarde le temps qui passe, et j'me dis qu'on a besoin d'changement J'agis étrangement, j'voulais pas fauter, j'voulais m'élever On a saboté ma rampe de lancement Et on n'est pas flemmard, on a trop donné sans rien recevoir Enfermé dans des halls où ça schlingue le zbar Ils disent que Guiz abuse, est indécent J'kick, j'm'amuse ! Fils t'as vu y'a rien d'méchant Mais j'crache des vérités, ça dérange les uns Quand ça fait plaisir aux autres, bah ça représente les miens Ceux qu'on a mis d'côté, qui comptent pour du beurre Mais qui n'ont jamais chipoté pour travailler plus de 35 heures C'est pour les p'tits frères déboussolés J'les vois charbonner tout l'hiver pour aller prendre des coups d'soleil C'est la crise, logiquement, il faut qu'tu creuses Le premier billet qu'tu croises, passe dessus mais pas en deuz' Après la tise, le rap est passé à la base A commencé à faire la bise et à s'chamailler pour du buzz À c'qui parait, ça fait du biz Ça vend d'la beuh et puis des taz Dans pas longtemps, t'auras des rides J'espère que t'as coffré du cash You might also like Ouzou C'est pour moi, pour tous nos disparus, pour tous nos enfermés Pour toutes les familles en deuil Personne n'est à l'abri Que dieu vous garde 'Ch'Allah On est ensemble. Zone sensible cousin37</t>
+          <t>J'entends la voix des bobos qui résonne Genre c'est la sère-mi mec On s'lavait à cinq avec un chauffe-eau qui déconne J'peux pas raisonner mes frères ils ont vu la même merde Longtemps j'ai critiqué mon père et j'ai bu la même bière On n'est pas pire ou mieux qu'un autre, même les gens pieux ont fait des fautes Y a qu'devant Dieu qu'on jugera tous les pêchés sur tes épaules Moi, j'ai servi de cobaye à toutes les marques de tise, fils J'ai vite compris qu'ça rime avec le mal de vivre, clean Génération fuck tout, fais pêter ton zbar Quand la rue t'fais des appels, apprend à baisser ton regard Merde, nous aussi on veut l'Axe qui fait kiffer les meufs Le Clio trois à treize milles balles et pourquoi pas une télé neuve J'rappe pas la rue, j'rappe la vie moi J'ai vu le tiers monde en France sur le tournage du clip de Dis-moi La vérité n'a qu'un seul visage Vieille comme le monde mais tellement belle qu'elle a moins de ride que son miroir Mec c'est l'anarchie, dans ma tête une pharmacie Une barrette de cannabis et j'apparais comme par magie J'rap la merde et la panique, trois ballets qu'j'déprave la 'sique L'attaque est dévastatrice, malade mais j'bédave ma weed Normal avec mes gars on vise le top On sera premiers des disques d'or Dans la son-mai une tire de sport La vie se corse comme diraient les anciens À force de tous traîner en chien évidemment les p'tits te mordent Merde, j'ai cogité là-dessus, obligé ça fume Pour profiter de la vue faut économiser la thune Scolarité renvoie les chances qu'on n'a pas saisies Tous la gueule de l'emploi pour ça qu'on est aux Assedics Villeneuve-La-Garenne, putain j'y ai laissé des frères J'en ai des pincements au cur mais faut qu'j'reste fier Ça bougouge paga les lougoujaga Rêve de tougou savoir mais poto tout doux ça va Faut pas m'casser les couilles en freestyle J'rap et les foules sentent qui parle Un petit d'la tess qui veut brasser les sous sans bikrav Et mes gremlin's, ils savent que c'est pas l'issue Y'a des solutions loin de la street et d'ses salissures J'kicke et c'est quasi sûr que ma figure Affichera des sourires si j'quitte mes vieilles habitudes Ma tour des feuj' ma pillave et mes reuguefton Brave mais depuis qu'j'ai pris du grade bah ils veulent que j'tombe Motherfucker, j'traine en bas du block Tu crois quoi ? J'me ferai jamais balance par un moggow Affranchi des galères, garanti d'être à sec J'attendris mes aspects et ralentis la zeb Et c'est lassant d'vivre à sec entre taule et Assedics J'suis fier de la rage que mon projet a fait vivre Où sont passés tous mes rêves moi qui n'avait qu'ça en tête Rejoindre ma villa en jet besoin d'la pillav en fait Avec ma poisse car elle suit tous les lascars Du falzar au calbar youpi j'ai mes paplars Groupies, haine et sales shtars mon gava ça va ça vient Ouais j'suis gavé des envieux qui papotent pour trois fois rien J'connais les squats bizarres où ça tape des cuites disons vices bidons, weed chichon même quand y a les shtars qui passent Des délits et des crimes, des récits et des histoires Qui sont racontées parce qu'y a des teci et des riches qui Vivent sans la compassion bikrav et sensation D'être une homme libre quand les flics font des rotations Ils tournent plus que Stromae oui couz' il faut mailler Dans nos HLM mec, c'est piquouse, et faux-papiers T'as qu'à demander aux déclans, qui se font té-cla bêtement À cause de quelques clopes et des vêtements Merde, fais-moi fumer sur ton joint d'peuf Tout va vite on devient deuss, j'ai qu'une bite mais quinze teuchs Tout gentil sous drogue, j'crois que je suis baisé À chaque fois que j'ai pêché il y a eu anguille sous roche Et toutes ces envies nous forcent à faire des trucs illégaux Oui, les gars illico sur le té-cô j'ai mis les gows Et j'parle pas de ptites poufs de tass-pé big boule Et Black B qui fouillent tes sages-mé Et quand j'écris beat lourd et amné Guizou est damné, j'kicke pour des années C'est pas fini il s'trouve que ça le fait Ptites bouffes et face B j'm'y retrouve et ça m'plait Défoncé mais effronté à démonter des sons Débloquez des fonds aux ptits oufs des quartier Arrêtez les promesses, aucune ne sont tenues La pudeur est toute nue, à 16 ans arrêtez les grossesses Ah ouais, j'ai les poches pleines ?! C'est pas c'que dit le banquier 10 ans qu'j'ai mes problèmes de fric et mon envie de chanter 92 grave gravé dans ma teté ma cave Et puis ma che-frai macabre avec les reufrés Ça me fait penser qu'on sort pour danser Comme s'ils demandaient une rançon Les majors veulent te faire chanter Wesh Guizmo ! T'as la vingtaine tu parles comme un vieux ! Dis-nous c'est quoi le bordel En fait c'est qu'on est que des pions admirés comme des dieux invités à des cocktails Et ça assombri ma vision qui est déjà foutue Coup d'jus un peu comme la tombe et la prison Fouille pas dans ma vie tu vas trouver beaucoup d'sale J'ai grandi dans des villes où on est formé aux coups de schlass On est fort, mais beaucoup clamsent ou finissent handicapés Marre des porcs et de tout c'drame qui nous donne envie d'braquer Nike Air à bas prix, sacoche de contrefaçon Hardcore et drôles de boissons, ma gorge est pleine de poison Alors dis moi qui va m'stopper ?! Nan c'est pas ton gang de pute Maintenant qu'ils ont sucé tout le monde, ils vont s'laisser prendre le uc' Y a qu'des louveteaux dans l'zoo hash dans le jean Pas de balles dans le bide que des couteaux dans l'dos Ouais, ça sent la putain de traîtrise ça fait longtemps qu'j'ai la maîtrise De leur vice et de leur bêtise demande pas pourquoi j'les méprise Faut qu'ça marche avant qu'ça me les brise, f'voir le cash enfoiré d'tes fils Que j'mette les liasses dans mon Lévis, une biatch autour d'mon pénis On est des banlieusards habitués aux palpations Les rappeurs, c'est des bimbos Y'a les formes, mais y'a pas l'fond Et j'peux t'en citer des centaines sans identité mais dans c'game Y'a une quantité démentielle de p'tits gens friqués, C dans le zen Merde ! Ils nous parlent de lance-roquette, z'ont jamais vu un neuf A part pour faire une omelette et la ramener à leur meuf J'ai que des images de salaud, balance des freestyles de paro Le pe-ra, c'est comme chez moi donc même en slibard, je baraude Toujours efficace quand j'arrose, j'suis venu pour tous les plier Bah ouais, j'm'en branle de votre relève j'suis avec les piliers Faut une tisse-mé qui déchire, une sse-lia dans la poche Un p'tit équipier vif qui fait pas le che-lâ quand ça s'cogne Et les spliffs défilent dans ma gorge, hystérique sans ma drogue Mystérieux, j'plisse mes yeux dans ma grotte On met du temps à faire le tour de tous nos vices On n'a pas eu d'papa poule, mais sache qu'on fera tout pour nos fils On a l'mort, on n'est pas venu pour jacter Mes concurrents sont forts seulement à la course à pied Avoue qu'ça le fait quand j'la découpe Aboule la fraîche, j'm'en bats les couilles Parle sur ma tess et v'là les crouilles viendront danser sur ta dépouille Et c'est garanti sur facture. Attentif Moi j'suis plus un apprenti, j'suis un affranchi des fractures La vente libre de came pure, ça rend riche mais pas sûr En une perquis', tu perds la penderie, les voitures C'est véridique, j'te préviens j'ai l'seum ! Et s'il m'annonce un cancer, y'a des chances que j'élimine le médecin Des silhouettes de North Face se baladent dans le noir Quand ça caille, sans tracas, ça bavarde dans le bat Souvent dehors quand la Tour Eiffel s'met à briller Soudain des rêves de billets nous parlent et nous font vriller Problème d'identité quand tu sais pas, ton père, c'est qui T'as l'impression qu'l'enfer c'est toi, qu'le monde entier te persécute La solution, c'est d'mettre les voiles avant de connaître le Rest In Peace Il faut pas qu'on enrichisse le 5 étoiles de Belzébuth Faut pas qu'on flanche nan ! Franchement, j'regarde le temps qui passe, et j'me dis qu'on a besoin d'changement J'agis étrangement, j'voulais pas fauter, j'voulais m'élever On a saboté ma rampe de lancement Et on n'est pas flemmard, on a trop donné sans rien recevoir Enfermé dans des halls où ça schlingue le zbar Ils disent que Guiz abuse, est indécent J'kick, j'm'amuse ! Fils t'as vu y'a rien d'méchant Mais j'crache des vérités, ça dérange les uns Quand ça fait plaisir aux autres, bah ça représente les miens Ceux qu'on a mis d'côté, qui comptent pour du beurre Mais qui n'ont jamais chipoté pour travailler plus de 35 heures C'est pour les p'tits frères déboussolés J'les vois charbonner tout l'hiver pour aller prendre des coups d'soleil C'est la crise, logiquement, il faut qu'tu creuses Le premier billet qu'tu croises, passe dessus mais pas en deuz' Après la tise, le rap est passé à la base A commencé à faire la bise et à s'chamailler pour du buzz À c'qui parait, ça fait du biz Ça vend d'la beuh et puis des taz Dans pas longtemps, t'auras des rides J'espère que t'as coffré du cash Ouzou C'est pour moi, pour tous nos disparus, pour tous nos enfermés Pour toutes les familles en deuil Personne n'est à l'abri Que dieu vous garde 'Ch'Allah On est ensemble. Zone sensible cousin37</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Grandi dans la merde, j'ai grandi dans la merde négro Grandi dans la merde, j'ai poussé dans la merde négro Poussé dans la merde, j'ai poussé dans la merde négro Poussé dans la merde, négro Poussé dans la merde, j'avais pas un clou Tout est dans ma tête, j'ai les phases d'un fou J'ai mes tass de nuit et mes tass d'un jour Ça traine dans la ville avec quatre sins-cou J'suis dans ma té-ci non j'habite pas Saint-Cloud Ça fait du ffe-bi, les tits-pe tapent un foot À se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé m'demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai besoin d'eux, j'ai des gavas surs et des shlass Même pas 20 mesures t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de VLT m'coffraient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte J'répète J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pécho ma p'tite gueule J'encule la trap' dans ma zone à Villeneuve Un contre cinq nique sa mère j'suis single Cinq albums et toujours pas de singleYou might also like13</t>
+          <t>Grandi dans la merde, j'ai grandi dans la merde négro Grandi dans la merde, j'ai poussé dans la merde négro Poussé dans la merde, j'ai poussé dans la merde négro Poussé dans la merde, négro Poussé dans la merde, j'avais pas un clou Tout est dans ma tête, j'ai les phases d'un fou J'ai mes tass de nuit et mes tass d'un jour Ça traine dans la ville avec quatre sins-cou J'suis dans ma té-ci non j'habite pas Saint-Cloud Ça fait du ffe-bi, les tits-pe tapent un foot À se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé m'demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai besoin d'eux, j'ai des gavas surs et des shlass Même pas 20 mesures t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de VLT m'coffraient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte J'répète J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pécho ma p'tite gueule J'encule la trap' dans ma zone à Villeneuve Un contre cinq nique sa mère j'suis single Cinq albums et toujours pas de single13</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'suis pas un sale babtou, gars, garde ta bouche à poucave Garde à vous L'Entourage donc à Paname ça parle tout-par Quand j'étais petit, j'voulais kicker, les grands m'disaient dommage que tu sois blanc J'ai résisté, fils, et j'ai pétri des bums-al que tu m'vois vendre Au mic, je tue la France, faut pas que tu t'lamentes, ça rappe sale ! Un max de thunes à prendre Donc claque le cul d'la banque comme l'Allemagne Fuck les mecs ennemis de ta team Qui se moquent des règles et se piquent la nuit Car il faut que Fenneck t'élimine de la liste À deux doigts de la tête, j'illumine ma ville Comme le Diable j'me fais pas prier, trop de menaces, mots éparpillés Hommes de glace, on est pas libres On fête la nuit, c'est comme de ne pas Voir le mal et les tonnes de bavures Que les porcs et l'époque te cachent Trop peu de fois chez le peuple de loi, sûr Mais j'attends que ne sonne le glas Les noirs m'appellent gwère, les feujs m'appellent goy Quand les grands m'appellent boy, tous les bons m'appellent frère Les skins m'appellent métèque, les rebeus m'appellent gaouri Mes ex m'appellent gars horrible, l'équipe m'appelle Fennek You might also like Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy J'me vois bien, àl prenant vos biens, menant un lifestyle sale Car j'suis d'la race qui fait peur en province L'argent, c'est notre devise, les glocks se vident Le Hop-Hip est mort, elle est loin l'époque de Sydney Connus parce qu'on vend la cess', l'héroïne Défraie les chroniques, effraie les gros riches Mais les gros détestent le métro Et rêvent d'une XLR, bref, un excès d'rêve Hétéroclite et vêtements cher qui tape les nerfs optiques Planque l'encre car mon clan lance l'intifada On est en manque grandement, ils nous traitent comme des ien-ien Et comme d'hab, les schlagos paient, père et mère Ont des petites vas-go mais ont atteint leur rêve de pav' au bled Mais du calme, les khos, quand j'aurais assez nné-do J'me taille vers les côtes, bye bye, c'était Phaal, négro Tu veux savoir comment c'grizzli là flotte C'est easy mix Biggie et Nizzy Niz' à la prod Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy J'ai que des phases terroristes, blastez nos rimes Achetez nos disques, là, c'est Mo-Guiz de la Caravelle Sale négroïde, j'veux ma place, après me barrer au soleil M'éclater au pollen, pas cramer aux Baumettes J'ai gratté aux Aulnettes, au Pologne et le reste J'ai trop donné le best, on m'a proposé le chèque Ils ont trop voté Le Pen, le vice et la frustration Pipez des bites, le Guiz' il se bute à fond J'ai niqué des bitches, évité les flics Effrité des spliffs, débité des lignes et tisé des litres Non ça sert à rien d'parler, pour eux, j'suis qu'un sale négro Pas réglo tas d'bédo à té-cô de la table de mixage Je parle de vie crade, de cash et de bicrave et de vie sale Je rappe et je vis mal comme un père qui frappe ses gosses Négro, sache que ça m'gave quand tu m'grattes des clopes Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy6</t>
+          <t>J'suis pas un sale babtou, gars, garde ta bouche à poucave Garde à vous L'Entourage donc à Paname ça parle tout-par Quand j'étais petit, j'voulais kicker, les grands m'disaient dommage que tu sois blanc J'ai résisté, fils, et j'ai pétri des bums-al que tu m'vois vendre Au mic, je tue la France, faut pas que tu t'lamentes, ça rappe sale ! Un max de thunes à prendre Donc claque le cul d'la banque comme l'Allemagne Fuck les mecs ennemis de ta team Qui se moquent des règles et se piquent la nuit Car il faut que Fenneck t'élimine de la liste À deux doigts de la tête, j'illumine ma ville Comme le Diable j'me fais pas prier, trop de menaces, mots éparpillés Hommes de glace, on est pas libres On fête la nuit, c'est comme de ne pas Voir le mal et les tonnes de bavures Que les porcs et l'époque te cachent Trop peu de fois chez le peuple de loi, sûr Mais j'attends que ne sonne le glas Les noirs m'appellent gwère, les feujs m'appellent goy Quand les grands m'appellent boy, tous les bons m'appellent frère Les skins m'appellent métèque, les rebeus m'appellent gaouri Mes ex m'appellent gars horrible, l'équipe m'appelle Fennek Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy J'me vois bien, àl prenant vos biens, menant un lifestyle sale Car j'suis d'la race qui fait peur en province L'argent, c'est notre devise, les glocks se vident Le Hop-Hip est mort, elle est loin l'époque de Sydney Connus parce qu'on vend la cess', l'héroïne Défraie les chroniques, effraie les gros riches Mais les gros détestent le métro Et rêvent d'une XLR, bref, un excès d'rêve Hétéroclite et vêtements cher qui tape les nerfs optiques Planque l'encre car mon clan lance l'intifada On est en manque grandement, ils nous traitent comme des ien-ien Et comme d'hab, les schlagos paient, père et mère Ont des petites vas-go mais ont atteint leur rêve de pav' au bled Mais du calme, les khos, quand j'aurais assez nné-do J'me taille vers les côtes, bye bye, c'était Phaal, négro Tu veux savoir comment c'grizzli là flotte C'est easy mix Biggie et Nizzy Niz' à la prod Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy J'ai que des phases terroristes, blastez nos rimes Achetez nos disques, là, c'est Mo-Guiz de la Caravelle Sale négroïde, j'veux ma place, après me barrer au soleil M'éclater au pollen, pas cramer aux Baumettes J'ai gratté aux Aulnettes, au Pologne et le reste J'ai trop donné le best, on m'a proposé le chèque Ils ont trop voté Le Pen, le vice et la frustration Pipez des bites, le Guiz' il se bute à fond J'ai niqué des bitches, évité les flics Effrité des spliffs, débité des lignes et tisé des litres Non ça sert à rien d'parler, pour eux, j'suis qu'un sale négro Pas réglo tas d'bédo à té-cô de la table de mixage Je parle de vie crade, de cash et de bicrave et de vie sale Je rappe et je vis mal comme un père qui frappe ses gosses Négro, sache que ça m'gave quand tu m'grattes des clopes Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy Alpha Wann, Guizmo et Nekfeu Les sales bâtards schyzo et nerveux Qu'est-ce que tu vas faire ? On reste dur à ken Face à L'Entourage, mec, tu vas perdre C'est les sales négros et le sale babtou On est des gars réglos et on vous crache partout J'te tords et je t'agresse, au cro-mi j'ai l'feeling La force et l'adresse, un peu comme Yonea et Willy6</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Woop ! Woop ! Ziguili-zone sensible Woop ! Woop ! Guizmo la Caravelle 9-4, les Polognes, Malé, kalash' Mec le plus fou c'est pas oi-t Y'en a peu qui savent qu'on est déterminés Nique le Dirty South, j'viens les exterminer C'est le coeur qui parle, là j'suis pépère, j'y vais Cervelle grillée, beuh qui crame C'est nous les boss ? T'es rien du tout Tu reviens d'Écosse ? J'reviens du trou Des flingues, des drogues ? Des singes du blues Des s'ringues, des corses ? Des joints, du flouze Villeneuve-la-Garenne, Valenton, Savigny-le-Temple J't'aligne et j'te plante, j'arrive et j'me planque Chez toi, dans tes draps, j'sais qu't'aimes cacher les fuyards On va s'taper des cuites et grailler des pizzas Ensuite on fera l'amour, y'a des te-trai dans mes potes J'traîne même plus avec eux, j'suis écuré dans mes strophes J'ai dégueulé dans les chiottes, passé des nuits à cogiter Passé des nuits à trop tiser Passé des nuits à profiler la fourberie Plus ça va plus c'est bancale TourDePise Guiz' va mal et ces vantards s'foutent de lui Mais c'est plus la même quand j'rappe pour le titre Un album tous les six mois, qui va le faire ? Tu regardes que tes pompes, tu devrais vivre par terre Et fais pas l'innocent, tu sais à qui j'm'adresse Petite tapette, quitte la pièce avant qu'j'te brise la tête Moi j'te nique en rap et en bagarre de rue Tu m'appelais mon frère, t'es qu'un bâtard de plus Viguili-Villeneuve, j'ai priguili-pris l'seum Hamdoulah, dans ma tête, pour un djiguil-jingle Oui-giligili j'gueule, qu'avec moi t'étais en featuring Quand on s'est vu en tête-à-tête, t'avais des fuites d'urine Si tu flippes, c'est qu't'as quelque chose à te reprocher Ça s'tire dans les pattes pour une belle grosse à chevaucher Tu t'prends pour qui pour chanter la street ? T'as peur des cafards et des rats, tu penses qu'à tremper ta bite Allez ouste, t'es qu'un imposteur qui va s'enfoncer Un toasteur qui rappe en français Eh, c'est trop facile, tes flows rapides Et tes histoires de meufs, tu nous mitrailles de bluff Cousin, à l'avenir, t'éviteras d'me suck Dans les freestyles de eu-r et les petites tasses me veulent C'est ça qui t'fout la haine ? T'es devenu expert en coups fourrés sous la couette Juste pour la fraîche, et ça fout la rage Quand j'suis en train d'cramer ma zep J'me vois t'éclater la tête, et vous déclarer la guerre Mais j'vais épargner ta mère, j'oublie pas qu't'as été mon pote Jamais ! Mais j'oublie pas qu't'as baissé ton froc Ma tess et mon bloc, y'a que du flouz et de la tap' Mec, le plus fou, c'est pas oi-t ! Mais c'est pas moi non plus, j'vais pas rentrer dans ce jeu Quand tu fais l'trav', j'fais du jet-ski à Mandelieu J'suis technique quand je veux, j'm'exprime en langue de -ge J'viens choquer la foule comme Britney Spears sans cheveux Guizmo ! Retiens l'blaze de ton boss Serein j'claque ton pote, je deviens le mac de ton bloc Cousin, tu veux qu'j'rap dans ta ville ? Dis-moi combien tu donnes ? Tu veux du hash dans la street, négro combien tu donnes ? C'est pas gratos, crache la sauce et ça se stoppe là J'suis parano car j'm'arrose à la vodka En plus de ça des fils de pute me veulent du mal On verra bien s'ils font les chauds devant le feu d'une arme Ou devant le froid d'une lame, eh dis-moi de quoi tu parles Les racistes j'les calcule pas, c'est normal que j'broie du noir J'ai juste une question à poser à la concurrence Pourquoi vous vous attardez si vous savez pas rapper ? Bande de merdes, vous êtes à Los Angeles Bande de merdes, on veut des tonnes de fesses Bande de merdes quand j'suis posé dans ma rue Check, chikili check c'est la grande de-mer Bande de merdes, j'tabasse le beat Bande de merdes, j'arnaque le fisc Bande de merdes, quand j'suis posé dans ma tess Chikili-check, c'est la banlieue mère 9.2, Villeneuve-la-Garenne Tu veux pas jouer à la Caravelle Ça traîne tard dans nos tiers-quar La Goutte d'Or, tu peux pas test les mecs de Bès-bar You might also like Weed, pilons, 'sky, j'suis banquisé, j'ai l'temps d'tiser Vous m'enviez mais c'est nul ce délire Sérieux, vous êtes plus que des pitres Va t'faire enculer Tes émotions, tes préjugés J'parle à toutes les filles crades T'es trop sensible Pas la peine de t'inquiéter, j'ai un marabou efficace Y'a qu'ma zone qu'est sensible ici Comment ça s'passe ? Yonea Willy, Willy Yonea Bande d'enrégéfoigas, on va pas en réegésoirga Vas-y, vas-y zone sensible, fais la fête, fais la fête Vas-y danse bébé Vous êtes morts dans l'film Vas-y danse pour moi, ecsta' Viens pas test, t'es mort dans l'film face à Guizmo de Zone Sensible J'ai autant d'style que Marshall quand il pose dans l'film Négro j'suis authentique et offensif Gros quand j'kick, fais marche-arrière, j'roule tranquille, pas d'barrière Car j'ai un flow malsain, des fois j'me dis qu'c'est bientôt la fin... de ta carrière12</t>
+          <t>Woop ! Woop ! Ziguili-zone sensible Woop ! Woop ! Guizmo la Caravelle 9-4, les Polognes, Malé, kalash' Mec le plus fou c'est pas oi-t Y'en a peu qui savent qu'on est déterminés Nique le Dirty South, j'viens les exterminer C'est le coeur qui parle, là j'suis pépère, j'y vais Cervelle grillée, beuh qui crame C'est nous les boss ? T'es rien du tout Tu reviens d'Écosse ? J'reviens du trou Des flingues, des drogues ? Des singes du blues Des s'ringues, des corses ? Des joints, du flouze Villeneuve-la-Garenne, Valenton, Savigny-le-Temple J't'aligne et j'te plante, j'arrive et j'me planque Chez toi, dans tes draps, j'sais qu't'aimes cacher les fuyards On va s'taper des cuites et grailler des pizzas Ensuite on fera l'amour, y'a des te-trai dans mes potes J'traîne même plus avec eux, j'suis écuré dans mes strophes J'ai dégueulé dans les chiottes, passé des nuits à cogiter Passé des nuits à trop tiser Passé des nuits à profiler la fourberie Plus ça va plus c'est bancale TourDePise Guiz' va mal et ces vantards s'foutent de lui Mais c'est plus la même quand j'rappe pour le titre Un album tous les six mois, qui va le faire ? Tu regardes que tes pompes, tu devrais vivre par terre Et fais pas l'innocent, tu sais à qui j'm'adresse Petite tapette, quitte la pièce avant qu'j'te brise la tête Moi j'te nique en rap et en bagarre de rue Tu m'appelais mon frère, t'es qu'un bâtard de plus Viguili-Villeneuve, j'ai priguili-pris l'seum Hamdoulah, dans ma tête, pour un djiguil-jingle Oui-giligili j'gueule, qu'avec moi t'étais en featuring Quand on s'est vu en tête-à-tête, t'avais des fuites d'urine Si tu flippes, c'est qu't'as quelque chose à te reprocher Ça s'tire dans les pattes pour une belle grosse à chevaucher Tu t'prends pour qui pour chanter la street ? T'as peur des cafards et des rats, tu penses qu'à tremper ta bite Allez ouste, t'es qu'un imposteur qui va s'enfoncer Un toasteur qui rappe en français Eh, c'est trop facile, tes flows rapides Et tes histoires de meufs, tu nous mitrailles de bluff Cousin, à l'avenir, t'éviteras d'me suck Dans les freestyles de eu-r et les petites tasses me veulent C'est ça qui t'fout la haine ? T'es devenu expert en coups fourrés sous la couette Juste pour la fraîche, et ça fout la rage Quand j'suis en train d'cramer ma zep J'me vois t'éclater la tête, et vous déclarer la guerre Mais j'vais épargner ta mère, j'oublie pas qu't'as été mon pote Jamais ! Mais j'oublie pas qu't'as baissé ton froc Ma tess et mon bloc, y'a que du flouz et de la tap' Mec, le plus fou, c'est pas oi-t ! Mais c'est pas moi non plus, j'vais pas rentrer dans ce jeu Quand tu fais l'trav', j'fais du jet-ski à Mandelieu J'suis technique quand je veux, j'm'exprime en langue de -ge J'viens choquer la foule comme Britney Spears sans cheveux Guizmo ! Retiens l'blaze de ton boss Serein j'claque ton pote, je deviens le mac de ton bloc Cousin, tu veux qu'j'rap dans ta ville ? Dis-moi combien tu donnes ? Tu veux du hash dans la street, négro combien tu donnes ? C'est pas gratos, crache la sauce et ça se stoppe là J'suis parano car j'm'arrose à la vodka En plus de ça des fils de pute me veulent du mal On verra bien s'ils font les chauds devant le feu d'une arme Ou devant le froid d'une lame, eh dis-moi de quoi tu parles Les racistes j'les calcule pas, c'est normal que j'broie du noir J'ai juste une question à poser à la concurrence Pourquoi vous vous attardez si vous savez pas rapper ? Bande de merdes, vous êtes à Los Angeles Bande de merdes, on veut des tonnes de fesses Bande de merdes quand j'suis posé dans ma rue Check, chikili check c'est la grande de-mer Bande de merdes, j'tabasse le beat Bande de merdes, j'arnaque le fisc Bande de merdes, quand j'suis posé dans ma tess Chikili-check, c'est la banlieue mère 9.2, Villeneuve-la-Garenne Tu veux pas jouer à la Caravelle Ça traîne tard dans nos tiers-quar La Goutte d'Or, tu peux pas test les mecs de Bès-bar Weed, pilons, 'sky, j'suis banquisé, j'ai l'temps d'tiser Vous m'enviez mais c'est nul ce délire Sérieux, vous êtes plus que des pitres Va t'faire enculer Tes émotions, tes préjugés J'parle à toutes les filles crades T'es trop sensible Pas la peine de t'inquiéter, j'ai un marabou efficace Y'a qu'ma zone qu'est sensible ici Comment ça s'passe ? Yonea Willy, Willy Yonea Bande d'enrégéfoigas, on va pas en réegésoirga Vas-y, vas-y zone sensible, fais la fête, fais la fête Vas-y danse bébé Vous êtes morts dans l'film Vas-y danse pour moi, ecsta' Viens pas test, t'es mort dans l'film face à Guizmo de Zone Sensible J'ai autant d'style que Marshall quand il pose dans l'film Négro j'suis authentique et offensif Gros quand j'kick, fais marche-arrière, j'roule tranquille, pas d'barrière Car j'ai un flow malsain, des fois j'me dis qu'c'est bientôt la fin... de ta carrière12</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dans ma tête j'suis dans un délire parano et méfiant Barack O. est président mais j'suis toujours un sale nègre Comme un malaise entre purs blancs et peaux foncés Ouais, c'est la merde quand l'jugement est prononcé C'est pour ça qu'il faut s'arracher d'ici Dans l'esprit, changer d'vie mais y'a pas assez d'liquide Alors mes frères se lancent dans des business illégaux Flics, cess', weed et chrome, bah ouais, ça fait pas rêver Mais souvent, mes frérots n'ont pas le choix Alors ils sortent la nuit, bicravent de l'héro', le hach', le crack Cousin, il faut un maximum de billets Alors comprends qu'après le platinium, je fuirai J'ai pas le temps, ni l'envie d'rester sur place Devenir ce mec en chien posé avec son cul d'niaks Nan, nan, j'me suis infiltré dans l'rap J'étais pas invité, alors j'suis indigné quand j'gratte Je suis là et faudra vous y faire les gars Ils cherchaient la relève et y'avait qu'moi pour gérer l'bail YW, Zone Sensibilisée Willy m'a dit Pour faire du rap, il faut de l'authenticité Et il s'est pas trompé, nan Malgré les coups d'pute et les communiqués, on n'm'a pas dompté Je n'vois personne, j'suis enfermé dans ma bulle J'me détruit à force d'encaisser quand ça s'bute Putain, j'ai mal au bide là, Tu vois la 'teille vide là ? C'est ce que me dit le cercle vicelard Le cocktail est puissant, il me dévisage Et il procure une jouissance qui a un côté bizarre J'me vois même pas vivre sans, de peur d'être dans l'blizzard Ma putain d'vie d'caille m'a rendu distant J'te connais pas, tu m'connais pas, c'est comme ça qu'ça fonctionne Belek aux tasses-pé, les lopes-sa, ça ponctionne Elles sont belles, hein ? Tu crois qu'elles t'aiment, hein ? Mais pour rester, avec il faut qu'tu payes, hein Y'a les braves, y'a les michtons, tu connais l'dicton On fait un tête si tu crois qu'j'suis ton fiston J'vais m'venger, tu voulais faire de moi un automate Des fois, j'fais des rêves dans lesquels ta moto s'crashe J'suis à deux doigts de m'en foutre une dans le crâne Marre de vivre tous ces coups durs dans le noir Ma foutue banlieue sale a fait de moi un enfoiré de merde Malgré ça, j'aimerais tant marquer ce siècle Et sans parler de tess', j'tiens à dire que Là où j'ai grandi, on n'est pas plein à vivre vieux Et j'vise le disque de platine, fils deugueu tapine J'risque de partir Oui, je vais bâtir un empire de malade Sans rire, mes vampires, mes bandits de Paname Seront de la partie, il faut quitter la rue D'toute façon ça fait quoi ? Ça deale et ça s'bute Ça frime et ça fume, ça tire, c'est la rue On a chassé l'soleil pour attirer la brume On a fâché nos mères, enterré nos pères On a froissé nos ennemis et encaissé nos peines Merci Al-Khali pour tes conseils Pour avoir jamais réclamé un rond lors des concerts Merci L'Entourage, grâce à vous je sais Que l'amitié n'est qu'une vaste blague et qu'il y a pas d'pitié D'accord, j'ai fait quelques coups, quelques carottes Mais j'suis pas un enculé, vos mères les salopes J'me suis tapé pour des teu-traî, j'y ai laissé du sang Maintenant, j'ai choisi de rapper pour les reufrés Appelle nous les feu-ché, on prend d'l'expansion On est là dans l'shit, le rap, la cess' ou les que-ché T'es qué-cho ? Dis-toi qu'c'est rien, moi, j'suis fichu J'viens d'là où on est fauché et fait du bif en cachette Sachet d'beuh, j'rap dégueu', toi t'as du style mais moi c'est mieux Pourquoi ? Parce que le système, j'vais le baiser Oui chef !, c'est pas pour moi, évitez de me stresser Dans la main d'un keuf, c'est grave comment l'flingue ça bute Crade, logement insalubre Alors j'le dis, nique l'État, oui c'est grave Mais rien à faire, ma haine est viscérale You might also like Han, nan y'a rien à faire ma haine est viscérale Guizmo Whoo, zone sensible, 92 la Caravelle Okay, ça bouge même pas, 94, Valenton les Polognes On dit quoi les frérots ? Lognes-po Okay, ça bouge pas, c'est comme ça C'est comme ça, Al-Khali cousin Guizyouzou, vrais jusqu'à la fin Ouais, ouais, c'est comme ça qu'on fait les choses refré Okay, Zone Sensible6</t>
+          <t>Dans ma tête j'suis dans un délire parano et méfiant Barack O. est président mais j'suis toujours un sale nègre Comme un malaise entre purs blancs et peaux foncés Ouais, c'est la merde quand l'jugement est prononcé C'est pour ça qu'il faut s'arracher d'ici Dans l'esprit, changer d'vie mais y'a pas assez d'liquide Alors mes frères se lancent dans des business illégaux Flics, cess', weed et chrome, bah ouais, ça fait pas rêver Mais souvent, mes frérots n'ont pas le choix Alors ils sortent la nuit, bicravent de l'héro', le hach', le crack Cousin, il faut un maximum de billets Alors comprends qu'après le platinium, je fuirai J'ai pas le temps, ni l'envie d'rester sur place Devenir ce mec en chien posé avec son cul d'niaks Nan, nan, j'me suis infiltré dans l'rap J'étais pas invité, alors j'suis indigné quand j'gratte Je suis là et faudra vous y faire les gars Ils cherchaient la relève et y'avait qu'moi pour gérer l'bail YW, Zone Sensibilisée Willy m'a dit Pour faire du rap, il faut de l'authenticité Et il s'est pas trompé, nan Malgré les coups d'pute et les communiqués, on n'm'a pas dompté Je n'vois personne, j'suis enfermé dans ma bulle J'me détruit à force d'encaisser quand ça s'bute Putain, j'ai mal au bide là, Tu vois la 'teille vide là ? C'est ce que me dit le cercle vicelard Le cocktail est puissant, il me dévisage Et il procure une jouissance qui a un côté bizarre J'me vois même pas vivre sans, de peur d'être dans l'blizzard Ma putain d'vie d'caille m'a rendu distant J'te connais pas, tu m'connais pas, c'est comme ça qu'ça fonctionne Belek aux tasses-pé, les lopes-sa, ça ponctionne Elles sont belles, hein ? Tu crois qu'elles t'aiment, hein ? Mais pour rester, avec il faut qu'tu payes, hein Y'a les braves, y'a les michtons, tu connais l'dicton On fait un tête si tu crois qu'j'suis ton fiston J'vais m'venger, tu voulais faire de moi un automate Des fois, j'fais des rêves dans lesquels ta moto s'crashe J'suis à deux doigts de m'en foutre une dans le crâne Marre de vivre tous ces coups durs dans le noir Ma foutue banlieue sale a fait de moi un enfoiré de merde Malgré ça, j'aimerais tant marquer ce siècle Et sans parler de tess', j'tiens à dire que Là où j'ai grandi, on n'est pas plein à vivre vieux Et j'vise le disque de platine, fils deugueu tapine J'risque de partir Oui, je vais bâtir un empire de malade Sans rire, mes vampires, mes bandits de Paname Seront de la partie, il faut quitter la rue D'toute façon ça fait quoi ? Ça deale et ça s'bute Ça frime et ça fume, ça tire, c'est la rue On a chassé l'soleil pour attirer la brume On a fâché nos mères, enterré nos pères On a froissé nos ennemis et encaissé nos peines Merci Al-Khali pour tes conseils Pour avoir jamais réclamé un rond lors des concerts Merci L'Entourage, grâce à vous je sais Que l'amitié n'est qu'une vaste blague et qu'il y a pas d'pitié D'accord, j'ai fait quelques coups, quelques carottes Mais j'suis pas un enculé, vos mères les salopes J'me suis tapé pour des teu-traî, j'y ai laissé du sang Maintenant, j'ai choisi de rapper pour les reufrés Appelle nous les feu-ché, on prend d'l'expansion On est là dans l'shit, le rap, la cess' ou les que-ché T'es qué-cho ? Dis-toi qu'c'est rien, moi, j'suis fichu J'viens d'là où on est fauché et fait du bif en cachette Sachet d'beuh, j'rap dégueu', toi t'as du style mais moi c'est mieux Pourquoi ? Parce que le système, j'vais le baiser Oui chef !, c'est pas pour moi, évitez de me stresser Dans la main d'un keuf, c'est grave comment l'flingue ça bute Crade, logement insalubre Alors j'le dis, nique l'État, oui c'est grave Mais rien à faire, ma haine est viscérale Han, nan y'a rien à faire ma haine est viscérale Guizmo Whoo, zone sensible, 92 la Caravelle Okay, ça bouge même pas, 94, Valenton les Polognes On dit quoi les frérots ? Lognes-po Okay, ça bouge pas, c'est comme ça C'est comme ça, Al-Khali cousin Guizyouzou, vrais jusqu'à la fin Ouais, ouais, c'est comme ça qu'on fait les choses refré Okay, Zone Sensible6</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nique le Rap Jeu c'est que du crari, le Hip-Hop est ma patrie L'Entourage dans la partie, on fout les wacks au tapis Ça va être violent, mettez les gosses à l'abri Lalalalala, ici c'est Paris! J'vais montrer ce qu'on vaut ici, gars, c'est un homicide Je pénètre dans ton domicile, j'te crève et puis j'te momifie J'vais négliger les clichés, j'irai rédiger mes idées J'ai débité des lignes et des lignes et j'ai dit mes vérités File-moi plusieurs billets, j'suis un meurtrier C'est mon heure d'briller et de leur crier qu'j'ai le coeur grillé Si j'critique ouvertement le gouvernement Tu verras qu'soudainement, c'est l'soulèvement Car j'suis une divinité civilisée pour mon invisibilité Un voyage idyllique aux liquidités illimitées Tu té-ma le pimp, pépé t'as le style Mais t'fais pas de film, j'suis l'boss en matière d'schéma de rimes Allonge le cash, le son j'le taff, de préférence Avec élégance et persévérance pour que tout le monde le sache 2011 vous ne m'attendiez pas là J'm'arrête en 2012 comme le calendrier maya Et yo c'est L'Entourage, et on n'blague pas avec cette clique la Dans l'backpack j'ai des 8 barres qui tabassent tous tes freestyles Ma clique est magique envahit l'parvis et party la night Cravy j'navigue parmi les gars qui fascinent les gadjis d'Paname J'te l'certifie qu'on arrache, eux, ont au pire dix piges d'retard man Le biff fascine, j'capitalise en ville, pratique l'étalage Toute sorte de sneaks, toute sorte de shit, j'te dis Oui, oui, on a aç Genre Illmatic ou Killa Bees, nos titres abritent des tas d'phases Accordés comme des guitaristes, syllabic kidnapping J'dynamite lil' Paris, ça frise la tyranie quand l'équipe rapplique Si j'arrive à vivre la vie d'artiste, on s'tire à Miami Nique l'oeil, les pyramides, j'me sens plus près d'ceux qui récitent la Bible Ni criminel, ni vampire, j'ai l'frigidaire à remplir Déter', crane rasé tel un militaire à 30 piges Ici, l'hiver avance vite, on prépare d'quoi s'chauffer Face nordique, sape hors d'prix, pire au millimètre on prends l'bizz Ici l'ptit dej on s'en prive, les p'tits d'Big L ont tant d'rimes L'Entourage est dans la place, le périmètre est sensible Guizmo, 92, L'Entourage Ça fait un bail que j'ai l'niveau, sache que mes psychopathes S'passent de ces diplômes qui forment des caves et des mythomanes J'rappe que des hits au mic', gratte comme un schyzo Recale comme un physio, j'écarte tous ces types trop nazes Passer du rire aux larmes, chez moi, c'est banal On est passés par al, la misère a dévasté Paname Étaler ma rage et parler d'la came, des femmes, et d'la cage D'escalier, d'ces tarés qui tapent des braquages, pé-ra des rafales J'vais lâcher d'la phase pour brasser d'la maille Écarter la chatte des tasses-pé asiats Et pas d'tête à claques dans mon crew, j'fais les bails dans mon crew Quoi tu parles de mon crew ? Y'a qu'des wacks dans ton crew Laisse tomber, laisse-moi faire mon blé, m'faire pomper Mon sexe gonflé par une tisse-mé qui a les fesses bombées Me faire dompter ? Ça n'existe pas J'suis un vrai type dans l'nessbi des 16 rimes de barges Guiz ! F-G , l'Entourage Alcool, Rap, sexe et drogue, c'est l'décor quand les frères déconnent Cette époque de merde me fait perdre mes forces L'effort de paix se perd, balance, si la balle s'avance Entre ta dent et ta langue, c'est qu'tu devais peut être te taire Nos vies vides filent, dans la ville les types dealent de la weed Et s'imaginent quitter Lidl pour Little Italy, vieux J'pousse la rime dar, j'bouge ta team, moi Je rappe fort, c'est mon passeport pour la victoire Tu veux l'flouz ? Bouge ton cul ou vends-le, L'Entourage, tous dangereux Eff Gee, couz, quand je kicke, je fous tout le temps l'feu, j'te shoote quand j'veux Fous l'camp, j'vous prend qu'ça vienne d'Paname ou d'banlieue Moi à la base je m'en pète du biz J'rêve que d'Manhattan, frérot, qu'est-ce tu dis ? J'suis un mec qu'a la dalle, je veux faire du biff J'écris mes 16 à la fac quand j'y vais, tu piges ? Yeah, Alpha Wann, 1.9.9.5, tcheck yo, Chiggidy check Dis moi qui sait faire des sous gentiment ? Tu vas tout voir en soulevant l'divan J'nous vois tous dans 10 ans flottant avec des shoes en ciment Car on sera tous fauchés, portant 12 Glocks En train d'tousser, demander Yo, t'aurais pas un bout d'clope ? En tout cas n'emboucane pas l'Entourage, dans c'crew y'a pas De tantouze, et personne dans l'clan l'ouvre à la Frank Lucas J'balance des flows à risque, sauce harissa, d'Notre Dame A Botzaris, accoste à rive, amène la coke par l'Costa Rica Envoie l'coursier au port du Havre puis transac' au bord du lac S'il porte une arme, tu perces son corps Tu pars avec la coke du sac, dans le coffre du van Bref, un billet Lowcost, tu pars Avec ton assoc' du bail vers les plages du Portugal Eins, zwei, Drei, Alph Wann rappe Dar! Les balles partent, tahr la rafale à la Time Crisis Squatte pas, je capte pas les faces crades de lascars Qui s'tapent salement pour la fast life, éclairés par la magliteYou might also like6</t>
+          <t>Nique le Rap Jeu c'est que du crari, le Hip-Hop est ma patrie L'Entourage dans la partie, on fout les wacks au tapis Ça va être violent, mettez les gosses à l'abri Lalalalala, ici c'est Paris! J'vais montrer ce qu'on vaut ici, gars, c'est un homicide Je pénètre dans ton domicile, j'te crève et puis j'te momifie J'vais négliger les clichés, j'irai rédiger mes idées J'ai débité des lignes et des lignes et j'ai dit mes vérités File-moi plusieurs billets, j'suis un meurtrier C'est mon heure d'briller et de leur crier qu'j'ai le coeur grillé Si j'critique ouvertement le gouvernement Tu verras qu'soudainement, c'est l'soulèvement Car j'suis une divinité civilisée pour mon invisibilité Un voyage idyllique aux liquidités illimitées Tu té-ma le pimp, pépé t'as le style Mais t'fais pas de film, j'suis l'boss en matière d'schéma de rimes Allonge le cash, le son j'le taff, de préférence Avec élégance et persévérance pour que tout le monde le sache 2011 vous ne m'attendiez pas là J'm'arrête en 2012 comme le calendrier maya Et yo c'est L'Entourage, et on n'blague pas avec cette clique la Dans l'backpack j'ai des 8 barres qui tabassent tous tes freestyles Ma clique est magique envahit l'parvis et party la night Cravy j'navigue parmi les gars qui fascinent les gadjis d'Paname J'te l'certifie qu'on arrache, eux, ont au pire dix piges d'retard man Le biff fascine, j'capitalise en ville, pratique l'étalage Toute sorte de sneaks, toute sorte de shit, j'te dis Oui, oui, on a aç Genre Illmatic ou Killa Bees, nos titres abritent des tas d'phases Accordés comme des guitaristes, syllabic kidnapping J'dynamite lil' Paris, ça frise la tyranie quand l'équipe rapplique Si j'arrive à vivre la vie d'artiste, on s'tire à Miami Nique l'oeil, les pyramides, j'me sens plus près d'ceux qui récitent la Bible Ni criminel, ni vampire, j'ai l'frigidaire à remplir Déter', crane rasé tel un militaire à 30 piges Ici, l'hiver avance vite, on prépare d'quoi s'chauffer Face nordique, sape hors d'prix, pire au millimètre on prends l'bizz Ici l'ptit dej on s'en prive, les p'tits d'Big L ont tant d'rimes L'Entourage est dans la place, le périmètre est sensible Guizmo, 92, L'Entourage Ça fait un bail que j'ai l'niveau, sache que mes psychopathes S'passent de ces diplômes qui forment des caves et des mythomanes J'rappe que des hits au mic', gratte comme un schyzo Recale comme un physio, j'écarte tous ces types trop nazes Passer du rire aux larmes, chez moi, c'est banal On est passés par al, la misère a dévasté Paname Étaler ma rage et parler d'la came, des femmes, et d'la cage D'escalier, d'ces tarés qui tapent des braquages, pé-ra des rafales J'vais lâcher d'la phase pour brasser d'la maille Écarter la chatte des tasses-pé asiats Et pas d'tête à claques dans mon crew, j'fais les bails dans mon crew Quoi tu parles de mon crew ? Y'a qu'des wacks dans ton crew Laisse tomber, laisse-moi faire mon blé, m'faire pomper Mon sexe gonflé par une tisse-mé qui a les fesses bombées Me faire dompter ? Ça n'existe pas J'suis un vrai type dans l'nessbi des 16 rimes de barges Guiz ! F-G , l'Entourage Alcool, Rap, sexe et drogue, c'est l'décor quand les frères déconnent Cette époque de merde me fait perdre mes forces L'effort de paix se perd, balance, si la balle s'avance Entre ta dent et ta langue, c'est qu'tu devais peut être te taire Nos vies vides filent, dans la ville les types dealent de la weed Et s'imaginent quitter Lidl pour Little Italy, vieux J'pousse la rime dar, j'bouge ta team, moi Je rappe fort, c'est mon passeport pour la victoire Tu veux l'flouz ? Bouge ton cul ou vends-le, L'Entourage, tous dangereux Eff Gee, couz, quand je kicke, je fous tout le temps l'feu, j'te shoote quand j'veux Fous l'camp, j'vous prend qu'ça vienne d'Paname ou d'banlieue Moi à la base je m'en pète du biz J'rêve que d'Manhattan, frérot, qu'est-ce tu dis ? J'suis un mec qu'a la dalle, je veux faire du biff J'écris mes 16 à la fac quand j'y vais, tu piges ? Yeah, Alpha Wann, 1.9.9.5, tcheck yo, Chiggidy check Dis moi qui sait faire des sous gentiment ? Tu vas tout voir en soulevant l'divan J'nous vois tous dans 10 ans flottant avec des shoes en ciment Car on sera tous fauchés, portant 12 Glocks En train d'tousser, demander Yo, t'aurais pas un bout d'clope ? En tout cas n'emboucane pas l'Entourage, dans c'crew y'a pas De tantouze, et personne dans l'clan l'ouvre à la Frank Lucas J'balance des flows à risque, sauce harissa, d'Notre Dame A Botzaris, accoste à rive, amène la coke par l'Costa Rica Envoie l'coursier au port du Havre puis transac' au bord du lac S'il porte une arme, tu perces son corps Tu pars avec la coke du sac, dans le coffre du van Bref, un billet Lowcost, tu pars Avec ton assoc' du bail vers les plages du Portugal Eins, zwei, Drei, Alph Wann rappe Dar! Les balles partent, tahr la rafale à la Time Crisis Squatte pas, je capte pas les faces crades de lascars Qui s'tapent salement pour la fast life, éclairés par la maglite6</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ce pédé m'a appelé, m'a dit Strong me baffe pas Le clash, c'est un job mais ce shlag ne taffe pas Il parle de pilon, y bédave pas et y crapote J'le baise à 4 pattes avec 4 potes dans mon 4x4 sans capote En plus de ça mec, ça s'voit qu'ta paire est falche J'suis un keuf j't'arrête direct, ça s'voit qu't'as pas les faf Cet alcoolo monte sur scène avec des canettes de bière C'est un camé ce mec, j'vais l'fumer sans stosh comme une camel de merde Guizmo a dit à son père Achète moi un string ça m'ira Papa pourquoi tu m'as pas appelé salope ou Samira ? Téma le jean qui lui va pas, ça s'voit qu'c'est celui de son zinc Mec t'as la même vieille dégaine qu'une Peugeot 205 Dis au public qu'avant le clash tu voulais finir mini keuf J'aurais du amener mes petites nièces voici le renoi des Minikeums Guizmo l'esquimau, excuse-moi c'est qui c'môme qu'esquive l'eau ? Lave-toi ! Ta bite est plus poilue que la forêt du bois de Boulogne, un conseil casse toi et rase toi Pour commencer, j'dirais qu'j'ai trop d'phases d'avance donc va tèj tes flows J'sais pourquoi tu pèses tes mots, car t'es une sale balance Tu parles de business mais t'es un homme quasi honnête Et ouais j'ai vu ton clip vite aif d'vant ta zone pavillonnaire Ce soir t'as voulu défier le boss mais tu vas prendre ta gifle Y'en a qui dise que le rap c'était mieux avant, moi j'dis qu'c'était juste mieux avant qu't'arrives Il faut qu'j'te parle de ta meuf, tous ces textos m'fatiguent Elle me dit qu'elle en a marre de tes grosses babines et des péquenots d'ta team Allez t'as quelque chose à dire ? A part chez moi c'est chaud, ça tire Menteur, tu côtoies les ghettos d'Paris que quand tu pécho d'la weed Puis juste pour voir, j'ai écouté pleins d'tes sons Parler d'cité c'est bien mais bon, vu qu'j'ai niqué quelques femmes de ta famille j'suis p'tet un d'tes oncles You might also like Guizmo ferme ta chatte, il est grand temps de se taire Sa mère est devenue milliardaire depuis qu'elle taffe à la grande banque du sperme T'es aussi déformé que ma Xbox, ton son ne tournera même pas dans une jukebox Hey p'tit tox dis-moi, ta famille vit elle toujours dans ce p'tit box ? Ce mec est si moche que quand il sort de chez lui, toutes les putes font zarma de faire du stop Donc arrête de faire du style ou de faire ta star, on sait que t'ai qu'une faible du string Mec t'empeste l'alcool à des kilomètres, j't'ai vu devant boire 5 Ballantine Guizmo Normaaaal ça, j't'ai vu dehors comme un shlag à boire 5 teilles de Ballantine Sa meuf se fait tourner dans nos caves depuis long time pendant qu'ce pédé croit encore à la Saint-Valentine Dis-moi c'est quoi ces chaussures ? C'est des Puma, des Nike ou des niquer ? Si c'est des Nike, tu n'pourras pas dire qu'elles n'sont pas niquées car elles ressemblent à un banana pourri ou à un panini d'Paris mais en tout cas elles nous ont bien fait paniquer Faut juste qu'j'parle de sa meuf à celui la parce que ça sert à rien d'flamber ou bien d'faire ton boss Quand tu galère avec tes potes, ta meuf lèche mon torse Elle dit qu'c'est moi qu'elle préfère, elle aime me textoter Elle esquive même ses frères pour se faire sauter Pour info, des fois j'lui bouffe la schnek, j'lui mets ma bite dans l'trou T'es pas content ? J'te coupe la tête puis j'te chie dans le cou Avec moi, elle perd ses repères, elle n'a pas l'habitude Je lui mène la vie dure, elle sait qu'j'ai la bite rude Mais malgré tout ça, elle veut pas m'quitter Son cur j'fais palpiter, c'est l'effet Diakité Elle sait où est le vrai, le nec plus ultra J'lui dis donne tes fesses, une levrette plus une claque Poto rends toi à l'évidence, j't'ai piqué ta meuf Et tu l'as vois moins souvent d'puis qu'j'lui ai kické la seuf Et l'jour où tu l'apprends, c'est les prises de becs N'aie pas la haine, Guizmo c'est plus son style de mec J'connais Guizmo, j'ai la barre quand j'vais là-bas Sa daronne en djellaba suce trop bien car cest Janaba Qui suce mieux les zobs des hommes de lEssonne que la mère à Guizmo ? C'est que 5 dolls et encore c'est les soldes Mec ton visage est si bizarre que même Picasso ne pourrait même pas te peindre. Chez toi y'a même pas de pain J'sais pas comment ton père a fait pour niquer ta mère, elle n'a même pas de seins Parait qu'il a 19 ans mais c'est quoi cette tête de vieux. Dis-nous franchement, ça fait combien d'années que t'existes ? Ton haleine a failli nous mettre tous dans les vapes. Dépose ton CV à l'hosto, ils recrutent des anesthésistes Guizmo, Stunner t'as invité ici aujourd'hui pour qu'tu fasses rire mais t'es pas drôle Tu fais l'mec zarma qui clash, qui rap mais tes propres potes disent que quand ça s'tape, t'as pas de rôle Ce soir faut qu'ton entourage tencourage T'as tant de courage, montre ton torse qu'ils voient qu'y a mon blase en tatouage Guizmo Scar Logan, on est à Rap Contenders là c'est pas Dégaine ton Style T'as remarqué, autour d'ce clash y'a eu trop pleins d'enchères Normal, ils voulaient tous voir un vaurien prendre cher Et tous tes copains gangsters, en vrai c'est tous des salopes Genre ils exhibent des liasses sur les photos Facebook mais moi j'sais qu'c'est l'flouze des allocs' Quant à toi, tu joues l'clubber du genre j'connais l'physio d'l'Acropol C'est p'tet vrai mais quand j'te baise, tu m'dis Guizmo pas trop fort J'ai un minimum de respect donc j'vais pas parler sur tes nièces Puis fuck si, hier j'étais avec une d'entre elles, j'l'ai baisé puis j'lui ai craché sur les fesses T'es arrivé ici en t'pavanant, tu vas r'partir en cavalant, non non non non, en avalant, quand j'aurai craché mon jus Pour l'instant y'm'reste encore un peu d'temps pour taper ton cul Tu sais pas clasher, à vrai dire tu sais pas rapper non plus Un jour il a dit à ses potes les gars j'veux percer , ces tarés l'ont cru3</t>
+          <t>Ce pédé m'a appelé, m'a dit Strong me baffe pas Le clash, c'est un job mais ce shlag ne taffe pas Il parle de pilon, y bédave pas et y crapote J'le baise à 4 pattes avec 4 potes dans mon 4x4 sans capote En plus de ça mec, ça s'voit qu'ta paire est falche J'suis un keuf j't'arrête direct, ça s'voit qu't'as pas les faf Cet alcoolo monte sur scène avec des canettes de bière C'est un camé ce mec, j'vais l'fumer sans stosh comme une camel de merde Guizmo a dit à son père Achète moi un string ça m'ira Papa pourquoi tu m'as pas appelé salope ou Samira ? Téma le jean qui lui va pas, ça s'voit qu'c'est celui de son zinc Mec t'as la même vieille dégaine qu'une Peugeot 205 Dis au public qu'avant le clash tu voulais finir mini keuf J'aurais du amener mes petites nièces voici le renoi des Minikeums Guizmo l'esquimau, excuse-moi c'est qui c'môme qu'esquive l'eau ? Lave-toi ! Ta bite est plus poilue que la forêt du bois de Boulogne, un conseil casse toi et rase toi Pour commencer, j'dirais qu'j'ai trop d'phases d'avance donc va tèj tes flows J'sais pourquoi tu pèses tes mots, car t'es une sale balance Tu parles de business mais t'es un homme quasi honnête Et ouais j'ai vu ton clip vite aif d'vant ta zone pavillonnaire Ce soir t'as voulu défier le boss mais tu vas prendre ta gifle Y'en a qui dise que le rap c'était mieux avant, moi j'dis qu'c'était juste mieux avant qu't'arrives Il faut qu'j'te parle de ta meuf, tous ces textos m'fatiguent Elle me dit qu'elle en a marre de tes grosses babines et des péquenots d'ta team Allez t'as quelque chose à dire ? A part chez moi c'est chaud, ça tire Menteur, tu côtoies les ghettos d'Paris que quand tu pécho d'la weed Puis juste pour voir, j'ai écouté pleins d'tes sons Parler d'cité c'est bien mais bon, vu qu'j'ai niqué quelques femmes de ta famille j'suis p'tet un d'tes oncles Guizmo ferme ta chatte, il est grand temps de se taire Sa mère est devenue milliardaire depuis qu'elle taffe à la grande banque du sperme T'es aussi déformé que ma Xbox, ton son ne tournera même pas dans une jukebox Hey p'tit tox dis-moi, ta famille vit elle toujours dans ce p'tit box ? Ce mec est si moche que quand il sort de chez lui, toutes les putes font zarma de faire du stop Donc arrête de faire du style ou de faire ta star, on sait que t'ai qu'une faible du string Mec t'empeste l'alcool à des kilomètres, j't'ai vu devant boire 5 Ballantine Guizmo Normaaaal ça, j't'ai vu dehors comme un shlag à boire 5 teilles de Ballantine Sa meuf se fait tourner dans nos caves depuis long time pendant qu'ce pédé croit encore à la Saint-Valentine Dis-moi c'est quoi ces chaussures ? C'est des Puma, des Nike ou des niquer ? Si c'est des Nike, tu n'pourras pas dire qu'elles n'sont pas niquées car elles ressemblent à un banana pourri ou à un panini d'Paris mais en tout cas elles nous ont bien fait paniquer Faut juste qu'j'parle de sa meuf à celui la parce que ça sert à rien d'flamber ou bien d'faire ton boss Quand tu galère avec tes potes, ta meuf lèche mon torse Elle dit qu'c'est moi qu'elle préfère, elle aime me textoter Elle esquive même ses frères pour se faire sauter Pour info, des fois j'lui bouffe la schnek, j'lui mets ma bite dans l'trou T'es pas content ? J'te coupe la tête puis j'te chie dans le cou Avec moi, elle perd ses repères, elle n'a pas l'habitude Je lui mène la vie dure, elle sait qu'j'ai la bite rude Mais malgré tout ça, elle veut pas m'quitter Son cur j'fais palpiter, c'est l'effet Diakité Elle sait où est le vrai, le nec plus ultra J'lui dis donne tes fesses, une levrette plus une claque Poto rends toi à l'évidence, j't'ai piqué ta meuf Et tu l'as vois moins souvent d'puis qu'j'lui ai kické la seuf Et l'jour où tu l'apprends, c'est les prises de becs N'aie pas la haine, Guizmo c'est plus son style de mec J'connais Guizmo, j'ai la barre quand j'vais là-bas Sa daronne en djellaba suce trop bien car cest Janaba Qui suce mieux les zobs des hommes de lEssonne que la mère à Guizmo ? C'est que 5 dolls et encore c'est les soldes Mec ton visage est si bizarre que même Picasso ne pourrait même pas te peindre. Chez toi y'a même pas de pain J'sais pas comment ton père a fait pour niquer ta mère, elle n'a même pas de seins Parait qu'il a 19 ans mais c'est quoi cette tête de vieux. Dis-nous franchement, ça fait combien d'années que t'existes ? Ton haleine a failli nous mettre tous dans les vapes. Dépose ton CV à l'hosto, ils recrutent des anesthésistes Guizmo, Stunner t'as invité ici aujourd'hui pour qu'tu fasses rire mais t'es pas drôle Tu fais l'mec zarma qui clash, qui rap mais tes propres potes disent que quand ça s'tape, t'as pas de rôle Ce soir faut qu'ton entourage tencourage T'as tant de courage, montre ton torse qu'ils voient qu'y a mon blase en tatouage Guizmo Scar Logan, on est à Rap Contenders là c'est pas Dégaine ton Style T'as remarqué, autour d'ce clash y'a eu trop pleins d'enchères Normal, ils voulaient tous voir un vaurien prendre cher Et tous tes copains gangsters, en vrai c'est tous des salopes Genre ils exhibent des liasses sur les photos Facebook mais moi j'sais qu'c'est l'flouze des allocs' Quant à toi, tu joues l'clubber du genre j'connais l'physio d'l'Acropol C'est p'tet vrai mais quand j'te baise, tu m'dis Guizmo pas trop fort J'ai un minimum de respect donc j'vais pas parler sur tes nièces Puis fuck si, hier j'étais avec une d'entre elles, j'l'ai baisé puis j'lui ai craché sur les fesses T'es arrivé ici en t'pavanant, tu vas r'partir en cavalant, non non non non, en avalant, quand j'aurai craché mon jus Pour l'instant y'm'reste encore un peu d'temps pour taper ton cul Tu sais pas clasher, à vrai dire tu sais pas rapper non plus Un jour il a dit à ses potes les gars j'veux percer , ces tarés l'ont cru3</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yo - C'est quoi le bail là qu'tu rappes ? Han, cousin Quatre-vingt-douze ans d'avance et ça fait d'jà cent ans mon gars Yo, check Villeneuve-la-Garenne, les immeubles, la galère, les filles veuves, la galette Quatre-vingt-douze, Guizmo, L'Entourage Yo, yo J'crois que je l'ai déjà dis mais j'ai un temps d'avance J'met les gens de mauvaise humeur, comme le temps de la France Écoute ma merde, j'te jure que mes phases glissent J'rappais déjà des trucs de ouf, même quand tu fumais pas d'shit Han, trop d'MC sont faux comme ma paire de Air Stab J'viens les pare-choquer, donc faut qu'ils s'procurent des airbags Et sois pas choqué, quand tu écoutes mes seize barres J'suis un cachotier, ouais, en scred j'écris des textes barges Eh, en primaire, j'avais déjà du flow Même si je rappais doucement, bah, c'était pas du slow Non, comme mes camarades j'ai toujours eu la rage 9-2, dans l'journal, bah j'ai toujours lu la page Ouais, capuché avec ma clique de barbares Ves-qui les Batman, putain quelle rime de bâtard Et ouais, j'me branle sur vos putain d'gueules Car j'ai des futurs disques d'or sur ma putain d'feuille Et j'continue d'kicker, parce que les négros kiffent Je brille tellement, que j'ai perturbé ses nerfs optiques Ça y est j'suis chaud, celui qui m'arrête j'le clash Tu veux une lamelle de hash', petit ramène le cash Effectivement, rapper c'est plutôt mon truc Et pour tous ceux qui sucent des bites, bah, léchez plutôt son uc' Han, ouais je marrête plus gros, l'instru elle va prendre cher J'vais la bousiller, sur la tète de ma grand-mère Putain, vous savez pas comment j'ai les crocs, ouais J'suis qu'un amateur mais j'viens manger les pros Elle était bonne celle là, j'vais la foutre dans un autre texte Je suce personne, j'revendique Hauts-de-Seine Plus précisément, Villeneuve-la-Garenne Les immeubles, la galère, les filles veuves, la galette Si un jour, tu me trouves pas et qu'tu cherches une bête de phase Va voir Philly Phaal, bébé, il va t'faire le taf' J'suis tous les jours pété mais même a jeun j'avance À force de baiser l'état, j'ai déchiré l'vagin de la France Celle-là elle était hard, faudrait p't-être la censurer Mais je m'en bats les couilles, vu tout ce que j'ai enduré Dans deux-trois piges, j'me vois toujours poser sur le crom' Avec mon uc' de négro, posté sur le trône Ils ont sorti Saw 6, j'serais l'auteur de Saw 7 Ça va vous dégouter, comme une odeur de chaussette Tu veux vivre ma vie, j'espère que t'as les reins solides Car ce qui se passe dans mon zoo, ouais mon vieux, c'est insolite Ça bédave toute la journée et le soir c'est l'insomnie Tous mes potos bé-tom comme si ils marchaient sur un sol lisse Là où j'traîne, les gens ont des schlass dans l'jean Ils volent des quatre temps jdids et font des liasses dans l'shit Et j'ai sorti les couplets, les couilles pleines J'découpe les MC's qui dégoutent, j'les couche, avec des coups d'tête Guizmo qui débite, Guizmo qui déboîte Là c'est Guizmo qui effrite, là c'est Guizmo qui t'éclate Merde, faut que les sous tapent à ma porte J'en peux plus que ma mère fantasme sur la baraque de Jack Abbott Le blues, il est là, mais j'attends qu'il s'casse Le bonheur c'est une poucave, ça doit être pour ça qu'il s'cache Voyons, qui veut test le best, le Guizi' Tu joues le gangst' mais tu me peps' le zizi J'suis en avance, chaque dix minutes, un flow sort de l'usine J'ai plié la concurrence sur les blogs music Tu te demandes si je vais encore continuer longtemps Ouais ouais ouais et nique ta reum' si t'es pas content Wesh, les rappeurs sont trop comiques Savent pas qu'une seule de mes phases est une sorte de prototype Han, mes potos bandent que devant une belle plaquette Venez à Villeneuve-la-Garenne, vous allez perdre la tête Et ça fait un pour mes couche-tard qui grattent les alloc' Deux, pour mes gosse-bo qui draguent des salopes Trois pour mon tieks', quatre pour le tien Cinq, ça le fait, mon son tourne bien Six, mec, reste à ta place Prends tes jambes à ton cou si t'as les dek' à ta trace J'viens de la tess' à la base, lâche des textes à l'arrache Amateurs ou pros, j'vais vous mettre à la page Faut que je m'en sorte, mec, le suicide m'caresse la patte Faut plus que j'abaisse la garde, à chaque fois que j'agresse la BAC Ça finit en garde à vue, ces bâtards sont à l'affût Ils veulent provoquer ta chute, pour te voir en bas d'la rue Mais j'ai d'autres projets pour ma vie, j'viens d'là où les fous habitent Que les suceurs bouffent ma bite, Guizmo rappe et pousse la rime Dans ses derniers retranchements Je n'fais qu'me mettre en jambes, faut un cut et c'est tranchant You might also like Cousin - Vas-y, vas-y, on... Quatre-vingt-douze - Vas-y, vas-y, on la r'fait en mode...5</t>
+          <t>Yo - C'est quoi le bail là qu'tu rappes ? Han, cousin Quatre-vingt-douze ans d'avance et ça fait d'jà cent ans mon gars Yo, check Villeneuve-la-Garenne, les immeubles, la galère, les filles veuves, la galette Quatre-vingt-douze, Guizmo, L'Entourage Yo, yo J'crois que je l'ai déjà dis mais j'ai un temps d'avance J'met les gens de mauvaise humeur, comme le temps de la France Écoute ma merde, j'te jure que mes phases glissent J'rappais déjà des trucs de ouf, même quand tu fumais pas d'shit Han, trop d'MC sont faux comme ma paire de Air Stab J'viens les pare-choquer, donc faut qu'ils s'procurent des airbags Et sois pas choqué, quand tu écoutes mes seize barres J'suis un cachotier, ouais, en scred j'écris des textes barges Eh, en primaire, j'avais déjà du flow Même si je rappais doucement, bah, c'était pas du slow Non, comme mes camarades j'ai toujours eu la rage 9-2, dans l'journal, bah j'ai toujours lu la page Ouais, capuché avec ma clique de barbares Ves-qui les Batman, putain quelle rime de bâtard Et ouais, j'me branle sur vos putain d'gueules Car j'ai des futurs disques d'or sur ma putain d'feuille Et j'continue d'kicker, parce que les négros kiffent Je brille tellement, que j'ai perturbé ses nerfs optiques Ça y est j'suis chaud, celui qui m'arrête j'le clash Tu veux une lamelle de hash', petit ramène le cash Effectivement, rapper c'est plutôt mon truc Et pour tous ceux qui sucent des bites, bah, léchez plutôt son uc' Han, ouais je marrête plus gros, l'instru elle va prendre cher J'vais la bousiller, sur la tète de ma grand-mère Putain, vous savez pas comment j'ai les crocs, ouais J'suis qu'un amateur mais j'viens manger les pros Elle était bonne celle là, j'vais la foutre dans un autre texte Je suce personne, j'revendique Hauts-de-Seine Plus précisément, Villeneuve-la-Garenne Les immeubles, la galère, les filles veuves, la galette Si un jour, tu me trouves pas et qu'tu cherches une bête de phase Va voir Philly Phaal, bébé, il va t'faire le taf' J'suis tous les jours pété mais même a jeun j'avance À force de baiser l'état, j'ai déchiré l'vagin de la France Celle-là elle était hard, faudrait p't-être la censurer Mais je m'en bats les couilles, vu tout ce que j'ai enduré Dans deux-trois piges, j'me vois toujours poser sur le crom' Avec mon uc' de négro, posté sur le trône Ils ont sorti Saw 6, j'serais l'auteur de Saw 7 Ça va vous dégouter, comme une odeur de chaussette Tu veux vivre ma vie, j'espère que t'as les reins solides Car ce qui se passe dans mon zoo, ouais mon vieux, c'est insolite Ça bédave toute la journée et le soir c'est l'insomnie Tous mes potos bé-tom comme si ils marchaient sur un sol lisse Là où j'traîne, les gens ont des schlass dans l'jean Ils volent des quatre temps jdids et font des liasses dans l'shit Et j'ai sorti les couplets, les couilles pleines J'découpe les MC's qui dégoutent, j'les couche, avec des coups d'tête Guizmo qui débite, Guizmo qui déboîte Là c'est Guizmo qui effrite, là c'est Guizmo qui t'éclate Merde, faut que les sous tapent à ma porte J'en peux plus que ma mère fantasme sur la baraque de Jack Abbott Le blues, il est là, mais j'attends qu'il s'casse Le bonheur c'est une poucave, ça doit être pour ça qu'il s'cache Voyons, qui veut test le best, le Guizi' Tu joues le gangst' mais tu me peps' le zizi J'suis en avance, chaque dix minutes, un flow sort de l'usine J'ai plié la concurrence sur les blogs music Tu te demandes si je vais encore continuer longtemps Ouais ouais ouais et nique ta reum' si t'es pas content Wesh, les rappeurs sont trop comiques Savent pas qu'une seule de mes phases est une sorte de prototype Han, mes potos bandent que devant une belle plaquette Venez à Villeneuve-la-Garenne, vous allez perdre la tête Et ça fait un pour mes couche-tard qui grattent les alloc' Deux, pour mes gosse-bo qui draguent des salopes Trois pour mon tieks', quatre pour le tien Cinq, ça le fait, mon son tourne bien Six, mec, reste à ta place Prends tes jambes à ton cou si t'as les dek' à ta trace J'viens de la tess' à la base, lâche des textes à l'arrache Amateurs ou pros, j'vais vous mettre à la page Faut que je m'en sorte, mec, le suicide m'caresse la patte Faut plus que j'abaisse la garde, à chaque fois que j'agresse la BAC Ça finit en garde à vue, ces bâtards sont à l'affût Ils veulent provoquer ta chute, pour te voir en bas d'la rue Mais j'ai d'autres projets pour ma vie, j'viens d'là où les fous habitent Que les suceurs bouffent ma bite, Guizmo rappe et pousse la rime Dans ses derniers retranchements Je n'fais qu'me mettre en jambes, faut un cut et c'est tranchant Cousin - Vas-y, vas-y, on... Quatre-vingt-douze - Vas-y, vas-y, on la r'fait en mode...5</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Zone sensible J'suis meilleur que toi Ouai j'te déteste bâtard Quand j'suis pas à Villeneuve j'suis Bèguès-Bagar Ouai je roule un spliff de bon seum Tous les jours sur tes lèvres J'suis en clash avec la bite de ton keum On en a rien à foutre de ce que vous pensez En s'en met plein les fouilles pendant que vous dansez On va pas faire semblant de se venger C'est pour les enfants en danger dans le tieks et le Tiers-Monde Pendant qu'on fait la fête avec nos sexes dans de belles blondes Ma bite dans leur tege-chaga Des fois je jouis sur leur pege-saga J'fume la weed mais j'suis ne-jeu ça va Et les releus savent Que j'ai pas mon titre de transport mais j'les ensorcelle en style de mange-mort Gore gore à la Willy Hold-up Khadafigui Pour mes Colt Colt blop blop à la Pillie Viguinegueuve, Viguinegeux Puis je vis le seum À cause de chiguifre tous les civiles me veulent Arrêtes tes facéties, t'es pas crédible Moi j'apprécie les gars scre-di Mais tard et tisé tape les flics J'avertis les travestis J'ai pas de mérite à gratter des rimes taper les guignols Qui ne rappent que des mythos méritent des claques et des guibolles Et puis khlass on est grave efficace Pas besoin de faire le fou après une pêche tu restes debout J'te sors le shlass et t'y passe J'suis un hustler, muslim Sauf que c'est la hass hélas Donc baby, fais bouger tes fesses là Et t'as des frayeurs j'suis le player Le veilleur de nuit Tu kiffes un rappeur mais sache que j'suis meilleur que lui On a pas les mêmes valeurs J'traîne avec des bêtes de lascars des mecs de Dakar comme Al Khali Mon sosse dis-leur bientôt y'aura les clic-clac Grâce aux freestyles y'aura du biffeton et des femmes faciles Mais rien à foutre de danser ou d'chanter ou d'prôner ma force En pleine dépression j'ai d'jà tenté d'me donner la mort You might also likeHé viens pas menacer le Guizmo À cause du verre de trop j'ai envie de braquer le physio Au grenaille ou aux balles à gomme Négro on changera la donne Villeneuve, La Garenne, Caravelle on bédave la drogue Wesh Alimi, wesh Pio, Wesh IDN J'ves-qui les dék, j'méprise les traîtres et tu le sais J'suis un gringalet de 20 balais J'ai mes singes avec oim viens pas test' ou on te flingue avec rage C'est Guizmo-go, nique la lice-po-go Posé, fonce-dé au bitrot-go j'bédave la weed popo on m'dit que j'vise trop haut Mais j'suis un player, le veilleur de nuit Tu kiffes un rappeur mais sache que j'suis meilleur que lui J'suis même meilleur que l'MC qu'est meilleur que lui En gros j'suis meilleur que moi-même Et j'ai le flozow essaie Même dans le premier chagrin du jour y'a une teille de Mozoezet Et je t'offre ma bite des squatchs et des femmes mures Petit Guiz' fume des spliffs et casse des voitures Putin c'est gravissime, c'est quand qu'on se casse d'ici J'viens violer le rap Patrick Dils Les freestyles sur le net? Oui j'offre J'te le répète j'viens tous vous pointer Guy Georges Dans les 90's brassés avec la frica On allait même pas en taule Jacques Chirac Tu veux me test, tu me menaces, on ve-gué-ra gars J'sors le 3 Octobre j'explose tout fegueraga On fait des ravages Zone sensible Ouai Banlieue dégueulasse Chez nous c'est plus sale que chez toi 92 18ème5</t>
+          <t>Zone sensible J'suis meilleur que toi Ouai j'te déteste bâtard Quand j'suis pas à Villeneuve j'suis Bèguès-Bagar Ouai je roule un spliff de bon seum Tous les jours sur tes lèvres J'suis en clash avec la bite de ton keum On en a rien à foutre de ce que vous pensez En s'en met plein les fouilles pendant que vous dansez On va pas faire semblant de se venger C'est pour les enfants en danger dans le tieks et le Tiers-Monde Pendant qu'on fait la fête avec nos sexes dans de belles blondes Ma bite dans leur tege-chaga Des fois je jouis sur leur pege-saga J'fume la weed mais j'suis ne-jeu ça va Et les releus savent Que j'ai pas mon titre de transport mais j'les ensorcelle en style de mange-mort Gore gore à la Willy Hold-up Khadafigui Pour mes Colt Colt blop blop à la Pillie Viguinegueuve, Viguinegeux Puis je vis le seum À cause de chiguifre tous les civiles me veulent Arrêtes tes facéties, t'es pas crédible Moi j'apprécie les gars scre-di Mais tard et tisé tape les flics J'avertis les travestis J'ai pas de mérite à gratter des rimes taper les guignols Qui ne rappent que des mythos méritent des claques et des guibolles Et puis khlass on est grave efficace Pas besoin de faire le fou après une pêche tu restes debout J'te sors le shlass et t'y passe J'suis un hustler, muslim Sauf que c'est la hass hélas Donc baby, fais bouger tes fesses là Et t'as des frayeurs j'suis le player Le veilleur de nuit Tu kiffes un rappeur mais sache que j'suis meilleur que lui On a pas les mêmes valeurs J'traîne avec des bêtes de lascars des mecs de Dakar comme Al Khali Mon sosse dis-leur bientôt y'aura les clic-clac Grâce aux freestyles y'aura du biffeton et des femmes faciles Mais rien à foutre de danser ou d'chanter ou d'prôner ma force En pleine dépression j'ai d'jà tenté d'me donner la mort Hé viens pas menacer le Guizmo À cause du verre de trop j'ai envie de braquer le physio Au grenaille ou aux balles à gomme Négro on changera la donne Villeneuve, La Garenne, Caravelle on bédave la drogue Wesh Alimi, wesh Pio, Wesh IDN J'ves-qui les dék, j'méprise les traîtres et tu le sais J'suis un gringalet de 20 balais J'ai mes singes avec oim viens pas test' ou on te flingue avec rage C'est Guizmo-go, nique la lice-po-go Posé, fonce-dé au bitrot-go j'bédave la weed popo on m'dit que j'vise trop haut Mais j'suis un player, le veilleur de nuit Tu kiffes un rappeur mais sache que j'suis meilleur que lui J'suis même meilleur que l'MC qu'est meilleur que lui En gros j'suis meilleur que moi-même Et j'ai le flozow essaie Même dans le premier chagrin du jour y'a une teille de Mozoezet Et je t'offre ma bite des squatchs et des femmes mures Petit Guiz' fume des spliffs et casse des voitures Putin c'est gravissime, c'est quand qu'on se casse d'ici J'viens violer le rap Patrick Dils Les freestyles sur le net? Oui j'offre J'te le répète j'viens tous vous pointer Guy Georges Dans les 90's brassés avec la frica On allait même pas en taule Jacques Chirac Tu veux me test, tu me menaces, on ve-gué-ra gars J'sors le 3 Octobre j'explose tout fegueraga On fait des ravages Zone sensible Ouai Banlieue dégueulasse Chez nous c'est plus sale que chez toi 92 18ème5</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>×2 Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Un frémissement, un gémissement Un génie s'pend, merde, qu'est-ce qui t'prend ? Un déni d'tempête évident, mec Les médisants guettent mes silences mais Toi, ça fait 10 ans que t'es résistant Que tu fais tes bails sur le même ciment Que tu fais des doigts contre le Président Police fédérale, sale régiment Tard, tous les lascars tapent la tchatche Partout, les bagarres marquent ta face Squatte tous les bars chaque fois que t'as soif Leurs patates à la rage envoient leurs lois de la classe Tous sont des barbares, poussent dans les blablas Shootent dans les barrages, voient de la crasse L'Etat garde la drogue saisie en provenance des montagnes de l'Atlas J'ai toujours été le moins sage de ma classe Tu parles de ta place, non J'veux pas de te face, garde tes remarques et tes tas de sarcasmes Car les profs attendent que l'époque de propagande les portent Hors de l'école et décollent pour de grandes vacances Ce sont des machines à bâtir un dictat nazi Mais il ne s'agit pas d'racisme, on a Rachida Dati You might also like ×2 Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Yo, c'est moi l'boss, Khadafi avec un mic Crois-moi, si je pète un cable, j'bada-bim avec un nine Taffe la rime avec un style d'enculé sans fumer J'y arriverai pas, wesh, c'est quand qu'on dynamite lÉtat ? Vis-à-vis des lois Woo, Woo, j'suis dans la marginalité La street m'a pisté, elle m'a dit Vas-y, va crypter Mec, j'sais pas si t'as tilté, c'est pas opé, des civils trainent C'est tellement la merde, j'ai vu des gars voler des bicyclettes Cabosser des midinettes, tu sais Les merdes qui jouaient les fous, qui voulaient s'approcher d'mes petits business Qu'est que tu connais d'la rue ? Hein !? Quelques bières et des bagarres d'adolescents J'ai pas l'time à donner d'dans et moi j'parle qu'à bon escient Ça fait 20 piges que j'me bouffe les couilles Tous les jours, poussez-vous, j'vais tous les goomer Bande d'enfoirés, là c'est Guizmo et Nekfeu Les sales bâtards skyzo et nerveux Nique le gouvernement et c'bâtard de Président Loin des pavtards c'est pour nos bâtiments, HLM résidents On veut des sous, mais qu'est qu'on fait pour nous? Alors les frères se servent et finissent sous écrous Va dire aux riches d'lâcher un peu d'leur argent Ça évitera aux tits-pe d'se faire serrer par les darmes-gen Chômage, précarité, discrimination, j'baise la nation Avec passion et Carla m'fait une fellation Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Guizmo, couzin, Nekfeu, chickity-check Zone sensible, frérot J'aurais pu choisir l'école ou un litron de C J'ai choisi d'rapper et j'viens triompher Wealstar Triomphe, chickity-check Biguidibang, bande d'en-re-foi, gars6</t>
+          <t>×2 Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Un frémissement, un gémissement Un génie s'pend, merde, qu'est-ce qui t'prend ? Un déni d'tempête évident, mec Les médisants guettent mes silences mais Toi, ça fait 10 ans que t'es résistant Que tu fais tes bails sur le même ciment Que tu fais des doigts contre le Président Police fédérale, sale régiment Tard, tous les lascars tapent la tchatche Partout, les bagarres marquent ta face Squatte tous les bars chaque fois que t'as soif Leurs patates à la rage envoient leurs lois de la classe Tous sont des barbares, poussent dans les blablas Shootent dans les barrages, voient de la crasse L'Etat garde la drogue saisie en provenance des montagnes de l'Atlas J'ai toujours été le moins sage de ma classe Tu parles de ta place, non J'veux pas de te face, garde tes remarques et tes tas de sarcasmes Car les profs attendent que l'époque de propagande les portent Hors de l'école et décollent pour de grandes vacances Ce sont des machines à bâtir un dictat nazi Mais il ne s'agit pas d'racisme, on a Rachida Dati ×2 Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Yo, c'est moi l'boss, Khadafi avec un mic Crois-moi, si je pète un cable, j'bada-bim avec un nine Taffe la rime avec un style d'enculé sans fumer J'y arriverai pas, wesh, c'est quand qu'on dynamite lÉtat ? Vis-à-vis des lois Woo, Woo, j'suis dans la marginalité La street m'a pisté, elle m'a dit Vas-y, va crypter Mec, j'sais pas si t'as tilté, c'est pas opé, des civils trainent C'est tellement la merde, j'ai vu des gars voler des bicyclettes Cabosser des midinettes, tu sais Les merdes qui jouaient les fous, qui voulaient s'approcher d'mes petits business Qu'est que tu connais d'la rue ? Hein !? Quelques bières et des bagarres d'adolescents J'ai pas l'time à donner d'dans et moi j'parle qu'à bon escient Ça fait 20 piges que j'me bouffe les couilles Tous les jours, poussez-vous, j'vais tous les goomer Bande d'enfoirés, là c'est Guizmo et Nekfeu Les sales bâtards skyzo et nerveux Nique le gouvernement et c'bâtard de Président Loin des pavtards c'est pour nos bâtiments, HLM résidents On veut des sous, mais qu'est qu'on fait pour nous? Alors les frères se servent et finissent sous écrous Va dire aux riches d'lâcher un peu d'leur argent Ça évitera aux tits-pe d'se faire serrer par les darmes-gen Chômage, précarité, discrimination, j'baise la nation Avec passion et Carla m'fait une fellation Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Nous on chante pas la Marseillaise alors écoute la Parisienne Toute la patrie saigne vu que l'histoire nous a sacrifié Allons, enfants de la patrie, le jour de gloire est arrivé Car la tyrannie des types racistes trahit la réalité Nous on chante pas la Marseillaise alors écoute la Parisienne Nous on chante pas la Marseillaise alors écoute la Parisienne Guizmo, couzin, Nekfeu, chickity-check Zone sensible, frérot J'aurais pu choisir l'école ou un litron de C J'ai choisi d'rapper et j'viens triompher Wealstar Triomphe, chickity-check Biguidibang, bande d'en-re-foi, gars6</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alcool et bédo mes sales manies c'est trop malsain J'sais même plus si on est tard la nuit ou tôt l'matin Les halls, la faim, la bicrave, la substance La pillave à outrance ça nuit à la douce France Mais nique sa mère j'le répèterai X fois Quand j'écris le soir jusque dans mes prises de voix Et puis j'me dois de rendre fiers les miens Ils ont misé sur moi faut qu'ils encaissent les gains Alors j'blesse quand j'ai bu Traîne dans les rues J'aime quand c'est cru Genre un splif et mon sexe dans des culs Ouais guette dans les ZUP les temps c'est cru Mes pensées fusent et j'me dis qu'il y a pas de fraîche sans les stup Alors je fais ce job me blesse le corps Menfume la tête pour zapper qu'elle est pleine de remords Et j'reste fort ouais à l'image d'mon père Allez vite crache ton pèze quand j'te bicrave mon diéz Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien You might also like J'aime quand ça part en couille mais j'suis calme de nature J'parle de la ue-r et j'suis fan de la thune Et j'ai hâte que ma plume fasse les pages de l'actu Parce que j'assure et que tard j'me la bute Ouais j'suis die et j'assume Si tu baves je t'allume Si tu crois qu'je fabule guette la chatte de ta pute Capte la ruse ou reste en galère Tu fais ptetre des manières mais t'as grave de lacunes J'sais pas ce que t'as cru mais j'suis ap ton collègue J'taffe mon projet quand tu tapes de la brune Et man je sature je veux placer mes billes Mais ce rap est débile c'est les wacks que j'accuse Et saches que j'abuse du shit et de l'alcool Moi j'suis triste et hardcore mais des femmes me la suce J'oubliais j'baise les flics à fond Et j'écris plus des punchlines mais des citations Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien Vas-y passe le spliff, guette les phases de c'type Dans le cul t'en peux plus ouais j'suis grave despi J'me crame le bide avec le sky Mais je reste cool et j'te goume si ta tête me gave Y a quelque chose qui va pas dans mes textes J'suis absent et vexé ils pensent qu'y a que du hasch dans les téss Maintenant tu sais pourquoi j'ai mal Aucune fortune j'suis la tortue qu'on trouve pas génial Pousse-toi t'es naze J'avais ton flow à 13 piges Je vesqui je reste ivre et vise le prestige Les mecs vibrent quand je rappe toutes mes 16 rimes Falsh Mesrine tu ne braques que des caisses vides Fais style mais j'ai cramé tous tes vices T'es un faux et t'as chaud que ta mère te coupe les vivres Cousin, moi tu me la fais pas c'est mort Et puis si t'aimes pas les noirs viens donc dans mon Paris Nord Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien3</t>
+          <t>Alcool et bédo mes sales manies c'est trop malsain J'sais même plus si on est tard la nuit ou tôt l'matin Les halls, la faim, la bicrave, la substance La pillave à outrance ça nuit à la douce France Mais nique sa mère j'le répèterai X fois Quand j'écris le soir jusque dans mes prises de voix Et puis j'me dois de rendre fiers les miens Ils ont misé sur moi faut qu'ils encaissent les gains Alors j'blesse quand j'ai bu Traîne dans les rues J'aime quand c'est cru Genre un splif et mon sexe dans des culs Ouais guette dans les ZUP les temps c'est cru Mes pensées fusent et j'me dis qu'il y a pas de fraîche sans les stup Alors je fais ce job me blesse le corps Menfume la tête pour zapper qu'elle est pleine de remords Et j'reste fort ouais à l'image d'mon père Allez vite crache ton pèze quand j'te bicrave mon diéz Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien J'aime quand ça part en couille mais j'suis calme de nature J'parle de la ue-r et j'suis fan de la thune Et j'ai hâte que ma plume fasse les pages de l'actu Parce que j'assure et que tard j'me la bute Ouais j'suis die et j'assume Si tu baves je t'allume Si tu crois qu'je fabule guette la chatte de ta pute Capte la ruse ou reste en galère Tu fais ptetre des manières mais t'as grave de lacunes J'sais pas ce que t'as cru mais j'suis ap ton collègue J'taffe mon projet quand tu tapes de la brune Et man je sature je veux placer mes billes Mais ce rap est débile c'est les wacks que j'accuse Et saches que j'abuse du shit et de l'alcool Moi j'suis triste et hardcore mais des femmes me la suce J'oubliais j'baise les flics à fond Et j'écris plus des punchlines mais des citations Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien Vas-y passe le spliff, guette les phases de c'type Dans le cul t'en peux plus ouais j'suis grave despi J'me crame le bide avec le sky Mais je reste cool et j'te goume si ta tête me gave Y a quelque chose qui va pas dans mes textes J'suis absent et vexé ils pensent qu'y a que du hasch dans les téss Maintenant tu sais pourquoi j'ai mal Aucune fortune j'suis la tortue qu'on trouve pas génial Pousse-toi t'es naze J'avais ton flow à 13 piges Je vesqui je reste ivre et vise le prestige Les mecs vibrent quand je rappe toutes mes 16 rimes Falsh Mesrine tu ne braques que des caisses vides Fais style mais j'ai cramé tous tes vices T'es un faux et t'as chaud que ta mère te coupe les vivres Cousin, moi tu me la fais pas c'est mort Et puis si t'aimes pas les noirs viens donc dans mon Paris Nord Alcool, rap, sexe et drogue Mec à force de baiser trop d'schnek J'adore le péché l'obscène et les vrais m'épaulent Guizmo la Banquise Des bistrots la hantise Les mythos, la franchise Mec c'est mon quotidien3</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yonea Willy Willy Yonea Business Ouzou Guizi Coucou sisi VLT zoo, VLG zoo J'ai déçu tous les gens qu'j'aime Nan, je sais pas trop m'y prendre Le diable cherchait une âme Mais moi j'ai failli lui vendre J'suis pas plus malheureux qu'toi J'suis pas plus malheureux qu'elle Mais j'ai marché dans le froid Priant pour une chambre d'hôtel Et j'étais pare-choqué J'grattais les murs à Pigalle Un p'tit she-fla, des garettes-ci et peut-être même un dix balles Un animal dans Paris, un p'tit sauvage des banlieues À cette époque j'ignore encore que plus tard j'f'rai des envieux Putain mais qu'est c'qui m'arrive ? Besoin de prendre le large J'en ai marre de vendre le crack entouré d'cette bande de barges Et peu importe le flacon, nous tout c'qu'on veut c'est l'ivresse J'bédave un oinj' au balcon J'pense à reprendre le business You might also like Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon Je l'aimais plus que moi-même, mais j'ai pas su lui montrer J'découpais ça en lamelles, et puis c'est elle qui comptait Mais on était pare-choqué, on s'tapait d'ssus comme des fous Des fois ça sentait la fin, mais on s'laissait dans le flou Et moi j'suis là sous le porche, ma cigarette à la bouche J'passe un coup d'fil à une folle, j'veux l'oublier dans une fouf Nan tu sais pas c'que c'est, j'ai qu'ma musique et ma voix J'suis pas heureux dans ma vie mais j'ai la furie et la foi J'crois qu'j'vais continuer tout seul, j'ai pas la tête à la fête J'ai fait des choix, vendu des trucs igo qui t'mènent à ta perte J'ai vu mon père se droguer, j'ai vu ma mère le pleurer J'pensais qu'j'pouvais noyer tous ces trucs au fond d'un rre-ve Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon J'm'adresse à tous les p'tits frères, qu'j'ai incité à l'alcool J'vous avoue qu'j'en suis pas fier et j'le dirai dans l'album Mais j'étais pare-choqué, entre les chutes, les galères La rage de vaincre, la haine de vivre, ils ont expulsé ma mère Et moi j'suis pas mieux qu'un autre, j'ai pris des coups dans les dents Dieu puisse pardonner mes fautes, y'avait des fous dans les rangs Et j'ai accepté la vie comme une bénédiction Désormais j'en prendrai soin comme si c'était mon fiston Ouzou Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon Guizi Ouzou Sisi coucou Pour tout, pardon1</t>
+          <t>Yonea Willy Willy Yonea Business Ouzou Guizi Coucou sisi VLT zoo, VLG zoo J'ai déçu tous les gens qu'j'aime Nan, je sais pas trop m'y prendre Le diable cherchait une âme Mais moi j'ai failli lui vendre J'suis pas plus malheureux qu'toi J'suis pas plus malheureux qu'elle Mais j'ai marché dans le froid Priant pour une chambre d'hôtel Et j'étais pare-choqué J'grattais les murs à Pigalle Un p'tit she-fla, des garettes-ci et peut-être même un dix balles Un animal dans Paris, un p'tit sauvage des banlieues À cette époque j'ignore encore que plus tard j'f'rai des envieux Putain mais qu'est c'qui m'arrive ? Besoin de prendre le large J'en ai marre de vendre le crack entouré d'cette bande de barges Et peu importe le flacon, nous tout c'qu'on veut c'est l'ivresse J'bédave un oinj' au balcon J'pense à reprendre le business Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon Je l'aimais plus que moi-même, mais j'ai pas su lui montrer J'découpais ça en lamelles, et puis c'est elle qui comptait Mais on était pare-choqué, on s'tapait d'ssus comme des fous Des fois ça sentait la fin, mais on s'laissait dans le flou Et moi j'suis là sous le porche, ma cigarette à la bouche J'passe un coup d'fil à une folle, j'veux l'oublier dans une fouf Nan tu sais pas c'que c'est, j'ai qu'ma musique et ma voix J'suis pas heureux dans ma vie mais j'ai la furie et la foi J'crois qu'j'vais continuer tout seul, j'ai pas la tête à la fête J'ai fait des choix, vendu des trucs igo qui t'mènent à ta perte J'ai vu mon père se droguer, j'ai vu ma mère le pleurer J'pensais qu'j'pouvais noyer tous ces trucs au fond d'un rre-ve Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon J'm'adresse à tous les p'tits frères, qu'j'ai incité à l'alcool J'vous avoue qu'j'en suis pas fier et j'le dirai dans l'album Mais j'étais pare-choqué, entre les chutes, les galères La rage de vaincre, la haine de vivre, ils ont expulsé ma mère Et moi j'suis pas mieux qu'un autre, j'ai pris des coups dans les dents Dieu puisse pardonner mes fautes, y'avait des fous dans les rangs Et j'ai accepté la vie comme une bénédiction Désormais j'en prendrai soin comme si c'était mon fiston Ouzou Je sais qu'j'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, pardon J'en ai commis des fautes oui je sais, oui je sais Mais j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Nan, j'suis pas pire, pas mieux qu'un autre j'suis pas pire, pas mieux qu'un autre Mais j'leur ai jamais d'mandé pardon, j'vous demande pardon Guizi Ouzou Sisi coucou Pour tout, pardon1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GPG, Ouzou, huh Bande d'enfoirés Check Je fume de la beuh, dès le matin Je veux tremper ma queue, dès le matin Allez fais-moi des ufs, p'tite catin Biff jaune et bleu, c'est le vaccin On s'en bat les couilles c'est les G.P.G On fait l'argent rapide comme le TGV J'veux cramer la banlieue comme a fait papa Et aller à la Mecque comme a fait pépé Et j'veux plus voir tous ces Gepetto Maintes et maintes fois je me suis répété Je suis des vrais villages et des vrais ghettos Beaucoup plus d'une fois on m'a déferré Au parquet je suis dans le quartier M'faire embarquer, j'ai l'habitude Mec je suis tarté, j'mène la vie d'rue J'nique des phases B Des fois j'titube, j'suis déphasé Nigga What ? Je cours après les bénéfices Max ne perd pas la main, et sert un verre de Henessy G.P.G ça c'est le nom du gang J'étais dans l'illicite, j'avais pas peur de vendre Fallait du fric et vite donc ce n'était pas tendre On vit dans l'hystérie mais je compte pas me rendre Je suis un bon renoi J'fait des meilleurs sons que toi VDF c'est sombre renoi T'es mort si t'es contre moi L.A.S.C.A.R.S dis leur c'est comment la trace Dis leur c'est comment la place Ça fait du fric des chouara Y'a du shit, du brouhaha Tu me faisais pas la bise quand moi je faisais du biz' et que j'étais le Guiz du trou à rats non non Je vis que dans le bordel J'nique les porcs le top ten Et ne me visez pas les pieds sinon je suis là demain Avec une équipe, un putain de cortège Bang-Bang, Mother fucker G.P.G Ouais-Ouais toutes les meufs que j'ai baisé M'ont dit Guizi vas-y fais doucement ou ma shnek va finir blessée J'en ai marre de vous apprendre à pe-ra rap J'en ai marre de vous apprendre à pe-ra rap J'en ai marre d'assumer, j'allais me faire allumer Glock devant ma gueule, et ouais j'étais là Toi t'étais où négro ? T'étais pas dans le coup négro Toi t'étais à la cool négro Et tu nous dis que t'as des couilles négro ? La putain de ta race, j'veux un putain d'palace De la putain d'caillasse, deux, trois putes, un FAMAS Un 9mm, quelques grenades, pour éclater des faces et un putain de kalash Oh putain je tabasse, putain je fracasse Ta gueule sur le sol comme Edward Norton J'ai beaucoup de gars qui sont pas important Mais qui t'allument ta race parce que les couilles l'ordonnent Je deviens fou j'ai plus de pitié Mes gars font des sous en bas de la cité Poto c'est pas tout de savoir kicker Si tu veux blaguer mon crew, tu vas te faire niquer Comme ma pute de la nuit dernière Atteindre mes buts, eh ben oui je sais le faire Tu connais pas mes luttes, tu connais pas mes chutes J'suis en bas du hall avec 8 Cerbères T'as pas de tard-pé, viens pas nous voir G.P.G fric et pouvoir Posé dans le quartier jencule des phases B Et j'préfère écrire quand il fait tout noir Tu me verras pas fuir, m'traite pas de saoûlard Leggins en cuir, j'té-ma son boulard J'ai envie de lui dire, c'est quand que j'te tire ? Dans les escales ou même dans le couloir Gangsta Paradise Garanti Ratatata j'pars en vrille Je voyais mon papa aller au card-pla Et un petit bâtard me voir grandir Putain c'est quoi ça ? Vécu de poissard Douma Kalash avait raison Passe le goro et les massa Et puis basta J'suis dans une autre galaxie Je bédave pour me relaxer Pas de medoc de pharmacie Y'a que la beuh que je veux niackser Tu sais pas qui je suis ? Et tu veux jouer avec moi ? Ok mon grand c'est parti, si tu veux faire le gangsta En tous cas j'ai pas reup Et tu veux savoir pourquoi ? Parce que moi je cours pas Je suis le digne fils de mon reupYou might also like9</t>
+          <t>GPG, Ouzou, huh Bande d'enfoirés Check Je fume de la beuh, dès le matin Je veux tremper ma queue, dès le matin Allez fais-moi des ufs, p'tite catin Biff jaune et bleu, c'est le vaccin On s'en bat les couilles c'est les G.P.G On fait l'argent rapide comme le TGV J'veux cramer la banlieue comme a fait papa Et aller à la Mecque comme a fait pépé Et j'veux plus voir tous ces Gepetto Maintes et maintes fois je me suis répété Je suis des vrais villages et des vrais ghettos Beaucoup plus d'une fois on m'a déferré Au parquet je suis dans le quartier M'faire embarquer, j'ai l'habitude Mec je suis tarté, j'mène la vie d'rue J'nique des phases B Des fois j'titube, j'suis déphasé Nigga What ? Je cours après les bénéfices Max ne perd pas la main, et sert un verre de Henessy G.P.G ça c'est le nom du gang J'étais dans l'illicite, j'avais pas peur de vendre Fallait du fric et vite donc ce n'était pas tendre On vit dans l'hystérie mais je compte pas me rendre Je suis un bon renoi J'fait des meilleurs sons que toi VDF c'est sombre renoi T'es mort si t'es contre moi L.A.S.C.A.R.S dis leur c'est comment la trace Dis leur c'est comment la place Ça fait du fric des chouara Y'a du shit, du brouhaha Tu me faisais pas la bise quand moi je faisais du biz' et que j'étais le Guiz du trou à rats non non Je vis que dans le bordel J'nique les porcs le top ten Et ne me visez pas les pieds sinon je suis là demain Avec une équipe, un putain de cortège Bang-Bang, Mother fucker G.P.G Ouais-Ouais toutes les meufs que j'ai baisé M'ont dit Guizi vas-y fais doucement ou ma shnek va finir blessée J'en ai marre de vous apprendre à pe-ra rap J'en ai marre de vous apprendre à pe-ra rap J'en ai marre d'assumer, j'allais me faire allumer Glock devant ma gueule, et ouais j'étais là Toi t'étais où négro ? T'étais pas dans le coup négro Toi t'étais à la cool négro Et tu nous dis que t'as des couilles négro ? La putain de ta race, j'veux un putain d'palace De la putain d'caillasse, deux, trois putes, un FAMAS Un 9mm, quelques grenades, pour éclater des faces et un putain de kalash Oh putain je tabasse, putain je fracasse Ta gueule sur le sol comme Edward Norton J'ai beaucoup de gars qui sont pas important Mais qui t'allument ta race parce que les couilles l'ordonnent Je deviens fou j'ai plus de pitié Mes gars font des sous en bas de la cité Poto c'est pas tout de savoir kicker Si tu veux blaguer mon crew, tu vas te faire niquer Comme ma pute de la nuit dernière Atteindre mes buts, eh ben oui je sais le faire Tu connais pas mes luttes, tu connais pas mes chutes J'suis en bas du hall avec 8 Cerbères T'as pas de tard-pé, viens pas nous voir G.P.G fric et pouvoir Posé dans le quartier jencule des phases B Et j'préfère écrire quand il fait tout noir Tu me verras pas fuir, m'traite pas de saoûlard Leggins en cuir, j'té-ma son boulard J'ai envie de lui dire, c'est quand que j'te tire ? Dans les escales ou même dans le couloir Gangsta Paradise Garanti Ratatata j'pars en vrille Je voyais mon papa aller au card-pla Et un petit bâtard me voir grandir Putain c'est quoi ça ? Vécu de poissard Douma Kalash avait raison Passe le goro et les massa Et puis basta J'suis dans une autre galaxie Je bédave pour me relaxer Pas de medoc de pharmacie Y'a que la beuh que je veux niackser Tu sais pas qui je suis ? Et tu veux jouer avec moi ? Ok mon grand c'est parti, si tu veux faire le gangsta En tous cas j'ai pas reup Et tu veux savoir pourquoi ? Parce que moi je cours pas Je suis le digne fils de mon reup9</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Viens pas rouler des mécaniques, tu vas trouver des mecs à vif Qui veulent goomer les têtes d'affiches On a troublé les pétasses qui Voulait per-pi des bites, on a vés-qui les schmits On a té-fri des spliffs, mon gars, défie l'équipe si t'es cap J'reste illégal même si t'es crade, vif et brave, merde Guiz est barge, qu'est-ce qui sépare ma clique de la tienne ? C'est juste qu'on a du flow malgré la cuite de la veille Oui, j'me la pète, nique de la shneck, tise de la bière Deale de la zeb sans qu'les flics me la mettent J'piste la fraiche, risque ma tête et mon foie aussi Là c'est Guiz et Nek mais dans l'Entourage y'a trois possees On nettoie vos villes, s'fait aussi pomper par vos filles Dans les open-mics, les novices domptés par nos rimes On n'est pas dociles, faut qu'tu saches qu'on ché-ca nos biffs Les pétasses raquent donc elles veulent monter ma saucisse Sombre et appauvri, c'est la croix que j'ai apporté Des fois, j'me sens vidé à croire que j'ai avorté C'est L'Entourage, petit, les grandes poukaves se tirent On s'enfouraille, ouais, si tu emboucanes le Guiz Fais ton baptême de l'air, frangin, je tamène de l'air, enfin Pas d'thème, la flemme, je veux tasser de l'herbe dans l'joint Accepte, je gère l'engin, arrête de faire l'enfant T'achètes des plaquettes, c'est que y'a peut-être 2-Zer dans l'coin Va te mettre de belles enceintes, fais peter le jet-pro Ta tête se perce, pas besoin de répéter que c'est chaud Guiz la banquise freestyle en vite fait, les flics ralentissent Mais c'est peace, y'a mon DJ qui part en vrille Les types marrants qui bicravent en team Ou ces riches qui mettent l'Islam en cible Je fuis ma hantise, les règles de l'Ordre Établi Qui rêvent de borner ta vie, qui parlent en fric Le soleil de dehors est aride, l'équipe part au trot Shit marroco puis la nuit je connais je peux adorer Paris Mec, c'est l'Entourage, bébé, fait péter ton bout d'hash Fennek fait d'excellent roulage et j'vais minsérer dans l'rouage D'la machine donc je m'active dans ce brouhaha magique En tout cas j'agite la rime qui vous parlera d'Paris You might also like ×3 Mais tu cherches quoi ? Me teste moi ? Je reste froid, te guette deux fois et te perce le foie C'est ton baptême de l'air, il ne faut pas faire le fier, gros Arrête, merde, on ne va pas perdre le game, gros 7</t>
+          <t>Viens pas rouler des mécaniques, tu vas trouver des mecs à vif Qui veulent goomer les têtes d'affiches On a troublé les pétasses qui Voulait per-pi des bites, on a vés-qui les schmits On a té-fri des spliffs, mon gars, défie l'équipe si t'es cap J'reste illégal même si t'es crade, vif et brave, merde Guiz est barge, qu'est-ce qui sépare ma clique de la tienne ? C'est juste qu'on a du flow malgré la cuite de la veille Oui, j'me la pète, nique de la shneck, tise de la bière Deale de la zeb sans qu'les flics me la mettent J'piste la fraiche, risque ma tête et mon foie aussi Là c'est Guiz et Nek mais dans l'Entourage y'a trois possees On nettoie vos villes, s'fait aussi pomper par vos filles Dans les open-mics, les novices domptés par nos rimes On n'est pas dociles, faut qu'tu saches qu'on ché-ca nos biffs Les pétasses raquent donc elles veulent monter ma saucisse Sombre et appauvri, c'est la croix que j'ai apporté Des fois, j'me sens vidé à croire que j'ai avorté C'est L'Entourage, petit, les grandes poukaves se tirent On s'enfouraille, ouais, si tu emboucanes le Guiz Fais ton baptême de l'air, frangin, je tamène de l'air, enfin Pas d'thème, la flemme, je veux tasser de l'herbe dans l'joint Accepte, je gère l'engin, arrête de faire l'enfant T'achètes des plaquettes, c'est que y'a peut-être 2-Zer dans l'coin Va te mettre de belles enceintes, fais peter le jet-pro Ta tête se perce, pas besoin de répéter que c'est chaud Guiz la banquise freestyle en vite fait, les flics ralentissent Mais c'est peace, y'a mon DJ qui part en vrille Les types marrants qui bicravent en team Ou ces riches qui mettent l'Islam en cible Je fuis ma hantise, les règles de l'Ordre Établi Qui rêvent de borner ta vie, qui parlent en fric Le soleil de dehors est aride, l'équipe part au trot Shit marroco puis la nuit je connais je peux adorer Paris Mec, c'est l'Entourage, bébé, fait péter ton bout d'hash Fennek fait d'excellent roulage et j'vais minsérer dans l'rouage D'la machine donc je m'active dans ce brouhaha magique En tout cas j'agite la rime qui vous parlera d'Paris ×3 Mais tu cherches quoi ? Me teste moi ? Je reste froid, te guette deux fois et te perce le foie C'est ton baptême de l'air, il ne faut pas faire le fier, gros Arrête, merde, on ne va pas perdre le game, gros 7</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant Comme la drogue et le biz Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les dek Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infects qui plaisent et qui baisent l'inspecteur J'reste impec, frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'afrique, j'sais c'que tu vis J'pète que du riz, bang j'fais des bêtes de tuerie Guette le supplice vivre sans la maille Style champ de bataille c'est normal que mes types vendent la came You might also like Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque Traités comme des détritus, on détruit tout Les mecs s'y retrouvent car mes textes ils tuent Les tess qui brulent les belles ptites putes Qui ken, qui sucent, c'est pour ça qu'on a l'sexe si dur Et j'écris sur des sujets affolants J'ai tué la romance car je n'connais que la ur et la violence Et j'ai juré ça commence à casser les couilles J'veux brasser les sous quand j'tinvite à un buffet d'assonnances Voilà, tu connais l'fond dma pensée J'fais du sombre à l'ancienne pas du son d'vacancier Est c'qu'on va flancher c'est pas une question qui s'pose Quand tu fais du karaté, ba nous testons l'hypnose Yen a marre de ramasser les miettes, Mec t'a pas capté les dièses Devoir caillasser les deks, Les voir accabler mes frères On a tabasser des mecs, dealer dans des endroits chill J'ai tchatché des chnèk, pour les niquer dans des campaniles Pisté quand t'es dans ta ville à cause du trafic de stupéfiant Des tas d'flics, tu bad trip, t'es plus méfiant Tu t'actives, tu descends gratter ton billet La came est ton pilier pour s'imposer faut mailler, combiner Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque J'avoue parfois percer comme 2Pac j'y pense Mais j'me dis qu'c'est pas gagné comme un toubab qui danse On aime parler cash on a le goût d'la finance Clik sur un chtar et là toute la ville danse Les coups d'crasse immenses c'est presque la routine J'men fous d'la science, quand est ce que la roue tourne ? Vesqui la 3-6, j'aime kicker tard si Ya dla vodka et une barrette de bédo gras jdid Comme d'hab il fallait qu'j'en parle Les ptites tapettes s'emballent depuis qu'ma tess en bave Et si jamais j'vends pas, j'aurai tué du MC Fumé du Breitling pour user du lexique Guizmo, biz et alcool, triste et hardcore Kick des tas d'strophes et nique les sales porcs Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque Cousin ! Yeah 92, wesh wesh yo ! Zone sensible zone sensible C'est Nizi à la prod Yonea Willy, Willy Yonea Rémi rem' les mains de fée 92, Bès-bar C'est quoi les bails cousin ? Maxto C'est l'Entourage petit L'Entourage Villeneuve-la-Garenne S-Crew, 1995 J'ai la ge-ra moi, tu l'sais pas ou quoi ? C'est comme ça qu'on fait les choses mon gars Faudra leur dire Ecoute ça, Villeneuve-la-garenne, les immeubles, la galère T'avais jamais entendu de rap tout court la tour des feujs C'est ça Booba, Rim-K Moi c'est Guizmo, la banquise, la hantise, les bistrots La franchises, les mythos, mec c'est mon quotidien3</t>
+          <t>J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant Comme la drogue et le biz Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les dek Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infects qui plaisent et qui baisent l'inspecteur J'reste impec, frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'afrique, j'sais c'que tu vis J'pète que du riz, bang j'fais des bêtes de tuerie Guette le supplice vivre sans la maille Style champ de bataille c'est normal que mes types vendent la came Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque Traités comme des détritus, on détruit tout Les mecs s'y retrouvent car mes textes ils tuent Les tess qui brulent les belles ptites putes Qui ken, qui sucent, c'est pour ça qu'on a l'sexe si dur Et j'écris sur des sujets affolants J'ai tué la romance car je n'connais que la ur et la violence Et j'ai juré ça commence à casser les couilles J'veux brasser les sous quand j'tinvite à un buffet d'assonnances Voilà, tu connais l'fond dma pensée J'fais du sombre à l'ancienne pas du son d'vacancier Est c'qu'on va flancher c'est pas une question qui s'pose Quand tu fais du karaté, ba nous testons l'hypnose Yen a marre de ramasser les miettes, Mec t'a pas capté les dièses Devoir caillasser les deks, Les voir accabler mes frères On a tabasser des mecs, dealer dans des endroits chill J'ai tchatché des chnèk, pour les niquer dans des campaniles Pisté quand t'es dans ta ville à cause du trafic de stupéfiant Des tas d'flics, tu bad trip, t'es plus méfiant Tu t'actives, tu descends gratter ton billet La came est ton pilier pour s'imposer faut mailler, combiner Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque J'avoue parfois percer comme 2Pac j'y pense Mais j'me dis qu'c'est pas gagné comme un toubab qui danse On aime parler cash on a le goût d'la finance Clik sur un chtar et là toute la ville danse Les coups d'crasse immenses c'est presque la routine J'men fous d'la science, quand est ce que la roue tourne ? Vesqui la 3-6, j'aime kicker tard si Ya dla vodka et une barrette de bédo gras jdid Comme d'hab il fallait qu'j'en parle Les ptites tapettes s'emballent depuis qu'ma tess en bave Et si jamais j'vends pas, j'aurai tué du MC Fumé du Breitling pour user du lexique Guizmo, biz et alcool, triste et hardcore Kick des tas d'strophes et nique les sales porcs Mentir à la daronne Et dealer à la tèss M'en t'nir à ma parole Et prier à la Mecque Cousin ! Yeah 92, wesh wesh yo ! Zone sensible zone sensible C'est Nizi à la prod Yonea Willy, Willy Yonea Rémi rem' les mains de fée 92, Bès-bar C'est quoi les bails cousin ? Maxto C'est l'Entourage petit L'Entourage Villeneuve-la-Garenne S-Crew, 1995 J'ai la ge-ra moi, tu l'sais pas ou quoi ? C'est comme ça qu'on fait les choses mon gars Faudra leur dire Ecoute ça, Villeneuve-la-garenne, les immeubles, la galère T'avais jamais entendu de rap tout court la tour des feujs C'est ça Booba, Rim-K Moi c'est Guizmo, la banquise, la hantise, les bistrots La franchises, les mythos, mec c'est mon quotidien3</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cousin jsuis lmeilleur et ça cest dit Les aigreurs, les Assédics Jai du lâcher tout ça Quand même les vrais thugs, jles cace-dédi Les players qui chassent des bitchs, cest d'la merde Guiz' est plus fort que jamais Et ya qules belles meufs qui apprécient Heineken, teufs et d'la résine, oh oui Les textes pleuvent et ça ré-ti, zmo-Gui Jdéteste keufs et facéties, trop speed BLEM, Skuff et amnésie, smoke weed Toute la night si ya moyen j'fourre ta femme, trouve la faille J'suis à droite, à gauche, en vrai jsuis dans tout Paname Jamène un rap tout nouveau Avec moi dans les parages ils vont serrer les seufs comme s'ils dansaient l'Kuduro Et ça peut plus durer, faut des tass et puis du blé Jai rien fait eh, comment ça Vos papiers sil vous plait ? Demande à Willy, elle est bonne mais elle fait rien Bordel de merde, cette salope cest une CG Fuck les allumeuses à deux balles Elles font que pigeonner, michtonner les mecs et pour elles le paradis cest Dubaï Good bye, jme suis sauvé dans lespace Voir les choses en grand sur Terre, jte garantis qucest trop néfaste Alors jai pris du recul, je lai observée de loin Et jme suis dis Le jour où ça a évolué, jreviens Peut-être humain, en fait jsuis bien Ici j'peux être rien quand l'important c'est d'être humain Fous la rage, et mes gars ne seront pas cléments Tas voulu faire le brave ? Putain, il fallait que jte schlasse vraiment La prochaine fois sera la bonne, j'vais m'le faire ce con En attendant j'suis à la mode et j'fais des bêtes de sons You might also like C'est la merde là, j'vous la mets C'est à cause de l'État qu'on en est là Le Gouvernement nous les a fait péter J'le dis ouvertement, on va tout baiser Rien à foutre d'être un mec à la mode J'viens les mettre à l'amende Et mes négros n'attendent qu'une chose C'est que j'm'en sorte et que j'fasse le bif' C'est que j'm'en sorte et que j'fasse le bif' J'crois qu'il faut aller loin d'ici Peut-être sur la Lune, en tout cas faut aller loin d'ici En partant j'vous dirai Sisi coucou C'est flagrant, le meilleur c'est Guizi-ouzou J'te tougouche J'te fais jouiguir si t'es ougouf Tu me fais fuiguir ta chougoune Sur ma biguite, ta mougouille et d'la piguipe Bande de pitres C'est vraiment pas dur d'avoir la gâchette facile au stand de tir J'suis opé' dans les bacs depuis mes 20 piges On est toqués dans les crânes, bloqués dans les sas Posés dans les blocs, que des faux des phases et des gros dégâts Mes négros t'éclatent ouais y'a trop d'inspi Un fils de pauvres qui kicke le crom' Je nique mes neurones Les rimes et le flow, le shit et le zoo Le bif et le show, faut viser le haut Fuck les assises ! Alors comme ça bande d'enfoirés, vous voulez copier mon style ? Ok mon petit, offre ton bif' et j'donne la punch' au bout d'mon stylo Y'a d'la teuch et du bon pilon, si y'a les chtars les gars, fuyez ! J'suis pas Huggy les Bons Tuyaux, j'ai jamais donné un dealer Eh, pendant 20 piges, j'ai pas bougé, j'me tuais à l'alcool Et quand j'suis pas en bas, j'suis à la fenêtre comme une parabole Nos parents veulent pas qu'on parte en vrille Parce qu'on s'barre en ville avec les sales cons qui rident la 306 Attentif, faut qu'j'reste loin du star-system Là d'dans c'est 30 millions d'amis, en vrai y'en à quatre qui t'aiment Un Anaïa, deux Momo, Fouiny Trois Mon public, 2009 jusqu'à l'infini Quatre Tous les gens qui m'ont connu quand j'étais pas très sain Ils sont bloqués dans l'futur, moi j'suis dans l'passé simple 5</t>
+          <t>Cousin jsuis lmeilleur et ça cest dit Les aigreurs, les Assédics Jai du lâcher tout ça Quand même les vrais thugs, jles cace-dédi Les players qui chassent des bitchs, cest d'la merde Guiz' est plus fort que jamais Et ya qules belles meufs qui apprécient Heineken, teufs et d'la résine, oh oui Les textes pleuvent et ça ré-ti, zmo-Gui Jdéteste keufs et facéties, trop speed BLEM, Skuff et amnésie, smoke weed Toute la night si ya moyen j'fourre ta femme, trouve la faille J'suis à droite, à gauche, en vrai jsuis dans tout Paname Jamène un rap tout nouveau Avec moi dans les parages ils vont serrer les seufs comme s'ils dansaient l'Kuduro Et ça peut plus durer, faut des tass et puis du blé Jai rien fait eh, comment ça Vos papiers sil vous plait ? Demande à Willy, elle est bonne mais elle fait rien Bordel de merde, cette salope cest une CG Fuck les allumeuses à deux balles Elles font que pigeonner, michtonner les mecs et pour elles le paradis cest Dubaï Good bye, jme suis sauvé dans lespace Voir les choses en grand sur Terre, jte garantis qucest trop néfaste Alors jai pris du recul, je lai observée de loin Et jme suis dis Le jour où ça a évolué, jreviens Peut-être humain, en fait jsuis bien Ici j'peux être rien quand l'important c'est d'être humain Fous la rage, et mes gars ne seront pas cléments Tas voulu faire le brave ? Putain, il fallait que jte schlasse vraiment La prochaine fois sera la bonne, j'vais m'le faire ce con En attendant j'suis à la mode et j'fais des bêtes de sons C'est la merde là, j'vous la mets C'est à cause de l'État qu'on en est là Le Gouvernement nous les a fait péter J'le dis ouvertement, on va tout baiser Rien à foutre d'être un mec à la mode J'viens les mettre à l'amende Et mes négros n'attendent qu'une chose C'est que j'm'en sorte et que j'fasse le bif' C'est que j'm'en sorte et que j'fasse le bif' J'crois qu'il faut aller loin d'ici Peut-être sur la Lune, en tout cas faut aller loin d'ici En partant j'vous dirai Sisi coucou C'est flagrant, le meilleur c'est Guizi-ouzou J'te tougouche J'te fais jouiguir si t'es ougouf Tu me fais fuiguir ta chougoune Sur ma biguite, ta mougouille et d'la piguipe Bande de pitres C'est vraiment pas dur d'avoir la gâchette facile au stand de tir J'suis opé' dans les bacs depuis mes 20 piges On est toqués dans les crânes, bloqués dans les sas Posés dans les blocs, que des faux des phases et des gros dégâts Mes négros t'éclatent ouais y'a trop d'inspi Un fils de pauvres qui kicke le crom' Je nique mes neurones Les rimes et le flow, le shit et le zoo Le bif et le show, faut viser le haut Fuck les assises ! Alors comme ça bande d'enfoirés, vous voulez copier mon style ? Ok mon petit, offre ton bif' et j'donne la punch' au bout d'mon stylo Y'a d'la teuch et du bon pilon, si y'a les chtars les gars, fuyez ! J'suis pas Huggy les Bons Tuyaux, j'ai jamais donné un dealer Eh, pendant 20 piges, j'ai pas bougé, j'me tuais à l'alcool Et quand j'suis pas en bas, j'suis à la fenêtre comme une parabole Nos parents veulent pas qu'on parte en vrille Parce qu'on s'barre en ville avec les sales cons qui rident la 306 Attentif, faut qu'j'reste loin du star-system Là d'dans c'est 30 millions d'amis, en vrai y'en à quatre qui t'aiment Un Anaïa, deux Momo, Fouiny Trois Mon public, 2009 jusqu'à l'infini Quatre Tous les gens qui m'ont connu quand j'étais pas très sain Ils sont bloqués dans l'futur, moi j'suis dans l'passé simple 5</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Discographie - L'Entourage Album Studio - 20140526 L'Entourage - Jeunes entrepreneurs Single - 20110404 L'Entourage - Freestyle PDG - 20110809 L'Entourage - Hail Mary Freestyle - 20110816 L'Entourage - Plus à gagner qu'à perdre - 20120130 L'Entourage - Fume cette merde - 20120303 L'Entourage - Introduction - 20120429 L'Entourage - Les choses se passent - 20121115 L'Entourage - Big Bad Song - 20140317 L'Entourage - Caramelo - 20140404 L'Entourage - Jim Morrison - 20140424 L'Entourage - Pense comme un boss - 20140429 L'Entourage - Toujours là - 20140515 L'Entourage - Atlas - 20140520 L'Entourage - Bal masqué - 20140529 L'Entourage - Soixante Quinze - 20140531 L'Entourage - Booska Jeunes entrepreneurs - 20140610 L'Entourage - L' Freestyle - 20140721 L'Entourage - L'enragetour - 20140910 L'Entourage - Les rois - 20141028 L'Entourage - Ma mafia You might also likeFeaturing - 20120410 L'Animalerie - L'Animalerie L'Entourage chez Oster Lapwass Discographie complémentaire - Discographie - 2zer - Discographie - Alpha Wann - Discographie - Deen Burbigo - Discographie - Doums - Discographie - Eff Gee - Discographie - Fonky Flav' - Discographie - Framal - Discographie - Guizmo - Discographie - Jazzy Bazz - Discographie - Mekra - Discographie - Nekfeu</t>
+          <t>Discographie - L'Entourage Album Studio - 20140526 L'Entourage - Jeunes entrepreneurs Single - 20110404 L'Entourage - Freestyle PDG - 20110809 L'Entourage - Hail Mary Freestyle - 20110816 L'Entourage - Plus à gagner qu'à perdre - 20120130 L'Entourage - Fume cette merde - 20120303 L'Entourage - Introduction - 20120429 L'Entourage - Les choses se passent - 20121115 L'Entourage - Big Bad Song - 20140317 L'Entourage - Caramelo - 20140404 L'Entourage - Jim Morrison - 20140424 L'Entourage - Pense comme un boss - 20140429 L'Entourage - Toujours là - 20140515 L'Entourage - Atlas - 20140520 L'Entourage - Bal masqué - 20140529 L'Entourage - Soixante Quinze - 20140531 L'Entourage - Booska Jeunes entrepreneurs - 20140610 L'Entourage - L' Freestyle - 20140721 L'Entourage - L'enragetour - 20140910 L'Entourage - Les rois - 20141028 L'Entourage - Ma mafia Featuring - 20120410 L'Animalerie - L'Animalerie L'Entourage chez Oster Lapwass Discographie complémentaire - Discographie - 2zer - Discographie - Alpha Wann - Discographie - Deen Burbigo - Discographie - Doums - Discographie - Eff Gee - Discographie - Fonky Flav' - Discographie - Framal - Discographie - Guizmo - Discographie - Jazzy Bazz - Discographie - Mekra - Discographie - Nekfeu</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J't'ai dans la peau j't'ai dans le sang Sans toi c'est la merde Ouai j't'ai embrassé après c'est les crochets dans l'ventre On procède ensemble depuis pas mal de temps T'es souvent présente dans mes bagarres de bande SALE PUTE! Tu traînes dans tous les bars de Paris Jusque tard dans la nuit même des schlags te câlinent Mais j't'en veux pas tu sais que j'ai besoin de toi Toujours la même rengaine à chaque fois je reviens te voir Et tu dis jamais rien comme si ça comptais pas C'est pas bon présage et moi j'y repense quand j'suis fonce-dé le soir Et quand on se sépare tu sais pas comment j'pète un plomb J'me dis mec tiens bon mais c'est dar là il reste qu'un fond Sale garce qui blesse un con J'me suis laissé faire et j'suis resté fier mais c'est pas moi qui baisse d'un ton T'façon faut plus que j'te vois même si j'en crêve d'envie Non, il faut qu'j'reste en vie Et pas que j'me bute le soir Et ça me tue le foie, le coeur et l'estomac Moi j'en peux plus de voir les pleurs et les comas Fais moi oublier que j'ai mal ouai fais ça vite Ouai je t'aimerai à vie et j'vais roupiller très tard Ouai on écrira pour mes potes dans la rue qui dorment Caresserais ton goulot et ta robe en aluminium Mais malgré ça je sais que tu veux ma perte Tu ramènes que d'la merde et j'le vois bien dans les yeux d'ma mère You might also likeMais malgré ça je sais que tu veux ma perte Tu ramènes que d'la merde et j'le vois bien dans les yeux d'ma mère Sale pute4</t>
+          <t>J't'ai dans la peau j't'ai dans le sang Sans toi c'est la merde Ouai j't'ai embrassé après c'est les crochets dans l'ventre On procède ensemble depuis pas mal de temps T'es souvent présente dans mes bagarres de bande SALE PUTE! Tu traînes dans tous les bars de Paris Jusque tard dans la nuit même des schlags te câlinent Mais j't'en veux pas tu sais que j'ai besoin de toi Toujours la même rengaine à chaque fois je reviens te voir Et tu dis jamais rien comme si ça comptais pas C'est pas bon présage et moi j'y repense quand j'suis fonce-dé le soir Et quand on se sépare tu sais pas comment j'pète un plomb J'me dis mec tiens bon mais c'est dar là il reste qu'un fond Sale garce qui blesse un con J'me suis laissé faire et j'suis resté fier mais c'est pas moi qui baisse d'un ton T'façon faut plus que j'te vois même si j'en crêve d'envie Non, il faut qu'j'reste en vie Et pas que j'me bute le soir Et ça me tue le foie, le coeur et l'estomac Moi j'en peux plus de voir les pleurs et les comas Fais moi oublier que j'ai mal ouai fais ça vite Ouai je t'aimerai à vie et j'vais roupiller très tard Ouai on écrira pour mes potes dans la rue qui dorment Caresserais ton goulot et ta robe en aluminium Mais malgré ça je sais que tu veux ma perte Tu ramènes que d'la merde et j'le vois bien dans les yeux d'ma mère Mais malgré ça je sais que tu veux ma perte Tu ramènes que d'la merde et j'le vois bien dans les yeux d'ma mère Sale pute4</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'ai vu toute ma vie défiler, quand on m'a dit Ton foie est foutu Sacré blues, ça paraît fou, alors je bois mes coups durs Sape des fourrures, capuché et veste Levi's YW, barbus tah les extrémistes Mecs très vifs, j'pense que tant que les tess' existent Faut qu'tu fasses bellek chaque fois qu'tu baisses les vitres On supporte tous les chagrins de la vie Mes assassins de la lice-po ont le parfum de la tise Et j'doigte le vagin de la street, alors le sang coule Les embrouilles plus inutiles que les vaccins de l'Afrique Moi, dans la rue, j'suis pas l'plus fort Mais j'ai déjà vu des Tom Pouce qui braquent Musclor Et j'veux m'évader, dis-moi où est la paix j'y vais direct Juste de quoi m'refaire, on va quitter l'business Avec Al-Khali, Bio et Alini J'ai pas fini y'aura Lascars et Jeff sapés en Tacchini Il m'faut mal et kalash mais on est cramé sa race Aller-retour au placard, tah les malades Putain la rue c'est d'la baise T'y trouves que du biz', tu t'goome ou tu fuis, rien qu'des galères dans cet univers J'étais beau, j'étais bien-portant, y'avait rien d'important Faillait s'douter qu'ça partirait en couilles comme la fin d'un roman Les infos mentent les délinquants ne sont pas que bêtes et méchants Au début on est tous capables d'aimer vraiment Mais c'est la vie qui nous a marqués, même arnaqués Pense à ta mère quand t'es en loc' et qu'elle nettoie l'parquet La punchline, le flow, ma technique vas-y j'm'en bats les couilles J'ai envie d'parler vrai, me cassez pas les couilles La galère et l'amertume quotidiennes Ça dave-bé que d'la verdure officielle Pour ça qu'le cerveau part en cette-su Qu'il part en miettes, j'm'en tape en fait J'suis à l'ancienne dans mes clips j'rappe en vête-sur' Blessures est-ce que tu sais c'que ça veut vraiment dire ? Hein ? Est-ce que t'es sûr que tu veux vraiment vivre ? Parce que c'est plus facile de crever Moi j'me reposerai que quand j'aurai vu l'Afrique se lever En attendant j'fais du rap, j'fais mon job J'suis là pépère, mais y'a qu'des mecs qui froissent mes nerfs Mais il faut pas quer-cra Il faut un paquet d'clopes, un paquet d'mass', et appeler Yass pour s'mettre dans un sale état C'est pas reluisant, l'envie je vis sans L'impression de rentrer dans la tête d'un fou en me relisant Du mal à accepter mes torts, à aimer l'effort En vrai, j'ai passé ma vie à m'fermer les portes J'me sens frustré, le cannabis j'me suis prescrit J'me fait lustrer pendant qu'j'écris Bandes de profiteuses, vous étiez où avant Rap Contenders et mon album ? Hein ? Nulle part ! Je n'vous respecte pas ! À cause de vous, le salaud infidèle, je resterai ce gars Vos avis ne changeront rien La grosse tête, je l'ai eue c'était en 3e, au brevet, j'ai eu mention bien Laissez-moi m'détendre, baiser v'la les samples Péter dans les bacs, péter à la radio, péter à l'écran J'devrais suivre l'enseignement des gens biens Tirer des leçons de l'enfermement des anciens Mais j'ai encore besoin d'me tromper D'me rendre compte que j'suis qu'un p'tit con qui croît qu'sa vie est bidon Ça fait du bien d'vider un peu son sac Dommage qu'il en reste encore cinq ou six remplis de rage Dommage, franchement Dommage, ouais ça fait du bien d'vider un peu son sac Dommage qu'il en reste encore cinq ou six remplis de rage Remplis de rage... You might also like Guizmo c'est niqué... cette phrase qui trône dans ma tête La peur de rester bloqué quand j'rôde dans ma tess' Mes gars, réalisez-vous ? Les Air-Max, les casquettes, ça tétanise les foules J'dis ça en restant cool, mais à tenir le pavé Plus détèr' que jamais, ils finiront par vous mettre dans l'trou Mais moi j'vis, même si j'sais qu'c'est plus facile de crever J'suis là tant qu'j'ai pas vu l'Afrique se lever5</t>
+          <t>J'ai vu toute ma vie défiler, quand on m'a dit Ton foie est foutu Sacré blues, ça paraît fou, alors je bois mes coups durs Sape des fourrures, capuché et veste Levi's YW, barbus tah les extrémistes Mecs très vifs, j'pense que tant que les tess' existent Faut qu'tu fasses bellek chaque fois qu'tu baisses les vitres On supporte tous les chagrins de la vie Mes assassins de la lice-po ont le parfum de la tise Et j'doigte le vagin de la street, alors le sang coule Les embrouilles plus inutiles que les vaccins de l'Afrique Moi, dans la rue, j'suis pas l'plus fort Mais j'ai déjà vu des Tom Pouce qui braquent Musclor Et j'veux m'évader, dis-moi où est la paix j'y vais direct Juste de quoi m'refaire, on va quitter l'business Avec Al-Khali, Bio et Alini J'ai pas fini y'aura Lascars et Jeff sapés en Tacchini Il m'faut mal et kalash mais on est cramé sa race Aller-retour au placard, tah les malades Putain la rue c'est d'la baise T'y trouves que du biz', tu t'goome ou tu fuis, rien qu'des galères dans cet univers J'étais beau, j'étais bien-portant, y'avait rien d'important Faillait s'douter qu'ça partirait en couilles comme la fin d'un roman Les infos mentent les délinquants ne sont pas que bêtes et méchants Au début on est tous capables d'aimer vraiment Mais c'est la vie qui nous a marqués, même arnaqués Pense à ta mère quand t'es en loc' et qu'elle nettoie l'parquet La punchline, le flow, ma technique vas-y j'm'en bats les couilles J'ai envie d'parler vrai, me cassez pas les couilles La galère et l'amertume quotidiennes Ça dave-bé que d'la verdure officielle Pour ça qu'le cerveau part en cette-su Qu'il part en miettes, j'm'en tape en fait J'suis à l'ancienne dans mes clips j'rappe en vête-sur' Blessures est-ce que tu sais c'que ça veut vraiment dire ? Hein ? Est-ce que t'es sûr que tu veux vraiment vivre ? Parce que c'est plus facile de crever Moi j'me reposerai que quand j'aurai vu l'Afrique se lever En attendant j'fais du rap, j'fais mon job J'suis là pépère, mais y'a qu'des mecs qui froissent mes nerfs Mais il faut pas quer-cra Il faut un paquet d'clopes, un paquet d'mass', et appeler Yass pour s'mettre dans un sale état C'est pas reluisant, l'envie je vis sans L'impression de rentrer dans la tête d'un fou en me relisant Du mal à accepter mes torts, à aimer l'effort En vrai, j'ai passé ma vie à m'fermer les portes J'me sens frustré, le cannabis j'me suis prescrit J'me fait lustrer pendant qu'j'écris Bandes de profiteuses, vous étiez où avant Rap Contenders et mon album ? Hein ? Nulle part ! Je n'vous respecte pas ! À cause de vous, le salaud infidèle, je resterai ce gars Vos avis ne changeront rien La grosse tête, je l'ai eue c'était en 3e, au brevet, j'ai eu mention bien Laissez-moi m'détendre, baiser v'la les samples Péter dans les bacs, péter à la radio, péter à l'écran J'devrais suivre l'enseignement des gens biens Tirer des leçons de l'enfermement des anciens Mais j'ai encore besoin d'me tromper D'me rendre compte que j'suis qu'un p'tit con qui croît qu'sa vie est bidon Ça fait du bien d'vider un peu son sac Dommage qu'il en reste encore cinq ou six remplis de rage Dommage, franchement Dommage, ouais ça fait du bien d'vider un peu son sac Dommage qu'il en reste encore cinq ou six remplis de rage Remplis de rage... Guizmo c'est niqué... cette phrase qui trône dans ma tête La peur de rester bloqué quand j'rôde dans ma tess' Mes gars, réalisez-vous ? Les Air-Max, les casquettes, ça tétanise les foules J'dis ça en restant cool, mais à tenir le pavé Plus détèr' que jamais, ils finiront par vous mettre dans l'trou Mais moi j'vis, même si j'sais qu'c'est plus facile de crever J'suis là tant qu'j'ai pas vu l'Afrique se lever5</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L'encre coule, le sang se répand, les frères vivent en marge, fils Finissent en cage, leur avenir finit saccagé Saccager nos bâtiments le soir, c'est ça nos vies On s'atrophie l'esprit avec le shit et d'autres saloperies Depuis que la baraka est partie, ça fait des bagarres A dix contre un, on s'croirait dans un géant paris Paris ou Marseille, dans le fond c'est la même On s'éternise à faire du fric car il en faut plus que la veille Et certains papas ont fait leur valise pour retourner au village Ou bien ont divorcé, voilà un petit bout de ce qui nous arrive L'arrivée chez nous c'est tout ce qu'on vise depuis l'départ Et vu qu'ici y'a pas les loves constamment on s'nourrit d'espoir On n'cesse de saliver devant les gosses de riches et autres fortunes Cadre supérieur, Gianni Versace sur le costume Costume de flic ou de racaille sont de sortis Légal ou pas les deux travaillent donc ce sera morbide Morbides sont les allées que l'on fréquente On a des rêves de monter haut même quand on part pour une descente Je vois les petits frères s'enliser, certains se cachent Pour se mettre sous flash ne vivent que pour s'enivrer S'enivrer, s'empirer encore et encore Aller flamber devant les gadjis qui veulent des colliers en or Mais c'est pas la vie ça même si c'est pleins d'aléas J'pense à ceux qui se sont dit J'veux tout plaquer, allez hop Aller dégaine de fatigué, on traîne sur l'avenue Comme des chiens qu'ont pas vu que la fourrière allait les embarquer Entassés, trop souvent passés des nuits au poste Et je parle pas de la FM mais de celui qui laisse des bosses Au RMI on fait des mioches, ceux que la DDASS veut placer J'en connais plus d'un qui dirait que c'est moche You might also like Et demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Ouais demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Mec demain c'est loin alors sur le coup on y pense pas J'crois qu'il y a des plaies que les hôpitaux ne pansent pas J'te parle de frères et de surs qu'en ont trop vu J'te parle de pères en détresse qu'en ont trop bu Et peu importe la boisson quand t'es encloisonné La moins forte des boissons peut empoisonner Bah ouais, prisonnier de nos destins pas si roses Victime du cancer du poumon et de la cirrhose Et la poisse nous rit au nez, pas d'sou pour réveillonner Les durs s'en sortent alors les sentiments sont ballonnés La veille on était en vie, demain on sait pas trop Et peu importe le physique par chez nous on s'appelle gros Gros c'est comme ça qu'on veut le compte en banque Marre de manger des briques et de voir qu'on est en manque Sky et pastaga, la maille passe-la moi Tu connais déjà les ratchatchatcha tchatcha Voyons c'est pas la fin on peut tout faire Et tant que nos mères sont en vie, croyez-moi on peut tout perdre Perdre trop souvent c'est le cas Faut s'éloigner de tout pour tenir le cap et revenir debout La recette on est pas nés avec, on la prend Autant que la perche ne s'demande pas, on te la tend Attends, de toute façon on a l'habitude De mener la vie dure, voir les proches vautrer sur le bitume Demain c'est loin, de toute façon on en parle plus tard Malgré les fautes on est passés par le plus dar Demain c'est loin, demain c'est mort Et demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Ouais demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ?15</t>
+          <t>L'encre coule, le sang se répand, les frères vivent en marge, fils Finissent en cage, leur avenir finit saccagé Saccager nos bâtiments le soir, c'est ça nos vies On s'atrophie l'esprit avec le shit et d'autres saloperies Depuis que la baraka est partie, ça fait des bagarres A dix contre un, on s'croirait dans un géant paris Paris ou Marseille, dans le fond c'est la même On s'éternise à faire du fric car il en faut plus que la veille Et certains papas ont fait leur valise pour retourner au village Ou bien ont divorcé, voilà un petit bout de ce qui nous arrive L'arrivée chez nous c'est tout ce qu'on vise depuis l'départ Et vu qu'ici y'a pas les loves constamment on s'nourrit d'espoir On n'cesse de saliver devant les gosses de riches et autres fortunes Cadre supérieur, Gianni Versace sur le costume Costume de flic ou de racaille sont de sortis Légal ou pas les deux travaillent donc ce sera morbide Morbides sont les allées que l'on fréquente On a des rêves de monter haut même quand on part pour une descente Je vois les petits frères s'enliser, certains se cachent Pour se mettre sous flash ne vivent que pour s'enivrer S'enivrer, s'empirer encore et encore Aller flamber devant les gadjis qui veulent des colliers en or Mais c'est pas la vie ça même si c'est pleins d'aléas J'pense à ceux qui se sont dit J'veux tout plaquer, allez hop Aller dégaine de fatigué, on traîne sur l'avenue Comme des chiens qu'ont pas vu que la fourrière allait les embarquer Entassés, trop souvent passés des nuits au poste Et je parle pas de la FM mais de celui qui laisse des bosses Au RMI on fait des mioches, ceux que la DDASS veut placer J'en connais plus d'un qui dirait que c'est moche Et demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Ouais demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Mec demain c'est loin alors sur le coup on y pense pas J'crois qu'il y a des plaies que les hôpitaux ne pansent pas J'te parle de frères et de surs qu'en ont trop vu J'te parle de pères en détresse qu'en ont trop bu Et peu importe la boisson quand t'es encloisonné La moins forte des boissons peut empoisonner Bah ouais, prisonnier de nos destins pas si roses Victime du cancer du poumon et de la cirrhose Et la poisse nous rit au nez, pas d'sou pour réveillonner Les durs s'en sortent alors les sentiments sont ballonnés La veille on était en vie, demain on sait pas trop Et peu importe le physique par chez nous on s'appelle gros Gros c'est comme ça qu'on veut le compte en banque Marre de manger des briques et de voir qu'on est en manque Sky et pastaga, la maille passe-la moi Tu connais déjà les ratchatchatcha tchatcha Voyons c'est pas la fin on peut tout faire Et tant que nos mères sont en vie, croyez-moi on peut tout perdre Perdre trop souvent c'est le cas Faut s'éloigner de tout pour tenir le cap et revenir debout La recette on est pas nés avec, on la prend Autant que la perche ne s'demande pas, on te la tend Attends, de toute façon on a l'habitude De mener la vie dure, voir les proches vautrer sur le bitume Demain c'est loin, de toute façon on en parle plus tard Malgré les fautes on est passés par le plus dar Demain c'est loin, demain c'est mort Et demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Ouais demain c'est loin mais de toute façon on s'en fiche On veut tout niquer, grimper à la tête de l'affiche Ouais demain c'est mort mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ?15</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>On dit ça bouge pas, c'est juste nous qui faisons du surplace Un coup d'chatte serait bienvenu au milieu de ces pules-cra Une puche-ca sur l'avenue, comme d'hab on se couche tard Tous partent du mauvais pied, un peu comme un cul de jatte Pas de Gucci mais j'ai la dégaine, rendez-vous Guizi elles veulent se faire belle À base de zizi, à base de Heineken, j'suis à la té-ci, j'm'en pète de cette chienne J'ai du biff à faire, des textes à gratter, lascar à voir Kalash, Tom et Mallé Vie de quartier dans une ville de tarté, où n'importe qui peut se faire rafaler Merde, Valenton c'est bang bang story, très très torride, on est deter promis Cess et bolide, fier au cro-mi, pour la money prêt à faire une folie Eh vas-y reste poli quand tu passes au Logne-Po Y'a du bédo grave et des vrais nommes-bo Y'a des tarpés dans la cave, mec on t'allume en rafale avec une main si t'es chaud demande à Tomsso On va vous dome-so tel des tasses, mon gars Omzo j'suis désolé Mais faut des pesetas ici y'a plus d'euros Et bah dans l'zoo elles iront faire des passes C'est qu'une affaire de cash, y'a pas de scrupules Ça vend le hash dès le crépuscule J'connais des gars un peu minuscule, gilet par balles en dessous du pull Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne You might also like Alors c'est quoi la suite ? Soit on s'démène pour savoir à qui la faute, on s'enfonce ou on prend la fuite Ou alors on prend la fraîche et la tête de l'affiche Mais surtout baisse pas les bras si c'est cramé là où t'habites Je serai sans pitié avec les te-trai, pécho de la C et fais-toi deux traits On est tombé dans l'alcool, même dans la drogue, tous les jours on vit avec les regrets Tous mes frères dans le gamma sont fêlés, armes de guerre et des grammes sous scellé Barre de fer, crack de merde, passe de l'herbe et j'crois que j'vais les mêler Bientôt une semaine que j'ai pas vu l'jour Ça met des patates et ça casse du genou Guiz limbattable, fuck les bâtards, puissant comme le Qatar Depuis l'départ du crew, j'suis dans les caves du zoo Vaut mieux reculer, un gun et ça va vite demande à Skoulon J'connais pas la panique va t'faire enculé, toujours dans les ghettos ça cherche pas d'boulot Nique sa mère mes gavas sont bourrés, des p'tites affaires des tagass à bouffer La tizz la zeb pour un patate couplet Mais les flics m'arrêtent et ils veulent pas m'louper Fils de pute de condés, c'est la guerre jusqu'à la mort On a du cacher de la drogue, on laissera rentrer qu'les pompiers Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne J'fais qu'les plomber, j'sais qu't'es conquis Grandi dans les ghettos et dans les caisses de conflits Fallait se lever tôt, on bicravait le bédo Répondre à la demande de tous ces junkies C'est pas cool et funky, j'en ai bavé des nuits blanches Tous de sortis, on veut taffer en freelance Look de reur-ti, flouse de leur-dea Y'a que des 'cailles et des fous qui font tout et en silence Yw ça bosse comme des dingos, ouais Igo faut des Porsches et des lingots Ouais Igo faut des Porsches et des lingots, ouais Guizmo fuck les porcs et les tins-po Non t'as pas compris, j'en veux pas d'ton site, j'en veux pas d'ton bizz J'en veux pas d'ta carotte, j'en veux pas d'ton clip, j'en veux pas d'tes salopes J'en veux pas d'ton SMIC moi je vise la cagnotte J'viens du 92 mais j'sais qu'partout c'est la même La schnouf et la zeb, ta fouf et ta tess Le choix est dur mais crois-moi faut en faire un Sans oublier tes gars surs en R5 ou en R15</t>
+          <t>On dit ça bouge pas, c'est juste nous qui faisons du surplace Un coup d'chatte serait bienvenu au milieu de ces pules-cra Une puche-ca sur l'avenue, comme d'hab on se couche tard Tous partent du mauvais pied, un peu comme un cul de jatte Pas de Gucci mais j'ai la dégaine, rendez-vous Guizi elles veulent se faire belle À base de zizi, à base de Heineken, j'suis à la té-ci, j'm'en pète de cette chienne J'ai du biff à faire, des textes à gratter, lascar à voir Kalash, Tom et Mallé Vie de quartier dans une ville de tarté, où n'importe qui peut se faire rafaler Merde, Valenton c'est bang bang story, très très torride, on est deter promis Cess et bolide, fier au cro-mi, pour la money prêt à faire une folie Eh vas-y reste poli quand tu passes au Logne-Po Y'a du bédo grave et des vrais nommes-bo Y'a des tarpés dans la cave, mec on t'allume en rafale avec une main si t'es chaud demande à Tomsso On va vous dome-so tel des tasses, mon gars Omzo j'suis désolé Mais faut des pesetas ici y'a plus d'euros Et bah dans l'zoo elles iront faire des passes C'est qu'une affaire de cash, y'a pas de scrupules Ça vend le hash dès le crépuscule J'connais des gars un peu minuscule, gilet par balles en dessous du pull Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne Alors c'est quoi la suite ? Soit on s'démène pour savoir à qui la faute, on s'enfonce ou on prend la fuite Ou alors on prend la fraîche et la tête de l'affiche Mais surtout baisse pas les bras si c'est cramé là où t'habites Je serai sans pitié avec les te-trai, pécho de la C et fais-toi deux traits On est tombé dans l'alcool, même dans la drogue, tous les jours on vit avec les regrets Tous mes frères dans le gamma sont fêlés, armes de guerre et des grammes sous scellé Barre de fer, crack de merde, passe de l'herbe et j'crois que j'vais les mêler Bientôt une semaine que j'ai pas vu l'jour Ça met des patates et ça casse du genou Guiz limbattable, fuck les bâtards, puissant comme le Qatar Depuis l'départ du crew, j'suis dans les caves du zoo Vaut mieux reculer, un gun et ça va vite demande à Skoulon J'connais pas la panique va t'faire enculé, toujours dans les ghettos ça cherche pas d'boulot Nique sa mère mes gavas sont bourrés, des p'tites affaires des tagass à bouffer La tizz la zeb pour un patate couplet Mais les flics m'arrêtent et ils veulent pas m'louper Fils de pute de condés, c'est la guerre jusqu'à la mort On a du cacher de la drogue, on laissera rentrer qu'les pompiers Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne Tu t'enlises quand tu crois qu't'as besoin d'personne Tu t'rends triste, tu t'enivres et tu te questionnes Perdu en ville, tu t'enlises, t'es pas en pleine forme Car tu t'rends triste quand tu crois qu't'as besoin de personne J'fais qu'les plomber, j'sais qu't'es conquis Grandi dans les ghettos et dans les caisses de conflits Fallait se lever tôt, on bicravait le bédo Répondre à la demande de tous ces junkies C'est pas cool et funky, j'en ai bavé des nuits blanches Tous de sortis, on veut taffer en freelance Look de reur-ti, flouse de leur-dea Y'a que des 'cailles et des fous qui font tout et en silence Yw ça bosse comme des dingos, ouais Igo faut des Porsches et des lingots Ouais Igo faut des Porsches et des lingots, ouais Guizmo fuck les porcs et les tins-po Non t'as pas compris, j'en veux pas d'ton site, j'en veux pas d'ton bizz J'en veux pas d'ta carotte, j'en veux pas d'ton clip, j'en veux pas d'tes salopes J'en veux pas d'ton SMIC moi je vise la cagnotte J'viens du 92 mais j'sais qu'partout c'est la même La schnouf et la zeb, ta fouf et ta tess Le choix est dur mais crois-moi faut en faire un Sans oublier tes gars surs en R5 ou en R15</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Guizmo go, posé au bistrot go, fuck la lice-po, go Ça a pas changé, ziguili zone sensible Hey yo j'ai charbonné la nuit histoire de briller le jour Dis toi que j'ai risqué ma vie, quitte à me briser le cou Victoires et argent facile, j'suis dans un vivier de loups J'n'écris que de grands classiques, j'veux me différencier de vous Et référencer le flouze, mon révérend c'est le ouf qui se confesse Et vous prouve que le contexte me rend youv et sans complexe On étouffe et ça pour plaire, dans un trou et on se complait Bon qu'à soulever des compets, être saoul ou bien pompet Et la foule vient en concert, pleine de fougue et de fonds d'bières Y'a plus d'doutes, ni de frontières, que mes couilles et des conquêtes J'suis apaisé par la folie, par le vice, que Dieu me guide Art de street, passe le fric man, je vis c'que je veux vivre J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab... You might also like C'est pour Paris et ses banlieues, ma clique et ses envieux Allez vous faire foutre, par chez moi ça kicke et c'est dangereux Ça deale et c'est tant mieux, faut d'la graille dans l'frigo du bébé Faut mon blaze dans l'bigo d'une traînée Un gros tar-pé, des gros seins qui sucent, comme j'aime Qui fument, comme j'aime, qui fait fumer, comme j'aime Bah ouais j'kiffe la gandja ça m'retient d'vous uer-t Et d'vous mettre ça, comme la dernière tasse-pé que j'me suis faite Entrez l'accusé, j'm'entraîne à cuver, j'encaisse, abusé J'm'emmerde à lutter, j'm'enferme à rucher Les mamans craquent quand les fils croquent dans le crack Glock dans le sac, pis si t'as un bloc vends-le J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab... J'ai déjà fait beaucoup de mal, mais je m'en fais aussi Pendant que certains jouent de l'arme, parce que ça plait aux filles Le ridicule n'tue pas n'empêche qu'il nous fait passer pour des cons Braquer pour les fonds et s'taper pour des thons Fumer tue, j'en suis à mon deuxième paquet Mes voltigeur dans ton appart et tes bijoux deviennent de la C Ça braque, ça vole, ça deale, ça s'tape, ça mord, ça tire Cousin on vit la fin du monde et y'a pas qu'la mort qu'arrive Soudain, j'pense aux gosses qu'j'ai pas envie d'faire En ville c'est, anti-sèches, grands business et en vite fait Quand j'disais qu'la vie c'était un pot cassé J'crachais sur l'enfance de toutes les victimes de Bokassa J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab...13</t>
+          <t>Guizmo go, posé au bistrot go, fuck la lice-po, go Ça a pas changé, ziguili zone sensible Hey yo j'ai charbonné la nuit histoire de briller le jour Dis toi que j'ai risqué ma vie, quitte à me briser le cou Victoires et argent facile, j'suis dans un vivier de loups J'n'écris que de grands classiques, j'veux me différencier de vous Et référencer le flouze, mon révérend c'est le ouf qui se confesse Et vous prouve que le contexte me rend youv et sans complexe On étouffe et ça pour plaire, dans un trou et on se complait Bon qu'à soulever des compets, être saoul ou bien pompet Et la foule vient en concert, pleine de fougue et de fonds d'bières Y'a plus d'doutes, ni de frontières, que mes couilles et des conquêtes J'suis apaisé par la folie, par le vice, que Dieu me guide Art de street, passe le fric man, je vis c'que je veux vivre J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab... C'est pour Paris et ses banlieues, ma clique et ses envieux Allez vous faire foutre, par chez moi ça kicke et c'est dangereux Ça deale et c'est tant mieux, faut d'la graille dans l'frigo du bébé Faut mon blaze dans l'bigo d'une traînée Un gros tar-pé, des gros seins qui sucent, comme j'aime Qui fument, comme j'aime, qui fait fumer, comme j'aime Bah ouais j'kiffe la gandja ça m'retient d'vous uer-t Et d'vous mettre ça, comme la dernière tasse-pé que j'me suis faite Entrez l'accusé, j'm'entraîne à cuver, j'encaisse, abusé J'm'emmerde à lutter, j'm'enferme à rucher Les mamans craquent quand les fils croquent dans le crack Glock dans le sac, pis si t'as un bloc vends-le J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab... J'ai déjà fait beaucoup de mal, mais je m'en fais aussi Pendant que certains jouent de l'arme, parce que ça plait aux filles Le ridicule n'tue pas n'empêche qu'il nous fait passer pour des cons Braquer pour les fonds et s'taper pour des thons Fumer tue, j'en suis à mon deuxième paquet Mes voltigeur dans ton appart et tes bijoux deviennent de la C Ça braque, ça vole, ça deale, ça s'tape, ça mord, ça tire Cousin on vit la fin du monde et y'a pas qu'la mort qu'arrive Soudain, j'pense aux gosses qu'j'ai pas envie d'faire En ville c'est, anti-sèches, grands business et en vite fait Quand j'disais qu'la vie c'était un pot cassé J'crachais sur l'enfance de toutes les victimes de Bokassa J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout J'suis dans ma ruche et ça bouge pas Banquisé, alcoolisé, au milieu de nulle part Normal, normal, j'dors pas et puis c'est tout Comme d'hab...13</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Je me rappelle de tout Je me rappelle de vous J'me réveille en pleine nuit, je tousse Où est passé madame ? J'suis tout seul Hier j'avais le blues, j'ai sûrement forcé sur le juice Chasser mes souvenirs, y'en a trop qui m'foutaient la frousse Alors, j'ai mélangé cette substance entre mon index et mon pouce J'le fais pour moi et pas pour eux Quand j'le rap c'est trop douloureux À ma place, t'aurais fait quoi ? Maman préférait son amoureux J'fais des bagarres à l'école Les cigarettes en cachette Dix ans plus tard, c'est moi qui vend Et c'est les bourgeois qui achètent Personne ne se rend compte de rien Et j'crois qu'ils s'en branlent de ma vie Alors je zone comme un chien et je m'endors dans une laverie J'entends des clients séchés, par ma présence agressés J'perçois le bruit des machines, j'espère qu'elles lavent mes péchés Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? You might also like J'suis brisé depuis longtemps J'suis brisé depuis longtemps C'est dangereux les souvenirs C'est dangereux les souvenirs Arrêtez d'croire que je n'savais pas J'suis pas naïf Que le glock était sous le lit Pah, pah, pah Arrêtez d'croire que j'savais pas Que mon père vendait d'la drogue Je sais Il allait pas en vacances Nan, c'était la faute de la proc' Et j'ai rien dit pendant tout c'temps parce que j'suis patient d'nature Trop d'alcool et stupéfiants, j'ai fait cet accident d'voiture J'ai failli tuer mon frère et puis cette pute qu'on avait mis derrière C'était y'a quatre ans mais j'm'en rappelle comme de la nuit dernière Et j'vis n'importe comment, comme si j'jouais contre le temps Je n'te regarde plus pareil depuis c'putain d'avortement J'ai plus rien à fêter, je blesse comme on m'a blessé Une fin cruelle dans une ruelle où pour mort on m'aura laissé Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? Je sais pas si j'suis béni Ils sont rentrés avec un bélier J'avais commis des délits Mais j'avais trop tisé pour oublier Et j'me suis repris J'suis fin près à souffrir J'ai fait l'deuil, je n'ai plus peur de mes souvenirs J'ai fait l'deuil, j'ai fait l'deuil J'ai fait l'deuil, je n'ai plus peur de me souvenir Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? Je n'ai plus peur Trop longtemps dans l'noir Je n'ai plus peur Je les affronte Ils m'ont fait mal Mais c'est pas grave Je sais que Dieu est grand Donc J'ai plus peur de mes souvenirs J'ai plus peur de mes souvenirs J'ai plus peur de mes souvenirs J'ai plus peur de me souvenir J'ai plus peur de me souvenir Je me souviens, je me souviendrai J'ai plus peur de mes souvenirs J'ai plus peur de me souvenir2</t>
+          <t>Je me rappelle de tout Je me rappelle de vous J'me réveille en pleine nuit, je tousse Où est passé madame ? J'suis tout seul Hier j'avais le blues, j'ai sûrement forcé sur le juice Chasser mes souvenirs, y'en a trop qui m'foutaient la frousse Alors, j'ai mélangé cette substance entre mon index et mon pouce J'le fais pour moi et pas pour eux Quand j'le rap c'est trop douloureux À ma place, t'aurais fait quoi ? Maman préférait son amoureux J'fais des bagarres à l'école Les cigarettes en cachette Dix ans plus tard, c'est moi qui vend Et c'est les bourgeois qui achètent Personne ne se rend compte de rien Et j'crois qu'ils s'en branlent de ma vie Alors je zone comme un chien et je m'endors dans une laverie J'entends des clients séchés, par ma présence agressés J'perçois le bruit des machines, j'espère qu'elles lavent mes péchés Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? J'suis brisé depuis longtemps J'suis brisé depuis longtemps C'est dangereux les souvenirs C'est dangereux les souvenirs Arrêtez d'croire que je n'savais pas J'suis pas naïf Que le glock était sous le lit Pah, pah, pah Arrêtez d'croire que j'savais pas Que mon père vendait d'la drogue Je sais Il allait pas en vacances Nan, c'était la faute de la proc' Et j'ai rien dit pendant tout c'temps parce que j'suis patient d'nature Trop d'alcool et stupéfiants, j'ai fait cet accident d'voiture J'ai failli tuer mon frère et puis cette pute qu'on avait mis derrière C'était y'a quatre ans mais j'm'en rappelle comme de la nuit dernière Et j'vis n'importe comment, comme si j'jouais contre le temps Je n'te regarde plus pareil depuis c'putain d'avortement J'ai plus rien à fêter, je blesse comme on m'a blessé Une fin cruelle dans une ruelle où pour mort on m'aura laissé Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? Je sais pas si j'suis béni Ils sont rentrés avec un bélier J'avais commis des délits Mais j'avais trop tisé pour oublier Et j'me suis repris J'suis fin près à souffrir J'ai fait l'deuil, je n'ai plus peur de mes souvenirs J'ai fait l'deuil, j'ai fait l'deuil J'ai fait l'deuil, je n'ai plus peur de me souvenir Je roule toute la nuit Je fais face à mes souvenirs C'est soit j'les affronte C'est soit ils me font mourir Papa, j'ai pardonné Oh papa, j'ai pardonné Maman, j'ai pardonné Pourrez-vous me pardonner ? Je n'ai plus peur Trop longtemps dans l'noir Je n'ai plus peur Je les affronte Ils m'ont fait mal Mais c'est pas grave Je sais que Dieu est grand Donc J'ai plus peur de mes souvenirs J'ai plus peur de mes souvenirs J'ai plus peur de mes souvenirs J'ai plus peur de me souvenir J'ai plus peur de me souvenir Je me souviens, je me souviendrai J'ai plus peur de mes souvenirs J'ai plus peur de me souvenir2</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>I was never really into muusic 'til I was about nine years old But now I can't control myself from grooving It is time for me to shoow Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy La nuit on s'lève, une vie d'fonce-dé Y'a plein d'filles, on l'sait, mais on veut Beyoncé J'fais que pioncer, financer l'pilon Les filles dansent, excitantes et c'est mignon Une fois dans mon lit, je mets ma vie en scène Une femme en vaut mille quand t'es fiancé Mais le bilan c'est qu'les confidences et La confiance cèdent quand t'es pris dans l'sexe Moi moi, j'fais le bilan, sec On est que des pions dans une immense scène Et y'a les chrysanthèmes qui fleurissent les tombes C'est toujours pareil quand on règle nos différents You might also like Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy On a dealé dans des rues sales, kicker dans des ruches Qui t'as dit qu'j'ai plus l'time ? Guiz' est dans les bus J'y vais quand j'ai bu, c'est la zone sensible On est trop sans limites et mes potes anticipent Si t'es chaud rend visite, on va tabasser les wacks Attraper les femmes, j'ai passé des nights à taffer mes phases L'arnaque et les armes, je laisse ça de té-co Ils veulent capter les bails mais je n'ai pas de réseau Demande à Selah Sue The rhythm is magic, and it gets me up, again and again I feel like Im flying, it lifts me up, again and again Do you know what it can do to you ? Crazy vibes You must know what it can do to you, crazy vibes Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy Je me méfie toujours autant des maisons d'disque Et j'ai raison car elles veulent que tu baisses ton slip Mais laisse béton, mecton, reste tranquille J'ferai le même son, si tu veux pas le mettre tant pis Je veux pas être ton petit pour des milliers d'centimes Fennek resplendit et vous allez jouez qu'mon disque Yonea Willy on dit quoi ? Crazy vibes ! C'est le S-Crew, L'Entourage...2</t>
+          <t>I was never really into muusic 'til I was about nine years old But now I can't control myself from grooving It is time for me to shoow Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy La nuit on s'lève, une vie d'fonce-dé Y'a plein d'filles, on l'sait, mais on veut Beyoncé J'fais que pioncer, financer l'pilon Les filles dansent, excitantes et c'est mignon Une fois dans mon lit, je mets ma vie en scène Une femme en vaut mille quand t'es fiancé Mais le bilan c'est qu'les confidences et La confiance cèdent quand t'es pris dans l'sexe Moi moi, j'fais le bilan, sec On est que des pions dans une immense scène Et y'a les chrysanthèmes qui fleurissent les tombes C'est toujours pareil quand on règle nos différents Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy On a dealé dans des rues sales, kicker dans des ruches Qui t'as dit qu'j'ai plus l'time ? Guiz' est dans les bus J'y vais quand j'ai bu, c'est la zone sensible On est trop sans limites et mes potes anticipent Si t'es chaud rend visite, on va tabasser les wacks Attraper les femmes, j'ai passé des nights à taffer mes phases L'arnaque et les armes, je laisse ça de té-co Ils veulent capter les bails mais je n'ai pas de réseau Demande à Selah Sue The rhythm is magic, and it gets me up, again and again I feel like Im flying, it lifts me up, again and again Do you know what it can do to you ? Crazy vibes You must know what it can do to you, crazy vibes Cause today, oh I'll show ya I'll blow ya mind Oh, let's hear the vibe go crazy, the vibe go crazy Je me méfie toujours autant des maisons d'disque Et j'ai raison car elles veulent que tu baisses ton slip Mais laisse béton, mecton, reste tranquille J'ferai le même son, si tu veux pas le mettre tant pis Je veux pas être ton petit pour des milliers d'centimes Fennek resplendit et vous allez jouez qu'mon disque Yonea Willy on dit quoi ? Crazy vibes ! C'est le S-Crew, L'Entourage...2</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah, yeah, yeah Ah, ah, ah Yeah, yeah, yeah Villeneuve, Caravelle zoo Yeah, yeah, yeah Négro, j'ai pas fini de me prendre la tête Et vendre la verte, personne va m'tendre la perche J'chante ma haine et j'sens que ça te plait J'entre à peine dans l'rap mais j'bicrave le temps qu'ça paye Y'a tant de tapettes qui parle tarot, graillent le carreau Moi j'ai qu'une parole mais 30 facettes Le ventre à sec j'bédave des garots Mes gars t'éclatent au mic et si c'est pas l'cas ils t'plantent à sept Et j'trempe ma verge dans l'rap français J'm'en tape quand c'est des p'tites putes qu'arrêtent pas de flancher Qui me testent, mate d'entrée le business sinon c'est la merde Sinon c'est la dèche ouais sinon c'est la guerre Alors tous les jours c'est la taillance mec On fait les bails en scred et on me té-cal en sdek ouais Cousin j'suis d'ceux qu'en on plus rien à battre Vie d'racaille vise la maille ainsi qu'un putain d'appart' Normal ici y'a pas d'argent, y'a que des bagarres dans Des coins sales ou y'a des bails à revendre Les bâtards s'vantent de ci et de ça de shit et de tass Qu'ils crèvent moi je rêve que de hit et de cash Mec je tise et je rap Mes couplets c'est tout bête mais j'vous baise et j'vous blesse en technique de base Ouais j'suis de ceux qu'ont la haine et qui t'laissent pas lé-par C'est atroce si t'approches alors reste à l'écart Cette époque me l'a mise des pétards des potes de la tise Quand les cops me fatiguent dans les blocs de ma ville On écope de l'asile ou d'la prison ferme Le reste rien à foutre depuis que la mort a pris mon père Et fiston laisse ma clique gérer l'bail Ils ont l'mis-per et l'bac mais au final tous ces p'tits cons pèsent Et vite on blesse tu vois ça quand j'kick mon diéz Tard la nuit on pisse on traîne et c'est les p'tites qu'on baise Mes nuits sont pleines de stress et damertume Fils quand le vice a presque blessé la vertu J'rime pour mes gars qui sont casés dans la téss' fusil quand les schtars veulent nous placer dans la caisse L'usine nous est presque destinée, trêve de mec stylés J'veux juste mettre ma verge dans la chnek du FISC Et jamène du style yo j'ai taffé pour ça Gratté pour ça, bientôt tu vas raquer pour çaYou might also like3</t>
+          <t>Yeah, yeah, yeah, yeah, yeah, yeah Ah, ah, ah Yeah, yeah, yeah Villeneuve, Caravelle zoo Yeah, yeah, yeah Négro, j'ai pas fini de me prendre la tête Et vendre la verte, personne va m'tendre la perche J'chante ma haine et j'sens que ça te plait J'entre à peine dans l'rap mais j'bicrave le temps qu'ça paye Y'a tant de tapettes qui parle tarot, graillent le carreau Moi j'ai qu'une parole mais 30 facettes Le ventre à sec j'bédave des garots Mes gars t'éclatent au mic et si c'est pas l'cas ils t'plantent à sept Et j'trempe ma verge dans l'rap français J'm'en tape quand c'est des p'tites putes qu'arrêtent pas de flancher Qui me testent, mate d'entrée le business sinon c'est la merde Sinon c'est la dèche ouais sinon c'est la guerre Alors tous les jours c'est la taillance mec On fait les bails en scred et on me té-cal en sdek ouais Cousin j'suis d'ceux qu'en on plus rien à battre Vie d'racaille vise la maille ainsi qu'un putain d'appart' Normal ici y'a pas d'argent, y'a que des bagarres dans Des coins sales ou y'a des bails à revendre Les bâtards s'vantent de ci et de ça de shit et de tass Qu'ils crèvent moi je rêve que de hit et de cash Mec je tise et je rap Mes couplets c'est tout bête mais j'vous baise et j'vous blesse en technique de base Ouais j'suis de ceux qu'ont la haine et qui t'laissent pas lé-par C'est atroce si t'approches alors reste à l'écart Cette époque me l'a mise des pétards des potes de la tise Quand les cops me fatiguent dans les blocs de ma ville On écope de l'asile ou d'la prison ferme Le reste rien à foutre depuis que la mort a pris mon père Et fiston laisse ma clique gérer l'bail Ils ont l'mis-per et l'bac mais au final tous ces p'tits cons pèsent Et vite on blesse tu vois ça quand j'kick mon diéz Tard la nuit on pisse on traîne et c'est les p'tites qu'on baise Mes nuits sont pleines de stress et damertume Fils quand le vice a presque blessé la vertu J'rime pour mes gars qui sont casés dans la téss' fusil quand les schtars veulent nous placer dans la caisse L'usine nous est presque destinée, trêve de mec stylés J'veux juste mettre ma verge dans la chnek du FISC Et jamène du style yo j'ai taffé pour ça Gratté pour ça, bientôt tu vas raquer pour ça3</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YW Guiziouzou GP, ZS Juste Guiziouzou Fuck you J'me suis défoncé seul avec des splifs de canna' J'écoutais les disques de mama Ivre avec un livre, je m'instruis et j'bois la tise de madame Je suis artiste voilà, triste balade Entre la banlieue et puis les streets de Paname Tu verras qu'des vices de malades J'ai presque dix frères, on a fréquenté les yefs' et puis la dèche Avant qu'j'me retrouve chez les disquaires Acheter, détailler, emballer, poiroter À côté du bar tabac ou bien d'l'épicière J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes thunes Voulaient mes tubes, voulaient mes putes, sa mère Prenez tout ça et barrez-vous, ça f'ra d'jà ça en moins J'retournerai chercher l'pactole parce que j'ai ça en moi Et t'es pas loin, t'es juste là, t'es pas plus fort, t'as plus de cash Et arrête ta gonflette, j'ai mes squelettes qu'ont besoin d'plus de place Truc de barge, toutes les putes me lassent, même les plus tenaces Après l'éjac-spartiate, c'est comme IAM, elles n'ont plus de face J'suis un salaud, je sais pas faire autrement Si t'as un moyen montre moi, j'essaye de faire ça proprement J'suis angoissé par le quartier et ses ruelles sales Avec l'argent, t'as pas l'respect mais t'as les plus belles femmes C'est dingue, on se respecte plus, on se déteste, se tue Ça casse des bouteilles dans des boites pour des espèces de putes J'fais plus la cess, j'suis dans ma tess, j'ai pas la bête de vue Rien qu'on encaisse avec mon stress, j'écris des seize mesures Du dix balles au kilo, n'gatie j'en ai vu des dièses Des Kirikous en-fouraillés qui mettent à g'noux des brutes épaisses C'est ça la guerre Many face à ces garnements Fais-moi confiance dans ces moments, tu n'auras guère d'ami À peine seize ans qu'la juge veut m'foutre à Châlons J'ai un fumé un gros joint, j'ai sniffé d'la poudre à canon Voilà pourquoi j'crache des grosses bastos Brasso, bario et des affaires y'en a, y'a du gros matos Ma sur me manque et puis mon père aussi J'me calme les nerfs au shit, un égoïste qui fait du papier avec un 06 La vie m'a déçu, ils veulent me marcher d'ssus, j'ai jamais poukave, jamais cé-su, non J'suis sur le terrain, Kalilou dis-leur ça pé-ra Y'a Maxou qui veille sur mes reins, mec on va gérer l'ingérable Allez Glock dans ta bouche, si tu veux jouer les fous On met tes potes sur la touche, en faisant couler les douilles Sale menteur, tu nous fais croire des trucs T'as déjà bavé d'vant les shmits, et craquer devant un sacré uc Et ils disent tous qu'ils ont du fric, la vie d'ma mère que c'est d'la flûte Quand ils m'voyent calibré, ils flippent, ouais sur mon père, c'est tous des putes, han Ça fait quinze piges que j'ai découvert l'inspi, des insignes et la spip Et nique ta mère à l'instit putain, j'suis pété, faut m'laisser tranquille Si t'es un gros, qu'tu veux du cash flow faut m'laisser trente kils Avec ton flow d'occas', j'suis posé au VLG Nique la BAC et les RG demande à Soso Cash On a des propos sales, pas de trucs mielleux Et si y'a embrouille ou bien les shmits, on a nos propres armes J'faisais des chromes de dingue, j'voyais les gros qui stressent J'suis klaxoné, j'ai charbonné comme hobbyznes J'suis détendu quand j'me tabasse le crâne, encore plus quand j'ramasse le cash Nique sa mère la pute, teu-shi dans l'fut quand on arrache le mic Ça sent la tise et la bagarre vers le fé-ca Demande si tu veux du vécu, depuis tout p'tit on est mé-cra, ma couille Vingt piges passés, j'ai toujours ma paire de requins Mon 501 et mon croco', pété sous beu, j'écoute Rocca Et tu peux pas m'traiter d'gué-dro, moi j'prends pas d'crack comme au troca Ramène ton fric, on va quer-tro, là j'ai d'la peufra du roc-ma Et non, j'suis pas débile, j'suis fortement alcoolisé Si tu veux toucher mes billes, pas d'justice, pas d'policiers Le cerveau atomisé, un gros nuage dans la pièce On est tous vaporisés, les petits fumaxent en cachette J'ai du manger illégalement, oui les amis on m'acclame J'suis pas calme, c'est l'vacarme depuis qu'j'ai vu mon shinigami J'ai des sueurs dans le dos, de mauvaise humeur quand je dors pas Tueur dans le flow, c'est la fureur quand je donne ça Alcool et Bédo, bats les couilles de m'répéter Tu peux ouvrir ta gueule, mes gremlin's ont mes CDs tu l'sais hein Ouais, ils savent que c'est gangsta Guizi, igo, ils savent que c'est gang ça J'suis dans ma ruche, j'suis bourré j'm'en fous, igo j'me catapulte J'suis fourré dans l'zoo, j'te connais pas sale pute, pourquoi tu veux mon flouz ? N'gatie, j'ai le coude et le manche, j'suis pas l'bienvenu en France mais j'ai pas changé de branche, hein Ça cuisinait l'crack, demande à ALM On s'achetait d'la bière avec l'argent d'la drogue J'me fais sté-co par des papisses, qui veulent baiser pas pichent Mais j'leur réponds, j'ai pas l'temps sale conne J'ai un nouveau business, j'suis avec la menace, on a brassé vingt mille, on va claquer tout ça Des fils de putes parlent sur moi, mais quand on s'voit dans la street Eh, et bah ils m'font des boussas C'est tous des salopes Tu bosses de midi à 23 pour rembourser tout l'blé que t'as mangé Sous cocaïne et pillave, malheureusement, tu confonds 100e et 100g Zone Sensible motherfuck, on est posés dans le zoo Y'a dl'a cess, y'a des glocks, v'là la France de l'e-dessous J'suis levé, nine o'clock, il est temps de prendre des sous J'roule un g, je le smoke et j'rejoins mon gang de fous Woh woh, qu'est ce qui ce passe négro ? J'te prends ta place, négro J'te prends ton cash et si tu clashes, j'm'en bats la race, négro Vous allez crever comme des ploucs, sert un rre-ve que j'me shoote, man J'te jure que j'vous refais comme qu'sur Shook Ones Vingt-trois ans et presque dix milles conquêtes Moi, c'est pas Jimmy Punchline, c'est plutôt Guizi Pompette J'suis défoncé toute la nuit, j'ai les condés sur le dos J'suis effronté, j'coupe des kils, il faut brasser plus d'euros Évidemment que j'ai pêché, bien sûr que j'ai blessé Erré comme un fêlé, tu peux pas mêler l'GPG Bandes de salopards, j'vais fusiller vos cliques Et tant qu'jsuis pas au shtar, bah j'vais ruiner vos vies, ouais J'suis de la mauvaise graine, et j'pillave trop d'heineken J'te fais du sale avec un flow très zen Tu peux pas m'emboucaner, sache que j'suis en-fouraillé J'ramasse le pactole, j'pars en vacances toute l'année Bais ouais re-noi, faut qu'tu piges re-noi Que même si t'as du style, pas plus de style que moi Bitchaz, j'sors le chrome et ça fait clic-clac Ouais, j't'envoie dormir et j'tire une p'tite taffe YW, j'ai rien à dire J'suis perdu dans ma zone et j'sais pas si on m'comprend J'ai le sourire aux lèvres que quand je paie comptant La juge, j'lui ai donné mon temps J'suis content que quand je paie comptant J'suis perdu dans ma zone et j'sais pas si on m'comprend J'ai le sourire aux lèvres que quand je paie comptant La juge, j'lui ai donné mon temps La juge, j'lui ai donné mon temps J'sais qu'vous m'aimez pas, c'est pas grave, j'ai mes refrés J'm'en vais de ce pas mettre du sky dans un rre-ve J'suis déçu, nique sa mère là j'peux crever Et j'mets du sky dans ce rre-ve J'sais qu'vous m'aimez pas, c'est pas grave, j'ai mes refrés Ouais, c'est pas grave, j'ai mes refrés J'm'en vais de ce pas mettre du sky dans ce rre-ve J'ai tout vu, j'ai tout connu, là je peux crever Guizi Ouzou, sisi coucou, oui c'est moi, le p'tit fou qu'emmène ta meuf au cinéma YW, Zone Sensible jusqu'à l'infini GPGang'zs et tout le resteYou might also like5</t>
+          <t>YW Guiziouzou GP, ZS Juste Guiziouzou Fuck you J'me suis défoncé seul avec des splifs de canna' J'écoutais les disques de mama Ivre avec un livre, je m'instruis et j'bois la tise de madame Je suis artiste voilà, triste balade Entre la banlieue et puis les streets de Paname Tu verras qu'des vices de malades J'ai presque dix frères, on a fréquenté les yefs' et puis la dèche Avant qu'j'me retrouve chez les disquaires Acheter, détailler, emballer, poiroter À côté du bar tabac ou bien d'l'épicière J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes thunes Voulaient mes tubes, voulaient mes putes, sa mère Prenez tout ça et barrez-vous, ça f'ra d'jà ça en moins J'retournerai chercher l'pactole parce que j'ai ça en moi Et t'es pas loin, t'es juste là, t'es pas plus fort, t'as plus de cash Et arrête ta gonflette, j'ai mes squelettes qu'ont besoin d'plus de place Truc de barge, toutes les putes me lassent, même les plus tenaces Après l'éjac-spartiate, c'est comme IAM, elles n'ont plus de face J'suis un salaud, je sais pas faire autrement Si t'as un moyen montre moi, j'essaye de faire ça proprement J'suis angoissé par le quartier et ses ruelles sales Avec l'argent, t'as pas l'respect mais t'as les plus belles femmes C'est dingue, on se respecte plus, on se déteste, se tue Ça casse des bouteilles dans des boites pour des espèces de putes J'fais plus la cess, j'suis dans ma tess, j'ai pas la bête de vue Rien qu'on encaisse avec mon stress, j'écris des seize mesures Du dix balles au kilo, n'gatie j'en ai vu des dièses Des Kirikous en-fouraillés qui mettent à g'noux des brutes épaisses C'est ça la guerre Many face à ces garnements Fais-moi confiance dans ces moments, tu n'auras guère d'ami À peine seize ans qu'la juge veut m'foutre à Châlons J'ai un fumé un gros joint, j'ai sniffé d'la poudre à canon Voilà pourquoi j'crache des grosses bastos Brasso, bario et des affaires y'en a, y'a du gros matos Ma sur me manque et puis mon père aussi J'me calme les nerfs au shit, un égoïste qui fait du papier avec un 06 La vie m'a déçu, ils veulent me marcher d'ssus, j'ai jamais poukave, jamais cé-su, non J'suis sur le terrain, Kalilou dis-leur ça pé-ra Y'a Maxou qui veille sur mes reins, mec on va gérer l'ingérable Allez Glock dans ta bouche, si tu veux jouer les fous On met tes potes sur la touche, en faisant couler les douilles Sale menteur, tu nous fais croire des trucs T'as déjà bavé d'vant les shmits, et craquer devant un sacré uc Et ils disent tous qu'ils ont du fric, la vie d'ma mère que c'est d'la flûte Quand ils m'voyent calibré, ils flippent, ouais sur mon père, c'est tous des putes, han Ça fait quinze piges que j'ai découvert l'inspi, des insignes et la spip Et nique ta mère à l'instit putain, j'suis pété, faut m'laisser tranquille Si t'es un gros, qu'tu veux du cash flow faut m'laisser trente kils Avec ton flow d'occas', j'suis posé au VLG Nique la BAC et les RG demande à Soso Cash On a des propos sales, pas de trucs mielleux Et si y'a embrouille ou bien les shmits, on a nos propres armes J'faisais des chromes de dingue, j'voyais les gros qui stressent J'suis klaxoné, j'ai charbonné comme hobbyznes J'suis détendu quand j'me tabasse le crâne, encore plus quand j'ramasse le cash Nique sa mère la pute, teu-shi dans l'fut quand on arrache le mic Ça sent la tise et la bagarre vers le fé-ca Demande si tu veux du vécu, depuis tout p'tit on est mé-cra, ma couille Vingt piges passés, j'ai toujours ma paire de requins Mon 501 et mon croco', pété sous beu, j'écoute Rocca Et tu peux pas m'traiter d'gué-dro, moi j'prends pas d'crack comme au troca Ramène ton fric, on va quer-tro, là j'ai d'la peufra du roc-ma Et non, j'suis pas débile, j'suis fortement alcoolisé Si tu veux toucher mes billes, pas d'justice, pas d'policiers Le cerveau atomisé, un gros nuage dans la pièce On est tous vaporisés, les petits fumaxent en cachette J'ai du manger illégalement, oui les amis on m'acclame J'suis pas calme, c'est l'vacarme depuis qu'j'ai vu mon shinigami J'ai des sueurs dans le dos, de mauvaise humeur quand je dors pas Tueur dans le flow, c'est la fureur quand je donne ça Alcool et Bédo, bats les couilles de m'répéter Tu peux ouvrir ta gueule, mes gremlin's ont mes CDs tu l'sais hein Ouais, ils savent que c'est gangsta Guizi, igo, ils savent que c'est gang ça J'suis dans ma ruche, j'suis bourré j'm'en fous, igo j'me catapulte J'suis fourré dans l'zoo, j'te connais pas sale pute, pourquoi tu veux mon flouz ? N'gatie, j'ai le coude et le manche, j'suis pas l'bienvenu en France mais j'ai pas changé de branche, hein Ça cuisinait l'crack, demande à ALM On s'achetait d'la bière avec l'argent d'la drogue J'me fais sté-co par des papisses, qui veulent baiser pas pichent Mais j'leur réponds, j'ai pas l'temps sale conne J'ai un nouveau business, j'suis avec la menace, on a brassé vingt mille, on va claquer tout ça Des fils de putes parlent sur moi, mais quand on s'voit dans la street Eh, et bah ils m'font des boussas C'est tous des salopes Tu bosses de midi à 23 pour rembourser tout l'blé que t'as mangé Sous cocaïne et pillave, malheureusement, tu confonds 100e et 100g Zone Sensible motherfuck, on est posés dans le zoo Y'a dl'a cess, y'a des glocks, v'là la France de l'e-dessous J'suis levé, nine o'clock, il est temps de prendre des sous J'roule un g, je le smoke et j'rejoins mon gang de fous Woh woh, qu'est ce qui ce passe négro ? J'te prends ta place, négro J'te prends ton cash et si tu clashes, j'm'en bats la race, négro Vous allez crever comme des ploucs, sert un rre-ve que j'me shoote, man J'te jure que j'vous refais comme qu'sur Shook Ones Vingt-trois ans et presque dix milles conquêtes Moi, c'est pas Jimmy Punchline, c'est plutôt Guizi Pompette J'suis défoncé toute la nuit, j'ai les condés sur le dos J'suis effronté, j'coupe des kils, il faut brasser plus d'euros Évidemment que j'ai pêché, bien sûr que j'ai blessé Erré comme un fêlé, tu peux pas mêler l'GPG Bandes de salopards, j'vais fusiller vos cliques Et tant qu'jsuis pas au shtar, bah j'vais ruiner vos vies, ouais J'suis de la mauvaise graine, et j'pillave trop d'heineken J'te fais du sale avec un flow très zen Tu peux pas m'emboucaner, sache que j'suis en-fouraillé J'ramasse le pactole, j'pars en vacances toute l'année Bais ouais re-noi, faut qu'tu piges re-noi Que même si t'as du style, pas plus de style que moi Bitchaz, j'sors le chrome et ça fait clic-clac Ouais, j't'envoie dormir et j'tire une p'tite taffe YW, j'ai rien à dire J'suis perdu dans ma zone et j'sais pas si on m'comprend J'ai le sourire aux lèvres que quand je paie comptant La juge, j'lui ai donné mon temps J'suis content que quand je paie comptant J'suis perdu dans ma zone et j'sais pas si on m'comprend J'ai le sourire aux lèvres que quand je paie comptant La juge, j'lui ai donné mon temps La juge, j'lui ai donné mon temps J'sais qu'vous m'aimez pas, c'est pas grave, j'ai mes refrés J'm'en vais de ce pas mettre du sky dans un rre-ve J'suis déçu, nique sa mère là j'peux crever Et j'mets du sky dans ce rre-ve J'sais qu'vous m'aimez pas, c'est pas grave, j'ai mes refrés Ouais, c'est pas grave, j'ai mes refrés J'm'en vais de ce pas mettre du sky dans ce rre-ve J'ai tout vu, j'ai tout connu, là je peux crever Guizi Ouzou, sisi coucou, oui c'est moi, le p'tit fou qu'emmène ta meuf au cinéma YW, Zone Sensible jusqu'à l'infini GPGang'zs et tout le reste5</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Igo, y'a pas de love dans ce business On s'entretue pour du respect ou pour un deal de cess À l'horizon que la misère et puis des tristes tess Le paradis est sous ma mère donc si elle crie, j'me tais Et ne me parlez plus d'amour, on vit de crises, de stress J'oublierai tout dans un coffee avec une fille de l'Est Et puis elle me dira je t'aime suivant le prix qu'je mets Non, c'est pas moi qui l'intéresse, c'est que mes fiches de paie Mais c'est pas grave, j'me sentirai un peu sale J'ai dégoupillé sur le sol Et j'ai des larmes sous les cils quand j'réalise que je suis seul La cocaïne, c'est pas du sel Nous, on s'enfume et on se soûle Et toi, pourquoi tu fais la belle ? Tout mon quartier connait ton boule Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Elle a trompé le mari, le mari l'a tabassée Je sais pas qui a tort, c'est bizarre quand t'es attaché Tu fais des trucs de fou, tu sors la nuit, tu vas marcher Tu vas t'acheter une boisson mais sûrement pas du panaché Où est l'amour, où est le love ? On a tous pété les plombs et on est mauvais Et c'est toujours les mêmes têtes devant le café J'ai des gavas de 25 ans qui sont d'jà chauves Je connais pas le grand amour, te-ma le passé J'écoute David et Jonathan, au fond d'ma gove Est-ce que tu viens pour les vacances ou as-tu changé d'adresse ? Tu m'trouvais violent quand je dégainais ma crosse Mais voilà c'était la crise et j'ai grandi dans la crasse Fumée grise et je l'écrase et on déprime en-bas du porche, merde J'ai rêvé d'une vie de boss, merde Avec des diamants sur le torse, mec J'fais du rap et j'ai un gosse, ouais Y'a que son amour qui m'approche, mec J'fais du rap et j'ai un gosse, ouais J'fais du rap et j'ai un gosse, ouais Y'a que son amour qui m'approche, ouais Pas de diamants sur le torse, mec You might also like Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Une balle est partie, un frère est tombé Ils ont mis un cur sur sa pierre tombale La mort, c'est la mort, tuer, c'est tuer Et une fois qu'tu l'as fait, igo, tu perds ton âme Mothafuck, mothafuck you Tu m'diras plus jamais I love you J'suis un p'tit renard des cités Avec un train de vie de voyou S'il faut tirer, j'vais pas hésiter Je crains dégun nan, je crains walou Et si l'amour a d'jà existé, il est passé sous un poids lourd Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Nada Toute la journée les gens parlent d'amour Mais y'a l'infidélité, y'a les guerres, y'a les trahisons Y'a les violences conjugales, y'a les expulsions Y'a les mères qui triment, y'a les frères qui meurent Et les gens parlent d'amour ? Hein, il est où l'amour dans tout ça ? Les gens parlent d'amour Mais qu'est-ce qu'ils y connaissent ? Hein, rien, ils y connaissent rien Les gens parlent d'amour, mais ils y connaissent rien</t>
+          <t>Igo, y'a pas de love dans ce business On s'entretue pour du respect ou pour un deal de cess À l'horizon que la misère et puis des tristes tess Le paradis est sous ma mère donc si elle crie, j'me tais Et ne me parlez plus d'amour, on vit de crises, de stress J'oublierai tout dans un coffee avec une fille de l'Est Et puis elle me dira je t'aime suivant le prix qu'je mets Non, c'est pas moi qui l'intéresse, c'est que mes fiches de paie Mais c'est pas grave, j'me sentirai un peu sale J'ai dégoupillé sur le sol Et j'ai des larmes sous les cils quand j'réalise que je suis seul La cocaïne, c'est pas du sel Nous, on s'enfume et on se soûle Et toi, pourquoi tu fais la belle ? Tout mon quartier connait ton boule Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Elle a trompé le mari, le mari l'a tabassée Je sais pas qui a tort, c'est bizarre quand t'es attaché Tu fais des trucs de fou, tu sors la nuit, tu vas marcher Tu vas t'acheter une boisson mais sûrement pas du panaché Où est l'amour, où est le love ? On a tous pété les plombs et on est mauvais Et c'est toujours les mêmes têtes devant le café J'ai des gavas de 25 ans qui sont d'jà chauves Je connais pas le grand amour, te-ma le passé J'écoute David et Jonathan, au fond d'ma gove Est-ce que tu viens pour les vacances ou as-tu changé d'adresse ? Tu m'trouvais violent quand je dégainais ma crosse Mais voilà c'était la crise et j'ai grandi dans la crasse Fumée grise et je l'écrase et on déprime en-bas du porche, merde J'ai rêvé d'une vie de boss, merde Avec des diamants sur le torse, mec J'fais du rap et j'ai un gosse, ouais Y'a que son amour qui m'approche, mec J'fais du rap et j'ai un gosse, ouais J'fais du rap et j'ai un gosse, ouais Y'a que son amour qui m'approche, ouais Pas de diamants sur le torse, mec Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Une balle est partie, un frère est tombé Ils ont mis un cur sur sa pierre tombale La mort, c'est la mort, tuer, c'est tuer Et une fois qu'tu l'as fait, igo, tu perds ton âme Mothafuck, mothafuck you Tu m'diras plus jamais I love you J'suis un p'tit renard des cités Avec un train de vie de voyou S'il faut tirer, j'vais pas hésiter Je crains dégun nan, je crains walou Et si l'amour a d'jà existé, il est passé sous un poids lourd Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Les gens parlent d'amour, pourquoi ils parlent d'amour ? Les gens parlent d'amour, pourquoi ils parlent d'amour ? Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Qu'est c'qu'ils y connaissent, hein ? Qu'est c'qu'ils y connaissent, rien Nada Toute la journée les gens parlent d'amour Mais y'a l'infidélité, y'a les guerres, y'a les trahisons Y'a les violences conjugales, y'a les expulsions Y'a les mères qui triment, y'a les frères qui meurent Et les gens parlent d'amour ? Hein, il est où l'amour dans tout ça ? Les gens parlent d'amour Mais qu'est-ce qu'ils y connaissent ? Hein, rien, ils y connaissent rien Les gens parlent d'amour, mais ils y connaissent rien</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ça commence par l'achat d'un paquet d'cigarettes Pour être à la mode, il faut du tabac, des filles, d'la fête Alors tu rôdes sur Paname, à l'affût Les bars branchés t'arpentes et pour boire y'a qu'à d'mander Mais Paris c'est loin et t'as r'péré un café dans l'quartier Il est pas mal, désormais c'est là qu'tu vas squatter Fumer paquet sur paquet Pendant qu'tu croiras t'éclater Tu n'feras que t'égarer Ta meuf est mal et veut t'plaquer C'est dangereux Tu sais même pas qu'tu finiras en pilier d'bar Au début c'est quelques clopes, quelques potes dans l'tier-quar C'est l'rendez-vous d'après l'travail, histoire de kiffer l'soir C'est l'bon moment pour claquer d'la maille et puis crier d'joie Autour d'un fé-ca noir ou déca' Tous les jours nos dents se dégradent S'tu peux pas rester plus tard, on s'voit demain au pire des cas, ça y est On est dans la spirale, on peut plus s'en passer On s'est mis à la pillave mais on est restés au café Maintenant on est au RSA, c'est plus l'rendez vous d'après l'travail Nan c'est l'rendez vous des chômeurs qu'on appelle racailles On n'est des plus des p'tits on a 25 berges Posé devant l'café, l'objectif c'est d'faire plein plein d'zeille Bientôt dix piges qu'on connaît l'tron-pa on s'arrange avec lui Il manque des sous pour le flipper, pas grave il nous f'ra crédit On est des habitués, depuis quand ? On en sait plus rien En attendant j'commande une bière et j'me tape des barres sur Lucien C'est un ancien, bientôt vingt ans qu'il est dans l'café Quinze qu'il s'est fait larguer Dix qu'il voit plus l'temps passer Il parle tout seul, le regard dans l'vide Il croit s'soulager quand il boit, mais en vrai il est die dans l'film J't'explique il fait partie d'ceux qu'le café a piégé Car quand sa femme l'a quitté, il était là pour l'apaiser En pleine dépression il a décidé d'tout plaquer, décider d'pillave le soir pour oublier le jour d'après Mais l'jour d'après faut r'mettre ça car il est devenu alcoolo Il noie sa peine dans la pillave et sans ça il fait pas dodo Il est dangereux ce fé-ca, son odeur de tabac froid, ses tickets d'Loto par terre et les poivrots qui s'cassent la voix Plus les années passent, plus l'étau se resserre J'ai vu des joueurs de PMU s'ruiner en croyant se refaire Le café a eu Jefferson Quand il touche c'est la star, mais quand ses ch'vaux sont à la traîne cousin il est personne Il s'est fait baiser par la FDJ Et c'est seulement quand il perd une bonne somme que tu l'vois réfléchir Mais comme tout les joueurs il a mordu à lhameçon Combien d'fois j'l'ai entendu dire j'parie plus sur les canassons ? Couplé ordre, quinté plus, il faut qu'j'rejoue un ticket Dix ans plus tard t'as toujours l'vice et ta famille est impliquée Ils mangent rien, mais tu joues à temps plein Toi tu joues, tu manques à tes gosses mais pour toi ça change rien Et tu joues Parieurs, alcooliques, accros des jeux et passagers Retenez qu'au café il faut jamais s'attacher You might also like Et si tu vois Kery James dis lui qu'le café m'a eu Ça commence par un paquet d'clopes, quand t'y ajoutes l'alcool c'est un sacré chahut Tu t'en passes plus et tu t'en lasses pas Tu vis dans l'abus et tu t'en caches pas Dis lui qu'le café m'a eu Ça commence par un paquet d'clopes, quand t'y ajoutes l'alcool c'est un sacré chahut Tu t'en passes plus et tu t'en lasses pas Tu vis dans l'abus et tu t'en caches pas3</t>
+          <t>Ça commence par l'achat d'un paquet d'cigarettes Pour être à la mode, il faut du tabac, des filles, d'la fête Alors tu rôdes sur Paname, à l'affût Les bars branchés t'arpentes et pour boire y'a qu'à d'mander Mais Paris c'est loin et t'as r'péré un café dans l'quartier Il est pas mal, désormais c'est là qu'tu vas squatter Fumer paquet sur paquet Pendant qu'tu croiras t'éclater Tu n'feras que t'égarer Ta meuf est mal et veut t'plaquer C'est dangereux Tu sais même pas qu'tu finiras en pilier d'bar Au début c'est quelques clopes, quelques potes dans l'tier-quar C'est l'rendez-vous d'après l'travail, histoire de kiffer l'soir C'est l'bon moment pour claquer d'la maille et puis crier d'joie Autour d'un fé-ca noir ou déca' Tous les jours nos dents se dégradent S'tu peux pas rester plus tard, on s'voit demain au pire des cas, ça y est On est dans la spirale, on peut plus s'en passer On s'est mis à la pillave mais on est restés au café Maintenant on est au RSA, c'est plus l'rendez vous d'après l'travail Nan c'est l'rendez vous des chômeurs qu'on appelle racailles On n'est des plus des p'tits on a 25 berges Posé devant l'café, l'objectif c'est d'faire plein plein d'zeille Bientôt dix piges qu'on connaît l'tron-pa on s'arrange avec lui Il manque des sous pour le flipper, pas grave il nous f'ra crédit On est des habitués, depuis quand ? On en sait plus rien En attendant j'commande une bière et j'me tape des barres sur Lucien C'est un ancien, bientôt vingt ans qu'il est dans l'café Quinze qu'il s'est fait larguer Dix qu'il voit plus l'temps passer Il parle tout seul, le regard dans l'vide Il croit s'soulager quand il boit, mais en vrai il est die dans l'film J't'explique il fait partie d'ceux qu'le café a piégé Car quand sa femme l'a quitté, il était là pour l'apaiser En pleine dépression il a décidé d'tout plaquer, décider d'pillave le soir pour oublier le jour d'après Mais l'jour d'après faut r'mettre ça car il est devenu alcoolo Il noie sa peine dans la pillave et sans ça il fait pas dodo Il est dangereux ce fé-ca, son odeur de tabac froid, ses tickets d'Loto par terre et les poivrots qui s'cassent la voix Plus les années passent, plus l'étau se resserre J'ai vu des joueurs de PMU s'ruiner en croyant se refaire Le café a eu Jefferson Quand il touche c'est la star, mais quand ses ch'vaux sont à la traîne cousin il est personne Il s'est fait baiser par la FDJ Et c'est seulement quand il perd une bonne somme que tu l'vois réfléchir Mais comme tout les joueurs il a mordu à lhameçon Combien d'fois j'l'ai entendu dire j'parie plus sur les canassons ? Couplé ordre, quinté plus, il faut qu'j'rejoue un ticket Dix ans plus tard t'as toujours l'vice et ta famille est impliquée Ils mangent rien, mais tu joues à temps plein Toi tu joues, tu manques à tes gosses mais pour toi ça change rien Et tu joues Parieurs, alcooliques, accros des jeux et passagers Retenez qu'au café il faut jamais s'attacher Et si tu vois Kery James dis lui qu'le café m'a eu Ça commence par un paquet d'clopes, quand t'y ajoutes l'alcool c'est un sacré chahut Tu t'en passes plus et tu t'en lasses pas Tu vis dans l'abus et tu t'en caches pas Dis lui qu'le café m'a eu Ça commence par un paquet d'clopes, quand t'y ajoutes l'alcool c'est un sacré chahut Tu t'en passes plus et tu t'en lasses pas Tu vis dans l'abus et tu t'en caches pas3</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pour la conso c'est minimum 10G, pigé ? Dix grammes de zeb' dans le cerveau Je sais que j'ai fait du mal Je sais que j'ai fait du sale Quand je dormais dans la cave J'ai vu maman verser des larmes J'ai assisté au drame De la drogue et des armes Des mecs qui se faisaient découper Comme des jambons de Parme Motherfucker bang bang c'est comme ça dans ma rue Je pourrais prendre perpet' j'suis bourré quand j'allume Mes tits-pe mettent des Play 4 dans des sacs en alu' On arrive et on fait l'taff propre et sans bavure Bendo ! Tous les jours je fais l'cash, bah ouais j'ai d'l'allure J'suis ruché avec mes gangstas fonce-dé sur la lune On a fumé d'la ganja, igo j'suis dans ma bulle Nous invite pas à ta fiesta, on va t'niquer ta pute Dix grammes de zeb' dans le cerveau Vingt grammes de shit dans le calecif Ouais tous mes rabzas, mes négros Sont dans le vol et le trafic Nique sa mère la juge et son pote le proc' Vite amène la thune ou je sors le glock Cigarette allumée J'inhalais ma fumée Tranquillement et v'la qu'les porcs me coffrent Putain, j'ai toujours grandi dans le chahut Et trop tôt j'ai quitté le bahut Je connais tous les coins de ma rue Sur la tête du petit que j'ai pas eu Putain La vie d'ma bière Il m'faut le butin Alors vide la caisse Et tes Louboutin Mon frère veut les mêmes alors tu les enlèves vite fait Avant qu'j'te nique ta mère C'est quoi les bails, c'est quoi les business ? Toujours vouloir plus me file un big stress Défoncé dans ma bulle je vis que d'ivresse Tous ces fils de putes pourront jamais m'prendre de vitesse You might also like Pour la conso c'est minimum 10G Pour la conso c'est minimum 10G Pour la conso c'est minimum 10G 94 VLT, VLG Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Faut qu'je fume, faut qu'je fume Pour la conso c'est minimum 10G ! Faut qu'je fume, faut qu'j'me fume C'est minimum 10G, j'espère qu'ils ont pigé Négro j'suis obligé ! J'agis comme un trisomique Bendo ! Bendo ! J'agis comme un trisomique Bendo ! Bendo ! Bendo !Bendo ! Niquez vos races moi j'ai plus d'temps à perdre Ca fait vingt-quatre ans que je nage dans la merde Bendo ! Bendo ! Bendo ! Bendo ! Bendo ! Ratatatatatatatata x4 Guizmo, juste pour vous dire wAllah Tous les styles musicaux j'fais ça mieux qu'vous Vous êtes des p'tits pour moi J'ai même pas encore vingt-cinq ans Et vous avez déjà presque trente ans Mais vous êtes des p'tits pour moi Comment vous rappez, vos punchlines de merde Tous ces trucs là, là Là, là bientôt j'fais un featuring avec un raï-man Même lui il vous met à l'amende ma gueule Tu vois c'que j'veux dire ? Voilà vous êtes des petits Bendo, bendo, bendo, hein ? Pour la conso c'est minimum 10G, j'espère qu'ils ont pigé C'est pas sorcier comme Jamy bande de bâtards Ok, VLG, la ZUP, la Redoute, Carter On est ensemble ça bouge pas Cité rose, tout le monde autour de moi Bilou prod', barbare empire Tous mes négros, tous mes négros, tous mes négros ZER, bastos, D-Max, Sicklips, Axel YONEA WILLY WILLY YONEA GP Gangsta's mother fuck11</t>
+          <t>Pour la conso c'est minimum 10G, pigé ? Dix grammes de zeb' dans le cerveau Je sais que j'ai fait du mal Je sais que j'ai fait du sale Quand je dormais dans la cave J'ai vu maman verser des larmes J'ai assisté au drame De la drogue et des armes Des mecs qui se faisaient découper Comme des jambons de Parme Motherfucker bang bang c'est comme ça dans ma rue Je pourrais prendre perpet' j'suis bourré quand j'allume Mes tits-pe mettent des Play 4 dans des sacs en alu' On arrive et on fait l'taff propre et sans bavure Bendo ! Tous les jours je fais l'cash, bah ouais j'ai d'l'allure J'suis ruché avec mes gangstas fonce-dé sur la lune On a fumé d'la ganja, igo j'suis dans ma bulle Nous invite pas à ta fiesta, on va t'niquer ta pute Dix grammes de zeb' dans le cerveau Vingt grammes de shit dans le calecif Ouais tous mes rabzas, mes négros Sont dans le vol et le trafic Nique sa mère la juge et son pote le proc' Vite amène la thune ou je sors le glock Cigarette allumée J'inhalais ma fumée Tranquillement et v'la qu'les porcs me coffrent Putain, j'ai toujours grandi dans le chahut Et trop tôt j'ai quitté le bahut Je connais tous les coins de ma rue Sur la tête du petit que j'ai pas eu Putain La vie d'ma bière Il m'faut le butin Alors vide la caisse Et tes Louboutin Mon frère veut les mêmes alors tu les enlèves vite fait Avant qu'j'te nique ta mère C'est quoi les bails, c'est quoi les business ? Toujours vouloir plus me file un big stress Défoncé dans ma bulle je vis que d'ivresse Tous ces fils de putes pourront jamais m'prendre de vitesse Pour la conso c'est minimum 10G Pour la conso c'est minimum 10G Pour la conso c'est minimum 10G 94 VLT, VLG Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Ramène-moi mes 10G Faut qu'je fume, faut qu'je fume Pour la conso c'est minimum 10G ! Faut qu'je fume, faut qu'j'me fume C'est minimum 10G, j'espère qu'ils ont pigé Négro j'suis obligé ! J'agis comme un trisomique Bendo ! Bendo ! J'agis comme un trisomique Bendo ! Bendo ! Bendo !Bendo ! Niquez vos races moi j'ai plus d'temps à perdre Ca fait vingt-quatre ans que je nage dans la merde Bendo ! Bendo ! Bendo ! Bendo ! Bendo ! Ratatatatatatatata x4 Guizmo, juste pour vous dire wAllah Tous les styles musicaux j'fais ça mieux qu'vous Vous êtes des p'tits pour moi J'ai même pas encore vingt-cinq ans Et vous avez déjà presque trente ans Mais vous êtes des p'tits pour moi Comment vous rappez, vos punchlines de merde Tous ces trucs là, là Là, là bientôt j'fais un featuring avec un raï-man Même lui il vous met à l'amende ma gueule Tu vois c'que j'veux dire ? Voilà vous êtes des petits Bendo, bendo, bendo, hein ? Pour la conso c'est minimum 10G, j'espère qu'ils ont pigé C'est pas sorcier comme Jamy bande de bâtards Ok, VLG, la ZUP, la Redoute, Carter On est ensemble ça bouge pas Cité rose, tout le monde autour de moi Bilou prod', barbare empire Tous mes négros, tous mes négros, tous mes négros ZER, bastos, D-Max, Sicklips, Axel YONEA WILLY WILLY YONEA GP Gangsta's mother fuck11</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Quand ça va mal, j'étanche ma peine avec la rue Y W Guiziouzou sisicoucou Dans ma bulle comme un fou l'impression d'être seul Du shit, de la beuh, un stylo, quelques feuilles Toujours un salaud qui viendra porter l'oeil Je dors plus la nuit je n'ai pas fait le deuil Ouais papa j'vais tous les niquer Comme tu m'a appris je s'rais sans pitié J'ai trop d'avance et j'ai trop d'idée Diakité Mafia c'est la qualité Dans mon vécu rien de falsifié L'art de la rue on a pratiqué LV 94 la mentalité J'ai détaillé, j'me suis appliqué J'encule la BAC et les CRS Parce qu'ils m'ont d'jà mis en PLS Et parce qu'ils ont pris mon CRF Et parce qu'ils ont pété DMS Aaah la vie c'est glauque Quand tu fais ton fric avec un glock J'suis un renard t'es venu pour un dix Tu va repartir avec un bloc Et puis tu peux d'mander à mes potes Moi j'ai jamais chié dans mon froc Madame la juge sur le terrain J'bicravais pas moi j'faisais du troc J'suis tombé dedans j'suis comme Obélix J'respecte mes soldats donc ils m'obéissent Recharge la bonbonne il nous faut des dix Ma femme me rassure elle est protectrice J'vends plus la coke et j'ai trop fait d'shit J'crache mes poumons faut un toplexil Une vie dégueulasse comme la fosse sceptique Contourner la loi c'est mon objectif You might also like Aaah ouais, j'suis défoncé jusqu'au trou d'balle et c'est trop bien J'vis avec un avion d'chasse, jm'en bats les couilles de tes faux seins J'mange le Maaf et le Pundu J'fume du shit avec Unda Je suis petit comme Timon Mais je mange pas de Pumba J'écouterais plus mes démons Même si mon cur est tout noir J'avance que dans la pénombre Et je vois dans le brouillard Aaah dans la tête, l'esprit d'mes ancêtres et mes convictions Pris dans la tempête moi j'ai compris l'son J'ai posé mes couilles et mes conditions Y'a pas un renard qui m'reconnait pas Autour de moi y'a qu'des corrompus J'gagne la course y'a pas d'faux départ J'suis pas comme eux tu m'a confondu Aaah renoi ambitieux, un coup gentil, un coup vicieux Bah ouais j'arrive les yeux plissés Mais à la fin c'est moi qui met l'feu Et toi tu fais l'fou mais j'sais pas t'es qui J'connais pas tes potes, j'connais pas ton équipe Salam ahlekoum, ahlekoum salam, nique ta mère à gauche et voilà on est quittes Y'a toujours un con qui fait cramer la cachette Faut qu'il rembourse et qu'il s'apprête A m'chercher mon grec et ma canette Bah ouais mon pote c'est la galère J'suis dans les temps quand il faut prendre du fric Jamais gratté un euro j'préfère vendre du shit T'aura pas ta barrette si t'a une tête de schmit Et d'toutes façons les trucs ils sont pas dans mon slip Aaah wesh les mecs, j'vous vois péter des Jack et des Belvédère Toujours accompagné avec des belles belettes Mais sur la tête de oim' les gars faites beleck Et j'ai fait mes preuves d'vant ton poto l'lascar Donne moi mon fric et puis poto basta Donne moi mon fric et puis poto basta De l'argent sale comme les chiottes au placard Aah, j'suis pas traumatisé, ma cigarette j'ai aromatisé J'suis calibré et j'ai trop tisé Poussez vous tous je sais pas trop viser ! Tous les jaloux dans le rétroviseur Ils courent derrière moi et ils sont épuisés Les putes, les poucaves et les menteurs C'est toujours eux les mieux déguisés Ah ! Ouzou, coucou sisi, sbigidisbanG-GPGang! J'ai la haine, j'ai la ge-ra Je le ken moi le pe-ra Dans ce game que des peureux Et jm'en pète si ça ppe-ra Moi mon gang est valeureux Ca fait bang que des dingues et des flingues Bang bang, bang bang, oh putain c'est malheureux ! J'ai la haine, j'ai la ge-ra Je le ken moi le pe-ra Dans ce game que des peureux Et jm'en pète si ça ppe-ra Moi mon gang est valeureux Ca fait bang que des dingues et des flingues Baw baw, baw baw, oh putain c'est malheureux ! Yoh gars yoh Y et W, guiziouzou sisi coucou Hein, hein 8ème album et toujours pas de single Brams Maka, Counda, Mick, Chicka, Mathew, Yonea, Willy Villeneuve-la-Garenne, les immeubles, la galère VLD zoo Bes-bar, c'est comme ça qu'on fait GPOuzou Le renard, le renard Le renard, le renard Zbiguili zbangz, GPGangster's1</t>
+          <t>Quand ça va mal, j'étanche ma peine avec la rue Y W Guiziouzou sisicoucou Dans ma bulle comme un fou l'impression d'être seul Du shit, de la beuh, un stylo, quelques feuilles Toujours un salaud qui viendra porter l'oeil Je dors plus la nuit je n'ai pas fait le deuil Ouais papa j'vais tous les niquer Comme tu m'a appris je s'rais sans pitié J'ai trop d'avance et j'ai trop d'idée Diakité Mafia c'est la qualité Dans mon vécu rien de falsifié L'art de la rue on a pratiqué LV 94 la mentalité J'ai détaillé, j'me suis appliqué J'encule la BAC et les CRS Parce qu'ils m'ont d'jà mis en PLS Et parce qu'ils ont pris mon CRF Et parce qu'ils ont pété DMS Aaah la vie c'est glauque Quand tu fais ton fric avec un glock J'suis un renard t'es venu pour un dix Tu va repartir avec un bloc Et puis tu peux d'mander à mes potes Moi j'ai jamais chié dans mon froc Madame la juge sur le terrain J'bicravais pas moi j'faisais du troc J'suis tombé dedans j'suis comme Obélix J'respecte mes soldats donc ils m'obéissent Recharge la bonbonne il nous faut des dix Ma femme me rassure elle est protectrice J'vends plus la coke et j'ai trop fait d'shit J'crache mes poumons faut un toplexil Une vie dégueulasse comme la fosse sceptique Contourner la loi c'est mon objectif Aaah ouais, j'suis défoncé jusqu'au trou d'balle et c'est trop bien J'vis avec un avion d'chasse, jm'en bats les couilles de tes faux seins J'mange le Maaf et le Pundu J'fume du shit avec Unda Je suis petit comme Timon Mais je mange pas de Pumba J'écouterais plus mes démons Même si mon cur est tout noir J'avance que dans la pénombre Et je vois dans le brouillard Aaah dans la tête, l'esprit d'mes ancêtres et mes convictions Pris dans la tempête moi j'ai compris l'son J'ai posé mes couilles et mes conditions Y'a pas un renard qui m'reconnait pas Autour de moi y'a qu'des corrompus J'gagne la course y'a pas d'faux départ J'suis pas comme eux tu m'a confondu Aaah renoi ambitieux, un coup gentil, un coup vicieux Bah ouais j'arrive les yeux plissés Mais à la fin c'est moi qui met l'feu Et toi tu fais l'fou mais j'sais pas t'es qui J'connais pas tes potes, j'connais pas ton équipe Salam ahlekoum, ahlekoum salam, nique ta mère à gauche et voilà on est quittes Y'a toujours un con qui fait cramer la cachette Faut qu'il rembourse et qu'il s'apprête A m'chercher mon grec et ma canette Bah ouais mon pote c'est la galère J'suis dans les temps quand il faut prendre du fric Jamais gratté un euro j'préfère vendre du shit T'aura pas ta barrette si t'a une tête de schmit Et d'toutes façons les trucs ils sont pas dans mon slip Aaah wesh les mecs, j'vous vois péter des Jack et des Belvédère Toujours accompagné avec des belles belettes Mais sur la tête de oim' les gars faites beleck Et j'ai fait mes preuves d'vant ton poto l'lascar Donne moi mon fric et puis poto basta Donne moi mon fric et puis poto basta De l'argent sale comme les chiottes au placard Aah, j'suis pas traumatisé, ma cigarette j'ai aromatisé J'suis calibré et j'ai trop tisé Poussez vous tous je sais pas trop viser ! Tous les jaloux dans le rétroviseur Ils courent derrière moi et ils sont épuisés Les putes, les poucaves et les menteurs C'est toujours eux les mieux déguisés Ah ! Ouzou, coucou sisi, sbigidisbanG-GPGang! J'ai la haine, j'ai la ge-ra Je le ken moi le pe-ra Dans ce game que des peureux Et jm'en pète si ça ppe-ra Moi mon gang est valeureux Ca fait bang que des dingues et des flingues Bang bang, bang bang, oh putain c'est malheureux ! J'ai la haine, j'ai la ge-ra Je le ken moi le pe-ra Dans ce game que des peureux Et jm'en pète si ça ppe-ra Moi mon gang est valeureux Ca fait bang que des dingues et des flingues Baw baw, baw baw, oh putain c'est malheureux ! Yoh gars yoh Y et W, guiziouzou sisi coucou Hein, hein 8ème album et toujours pas de single Brams Maka, Counda, Mick, Chicka, Mathew, Yonea, Willy Villeneuve-la-Garenne, les immeubles, la galère VLD zoo Bes-bar, c'est comme ça qu'on fait GPOuzou Le renard, le renard Le renard, le renard Zbiguili zbangz, GPGangster's1</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yo, espèce de trou de balle, je vais te casser les os Beaucoup de loux-ja, j'ai demasqué les faux Tu voudrais backer mes flows, etre dans le crew On va te la mettre dans le trou si jamais tu veux me braquer mes loves Arrête de parler de oim, tu fais rien d'autre que de la pub gratuite Tu te crois dans le mouv mais t'es juste statique J'ai des projets, des ambitions de malade Faire les cent millions de patates en mode trop scred ghostface Mais il y a un problème, ce truc, c'est à double tranchant Soit c'est top ten ou grosse merde J'arrive avec mes gremlins, on va proliférer Villeneuve la garenne et colis piégé Faut pas chercher la petite bête De la haine, dans le regard d'un pote Il y a pas de doute, c'est un demi-traitre J'ai pas de scrupule, pourtant j'ai vu le jour à la Pitié Mais les tours de ma cité m'ont fait peter les plombs Mais j'aime la rime à en crever, punchline futuroscope Toi tu freestyle en 2D Un petit sky', un rre- ve Té-ma ça une barrette de te-chi Arrête le ce-vi et achète le skeu-di Exclusivité fnac, tu peux parler Mais t'es plus limité qu'oim à mes débuts Et il y a rien de prétentieux Mais étant donné que je suis meilleur que tous les nuls là restent entre eux Et sur la tête, de ma bouteille de vodka Il faut que tu rammènes des copines et puis une douzaine de pote-ca C'est le 92 Izi, nan je rigole C'est VLG, Caravelle, sisi Les braquage le deal, pas besoins d'en faire une chanson Lunatic, Beat de boul ont déjà mis la sanction Flow technique Les MC rappent de la merde donc ils vont finir dans la fosse septique Prosé street, il y a de quoi te repoudrer le nez, mais on taffe pas dans les cosmétiques Les euros je mérites, j'ai, taffé comme un chien, rappé comme un dingue donc là pour mailler faut faire vite Ouais faut faire vite Quitte à faire une dinguerie toi, on t'nique ta mère une singerie Et sur ma putain de vie que tes potes ils vont pas ger-bou Ils vont tous cotiser pour un paquet d' couche Allez ouste, débarassez moi le camp Kadhafi est dans la place, Che Guevara est absent J'ai pas le temps, ils ont refait mon hall pour nous faire croire qu'on était moins pauvre Tu te rends comptes, sur ton compte, une somme qui donne même pas envie de te lever le matin L'Elysée, bouffent du caviar, je suis en train de crever la faim A jeun, jamais de la vie ,machin, ramène la tize Tire une barre, fait un sapin avec la weed Mais il y aura pas de cadeaux, pas de père noël On fait nos diezes même dans la merde, pas de S O S You might also like Woop Woop Villi villi villeuneuve Cousin tu sais ce qu'on pense J'ai tout dit dans mes textes Je suis vrai alors les tiexon dansent Ram papapam Que des rafales de douilles Ram papapam Vas-y parles pas de mes couilles Ram papapam Que des rafales de douilles Tous les lascars m'écoutent Villeneuve Guiziyouzou Guiziyouzou Ziguili-zone sensible Yonea Willy Tu sais ce qu'on explique...3</t>
+          <t>Yo, espèce de trou de balle, je vais te casser les os Beaucoup de loux-ja, j'ai demasqué les faux Tu voudrais backer mes flows, etre dans le crew On va te la mettre dans le trou si jamais tu veux me braquer mes loves Arrête de parler de oim, tu fais rien d'autre que de la pub gratuite Tu te crois dans le mouv mais t'es juste statique J'ai des projets, des ambitions de malade Faire les cent millions de patates en mode trop scred ghostface Mais il y a un problème, ce truc, c'est à double tranchant Soit c'est top ten ou grosse merde J'arrive avec mes gremlins, on va proliférer Villeneuve la garenne et colis piégé Faut pas chercher la petite bête De la haine, dans le regard d'un pote Il y a pas de doute, c'est un demi-traitre J'ai pas de scrupule, pourtant j'ai vu le jour à la Pitié Mais les tours de ma cité m'ont fait peter les plombs Mais j'aime la rime à en crever, punchline futuroscope Toi tu freestyle en 2D Un petit sky', un rre- ve Té-ma ça une barrette de te-chi Arrête le ce-vi et achète le skeu-di Exclusivité fnac, tu peux parler Mais t'es plus limité qu'oim à mes débuts Et il y a rien de prétentieux Mais étant donné que je suis meilleur que tous les nuls là restent entre eux Et sur la tête, de ma bouteille de vodka Il faut que tu rammènes des copines et puis une douzaine de pote-ca C'est le 92 Izi, nan je rigole C'est VLG, Caravelle, sisi Les braquage le deal, pas besoins d'en faire une chanson Lunatic, Beat de boul ont déjà mis la sanction Flow technique Les MC rappent de la merde donc ils vont finir dans la fosse septique Prosé street, il y a de quoi te repoudrer le nez, mais on taffe pas dans les cosmétiques Les euros je mérites, j'ai, taffé comme un chien, rappé comme un dingue donc là pour mailler faut faire vite Ouais faut faire vite Quitte à faire une dinguerie toi, on t'nique ta mère une singerie Et sur ma putain de vie que tes potes ils vont pas ger-bou Ils vont tous cotiser pour un paquet d' couche Allez ouste, débarassez moi le camp Kadhafi est dans la place, Che Guevara est absent J'ai pas le temps, ils ont refait mon hall pour nous faire croire qu'on était moins pauvre Tu te rends comptes, sur ton compte, une somme qui donne même pas envie de te lever le matin L'Elysée, bouffent du caviar, je suis en train de crever la faim A jeun, jamais de la vie ,machin, ramène la tize Tire une barre, fait un sapin avec la weed Mais il y aura pas de cadeaux, pas de père noël On fait nos diezes même dans la merde, pas de S O S Woop Woop Villi villi villeuneuve Cousin tu sais ce qu'on pense J'ai tout dit dans mes textes Je suis vrai alors les tiexon dansent Ram papapam Que des rafales de douilles Ram papapam Vas-y parles pas de mes couilles Ram papapam Que des rafales de douilles Tous les lascars m'écoutent Villeneuve Guiziyouzou Guiziyouzou Ziguili-zone sensible Yonea Willy Tu sais ce qu'on explique...3</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Je me réveille à 15 heures et j'me défonce à la weed Je suis perdu sans ma sur, envie de sauter dans le vide Je me réveille en sueur, je suis pris d'angoisse je fais des crises Mais pour mon frère faut pas que je pleure alors je me défonce à la tise Pour mon frère il faut des sous, pour ma mère il faut des sous Pour ma femme il faut des lou, lou, lou, lou, lou Je fais que ramasser du blé, toi tu peux taper du pied Moi ce que je peux m'acheter, tu le loues loues loues Allez vous faire enculer, j'en ai marre de tout ça Je pense à Douma Kalash et à mon frérot Foussin Jeff et LDT, Kenny K, motherfuck, parano et dépressif, j'ai un feu sous le coussin D Max, Siclips, je vais péter les plombs dites-moi qu'il faut pas que je le fasse Ces petits bâtards sont jaloux depuis qu'ils voient que j'ai des meufs et que je brasse Ces enculés font la fête quand j'suis pas bien C'que tu mets dans ton pet', c'est mon gagne-pain J'veux pas ramasser les miettes j'fais des larcins La beuh, du shit, du vol, des faux fafs et du tapin Mets le tout dans ta miaou s'te plaît Mets le tout dans ta miaou s'te plaît Mets le tout dans ta chatte s'te plaît Et vas-y, passe la douane, faut des liasses de blé Gangz You might also like Je suis toujours plongé dans ma folie C'est pour mes gangstass et mes homies Mets l'argent dans le sac et ne joue pas au con, ce sera mieux pour toi Nique ta mère fils de pute, ouais j'te baise et encore là je suis courtois Je n'en n'ai rien à foutre les rappeurs ne font que de la flûte Et ils peuvent pousser la fonte moi je sais que c'est tous des putes J'suis défoncé à la skunk, dans mon plumard un gros 'uc Elle m'a laissé garder ma montre mais elle a enlevé mon fut' Et je pense à Lascar et toutes les meufs qu'on a tabassés Mon tout petit corps a démonté des gros tabassa Trois ou quatre fois dans la nuit, ma belle, ce sera pas assez Et une fois qu'j'ai fini il m'faut un spliff avec un massage Et puis j'me tire de la chambre d'hôtel en remettant mon glock dans mon pantalon Elle sort de la chambre d'hôtel avec une petite robe et des grands talons Voilà j'ai pillave du lean Les rappeurs parlent de flingues ou de bicrave du shit C'est v'là les baltringues, on a tricar le vice Oui vous passez à table devant ces trimards de schmit GP Gang Baba Rampir, Timzir, Bilou Prod que des vampires O.V.D.Z, N.M.G, Zone Sensible, c'est Chicago mais en pire Il y a du doré il y a du soké Il y a d'la cess et il y a des me-ar Si t'es OP, on est OP Passe à la tess avec le gent-ar Je suis toujours plongé dans ma folie C'est pour mes gangstass et mes homies Mets l'argent dans le sac et ne joue pas au con, ce sera mieux pour toi Nique ta mère fils de pute, ouais j'te baise et encore là je suis courtois GPG fait pas de cadeau Allez tous vous faire enculer Je fais de l'ombre à tous ces salauds Viens me voir si tu veux fumer Viens me voir si jamais tu veux faire un peu de lovés On a de la drogue et quelques armes dans la forêt Bats les couilles du Proc', lui et mon baveux se connaissent Posé dans le bloc, tous les voisins sont affolés Hey yo, où est ma monnaie ? Igo j'te le promets J'ai croisé des faux mecs, troqué des dosettes Drogués des accrocs qui m'demandaient des chromes mais moi j'ai trop les crocs Oui la dope est un commerce Nouvelle NorthFace remplie de billets Tu m'demande un seize, c'est vite plié Combien d'litres de bière j'ai distillé ? Là j'suis posé dans ma sphère avec une petite tis-mé Elle est bonne, elle est mimi, elle ressent le feeling C'est sûr, je la finis comme Shy'm ou Ophélie Cette sacrée coquine a voulue me shnikav Elle a baissé mon froc, elle a vu mon 9 milli Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Igo je suis plongé dans ma folie Plongé dans mon 94120 Plongé dans mon Villeneuve Plongé dans mon GP Gang Hein !? Yonea Willy business Wesh Kali Sir</t>
+          <t>Je me réveille à 15 heures et j'me défonce à la weed Je suis perdu sans ma sur, envie de sauter dans le vide Je me réveille en sueur, je suis pris d'angoisse je fais des crises Mais pour mon frère faut pas que je pleure alors je me défonce à la tise Pour mon frère il faut des sous, pour ma mère il faut des sous Pour ma femme il faut des lou, lou, lou, lou, lou Je fais que ramasser du blé, toi tu peux taper du pied Moi ce que je peux m'acheter, tu le loues loues loues Allez vous faire enculer, j'en ai marre de tout ça Je pense à Douma Kalash et à mon frérot Foussin Jeff et LDT, Kenny K, motherfuck, parano et dépressif, j'ai un feu sous le coussin D Max, Siclips, je vais péter les plombs dites-moi qu'il faut pas que je le fasse Ces petits bâtards sont jaloux depuis qu'ils voient que j'ai des meufs et que je brasse Ces enculés font la fête quand j'suis pas bien C'que tu mets dans ton pet', c'est mon gagne-pain J'veux pas ramasser les miettes j'fais des larcins La beuh, du shit, du vol, des faux fafs et du tapin Mets le tout dans ta miaou s'te plaît Mets le tout dans ta miaou s'te plaît Mets le tout dans ta chatte s'te plaît Et vas-y, passe la douane, faut des liasses de blé Gangz Je suis toujours plongé dans ma folie C'est pour mes gangstass et mes homies Mets l'argent dans le sac et ne joue pas au con, ce sera mieux pour toi Nique ta mère fils de pute, ouais j'te baise et encore là je suis courtois Je n'en n'ai rien à foutre les rappeurs ne font que de la flûte Et ils peuvent pousser la fonte moi je sais que c'est tous des putes J'suis défoncé à la skunk, dans mon plumard un gros 'uc Elle m'a laissé garder ma montre mais elle a enlevé mon fut' Et je pense à Lascar et toutes les meufs qu'on a tabassés Mon tout petit corps a démonté des gros tabassa Trois ou quatre fois dans la nuit, ma belle, ce sera pas assez Et une fois qu'j'ai fini il m'faut un spliff avec un massage Et puis j'me tire de la chambre d'hôtel en remettant mon glock dans mon pantalon Elle sort de la chambre d'hôtel avec une petite robe et des grands talons Voilà j'ai pillave du lean Les rappeurs parlent de flingues ou de bicrave du shit C'est v'là les baltringues, on a tricar le vice Oui vous passez à table devant ces trimards de schmit GP Gang Baba Rampir, Timzir, Bilou Prod que des vampires O.V.D.Z, N.M.G, Zone Sensible, c'est Chicago mais en pire Il y a du doré il y a du soké Il y a d'la cess et il y a des me-ar Si t'es OP, on est OP Passe à la tess avec le gent-ar Je suis toujours plongé dans ma folie C'est pour mes gangstass et mes homies Mets l'argent dans le sac et ne joue pas au con, ce sera mieux pour toi Nique ta mère fils de pute, ouais j'te baise et encore là je suis courtois GPG fait pas de cadeau Allez tous vous faire enculer Je fais de l'ombre à tous ces salauds Viens me voir si tu veux fumer Viens me voir si jamais tu veux faire un peu de lovés On a de la drogue et quelques armes dans la forêt Bats les couilles du Proc', lui et mon baveux se connaissent Posé dans le bloc, tous les voisins sont affolés Hey yo, où est ma monnaie ? Igo j'te le promets J'ai croisé des faux mecs, troqué des dosettes Drogués des accrocs qui m'demandaient des chromes mais moi j'ai trop les crocs Oui la dope est un commerce Nouvelle NorthFace remplie de billets Tu m'demande un seize, c'est vite plié Combien d'litres de bière j'ai distillé ? Là j'suis posé dans ma sphère avec une petite tis-mé Elle est bonne, elle est mimi, elle ressent le feeling C'est sûr, je la finis comme Shy'm ou Ophélie Cette sacrée coquine a voulue me shnikav Elle a baissé mon froc, elle a vu mon 9 milli Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Plongé dans ma folie, plongé dans ma folie Plongé dans ma folie, j'suis plongé dans ma folie Igo je suis plongé dans ma folie Plongé dans mon 94120 Plongé dans mon Villeneuve Plongé dans mon GP Gang Hein !? Yonea Willy business Wesh Kali Sir</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hé, du 7-7 au 9-4 gros, j'ai roulé ma bosse En passant par l'9-2 ou j'ai trouvé la drogue Des mois sous écrou ouais j'avoue c'est atroce Si j'suis pas cap de tirer bah tu vas goûter ma crosse J'ai fais plein de tête à tête, j'en ai perdu quelques uns Mais crois pas qu'j'suis une salope, si y a embrouille je reste serein J'voulais des sous alors j'ai vite quitté l'école Maintenant j'suis cramé comme ma puce Bouygues Telecom En 20 ans de vie ouais j'ai galeré grave, j'ai squatter les caves Bien avant de gratter mes phases Une plaquette, 32 barrettes, ouais c'est mathématique Et c'est pas demain la veille que tu vas braquer ma click Et si j'ai maqué ta bitch, que j'lui ai pas fais la bise C'est qu'j'ai pas le time, j'sais pas si t'as capté la rime Ma vie m'a dégoûté comme une poubelle lass-dégueu Et c'est toujours le même bitume sous mes nouvelles baskets A force de téma la télé j'rêve de Desert Eagle Et quand j'rentre tard le soir c'est ma mère qui gueule Elle sait que dehors c'est la jungle et qu'on fait parti des félins Surtout qu'j'ai des potes en taule du BAT B jusqu'au T1 En fait, en roulant ma bosse, j'ai roulé des joints Le daron m'a cramé et puis j'ai goûté ses poings Mais c'est pas pour autant que j'ai arrêté D'rentrer défoncé devant la femme qui m'a allaité En essayant de pas m'faire tricar, avec mon p'tit gramme coffré dans l'slibard En plus du shit, la pillave me perce le foie Où-est le bout du tunnel ? J'peux pas le percevoir J'rappe pas la vie d'un autre mec, j'porte pas de peau de pêche J'baise des tisses-mé munies de grosses fesses Moi, mes couilles et ma bande de potes On rêve de faire le million via la vente de drogue, hein You might also like J'peux pas vé-cre, le regard vitreux à cause d'un bâtard Une vie crue, un style crade c'est palpable palpable Trêve de plaisanterie, j'fais mal aussi vrai que j'suis l'frère de Leandri Je vis avec mes cicatrices Dans mes nuits les plus noires j'me vois même lâcher ma vie d'artiste Mais je le ressens... ce besoin d'exister Pour oublier en deux joints c'est vite fait Il s'en est passé des dingueries Dommage que j'ai b'soin d'alcool pour accélérer l'inspi Et rap sévère et principes c'est la vie qu'on aime Habitués à cacher les sentiments même si on s'aime Coup d'blues et pétage de câbles Tu veux bédave le hash, et faire des tas de liasses Mais il faut pas trop rêver En même temps comment faire autrement quand ils zappent nos CD's Du 7-7 au 9-4 j'ai connu la merde Jusqu'au 9-2 et sa drogue qui me pollue la tête J'ai des choses à dire, j'ai vu des chauds partir Pour des beaux habits, c'est trop zarbi mec, faut qu'j'me tire Des tonnes de schmits pour presque nada Le best de Paname c'est Guizmo, ne reste pas là ! Trêve de blabla, passe la feuille et la cigarette Que j'décolle, que j'oublie l'deuil et la vie d'galère Les 'leurs et les flics m'arrêtent Quelque triste sort, j'suis pas pris d'remords Quand ils m'embarquent j'suis d'jà ivre mort T'as capté l'truc ? J'viens rapper mes soucis Parce que mes gars prennent du poids à force de damer des XXX Faut taper les pouki, à base de chassés dans la tête Moi j'veux mailler dans ma tess et puis m'taper des groupies J'avance, et personne me stoppe Ces escrocs ne sortent que de belles crottes et des best-of de flops Et j'suis tous les jours pété, mais même a jeun j'avance A force de baiser l'Etat j'ai déchiré l'vagin d'la France Yo... ok Il s'en est passé des dingueries.. Ah ouais attends... ok Yo ! x2 Diggity check Jiggity Guizmo yeah Woop woop Viggity Villeneuve Ziggity Zone Sensible Tu sais comment ça s'passe Villeneuve-la-Garenne, les immeubles, la galère Les filles veuves, la galette et tout le reste, han !</t>
+          <t>Hé, du 7-7 au 9-4 gros, j'ai roulé ma bosse En passant par l'9-2 ou j'ai trouvé la drogue Des mois sous écrou ouais j'avoue c'est atroce Si j'suis pas cap de tirer bah tu vas goûter ma crosse J'ai fais plein de tête à tête, j'en ai perdu quelques uns Mais crois pas qu'j'suis une salope, si y a embrouille je reste serein J'voulais des sous alors j'ai vite quitté l'école Maintenant j'suis cramé comme ma puce Bouygues Telecom En 20 ans de vie ouais j'ai galeré grave, j'ai squatter les caves Bien avant de gratter mes phases Une plaquette, 32 barrettes, ouais c'est mathématique Et c'est pas demain la veille que tu vas braquer ma click Et si j'ai maqué ta bitch, que j'lui ai pas fais la bise C'est qu'j'ai pas le time, j'sais pas si t'as capté la rime Ma vie m'a dégoûté comme une poubelle lass-dégueu Et c'est toujours le même bitume sous mes nouvelles baskets A force de téma la télé j'rêve de Desert Eagle Et quand j'rentre tard le soir c'est ma mère qui gueule Elle sait que dehors c'est la jungle et qu'on fait parti des félins Surtout qu'j'ai des potes en taule du BAT B jusqu'au T1 En fait, en roulant ma bosse, j'ai roulé des joints Le daron m'a cramé et puis j'ai goûté ses poings Mais c'est pas pour autant que j'ai arrêté D'rentrer défoncé devant la femme qui m'a allaité En essayant de pas m'faire tricar, avec mon p'tit gramme coffré dans l'slibard En plus du shit, la pillave me perce le foie Où-est le bout du tunnel ? J'peux pas le percevoir J'rappe pas la vie d'un autre mec, j'porte pas de peau de pêche J'baise des tisses-mé munies de grosses fesses Moi, mes couilles et ma bande de potes On rêve de faire le million via la vente de drogue, hein J'peux pas vé-cre, le regard vitreux à cause d'un bâtard Une vie crue, un style crade c'est palpable palpable Trêve de plaisanterie, j'fais mal aussi vrai que j'suis l'frère de Leandri Je vis avec mes cicatrices Dans mes nuits les plus noires j'me vois même lâcher ma vie d'artiste Mais je le ressens... ce besoin d'exister Pour oublier en deux joints c'est vite fait Il s'en est passé des dingueries Dommage que j'ai b'soin d'alcool pour accélérer l'inspi Et rap sévère et principes c'est la vie qu'on aime Habitués à cacher les sentiments même si on s'aime Coup d'blues et pétage de câbles Tu veux bédave le hash, et faire des tas de liasses Mais il faut pas trop rêver En même temps comment faire autrement quand ils zappent nos CD's Du 7-7 au 9-4 j'ai connu la merde Jusqu'au 9-2 et sa drogue qui me pollue la tête J'ai des choses à dire, j'ai vu des chauds partir Pour des beaux habits, c'est trop zarbi mec, faut qu'j'me tire Des tonnes de schmits pour presque nada Le best de Paname c'est Guizmo, ne reste pas là ! Trêve de blabla, passe la feuille et la cigarette Que j'décolle, que j'oublie l'deuil et la vie d'galère Les 'leurs et les flics m'arrêtent Quelque triste sort, j'suis pas pris d'remords Quand ils m'embarquent j'suis d'jà ivre mort T'as capté l'truc ? J'viens rapper mes soucis Parce que mes gars prennent du poids à force de damer des XXX Faut taper les pouki, à base de chassés dans la tête Moi j'veux mailler dans ma tess et puis m'taper des groupies J'avance, et personne me stoppe Ces escrocs ne sortent que de belles crottes et des best-of de flops Et j'suis tous les jours pété, mais même a jeun j'avance A force de baiser l'Etat j'ai déchiré l'vagin d'la France Yo... ok Il s'en est passé des dingueries.. Ah ouais attends... ok Yo ! x2 Diggity check Jiggity Guizmo yeah Woop woop Viggity Villeneuve Ziggity Zone Sensible Tu sais comment ça s'passe Villeneuve-la-Garenne, les immeubles, la galère Les filles veuves, la galette et tout le reste, han !</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yo, j'attends qui, j'attends quoi ? J'attends lui, j'attends toi J'attends l'shit, j'attend l'sky Ça s'enivre avant l'âge On veut quitter la réalité, dans nos cités La pénalité, exister dans la précarité Et on attend, que les jours soient meilleurs Qu'ils vivent nos galères et que nos tours soient les leurs Et j'me sens pas bien, quand j'vois que m'amuser Boire, fumer, rapper c'est mon gagne-pain Quand je pense que mon père a fait plomberie, et manutention J'aimerais pouvoir dire à mes gosses, que j'me suis battu dans le son Qui a plus d'tension, mais c'est pas le cas J'attends qu'ça s'calme mais en vrai j'ai pas le time Non, j'ai ma carrière a gérer, j'ai la matière trouve une manière d'apprécier Ou attends l'prochain album oh De toute façon on attend tous quelque chose... x2 J'attend mais je sais même pas quoi ? J'laisserai pas les deks m'avoir Enfermé en cabine, j'me baise la voix Passe me voir, y'a tout le temps Tard le soir, on fout l'boucan You might also like Yo, j'connais les ambiances macabres, cadavériques Si t'es une balance casse-toi, parle à Derrick Pas d'taff à la mairie, aux Assédic non plus À tous ceux qui attendent, j'cace-dédi mon truc À tous mes potos en lulle-cé, à ceux en HP qui attendent la mort en train d'convulser J'y pense constamment, y'a celui qui attend sur le terrain Celui qui passe et qui compte l'argent C'est les dures lois de la vie alors sois pas naïf Avant de t'retrouver à dire putain cette pule-cra me l'a mise Des puches-ca, de la pisse, dans un hall qui part en ruine N'attends pas qu'on t'plombe en ville Soit intelligent et casse-toi d'ici N'attends pas d'te faire péter et ne parle pas d'bibi Les gens portent l'il, et ils attendent ta chute Nous envoyer au trou c'est le passe temps de la juge... x2 J'attends mais je sais même pas quoi ? J'laisserai pas les deks m'avoir Enfermé en cabine, j'me baise la voix Passe me voir, y'a tout le temps Tard le soir, on fout l'boucan1</t>
+          <t>Yo, j'attends qui, j'attends quoi ? J'attends lui, j'attends toi J'attends l'shit, j'attend l'sky Ça s'enivre avant l'âge On veut quitter la réalité, dans nos cités La pénalité, exister dans la précarité Et on attend, que les jours soient meilleurs Qu'ils vivent nos galères et que nos tours soient les leurs Et j'me sens pas bien, quand j'vois que m'amuser Boire, fumer, rapper c'est mon gagne-pain Quand je pense que mon père a fait plomberie, et manutention J'aimerais pouvoir dire à mes gosses, que j'me suis battu dans le son Qui a plus d'tension, mais c'est pas le cas J'attends qu'ça s'calme mais en vrai j'ai pas le time Non, j'ai ma carrière a gérer, j'ai la matière trouve une manière d'apprécier Ou attends l'prochain album oh De toute façon on attend tous quelque chose... x2 J'attend mais je sais même pas quoi ? J'laisserai pas les deks m'avoir Enfermé en cabine, j'me baise la voix Passe me voir, y'a tout le temps Tard le soir, on fout l'boucan Yo, j'connais les ambiances macabres, cadavériques Si t'es une balance casse-toi, parle à Derrick Pas d'taff à la mairie, aux Assédic non plus À tous ceux qui attendent, j'cace-dédi mon truc À tous mes potos en lulle-cé, à ceux en HP qui attendent la mort en train d'convulser J'y pense constamment, y'a celui qui attend sur le terrain Celui qui passe et qui compte l'argent C'est les dures lois de la vie alors sois pas naïf Avant de t'retrouver à dire putain cette pule-cra me l'a mise Des puches-ca, de la pisse, dans un hall qui part en ruine N'attends pas qu'on t'plombe en ville Soit intelligent et casse-toi d'ici N'attends pas d'te faire péter et ne parle pas d'bibi Les gens portent l'il, et ils attendent ta chute Nous envoyer au trou c'est le passe temps de la juge... x2 J'attends mais je sais même pas quoi ? J'laisserai pas les deks m'avoir Enfermé en cabine, j'me baise la voix Passe me voir, y'a tout le temps Tard le soir, on fout l'boucan1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yonea-Willy, Willy-Yonea Guizmo-Despo Roots On reste roots Désabusés quand un frère se chute Faut être du bon côté du pompe pour apprécier l'feu d'artifice Z.S Destiné à devenir quelqu'un, mais prédestiné à rien du tout J'ai prouvé tout seul que j'les bouffe et ils le prennent pas bien du tout Un labo dans la tête, j'écris mon expérience de street La main sur la barrette, j'effrite mon espérance de vie J'tise en essayant de fuir plus j'en bois, plus j'en veux J'ai presque envie d'niquer ma vie plus d'gent-ar, plus d'envieux Les gens n'ont pas d'pitié, passent du salam au NTM Aiment l'espèce plus que l'amitié mais comment s'faire des frères ? Demande à Des' une punch de trop et les débats se font Mais malgré ça on arrivera premiers dans un état second C'est pas la vie qui décide, c'est moi et Dieu Casse pas les couilles, t'as ton point d'vue cousin, tes yeux c'est pas mes yeux Chacun sa merde ok ? J'suis pas scato' Pas envie d'discuter Avec des p'tits enculés Qui rêveraient qu'on m'fasse la peau Même si c'est coupe gorge, on fonce droit devant Retiens qu'on est sous l'porche, et pas dedans You might also like x2 Depuis qu'j'suis tout gamin j'ai toujours fait c'que j'ai à faire J'connais mieux l'bitume que les semelles de mes Nike Air Arrêtez de dire qu'on est trash On est juste comme des barges Quand nos frères restent en cage Tu coupes la coke, t'as trop trop la gaule, tu survis par la came Tu coules blacko, tu t'es fait les go des civils à Málaga Comprenez qu'vous avez gâté, vous vous cal-dé Quand on badait sur nos baskets blanches éclatées J'ai vésqui le cathé' On peut vous épater, pas des ânes bâtés Omar Sy ne mange pas d'porc, mais il a graille tous les Pathé C'qui m'maintient debout c'est les sous et la haine Chérie j'rentre de Dallas j'étais allongé sous Ellen Y'a les couleurs de l'Afrique sur les bouteilles de JB J'suis financé par un pur produit CJT 30 000 dollars le mariage, 50 eu' la passe T'as un passé lourd, j'suis une branche d'acacia, tu t'accroches je me casse Thème passable qué pasa ? T'aimes pas, zappe T'as une Passat, freine pas srhab A fond dans la ville, on flirte avec la vitesse Masos, les fils de riche rêvent de la vie d'tess x2 Je tire sur le Marocco, j'ai les doigts qui brûlent À c'propos la vie c'est pas un oinj, tu m'roules c'est moi qui t'fume Tu t'prends pour Pablo Escobar, quand j'rappe tu t'prends une bastos dans l'oreille J'rappe avec les tripes, pour mes vatos pour mes kheyes Comme un aveugle j'ai encore rien vu d'la vie J'menace mon gendre si il tabasse ma fille Y'a comme un truc tragique, de dix à vingt ça traîne dehors À trente t'es déjà mort Les militaires ont des famas, les femmes ont des chattes C'est parce qu'on existe, que tout les rageux jactent J'ai les yeux bien ouverts et le coeur mé-fer Et s'il le faut j'te plante à fin pour mettre au beurre mes frères T'as embrassé la solitude car l'amitié t'a banni L'enfer est l'placard, même le diable a besoin d'compagnie YW, carrés de A à Z Trashs et paranos, inspirés par la zeb x22</t>
+          <t>Yonea-Willy, Willy-Yonea Guizmo-Despo Roots On reste roots Désabusés quand un frère se chute Faut être du bon côté du pompe pour apprécier l'feu d'artifice Z.S Destiné à devenir quelqu'un, mais prédestiné à rien du tout J'ai prouvé tout seul que j'les bouffe et ils le prennent pas bien du tout Un labo dans la tête, j'écris mon expérience de street La main sur la barrette, j'effrite mon espérance de vie J'tise en essayant de fuir plus j'en bois, plus j'en veux J'ai presque envie d'niquer ma vie plus d'gent-ar, plus d'envieux Les gens n'ont pas d'pitié, passent du salam au NTM Aiment l'espèce plus que l'amitié mais comment s'faire des frères ? Demande à Des' une punch de trop et les débats se font Mais malgré ça on arrivera premiers dans un état second C'est pas la vie qui décide, c'est moi et Dieu Casse pas les couilles, t'as ton point d'vue cousin, tes yeux c'est pas mes yeux Chacun sa merde ok ? J'suis pas scato' Pas envie d'discuter Avec des p'tits enculés Qui rêveraient qu'on m'fasse la peau Même si c'est coupe gorge, on fonce droit devant Retiens qu'on est sous l'porche, et pas dedans x2 Depuis qu'j'suis tout gamin j'ai toujours fait c'que j'ai à faire J'connais mieux l'bitume que les semelles de mes Nike Air Arrêtez de dire qu'on est trash On est juste comme des barges Quand nos frères restent en cage Tu coupes la coke, t'as trop trop la gaule, tu survis par la came Tu coules blacko, tu t'es fait les go des civils à Málaga Comprenez qu'vous avez gâté, vous vous cal-dé Quand on badait sur nos baskets blanches éclatées J'ai vésqui le cathé' On peut vous épater, pas des ânes bâtés Omar Sy ne mange pas d'porc, mais il a graille tous les Pathé C'qui m'maintient debout c'est les sous et la haine Chérie j'rentre de Dallas j'étais allongé sous Ellen Y'a les couleurs de l'Afrique sur les bouteilles de JB J'suis financé par un pur produit CJT 30 000 dollars le mariage, 50 eu' la passe T'as un passé lourd, j'suis une branche d'acacia, tu t'accroches je me casse Thème passable qué pasa ? T'aimes pas, zappe T'as une Passat, freine pas srhab A fond dans la ville, on flirte avec la vitesse Masos, les fils de riche rêvent de la vie d'tess x2 Je tire sur le Marocco, j'ai les doigts qui brûlent À c'propos la vie c'est pas un oinj, tu m'roules c'est moi qui t'fume Tu t'prends pour Pablo Escobar, quand j'rappe tu t'prends une bastos dans l'oreille J'rappe avec les tripes, pour mes vatos pour mes kheyes Comme un aveugle j'ai encore rien vu d'la vie J'menace mon gendre si il tabasse ma fille Y'a comme un truc tragique, de dix à vingt ça traîne dehors À trente t'es déjà mort Les militaires ont des famas, les femmes ont des chattes C'est parce qu'on existe, que tout les rageux jactent J'ai les yeux bien ouverts et le coeur mé-fer Et s'il le faut j'te plante à fin pour mettre au beurre mes frères T'as embrassé la solitude car l'amitié t'a banni L'enfer est l'placard, même le diable a besoin d'compagnie YW, carrés de A à Z Trashs et paranos, inspirés par la zeb x22</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vous êtes la meilleure - Comment la meilleure ? Hum - Vous avez dit la meilleure ? - Ouais. Vous êtes la meilleure Elle a 17 ans, elle vient d'la banlieue parisienne Pour elle, c'est pas l'école qui va lui donner à manger Elle a son Insta et son Facebook officiel Elle a l'habitude de rencontrer des étrangers Elle dort chez sa copine, c'est c'qu'elle dit à son père Des parents divorcés elle ne respecte plus sa mère À peine sortie du foyer, elle n'a plus aucun repère Paris, j'arrive, elle fume une clope sur le quai du RER Un visage de poupée, une silhouette de mannequin Des grossistes en coupé regardent ses escarpins Elle va pas les louper mais ça c'est pas maintenant Elle a un legging, elle portera du satin Un petit air naïf, elle dit jamais rien sur sa ie-v Elle côtoie des mecs rusés Mais elle est beaucoup plus maligne Elle s'est promis d'y arriver Coûte que coûte elle te rotte-ca sûr Tu crois qu'elle est clean mais tes potes la serrent Parce qu'elle veut du biff et des grosses voitures Elle a une copine qui fait pas mal de sous Pour évoluer elle va s'servir de ça Elle était persuadée qu'elle pouvait tenir le coup Et dans le Airbnb elle a enlevé ses ppes-sa You might also like Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Une escorte girl T'es devenue une escorte girl Une escorte girl T'es devenue une escorte girl Elle a sauté le pas, Louboutin, Zanotti Elle est dans le coupé, le tro-mé c'est fini Son visage de poupée n'est plus aussi mimi C'est sa sixième passe, il est même pas minuit Et elle gratte son billet Elle snappe son billet Elle claque son billet, comme un papillon de nuit C'était un avion de chasse, et c'est devenu un stand de tir Elle est attirée par les diamants, t'as composé son num et elle a dit allô Rejoins-moi à l'appartement, j'ai les préservatifs toi ramène les ballons Tous les raclos étaient crocs d'elle, mais elle ne voulait qu'la monnaie Elle avait deux ou trois phone-tel mais aucun sentiment à donner Mais moi je sais c'qu'elle te dit pas, sa tristesse est dissimulée Pour le luxe à ris-Pa, j'sais pas combien de fois elle a dû simuler Je l'ai jamais jugée, Dieu la facilite J'vais pas dire son nom ou de détails physiques Mais la vie est cruelle et la petite poupée a fini à l'HP Et j'vais lui rendre visite merde Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Une escorte girl T'es devenue une escorte girl Une escorte girl T'es devenue une escorte girl À toutes les escortes Qui un jour ont été nos petites surs Revenez parmi nous les filles Ça paie que sur terre wallaye Je sais pas si c'est ton destin, mais t'es devenue une escorte Merde1</t>
+          <t>Vous êtes la meilleure - Comment la meilleure ? Hum - Vous avez dit la meilleure ? - Ouais. Vous êtes la meilleure Elle a 17 ans, elle vient d'la banlieue parisienne Pour elle, c'est pas l'école qui va lui donner à manger Elle a son Insta et son Facebook officiel Elle a l'habitude de rencontrer des étrangers Elle dort chez sa copine, c'est c'qu'elle dit à son père Des parents divorcés elle ne respecte plus sa mère À peine sortie du foyer, elle n'a plus aucun repère Paris, j'arrive, elle fume une clope sur le quai du RER Un visage de poupée, une silhouette de mannequin Des grossistes en coupé regardent ses escarpins Elle va pas les louper mais ça c'est pas maintenant Elle a un legging, elle portera du satin Un petit air naïf, elle dit jamais rien sur sa ie-v Elle côtoie des mecs rusés Mais elle est beaucoup plus maligne Elle s'est promis d'y arriver Coûte que coûte elle te rotte-ca sûr Tu crois qu'elle est clean mais tes potes la serrent Parce qu'elle veut du biff et des grosses voitures Elle a une copine qui fait pas mal de sous Pour évoluer elle va s'servir de ça Elle était persuadée qu'elle pouvait tenir le coup Et dans le Airbnb elle a enlevé ses ppes-sa Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Une escorte girl T'es devenue une escorte girl Une escorte girl T'es devenue une escorte girl Elle a sauté le pas, Louboutin, Zanotti Elle est dans le coupé, le tro-mé c'est fini Son visage de poupée n'est plus aussi mimi C'est sa sixième passe, il est même pas minuit Et elle gratte son billet Elle snappe son billet Elle claque son billet, comme un papillon de nuit C'était un avion de chasse, et c'est devenu un stand de tir Elle est attirée par les diamants, t'as composé son num et elle a dit allô Rejoins-moi à l'appartement, j'ai les préservatifs toi ramène les ballons Tous les raclos étaient crocs d'elle, mais elle ne voulait qu'la monnaie Elle avait deux ou trois phone-tel mais aucun sentiment à donner Mais moi je sais c'qu'elle te dit pas, sa tristesse est dissimulée Pour le luxe à ris-Pa, j'sais pas combien de fois elle a dû simuler Je l'ai jamais jugée, Dieu la facilite J'vais pas dire son nom ou de détails physiques Mais la vie est cruelle et la petite poupée a fini à l'HP Et j'vais lui rendre visite merde Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Je ne sais pas si c'est ton destin Mais t'es devenue une escorte Une escorte girl T'es devenue une escorte girl Une escorte girl T'es devenue une escorte girl À toutes les escortes Qui un jour ont été nos petites surs Revenez parmi nous les filles Ça paie que sur terre wallaye Je sais pas si c'est ton destin, mais t'es devenue une escorte Merde1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>- J'suis Lamine Diakité, j'ai grandi à Valenton Déménagé à Savigny, et habité à Villeneuve Je suis sérieux Malheureusement mon alter égo a choisi un mode de vie périlleux Moi je suis sobre et cool d'abord Et j'suis pas d'accord quand Guizmo écrit Fuck les cours Nan, c'est pas la même dans mon ghetto et le sien J'suis sûr qu'il parle de moi quand il dit si tu fais le chaud mec, viens ! - Paraît qu'j'parle de toi, combien de fois j't'ai sauvé la mise ? Dis-moi, combien de fois j't'ai sauvé la vie ? Quand tu voulais faire la paix, être pacifique À chaque fois qu'tu baltringues, moi j'me sacrifie On partage le même corps, pas les mêmes valeurs Des fois tu veux stopper ma carrière ? Pff, j'ai même pas peur Eh, demande à Dwayne qui il préfère Il dira Comparé à Lamine, Guiz' est déter' - Entre dans mon monde, viens je t'emmène - Non non non, j'veux rester lucide - Y'aura des liasses et des tass' par centaines - Non non non, pourquoi tu m'incites ? - Parce que j'veux pas rester tout seul, j'veux qu'on fasse qu'un J't'offrirai le succès, les mannequins Steuplaît suis-moi, me laisse pas tout seul Lamine suis-moi, non me laisse pas tout seul You might also like - Et c'est pas du bluff, on est lié t'façon C'qui nous séparera c'est la mort, c'est pas une meuf - Tu crois ça hein ? - Non j'en suis certain J'suis le seul à taffer comme un chien pendant l'cert-con - Et moi j'suis qu'un petit môme apeuré - J'm'en fous ! Quand je prendrai le dessus, ouais crois-moi, Guizmo va crever - Hein, Guizmo va quoi ? -Guizmo va dead, Guizmo nique sa mère Bah ouais, Guizmo va perdre - Eh, j'compte pas m'en aller, Lamine, tu vas en baver Oublie pas qu'c'est grâce à moi qu'on est engagés - Ouais c'est grâce à toi, mais j'en peux plus, le rap et les schneks - Ferme ta gueule, négro reste là, on doit ramener l'espèce T'as pas compris ou quoi ? Avec le rap, on a des putes, du buzz, du fric et des privilèges - Je sais, mais ça devient relou, j'ai l'impression d'couler Et que toutes nos journées sont similaires - Arrête ton baratin ! Grâce à moi t'es un négro à la mode, avant ça, t'étais qu'un Sarrasin C'est grâce à qui qu't'as baisé Bip, qu'tu t'es fait sucé par Bip ? Bip, quand j'suis pas là tu flippes - Y'a pas qu'le rap, y'a pas qu'la baise Y'a pas qu'le buzz, y'a pas qu'la fraîche - Lamine arrête tes bêtises, viens dans mon monde, là je t'emmène - J'veux pas venir - Pourquoi ? - Parce qu'avec toi c'est le martyr Et que tu me donnes envie de vomir Me laisse pas tout seul ..1</t>
+          <t>- J'suis Lamine Diakité, j'ai grandi à Valenton Déménagé à Savigny, et habité à Villeneuve Je suis sérieux Malheureusement mon alter égo a choisi un mode de vie périlleux Moi je suis sobre et cool d'abord Et j'suis pas d'accord quand Guizmo écrit Fuck les cours Nan, c'est pas la même dans mon ghetto et le sien J'suis sûr qu'il parle de moi quand il dit si tu fais le chaud mec, viens ! - Paraît qu'j'parle de toi, combien de fois j't'ai sauvé la mise ? Dis-moi, combien de fois j't'ai sauvé la vie ? Quand tu voulais faire la paix, être pacifique À chaque fois qu'tu baltringues, moi j'me sacrifie On partage le même corps, pas les mêmes valeurs Des fois tu veux stopper ma carrière ? Pff, j'ai même pas peur Eh, demande à Dwayne qui il préfère Il dira Comparé à Lamine, Guiz' est déter' - Entre dans mon monde, viens je t'emmène - Non non non, j'veux rester lucide - Y'aura des liasses et des tass' par centaines - Non non non, pourquoi tu m'incites ? - Parce que j'veux pas rester tout seul, j'veux qu'on fasse qu'un J't'offrirai le succès, les mannequins Steuplaît suis-moi, me laisse pas tout seul Lamine suis-moi, non me laisse pas tout seul - Et c'est pas du bluff, on est lié t'façon C'qui nous séparera c'est la mort, c'est pas une meuf - Tu crois ça hein ? - Non j'en suis certain J'suis le seul à taffer comme un chien pendant l'cert-con - Et moi j'suis qu'un petit môme apeuré - J'm'en fous ! Quand je prendrai le dessus, ouais crois-moi, Guizmo va crever - Hein, Guizmo va quoi ? -Guizmo va dead, Guizmo nique sa mère Bah ouais, Guizmo va perdre - Eh, j'compte pas m'en aller, Lamine, tu vas en baver Oublie pas qu'c'est grâce à moi qu'on est engagés - Ouais c'est grâce à toi, mais j'en peux plus, le rap et les schneks - Ferme ta gueule, négro reste là, on doit ramener l'espèce T'as pas compris ou quoi ? Avec le rap, on a des putes, du buzz, du fric et des privilèges - Je sais, mais ça devient relou, j'ai l'impression d'couler Et que toutes nos journées sont similaires - Arrête ton baratin ! Grâce à moi t'es un négro à la mode, avant ça, t'étais qu'un Sarrasin C'est grâce à qui qu't'as baisé Bip, qu'tu t'es fait sucé par Bip ? Bip, quand j'suis pas là tu flippes - Y'a pas qu'le rap, y'a pas qu'la baise Y'a pas qu'le buzz, y'a pas qu'la fraîche - Lamine arrête tes bêtises, viens dans mon monde, là je t'emmène - J'veux pas venir - Pourquoi ? - Parce qu'avec toi c'est le martyr Et que tu me donnes envie de vomir Me laisse pas tout seul ..1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Illégal est mon GP Businessman est mon YW Gangst' est le Guizi ZS Ouzou Guizi Ah ! La force de Malcolm et Rosa J'suis venu pour les arroser La force de Malcolm et Rosa J'suis venu tous vous arroser Il y a des voix qui s'baladent dans ma tête Igo, j'en ai marre j'suis karav sans arrêts Igo, j'en ai marre en gardàv' dans la merde Une grosse baffe dans ta gueule, tu repars sans ta caisse T'as cru que t'étais où ? Nique ta mère la pute Vite emmène la tune ou je vais te péter tes genoux Y a un pompe, deux 6 coups On arrive de si tôt pour vous briser les genoux sous vodka tropico Ces négros sont faibles, ces négros sont mauvais Mes négros sont gang, mes négros sont opé Mes putes sont bonnes, les leurs bonnes à jeter Tout ce que tu voles, négro j'peux me l'acheter Arraché dans la ville, j'me ballade avec mon lean et mon glock 22 J'me suis fait péter par les schmits, ils ont compté mes ze-dou et il y en avait 22 You might also like M'en bats les couilles Illégal est mon GP Il pleut des douilles, en hiver ou en été Je n'sais plus comment faire, j'dois élever mes petits frères et payer un loyer Je sais pas nager, jeté dans le grand bain j'suis forcé d'me noyer Nique sa mère, j'en ai marre Nique sa mère, négro j'en ai marre Allez, j'en ai marre J'te dis j'en ai marre Négro j'en ai marre Reubeu j'en ai marre Poto j'en ai marre Babtou j'en ai marre Chinois j'en ai marre Mon rabouin j'en ai marre J'sors de garde à vue, mille euros dans ma fouille A peine j'suis rentré, j'ai sauté sur ma fouf J'ai pas de complexes ou de sujets tabous Ouais peut-être que t'es vexé mais l'avenir est à nous Ouais le re-noi est flex, il attire les jaloux Bébé viens me voir que j't'achète des talons J'ai vendu du shit et puis quelques cailloux En deux trois années, mec, j'ai pris du galon Rien qu'on s'tire dessus, on dirait un saloon J'cours pas comme un cheval mais j'suis un étalon J'te retourne la tête à la Eddy Malou J'ai un gros Python chargé dans le salon J'ai une meuf qui m'coiffe, une meuf que j'baise Une meuf qui range, et tout ça dans la même guerre Tout ça dans la même guerre Bienvenue dans ma sphère J'me suis tatoué comme un chien, parce que je viens de la casse Ces enfoirés ils croient que j'suis bien, j'suis dans la bicrave et la crasse J'en ai marre J'en ai marre Igo j'en ai marre WAllah j'en ai marre Ça va partir en ra-ta-ta-ta-ta-ta-ta Ça va partir en ra-ta-ta-ta-ta-ta-ta Parce que j'en ai marre Bourré, défoncé Bourré, défoncé Frelon j'en ai marre Tu crois que t'es loin, t'es juste à côté Ma bière et mon joint ils sont juxtaposés On passe des soirées beaucoup plus qu'arrosées Y a le lean, la vodka et le Muscat rosé Motherfucker, j'fais l'blé Et bats les couilles du fair-play A ma table que des verres pleins Donc toute la bande est pétée Je compte tout ce que j'ramasse Mais je dépense sans compter Pour toi ma liasse c'est ta liasse Mais ton pied c'est pas mon pied Faut pas s'tromper, non faut pas s'tromper J't'ai rendu service, tu vas m'donner mon blé avant que j'change de face Ouais j't'ai trompé, t'es partie bats les couilles J'fais du rap et du cash, demain je change de tass' J'la ramène sur Paname et j'claque 500 pétards J'passe à Western Union, j'envoie pour mes blédards J'suis parti de rien, j'oublie pas tout ça Aujourd'hui couvert d'or, j'suis un peu comme Seiyar Guizui, Ouzou Sisi Coucou MotherFucker GP Ganstz' Illégal est mon GP Businessman est mon YW Gangst' est le Guizi Wesh mon gars Medhi Tu sais très bien comment ils sont ces fils de putes Ils ont des têtes à claques pendant qu'on survit à des têtes à queues Ça prend les virages à 120 chez nous D Max, a dope like you never see that believe that, Motherfucker Vous allez entendre parler de ça bientôt Axel Makambo, ça gère les opérations comme Dominique Strauss-Kahn, hein C'est toi qui a la carte bleue enfoiré Wesh le ZUP, wesh le VLG Wesh La Redoute, Carter, le Point Cadet Retenez le, la force de Rosa et Malcolm mon pote J'suis venu défendre mon peuple J'suis venu défendre mes gars J'suis pas venu défendre mes nègres J'suis venu défendre mes gars, qu'ils soient chinois, rabzas, renois, rabouin, eurasien, indou, tout c'que tu veux Si c'est pas content, c'est pas content Comme elle dit ma grand mère Si c'est pas content, c'est pas content Mais c'est pareil en tout cas hein Toute façon, comme une salope que j'ai fréquenté a dit On verra bien hein2</t>
+          <t>Illégal est mon GP Businessman est mon YW Gangst' est le Guizi ZS Ouzou Guizi Ah ! La force de Malcolm et Rosa J'suis venu pour les arroser La force de Malcolm et Rosa J'suis venu tous vous arroser Il y a des voix qui s'baladent dans ma tête Igo, j'en ai marre j'suis karav sans arrêts Igo, j'en ai marre en gardàv' dans la merde Une grosse baffe dans ta gueule, tu repars sans ta caisse T'as cru que t'étais où ? Nique ta mère la pute Vite emmène la tune ou je vais te péter tes genoux Y a un pompe, deux 6 coups On arrive de si tôt pour vous briser les genoux sous vodka tropico Ces négros sont faibles, ces négros sont mauvais Mes négros sont gang, mes négros sont opé Mes putes sont bonnes, les leurs bonnes à jeter Tout ce que tu voles, négro j'peux me l'acheter Arraché dans la ville, j'me ballade avec mon lean et mon glock 22 J'me suis fait péter par les schmits, ils ont compté mes ze-dou et il y en avait 22 M'en bats les couilles Illégal est mon GP Il pleut des douilles, en hiver ou en été Je n'sais plus comment faire, j'dois élever mes petits frères et payer un loyer Je sais pas nager, jeté dans le grand bain j'suis forcé d'me noyer Nique sa mère, j'en ai marre Nique sa mère, négro j'en ai marre Allez, j'en ai marre J'te dis j'en ai marre Négro j'en ai marre Reubeu j'en ai marre Poto j'en ai marre Babtou j'en ai marre Chinois j'en ai marre Mon rabouin j'en ai marre J'sors de garde à vue, mille euros dans ma fouille A peine j'suis rentré, j'ai sauté sur ma fouf J'ai pas de complexes ou de sujets tabous Ouais peut-être que t'es vexé mais l'avenir est à nous Ouais le re-noi est flex, il attire les jaloux Bébé viens me voir que j't'achète des talons J'ai vendu du shit et puis quelques cailloux En deux trois années, mec, j'ai pris du galon Rien qu'on s'tire dessus, on dirait un saloon J'cours pas comme un cheval mais j'suis un étalon J'te retourne la tête à la Eddy Malou J'ai un gros Python chargé dans le salon J'ai une meuf qui m'coiffe, une meuf que j'baise Une meuf qui range, et tout ça dans la même guerre Tout ça dans la même guerre Bienvenue dans ma sphère J'me suis tatoué comme un chien, parce que je viens de la casse Ces enfoirés ils croient que j'suis bien, j'suis dans la bicrave et la crasse J'en ai marre J'en ai marre Igo j'en ai marre WAllah j'en ai marre Ça va partir en ra-ta-ta-ta-ta-ta-ta Ça va partir en ra-ta-ta-ta-ta-ta-ta Parce que j'en ai marre Bourré, défoncé Bourré, défoncé Frelon j'en ai marre Tu crois que t'es loin, t'es juste à côté Ma bière et mon joint ils sont juxtaposés On passe des soirées beaucoup plus qu'arrosées Y a le lean, la vodka et le Muscat rosé Motherfucker, j'fais l'blé Et bats les couilles du fair-play A ma table que des verres pleins Donc toute la bande est pétée Je compte tout ce que j'ramasse Mais je dépense sans compter Pour toi ma liasse c'est ta liasse Mais ton pied c'est pas mon pied Faut pas s'tromper, non faut pas s'tromper J't'ai rendu service, tu vas m'donner mon blé avant que j'change de face Ouais j't'ai trompé, t'es partie bats les couilles J'fais du rap et du cash, demain je change de tass' J'la ramène sur Paname et j'claque 500 pétards J'passe à Western Union, j'envoie pour mes blédards J'suis parti de rien, j'oublie pas tout ça Aujourd'hui couvert d'or, j'suis un peu comme Seiyar Guizui, Ouzou Sisi Coucou MotherFucker GP Ganstz' Illégal est mon GP Businessman est mon YW Gangst' est le Guizi Wesh mon gars Medhi Tu sais très bien comment ils sont ces fils de putes Ils ont des têtes à claques pendant qu'on survit à des têtes à queues Ça prend les virages à 120 chez nous D Max, a dope like you never see that believe that, Motherfucker Vous allez entendre parler de ça bientôt Axel Makambo, ça gère les opérations comme Dominique Strauss-Kahn, hein C'est toi qui a la carte bleue enfoiré Wesh le ZUP, wesh le VLG Wesh La Redoute, Carter, le Point Cadet Retenez le, la force de Rosa et Malcolm mon pote J'suis venu défendre mon peuple J'suis venu défendre mes gars J'suis pas venu défendre mes nègres J'suis venu défendre mes gars, qu'ils soient chinois, rabzas, renois, rabouin, eurasien, indou, tout c'que tu veux Si c'est pas content, c'est pas content Comme elle dit ma grand mère Si c'est pas content, c'est pas content Mais c'est pareil en tout cas hein Toute façon, comme une salope que j'ai fréquenté a dit On verra bien hein2</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Enfant capricieux, j'suis l'fils de Livya Lamine Diakité, proche de ma mère et moins d'Ibiza Maman, s'te plait, c'était ma phrase préférée C'était aussi celle de mes 40 refrés Au magasin, on voulait tout Mais crois-moi, on volait rien Car si maman nous voyait faire Une que-cla, on voyait flou C'était la honte ça, en plus, dans l'magasin ya toutes ses copines Ouais c'est la honte ça, alors maman s'égosille Elle a pas un fond malsain Même si des fois elle frappe Je sais qu'elle fait ça par amour Pour pas qu'on devienne des bons à rien On l'a fait pleurer, sourire S'inquiéter à en mourir Ouvrir la porte à pas d'heure Pour nous voir défoncer sous tise J't'ai souvent déçue, mise en pleurs Ma mère a un grand cur Malheureusement ya des plaies dessus Et c'est la seule qui est là Dans les pleurs et les drames Dans les fleurs et les larmes C'est ta sécu You might also like Maman, maman, maman s'te plait Il m'faut des nikes pour la rentrée Maman s'te plait Maman, maman, maman s'te plait Laisse moi sortir pour danser Maman s'te plait Maman s'te plait, Maman s'te plait Maman s'te plait, Maman s'te plait Maman, maman, maman s'te plait Ouais on sait qu'ya pas d'argent Mais quand même Maman s'te plait... Et si t'as perdu ta maman ou qu'tu l'as pas connue Laisse-es traiter de fils de pute Ces gens-là ils sont pas comme nous Et si t'as perdu ta maman ou qu'tu l'as pas connue Laisse-les traiter de fils de pute Ces gens-là ils sont pas comme nous J'aurais dû suivre ma maman, mais j'ressemble à papa J'aurais pas dû fumer l'afghan, avant qu'ça sente la tatepa J'aurais pas dû sécher l'école, mais poursuivre les études Mais j'me suis laissé avoir par la routine et les écus Maman ne connait pas les ambiances en bas du bâtiment Et quand je rentre tard le soir elle voit un gars qui ment Un enfant qui doute, un enfant qui souffre En permanence, car maman s'est remariée en cours de route Mais comment lui en vouloir, elle m'a porté neuf mois Elle me baffait après l'école et me bordait le soir Respecte-la, aime-la de toutes tes forces Car jamais d'la vie ta mère redoute devant l'effort Maman, maman, maman s'te plait Il m'faut des nikes pour la rentrée Maman s'te plait Maman, maman, maman s'te plait Laisse moi sortir pour danser Maman s'te plait Maman s'te plait, Maman s'te plait Maman s'te plait, Maman s'te plait Maman, maman, maman s'te plait Ouais on sait qu'ya pas d'argent Mais quand même Maman s'te plait... Maman s'te plait, maman je t'aime Il fallait que j'te le dise avant d'te perdre Maman s'te plait, maman je t'aime Il fallait que j'te le dise avant d'te perdre1</t>
+          <t>Enfant capricieux, j'suis l'fils de Livya Lamine Diakité, proche de ma mère et moins d'Ibiza Maman, s'te plait, c'était ma phrase préférée C'était aussi celle de mes 40 refrés Au magasin, on voulait tout Mais crois-moi, on volait rien Car si maman nous voyait faire Une que-cla, on voyait flou C'était la honte ça, en plus, dans l'magasin ya toutes ses copines Ouais c'est la honte ça, alors maman s'égosille Elle a pas un fond malsain Même si des fois elle frappe Je sais qu'elle fait ça par amour Pour pas qu'on devienne des bons à rien On l'a fait pleurer, sourire S'inquiéter à en mourir Ouvrir la porte à pas d'heure Pour nous voir défoncer sous tise J't'ai souvent déçue, mise en pleurs Ma mère a un grand cur Malheureusement ya des plaies dessus Et c'est la seule qui est là Dans les pleurs et les drames Dans les fleurs et les larmes C'est ta sécu Maman, maman, maman s'te plait Il m'faut des nikes pour la rentrée Maman s'te plait Maman, maman, maman s'te plait Laisse moi sortir pour danser Maman s'te plait Maman s'te plait, Maman s'te plait Maman s'te plait, Maman s'te plait Maman, maman, maman s'te plait Ouais on sait qu'ya pas d'argent Mais quand même Maman s'te plait... Et si t'as perdu ta maman ou qu'tu l'as pas connue Laisse-es traiter de fils de pute Ces gens-là ils sont pas comme nous Et si t'as perdu ta maman ou qu'tu l'as pas connue Laisse-les traiter de fils de pute Ces gens-là ils sont pas comme nous J'aurais dû suivre ma maman, mais j'ressemble à papa J'aurais pas dû fumer l'afghan, avant qu'ça sente la tatepa J'aurais pas dû sécher l'école, mais poursuivre les études Mais j'me suis laissé avoir par la routine et les écus Maman ne connait pas les ambiances en bas du bâtiment Et quand je rentre tard le soir elle voit un gars qui ment Un enfant qui doute, un enfant qui souffre En permanence, car maman s'est remariée en cours de route Mais comment lui en vouloir, elle m'a porté neuf mois Elle me baffait après l'école et me bordait le soir Respecte-la, aime-la de toutes tes forces Car jamais d'la vie ta mère redoute devant l'effort Maman, maman, maman s'te plait Il m'faut des nikes pour la rentrée Maman s'te plait Maman, maman, maman s'te plait Laisse moi sortir pour danser Maman s'te plait Maman s'te plait, Maman s'te plait Maman s'te plait, Maman s'te plait Maman, maman, maman s'te plait Ouais on sait qu'ya pas d'argent Mais quand même Maman s'te plait... Maman s'te plait, maman je t'aime Il fallait que j'te le dise avant d'te perdre Maman s'te plait, maman je t'aime Il fallait que j'te le dise avant d'te perdre1</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime Les couples se frittent et se séparent Quand on aime on fonce c'est pour ça qu'on finit par retourner à la case départ Est-ce que les bons comptes font les bons couples ? Hein ? Est-ce que les gros cons sont des bons coups ? Ma femme me dit qu'elle m'aime Sérieux mon vieux, j'en suis pas si sûr au pieu Elle rentre tard, chamboule ses habitudes J'vois autre chose dans ses yeux, l'impression qu'on la manipule Ensemble on visait les cieux, aujourd'hui j'les vois qui brûlent Utilise pas le verbe aimer si tu sais pas le conjuguer Plein on gravit le mont de l'Amour et on chuté On détruit en deux secondes mais on construit goutte à goutte Oublie pas, quand y a un doute, y a pas de doute Tout ça devient ingérable, entre disputes et quiproquos poto ! Peut-être qu'on s'est trompés ou qu'on s'est investis trop tôt Le couple est un pénitencier et l'évasion nous tente Pourquoi à chaque fois qu'on se sépare cette passion nous manque ? x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime You might also like Vas-y dis-le moi, avant que mes mains parlent à ma place Avant qu'les insultes nous dépassent, avant qu'le juge te donne la garde J'ai accepté lui, lui, l'autre et encore l'autre Viens on s'parle, viens on oublie c'est bon tout est d'ma faute Ça fait déjà tout c'temps, ça peut pas finir comme ça Malgré les colères, les merdes, les vie d'ma mère, je t'aime si tu m'aides On est ensemble, c'est pas possible autrement À trop regarder derrière on oublie d'aller de l'avant La vie à deux c'est pas un jeu, c'est du sérieux C'est délicat, c'est comme marcher sur des ufs Ça commence, fais un vu, jette une pièce dans un puits Un peu plus tard dans la nuit ça te blesse au pieu Ne cherche pas à comprendre dans l'amour y a aucune logique Nan ne cherche pas à comprendre dans l'amour il n'y a aucune logique Séparé nos chemins, rien que d'y penser c'est trop tragique Remettons tout ça à demain et disons-nous le mot magique x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime J'ai un humour piquant, un peu con J'aime l'amour depuis quand ? Je déconne ! J'traque l'euro, juge pas le temps que je mets Dis-moi que tu m'aimes, moi aussi je m'aime On arrive plus à se cerner, à se cerner Le temps passe, t'es resté le même Dans cet amour on est enfermés, enfermés Baby dis-moi que tu m'aimes x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime2</t>
+          <t>x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime Les couples se frittent et se séparent Quand on aime on fonce c'est pour ça qu'on finit par retourner à la case départ Est-ce que les bons comptes font les bons couples ? Hein ? Est-ce que les gros cons sont des bons coups ? Ma femme me dit qu'elle m'aime Sérieux mon vieux, j'en suis pas si sûr au pieu Elle rentre tard, chamboule ses habitudes J'vois autre chose dans ses yeux, l'impression qu'on la manipule Ensemble on visait les cieux, aujourd'hui j'les vois qui brûlent Utilise pas le verbe aimer si tu sais pas le conjuguer Plein on gravit le mont de l'Amour et on chuté On détruit en deux secondes mais on construit goutte à goutte Oublie pas, quand y a un doute, y a pas de doute Tout ça devient ingérable, entre disputes et quiproquos poto ! Peut-être qu'on s'est trompés ou qu'on s'est investis trop tôt Le couple est un pénitencier et l'évasion nous tente Pourquoi à chaque fois qu'on se sépare cette passion nous manque ? x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime Vas-y dis-le moi, avant que mes mains parlent à ma place Avant qu'les insultes nous dépassent, avant qu'le juge te donne la garde J'ai accepté lui, lui, l'autre et encore l'autre Viens on s'parle, viens on oublie c'est bon tout est d'ma faute Ça fait déjà tout c'temps, ça peut pas finir comme ça Malgré les colères, les merdes, les vie d'ma mère, je t'aime si tu m'aides On est ensemble, c'est pas possible autrement À trop regarder derrière on oublie d'aller de l'avant La vie à deux c'est pas un jeu, c'est du sérieux C'est délicat, c'est comme marcher sur des ufs Ça commence, fais un vu, jette une pièce dans un puits Un peu plus tard dans la nuit ça te blesse au pieu Ne cherche pas à comprendre dans l'amour y a aucune logique Nan ne cherche pas à comprendre dans l'amour il n'y a aucune logique Séparé nos chemins, rien que d'y penser c'est trop tragique Remettons tout ça à demain et disons-nous le mot magique x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime J'ai un humour piquant, un peu con J'aime l'amour depuis quand ? Je déconne ! J'traque l'euro, juge pas le temps que je mets Dis-moi que tu m'aimes, moi aussi je m'aime On arrive plus à se cerner, à se cerner Le temps passe, t'es resté le même Dans cet amour on est enfermés, enfermés Baby dis-moi que tu m'aimes x2 Le couple est une prison et si on s'échappait ? Je n'ai que deux jambes, mais au moins six chemins T'as combien d'mecs ? Dix ? Ah on sait jamais Dis-moi que tu m'aimes, moi aussi je m'aime2</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L'Entourage, on vient pour percer ou tout bouleverser, couz Faut qu'tu cours vers ces bougs qui veulent tous faire des sous T'as déconné, t'aurais voulu nous détrôner Mais dans ce pe-Ra, t'es paumé, bouge, mec, t'es fou J'ai pleins d'défauts, je veux bien mais j'sors des flows de gue-din J'vais pas m'ver-sau mais ter-sau et puis per-stop le venin Mec, sur le tempo, j'aime trop faire ser-po de vrais pros Même chose, j'prends le métro, pas d'resto Merco mais faut que j'détrône les faux Ouais, fils, j'ouvre les cuisses des bitches allemandes J'fais des french kisses aux métisses, j'maîtrise la langue J'fais des tris sélectifs chez les miss et je m'esquive Elles m'épuisent mais miskine, j'les méprise salement Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra Yo, c'est L'Entourage, Burbigo pour mon poto Guizmo J'étale trop de style flow, c'est la faute au shit, gros J'élabore des discographies pour mes gars qui poussent Le paki toujours tapis dans des trafics locaux d'ssiste-gro J'rapplique au cromi-phone la fougue d'un smicard qui roule La ville tard sous jogo d'popo, je m'autosponsorise, gros Personne pourra dire qu'il m'a mis à manger dans l'assiette Trop à penser dans la tête, quelque chose à changer dans l'faciès Bronzé dans ma chair, j'ai songé à ma perte et plongé dans ma quête J'arrêterai quand j'serai rangé sous la terre Si j'me plante, j'ai pas de plan B donc j'ai foncé pour la tess Tu m'as croisé peut-être dans l'quartier, j'suis pas passé pour la fête Allez, ramenez toute la presse, on va rafler toute la fraîche Élimine les débilités qu'éditent leurs foutus labels Mais fuck, les trous duc' s'ramènent, j'les laisse tous bouches cousues à terre On va dealer d'la qualité, seul but d'nos foutues carrière You might also like Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeune pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra Ça péra pour vivre, malgré ça, j'suis lassé d'ma routine J'vais braquer la boutique, ne passez pas de coups de fil Ça s'pe-ta sous tise, ça bédave Amnézia ou shit Capuché les yeux rouges plissés par des tas d'soucis Pisté par les schtars, j'cours vite sinon c'est hors de la maison En plus, lors de l'agression, j'lui ai mis 4 coups d'crique Mais rien d'grave, c'est juste que des fois il faut jouer des coudes Et puisque c'est ça, on va goomer des bouches Et vu qu'la roue tourne, on finira par s'faire goomer aussi C'est fou et nocif de jouer nos vies Shootés au spliff, on va goûter au pire Car on est fous et hostiles au lieu d'rester doux et dociles ×5 Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeune pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra4</t>
+          <t>L'Entourage, on vient pour percer ou tout bouleverser, couz Faut qu'tu cours vers ces bougs qui veulent tous faire des sous T'as déconné, t'aurais voulu nous détrôner Mais dans ce pe-Ra, t'es paumé, bouge, mec, t'es fou J'ai pleins d'défauts, je veux bien mais j'sors des flows de gue-din J'vais pas m'ver-sau mais ter-sau et puis per-stop le venin Mec, sur le tempo, j'aime trop faire ser-po de vrais pros Même chose, j'prends le métro, pas d'resto Merco mais faut que j'détrône les faux Ouais, fils, j'ouvre les cuisses des bitches allemandes J'fais des french kisses aux métisses, j'maîtrise la langue J'fais des tris sélectifs chez les miss et je m'esquive Elles m'épuisent mais miskine, j'les méprise salement Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra Yo, c'est L'Entourage, Burbigo pour mon poto Guizmo J'étale trop de style flow, c'est la faute au shit, gros J'élabore des discographies pour mes gars qui poussent Le paki toujours tapis dans des trafics locaux d'ssiste-gro J'rapplique au cromi-phone la fougue d'un smicard qui roule La ville tard sous jogo d'popo, je m'autosponsorise, gros Personne pourra dire qu'il m'a mis à manger dans l'assiette Trop à penser dans la tête, quelque chose à changer dans l'faciès Bronzé dans ma chair, j'ai songé à ma perte et plongé dans ma quête J'arrêterai quand j'serai rangé sous la terre Si j'me plante, j'ai pas de plan B donc j'ai foncé pour la tess Tu m'as croisé peut-être dans l'quartier, j'suis pas passé pour la fête Allez, ramenez toute la presse, on va rafler toute la fraîche Élimine les débilités qu'éditent leurs foutus labels Mais fuck, les trous duc' s'ramènent, j'les laisse tous bouches cousues à terre On va dealer d'la qualité, seul but d'nos foutues carrière Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeune pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra Ça péra pour vivre, malgré ça, j'suis lassé d'ma routine J'vais braquer la boutique, ne passez pas de coups de fil Ça s'pe-ta sous tise, ça bédave Amnézia ou shit Capuché les yeux rouges plissés par des tas d'soucis Pisté par les schtars, j'cours vite sinon c'est hors de la maison En plus, lors de l'agression, j'lui ai mis 4 coups d'crique Mais rien d'grave, c'est juste que des fois il faut jouer des coudes Et puisque c'est ça, on va goomer des bouches Et vu qu'la roue tourne, on finira par s'faire goomer aussi C'est fou et nocif de jouer nos vies Shootés au spliff, on va goûter au pire Car on est fous et hostiles au lieu d'rester doux et dociles ×5 Lents, on prend notre temps, tous les gens du clan Rage on t'rentre dedans avec des flows de gue-din On a de la bonne de meda, trop de jeunes pour tes vieux gars Ceux qui fument de la gue-dro quitte à quer-cho, qui font des ffs-gra L'envie de gagner, toubabs et basanés Rage mis dans le panier, épaule nos hommes de mains On a de la bonne de meda, trop de jeune pour tes vieux gars Ceux qui fument de la gue-dro quitte à qué-cho, qui font des ffs-gra4</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ouais c'est nos vies fiston Que d'l'illicite, du shit, les shmitts sont vifs en ville alors vite fuyons Pour des biguiftons, j'vois des p'tits qui tombent Et des types qui grondent parce qu'ils voient Guiz qui monte J'm'y attendais, ils avaient des liasses en tête C'est bizarre en fait, c'est moi qui m'retrouve à pillave en scrèd J'rêve de quitter l'asphalte Sur le fil du rasoir, sponsorisé par Gillette Mach 3 J'effrite et j'rappe sale j'ai tout mis dedans Faut qu'j'place mes hyènes, mes chiens d'la casse, mes rats et mes souris devant Plus facile à dire qu'à faire, tout c'qui nous tue est abordable Y'a qu'à voir le prix d'la bière 28 frangancs l'pack de 12 pour 2 ou 3 heures de fonce-dé On apprend rapidement à compter Ouais c'est triste mais c'est aç-comme, j'y peux rien Prisonnier des vices de cette hardcore vie de chien J'ai le style propre, mais les pensées sales Les nerfs à vif, orgueilleux j'ai failli planter Phaal' Foutue parano, elle m'fait perdre les pédales J'suis vert, puis merde j'vais rester chez oim' Gratter mes idées noires, rapper me niquer l'foie Me rappeler que n'sont déçus que ceux qui vivent d'espoir J'ai appris à voir le verre à moitié vide J'te rappelle qu'il est à 7euros dans les quartiers riches On a commencé la course avec une balle dans l'pied Même en costard en entretien, on nous toise d'entrée On nous nargue d'emblée, et j'pense à tous mes rebeus tétus Les blackos grosses lèvres, cheveux crépus You might also like On a appris à faire du fric en empruntant des chemins parallèles J'fais que d'la musique depuis qu'j'suis moins à Villeneuve-la-Garrenne Appris à faire du fric en empruntant des chemins pas hallal J'fais que d'la musique depuis qu'j'suis moins à Villeneuve-la-Garrenne Ok c'est tech, tech dès qu'on déboule C'est des decks, c'était des coups C'est les têtes qu'on découpe et les dèp' qu'on dégoûte Hé mec, on s'en bat les couilles arrête On sent pas les coups, on traîne tous en bas des tours Nos têtes ne sont pas très cool J'm'en pète de vos quartiers oufs, on pelle toutes vos tass-pé louches Venez pour nous car ché-tou on tape niveau cassé d'bouches Les mecs, ramassez les douilles, pompes à deux coups Aucun domaine où tu nous bats, sauf au pompage de boules Ça sent la crasse gars, la face en cascade Et si t'es pas fort en castagne, tu finiras en casse-dalle On vient tacler les beats, de tout froisser on est coupable Masser les biffs, et venir tacler vos coups bas T'as r'connu le missile RAP dur, difficile Qui fait bouger les MC et les miss à la Missy Donc ferme ta gueule quand le monarque cause Hardcore Guizzy-Guizmo à foutre dans ton Archos J'ai écris J'te détèste pour me soulager un peu Aujourd'hui j'me rend compte que j'pourrais tout lâcher main-de J'ai beaucoup d'mal à m'sentir bien, même quand y'a pas d'problèmes Alors je crache mon angoisse dans des tas d'poèmes RAP, oseille, le vécu et les femmes Comment veux-tu qu'ça roule cousin? J'ai perdu les pédales C'est la merde, faut qu'ça cesse vite Faut qu'j'arrête de tout garder en moi Faut qu'j'm'apaise et que je m'exprime J'passe mon temps à m'vanter d'être un virtuose En route pour l'épicerie, m'payer mon cancer et ma cirrhose J'abuse d'la bière et les potos s'inquiètent Dire qu'j'avais l'air innocent sur mes photos d'cinquième Mais j'm'arrêterai pas d'si tôt J'buverai 4 fois plus quand on m'annoncera un cancer Et qu'j'aurai perdu 15 kilos C'est peut-être mon destin, laisser ma trace et crever vite Me retrouver face à c'que j'évite 1</t>
+          <t>Ouais c'est nos vies fiston Que d'l'illicite, du shit, les shmitts sont vifs en ville alors vite fuyons Pour des biguiftons, j'vois des p'tits qui tombent Et des types qui grondent parce qu'ils voient Guiz qui monte J'm'y attendais, ils avaient des liasses en tête C'est bizarre en fait, c'est moi qui m'retrouve à pillave en scrèd J'rêve de quitter l'asphalte Sur le fil du rasoir, sponsorisé par Gillette Mach 3 J'effrite et j'rappe sale j'ai tout mis dedans Faut qu'j'place mes hyènes, mes chiens d'la casse, mes rats et mes souris devant Plus facile à dire qu'à faire, tout c'qui nous tue est abordable Y'a qu'à voir le prix d'la bière 28 frangancs l'pack de 12 pour 2 ou 3 heures de fonce-dé On apprend rapidement à compter Ouais c'est triste mais c'est aç-comme, j'y peux rien Prisonnier des vices de cette hardcore vie de chien J'ai le style propre, mais les pensées sales Les nerfs à vif, orgueilleux j'ai failli planter Phaal' Foutue parano, elle m'fait perdre les pédales J'suis vert, puis merde j'vais rester chez oim' Gratter mes idées noires, rapper me niquer l'foie Me rappeler que n'sont déçus que ceux qui vivent d'espoir J'ai appris à voir le verre à moitié vide J'te rappelle qu'il est à 7euros dans les quartiers riches On a commencé la course avec une balle dans l'pied Même en costard en entretien, on nous toise d'entrée On nous nargue d'emblée, et j'pense à tous mes rebeus tétus Les blackos grosses lèvres, cheveux crépus On a appris à faire du fric en empruntant des chemins parallèles J'fais que d'la musique depuis qu'j'suis moins à Villeneuve-la-Garrenne Appris à faire du fric en empruntant des chemins pas hallal J'fais que d'la musique depuis qu'j'suis moins à Villeneuve-la-Garrenne Ok c'est tech, tech dès qu'on déboule C'est des decks, c'était des coups C'est les têtes qu'on découpe et les dèp' qu'on dégoûte Hé mec, on s'en bat les couilles arrête On sent pas les coups, on traîne tous en bas des tours Nos têtes ne sont pas très cool J'm'en pète de vos quartiers oufs, on pelle toutes vos tass-pé louches Venez pour nous car ché-tou on tape niveau cassé d'bouches Les mecs, ramassez les douilles, pompes à deux coups Aucun domaine où tu nous bats, sauf au pompage de boules Ça sent la crasse gars, la face en cascade Et si t'es pas fort en castagne, tu finiras en casse-dalle On vient tacler les beats, de tout froisser on est coupable Masser les biffs, et venir tacler vos coups bas T'as r'connu le missile RAP dur, difficile Qui fait bouger les MC et les miss à la Missy Donc ferme ta gueule quand le monarque cause Hardcore Guizzy-Guizmo à foutre dans ton Archos J'ai écris J'te détèste pour me soulager un peu Aujourd'hui j'me rend compte que j'pourrais tout lâcher main-de J'ai beaucoup d'mal à m'sentir bien, même quand y'a pas d'problèmes Alors je crache mon angoisse dans des tas d'poèmes RAP, oseille, le vécu et les femmes Comment veux-tu qu'ça roule cousin? J'ai perdu les pédales C'est la merde, faut qu'ça cesse vite Faut qu'j'arrête de tout garder en moi Faut qu'j'm'apaise et que je m'exprime J'passe mon temps à m'vanter d'être un virtuose En route pour l'épicerie, m'payer mon cancer et ma cirrhose J'abuse d'la bière et les potos s'inquiètent Dire qu'j'avais l'air innocent sur mes photos d'cinquième Mais j'm'arrêterai pas d'si tôt J'buverai 4 fois plus quand on m'annoncera un cancer Et qu'j'aurai perdu 15 kilos C'est peut-être mon destin, laisser ma trace et crever vite Me retrouver face à c'que j'évite 1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Keaton répétait tout le temps Je ne crois pas en Dieu mais j'avoue qu'il me fait peur C'était tout son pouvoir Le coup le plus rusé que le Diable ait jamais réussi Ça été de faire croire à tout le monde qu'il n'existait pas Les couilles, y'a ceux qui les ont, y'a ceux qui les cassent Les ne-jeu dans l'illégal y'a les BACeux qui les gazent Mais c'est pas c'que dis l'Etat, vas-y nique sa mère couz' Fils t'as l'air louche, appelle vite la rescousse On sprint après l'flouze, du genre Vide le sac! Et ils le savent qu'il y aura l'Clik et après l'Boum J'kick ma merde j'l'ouvre, ouais je dérange les eng' Mais ils mangent ma bite à pleine bouche Et j'aime rapper quand j'ai bu, et qu'j'ai vidé mes burnes Les beats et les brunes c'est bon Comme les spliffs et les thunes Eviter les chutes c'est vital Ouais j'vis sale et j'freestyle en parlant des flics et des stups J'ai niqué des putes et gâté ma vie Taffé ma rime car Paname et le RAP c'est magique Man c'est la street J'crois qu'c'est ta clique qui a voulu test Mais qui s'est fait froisser sa p'tite gueule You might also like Dis-moi, ce que tu penses de moi Et dis-moi, je crois que je flanche re-noi Entre l'Afrique et la France je vois Que beaucoup de mes gens se noient Et j'écris avec la rage et j'ai la haine en y r'pensant Maintenant qu'j'suis seul, attendez vous au changement Franchement, on a taffé ce truc avec le coeur et les tripes Pas les tass' et le luxe J'ai fait des saloperies, des choses dont j'suis pas fier Du boxon des affaires, du gros son des Nike Air Voilà mon état d'esprit j'voulais tâter l'fric Et baffer c'flic qui m'disait qu'j'étais qu'un sale négro Aucune envie de pardonner Et tu sauras de quoi j'parle une fois qu't'auras vu les chtars cogner Charbonner, désolé j'ai pas eu d'autres choix A part celle du plus fort j'suis désolé j'ai pas eu d'autre loi Trop d'sentiments faux Les chiens d'la casse et les hyènes J'connais j'ai grandi dans l'zoo Et j'vis en enviant l'trône Quand j'écris mes vers Et j'déprime sévère dans une ambiance glauque Mes gars me disent de faire doucement avec la tise Willy m'reproche d'être trop souvent avec la street Mais j'ai besoin d'ça J'me met à ressasser après quelques bières et deux joints d'frappe Ils avaient pigé que pour prendre le pouvoir, y'avait pas besoin de flingues, ni de pognon, ni d'être nombreux Il suffit d'la volonté d'oser faire ce que les gars d'en face n'oseront pas Yo, poto c'est comme ça j'fous le feu J'les entend parler haute-couture moi j'veux juste un Coste-La tout fe-neu Un endroit calme où me banquiser, travailler mes rimes Tabasser les beats et arrêter de m'enivrer J'veux continuer d'faire du méga-son t'façon mes gars savent La street c'est qu'des embrouilles avec le nez cassé Mais vas-y passons, aujourd'hui j'fais du R.A.P Et pour vivre de ma passion j'dois éviter de déraper Check, mes barbares se préparent Ils arrivent par milliers comme les cafards de chez oim' Ça vous la coupe hein ? J'ai des potos qui portent la Kippa On fait pas d'différence dans mon équipe Et vas-y kick là, j'suis loin du Rap Game Ils ont du flow moi aussi mais crois-moi c'est pas l'même Ouais je fais parti d'un Crew d'smokers Sur la feuille plus de virgules que chez Foot Locker Guizi Et là dessus, il s'est envolé1</t>
+          <t>Keaton répétait tout le temps Je ne crois pas en Dieu mais j'avoue qu'il me fait peur C'était tout son pouvoir Le coup le plus rusé que le Diable ait jamais réussi Ça été de faire croire à tout le monde qu'il n'existait pas Les couilles, y'a ceux qui les ont, y'a ceux qui les cassent Les ne-jeu dans l'illégal y'a les BACeux qui les gazent Mais c'est pas c'que dis l'Etat, vas-y nique sa mère couz' Fils t'as l'air louche, appelle vite la rescousse On sprint après l'flouze, du genre Vide le sac! Et ils le savent qu'il y aura l'Clik et après l'Boum J'kick ma merde j'l'ouvre, ouais je dérange les eng' Mais ils mangent ma bite à pleine bouche Et j'aime rapper quand j'ai bu, et qu'j'ai vidé mes burnes Les beats et les brunes c'est bon Comme les spliffs et les thunes Eviter les chutes c'est vital Ouais j'vis sale et j'freestyle en parlant des flics et des stups J'ai niqué des putes et gâté ma vie Taffé ma rime car Paname et le RAP c'est magique Man c'est la street J'crois qu'c'est ta clique qui a voulu test Mais qui s'est fait froisser sa p'tite gueule Dis-moi, ce que tu penses de moi Et dis-moi, je crois que je flanche re-noi Entre l'Afrique et la France je vois Que beaucoup de mes gens se noient Et j'écris avec la rage et j'ai la haine en y r'pensant Maintenant qu'j'suis seul, attendez vous au changement Franchement, on a taffé ce truc avec le coeur et les tripes Pas les tass' et le luxe J'ai fait des saloperies, des choses dont j'suis pas fier Du boxon des affaires, du gros son des Nike Air Voilà mon état d'esprit j'voulais tâter l'fric Et baffer c'flic qui m'disait qu'j'étais qu'un sale négro Aucune envie de pardonner Et tu sauras de quoi j'parle une fois qu't'auras vu les chtars cogner Charbonner, désolé j'ai pas eu d'autres choix A part celle du plus fort j'suis désolé j'ai pas eu d'autre loi Trop d'sentiments faux Les chiens d'la casse et les hyènes J'connais j'ai grandi dans l'zoo Et j'vis en enviant l'trône Quand j'écris mes vers Et j'déprime sévère dans une ambiance glauque Mes gars me disent de faire doucement avec la tise Willy m'reproche d'être trop souvent avec la street Mais j'ai besoin d'ça J'me met à ressasser après quelques bières et deux joints d'frappe Ils avaient pigé que pour prendre le pouvoir, y'avait pas besoin de flingues, ni de pognon, ni d'être nombreux Il suffit d'la volonté d'oser faire ce que les gars d'en face n'oseront pas Yo, poto c'est comme ça j'fous le feu J'les entend parler haute-couture moi j'veux juste un Coste-La tout fe-neu Un endroit calme où me banquiser, travailler mes rimes Tabasser les beats et arrêter de m'enivrer J'veux continuer d'faire du méga-son t'façon mes gars savent La street c'est qu'des embrouilles avec le nez cassé Mais vas-y passons, aujourd'hui j'fais du R.A.P Et pour vivre de ma passion j'dois éviter de déraper Check, mes barbares se préparent Ils arrivent par milliers comme les cafards de chez oim' Ça vous la coupe hein ? J'ai des potos qui portent la Kippa On fait pas d'différence dans mon équipe Et vas-y kick là, j'suis loin du Rap Game Ils ont du flow moi aussi mais crois-moi c'est pas l'même Ouais je fais parti d'un Crew d'smokers Sur la feuille plus de virgules que chez Foot Locker Guizi Et là dessus, il s'est envolé1</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Je sais que le monde est fou Je sais, j'essaie Je sais, je sais J'ai compris qu'le monde est fou J'ai grandi avec les coups Au milieu d'une meute de loups On n'avait jamais de sous Évolué dans le zoo Fallait joindre les deux bouts J'suis né à Paris la nuit Nan, je n'suis pas sorti d'un chou Bang bang Et puis je regarde ma mère Elle m'a mis un peu sur le té-c' J'me disais, c'est à cause du travail, nan Nan, c'était la faute de son mec Alors pour survivre, y'avait deux façons Tout accepter ou bien maudire leur relation Patate dans l'crâne, ouais pour lui c'était relaxant J'avais un cur, aujourd'hui c'est qu'un vieux glaçon Sur ma pochette, t'as capté l'regard menaçant J'peux plus pleurer, désormais j'suis un grand garçon Pardonnez-moi c'que j'ai fait pour un peu d'argent Y'avait la drogue, le tier-quar et la tentation Merde You might also like Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais J'ai du mal avec la paternité J'parle avec mon fils comme si j'étais son oncle À côté d'ça, j'mets tout l'monde à l'abri C'est pas mon banquier qui va m'régler mon compte Raison pour laquelle, j'ai des propos tragiques Trois ninjas dans la caisse et un automatique Ils arrivent dans ta tess, ils sont clairement sadiques Un coup d'feu dans le dos, fuck ta forme olympique Mais c'est quoi cette vie mec ? Tu nous vois défiler Si t'as une arme t'es un bonhomme Si t'en as pas t'es une fillette Ça m'fait rigoler Pas beaucoup d'câlins Ça s'passe comme ça depuis qu'j'suis écolier Ma première rime, j'l'ai écrite un matin À Jacques-Yves Cousteau parce que j'étais collé Et puis j'ai rêvé Du Gangsta Paradise comme Coolio Ma ville, je l'aime autant que je la hais Igo, je me sens couillé J'traîne dans la zone J'traîne dans la zone Je suis éméché J'traîne dans la zone Mais c'est plus fort que moi J'traîne dans la zone Je suis éméché J'traîne dans la zone Mais c'est plus fort que moi Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Yonea Willy business Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais Je sais, j'essaie J'essaie, je sais1</t>
+          <t>Je sais que le monde est fou Je sais, j'essaie Je sais, je sais J'ai compris qu'le monde est fou J'ai grandi avec les coups Au milieu d'une meute de loups On n'avait jamais de sous Évolué dans le zoo Fallait joindre les deux bouts J'suis né à Paris la nuit Nan, je n'suis pas sorti d'un chou Bang bang Et puis je regarde ma mère Elle m'a mis un peu sur le té-c' J'me disais, c'est à cause du travail, nan Nan, c'était la faute de son mec Alors pour survivre, y'avait deux façons Tout accepter ou bien maudire leur relation Patate dans l'crâne, ouais pour lui c'était relaxant J'avais un cur, aujourd'hui c'est qu'un vieux glaçon Sur ma pochette, t'as capté l'regard menaçant J'peux plus pleurer, désormais j'suis un grand garçon Pardonnez-moi c'que j'ai fait pour un peu d'argent Y'avait la drogue, le tier-quar et la tentation Merde Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais J'ai du mal avec la paternité J'parle avec mon fils comme si j'étais son oncle À côté d'ça, j'mets tout l'monde à l'abri C'est pas mon banquier qui va m'régler mon compte Raison pour laquelle, j'ai des propos tragiques Trois ninjas dans la caisse et un automatique Ils arrivent dans ta tess, ils sont clairement sadiques Un coup d'feu dans le dos, fuck ta forme olympique Mais c'est quoi cette vie mec ? Tu nous vois défiler Si t'as une arme t'es un bonhomme Si t'en as pas t'es une fillette Ça m'fait rigoler Pas beaucoup d'câlins Ça s'passe comme ça depuis qu'j'suis écolier Ma première rime, j'l'ai écrite un matin À Jacques-Yves Cousteau parce que j'étais collé Et puis j'ai rêvé Du Gangsta Paradise comme Coolio Ma ville, je l'aime autant que je la hais Igo, je me sens couillé J'traîne dans la zone J'traîne dans la zone Je suis éméché J'traîne dans la zone Mais c'est plus fort que moi J'traîne dans la zone Je suis éméché J'traîne dans la zone Mais c'est plus fort que moi Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais Je l'aime autant qu'je la hais Yonea Willy business Je l'aime autant qu'je la hais Ma mère, la bière, la rue Je l'aime autant qu'je la hais Je sais, j'essaie J'essaie, je sais1</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L'Entourage ! Guizmo, 92, l'Entourage Villeneuve la Garenne, Nizi Tu connais, Yonea et Willy Aucune pitié pour ces putes, K-ravel L'Entourage, mon pote, cousin Moi, j'suis debout devant le drame, c'est chelou quand je rappe Si t'es relou dans le bar, prends mon genou dans le crâne Y'a mes vieux loups dans le sas à la Caravelle, man, ça s'la met Passe la fraîche s'il se fait tard et que t'es pas d'la tess' Parle pas d'cess au Bigo, cache ta tête aussitôt Des sales tapettes aux mythos, j'gratte ma pièce au clito J'crache la haine au micro, marre des défilés d'flics Des saisies des huissiers, d'effriter le shit J'ai décidé d'lutter, d'éviter le fisc Et nique les vices des diners huppés qui méprisent mes types, enculés ! Des récit de débiles réduisent tes titres en fumée En dépit d'être riche, j'le-dea des spliffs, enrhumés On m'dit t'es fort, si si, mais il est mort Guizi Il sort, il tise, les jolies filles pour seul effort physique Et si les porcs m'visitent, nique sa mère, j'la ferme Mais quand j'sors, la poucave, la vie d'ma teille, j'la saigne ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand j'rappe, ils s'justifient Wesh ! Vous avez pas compris ou quoi ? Vous voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ? You might also like À Villeneuve la Garenne, on vit le vague à lame, on rit de la galère On se prive de la playa, c'est gris et ça s'la met J'écris des phases pas nettes, style de la caille-ra Piste la caillasse guidé par ma teille, j'effrite et ça m'faya Prier à la Mecque, il faudrait que j'le fasse, vieux Mais j'ai qu'mes problèmes de cash et mes poèmes de mafieux J'ai trop ken de femmes et, au fait, je crois que Ces pauvres chiennes se cassent quand t'es au frais, c'est affreux Mais, gros, j'sais que j'suis hargneux, avant j'étais meilleur Il faut que mon Seigneur et son prophète m'épargnent C'est obscène, c'est crade, ça pillave sans pépins C'est auch, mec, c'est dar quand j'freestyle dans le T-15 J'oublie un petit détail, nique lÉtat, l'Guiz est die Shit et sky, illégal, cités crament, bandes d'enfoirés J'ai rimes et phases, oui, mes gars dealent et draguent Toi, ni tes fans, ni tes tass', ni tes sapes rentrent en soirée ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand je rappe, ils se justifient Wesh ! Vous avez pas compris ou quoi ? Vous voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ? Ma bière et ma cigarette de cannabis Pour rester calme quand les p'tites tapettes me baratinent La zik, la tess' me paralysent, nique sa race Nous, on vise la liasse et que l'équipe atteigne le paradis Si j'ramène le Bacardi, paye ta conso Nous, on fait ça pour de vrai, les autres gangsta' sont faux Et puis j'suis fonce-dé alors je squatte sur le canapé Bitch ! Aprés que j'te doigte, tu veux pas m'lâcher Vise ça, j'écris des phases tu peux pas capter P'tit man, si t'es trop naze tu peux pas clasher Et j'écris ça dans un élan de colère parce qu'on veut défendre nos frères Et puis détendre nos nerfs, elles sont stressantes nos guerres Et tous mes gars le savent, touchés par le hasch' Troublés par le sky, bourrés tard le soir Tout est à revoir sur nos modes de vie Nique ça, comme des dique-sa, on fuck le beat ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand je rappe, ils se justifient Wesh ! Vous avez pas compris ou quoi ? Voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ?2</t>
+          <t>L'Entourage ! Guizmo, 92, l'Entourage Villeneuve la Garenne, Nizi Tu connais, Yonea et Willy Aucune pitié pour ces putes, K-ravel L'Entourage, mon pote, cousin Moi, j'suis debout devant le drame, c'est chelou quand je rappe Si t'es relou dans le bar, prends mon genou dans le crâne Y'a mes vieux loups dans le sas à la Caravelle, man, ça s'la met Passe la fraîche s'il se fait tard et que t'es pas d'la tess' Parle pas d'cess au Bigo, cache ta tête aussitôt Des sales tapettes aux mythos, j'gratte ma pièce au clito J'crache la haine au micro, marre des défilés d'flics Des saisies des huissiers, d'effriter le shit J'ai décidé d'lutter, d'éviter le fisc Et nique les vices des diners huppés qui méprisent mes types, enculés ! Des récit de débiles réduisent tes titres en fumée En dépit d'être riche, j'le-dea des spliffs, enrhumés On m'dit t'es fort, si si, mais il est mort Guizi Il sort, il tise, les jolies filles pour seul effort physique Et si les porcs m'visitent, nique sa mère, j'la ferme Mais quand j'sors, la poucave, la vie d'ma teille, j'la saigne ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand j'rappe, ils s'justifient Wesh ! Vous avez pas compris ou quoi ? Vous voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ? À Villeneuve la Garenne, on vit le vague à lame, on rit de la galère On se prive de la playa, c'est gris et ça s'la met J'écris des phases pas nettes, style de la caille-ra Piste la caillasse guidé par ma teille, j'effrite et ça m'faya Prier à la Mecque, il faudrait que j'le fasse, vieux Mais j'ai qu'mes problèmes de cash et mes poèmes de mafieux J'ai trop ken de femmes et, au fait, je crois que Ces pauvres chiennes se cassent quand t'es au frais, c'est affreux Mais, gros, j'sais que j'suis hargneux, avant j'étais meilleur Il faut que mon Seigneur et son prophète m'épargnent C'est obscène, c'est crade, ça pillave sans pépins C'est auch, mec, c'est dar quand j'freestyle dans le T-15 J'oublie un petit détail, nique lÉtat, l'Guiz est die Shit et sky, illégal, cités crament, bandes d'enfoirés J'ai rimes et phases, oui, mes gars dealent et draguent Toi, ni tes fans, ni tes tass', ni tes sapes rentrent en soirée ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand je rappe, ils se justifient Wesh ! Vous avez pas compris ou quoi ? Vous voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ? Ma bière et ma cigarette de cannabis Pour rester calme quand les p'tites tapettes me baratinent La zik, la tess' me paralysent, nique sa race Nous, on vise la liasse et que l'équipe atteigne le paradis Si j'ramène le Bacardi, paye ta conso Nous, on fait ça pour de vrai, les autres gangsta' sont faux Et puis j'suis fonce-dé alors je squatte sur le canapé Bitch ! Aprés que j'te doigte, tu veux pas m'lâcher Vise ça, j'écris des phases tu peux pas capter P'tit man, si t'es trop naze tu peux pas clasher Et j'écris ça dans un élan de colère parce qu'on veut défendre nos frères Et puis détendre nos nerfs, elles sont stressantes nos guerres Et tous mes gars le savent, touchés par le hasch' Troublés par le sky, bourrés tard le soir Tout est à revoir sur nos modes de vie Nique ça, comme des dique-sa, on fuck le beat ×2 Ramène moi n'importe lequel, en rap, j'le crucifie C'est des pédales quand je rappe, ils se justifient Wesh ! Vous avez pas compris ou quoi ? Voulez pas qu'on brille ? Voulez qu'ça parte en vrille ou quoi ?2</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Han Smokin Beats YW, Guizi Ouzou gang J'peux plus dire à mon père, que tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie J'ai connu papa très tard et j'aimais pas mon beau-père Et comme j'étais pas son fils et bah c'était les cocards Tu puais la clope, tu puais l'alcool Mais ton masque est tombé, maintenant tu n'es qu'un tocard Tu nous as pas raté, et ma mère a cru à tous tes baratins, merde Tu nous as niqué, tu nous as baladé La prochaine fois qu'j'te vois, j'te serre même pas la main fils de J'entends les djinns m'appeler, tu faisais le tueur et le Vic Mackay Espèce de sans couilles, on n'est pas des andouilles J'espère que t'entends ça dans ton Beats by Dre Ma vie c'est un brouillon, t'as froissé la feuille Wallah, t'as d'la chance, j'ai pas dit à mon père Il t'aurait niqué ta race, il t'aurait laissé au sol Mais t'as beaucoup d'chance, t'es l'daron à mon frère J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle You might also like Tu m'trouvais très lent, j'parlais en verlan J'ai appris le trois quarts des trucs en traînant J'suis pas un mec bien mais toi, t'es encore pire Donc mon p'tit pote on s'revoit en fer-En Et maman est blessée, elle sait qu't'as des maîtresses Tu la manipules en s'servant d'ses faiblesses Se levait l'matin et se tuait au taf Pardonnez tout ça, c'était pas une traîtresse Elle t'a donné un fils espèce d'enculé Et t'as élevé les enfants d'une autre hein Tu sais même pas tenir un foyer espèce d'enculé La vie d'ma mère que t'aurais pas dû naître J'me bagarre avec toi quand tu veux bang J'ai grandis, j'te mets un coup d'plafond Ouais, il t'encule la race le tit-pe Même si tu bois et que tu pousses la fonte J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle J'espère que ton beau-fils te crache dessus Et qu'ta nouvelle femme, c'est la reine des ... Qu'elle te trompe de partout avec des gros voyous Et qu'si t'ouvres ta gueule, ils te cassent le ... J'espère que ton beau-fils te crache dessus Et qu'ta nouvelle femme, c'est la reine des ... Qu'elle te trompe de partout avec des gros voyous Et qu'si t'ouvres ta gueule, ils te cassent le ... Et j'traiterai pas ta mère Parce qu'elle s'est occupé d'moi Comme une grand-mère Mais toi T'es une pute de fils T'es la reine des putes J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle Et j'dirai pas ton nom, parce que t'es un narcissique Égocentrique, sadique et ça t'ferai méga plaisir Que tout l'monde entende ton nom d'merde, sur mon CD Tu resteras dans l'anonymat, t'es qu'un perdant Reviens plus jamais, y a plus rien à gratter ici Allez Amicalement vôtre Guizi2</t>
+          <t>Han Smokin Beats YW, Guizi Ouzou gang J'peux plus dire à mon père, que tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie J'ai connu papa très tard et j'aimais pas mon beau-père Et comme j'étais pas son fils et bah c'était les cocards Tu puais la clope, tu puais l'alcool Mais ton masque est tombé, maintenant tu n'es qu'un tocard Tu nous as pas raté, et ma mère a cru à tous tes baratins, merde Tu nous as niqué, tu nous as baladé La prochaine fois qu'j'te vois, j'te serre même pas la main fils de J'entends les djinns m'appeler, tu faisais le tueur et le Vic Mackay Espèce de sans couilles, on n'est pas des andouilles J'espère que t'entends ça dans ton Beats by Dre Ma vie c'est un brouillon, t'as froissé la feuille Wallah, t'as d'la chance, j'ai pas dit à mon père Il t'aurait niqué ta race, il t'aurait laissé au sol Mais t'as beaucoup d'chance, t'es l'daron à mon frère J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle Tu m'trouvais très lent, j'parlais en verlan J'ai appris le trois quarts des trucs en traînant J'suis pas un mec bien mais toi, t'es encore pire Donc mon p'tit pote on s'revoit en fer-En Et maman est blessée, elle sait qu't'as des maîtresses Tu la manipules en s'servant d'ses faiblesses Se levait l'matin et se tuait au taf Pardonnez tout ça, c'était pas une traîtresse Elle t'a donné un fils espèce d'enculé Et t'as élevé les enfants d'une autre hein Tu sais même pas tenir un foyer espèce d'enculé La vie d'ma mère que t'aurais pas dû naître J'me bagarre avec toi quand tu veux bang J'ai grandis, j'te mets un coup d'plafond Ouais, il t'encule la race le tit-pe Même si tu bois et que tu pousses la fonte J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle J'espère que ton beau-fils te crache dessus Et qu'ta nouvelle femme, c'est la reine des ... Qu'elle te trompe de partout avec des gros voyous Et qu'si t'ouvres ta gueule, ils te cassent le ... J'espère que ton beau-fils te crache dessus Et qu'ta nouvelle femme, c'est la reine des ... Qu'elle te trompe de partout avec des gros voyous Et qu'si t'ouvres ta gueule, ils te cassent le ... Et j'traiterai pas ta mère Parce qu'elle s'est occupé d'moi Comme une grand-mère Mais toi T'es une pute de fils T'es la reine des putes J'peux plus l'dire à mon père, mais tu m'as niqué ma vie Nan, j'peux plus l'dire à mon père, mais tu m'as niqué ma vie Et j'pourrais l'dire à ma mère, mais tout ça, c'est fini J'pourrais l'dire à ma mère, mais tout ça, c'est fini Mais moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle, tu m'as niqué ma vie Et moi, j'm'en rappelle Et j'dirai pas ton nom, parce que t'es un narcissique Égocentrique, sadique et ça t'ferai méga plaisir Que tout l'monde entende ton nom d'merde, sur mon CD Tu resteras dans l'anonymat, t'es qu'un perdant Reviens plus jamais, y a plus rien à gratter ici Allez Amicalement vôtre Guizi2</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Je supplie le ciel de se montrer clément, j'ai fais quelques péchés que je regrette vraiment que tiser, ne rien faire c'était vraiment plaisant seul devant la vitrine le rapport est payant et j'bois un ketru on dirait c'est d'la pisse si t'as un ptit plavon poto fais moi la passe le terrain est mouillé faut surtout pas qu'on glisse il faut pas qu'on subisse les supplices de l'impasse J'suis un ptit bout de scarla t'es mort si tu pousses par là pas de place pour les froussard soit t'achètes un poushka soit t'appelles un boutmara Et j'fais pas d'égotrip, c'est vous qui tripez sur mon égo, toujours dans la street même les babtous sont mes négros Premier xe-té j'disais que ''vive la bière'' viens meme pas te mêler de ma famille ou d'mes affaires on cherchait la poukave,on avait quelques doutes, mais quand on était sur on lui baisait sa mère Mothafuck j'suis dans mon coin avec ma bouteille et mon joint, j'm'alcoolise toute la journée , y croient que je suis la mais je suis loin Pas d'affinités avec ces fils de putes j'suis dans la musique ou en trafic de stups', j'suis comme l'eau et l'huile j'aime pas me mélanger vaut mieux t'écarter ou mon équipe te fume et je kiff le cul quand les bitchies me sucent j'lui tire le cul et elle rentre chez elle, tellement péter,tellement bourré j'ai déjà fais l'amour avec Claire Chazal On a vendu des ketrus ils ont fait des spasmes ouais ils ont fait des spasmes On a vendu des ketrus ils ont fais des spasmes ouais ils ont fait des spasmes on a vendu des ketrus ils ont fait des spasmes, ils ont fait des spasmes Tout l'monde roule un joint d'beuh on va délirer dans l'espace Guiz Yonea willy willy Yonea business Gp'gangsters mothafuck Rémie rem les mains de fée C'est comme ça qu'on fait les choses bébé, oui oui, c'est comme ça qu'on fait les choses bébé Ramso, Rifshé c'est comme ça qu'on fait les choses bébé Zbiguilizbang zbiguiliba zbiguilibang C'est moi le best mothafuck J'arrive en décembre insh'Allah J'vais vous montrer c'est quoi du rap français Ah ouais hein j'te le dis cousin t'avais jamais entendu de rap senséYou might also like5</t>
+          <t>Je supplie le ciel de se montrer clément, j'ai fais quelques péchés que je regrette vraiment que tiser, ne rien faire c'était vraiment plaisant seul devant la vitrine le rapport est payant et j'bois un ketru on dirait c'est d'la pisse si t'as un ptit plavon poto fais moi la passe le terrain est mouillé faut surtout pas qu'on glisse il faut pas qu'on subisse les supplices de l'impasse J'suis un ptit bout de scarla t'es mort si tu pousses par là pas de place pour les froussard soit t'achètes un poushka soit t'appelles un boutmara Et j'fais pas d'égotrip, c'est vous qui tripez sur mon égo, toujours dans la street même les babtous sont mes négros Premier xe-té j'disais que ''vive la bière'' viens meme pas te mêler de ma famille ou d'mes affaires on cherchait la poukave,on avait quelques doutes, mais quand on était sur on lui baisait sa mère Mothafuck j'suis dans mon coin avec ma bouteille et mon joint, j'm'alcoolise toute la journée , y croient que je suis la mais je suis loin Pas d'affinités avec ces fils de putes j'suis dans la musique ou en trafic de stups', j'suis comme l'eau et l'huile j'aime pas me mélanger vaut mieux t'écarter ou mon équipe te fume et je kiff le cul quand les bitchies me sucent j'lui tire le cul et elle rentre chez elle, tellement péter,tellement bourré j'ai déjà fais l'amour avec Claire Chazal On a vendu des ketrus ils ont fait des spasmes ouais ils ont fait des spasmes On a vendu des ketrus ils ont fais des spasmes ouais ils ont fait des spasmes on a vendu des ketrus ils ont fait des spasmes, ils ont fait des spasmes Tout l'monde roule un joint d'beuh on va délirer dans l'espace Guiz Yonea willy willy Yonea business Gp'gangsters mothafuck Rémie rem les mains de fée C'est comme ça qu'on fait les choses bébé, oui oui, c'est comme ça qu'on fait les choses bébé Ramso, Rifshé c'est comme ça qu'on fait les choses bébé Zbiguilizbang zbiguiliba zbiguilibang C'est moi le best mothafuck J'arrive en décembre insh'Allah J'vais vous montrer c'est quoi du rap français Ah ouais hein j'te le dis cousin t'avais jamais entendu de rap sensé5</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dans mes rêves les plus fous, j'ai fait un feat avec Michael Jackson J'fais des millions et donc ma vie, bah c'est pas que d'l'alcool J'ai rêvé qu'papa était là, le réveil était dur J'ai songé à toutes sortes de choses et c'était pas d'tenir les murs, nan Moi, j'ai rêvé qu'on était beau, qu'on était bien Qu'il faisait chaud, qu'on était loin Et qu'on n'était jamais en chien Et j'vois mon p'tit qui devient footballeur Mon fils, réalise tes rêves, moi j'm'occuperai des cauchemars parce que j'm'en fous d'l'horreur J'nous revois tous fâchés, on était jeunes, on était fous à lier Moi, j'rêvais d'un freestyle chez Booska-P J'nous revois tous fâchés, on était jeunes, on était fous à lier Ouais dans mes rêves les plus fous J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes Et dans mes rêves les plus fous, on roule tous en grosse voiture Maman ne travaille plus et c'est fini les courbatures J'veux pas m'réveiller, j'en veux pas du coup d'massue J'veux dormir à la belle étoile et atterrir en dessous d'la Lune J'ai d'jà rêvé que j'dormais bien, c'était dans la cave du bâtiment 8 À mon réveil, des motocross et des trafiquants d'shit Ouais, dans mes rêves les plus fous, j'avais des câlins et des Pépito J'ai dit à Balavoine Viens boire une bière, monte pas dans l'hélico Des fois, je m'assoupis et je vois mes parents s'aimer comme avant Réveillé par l'insomnie et là, rien n'va plus comme avant Et j'ai rêvé d'une autre vie mais faudra accepter Qu'les Bahamas, c'est pas qu'un rêve mais ce s'ra pas c't'été Ouzou You might also like J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'ai rêvé qu'j'étais au placard, j'étais en cellule avec Mandela J'ai dit Libérez-le ou sinon pendez-moi J'ai vu ma sur aussi, elle était pleine de vie J'voulais pas qu'ça s'arrête mais est-ce la peine de l'dire ? J'ai rêvé que l'Occident remboursait toute l'Afrique Qu'on a fait double platine et qu'il y a du blé pour toute ma clique J'ai fumé tous mes rêves, combien j'en ai oublié ? Allez j'retourne me coucher, pour raconter, faut roupiller J'ai fumé tous mes rêves, combien j'en ai oublié ? Allez j'retourne me coucher, pour raconter, faut roupiller J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes Yonea Willy Willy Yonea Bisous aux ours et puis coucou et puis cest tout1</t>
+          <t>Dans mes rêves les plus fous, j'ai fait un feat avec Michael Jackson J'fais des millions et donc ma vie, bah c'est pas que d'l'alcool J'ai rêvé qu'papa était là, le réveil était dur J'ai songé à toutes sortes de choses et c'était pas d'tenir les murs, nan Moi, j'ai rêvé qu'on était beau, qu'on était bien Qu'il faisait chaud, qu'on était loin Et qu'on n'était jamais en chien Et j'vois mon p'tit qui devient footballeur Mon fils, réalise tes rêves, moi j'm'occuperai des cauchemars parce que j'm'en fous d'l'horreur J'nous revois tous fâchés, on était jeunes, on était fous à lier Moi, j'rêvais d'un freestyle chez Booska-P J'nous revois tous fâchés, on était jeunes, on était fous à lier Ouais dans mes rêves les plus fous J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes Et dans mes rêves les plus fous, on roule tous en grosse voiture Maman ne travaille plus et c'est fini les courbatures J'veux pas m'réveiller, j'en veux pas du coup d'massue J'veux dormir à la belle étoile et atterrir en dessous d'la Lune J'ai d'jà rêvé que j'dormais bien, c'était dans la cave du bâtiment 8 À mon réveil, des motocross et des trafiquants d'shit Ouais, dans mes rêves les plus fous, j'avais des câlins et des Pépito J'ai dit à Balavoine Viens boire une bière, monte pas dans l'hélico Des fois, je m'assoupis et je vois mes parents s'aimer comme avant Réveillé par l'insomnie et là, rien n'va plus comme avant Et j'ai rêvé d'une autre vie mais faudra accepter Qu'les Bahamas, c'est pas qu'un rêve mais ce s'ra pas c't'été Ouzou J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'ai rêvé qu'j'étais au placard, j'étais en cellule avec Mandela J'ai dit Libérez-le ou sinon pendez-moi J'ai vu ma sur aussi, elle était pleine de vie J'voulais pas qu'ça s'arrête mais est-ce la peine de l'dire ? J'ai rêvé que l'Occident remboursait toute l'Afrique Qu'on a fait double platine et qu'il y a du blé pour toute ma clique J'ai fumé tous mes rêves, combien j'en ai oublié ? Allez j'retourne me coucher, pour raconter, faut roupiller J'ai fumé tous mes rêves, combien j'en ai oublié ? Allez j'retourne me coucher, pour raconter, faut roupiller J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes J'me suis noyé dans mes rêves parce que ma vie, c'était un cauchemar J'ai adouci tout ça avec un flacon et un pochtar Faut que je m'allonge dans le fond de la pénombre Je crois que je suis bien seulement quand je fais des songes Yonea Willy Willy Yonea Bisous aux ours et puis coucou et puis cest tout1</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Vodka dans le gosier, Belvédère, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est, sale pute J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer Mais si tu joues au con y'aura plus de délais, ouais j'vais t'allumer comme les cow-boys Ils ont voulu ma mort j'suis vivant comme jamais je les baise avec le sourire, bande de salopes, bandes de bâtards J'ai fait des gros sous, côtoyé des voyous, pour le reste j'peux pas tout dire, BCBG ! J'recherche un plan cul que ça dérangerait pas de baiser avec tous mes blackos, fais-le ! Mettre ma famille à l'aise en en tuant pleins d'autres, philosophie El Chapo J'ai zoné, j'ai frotté, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera, puta ! Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Je bois plus que de raison HK ! J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau, hum, hum Je m'en bat les couilles de travailler les pecs Nique sa mère !! J'monte à Because et j'vais chercher mon chèque gent-ar et mon gent-ar La mula c'est tout ce que j'ai en tête moula,moula,moula! On a foutu les gants quand toi tu faisais la fête Ces bâtards j'les maudit, les bagarres, les taudis On est là dedans, ça fait des années demandes à Lascar et Moppy 94 ! GP Gang ne peut pas mourir, la ZS ne peut pas courir Quatre décès en un an, ah putain c'est la merde le Guizi ne fait que souffrir You might also like J'ai zoné, j'ai frotté, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera, puta ! Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Ils m'ont vu dehors capuché J'allais tirer sur un ennemi J'allais tirer sur un ennemi Pour me venger de cette chienne de vie Gùzmanito, Gùzmanita Mamasito, Mamasita YW, GP Gangstz On a la beuh, on a les me-ar Zone sensible Bès-Bar, Villeneuve motherfuckers Plonger dans ma folie ah ouais !7</t>
+          <t>Vodka dans le gosier, Belvédère, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est, sale pute J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer Mais si tu joues au con y'aura plus de délais, ouais j'vais t'allumer comme les cow-boys Ils ont voulu ma mort j'suis vivant comme jamais je les baise avec le sourire, bande de salopes, bandes de bâtards J'ai fait des gros sous, côtoyé des voyous, pour le reste j'peux pas tout dire, BCBG ! J'recherche un plan cul que ça dérangerait pas de baiser avec tous mes blackos, fais-le ! Mettre ma famille à l'aise en en tuant pleins d'autres, philosophie El Chapo J'ai zoné, j'ai frotté, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera, puta ! Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Je bois plus que de raison HK ! J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau, hum, hum Je m'en bat les couilles de travailler les pecs Nique sa mère !! J'monte à Because et j'vais chercher mon chèque gent-ar et mon gent-ar La mula c'est tout ce que j'ai en tête moula,moula,moula! On a foutu les gants quand toi tu faisais la fête Ces bâtards j'les maudit, les bagarres, les taudis On est là dedans, ça fait des années demandes à Lascar et Moppy 94 ! GP Gang ne peut pas mourir, la ZS ne peut pas courir Quatre décès en un an, ah putain c'est la merde le Guizi ne fait que souffrir J'ai zoné, j'ai frotté, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera, puta ! Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Ils m'ont vu dehors capuché J'allais tirer sur un ennemi J'allais tirer sur un ennemi Pour me venger de cette chienne de vie Gùzmanito, Gùzmanita Mamasito, Mamasita YW, GP Gangstz On a la beuh, on a les me-ar Zone sensible Bès-Bar, Villeneuve motherfuckers Plonger dans ma folie ah ouais !7</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yoga, yoga Ouais, ouais, ouais, Villeneuve-la-Garenne Les immeubles, la galère 92, 390, 9.4.4.6.0 Valenton, Polognes zoo, nigga, c'est comme ça qu'j'fais les choses, bébé Ouais, ouais, ouais, ouais, ouais, ouais, checke-moi J'rugis comme un lion mais j'suis discret comme la panthère Mon père, il avait pas tort tu perces, tu vois les bâtards bâtards J'dors pas la nuit, j'ai peur de mourir dans mon sommeil Trop d'sacrifices, arrête de jalouser mon oseille arrête Et même avec tout ça, c'est même pas assez J'ai deux mamans et mon grand-père qui rêvent de s'arracher ouais Et sur mon chemin, j'en ai frappé des mange-pierres C'est pour toute la ville de Bagneux, café des venches-per C'est pour Nono et Loulou, tu fumes, tu dis Oulala Inch'Allah, dans pas longtemps, on part à Honolulu ouh Y a DMS au placard et j'fais que d'penser à lui Des fois, ça m'fait déprimer et j'me déchire à la weed Rien n'est tout rose, rien n'est tout noir nan Pour étudier, il faut le vouloir ouais, faut l'vouloir Pour étudier, il faut le vouloir ouais, ma gueule Mais moi, j'bicravais dans les couloirs Flingues à l'unisson, j'suis là pour mettre des punitions Y a les mes-ar, les munitions, du crack en ébullition Damn, ils étaient pas là quand j'étais seul dans la de-mer Que j'avais des envies de meurtre, un pétard et j'redémarre J'crame le shit et j'ai le mort parce que les soucis, y en a marre C'est tard la nuit que j'retrouve les potos du square Ils sont carrés comme moi, ils sont tarés comme moi Et ils arrêtent pas d'me dire Ils peuvent pas rapper comme toi Quand j'pars en couilles sous la colère, il faut qu'j'parle avec Doui Lui et moi, c'est les Boondocks comme Riley et Huey J'suis dans ma bulle alors viens pas m'casser la tête 2020, dix ans qu'j'ai pas fait la fête dix ans J'sais pas si t'as capté le train de vie est triste T'as l'alcool, t'as la drogue et t'as les filles et l'vice Et j'ai couru derrière l'bonheur mais j'sais pas s'il existe Encore deux doses de crack contre un billet d'dix On m'avait d'mandé un couplet mais j'en ai kické six ouais Ils veulent fumer sur ma ppe-fra, finissent épileptiques J'suis pas méchant mais j'peux faire un truc méchant Parce que j'suis devenu méfiant à force d'être déçu par les gens fils de pute Et j'sais même pas si ma mère pardonne la séquestration Il était là d'vant moi à m'demander pardon Qu'est-c'que j'ai fait ? Qu'est-c'que j'ai vu ? Qu'est-c'que j'ai fumé ? Qu'est-c'que j'ai bu ? Villeneuve-la-Garenne, gros, c'est pas Disneyland On a rafalé avant d'faire des signes de gang gang Le général, c'est moi, j'ai toujours tempéré les guerres GPG jusqu'à la mort, on a enterré des frères Sonia, tu me manques et Ulysse aussi J'ai l'impression qu'la mort nous a pris pour cibles ouais Mais j'reste debout et j'vais vous rendre fiers J'vais arrêter d'vivre comme un gangster fini Arrêter d'vendre du hash', y a d'autres manières de prendre du cash et moi j'me suis pris pour Frank Lucas Mais c'est pas ça la vie, on n'est pas dans un film Mon pote s'est cru malin, il a fini infirme J'parle avec Tupac en bas d'la cité Il m'a dit Tu m'ressembles, t'es excité, pourquoi tu t'calmes pas ? J'lui ai dit J'm'en bas les couilles, j'nique tout, eh, moi, j'veux que des scal-pa Mais la prison, c'est relou et faudra pas râler, hein ? Ta meuf te trompe et tu deviens parano hein ? Et il faut pas critiquer mes fréquentations J'pense à mon frérot James qu'est derrière les barreaux James J'ai vu des trucs à bès-Bar qui peuvent te traumatiser Des tits-pe en détresse qui font des chromes à dix ans Rien qu'ça bicrave dans la rue d'vant la banalisée Quelques peines de placard, Hamdoullah, on est vivants Eh, tu fais pas peur parce que t'es stock, man Y a de quoi te refroidir dans le stock man Et j'ai toujours marché seul comme Jean-Jacques Goldman Des arnaqueurs et des dealers dans mon portable J'ai déjà niqué des gros balèzes Dans ma tess ou dans la cave, moi, j'suis trop à l'aise normal Y'a pas meilleur que moi pour s'mettre dans d'beaux draps Je souris mais j'suis fait comme un rat 2006, j'me fais courser par la Xsara D'vant l'OPJ, le regard froid comme Sub-Zéro J'mettais les gants, j'allais voler avec scar-las bou-bou-boum J'vendais la beuh, j'vendais le shit, j'vendais d'l'héro' ouais, ouais J'vendais ma beuh aux bobos et aux rastas ah, ouais Dans Paris-Nord, ah, nous, on cherchait le seille-o on s'en fout J'veux rendre fière ma mère ma reine Retourner vers ma terre La vie ne m'a pas gâté, j'ai dû voler des gâteaux Le père Noël, il passe chez toi mais moi, j'ai pas eu d'cadeaux Alors, comprends que j'ai la haine parce que t'étais mieux qu'moi C'que t'as fait en un coup, moi, j'l'ai fait deux fois Du pilon dans la pocket et j'pique une bière au Paki Les rappeurs, c'est des mauviettes, j'suis caché dans les maquis Des vendeurs à la sauvette, des dealers dans les parkings On est tous dev'nus mauvais, parce que des frères sont partis Et ça fout la haine, c'est pour ça qu'on fout la merde Toute l'année, sous amné', j'ai pas toute ma tête J'ai vendu des tazes, j'ai dormi en cage Aujourd'hui, ça fout la rage, les keufs connaissent mon blase Diakité bad boy qui s'en bat les couilles Qu'a mis des douilles et qui est agité par l'alcool Y avait du pilon dans ma fouille et bah ouais, c'est pas d'bol J'avais tiré dans les pieds, il dansait comme Carlton C'est moi qui compte le fric, c'est moi qui trompe le risque Et c'est moi qui commande, Jeffrey, appelle-moi Oncle Phil Les balances sont à bannir et après l'heure, c'est plus l'heure J'étais un renard d'Paris, j'suis dev'nu l'Prince de Bel-Air Et j'sais pas dire je t'aime mais j'fais bien l'amour ouais Des pétards, des pétards, j'en fume plein par jour J'ai une nouvelle collection pour des flingues à Tours Et même des produits exotiques qui viennent de Singapour Le millimètre, c'est 9, la conso', c'est 12 Et j'suis complètement fonce-dé mais la drogue est douce J'ai mis mon réveil à 1143 Si tu m'dois des lovés, gros, il vaut mieux pas qu'on s'voit Et pour c'qui est des femmes, j'ai l'droit d'en avoir quatre J'sais pas pourquoi j'dis ça mais vas-y, mets un cut Et j'ai tout lâché pour le son parce que j'étais cap' La vie d'ma mère que j'suis trop chaud, vas-y, remets un cut J't'ai blessé, tu m'as blessé, maintenant on est quittes Moi, j'veux voir le modèle, pas combien ça coûte Et j'me sentais un peu mieux quand j'ai fumé du shit ouais Quand j'ai vidé la bière jusqu'à la dernière goutte Ouais, j'ai perdu beaucoup d'gens mais c'est passé, c'est bon J'ai relevé la tête, j'ai pas pété les plombs Pas toi qui fais les interviews, pas toi qui fais les sons Les commentaires, c'est pour ma gueule alors filez mes sous merde Viens per-cho chez le renard, c'est que du fait maison Et je porterai mes couilles jusqu'à mon dernier souffle Et j'suis méchant et violent dans ma frénésie Et j'retourne pas ma veste même si j'ai fait des sous Coup d'pied dans la tête, patate dans la mâchoire Fais pas les gros poissons, on va t'sectionner les nageoires C'est nous qu'on fait la loi, bats les couilles qu'tu roules en Ferrari Trois millions d'té-cô et tu nous verras rire Y'a eu les coups d'couteau, les coups d'feu, les coups d'pute, les coups d'jus, taser dans les côtes, ouais J'vais t'casser les couilles mais là, faut qu'tu remettes un cut Business de cannabis, ça fait des mois qu'ils enquêtent J'faisais du basket et du foot, moi, j'étais deuss' J'suis parti en couilles quand j'ai fumé du te-sh' ah merde Ça ralentit l'esprit, ça donne la flemme Ça peut calmer la haine, ça fait bang, y a plus de vie J'suis pas sorti baraqué mais j'ai eu la baraka Espèce de bataradé, moi, j'suis pas dans la mala Nan, j'suis loin d'tout ça, fils de pute loin, loin Tu sais que j'vise le but bah oui, hein Ça fait longtemps, ma gueule longtemps, longtemps, bâtard Que j'fais des trous dans la feuille bang, bang, bang Arnaqueur, dealer, braqueur et proxénète Moi, j'suis sorti d'tout ça, wallah, gros, c'est dead J'suis pas une pute mais j'travaille avec ma bouche J'suis trop méfiant, c'est ma mère qui fait la bouffe Regarde-moi bien, j'suis parano, j'te mets une baffe ouais J'suis pas d'humeur et puis, y a l'autre qui m'doit du biff il m'doit des sous Toujours sincère quand tu m'entends dans tes baffles Trop d'choses à dire mais y'a plus d'instru, allez bref You might also like C'est pour bébé, c'est comme mon jumeau Le Renard, le Renard La vie d'ma mère qu'il ne ment jamais le plus fort du monde C'est pas sorcier, ouais, c'est comme Jamy comme ça qu'j'fais les choses Guizi, YW, Yonea-Willy, Willy-Yonea1</t>
+          <t>Yoga, yoga Ouais, ouais, ouais, Villeneuve-la-Garenne Les immeubles, la galère 92, 390, 9.4.4.6.0 Valenton, Polognes zoo, nigga, c'est comme ça qu'j'fais les choses, bébé Ouais, ouais, ouais, ouais, ouais, ouais, checke-moi J'rugis comme un lion mais j'suis discret comme la panthère Mon père, il avait pas tort tu perces, tu vois les bâtards bâtards J'dors pas la nuit, j'ai peur de mourir dans mon sommeil Trop d'sacrifices, arrête de jalouser mon oseille arrête Et même avec tout ça, c'est même pas assez J'ai deux mamans et mon grand-père qui rêvent de s'arracher ouais Et sur mon chemin, j'en ai frappé des mange-pierres C'est pour toute la ville de Bagneux, café des venches-per C'est pour Nono et Loulou, tu fumes, tu dis Oulala Inch'Allah, dans pas longtemps, on part à Honolulu ouh Y a DMS au placard et j'fais que d'penser à lui Des fois, ça m'fait déprimer et j'me déchire à la weed Rien n'est tout rose, rien n'est tout noir nan Pour étudier, il faut le vouloir ouais, faut l'vouloir Pour étudier, il faut le vouloir ouais, ma gueule Mais moi, j'bicravais dans les couloirs Flingues à l'unisson, j'suis là pour mettre des punitions Y a les mes-ar, les munitions, du crack en ébullition Damn, ils étaient pas là quand j'étais seul dans la de-mer Que j'avais des envies de meurtre, un pétard et j'redémarre J'crame le shit et j'ai le mort parce que les soucis, y en a marre C'est tard la nuit que j'retrouve les potos du square Ils sont carrés comme moi, ils sont tarés comme moi Et ils arrêtent pas d'me dire Ils peuvent pas rapper comme toi Quand j'pars en couilles sous la colère, il faut qu'j'parle avec Doui Lui et moi, c'est les Boondocks comme Riley et Huey J'suis dans ma bulle alors viens pas m'casser la tête 2020, dix ans qu'j'ai pas fait la fête dix ans J'sais pas si t'as capté le train de vie est triste T'as l'alcool, t'as la drogue et t'as les filles et l'vice Et j'ai couru derrière l'bonheur mais j'sais pas s'il existe Encore deux doses de crack contre un billet d'dix On m'avait d'mandé un couplet mais j'en ai kické six ouais Ils veulent fumer sur ma ppe-fra, finissent épileptiques J'suis pas méchant mais j'peux faire un truc méchant Parce que j'suis devenu méfiant à force d'être déçu par les gens fils de pute Et j'sais même pas si ma mère pardonne la séquestration Il était là d'vant moi à m'demander pardon Qu'est-c'que j'ai fait ? Qu'est-c'que j'ai vu ? Qu'est-c'que j'ai fumé ? Qu'est-c'que j'ai bu ? Villeneuve-la-Garenne, gros, c'est pas Disneyland On a rafalé avant d'faire des signes de gang gang Le général, c'est moi, j'ai toujours tempéré les guerres GPG jusqu'à la mort, on a enterré des frères Sonia, tu me manques et Ulysse aussi J'ai l'impression qu'la mort nous a pris pour cibles ouais Mais j'reste debout et j'vais vous rendre fiers J'vais arrêter d'vivre comme un gangster fini Arrêter d'vendre du hash', y a d'autres manières de prendre du cash et moi j'me suis pris pour Frank Lucas Mais c'est pas ça la vie, on n'est pas dans un film Mon pote s'est cru malin, il a fini infirme J'parle avec Tupac en bas d'la cité Il m'a dit Tu m'ressembles, t'es excité, pourquoi tu t'calmes pas ? J'lui ai dit J'm'en bas les couilles, j'nique tout, eh, moi, j'veux que des scal-pa Mais la prison, c'est relou et faudra pas râler, hein ? Ta meuf te trompe et tu deviens parano hein ? Et il faut pas critiquer mes fréquentations J'pense à mon frérot James qu'est derrière les barreaux James J'ai vu des trucs à bès-Bar qui peuvent te traumatiser Des tits-pe en détresse qui font des chromes à dix ans Rien qu'ça bicrave dans la rue d'vant la banalisée Quelques peines de placard, Hamdoullah, on est vivants Eh, tu fais pas peur parce que t'es stock, man Y a de quoi te refroidir dans le stock man Et j'ai toujours marché seul comme Jean-Jacques Goldman Des arnaqueurs et des dealers dans mon portable J'ai déjà niqué des gros balèzes Dans ma tess ou dans la cave, moi, j'suis trop à l'aise normal Y'a pas meilleur que moi pour s'mettre dans d'beaux draps Je souris mais j'suis fait comme un rat 2006, j'me fais courser par la Xsara D'vant l'OPJ, le regard froid comme Sub-Zéro J'mettais les gants, j'allais voler avec scar-las bou-bou-boum J'vendais la beuh, j'vendais le shit, j'vendais d'l'héro' ouais, ouais J'vendais ma beuh aux bobos et aux rastas ah, ouais Dans Paris-Nord, ah, nous, on cherchait le seille-o on s'en fout J'veux rendre fière ma mère ma reine Retourner vers ma terre La vie ne m'a pas gâté, j'ai dû voler des gâteaux Le père Noël, il passe chez toi mais moi, j'ai pas eu d'cadeaux Alors, comprends que j'ai la haine parce que t'étais mieux qu'moi C'que t'as fait en un coup, moi, j'l'ai fait deux fois Du pilon dans la pocket et j'pique une bière au Paki Les rappeurs, c'est des mauviettes, j'suis caché dans les maquis Des vendeurs à la sauvette, des dealers dans les parkings On est tous dev'nus mauvais, parce que des frères sont partis Et ça fout la haine, c'est pour ça qu'on fout la merde Toute l'année, sous amné', j'ai pas toute ma tête J'ai vendu des tazes, j'ai dormi en cage Aujourd'hui, ça fout la rage, les keufs connaissent mon blase Diakité bad boy qui s'en bat les couilles Qu'a mis des douilles et qui est agité par l'alcool Y avait du pilon dans ma fouille et bah ouais, c'est pas d'bol J'avais tiré dans les pieds, il dansait comme Carlton C'est moi qui compte le fric, c'est moi qui trompe le risque Et c'est moi qui commande, Jeffrey, appelle-moi Oncle Phil Les balances sont à bannir et après l'heure, c'est plus l'heure J'étais un renard d'Paris, j'suis dev'nu l'Prince de Bel-Air Et j'sais pas dire je t'aime mais j'fais bien l'amour ouais Des pétards, des pétards, j'en fume plein par jour J'ai une nouvelle collection pour des flingues à Tours Et même des produits exotiques qui viennent de Singapour Le millimètre, c'est 9, la conso', c'est 12 Et j'suis complètement fonce-dé mais la drogue est douce J'ai mis mon réveil à 1143 Si tu m'dois des lovés, gros, il vaut mieux pas qu'on s'voit Et pour c'qui est des femmes, j'ai l'droit d'en avoir quatre J'sais pas pourquoi j'dis ça mais vas-y, mets un cut Et j'ai tout lâché pour le son parce que j'étais cap' La vie d'ma mère que j'suis trop chaud, vas-y, remets un cut J't'ai blessé, tu m'as blessé, maintenant on est quittes Moi, j'veux voir le modèle, pas combien ça coûte Et j'me sentais un peu mieux quand j'ai fumé du shit ouais Quand j'ai vidé la bière jusqu'à la dernière goutte Ouais, j'ai perdu beaucoup d'gens mais c'est passé, c'est bon J'ai relevé la tête, j'ai pas pété les plombs Pas toi qui fais les interviews, pas toi qui fais les sons Les commentaires, c'est pour ma gueule alors filez mes sous merde Viens per-cho chez le renard, c'est que du fait maison Et je porterai mes couilles jusqu'à mon dernier souffle Et j'suis méchant et violent dans ma frénésie Et j'retourne pas ma veste même si j'ai fait des sous Coup d'pied dans la tête, patate dans la mâchoire Fais pas les gros poissons, on va t'sectionner les nageoires C'est nous qu'on fait la loi, bats les couilles qu'tu roules en Ferrari Trois millions d'té-cô et tu nous verras rire Y'a eu les coups d'couteau, les coups d'feu, les coups d'pute, les coups d'jus, taser dans les côtes, ouais J'vais t'casser les couilles mais là, faut qu'tu remettes un cut Business de cannabis, ça fait des mois qu'ils enquêtent J'faisais du basket et du foot, moi, j'étais deuss' J'suis parti en couilles quand j'ai fumé du te-sh' ah merde Ça ralentit l'esprit, ça donne la flemme Ça peut calmer la haine, ça fait bang, y a plus de vie J'suis pas sorti baraqué mais j'ai eu la baraka Espèce de bataradé, moi, j'suis pas dans la mala Nan, j'suis loin d'tout ça, fils de pute loin, loin Tu sais que j'vise le but bah oui, hein Ça fait longtemps, ma gueule longtemps, longtemps, bâtard Que j'fais des trous dans la feuille bang, bang, bang Arnaqueur, dealer, braqueur et proxénète Moi, j'suis sorti d'tout ça, wallah, gros, c'est dead J'suis pas une pute mais j'travaille avec ma bouche J'suis trop méfiant, c'est ma mère qui fait la bouffe Regarde-moi bien, j'suis parano, j'te mets une baffe ouais J'suis pas d'humeur et puis, y a l'autre qui m'doit du biff il m'doit des sous Toujours sincère quand tu m'entends dans tes baffles Trop d'choses à dire mais y'a plus d'instru, allez bref C'est pour bébé, c'est comme mon jumeau Le Renard, le Renard La vie d'ma mère qu'il ne ment jamais le plus fort du monde C'est pas sorcier, ouais, c'est comme Jamy comme ça qu'j'fais les choses Guizi, YW, Yonea-Willy, Willy-Yonea1</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dans mes poumons pas de crack, et pas de trac quand je rap le diez Je suis trop fort sans t'en rendre compte tu backs le 16 Guizmo vous déstresse comme un patch à la nicotine J'enchaine les spliffs et je fréquente des filles coquines On prend du bon temps puis elles pensent qu'elles sont mes petites copines Mais la séparation est brutale à la Steve Austin J'ai pas d'attache, pas à pas, je m'accapare ce qui me revient de droit Je deviens le roi le King sale bâtard Et pour tous ceux qui voulaient me voir perdre Me rouler par terre et bien bouffez ma verge Trop de gens te sourient mais cachent un bête de vice Donc nique la mère à tous les traîtres c'est une belle devise Et les meufs qui fréquentent trop de mecs, écoutent pas ce qu'elles te disent Car un jour l'un d'eux débarque et en pleine tête te vise Et je n'écris que de la bombe car je respecte les beat Moi je fais pas la quête du Graal je fais la quête des biffs Ouais d'après toi tu flambes tu fais le mec t'es street Arrête ton baratin tout le monde sait que tu ken des petits Aucun stress dans ma voix quand je parle de rue Comment te dire à Villeneuve c'est un bail de ruse Aucun mec va te vi-ser si t'as une race de stup Et si tu cherches comme il faut tu trouves des armes russes J'ai de l'amour pour le rap les grognasses et la bonne bouffe Un beat avec Jaz un gros niaks et c'est trop smooth Parle en cash ou ferme la Cesse de faire le mac Si à la vue de mes frères blacks tu commences à perdre le cap Si y'a pas de shit on fait comment ? on fait pas Devant les schmits ? on sait pas Si y'a embrouille dans l'équipe ? on sépare Et c'est comme ça depuis des lustres Quand je rappes tu dégustes J'en ai allumé des gus ce que j'ai dans le fut les dépucelle Merde Paname c'est Soul Calibur Coup de schlass pour 1 gramme et on t'shoot la figure Caraibos et flash de rhum vas y goûtes la mixture Et trouve moi à pera avec un groupe d'amis sûr Je lâche pas le steak j'ai trop de phases par texte Y'a rien de tout noir ou tout blanc donc y a pas d'apartheid Je vous avais prévenu z'avez pas voulu m'écouter Là je vous jure que vos flows finiront tous nus découpés, dans une ruelle sombre Je fais fuser le son mais marche pas sur mes traces car le trajet est truffé de plombs J'en vois de toutes les couleurs comme Léonard de Vinci Je me laisse pas devancer par les porteurs de l'insigne Nan, je suis plus malin que tous ces porcs de merde Y'a des odeurs de cake, ça sent la pomme de terre Putain ! pas la peine d'amadouer Marianne Devant ma haine elle est aveugle comme Amadou et Mariam Là j'en place une pour mes frérots des Polognes Tu nous verra jamais faire l'aumône car nos mères font des bonshommes Ouais un 16 de rage un tacle à la Gattuso A Valenton ça taff les pecs demande à mes gars du zoo On a que nos plumes et nos nerfs bande d'enculés de vos mères A cause de vous ont fait pleurer nos mères En plus de te mettre à l'amende je connais mes classiques C'est magique dit ce que tu veux Guizmo c'est tout sauf basique Et c'est la merde tiz et bedo Guizmo fait des folies, des flows qui brisent les négros qui testent Les bédos, l'ivresse Je connais le truc, fuck les stups Je fais partie de ces gosses qui se plaignent Qui graffent sur le trom, crachent sur le sol Qui rêvent de richesse et son fier qu'sur le trône Allez, soyez pas naïfs on est charmé par la street On vient des ghettos sales qui sont frappés par la crise Et c'est tout les jours ouais sous les tours Tu trouves les fous, les fous qui vendent des guns et des bulletproof Mais croit le ou non, c'est la verité mes dalleux en ont Tu peux l'vérifier j'parle en leur nom Mais j'suis pas dans c'biz, j'laisse le diez, j'reste zen Mais malgré ça c'est flagrant qu'j'tize Sky et Pastis, l'artiste rafle la mise Pendant que des wacks kickent des fats beats, soit disant Partisan du rap de rue, en egotrip les go kiffent elles se doigtent dessus Le placement est technique on taffe dans les regles Le rap dans les veines, y'a que des as dans l'effectif J'ai grandi sans écus, avec des gens déçus Dans les ZUP, chanvre et stup' coffrés dans les futs Tu connais l'truc, la vie et ses aléas La street et ses allées crades Même quand j'suis paumé j'lutte J'suis comme un gros jet d'pus Impatient que ça pète, sympa tant que j'la baise Un battant d'la tess en beau vêt-sur Un flow très pur, Guiz est dans la place T'as beau prier quand ça s'tape, on va t'niquer devant ta XXX T'as peut-être vu mes gars, dealer devant ta fac Piller dans ta raque-ba, j'peux pas tizer sans qu'ça s'tape Et j'rapplique si t'as proposé l'cash Roule un gros cone j'bédave avec Morphose et Nas Et vas-y va t'faire foutre, ici y'a pas d'mecs cools Et c'est qu'après l'coup que j'me dit qu'il fallait pas taper c'boug La rue, l'deal, fréro tout ça c'est naze J'me dit qu'c'est éphemère comme les beaux jours à bédave Mais c'coup-ci, c'est l'enfer du décor Tous en quête du pétrole, mais faut qu'j'reste dur et fort Est-ce que t'as pigé frère que les billets verts sont les pires des traitres ? Ils ont grillé sec dans la poche du p'tit diesel Et j'nique les chiennes, qui affaiblissent ma meute de loups Qui veulent le flouz quand elles t'ont vu sur Buzz2fou Mais pas d'ça ici, crazarizi tu mazanizies l'mic Mais j'ai tricard tes tas d'mas-né-ci Et moi j'ai plus l'temps d'avoir le temps En fait si, mais j'crois qu'j'ai plus l'temps de savoir le prendre, mec Tu croyais quoi, qu'la vie c'est Tomtom et Nana ? C'est com-cogne, les bagarres, les hommes cognent les nanas J'ai pas fini, y'a les costauds, les bavards, les potos, les balafres, les costauds et Paname ouais En gros c'est la merde, j'veux en empocher la verte, pour m'envoler d'la Terre, puis embrocher d'la chienne You might also like Guizmo, 92 , Yonea Willy Willy Yonea Zone Sensible L'entourage, Villeneuve La Garenne, les immeubles, la galère, les filles veuves, la galette C'est comme ça qu'on fait les choses, bande d'enfoirés Zone Sensible, Villeneuve la Garenne, bès-Bar Tu connais l'boulevard hein, Demi Portion, La Scred Connexion, S-Crew Guizmo Paroles rédigées et expliquées par Rap Genius France2</t>
+          <t>Dans mes poumons pas de crack, et pas de trac quand je rap le diez Je suis trop fort sans t'en rendre compte tu backs le 16 Guizmo vous déstresse comme un patch à la nicotine J'enchaine les spliffs et je fréquente des filles coquines On prend du bon temps puis elles pensent qu'elles sont mes petites copines Mais la séparation est brutale à la Steve Austin J'ai pas d'attache, pas à pas, je m'accapare ce qui me revient de droit Je deviens le roi le King sale bâtard Et pour tous ceux qui voulaient me voir perdre Me rouler par terre et bien bouffez ma verge Trop de gens te sourient mais cachent un bête de vice Donc nique la mère à tous les traîtres c'est une belle devise Et les meufs qui fréquentent trop de mecs, écoutent pas ce qu'elles te disent Car un jour l'un d'eux débarque et en pleine tête te vise Et je n'écris que de la bombe car je respecte les beat Moi je fais pas la quête du Graal je fais la quête des biffs Ouais d'après toi tu flambes tu fais le mec t'es street Arrête ton baratin tout le monde sait que tu ken des petits Aucun stress dans ma voix quand je parle de rue Comment te dire à Villeneuve c'est un bail de ruse Aucun mec va te vi-ser si t'as une race de stup Et si tu cherches comme il faut tu trouves des armes russes J'ai de l'amour pour le rap les grognasses et la bonne bouffe Un beat avec Jaz un gros niaks et c'est trop smooth Parle en cash ou ferme la Cesse de faire le mac Si à la vue de mes frères blacks tu commences à perdre le cap Si y'a pas de shit on fait comment ? on fait pas Devant les schmits ? on sait pas Si y'a embrouille dans l'équipe ? on sépare Et c'est comme ça depuis des lustres Quand je rappes tu dégustes J'en ai allumé des gus ce que j'ai dans le fut les dépucelle Merde Paname c'est Soul Calibur Coup de schlass pour 1 gramme et on t'shoot la figure Caraibos et flash de rhum vas y goûtes la mixture Et trouve moi à pera avec un groupe d'amis sûr Je lâche pas le steak j'ai trop de phases par texte Y'a rien de tout noir ou tout blanc donc y a pas d'apartheid Je vous avais prévenu z'avez pas voulu m'écouter Là je vous jure que vos flows finiront tous nus découpés, dans une ruelle sombre Je fais fuser le son mais marche pas sur mes traces car le trajet est truffé de plombs J'en vois de toutes les couleurs comme Léonard de Vinci Je me laisse pas devancer par les porteurs de l'insigne Nan, je suis plus malin que tous ces porcs de merde Y'a des odeurs de cake, ça sent la pomme de terre Putain ! pas la peine d'amadouer Marianne Devant ma haine elle est aveugle comme Amadou et Mariam Là j'en place une pour mes frérots des Polognes Tu nous verra jamais faire l'aumône car nos mères font des bonshommes Ouais un 16 de rage un tacle à la Gattuso A Valenton ça taff les pecs demande à mes gars du zoo On a que nos plumes et nos nerfs bande d'enculés de vos mères A cause de vous ont fait pleurer nos mères En plus de te mettre à l'amende je connais mes classiques C'est magique dit ce que tu veux Guizmo c'est tout sauf basique Et c'est la merde tiz et bedo Guizmo fait des folies, des flows qui brisent les négros qui testent Les bédos, l'ivresse Je connais le truc, fuck les stups Je fais partie de ces gosses qui se plaignent Qui graffent sur le trom, crachent sur le sol Qui rêvent de richesse et son fier qu'sur le trône Allez, soyez pas naïfs on est charmé par la street On vient des ghettos sales qui sont frappés par la crise Et c'est tout les jours ouais sous les tours Tu trouves les fous, les fous qui vendent des guns et des bulletproof Mais croit le ou non, c'est la verité mes dalleux en ont Tu peux l'vérifier j'parle en leur nom Mais j'suis pas dans c'biz, j'laisse le diez, j'reste zen Mais malgré ça c'est flagrant qu'j'tize Sky et Pastis, l'artiste rafle la mise Pendant que des wacks kickent des fats beats, soit disant Partisan du rap de rue, en egotrip les go kiffent elles se doigtent dessus Le placement est technique on taffe dans les regles Le rap dans les veines, y'a que des as dans l'effectif J'ai grandi sans écus, avec des gens déçus Dans les ZUP, chanvre et stup' coffrés dans les futs Tu connais l'truc, la vie et ses aléas La street et ses allées crades Même quand j'suis paumé j'lutte J'suis comme un gros jet d'pus Impatient que ça pète, sympa tant que j'la baise Un battant d'la tess en beau vêt-sur Un flow très pur, Guiz est dans la place T'as beau prier quand ça s'tape, on va t'niquer devant ta XXX T'as peut-être vu mes gars, dealer devant ta fac Piller dans ta raque-ba, j'peux pas tizer sans qu'ça s'tape Et j'rapplique si t'as proposé l'cash Roule un gros cone j'bédave avec Morphose et Nas Et vas-y va t'faire foutre, ici y'a pas d'mecs cools Et c'est qu'après l'coup que j'me dit qu'il fallait pas taper c'boug La rue, l'deal, fréro tout ça c'est naze J'me dit qu'c'est éphemère comme les beaux jours à bédave Mais c'coup-ci, c'est l'enfer du décor Tous en quête du pétrole, mais faut qu'j'reste dur et fort Est-ce que t'as pigé frère que les billets verts sont les pires des traitres ? Ils ont grillé sec dans la poche du p'tit diesel Et j'nique les chiennes, qui affaiblissent ma meute de loups Qui veulent le flouz quand elles t'ont vu sur Buzz2fou Mais pas d'ça ici, crazarizi tu mazanizies l'mic Mais j'ai tricard tes tas d'mas-né-ci Et moi j'ai plus l'temps d'avoir le temps En fait si, mais j'crois qu'j'ai plus l'temps de savoir le prendre, mec Tu croyais quoi, qu'la vie c'est Tomtom et Nana ? C'est com-cogne, les bagarres, les hommes cognent les nanas J'ai pas fini, y'a les costauds, les bavards, les potos, les balafres, les costauds et Paname ouais En gros c'est la merde, j'veux en empocher la verte, pour m'envoler d'la Terre, puis embrocher d'la chienne Guizmo, 92 , Yonea Willy Willy Yonea Zone Sensible L'entourage, Villeneuve La Garenne, les immeubles, la galère, les filles veuves, la galette C'est comme ça qu'on fait les choses, bande d'enfoirés Zone Sensible, Villeneuve la Garenne, bès-Bar Tu connais l'boulevard hein, Demi Portion, La Scred Connexion, S-Crew Guizmo Paroles rédigées et expliquées par Rap Genius France2</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Yonea Willy, Willy Yonea, Z-S Check, yo Depuis ma f'nêtre, j'vois des trucs de fou Des transac', des têtes-à-têtes, un motard qui se crash et qui meurt sur le coup Et depuis môme, ça n'a pas gé-chan, indécent, incessant, l'ingé' sent bien les samples et les pilons blindés d'chanvre Votre rap game, j'le gang bang, j'le ken sous Heineken J'le sers, j'le traîne sous mes s'melles Plus rien à foutre de vos simagrées, de vos types fâchés D'leur tonnes de punchlines, j'ai l'rap le plus imagé J'les vois me dévisager, s'demander si j'suis à jeun J'suis pas là, j'me suis caché dans la chaleur d'un vagin C'est pour tous les halls, tous les coins, toutes les zones Pour les miens, pour les autres, sur l'terrain sous bédo J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire You might also like Garettes-ci après garettes-ci, caresser par les filles J'apprécie la huh, lui arracher l'bas résille Tabassé par les flics, armé jusqu'aux dents On s'en tape, on s'bute au chanvre On va pas lâcher la té-ci D'la rage et d'l'appétit, faut du fric à mort Même si ça donne du fil à r'tordre, on va ramasser v'là les biffs Bavarder, moi j'médite sur un plan vacances Rien à foutre le temps d'la France, moi j'veux Dakar et l'Amérique Ça parle mais ça ves-qui, j'crois j'ai pas l'time et puis Chaque fois, c'est pathétique, ces bâtards claquent des cuisses Bah ouais, j'aime pas les blabla et les p'tites manières Un tracas, un taser, j't'électronique ta mère J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire Bah ouais des fois, ça chôme, tu diras c'est cheum Enraciné à la zone, scotché d'vant la Playstation Très souvent, ça fait des croms, histoire d'fumer un peu d'seum Une reguebiégué dans l'tro-m, j'te raconte la vie des jeunes Vision floutée, ils sont chnouffés, pourrait shooter, dégoûté des coups d'la vie Mais souvent soudés Avec la fume, c'est la fatigue artificielle C'est la panique d'un criminel qui veut qu'la vie à 50 Cent, merde À tous mes frères dans le cal-bo coincé Gardez c'que vous savez, on n'oublie ap de vous rincer Il nous faut quoi de faire v'là l'espèce, j'te dis Qui ne saute pas n'est pas ZS, petit J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire Pareil dans tous les coins Du Nord au Sud, de l'Est à l'Ouest Le proc au cul, on r'lève la tête Dis-moi, t'as l'sommeil léger Si à la vue d'la vraie vie, tu t'es senti piégé Ta meuf, ton taf, tes potes Faut gérer, c'est comme tout C'est comme le haram, sale, les drogues douces Bien évidement YW, Guizmo, amicalement</t>
+          <t>Yonea Willy, Willy Yonea, Z-S Check, yo Depuis ma f'nêtre, j'vois des trucs de fou Des transac', des têtes-à-têtes, un motard qui se crash et qui meurt sur le coup Et depuis môme, ça n'a pas gé-chan, indécent, incessant, l'ingé' sent bien les samples et les pilons blindés d'chanvre Votre rap game, j'le gang bang, j'le ken sous Heineken J'le sers, j'le traîne sous mes s'melles Plus rien à foutre de vos simagrées, de vos types fâchés D'leur tonnes de punchlines, j'ai l'rap le plus imagé J'les vois me dévisager, s'demander si j'suis à jeun J'suis pas là, j'me suis caché dans la chaleur d'un vagin C'est pour tous les halls, tous les coins, toutes les zones Pour les miens, pour les autres, sur l'terrain sous bédo J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire Garettes-ci après garettes-ci, caresser par les filles J'apprécie la huh, lui arracher l'bas résille Tabassé par les flics, armé jusqu'aux dents On s'en tape, on s'bute au chanvre On va pas lâcher la té-ci D'la rage et d'l'appétit, faut du fric à mort Même si ça donne du fil à r'tordre, on va ramasser v'là les biffs Bavarder, moi j'médite sur un plan vacances Rien à foutre le temps d'la France, moi j'veux Dakar et l'Amérique Ça parle mais ça ves-qui, j'crois j'ai pas l'time et puis Chaque fois, c'est pathétique, ces bâtards claquent des cuisses Bah ouais, j'aime pas les blabla et les p'tites manières Un tracas, un taser, j't'électronique ta mère J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire Bah ouais des fois, ça chôme, tu diras c'est cheum Enraciné à la zone, scotché d'vant la Playstation Très souvent, ça fait des croms, histoire d'fumer un peu d'seum Une reguebiégué dans l'tro-m, j'te raconte la vie des jeunes Vision floutée, ils sont chnouffés, pourrait shooter, dégoûté des coups d'la vie Mais souvent soudés Avec la fume, c'est la fatigue artificielle C'est la panique d'un criminel qui veut qu'la vie à 50 Cent, merde À tous mes frères dans le cal-bo coincé Gardez c'que vous savez, on n'oublie ap de vous rincer Il nous faut quoi de faire v'là l'espèce, j'te dis Qui ne saute pas n'est pas ZS, petit J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire J'rappe pour vous, nos qualités et nos défauts J'rappe pour vous, nos sales idées et nos ghettos J'rappe pour vous jusqu'aux zones pavillonnaires Les frères et surs en établissement pénitentiaire Pareil dans tous les coins Du Nord au Sud, de l'Est à l'Ouest Le proc au cul, on r'lève la tête Dis-moi, t'as l'sommeil léger Si à la vue d'la vraie vie, tu t'es senti piégé Ta meuf, ton taf, tes potes Faut gérer, c'est comme tout C'est comme le haram, sale, les drogues douces Bien évidement YW, Guizmo, amicalement</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C'est l'Entourage, Guizmo Jazzy Bazz, Doum's, Eff Gee Qu'est-ce qui se passe ? Han ! Yo ! Yo, j'ai le cur gelé, je l'avoue J'ai fait l'deuil de l'amour car ça fait peur de près Pour l'heure je crée, fuck, j'reste dans ma fougue Rien d'essentiel, moi, j'me sens seul même dans la foule 23 ans dans c'monde, partout c'est la même On veut d'la pouffe et d'la fraîche, confond l'amour et la baise C'est donc ça la vie ? Seuls face à la tise Mes frères s'détruisent au cannabis disant que ça passera par la suite Mais rien du tout, nos possédés partent du bas Mes potes, tes potes sont possédés par Judas Viens pas m'souler, couz, quand j'baille sous les tours On rêve de baraque à la playa à s'la couler douce Ouais, s'casser d'ici, j'crois plus en rien dans ma tête J'ai confiance qu'en ma mère Nas Biggie J'ai peur souvent mais cool, j'reste fier Et comme Espiiem, j'suis seul pourtant j'étouffe ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire You might also like Face à mes tourments et mes peurs, moi, j'ai souvent été seul Avec mon sh-fla, c'est ve-gra, c'est troublant et c'est cheum Y'a du boucan et des jeunes dans ma ville, keufs dans la street Teush dans l'calcif, on a l'seum quand ça kicke Cousin, j'avertis les wacks, ma technique est fat Phrasé illégale, sapé stylé grave, j'apprécie les femmes Mais j'vais pas lâcher mon biff, t'auras qu'ma bite et mes couilles Salope, vite, fais les courses et va acheter mon disque Ça m'évitera d'vendre des barrettes de cannabis Les tapettes me baratinent, le sky sec me paralyse Faut que j'atteigne le paradis, j'ai peur de clamser et toi aussi J'ai peur d'dépasser le paroxysme de la folie qui m'habite À cause de la police qui m'la mise et d'leur politique raciste Ma gueule, on a brassé des sous qui dorment Lassés des groupies, venez pas casser les roubignoles ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire Ouais, seul dans ma bulle loin d'ce pays et d'ses pyramides Ces p'tites raclis qui causeront notre perte m'a dit un frère Coulibaly Ou comme ce gosse qui passe ses vac' à l'orphelinat Pas d'potes, pas d'proches, j'imagine le p'tit gars Pour lui les cours sont pourris, l'ami, préfère faire jouir ta fille Est ce que t'as capté le topo ? J'parle pas d'coco, pour lui la vie Est cruelle comme Moriarty face à Sherlock Holmes Tu rêves, si tu veux l'douiller, akhi, sache que c'gosse A grandi comme un bandit transportant des gros loxons Tu peux l'croiser à Bondy avec ses homies et des gros pochetons Mais dans sa tête il est seul, abandonné par ses parents Recueilli par des peuls, il a enfin une maman ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire1</t>
+          <t>C'est l'Entourage, Guizmo Jazzy Bazz, Doum's, Eff Gee Qu'est-ce qui se passe ? Han ! Yo ! Yo, j'ai le cur gelé, je l'avoue J'ai fait l'deuil de l'amour car ça fait peur de près Pour l'heure je crée, fuck, j'reste dans ma fougue Rien d'essentiel, moi, j'me sens seul même dans la foule 23 ans dans c'monde, partout c'est la même On veut d'la pouffe et d'la fraîche, confond l'amour et la baise C'est donc ça la vie ? Seuls face à la tise Mes frères s'détruisent au cannabis disant que ça passera par la suite Mais rien du tout, nos possédés partent du bas Mes potes, tes potes sont possédés par Judas Viens pas m'souler, couz, quand j'baille sous les tours On rêve de baraque à la playa à s'la couler douce Ouais, s'casser d'ici, j'crois plus en rien dans ma tête J'ai confiance qu'en ma mère Nas Biggie J'ai peur souvent mais cool, j'reste fier Et comme Espiiem, j'suis seul pourtant j'étouffe ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire Face à mes tourments et mes peurs, moi, j'ai souvent été seul Avec mon sh-fla, c'est ve-gra, c'est troublant et c'est cheum Y'a du boucan et des jeunes dans ma ville, keufs dans la street Teush dans l'calcif, on a l'seum quand ça kicke Cousin, j'avertis les wacks, ma technique est fat Phrasé illégale, sapé stylé grave, j'apprécie les femmes Mais j'vais pas lâcher mon biff, t'auras qu'ma bite et mes couilles Salope, vite, fais les courses et va acheter mon disque Ça m'évitera d'vendre des barrettes de cannabis Les tapettes me baratinent, le sky sec me paralyse Faut que j'atteigne le paradis, j'ai peur de clamser et toi aussi J'ai peur d'dépasser le paroxysme de la folie qui m'habite À cause de la police qui m'la mise et d'leur politique raciste Ma gueule, on a brassé des sous qui dorment Lassés des groupies, venez pas casser les roubignoles ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire Ouais, seul dans ma bulle loin d'ce pays et d'ses pyramides Ces p'tites raclis qui causeront notre perte m'a dit un frère Coulibaly Ou comme ce gosse qui passe ses vac' à l'orphelinat Pas d'potes, pas d'proches, j'imagine le p'tit gars Pour lui les cours sont pourris, l'ami, préfère faire jouir ta fille Est ce que t'as capté le topo ? J'parle pas d'coco, pour lui la vie Est cruelle comme Moriarty face à Sherlock Holmes Tu rêves, si tu veux l'douiller, akhi, sache que c'gosse A grandi comme un bandit transportant des gros loxons Tu peux l'croiser à Bondy avec ses homies et des gros pochetons Mais dans sa tête il est seul, abandonné par ses parents Recueilli par des peuls, il a enfin une maman ×2 Solitaire aux paupières étranges Posé d'puis le sommet de la Cordillère des Andes Nos chemins sont tracés vers la mort, l'avenir est flou Et le passé est hardcore, ordinaire de solitaire1</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J'suis prêt depuis qu'j'suis né J'suis né, j'm'appelais Guizmo Izi Ouzou, sisi coucou Zigili Zone Sensible motherfucker J'ai le blues man Ça fait des années YW business hein ? Qui dit mieux ? Zigili Zone Sensible motherfucker J'ai le blues nigga Le blues man Ouais j'ai le blues man J'ai le blues nigga J'ai le blues nigga ain't nobody J'ai le blues nigga ain't nobody J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga ain't nobody Digili check, zigili Zone Sensible motherfuck La violence et la parano, bah ça fait partie d'mes pulsions J'ai sept ans, j'rentre chez moi et j'vois un avis d'expulsion C'est pas la faute de maman J'les croirai pas ces fils de putes jamais C'est eux qui nous mettent à la porte Alors c'est eux les fils de putes, voilà C'est pas la peine de raconter qu'j'suis trop vulgaire Moi, j'ai grandi dans l'ciment, du croco et des bulles d'air Du popo et des ulcères, ça a fracassé les anciens Mais y'a grave des légendes qui ont tabassé des gens biens Massacré les enceintes, ça fait des années qu'j'fais ça Du shit et un expresso, j'me mets à cracher des phases Ma mère a dit qu'j'étais béni, le marabout a dit l'contraire Et j't'avoue qu'c'était pénible de suivre les traces de mon père Pour lui l'rap, c'était pour les tapettes, il s'en battait la couille gauche Des braquages à la machette, des pétards dans sa fouille gros J'aime les p'tits frères, j'veux pas leur dire qu'c'est ça la vie Ce s'rait comme dire bismillah avant d'manger un salami merde Des défauts, j'en ai plein, j'me suis drogué dans les trains ouais À quatorze ans dans l'hall avec de l'héro dans mes mains bordel Putain d'merde, pourquoi t'as un flingue négro ? pourquoi ? C'est minimum dix ans si tu fais l'dingue négro merde On s'entretue, la télé nous vend le luxe Bah ouais, j'les ai entretenus mais c'était qu'une bande de shhh Elles veulent du biff mec, croquer dans ton bifteck hey Elle boit du champagne, elle fume des spliffs d'herbe J'ai vu le jour une nuit d'hiver, je suis froid de nature Tu veux test, ah ouais ? J'te baise ta mère, c'est la loi de la ue-r J'avais des potes, c'étaient des putes mais j'l'ai d'jà dit T'façon quand j'suis bourré, j'écoute les notes et j'me Appelle-moi Guiz, appelle-moi boss Appelle-moi Kris, appelle-moi Kross Appelle-moi fric, appelle-moi drogue Si t'entends clic, appelle la morgue motherfucker J'suis pas scato' mais j'bois la pisse du diable T'façon j's'rai jugé là-haut, qu'est c'que j'm'en branle du Tribunal ? Et puis j'le connais comme ma poche, ils m'y ont traité comme un chien La première fois, j'étais qu'un gosse avec une lame de chirurgien Bah ouais, j'ai toujours marché seul avec ma bière et mon joint Avec ma tête et mon poing, j'pratiquais le casser d'gueule Je sais c'que les tasses-pé veulent, j'ai fait l'tour de toutes les shnecks Verre de champ' et Tour Eiffel, ferme ta gueule et ouvre tes fesses Bah oui, c'est cru mais c'est la vérité tu l'sais J'ai dormi en chien dans la rue, j'pense que j'ai mérité l'succès wAllah J'ai jamais poucave, j'ai toujours moukave toujours En chien d'alcool dans ma cellule, j'avais le blues grave Cerveau tellement stressé, j'en fais de l'eczéma J'me r'vois à l'hôpital à cause d'l'alcool à faire des examens, putain Jeff est d'sortie, Tom Saw est d'sortie Et y'a Kalash qui garde la pêche dans une prison morbide Et ça va vite parce qu'on veut croquer les croquettes Du bédo dans les halls gros, j'ai l'cerveau dans les chaussettes, hey C'est pas d'ma faute si vous portez pas vos couilles nan Si vous voulez pas vous coucher, vous s'rez bordés par nos douilles, j't'ai dit C'est pas d'ma faute si vous portez pas vos couilles Si vous voulez pas vous coucher, vous s'rez bordés par nos douilles, Guizmo You might also like J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga ain't nobody J'ai le blues nigga ain't nobody J'ai le blues nigga Le blues mec J'ai le blues nigga ain't nobody Ain't nobody-body-body-body Ain't nobody Ain't nobody-body-body-body</t>
+          <t>J'suis prêt depuis qu'j'suis né J'suis né, j'm'appelais Guizmo Izi Ouzou, sisi coucou Zigili Zone Sensible motherfucker J'ai le blues man Ça fait des années YW business hein ? Qui dit mieux ? Zigili Zone Sensible motherfucker J'ai le blues nigga Le blues man Ouais j'ai le blues man J'ai le blues nigga J'ai le blues nigga ain't nobody J'ai le blues nigga ain't nobody J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga ain't nobody Digili check, zigili Zone Sensible motherfuck La violence et la parano, bah ça fait partie d'mes pulsions J'ai sept ans, j'rentre chez moi et j'vois un avis d'expulsion C'est pas la faute de maman J'les croirai pas ces fils de putes jamais C'est eux qui nous mettent à la porte Alors c'est eux les fils de putes, voilà C'est pas la peine de raconter qu'j'suis trop vulgaire Moi, j'ai grandi dans l'ciment, du croco et des bulles d'air Du popo et des ulcères, ça a fracassé les anciens Mais y'a grave des légendes qui ont tabassé des gens biens Massacré les enceintes, ça fait des années qu'j'fais ça Du shit et un expresso, j'me mets à cracher des phases Ma mère a dit qu'j'étais béni, le marabout a dit l'contraire Et j't'avoue qu'c'était pénible de suivre les traces de mon père Pour lui l'rap, c'était pour les tapettes, il s'en battait la couille gauche Des braquages à la machette, des pétards dans sa fouille gros J'aime les p'tits frères, j'veux pas leur dire qu'c'est ça la vie Ce s'rait comme dire bismillah avant d'manger un salami merde Des défauts, j'en ai plein, j'me suis drogué dans les trains ouais À quatorze ans dans l'hall avec de l'héro dans mes mains bordel Putain d'merde, pourquoi t'as un flingue négro ? pourquoi ? C'est minimum dix ans si tu fais l'dingue négro merde On s'entretue, la télé nous vend le luxe Bah ouais, j'les ai entretenus mais c'était qu'une bande de shhh Elles veulent du biff mec, croquer dans ton bifteck hey Elle boit du champagne, elle fume des spliffs d'herbe J'ai vu le jour une nuit d'hiver, je suis froid de nature Tu veux test, ah ouais ? J'te baise ta mère, c'est la loi de la ue-r J'avais des potes, c'étaient des putes mais j'l'ai d'jà dit T'façon quand j'suis bourré, j'écoute les notes et j'me Appelle-moi Guiz, appelle-moi boss Appelle-moi Kris, appelle-moi Kross Appelle-moi fric, appelle-moi drogue Si t'entends clic, appelle la morgue motherfucker J'suis pas scato' mais j'bois la pisse du diable T'façon j's'rai jugé là-haut, qu'est c'que j'm'en branle du Tribunal ? Et puis j'le connais comme ma poche, ils m'y ont traité comme un chien La première fois, j'étais qu'un gosse avec une lame de chirurgien Bah ouais, j'ai toujours marché seul avec ma bière et mon joint Avec ma tête et mon poing, j'pratiquais le casser d'gueule Je sais c'que les tasses-pé veulent, j'ai fait l'tour de toutes les shnecks Verre de champ' et Tour Eiffel, ferme ta gueule et ouvre tes fesses Bah oui, c'est cru mais c'est la vérité tu l'sais J'ai dormi en chien dans la rue, j'pense que j'ai mérité l'succès wAllah J'ai jamais poucave, j'ai toujours moukave toujours En chien d'alcool dans ma cellule, j'avais le blues grave Cerveau tellement stressé, j'en fais de l'eczéma J'me r'vois à l'hôpital à cause d'l'alcool à faire des examens, putain Jeff est d'sortie, Tom Saw est d'sortie Et y'a Kalash qui garde la pêche dans une prison morbide Et ça va vite parce qu'on veut croquer les croquettes Du bédo dans les halls gros, j'ai l'cerveau dans les chaussettes, hey C'est pas d'ma faute si vous portez pas vos couilles nan Si vous voulez pas vous coucher, vous s'rez bordés par nos douilles, j't'ai dit C'est pas d'ma faute si vous portez pas vos couilles Si vous voulez pas vous coucher, vous s'rez bordés par nos douilles, Guizmo J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga J'ai le blues nigga ain't nobody J'ai le blues nigga ain't nobody J'ai le blues nigga Le blues mec J'ai le blues nigga ain't nobody Ain't nobody-body-body-body Ain't nobody Ain't nobody-body-body-body</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jressemble de plus en plus à mon père, donc jméloigne de maman Jvois ses larmes elle a mal cest flagrant Ca fait trois semaines que jsuis pas rentré à la maison Ca lfait pas, jadmet que jsuis hanté par la pression Et jai peur pour mes ptits re-fré, ils sont avides de blé Ils pensent quà faire la merde depuis quils ont vu la street de près Oui je sais, quon a pas choisi la bonne voie À force de dire au revoir, on sait plus dire sil te plait Mais quest-ce que tu veux quon fasse ? Quon suce des bites et quon sla ferme !? Nous on effrite et on te la met Et cest pas de ma faute, moi aussi jveux le luxe, la gloire Comme tous mes frères qui sont postichés à rue d'la gouaille Phénoménale est ma vie, négro jai mal et jarrive Avec ma niac, mes gros pétards et ma tise Check, désolé maman, jai fauté gravement, dealé et volé dlargent Mais bientôt on va ssauver de la France My gun go boum boum My gun go boum boum My guns go boom, boom And yo' guns go pow pow! Cest la merde mon gars, restons calmes Question dtime, bientôt jbrasse comme un chef comptable Guette mon style, cool dans la vie, smooth dans la street Et quand jrap bah cest tout ltemps magique Couz dans ma team jai des niaxeurs de shit Quont des valeurs de kings et quont pas peur de vivre Car on sait que la mort peut arriver dici peu Dans la tête des spliffs de shit mont dissipé Fils, percé ou pas en fait jmen bats tant que je reste vrai Eh petit à qui tu parles à qui tu manques de respect ? Viens pas jouer les chefs, tes pas doué Avoue-le, jarrive cagoulé pour te tatouer les fesses Jécris mon blaze dessus, histoire que tu saches que le meilleur cest le ptit noir que tu clash Remballez vos phrasés à leau de rose Parlez à hautes doses, jsuis passé à autre chose You might also like Par où je commence ? Eh vas-y jsais même pas Jme vends pas comme une rette-ba, jappréhende que ma mère parte Voilà mon ressenti, pas de gros synthé Et jsais que le repenti nest pas un truc quil faut feinter Car la vie ensuite la mort, après la mort une autre vie Bon ou mauvais dossier, trié selon le profil Et pigeront que ceux qui doivent piger Le fait quils veulent nous voir figés nous donne le droit de picher Wesh tas pas compris quon est des fauves ? La maille nous fait défaut donc on doit faire les choses Tu croyais quoi ? Qujétais petit, qujétais nul ? Mais au final tu vois, jai du style, jai des burnes Charbonne comme celui qui taffe au fruits et légumes Et jaime pas trop les blondes donc jvais pister les brunes Et voilà, jaime les femmes et la drogue douce Gare à vous si jrentre dans les bacs je vous fuck tous 3</t>
+          <t>Jressemble de plus en plus à mon père, donc jméloigne de maman Jvois ses larmes elle a mal cest flagrant Ca fait trois semaines que jsuis pas rentré à la maison Ca lfait pas, jadmet que jsuis hanté par la pression Et jai peur pour mes ptits re-fré, ils sont avides de blé Ils pensent quà faire la merde depuis quils ont vu la street de près Oui je sais, quon a pas choisi la bonne voie À force de dire au revoir, on sait plus dire sil te plait Mais quest-ce que tu veux quon fasse ? Quon suce des bites et quon sla ferme !? Nous on effrite et on te la met Et cest pas de ma faute, moi aussi jveux le luxe, la gloire Comme tous mes frères qui sont postichés à rue d'la gouaille Phénoménale est ma vie, négro jai mal et jarrive Avec ma niac, mes gros pétards et ma tise Check, désolé maman, jai fauté gravement, dealé et volé dlargent Mais bientôt on va ssauver de la France My gun go boum boum My gun go boum boum My guns go boom, boom And yo' guns go pow pow! Cest la merde mon gars, restons calmes Question dtime, bientôt jbrasse comme un chef comptable Guette mon style, cool dans la vie, smooth dans la street Et quand jrap bah cest tout ltemps magique Couz dans ma team jai des niaxeurs de shit Quont des valeurs de kings et quont pas peur de vivre Car on sait que la mort peut arriver dici peu Dans la tête des spliffs de shit mont dissipé Fils, percé ou pas en fait jmen bats tant que je reste vrai Eh petit à qui tu parles à qui tu manques de respect ? Viens pas jouer les chefs, tes pas doué Avoue-le, jarrive cagoulé pour te tatouer les fesses Jécris mon blaze dessus, histoire que tu saches que le meilleur cest le ptit noir que tu clash Remballez vos phrasés à leau de rose Parlez à hautes doses, jsuis passé à autre chose Par où je commence ? Eh vas-y jsais même pas Jme vends pas comme une rette-ba, jappréhende que ma mère parte Voilà mon ressenti, pas de gros synthé Et jsais que le repenti nest pas un truc quil faut feinter Car la vie ensuite la mort, après la mort une autre vie Bon ou mauvais dossier, trié selon le profil Et pigeront que ceux qui doivent piger Le fait quils veulent nous voir figés nous donne le droit de picher Wesh tas pas compris quon est des fauves ? La maille nous fait défaut donc on doit faire les choses Tu croyais quoi ? Qujétais petit, qujétais nul ? Mais au final tu vois, jai du style, jai des burnes Charbonne comme celui qui taffe au fruits et légumes Et jaime pas trop les blondes donc jvais pister les brunes Et voilà, jaime les femmes et la drogue douce Gare à vous si jrentre dans les bacs je vous fuck tous 3</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Whoo ! Zone Sensible ! Diguilicheck ! Yonea Willy, Willy Yonea ! Et tu le sais ! Caravelle, Tour des Feujs ! Guizmo ! 9.2 ! Aaah ! J'me réveille en catastrophe avec un sale goût dans la gueule Impossible de m'rendormir, donc j'mets un niaksou dans la feuille Car je suis insomniaque... Faut qu'j'trouve une solution, même saoul le soir J'reste éveillé à en finir sur le sol Et comme tu connais la chanson, tu sais qu'après ça c'est l'coma Qu'Willy va m'enlever mes pompes et m'déposer sur le sofa Et la sieste sera de courte durée L'Insomniak n'a plus d'vie, donc Guiz' s'relèvera la nuit pour se tuer Bienvenue au club Pas dormir ça rend paro l'impression d'avoir des intrus aux seufs, yeah ! Fatigué, harassé par des problèmes de ouf Même les poches pleines de ouss' T'as mal au ventre quand le soleil se couche Tu sais qu'la nuit va être longue Que tes vieux démons vont passer t'voir Ouais la nuit va être longue Tu vas penser à tes proches qui sont partis, et même Penser à tes potes qui t'ont trahi Le sommeil tient à peu d'choses Du genre J'ai entendu un bruit, attends, j'vais voir Mais en fait c'est qu'un prétexte J'aime la nuit autant qu'j'la déteste Et j'ai l'impression qu'elle m'appelle You might also likeAaah ! Et si t'es insomniaque insomniaque T'as envie d'boire et d'fumer parce que t'es insomniaque Aaah ! Et ouais c'est improbable improbable Mais la nuit, t'as déjà hurlé parce qu'il t'reste qu'un seul niaks 8h du mat' Woo !, ma mère m'appelle en panique -Lève-toi vite, va à la douche, dépêche-toi d'mettre tes habits -Il s'passe quoi là ? Elle m'répond qu'j'ai rendez-vous avec la JAP Que c'est un rendez-vous important, faut qu'j'arrive à neuf heures du mat' En plus, il faut qu'j'prenne le R.E.R J'connais presque rien du jour à tous les coups, j'vais perdre mes repères Bref, j'prends ma douche, après ça j'me sape en vite fait Deux jours que j'suis pas sorti, je sais même pas l'temps qu'il fait Ça y est, j'suis arrivé sur le quai d'la gare J'vois que des zombies, ouais tous ces gens qui ont un vrai travail Y'a un soleil de plomb, j'suis aveuglé, j'ai mal au crâne J'étais mieux à m'fonce-dé dans mon sarcophage La défonce de la veille se fait sentir J'sais même pas où j'vais, mais je sais qu'il faudra mentir Enfin j'arrive, devant le bureau de la juge Elle me fait entrer, et même si je suis bourré, je l'assume J'm'assieds, lui raconte ma iv' Madame, j'fais du rap, j'suis plus dans la rue, j'ai des contrats d'artiste Lui parle de Because Music, d' Y W, de mes deux Planète Rap Elle tamponne, allez, j'trace Il est midi et Zeloui mappelle Ramène ta gueule et d'la bière Nique le déjeuner, viens on va rouler d'la zèb' J'arrive chez elle à treize heures, prêt a tout tiser Une heure de bière et d'beu-hèr', ça y est, j'commence a roupiller Même pas une heure de sieste, ce gros lard de Willy m'appelle Arrête de pioncer, et sois dans dix minutes à La Chapelle Merde T'es fonce-dé, t'as oublié qu'on a un show-case Grouille ton cul et dépêche-toi avant qu'on ait des problèmes C'est bon, j'ai checké tout le staff, il est 15 heures et les balances commencent à 16 Il faut se concentrer et oublier la bière Konex balance le son, j'fais deux, trois accapellas 17 heures, on a fini, j'fonce à l'hôtel, ça va se ver-la Trois heures plus tard, on s'tourne à la salle de concert Serré dans le van de tournée comme dans une boîte de conserve On descend, Bio et Alini m'escortent jusqu'à la scène De 21 à 23 cousin, on a foutu la merde On a mérité un peu de repos, on fonce au suite-hôtel avec les meufs et les potos On va s'enjailler toute la nuit avec des seufs J'suis sûr que demain c'est pareil, c'est pas du bluff J'me réveille en catastrophe avec un sale goût dans la gueule Impossible de m'rendormir, donc j'mets un niaksou dans la feuille Car je suis insomniaque...</t>
+          <t>Whoo ! Zone Sensible ! Diguilicheck ! Yonea Willy, Willy Yonea ! Et tu le sais ! Caravelle, Tour des Feujs ! Guizmo ! 9.2 ! Aaah ! J'me réveille en catastrophe avec un sale goût dans la gueule Impossible de m'rendormir, donc j'mets un niaksou dans la feuille Car je suis insomniaque... Faut qu'j'trouve une solution, même saoul le soir J'reste éveillé à en finir sur le sol Et comme tu connais la chanson, tu sais qu'après ça c'est l'coma Qu'Willy va m'enlever mes pompes et m'déposer sur le sofa Et la sieste sera de courte durée L'Insomniak n'a plus d'vie, donc Guiz' s'relèvera la nuit pour se tuer Bienvenue au club Pas dormir ça rend paro l'impression d'avoir des intrus aux seufs, yeah ! Fatigué, harassé par des problèmes de ouf Même les poches pleines de ouss' T'as mal au ventre quand le soleil se couche Tu sais qu'la nuit va être longue Que tes vieux démons vont passer t'voir Ouais la nuit va être longue Tu vas penser à tes proches qui sont partis, et même Penser à tes potes qui t'ont trahi Le sommeil tient à peu d'choses Du genre J'ai entendu un bruit, attends, j'vais voir Mais en fait c'est qu'un prétexte J'aime la nuit autant qu'j'la déteste Et j'ai l'impression qu'elle m'appelle Aaah ! Et si t'es insomniaque insomniaque T'as envie d'boire et d'fumer parce que t'es insomniaque Aaah ! Et ouais c'est improbable improbable Mais la nuit, t'as déjà hurlé parce qu'il t'reste qu'un seul niaks 8h du mat' Woo !, ma mère m'appelle en panique -Lève-toi vite, va à la douche, dépêche-toi d'mettre tes habits -Il s'passe quoi là ? Elle m'répond qu'j'ai rendez-vous avec la JAP Que c'est un rendez-vous important, faut qu'j'arrive à neuf heures du mat' En plus, il faut qu'j'prenne le R.E.R J'connais presque rien du jour à tous les coups, j'vais perdre mes repères Bref, j'prends ma douche, après ça j'me sape en vite fait Deux jours que j'suis pas sorti, je sais même pas l'temps qu'il fait Ça y est, j'suis arrivé sur le quai d'la gare J'vois que des zombies, ouais tous ces gens qui ont un vrai travail Y'a un soleil de plomb, j'suis aveuglé, j'ai mal au crâne J'étais mieux à m'fonce-dé dans mon sarcophage La défonce de la veille se fait sentir J'sais même pas où j'vais, mais je sais qu'il faudra mentir Enfin j'arrive, devant le bureau de la juge Elle me fait entrer, et même si je suis bourré, je l'assume J'm'assieds, lui raconte ma iv' Madame, j'fais du rap, j'suis plus dans la rue, j'ai des contrats d'artiste Lui parle de Because Music, d' Y W, de mes deux Planète Rap Elle tamponne, allez, j'trace Il est midi et Zeloui mappelle Ramène ta gueule et d'la bière Nique le déjeuner, viens on va rouler d'la zèb' J'arrive chez elle à treize heures, prêt a tout tiser Une heure de bière et d'beu-hèr', ça y est, j'commence a roupiller Même pas une heure de sieste, ce gros lard de Willy m'appelle Arrête de pioncer, et sois dans dix minutes à La Chapelle Merde T'es fonce-dé, t'as oublié qu'on a un show-case Grouille ton cul et dépêche-toi avant qu'on ait des problèmes C'est bon, j'ai checké tout le staff, il est 15 heures et les balances commencent à 16 Il faut se concentrer et oublier la bière Konex balance le son, j'fais deux, trois accapellas 17 heures, on a fini, j'fonce à l'hôtel, ça va se ver-la Trois heures plus tard, on s'tourne à la salle de concert Serré dans le van de tournée comme dans une boîte de conserve On descend, Bio et Alini m'escortent jusqu'à la scène De 21 à 23 cousin, on a foutu la merde On a mérité un peu de repos, on fonce au suite-hôtel avec les meufs et les potos On va s'enjailler toute la nuit avec des seufs J'suis sûr que demain c'est pareil, c'est pas du bluff J'me réveille en catastrophe avec un sale goût dans la gueule Impossible de m'rendormir, donc j'mets un niaksou dans la feuille Car je suis insomniaque...</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hey, yo, Guizmo, frérot, ça va ou quoi ? Ouais, tranquilou, hein On voulait t'parler d'un truc avec Oli Dis-moi tout Laisse-nous te dire un truc Dites-moi les gars Hey Guiz, faut qu'tu ralentisses, faut qu't'arrêtes la tise Trop d'weed, j'te l'dis, t'es plus trop attentif Faudrait qu'tu lâches le biz' même si t'as pas l'envie Que t'arrêtes d'avoir la haine quand les keufs passent en ville Relève-toi, faut pas qu'tu coules comme Atlantide Et tard le soir, j'vois qu'ça va pas seul sur ta banquise Et non, t'as pas menti, mais arrête, c'est bon Même si être comme ces cons, je sais bien qu'c'est ta hantise Y'a tous ces fans qui sont là pour toi qui t'applaudissent De l'amour, de l'espoir, nous c'est ça qu'on deale Et ton inspi' s'remplit seulement quand le flacon s'vide De toute façon, tu t'en bats les couilles, t'écoutes pas c'qu'on t'dis Pas c'qu'on t'dis, pas c'qu'on t'dis, pas c'qu'on t'dis, pas c'qu'on t'dis Hey Guiz, faut qu'tu ralentisses, ça fait longtemps qu'j't'en parle J'suis loin d'ta vie, mais tu m'touches quand j'ai ton son dans l'casque Et quand t'as l'blues, j'ai le même j'crois Le sentiment que tout s'écroule seul dans la foule, je l'ai eu plein d'fois Viens faire un tour chez nous, tu vas p't'êt'e t'ennuyer Mais ce soir, laisse un peu ta peine au fond d'un cendrier Check ton calendrier, non, refuse pas l'invit' Une guitare et un beat pour les choquer, p't'êt'e même qu'on f'ra un feat Faut qu'tu poses les armes là, mec, tu traînes tard le soir, admets Que c'est bizarre, souvent, tu rappes, mais tu nous parles jamais Me tarde d'entendre l'album, sors un truc qui les étonne J'essaierai d't'appeler si t'as pas encore changé d'téléphone D'téléphone, d'téléphone, d'téléphone, d'téléphone You might also like On vient pas du même monde Même monde On a tous une part de lumière et la même d'ombre Pas du même monde Même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde Même monde On a tous une part de lumière et la même d'ombre Pas du même monde Même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons Okay, les gars, j'ai pris note, vous avez pas tout à fait tort Mais on m'jugeait en criminel quand vous fêtiez le disque d'or J'suis pas envieux, j'suis fier de vous, j'suis fier de moi, j'suis fier de tout J'vais vous expliquer deux-trois trucs et on va faire d'une pierre deux coups Okay Je viens de là où on sait cacher nos misères Y'a pleins de rats en bas d'la tour et les cafards se prolifèrent Alors oui, c'est plus facile avec un spliff et une canette de bière Cinq heures du mat', ma mère se lève pour un salaire de merde Quand vous m'parlez, la sincérité, j'la sens Mais j'ai calmé, j'ai les p'tits, j'ai plus envie d'être absent J'avoue Ça fait plaisir que des frérots me disent la vérité Mais j'suis en deuil alors le soir obligé deffriter Nan Tu l'as bien dit Bigflo, j'écoute rien, j'm'en bats les couilles J'ai trop souffert, j'sens pas les coups À part tout ça, j'espère qu'on s'reverra bientôt Le temps d'les laisser méditer on met la cerise sur le gâteau On vient pas du même monde Pas du même monde On a tous une part de lumière et la même d'ombre Pas du même monde Pas du même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde On vient pas du même monde On a tous une part de lumière et la même d'ombre Pas du même monde Pas du même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde On vient pas du même milieu Milieu, milieu Mais on a eu les mêmes sous, les mêmes soucis, la même passion Passion, passion Une petite clope et au lit Guizmo, Bigflo et Oli Merci les frères Ça fait du bien la vérité, hein Ça fait du bien la vérité YW jusqu'à la mort mothafucka Mothafucka Yonea Willy, Willy Yonea business jusqu'à l'infini Jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini3</t>
+          <t>Hey, yo, Guizmo, frérot, ça va ou quoi ? Ouais, tranquilou, hein On voulait t'parler d'un truc avec Oli Dis-moi tout Laisse-nous te dire un truc Dites-moi les gars Hey Guiz, faut qu'tu ralentisses, faut qu't'arrêtes la tise Trop d'weed, j'te l'dis, t'es plus trop attentif Faudrait qu'tu lâches le biz' même si t'as pas l'envie Que t'arrêtes d'avoir la haine quand les keufs passent en ville Relève-toi, faut pas qu'tu coules comme Atlantide Et tard le soir, j'vois qu'ça va pas seul sur ta banquise Et non, t'as pas menti, mais arrête, c'est bon Même si être comme ces cons, je sais bien qu'c'est ta hantise Y'a tous ces fans qui sont là pour toi qui t'applaudissent De l'amour, de l'espoir, nous c'est ça qu'on deale Et ton inspi' s'remplit seulement quand le flacon s'vide De toute façon, tu t'en bats les couilles, t'écoutes pas c'qu'on t'dis Pas c'qu'on t'dis, pas c'qu'on t'dis, pas c'qu'on t'dis, pas c'qu'on t'dis Hey Guiz, faut qu'tu ralentisses, ça fait longtemps qu'j't'en parle J'suis loin d'ta vie, mais tu m'touches quand j'ai ton son dans l'casque Et quand t'as l'blues, j'ai le même j'crois Le sentiment que tout s'écroule seul dans la foule, je l'ai eu plein d'fois Viens faire un tour chez nous, tu vas p't'êt'e t'ennuyer Mais ce soir, laisse un peu ta peine au fond d'un cendrier Check ton calendrier, non, refuse pas l'invit' Une guitare et un beat pour les choquer, p't'êt'e même qu'on f'ra un feat Faut qu'tu poses les armes là, mec, tu traînes tard le soir, admets Que c'est bizarre, souvent, tu rappes, mais tu nous parles jamais Me tarde d'entendre l'album, sors un truc qui les étonne J'essaierai d't'appeler si t'as pas encore changé d'téléphone D'téléphone, d'téléphone, d'téléphone, d'téléphone On vient pas du même monde Même monde On a tous une part de lumière et la même d'ombre Pas du même monde Même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde Même monde On a tous une part de lumière et la même d'ombre Pas du même monde Même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons Okay, les gars, j'ai pris note, vous avez pas tout à fait tort Mais on m'jugeait en criminel quand vous fêtiez le disque d'or J'suis pas envieux, j'suis fier de vous, j'suis fier de moi, j'suis fier de tout J'vais vous expliquer deux-trois trucs et on va faire d'une pierre deux coups Okay Je viens de là où on sait cacher nos misères Y'a pleins de rats en bas d'la tour et les cafards se prolifèrent Alors oui, c'est plus facile avec un spliff et une canette de bière Cinq heures du mat', ma mère se lève pour un salaire de merde Quand vous m'parlez, la sincérité, j'la sens Mais j'ai calmé, j'ai les p'tits, j'ai plus envie d'être absent J'avoue Ça fait plaisir que des frérots me disent la vérité Mais j'suis en deuil alors le soir obligé deffriter Nan Tu l'as bien dit Bigflo, j'écoute rien, j'm'en bats les couilles J'ai trop souffert, j'sens pas les coups À part tout ça, j'espère qu'on s'reverra bientôt Le temps d'les laisser méditer on met la cerise sur le gâteau On vient pas du même monde Pas du même monde On a tous une part de lumière et la même d'ombre Pas du même monde Pas du même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde On vient pas du même monde On a tous une part de lumière et la même d'ombre Pas du même monde Pas du même monde Mais peu importe, tant qu'on bouge la tête sur les mêmes sons On vient pas du même monde On vient pas du même milieu Milieu, milieu Mais on a eu les mêmes sous, les mêmes soucis, la même passion Passion, passion Une petite clope et au lit Guizmo, Bigflo et Oli Merci les frères Ça fait du bien la vérité, hein Ça fait du bien la vérité YW jusqu'à la mort mothafucka Mothafucka Yonea Willy, Willy Yonea business jusqu'à l'infini Jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini, jusqu'à l'infini3</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>YW, Ouzou Guizi, han Yo Pardonnez tous mes péchés, j'sais pas combien j'en ai fait j'en ai fait, y en a eu plein et j'ai dû zapper en effet en effet Accoutumé à cette routine qui nous déplaît qui nous déplaît, en fait c'est jamais la quitter qui nous effraie ouais Tous c'que tu voles, on t'le reprend, si c'est pas l'cas, bah tu dépenses Dans des futilités comme aller tout niquer sur les Champs, j'y trouve rien d'alléchant J'éprouve un truc oppressant, mes doutes sont devenus pesant, jétouffe et ça me stresse En fait c'est le manque d'amour et l'orgueil qui nous ont blessés qui nous ont blessés C'est le poil, pas le mental qu'ils ont dressé bah ouais Le temps, c'est de l'argent, comprends qu'certains soient pressés tic-tac J'me surprends même à regarder l'heure dans les WC P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas dthème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un You might also like Y a pas qu'dans les cités qu'les gens s'font agresser, nan, nan Les p'tits bobos s'encanaillent une fois sous CC merde Quant à ma mère, le paradis est sous ses pieds est sous ses pieds Il faut d'la maille, j'sais pas c'que c'est qu'un sous-métier Mais j'sais qu'ici, ça défile à 200, ça fume la weed et le me-seu Nan c'est pas méchant même si les bleus traquent c'qu'on a caché entre les jambes Ils nous appellent les parasites, le genre duquel il faut s'méfier il faut s'méfier Encloisonnés dans des bâtiments délaissés délaissés On a pas peur de s'mouiller pourtant les cours on a séché on a séché Un prof c'est bien, c'est mieux un frère qui vient prêcher qui vient prêcher Plus d'une fois, par lÉtat, j'me suis senti lésé senti lésé Et j'en remets une couche parc'que ça m'a fait chier fait chier P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un Han, combien d'frérots aimaient s'fonce-der, malheureusement restés perchés À trop suivre le mouton, on séloigne du berger Faut vous y faire, nos vies c'est RAP et PSG, c'est viscéral un peu comme Guiz et VLG 92 messieurs, mesdames, oui c'est du sale mais c'est mes amis C'est mes gars du Sénégal et du Maghreb jusqu'au Mali Et j'déconseille fortement à quiconque de venir tester d'venir tester On a la dalle, si tu veux graille faut t'dépêcher faut t'dépêcher Évidemment à vivre comme ça, on est stressé on est stressé Certains s'réveillent en s'demandant où j'vais crécher ? Où j'vais crécher ? Papa m'faisait la morale fonce-dé sous Despe', si j'avais su, p't-être que je l'en aurais empêché P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumerà fumer Qu'un moment avec la mif, plus qu'une seconde à lutter à lutter J'ai fait un rêve, on était bien, on était plein on était plein, yeah Y a pas d'thème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre qu'un seul jour, qu'une cigarette à fumer plus qu'un Qu'un moment avec la mif, plus qu'une seconde à lutter plus qu'une seconde J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un Han, la vie un thème, boy YW jusquà l'infini Guizi Ouzou, pour les miens et pour les autres Comme d'hab frérot6</t>
+          <t>YW, Ouzou Guizi, han Yo Pardonnez tous mes péchés, j'sais pas combien j'en ai fait j'en ai fait, y en a eu plein et j'ai dû zapper en effet en effet Accoutumé à cette routine qui nous déplaît qui nous déplaît, en fait c'est jamais la quitter qui nous effraie ouais Tous c'que tu voles, on t'le reprend, si c'est pas l'cas, bah tu dépenses Dans des futilités comme aller tout niquer sur les Champs, j'y trouve rien d'alléchant J'éprouve un truc oppressant, mes doutes sont devenus pesant, jétouffe et ça me stresse En fait c'est le manque d'amour et l'orgueil qui nous ont blessés qui nous ont blessés C'est le poil, pas le mental qu'ils ont dressé bah ouais Le temps, c'est de l'argent, comprends qu'certains soient pressés tic-tac J'me surprends même à regarder l'heure dans les WC P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas dthème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un Y a pas qu'dans les cités qu'les gens s'font agresser, nan, nan Les p'tits bobos s'encanaillent une fois sous CC merde Quant à ma mère, le paradis est sous ses pieds est sous ses pieds Il faut d'la maille, j'sais pas c'que c'est qu'un sous-métier Mais j'sais qu'ici, ça défile à 200, ça fume la weed et le me-seu Nan c'est pas méchant même si les bleus traquent c'qu'on a caché entre les jambes Ils nous appellent les parasites, le genre duquel il faut s'méfier il faut s'méfier Encloisonnés dans des bâtiments délaissés délaissés On a pas peur de s'mouiller pourtant les cours on a séché on a séché Un prof c'est bien, c'est mieux un frère qui vient prêcher qui vient prêcher Plus d'une fois, par lÉtat, j'me suis senti lésé senti lésé Et j'en remets une couche parc'que ça m'a fait chier fait chier P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumer à fumer Qu'un moment avec la mif, plus qu'une seconde à lutter une seconde à lutter J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un Han, combien d'frérots aimaient s'fonce-der, malheureusement restés perchés À trop suivre le mouton, on séloigne du berger Faut vous y faire, nos vies c'est RAP et PSG, c'est viscéral un peu comme Guiz et VLG 92 messieurs, mesdames, oui c'est du sale mais c'est mes amis C'est mes gars du Sénégal et du Maghreb jusqu'au Mali Et j'déconseille fortement à quiconque de venir tester d'venir tester On a la dalle, si tu veux graille faut t'dépêcher faut t'dépêcher Évidemment à vivre comme ça, on est stressé on est stressé Certains s'réveillent en s'demandant où j'vais crécher ? Où j'vais crécher ? Papa m'faisait la morale fonce-dé sous Despe', si j'avais su, p't-être que je l'en aurais empêché P't-être qu'ils nous restent qu'un jour à vivre, qu'une cigarette à fumerà fumer Qu'un moment avec la mif, plus qu'une seconde à lutter à lutter J'ai fait un rêve, on était bien, on était plein on était plein, yeah Y a pas d'thème parc'que la vie en est un la vie en est un P't-être qu'ils nous restent qu'un jour à vivre qu'un seul jour, qu'une cigarette à fumer plus qu'un Qu'un moment avec la mif, plus qu'une seconde à lutter plus qu'une seconde J'ai fait un rêve, on était bien, on était plein on était plein Y a pas d'thème parc'que la vie en est un la vie en est un Han, la vie un thème, boy YW jusquà l'infini Guizi Ouzou, pour les miens et pour les autres Comme d'hab frérot6</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J'ai caché tous mes sous, non j'ai pas flambé À part faire du son, y'avait pas d'plan B Y reste le four mais j'veux pas r'tomber Je suis mal, tu as mal, allez katsande Si j'suis dans le club, c'est que pour le fric Cannabis et pistolet dans le froc Ils avaient trop mal, ils ont appelé les flics Incognito, j'suis rentré dans mon bloc J'sais qu't'as mal, j'sais qu't'as mal J'fais une apparition, j'prends un billet, normal J'suis à Kech-Marra, j'veux d'la Ketama Faut une quette-pla , on va fumer local On a fait des bagarres et t'étais même pas là Et puis quand on en parle et bah je sais qu't'as mal On a fait des bagarres et t'étais même pas là Et puis quand on en parle et bah je sais qu't'as mal J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui, j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal You might also like J'avais des potos qu'j'mettais bien J'étais trop naïf, ils m'ont fait du mal Marche ou crève ou bien reste en chien Dans la rue ou dans le rap, je suis respectable Déter comme Salou, j'dis pas j'me cache où J'suis sûrement planqué avec deux-trois voyous Mais tu comprends pas, tu ne peux pas me suivre Non toi t'es niata, t'es le deuxième gaou Comment on fait les gars, comment on fait ? Elle veut qu'je la colle mais j'peux pas la toucher J'lui dis J'suis marié, je ne veux pas coucher Elle me dit J'suis trempée mais j'suis déjà douchée Et j'sais qu'elle a mal, j'sais qu'elle a mal En plus, j'ai cramé ses Loubou, c'est des fausses Pas de mala quand je crame le cana Je n'suis pas de là-bas, je viens des quartiers pauvres J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal Le banquier me sourit, je rentre dans son bureau Petit café, et comment vont mes euros J'ai crié akha, maintenant j'ai du boulot Donc on parle montre Rolex ou bien Hublot On rigole, on est heureux Allez hop J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal</t>
+          <t>J'ai caché tous mes sous, non j'ai pas flambé À part faire du son, y'avait pas d'plan B Y reste le four mais j'veux pas r'tomber Je suis mal, tu as mal, allez katsande Si j'suis dans le club, c'est que pour le fric Cannabis et pistolet dans le froc Ils avaient trop mal, ils ont appelé les flics Incognito, j'suis rentré dans mon bloc J'sais qu't'as mal, j'sais qu't'as mal J'fais une apparition, j'prends un billet, normal J'suis à Kech-Marra, j'veux d'la Ketama Faut une quette-pla , on va fumer local On a fait des bagarres et t'étais même pas là Et puis quand on en parle et bah je sais qu't'as mal On a fait des bagarres et t'étais même pas là Et puis quand on en parle et bah je sais qu't'as mal J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui, j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal J'avais des potos qu'j'mettais bien J'étais trop naïf, ils m'ont fait du mal Marche ou crève ou bien reste en chien Dans la rue ou dans le rap, je suis respectable Déter comme Salou, j'dis pas j'me cache où J'suis sûrement planqué avec deux-trois voyous Mais tu comprends pas, tu ne peux pas me suivre Non toi t'es niata, t'es le deuxième gaou Comment on fait les gars, comment on fait ? Elle veut qu'je la colle mais j'peux pas la toucher J'lui dis J'suis marié, je ne veux pas coucher Elle me dit J'suis trempée mais j'suis déjà douchée Et j'sais qu'elle a mal, j'sais qu'elle a mal En plus, j'ai cramé ses Loubou, c'est des fausses Pas de mala quand je crame le cana Je n'suis pas de là-bas, je viens des quartiers pauvres J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal Le banquier me sourit, je rentre dans son bureau Petit café, et comment vont mes euros J'ai crié akha, maintenant j'ai du boulot Donc on parle montre Rolex ou bien Hublot On rigole, on est heureux Allez hop J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal J'ai pas d'permis mais j'ai des grosses bagnoles J'viole le périph' et j'suis sous alcool Tu l'as pisté dans la boîte mais c'est moi qu'elle veut Dix bouteilles dans le sceau, ah je crois qu'il pleut Et j'sais qu't'as mal oui j'sais qu't'as mal Et j'sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal Je sais qu't'as mal je sais qu't'as mal, je sais qu't'as mal</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hey yo casque sur la tête, stylo dans la poche J'écrivais dans le métro, t'écoutes Guizmo dans ta Porsche J'aime la musique depuis tout petit hein De la Première Consultation jusqu'à D'où je viens J'ai eu le coup de foudre il y a 15 ans Ils m'ont rendu ouf, à cause d'eux en CE2 j'ai mis un coup de boule à Vincent C'était mon truc le rap la soul J'écoute ça avec maman depuis le bac à sable Dans le salon y avait Aretha Franklin Qui dansait avec Michael, et y avait même sa frangine C'était la classe on avait Ray Charles au piano Oxmo posait dessus et j'étais raide dingue de chaque mots Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop Ouais j'ai ce truc dans la peau j'en ai des frissons Je m'imaginais le mic dans la paume c'était des visions Check comment je trise-mai maintenant Je glisse des refrains des rimes, laisse-moi kiffer l'instant Laisse-moi rapper, m'évader, zapper que les années, les aléas Sont sales et salées qu'on se sent seuls et qu'on se laisse aller Et quand c'est comme ça, il me faut une feuille et un beat-box Un peu d'inspi et je m en vais honorer le hip-hop J'rappais devant ma glace en faisant des têtes bizarres En rêvant d'être un MC et d'faire des vrais freestyles J'voulais raconter de belles histoires En fait, marquer mon temps et même l'Histoire Eh, tôt ou tard faudra qu'tu checkes mon style J'y pense devant ma glace car ici qu'est-ce qu'on s'caille Et aussi, faut qu'j'ramène mon posse Comme une petite devant sa glace, des fois je rêve qu'on s'taille You might also like Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop J'ai vu des vrais zouzs, des belles poufs, des schnecks oufs et des belles cougars Moi et mon crew on baise tout on fait la fête tout-par J'écris ma vie t'écris la mienne, qu'à cela ne tienne Pé-cho le teu-chi avec la zeb' et passe la fraîche Que j'investisse dans ma musique Faut qu'on réussisse dans ma tête c'est l'usine j'ai déjà pété des fusibles Il me faut des phases, des flows, un débit efficace Il faut que je froisse les mots et que j'écrive les images J'aime la création Être sur scène ou en open mic Voir le public, j'aime sa réaction Musique rap, musique que j'aime, musique que j'aimerai Jamais je ne te laisserai Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop1</t>
+          <t>Hey yo casque sur la tête, stylo dans la poche J'écrivais dans le métro, t'écoutes Guizmo dans ta Porsche J'aime la musique depuis tout petit hein De la Première Consultation jusqu'à D'où je viens J'ai eu le coup de foudre il y a 15 ans Ils m'ont rendu ouf, à cause d'eux en CE2 j'ai mis un coup de boule à Vincent C'était mon truc le rap la soul J'écoute ça avec maman depuis le bac à sable Dans le salon y avait Aretha Franklin Qui dansait avec Michael, et y avait même sa frangine C'était la classe on avait Ray Charles au piano Oxmo posait dessus et j'étais raide dingue de chaque mots Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop Ouais j'ai ce truc dans la peau j'en ai des frissons Je m'imaginais le mic dans la paume c'était des visions Check comment je trise-mai maintenant Je glisse des refrains des rimes, laisse-moi kiffer l'instant Laisse-moi rapper, m'évader, zapper que les années, les aléas Sont sales et salées qu'on se sent seuls et qu'on se laisse aller Et quand c'est comme ça, il me faut une feuille et un beat-box Un peu d'inspi et je m en vais honorer le hip-hop J'rappais devant ma glace en faisant des têtes bizarres En rêvant d'être un MC et d'faire des vrais freestyles J'voulais raconter de belles histoires En fait, marquer mon temps et même l'Histoire Eh, tôt ou tard faudra qu'tu checkes mon style J'y pense devant ma glace car ici qu'est-ce qu'on s'caille Et aussi, faut qu'j'ramène mon posse Comme une petite devant sa glace, des fois je rêve qu'on s'taille Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop J'ai vu des vrais zouzs, des belles poufs, des schnecks oufs et des belles cougars Moi et mon crew on baise tout on fait la fête tout-par J'écris ma vie t'écris la mienne, qu'à cela ne tienne Pé-cho le teu-chi avec la zeb' et passe la fraîche Que j'investisse dans ma musique Faut qu'on réussisse dans ma tête c'est l'usine j'ai déjà pété des fusibles Il me faut des phases, des flows, un débit efficace Il faut que je froisse les mots et que j'écrive les images J'aime la création Être sur scène ou en open mic Voir le public, j'aime sa réaction Musique rap, musique que j'aime, musique que j'aimerai Jamais je ne te laisserai Depuis l'âge de six ans, moi c'est Hip-Hop On vit Hip-Hop, on meurt Hip-Hop On a ça dans l'sang et dans l'iPod Nan c'est pas dansant, ça c'est Hip-Hop1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Qu'tu sois d'un tiek mal famé, crade ou bien qu'tu kiffes le son On t'kicke une p'tite leçon Nek, Malfrat, Mekra On nage au-delà des eaux en hommage aux braves héros Tant d'dommages collatéraux quand l'chômage colle à tes os Sans fromage en apéro, j'veux du martini Dry Mon équipe c'est comme les russes et mon parti mitraille A cause des bêtises et des dékis, pas de parcours stable Et fils s'tu m'croises avec des béquilles, c'est qu'on part pour s'tape On est des gens barrés, désemparés et sans pareil Parés pour s'emparer de samples tarés, pour un soutien j'en entends 100 parler Parait qu'je chante, arrête, je sens ta raie quand j'prête le flouze Parait qu'j'me sens carré, que j'sors qu'avec des bêtes de zouzes A c'qui parait, j'suis XXX, moi, j'veux l'euromillion XXX j'ai du talent comme Ronaldinho On est culottés, en collant ta culotte On bande sur ta culotte tass, chez moi c'est l'aventure comme dans Koh-Lanta Je découpe, déconne gars, boug ? Dans l'Rap, les bougs tu les cognes pour un bout tu déconnes grave XXX sur mon BlackB la came, oui j'te coupe comme Bouygues Télécom J'ai niqué les porcs j'attaque les mythos Tu guetteras pour eux j'tabasse au micro Tu viens armé, trace dans le métro, tu paieras mes 'tasses, j'en ai trop Du peura d'Mekra dans les gov's, du-per et j'm'évade dans l'alcool You might also like Si trop d'gars des halls tisent des dégâts des eaux qui Dégage, on té-sau vite, c'est pas le Trocadéro fils Ici les parents cèdent, ouais, l'Etat dame sans états d'âme Ici, c'est Paris Sud-Ouest, oblige, cours, gars Prend des risques XXX j'claque le disque tourne, j'rappe, ne dis pas tout bas XXX je déballe XXX XXX sous Jack XXX cavale, soupape Dans l'ze-quin, y'a trop d'vils-ci, joue pas l'homme ici J'rappe, le cro-mi siffle, lâche un gros missile et y'a homicide Alors dis-leur de plus faire les yeux doux Y'a qu'des au secours dans l'ciel XXX XXX comme un dealer, j'te visser le ze-dou J'suis là, j'me balance comme un diable, impossible que t'esquives Je reste clean et technique mes textes glissent donc j'existe Trop de mecs savent pas pe-ra, donc jleur dis miskine Ils m'font tièp' comme un renoi qui s'fait courser par mille skins Les MCs copient ma feuille comme si on était en contrôle Mais jai rien contre eux étant donné que j'ai le bon rôle Celui du mec qui glisse les phases, qui gifle les faces Qui deale des barrettes et nique les femmes Souvent, j'me sens seul comme une langue face à dix clitoris Et si un jour j'me fais fumer, le coupable cest Philippe Morris On déboule, le shneks mouillent et puis quelques fesses groovent Guizmo dans un open mic, pas très loin, ya S-Crew Yo ! Y'a quoi même ? C'est quoi l'blème, moi, j'aime Être un héroïque égoïste donc XXX moi-même C'est dur la vie, c'est sur, l'ami Et ce je te le jure sur ma vie et je te le jure sur Paris La vie m'a fais sourire, elle m'a fait souffrir A ton avis, est-ce pour rire qu'elle nous laisse pourrir ? Qu'elle nous laisse mourir ? En général, entre les souffrances Et les râles et l'indifférence générale, à tout ça, j'n'ai pas d'réponse Donc elle l'a trouve dans la défonce car dans la vie y'a des ronces, ne crois pas qu'j'dénonce Et sans me retourner, j'prends mon départ et j'fonce Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Rien d'dramatique, même signature pour 15 fanatiques On a grandi dans la de-mer, près des débrouillards pas près d'acteurs Fais bellek s'tu veux pas caner, sois pas l'gibier mais l'prédateur T'es pisté par les vils-ci vas-y surveille ton comportement C'est que derrière les barreaux, tu verras que tout confort te manque J'baise ton soutient, j'veux pas qu'mon peu-Ra plaise aux nazes Tu dis que 2-Zer c'est l'meilleur, tu n'sais pas qu'c'est un pléonasme Y'a le temps qui passe et personne change et j'vois les p'tits grandir Quand j'ai l'seum, j'déclenche la guerre, nan, j'ai pas l'esprit d'Gandhi J'arrive à m'évader, à partir loin sans la carte Navigo Et pourtant j'ai fait plus de trafic que les métros Parigos J'suis pas réglo, moi, j'compte battre des records du monde sans l'Guiness J'suis sanguinaire, pour un des miens qui meurt y'en a 100 qui naissent Écoute, man, avec oim, pas de coups bas Les douilles partent et font des trous d'balle Il est fou Phaal, il rappe tout-par avec ses toubabs Passe les bourgades des doigts, quand t'es sous crack Sous les tours, pas les gros loubars mettent des bounias et des boulards J'te clashe au boulevard, ton crew s'barre Une sorte de XXX sur ton boule qui laisse des rouges marques J'suis l'coupable, planter ton couz avec un coutelas Avec une teille de Jack, on m'appelle Booba Mais je n'suis pas un soûlard quand j'ai fumé la Buddha Mes t'laisse des courbatures au cerveau comme après un cours Man, reste cool et pousse pas Tu n'veux pas tes couilles pleines sous mes Puma V'là le routard, le roublard couleur black aux XXXX J't'emmène loin comme la douane ou le jeu du foulard C'est Jaz la menace, ces phases là me lassent Erratique j'éradique des tas d'races de naze Dès que je représente, pour des heureux présents J'y passe des heures, pressant, besoin d'euros pressant J'veux claquer ma thune, choper opus-opus De ceux qui disent Dig This comme Hocus Pocus Abracadabra, Jaz est un magicien, man J'fais des tours, et fais ner-tour et m'agite si y'a un mic' J'rappe que des couplets peace, découpe les pistes Et t'aimes ça, mes thèmes sales ont des goûts d'délice Pour grover tous les Walkman même sans piles 100 000 rimes s'empilent, j'cours trouver tous les wacks, man Même signature, quand j'rappe sur mixtape j'lâche que des phases patates Mon 16 mesure lancé sur un beat, ça peut être vite fatal Sur mon Skyblog ou sur le net, une punchline j'dépend du net T'es tendu, mec, à force d'danser sur c'son t'en as une tendinite J'vais tapiner les timpes, taquiner mon art Affiner mes feintes, XXX A la télé, on vous fait croire qu'Paris c'est beau, c'est propre Mais Luc Besson fabrique XXX c'est gore XXX ça pisse XXX ou donne son cul pour XXX Dans chaque quartier, y'a plus d'100 folles, tu t'étonnes d'voir XXX Dernière se-pha, y'a plus d'MC, sur c'son t'écoutes que L'Insolent MC d'ce freestyle, j'vous couche tous, j'ai plus l'temps Ouais, c'est lAnimal, du XIV, jarrive à fond la caisse Jai la patate, j'te pète ta tête sur le ceau-mor à Nekfeu Dans tout l'tiek's, quand on arrive ça pe-ra sans complexe Les putes se taisent et j'suis dans l'coin en train d'compter moi 'seille J'peura sans gène, ouais, cest parti, tas l'bonjour de la ur' Partout ça s'bute, j'te laisse ma bite en guise de signature On est 6000, vu qua Paname ya trop d'similitudes Les temps sont durs et pour 10 balles yen a certaines qui t'sucent Au THC, jen place une pour mon pote THO Tes nul à chier, en 12 mesures ton équipe est K.O Poto, t'sais quoi ? Avant d'parler, avale toutes tes ses-pha Stoppe le peu-Ra, tout est trop tard quand tentends Pa ! Pa ! Pa ! Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Rien d'dramatique, même signature pour 15 fanatiques A la recherche des gros billets XXX à la recherche des gros bonnets C'est pour les mecs comme moi sur l'terrain XXX assaisonner mes abonnés Pour me cautionner un peu XXX Une bouteille de Jack's D qui va m'faire décoller Maintenant c'est plus la prof, c'est la pute de proc qui va m'coller A Fleury, isolé XXX pour m'épauler XXX Quand tu sors du hebs traumatisé, tu pries pour plus jamais y retourner C'que j'raconte c'est vrai, c'est la street réalité C'que j'fume, c'que j'vends, c'que j'rappe c'est d'la qualité Laissez-moi passer, aucun diplôme pas d'BEP, pas d'CAP S-Crew, on va tout niquer On a les mêmes signatures mais on n'signe pas les mêmes chèques J'viens d'là où les mecs peinent à palper l'espèce Pèt et Heinekein sur l'ter-ter, tous ont prit perpèt' S'en sortir, tous l'espèrent mais la poisse tourne comme l'herpès Des gun shots aux caisses claires, enfin, bon, j'vais pas noircir l'tableau Tu veux m'comprendre, va comprendre les croquis d'Pablo Ici, les p'tits nabots n'visent pas au biz, l'héro ? Fils, gare aux vices de la street avant qu'ta vie s'dérobe Il faut qu'on s'tire d'la zone quitte à scred comme un bruit d'casserolle T'as kiffé Deen ? Bah, va t'fournir l'album Mais qu'est-ce qui s'passe, gars ? Capte, ça c'est mon wild style, fils Un flow qui castagne, du Rap sale qui froisse la piste Tout seul ou en équipe sur l'son, dans tous les cas j'm'applique Quand c'est en freestyle avec S-Crew, j'dédicace la clique J'ai la rime assassine qui embrase la scène Pour ceux qu'mon Rap fascine, qu'à cela n'tienne J'bouge la tête et casse la tienne, car j'ai les phases massives Les gars s'taillent de leurs places assises S'croient dans un drive-by mais, vite, s'assagissent MC, prends garde car j'crois qu'tu casses ta pipe Mon flow rend les rappeurs asthmatiques Au microphone, j't'assure, même si je brasse pas d'fric Ma voix c'est la même signature, Le Devin, c'est mon blaze, l'artiste Alors, ça y est, ça XXX, entre MC, ça casse des feats XXX mais on reste à la case départ Seine-et-Marne, Paris 15, le son est lourd, pas ricain On est puristes et tu l'entends, attirés par les paris dingues Si t'as misé sur nous t'as visé sur l'bon canasson C'est pas une pale copie, le Rap nouveau nous sert de paillasson Monte à l'assaut, c'est aussi efficace qu'une thalasso Fanatique à la source Tu dis qu'c'est naze, c'est qu't'es bercé par la FM Rien à foutre des têtes d'affiche, moi, le commerce m'effraie Pour tous ceux qui m'soutiennent, qui n'ont pas l'regard mossade J'en place une pour Rim'K, XXX, XXX Ma chance XXX XXX à croire que j'suis mal aimé, on m'analyse Le moral a mal, on maudit nos malheurs, je perds la mise Mêlé à nos chutes, XXX le vrai même dans nos mifs Nocives sont mes lèvres, le mal-être me XXX mes XXX XXX mais j'ai l'air mal sans mes lettres Et l'air et les rimes, XXX Des XXX et des XXX dans des rivières de XXX Des rêves des XXX, j'XXX règles et des grèves XXX adhérer J'vais m'désaltérer, j'vois des XXX et la presse s'altérer La XXX a une bonne vision d'elle Visionnaire, si t'as besoin d'level, appelle mon XXX3</t>
+          <t>Qu'tu sois d'un tiek mal famé, crade ou bien qu'tu kiffes le son On t'kicke une p'tite leçon Nek, Malfrat, Mekra On nage au-delà des eaux en hommage aux braves héros Tant d'dommages collatéraux quand l'chômage colle à tes os Sans fromage en apéro, j'veux du martini Dry Mon équipe c'est comme les russes et mon parti mitraille A cause des bêtises et des dékis, pas de parcours stable Et fils s'tu m'croises avec des béquilles, c'est qu'on part pour s'tape On est des gens barrés, désemparés et sans pareil Parés pour s'emparer de samples tarés, pour un soutien j'en entends 100 parler Parait qu'je chante, arrête, je sens ta raie quand j'prête le flouze Parait qu'j'me sens carré, que j'sors qu'avec des bêtes de zouzes A c'qui parait, j'suis XXX, moi, j'veux l'euromillion XXX j'ai du talent comme Ronaldinho On est culottés, en collant ta culotte On bande sur ta culotte tass, chez moi c'est l'aventure comme dans Koh-Lanta Je découpe, déconne gars, boug ? Dans l'Rap, les bougs tu les cognes pour un bout tu déconnes grave XXX sur mon BlackB la came, oui j'te coupe comme Bouygues Télécom J'ai niqué les porcs j'attaque les mythos Tu guetteras pour eux j'tabasse au micro Tu viens armé, trace dans le métro, tu paieras mes 'tasses, j'en ai trop Du peura d'Mekra dans les gov's, du-per et j'm'évade dans l'alcool Si trop d'gars des halls tisent des dégâts des eaux qui Dégage, on té-sau vite, c'est pas le Trocadéro fils Ici les parents cèdent, ouais, l'Etat dame sans états d'âme Ici, c'est Paris Sud-Ouest, oblige, cours, gars Prend des risques XXX j'claque le disque tourne, j'rappe, ne dis pas tout bas XXX je déballe XXX XXX sous Jack XXX cavale, soupape Dans l'ze-quin, y'a trop d'vils-ci, joue pas l'homme ici J'rappe, le cro-mi siffle, lâche un gros missile et y'a homicide Alors dis-leur de plus faire les yeux doux Y'a qu'des au secours dans l'ciel XXX XXX comme un dealer, j'te visser le ze-dou J'suis là, j'me balance comme un diable, impossible que t'esquives Je reste clean et technique mes textes glissent donc j'existe Trop de mecs savent pas pe-ra, donc jleur dis miskine Ils m'font tièp' comme un renoi qui s'fait courser par mille skins Les MCs copient ma feuille comme si on était en contrôle Mais jai rien contre eux étant donné que j'ai le bon rôle Celui du mec qui glisse les phases, qui gifle les faces Qui deale des barrettes et nique les femmes Souvent, j'me sens seul comme une langue face à dix clitoris Et si un jour j'me fais fumer, le coupable cest Philippe Morris On déboule, le shneks mouillent et puis quelques fesses groovent Guizmo dans un open mic, pas très loin, ya S-Crew Yo ! Y'a quoi même ? C'est quoi l'blème, moi, j'aime Être un héroïque égoïste donc XXX moi-même C'est dur la vie, c'est sur, l'ami Et ce je te le jure sur ma vie et je te le jure sur Paris La vie m'a fais sourire, elle m'a fait souffrir A ton avis, est-ce pour rire qu'elle nous laisse pourrir ? Qu'elle nous laisse mourir ? En général, entre les souffrances Et les râles et l'indifférence générale, à tout ça, j'n'ai pas d'réponse Donc elle l'a trouve dans la défonce car dans la vie y'a des ronces, ne crois pas qu'j'dénonce Et sans me retourner, j'prends mon départ et j'fonce Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Rien d'dramatique, même signature pour 15 fanatiques On a grandi dans la de-mer, près des débrouillards pas près d'acteurs Fais bellek s'tu veux pas caner, sois pas l'gibier mais l'prédateur T'es pisté par les vils-ci vas-y surveille ton comportement C'est que derrière les barreaux, tu verras que tout confort te manque J'baise ton soutient, j'veux pas qu'mon peu-Ra plaise aux nazes Tu dis que 2-Zer c'est l'meilleur, tu n'sais pas qu'c'est un pléonasme Y'a le temps qui passe et personne change et j'vois les p'tits grandir Quand j'ai l'seum, j'déclenche la guerre, nan, j'ai pas l'esprit d'Gandhi J'arrive à m'évader, à partir loin sans la carte Navigo Et pourtant j'ai fait plus de trafic que les métros Parigos J'suis pas réglo, moi, j'compte battre des records du monde sans l'Guiness J'suis sanguinaire, pour un des miens qui meurt y'en a 100 qui naissent Écoute, man, avec oim, pas de coups bas Les douilles partent et font des trous d'balle Il est fou Phaal, il rappe tout-par avec ses toubabs Passe les bourgades des doigts, quand t'es sous crack Sous les tours, pas les gros loubars mettent des bounias et des boulards J'te clashe au boulevard, ton crew s'barre Une sorte de XXX sur ton boule qui laisse des rouges marques J'suis l'coupable, planter ton couz avec un coutelas Avec une teille de Jack, on m'appelle Booba Mais je n'suis pas un soûlard quand j'ai fumé la Buddha Mes t'laisse des courbatures au cerveau comme après un cours Man, reste cool et pousse pas Tu n'veux pas tes couilles pleines sous mes Puma V'là le routard, le roublard couleur black aux XXXX J't'emmène loin comme la douane ou le jeu du foulard C'est Jaz la menace, ces phases là me lassent Erratique j'éradique des tas d'races de naze Dès que je représente, pour des heureux présents J'y passe des heures, pressant, besoin d'euros pressant J'veux claquer ma thune, choper opus-opus De ceux qui disent Dig This comme Hocus Pocus Abracadabra, Jaz est un magicien, man J'fais des tours, et fais ner-tour et m'agite si y'a un mic' J'rappe que des couplets peace, découpe les pistes Et t'aimes ça, mes thèmes sales ont des goûts d'délice Pour grover tous les Walkman même sans piles 100 000 rimes s'empilent, j'cours trouver tous les wacks, man Même signature, quand j'rappe sur mixtape j'lâche que des phases patates Mon 16 mesure lancé sur un beat, ça peut être vite fatal Sur mon Skyblog ou sur le net, une punchline j'dépend du net T'es tendu, mec, à force d'danser sur c'son t'en as une tendinite J'vais tapiner les timpes, taquiner mon art Affiner mes feintes, XXX A la télé, on vous fait croire qu'Paris c'est beau, c'est propre Mais Luc Besson fabrique XXX c'est gore XXX ça pisse XXX ou donne son cul pour XXX Dans chaque quartier, y'a plus d'100 folles, tu t'étonnes d'voir XXX Dernière se-pha, y'a plus d'MC, sur c'son t'écoutes que L'Insolent MC d'ce freestyle, j'vous couche tous, j'ai plus l'temps Ouais, c'est lAnimal, du XIV, jarrive à fond la caisse Jai la patate, j'te pète ta tête sur le ceau-mor à Nekfeu Dans tout l'tiek's, quand on arrive ça pe-ra sans complexe Les putes se taisent et j'suis dans l'coin en train d'compter moi 'seille J'peura sans gène, ouais, cest parti, tas l'bonjour de la ur' Partout ça s'bute, j'te laisse ma bite en guise de signature On est 6000, vu qua Paname ya trop d'similitudes Les temps sont durs et pour 10 balles yen a certaines qui t'sucent Au THC, jen place une pour mon pote THO Tes nul à chier, en 12 mesures ton équipe est K.O Poto, t'sais quoi ? Avant d'parler, avale toutes tes ses-pha Stoppe le peu-Ra, tout est trop tard quand tentends Pa ! Pa ! Pa ! Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Freestyle embrayé, laisse le talent briller Rien d'dramatique, même signature pour 15 fanatiques A la recherche des gros billets XXX à la recherche des gros bonnets C'est pour les mecs comme moi sur l'terrain XXX assaisonner mes abonnés Pour me cautionner un peu XXX Une bouteille de Jack's D qui va m'faire décoller Maintenant c'est plus la prof, c'est la pute de proc qui va m'coller A Fleury, isolé XXX pour m'épauler XXX Quand tu sors du hebs traumatisé, tu pries pour plus jamais y retourner C'que j'raconte c'est vrai, c'est la street réalité C'que j'fume, c'que j'vends, c'que j'rappe c'est d'la qualité Laissez-moi passer, aucun diplôme pas d'BEP, pas d'CAP S-Crew, on va tout niquer On a les mêmes signatures mais on n'signe pas les mêmes chèques J'viens d'là où les mecs peinent à palper l'espèce Pèt et Heinekein sur l'ter-ter, tous ont prit perpèt' S'en sortir, tous l'espèrent mais la poisse tourne comme l'herpès Des gun shots aux caisses claires, enfin, bon, j'vais pas noircir l'tableau Tu veux m'comprendre, va comprendre les croquis d'Pablo Ici, les p'tits nabots n'visent pas au biz, l'héro ? Fils, gare aux vices de la street avant qu'ta vie s'dérobe Il faut qu'on s'tire d'la zone quitte à scred comme un bruit d'casserolle T'as kiffé Deen ? Bah, va t'fournir l'album Mais qu'est-ce qui s'passe, gars ? Capte, ça c'est mon wild style, fils Un flow qui castagne, du Rap sale qui froisse la piste Tout seul ou en équipe sur l'son, dans tous les cas j'm'applique Quand c'est en freestyle avec S-Crew, j'dédicace la clique J'ai la rime assassine qui embrase la scène Pour ceux qu'mon Rap fascine, qu'à cela n'tienne J'bouge la tête et casse la tienne, car j'ai les phases massives Les gars s'taillent de leurs places assises S'croient dans un drive-by mais, vite, s'assagissent MC, prends garde car j'crois qu'tu casses ta pipe Mon flow rend les rappeurs asthmatiques Au microphone, j't'assure, même si je brasse pas d'fric Ma voix c'est la même signature, Le Devin, c'est mon blaze, l'artiste Alors, ça y est, ça XXX, entre MC, ça casse des feats XXX mais on reste à la case départ Seine-et-Marne, Paris 15, le son est lourd, pas ricain On est puristes et tu l'entends, attirés par les paris dingues Si t'as misé sur nous t'as visé sur l'bon canasson C'est pas une pale copie, le Rap nouveau nous sert de paillasson Monte à l'assaut, c'est aussi efficace qu'une thalasso Fanatique à la source Tu dis qu'c'est naze, c'est qu't'es bercé par la FM Rien à foutre des têtes d'affiche, moi, le commerce m'effraie Pour tous ceux qui m'soutiennent, qui n'ont pas l'regard mossade J'en place une pour Rim'K, XXX, XXX Ma chance XXX XXX à croire que j'suis mal aimé, on m'analyse Le moral a mal, on maudit nos malheurs, je perds la mise Mêlé à nos chutes, XXX le vrai même dans nos mifs Nocives sont mes lèvres, le mal-être me XXX mes XXX XXX mais j'ai l'air mal sans mes lettres Et l'air et les rimes, XXX Des XXX et des XXX dans des rivières de XXX Des rêves des XXX, j'XXX règles et des grèves XXX adhérer J'vais m'désaltérer, j'vois des XXX et la presse s'altérer La XXX a une bonne vision d'elle Visionnaire, si t'as besoin d'level, appelle mon XXX3</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L'entourage Guizmo 92 La Caravelle Yonea Willy C'est comme ça Tchek Défoncé à bloc aiiiiie Défoncé à bloc aiiiiie Défoncé à bloc poto j'aime la weed J'traîne la nuit ma mère dit que j'ken ma vie Mais j'blesse la rime comme personne j'performe Donc j'réponds à ma mère laisse moi faire ma zik Et là c'est l'conflit Doù viennent tes nouvelles nikes ? Je sais que t'es pas payé quand tu vas groové le mic Et là c'est la vérité y'a pas de sous là dedans Pour méditer j'roule un niaksou d'Afghan et j'pète aussi l'Muscador Ouais t'as capter j'veux planer toute l'année j'me bute à mort Et ca fait quelques dégats dans mon cerveau Chanson resto, pas de blems'pro y'a que des vrais gars dans mon réseau Négro j'ai les vices, les drogues et les bitchs Les potes et les risques et donner les biffs Sinon ca va pas le faire Tu connais l'équipe, des gros et des slims Faut stopper les flics, cousin j'te l'répète Sinon ca va pas le faire You might also like Si y'a pas d'shit on fait comment ? On fait pas Devant les schmits on sait pas Si y'a embrouille dans l'équipe, on sépare Ca traine tard dans ma ville Silhouette dans les halls Tiz' ou bed' dans les halls Deal ou ken dans les halls Les frères sont screds dans des pulls à capuche Fume la nature et s'bute à la dure C'est crue à la ruche les fréros sont speeds J'parle avec Skoulo, comme d'hab il a zé-do son spliff Quand j'ai zé-po mon style ils savent que c'est pas la même Des braves et des rats de la tess man c'est la Caravelle Nique les balances et les traîtres comme Meksa Peal Mec j't'abîme avec mes phalanges et mes iepds Et en passant j'ai les nerfs, rap crue et bizness On s'fait tous coffrer, le calcul est vite aif On est tous doté d'un Bac plus résine fraîche On déboule fauché on r'part que des bigs caisses On s'enfouraille dans nos tess, pour négocier Négro c'est l'Entourage dans vos mères Si y'a pas d'shit on fait comment ? On fait pas Devant les schmits on sait pas Si y'a embrouille dans l'équipe, on sépare Ca traine tard dans ma ville Silhouette dans les halls Tiz' ou bed' dans les halls Deal ou ken dans les halls Yeah on fait pas On sait pas Si y'a embrouille dans l'équipe, on sépare 92 Villeneuve la Garenne, les immeubles la galère La Caravelle cousin, zone sensible L'Entourage J'vous voit les mecs, c'est comme ça qu'on fait les choses Valenton, Les Polognes Ok, tu peux pas test, Guizmo, c'est moi1</t>
+          <t>L'entourage Guizmo 92 La Caravelle Yonea Willy C'est comme ça Tchek Défoncé à bloc aiiiiie Défoncé à bloc aiiiiie Défoncé à bloc poto j'aime la weed J'traîne la nuit ma mère dit que j'ken ma vie Mais j'blesse la rime comme personne j'performe Donc j'réponds à ma mère laisse moi faire ma zik Et là c'est l'conflit Doù viennent tes nouvelles nikes ? Je sais que t'es pas payé quand tu vas groové le mic Et là c'est la vérité y'a pas de sous là dedans Pour méditer j'roule un niaksou d'Afghan et j'pète aussi l'Muscador Ouais t'as capter j'veux planer toute l'année j'me bute à mort Et ca fait quelques dégats dans mon cerveau Chanson resto, pas de blems'pro y'a que des vrais gars dans mon réseau Négro j'ai les vices, les drogues et les bitchs Les potes et les risques et donner les biffs Sinon ca va pas le faire Tu connais l'équipe, des gros et des slims Faut stopper les flics, cousin j'te l'répète Sinon ca va pas le faire Si y'a pas d'shit on fait comment ? On fait pas Devant les schmits on sait pas Si y'a embrouille dans l'équipe, on sépare Ca traine tard dans ma ville Silhouette dans les halls Tiz' ou bed' dans les halls Deal ou ken dans les halls Les frères sont screds dans des pulls à capuche Fume la nature et s'bute à la dure C'est crue à la ruche les fréros sont speeds J'parle avec Skoulo, comme d'hab il a zé-do son spliff Quand j'ai zé-po mon style ils savent que c'est pas la même Des braves et des rats de la tess man c'est la Caravelle Nique les balances et les traîtres comme Meksa Peal Mec j't'abîme avec mes phalanges et mes iepds Et en passant j'ai les nerfs, rap crue et bizness On s'fait tous coffrer, le calcul est vite aif On est tous doté d'un Bac plus résine fraîche On déboule fauché on r'part que des bigs caisses On s'enfouraille dans nos tess, pour négocier Négro c'est l'Entourage dans vos mères Si y'a pas d'shit on fait comment ? On fait pas Devant les schmits on sait pas Si y'a embrouille dans l'équipe, on sépare Ca traine tard dans ma ville Silhouette dans les halls Tiz' ou bed' dans les halls Deal ou ken dans les halls Yeah on fait pas On sait pas Si y'a embrouille dans l'équipe, on sépare 92 Villeneuve la Garenne, les immeubles la galère La Caravelle cousin, zone sensible L'Entourage J'vous voit les mecs, c'est comme ça qu'on fait les choses Valenton, Les Polognes Ok, tu peux pas test, Guizmo, c'est moi1</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>YW Guiziouzou, bang, bang Je nai plus rien à perdre, plus rien ne peut matteindre C'est haram d'écrire au Père Noël, moi j'l'ai quand même fait Il m'a rien ramené, j'ai commis des méfaits Posé en bas d'ta cité, encore un décès On a grandi dans la rue, gros on sait c'que c'est Merde, quand j'étais en chien t'étais pas là Et vas-y mais c'est pas lourd, j'étais dans la cage d'escalier hein Faisait froid, j'dormais tout seul Du placard, des bagarres, j'ai jamais connu la douceur Bah ouais j'étais dans la rue, j'lisais pas d'comics J'ai pris mon exemple sur Malcolm X Et bientôt, j'me rebarre en Africa J'vais laisser mes feuilles, mon shit et mon briquet Les p'tits d'ma tess', bah ils sont tous tricards Ils traînent de Valenton jusqu'à Riquet J'leur ai dis tchiguiritchek, parce qu'on a des biguiribang Des biguiriflingues, et des big biguiridingues Pas de balances dans le gang et celui qui l'fait on le saigne On a la patate de Bruce Lee et le coup d'pied de Jackie Chan aarrhouu J'viens d'un endroit où on n'a pas d'lovés J'viens d'un endroit où y'a pas d'lovers J'ai des nouveaux cousins, j'les avais jamais vu Ils m'ont appelé parce que j'étais en cover Et toi, tu croyais m'faire mais j'vais t'manger tout cru C'est moi l'boss de fin quand y'a écrit game over You might also like Tout ce que nous devons décider, c'est que faire du temps qui nous est imparti J'fume un spliff avec quelques potes Dans ma street y'a d'la bête de drogue Depuis qu'j'ai seize ans moi j'le baise le proc' J'fais du sale mais je reste propre J'fume un spliff avec quelques potes ouais, ouais Dans ma street y'a d'la bête de drogue 9-4 Depuis qu'j'ai seize ans moi j'le baise le proc' Valenton J'fais du sale mais je reste propre Ouzou, ouzou Moi, dans mes textes j'te mens pas, tu peux d'mander à Mobi Pour dealer ou pour voler, on était toujours OP J'gardais le shit de Charly, j'ravitaillais les drogués J'rentrais chez toi et j'me barrais un peu comme Mary Poppins On sait pas faire d'la magie mais on sait multiplier Ici, on est tous grillés, on s'en fout d'tes p'tits billets Cash flow, Flash-Ball dans les gencives 9-4 Bastos, grave chaud, j'en ai dans l'slip Qu'est-c'tu vas faire si jamais on t'fait un guet-apens ? Personnellement, j'ai déjà posé mon testament C'est pour mon fils et ma femme, j'voulais leur donner la lune Moi, j'ai qu'ma bite et ma lame, moi, j'ai qu'mon rap et ma plume Un poto bloqué dans l'Sud à cause de la prison Mais si y'a des escrocs, c'est qu'il y a des pigeons Je savais qu'j'y arriverais, j'en avais des visions Vingt kilos en sacs de riz quand on allait en mission RER C, bibliothèque, à l'époque je lisais Et j'suis parti en couille quand j'suis passé au chichon Et allez barre toi d'la cité, c'est c'que les ma' me disaient J'ai commencé le rap, j'ai arrêté les litrons Et ouais, j'écris des rimes de bandit Tu bédaves sur ma be-her, poto tu va bader Y'a des bons qui sont bé-tom pour des que-tru bidons Et ceux qu'on verra jamais parce qu'ils s'sont faits plomber J'fume un spliff avec quelques potes Dans ma street y'a d'la bête de drogue Depuis qu'j'ai seize ans moi j'le baise le proc' J'fais du sale mais je reste propre J'fume un spliff avec quelques potes ouais, ouais Dans ma street y'a d'la bête de drogue 9-4 Depuis qu'j'ai seize ans moi j'le baise le proc' Valenton J'fais du sale mais je reste propre Ouzou, ouzou Tout ce que nous devons décider, c'est que faire du temps qui nous est imparti</t>
+          <t>YW Guiziouzou, bang, bang Je nai plus rien à perdre, plus rien ne peut matteindre C'est haram d'écrire au Père Noël, moi j'l'ai quand même fait Il m'a rien ramené, j'ai commis des méfaits Posé en bas d'ta cité, encore un décès On a grandi dans la rue, gros on sait c'que c'est Merde, quand j'étais en chien t'étais pas là Et vas-y mais c'est pas lourd, j'étais dans la cage d'escalier hein Faisait froid, j'dormais tout seul Du placard, des bagarres, j'ai jamais connu la douceur Bah ouais j'étais dans la rue, j'lisais pas d'comics J'ai pris mon exemple sur Malcolm X Et bientôt, j'me rebarre en Africa J'vais laisser mes feuilles, mon shit et mon briquet Les p'tits d'ma tess', bah ils sont tous tricards Ils traînent de Valenton jusqu'à Riquet J'leur ai dis tchiguiritchek, parce qu'on a des biguiribang Des biguiriflingues, et des big biguiridingues Pas de balances dans le gang et celui qui l'fait on le saigne On a la patate de Bruce Lee et le coup d'pied de Jackie Chan aarrhouu J'viens d'un endroit où on n'a pas d'lovés J'viens d'un endroit où y'a pas d'lovers J'ai des nouveaux cousins, j'les avais jamais vu Ils m'ont appelé parce que j'étais en cover Et toi, tu croyais m'faire mais j'vais t'manger tout cru C'est moi l'boss de fin quand y'a écrit game over Tout ce que nous devons décider, c'est que faire du temps qui nous est imparti J'fume un spliff avec quelques potes Dans ma street y'a d'la bête de drogue Depuis qu'j'ai seize ans moi j'le baise le proc' J'fais du sale mais je reste propre J'fume un spliff avec quelques potes ouais, ouais Dans ma street y'a d'la bête de drogue 9-4 Depuis qu'j'ai seize ans moi j'le baise le proc' Valenton J'fais du sale mais je reste propre Ouzou, ouzou Moi, dans mes textes j'te mens pas, tu peux d'mander à Mobi Pour dealer ou pour voler, on était toujours OP J'gardais le shit de Charly, j'ravitaillais les drogués J'rentrais chez toi et j'me barrais un peu comme Mary Poppins On sait pas faire d'la magie mais on sait multiplier Ici, on est tous grillés, on s'en fout d'tes p'tits billets Cash flow, Flash-Ball dans les gencives 9-4 Bastos, grave chaud, j'en ai dans l'slip Qu'est-c'tu vas faire si jamais on t'fait un guet-apens ? Personnellement, j'ai déjà posé mon testament C'est pour mon fils et ma femme, j'voulais leur donner la lune Moi, j'ai qu'ma bite et ma lame, moi, j'ai qu'mon rap et ma plume Un poto bloqué dans l'Sud à cause de la prison Mais si y'a des escrocs, c'est qu'il y a des pigeons Je savais qu'j'y arriverais, j'en avais des visions Vingt kilos en sacs de riz quand on allait en mission RER C, bibliothèque, à l'époque je lisais Et j'suis parti en couille quand j'suis passé au chichon Et allez barre toi d'la cité, c'est c'que les ma' me disaient J'ai commencé le rap, j'ai arrêté les litrons Et ouais, j'écris des rimes de bandit Tu bédaves sur ma be-her, poto tu va bader Y'a des bons qui sont bé-tom pour des que-tru bidons Et ceux qu'on verra jamais parce qu'ils s'sont faits plomber J'fume un spliff avec quelques potes Dans ma street y'a d'la bête de drogue Depuis qu'j'ai seize ans moi j'le baise le proc' J'fais du sale mais je reste propre J'fume un spliff avec quelques potes ouais, ouais Dans ma street y'a d'la bête de drogue 9-4 Depuis qu'j'ai seize ans moi j'le baise le proc' Valenton J'fais du sale mais je reste propre Ouzou, ouzou Tout ce que nous devons décider, c'est que faire du temps qui nous est imparti</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Listen to this track bitch On va plier ça Le dièse est illégal Ça vient d'panam et pas des USA Ça pue et ça Ça pue les sales Guizi, Guizi, Guizi, Guizi... Willy me casse les couilles, écrit écrit Who's bad black and white, j'suis llé-gri llé-gri J'ai d'la vodka et d'la bière, dans la vessie vessie Tu m'kiffes mais tu m'as jamais vue, j'suis le yéti yéti J'suis précis précis, me dis pas fais ci, fais ça J'ai ralenti le shit, merci Fayçal En procès avec le soleil, j'suis trop brillant Tu peux faire tes saletés sous la couette mais Dieu est omniscient Parlez pas de moi ça va saigner J'vois que t'as le cash tu vas payer Nique sa mère la taule là-bas Y'a des tas de hasch et la télé T'as des carabines, mais tu baratines Mais je t'analyse et vois qu't'es un mytho On aime pas la frime que des BADABIM Et crois moi que tu dors aussitôt You might also like T'as baisé ta mère et maintenant c'est ta fe-meu Ou ta reu-sse, ou ta tasse-pé ou comme tu veux Que des punchlines, négro viens fouiller mes poubelles Rah, Rah, Rah Ta mère ne parle même plus la bouche pleine Wouh, wouh Ta mère ne parle même plus la bouche... Elle ne parle plus la... Elle ne parle plus la bouche pleine Wouh, wouh Sur ma vie, qu'elle ne parle plus la bouche... Elle ne parle plus la... Elle ne parle plus la bouche pleine Anh, fait chier, fait chier Ma beuh est comme l'école, séchée Garde à vue, les menottes se serrent Ça tombe bien j'avais grand besoin d'redescendre sur terre J'suis en poster, dans la chambre du commissaire Nique sa mère si j'dois m'relancer négro j'te vi-ser Normal Les jugements, les filatures, j'm'en bat les couilles J'ai décroché une signature, hallelujah T'as les boules, vas t'inscrire au bowling Recherches un boulot, parce que franchement t'es pourri Tu cherches une salle ? J'te conseille le moving Ou achètes un 11-43 pour qu'ils dansent le boogie Soeurette, je sais qu'suis pas l'plus beau du monde Mais quand tu be-flam avec ton tissage franchement c'est la honte J'suis scred, mais indispensable, Scottie Pippen Tu deviens insupportable, Justin Bieber Tout est flou dans ma tête Banlieue dégueulasse, banlieue dégueulasse Parce qu'il y'a qu'des fous dans ma tess' Banlieue dégueulasse, banlieue dégueulasse Villeneuve Guizi, Guizi J'ai pris l'seum</t>
+          <t>Listen to this track bitch On va plier ça Le dièse est illégal Ça vient d'panam et pas des USA Ça pue et ça Ça pue les sales Guizi, Guizi, Guizi, Guizi... Willy me casse les couilles, écrit écrit Who's bad black and white, j'suis llé-gri llé-gri J'ai d'la vodka et d'la bière, dans la vessie vessie Tu m'kiffes mais tu m'as jamais vue, j'suis le yéti yéti J'suis précis précis, me dis pas fais ci, fais ça J'ai ralenti le shit, merci Fayçal En procès avec le soleil, j'suis trop brillant Tu peux faire tes saletés sous la couette mais Dieu est omniscient Parlez pas de moi ça va saigner J'vois que t'as le cash tu vas payer Nique sa mère la taule là-bas Y'a des tas de hasch et la télé T'as des carabines, mais tu baratines Mais je t'analyse et vois qu't'es un mytho On aime pas la frime que des BADABIM Et crois moi que tu dors aussitôt T'as baisé ta mère et maintenant c'est ta fe-meu Ou ta reu-sse, ou ta tasse-pé ou comme tu veux Que des punchlines, négro viens fouiller mes poubelles Rah, Rah, Rah Ta mère ne parle même plus la bouche pleine Wouh, wouh Ta mère ne parle même plus la bouche... Elle ne parle plus la... Elle ne parle plus la bouche pleine Wouh, wouh Sur ma vie, qu'elle ne parle plus la bouche... Elle ne parle plus la... Elle ne parle plus la bouche pleine Anh, fait chier, fait chier Ma beuh est comme l'école, séchée Garde à vue, les menottes se serrent Ça tombe bien j'avais grand besoin d'redescendre sur terre J'suis en poster, dans la chambre du commissaire Nique sa mère si j'dois m'relancer négro j'te vi-ser Normal Les jugements, les filatures, j'm'en bat les couilles J'ai décroché une signature, hallelujah T'as les boules, vas t'inscrire au bowling Recherches un boulot, parce que franchement t'es pourri Tu cherches une salle ? J'te conseille le moving Ou achètes un 11-43 pour qu'ils dansent le boogie Soeurette, je sais qu'suis pas l'plus beau du monde Mais quand tu be-flam avec ton tissage franchement c'est la honte J'suis scred, mais indispensable, Scottie Pippen Tu deviens insupportable, Justin Bieber Tout est flou dans ma tête Banlieue dégueulasse, banlieue dégueulasse Parce qu'il y'a qu'des fous dans ma tess' Banlieue dégueulasse, banlieue dégueulasse Villeneuve Guizi, Guizi J'ai pris l'seum</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Han, han, han, chiguiricheck Bande d'enfoirés, Guizmo, L'Entourage Yo, j'en ai rien a foutre de c'qu'ils pensent de moi, j'bouge en silence Dans des douces ambiances et j'doute en priant le soir Et tous les dits-ban se marrent quand un flic crêve Quand ta street créd' est validée, quand t'as pris le pez Ouais le business et l'amitié dans nos big tess Ont vite aif' de nous lâcher ou de s'cacher dans nos cris de guerre Fâcher dans nos vie ternes Soigné par OCB, quand nos CV ne sont pas classés dans vos critères Alors j'ai blindé l'spliff et j'vais pas plaindre les flics Parce que j'suis toujours dans l'lot quand ils épinglent l'équipe Et puis j'suis simple et vif, toujours chaud pour fliguer l'beat Parce que le rap et moi on se suit un peu comme 5 et 6 Que des intrépides dans les yeux de ma bande Tu peux voir de la rage car on est traité comme des imbéciles Ou des singes des villes et c'est pire quand les oints-j défilent Le destin est gris et c'est jamais comme la fin des films Et j'suis indécis, j'investis dans léphémère J'vois trop d'Messi et d'prestige dans les ténèbres Méprisant et vé-ner, j'vous avais prévenu que mes écris m'rendraient célèbre Mais c'est la même rengaine, à gratter des phases Obligé d'ramener mes gars et causer grave des dégâts Mais qu'est-ce tu veux, malheureusement nos vies c'est a-ç Trop souvent on s'fait péter et l'commis d'office est naze Meuf, taff, keuf, ça nous prend la tête Plonger dans nos soucis y'a qu'le teuchi qui nous tend la perche You might also like Bus, métro, han, han, han, han, han Avec mon rosé Chiguiricheck, bande d'enfoirés, yo J'gratte des dingueries quand j'ai tisé, pas d'lingeries dans les clips J'parle des indic' et des kisdés, flingueries dans les streets J'ai faim, si dans les six mois qui viennent, y a un chèque à prendre On mène la danse, baise la France mais ça s'fait attendre Là y a des textes à vendre, des bêtes d'afghans Et si tu penses à me ken d'avance, j't'assure que j'te pète ta jambe Jette ta flambe, fais attention Qu'est ce t'attends pour t'mettre ça dans l'fion ? Pendant que j'tté-gra l'sample, moi j'suis un méga-cancre Mais archi rusé, quand j'suis parti fumer, j'dois gérer mes absences Les pétasses tentent d'être à temps pour m'ajouter sur Face J't'ai pas attends deux secondes et tu vas bouffer du sexe bitch J'groove et j'suis technique qu'est ce tu croyais ? Mec j'suis faya, en manque de moyen on reste loyaux A nos spliffs, à nos bières, j'atomise ma pauvre tête Vaporise l'atmosphère, bande d'enfoirés, eh, ouais Ah, chiguiricheck, ça fait, ah, ah, ah Ah, ah, ah, ah, ah, ah Que des dingueries lyricales dans mes textes Qui bicravent dans les tess' Tous les mecs en chiens, ouais qui finissent mal dans les hèbs Irritables en détresse Ça fait grave longtemps faut que j'marque mon temps Que j'lâche mon chanvre mais j'aime voir la tise et le hasch se combiner Mec ça m'attriste de voir mon cas se compliquer Mes cailles' se font fliqués Nique la bac, qu'ils s'arrachent C'est pas demain que les cht'ars me feront flipper Comme cette garde à v' avec Kas et les autres Questionnés par l'OPJ parce qu'on a cassé des os Les 'tasses et les faux, les schlass et les fauves Ça fait péter les plombs comme mes phases et mes flow, ouais Viens dans nos fêtes dansantes, c'est pas du french cancan Y'a que des mecs en sang qui ken l'ambiance, cousin Ouais c'est Guiz, Ici l'quotidien, bah c'est buis', drogue et tasse-pé Et tu l'sais, chiguiricheck, yeah, yeah Tu sais avec qui j'marche, Pascal Ce-ce, Aurélie, À bout portant, mon 'soss Willy l'barge, Yonea, quatre-vingt douze , Booba, Mala, vous dites quoi les mecs Ça fait, ah, ah, han Yo, j'marche avec les triples, ma Fssshh T'as compris, ma barrette j'effrite La BAC elle est speed, ça se complique, la son-pri Sous mon couvre-chef, j'suis un trouble-fête A bon prix ça combine dans les fours de tess Ou devrais-je dire quartiers difficiles parqués loin tout Par l'génie civil, ça fait 15 tours Je crois bien que le truc c'est ça C'est incessant et puis la rue c'est grave Dès 15-16 ans nous on va se buter le crâne Me parle pas de travailler, j'me lasse pas de batailler Mais j'craque rien que de voir tous ces lascars se pavaner Comme si ils avaient des affaires A l'école on les voyait faire la fête Et on les rackettait sa mère J'ai toujours marché près de la tess Et ça les vrais l'attestent Caravelle, Villeneuve Si tu veux passer faire de la fraîche Moi je suis cramé c'est la merde Mais j'vais pas baisser la tête On va m'caresser la verge Puis j'vais me barrer vers la mer Avec ma bières et ma cigarette de cannabis Pour rester calme quand les p'tites tapettes me baratinent La zik, la tess me paralyse Nique sa race, nous on vise la liasse Et que les types atteignent le paradis Si j'ramène le Bacardi, paie ta conso Nous on fait ça pour de vrai les autres gangsta sont faux Et puis j'suis fonce-dé, alors je squatte sur le canapé Biatch, à peine j'te doigte, tu veux pas m'lâcher Fissa, j'écris des phases tu peux pas capter Timale, si t'es trop naze tu peux pas clasher Et j'écris ça dans un élan de colère Parce qu'on veut défendre nos frères et puis détendre nos nerfs Elles sont stressantes nos guerres Et tu l'sais qu'elle sont stressantes nos guerres, hein ? Ah, ah, ah Chiguiricheck, ça fait, ouais, ouais Appelle moi Guiz', j'viens des bas fonds d'Villeneuve À Villeneuve c'est tellement la crise, ah, ah Appelle moi Guiz', j'viens des bas fonds d'Villeneuve Chez moi c'est tellement la crise, j'attends qu'on casse mon immeuble, cousin Chiguiricheck, ça fait, yo, yo Dans mes poumons pas de crack, et pas de trac quand je rap le diez Je suis trop fort sans t'en rendre compte tu backs le 16 Guizmo vous déstresse comme un patch à la nicotine J'enchaine les spliffs et je fréquente des filles coquines On prend du bon temps puis elles pensent qu'elles sont mes petites copines Mais la séparation est brutale à la Steve Austin J'ai pas d'attache, pas à pas, je m'accapare ce qui me revient de droit Je deviens le roi, le king sale bâtard Et pour tous ceux qui voulaient me voir perdre Me rouler par terre et bien bouffez ma verge Trop de gens te sourient mais cachent un bête de vice Donc nique la mère à tous les traîtres c'est une belle devise Et les meufs qui fréquentent trop de mecs, écoutent pas ce qu'elles te disent Car un jour l'un d'eux débarque et en pleine tête te vise Et je n'écris que de la bombe car je respecte les beats Moi je fais pas la quête du Graal je fais la quête des biffs Ouais d'après toi tu flambes tu fais le mec t'es street Arrête ton baratin tout le monde sait que tu ken des petits Et aucun stress dans ma voix quand je parle de rue Comment te dire, à Villeneuve c'est un bail de ruse Aucun mec va te vir-ser si t'as une race de stup Et si tu cherches comme il faut tu trouves des armes russes J'ai de l'amour pour le rap les grognasses et la bonne bouffe Un beat avec Al, un gros niaks et c'est trop smooth Parle en cash ou ferme la, cesse de faire le mac Si à la vue de mes frèrots blacks tu commences à perdre le cap Si y'a pas de shit on fait comment ? on fait pas Devant les schmits ? on sait pas Si y'a embrouille dans l'équipe ? on s'sépare Et c'est comme ça depuis des lustres, quand je rappes, tu dégustes J'en ai allumé des gus ce que j'ai dans le fut les dépucelle Merde Paname c'est Soul Calibur, pour 1 gramme et on t'shoot la figure Caraibos et flash de rhum vas-y goûtes la mixture Et trouve moi à pé-ra avec un groupe d'amis sûr Je lâche pas le steak j'ai trop de phases par texte Y'a rien de tout noir ou tout blanc donc y a pas d'Apartheid Je vous avais prévenu z'avez pas voulu m'écouter Là je vous jure que vos flows finiront tous nus découpés, dans une ruelle sombre Je fais fuser le son mais marche pas sur mes traces car le trajet est truffé de plombs Et j'en vois de toutes les couleurs comme Léonard de Vinci Je me laisse pas devancer par les porteurs de l'insigne Nan, je suis plus malin que tous ces porcs de merde Y a des odeurs de cake, ça sent la pomme de terre Putain, pas la peine d'amadouer Marianne Devant ma haine elle est aveugle comme Amadou et Mariam, ah Là j'en place une pour mes frérots de Pologne Tu nous verra jamais faire l'aumône car nos mères font des bonshommes Ouais un 16 de rage, un tacle à la Gattuso A Valenton ça taff les pecs, d'mande à mes gars du zoo On a que nos plumes et nos nerfs A cause de vous ont fait pleurer nos mères En plus de te mettre à l'amende je connais mes classiques C'est magique dit ce que tu veux Guizmo c'est tout sauf basique, ouais J'ai grandi sans écus, avec des gens déçus Dans les ZUP, chanvre et stup' coffrés dans les futs Tu connais l'truc, la street et ses aléas La vie et ses allées crades Même quand j'suis paumé j'lutte J'suis comme un gros jet d'pue Impatient que ça pète, sympa tant que j'la baise Un battant d'la tess en beau vêt-sur Un flow très pur, Guiz' est dans la place T'as beau prier quand ça s'tape, on va t'niquer d'vant ta T'as peut-être vu mes gars, dealer devant ta fac Piller dans ta raque-ba, j'peux pas tizer sans qu'ça s'tape Et j'rapplique si t'as proposé l'cash Roule un gros cône, j'bédave avec Morphose et Nas Et vas-y va t'faire foutre, ici y a pas d'mecs cools Et c'est qu'après l'coup, que j'me dis qu'il fallait pas taper c'boug La rue, l'deal, fréro tout ça c'est naze J'me dit qu'c'est éphémère comme les beaux jours à bédave Et ça fait, Guizmo c'est mortel Ouais c'est l'bordel dans l'top ten Le trois octobre bande d'enfoirés J'vis le but fils de pute, j'vise le but fils de pute Vous allez faire quoi, hein ? Huit, huit, deux, Générations, Guiz', L'Entourage Yeeeaaaahhh Brrrraaahh2</t>
+          <t>Han, han, han, chiguiricheck Bande d'enfoirés, Guizmo, L'Entourage Yo, j'en ai rien a foutre de c'qu'ils pensent de moi, j'bouge en silence Dans des douces ambiances et j'doute en priant le soir Et tous les dits-ban se marrent quand un flic crêve Quand ta street créd' est validée, quand t'as pris le pez Ouais le business et l'amitié dans nos big tess Ont vite aif' de nous lâcher ou de s'cacher dans nos cris de guerre Fâcher dans nos vie ternes Soigné par OCB, quand nos CV ne sont pas classés dans vos critères Alors j'ai blindé l'spliff et j'vais pas plaindre les flics Parce que j'suis toujours dans l'lot quand ils épinglent l'équipe Et puis j'suis simple et vif, toujours chaud pour fliguer l'beat Parce que le rap et moi on se suit un peu comme 5 et 6 Que des intrépides dans les yeux de ma bande Tu peux voir de la rage car on est traité comme des imbéciles Ou des singes des villes et c'est pire quand les oints-j défilent Le destin est gris et c'est jamais comme la fin des films Et j'suis indécis, j'investis dans léphémère J'vois trop d'Messi et d'prestige dans les ténèbres Méprisant et vé-ner, j'vous avais prévenu que mes écris m'rendraient célèbre Mais c'est la même rengaine, à gratter des phases Obligé d'ramener mes gars et causer grave des dégâts Mais qu'est-ce tu veux, malheureusement nos vies c'est a-ç Trop souvent on s'fait péter et l'commis d'office est naze Meuf, taff, keuf, ça nous prend la tête Plonger dans nos soucis y'a qu'le teuchi qui nous tend la perche Bus, métro, han, han, han, han, han Avec mon rosé Chiguiricheck, bande d'enfoirés, yo J'gratte des dingueries quand j'ai tisé, pas d'lingeries dans les clips J'parle des indic' et des kisdés, flingueries dans les streets J'ai faim, si dans les six mois qui viennent, y a un chèque à prendre On mène la danse, baise la France mais ça s'fait attendre Là y a des textes à vendre, des bêtes d'afghans Et si tu penses à me ken d'avance, j't'assure que j'te pète ta jambe Jette ta flambe, fais attention Qu'est ce t'attends pour t'mettre ça dans l'fion ? Pendant que j'tté-gra l'sample, moi j'suis un méga-cancre Mais archi rusé, quand j'suis parti fumer, j'dois gérer mes absences Les pétasses tentent d'être à temps pour m'ajouter sur Face J't'ai pas attends deux secondes et tu vas bouffer du sexe bitch J'groove et j'suis technique qu'est ce tu croyais ? Mec j'suis faya, en manque de moyen on reste loyaux A nos spliffs, à nos bières, j'atomise ma pauvre tête Vaporise l'atmosphère, bande d'enfoirés, eh, ouais Ah, chiguiricheck, ça fait, ah, ah, ah Ah, ah, ah, ah, ah, ah Que des dingueries lyricales dans mes textes Qui bicravent dans les tess' Tous les mecs en chiens, ouais qui finissent mal dans les hèbs Irritables en détresse Ça fait grave longtemps faut que j'marque mon temps Que j'lâche mon chanvre mais j'aime voir la tise et le hasch se combiner Mec ça m'attriste de voir mon cas se compliquer Mes cailles' se font fliqués Nique la bac, qu'ils s'arrachent C'est pas demain que les cht'ars me feront flipper Comme cette garde à v' avec Kas et les autres Questionnés par l'OPJ parce qu'on a cassé des os Les 'tasses et les faux, les schlass et les fauves Ça fait péter les plombs comme mes phases et mes flow, ouais Viens dans nos fêtes dansantes, c'est pas du french cancan Y'a que des mecs en sang qui ken l'ambiance, cousin Ouais c'est Guiz, Ici l'quotidien, bah c'est buis', drogue et tasse-pé Et tu l'sais, chiguiricheck, yeah, yeah Tu sais avec qui j'marche, Pascal Ce-ce, Aurélie, À bout portant, mon 'soss Willy l'barge, Yonea, quatre-vingt douze , Booba, Mala, vous dites quoi les mecs Ça fait, ah, ah, han Yo, j'marche avec les triples, ma Fssshh T'as compris, ma barrette j'effrite La BAC elle est speed, ça se complique, la son-pri Sous mon couvre-chef, j'suis un trouble-fête A bon prix ça combine dans les fours de tess Ou devrais-je dire quartiers difficiles parqués loin tout Par l'génie civil, ça fait 15 tours Je crois bien que le truc c'est ça C'est incessant et puis la rue c'est grave Dès 15-16 ans nous on va se buter le crâne Me parle pas de travailler, j'me lasse pas de batailler Mais j'craque rien que de voir tous ces lascars se pavaner Comme si ils avaient des affaires A l'école on les voyait faire la fête Et on les rackettait sa mère J'ai toujours marché près de la tess Et ça les vrais l'attestent Caravelle, Villeneuve Si tu veux passer faire de la fraîche Moi je suis cramé c'est la merde Mais j'vais pas baisser la tête On va m'caresser la verge Puis j'vais me barrer vers la mer Avec ma bières et ma cigarette de cannabis Pour rester calme quand les p'tites tapettes me baratinent La zik, la tess me paralyse Nique sa race, nous on vise la liasse Et que les types atteignent le paradis Si j'ramène le Bacardi, paie ta conso Nous on fait ça pour de vrai les autres gangsta sont faux Et puis j'suis fonce-dé, alors je squatte sur le canapé Biatch, à peine j'te doigte, tu veux pas m'lâcher Fissa, j'écris des phases tu peux pas capter Timale, si t'es trop naze tu peux pas clasher Et j'écris ça dans un élan de colère Parce qu'on veut défendre nos frères et puis détendre nos nerfs Elles sont stressantes nos guerres Et tu l'sais qu'elle sont stressantes nos guerres, hein ? Ah, ah, ah Chiguiricheck, ça fait, ouais, ouais Appelle moi Guiz', j'viens des bas fonds d'Villeneuve À Villeneuve c'est tellement la crise, ah, ah Appelle moi Guiz', j'viens des bas fonds d'Villeneuve Chez moi c'est tellement la crise, j'attends qu'on casse mon immeuble, cousin Chiguiricheck, ça fait, yo, yo Dans mes poumons pas de crack, et pas de trac quand je rap le diez Je suis trop fort sans t'en rendre compte tu backs le 16 Guizmo vous déstresse comme un patch à la nicotine J'enchaine les spliffs et je fréquente des filles coquines On prend du bon temps puis elles pensent qu'elles sont mes petites copines Mais la séparation est brutale à la Steve Austin J'ai pas d'attache, pas à pas, je m'accapare ce qui me revient de droit Je deviens le roi, le king sale bâtard Et pour tous ceux qui voulaient me voir perdre Me rouler par terre et bien bouffez ma verge Trop de gens te sourient mais cachent un bête de vice Donc nique la mère à tous les traîtres c'est une belle devise Et les meufs qui fréquentent trop de mecs, écoutent pas ce qu'elles te disent Car un jour l'un d'eux débarque et en pleine tête te vise Et je n'écris que de la bombe car je respecte les beats Moi je fais pas la quête du Graal je fais la quête des biffs Ouais d'après toi tu flambes tu fais le mec t'es street Arrête ton baratin tout le monde sait que tu ken des petits Et aucun stress dans ma voix quand je parle de rue Comment te dire, à Villeneuve c'est un bail de ruse Aucun mec va te vir-ser si t'as une race de stup Et si tu cherches comme il faut tu trouves des armes russes J'ai de l'amour pour le rap les grognasses et la bonne bouffe Un beat avec Al, un gros niaks et c'est trop smooth Parle en cash ou ferme la, cesse de faire le mac Si à la vue de mes frèrots blacks tu commences à perdre le cap Si y'a pas de shit on fait comment ? on fait pas Devant les schmits ? on sait pas Si y'a embrouille dans l'équipe ? on s'sépare Et c'est comme ça depuis des lustres, quand je rappes, tu dégustes J'en ai allumé des gus ce que j'ai dans le fut les dépucelle Merde Paname c'est Soul Calibur, pour 1 gramme et on t'shoot la figure Caraibos et flash de rhum vas-y goûtes la mixture Et trouve moi à pé-ra avec un groupe d'amis sûr Je lâche pas le steak j'ai trop de phases par texte Y'a rien de tout noir ou tout blanc donc y a pas d'Apartheid Je vous avais prévenu z'avez pas voulu m'écouter Là je vous jure que vos flows finiront tous nus découpés, dans une ruelle sombre Je fais fuser le son mais marche pas sur mes traces car le trajet est truffé de plombs Et j'en vois de toutes les couleurs comme Léonard de Vinci Je me laisse pas devancer par les porteurs de l'insigne Nan, je suis plus malin que tous ces porcs de merde Y a des odeurs de cake, ça sent la pomme de terre Putain, pas la peine d'amadouer Marianne Devant ma haine elle est aveugle comme Amadou et Mariam, ah Là j'en place une pour mes frérots de Pologne Tu nous verra jamais faire l'aumône car nos mères font des bonshommes Ouais un 16 de rage, un tacle à la Gattuso A Valenton ça taff les pecs, d'mande à mes gars du zoo On a que nos plumes et nos nerfs A cause de vous ont fait pleurer nos mères En plus de te mettre à l'amende je connais mes classiques C'est magique dit ce que tu veux Guizmo c'est tout sauf basique, ouais J'ai grandi sans écus, avec des gens déçus Dans les ZUP, chanvre et stup' coffrés dans les futs Tu connais l'truc, la street et ses aléas La vie et ses allées crades Même quand j'suis paumé j'lutte J'suis comme un gros jet d'pue Impatient que ça pète, sympa tant que j'la baise Un battant d'la tess en beau vêt-sur Un flow très pur, Guiz' est dans la place T'as beau prier quand ça s'tape, on va t'niquer d'vant ta T'as peut-être vu mes gars, dealer devant ta fac Piller dans ta raque-ba, j'peux pas tizer sans qu'ça s'tape Et j'rapplique si t'as proposé l'cash Roule un gros cône, j'bédave avec Morphose et Nas Et vas-y va t'faire foutre, ici y a pas d'mecs cools Et c'est qu'après l'coup, que j'me dis qu'il fallait pas taper c'boug La rue, l'deal, fréro tout ça c'est naze J'me dit qu'c'est éphémère comme les beaux jours à bédave Et ça fait, Guizmo c'est mortel Ouais c'est l'bordel dans l'top ten Le trois octobre bande d'enfoirés J'vis le but fils de pute, j'vise le but fils de pute Vous allez faire quoi, hein ? Huit, huit, deux, Générations, Guiz', L'Entourage Yeeeaaaahhh Brrrraaahh2</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J'suis éblouissant comme une maglight Giffe si tu parles mal Chiffre que j'te banane, ma team que des barbares C'est le guiz'ness, on débarque des big tess' On défonce tes p'tites fesses, on enchaines les business En gros ma vie c'est la tise, les potes et le chanvre Peut-être parce qu'en classe j'étais pas à côté de Jean Et on cours plus vite que bolt quand les condés débarquent J'traine qu'avec des hommes qui soulèvent des blondes ert des blacks J'ai aussi mes golgotes qui poussent la fonte et t'éclatent Nique les pédales qui passent leur temps à te raconter des craques Rajoute du son dans mon casque et du shit dans ma feuille Si tu traines dans mes pattes c'est une gifle dans ta gueule Là je demande aux ghettos youth de foutre le souk Guizmo lâche des rafales et ça vous coupe le souffle Bref, big up à mes scélérats Mada Sénégal Quand c'est la crise on fait les bails On se demande pas si c'est légal T'as même pas idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin T'as même pas une putain d'idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin You might also likeSi tu veux pas t'faire gratter repère les têtes de douaniers Celui qui me test n'est pas né Ou je lui pète le poignet Tous mes textes sont soignés, si t'as un bête de voilier Fais né-tour, non tout compte fait j'risque peut-être d'me noyer Yo j'ai jamais fait la pute, jamais fait la une de quoi que ce soit Et j'ai la dalle et je mange du wack ce soir Le rap? J'y crois Wallah faut que ça marche Même si j'fume trop d'charrasse, les diplômes fuck sa race J'ai de l'amour pour le hip-hop Je blague pas je rigole rarement J'suis charmant malgré ça je m'isole Si t'es un pigeon, prie pour que j'te vois pas Et si j'te tombe dessus rends mi les tunes que tu me dois pas J'ai déjà 21 piges mec J'ai pas fini d'être ce négro ambitieux qui coupe ses barrettes au millimètre Vous maltraitez mes semblables, sales bâtards de vaut-rien Mais la nuit on dors pas on s'accapare de vos bien De temps en temps en scret-di on baise vos filles Car elles aussi apprécient les saveurs exotiques Mais est-ce possible d'arrêter de les faire faufiler Des dizaines de red biff dans leurs belles pussy J'écris des rimes crâdes Parfois j'bédave, j'casse ma voix T'auras des phases à boire si mon shit passe la douane Mes textes sont à base de vous Mes gars se foutent de vos faces de clowns Moi j'te shoot négro t'es à genoux Guizmo, la réponse à ta question Rick Ross c'est has been donc j'retourne pas mon veston Et en plus ça ferait tâche dans l'mouv T'as de l'argent cous', tu veux du hash j'en trouve Bah ouai cousin t'as même pas idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin 1</t>
+          <t>J'suis éblouissant comme une maglight Giffe si tu parles mal Chiffre que j'te banane, ma team que des barbares C'est le guiz'ness, on débarque des big tess' On défonce tes p'tites fesses, on enchaines les business En gros ma vie c'est la tise, les potes et le chanvre Peut-être parce qu'en classe j'étais pas à côté de Jean Et on cours plus vite que bolt quand les condés débarquent J'traine qu'avec des hommes qui soulèvent des blondes ert des blacks J'ai aussi mes golgotes qui poussent la fonte et t'éclatent Nique les pédales qui passent leur temps à te raconter des craques Rajoute du son dans mon casque et du shit dans ma feuille Si tu traines dans mes pattes c'est une gifle dans ta gueule Là je demande aux ghettos youth de foutre le souk Guizmo lâche des rafales et ça vous coupe le souffle Bref, big up à mes scélérats Mada Sénégal Quand c'est la crise on fait les bails On se demande pas si c'est légal T'as même pas idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin T'as même pas une putain d'idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin Si tu veux pas t'faire gratter repère les têtes de douaniers Celui qui me test n'est pas né Ou je lui pète le poignet Tous mes textes sont soignés, si t'as un bête de voilier Fais né-tour, non tout compte fait j'risque peut-être d'me noyer Yo j'ai jamais fait la pute, jamais fait la une de quoi que ce soit Et j'ai la dalle et je mange du wack ce soir Le rap? J'y crois Wallah faut que ça marche Même si j'fume trop d'charrasse, les diplômes fuck sa race J'ai de l'amour pour le hip-hop Je blague pas je rigole rarement J'suis charmant malgré ça je m'isole Si t'es un pigeon, prie pour que j'te vois pas Et si j'te tombe dessus rends mi les tunes que tu me dois pas J'ai déjà 21 piges mec J'ai pas fini d'être ce négro ambitieux qui coupe ses barrettes au millimètre Vous maltraitez mes semblables, sales bâtards de vaut-rien Mais la nuit on dors pas on s'accapare de vos bien De temps en temps en scret-di on baise vos filles Car elles aussi apprécient les saveurs exotiques Mais est-ce possible d'arrêter de les faire faufiler Des dizaines de red biff dans leurs belles pussy J'écris des rimes crâdes Parfois j'bédave, j'casse ma voix T'auras des phases à boire si mon shit passe la douane Mes textes sont à base de vous Mes gars se foutent de vos faces de clowns Moi j'te shoot négro t'es à genoux Guizmo, la réponse à ta question Rick Ross c'est has been donc j'retourne pas mon veston Et en plus ça ferait tâche dans l'mouv T'as de l'argent cous', tu veux du hash j'en trouve Bah ouai cousin t'as même pas idée des vies qu'on mène On cache les sentiments même si on s'aime On a tout seul le blues, cousin tout va très vite Suffit d'un clic et d'un coussin 1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zigili-zone sensible Yo Y et W J'ai dit je t'aime avec mes yeux, j'ai pleuré avec ma bouche J'ai crié avec mes poings, j'ai prié avec ma troupe La vie nous fait des surprises, t'as vu c'est bizarre On avance en furtif, la puce c'est tricard Capuche et Ricard, la rue, ses histoires Ça tue des ptits noirs, des blancs et des beurres des turcs et chinois J'te parle de cette vie On s'est pris la tête à construire des foyers, des relations qui nous ont détruits J'te parle de gremlinz, attirés par le risque Abîmés par le shit mais toujours prêts a rendre un service On vient des villes d'en-dessous, ça fait des bises dans l'zoo Même à l'arrière on a la vie devant nous, mais là Il faut des Nike, il faut des fouff', il faut des sappes, il faut des sous Un peu d'Bissap et du détail dans les mon-pou Remi rem', où es-tu ? J'ai une dinguerie à ser-po Un constat cru de ce siècle qui nous incite à s'guer-dro Vendredi soir les poches pleines, lundi à zéro J'suis bourré c'est la merde faut qu'tu m'invites à m'ser-po Quoi ? Comment ça tu m'as vu tituber, de qui tu parles ? J'suis accoutumé depuis des piges au gout du 'sky, hey 6 heures du mat' qui t'ramène ? C'est les shtars, ouais On vit dans des ruches, y a pas d'abeilles mais c'est dar, mec La rue nous colle aux pattes, on est des prolos d'base On serait milliardaires si c'était 10 balles le follow-back Qui t'a parlé d'l'histoire d'une bouteille a la mer ? Chez moi, c'est bouteille dans l'cul et on t'jette à la mer Mon vieux réveille-oit, essaie ap de t'ves-qui Fais tes liasses, mets les voiles vers les plages et l'jet-ski À trop rester chez toi, t'entends des voix qui parlent Mes frères ont baissé les bras, les relèvent que quand Paris gagne Bordel, dis-moi c'est quand qu'on a les poches pleines ? Qu'on entendra plus tous ceux qui pé-ra quand faut s'taire On fait nos bails on en est plutôt fiers Rappe pas trop comme un chien d'la casse, ou la radio devient une muselière Clic clac et j'te jure qu'c'est pas un canapé J'représente les balafrés, par la rue et par l'acné Arracheurs de sacs à main, arnaqueurs de sales gamins Tellement matrixé t'as oublié qu'y a ta sur pas loin On fait la fête, on tiz', on s'gué-dro abusé Quand un frère t'fait des rappels, t'es en mode réseau saturé En mode cerveau fracturé, normal Pas d'taf, pas d'école, en plus on voit nos frérots capturés Et c'est plus l'même décor Après les contrats et l'échec, j'ai compris qu'on donne son cul qu'à la cuvette des chiottes Le frigo vide, les perquis', les stups, les putes, la proc' C'est illogique, j'déprime, fais fumer sur ta clope J'mate le calendrier, les jours défilent et je m'en amuse J'suis plus dans ma bulle qu'un scaphandrier Qu'est ce tu connais d'nos états d'esprit ? De nos vies ou du produit qu'on introduit dans nos garettes-ci, hein ? Qu'est ce tu connais d'tout ça ? Les dièses le shit Ou bien une scène de crime, tu fermes ta gueule si tu connais l'coupable Tu diras d'une mère en deuil qu'elle est affaiblie Mais qu'est ce t'en sais ? J'ai vu des lionnes qui restent là et vivent Qu'est ce tu connais des insomnies, le regard hébété ? Quand tout d'un coup le mot sommeil rime avec légèreté J'ouvre les yeux à peine levé, j'ai déjà pété une clope Des flashs où j'ai baiguézégé une pote, et j'ai bégayé une note Une rime, un texte, un ceau-mor Le hasard est écrit cousin je vis un destin sonore Faut pas qu'tu m'guettes dans les yeux t'y verras que du seum' J'ai demandé Quoi d'neuf ?, on m'a jamais répondu Que du jeune En gros le temps passe, les gens s'lassent, ils veulent du sun Rien qu'ils nous entassent et dans l'sas on joue du gun On fait des hits achète l'album et donne le cash Moi j'suis comme une bite, quand ça vient il faut qu'je crache J'fais pas trop d'feats, un freestyle et hop je trace On s'battra pas pour une fille faut qu'les hommes le sachent Ouais, j'ai ma troupe à moi, on assure On met des bananes et des pêches demande à Cerise de Groupama 22-22, y'a pas les keufs mais fais bédave J'suis plus petit qu'mes adversaires, gros, j'peux pas baisser les armes Et entre parenthèses, les MC's parlent entre elles Et m'arrivent pas a la cheville, on a l'impression qu'c'est mes charentaises J'me vois finir pieux, voilà tout est dit Je ferme les yeux, je m'ouvre lespritYou might also like5</t>
+          <t>Zigili-zone sensible Yo Y et W J'ai dit je t'aime avec mes yeux, j'ai pleuré avec ma bouche J'ai crié avec mes poings, j'ai prié avec ma troupe La vie nous fait des surprises, t'as vu c'est bizarre On avance en furtif, la puce c'est tricard Capuche et Ricard, la rue, ses histoires Ça tue des ptits noirs, des blancs et des beurres des turcs et chinois J'te parle de cette vie On s'est pris la tête à construire des foyers, des relations qui nous ont détruits J'te parle de gremlinz, attirés par le risque Abîmés par le shit mais toujours prêts a rendre un service On vient des villes d'en-dessous, ça fait des bises dans l'zoo Même à l'arrière on a la vie devant nous, mais là Il faut des Nike, il faut des fouff', il faut des sappes, il faut des sous Un peu d'Bissap et du détail dans les mon-pou Remi rem', où es-tu ? J'ai une dinguerie à ser-po Un constat cru de ce siècle qui nous incite à s'guer-dro Vendredi soir les poches pleines, lundi à zéro J'suis bourré c'est la merde faut qu'tu m'invites à m'ser-po Quoi ? Comment ça tu m'as vu tituber, de qui tu parles ? J'suis accoutumé depuis des piges au gout du 'sky, hey 6 heures du mat' qui t'ramène ? C'est les shtars, ouais On vit dans des ruches, y a pas d'abeilles mais c'est dar, mec La rue nous colle aux pattes, on est des prolos d'base On serait milliardaires si c'était 10 balles le follow-back Qui t'a parlé d'l'histoire d'une bouteille a la mer ? Chez moi, c'est bouteille dans l'cul et on t'jette à la mer Mon vieux réveille-oit, essaie ap de t'ves-qui Fais tes liasses, mets les voiles vers les plages et l'jet-ski À trop rester chez toi, t'entends des voix qui parlent Mes frères ont baissé les bras, les relèvent que quand Paris gagne Bordel, dis-moi c'est quand qu'on a les poches pleines ? Qu'on entendra plus tous ceux qui pé-ra quand faut s'taire On fait nos bails on en est plutôt fiers Rappe pas trop comme un chien d'la casse, ou la radio devient une muselière Clic clac et j'te jure qu'c'est pas un canapé J'représente les balafrés, par la rue et par l'acné Arracheurs de sacs à main, arnaqueurs de sales gamins Tellement matrixé t'as oublié qu'y a ta sur pas loin On fait la fête, on tiz', on s'gué-dro abusé Quand un frère t'fait des rappels, t'es en mode réseau saturé En mode cerveau fracturé, normal Pas d'taf, pas d'école, en plus on voit nos frérots capturés Et c'est plus l'même décor Après les contrats et l'échec, j'ai compris qu'on donne son cul qu'à la cuvette des chiottes Le frigo vide, les perquis', les stups, les putes, la proc' C'est illogique, j'déprime, fais fumer sur ta clope J'mate le calendrier, les jours défilent et je m'en amuse J'suis plus dans ma bulle qu'un scaphandrier Qu'est ce tu connais d'nos états d'esprit ? De nos vies ou du produit qu'on introduit dans nos garettes-ci, hein ? Qu'est ce tu connais d'tout ça ? Les dièses le shit Ou bien une scène de crime, tu fermes ta gueule si tu connais l'coupable Tu diras d'une mère en deuil qu'elle est affaiblie Mais qu'est ce t'en sais ? J'ai vu des lionnes qui restent là et vivent Qu'est ce tu connais des insomnies, le regard hébété ? Quand tout d'un coup le mot sommeil rime avec légèreté J'ouvre les yeux à peine levé, j'ai déjà pété une clope Des flashs où j'ai baiguézégé une pote, et j'ai bégayé une note Une rime, un texte, un ceau-mor Le hasard est écrit cousin je vis un destin sonore Faut pas qu'tu m'guettes dans les yeux t'y verras que du seum' J'ai demandé Quoi d'neuf ?, on m'a jamais répondu Que du jeune En gros le temps passe, les gens s'lassent, ils veulent du sun Rien qu'ils nous entassent et dans l'sas on joue du gun On fait des hits achète l'album et donne le cash Moi j'suis comme une bite, quand ça vient il faut qu'je crache J'fais pas trop d'feats, un freestyle et hop je trace On s'battra pas pour une fille faut qu'les hommes le sachent Ouais, j'ai ma troupe à moi, on assure On met des bananes et des pêches demande à Cerise de Groupama 22-22, y'a pas les keufs mais fais bédave J'suis plus petit qu'mes adversaires, gros, j'peux pas baisser les armes Et entre parenthèses, les MC's parlent entre elles Et m'arrivent pas a la cheville, on a l'impression qu'c'est mes charentaises J'me vois finir pieux, voilà tout est dit Je ferme les yeux, je m'ouvre lesprit5</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ziguili Zone sensible Yonea Willy Willy Yonea Jamais 203 Ouzou Qui est dans le zoo ? Guiz' est dans le coup J'ai quitté l'en-dessous, j'viens les faire chier Fidèle à mon crew et mes guerriers Pas de garde fou, on est baisés Solo dans mon crew, j'étais blessé J'ai pris tout le temps qu'on m'a pas laissé Et quand la routine est venu me caresser J'ai bédavé les angoisses qui me stressaient J'fous le halla, laiss-ez La zone sensible va encaisser Claquer des gueules et des fessiers On ne baisse le froc que dans les WC Les frères en bonne voie qui sont paumés Sortent les calibres pour aller voler S'en battent les couilles d'se dégommer Te dépouillent des wagons dans le tro-mé Ouais ça promet, tu connais Fume jusqu'au cul de la vieille T'as tout misé sur ta chatte Normal qu'on s'rappelle plus d'ta tête Entre les peines et les décès Les vices de la vie et les excès Les filles de la nuit me font pêcher Ton petit ami est chaud ? On est braisés Papa n'était pas là quand je naissais Maman a fait l'ménage et la vaisselle Chez des gens qui peut-être nous détestaient C'était pas des ordures mais des déchets Papa n'était pas là quand je naissais Maman a fait l'ménage et la vaisselle Chez des gens qui peut-être nous détestaient C'était pas des ordures mais des déchets You might also like On est partout, on est au calme Respecter l'adversaire n'empêche pas la Panenka On est au calme, on est-on est au calme On est partout, on est au calme On n'a plus , on est au calme On est partout, on est au calme On n'a plus d'doute, on est au local On est partout, on est au calme Laissez nous tranquille fichez nous la paix Fuck la France d'en haut qui rêve de nous voir tout plaquer On s'la pète pas plus haut qu'notre boule même quand on fait dans l'egotrip Pas d'prise de tête hassoul tant qu'les soces kiffent et qu'les gos trippent Parti de bonne base, j'gardais mon blase, j'kiffais IAM et les Pyramides J'ai commencé le rap, survêt' Adidas, j'coupais des rass comme à l'Aïd On peut pas t'reprocher d'être une chèvre naah T'as cru qu'j'allais venir te check T'es trop sensible, comme la tête de Petr ech Quand nous, à la radio on fait des freestyles d'anthologie Toi tu fais des démos dans ton logis Tu veux tirer ton coup, t'as qu'à aller aux putes Tu cherches une chaussure à ton pied t'a qu'à aller aux puces Tu pourras balancer des rimes mais jamais des comme Kless-Mo Bonnes pour le bien être comme, comme les Kellogg's Corn flakes kho J't'en balance des complexes et des faciles à retenir Ça dépend du contexte, toujours un faux MC en ligne de mire J'ai hais une femme, j'l'aimais trop Dites à la po-po qu'ma caisse a été rayé par un jeune un jeune bobo, j'l'aimais trop Négro tu connais mes p'tits récits Ceux qu'ont les poches trouées guettent ton dressing racines et kho tape l'esquive Du récit on tapprécie on t'tire dessus ! Ça s'allume le vendredi La hagra paye pas en plein Paris On peut pas être raciste, on s'entretue Monsieur le moraliste monsieur l'abbé, belek si ta fille elle s'ennuie Paie lui un voyage en Martinique avant qu'elle coupe-coupe la C-Saint-Denis Les porcs qui pelotent les mioches méritent un trou dans la peau dans un entrepôt Mais une p'tite fille peut trouver un adulte moche elle en trouvera un autre beau J'suis en ligue 1 c'est d'la HD, t'es en DH attend qu'je grimpe J'suis un p'tit gun, j'suis pas à jeter, j'suis TH Toujours rap, pourvu qu'mon estime de moi ne baisse pas Stop tes messes basses , t'as tord tu pèses pas Tu t'es fait niquer dix milles E à la Goutte d'or ça s'appelle une Bès-Bar, n'est-ce pas ?! Même le Sheïtan dit que toutes ces choses qu'on leur prépare ne pèsent pas C'est du Jamais 203, on est partout, on est partout C'est du Jamais 203, c'est du jamais eux sans nous C'est du Jamais 203, on est partout, on est partout C'est du Jamais 203, c'est du jamais eux sans nous</t>
+          <t>Ziguili Zone sensible Yonea Willy Willy Yonea Jamais 203 Ouzou Qui est dans le zoo ? Guiz' est dans le coup J'ai quitté l'en-dessous, j'viens les faire chier Fidèle à mon crew et mes guerriers Pas de garde fou, on est baisés Solo dans mon crew, j'étais blessé J'ai pris tout le temps qu'on m'a pas laissé Et quand la routine est venu me caresser J'ai bédavé les angoisses qui me stressaient J'fous le halla, laiss-ez La zone sensible va encaisser Claquer des gueules et des fessiers On ne baisse le froc que dans les WC Les frères en bonne voie qui sont paumés Sortent les calibres pour aller voler S'en battent les couilles d'se dégommer Te dépouillent des wagons dans le tro-mé Ouais ça promet, tu connais Fume jusqu'au cul de la vieille T'as tout misé sur ta chatte Normal qu'on s'rappelle plus d'ta tête Entre les peines et les décès Les vices de la vie et les excès Les filles de la nuit me font pêcher Ton petit ami est chaud ? On est braisés Papa n'était pas là quand je naissais Maman a fait l'ménage et la vaisselle Chez des gens qui peut-être nous détestaient C'était pas des ordures mais des déchets Papa n'était pas là quand je naissais Maman a fait l'ménage et la vaisselle Chez des gens qui peut-être nous détestaient C'était pas des ordures mais des déchets On est partout, on est au calme Respecter l'adversaire n'empêche pas la Panenka On est au calme, on est-on est au calme On est partout, on est au calme On n'a plus , on est au calme On est partout, on est au calme On n'a plus d'doute, on est au local On est partout, on est au calme Laissez nous tranquille fichez nous la paix Fuck la France d'en haut qui rêve de nous voir tout plaquer On s'la pète pas plus haut qu'notre boule même quand on fait dans l'egotrip Pas d'prise de tête hassoul tant qu'les soces kiffent et qu'les gos trippent Parti de bonne base, j'gardais mon blase, j'kiffais IAM et les Pyramides J'ai commencé le rap, survêt' Adidas, j'coupais des rass comme à l'Aïd On peut pas t'reprocher d'être une chèvre naah T'as cru qu'j'allais venir te check T'es trop sensible, comme la tête de Petr ech Quand nous, à la radio on fait des freestyles d'anthologie Toi tu fais des démos dans ton logis Tu veux tirer ton coup, t'as qu'à aller aux putes Tu cherches une chaussure à ton pied t'a qu'à aller aux puces Tu pourras balancer des rimes mais jamais des comme Kless-Mo Bonnes pour le bien être comme, comme les Kellogg's Corn flakes kho J't'en balance des complexes et des faciles à retenir Ça dépend du contexte, toujours un faux MC en ligne de mire J'ai hais une femme, j'l'aimais trop Dites à la po-po qu'ma caisse a été rayé par un jeune un jeune bobo, j'l'aimais trop Négro tu connais mes p'tits récits Ceux qu'ont les poches trouées guettent ton dressing racines et kho tape l'esquive Du récit on tapprécie on t'tire dessus ! Ça s'allume le vendredi La hagra paye pas en plein Paris On peut pas être raciste, on s'entretue Monsieur le moraliste monsieur l'abbé, belek si ta fille elle s'ennuie Paie lui un voyage en Martinique avant qu'elle coupe-coupe la C-Saint-Denis Les porcs qui pelotent les mioches méritent un trou dans la peau dans un entrepôt Mais une p'tite fille peut trouver un adulte moche elle en trouvera un autre beau J'suis en ligue 1 c'est d'la HD, t'es en DH attend qu'je grimpe J'suis un p'tit gun, j'suis pas à jeter, j'suis TH Toujours rap, pourvu qu'mon estime de moi ne baisse pas Stop tes messes basses , t'as tord tu pèses pas Tu t'es fait niquer dix milles E à la Goutte d'or ça s'appelle une Bès-Bar, n'est-ce pas ?! Même le Sheïtan dit que toutes ces choses qu'on leur prépare ne pèsent pas C'est du Jamais 203, on est partout, on est partout C'est du Jamais 203, c'est du jamais eux sans nous C'est du Jamais 203, on est partout, on est partout C'est du Jamais 203, c'est du jamais eux sans nous</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Smokin Beatz Yonea Willy, Willy Yonea business Guizi Ouzou gang J'ai vagabondé J'viens pas m'la raconter Nan Dans le filet de la vie, je suis emmêlé Ils me l'ont mis dans la main en me disant Vas-y, fais-le Je croyais qu'j'étais seul à m'demander Mais qu'est-c'que j'fous là ? Et puis je l'ai fait quand même pour leur montrer qu'j'étais fêlé Et puis j'ai dit à maman T'inquiète pas, tout ça c'est fini Et en un seul regard, là j'ai compris qu'elle allait pleurer Je ne marchais plus droit et mon haleine sentait le whisky Il y avait de la bière et des gouttes de sang sur ma ste-ve, merde Et j'étais plus le bienvenue j'avoue J'suis le genre de mec qui pousse à bout Tout seul dans la cave, j'ai vomi par terre J'connais mieux ta cité qu'toi, j'vagabonde partout J'ai mis des carottes à des mecs Je sais pas s'ils me cherchent encore je sais pas, nan, nan, nan On verra quand j'serai vraiment mort J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs, j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS You might also like J'dormais dans l'tro-mé, j'étais tellement bourré J'm'en bats les couilles qu'tu t'moques de moi J'me réveille pété, j'vois des rats à côté J'ai la dalle et j'suis mort de froid Un poto qui m'appelle, il va payer son grec Mais faut qu'j'aille jusqu'aux Batignolles J'suis sur la ligne 2, les gens me regardent et moi j'regarde les bâtiments Je marche dans la rue, des mecs veulent ma peau C'est comme Fifty dans Many Men J'aime l'alcool, le shit, le cul J'suis une mauvaise langue comme LIM J'ai fait du mal à tant de femmes Je sais pas si elles me cherchent encore Seront-elles à mon enterrement ? On verra quand j'serai vraiment mort J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS J'ai vagabondé, vagabondé, dans tous les squares Ouais j'ai trop bu, ouais j'ai trop fumé, un peu tous les soirs J'ai vagabondé, vagabondé, dans tous les squares Ouais j'ai trop bu, un peu tout fumé, un peu tous les soirs Han Guiz' Une pensée à tous mes souvenirs disparus Tout c'que j'ai bu, tout c'que j'ai fumé Tout c'que j'ai vu là où j'ai traîné Vagabond, j'étais un vagabond C'était la merde, c'était la merde C'était gang, c'était gang Ouzou Guizi, coucou sisi, oui c'est moi Le p'tit fou qui laisse aller Ta meuf au cinéma avec sa copine Changer de bagnole, mec Prenez soin de vous La vie est courte bébé J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS</t>
+          <t>Smokin Beatz Yonea Willy, Willy Yonea business Guizi Ouzou gang J'ai vagabondé J'viens pas m'la raconter Nan Dans le filet de la vie, je suis emmêlé Ils me l'ont mis dans la main en me disant Vas-y, fais-le Je croyais qu'j'étais seul à m'demander Mais qu'est-c'que j'fous là ? Et puis je l'ai fait quand même pour leur montrer qu'j'étais fêlé Et puis j'ai dit à maman T'inquiète pas, tout ça c'est fini Et en un seul regard, là j'ai compris qu'elle allait pleurer Je ne marchais plus droit et mon haleine sentait le whisky Il y avait de la bière et des gouttes de sang sur ma ste-ve, merde Et j'étais plus le bienvenue j'avoue J'suis le genre de mec qui pousse à bout Tout seul dans la cave, j'ai vomi par terre J'connais mieux ta cité qu'toi, j'vagabonde partout J'ai mis des carottes à des mecs Je sais pas s'ils me cherchent encore je sais pas, nan, nan, nan On verra quand j'serai vraiment mort J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs, j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS J'dormais dans l'tro-mé, j'étais tellement bourré J'm'en bats les couilles qu'tu t'moques de moi J'me réveille pété, j'vois des rats à côté J'ai la dalle et j'suis mort de froid Un poto qui m'appelle, il va payer son grec Mais faut qu'j'aille jusqu'aux Batignolles J'suis sur la ligne 2, les gens me regardent et moi j'regarde les bâtiments Je marche dans la rue, des mecs veulent ma peau C'est comme Fifty dans Many Men J'aime l'alcool, le shit, le cul J'suis une mauvaise langue comme LIM J'ai fait du mal à tant de femmes Je sais pas si elles me cherchent encore Seront-elles à mon enterrement ? On verra quand j'serai vraiment mort J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS J'ai vagabondé, vagabondé, dans tous les squares Ouais j'ai trop bu, ouais j'ai trop fumé, un peu tous les soirs J'ai vagabondé, vagabondé, dans tous les squares Ouais j'ai trop bu, un peu tout fumé, un peu tous les soirs Han Guiz' Une pensée à tous mes souvenirs disparus Tout c'que j'ai bu, tout c'que j'ai fumé Tout c'que j'ai vu là où j'ai traîné Vagabond, j'étais un vagabond C'était la merde, c'était la merde C'était gang, c'était gang Ouzou Guizi, coucou sisi, oui c'est moi Le p'tit fou qui laisse aller Ta meuf au cinéma avec sa copine Changer de bagnole, mec Prenez soin de vous La vie est courte bébé J'ai traîné dans la zone, vagabond comme un SDF J'ai traîné dans le trom', sur les murs j'écrivais NTM L'accident de trop, le SAMU me met en PLS J'ai fait des rêves de SLR, j'suis levé par les CRS</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>YW Yonea Willy Willy Yonea Business Motherfucker'zs Guizi Ouzou J'ai commencé à rapper, javais quinze ans, j'avais la dalle Et cétait pas pour le blé, j'vendais d'l'héro, j'faisais dla maille Mais j'ai vu le café, nos mères frotter le parquet Les névrosés du quartier prenaient la drogue et partaient On en a marre des cafards et des pannes dascenseur Et vous appelez la liberté c'qu'on appelle la censure On a enterré nos frères et protégé nos surs Alcoolisé au volant, faut pas qu'je fonce dans l'mur, putain Moi je kicke avec mes Nike Que les p'tites tapettes détalent quand le Guiz amène ses phases Faut du shit avec des liasses, un Levi's avec un shlass Mec, évite de faire le mac, on connaît les biz de tarpés J'ai mon p'tit frère quest dans le business de cannabis Il a mis deux ou trois rottes-ca, tu viens lchercher, on t'canne à dix La caravelle, la Tour des Feujs, j'en ai mis des middles Non, j'ai jamais eu d'idole, j'ai grandi en bas d'Lidl Elle m'a dit que j'suis beau et que j'ai du charme Elle n'sait pas qu'j'suis un chaud et qu'j'ai des armes J'suis avec Tazz' dans la voiture, on fume un truc spécial J'écris un truc sur la cité ou bien les putes vénales Toujours entre deux mondes, je crois qu'je vis la mort Et j'pleure le décès d'ma sur depuis 2014 J'ai rien à perdre mais tout à prouver, quitte à tous les trouer Ils rappaient ma vie, j'étais écroué Le shit, le rap, non, ça n'en fini pas J'ai dit à ma femme de faire attention à mon mini moi, Lamine Guizi Ouzou Sisi Coucou YW et tu le sais You might also like Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Notre actu', nos lacunes On sature, c'est grave dur, ce rap tue Besoin de respirer, besoin d'être comme toi, ta mère ou ton père À nous d'rester sur la bonne voie, d'garder nos repères Ça ira mieux demain, du recul, jen ai besoin J'ai fait une insomnie, j'me soigne, j'ai déjà fumé deux joints Quand ça s'arrêtera ? Franchement, j'sais pas On vit comme des robots, lesprit s'évade mais le corps reste là Mais comment faire ? Moi, j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Et quand on s'relâche, la vie ne fait pas dcadeaux On niaks la dope, la de-wee dans le sac à dos Quand on sourit mec, cest pour de vrai Who's the men ? Jen place une pour les miens d'YW La vie cest un droit, pour certains, cest un privilège Tu peux brasser des milliards même si tu tappelles 50 Cent Devines quoi ? Je suis loin là Où tu n'iras jamais posé avec un joint dfrappe Bercé par la sique-mu, elle a abusé d'moi J'ai déjà dit j'tise plus, j'vais tuer ma belle voix Frères et surs, gardez la tête haute Sombrer, ça prend deux secondes, se relever, ça prend des heures Oui, on doit souffler, s'évader deux s'condes Vider nos têtes et détaler de ce monde YW monte depuis le début jusqu'à la mort C'est comme ça qu'on fait les choses, mec Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Il faut qu'je t'explique, que tu comprennes une chose Il faut qu'on respire, il faut qu'on prenne une pause Envie de souffler, de se sentir libre Marre de douter et de se sentir ivre Il faut qu'je t'explique, que tu comprennes une chose Il faut qu'on respire, il faut qu'on prenne une pause Envie de souffler, de se sentir libre Marre de douter et de se sentir ivre Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Le Guizi n'fait que des classiques Wesh Edgar, fini les cauchemars Rémy'Rem les mains d'fées Gang</t>
+          <t>YW Yonea Willy Willy Yonea Business Motherfucker'zs Guizi Ouzou J'ai commencé à rapper, javais quinze ans, j'avais la dalle Et cétait pas pour le blé, j'vendais d'l'héro, j'faisais dla maille Mais j'ai vu le café, nos mères frotter le parquet Les névrosés du quartier prenaient la drogue et partaient On en a marre des cafards et des pannes dascenseur Et vous appelez la liberté c'qu'on appelle la censure On a enterré nos frères et protégé nos surs Alcoolisé au volant, faut pas qu'je fonce dans l'mur, putain Moi je kicke avec mes Nike Que les p'tites tapettes détalent quand le Guiz amène ses phases Faut du shit avec des liasses, un Levi's avec un shlass Mec, évite de faire le mac, on connaît les biz de tarpés J'ai mon p'tit frère quest dans le business de cannabis Il a mis deux ou trois rottes-ca, tu viens lchercher, on t'canne à dix La caravelle, la Tour des Feujs, j'en ai mis des middles Non, j'ai jamais eu d'idole, j'ai grandi en bas d'Lidl Elle m'a dit que j'suis beau et que j'ai du charme Elle n'sait pas qu'j'suis un chaud et qu'j'ai des armes J'suis avec Tazz' dans la voiture, on fume un truc spécial J'écris un truc sur la cité ou bien les putes vénales Toujours entre deux mondes, je crois qu'je vis la mort Et j'pleure le décès d'ma sur depuis 2014 J'ai rien à perdre mais tout à prouver, quitte à tous les trouer Ils rappaient ma vie, j'étais écroué Le shit, le rap, non, ça n'en fini pas J'ai dit à ma femme de faire attention à mon mini moi, Lamine Guizi Ouzou Sisi Coucou YW et tu le sais Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Notre actu', nos lacunes On sature, c'est grave dur, ce rap tue Besoin de respirer, besoin d'être comme toi, ta mère ou ton père À nous d'rester sur la bonne voie, d'garder nos repères Ça ira mieux demain, du recul, jen ai besoin J'ai fait une insomnie, j'me soigne, j'ai déjà fumé deux joints Quand ça s'arrêtera ? Franchement, j'sais pas On vit comme des robots, lesprit s'évade mais le corps reste là Mais comment faire ? Moi, j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Et quand on s'relâche, la vie ne fait pas dcadeaux On niaks la dope, la de-wee dans le sac à dos Quand on sourit mec, cest pour de vrai Who's the men ? Jen place une pour les miens d'YW La vie cest un droit, pour certains, cest un privilège Tu peux brasser des milliards même si tu tappelles 50 Cent Devines quoi ? Je suis loin là Où tu n'iras jamais posé avec un joint dfrappe Bercé par la sique-mu, elle a abusé d'moi J'ai déjà dit j'tise plus, j'vais tuer ma belle voix Frères et surs, gardez la tête haute Sombrer, ça prend deux secondes, se relever, ça prend des heures Oui, on doit souffler, s'évader deux s'condes Vider nos têtes et détaler de ce monde YW monte depuis le début jusqu'à la mort C'est comme ça qu'on fait les choses, mec Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Il faut qu'je t'explique, que tu comprennes une chose Il faut qu'on respire, il faut qu'on prenne une pause Envie de souffler, de se sentir libre Marre de douter et de se sentir ivre Il faut qu'je t'explique, que tu comprennes une chose Il faut qu'on respire, il faut qu'on prenne une pause Envie de souffler, de se sentir libre Marre de douter et de se sentir ivre Mais comment faire ? Moi j'préférerais qu'on m'enferme Réussite et gloire riment avec descente aux enfers Non, je sais pas quand ça finira je sais pas Non, je sais pas quand ça finira Le Guizi n'fait que des classiques Wesh Edgar, fini les cauchemars Rémy'Rem les mains d'fées Gang</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'm'appelle Guizmo, j'vous dit salam, j'ai fait du fric avec des rimes de dingues Sept ans, j'veux ramasser ma bille, j'suis tombé sur une p'tite seringue Toute ma vie, c'est la de-mer, dans l'accident y'a deux morts J'crois que je manque de repères et que j'ai trop de remords J'me faufile comme le renard, tu veux du biff, je veux de l'or Ils étaient pas là ces connards quand le Guizi dormait dehors Et j'en ai marre de ces commères, pour moi c'est tous des vipères Je roule un joint sur le vieux port, j'remonte à Paname en vitesse Tu veux Loubou, j'veux Adidas, j'ai évolué dans une p'tite tess Un coup de feu mais qu'est-c'qui s'passe ? Ça a tiré pour le business Sur le terrain, j'suis efficace, j'ai refourgué de la zipette Rien à foutre de tes p'tites tass', je m'occupe des embrouilles qui traînent J'suis capuché dans l'noir, j'me suis buté tant d'fois 30 euros, quelques copains, j'me suis dépucelé dans l'bois Putain, une sale enfance pas comme mes camarades de classe Moi, j'suis un sale bâtard tenace, un pro du tabassage de MIC J'ai fumé la verte et j'ai vu rouge quand on m'a rappelé qu'j'étais noir Deux jours sans dormir que c'est louche, un oint-j de frappe dans la baignoire Yonea Willy ça fait des années qu'on est flex et qu'on est alliés J'ai déjà dormi sur l'pallier, tu savais pas qu'j'allais gagner hein ? Ta mère la reine des reines, elle a rien à voir On s'fait pas avoir pour du buzz ou pour un NTM J'les ai fait palpiter, wallah t'as pas idée Y'en a qui s'rappelleront à vie de Lamine Diakité J'fais des sous dans le haram et j'paie l'loyer comme un bonhomme Désolé si j't'ai banane, la rue c'est Gomorre et Sodome J'dors pas la nuit, que j'pense à Kalash et Jeff T'es là tu veux m'faire la bise mais est-ce que t'as khalass tes dettes? You might also like J'suis capuché dans l'noir, j'me suis buté tant d'fois 30 euros, quelques copains, j'me suis dépucelé dans l'bois Putain, une sale enfance pas comme mes camarades de classe Moi, j'suis un sale bâtard tenace, un pro du tabassage de MIC Et j'ai grave la dalle de maille, si tu payes pas, t'es mort man Ramassage de cash, j'prends l'enveloppe et j'te dis normal</t>
+          <t>J'm'appelle Guizmo, j'vous dit salam, j'ai fait du fric avec des rimes de dingues Sept ans, j'veux ramasser ma bille, j'suis tombé sur une p'tite seringue Toute ma vie, c'est la de-mer, dans l'accident y'a deux morts J'crois que je manque de repères et que j'ai trop de remords J'me faufile comme le renard, tu veux du biff, je veux de l'or Ils étaient pas là ces connards quand le Guizi dormait dehors Et j'en ai marre de ces commères, pour moi c'est tous des vipères Je roule un joint sur le vieux port, j'remonte à Paname en vitesse Tu veux Loubou, j'veux Adidas, j'ai évolué dans une p'tite tess Un coup de feu mais qu'est-c'qui s'passe ? Ça a tiré pour le business Sur le terrain, j'suis efficace, j'ai refourgué de la zipette Rien à foutre de tes p'tites tass', je m'occupe des embrouilles qui traînent J'suis capuché dans l'noir, j'me suis buté tant d'fois 30 euros, quelques copains, j'me suis dépucelé dans l'bois Putain, une sale enfance pas comme mes camarades de classe Moi, j'suis un sale bâtard tenace, un pro du tabassage de MIC J'ai fumé la verte et j'ai vu rouge quand on m'a rappelé qu'j'étais noir Deux jours sans dormir que c'est louche, un oint-j de frappe dans la baignoire Yonea Willy ça fait des années qu'on est flex et qu'on est alliés J'ai déjà dormi sur l'pallier, tu savais pas qu'j'allais gagner hein ? Ta mère la reine des reines, elle a rien à voir On s'fait pas avoir pour du buzz ou pour un NTM J'les ai fait palpiter, wallah t'as pas idée Y'en a qui s'rappelleront à vie de Lamine Diakité J'fais des sous dans le haram et j'paie l'loyer comme un bonhomme Désolé si j't'ai banane, la rue c'est Gomorre et Sodome J'dors pas la nuit, que j'pense à Kalash et Jeff T'es là tu veux m'faire la bise mais est-ce que t'as khalass tes dettes? J'suis capuché dans l'noir, j'me suis buté tant d'fois 30 euros, quelques copains, j'me suis dépucelé dans l'bois Putain, une sale enfance pas comme mes camarades de classe Moi, j'suis un sale bâtard tenace, un pro du tabassage de MIC Et j'ai grave la dalle de maille, si tu payes pas, t'es mort man Ramassage de cash, j'prends l'enveloppe et j'te dis normal</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wesh tu cours où comme ça, là ? T'as raté l'bus ou quoi ? J'connais des mecs qui stressent pas avec un flingue sur la tempe Mes feujs font Pessa'h même quand y'a du pain sur la planche Mazeltov ! C'est qui qui bé-flan ? Le p'tit minet a pris son mic Malheureusement c'est même pas sa vie qu'il té-chan Pas naïf et méfiant j'analyse les déviants Jouer les lascars, avoir un papa flic c'est très chiant Quand la té-ci chante, on apprécie sans sucer Mec, ça fait dix ans qu'j'trouve appétissant de lutter J'vous la fous en pleine face, j'ai le juice de la tess' Allez tous dans le même sac, comme les courses de ma mère Et puis fuck si tes gars veulent pas qu'j'les vise Fallait pas cavaler CarlLewis Ça fait du biz' ou bien du buzz, beaucoup de bouffons à la base Ils abusent, et c'est pour ça qu'on les baise Bref, ZS est sur une autre planète, tox' de la zeb Mais on nique tout, donc ils sont verts comme les gosses de Namek Pas d'lavette chez nous, j'marche avec des loups Parle avec des fous, qui s'endorment que quand la plaquette s'écoule Devant la galère et l'blues, on est cé-coin Mais t'sais quoi ? On finira bien par quitter l'coin C'est pour les vrais de vrais, stressés par les gueuch' Pas les pseudo-psychopathe qui s'font traîner par les veuchs, non non Chevelu ! Wesh la rue, wesh mes gars, wesh mes kho Wesh mes bobos des quartiers huppés avec qui j'baise les gos Et j'abuse sur l'bédo, j'roulais mes premiers oinj' Que les rappeurs de mon âge jouaient encore aux Legos J'ai dit qu'j'étais l'meilleur, et je reviens pas dessus J'viens balayer les playeurs et puis on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Ben ouais les vécus sont crades, la rue a fait du bon taf Nous a bousillés, et à 20 piges, on ne fait plus son âge Élevé à la dure, mon père volait comme celui d'Aladdin On a pas fait l'mur, mais les bres-cham de l'hôtel Palatin Des fois j'ai plus la force, Max Théo, ramène-moi du pilon En un temps record, quand l'ambiance se corse C'est la merde, dehors c'est devenu chez nous Parce qu'on s'est fait virer d'chez nous À force de ne plus rester chez nous Chelou, alors on dort chez nos raclis le temps que Maman se calme J'attends le noir total dans ma tête pendant qu'l'afghan me parle C'est tess' contre tess', équipe contre équipe C'est zgueg contre fesses, ambiance électrique Sous défonce on tape des trips, qu'on pourrait jeter à la trappe Après quelques oinj' de shit, bah j'm'en bats les couilles du rap J'ai des petits plans sur le té-cô Rien de méchant je t'assure, on investit pour le nouveau plasma et la déco Les bâtards et les escrocs, qu'est-ce que j'en ai vu défiler Toujours là à t'embobiner, boîtes de nuit, cheveux gominés Fuck ton vice d'épicier, laisse-moi péra mes dièzes Insomnie, je vais pisser, en rêvant que l'État me les lèche You might also like Karatéka d'la rime, j'attaque et ça balise La tape et la panique, j'attaque et ça balise Mais moi j'arrive à garder ma famille Ma niak dévastatrice marave et t'aplatit Ça s'voit qu't'es pas de la ville ma 'caille C'est pas facile, ta vibe c'est dramatique2</t>
+          <t>Wesh tu cours où comme ça, là ? T'as raté l'bus ou quoi ? J'connais des mecs qui stressent pas avec un flingue sur la tempe Mes feujs font Pessa'h même quand y'a du pain sur la planche Mazeltov ! C'est qui qui bé-flan ? Le p'tit minet a pris son mic Malheureusement c'est même pas sa vie qu'il té-chan Pas naïf et méfiant j'analyse les déviants Jouer les lascars, avoir un papa flic c'est très chiant Quand la té-ci chante, on apprécie sans sucer Mec, ça fait dix ans qu'j'trouve appétissant de lutter J'vous la fous en pleine face, j'ai le juice de la tess' Allez tous dans le même sac, comme les courses de ma mère Et puis fuck si tes gars veulent pas qu'j'les vise Fallait pas cavaler CarlLewis Ça fait du biz' ou bien du buzz, beaucoup de bouffons à la base Ils abusent, et c'est pour ça qu'on les baise Bref, ZS est sur une autre planète, tox' de la zeb Mais on nique tout, donc ils sont verts comme les gosses de Namek Pas d'lavette chez nous, j'marche avec des loups Parle avec des fous, qui s'endorment que quand la plaquette s'écoule Devant la galère et l'blues, on est cé-coin Mais t'sais quoi ? On finira bien par quitter l'coin C'est pour les vrais de vrais, stressés par les gueuch' Pas les pseudo-psychopathe qui s'font traîner par les veuchs, non non Chevelu ! Wesh la rue, wesh mes gars, wesh mes kho Wesh mes bobos des quartiers huppés avec qui j'baise les gos Et j'abuse sur l'bédo, j'roulais mes premiers oinj' Que les rappeurs de mon âge jouaient encore aux Legos J'ai dit qu'j'étais l'meilleur, et je reviens pas dessus J'viens balayer les playeurs et puis on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Et puis on en parle plus, j'ai dit on n'en parle plus Ben ouais les vécus sont crades, la rue a fait du bon taf Nous a bousillés, et à 20 piges, on ne fait plus son âge Élevé à la dure, mon père volait comme celui d'Aladdin On a pas fait l'mur, mais les bres-cham de l'hôtel Palatin Des fois j'ai plus la force, Max Théo, ramène-moi du pilon En un temps record, quand l'ambiance se corse C'est la merde, dehors c'est devenu chez nous Parce qu'on s'est fait virer d'chez nous À force de ne plus rester chez nous Chelou, alors on dort chez nos raclis le temps que Maman se calme J'attends le noir total dans ma tête pendant qu'l'afghan me parle C'est tess' contre tess', équipe contre équipe C'est zgueg contre fesses, ambiance électrique Sous défonce on tape des trips, qu'on pourrait jeter à la trappe Après quelques oinj' de shit, bah j'm'en bats les couilles du rap J'ai des petits plans sur le té-cô Rien de méchant je t'assure, on investit pour le nouveau plasma et la déco Les bâtards et les escrocs, qu'est-ce que j'en ai vu défiler Toujours là à t'embobiner, boîtes de nuit, cheveux gominés Fuck ton vice d'épicier, laisse-moi péra mes dièzes Insomnie, je vais pisser, en rêvant que l'État me les lèche Karatéka d'la rime, j'attaque et ça balise La tape et la panique, j'attaque et ça balise Mais moi j'arrive à garder ma famille Ma niak dévastatrice marave et t'aplatit Ça s'voit qu't'es pas de la ville ma 'caille C'est pas facile, ta vibe c'est dramatique2</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Woop ! Guizi Ouzou Zigili Zone Sensible ! Yonea Willy, Willy Yonea et tu l'sais ! Damoiseau, JB, Poliakov, champagne et tequila Si ils sont de la partie, tu pourras voir mon vrai visage Démoniaque, des go-fast, des grognasses, des gros niaks, c'est le cognac Puis si y en a plus j'pillave même du gasoil ! Heuuurk ! En fait j'veux juste me foutre en l'air comme un super héros Han ! La dernière soirée qu'on a faite, y avait des subs et de l'héro Aaaah ! Batman, Bad Man J'veux m'déchirer et m'réveiller au milieu de 4 trav' Woo ! Ouais j'm'en bats les couilles si t'es castré Même si t'es une tasse-pé Achète mon CD, j'te ferais planer Malheureusement Maman ne veut pas qu'j'écoute Guizmo Quoi ? Parce qu'il incite aux bistros Hasbeen ! Moi ma mère elle aime bien Ouais ! On a acheté l'album, on l'écoute ensemble, en plus on trouve qu'il est sexy Yees J'suis mal, j'suis fonce-dé Ça passera pas à la radio Parce qu'on est pété sous sky Rock avec nous J'suis die, j'suis pété À 15 dans la voiture, on part pour une soirée folle Prends des drogues avec nous You might also like Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Et j'aimerais vous entendre crier ! Ah Ouais j'aimerais vous entendre crier Haaa ! J'aimerais vous entendre crier ! Ahah J'aimerais vous entendre crier Yo ! Et j'arrête pas ma fonce-dé tant qu'j'arrive encore à réfléchir Waw ! J'veux planer, sentir mon cerveau se rétrécir Oublier que j'suis dépressif Voilà c'est mon vrai plaisir J'ai vu mon pote pilon dans le coin et bah j'lai fait venir Entre dans ma tête Prends contrôle Fais c'que t'as à faire Reste là, jadhère et laisse-moi par terre Haa ! Si j'suis pété tant mieux Fais-moi halluciner J'veux voir des nains de jardin, des chiens qui parlent et des éléphants bleus J'veux oublier mon blaze et celui d'mes potes Zapper où jhabite et en rentrant frapper à la mauvaise porte Woow ! Histoire de faire chier le voisinage Huu ! Pour l'instant, j'en suis pas là J'ride, j'vois des tas d'images J'suis dans une chambre avec 2 ou 3 meufs Salopes ! On a roulé 2 ou 3 beuzes Wah ! J'aperçois ma euq dans 2 ou 3 seufs Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Huu ! Yo Ok J'ai des flashs, j'suis avec des salopettes J'en ai sept sur moi, j'suis leur gâteau, j'ai un niaks au bec Une viet', une gal-sen, une grecque, une italienne, j'crois qu'il y a même une martienne.. Han Faut que j'me coupe les cheveux Bref, toutes sortes de belles-gosses Y en a de fonce-dé à l'absinthe et dans l'groupe y a même une escort Girl ! Celle-là elle veut baiser, foutre la merde Hé, j'me suis vé-sau quand elle a pété sous la couette Haaa ! Mais la Viet' s'met à m'ser-cour, avec sa pote la Grecque Elles m'ont prie pour un rouleau de viande Ouais ! Elles veulent faire ner-tour J'suis mal, j'suis fons-dé Ca passera pas à la radio Parce qu'on est pétés sous sky Rock avec nous J'suis die, j'suis pété À 15 dans la voiture, on part pour une soirée folle Prends des drogues avec nous Et j'suis pas vulgaire, j'suis fonce-dé Pardonnez mes phases de cul ! Heureusement qu'y a des cochonnes qui l'achètent en cachette et qui s'doigtent dessus ! Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Et j'aimerais vous entendre crier ! Ah Ouais j'aimerais vous entendre crier Haaa ! J'aimerais vous entendre crier ! Waaaw ! Ahah J'aimerais vous entendre crier Braah ! Hé ! Tu peux-tu peux niquer la vie du procureur, s'te plait fais-le ! Si tu peux tiser jusqu'à pas d'heure, s'te plait fais-le ! Allume-toi la tête, fais-le avec moi ! Défonce-toi la gueule, c'est MDMA ! Si tu peux niquer la vie du procureur, s'te plait fais-le ! Si tu peux tiser jusqu'à pas d'heure, s'te plait fais-le ! Allume-toi la tête, fais-le avec moi ! Défonce-toi la gueule, c'est MDMAAAAAAAAAAWAAAAH !! Yees Ah Ah !</t>
+          <t>Woop ! Guizi Ouzou Zigili Zone Sensible ! Yonea Willy, Willy Yonea et tu l'sais ! Damoiseau, JB, Poliakov, champagne et tequila Si ils sont de la partie, tu pourras voir mon vrai visage Démoniaque, des go-fast, des grognasses, des gros niaks, c'est le cognac Puis si y en a plus j'pillave même du gasoil ! Heuuurk ! En fait j'veux juste me foutre en l'air comme un super héros Han ! La dernière soirée qu'on a faite, y avait des subs et de l'héro Aaaah ! Batman, Bad Man J'veux m'déchirer et m'réveiller au milieu de 4 trav' Woo ! Ouais j'm'en bats les couilles si t'es castré Même si t'es une tasse-pé Achète mon CD, j'te ferais planer Malheureusement Maman ne veut pas qu'j'écoute Guizmo Quoi ? Parce qu'il incite aux bistros Hasbeen ! Moi ma mère elle aime bien Ouais ! On a acheté l'album, on l'écoute ensemble, en plus on trouve qu'il est sexy Yees J'suis mal, j'suis fonce-dé Ça passera pas à la radio Parce qu'on est pété sous sky Rock avec nous J'suis die, j'suis pété À 15 dans la voiture, on part pour une soirée folle Prends des drogues avec nous Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Et j'aimerais vous entendre crier ! Ah Ouais j'aimerais vous entendre crier Haaa ! J'aimerais vous entendre crier ! Ahah J'aimerais vous entendre crier Yo ! Et j'arrête pas ma fonce-dé tant qu'j'arrive encore à réfléchir Waw ! J'veux planer, sentir mon cerveau se rétrécir Oublier que j'suis dépressif Voilà c'est mon vrai plaisir J'ai vu mon pote pilon dans le coin et bah j'lai fait venir Entre dans ma tête Prends contrôle Fais c'que t'as à faire Reste là, jadhère et laisse-moi par terre Haa ! Si j'suis pété tant mieux Fais-moi halluciner J'veux voir des nains de jardin, des chiens qui parlent et des éléphants bleus J'veux oublier mon blaze et celui d'mes potes Zapper où jhabite et en rentrant frapper à la mauvaise porte Woow ! Histoire de faire chier le voisinage Huu ! Pour l'instant, j'en suis pas là J'ride, j'vois des tas d'images J'suis dans une chambre avec 2 ou 3 meufs Salopes ! On a roulé 2 ou 3 beuzes Wah ! J'aperçois ma euq dans 2 ou 3 seufs Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Huu ! Yo Ok J'ai des flashs, j'suis avec des salopettes J'en ai sept sur moi, j'suis leur gâteau, j'ai un niaks au bec Une viet', une gal-sen, une grecque, une italienne, j'crois qu'il y a même une martienne.. Han Faut que j'me coupe les cheveux Bref, toutes sortes de belles-gosses Y en a de fonce-dé à l'absinthe et dans l'groupe y a même une escort Girl ! Celle-là elle veut baiser, foutre la merde Hé, j'me suis vé-sau quand elle a pété sous la couette Haaa ! Mais la Viet' s'met à m'ser-cour, avec sa pote la Grecque Elles m'ont prie pour un rouleau de viande Ouais ! Elles veulent faire ner-tour J'suis mal, j'suis fons-dé Ca passera pas à la radio Parce qu'on est pétés sous sky Rock avec nous J'suis die, j'suis pété À 15 dans la voiture, on part pour une soirée folle Prends des drogues avec nous Et j'suis pas vulgaire, j'suis fonce-dé Pardonnez mes phases de cul ! Heureusement qu'y a des cochonnes qui l'achètent en cachette et qui s'doigtent dessus ! Oubliez le jour, adoptez la nuit Tigili tcheck ! Allez-y faites l'amour, savourez la vie Han ! Il n'y a plus que la Musique Rhaa ! Rhaa ! Drogues Sniiif ! Sniif ! Meufs Oooh ! Oooh ! Oooh ! Alcool Ouaaark ! Et j'aimerais vous entendre crier ! Ah Ouais j'aimerais vous entendre crier Haaa ! J'aimerais vous entendre crier ! Waaaw ! Ahah J'aimerais vous entendre crier Braah ! Hé ! Tu peux-tu peux niquer la vie du procureur, s'te plait fais-le ! Si tu peux tiser jusqu'à pas d'heure, s'te plait fais-le ! Allume-toi la tête, fais-le avec moi ! Défonce-toi la gueule, c'est MDMA ! Si tu peux niquer la vie du procureur, s'te plait fais-le ! Si tu peux tiser jusqu'à pas d'heure, s'te plait fais-le ! Allume-toi la tête, fais-le avec moi ! Défonce-toi la gueule, c'est MDMAAAAAAAAAAWAAAAH !! Yees Ah Ah !</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Han Whoo Whoo Guizy, Nizi, yeah Whoo Whoo Okay, l'Entouseul Fils de... Toujours la même rengaine, cramer des spliffs et gratter des phases Tu peux même ramener les flics, j'vais jamais cracher des blazes Ouais j'ai dragué des femmes, elles ont kiffé Même si entre elles et moi y'avait des années d'écart Et j'vais clasher les gars qui m'cassent les couilles Ouais ça m'dégoute parce que c'est des sacrées pétasses Tu veux palper des liasses ? Man c'est cool Matte, t'es fou ! Haaa et puis tu fais raquer les passes T'as vu la vie c'est simple quand t'as l'truc Fais des ous, pète des shoes, sans les cinq ans de Bac Cousin, moi j'fais les bails en scred' Les représailles de mes 'cailles c'est c'que les balances craignent MC, t'es pas Hip Hop parce que tu pompes la Sexion Nan nan On m'test, c'est risqué comme baiser sans contraception Héhé Viens, j'vais te montrer c'que font les vrais Les bons des tess qui pondent les textes et en Requin contre l'Everest Gosse débrouillard, j'ai jamais eu d'parents poules Et j'reste d'apparence cool même si ça part en couilles A part ça nada, ah si hier j'ai couché un beat J'ai trouvé l'inspi' après avoir roulé un p'tit, t'as vu You might also like C'est pas la même dans mon ghetto et le tiens Que de l'héro' et du bédo, si tu fais l'chaud mec viens ! Hein C'est pas la même dans mon ghetto et le tiens Que de l'héro' et du bédo, si tu fais l'chaud mec viens ! Y'a des trucs de ouf qui se passent tard la nuit tah la weed Ça s'agite, j'm'assagit pas, j'assassine à Paris l'soir Ta voisine craque, j'ai encore fumé dans les étages Chanvre et pétasses, j'en ais des tas J'fais que m'enfoncer dans mes déboires Entrez les gars, fermez la porte du hall, il caille sa re-mè Faut retourner à l'épicier là, y'a du 'sky pas d'rre-vé J'suis un scarla refait, j'ai une belle montre et une signature en indé J'ai pris la tune j'suis blindé, nan j'rigole Ça traîne toujours à Villeneuve-la-Garenne Les types me crame la zeb et se fiche de la Calèche, cousin Y'a plus de gravon, plus de tiguipeugueu figuis degueu On va te fumer comme un spliguiff de beuh C'est tah les oufs, tah les malades, tah les dingues Quand j'entends toutes ces salades parler de flingues J'fais du rap, j'en profite j'suis pépère Fais belek ou Jos' va sortir le Dexter Que de l'héro' et du bédo, qu'est-ce que tu vas faire ? Tu vas nous sucer la bite C'est Villeneuve-la-Garenne sur le beat, bande d'enfoirés J'représente pour tous mes gars Matte à Sénégal, on s'en bat les couilles si c'est légal Vas-y venez voir, là où on crève la faim Putain on crève l'abcès, putain on bloque l'accès A tous les fils de pute qui veulent fouiller ma 'tess On s'en bat les couilles tu sais très bien qu'on va te niquer ta mère Si tu fais le chaud dans ma ville, traîne pas ici ! Jusqu'à Vélizy on fait les fous, on fait les singes, on fait les dingues On arrache le sac de ta reum, fils de pute on est tous fonce-dé au rhum Là c'est Guizmo légendaire, sous Jack Da', jactez Tasses-pé qu'est-ce tu vas faire à part violer mes faces B ? Je l'ai déjà fais, des punchlines et des textes Dis à tes potes qu'on est déter', qu'on les déterre leur mort Pour violer l'or qu'il y a dans leur tombe Cousin on s'en bat les couilles, c'est l'hécatombe Villeneuve-la-Garenne, Valenton les Polognes sur le beat Que des bonhommes dans la street, nique ta colonne si tu flippes Fils de... Putain de ta mère on va tout brûler C'est comme ça que ça se passe, on est tous OP On est chaud, on est bon, improvisation sur l'album Sale conne, t'as pas compris que j'm'en battais les couilles ? Hein De leur clash de merde, j'suis loin de tout ça, c'est moi le boss, le meilleur Un 8 titres, un album tous les 6 mois, ça va taffer tah les chinois x2 Ouais ouais, yo, et j'ai même pas de thème J'viens juste kicker ma vie, piller ta ville Et si y'a moyen niquer ta fille Mes soucis sont évanouis dans une vapeur de shit J'ai des valeur de king et j'ai pas peur de vivre Car on sait que la mort peut arriver d'ici peu Dans la tête, 10 spliffs de shit m'ont dissipé Fils, percer ou pas en fait j'm'en branle tant que je reste vrai Et petit à qui tu parles ? A qui tu manques de respect ? Hein, à qui tu manques de respect ? Dis moi, hein, et petit à qui tu parles ? A qui tu manques de respect ? Bleh, bleh, bleh Dis moi J'espère que c'est pas à moi sinon ça part, Entouseul bande d'enfoiré J'suis même pas seul contre tous zone sensible, y'a personne devant moi Hahahaha, ouais ouais Guizy, Guizy, Guizy, Nizi, Nizi, Nizi Zone sensible ! Whoo Whoo x2 C'est pas la même hein C'est pas la même dans mon ghetto et le tiens, que de l'héro' et du bédo Cousin, on va se soigner sans médecin, on va y mettre fin Ouais ouais, la Goutte-d'Or, Villeneuve-la-Garenne, Valenton les Polognes Al-Khali, Willy le barge, Yonea</t>
+          <t>Han Whoo Whoo Guizy, Nizi, yeah Whoo Whoo Okay, l'Entouseul Fils de... Toujours la même rengaine, cramer des spliffs et gratter des phases Tu peux même ramener les flics, j'vais jamais cracher des blazes Ouais j'ai dragué des femmes, elles ont kiffé Même si entre elles et moi y'avait des années d'écart Et j'vais clasher les gars qui m'cassent les couilles Ouais ça m'dégoute parce que c'est des sacrées pétasses Tu veux palper des liasses ? Man c'est cool Matte, t'es fou ! Haaa et puis tu fais raquer les passes T'as vu la vie c'est simple quand t'as l'truc Fais des ous, pète des shoes, sans les cinq ans de Bac Cousin, moi j'fais les bails en scred' Les représailles de mes 'cailles c'est c'que les balances craignent MC, t'es pas Hip Hop parce que tu pompes la Sexion Nan nan On m'test, c'est risqué comme baiser sans contraception Héhé Viens, j'vais te montrer c'que font les vrais Les bons des tess qui pondent les textes et en Requin contre l'Everest Gosse débrouillard, j'ai jamais eu d'parents poules Et j'reste d'apparence cool même si ça part en couilles A part ça nada, ah si hier j'ai couché un beat J'ai trouvé l'inspi' après avoir roulé un p'tit, t'as vu C'est pas la même dans mon ghetto et le tiens Que de l'héro' et du bédo, si tu fais l'chaud mec viens ! Hein C'est pas la même dans mon ghetto et le tiens Que de l'héro' et du bédo, si tu fais l'chaud mec viens ! Y'a des trucs de ouf qui se passent tard la nuit tah la weed Ça s'agite, j'm'assagit pas, j'assassine à Paris l'soir Ta voisine craque, j'ai encore fumé dans les étages Chanvre et pétasses, j'en ais des tas J'fais que m'enfoncer dans mes déboires Entrez les gars, fermez la porte du hall, il caille sa re-mè Faut retourner à l'épicier là, y'a du 'sky pas d'rre-vé J'suis un scarla refait, j'ai une belle montre et une signature en indé J'ai pris la tune j'suis blindé, nan j'rigole Ça traîne toujours à Villeneuve-la-Garenne Les types me crame la zeb et se fiche de la Calèche, cousin Y'a plus de gravon, plus de tiguipeugueu figuis degueu On va te fumer comme un spliguiff de beuh C'est tah les oufs, tah les malades, tah les dingues Quand j'entends toutes ces salades parler de flingues J'fais du rap, j'en profite j'suis pépère Fais belek ou Jos' va sortir le Dexter Que de l'héro' et du bédo, qu'est-ce que tu vas faire ? Tu vas nous sucer la bite C'est Villeneuve-la-Garenne sur le beat, bande d'enfoirés J'représente pour tous mes gars Matte à Sénégal, on s'en bat les couilles si c'est légal Vas-y venez voir, là où on crève la faim Putain on crève l'abcès, putain on bloque l'accès A tous les fils de pute qui veulent fouiller ma 'tess On s'en bat les couilles tu sais très bien qu'on va te niquer ta mère Si tu fais le chaud dans ma ville, traîne pas ici ! Jusqu'à Vélizy on fait les fous, on fait les singes, on fait les dingues On arrache le sac de ta reum, fils de pute on est tous fonce-dé au rhum Là c'est Guizmo légendaire, sous Jack Da', jactez Tasses-pé qu'est-ce tu vas faire à part violer mes faces B ? Je l'ai déjà fais, des punchlines et des textes Dis à tes potes qu'on est déter', qu'on les déterre leur mort Pour violer l'or qu'il y a dans leur tombe Cousin on s'en bat les couilles, c'est l'hécatombe Villeneuve-la-Garenne, Valenton les Polognes sur le beat Que des bonhommes dans la street, nique ta colonne si tu flippes Fils de... Putain de ta mère on va tout brûler C'est comme ça que ça se passe, on est tous OP On est chaud, on est bon, improvisation sur l'album Sale conne, t'as pas compris que j'm'en battais les couilles ? Hein De leur clash de merde, j'suis loin de tout ça, c'est moi le boss, le meilleur Un 8 titres, un album tous les 6 mois, ça va taffer tah les chinois x2 Ouais ouais, yo, et j'ai même pas de thème J'viens juste kicker ma vie, piller ta ville Et si y'a moyen niquer ta fille Mes soucis sont évanouis dans une vapeur de shit J'ai des valeur de king et j'ai pas peur de vivre Car on sait que la mort peut arriver d'ici peu Dans la tête, 10 spliffs de shit m'ont dissipé Fils, percer ou pas en fait j'm'en branle tant que je reste vrai Et petit à qui tu parles ? A qui tu manques de respect ? Hein, à qui tu manques de respect ? Dis moi, hein, et petit à qui tu parles ? A qui tu manques de respect ? Bleh, bleh, bleh Dis moi J'espère que c'est pas à moi sinon ça part, Entouseul bande d'enfoiré J'suis même pas seul contre tous zone sensible, y'a personne devant moi Hahahaha, ouais ouais Guizy, Guizy, Guizy, Nizi, Nizi, Nizi Zone sensible ! Whoo Whoo x2 C'est pas la même hein C'est pas la même dans mon ghetto et le tiens, que de l'héro' et du bédo Cousin, on va se soigner sans médecin, on va y mettre fin Ouais ouais, la Goutte-d'Or, Villeneuve-la-Garenne, Valenton les Polognes Al-Khali, Willy le barge, Yonea</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J'suis ce black qui s'démarque dans un smooth smoking J'suis plus audacieux que le coup d'Scofield J'aimerais faire une soirée avec 12 copines Toutes alcoolisées afin que mes couz' dogging J'crois qu't'as compris qu'on était tous polis Tous polygames, on a une douce folie Mais la vie c'est pas qu'la fête, on a l'blues aussi Car trop de frères se font lever à cause d'un coup d'go-bi Là je rappe sérieux donc écoute homie Tu s'ras pas l'bienvenue si t'as les couilles trop fines Lâchez vos gazelles, que mes loups profitent Messieurs s'il y a d'la maille, Guiz' épouse vos filles Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres You might also like C'est pas des coups d'foudre, même si on s'accouple souvent C'est des coups d'fil, des coups de reins en coup d'vent Et elles le savent, elles ont pas grandi au couvent Pas d'boucan mais doucement, j'l'entends jouir en s'étouffant Faut faire ça bien, faut qu'ça groove au lit Y'a que ce que j'ai dans l'froc que sa bouche domine La tête en l'air, jamais entre des cuisses Des parents se réveillent à l'heure où rentrent mes bitchs Et j'pense à ceux à l'ombre qui n'aiment que les foufs Qu'en ont marre des gloubis, des soucis et qui rêvent de rrer-fou J'me vois loin dans un rouge bolide À ma droite, une p'tite meuf avec un boule torride Guiz' Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres J'ai serré celles du ghetto, j'ai serré celles des quartiers huppés Heineken et bédo, en tête-à-tête on part t'expliquer Et même rré-bou, j'ai la charge de rester actif Elles aiment ma bouille et ma boîte de préservatifs J'l'ai déjà fait en cachette vite fait dans un endroit public Discret, les flics guettent et quand t'en vois tu flippes Ça t'fait sourire ? Tu l'as p't-être déjà fait Mais t'es pas cochonne ou cochon, c'est juste eux qui sont pas prêts Et en concert, combien m'ont suivi à l'hôtel ? Les p'tites filles à papa deviennent des missiles à problèmes Et j'me rends compte qu'elles sont toutes trop speed J'répète, s'il y a d'la maille, Guiz' épouse vos filles Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres4</t>
+          <t>J'suis ce black qui s'démarque dans un smooth smoking J'suis plus audacieux que le coup d'Scofield J'aimerais faire une soirée avec 12 copines Toutes alcoolisées afin que mes couz' dogging J'crois qu't'as compris qu'on était tous polis Tous polygames, on a une douce folie Mais la vie c'est pas qu'la fête, on a l'blues aussi Car trop de frères se font lever à cause d'un coup d'go-bi Là je rappe sérieux donc écoute homie Tu s'ras pas l'bienvenue si t'as les couilles trop fines Lâchez vos gazelles, que mes loups profitent Messieurs s'il y a d'la maille, Guiz' épouse vos filles Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres C'est pas des coups d'foudre, même si on s'accouple souvent C'est des coups d'fil, des coups de reins en coup d'vent Et elles le savent, elles ont pas grandi au couvent Pas d'boucan mais doucement, j'l'entends jouir en s'étouffant Faut faire ça bien, faut qu'ça groove au lit Y'a que ce que j'ai dans l'froc que sa bouche domine La tête en l'air, jamais entre des cuisses Des parents se réveillent à l'heure où rentrent mes bitchs Et j'pense à ceux à l'ombre qui n'aiment que les foufs Qu'en ont marre des gloubis, des soucis et qui rêvent de rrer-fou J'me vois loin dans un rouge bolide À ma droite, une p'tite meuf avec un boule torride Guiz' Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres J'ai serré celles du ghetto, j'ai serré celles des quartiers huppés Heineken et bédo, en tête-à-tête on part t'expliquer Et même rré-bou, j'ai la charge de rester actif Elles aiment ma bouille et ma boîte de préservatifs J'l'ai déjà fait en cachette vite fait dans un endroit public Discret, les flics guettent et quand t'en vois tu flippes Ça t'fait sourire ? Tu l'as p't-être déjà fait Mais t'es pas cochonne ou cochon, c'est juste eux qui sont pas prêts Et en concert, combien m'ont suivi à l'hôtel ? Les p'tites filles à papa deviennent des missiles à problèmes Et j'me rends compte qu'elles sont toutes trop speed J'répète, s'il y a d'la maille, Guiz' épouse vos filles Ouais je les aime, ouais je les aime Je les aime crois-moi, je les aime C'est pour celle que j'ai à Lyon, celle que j'ai à Dijon Celle qui fait la différence entre moi et son pigeon C'est pour celle que j'ai à Lille, celle que j'ai à Strasbourg Celle que j'ai à Nice et celle que j'ai à Tours C'est pour celle que j'ai à Rennes, celle que j'ai à Marseille Celle que j'ai à Paname, celle que j'ai à Sarcelles Bisou celle qui a l'tatouage sur les fesses Bisou celle qui passe ses doigts sur mes lèvres4</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>YW jusqu'à l'infini, G.P Gangsters, Urban Hit, bande d'enfoirés Si, si, si Brrahw, brrahw, brrahw Toujours sur Urban Hit et là on va passer en mode live, c'est Guizmo, donc j'te laisse les commandes mon pote Envoies la sauce mon 'soss, aïe, aïe, aïe, aïe, aïe, aïe Tout le monde roule un joint de beuh Roulez, roulez, roulez Rouleeez ! Igo Ahrg ! J'aime l'alcool et le popo Wouh ! Wouh ! J'aime l'alcool et le popo, les grosses chiennes et les pe-clo J'aime l'alcool et le popo Ahrg ! J'aime l'alcool et le popo Gangsters, j'aime l'alcool et le popo Gangsters Check, check, eh, eh Poussé dans la merde, j'avais pas un clou Tout est dans ma tête, j'ai les phases d'un fou J'ai mes tass de nuit et mes tass d'un jour Ca traine dans la ville avec quatre sins-cou J'suis dans ma té-ci non j'habite pas Saint Cloud Ca fais du ffe-bi, les tits-pe tapent un foot A se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé m'demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai besoin d'eux, j'ai des gavas surs et des shlass Même pas 20 mesures t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de VLT m'donnaient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pécho ma p'tite gueule J'encule la trap' dans ma zone à Villeneuve Un contre cinq, nique sa mère j'suis single Cinquième album et toujours pas de single You might also like Urban Hit Oh, Urban Hit Oh Urban Hit Oh, Urban Hit Gangsters YW Laisse couler encore un p'tit peu, on va lui niquer sa mère a celle là j'crois Check, check, eh J'ai toujours vu mon grand frère porter ses couilles Dépanner mama, avec ses forces et ses douilles Mec, on est pas des pédales je suis pas morche mais j'suis ouf Tu peux ramener tes gars, tous tes potes on les troue Tes potes on les bouffes P38 dans le zoo Dit moi tu vas faire quoi si sa part en illes-cou Villeneuve la garenne poto sa pue la lère-ga Tu peux te faire fumer pour un peu moins d'un ze-dou Ça triquar la tess ça bicrave la cess' Des trimards, des flicards, des p'tits crament la zeb Efficace mais bizarre, les visage des sistas, des primes et des shlags Et des smicards lattestent Mec on est malades, paumés dans la té-ci Prends ton 20 balles ou nique ta mère si t'es indécis On peut te faire du mal dégage de la espèce dimbécile Je devient nerveux a force de fumer de la résine Ah J'ai grandis dans les blocks de béton Poto la rue m'a charmé , j'ai fait du sale et puis je suis bé-tom Depuis que j'ai 15 ans je suis cramé J'ai déjà fait le tour du 77, le tour du 94, le tour du 92 Le tour des meufs plates, le tour des meufs crades Le tour des meufs qui voulait que le Guizmo, et le tour des meufs classes Je veux mon biff et puis c'est tout, j'ai mes bastos et mon six-coups Me compare pas a zifou, moi j'ai grandis dans la rue je pacte avec les loups Je veux mon biff et puis c'est tout, j'ai mes bastos et mon six-coups Me compare pas a zifou, moi j'ai grandis dans la rue je pacte avec les loups Urban, Urban, Hit, Hit, Urban Hit Partout en région parisienne Urban Hit Urban Hit Ah, ah, ah, ah Ah, ah, ah, ah Eh, eh J'vis que dans le bordel J'nique les porcs, le top ten Et ne me visez pas les pieds sinon je suis là demain Avec une équipe, un putain de cortège Bang-Bang, Mother fucker G.P.G Ouais, ouais toutes les meufs que j'ai baisé M'ont dit Guizi vas-y fais doucement ou ma shnek va finir blessée J'en ai marre de vous apprendre à pé-ra J'en ai marre de vous apprendre à pé-ra J'en ai marre d'assumer, j'allais me faire allumer Glock devant ma gueule, et ouais j'étais là Toi t'étais où négro ? T'étais pas dans le coup négro Toi t'étais à la cool négro Et tu nous dis que t'as des couilles négro ? La putain de ta race, j'veux un putain d'palace De la putain d'caillasse, deux, trois putes, un Famas Un 9mm, quelques grenades, pour éclater des faces et un putain d'Famas Oh putain je tabasse, putain je fracasse Ta gueule sur le sol comme Edward Norton J'ai beaucoup de gars qui sont pas importants Mais qui vont t'allumer ta race parce que les couilles l'ordonne Faîtes pas les malins, Lascar et Malé Viens si t'as des couilles, vas te faire rafaler Viens si t'as des douilles, viens tu vas avaler Mec je suis pas seul et si tu bouges ça va barder Eh ! J'suis pas pareil que tout les autres rappeurs Mon père à moi c'était un vrai gangster C'est moi le meilleur j'te sors un flow t'as peur J'veux ma baraque avec un p'tite plan d'Z demande à Helboy La beuh c'est doux, c'est doux, c'est doux Fils de pute ? GPGang c'est nous, c'est nous, c'est nous Venez pas nous test on perd pas de temps Venez pas nous test on laisse pas le gang Glock, cagoule, bâtiment, ve-ca, et aller tu resteras dedans J'vis que dans le bordel moi J'vis que dans le bordel moi J'vis que dans le bordel moi J'vis que dans le bordel moi Je deviens fou j'ai plus de pitié Mes gars font des sous en bas de la cité Poto c'est pas tout de savoir kicker Si tu veux blaguer mon crew, tu vas te faire niquer Comme ma pute de la nuit dernière Atteindre mes buts, eh ben oui je sais le faire Tu connais pas mes luttes, tu connais pas mes chutes J'suis en bas du hall avec huit cerbères T'as pas de tard-pé, viens pas nous voir G.P.G fric et pouvoir Posé dans le quartier jencule des faces B Et j'préfère écrire quand il fait tout noir Tu me verras pas fuir, m'traite pas de saoûlard Leggins en cuir, j'té-ma son boulard J'ai envie de lui dire, c'est quand que j'te tire ? Dans les escales ou même dans le couloir Gangsta Paradise Garanti Ratatata, j'pars en vrille Je voyais mon papa aller au card-pla Et un petit bâtard me voir grandir Putain c'est quoi ça ? Vécu de poissard Douma Kalash avait raison Passe le goro et les massa Et puis basta J'suis dans une autre galaxie Urban Hit Je bédave pour me relaxer Pas de medoc de pharmacie Y'a que la beuh que je veux niackser Tu sais pas qui je suis ? Et tu veux jouer avec moi ? Ok mon grand c'est parti, si tu veux faire le gangsta En tous cas j'ai pas reup Et tu veux savoir pourquoi ? Parce que moi je cours pas Je suis le digne fils de mon reup La vie de ma mère, Diakité, appliqué, abdiqué Jamais de la vie, on a des marabouts impliquer, c'est compliquer De m'ôter de la vie, des fois je traîne avec Amadi Des fois j'suis aux Al Madie Souvent j'suis avec lascar mais souvent j'suis dans Dakar J'ai la tête qui va exploser, à Paname, gros l'hiver c'est triste Quand j'en ai marre de trop m'exposer, je me dirige vers liberté 6 Sénégal à vie, je fais du sale à vous Je bouffe pas de salami, mais le mafé de Kadjatou Dès le matin, 9.4 la ZUP, Gangsters, Villeneuve-la-Garenne, les imeubles la galère, les filles veuves, la galette Valenton, Les Polognes et tout le reste Yonea Willy, Willy Yonea, jusqu'à l'infini Urban Hit J'fume de la beuh, eh Je fume de la beuh, dès le matin Je veux tremper ma queue, dès le matin Allez fais-moi des ufs, p'tite catin Biff jaune et bleu, c'est le vaccin On s'en bat les couilles c'est les G.P.G On fait l'argent rapide comme le TGV J'veux cramer la banlieue comme a fait papa Et aller à la Mecque comme a fait pépé Et j'veux plus voir tous ces Gepetto Ah, ah, ah, tu m'fais des p'tits bugs, enfoiré va Allez, rebalance moi cette merde la On va leur montrer que c'est facile ça Check, ok Gang, eh J'aime les voir à quatre pattes, j'aime les voir à quatre pattes J'aime les voir à quatre pattes, eh, eh, eh, ok J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus Moi, moi J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus J'te jure J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus Nigga J'aime les voir à quatre pattes ah, j'aime les voir à quatre pattes Motherfuck' J'suis fon', fon', fon', fon', fon' Guizmo, bon, bon, bon, bon, bon Elle est bonne, elle est opé' Hein Elle est bonne, elle est opé', elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée, tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup J'baise au pluriel, tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi, j'lui rentre ça bien jusqu'au fond Évidemment j'suis un cochon, j'ai des potes-ca et des pochons Girl écarte tes cuisses, qu'on te biffle motherfucker, 'fucker Girl écarte tes cuisses, que j'te Woouh Urban Hit Urban Hit Han, gangsters Han, check Sept fois, j'ai jamais retourné ma langue J'ai un flingue, j'ai du shit, j'ai un pit, j'suis dans un gang Motherfuck' Han, pour mes gangsters Fuck le monde j'ai pas d'patience Les porcs se font les gars d'ma bande Je tords le son, les portes sont mées-fer, mais on a d'l'avance On passe par la fe-gue-nê-guê-tre, un schlass tu nous re-gue-mets-guets Les liasses faut qu'on brasse, si tu m'cannes bah j're-gue-nait-guait Vis comme un renégat, scred dans mes déplacements Traîne qu'avec des cas-soc', miss y'a rien d'épatant Et j'pense que la vie est belle, quand elle a taillé sa pipe Gros eins', gros cul, putain j'ai oublié d'appeler la SPIP J'suis dans ma sphère, génération 91 Pillave, bicrave on a du détail pas besoin d'cons' Moi j'ai prié avec foi, ma ville est avec moi On a la haine comme dans la squal cousin ma cité va quer-cra Eh ! Igo, on est à se-l'ai dans nos baskets neuves Si c'est des liasses qu'elles veulent Elles auront pas ce qu'elles veulent Igo, j'la touche pas si elle a pas d'belles sseuf' Et si elle m'casse les ieups', moi j'me fais sa belle sur, Igo Envoie les feuilles j'vais nous rouler un deltaplane Laisse tomber ton vieux leur-dea Il t'parle de frappe y t'fait d'la caille non, non Moi j'représente, tout les coins et toutes les zones Jette un il, y a pas qu'des mecs qui fourrent des mômes Banlieusard y m'faut ma paire de quin-re, check le 20e, bête de joint d'beuh Ouais je tiens le choc, motherfuck', mec j'dormirai main-de Jusqu'à Saint Leu, j'ai faim le temps passe, j'embrasse de grandes liasses Ah ! Et si Dieu veut le temps de la crise et bien vieux, j'suis un affamé, j'ai faim de Si j'ai vu les flics c'est 22, rien à foutre, tes potes sont blindés, on veut juste brasser un peu Un peu, un peu, eh Rien à foutre, tes potes sont blindés, on veut juste, han Urban, Urban, Hit, Hit Partout en région parisienne Eh, eh, check, check L'encre coule, le sang se répand, les frères vivent en marge, fils Finissent en cage, leur avenir finit saccagé Saccager nos bâtiments le soir, c'est ça nos vies On s'atrophie l'esprit avec le shit et d'autres saloperies Depuis que la baraka est partie, ça fait des bagarres À dix contre un, on s'croirait dans un géant paris Paris ou Marseille, dans le fond c'est la même On s'éternise à faire du fric car il en faut plus que la veille Et certains papas ont fait leur valise pour retourner au village Ou bien ont divorcé, voilà un petit bout de ce qui nous arrive L'arrivée chez nous c'est tout ce qu'on vise depuis l'départ Et vu qu'ici y'a pas les loves constamment on s'nourrit d'espoir On n'cesse de saliver, devant les gosses de riches et autres fortunes Cadre supérieur, Gianni Versace sur le costume Costume de flic ou de racaille sont de sortis Légal ou pas, les deux travaillent, donc ce sera morbide Morbides sont les allées que l'on fréquente On a des rêves de monter haut même quand on part pour une descente Je vois les petits frères s'enliser, certains se cachent Pour se mettre sous flash ne vivent que pour s'enivrer S'enivrer, s'empirer encore et encore Aller flamber devant les gadjis qui veulent des colliers en or Mais c'est pas la vie ça même si c'est pleins d'aléas J'pense à ceux qui se sont dit J'veux tout plaquer, allez hop Aller dégaine de fatigué, on traîne sur l'avenue Comme des chiens qu'ont pas vu que la fourrière allait les embarquer Entassés, trop souvent passés des nuits au poste Et je parle pas de la FM mais de celui qui laisse des bosses Au RMI on fait des mioches, ceux que la DDASS veut placer J'en connais plus d'un qui dirait que c'est moche Mais demain c'est loin, de toute façon on s'en fiche Urban Hit On veut tout niquer, grimper à la tête de l'affiche Ouais, demain c'est loin mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Mec demain c'est loin alors sur le coup on y pense pas J'crois qu'il y a des plaies que les hôpitaux ne pansent pas J'te parle de frères et de surs qu'en ont trop vu J'te parle de pères en détresse qu'en ont trop bu Et peu importe la boisson quand t'es encloisonné La moins forte des boissons peut empoisonner Bah ouais, prisonnier de nos destins pas si roses Victime du cancer du poumon et de la cirrhose Et la poisse nous rit au nez, pas d'sous pour réveillonner Les durs s'en sortent alors les sentiments sont ballonnés La veille on était en vie, demain on sait pas trop Et peu importe le physique, par chez nous on s'appelle gros Gros c'est comme ça qu'on veut le compte en banque Marre de manger des briques et de voir qu'on est en manque Sky et pastaga, la maille passe-la moi Tu connais déjà les ratchatchatcha tchatcha Voyons, c'est pas la fin on peut tout faire Et tant que nos mères sont en vie, croyez-moi on peut tout perdre Perdre trop souvent c'est le cas Faut s'éloigner de tout pour tenir le cap et revenir debout La recette on est pas nés avec, on la prend Autant que la perche ne s'demande pas, on te la tend Attends, de toute façon on a l'habitude De mener la vie dure, voir les proches vautrer sur le bitume Demain c'est loin, de toute façon on en parle plus tard Malgré les fautes on est passés par le plus dar Demain c'est loin, demain c'est mort Demain c'est loin, demain c'est mort, frère Si, si, si, Guizmo Bah, t'as pas failli à ta réputation, hein, comme d'hab' J'éclate au mic</t>
+          <t>YW jusqu'à l'infini, G.P Gangsters, Urban Hit, bande d'enfoirés Si, si, si Brrahw, brrahw, brrahw Toujours sur Urban Hit et là on va passer en mode live, c'est Guizmo, donc j'te laisse les commandes mon pote Envoies la sauce mon 'soss, aïe, aïe, aïe, aïe, aïe, aïe Tout le monde roule un joint de beuh Roulez, roulez, roulez Rouleeez ! Igo Ahrg ! J'aime l'alcool et le popo Wouh ! Wouh ! J'aime l'alcool et le popo, les grosses chiennes et les pe-clo J'aime l'alcool et le popo Ahrg ! J'aime l'alcool et le popo Gangsters, j'aime l'alcool et le popo Gangsters Check, check, eh, eh Poussé dans la merde, j'avais pas un clou Tout est dans ma tête, j'ai les phases d'un fou J'ai mes tass de nuit et mes tass d'un jour Ca traine dans la ville avec quatre sins-cou J'suis dans ma té-ci non j'habite pas Saint Cloud Ca fais du ffe-bi, les tits-pe tapent un foot A se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé m'demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai besoin d'eux, j'ai des gavas surs et des shlass Même pas 20 mesures t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de VLT m'donnaient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pécho ma p'tite gueule J'encule la trap' dans ma zone à Villeneuve Un contre cinq, nique sa mère j'suis single Cinquième album et toujours pas de single Urban Hit Oh, Urban Hit Oh Urban Hit Oh, Urban Hit Gangsters YW Laisse couler encore un p'tit peu, on va lui niquer sa mère a celle là j'crois Check, check, eh J'ai toujours vu mon grand frère porter ses couilles Dépanner mama, avec ses forces et ses douilles Mec, on est pas des pédales je suis pas morche mais j'suis ouf Tu peux ramener tes gars, tous tes potes on les troue Tes potes on les bouffes P38 dans le zoo Dit moi tu vas faire quoi si sa part en illes-cou Villeneuve la garenne poto sa pue la lère-ga Tu peux te faire fumer pour un peu moins d'un ze-dou Ça triquar la tess ça bicrave la cess' Des trimards, des flicards, des p'tits crament la zeb Efficace mais bizarre, les visage des sistas, des primes et des shlags Et des smicards lattestent Mec on est malades, paumés dans la té-ci Prends ton 20 balles ou nique ta mère si t'es indécis On peut te faire du mal dégage de la espèce dimbécile Je devient nerveux a force de fumer de la résine Ah J'ai grandis dans les blocks de béton Poto la rue m'a charmé , j'ai fait du sale et puis je suis bé-tom Depuis que j'ai 15 ans je suis cramé J'ai déjà fait le tour du 77, le tour du 94, le tour du 92 Le tour des meufs plates, le tour des meufs crades Le tour des meufs qui voulait que le Guizmo, et le tour des meufs classes Je veux mon biff et puis c'est tout, j'ai mes bastos et mon six-coups Me compare pas a zifou, moi j'ai grandis dans la rue je pacte avec les loups Je veux mon biff et puis c'est tout, j'ai mes bastos et mon six-coups Me compare pas a zifou, moi j'ai grandis dans la rue je pacte avec les loups Urban, Urban, Hit, Hit, Urban Hit Partout en région parisienne Urban Hit Urban Hit Ah, ah, ah, ah Ah, ah, ah, ah Eh, eh J'vis que dans le bordel J'nique les porcs, le top ten Et ne me visez pas les pieds sinon je suis là demain Avec une équipe, un putain de cortège Bang-Bang, Mother fucker G.P.G Ouais, ouais toutes les meufs que j'ai baisé M'ont dit Guizi vas-y fais doucement ou ma shnek va finir blessée J'en ai marre de vous apprendre à pé-ra J'en ai marre de vous apprendre à pé-ra J'en ai marre d'assumer, j'allais me faire allumer Glock devant ma gueule, et ouais j'étais là Toi t'étais où négro ? T'étais pas dans le coup négro Toi t'étais à la cool négro Et tu nous dis que t'as des couilles négro ? La putain de ta race, j'veux un putain d'palace De la putain d'caillasse, deux, trois putes, un Famas Un 9mm, quelques grenades, pour éclater des faces et un putain d'Famas Oh putain je tabasse, putain je fracasse Ta gueule sur le sol comme Edward Norton J'ai beaucoup de gars qui sont pas importants Mais qui vont t'allumer ta race parce que les couilles l'ordonne Faîtes pas les malins, Lascar et Malé Viens si t'as des couilles, vas te faire rafaler Viens si t'as des douilles, viens tu vas avaler Mec je suis pas seul et si tu bouges ça va barder Eh ! J'suis pas pareil que tout les autres rappeurs Mon père à moi c'était un vrai gangster C'est moi le meilleur j'te sors un flow t'as peur J'veux ma baraque avec un p'tite plan d'Z demande à Helboy La beuh c'est doux, c'est doux, c'est doux Fils de pute ? GPGang c'est nous, c'est nous, c'est nous Venez pas nous test on perd pas de temps Venez pas nous test on laisse pas le gang Glock, cagoule, bâtiment, ve-ca, et aller tu resteras dedans J'vis que dans le bordel moi J'vis que dans le bordel moi J'vis que dans le bordel moi J'vis que dans le bordel moi Je deviens fou j'ai plus de pitié Mes gars font des sous en bas de la cité Poto c'est pas tout de savoir kicker Si tu veux blaguer mon crew, tu vas te faire niquer Comme ma pute de la nuit dernière Atteindre mes buts, eh ben oui je sais le faire Tu connais pas mes luttes, tu connais pas mes chutes J'suis en bas du hall avec huit cerbères T'as pas de tard-pé, viens pas nous voir G.P.G fric et pouvoir Posé dans le quartier jencule des faces B Et j'préfère écrire quand il fait tout noir Tu me verras pas fuir, m'traite pas de saoûlard Leggins en cuir, j'té-ma son boulard J'ai envie de lui dire, c'est quand que j'te tire ? Dans les escales ou même dans le couloir Gangsta Paradise Garanti Ratatata, j'pars en vrille Je voyais mon papa aller au card-pla Et un petit bâtard me voir grandir Putain c'est quoi ça ? Vécu de poissard Douma Kalash avait raison Passe le goro et les massa Et puis basta J'suis dans une autre galaxie Urban Hit Je bédave pour me relaxer Pas de medoc de pharmacie Y'a que la beuh que je veux niackser Tu sais pas qui je suis ? Et tu veux jouer avec moi ? Ok mon grand c'est parti, si tu veux faire le gangsta En tous cas j'ai pas reup Et tu veux savoir pourquoi ? Parce que moi je cours pas Je suis le digne fils de mon reup La vie de ma mère, Diakité, appliqué, abdiqué Jamais de la vie, on a des marabouts impliquer, c'est compliquer De m'ôter de la vie, des fois je traîne avec Amadi Des fois j'suis aux Al Madie Souvent j'suis avec lascar mais souvent j'suis dans Dakar J'ai la tête qui va exploser, à Paname, gros l'hiver c'est triste Quand j'en ai marre de trop m'exposer, je me dirige vers liberté 6 Sénégal à vie, je fais du sale à vous Je bouffe pas de salami, mais le mafé de Kadjatou Dès le matin, 9.4 la ZUP, Gangsters, Villeneuve-la-Garenne, les imeubles la galère, les filles veuves, la galette Valenton, Les Polognes et tout le reste Yonea Willy, Willy Yonea, jusqu'à l'infini Urban Hit J'fume de la beuh, eh Je fume de la beuh, dès le matin Je veux tremper ma queue, dès le matin Allez fais-moi des ufs, p'tite catin Biff jaune et bleu, c'est le vaccin On s'en bat les couilles c'est les G.P.G On fait l'argent rapide comme le TGV J'veux cramer la banlieue comme a fait papa Et aller à la Mecque comme a fait pépé Et j'veux plus voir tous ces Gepetto Ah, ah, ah, tu m'fais des p'tits bugs, enfoiré va Allez, rebalance moi cette merde la On va leur montrer que c'est facile ça Check, ok Gang, eh J'aime les voir à quatre pattes, j'aime les voir à quatre pattes J'aime les voir à quatre pattes, eh, eh, eh, ok J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus Moi, moi J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus J'te jure J'aime les voir à quatre pattes, quand elles transpirent et qu'elles sont nus Nigga J'aime les voir à quatre pattes ah, j'aime les voir à quatre pattes Motherfuck' J'suis fon', fon', fon', fon', fon' Guizmo, bon, bon, bon, bon, bon Elle est bonne, elle est opé' Hein Elle est bonne, elle est opé', elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée, tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup J'baise au pluriel, tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi, j'lui rentre ça bien jusqu'au fond Évidemment j'suis un cochon, j'ai des potes-ca et des pochons Girl écarte tes cuisses, qu'on te biffle motherfucker, 'fucker Girl écarte tes cuisses, que j'te Woouh Urban Hit Urban Hit Han, gangsters Han, check Sept fois, j'ai jamais retourné ma langue J'ai un flingue, j'ai du shit, j'ai un pit, j'suis dans un gang Motherfuck' Han, pour mes gangsters Fuck le monde j'ai pas d'patience Les porcs se font les gars d'ma bande Je tords le son, les portes sont mées-fer, mais on a d'l'avance On passe par la fe-gue-nê-guê-tre, un schlass tu nous re-gue-mets-guets Les liasses faut qu'on brasse, si tu m'cannes bah j're-gue-nait-guait Vis comme un renégat, scred dans mes déplacements Traîne qu'avec des cas-soc', miss y'a rien d'épatant Et j'pense que la vie est belle, quand elle a taillé sa pipe Gros eins', gros cul, putain j'ai oublié d'appeler la SPIP J'suis dans ma sphère, génération 91 Pillave, bicrave on a du détail pas besoin d'cons' Moi j'ai prié avec foi, ma ville est avec moi On a la haine comme dans la squal cousin ma cité va quer-cra Eh ! Igo, on est à se-l'ai dans nos baskets neuves Si c'est des liasses qu'elles veulent Elles auront pas ce qu'elles veulent Igo, j'la touche pas si elle a pas d'belles sseuf' Et si elle m'casse les ieups', moi j'me fais sa belle sur, Igo Envoie les feuilles j'vais nous rouler un deltaplane Laisse tomber ton vieux leur-dea Il t'parle de frappe y t'fait d'la caille non, non Moi j'représente, tout les coins et toutes les zones Jette un il, y a pas qu'des mecs qui fourrent des mômes Banlieusard y m'faut ma paire de quin-re, check le 20e, bête de joint d'beuh Ouais je tiens le choc, motherfuck', mec j'dormirai main-de Jusqu'à Saint Leu, j'ai faim le temps passe, j'embrasse de grandes liasses Ah ! Et si Dieu veut le temps de la crise et bien vieux, j'suis un affamé, j'ai faim de Si j'ai vu les flics c'est 22, rien à foutre, tes potes sont blindés, on veut juste brasser un peu Un peu, un peu, eh Rien à foutre, tes potes sont blindés, on veut juste, han Urban, Urban, Hit, Hit Partout en région parisienne Eh, eh, check, check L'encre coule, le sang se répand, les frères vivent en marge, fils Finissent en cage, leur avenir finit saccagé Saccager nos bâtiments le soir, c'est ça nos vies On s'atrophie l'esprit avec le shit et d'autres saloperies Depuis que la baraka est partie, ça fait des bagarres À dix contre un, on s'croirait dans un géant paris Paris ou Marseille, dans le fond c'est la même On s'éternise à faire du fric car il en faut plus que la veille Et certains papas ont fait leur valise pour retourner au village Ou bien ont divorcé, voilà un petit bout de ce qui nous arrive L'arrivée chez nous c'est tout ce qu'on vise depuis l'départ Et vu qu'ici y'a pas les loves constamment on s'nourrit d'espoir On n'cesse de saliver, devant les gosses de riches et autres fortunes Cadre supérieur, Gianni Versace sur le costume Costume de flic ou de racaille sont de sortis Légal ou pas, les deux travaillent, donc ce sera morbide Morbides sont les allées que l'on fréquente On a des rêves de monter haut même quand on part pour une descente Je vois les petits frères s'enliser, certains se cachent Pour se mettre sous flash ne vivent que pour s'enivrer S'enivrer, s'empirer encore et encore Aller flamber devant les gadjis qui veulent des colliers en or Mais c'est pas la vie ça même si c'est pleins d'aléas J'pense à ceux qui se sont dit J'veux tout plaquer, allez hop Aller dégaine de fatigué, on traîne sur l'avenue Comme des chiens qu'ont pas vu que la fourrière allait les embarquer Entassés, trop souvent passés des nuits au poste Et je parle pas de la FM mais de celui qui laisse des bosses Au RMI on fait des mioches, ceux que la DDASS veut placer J'en connais plus d'un qui dirait que c'est moche Mais demain c'est loin, de toute façon on s'en fiche Urban Hit On veut tout niquer, grimper à la tête de l'affiche Ouais, demain c'est loin mais on s'en fout on est têtus A quoi bon s'projeter si c'est pour être déçu ? Mec demain c'est loin alors sur le coup on y pense pas J'crois qu'il y a des plaies que les hôpitaux ne pansent pas J'te parle de frères et de surs qu'en ont trop vu J'te parle de pères en détresse qu'en ont trop bu Et peu importe la boisson quand t'es encloisonné La moins forte des boissons peut empoisonner Bah ouais, prisonnier de nos destins pas si roses Victime du cancer du poumon et de la cirrhose Et la poisse nous rit au nez, pas d'sous pour réveillonner Les durs s'en sortent alors les sentiments sont ballonnés La veille on était en vie, demain on sait pas trop Et peu importe le physique, par chez nous on s'appelle gros Gros c'est comme ça qu'on veut le compte en banque Marre de manger des briques et de voir qu'on est en manque Sky et pastaga, la maille passe-la moi Tu connais déjà les ratchatchatcha tchatcha Voyons, c'est pas la fin on peut tout faire Et tant que nos mères sont en vie, croyez-moi on peut tout perdre Perdre trop souvent c'est le cas Faut s'éloigner de tout pour tenir le cap et revenir debout La recette on est pas nés avec, on la prend Autant que la perche ne s'demande pas, on te la tend Attends, de toute façon on a l'habitude De mener la vie dure, voir les proches vautrer sur le bitume Demain c'est loin, de toute façon on en parle plus tard Malgré les fautes on est passés par le plus dar Demain c'est loin, demain c'est mort Demain c'est loin, demain c'est mort, frère Si, si, si, Guizmo Bah, t'as pas failli à ta réputation, hein, comme d'hab' J'éclate au mic</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J'ai vu la mort de près Elle a volé mes proches Rendez-moi ma famille J'vous donne tout c'que j'ai dans les poches Et j'suis alcoolique, j'fais des phases d'autiste Quand je parle au shit C'est des saloperies, c'est des parodies, c'est des sarkozystes J'parle à mes chamanes à six heures du matin Ils me disent que j'vais crever Wallaye poto j'suis pas bien Dites à mon fils, à sa mère que j'vais partir avant eux Ça s'encule pour un kilo Et ça s'crève pour un vingt eu Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, j'ai fini en taule, ça a foiré Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, ça a foiré C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro You might also like J'suis dans la jungle Tu peux d'mander à Guy Quand y'avait de la bagarre, on n'était jamais assis Mon papa à moi, c'était l'roi des voleurs Je suis dans mon werss depuis l'Code de l'Honneur Lascar est dans mon dos, Khalil et Maxou sont à ma droite Y'a Malik qu'est pas très loin Si tu veux du bédo, y'a d'la frappe Tu parles dans mon dos, c'est que j'tue devant Un 100 grammes dans la cellule, voilà j'suis dedans Joey Starr, c'est un fils de pute Doc Gynéco, c'est un fils de pute Mon frère sort de l'hôpital La vie d'ma mère qu'on vous pisse dessus La tête de ma mère, on vous tire dessus Vous croyez qu'c'est tranquille ou quoi ? J'ai tiré sur des mecs pour moins qu'ça Vous croyez qu'j'suis gentil ou quoi ? C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, j'ai fini en taule, ça a foiré Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, ça a foiré C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro Cette histoire elle est vraie et elle s'répète Un négro qui tire sur un autre négro Pour des jantes, pour d'la coke, pour du shit, pour d'l'argent, pour une meuf, pour une bouteille de plus en boîte Un négro qui tire sur un autre négro mon pote Et quand j'dis négro j'parle pas des renois J'parle pas des rebeus, des chinois, des asiatiques Un négro c'est un re-frè Baw</t>
+          <t>J'ai vu la mort de près Elle a volé mes proches Rendez-moi ma famille J'vous donne tout c'que j'ai dans les poches Et j'suis alcoolique, j'fais des phases d'autiste Quand je parle au shit C'est des saloperies, c'est des parodies, c'est des sarkozystes J'parle à mes chamanes à six heures du matin Ils me disent que j'vais crever Wallaye poto j'suis pas bien Dites à mon fils, à sa mère que j'vais partir avant eux Ça s'encule pour un kilo Et ça s'crève pour un vingt eu Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, j'ai fini en taule, ça a foiré Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, ça a foiré C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro J'suis dans la jungle Tu peux d'mander à Guy Quand y'avait de la bagarre, on n'était jamais assis Mon papa à moi, c'était l'roi des voleurs Je suis dans mon werss depuis l'Code de l'Honneur Lascar est dans mon dos, Khalil et Maxou sont à ma droite Y'a Malik qu'est pas très loin Si tu veux du bédo, y'a d'la frappe Tu parles dans mon dos, c'est que j'tue devant Un 100 grammes dans la cellule, voilà j'suis dedans Joey Starr, c'est un fils de pute Doc Gynéco, c'est un fils de pute Mon frère sort de l'hôpital La vie d'ma mère qu'on vous pisse dessus La tête de ma mère, on vous tire dessus Vous croyez qu'c'est tranquille ou quoi ? J'ai tiré sur des mecs pour moins qu'ça Vous croyez qu'j'suis gentil ou quoi ? C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, j'ai fini en taule, ça a foiré Bande d'enfoirés J'ai rien à foutre dans vos soirées Deux coups d'bouteilles, ça a foiré C'est l'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro C'est l'histoire d'un négro C'est l'histoire d'un négro L'histoire d'un négro Qu'a tiré sur un autre négro Cette histoire elle est vraie et elle s'répète Un négro qui tire sur un autre négro Pour des jantes, pour d'la coke, pour du shit, pour d'l'argent, pour une meuf, pour une bouteille de plus en boîte Un négro qui tire sur un autre négro mon pote Et quand j'dis négro j'parle pas des renois J'parle pas des rebeus, des chinois, des asiatiques Un négro c'est un re-frè Baw</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J'en veux pas de ton salam J'suis dans l'94 comme Selim Elles oublient toutes mes salades Quand j'les emmène chez Céline C'est affolant on va voler gants en cuir sur le volant Oui c'est comme ça qu'on évolue roule un pète sans le collant Putain, j'lui met des baffes au rap ça fait un moment Un rap violent, et insolent sur la tête de ma maman J'suis défoncé dans le coffee En une soirée je dépense un attalakou de Koffi J'suis défoncé dans l'n'ganda, Angela Mwen ké fend'tchou aw à la Specta Ils sont pas contents j'ai surmonté mes galères J'dormais dans un deux pièces, dans le même lit que ma mère Bah ouai c'était la hess, on va pas faire de manière Aujourd'hui je fais de la fraîche, nananananananer J'deviens invincible quand j'ai bouffé la sauce graine J'allume mon pétard j'te fais sentir les Hauts de Seine Mothafucka j'ai banni les tes-traî et les faux frères Toujours à sucer des bites quand ils reniflent un gros chèque Ils ont gratté le mili moi je l'ai dans le holster Bloqué dans un hall sale, putain c'est la grosse merde Le passé est marqué mais l'avenir sera prospère Oui tu m'as déchiré mais c'était sur un poster motherfuck You might also like J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous J'ai rappé toute ma haine à m'en casser la voix J'me revois dans des caisses en train de passer la douane Et ce putain de stress qui vient glacer ma voix Il se balade dans ma tess depuis la mégadrive J'ai demandé à ma mère quand est ce que papa rentrait Miskina dans son coin elle attendait la sortie On a connu la violence et celle avec un grand V Mon frère est né handicapé en subissait les moqueries J'ai la rage depuis gamin, j'ai la dalle et j'suis pas calé T'es mon frère je prends tes patins y'a de quoi les rafaler On ira tôt le matin on se cachera dans l'allée Au moment de bang bang, y aura pas le temps de parler Si tu bois comme je bois ? Tu vas canner demain Si tu vois comme je vois ? Tu vas armer le chien Te tirer dans la tête, et puis rejoindre les ténèbres Avec tous ceux qui voulaient se rappeler de rien Ouai ma gueule c'est le zoo, toujours anti-poucaves Mais pourquoi t'as bavé, pourquoi t'as pas moucave Obligé d'te traquer, d'te frapper, ça résout pas l'problème, ouai c'est vrai en tout cas ça soulage Toujours dans le bendo, à fumer du bédo Tu crois que j'ai que 10 balles mais j'ai un extendo Comment ça tu fais l'beau ? J'vais y aller crescendo J'traîne dans la rue depuis l'époque super nintendo Bande de bâtard ! J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous J'ai pas leurs muscles, ils ont pas mon marabout J'ai pas leurs gazeuses, ils ont pas mon bre-lika J'ai pas leurs crasseuses, ils ont pas mes jolies tass L'attitude est hargneuse et même si la folie passe La rage va rester, la dalle va grandir Les putes vont m'tester, ouai ça va sans dire Mais j'vais les baiser, avec mes vampires Je sors des cds, je crée mon empire J'ai jamais gratté j'ai toujours manqué de tout J'pensais à braquer, je voulais banquer le flouze J'ai bicrave des queu-trus qui peuvent te ruiner une vie Mais bon tu connais le quartier igo j'ai tenté le coup J'ai roulé ma bosse et j'ai traîné partout Et j'oublierai jamais que j'suis le fils d'un voyou GPG, Diakité, cent pour cent, qualité On peut s'affilier si tu veux vendre des cailloux On a la dalle sur le terrain, si tu plaques, tu le payeras Et du R5 au R1 jusqu'au Porsche Panamera Moi mon glock peut te faire un... J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous1</t>
+          <t>J'en veux pas de ton salam J'suis dans l'94 comme Selim Elles oublient toutes mes salades Quand j'les emmène chez Céline C'est affolant on va voler gants en cuir sur le volant Oui c'est comme ça qu'on évolue roule un pète sans le collant Putain, j'lui met des baffes au rap ça fait un moment Un rap violent, et insolent sur la tête de ma maman J'suis défoncé dans le coffee En une soirée je dépense un attalakou de Koffi J'suis défoncé dans l'n'ganda, Angela Mwen ké fend'tchou aw à la Specta Ils sont pas contents j'ai surmonté mes galères J'dormais dans un deux pièces, dans le même lit que ma mère Bah ouai c'était la hess, on va pas faire de manière Aujourd'hui je fais de la fraîche, nananananananer J'deviens invincible quand j'ai bouffé la sauce graine J'allume mon pétard j'te fais sentir les Hauts de Seine Mothafucka j'ai banni les tes-traî et les faux frères Toujours à sucer des bites quand ils reniflent un gros chèque Ils ont gratté le mili moi je l'ai dans le holster Bloqué dans un hall sale, putain c'est la grosse merde Le passé est marqué mais l'avenir sera prospère Oui tu m'as déchiré mais c'était sur un poster motherfuck J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous J'ai rappé toute ma haine à m'en casser la voix J'me revois dans des caisses en train de passer la douane Et ce putain de stress qui vient glacer ma voix Il se balade dans ma tess depuis la mégadrive J'ai demandé à ma mère quand est ce que papa rentrait Miskina dans son coin elle attendait la sortie On a connu la violence et celle avec un grand V Mon frère est né handicapé en subissait les moqueries J'ai la rage depuis gamin, j'ai la dalle et j'suis pas calé T'es mon frère je prends tes patins y'a de quoi les rafaler On ira tôt le matin on se cachera dans l'allée Au moment de bang bang, y aura pas le temps de parler Si tu bois comme je bois ? Tu vas canner demain Si tu vois comme je vois ? Tu vas armer le chien Te tirer dans la tête, et puis rejoindre les ténèbres Avec tous ceux qui voulaient se rappeler de rien Ouai ma gueule c'est le zoo, toujours anti-poucaves Mais pourquoi t'as bavé, pourquoi t'as pas moucave Obligé d'te traquer, d'te frapper, ça résout pas l'problème, ouai c'est vrai en tout cas ça soulage Toujours dans le bendo, à fumer du bédo Tu crois que j'ai que 10 balles mais j'ai un extendo Comment ça tu fais l'beau ? J'vais y aller crescendo J'traîne dans la rue depuis l'époque super nintendo Bande de bâtard ! J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous J'ai pas leurs muscles, ils ont pas mon marabout J'ai pas leurs gazeuses, ils ont pas mon bre-lika J'ai pas leurs crasseuses, ils ont pas mes jolies tass L'attitude est hargneuse et même si la folie passe La rage va rester, la dalle va grandir Les putes vont m'tester, ouai ça va sans dire Mais j'vais les baiser, avec mes vampires Je sors des cds, je crée mon empire J'ai jamais gratté j'ai toujours manqué de tout J'pensais à braquer, je voulais banquer le flouze J'ai bicrave des queu-trus qui peuvent te ruiner une vie Mais bon tu connais le quartier igo j'ai tenté le coup J'ai roulé ma bosse et j'ai traîné partout Et j'oublierai jamais que j'suis le fils d'un voyou GPG, Diakité, cent pour cent, qualité On peut s'affilier si tu veux vendre des cailloux On a la dalle sur le terrain, si tu plaques, tu le payeras Et du R5 au R1 jusqu'au Porsche Panamera Moi mon glock peut te faire un... J'avais des potes, c'étaient des putes sa mère Voulaient mes stups, voulaient mes tunes Voulaient mes tubes, voulaient mes putes sa mère Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous Prenez tout ça et barrez vous1</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Han han, han han Ok Booska-Pénalty dans ta gueule Booska-Piétinage de crâne Yonea-Willy, Willy-Yonea, Guizmo C'est l'Booska'Guizmo Hé Wesh, les mecs, c'est comment ? Wesh, les mecs, c'est comment ? Wesh, les mecs, c'est comment ? J'roule un pet' sans le collant Toujours pété, toujours violent Depuis tout p'tit, j'suis insolent J'ai les rimes et les assonances J'ai le blues des cailles Ça tourne très tard En Y sur un scout', péta Un pull YW, une North Face, la veste, une paire de Reqins aux pieds J'suis le trophée d'ma tess, bah ouais, j'ai troqué d'la cess et puis j'ai trop fait d'la peine à ma daronne, qu'elle me pardonne, y'avait les problèmes d'la hess Et j'me suis mis sous shit Opinel 13 a réglé mes soucis C'était un chaud, j'en ai fait un sushi Nouvel appart' et gros shopping pour ma femme Tu peux d'mander à Maka, on fume la Pink Paradise J'suis un renard donc j'ai pas besoin d'équipe De Boboch à Sevran, que des reufrés dans les clips Avec ma bande, on a volé, on a frappé des mecs On a cassé des têtes, à la maison, on a ramené les decks J'aimerais que tous, on manque de rien, qu'on réussisse nos entretiens, mais ils nous ont pété, cette bande de chiens Avant, c'était akhy, maintenant, c'est akha Et pour rouler en Ferrari, ils vont braquer comme Ferrara C'est pour mes soldats du Mali, les Soninkés et les Bambaras Mes Diarinkés et tout mes bufs, Inch'Allah, on s'revoit là-bas J'manie le vers malgré mes trafics de zeb' On a des tactiques de guerre Tu connais ma clique de gangstas Yonea, Willy, le GP Clan et tout mon 2-6, couz' J'suis défoncé sur le périph' et y'a les bleus qui m'coursent Et puis, j'ai pris des flashs, et j'avais fumé du hash' J'ai semé tous ces fils de pute et j'ai même pas fait un crash You might also like J'lève un stunt à la cité et ça fait brouh, brouh, brouh Il a mis une carotte et ça fait bang, bang, bang Un poto qui s'marie et ça fait youh, youh, youh Et le lendemain matin, on r'devient gang, gang, gang Hahaha, gangstas YW, Yonea-Willy, Willy-Yonea, jusqu'à la mort, motherfucker GP gangstas, Guizmo C'est comme ça qu'on fait les choses, ouais Yonea-Willy business</t>
+          <t>Han han, han han Ok Booska-Pénalty dans ta gueule Booska-Piétinage de crâne Yonea-Willy, Willy-Yonea, Guizmo C'est l'Booska'Guizmo Hé Wesh, les mecs, c'est comment ? Wesh, les mecs, c'est comment ? Wesh, les mecs, c'est comment ? J'roule un pet' sans le collant Toujours pété, toujours violent Depuis tout p'tit, j'suis insolent J'ai les rimes et les assonances J'ai le blues des cailles Ça tourne très tard En Y sur un scout', péta Un pull YW, une North Face, la veste, une paire de Reqins aux pieds J'suis le trophée d'ma tess, bah ouais, j'ai troqué d'la cess et puis j'ai trop fait d'la peine à ma daronne, qu'elle me pardonne, y'avait les problèmes d'la hess Et j'me suis mis sous shit Opinel 13 a réglé mes soucis C'était un chaud, j'en ai fait un sushi Nouvel appart' et gros shopping pour ma femme Tu peux d'mander à Maka, on fume la Pink Paradise J'suis un renard donc j'ai pas besoin d'équipe De Boboch à Sevran, que des reufrés dans les clips Avec ma bande, on a volé, on a frappé des mecs On a cassé des têtes, à la maison, on a ramené les decks J'aimerais que tous, on manque de rien, qu'on réussisse nos entretiens, mais ils nous ont pété, cette bande de chiens Avant, c'était akhy, maintenant, c'est akha Et pour rouler en Ferrari, ils vont braquer comme Ferrara C'est pour mes soldats du Mali, les Soninkés et les Bambaras Mes Diarinkés et tout mes bufs, Inch'Allah, on s'revoit là-bas J'manie le vers malgré mes trafics de zeb' On a des tactiques de guerre Tu connais ma clique de gangstas Yonea, Willy, le GP Clan et tout mon 2-6, couz' J'suis défoncé sur le périph' et y'a les bleus qui m'coursent Et puis, j'ai pris des flashs, et j'avais fumé du hash' J'ai semé tous ces fils de pute et j'ai même pas fait un crash J'lève un stunt à la cité et ça fait brouh, brouh, brouh Il a mis une carotte et ça fait bang, bang, bang Un poto qui s'marie et ça fait youh, youh, youh Et le lendemain matin, on r'devient gang, gang, gang Hahaha, gangstas YW, Yonea-Willy, Willy-Yonea, jusqu'à la mort, motherfucker GP gangstas, Guizmo C'est comme ça qu'on fait les choses, ouais Yonea-Willy business</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Orh , Zone Sensible Yonea Willy , Willy Yonea LDC , l'entouseul Nique sa tante le Rap ! J'divague quand j'me die Ma ville attend de graille et zigzague dans le noir La bicrave c'est c'que mes négros font Petite tass' on va t'la mettre au fond T'as pas compris j'serai là jusqu'à ce qu'on brille Guizmo l'entouseul zone sensible le taff est accompli Willy fournit la frappe je lui donne les lyrics Avec Yonea derrière tout ça on fera des tonnes de biguif Des tonnes de biguif, ouais des tonnes de biguif Nan négro joue pas au con avant q'mes hommes te finissent Un blunt de chimique, une Heineken bien fraîche ! Tu veux tester viens le faire N'essaie rien frère on a tout ce qu'il faut Pour vous blesser vous laisser à terre bande de bourricot Arrête de faire le fou chez toi y'a pas d'immeubles Tu vas t'faire canarder DaffyDuck T'as pas une gueule mais t'as un bec espèce de Daffy Duck T'es le premier à prendre la fuite quand y a les balles qui pleuvent You might also like Wesh daffy d'après toi tu viens de Ouest Afrique Mais t'es prêt à tout pour être une tête d'affiche Chek mani j'sais que ma ville aime la discrétion Qu'est-ce t'arrive ? Reste assis j'fais ta dissection J'ken la rime dès que j'arrive change de direction Je m'éparpille et m'active quand j'dois kicker l'son Alors que toi Daffy tes punchlines c'est des coms sur des forums Parlant des hommes qui se sodoment Mais laisse les homos, laisse-les s'enculer Affronte-toi aux mecs de rue tu verras s'tu vas prendre du blé T'auras que dalle t'auras nada t'auras niét T'auras ni entrée ni plat nan t'auras l'reste Comme le chien tu cherches Guizy ? Donne le cash ou un sponsor, jte donne le chemin ! Nique ton Burberry Et sache que Daffy Duck pourra jamais carotter Bugs Bunny T'as pas une gueule mais t'as un bec espèce de Daffy Duck T'es le premier à prendre la fuite quand y a les balles qui pleuvent J'suis pas ton pote j'suis pas ton frère moi j'suis Guizmo J'suis pas un enculé, j'suis pas vicelard moi j'suis skyzo Un genre de dépressif, un mec qui hait les flics RER ou métro nique sa mère on t'fait les fils Nous on pense qu'aux bénéfices voler et flairer les biff Se droguer et baiser des bitchs zoner et smoker des spliffs Et c'est mon point de vue, rien de plus Tous mes lascars peinent, traînent sur le même coin de rue Et tous ces oinjs me tuent sans compter la tise Laisse-les croire qu'un jour ils pourront dompter ma clique Mais c'est dead les gars maintenant que j'fais des dièses légales Liasses, bitchs, etcétéra Merde faut que j'me sauve à Los Angeles Car on a grandi comme des chiots autour d'un bol de lait Laisses-moi saper ma mère en Louis Vuitton J'ai mal car mon père me dira jamais Si si fiston Paroles rédigées et expliquées par Rap Genius France</t>
+          <t>Orh , Zone Sensible Yonea Willy , Willy Yonea LDC , l'entouseul Nique sa tante le Rap ! J'divague quand j'me die Ma ville attend de graille et zigzague dans le noir La bicrave c'est c'que mes négros font Petite tass' on va t'la mettre au fond T'as pas compris j'serai là jusqu'à ce qu'on brille Guizmo l'entouseul zone sensible le taff est accompli Willy fournit la frappe je lui donne les lyrics Avec Yonea derrière tout ça on fera des tonnes de biguif Des tonnes de biguif, ouais des tonnes de biguif Nan négro joue pas au con avant q'mes hommes te finissent Un blunt de chimique, une Heineken bien fraîche ! Tu veux tester viens le faire N'essaie rien frère on a tout ce qu'il faut Pour vous blesser vous laisser à terre bande de bourricot Arrête de faire le fou chez toi y'a pas d'immeubles Tu vas t'faire canarder DaffyDuck T'as pas une gueule mais t'as un bec espèce de Daffy Duck T'es le premier à prendre la fuite quand y a les balles qui pleuvent Wesh daffy d'après toi tu viens de Ouest Afrique Mais t'es prêt à tout pour être une tête d'affiche Chek mani j'sais que ma ville aime la discrétion Qu'est-ce t'arrive ? Reste assis j'fais ta dissection J'ken la rime dès que j'arrive change de direction Je m'éparpille et m'active quand j'dois kicker l'son Alors que toi Daffy tes punchlines c'est des coms sur des forums Parlant des hommes qui se sodoment Mais laisse les homos, laisse-les s'enculer Affronte-toi aux mecs de rue tu verras s'tu vas prendre du blé T'auras que dalle t'auras nada t'auras niét T'auras ni entrée ni plat nan t'auras l'reste Comme le chien tu cherches Guizy ? Donne le cash ou un sponsor, jte donne le chemin ! Nique ton Burberry Et sache que Daffy Duck pourra jamais carotter Bugs Bunny T'as pas une gueule mais t'as un bec espèce de Daffy Duck T'es le premier à prendre la fuite quand y a les balles qui pleuvent J'suis pas ton pote j'suis pas ton frère moi j'suis Guizmo J'suis pas un enculé, j'suis pas vicelard moi j'suis skyzo Un genre de dépressif, un mec qui hait les flics RER ou métro nique sa mère on t'fait les fils Nous on pense qu'aux bénéfices voler et flairer les biff Se droguer et baiser des bitchs zoner et smoker des spliffs Et c'est mon point de vue, rien de plus Tous mes lascars peinent, traînent sur le même coin de rue Et tous ces oinjs me tuent sans compter la tise Laisse-les croire qu'un jour ils pourront dompter ma clique Mais c'est dead les gars maintenant que j'fais des dièses légales Liasses, bitchs, etcétéra Merde faut que j'me sauve à Los Angeles Car on a grandi comme des chiots autour d'un bol de lait Laisses-moi saper ma mère en Louis Vuitton J'ai mal car mon père me dira jamais Si si fiston Paroles rédigées et expliquées par Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Péter les plombs et faire les 100 pas, ou bien Baiser des blondes avec mes semblables Cousin, c'est la mélancolie qui me plaît Chaque jour y'a un élan de folie qui me berce Et c'est inexplicable, on connaît les vices La drogue et les biz', les business tricard La weed fraîche, Ricard, ça remet d'aplomb Mais ma reum est à fond depuis qu'ses fils naissent trimards Back in the days j'avais des shoes abîmées La rage au p'tit déj' et du blues à dîner J'ai pris goût à chiller dans ma ville Dealer dans la street, briller dans un crew grave stylé 1.9.9.5, j'portais les Air Max Triax, Cité des Blagis Six piges d'âge, yo, ma mère était le patriarche Mais vaille que vaille la maille nous envahit pas Car le daron s'taille souvent, l'année en voyage Fallait le voir pour le croire, fou, me parle pas d'toi Quoi ? Moi, j'pars en vacances avec la Croix Rouge Le père au Wann revient rigoureux comme un moine Il m'frappe et m'fait réviser même au mois d'Août C'est l'zoo àl, y'a pas de flouse à la baraque On fait les courses à la CAF car dans l'porte-monnaie y'a walou Back in the days, pas assez pour des nouilles Mais j'm'en fous car j'allais voir mes couz à New-york You might also like ×2 Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait D'la vie à la mort, y'a qu'un p'tit trajet Et on serait tous riches si les problèmes se bicravaient Mais la vie, c'est pas un jeu, c'est pas la fête Et ceux qu'tu supportais pas se sont jetés par la fenêtre Et moi, j'suis là et j'suis heurté par la perte De ceux que j'aimais puis écuré par la merde De c'que je vis, je deviens fou c'est un fait Mais j'tiens l'coup, j'reste intègre même si l'blues est infect On s'blesse mais on s'panse pas, j'te mets en garde Mais sache qu'les vrais gars n'se mélangent pas avec les lances-ba Né en France, mon avenir sera néant Gosse refoulé, putain, j'aimerais retourner en enfance Bref, moi, j'veux vite quitter c'décor Dans ma tête c'est une fête avec des Crips et des Bloods Check, nique tes facéties nazes, c'est Phaal et Guiz, là Des sales récits athlétiques pour plier les prods donc apprécie ça ×4 Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Paroles rédigées et expliquées par Rap Genius France</t>
+          <t>Péter les plombs et faire les 100 pas, ou bien Baiser des blondes avec mes semblables Cousin, c'est la mélancolie qui me plaît Chaque jour y'a un élan de folie qui me berce Et c'est inexplicable, on connaît les vices La drogue et les biz', les business tricard La weed fraîche, Ricard, ça remet d'aplomb Mais ma reum est à fond depuis qu'ses fils naissent trimards Back in the days j'avais des shoes abîmées La rage au p'tit déj' et du blues à dîner J'ai pris goût à chiller dans ma ville Dealer dans la street, briller dans un crew grave stylé 1.9.9.5, j'portais les Air Max Triax, Cité des Blagis Six piges d'âge, yo, ma mère était le patriarche Mais vaille que vaille la maille nous envahit pas Car le daron s'taille souvent, l'année en voyage Fallait le voir pour le croire, fou, me parle pas d'toi Quoi ? Moi, j'pars en vacances avec la Croix Rouge Le père au Wann revient rigoureux comme un moine Il m'frappe et m'fait réviser même au mois d'Août C'est l'zoo àl, y'a pas de flouse à la baraque On fait les courses à la CAF car dans l'porte-monnaie y'a walou Back in the days, pas assez pour des nouilles Mais j'm'en fous car j'allais voir mes couz à New-york ×2 Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait D'la vie à la mort, y'a qu'un p'tit trajet Et on serait tous riches si les problèmes se bicravaient Mais la vie, c'est pas un jeu, c'est pas la fête Et ceux qu'tu supportais pas se sont jetés par la fenêtre Et moi, j'suis là et j'suis heurté par la perte De ceux que j'aimais puis écuré par la merde De c'que je vis, je deviens fou c'est un fait Mais j'tiens l'coup, j'reste intègre même si l'blues est infect On s'blesse mais on s'panse pas, j'te mets en garde Mais sache qu'les vrais gars n'se mélangent pas avec les lances-ba Né en France, mon avenir sera néant Gosse refoulé, putain, j'aimerais retourner en enfance Bref, moi, j'veux vite quitter c'décor Dans ma tête c'est une fête avec des Crips et des Bloods Check, nique tes facéties nazes, c'est Phaal et Guiz, là Des sales récits athlétiques pour plier les prods donc apprécie ça ×4 Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Désolé maman, ton fils se pète le cervelet Elle est bien loin l'époque des crêpes et verres de lait Paroles rédigées et expliquées par Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Willy-Yonea, Yonea-Willy Zone Sensible 92, la Caravelle, cousin Villeneuve-la-Garenne Neuf-Quatre, les Polognes Vous dites quoi les gars ? Zone Sensible J'ai du mal à gérer mes pulsions, accepter qu'jai vu l'fond Quand j'fais l'con, il s'ra trop tard pour arrêter l'effusion Tu vois d'quoi je parle De cette envie d'vider ma canette, une dernière avant d'quitter la planète Le vice c'est la galère, je crois que c'est ça qui m'fait plus de mal Fonce-dé collé à la vitre dans le bus de night J'rencontre un ouvrier, il me dit quil va bosser Devant lui j'ai honte, négro j'pue la bière, j'suis amoché Il vient du Sénégal, il est électricien En wolof, il m'dit Bientôt j'ai un bébé qui vient. Un peu gêné, j'le félicite Il me dit Tu descends quand ?, j'lui réponds qu'j'descends près d'ici Il me dit Moi, j'vais à Vélizy. Encore une heure de trajet Et de bus de nuit pour aller s'casser le dos Ça il m'l'a pas dit, mais j'l'ai lu au fond d'ses yeux L'émotion est palpable car au fond du bus on n'est qu'deux J'descends dans trois arrêts, mais j'fais semblant d'pas voir J'veux rester dans le bus et j'veux entendre sa voix Elle est rassurante, en plus son accent, j'le connais bien Il m'berce depuis lépoque où ma maman me donnait l'sein Des fois, le bus de nuit, c'est plein de surprises De travailleurs ou de schlagues qu'ont b'soin de survivre Cette nuit me l'a démontré Car tu n'as plus de préjugés quand tu es défoncé Du coup, j'ai parlé avec un vendeur à la sauvette Qui rev'nait d'la Tour Eiffel Il avait pas d'fafs Arrivé du Pakistan avec un paquetage et la moitié d'un pascal Quand il m'parle, j'comprends une phrase sur deux Mais j'le reçois cinq sur cinq, car la souffrance est universelle Lui, il était pas bavard Il descendu en m'disant au revoir d'un air détendu Et puis cette meuf est montée Elle était belle, elle était bonne, elle était fraîche, elle était conne Jaurais dû m'douter Qu'son enfoiré de mec lattendait à larrêt suivant et m'angoisse sévère Oblige d'se taper dans le bus Merde C'est la honte et y'a des madre en plus Et j'vais marrêter là, dans cet engin à 4 roues Ok Crois-moi, j'ai fait des bails de fou You might also like</t>
+          <t>Willy-Yonea, Yonea-Willy Zone Sensible 92, la Caravelle, cousin Villeneuve-la-Garenne Neuf-Quatre, les Polognes Vous dites quoi les gars ? Zone Sensible J'ai du mal à gérer mes pulsions, accepter qu'jai vu l'fond Quand j'fais l'con, il s'ra trop tard pour arrêter l'effusion Tu vois d'quoi je parle De cette envie d'vider ma canette, une dernière avant d'quitter la planète Le vice c'est la galère, je crois que c'est ça qui m'fait plus de mal Fonce-dé collé à la vitre dans le bus de night J'rencontre un ouvrier, il me dit quil va bosser Devant lui j'ai honte, négro j'pue la bière, j'suis amoché Il vient du Sénégal, il est électricien En wolof, il m'dit Bientôt j'ai un bébé qui vient. Un peu gêné, j'le félicite Il me dit Tu descends quand ?, j'lui réponds qu'j'descends près d'ici Il me dit Moi, j'vais à Vélizy. Encore une heure de trajet Et de bus de nuit pour aller s'casser le dos Ça il m'l'a pas dit, mais j'l'ai lu au fond d'ses yeux L'émotion est palpable car au fond du bus on n'est qu'deux J'descends dans trois arrêts, mais j'fais semblant d'pas voir J'veux rester dans le bus et j'veux entendre sa voix Elle est rassurante, en plus son accent, j'le connais bien Il m'berce depuis lépoque où ma maman me donnait l'sein Des fois, le bus de nuit, c'est plein de surprises De travailleurs ou de schlagues qu'ont b'soin de survivre Cette nuit me l'a démontré Car tu n'as plus de préjugés quand tu es défoncé Du coup, j'ai parlé avec un vendeur à la sauvette Qui rev'nait d'la Tour Eiffel Il avait pas d'fafs Arrivé du Pakistan avec un paquetage et la moitié d'un pascal Quand il m'parle, j'comprends une phrase sur deux Mais j'le reçois cinq sur cinq, car la souffrance est universelle Lui, il était pas bavard Il descendu en m'disant au revoir d'un air détendu Et puis cette meuf est montée Elle était belle, elle était bonne, elle était fraîche, elle était conne Jaurais dû m'douter Qu'son enfoiré de mec lattendait à larrêt suivant et m'angoisse sévère Oblige d'se taper dans le bus Merde C'est la honte et y'a des madre en plus Et j'vais marrêter là, dans cet engin à 4 roues Ok Crois-moi, j'ai fait des bails de fou</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Je suis Guizmo, connu des services de police J'suis une vermine, mais j'suis poli Ils m'mettent les menottes, parce que je les mets à leurs femmes J'suis coupable, eux innocents, mais j'les remets à leur place J'suis l'genre d'adolescent qui méprise la vie Qui vomit dans les chiottes pendant une Skin'Party Ça fait longtemps qu'j'ai pas serré une quarantenaire Donc j'en attrape une, elle me répond qu'son mari est flic et qu'il dirige la BAC entière Qu'il sait pas quand se taire Ça m'excite à la mort, elle recherche un amant J'lui ai dit Oh ma belle, moi j'crois pas en l'amour J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Donc j'disais, j'crois pas en l'amour Elle me répond qu'elle non plus, elle veut juste faire l'amour Se détendre, fumer deux Kamas ou trois Et revisiter le Kama-Sutra Exactement ce dont j'avais besoin Grâce à elle, la flicaille, je vais l'espionner de loin En attendant, j'passe du bon temps avec elle Elle sait y faire, ça dure longtemps avec elle J'aime écouter ses histoires, un jour elle m'a confié qu'son mari était frustré Elle refuse de le lustrer Elle m'a dit qu'il allait taper des travs À la maison c'est une serviette et y'a qu'au poste qu'il fait les braves You might also like J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Laëti-ti-tia, une femme de flic, haut les mains Laëti-ti-tia, à ras de tout entre ses seins Laë-titia, pam pam pam pam pam J'leur ai dit c'est pas ma faute à moi Les gars c'est une bitch, arrêtez d'faire semblant J'avoue j'ai fait le con en tombant love d'elle Même vos collègues l'ont niqué, sa vie c'est un bordel Relâchez-moi, essayons de négocier Moi aussi j'ai des dossiers Laëtitia m'a tout raconté J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Je suis Guizmo, connu des services de police J'suis une vermine, mais j'suis poli Ils m'mettent les menottes, parce que je les mets à leurs femmes J'suis coupable, eux innocents, mais j'les remets à leur place J'suis l'genre d'adolescent qui méprise la vie Qui vomit dans les chiottes pendant une Skin'Party Ça fait longtemps qu'j'ai pas serré une quarantenaire Donc j'en attrape une, elle me répond qu'son mari est flic et qu'il dirige la BAC entière Qu'il sait pas quand se taire Ça m'excite à la mort, elle recherche un amant J'lui ai dit Oh ma belle, moi j'crois pas en l'amour J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Donc j'disais, j'crois pas en l'amour Elle me répond qu'elle non plus, elle veut juste faire l'amour Se détendre, fumer deux Kamas ou trois Et revisiter le Kama-Sutra Exactement ce dont j'avais besoin Grâce à elle, la flicaille, je vais l'espionner de loin En attendant, j'passe du bon temps avec elle Elle sait y faire, ça dure longtemps avec elle J'aime écouter ses histoires, un jour elle m'a confié qu'son mari était frustré Elle refuse de le lustrer Elle m'a dit qu'il allait taper des travs À la maison c'est une serviette et y'a qu'au poste qu'il fait les braves J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Laëti-ti-tia, une femme de flic, haut les mains Laëti-ti-tia, à ras de tout entre ses seins Laë-titia, pam pam pam pam pam J'leur ai dit c'est pas ma faute à moi Les gars c'est une bitch, arrêtez d'faire semblant J'avoue j'ai fait le con en tombant love d'elle Même vos collègues l'ont niqué, sa vie c'est un bordel Relâchez-moi, essayons de négocier Moi aussi j'ai des dossiers Laëtitia m'a tout raconté J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content J'ai serré la femme d'un flic, mec j'suis trop content Aujourd'hui c'est mon indic, et on passe du bon temps Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Laisse-les parler entre eux Yonea Willy, Willy Yonea gang'z Putain, deux ou trois verres de plus, et j'aurais tiré dans la cabine morray Motherfuckin' J'vous baise, Yonea Willy, Willy Yonea gang'z Money skurt, money skurt Le GP n'a peur de personne, jamais, il faut que tu le saches T'as volé, tu dois une belle somme, il faut que tu te caches 9 milli, j'ai compris qu'vous restez tranquille Dis pas Vas-y tires sur la tête de ma mère si tu veux rester en vie J'suis bizarrement bizarre, la te-tê dans le blizzard Les te-traî dans le viseur, les clients sont vis-ser à partir de 10 heure Et si tu veux ma bite, faut des grosses fesses Et tu suces bien, j'suis pas ton chéri J'suis grave déchiré, j'me cache sur l'terrain, faut qu'j'bicrave une série Ils ont voulu ma mort, c'est tous des fils de pute, aujourd'hui j'leur rentre dedans J'ai buté du crack, vécu dans des caves, j'ai toujours mes 32 dents On est des rescapés, on est des rescapés On est des rescapés, j'suis un rescapé Ils ont voulu ma mort, ils ont voulu ma mort Ils ont voulu ma mort, ils ont voulu ma mort Aujourd'hui j'leur rentre dedans, j'ai toujours mes 32 dents J'suis un rescapé, j'suis un rescapé You might also like Laissez-moi tranquille, j'suis pas d'bonne humeur J'veux pas vous causer, j'veux pas vous causer Que des gros fumeurs, tous enfouraillés, oui on peut les crosser On a les outils, on a les machins Elles ont le te-shi tout près du vagin Me dis pas ci ou me dis pas ça, le bruit et l'odeur c'est mes voisins J'vais les baiser, j'ai fini de blaguer, c'est tous des enculés Ouais j'suis rancunier, le cerveau buté h24 enfumé Voilà c'est comment je donne les ordres et tu exécutes Ils parlent de moi mais c'est que d'la mala Ouais c'est tous des putes Ils ont voulu ma mort, c'est tous des fils de pute, aujourd'hui j'leur rentre dedans J'ai buté du crack, vécu dans des caves, j'ai toujours mes 32 dents On est des rescapés, on est des rescapés On est des rescapés, j'suis un rescapé Ils ont voulu ma mort, ils ont voulu ma mort Ils ont voulu ma mort, ils ont voulu ma mort Aujourd'hui j'leur rentre dedans, j'ai toujours mes 32 dents J'suis un rescapé, j'suis un rescapé On est partis de rien, ils ont voulu nous enterrer Traîner avec nous, toute la journée pour les intérêts J'ai cramé, j'ai cramé, j'ai cramé, j'ai cramé J'ai cramé, j'ai cramé, j'ai cramé, j'ai cramé Je brillais, je brillais, je brillais, je brillais Donc j'ai vrillé, j'ai vrillé, j'ai vrillé, j'ai vrillé Ça m'a rendu fou tous ces jaloux ZS Mothafuck</t>
+          <t>Laisse-les parler entre eux Yonea Willy, Willy Yonea gang'z Putain, deux ou trois verres de plus, et j'aurais tiré dans la cabine morray Motherfuckin' J'vous baise, Yonea Willy, Willy Yonea gang'z Money skurt, money skurt Le GP n'a peur de personne, jamais, il faut que tu le saches T'as volé, tu dois une belle somme, il faut que tu te caches 9 milli, j'ai compris qu'vous restez tranquille Dis pas Vas-y tires sur la tête de ma mère si tu veux rester en vie J'suis bizarrement bizarre, la te-tê dans le blizzard Les te-traî dans le viseur, les clients sont vis-ser à partir de 10 heure Et si tu veux ma bite, faut des grosses fesses Et tu suces bien, j'suis pas ton chéri J'suis grave déchiré, j'me cache sur l'terrain, faut qu'j'bicrave une série Ils ont voulu ma mort, c'est tous des fils de pute, aujourd'hui j'leur rentre dedans J'ai buté du crack, vécu dans des caves, j'ai toujours mes 32 dents On est des rescapés, on est des rescapés On est des rescapés, j'suis un rescapé Ils ont voulu ma mort, ils ont voulu ma mort Ils ont voulu ma mort, ils ont voulu ma mort Aujourd'hui j'leur rentre dedans, j'ai toujours mes 32 dents J'suis un rescapé, j'suis un rescapé Laissez-moi tranquille, j'suis pas d'bonne humeur J'veux pas vous causer, j'veux pas vous causer Que des gros fumeurs, tous enfouraillés, oui on peut les crosser On a les outils, on a les machins Elles ont le te-shi tout près du vagin Me dis pas ci ou me dis pas ça, le bruit et l'odeur c'est mes voisins J'vais les baiser, j'ai fini de blaguer, c'est tous des enculés Ouais j'suis rancunier, le cerveau buté h24 enfumé Voilà c'est comment je donne les ordres et tu exécutes Ils parlent de moi mais c'est que d'la mala Ouais c'est tous des putes Ils ont voulu ma mort, c'est tous des fils de pute, aujourd'hui j'leur rentre dedans J'ai buté du crack, vécu dans des caves, j'ai toujours mes 32 dents On est des rescapés, on est des rescapés On est des rescapés, j'suis un rescapé Ils ont voulu ma mort, ils ont voulu ma mort Ils ont voulu ma mort, ils ont voulu ma mort Aujourd'hui j'leur rentre dedans, j'ai toujours mes 32 dents J'suis un rescapé, j'suis un rescapé On est partis de rien, ils ont voulu nous enterrer Traîner avec nous, toute la journée pour les intérêts J'ai cramé, j'ai cramé, j'ai cramé, j'ai cramé J'ai cramé, j'ai cramé, j'ai cramé, j'ai cramé Je brillais, je brillais, je brillais, je brillais Donc j'ai vrillé, j'ai vrillé, j'ai vrillé, j'ai vrillé Ça m'a rendu fou tous ces jaloux ZS Mothafuck</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Comment ça se passe Noko Lil Taiz, Baby Y double fucking W Zone sensible, zone sensible, zone sensible, zone sensible, zone J'ai trimé les pieds sur terre mais la tête dans une autre galaxie Déprimé, t'es viré sur le tec à l'affût de la moindre pharmacie Fuyez, renoi nous pouvons nous plier Arrête tes conneries y a que quand t'es en retard que tu vas prendre un billet Soudé comme Miley C., y a qu'un lâche pour abandonner son boug En primaire elle prêtait ses billes, maintenant elle donne son boule Ouai c'est le petit noir keuss, faut qu'on leur explique la pièce tu me reconnais ? A chaque fois que tu tapes dessus sur leur gueule comme un tiroir caisse Que personne ne bouge, j'écris ce qui me reste à noter Demande au pe-ra ce que ça fait d'avoir élu un type qui veut même pas voter 3, 4 ceaux-mor dans le crâne quand je me ballade en ville Si t'es pas encore mort c'est que tu étais pas là dans le film Moi je pense pas qu'à l'argent, je pense aussi à ce que je vais m'acheter S'ils ont même pas sonné nigga, seront-ils capable de m'achever Versace, Versace, les mmes-gra de CC circulent dans les sachets Des couplets découpés défilent sans relâche, comme les secondes de ma Casio J'apporte ma vague sur la prod et j'assure la relève, le rap je l'ai patché J'amène la critique dans mon antre, je la fais parler, je la baise à l'occasion Des tasses et des tasses et des taches et le cash et je viens piquer ta place Trop de punch appelle moi Mohamed Ali car j'ai le flow qui tabasse Je suis dans ma lancée j'ai plié le rap français j'ai pas le temps de vous guider Je te fais prendre congé, t'es même pas arrivé que tu dois déjà nous quitter T'es au poste, sur ta radio En hp sur ton ordi Lil Tai Z baby You might also like La tête de ma bière, je suis trop haut J'ai des flingues, une affaire et du fric au chaud Une armée de gangster qui vont te monter en l'air si jamais y a une guerre ou un quiproquo Prendre tout le blé c'est pour ça que je vis Ça peut rafaler de la tête aux chevilles J'ai trop bu mais je suis quand même au volant J'ai roulé un joint j'ai enlevé le collant Tu sors de prison tu veux faire des lovés Négro viens me voir et dis moi c'est comment Dis moi c'est comment On peut s'arranger si y a du fric à faire Je m'appelle pas Joey, je prends pas dhéroïne mais quand même nique ta mère Guizi et Tai Z vous ont décapité Mon petit a 15 ans mais il est validé Guizi et Tai Z vous ont décapité C'est chez zone sensible qu'on trouve la qualité x21</t>
+          <t>Comment ça se passe Noko Lil Taiz, Baby Y double fucking W Zone sensible, zone sensible, zone sensible, zone sensible, zone J'ai trimé les pieds sur terre mais la tête dans une autre galaxie Déprimé, t'es viré sur le tec à l'affût de la moindre pharmacie Fuyez, renoi nous pouvons nous plier Arrête tes conneries y a que quand t'es en retard que tu vas prendre un billet Soudé comme Miley C., y a qu'un lâche pour abandonner son boug En primaire elle prêtait ses billes, maintenant elle donne son boule Ouai c'est le petit noir keuss, faut qu'on leur explique la pièce tu me reconnais ? A chaque fois que tu tapes dessus sur leur gueule comme un tiroir caisse Que personne ne bouge, j'écris ce qui me reste à noter Demande au pe-ra ce que ça fait d'avoir élu un type qui veut même pas voter 3, 4 ceaux-mor dans le crâne quand je me ballade en ville Si t'es pas encore mort c'est que tu étais pas là dans le film Moi je pense pas qu'à l'argent, je pense aussi à ce que je vais m'acheter S'ils ont même pas sonné nigga, seront-ils capable de m'achever Versace, Versace, les mmes-gra de CC circulent dans les sachets Des couplets découpés défilent sans relâche, comme les secondes de ma Casio J'apporte ma vague sur la prod et j'assure la relève, le rap je l'ai patché J'amène la critique dans mon antre, je la fais parler, je la baise à l'occasion Des tasses et des tasses et des taches et le cash et je viens piquer ta place Trop de punch appelle moi Mohamed Ali car j'ai le flow qui tabasse Je suis dans ma lancée j'ai plié le rap français j'ai pas le temps de vous guider Je te fais prendre congé, t'es même pas arrivé que tu dois déjà nous quitter T'es au poste, sur ta radio En hp sur ton ordi Lil Tai Z baby La tête de ma bière, je suis trop haut J'ai des flingues, une affaire et du fric au chaud Une armée de gangster qui vont te monter en l'air si jamais y a une guerre ou un quiproquo Prendre tout le blé c'est pour ça que je vis Ça peut rafaler de la tête aux chevilles J'ai trop bu mais je suis quand même au volant J'ai roulé un joint j'ai enlevé le collant Tu sors de prison tu veux faire des lovés Négro viens me voir et dis moi c'est comment Dis moi c'est comment On peut s'arranger si y a du fric à faire Je m'appelle pas Joey, je prends pas dhéroïne mais quand même nique ta mère Guizi et Tai Z vous ont décapité Mon petit a 15 ans mais il est validé Guizi et Tai Z vous ont décapité C'est chez zone sensible qu'on trouve la qualité x21</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C'est parti Guizmo, toute la s'maine dans Planète Rap L'album sort lundi Han, eh Guiziouzou, Jeff, Jeff, Jeff Et tous les autres, ça bouge ap' Écoute moi, eh, check Protège ton dos, les couteaux sont aiguisés, fils Les kisdés friment, en ville et veulent te pister, vite J'apprends à vivre avec le couteau sous la gorge Frère tu veux rouler en Porsche mais y a du boulot sur l'accord, guette Nos frères qui bé-tom, nos mères qui ré-pleu Nos té-ci d'béton, nos pères qui vé-creu Des récits très sombres sortent parfois de ma bouche, Crois pas que je me la boucle, laisse-moi faire mes affaires et écarte toi de ma route Sinon j'écrase le premier qui vient, j'lui passe dessus en fond de cinquième J'lui casse le cul, sa mère, son père et sa blonde s'inquiètent Pas de pitié, j'pars kicker, j'fous les gants J'rappe qu'il vente, qu'il pleuve, qu'il neige, j'suis l'meilleur de tous les temps Sachez-le, le rap et Guiz, indissociables, comme Franck Lucas et les sachets bleus Wesh les mecs, on fait du rap ou on fait quoi ? On fait du clash ou on festoie ? On fait du sale ou on s'nettoie ? J'comprends plus rien Mais une chose est sure, on a grandi dans le zoo donc comprenez qu'on n'ait rien d'humain On a développé des instincts animaux, j'pense à tous mes barbares, mes zinzins saligauds J'connais l'ghetto, ses ambiances éléctriques, en silence, j'reste loin des gens qui pensent bénéfices En freelance fait des biffs, ou tu vas t'manger la carotte, étrangler un étranger pour venger ta parole Parlons peu mais parlons bien, j'ai des albums cachés Planqués au plus profond de mon iPhone craqué Né dans la mouise, sans un sous, j'vois mes bad boys braquer Complètement fous, dans la tise, c'est des sales gosses cramés Trash sur la flicaille, calcule la bicrave En cas de chute, y'a pas d'putes, moi j't'assure qu'ça mitraille Et ils aiment jacter, j'les entend tous J'avais le foot et l'école, la juge m'a mis sur le banc de touche Vingt-et-un ans de vie, rien d'neuf, toujours plein d'keufs Un tas de jolies filles et des joints de peufs Toujours la même gueule, je te l'cache pas Toujours même stylo, même feuille, toujours H-K Toujours méfiant, j'peux pas camoufler un doute Ouais on n'a pas perdu la main car ça n'a pas bouger d'un pouce Toi, tous croient, que j'ai fais v'là le fric Avec mon rap street, mais c'est des oufs, j'vois Toujours les mêmes te-tês, Bio Alini, Yonea, Willy, Jeff, et Lascars Ouzou L2C Toujours mon stick et ma bière fraîche J'te l'ai dit rien a changé depuis mes clips sur Internet Juste un peu plus de fric, de belles femmes Beaucoup de stress, de la musique, et des deadlines Dans ce rap, y'a des traîtres faut se méfier Alors travaille avec tes mains si t'es bête comme tes pieds Motherfucker, Ouzou You might also like Check moi, yo Chiguiricheck, Guiziouzou, yo J'ai du mal à gérer mes pulsions, accepter qu'jai vu l'fond Quand j'fais l'con, il sera trop tard pour arrêter l'éffusion Tu vois de quoi je parle De cette envie de vider ma cannette, une dernière avant de quitter la planète Le vice est la galère, je crois que c'est ça qui me fait plus de mal Foncdé collé à la vitre dans le bus de night J'rencontre un ouvrier, Il me dit quil va bosser Devant lui j'ai honte negro je pue la bière je suis amoché Il vient du Sénégal, il est électricien En wolof il me dit Bientôt j'ai un bébé qui vient Un peu gené, je le félicite Il me dit tu descends quand? je lui réponds je descends près d'ici Il me dit moi je vais a Vélizy Encore une heure de trajet Et de bus de nuit pour aller se casser le dos Ca il ne me la pas dit mais je l'ai lu au fond de ses yeux L'émotion est palpable car au fond du bus on n'est que deux J'descend dans trois arrêt mais je fais semblant de pas voir Je veux rester dans le bus et je veux entendre sa voix Elle est rassurante en plus son accent je le connais bien Il me berce depuis lépoque ou ma maman me donnait le sein Des fois le bus de nuit c'est pleins de surprises De travailleur ou de schlague qui ont besoin de survivre Cette nuit me la démontré Car tu nas plus de préjugé quand tu es défoncé Du coup j'ai parlé avec un vendeur à la sauvette Lui il revenait de la tour Eiffel Il navait pas de fafs Arrivé du Pakistan avec un packtage est la moitié d'un pascal Quand j'lui parle, je comprends une phrase sur deux Mais je le reçois 5 sur 5 car la misère est universelle Yeah, Guiziouzou, yo Han, check moi, ok, ok, ok, han, han, han, han, han, han Han, han, check, check, check Que des tas de shit avec mes copains Je suis pas débile t'as pas de coke Un enfant débile qui vient vous croquer Kicker, t'entends mon débit t'es choqué, ok C'est pas la peine de faire semblant, choqué Tout c'que tu vois en p'tit, j'le vois en grand, eh Le ventre a sec, j'bédave des guinz, c'est pas du bluff Vous avez beau venir a 15, c'est moi l'plus fort si j'ai un 9 J'répète Le ventre a sec, j'bedave des guinz, c'est pas du bluff Vous avez beau venir a 15, c'est moi l'plus fort si j'ai un 9 Et j'analyse mes sales habitudes, man ça tise des fois ça titube Ça s'assimile à la vie d'rue, y a d'quoi finir a la friture Pas facile de s'assassiner, pour un biff, une place assise Combien d'fois j'ai rêvé de passer dix minutes où les pachas vivent Là j'arrive, la salive, pleine de phases, terre à terre On pé-ra t'éclate tes gars si tu veux nous ché-cla c'est la merde Et j'en vois trop ce vautré, beau et coté A cause d'l'embrouille de trop ce sont fais coffré Passés de l'autre côté Gros j'te connais tu vas encore dire que j'banalise le truc Mais j'réalise qu'les gamines s'déshabillent et banalise le uc A chaque vice de plus on s'ratatine Pour s'canaliser boit d'la tise pour pas chavirer Sarcastique et grave habité par la street Moi j'habite ou y'a pas d'pitié, pas d'khalisse et pas d'amitié La sale mine des cailles' habités, par la team des shtars agités Y'a plus d'love dans c'business et dans les rue d'ma ville Ca m'fais mal, même cogiter et j'en dors plus la nuit Check, j'ai ce qu'il faut, j'ai ce qu'il faut, j'ai ce qu'il faut J'ai du flow, j'ai du flow, j'ai ce qu'il faut, ouais, ouais Guiziouzou, sisicoucou, check moi, yo, yo Je suis en train de bâtir un truc vraiment spécial Le but, c'est d'en faire un succès d'enfer Comme une bulle d'air en pleine face Haha, yeah, écoute moi Écoute moi, écoute moi, écoute moi, motherfucker Conex laisse tourner Excusez-moi la famille, c'est vraiment grave, c'est vraiment grave J'arrive, yo, yo, yo, check moi, check moi, Guiziouzou Ça valait l'coup, ça valait l'coup, hanhan, check Vraiment spécial Le but, c'est d'en faire un succès d'enfer Comme une bulle d'air en pleine face Les stups viennent en G Star T'façon, y a pas de flaque sans ruse Comme y a pas d'adultère sans messe basse J'ai vu que les grands frères partent acheter me-ca, ils ont pris Alors qu'au début, c'était café, ve-ca et lon-pi On se plaint pas dans l'errance Mais j'oublie pas que le frérot Jeff a pris quinze mois dans les dents Instable, je m'en lé-bran, ouais, je me la flambe Je suis un schizo qui traine solo donc je suis le chef de ma bande Textes savants, qu'est-ce que t'attends de moi ? J'ai peu de patience quand je pète le calmant le soir Peut-être que la France nous déteste et je le sens grave Je n'ai que ma chance et mes rêves sur un sound crade Tout est dit, what up ? what up ? Fais tourner Pour tous mes gars, pour tous mes gars Ça, c'est pour tous mes gars, pour tous mes gars Ça, ça, yo Pour tous mes gars, oh oui Oh oui, c'est pour tous mes gars ça C'est pour tous mes gars, c'est pour tous mes gars ça Check moi, yo, yo, yo J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer, puis se déchirer, je vois des couples se Arrgghh Chiguiricheck, chiguiricheck, trop d'inédits dans la tête Han, han, han, han, ok, ok Moi, j'leur ai dit c'est pas ma faute à moi Les gars c'est une bitch, arrêtez d'faire semblant J'avoue j'ai fait le con en tombant love d'elle Même vos collègues l'ont niqué, sa vie c'est un bordel Relâchez-moi, essayons de négocier Moi aussi j'ai des dossiers Laëtitia, m'a tout raconté Eh, connu des services de police J'suis une vermine, mais j'suis poli Ils m'mettent les menottes, parce que je les mets à leurs femmes J'suis coupable, eux innocents, mais j'les remets à leur place Moi, j'suis l'genre d'adolescent qui méprise la vie Qui vomit dans les chiottes pendant une Skin'Party Ça fait longtemps qu'j'ai pas serré une quarantenaire Donc j'en attrape une, elle me répond qu'son mari est flic et qu'il dirige la BAC entière Qu'il sait pas quand se taire, mais ça Ça m'excite à la mort, elle recherche un amant J'lui ai dit Oh ma belle, moi j'crois pas en l'amour Parce que, parce que Parce que, parce que, parce que, parce que, j'ai se' J'ai serré la femme d'un flic, mec j'suis trop content Ok, ça fait, j'ai serré la femme d'un flic et mec j'suis trop content Donc j'disais, j'crois pas en l'amour Elle me répond qu'elle non plus, elle veut juste faire l'amour Se détendre, fumer deux Kamas ou trois, ouais Et revisiter le Kama-Sutra Exactement ce dont j'avais besoin Grâce à elle, la flicaille, je vais l'espionner de loin J'passe du bon temps avec elle Elle sait y faire, ça dure longtemps avec elle J'aime écouter ses histoires, un jour elle m'a confié qu'son mari était frustré Elle refuse de le lustrer Elle m'a dit qu'il allait taper des travs À la maison c'est une serviette et y'a qu'au poste qu'il joue les braves Motherfucker, check, on peut le faire Yo, yo, yo, yo, yo, yo, yo, yo, yo, eh J'suis pas un nouveau Guizmo, j'essaie juste de nouveaux trucs Toujours pas d'michtos, juste un peu plus de nouveaux uc' Mon son dans les discos, voilà, c'est mon nouveau but Toujours Fuck la lice-po, képi, BAC et nouveaux stups Nous, on se bute Dans nos fûtes, y a du teu-shi et des pochetons de weed Avant 16h, les halls sont vides Après, c'est l'heure, il faut qu'on deal Johnny est passé, les caisses et les poubelles crament Les petits sont lassés, veulent du Guess et des nouvelles Nike Requin de préférence, avec la petite liasse Mille biatches mais pour avoir ça, besoin de l'élégance Z.S, toujours pas de nouveau crew On s'est promis de pas se vautrer Si je mens, bah foutez-nous au trou Ouais ok, sur tes bum-al, y a des nouveaux prix Moi c'est douze euros et vingt-sept si t'achètes le coffret, on s'est compris Ton pied, mon pied si tu écoutes mon rap Ils sont à fond dans la punchline, moi je suis passé au full contact Bande d'enfoirés Rien de nouveau, rien de nouveau, rabza y a rien de nouveau Rien de nouveau, négro y a rien de nouveau Y, W, Z.S, rien de nouveau Rien de nouveau, baptou, y a rien de nouveau Rien de nouveau, rabza y a rien de nouveau Rien de nouveau, négro y a rien de nouveau On r'vient de loin, vous rev'nez du boulot Yeah, ok Check, check, check moi, eh Boule rasé, vénèr' comme un hooligan On n'a rien à perdre et c'est pour ça qu'on s'en fout de qui gagne Vodka pomme dans le verre de cristal Je suis en pleine forme, balance la prod et je gère le freestyle Oui c'est bien moi L'alcoolo posé dans le hall qui t'accueille en disant t'as besoin de quoi ? Y a des barrettes et des blocs, des caillettes et mes potes Une belle bande d'inconscients qui a vite arrêté l'école C'est grave qu'on s'autodétruise pour du croco, Levi's Entre gros cônes et tise, mes potos s'épuisent Je connais le vice, la verdure Les flics, l'amertume Mais je respire et résiste la tête dure Je maîtrise la tech' pure, je rappe de zéro nine Sabre laser au mic, je graille ce que mes frérots graillent Ouzou, une bête dans un corps de lâche Tu baisses ton froc, on te fuck peu importe l'âge Paré pour l'affront Voilà le négro qui ne craint pas la peur Ouais, je me la raconte Tellement qu'on m'appelle le narrateur 3-1 Catin à l'aise tu crois que je pèse en vrai je fais le malin On va rafler tout le fric, niakser tout le shit Tu veux payer la semaine prochaine, tu te fais charcler tout de suite Et c'est biz' de pilon et de CC, laissez Chez moi c'est les gros poissons qui passent leur temps à pêcher Lécher un boule ou un shnek, jamais de la vie, respect Si t'es un boug du tiek's, ramène de la tise et je vais Froisser le beat, après, je me tire Tapette, je te kill, ta mère veut pine ? Appelle le Guiz' Et je la remplis tant qu'elle me vide T'as capté le système, je l'appelle ma salope quand je la baise C'est son nickname Bref, j'emmerde le rap J'arrive fonce-dé, les yeux plissés comme dans une tempête de sable Comment vont mes zoulettes ? Vreu-lès sur le stick Jamais tout nets, sous bières à se-l'ai sur le beat Les phases glissent toutes seules Je contrecarre tous vos plans Et voilà pourquoi ma tactique fout le seum Pas de love, pas de pitié T'as un tas de loves, tu parles trop, un badboy va te niquer C'est des maths, fils La rue est un fléau, un conseil fais comme Néo, reste dans ta matrice Ca fait puff puff sur le oinj' de weed Trop de meufs, keufs, bluff on a besoin de vivre Besoin d'une paire de cuisses Qu'elle s'occupe de mon Sshhh arrrgh Aaah, j'ai les couilles pleines, j'ai besoin de faire le vide Les yeux vitreux, je me dis que c'est ni la gauche ni la droite qui rendent fou C'est ce milieu Y a les tentations et un tas de vicieux Le genre de mec qui te pisse dessus et qui te fait croire qu'il pleut Guiz-mo c'est mortel, c'est le bordel dans l'top ten Chacune de mes phase est crue comme un carpaccio MC, tu sais pas rapper alors me parle pas de flow Ouais c'est nos vies fiston Que d'l'illicite, du shit, les shmitts sont vifs en ville alors vite fuyons Pour des biguiftons, j'vois des p'tits qui tombent Et des types qui grondent parce qu'ils voient Guiz qui monte J'm'y attendais, ils avaient des liasses en tête C'est bizarre en fait, c'est moi qui m'retrouve à pillave en scrèd J'rêve de quitter l'asphalte Sur le fil du rasoir, sponsorisé par Gillette Mach 3 J'effrite et j'rappe sale j'ai tout mis dedans Faut qu'j'place mes hyènes, mes chiens d'la casse, mes rats et mes souris devant Plus facile à dire qu'à faire, tout c'qui nous tue est abordable Y'a qu'à voir le prix d'la bière 28 frangancs l'pack de 12 pour 2 ou 3 heures de fonce-dé On apprend rapidement à compter Ouais c'est triste mais c'est aç-comme, j'y peux rien Prisonnier des vices de cette hardcore vie de chien J'ai le style propre, mais les pensées sales Les nerfs à vif, orgueilleux j'ai failli planter Phaal' Foutue parano, elle m'fait perdre les pédales J'suis vert, puis merde j'vais rester chez oim' Gratter mes idées noires, rapper me niquer l'foie Me rappeler que n'sont déçus que ceux qui vivent d'espoir J'ai appris à voir le verre à moitié vide, cousin J'te rappelle qu'il est à sept euros dans les quartiers riches Yeah, yeah Ouzou On est bons ? Yeah, ouais, j'me suis amusé, ça va Drrraaaa Bah, nous aussi5</t>
+          <t>C'est parti Guizmo, toute la s'maine dans Planète Rap L'album sort lundi Han, eh Guiziouzou, Jeff, Jeff, Jeff Et tous les autres, ça bouge ap' Écoute moi, eh, check Protège ton dos, les couteaux sont aiguisés, fils Les kisdés friment, en ville et veulent te pister, vite J'apprends à vivre avec le couteau sous la gorge Frère tu veux rouler en Porsche mais y a du boulot sur l'accord, guette Nos frères qui bé-tom, nos mères qui ré-pleu Nos té-ci d'béton, nos pères qui vé-creu Des récits très sombres sortent parfois de ma bouche, Crois pas que je me la boucle, laisse-moi faire mes affaires et écarte toi de ma route Sinon j'écrase le premier qui vient, j'lui passe dessus en fond de cinquième J'lui casse le cul, sa mère, son père et sa blonde s'inquiètent Pas de pitié, j'pars kicker, j'fous les gants J'rappe qu'il vente, qu'il pleuve, qu'il neige, j'suis l'meilleur de tous les temps Sachez-le, le rap et Guiz, indissociables, comme Franck Lucas et les sachets bleus Wesh les mecs, on fait du rap ou on fait quoi ? On fait du clash ou on festoie ? On fait du sale ou on s'nettoie ? J'comprends plus rien Mais une chose est sure, on a grandi dans le zoo donc comprenez qu'on n'ait rien d'humain On a développé des instincts animaux, j'pense à tous mes barbares, mes zinzins saligauds J'connais l'ghetto, ses ambiances éléctriques, en silence, j'reste loin des gens qui pensent bénéfices En freelance fait des biffs, ou tu vas t'manger la carotte, étrangler un étranger pour venger ta parole Parlons peu mais parlons bien, j'ai des albums cachés Planqués au plus profond de mon iPhone craqué Né dans la mouise, sans un sous, j'vois mes bad boys braquer Complètement fous, dans la tise, c'est des sales gosses cramés Trash sur la flicaille, calcule la bicrave En cas de chute, y'a pas d'putes, moi j't'assure qu'ça mitraille Et ils aiment jacter, j'les entend tous J'avais le foot et l'école, la juge m'a mis sur le banc de touche Vingt-et-un ans de vie, rien d'neuf, toujours plein d'keufs Un tas de jolies filles et des joints de peufs Toujours la même gueule, je te l'cache pas Toujours même stylo, même feuille, toujours H-K Toujours méfiant, j'peux pas camoufler un doute Ouais on n'a pas perdu la main car ça n'a pas bouger d'un pouce Toi, tous croient, que j'ai fais v'là le fric Avec mon rap street, mais c'est des oufs, j'vois Toujours les mêmes te-tês, Bio Alini, Yonea, Willy, Jeff, et Lascars Ouzou L2C Toujours mon stick et ma bière fraîche J'te l'ai dit rien a changé depuis mes clips sur Internet Juste un peu plus de fric, de belles femmes Beaucoup de stress, de la musique, et des deadlines Dans ce rap, y'a des traîtres faut se méfier Alors travaille avec tes mains si t'es bête comme tes pieds Motherfucker, Ouzou Check moi, yo Chiguiricheck, Guiziouzou, yo J'ai du mal à gérer mes pulsions, accepter qu'jai vu l'fond Quand j'fais l'con, il sera trop tard pour arrêter l'éffusion Tu vois de quoi je parle De cette envie de vider ma cannette, une dernière avant de quitter la planète Le vice est la galère, je crois que c'est ça qui me fait plus de mal Foncdé collé à la vitre dans le bus de night J'rencontre un ouvrier, Il me dit quil va bosser Devant lui j'ai honte negro je pue la bière je suis amoché Il vient du Sénégal, il est électricien En wolof il me dit Bientôt j'ai un bébé qui vient Un peu gené, je le félicite Il me dit tu descends quand? je lui réponds je descends près d'ici Il me dit moi je vais a Vélizy Encore une heure de trajet Et de bus de nuit pour aller se casser le dos Ca il ne me la pas dit mais je l'ai lu au fond de ses yeux L'émotion est palpable car au fond du bus on n'est que deux J'descend dans trois arrêt mais je fais semblant de pas voir Je veux rester dans le bus et je veux entendre sa voix Elle est rassurante en plus son accent je le connais bien Il me berce depuis lépoque ou ma maman me donnait le sein Des fois le bus de nuit c'est pleins de surprises De travailleur ou de schlague qui ont besoin de survivre Cette nuit me la démontré Car tu nas plus de préjugé quand tu es défoncé Du coup j'ai parlé avec un vendeur à la sauvette Lui il revenait de la tour Eiffel Il navait pas de fafs Arrivé du Pakistan avec un packtage est la moitié d'un pascal Quand j'lui parle, je comprends une phrase sur deux Mais je le reçois 5 sur 5 car la misère est universelle Yeah, Guiziouzou, yo Han, check moi, ok, ok, ok, han, han, han, han, han, han Han, han, check, check, check Que des tas de shit avec mes copains Je suis pas débile t'as pas de coke Un enfant débile qui vient vous croquer Kicker, t'entends mon débit t'es choqué, ok C'est pas la peine de faire semblant, choqué Tout c'que tu vois en p'tit, j'le vois en grand, eh Le ventre a sec, j'bédave des guinz, c'est pas du bluff Vous avez beau venir a 15, c'est moi l'plus fort si j'ai un 9 J'répète Le ventre a sec, j'bedave des guinz, c'est pas du bluff Vous avez beau venir a 15, c'est moi l'plus fort si j'ai un 9 Et j'analyse mes sales habitudes, man ça tise des fois ça titube Ça s'assimile à la vie d'rue, y a d'quoi finir a la friture Pas facile de s'assassiner, pour un biff, une place assise Combien d'fois j'ai rêvé de passer dix minutes où les pachas vivent Là j'arrive, la salive, pleine de phases, terre à terre On pé-ra t'éclate tes gars si tu veux nous ché-cla c'est la merde Et j'en vois trop ce vautré, beau et coté A cause d'l'embrouille de trop ce sont fais coffré Passés de l'autre côté Gros j'te connais tu vas encore dire que j'banalise le truc Mais j'réalise qu'les gamines s'déshabillent et banalise le uc A chaque vice de plus on s'ratatine Pour s'canaliser boit d'la tise pour pas chavirer Sarcastique et grave habité par la street Moi j'habite ou y'a pas d'pitié, pas d'khalisse et pas d'amitié La sale mine des cailles' habités, par la team des shtars agités Y'a plus d'love dans c'business et dans les rue d'ma ville Ca m'fais mal, même cogiter et j'en dors plus la nuit Check, j'ai ce qu'il faut, j'ai ce qu'il faut, j'ai ce qu'il faut J'ai du flow, j'ai du flow, j'ai ce qu'il faut, ouais, ouais Guiziouzou, sisicoucou, check moi, yo, yo Je suis en train de bâtir un truc vraiment spécial Le but, c'est d'en faire un succès d'enfer Comme une bulle d'air en pleine face Haha, yeah, écoute moi Écoute moi, écoute moi, écoute moi, motherfucker Conex laisse tourner Excusez-moi la famille, c'est vraiment grave, c'est vraiment grave J'arrive, yo, yo, yo, check moi, check moi, Guiziouzou Ça valait l'coup, ça valait l'coup, hanhan, check Vraiment spécial Le but, c'est d'en faire un succès d'enfer Comme une bulle d'air en pleine face Les stups viennent en G Star T'façon, y a pas de flaque sans ruse Comme y a pas d'adultère sans messe basse J'ai vu que les grands frères partent acheter me-ca, ils ont pris Alors qu'au début, c'était café, ve-ca et lon-pi On se plaint pas dans l'errance Mais j'oublie pas que le frérot Jeff a pris quinze mois dans les dents Instable, je m'en lé-bran, ouais, je me la flambe Je suis un schizo qui traine solo donc je suis le chef de ma bande Textes savants, qu'est-ce que t'attends de moi ? J'ai peu de patience quand je pète le calmant le soir Peut-être que la France nous déteste et je le sens grave Je n'ai que ma chance et mes rêves sur un sound crade Tout est dit, what up ? what up ? Fais tourner Pour tous mes gars, pour tous mes gars Ça, c'est pour tous mes gars, pour tous mes gars Ça, ça, yo Pour tous mes gars, oh oui Oh oui, c'est pour tous mes gars ça C'est pour tous mes gars, c'est pour tous mes gars ça Check moi, yo, yo, yo J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer, puis se déchirer, je vois des couples se Arrgghh Chiguiricheck, chiguiricheck, trop d'inédits dans la tête Han, han, han, han, ok, ok Moi, j'leur ai dit c'est pas ma faute à moi Les gars c'est une bitch, arrêtez d'faire semblant J'avoue j'ai fait le con en tombant love d'elle Même vos collègues l'ont niqué, sa vie c'est un bordel Relâchez-moi, essayons de négocier Moi aussi j'ai des dossiers Laëtitia, m'a tout raconté Eh, connu des services de police J'suis une vermine, mais j'suis poli Ils m'mettent les menottes, parce que je les mets à leurs femmes J'suis coupable, eux innocents, mais j'les remets à leur place Moi, j'suis l'genre d'adolescent qui méprise la vie Qui vomit dans les chiottes pendant une Skin'Party Ça fait longtemps qu'j'ai pas serré une quarantenaire Donc j'en attrape une, elle me répond qu'son mari est flic et qu'il dirige la BAC entière Qu'il sait pas quand se taire, mais ça Ça m'excite à la mort, elle recherche un amant J'lui ai dit Oh ma belle, moi j'crois pas en l'amour Parce que, parce que Parce que, parce que, parce que, parce que, j'ai se' J'ai serré la femme d'un flic, mec j'suis trop content Ok, ça fait, j'ai serré la femme d'un flic et mec j'suis trop content Donc j'disais, j'crois pas en l'amour Elle me répond qu'elle non plus, elle veut juste faire l'amour Se détendre, fumer deux Kamas ou trois, ouais Et revisiter le Kama-Sutra Exactement ce dont j'avais besoin Grâce à elle, la flicaille, je vais l'espionner de loin J'passe du bon temps avec elle Elle sait y faire, ça dure longtemps avec elle J'aime écouter ses histoires, un jour elle m'a confié qu'son mari était frustré Elle refuse de le lustrer Elle m'a dit qu'il allait taper des travs À la maison c'est une serviette et y'a qu'au poste qu'il joue les braves Motherfucker, check, on peut le faire Yo, yo, yo, yo, yo, yo, yo, yo, yo, eh J'suis pas un nouveau Guizmo, j'essaie juste de nouveaux trucs Toujours pas d'michtos, juste un peu plus de nouveaux uc' Mon son dans les discos, voilà, c'est mon nouveau but Toujours Fuck la lice-po, képi, BAC et nouveaux stups Nous, on se bute Dans nos fûtes, y a du teu-shi et des pochetons de weed Avant 16h, les halls sont vides Après, c'est l'heure, il faut qu'on deal Johnny est passé, les caisses et les poubelles crament Les petits sont lassés, veulent du Guess et des nouvelles Nike Requin de préférence, avec la petite liasse Mille biatches mais pour avoir ça, besoin de l'élégance Z.S, toujours pas de nouveau crew On s'est promis de pas se vautrer Si je mens, bah foutez-nous au trou Ouais ok, sur tes bum-al, y a des nouveaux prix Moi c'est douze euros et vingt-sept si t'achètes le coffret, on s'est compris Ton pied, mon pied si tu écoutes mon rap Ils sont à fond dans la punchline, moi je suis passé au full contact Bande d'enfoirés Rien de nouveau, rien de nouveau, rabza y a rien de nouveau Rien de nouveau, négro y a rien de nouveau Y, W, Z.S, rien de nouveau Rien de nouveau, baptou, y a rien de nouveau Rien de nouveau, rabza y a rien de nouveau Rien de nouveau, négro y a rien de nouveau On r'vient de loin, vous rev'nez du boulot Yeah, ok Check, check, check moi, eh Boule rasé, vénèr' comme un hooligan On n'a rien à perdre et c'est pour ça qu'on s'en fout de qui gagne Vodka pomme dans le verre de cristal Je suis en pleine forme, balance la prod et je gère le freestyle Oui c'est bien moi L'alcoolo posé dans le hall qui t'accueille en disant t'as besoin de quoi ? Y a des barrettes et des blocs, des caillettes et mes potes Une belle bande d'inconscients qui a vite arrêté l'école C'est grave qu'on s'autodétruise pour du croco, Levi's Entre gros cônes et tise, mes potos s'épuisent Je connais le vice, la verdure Les flics, l'amertume Mais je respire et résiste la tête dure Je maîtrise la tech' pure, je rappe de zéro nine Sabre laser au mic, je graille ce que mes frérots graillent Ouzou, une bête dans un corps de lâche Tu baisses ton froc, on te fuck peu importe l'âge Paré pour l'affront Voilà le négro qui ne craint pas la peur Ouais, je me la raconte Tellement qu'on m'appelle le narrateur 3-1 Catin à l'aise tu crois que je pèse en vrai je fais le malin On va rafler tout le fric, niakser tout le shit Tu veux payer la semaine prochaine, tu te fais charcler tout de suite Et c'est biz' de pilon et de CC, laissez Chez moi c'est les gros poissons qui passent leur temps à pêcher Lécher un boule ou un shnek, jamais de la vie, respect Si t'es un boug du tiek's, ramène de la tise et je vais Froisser le beat, après, je me tire Tapette, je te kill, ta mère veut pine ? Appelle le Guiz' Et je la remplis tant qu'elle me vide T'as capté le système, je l'appelle ma salope quand je la baise C'est son nickname Bref, j'emmerde le rap J'arrive fonce-dé, les yeux plissés comme dans une tempête de sable Comment vont mes zoulettes ? Vreu-lès sur le stick Jamais tout nets, sous bières à se-l'ai sur le beat Les phases glissent toutes seules Je contrecarre tous vos plans Et voilà pourquoi ma tactique fout le seum Pas de love, pas de pitié T'as un tas de loves, tu parles trop, un badboy va te niquer C'est des maths, fils La rue est un fléau, un conseil fais comme Néo, reste dans ta matrice Ca fait puff puff sur le oinj' de weed Trop de meufs, keufs, bluff on a besoin de vivre Besoin d'une paire de cuisses Qu'elle s'occupe de mon Sshhh arrrgh Aaah, j'ai les couilles pleines, j'ai besoin de faire le vide Les yeux vitreux, je me dis que c'est ni la gauche ni la droite qui rendent fou C'est ce milieu Y a les tentations et un tas de vicieux Le genre de mec qui te pisse dessus et qui te fait croire qu'il pleut Guiz-mo c'est mortel, c'est le bordel dans l'top ten Chacune de mes phase est crue comme un carpaccio MC, tu sais pas rapper alors me parle pas de flow Ouais c'est nos vies fiston Que d'l'illicite, du shit, les shmitts sont vifs en ville alors vite fuyons Pour des biguiftons, j'vois des p'tits qui tombent Et des types qui grondent parce qu'ils voient Guiz qui monte J'm'y attendais, ils avaient des liasses en tête C'est bizarre en fait, c'est moi qui m'retrouve à pillave en scrèd J'rêve de quitter l'asphalte Sur le fil du rasoir, sponsorisé par Gillette Mach 3 J'effrite et j'rappe sale j'ai tout mis dedans Faut qu'j'place mes hyènes, mes chiens d'la casse, mes rats et mes souris devant Plus facile à dire qu'à faire, tout c'qui nous tue est abordable Y'a qu'à voir le prix d'la bière 28 frangancs l'pack de 12 pour 2 ou 3 heures de fonce-dé On apprend rapidement à compter Ouais c'est triste mais c'est aç-comme, j'y peux rien Prisonnier des vices de cette hardcore vie de chien J'ai le style propre, mais les pensées sales Les nerfs à vif, orgueilleux j'ai failli planter Phaal' Foutue parano, elle m'fait perdre les pédales J'suis vert, puis merde j'vais rester chez oim' Gratter mes idées noires, rapper me niquer l'foie Me rappeler que n'sont déçus que ceux qui vivent d'espoir J'ai appris à voir le verre à moitié vide, cousin J'te rappelle qu'il est à sept euros dans les quartiers riches Yeah, yeah Ouzou On est bons ? Yeah, ouais, j'me suis amusé, ça va Drrraaaa Bah, nous aussi5</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>YW Jusqu'au point G ZS Turn the volume! It's J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée Tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi, moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup, ow J'baise au pluriel Tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi J'lui rentre ça bien jusqu'au fond Évidemment j'suis un cochon Qu'j'ai des potes-ca et des pochons Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck You might also like J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Vas-y fais moi rêver, les couilles pleines et je veux m'alléger J'aime ce clito, j'serai ton chiot Tu seras la chienne et tu vas mallaiter T'as gagné si t'es cambrée D'emblée ça va donner envie de t'enlever Tes sapes ou tout ce qui peut empê- -cher que tu puisses me la manger N'aie pas peur quand j'te mets la fessée Ton gros tard-pé peut tout encaisser Premier round, j'te fais l'amour Deuxième round, j'ai juste envie d'baiser N'aie pas peur quand j'te mets la fessée Ton gros tard-pé peut tout encaisser Premier round, j'te fais l'amour Deuxième round, j'ai juste envie d'baiser J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl, motherfuck'-fuck' Qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck'</t>
+          <t>YW Jusqu'au point G ZS Turn the volume! It's J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée Tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi, moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup, ow J'baise au pluriel Tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi J'lui rentre ça bien jusqu'au fond Évidemment j'suis un cochon Qu'j'ai des potes-ca et des pochons Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Vas-y fais moi rêver, les couilles pleines et je veux m'alléger J'aime ce clito, j'serai ton chiot Tu seras la chienne et tu vas mallaiter T'as gagné si t'es cambrée D'emblée ça va donner envie de t'enlever Tes sapes ou tout ce qui peut empê- -cher que tu puisses me la manger N'aie pas peur quand j'te mets la fessée Ton gros tard-pé peut tout encaisser Premier round, j'te fais l'amour Deuxième round, j'ai juste envie d'baiser N'aie pas peur quand j'te mets la fessée Ton gros tard-pé peut tout encaisser Premier round, j'te fais l'amour Deuxième round, j'ai juste envie d'baiser J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl, motherfuck'-fuck' Qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Motherfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonne, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon J'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Girl écarte tes cuisses qu'on te biffle motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, qu'on te fuck-fuck Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Motherfuck'-fuck' Girl écarte tes cuisses qu'on te biffle, motherfuck'-fuck'</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Yeah ! Yeah ! Yeah ! Where the motherfuckin' videotape ? Give me the motherfuckin' video What the fuck did you do, man ? Hey yo, alcoolique accoutumé à tout brûler, à bout de force À bout de nerfs, à nous le coffre, ah faut du blé, taffe sous le porche Amalgame, là ça m'gave, passe la niak's, y'a pas l'choix À l'arrache, ça va d'soi, ahlala, j'casse ma voix Y'a d'quoi rester bouche bée, bébé ici tout s'paie Des bénéfices, pas de bénévolat la rue m'a boosté Nègre fier j'ai fait des centaines de guerres j'ai Galéré des nuits sur Châtelet au RER B C'est, illicite comme la C, sans cesser Dans l'zoo on s'assassine ou on part après l'AVC Et la vie c'est des décès, et des funérailles Putes et cailles, mais on s'en remettra Mon père m'a pas laissé glisser Des bâtards et des traîtres, j'en ai vu en massant boule-de Coûte que coûte, moi je m'en bas les couilles que vous soyez soudés Ou j'te shoote, ou j'te fais les fouilles, y faut pas douter Coupe le souffle à tous ces bâtards qui sont la pour l'blé Défense de balancer, détends-toi Les dé-cons vont bader parce que t'es fait dans l'square Et quand Dwayne chante c'est cadencé, mes gars sont bluffés On s'est mis au poker depuis qu'les dés sont jetés Mais eux veulent me fonce-dé, me ramener dans des bad trips Les yeux purple foncés, j'suis parti pour un casse-pipe Je n'veux pas m'enfoncer, j'suis au phone avec la SPIP Elle veut me voir pioncer en taule ou prendre un bakchich Et j'suis zehef, t'as pas vu c'qui m'ont ait-f La poisse me tend les bras pendant qu'la chance me met des ssef Tout ça c'est dur, les refré à la Préf' J'pense à mon père, Abass et Daf j'en dors pas et ça m'fait ier-ch PG c'est pour qu'on fume du hasch, où tu t'caches ? Un coup d'schlass j'rentre chez moi avec ton crâne comme un apache Oh oui on vit la nuit oui, Villeneuve c'est pas Neuilly Y suffit d'un petit délit pour finir à Fleury En i sur la bécane tant pis si ça paye pas Je m'enlise en ville sans calculer ces pédales En bas du bloc dans mon joint c'est de l'hi' Et j'suis pas 'stoc mais j'viens mettre les points sur les i You might also like - Man, I got these cheeseburgers. They some double cheeseburgers - Nigga, I just ate. I just ate. If you ain't got no money, you just assed out - Come on, man. Wait, wait, wait man. I'll suck your dick - The fuck you just said nigga? - I said I'll suck your dick, man. Come on men, let's get... J'y pense à chaque fois et à chaque fois j'agis Basta tes gars sont pas stables quand j'rappe de la magie Arrache ta gueule qu'est-ce que tu fous encore ici ? Un nique ta mère pour une feuille et voilà ton corps il gît Mais différents sont les gars, trop souvent y sont sociaux On veut habiter au chaud et dire tout haut on nique lÉtat Vas-y dis-moi si t'es cap, dis-moi si t'as une lash-ka J'ai des lames de rasoir jusque sous ma chapka Un beat et ça ffé-ta, un spliff et un fé-ca Que le FN suce ma bite, nique et nique le KKK Du pilon sous la semelle, arraché toute la semaine Y m'faut du shit, y m'faut d'la bière posé avec une femelle Évidemment qu'elles aiment vu les phéromones qu'on sème Deux meujs de cocaïne, je la vois devenir blême Et tu métonnes que souvent ils ont la haine On deale, on braque, on vole mais c'est ça les vies qu'on mène men Au fait la rue a fait des fils Yonea, Willy, Guizmo t'entend les pneus qui crissent On est là mais crois-moi on vise le haut Non on fait pas de cinéma on péra on vise l'euro Paix à toi et à tes gars y faut pas ramper Y'a eu des drames, j'me suis mouillé et j'suis rentré trempé Les tapes, les sous les 'tasses poto ça je l'ai fait Dans la rue j'te sors mon schlass au micro je croise l'épée Que dalle sur mon pécule j'suis en manque de cul et d'thunes Cousin faut des écus nique la CAF et la Sécu' Plane dans les airs, niaks et pépère J'suis dans l'pc fumant, un P2 c'est mes frères Est-ce que la vie est belle ? Frérot j'en sais rien À la prochaine escale elle aura de l'héro sous les reins J'veux plus mendetter, en fait j'suis en détresse Au lieu d'ger-chan bah j'fais qu'm'endetter J'fais du rap, je vends plus mais j'suis toujours un cas soc' Donc si t'as une bécane oublie pas d'enlever le U Et les keufs peuvent me lever, un coup de fil à mon avocat Rotte-ca, un llet-bi la peine est levée Bah ouais que j'suis un fou de tess, bah ouais que j'suis un trouble-fête Bah ouais que je m'en bats les couilles, t'as qu'à demander au W Quand j'y pense y'a un hic, j'veux des blanches et des bif Un bolide genre un X et un 6 Et les chtars peuvent me filer d'près pour m'avoir dans leurs filets Négro j'y vais et je m'arrache avec un YZ Peuvent me filer d'près pour m'avoir dans leurs filets Négro j'y vais et je m'arrache avec un YZ Went into the store just to get a beer, came out an accessory to murder and armed robbery. It's funny like that in the hood sometimes. You never knew what was gonna happen, or when. After that I knew it was gonna be a long summer...7</t>
+          <t>Yeah ! Yeah ! Yeah ! Where the motherfuckin' videotape ? Give me the motherfuckin' video What the fuck did you do, man ? Hey yo, alcoolique accoutumé à tout brûler, à bout de force À bout de nerfs, à nous le coffre, ah faut du blé, taffe sous le porche Amalgame, là ça m'gave, passe la niak's, y'a pas l'choix À l'arrache, ça va d'soi, ahlala, j'casse ma voix Y'a d'quoi rester bouche bée, bébé ici tout s'paie Des bénéfices, pas de bénévolat la rue m'a boosté Nègre fier j'ai fait des centaines de guerres j'ai Galéré des nuits sur Châtelet au RER B C'est, illicite comme la C, sans cesser Dans l'zoo on s'assassine ou on part après l'AVC Et la vie c'est des décès, et des funérailles Putes et cailles, mais on s'en remettra Mon père m'a pas laissé glisser Des bâtards et des traîtres, j'en ai vu en massant boule-de Coûte que coûte, moi je m'en bas les couilles que vous soyez soudés Ou j'te shoote, ou j'te fais les fouilles, y faut pas douter Coupe le souffle à tous ces bâtards qui sont la pour l'blé Défense de balancer, détends-toi Les dé-cons vont bader parce que t'es fait dans l'square Et quand Dwayne chante c'est cadencé, mes gars sont bluffés On s'est mis au poker depuis qu'les dés sont jetés Mais eux veulent me fonce-dé, me ramener dans des bad trips Les yeux purple foncés, j'suis parti pour un casse-pipe Je n'veux pas m'enfoncer, j'suis au phone avec la SPIP Elle veut me voir pioncer en taule ou prendre un bakchich Et j'suis zehef, t'as pas vu c'qui m'ont ait-f La poisse me tend les bras pendant qu'la chance me met des ssef Tout ça c'est dur, les refré à la Préf' J'pense à mon père, Abass et Daf j'en dors pas et ça m'fait ier-ch PG c'est pour qu'on fume du hasch, où tu t'caches ? Un coup d'schlass j'rentre chez moi avec ton crâne comme un apache Oh oui on vit la nuit oui, Villeneuve c'est pas Neuilly Y suffit d'un petit délit pour finir à Fleury En i sur la bécane tant pis si ça paye pas Je m'enlise en ville sans calculer ces pédales En bas du bloc dans mon joint c'est de l'hi' Et j'suis pas 'stoc mais j'viens mettre les points sur les i - Man, I got these cheeseburgers. They some double cheeseburgers - Nigga, I just ate. I just ate. If you ain't got no money, you just assed out - Come on, man. Wait, wait, wait man. I'll suck your dick - The fuck you just said nigga? - I said I'll suck your dick, man. Come on men, let's get... J'y pense à chaque fois et à chaque fois j'agis Basta tes gars sont pas stables quand j'rappe de la magie Arrache ta gueule qu'est-ce que tu fous encore ici ? Un nique ta mère pour une feuille et voilà ton corps il gît Mais différents sont les gars, trop souvent y sont sociaux On veut habiter au chaud et dire tout haut on nique lÉtat Vas-y dis-moi si t'es cap, dis-moi si t'as une lash-ka J'ai des lames de rasoir jusque sous ma chapka Un beat et ça ffé-ta, un spliff et un fé-ca Que le FN suce ma bite, nique et nique le KKK Du pilon sous la semelle, arraché toute la semaine Y m'faut du shit, y m'faut d'la bière posé avec une femelle Évidemment qu'elles aiment vu les phéromones qu'on sème Deux meujs de cocaïne, je la vois devenir blême Et tu métonnes que souvent ils ont la haine On deale, on braque, on vole mais c'est ça les vies qu'on mène men Au fait la rue a fait des fils Yonea, Willy, Guizmo t'entend les pneus qui crissent On est là mais crois-moi on vise le haut Non on fait pas de cinéma on péra on vise l'euro Paix à toi et à tes gars y faut pas ramper Y'a eu des drames, j'me suis mouillé et j'suis rentré trempé Les tapes, les sous les 'tasses poto ça je l'ai fait Dans la rue j'te sors mon schlass au micro je croise l'épée Que dalle sur mon pécule j'suis en manque de cul et d'thunes Cousin faut des écus nique la CAF et la Sécu' Plane dans les airs, niaks et pépère J'suis dans l'pc fumant, un P2 c'est mes frères Est-ce que la vie est belle ? Frérot j'en sais rien À la prochaine escale elle aura de l'héro sous les reins J'veux plus mendetter, en fait j'suis en détresse Au lieu d'ger-chan bah j'fais qu'm'endetter J'fais du rap, je vends plus mais j'suis toujours un cas soc' Donc si t'as une bécane oublie pas d'enlever le U Et les keufs peuvent me lever, un coup de fil à mon avocat Rotte-ca, un llet-bi la peine est levée Bah ouais que j'suis un fou de tess, bah ouais que j'suis un trouble-fête Bah ouais que je m'en bats les couilles, t'as qu'à demander au W Quand j'y pense y'a un hic, j'veux des blanches et des bif Un bolide genre un X et un 6 Et les chtars peuvent me filer d'près pour m'avoir dans leurs filets Négro j'y vais et je m'arrache avec un YZ Peuvent me filer d'près pour m'avoir dans leurs filets Négro j'y vais et je m'arrache avec un YZ Went into the store just to get a beer, came out an accessory to murder and armed robbery. It's funny like that in the hood sometimes. You never knew what was gonna happen, or when. After that I knew it was gonna be a long summer...7</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J'sors de mon zoo avec un zoula à la bouche Pas de ceux qui se foudroient à la schnouf Moi j'me soulage à la douce On passe du courage à la frousse Tant de frères qui nous ont quittés Gangsters souvent impliqués, dans le stress et dans les cités Gamber-j'essaie d'exister, sans faire de débilités J'dis savoir ce que j'ai fait rimer, grande bière est nécessité On a pas l'temps à tout vous dire, on crame l'afghan Ça taffe quand vous pioncez mec, à coup sûr, on passera devant Dites-moi, où sont les fils de ches-lâ ? J'arrive et que j'pisse mon venin Sans arrêt, on vise le she-ca J'veux plus que ce dont j'ai besoin Ouais c'est toujours plus, toujours luxe Flouse pour brusque, toujours frustré Le tout pour le tout pour le succès Bédave mon spleen, le repousse au lendemain Tu t'interroges sur mon trip, j'te raconte que quand j'reviens Wow Wow, on en est où ? Grand flow au rendez-vous Trop haut, j'leur inflige des bobos même sans les coups Motherfucker, j'ai le truc qui peut te disloquer la nuque Vaut mieux pivoter que s'isoler pour rigoler de ma chute Baby, pourquoi tu casses les couilles ? Ces p'tites brunes, c'est que des p'tites putes Des vide-burnes à qui j'fais des crasses, c'est tout L2C, mon vieux, Lascars et DRC Y'a des bâtards qui m'énervent On a des tas d'blagues sur les mères Repère des canards et des perroquets dans mon panorama J'suis déjà bousillé moralement J'veux tout ce que ces salauds ramassent Et j'ai vraiment besoin d'un calmant D'une re-biè avec un camass Et j'sais pas si je rappe salement Mais je rappe que des trucs salaces Eh ma p'tite gueule, ça sort de Villeneuve Dis c'que tu veux j'ai pris le seum mais t'es pas Big Pun Les types gueulent, veulent ma peau Mais ils se leurrent, pris de peur S'ils cherchent midi à quatorze, on va leur dire l'heure Mes Grimlin'zs, ils le savent comment j'ai flingué La sère-mi puis faire le biff, mec, j'ai commencé indé' Avec tout ça, bah y'a pas le temps de faire le mac J'trouve pas chaussure à mon pied et j'ai 60 paires de Nike Et j'vois qu'y en a qui trouvent ça chouette Jouer les bad boys sous alcool Ça fait pousser les couilles mais ça retourne la tête Saloperie de rap de merde, j'serai jamais ta pute J'évite ta flûte, je m'approprie grave le verbe La bonne zik, la beu-her, les nuits blanches sous bis-canna Les dits-ban, les brigands pour 10 francs, ils te niquent ta race Flics et shit et coke et crack fatigué, à peine vé-le Hystérique avec les tracks si tu crois me niquer, fais-le Non mais oh, on se fout de la gueule de qui ? À la base, j'suis just le Guiz' 9.2 Villeneuve, les p'tites meufs et puis les reufs me kiffent Tu peux pas me menacer de mort J'ai déjà eu peur de vivre Tranquillement, je gâche mes forces Dans une grosse vapeur de weed À n'importe quelle heure, je tise ma génération aussi Les yeux plissés par le shit, l'effet des cachetons aussi Faut qu'tu m'achètes, c'est pas cher et ça va haut J'ai pas changé une baguette, un cashir et de la mayo' T'as pas compris ? Y'a les p'tits frères qui font du sale dehors Ah putain c'est sale, tellement sale, c'est plus du sale c'est gore On vient prendre le titre, et rien à foutre, ton empire et ta Major On veut du fric, on est une entreprise C'est pour les banlieues pauvres, c'est pour les banlieues riches On est ensemble, c'est que du love et j'te le dis en 2 rimes J'avais un truc en tête, j'ai oublié à cause d'un trou d'mémoire Causé par un pét' et ça me rend ouf, des fois Genre, je cherche les clefs elles sont dans ma poche Et j'te parle même pas de la piche, y'en toujours dans ma sacoche You might also like Ouzou ! Ziguili Zone Sensible, motherfucker ! Woo ! C'est comme ça que j'fais les choses, bébé La Banquise, vous êtes foutus, bébé Yeah Yonea-Willy, à l'infini Vous êtes finis, ce sera filmé4</t>
+          <t>J'sors de mon zoo avec un zoula à la bouche Pas de ceux qui se foudroient à la schnouf Moi j'me soulage à la douce On passe du courage à la frousse Tant de frères qui nous ont quittés Gangsters souvent impliqués, dans le stress et dans les cités Gamber-j'essaie d'exister, sans faire de débilités J'dis savoir ce que j'ai fait rimer, grande bière est nécessité On a pas l'temps à tout vous dire, on crame l'afghan Ça taffe quand vous pioncez mec, à coup sûr, on passera devant Dites-moi, où sont les fils de ches-lâ ? J'arrive et que j'pisse mon venin Sans arrêt, on vise le she-ca J'veux plus que ce dont j'ai besoin Ouais c'est toujours plus, toujours luxe Flouse pour brusque, toujours frustré Le tout pour le tout pour le succès Bédave mon spleen, le repousse au lendemain Tu t'interroges sur mon trip, j'te raconte que quand j'reviens Wow Wow, on en est où ? Grand flow au rendez-vous Trop haut, j'leur inflige des bobos même sans les coups Motherfucker, j'ai le truc qui peut te disloquer la nuque Vaut mieux pivoter que s'isoler pour rigoler de ma chute Baby, pourquoi tu casses les couilles ? Ces p'tites brunes, c'est que des p'tites putes Des vide-burnes à qui j'fais des crasses, c'est tout L2C, mon vieux, Lascars et DRC Y'a des bâtards qui m'énervent On a des tas d'blagues sur les mères Repère des canards et des perroquets dans mon panorama J'suis déjà bousillé moralement J'veux tout ce que ces salauds ramassent Et j'ai vraiment besoin d'un calmant D'une re-biè avec un camass Et j'sais pas si je rappe salement Mais je rappe que des trucs salaces Eh ma p'tite gueule, ça sort de Villeneuve Dis c'que tu veux j'ai pris le seum mais t'es pas Big Pun Les types gueulent, veulent ma peau Mais ils se leurrent, pris de peur S'ils cherchent midi à quatorze, on va leur dire l'heure Mes Grimlin'zs, ils le savent comment j'ai flingué La sère-mi puis faire le biff, mec, j'ai commencé indé' Avec tout ça, bah y'a pas le temps de faire le mac J'trouve pas chaussure à mon pied et j'ai 60 paires de Nike Et j'vois qu'y en a qui trouvent ça chouette Jouer les bad boys sous alcool Ça fait pousser les couilles mais ça retourne la tête Saloperie de rap de merde, j'serai jamais ta pute J'évite ta flûte, je m'approprie grave le verbe La bonne zik, la beu-her, les nuits blanches sous bis-canna Les dits-ban, les brigands pour 10 francs, ils te niquent ta race Flics et shit et coke et crack fatigué, à peine vé-le Hystérique avec les tracks si tu crois me niquer, fais-le Non mais oh, on se fout de la gueule de qui ? À la base, j'suis just le Guiz' 9.2 Villeneuve, les p'tites meufs et puis les reufs me kiffent Tu peux pas me menacer de mort J'ai déjà eu peur de vivre Tranquillement, je gâche mes forces Dans une grosse vapeur de weed À n'importe quelle heure, je tise ma génération aussi Les yeux plissés par le shit, l'effet des cachetons aussi Faut qu'tu m'achètes, c'est pas cher et ça va haut J'ai pas changé une baguette, un cashir et de la mayo' T'as pas compris ? Y'a les p'tits frères qui font du sale dehors Ah putain c'est sale, tellement sale, c'est plus du sale c'est gore On vient prendre le titre, et rien à foutre, ton empire et ta Major On veut du fric, on est une entreprise C'est pour les banlieues pauvres, c'est pour les banlieues riches On est ensemble, c'est que du love et j'te le dis en 2 rimes J'avais un truc en tête, j'ai oublié à cause d'un trou d'mémoire Causé par un pét' et ça me rend ouf, des fois Genre, je cherche les clefs elles sont dans ma poche Et j'te parle même pas de la piche, y'en toujours dans ma sacoche Ouzou ! Ziguili Zone Sensible, motherfucker ! Woo ! C'est comme ça que j'fais les choses, bébé La Banquise, vous êtes foutus, bébé Yeah Yonea-Willy, à l'infini Vous êtes finis, ce sera filmé4</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ziguili Zone Sensible jusqu'à l'infini YW Bitches, jusqu'à l'infini Ouais mec, hé mec, ouais mec Venez pas nous check, on est très sales Oui la cess', on a fait ça Je vous amène que des vrais phases Envoie ton bigo qu'on appelle que des pétasses On va appeler que des tasses-pé À se-l'ai sur les faces B Faut manoeuvrer sans s'apeurer, mais pas crever dans les quartiers Trois, quatre rres-ve, pas de café Y'a pas de sse-grai dans le mafé Madame me fait que des massages, mais finira les jambes écartées Doumams, où sont les massa ? Ce soir j'ai pas trop dave-bé Du son, du sang, des sous y a que pour tirer qu'on a le doigté Moi j'peux t'tirer sans te doigter, te faire crisper tes doigts de pieds T'es pas bonne, tu pues de la chatte là, ma vieille, tu peux t'doigter Tu peux t'doigter toute la nuit, tu peux parler sur ma ville Mais tu suçais, et pour lubrifier ça, tu crachais sur ma bite Prenez pas la tête, on fait ça bien Pas la peine de test, ok, sale chien ? T'as pas le level, pas sorti d'album ? Te fais pas de bile, t'achèteras le mien ! Tu la fais pas jouir ? Ta pétasse, viens ! On lui donne ça comme dans les films Ok, dans ma ville, tout est malsain Mais là c'est pas comme dans les films J'ai rêvé de villas, piscines Mais je connais que la vie street C'est pas difficile, mais man ici C'est soit t'es l'agresseur ou la victime Mais faut pas poucave, sachez qu'on n'aime pas tout ça T'es monté sur un plan, ça a foiré Tu la fermes, que ça passe ou pas Le peura c'est moi, oui je le domine Lui mettre des baffes, frelon c'est mon domaine Pas de pitié, j'vais niquer ta comi' Sans ciné ou aller chez Collette MC, je te laisse dans le flou Un coup j'suis bleu, un coup j'suis vert D'un coup j'suis vieux, d'un coup j'suis gang What you're gonna do ? 92 bébé j'suis tellement fier, j'suis exemplaire Quand j'représente, j'suis légendaire, quand je té-chan Tu prétends faire de vraies descentes mais on a jamais vu ta clique Moi j'fête Halloween en Décembre J'suis schizophrène, sont lunatiques, aaah C'est pas des fils de putes, c'est des putes de fils La cervelle qui va péter là-dedans, on est plus de 10 Oui j'ai des envies de murder, faut pas finir dans la merde On se pète en week-end à Me-da, pour les vertus de la zeb Faut décompresser, être bon j'essaie Défoncé, ouais, mes sons j'les crée Sous influence, j'deviendrai fou, quand des merdes vont tester Ça sent le bédo, j'suis aveuglé par la fumée qu'on crache Faut plus de sous, y a mon p'tit frère qui va buter son crav Et si y a plus de biff, tant pis Et que les condés me pistent en ville Parce que j'ai le cannabis dans l'slip Rageux, on t'envoie des gifles dans l'bide Dalleux, j'en ai plus rien à tre-fou On est jeunes, on a pas tous fait de l'HP Mais on est quand même une équipe de vieux fous Ramène ta clique de merde Elle va ramasser tous les coups de genoux Tabasser, faites ce que vous pouvez Gros, on fait ce qu'on veut nous Arrachés comme n'importe quoi, on fait des mélanges chelous Fracasser, une gueule sur le trottoir pour un peu moins d'un ze-dou Ravagée, finira la tasse-pé Saccagée, finira la face B 3, 4 G cachés dans le calcif À taffer, je me vois les baffer Tous me les faire, promis, ça va J'ai toutes me les faire coquine, ah ah Les trous que je sais faire s'tortillent salace Red Bull et des 'teilles oh oui, je m'arrache Mec j'suis un malade ailleurs, j'y suis, va te faire une balade Schlass dans l'étui, au cas où si ça balance Tu nous verra pas fuir, on ken sans les palabres , rotte-ca et banane Vos lois de bâtards, on s'en bat les couilles J'ai trompé ma madame, keu-shné ou anal Pour moi c'est banal et puis lâchez-vous Lâchez-vous, là c'est nous, YW et la Z.S Clique Il nous faut du blé, ouais on baise les flics On s'en va soulever tout le bénéfice Ouais on va l'faire, on va le faire Quitte à mettre des patates, égorger Toute la weed, toute la bière J'vais tout prendre sur la chatte à Georgette, oooh On aura les poches pleines, faut déclarer forfait Et nous passer vos recettes, faut réparer votre merde On est pas des pauvres traîtres Tellement des pirates qu'on pillave de l'eau de mer Y'a que le Guiz' qui te la donne comme ça J'écris la nuit pendant que les bolosses taillent Près de Paris, j'aime la vie Quand y a du bon shit et de la bonne lope-sa Et laisse-moi faire mon blé On vient des ruines avec des miettes et un peu de flotte Mon p'tit pote, on te fait une pièce montée Ouais laisse-moi faire mon blé On vient des ruines avec des miettes et un peu de flotte Mon p'tit pote, on te fait une pièce montée You might also like Guizi Ouzou, Sisi coucou Viguilleneugueuve-la-Renne-ga, mon pote Ziguili Zone Sensible jusqu'à l'infini Yonea-Willy, Willy-Yonea l'Barge Même à l'envers, ça ché-mar Fuck you9</t>
+          <t>Ziguili Zone Sensible jusqu'à l'infini YW Bitches, jusqu'à l'infini Ouais mec, hé mec, ouais mec Venez pas nous check, on est très sales Oui la cess', on a fait ça Je vous amène que des vrais phases Envoie ton bigo qu'on appelle que des pétasses On va appeler que des tasses-pé À se-l'ai sur les faces B Faut manoeuvrer sans s'apeurer, mais pas crever dans les quartiers Trois, quatre rres-ve, pas de café Y'a pas de sse-grai dans le mafé Madame me fait que des massages, mais finira les jambes écartées Doumams, où sont les massa ? Ce soir j'ai pas trop dave-bé Du son, du sang, des sous y a que pour tirer qu'on a le doigté Moi j'peux t'tirer sans te doigter, te faire crisper tes doigts de pieds T'es pas bonne, tu pues de la chatte là, ma vieille, tu peux t'doigter Tu peux t'doigter toute la nuit, tu peux parler sur ma ville Mais tu suçais, et pour lubrifier ça, tu crachais sur ma bite Prenez pas la tête, on fait ça bien Pas la peine de test, ok, sale chien ? T'as pas le level, pas sorti d'album ? Te fais pas de bile, t'achèteras le mien ! Tu la fais pas jouir ? Ta pétasse, viens ! On lui donne ça comme dans les films Ok, dans ma ville, tout est malsain Mais là c'est pas comme dans les films J'ai rêvé de villas, piscines Mais je connais que la vie street C'est pas difficile, mais man ici C'est soit t'es l'agresseur ou la victime Mais faut pas poucave, sachez qu'on n'aime pas tout ça T'es monté sur un plan, ça a foiré Tu la fermes, que ça passe ou pas Le peura c'est moi, oui je le domine Lui mettre des baffes, frelon c'est mon domaine Pas de pitié, j'vais niquer ta comi' Sans ciné ou aller chez Collette MC, je te laisse dans le flou Un coup j'suis bleu, un coup j'suis vert D'un coup j'suis vieux, d'un coup j'suis gang What you're gonna do ? 92 bébé j'suis tellement fier, j'suis exemplaire Quand j'représente, j'suis légendaire, quand je té-chan Tu prétends faire de vraies descentes mais on a jamais vu ta clique Moi j'fête Halloween en Décembre J'suis schizophrène, sont lunatiques, aaah C'est pas des fils de putes, c'est des putes de fils La cervelle qui va péter là-dedans, on est plus de 10 Oui j'ai des envies de murder, faut pas finir dans la merde On se pète en week-end à Me-da, pour les vertus de la zeb Faut décompresser, être bon j'essaie Défoncé, ouais, mes sons j'les crée Sous influence, j'deviendrai fou, quand des merdes vont tester Ça sent le bédo, j'suis aveuglé par la fumée qu'on crache Faut plus de sous, y a mon p'tit frère qui va buter son crav Et si y a plus de biff, tant pis Et que les condés me pistent en ville Parce que j'ai le cannabis dans l'slip Rageux, on t'envoie des gifles dans l'bide Dalleux, j'en ai plus rien à tre-fou On est jeunes, on a pas tous fait de l'HP Mais on est quand même une équipe de vieux fous Ramène ta clique de merde Elle va ramasser tous les coups de genoux Tabasser, faites ce que vous pouvez Gros, on fait ce qu'on veut nous Arrachés comme n'importe quoi, on fait des mélanges chelous Fracasser, une gueule sur le trottoir pour un peu moins d'un ze-dou Ravagée, finira la tasse-pé Saccagée, finira la face B 3, 4 G cachés dans le calcif À taffer, je me vois les baffer Tous me les faire, promis, ça va J'ai toutes me les faire coquine, ah ah Les trous que je sais faire s'tortillent salace Red Bull et des 'teilles oh oui, je m'arrache Mec j'suis un malade ailleurs, j'y suis, va te faire une balade Schlass dans l'étui, au cas où si ça balance Tu nous verra pas fuir, on ken sans les palabres , rotte-ca et banane Vos lois de bâtards, on s'en bat les couilles J'ai trompé ma madame, keu-shné ou anal Pour moi c'est banal et puis lâchez-vous Lâchez-vous, là c'est nous, YW et la Z.S Clique Il nous faut du blé, ouais on baise les flics On s'en va soulever tout le bénéfice Ouais on va l'faire, on va le faire Quitte à mettre des patates, égorger Toute la weed, toute la bière J'vais tout prendre sur la chatte à Georgette, oooh On aura les poches pleines, faut déclarer forfait Et nous passer vos recettes, faut réparer votre merde On est pas des pauvres traîtres Tellement des pirates qu'on pillave de l'eau de mer Y'a que le Guiz' qui te la donne comme ça J'écris la nuit pendant que les bolosses taillent Près de Paris, j'aime la vie Quand y a du bon shit et de la bonne lope-sa Et laisse-moi faire mon blé On vient des ruines avec des miettes et un peu de flotte Mon p'tit pote, on te fait une pièce montée Ouais laisse-moi faire mon blé On vient des ruines avec des miettes et un peu de flotte Mon p'tit pote, on te fait une pièce montée Guizi Ouzou, Sisi coucou Viguilleneugueuve-la-Renne-ga, mon pote Ziguili Zone Sensible jusqu'à l'infini Yonea-Willy, Willy-Yonea l'Barge Même à l'envers, ça ché-mar Fuck you9</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Jmarche avec mes types, Rap avec les tripes Tas compris, ma barrette j'effrite La BAC elle est speed, ça se complique, la zon-pri Sous mon couvre-chef, jsuis un trouble-fête A bon prix ça combine Dans les tour de tess, ou devrais-je dire Quartiers difficiles parqués loin tout Par lgénie civil, ça fait 15 tours Je crois bien que le truc c'est ça C'est incessant et puis la rue cest grave Dès 15-16 ans nous on va se buter le crâne Me parle pas de travailler, jme lasse pas de batailler Mais jcraque rien que de voir tous ces lascars se pavaner Comme si ils avaient des affaires A l'école on les voyait faire la fête Et on les rackettait sa mère J'ai toujours marché près de la tess Et ça les vrais l'attestent Caravelle, Villeneuve Si tu veux passer faire de la fraiche Moi je suis cramé c'est la merde Mais jvais pas baisser la tête On va mcaresser la verge Et jvais me barrer vers la mer REFRAIN X2 You might also likeJsuis marqué par la vie, et cramé par la BAC Poto ça péra la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête J'ai vu que l'heure était grave Dans mon équipe ya que des lutteurs et des braves Dans les leurs des suceurs et des travs Jsuis fumeur et fêtard Mais l'humeur est très sale Dans l'anonymat à l'hôpital mon tuteur met les voiles Voilà un bout de ma vie jouvre ma vision Quand elle goute la street toute ma mif trouve la prison Faut que je bouffe ma mission Bah ouais j'ai des trucs à faire J'ai des buts à perdre Depuis c'est le début de la guerre, cousin Dès que les putes samènent je m'évertue à ken Mec elles msucent la verge, jsuis plus le même quand j'effectue ma baise Et les stups m'arrêtent car la verte et ses vertu m'apaisent Si j'ais pas ma teille dis-toi bien que j'ai peut-être une barrette Et sais-tu que la tess est mon lieu de résidence Avec un peu de résistance, cousin On perpétue la guerre Et c'est plus la même depuis le cours élémentaire Les crews et les menteurs Les coups et les cancers C'est fou et c'est l'enfer Cousin faut se barrer vite Ça casse des beats c'est pathétique quand je vois des types jouer les gangsters REFRAIN X2 Jsuis marqué par la vie, et cramé par la BAC Poto ça péra la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête On a les crocs dans ma ville Parce qu'on est trop dans la mouise À Villeneuve les rimes pleuvent on a du flow en cabine Putain j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière j'me tue la tête avec mes deux joints de shit On a les crocs dans ma ville Parce qu'on est trop dans la mouise À Villeneuve les rimes pleuvent on a du flow en cabine Putain j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière j'me tue la tête avec mes deux joints de shit REFRAIN X2 Jsuis marqué par la vie, et cramé par la BAC Poto sapé à la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête</t>
+          <t>Jmarche avec mes types, Rap avec les tripes Tas compris, ma barrette j'effrite La BAC elle est speed, ça se complique, la zon-pri Sous mon couvre-chef, jsuis un trouble-fête A bon prix ça combine Dans les tour de tess, ou devrais-je dire Quartiers difficiles parqués loin tout Par lgénie civil, ça fait 15 tours Je crois bien que le truc c'est ça C'est incessant et puis la rue cest grave Dès 15-16 ans nous on va se buter le crâne Me parle pas de travailler, jme lasse pas de batailler Mais jcraque rien que de voir tous ces lascars se pavaner Comme si ils avaient des affaires A l'école on les voyait faire la fête Et on les rackettait sa mère J'ai toujours marché près de la tess Et ça les vrais l'attestent Caravelle, Villeneuve Si tu veux passer faire de la fraiche Moi je suis cramé c'est la merde Mais jvais pas baisser la tête On va mcaresser la verge Et jvais me barrer vers la mer REFRAIN X2 Jsuis marqué par la vie, et cramé par la BAC Poto ça péra la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête J'ai vu que l'heure était grave Dans mon équipe ya que des lutteurs et des braves Dans les leurs des suceurs et des travs Jsuis fumeur et fêtard Mais l'humeur est très sale Dans l'anonymat à l'hôpital mon tuteur met les voiles Voilà un bout de ma vie jouvre ma vision Quand elle goute la street toute ma mif trouve la prison Faut que je bouffe ma mission Bah ouais j'ai des trucs à faire J'ai des buts à perdre Depuis c'est le début de la guerre, cousin Dès que les putes samènent je m'évertue à ken Mec elles msucent la verge, jsuis plus le même quand j'effectue ma baise Et les stups m'arrêtent car la verte et ses vertu m'apaisent Si j'ais pas ma teille dis-toi bien que j'ai peut-être une barrette Et sais-tu que la tess est mon lieu de résidence Avec un peu de résistance, cousin On perpétue la guerre Et c'est plus la même depuis le cours élémentaire Les crews et les menteurs Les coups et les cancers C'est fou et c'est l'enfer Cousin faut se barrer vite Ça casse des beats c'est pathétique quand je vois des types jouer les gangsters REFRAIN X2 Jsuis marqué par la vie, et cramé par la BAC Poto ça péra la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête On a les crocs dans ma ville Parce qu'on est trop dans la mouise À Villeneuve les rimes pleuvent on a du flow en cabine Putain j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière j'me tue la tête avec mes deux joints de shit On a les crocs dans ma ville Parce qu'on est trop dans la mouise À Villeneuve les rimes pleuvent on a du flow en cabine Putain j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière j'me tue la tête avec mes deux joints de shit REFRAIN X2 Jsuis marqué par la vie, et cramé par la BAC Poto sapé à la street et les aléas de l'asphalte Epargner la famille, c'est tout ce qu'il me reste à faire Pour se tirer de la merde, des doutes qui me blessent la tête</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yonea Willy GP Gang'zs J'suis dans un bât' avec mes potes J'finis mon pète, j'allume une clope Les flics enquêtent, ils cassent la porte On n'est pas bêtes, on cache la drogue Quartiers défavorisés, cherche pas d'la chaleur ici Après le passage des huissiers, expulsion du domicile C'est pas cool, dans le local, on a détaillé des kil' Ferme ta gueule, j'veux décal', t'es en chien comme Boule Bill Un petit spliff, une bécane, j'suis OP dans toutes les villes Mec sous tise, ça bédave, tout le monde ils s'en foutent des flics Et j'ai travaillé mes rimes, mais j'suis né avec le talent T'as du fric ? Faut pas l'étaler, y'a les jaloux et les balances Et comme tous les Sénégalais, pour les sous j'arrive en avance J'ai découpé, j'ai emballé, à m'en bousiller les phalanges J'ai regardé les autres avoir le bac Une feuille et un stylo bic, Alkaly qui fait du crack J'ai traîné partout, j'ai fait des sales coups J'ai trop bédave, j'ai la dalle, j'mange à Fast-Foot Ma femme m'appelle Allô ! Qu'est-ce que tu fais ? Musique ! J'suis au studio ma belle, faut que je ramène du fric J'ai trop zoné, mes mains j'ai mis dans la saleté Dans la rue j'ai fait des saltos et puis j'ai volé pour acheter Ouais je sais que c'est pas le top, mais tu connais le genre de type Qui veut s'tape pour du fric ou parce qu'on a trouvé la taupe Les enfoirés, ils le savent qu'en pe-ra j'suis trop chaud Pour me battre il faut tricher si tu veux on fait un morceau Putain... J'ai déprimé et j'ai fini mort saoul Quand j'pars en couille, y a plus personne qui peut m'désamorcer J'marche avec des gros fêlés, on dirait qu'ils sont possédés Tu connais pas nos procédés, par le pouvoir on est obsédés Eh petite balance, viens pas t'asseoir à ma table J'regrette l'époque où on mettait ces bâtards à la cave Y a les guetteurs à l'affût, et puis les grandes surs à la CAF Les frères qui percent les coffres, et ceux qu'ont choisi les go fast Renard est trop rusé, demande à Fred Musa Des freestyles de 30 minutes et mon équipe est propulsée J'ai pas ravalé ma fierté, j'm'en sors comme un chef J'fais mon taf comme un boss, ils sont fiers dans ma tess Ils sont quinze dans ma tête, c'est pas grave je m'en bats les c' J'ai mon spliff, ma canette, j'vois les schmitts sans arrêt On m'a menti depuis tout jeune j'suis curieux Ça m'a rendu guerrier, dans les affaires, j'suis sérieux Mets tes mains sur le capot ! Écarte un peu les bes-jam ! Fils de pute t'as rien trouvé, j'ai une fiche depuis deux ans, Igo Ecrire c'est bien, mais écrire bien c'est mieux Si j'me branle sur ta gueule, ben j'vais t'en mettre plein les yeux Garde à vous, connais pas ! Garde à vue, connais bien ! Un guichet, une cagoule, ferme ta gueule, haut les mains ! Alelouyah, hamdoulillah, j'fais pas la différence C'est en toute sincérité qu'j'raconte ma vie d'errance 94 Valenton, pas d'fric aux alentours Ça nique ma volonté, j'bicrave, j'vais pas en cours J'me roule un spliff dès le matin me dis pas fais bédave ! Et j'marche avec dans la rue, comme si c'était légal J'effrite sur le te-shi à 5 heure du matin Y a en qui croient qu'j'suis marteau tellement qu'j'ai rappé mon chagrin Première plaquette, y a personne qui me l'a poussé J'ai des que-tru dans la tête qui feraient vomir un boucher J'sors la weed de mon pochon, la re-biè j'vais la picher On veut manger chez Fauchon mais on s'ruine chez l'épicier Et j'veux pas finir clochard, mais j'suis victime des clichés Voleur, dealer, braqueur, c'est tout ce qu'ils voient dans ma cité Ben c'est normal qu'on pète les plombs, donc on va niquer l'hella 14 juillet, rendez-vous, tous devant le comissariat ! Dépose ta plaque et ton flingue si t'as des couilles ! Et dis bien à tes collègues Personne me fouille ! En janvier 91, ma mère accouche une bombe nucléaire Y'a que quand je fume que j'ai plus les nerfs Oyé Sapapaya ! Tu dois du blé, faut payer ! Toujours plus de mailla, pistolet sous l'oreiller Un truc à dire, dis-le ! Un truc à faire, fais-le ! Un YZ, lève-le ! Il t'a poucave ? Lève-le ! Pourquoi c'bâtard il regarde de vers-tra ? Mais qu'est-ce qu'il y'a ? Moi et mes potes on saute à 10 comme ça c'est sûr qu'on perd pas Dans mon hall ça sent la beuh et la résine Les choses qui nous font du mal, ces mêmes choses qu'on apprécie Putain, j'ai l'impression qu'on finira jamais ce cycle Que la rue nous met des tartes, un pocheton au fond du slip Venez admirer le spectacle, on se bagarre avec les flics J'ai les deux pieds dans la rue, toi t'as les deux yeux sur Netflix On s'est bagarrés pour rien, contre la cité d'en face Une daronne qui pleure son fils, on tireur qui boit son flash Et ça c'est trop commun, on a appris à bricoler Le baceux demande c'est quoi, je lui réponds que c'est des brocolis Plein hiver avec les autres, on a dormi dans la vec' J'ai fumé, j'ai tisé, j'suis bourré, j'm'en bats les yec' Allez vous faire enculer, vous êtes une bande de fumiers ! J'en dis pas trop, mais j'ai d'quoi vous faire reculer ! J'suis dans ma bulle, et ma musique me torture Entouré d'ordures, ça fait bien longtemps que je ne dors plus La nuit je réfléchis, les murs se rétrécissent Et j'fume un paquet de cigarettes plus vite qu'un dépressif J'aimais l'école, j'aimais lire, j'aimais tout savoir Mais j'aime l'alcool, j'aime le shit et je veux tout avoir Alors des fois, j'me remets en mode renard Avec ma paire de runnings, capuché sur le Runner High kick, middle, ça part en couilles dans le parking Qu'est-ce qui s'est passé ? Il a fumé tout mon joint de Paki T'as vu la rue c'est paro, tu viens pas si t'es peureux Des mois derrière les barreaux, tu sortiras pas heureux Et puis t'auras pas un rond, tu bédaves pour t'aérer Et tu repenses à tous tes potos qui t'ont même pas aidé Faut qu'j'me remette au sport, mais dès le matin j'fume un sbire J'tire une taffe devant les locaux des porcs J'suis pas naïf, je sais très bien que ces bâtards enquêtent Té-ma la prod', depuis 'taleur j'lui mets des manchettes Et si t'attaques, j'te dis négro, vas-y viens ! Paf, c'est dégueulasse, comme le métro parisien Imiter c'est impossible, j'ai un style de psychopathe Quand tu vas en discothèque, Guizmo a les flics aux pattes Passe un stylo et une feuille blanche J'vais rapper mes démons avec une gueule d'ange Bats les couilles de l'instit', on a des baraques aux States Mais pour l'instant j'peux pas y aller, faut qu'j'm'arrange avec la SPIP J'refais le tour de la ville, voir si j'peux gratter un bif Mais j'finirais dans un grec, sauce Harissa sur les frites Après ça il faut qu'j'effrite, un gros pilon dans la street J'ai d'la frappe du Maroc, entre mes couilles et ma bite Pas dans l'game, boy ! J'suis trop vrai, boy ! Dans la rue, c'est criminel, c'est pas du paintball ! Ok ok, soyons sérieux si on parle affaires Tu connais Chippeur le renard, tu peux pas m'la faire J'envoie du Boom Bap, j'suis dans cette merde depuis la New Jack J'ai beaucoup plus de flow que tous ces trous de balle Pour ceux qui bougent, et pas pour ceux qui s'chient dessus Même si on sait qu'au final, il 'a qu'deux issues Ma femme j'ai marié, mon fils est arrivé Depuis ce jour, je garde un il sur le sablier You might also like Guiziouzou, Zbangueul Yonea Willy, Willy Yonea motherfoucka aouh J'me ballade avec ouai comme si c'était légal Mali, Sénégal Murda, murda Guizi ouzo, si si coucou, oui oui, hou hou Guizi ouzo, si si coucou, oui oui, hou hou GPGangzters, YW ne meurs jamais Plus qu'une légende c'est un mythe Y-et-W.com Fou malade motherfucka aouh Guizi Banger, c'est moi mon pote GPGang motherfucker</t>
+          <t>Yonea Willy GP Gang'zs J'suis dans un bât' avec mes potes J'finis mon pète, j'allume une clope Les flics enquêtent, ils cassent la porte On n'est pas bêtes, on cache la drogue Quartiers défavorisés, cherche pas d'la chaleur ici Après le passage des huissiers, expulsion du domicile C'est pas cool, dans le local, on a détaillé des kil' Ferme ta gueule, j'veux décal', t'es en chien comme Boule Bill Un petit spliff, une bécane, j'suis OP dans toutes les villes Mec sous tise, ça bédave, tout le monde ils s'en foutent des flics Et j'ai travaillé mes rimes, mais j'suis né avec le talent T'as du fric ? Faut pas l'étaler, y'a les jaloux et les balances Et comme tous les Sénégalais, pour les sous j'arrive en avance J'ai découpé, j'ai emballé, à m'en bousiller les phalanges J'ai regardé les autres avoir le bac Une feuille et un stylo bic, Alkaly qui fait du crack J'ai traîné partout, j'ai fait des sales coups J'ai trop bédave, j'ai la dalle, j'mange à Fast-Foot Ma femme m'appelle Allô ! Qu'est-ce que tu fais ? Musique ! J'suis au studio ma belle, faut que je ramène du fric J'ai trop zoné, mes mains j'ai mis dans la saleté Dans la rue j'ai fait des saltos et puis j'ai volé pour acheter Ouais je sais que c'est pas le top, mais tu connais le genre de type Qui veut s'tape pour du fric ou parce qu'on a trouvé la taupe Les enfoirés, ils le savent qu'en pe-ra j'suis trop chaud Pour me battre il faut tricher si tu veux on fait un morceau Putain... J'ai déprimé et j'ai fini mort saoul Quand j'pars en couille, y a plus personne qui peut m'désamorcer J'marche avec des gros fêlés, on dirait qu'ils sont possédés Tu connais pas nos procédés, par le pouvoir on est obsédés Eh petite balance, viens pas t'asseoir à ma table J'regrette l'époque où on mettait ces bâtards à la cave Y a les guetteurs à l'affût, et puis les grandes surs à la CAF Les frères qui percent les coffres, et ceux qu'ont choisi les go fast Renard est trop rusé, demande à Fred Musa Des freestyles de 30 minutes et mon équipe est propulsée J'ai pas ravalé ma fierté, j'm'en sors comme un chef J'fais mon taf comme un boss, ils sont fiers dans ma tess Ils sont quinze dans ma tête, c'est pas grave je m'en bats les c' J'ai mon spliff, ma canette, j'vois les schmitts sans arrêt On m'a menti depuis tout jeune j'suis curieux Ça m'a rendu guerrier, dans les affaires, j'suis sérieux Mets tes mains sur le capot ! Écarte un peu les bes-jam ! Fils de pute t'as rien trouvé, j'ai une fiche depuis deux ans, Igo Ecrire c'est bien, mais écrire bien c'est mieux Si j'me branle sur ta gueule, ben j'vais t'en mettre plein les yeux Garde à vous, connais pas ! Garde à vue, connais bien ! Un guichet, une cagoule, ferme ta gueule, haut les mains ! Alelouyah, hamdoulillah, j'fais pas la différence C'est en toute sincérité qu'j'raconte ma vie d'errance 94 Valenton, pas d'fric aux alentours Ça nique ma volonté, j'bicrave, j'vais pas en cours J'me roule un spliff dès le matin me dis pas fais bédave ! Et j'marche avec dans la rue, comme si c'était légal J'effrite sur le te-shi à 5 heure du matin Y a en qui croient qu'j'suis marteau tellement qu'j'ai rappé mon chagrin Première plaquette, y a personne qui me l'a poussé J'ai des que-tru dans la tête qui feraient vomir un boucher J'sors la weed de mon pochon, la re-biè j'vais la picher On veut manger chez Fauchon mais on s'ruine chez l'épicier Et j'veux pas finir clochard, mais j'suis victime des clichés Voleur, dealer, braqueur, c'est tout ce qu'ils voient dans ma cité Ben c'est normal qu'on pète les plombs, donc on va niquer l'hella 14 juillet, rendez-vous, tous devant le comissariat ! Dépose ta plaque et ton flingue si t'as des couilles ! Et dis bien à tes collègues Personne me fouille ! En janvier 91, ma mère accouche une bombe nucléaire Y'a que quand je fume que j'ai plus les nerfs Oyé Sapapaya ! Tu dois du blé, faut payer ! Toujours plus de mailla, pistolet sous l'oreiller Un truc à dire, dis-le ! Un truc à faire, fais-le ! Un YZ, lève-le ! Il t'a poucave ? Lève-le ! Pourquoi c'bâtard il regarde de vers-tra ? Mais qu'est-ce qu'il y'a ? Moi et mes potes on saute à 10 comme ça c'est sûr qu'on perd pas Dans mon hall ça sent la beuh et la résine Les choses qui nous font du mal, ces mêmes choses qu'on apprécie Putain, j'ai l'impression qu'on finira jamais ce cycle Que la rue nous met des tartes, un pocheton au fond du slip Venez admirer le spectacle, on se bagarre avec les flics J'ai les deux pieds dans la rue, toi t'as les deux yeux sur Netflix On s'est bagarrés pour rien, contre la cité d'en face Une daronne qui pleure son fils, on tireur qui boit son flash Et ça c'est trop commun, on a appris à bricoler Le baceux demande c'est quoi, je lui réponds que c'est des brocolis Plein hiver avec les autres, on a dormi dans la vec' J'ai fumé, j'ai tisé, j'suis bourré, j'm'en bats les yec' Allez vous faire enculer, vous êtes une bande de fumiers ! J'en dis pas trop, mais j'ai d'quoi vous faire reculer ! J'suis dans ma bulle, et ma musique me torture Entouré d'ordures, ça fait bien longtemps que je ne dors plus La nuit je réfléchis, les murs se rétrécissent Et j'fume un paquet de cigarettes plus vite qu'un dépressif J'aimais l'école, j'aimais lire, j'aimais tout savoir Mais j'aime l'alcool, j'aime le shit et je veux tout avoir Alors des fois, j'me remets en mode renard Avec ma paire de runnings, capuché sur le Runner High kick, middle, ça part en couilles dans le parking Qu'est-ce qui s'est passé ? Il a fumé tout mon joint de Paki T'as vu la rue c'est paro, tu viens pas si t'es peureux Des mois derrière les barreaux, tu sortiras pas heureux Et puis t'auras pas un rond, tu bédaves pour t'aérer Et tu repenses à tous tes potos qui t'ont même pas aidé Faut qu'j'me remette au sport, mais dès le matin j'fume un sbire J'tire une taffe devant les locaux des porcs J'suis pas naïf, je sais très bien que ces bâtards enquêtent Té-ma la prod', depuis 'taleur j'lui mets des manchettes Et si t'attaques, j'te dis négro, vas-y viens ! Paf, c'est dégueulasse, comme le métro parisien Imiter c'est impossible, j'ai un style de psychopathe Quand tu vas en discothèque, Guizmo a les flics aux pattes Passe un stylo et une feuille blanche J'vais rapper mes démons avec une gueule d'ange Bats les couilles de l'instit', on a des baraques aux States Mais pour l'instant j'peux pas y aller, faut qu'j'm'arrange avec la SPIP J'refais le tour de la ville, voir si j'peux gratter un bif Mais j'finirais dans un grec, sauce Harissa sur les frites Après ça il faut qu'j'effrite, un gros pilon dans la street J'ai d'la frappe du Maroc, entre mes couilles et ma bite Pas dans l'game, boy ! J'suis trop vrai, boy ! Dans la rue, c'est criminel, c'est pas du paintball ! Ok ok, soyons sérieux si on parle affaires Tu connais Chippeur le renard, tu peux pas m'la faire J'envoie du Boom Bap, j'suis dans cette merde depuis la New Jack J'ai beaucoup plus de flow que tous ces trous de balle Pour ceux qui bougent, et pas pour ceux qui s'chient dessus Même si on sait qu'au final, il 'a qu'deux issues Ma femme j'ai marié, mon fils est arrivé Depuis ce jour, je garde un il sur le sablier Guiziouzou, Zbangueul Yonea Willy, Willy Yonea motherfoucka aouh J'me ballade avec ouai comme si c'était légal Mali, Sénégal Murda, murda Guizi ouzo, si si coucou, oui oui, hou hou Guizi ouzo, si si coucou, oui oui, hou hou GPGangzters, YW ne meurs jamais Plus qu'une légende c'est un mythe Y-et-W.com Fou malade motherfucka aouh Guizi Banger, c'est moi mon pote GPGang motherfucker</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Guizi-ouzou Le Renard, le Renard YW, Ziguili-zone sensible Motherfucker, ah ouh Yo J'leur ai montré cque j'ai dans l'cur mais ils ont regardé mes poches Quand tas b'soin d'eux, ils sont loin alors qu'ils font partie d'tes proches Et quand tu touches un bénéf', ils viennent tous manger à ta table Mais quand t'es parti à la guerre, ils ont pas fait ratatata Et puis des fois, j'pense à Papa, jroule un spliff quand ça va pas Jsuis en caille-ra comme Escobar qui fait un bisou à tata Et j'tavais dit qu'c'était le zoo, j'tavais dit qu'on était fou Guizmo sait couper le shit, sa femme sait compter les sous Le calme avant la tempête, le sexe avant la crise cardiaque Igo, c'est moi, j'suis dans l'espèce et dans les p'tites arnaques Viens pas traîner en bas d'la tess, ça sent la pisse par là Ça vend la C, ça vend la beuh, ça vend le shit scar-la J'te vois plus et j't'entends plus, j'en fais des crises papa Mais j'ai arrêté les bêtises avec la SPIP ça va J'suis dans la rue, un peu perdu, j'allume un spliff taga Je sais combattre l'ennemi, je f'rai ce qu'il f'ra pas J'suis dans des plans sérieux et ça vous rend haineux, tu veux d'la beuh ? Quelle variété ? Dis-moi, en c'moment j'en ai deux J'suis à Foot Locker, j'm'achète une paire et j'prends la même pour mon fils J'lui apprends nique la police Époque de chacal, moi, j'suis un chaca'zoulou J'pose ma voix sur la musique et j'prends mon chèque à se-l'ai P'tit frère, fais tes trucs, écoute pas les gens C'est des oufs, c'est des dingues, ça, c'est des légendes J'ai rêvé du milli avec une plaquette de com J'étais enfermé, attendant qu'ils appellent le proc' Y'a que quand j'vais crever que j'irai dans une boîte Pour l'instant, laisse-moi dans l'binks, ouais laisse-moi dans l'squat J'm'endors sur un K.O, j'me réveille en garde-à-v' J'ai provoqué les condés et ils m'ont mis des coups d'matraques Fils de pute J'suis écuré, tous ces décès m'ont fait pleurer J'suis apeuré de l'au-delà, où j'irai quand je vais crever Neuf cent cinquante euros pour un Beretta Mais t'effaces pas la vie comme t'effaces du Velleda Tu vois l'truc ? C'est moi qui crève ou c'est toi C'est ma mère qui pleure ou c'est la tienne Tu vois l'truc ? C'est moi qui crève ou c'est toi C'est ma mère qui pleure ou c'est la tienne Et ça fait paw paw, rien à foutre J'suis un papa, donc c'est ma vie ou c'est la sienne J'donnerais ma vie pour la sienne You might also like YW Guizmo, Valenton, 9.4, Villeneuve-la-Garenne, Caravelle J'donnerais ma vie pour la sienne C'est comme ça que j'fais les choses</t>
+          <t>Guizi-ouzou Le Renard, le Renard YW, Ziguili-zone sensible Motherfucker, ah ouh Yo J'leur ai montré cque j'ai dans l'cur mais ils ont regardé mes poches Quand tas b'soin d'eux, ils sont loin alors qu'ils font partie d'tes proches Et quand tu touches un bénéf', ils viennent tous manger à ta table Mais quand t'es parti à la guerre, ils ont pas fait ratatata Et puis des fois, j'pense à Papa, jroule un spliff quand ça va pas Jsuis en caille-ra comme Escobar qui fait un bisou à tata Et j'tavais dit qu'c'était le zoo, j'tavais dit qu'on était fou Guizmo sait couper le shit, sa femme sait compter les sous Le calme avant la tempête, le sexe avant la crise cardiaque Igo, c'est moi, j'suis dans l'espèce et dans les p'tites arnaques Viens pas traîner en bas d'la tess, ça sent la pisse par là Ça vend la C, ça vend la beuh, ça vend le shit scar-la J'te vois plus et j't'entends plus, j'en fais des crises papa Mais j'ai arrêté les bêtises avec la SPIP ça va J'suis dans la rue, un peu perdu, j'allume un spliff taga Je sais combattre l'ennemi, je f'rai ce qu'il f'ra pas J'suis dans des plans sérieux et ça vous rend haineux, tu veux d'la beuh ? Quelle variété ? Dis-moi, en c'moment j'en ai deux J'suis à Foot Locker, j'm'achète une paire et j'prends la même pour mon fils J'lui apprends nique la police Époque de chacal, moi, j'suis un chaca'zoulou J'pose ma voix sur la musique et j'prends mon chèque à se-l'ai P'tit frère, fais tes trucs, écoute pas les gens C'est des oufs, c'est des dingues, ça, c'est des légendes J'ai rêvé du milli avec une plaquette de com J'étais enfermé, attendant qu'ils appellent le proc' Y'a que quand j'vais crever que j'irai dans une boîte Pour l'instant, laisse-moi dans l'binks, ouais laisse-moi dans l'squat J'm'endors sur un K.O, j'me réveille en garde-à-v' J'ai provoqué les condés et ils m'ont mis des coups d'matraques Fils de pute J'suis écuré, tous ces décès m'ont fait pleurer J'suis apeuré de l'au-delà, où j'irai quand je vais crever Neuf cent cinquante euros pour un Beretta Mais t'effaces pas la vie comme t'effaces du Velleda Tu vois l'truc ? C'est moi qui crève ou c'est toi C'est ma mère qui pleure ou c'est la tienne Tu vois l'truc ? C'est moi qui crève ou c'est toi C'est ma mère qui pleure ou c'est la tienne Et ça fait paw paw, rien à foutre J'suis un papa, donc c'est ma vie ou c'est la sienne J'donnerais ma vie pour la sienne YW Guizmo, Valenton, 9.4, Villeneuve-la-Garenne, Caravelle J'donnerais ma vie pour la sienne C'est comme ça que j'fais les choses</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yah Guizi le renard YW Jespère que tu m'entends, c'est Lamine qui te parle c'est moi Et de là où t'es, je sais que tu m'regardes hein Et tout va bien, ici, j'passe toujours à la Madeleine Y a Wasa qui va mieux, et aujourd'hui, c'est toi l'thème Et j'me détends comme tu l'faisais en m'roulant des niaks damn Aujourd'hui, j'fais du papier en trouvant des phases Tu t'rends comptes ? Tu t'imaginais pas ça Quand j'étais qu'un passeur et qu'après tu m'tabassais, hein hey Bah ouais, j'ai volé comme toi, bah ouais, j'ai dealé comme toi Bah ouais, j'ai braqué comme toi, bah ouais, j'ai tisé comme toi Et j'te dis ça pour thonorer, pas pour régler des comptes nan Même si j'te vois plus, j'ai pas pété les plombs jamais Ton regard et ton sourire, des fois, j'en fais des songes Et c'est soit j'fais comme toi, soit je jette l'éponge sûr C'est pas une chanson d'tapette, j'suis pas là pour chialer Et quand t'allais à la guerre, moi aussi, j'voulais y aller Des fois j'me rappelle des bons moments J'fais les choses bien et j'm'occupe des gamins Tu m'entends Écoute-moi J'me rappelle des bons moments Écoute-moi You might also like Ça parle de toi dans toute la ville, on se rappelle de ta légende Et y a que tes ennemis qui pouvaient dire qu't'étais méchant Posé avec le gang, j'me demande si tu m'entends Et si j'ai écrit ça, c'est pour tes petits enfants Et la mort, elle m'a frôlée wAllah que ça m'a rendu fou Dans ton cur, y avait d'la glace, dans le mien y avait du feu On aurait pas vécu tout ça, t'aurais pas perdu tes ch'veux Même pas b'soin d'se parler, juste un regard dans les yeux Je porte ton nom et j'le défends comme un guerrier Ça va faire douze ans et wAllah qu'j'suis même pas guéri Tes anciens potes du café savent même pas où tu résides Alors t'étonnes pas que je bédave la résine Y a maman qui t'aime encore wAllah si tu savais Et j'regrette l'époque où tu me passais des savons Et j't'en veux même plus parce que tu t'es sauvé Tu me manques, c'est tout Des fois j'me rappelle des bons moments J'fais les choses bien et j'm'occupe des gamins Tu m'entends Écoute-moi J'me rappelle des bons moments Écoute-moi J't'oublie pas devant Netflix ou bien même devant ma console S'te plait, me laisse pas tout seul, y faut que tu restes ma boussole J't'oublie pas devant Netflix ou bien même devant ma console S'te plait, me laisse pas tout seul, y faut que tu restes ma boussole</t>
+          <t>Yah Guizi le renard YW Jespère que tu m'entends, c'est Lamine qui te parle c'est moi Et de là où t'es, je sais que tu m'regardes hein Et tout va bien, ici, j'passe toujours à la Madeleine Y a Wasa qui va mieux, et aujourd'hui, c'est toi l'thème Et j'me détends comme tu l'faisais en m'roulant des niaks damn Aujourd'hui, j'fais du papier en trouvant des phases Tu t'rends comptes ? Tu t'imaginais pas ça Quand j'étais qu'un passeur et qu'après tu m'tabassais, hein hey Bah ouais, j'ai volé comme toi, bah ouais, j'ai dealé comme toi Bah ouais, j'ai braqué comme toi, bah ouais, j'ai tisé comme toi Et j'te dis ça pour thonorer, pas pour régler des comptes nan Même si j'te vois plus, j'ai pas pété les plombs jamais Ton regard et ton sourire, des fois, j'en fais des songes Et c'est soit j'fais comme toi, soit je jette l'éponge sûr C'est pas une chanson d'tapette, j'suis pas là pour chialer Et quand t'allais à la guerre, moi aussi, j'voulais y aller Des fois j'me rappelle des bons moments J'fais les choses bien et j'm'occupe des gamins Tu m'entends Écoute-moi J'me rappelle des bons moments Écoute-moi Ça parle de toi dans toute la ville, on se rappelle de ta légende Et y a que tes ennemis qui pouvaient dire qu't'étais méchant Posé avec le gang, j'me demande si tu m'entends Et si j'ai écrit ça, c'est pour tes petits enfants Et la mort, elle m'a frôlée wAllah que ça m'a rendu fou Dans ton cur, y avait d'la glace, dans le mien y avait du feu On aurait pas vécu tout ça, t'aurais pas perdu tes ch'veux Même pas b'soin d'se parler, juste un regard dans les yeux Je porte ton nom et j'le défends comme un guerrier Ça va faire douze ans et wAllah qu'j'suis même pas guéri Tes anciens potes du café savent même pas où tu résides Alors t'étonnes pas que je bédave la résine Y a maman qui t'aime encore wAllah si tu savais Et j'regrette l'époque où tu me passais des savons Et j't'en veux même plus parce que tu t'es sauvé Tu me manques, c'est tout Des fois j'me rappelle des bons moments J'fais les choses bien et j'm'occupe des gamins Tu m'entends Écoute-moi J'me rappelle des bons moments Écoute-moi J't'oublie pas devant Netflix ou bien même devant ma console S'te plait, me laisse pas tout seul, y faut que tu restes ma boussole J't'oublie pas devant Netflix ou bien même devant ma console S'te plait, me laisse pas tout seul, y faut que tu restes ma boussole</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>YW, pour la conso c'est minimum 10G pigé C'est pas sorcier comme Jamy Wesh , Wesh mon GPGang YW, Yonea Willy, Willy Yonea jusqu'à l'infini motherfucker Nique sa mère la pute j'suis dans mon putain d'zoo J'pose sur le beat j'ai un putain d'flow J'vends que du shit avec un peu de weed Et si t'es sérieux j'te prends un putain d'dos J'vais tout baiser, y'a pas de doute Tu veux schlasser mais moi j'te shoot Du Bois Cadet à La Redoute On check tous les frères de la Guadeloupe HP Clan, j'mets les gants chez les gens J'ai plus l'temps, j'ai du sang sur les mains depuis qu'j'vends Elle me suce depuis qu'j'chante J'ai brûlé toute l'Île-de-France J'guette ses hanches, j'suis en transe J'me casse sur la piste de danse Ratatata Et j'suis pété, j'paye des négros pour guetter J'suis là en hiver en été Les shtars vont venir m'embêter Bande de salauds, couvrez-vous J'ai plus d'un barreau sous écrou J'tape pas dans l'paro, j'préfère un gros flingue Comme ça tu galopes sous les douilles J'm'appelle Guizmo, j'bicrave du shit Et tous les jours j'suis dans la ZUP Un peu schizo, avec mon splif J'ai des michtos qui donnent leur 'uc Igo elles sont connes Igo elles sont bonnes Même pas de disquette elle m'a donné son phone Gros tard-pé mec j'ai la demi-molle Elle veut s'marier j'ai compris qu'elle était folle Awouu You might also like GP gangster'zs, GP gangster'zs C'est pour mes babtous mes rebeus et puis mes niggaz GP gangster'zs, GP gangster'zs C'est pour mes babtous mes rebeus et puis mes niggaz J'passe mes journées à dave-bé J'passe mes journées à dave-bé J'passe mes journées à dave-bé Si ça part en couille, bat les couilles j'ai mon tard-pé J'passe mes journées à dave-bé J'passe mes journées à dave-bé J'passe mes journées à dave-bé Si ça part en couille, bat les couilles j'ai mon tard-pé Marre de vendre du shit, et d'voler tard le soir Dans la ZUP mon cerveau est bercé par le mal Besoin d'personne pour porter mes couilles Man je sais faire sauter les douilles Bicrave et rap je fais les deux Ça marche plus j'te fais les fouilles Marche relax avec mon feu On sait jamais si y a une couille Si j'me fais péter par les bleus Négro ne crois pas qu'je mouille Ma ville me supporte comme notre club de foot J'ai passé l'âge des clubs de golf Ouvre ta gueule si tu veux qu'j'te shoote Hein qu'on fume de la verte Ils ont l'nez dans la cess' là D'après eux ils sont gangsta J'l'ai est jamais vu dans le tier-quar Où sont mes négros ? Où sont mes bitches ? Posé dans le ghetto, j'rêve que des Fidji Paye-moi mon seille-o, sans faire de chichi Touche à mon fréro, y aura des litiges Ils veulent mon bédo, ces putes de vils-ci Bats les couilles j'bicrave quand même Ça pillave du Clan Campbell Et si t'es bonne j't'emmène Dans une suite d'hôtel Nique sa mère le prix Le fric appelle Guiz' Et le Guiz' appelle le fric Dans une suite d'hôtel Nique sa mère le prix Le fric appelle Guiz' Et le Guiz' appelle le fric Donnez-moi mon blé, donnez-moi mon blé Donnez-moi mon blé bande d'enculés Ouzou Guizi coucou sisi oui c'est moi Le p'tit fou qu'emmène ta meuf au cinéma La ZUP, 9-4 120, aïe aïe aïe aïe aïe aïe aïe 92 390, Villeneuve-la-Garenne YW, jusqu'à l'infini On s'en bat les couilles, hein Donnez-moi mon blé, donnez-moi mon blé Pour la conso c'est minimum 10G pigé ? Eh, donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés Donnez-moi mon blé, donnez-moi mon blé Donnez-moi mon blé, donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés C'est pas sorcier comme Jamy Là j'suis déter' comme jamais Donnez-moi mon blé, donnez-moi mon blé bande d'enculés1</t>
+          <t>YW, pour la conso c'est minimum 10G pigé C'est pas sorcier comme Jamy Wesh , Wesh mon GPGang YW, Yonea Willy, Willy Yonea jusqu'à l'infini motherfucker Nique sa mère la pute j'suis dans mon putain d'zoo J'pose sur le beat j'ai un putain d'flow J'vends que du shit avec un peu de weed Et si t'es sérieux j'te prends un putain d'dos J'vais tout baiser, y'a pas de doute Tu veux schlasser mais moi j'te shoot Du Bois Cadet à La Redoute On check tous les frères de la Guadeloupe HP Clan, j'mets les gants chez les gens J'ai plus l'temps, j'ai du sang sur les mains depuis qu'j'vends Elle me suce depuis qu'j'chante J'ai brûlé toute l'Île-de-France J'guette ses hanches, j'suis en transe J'me casse sur la piste de danse Ratatata Et j'suis pété, j'paye des négros pour guetter J'suis là en hiver en été Les shtars vont venir m'embêter Bande de salauds, couvrez-vous J'ai plus d'un barreau sous écrou J'tape pas dans l'paro, j'préfère un gros flingue Comme ça tu galopes sous les douilles J'm'appelle Guizmo, j'bicrave du shit Et tous les jours j'suis dans la ZUP Un peu schizo, avec mon splif J'ai des michtos qui donnent leur 'uc Igo elles sont connes Igo elles sont bonnes Même pas de disquette elle m'a donné son phone Gros tard-pé mec j'ai la demi-molle Elle veut s'marier j'ai compris qu'elle était folle Awouu GP gangster'zs, GP gangster'zs C'est pour mes babtous mes rebeus et puis mes niggaz GP gangster'zs, GP gangster'zs C'est pour mes babtous mes rebeus et puis mes niggaz J'passe mes journées à dave-bé J'passe mes journées à dave-bé J'passe mes journées à dave-bé Si ça part en couille, bat les couilles j'ai mon tard-pé J'passe mes journées à dave-bé J'passe mes journées à dave-bé J'passe mes journées à dave-bé Si ça part en couille, bat les couilles j'ai mon tard-pé Marre de vendre du shit, et d'voler tard le soir Dans la ZUP mon cerveau est bercé par le mal Besoin d'personne pour porter mes couilles Man je sais faire sauter les douilles Bicrave et rap je fais les deux Ça marche plus j'te fais les fouilles Marche relax avec mon feu On sait jamais si y a une couille Si j'me fais péter par les bleus Négro ne crois pas qu'je mouille Ma ville me supporte comme notre club de foot J'ai passé l'âge des clubs de golf Ouvre ta gueule si tu veux qu'j'te shoote Hein qu'on fume de la verte Ils ont l'nez dans la cess' là D'après eux ils sont gangsta J'l'ai est jamais vu dans le tier-quar Où sont mes négros ? Où sont mes bitches ? Posé dans le ghetto, j'rêve que des Fidji Paye-moi mon seille-o, sans faire de chichi Touche à mon fréro, y aura des litiges Ils veulent mon bédo, ces putes de vils-ci Bats les couilles j'bicrave quand même Ça pillave du Clan Campbell Et si t'es bonne j't'emmène Dans une suite d'hôtel Nique sa mère le prix Le fric appelle Guiz' Et le Guiz' appelle le fric Dans une suite d'hôtel Nique sa mère le prix Le fric appelle Guiz' Et le Guiz' appelle le fric Donnez-moi mon blé, donnez-moi mon blé Donnez-moi mon blé bande d'enculés Ouzou Guizi coucou sisi oui c'est moi Le p'tit fou qu'emmène ta meuf au cinéma La ZUP, 9-4 120, aïe aïe aïe aïe aïe aïe aïe 92 390, Villeneuve-la-Garenne YW, jusqu'à l'infini On s'en bat les couilles, hein Donnez-moi mon blé, donnez-moi mon blé Pour la conso c'est minimum 10G pigé ? Eh, donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés Donnez-moi mon blé, donnez-moi mon blé Donnez-moi mon blé, donnez-moi mon blé bande d'enculés Donnez-moi mon blé bande d'enculés C'est pas sorcier comme Jamy Là j'suis déter' comme jamais Donnez-moi mon blé, donnez-moi mon blé bande d'enculés1</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Dans mon secteur la nuit ça traine tard en caisse Les mecs partent en fête car le sexe ça rend bête Ouais on fait qu'ça en fait, mais on s'baise pas en traître Et certains portent la cagoule, car la merde ça empeste Et j'pète cent pers', pour mes gars qui bédavent Tous des fans d'illégal, fourrent des femmes qui s'régalent J'rappe vite et sale nan y'a pas de cinéma Le casse pipe c'est grave comme ça fascine mes gars Ne me bassinez pas, si je calcine, je bois Oui je m'abime le foie avec ma clique de zouaves Et je pratique le rap à la perfection Tu peux pas me test même si tu viens de telle section Et j'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes Et j'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes La vérité poto j'crois que j'tise trop, j'suis pas dispo Moi dans deux trois piges, j'suis un artiste pro Fat beat flow J'm'agite c'est magique Ma biche tu crois qu'j'flippe c'est que tu connais ap' Guizmo Voilà j'kick sans cesse, rime sans stress, brille sans pez Dans le tieqs y'a des flics en G-Star J'fais mes diez en Vespa Mais c'est pas des dal-pé On est devenu cruels car on est blessé par les tass-pé Excédés par les aspects d'cette société Eclairés par les faces B j'ai procédé A une nouveau style de rap, un bouche en guise de mic Il m'faut biz de Nike, j'ai la gourmandise de Maïté J'suis fou en rime t'as pas idée C'est la cavaleca depuis le bac à sable J'suis sur le macadam, je vis le vague à lâme Et j'esquive les keufs J'maîtrise les bluffs et la traîtrise des meufs J'suis 92spi j'en place une pour la velle-Cara Mes têtes d'arabes, scred dans une veste carhartt Les belles parades, on connait pas c'est baise ta race Passe le cash sans t'faire marrave après mec j'm'arrache T'aimes la phase, le texte, la vibe à en dégobiller Tu veux des gros billets ? Mais toi tu pep's, t'avales Là c'est Guizmo qui débite, c'est Guizmo qui déboite Ouais c'est Guizmo qui effrite et puis c'est Guizmo qui t'éclate You might also likeT'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill Une soirée de merde à rapper ma vie A taffer ma rime, mec v'la ma thérapie J'sais que la BAC est rapide ouais Et que juste pour un joint, un dec va palper ma bite mais C'est que des petites merdes, des flics gays Moi j'm'en branle et j'vois les choses en grand comme les pygmés Et c'est notre quotidien, on fait casquer les yanyans Quand c'est la patate et ba on se fait passer les yoyos Est ce que tu réalises que c'est la merde à vie ? Et que quand les decs arrivent, ça tire comme à Tel Aviv Moi j'pars en couille car le shit m'aide à vivre J'plâne, j'gratte, j'kick sec à Villeneuve Chez moi le réveil c'est les perquises pas le chant du coq Donc si un jour on a l'occas' on verse le sang du proc' C'est net, clair et précis J'suis agressif, depuis l'herbe grasse et mes tout premiers récits Dur d'avoir froid aux yeux quand ils sont injectés de sang Man arrête avec tes leçons, moi j'suis venu infecter le sample Et j'en place une pour mes potes qui bicravent à la tess Mais j'ai peur de nous voir finir en smicard à la dech Demain c'est loin comme dirais qui tu sais En attendant on fait des ronds pour approcher les filles du 16 Mais j'me plains pas y'a pire dans le tiers monde T'façon ça va tant que j'ai mon spliff et ma bière blonde T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill J'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes</t>
+          <t>Dans mon secteur la nuit ça traine tard en caisse Les mecs partent en fête car le sexe ça rend bête Ouais on fait qu'ça en fait, mais on s'baise pas en traître Et certains portent la cagoule, car la merde ça empeste Et j'pète cent pers', pour mes gars qui bédavent Tous des fans d'illégal, fourrent des femmes qui s'régalent J'rappe vite et sale nan y'a pas de cinéma Le casse pipe c'est grave comme ça fascine mes gars Ne me bassinez pas, si je calcine, je bois Oui je m'abime le foie avec ma clique de zouaves Et je pratique le rap à la perfection Tu peux pas me test même si tu viens de telle section Et j'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes Et j'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes La vérité poto j'crois que j'tise trop, j'suis pas dispo Moi dans deux trois piges, j'suis un artiste pro Fat beat flow J'm'agite c'est magique Ma biche tu crois qu'j'flippe c'est que tu connais ap' Guizmo Voilà j'kick sans cesse, rime sans stress, brille sans pez Dans le tieqs y'a des flics en G-Star J'fais mes diez en Vespa Mais c'est pas des dal-pé On est devenu cruels car on est blessé par les tass-pé Excédés par les aspects d'cette société Eclairés par les faces B j'ai procédé A une nouveau style de rap, un bouche en guise de mic Il m'faut biz de Nike, j'ai la gourmandise de Maïté J'suis fou en rime t'as pas idée C'est la cavaleca depuis le bac à sable J'suis sur le macadam, je vis le vague à lâme Et j'esquive les keufs J'maîtrise les bluffs et la traîtrise des meufs J'suis 92spi j'en place une pour la velle-Cara Mes têtes d'arabes, scred dans une veste carhartt Les belles parades, on connait pas c'est baise ta race Passe le cash sans t'faire marrave après mec j'm'arrache T'aimes la phase, le texte, la vibe à en dégobiller Tu veux des gros billets ? Mais toi tu pep's, t'avales Là c'est Guizmo qui débite, c'est Guizmo qui déboite Ouais c'est Guizmo qui effrite et puis c'est Guizmo qui t'éclate T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill Une soirée de merde à rapper ma vie A taffer ma rime, mec v'la ma thérapie J'sais que la BAC est rapide ouais Et que juste pour un joint, un dec va palper ma bite mais C'est que des petites merdes, des flics gays Moi j'm'en branle et j'vois les choses en grand comme les pygmés Et c'est notre quotidien, on fait casquer les yanyans Quand c'est la patate et ba on se fait passer les yoyos Est ce que tu réalises que c'est la merde à vie ? Et que quand les decs arrivent, ça tire comme à Tel Aviv Moi j'pars en couille car le shit m'aide à vivre J'plâne, j'gratte, j'kick sec à Villeneuve Chez moi le réveil c'est les perquises pas le chant du coq Donc si un jour on a l'occas' on verse le sang du proc' C'est net, clair et précis J'suis agressif, depuis l'herbe grasse et mes tout premiers récits Dur d'avoir froid aux yeux quand ils sont injectés de sang Man arrête avec tes leçons, moi j'suis venu infecter le sample Et j'en place une pour mes potes qui bicravent à la tess Mais j'ai peur de nous voir finir en smicard à la dech Demain c'est loin comme dirais qui tu sais En attendant on fait des ronds pour approcher les filles du 16 Mais j'me plains pas y'a pire dans le tiers monde T'façon ça va tant que j'ai mon spliff et ma bière blonde T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill T'avises pas d'menacer le Guiz ou j'te dick-slap Petite frappe, tu sais que tu ferais mieux de me passer le biff Weed, sky, street life Le parquet, le fisc Présent dans mes freestyles, je rap et je kill J'pète les plombs j'me casse la tête Mais qu'à cela ne tienne Y'a que les faibles qui jettent l'éponge Mec c'est bon, cette fois on ken le bail Baise le mic, en coste-la et paire de Nikes</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J'flingue le beat, j'flingue la bass Fallait pas donner la rage à un chien d'la casse, passons J'viens d'l'asphalte qui peut nier ça ? Evite de crier quand l'equipe est dans un deal de billets falschs Y'avait des micros et des caméras ça pue la calèche Villeneuve la Garenne y'a que des schizos et des kadera Des bécannes de crosse, des GP8, des T-Max, des gros gamos Mes gangstas se postent et té-squa le porche Des vrais liasses de boss, ça passe des nuits en bas Et ta ceinture à 800 balles souvent ton Beretta te l'offre Et j'en ai vu l'faire, ils m'disaient Guizmo c'est trop facile pour que ça marche faut juste un gros calibre Tu parles, une perquiz et t'as plus d'étés Tu pètes un cable, repense aux preuves que t'as pu laissé Paranoïaque, tu repasses le film en boucle Bonjour aux arrivants, et adieu la vie en couple Elle est pas belle la vie, là ou ça pue la poisse De ma tess à rue d'la goutte on t'achève pour une ardoise Et y'aura pas d'embrouilles et pas d'bruits Juste un coup d'schlass pour qu'tes troupes battent en retraite T'es un youv, moi j'm'endette Tu connais pas la rue ? Demande à Guizmo C'est un vrai ce schizo c'est un frère On s'démène pour le salaire à Yoni Fargeon Demande à mes frères, y'à qu'à ma mère qu'ont dit pardon Ah bon ? J'ai signé chez Zone Sensible, j'ai touché un chèque Tout est impec' là j'ai un four et un tiep Demande à E A Z Y on est fonssdé toute la nuit Pour la XXX, le H et l'ivresse You might also like T'es un youv, moi j'm'embête J'ai déjà défoncer les plus grands Evite de parler d'rue mec on sait qu't'es plus dedans Bref, on sait qui est qui et qui fait quoi Qui vé-squi et qui s'péta Qui est street et qui n'l'est pas Ouais j'débite des idées noires Dans un état depressif Mec j't'avoue j'évite les shtars Car ils aiment palper les slips Et j'ai du shit dans les burnes J'kick quand j'ai bu Weed chambres et putes J'fais du biff dans des rues sales Speed quand j'ai plus l'time Il m'faut plein de billets Ca sert à rien d'crier quand tu vois le flingue briller Et ouais c'est violent, on dis vient là Si tu fais l'mec affriolant, ma parole tu t'fais violer Les braves me disent virent les Pour ça qu'j'suis virulent Ils repartent tous en titubant après avoir pris deux pêches Oui je blesse car cette vie me stresse Et j'suis pris de ver-tiges à cause de per-quises et des prises de zeb S'il te plaît tasspé fais voir tes cuisses de prêt ainsi que tes fiches de payes Si tu kiffes le diez ça le fait Le Guiz te fait valser J'me connecte sur Facebook et j'balance une rumeur puisque t'aimes jacter Crise de nerf, tarpé Deal de cess, Face B Ville de merde, ba ouais Fils de gwere, braqué J'm'en bats les couilles que tu me dises que c'est moche Moi je risque mes miches quand je piste tes mioches Demande à FLK le respect s'gagne On t'léchera pas la bite pour ton SLK On déteste ça les pisseux, ces trous de balles qui sé-uss Ces putains qui choisissent le boulevard qui paye plus On est posté dans la street, j'vois une bande de dé-kiss En plus tout le monde est équipé, j'crois qu'ils vont prendre des gifles Ouais, on est posté dans la street, j'vois une bande de dé-kiss En plus tout le monde est équipé, j'crois qu'ils vont prendre des gifles Paroles rédigées et expliquées par Rap Genius France2</t>
+          <t>J'flingue le beat, j'flingue la bass Fallait pas donner la rage à un chien d'la casse, passons J'viens d'l'asphalte qui peut nier ça ? Evite de crier quand l'equipe est dans un deal de billets falschs Y'avait des micros et des caméras ça pue la calèche Villeneuve la Garenne y'a que des schizos et des kadera Des bécannes de crosse, des GP8, des T-Max, des gros gamos Mes gangstas se postent et té-squa le porche Des vrais liasses de boss, ça passe des nuits en bas Et ta ceinture à 800 balles souvent ton Beretta te l'offre Et j'en ai vu l'faire, ils m'disaient Guizmo c'est trop facile pour que ça marche faut juste un gros calibre Tu parles, une perquiz et t'as plus d'étés Tu pètes un cable, repense aux preuves que t'as pu laissé Paranoïaque, tu repasses le film en boucle Bonjour aux arrivants, et adieu la vie en couple Elle est pas belle la vie, là ou ça pue la poisse De ma tess à rue d'la goutte on t'achève pour une ardoise Et y'aura pas d'embrouilles et pas d'bruits Juste un coup d'schlass pour qu'tes troupes battent en retraite T'es un youv, moi j'm'endette Tu connais pas la rue ? Demande à Guizmo C'est un vrai ce schizo c'est un frère On s'démène pour le salaire à Yoni Fargeon Demande à mes frères, y'à qu'à ma mère qu'ont dit pardon Ah bon ? J'ai signé chez Zone Sensible, j'ai touché un chèque Tout est impec' là j'ai un four et un tiep Demande à E A Z Y on est fonssdé toute la nuit Pour la XXX, le H et l'ivresse T'es un youv, moi j'm'embête J'ai déjà défoncer les plus grands Evite de parler d'rue mec on sait qu't'es plus dedans Bref, on sait qui est qui et qui fait quoi Qui vé-squi et qui s'péta Qui est street et qui n'l'est pas Ouais j'débite des idées noires Dans un état depressif Mec j't'avoue j'évite les shtars Car ils aiment palper les slips Et j'ai du shit dans les burnes J'kick quand j'ai bu Weed chambres et putes J'fais du biff dans des rues sales Speed quand j'ai plus l'time Il m'faut plein de billets Ca sert à rien d'crier quand tu vois le flingue briller Et ouais c'est violent, on dis vient là Si tu fais l'mec affriolant, ma parole tu t'fais violer Les braves me disent virent les Pour ça qu'j'suis virulent Ils repartent tous en titubant après avoir pris deux pêches Oui je blesse car cette vie me stresse Et j'suis pris de ver-tiges à cause de per-quises et des prises de zeb S'il te plaît tasspé fais voir tes cuisses de prêt ainsi que tes fiches de payes Si tu kiffes le diez ça le fait Le Guiz te fait valser J'me connecte sur Facebook et j'balance une rumeur puisque t'aimes jacter Crise de nerf, tarpé Deal de cess, Face B Ville de merde, ba ouais Fils de gwere, braqué J'm'en bats les couilles que tu me dises que c'est moche Moi je risque mes miches quand je piste tes mioches Demande à FLK le respect s'gagne On t'léchera pas la bite pour ton SLK On déteste ça les pisseux, ces trous de balles qui sé-uss Ces putains qui choisissent le boulevard qui paye plus On est posté dans la street, j'vois une bande de dé-kiss En plus tout le monde est équipé, j'crois qu'ils vont prendre des gifles Ouais, on est posté dans la street, j'vois une bande de dé-kiss En plus tout le monde est équipé, j'crois qu'ils vont prendre des gifles Paroles rédigées et expliquées par Rap Genius France2</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yo. Whoo ! Diguilicheck, biguilibang. Ouzou. Tester, faut oser. Aah...Yaah. Yeah, yeah. Diguilicheck. Ok, yo Elles sont belles, elles sont bêtes, avec leurs coupes afros J'leur dis que c'est Guiz', elles me répondent qu'elles sont toutes accros Elles aiment le style et la vibe, les rimes et la voix Elles adorent quand ça kicke et que ça boit En plus, j'fais du rap alors ça facilite la tâche Si t'es vraiment belle, bébé, je sacrifie ma liasse Ça, ton mec ne peut pas le faire alors tu me kiffes plus que lui J'suis en Audi, il prend le bus de nuit J'suis tous les jours dans tes écouteurs donc il est dégouté T'as eu un vrai coup de cur donc il te défend de m'écouter Il paraît que j'te dévergonde Je vis là où le sexe est roi, bébé, j'veux t'emmener dans ce monde J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20 Et là, elle me dit que son mec est un macho J'lui ai dit Ma belle, j'me fais la belle si tu parles trop Et à ce propos, t'es trop fraîche pour ce type Faut pas que tu restes pour le fric, il faut que tu le laisses pour le Guiz' La meuf me dit qu'elle est amoureuse J'lui répond qu'elle est savoureuse et qu'elle aurait pas du tomber amoureuse Elle se marre, elle sait que j'suis pas là pour échouer, hin Deux, trois disquettes et le tour est joué Ma belle, mets-toi sur messagerie Ton mec pourra pas nous joindre quand on fera des singeries Des dingueries, avec un spliff et un string Ton mec voudra me faire des flingueries You might also like J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20 Yo, ton mec fouille ton téléphone, t'as effacé mes textos Même si j'te sodomise, t'as jamais fait un bed role Il cherche à savoir qui je suis, où j'te vois Il est ouf de toi mais, a la frousse de moi C'est parce qu'il sait que je ne fais que te détourner Pendant que la nuit, il ne rêve que de t'épouser Mais pour lui, y aura un problème Parce que j'suis un gosse-bo et que t'es trop fraîche Guizi Ouzou, Sisi coucou Yonea Willy, Willy Yonea, Zone Sensible Diguiliwhoo ! Whoo ! Whoo ! Aah ! J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20</t>
+          <t>Yo. Whoo ! Diguilicheck, biguilibang. Ouzou. Tester, faut oser. Aah...Yaah. Yeah, yeah. Diguilicheck. Ok, yo Elles sont belles, elles sont bêtes, avec leurs coupes afros J'leur dis que c'est Guiz', elles me répondent qu'elles sont toutes accros Elles aiment le style et la vibe, les rimes et la voix Elles adorent quand ça kicke et que ça boit En plus, j'fais du rap alors ça facilite la tâche Si t'es vraiment belle, bébé, je sacrifie ma liasse Ça, ton mec ne peut pas le faire alors tu me kiffes plus que lui J'suis en Audi, il prend le bus de nuit J'suis tous les jours dans tes écouteurs donc il est dégouté T'as eu un vrai coup de cur donc il te défend de m'écouter Il paraît que j'te dévergonde Je vis là où le sexe est roi, bébé, j'veux t'emmener dans ce monde J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20 Et là, elle me dit que son mec est un macho J'lui ai dit Ma belle, j'me fais la belle si tu parles trop Et à ce propos, t'es trop fraîche pour ce type Faut pas que tu restes pour le fric, il faut que tu le laisses pour le Guiz' La meuf me dit qu'elle est amoureuse J'lui répond qu'elle est savoureuse et qu'elle aurait pas du tomber amoureuse Elle se marre, elle sait que j'suis pas là pour échouer, hin Deux, trois disquettes et le tour est joué Ma belle, mets-toi sur messagerie Ton mec pourra pas nous joindre quand on fera des singeries Des dingueries, avec un spliff et un string Ton mec voudra me faire des flingueries J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20 Yo, ton mec fouille ton téléphone, t'as effacé mes textos Même si j'te sodomise, t'as jamais fait un bed role Il cherche à savoir qui je suis, où j'te vois Il est ouf de toi mais, a la frousse de moi C'est parce qu'il sait que je ne fais que te détourner Pendant que la nuit, il ne rêve que de t'épouser Mais pour lui, y aura un problème Parce que j'suis un gosse-bo et que t'es trop fraîche Guizi Ouzou, Sisi coucou Yonea Willy, Willy Yonea, Zone Sensible Diguiliwhoo ! Whoo ! Whoo ! Aah ! J'fais kiffer un tas de meufs et leurs mecs veulent ma peau mais sache qu'ils l'auront jamais Poto, j'raconte pas de bluffs, je sais que j'suis un fauve et que j'adore les gazelles Et j'crois pas que vous êtes toutes débiles, j'suis à vous, les filles, bah ouais, j'vous appartiens Mais retiens qu'on est des oufs, des pitres et que toutes les miss, on les a par 20</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>T'as beau avoir des millions d'vues sur internet T'faire beaucoup d'pépètes De Paname jusqu'aux States, c'est eux les reustas ! Et big-up à Zoxea, Zehef, big-up ! Eh les autres, les jaloux cliquez !!! Bande de ... ... ... !!! Baise les skins ! Y a deux ans j'existais pas alors que j'ai vingt piges passées Une vodka, un spliff tassé, une pote-ca, un big tard-pé Voilà je kiffe quand c'est facile, quand Lamine tire un coup grâce à Guizmo Là je deviens fou limite schizo C'est comme l'histoire d'une équipe qui était en chien Qui s'était jamais tapé de queue mais voulait niquer les anciens Hé c'est pas des reustas, crois-moi ils vont y rester Demande à mon renoi, quand on péra c'est pour le Geste Et puis d'abord c'est moi la reusta J'ai des groupies, un contrat Un public et j'rappe avec Zoxea et Busta Sans compter tous les précurseurs sur le track Vrais fumeurs, sûrs, de taille On fait fureur, truc de barge Alors viens pas nous raconter ta vie Zarma t'as affronté la street Bref ! C'est nous les reustas ! C'est nous les reustas Demande à Zoxea, demande à Busta T'es en chien, cousin You might also like La plupart des MC's sont techniques au mic' C'est vrai, ça camoufle un peu leur côté mythomane Le public rap comprend rien en toute modestie Il peut te confondre Lady Laistee et Britney Spears C'est pas possible que t'en réchappes il faut que tu yèp Tu fais tiep tu bats le fer quand il est tiède En plus de ça on pourra pas éviter le drame Pour pas que j'te pisse dessus, faudrait que j'te vois en flamme T'as beau être cent fois disque d'or Avoir des gardes du corps Coopté avec les porcs jusqu'à la mort Gros, c'est nous les reustas Avoir des groupies dans les loges qui te couvrent d'éloges Des tonnes de billets mauves qui tombent comme le déluge C'est nous les reustas T'as beau avoir des millions de vues sur internet Faire beaucoup d'pépètes de Paname aux States Mec, c'est nous les reustas, c'est nous les reustas C'est nous les reustas, c'est nous les reustas Ouais, c'est nous les reustas remix c'est de la bonne vas-y renifle Rap à l'ancienne comme Gabin dans le film les caves se rebiffent Pour les braves pose un gros coup Pour les nases juste une grosse baffe et rap dempaffé Tout dans la tête quand tout le monde dit que ça le fait Ça me fait plaisir depuis je passe des nuits paisibles Si j'étais Pascal Nègre j'aurais signé tout KDBZik Un peu mafiosi sur les bords des couplets forts Découpe les corps écoute c'est mort C'est nous les stars, c'est vous les porcs Tu m'as reconnu fiston c'est papa Melopheel-o Pour le frelon j'ai pas pris de feuilles et encore moins de stylo Kilo de rimes emmagasineur, anti-nazis sur KDBZik 11h11 au cas où on t'aurais pas dis l'heure Tout dans la tête a mis tout le monde d'accord Tu veux des MeloNews faudra me suivre jusqu'à l'amour alors Bientôt un nouveau Sages Po, CNLR ça se passe gros Ca taffe gros, ça gratte haut, ça rappe chaud C'est nous les stars Dans les Benz et les hôtels Les premières classes, les primes time, la presse et les modèles Les purs apparts, chandeliers, noeuds papillons, souliers Les paparazzi acrobates zooment sur nous souriez Vous êtes des dindes, ouvrier devenu roi de Paname Dans les livres de musique ils parlent déjà d'oim Car je fais des dégats genre cinq Oussama, quatre Saddam Deux, trois Bonaparte, ZOX et Busta me joignent Tiwony Rasta, ghetto youth reusta Sur le riddim gangsta Jamais ne retourne sa veste donc je flex comme Busta Consummeur de mic Santa C'est moi qui pose le thermostat Boug kaf' qui ne fait pas d'actes Qui ne fait XXX Zoxea respect my brother Tu reconnais les vrais soldats, fire C'est le son des bas-fonds qui fait péter le plafond La forme et le fond, toujours compris comme constant Y a masse de lyrics conscients La même rage, la même passion qu'au commencement Pas de timinik, c'est le son qui coule dans notre sang De Mama Africa, à la Ce-fran, jusqu'en Guadeloupe Pour briller on a pas attendu YouTube ou Facebook J'en place une pour tous mes Boyz'n the Hood Qui nous suivent depuis l'début qui savent que l'or sort de la boue Big up my crew public, my major c'est vous XXX Frérot, j'suis loin d'être une reusta ou un hustler J'rappe pas pour les posters, les spots ou les haies d'honneur J'en ai horreur j'rappe aux aurores après le fajr Les vrais reustas c'est Malcolm, j'lève mon majeur Ébloui par Jay-Z et Young Money de Weezy Combien de gosses connaissent la vraie reusta ? Bouazizi ! Ok ok c'est siz-Di, peu importe ce qui ce dit J'serai toujours plus grand que ça comme la grande aiguille à midi C'est nous les reustas Mon rap se balade, balle atomique Pas d'kalash canard, j'cale les sales thos-my Ma smala n'as pas la vie d'Dallas N'a pas la vie d'palace, pas la vie d'Montana Tony Qui va là, va là ? Miss anatomique Crie Dala, dala, rimes anachroniques Oui j'palabre, et kick en lingala Mais je ne suis pas là, pas là pour cher-la le cromi Toxic refais-moi tourner ce putain Jazz Demande à Zoxea, qu'est-ce qui fait marcher les putains de sages Au passage, sache que ta reusta c'est ta daronne Je viens d'un paysage où même un muet tient sa parole On m'a dit Viens, je suis venu, j'ai rappé puis j'ai vaincu Séparez le monde en deux des cons et des convaincus ! C'est pas du rap de dominant, ni du rap de dominé Moi j'fais du rap Domino Day, en regardant tous ces MC's tomber ! Sur le Reusta Remix, personne ne rappe depuis hier MC phosphorescent, tu brillerais pas sans nos lumières ! J'suis une reusta, j'sais pas, j'm'en bats, qui fait attention ? J'suis qu'une étoile dans le ciel de Paris, masquée par la pollution ! C'est nous les reustas, vous êtes oufs Brûlez tous leurs posters, humilité et grosse tête Bullet proof À votre place j'éviterais d'parler mal J'aime le foot Mais chez nous real ça veut dire vrai, pas Réal Reusta tah les Wiz Khalifa Quand y'a un truc que j'capte pas J'appelle Dieu, t'appelles Bouygues salopard T'es rouillé, on est inoxydables Du vrai hip-hop dikave comme l'ont fait Zoxea, Sta-bu Dès qu'ça parle eu' t'es attentif, on sait ce que l'rappeur veut C'est argent, cert-con, sexe Attends j'te l'concède, la fierté y'en a peu J'suis au-d'ssus d'eux comme un accent circonflexe Un vrai MC sait s'arrêter à temps Avant t'étais hip-hop. Mais ça, c'était avant2</t>
+          <t>T'as beau avoir des millions d'vues sur internet T'faire beaucoup d'pépètes De Paname jusqu'aux States, c'est eux les reustas ! Et big-up à Zoxea, Zehef, big-up ! Eh les autres, les jaloux cliquez !!! Bande de ... ... ... !!! Baise les skins ! Y a deux ans j'existais pas alors que j'ai vingt piges passées Une vodka, un spliff tassé, une pote-ca, un big tard-pé Voilà je kiffe quand c'est facile, quand Lamine tire un coup grâce à Guizmo Là je deviens fou limite schizo C'est comme l'histoire d'une équipe qui était en chien Qui s'était jamais tapé de queue mais voulait niquer les anciens Hé c'est pas des reustas, crois-moi ils vont y rester Demande à mon renoi, quand on péra c'est pour le Geste Et puis d'abord c'est moi la reusta J'ai des groupies, un contrat Un public et j'rappe avec Zoxea et Busta Sans compter tous les précurseurs sur le track Vrais fumeurs, sûrs, de taille On fait fureur, truc de barge Alors viens pas nous raconter ta vie Zarma t'as affronté la street Bref ! C'est nous les reustas ! C'est nous les reustas Demande à Zoxea, demande à Busta T'es en chien, cousin La plupart des MC's sont techniques au mic' C'est vrai, ça camoufle un peu leur côté mythomane Le public rap comprend rien en toute modestie Il peut te confondre Lady Laistee et Britney Spears C'est pas possible que t'en réchappes il faut que tu yèp Tu fais tiep tu bats le fer quand il est tiède En plus de ça on pourra pas éviter le drame Pour pas que j'te pisse dessus, faudrait que j'te vois en flamme T'as beau être cent fois disque d'or Avoir des gardes du corps Coopté avec les porcs jusqu'à la mort Gros, c'est nous les reustas Avoir des groupies dans les loges qui te couvrent d'éloges Des tonnes de billets mauves qui tombent comme le déluge C'est nous les reustas T'as beau avoir des millions de vues sur internet Faire beaucoup d'pépètes de Paname aux States Mec, c'est nous les reustas, c'est nous les reustas C'est nous les reustas, c'est nous les reustas Ouais, c'est nous les reustas remix c'est de la bonne vas-y renifle Rap à l'ancienne comme Gabin dans le film les caves se rebiffent Pour les braves pose un gros coup Pour les nases juste une grosse baffe et rap dempaffé Tout dans la tête quand tout le monde dit que ça le fait Ça me fait plaisir depuis je passe des nuits paisibles Si j'étais Pascal Nègre j'aurais signé tout KDBZik Un peu mafiosi sur les bords des couplets forts Découpe les corps écoute c'est mort C'est nous les stars, c'est vous les porcs Tu m'as reconnu fiston c'est papa Melopheel-o Pour le frelon j'ai pas pris de feuilles et encore moins de stylo Kilo de rimes emmagasineur, anti-nazis sur KDBZik 11h11 au cas où on t'aurais pas dis l'heure Tout dans la tête a mis tout le monde d'accord Tu veux des MeloNews faudra me suivre jusqu'à l'amour alors Bientôt un nouveau Sages Po, CNLR ça se passe gros Ca taffe gros, ça gratte haut, ça rappe chaud C'est nous les stars Dans les Benz et les hôtels Les premières classes, les primes time, la presse et les modèles Les purs apparts, chandeliers, noeuds papillons, souliers Les paparazzi acrobates zooment sur nous souriez Vous êtes des dindes, ouvrier devenu roi de Paname Dans les livres de musique ils parlent déjà d'oim Car je fais des dégats genre cinq Oussama, quatre Saddam Deux, trois Bonaparte, ZOX et Busta me joignent Tiwony Rasta, ghetto youth reusta Sur le riddim gangsta Jamais ne retourne sa veste donc je flex comme Busta Consummeur de mic Santa C'est moi qui pose le thermostat Boug kaf' qui ne fait pas d'actes Qui ne fait XXX Zoxea respect my brother Tu reconnais les vrais soldats, fire C'est le son des bas-fonds qui fait péter le plafond La forme et le fond, toujours compris comme constant Y a masse de lyrics conscients La même rage, la même passion qu'au commencement Pas de timinik, c'est le son qui coule dans notre sang De Mama Africa, à la Ce-fran, jusqu'en Guadeloupe Pour briller on a pas attendu YouTube ou Facebook J'en place une pour tous mes Boyz'n the Hood Qui nous suivent depuis l'début qui savent que l'or sort de la boue Big up my crew public, my major c'est vous XXX Frérot, j'suis loin d'être une reusta ou un hustler J'rappe pas pour les posters, les spots ou les haies d'honneur J'en ai horreur j'rappe aux aurores après le fajr Les vrais reustas c'est Malcolm, j'lève mon majeur Ébloui par Jay-Z et Young Money de Weezy Combien de gosses connaissent la vraie reusta ? Bouazizi ! Ok ok c'est siz-Di, peu importe ce qui ce dit J'serai toujours plus grand que ça comme la grande aiguille à midi C'est nous les reustas Mon rap se balade, balle atomique Pas d'kalash canard, j'cale les sales thos-my Ma smala n'as pas la vie d'Dallas N'a pas la vie d'palace, pas la vie d'Montana Tony Qui va là, va là ? Miss anatomique Crie Dala, dala, rimes anachroniques Oui j'palabre, et kick en lingala Mais je ne suis pas là, pas là pour cher-la le cromi Toxic refais-moi tourner ce putain Jazz Demande à Zoxea, qu'est-ce qui fait marcher les putains de sages Au passage, sache que ta reusta c'est ta daronne Je viens d'un paysage où même un muet tient sa parole On m'a dit Viens, je suis venu, j'ai rappé puis j'ai vaincu Séparez le monde en deux des cons et des convaincus ! C'est pas du rap de dominant, ni du rap de dominé Moi j'fais du rap Domino Day, en regardant tous ces MC's tomber ! Sur le Reusta Remix, personne ne rappe depuis hier MC phosphorescent, tu brillerais pas sans nos lumières ! J'suis une reusta, j'sais pas, j'm'en bats, qui fait attention ? J'suis qu'une étoile dans le ciel de Paris, masquée par la pollution ! C'est nous les reustas, vous êtes oufs Brûlez tous leurs posters, humilité et grosse tête Bullet proof À votre place j'éviterais d'parler mal J'aime le foot Mais chez nous real ça veut dire vrai, pas Réal Reusta tah les Wiz Khalifa Quand y'a un truc que j'capte pas J'appelle Dieu, t'appelles Bouygues salopard T'es rouillé, on est inoxydables Du vrai hip-hop dikave comme l'ont fait Zoxea, Sta-bu Dès qu'ça parle eu' t'es attentif, on sait ce que l'rappeur veut C'est argent, cert-con, sexe Attends j'te l'concède, la fierté y'en a peu J'suis au-d'ssus d'eux comme un accent circonflexe Un vrai MC sait s'arrêter à temps Avant t'étais hip-hop. Mais ça, c'était avant2</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Oh oh! Jiguidi Guiz Whoo Ziguidi Zone Sensible Ça bouge ap cousin Villeneuve-la-Garenne, Caravelle Jiguidicheck, jiguidicheck Han, 'k Willy, Yonea Yonea, Willy Bébé je sais pas si j'vais en boîte tonight En boîte tonight, en boîte tonight Baby girl you look so good tonight Good tonight, good tonight Bébé je sais pas si j'vais en boîte tonight Une chose est sûre je serais avec oit tonight Et on va pas dormir Fais passer l'mot à tes copines, vas-y va leur dire On va s'évader, avec Mavado et Laza Morgan Bébé ce sera l'orgasme et ouais J'ai des tonnes d'idées farfelues Vas-y viens voir ce truc Qui s'passe dans l'noir quand on ne parle plus You might also like I'm feelin your heartbeat pullin me closer closer One by one With every touch I'm feelin it stronger stonger One by one I believe, you and me, we're fallin in love Cause on your face is a fading around us One by one Ohoho, ohoho ho ho ho Girl, put your body on me Baby when we leave this club tonight Club tonight, club tonight I wanna see your face in the morning light Morning light, morning light How you feel do you wanna refill? Or do you just wanna stay right here? While the DJ's playin our favorite songs One by one C'est d'la folie comment tu bouges dans cette boîte de nuit D'habitude j'aime pas ça mais là j'me dois d'le dire Et à c't'heure-ci t'es plus une meuf mais un fantasme Tout c'que j'peux t'offrir c'est du bluff et un Fanta Fin d'rée-soi on s'recroise à la tie-sor Bordel, t'as un regard kalashnikov Et là le froid me fais penser qu'ça va plus Chérie t'es la plus belle, mais j'dois rentrer à la ruche Si tu veux boire le jus, ou le cocktail Viens à ma table et tu connaîtras le top ten Ohoho, ohoho ho ho ho Whoop whoop Ziguidi Zone Sensible, bah ouais ! Villeneuve-la-Garenne, les immeubles la galère Les filles veuves la galette Guizmo, ok1</t>
+          <t>Oh oh! Jiguidi Guiz Whoo Ziguidi Zone Sensible Ça bouge ap cousin Villeneuve-la-Garenne, Caravelle Jiguidicheck, jiguidicheck Han, 'k Willy, Yonea Yonea, Willy Bébé je sais pas si j'vais en boîte tonight En boîte tonight, en boîte tonight Baby girl you look so good tonight Good tonight, good tonight Bébé je sais pas si j'vais en boîte tonight Une chose est sûre je serais avec oit tonight Et on va pas dormir Fais passer l'mot à tes copines, vas-y va leur dire On va s'évader, avec Mavado et Laza Morgan Bébé ce sera l'orgasme et ouais J'ai des tonnes d'idées farfelues Vas-y viens voir ce truc Qui s'passe dans l'noir quand on ne parle plus I'm feelin your heartbeat pullin me closer closer One by one With every touch I'm feelin it stronger stonger One by one I believe, you and me, we're fallin in love Cause on your face is a fading around us One by one Ohoho, ohoho ho ho ho Girl, put your body on me Baby when we leave this club tonight Club tonight, club tonight I wanna see your face in the morning light Morning light, morning light How you feel do you wanna refill? Or do you just wanna stay right here? While the DJ's playin our favorite songs One by one C'est d'la folie comment tu bouges dans cette boîte de nuit D'habitude j'aime pas ça mais là j'me dois d'le dire Et à c't'heure-ci t'es plus une meuf mais un fantasme Tout c'que j'peux t'offrir c'est du bluff et un Fanta Fin d'rée-soi on s'recroise à la tie-sor Bordel, t'as un regard kalashnikov Et là le froid me fais penser qu'ça va plus Chérie t'es la plus belle, mais j'dois rentrer à la ruche Si tu veux boire le jus, ou le cocktail Viens à ma table et tu connaîtras le top ten Ohoho, ohoho ho ho ho Whoop whoop Ziguidi Zone Sensible, bah ouais ! Villeneuve-la-Garenne, les immeubles la galère Les filles veuves la galette Guizmo, ok1</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>T'as l'air de croire qu'tu vaux mieux qu'moi Mais j'ai une autre finesse de phase Me teste pas, ou bien j'te tape Voilà ma politesse de base Mon blase prolifère deux fois plus que l'tien Espèce de poids plume, tu viens Pour faire de la thune D'la folie frère, de la pure J'ai trop d'vitesse j'te l'assure Paraît que j'me fais trop vieux Tu veux qu'j'me mette au vert Moi c'est ton il que j'veux mettre au bleu Attends que j'me prête au jeu Tu comprendras de quoi j'suis malade J'viens faire ma place pour prendre la tienne comme les nois-chi d'Paname Ici pas d'police, les gars portent plainte au couteau L'alcoolique chasse pas son naturel, il revient au goulot Écoute moi et va-t'en Mais pousse-toi j'ai pas l'temps J'foudroie ces trous d'balle de trouvailles épatantes Dans mes yeux c'est l'brouillard, j'les trouve pas éclatants Des trous noirs comme si j'sortais tout droit des Balkans Du propos, des grosses phases Du croco, des bonnes sapes Coco, toi et moi c'est Cro Cop et Bob Sapp J'ai trop d'flow c'est comme ça V'là l'topo j'm'arrête plus Poto, j'dégomme ta sono d'un manière brute T'es qu'une proie égarée Crois pas qu'tu vas m'écraser Quand j'vois ta gueule j'ai comme envie d'te jeter une poignée d'gravier Combien d'fois j'vais t'tailler Avant qu'tu captes que j'parle de toi Tu pourrais pas m'égaler Même en ramenant l'cheval de Troie J'te cale deux-trois lyrics sévères Y'en a qui vont s'ouvrir les veines La vie c'est comme le rap, c'est les plus forts qui font souffrir les faibles You might also like Saké-Zaka, Guiz'-L'Entourage, teams sans poucaves Bim dans ton crâne ! Viens m'voir ! Écoute moi et vas-t'en Mais pousse-toi j'ai pas l'temps J'foudroie ces trous d'balle Tu m'crois pas ? Viens m'voir ! J'entends qu'ça parle de rap De prod', de rimes techniques Du prochain inédit Mais vas-y viens m'voir ! J'ai trop d'flow c'est comme ça V'là l'topo j'm'arrête plus Poto, j'dégomme ta sono Vas-y viens m'voir ! J'entends qu'ça parle de rap De prod', de rimes techniques Du prochain inédit Mais c'est qu'les boss de lillettrisme Moi je t'offre le millésime C'est les coffres et la résine Le décor c'est la té-ci Quand y'a les porcs c'est agressif C'qu'on adore c'est la sensi' J'ai la force et la maîtrise J'élabore des tas d'récits C'est hardcore et ça m'épuise C'est la drogue et la traîtrise Qui m'ont fait péter un câble J'ai qu'l'alcool et la sère-mi Sinon j'serais resté intact Alors me parlez plus de son J'ai craché plus de sang Que ces saloperies de cons Qui laissent leur calomnies se vendre De leurs abdos ils se vantent Et y'a des paros qui s'demandent Est-ce qu'une seule seconde ils pensent aux ados qui se pendent ? Moi j'en ai vu l'faire au placard Cellule frère Univers vulgaire Avec des ulcères en pagaille Et tu l'sais quand ça rappe C'est 1 pour la Caravelle 2 pour la sale affaire Mes purs frères en cavale Les putes quèn' en rafale Imagine le dièse J'ai des cicatrices de guerre Mais j'suis plus l'même qu'en cabane J'me bute sec dans Paname J'me prends pas la tête mec Remballe ta Jet 7 Le succès rend malade Saké-Zaka, Guiz'-L'Entourage, teams sans poucaves P'tit devant l'ouvrage t'as fait caca J'ai pas d'état d'âme, rage et tristesse dans ma voix J'ai pas écrit c'texte dans la soie</t>
+          <t>T'as l'air de croire qu'tu vaux mieux qu'moi Mais j'ai une autre finesse de phase Me teste pas, ou bien j'te tape Voilà ma politesse de base Mon blase prolifère deux fois plus que l'tien Espèce de poids plume, tu viens Pour faire de la thune D'la folie frère, de la pure J'ai trop d'vitesse j'te l'assure Paraît que j'me fais trop vieux Tu veux qu'j'me mette au vert Moi c'est ton il que j'veux mettre au bleu Attends que j'me prête au jeu Tu comprendras de quoi j'suis malade J'viens faire ma place pour prendre la tienne comme les nois-chi d'Paname Ici pas d'police, les gars portent plainte au couteau L'alcoolique chasse pas son naturel, il revient au goulot Écoute moi et va-t'en Mais pousse-toi j'ai pas l'temps J'foudroie ces trous d'balle de trouvailles épatantes Dans mes yeux c'est l'brouillard, j'les trouve pas éclatants Des trous noirs comme si j'sortais tout droit des Balkans Du propos, des grosses phases Du croco, des bonnes sapes Coco, toi et moi c'est Cro Cop et Bob Sapp J'ai trop d'flow c'est comme ça V'là l'topo j'm'arrête plus Poto, j'dégomme ta sono d'un manière brute T'es qu'une proie égarée Crois pas qu'tu vas m'écraser Quand j'vois ta gueule j'ai comme envie d'te jeter une poignée d'gravier Combien d'fois j'vais t'tailler Avant qu'tu captes que j'parle de toi Tu pourrais pas m'égaler Même en ramenant l'cheval de Troie J'te cale deux-trois lyrics sévères Y'en a qui vont s'ouvrir les veines La vie c'est comme le rap, c'est les plus forts qui font souffrir les faibles Saké-Zaka, Guiz'-L'Entourage, teams sans poucaves Bim dans ton crâne ! Viens m'voir ! Écoute moi et vas-t'en Mais pousse-toi j'ai pas l'temps J'foudroie ces trous d'balle Tu m'crois pas ? Viens m'voir ! J'entends qu'ça parle de rap De prod', de rimes techniques Du prochain inédit Mais vas-y viens m'voir ! J'ai trop d'flow c'est comme ça V'là l'topo j'm'arrête plus Poto, j'dégomme ta sono Vas-y viens m'voir ! J'entends qu'ça parle de rap De prod', de rimes techniques Du prochain inédit Mais c'est qu'les boss de lillettrisme Moi je t'offre le millésime C'est les coffres et la résine Le décor c'est la té-ci Quand y'a les porcs c'est agressif C'qu'on adore c'est la sensi' J'ai la force et la maîtrise J'élabore des tas d'récits C'est hardcore et ça m'épuise C'est la drogue et la traîtrise Qui m'ont fait péter un câble J'ai qu'l'alcool et la sère-mi Sinon j'serais resté intact Alors me parlez plus de son J'ai craché plus de sang Que ces saloperies de cons Qui laissent leur calomnies se vendre De leurs abdos ils se vantent Et y'a des paros qui s'demandent Est-ce qu'une seule seconde ils pensent aux ados qui se pendent ? Moi j'en ai vu l'faire au placard Cellule frère Univers vulgaire Avec des ulcères en pagaille Et tu l'sais quand ça rappe C'est 1 pour la Caravelle 2 pour la sale affaire Mes purs frères en cavale Les putes quèn' en rafale Imagine le dièse J'ai des cicatrices de guerre Mais j'suis plus l'même qu'en cabane J'me bute sec dans Paname J'me prends pas la tête mec Remballe ta Jet 7 Le succès rend malade Saké-Zaka, Guiz'-L'Entourage, teams sans poucaves P'tit devant l'ouvrage t'as fait caca J'ai pas d'état d'âme, rage et tristesse dans ma voix J'ai pas écrit c'texte dans la soie</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ouzou Guizi YW, jusqu'à la mort mec Renard a vu son père dans le café, tellement de fois Renard a vu son père dans le café En train de crier sur un cheval Je savais pas qui était Bazire, mais à cause de lui on avait que dalle Renard a volé un vélo Parce que les autres en avaient un Ses grands frères vendaient du bédo Ils étaient déjà sur le terrain Bah ouais on avait rien Renard est un gamin qui n'avait peur de personne À 9 ans dans les transports, il se dirige vers l'Essonne Il est un peu précoce et sa mère se questionne Le renard veut jouer avec un Smith Wesson Le renard, le renard il est solitaire À l'arrivé d'un beau-père il peut pas trop s'y faire En plus il a pas l'âge de prendre des somnifères 10 ans plus tard devant les commissaires Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards You might also like Et ça fait longtemps qu'il va plus en classe Et comme ses grands frères avant lui Et bah il commence à faire des passes Et il connaîtra la garde à vue Et puis il connaîtra le dépôt Et puis il connaîtra la prison Même pas un euro de té-co Et puis à la sortie et bah il connaîtra la rue La drogue, les armes et les gens qui sentre-tuent Mais le renard il s'en fout, tout ça il l'a déjà vu Il s'est déjà fait fouillé à poil mais s'est jamais mis à nu Il a rencontré une femme, elle lui a donné un enfant Il diminue l'alcool, dans son nouvel appartemment Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards On est dans la rue Souvent c'est de la gourmandise Souvent c'est de la gourmandise Non souvent c'est de la renardise mes renards Mes renards sont gourmands Mes renards, mes renards Mes renards, mes renards Mes renards, mes renards Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards À tous les renards Ouais, les solitaires Les fous, les thugs Pas besoin d'équipe Mon renard, mes renard Diakité mafia YW, jusqu'à la mort mon petit reuf</t>
+          <t>Ouzou Guizi YW, jusqu'à la mort mec Renard a vu son père dans le café, tellement de fois Renard a vu son père dans le café En train de crier sur un cheval Je savais pas qui était Bazire, mais à cause de lui on avait que dalle Renard a volé un vélo Parce que les autres en avaient un Ses grands frères vendaient du bédo Ils étaient déjà sur le terrain Bah ouais on avait rien Renard est un gamin qui n'avait peur de personne À 9 ans dans les transports, il se dirige vers l'Essonne Il est un peu précoce et sa mère se questionne Le renard veut jouer avec un Smith Wesson Le renard, le renard il est solitaire À l'arrivé d'un beau-père il peut pas trop s'y faire En plus il a pas l'âge de prendre des somnifères 10 ans plus tard devant les commissaires Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards Et ça fait longtemps qu'il va plus en classe Et comme ses grands frères avant lui Et bah il commence à faire des passes Et il connaîtra la garde à vue Et puis il connaîtra le dépôt Et puis il connaîtra la prison Même pas un euro de té-co Et puis à la sortie et bah il connaîtra la rue La drogue, les armes et les gens qui sentre-tuent Mais le renard il s'en fout, tout ça il l'a déjà vu Il s'est déjà fait fouillé à poil mais s'est jamais mis à nu Il a rencontré une femme, elle lui a donné un enfant Il diminue l'alcool, dans son nouvel appartemment Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards On est dans la rue Souvent c'est de la gourmandise Souvent c'est de la gourmandise Non souvent c'est de la renardise mes renards Mes renards sont gourmands Mes renards, mes renards Mes renards, mes renards Mes renards, mes renards Je sais que tout ira mieux Et qu'un jour on va ouvrir les yeux Même si on est pas pieux Je sais que tous on croit en dieu Mes renards, mes renards, mes renards Mes renards, mes renards Même si tous on veut des dollars Vous resterez mes renards À tous les renards Ouais, les solitaires Les fous, les thugs Pas besoin d'équipe Mon renard, mes renard Diakité mafia YW, jusqu'à la mort mon petit reuf</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>La BP, la BP Junior des favélas J't'envoie tout, tu sors, direct t'es refait On envoie du sale C'est moi qui suis au fond d'la classe Pour faire du liquide, faudra creuser la glace Moi j'suis dans les affaires J'te raconte pas des blagues J'alimente le réseau On tombe jamais en panne J'suis sous teq', j'aime trop quand ça twerke T'est pas là, c'est ta porte qu'on pète Pour l'instant y'a les... qui pistent T'es banni chez les ? Tout doux bang'z Pour l'instant j'suis dans l'binks J'encaisse les chèques J'veux la grosse liasse pour ma chienne Tout le monde est en Zano' La concu' va subir des années Ils en veulent, ils sont maso' Sors la pouki, j'allume un comme Guizmo You might also like Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu dois, tu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z J'suis pas dans la mala, j'débarque du Mali Si y'a bagarre, je serai dans la mêlée Guette le Renard en train d'tuer la mélo La paire est noire mais les billets sont yellows L'équipe d'en face, je le sais qu'ils sont jaloux 2018 j'ai beaucoup pris du seille-o Et mon guetteur il se balade en vélo J'suis dans la caisse en train d'fumer du bédo Ouais cabrão, j'suis dans l'binks Il fait un peu froid dans le hall Dans ma tête, c'est la tess, avec un peu d'Dragon Ball J'fume une clope, j'me détends Juste après, j'me roule un cône Tudo bem, tudo bem Tu m'vois planer comme un drone Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu doistu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Moi tout va bien J'suis dans l'tieks depuis ce matin J'fais du fric Dans ma sacoche j'ai un p'tit machin J'les vois tous mentir Ils vendent que du rêve, ces menteurs J'suis défoncé Depuis c'matin, je bois du planteur On enchaine du cash On vise le million, loupe pas l'coche Il m'a poucave Cet enfoiré, j'ai changé ma puce Elles m'harcèlent, ces tass' J'suis plus stressé gros quand ça passe Valenton-Bèsbar On fait le boulot comme des boss Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu dois tu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Yagayo Yonea Willy Willy Yonea Business La BP, la BP Ouais ouais ouais Guizi Ouzou Wouhou, Junior Bvndo Wouhou, Junior Bvndo Wouhou, Guizi Ouzou Ahahahahah, eh on fait ça mieux qu'vous ! Wallay billay, c'est mieux vous laissez tomber</t>
+          <t>La BP, la BP Junior des favélas J't'envoie tout, tu sors, direct t'es refait On envoie du sale C'est moi qui suis au fond d'la classe Pour faire du liquide, faudra creuser la glace Moi j'suis dans les affaires J'te raconte pas des blagues J'alimente le réseau On tombe jamais en panne J'suis sous teq', j'aime trop quand ça twerke T'est pas là, c'est ta porte qu'on pète Pour l'instant y'a les... qui pistent T'es banni chez les ? Tout doux bang'z Pour l'instant j'suis dans l'binks J'encaisse les chèques J'veux la grosse liasse pour ma chienne Tout le monde est en Zano' La concu' va subir des années Ils en veulent, ils sont maso' Sors la pouki, j'allume un comme Guizmo Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu dois, tu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z J'suis pas dans la mala, j'débarque du Mali Si y'a bagarre, je serai dans la mêlée Guette le Renard en train d'tuer la mélo La paire est noire mais les billets sont yellows L'équipe d'en face, je le sais qu'ils sont jaloux 2018 j'ai beaucoup pris du seille-o Et mon guetteur il se balade en vélo J'suis dans la caisse en train d'fumer du bédo Ouais cabrão, j'suis dans l'binks Il fait un peu froid dans le hall Dans ma tête, c'est la tess, avec un peu d'Dragon Ball J'fume une clope, j'me détends Juste après, j'me roule un cône Tudo bem, tudo bem Tu m'vois planer comme un drone Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu doistu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Moi tout va bien J'suis dans l'tieks depuis ce matin J'fais du fric Dans ma sacoche j'ai un p'tit machin J'les vois tous mentir Ils vendent que du rêve, ces menteurs J'suis défoncé Depuis c'matin, je bois du planteur On enchaine du cash On vise le million, loupe pas l'coche Il m'a poucave Cet enfoiré, j'ai changé ma puce Elles m'harcèlent, ces tass' J'suis plus stressé gros quand ça passe Valenton-Bèsbar On fait le boulot comme des boss Soldats de ZS, soldats de BP On encaisse, on encaisse Si tu dois tu vas payer J'fume un teh J'ai d'la moula qui rend bête J'encaisse des chèques J'encaisse des chiennes qui s'rabaissent Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Tout doux bang'z Tout doux, tout doux bang'z Yagayo Yonea Willy Willy Yonea Business La BP, la BP Ouais ouais ouais Guizi Ouzou Wouhou, Junior Bvndo Wouhou, Junior Bvndo Wouhou, Guizi Ouzou Ahahahahah, eh on fait ça mieux qu'vous ! Wallay billay, c'est mieux vous laissez tomber</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pas d'auréoles au-d'ssus d'la tête, on avance dans le brouillard À moitié sur une autre planète, à moitié dans le trou noir On mène des vies à couper le souffle, ils passent leur vie à couper l'courant Normal qu'on est des oufs, guette le tier-quar, il est mourant Il est mourant d'puis des années entre flingues et zizanie De la cave aux escaliers, de la tonne aux p'tits trafics Des fois, c'est la merde, entre théorie et pratique L'égoïsme plait aux riches, ces vrais comiques me fatiguent Motherfucker, you know what I mean, c'est du shit pas du choco sur le couteau à Lamine Et ton tieks, c'est comment ? C'est pareil que dans le mien La débrouille, la galère, vends une barrette et prend deux joints Stressés comme des rats, ils veulent nous dresser comme des chiens On va tout baiser comme l'État et j'vais tout laisser pour les miens J'pensais voir la lumière, elle s'est éteinte J'fais des doha pour tout ceux qu'j'aimais, ceux qu'j'aimais bien Perché comme le chat, à l'affut du moindre écu J'ai trainé sous le sas, la capuche et la sécu' Le grabuge et la verdure, au milieu des blocs de béton Non, j'suis pas une pute mais j'ai d'jà vu des potes me per-trom Et ça joue les messieurs en mode macho et vieux jeu ? Mais au parlu' beaucoup dre-sus nous ramènent le me-seu On n'a plus grand chose à perdre, on est cru dans nos affaires Ça vole le pain des autres pour mettre un truc dans nos assiettes Mais ils sont cons, ne font que comparer Mais tant qu'on envoi des bombes, mes sons seront carrés J'ai pas fait le tour du monde en long, j'ai constaté Qu'à chaque fois qu'c'est les bons qui plongent, ils font qu's'taper Pour le respect en zonz ou s'tombe sans séparer Mais à la fin du compte, ils r'tombent, ils sont barrés Libérez Jeff et les autres qui tournent trop Une triplette, un mal de bite, ça peut s'embrouiller pour le trône Ganst'zYou might also like5</t>
+          <t>Pas d'auréoles au-d'ssus d'la tête, on avance dans le brouillard À moitié sur une autre planète, à moitié dans le trou noir On mène des vies à couper le souffle, ils passent leur vie à couper l'courant Normal qu'on est des oufs, guette le tier-quar, il est mourant Il est mourant d'puis des années entre flingues et zizanie De la cave aux escaliers, de la tonne aux p'tits trafics Des fois, c'est la merde, entre théorie et pratique L'égoïsme plait aux riches, ces vrais comiques me fatiguent Motherfucker, you know what I mean, c'est du shit pas du choco sur le couteau à Lamine Et ton tieks, c'est comment ? C'est pareil que dans le mien La débrouille, la galère, vends une barrette et prend deux joints Stressés comme des rats, ils veulent nous dresser comme des chiens On va tout baiser comme l'État et j'vais tout laisser pour les miens J'pensais voir la lumière, elle s'est éteinte J'fais des doha pour tout ceux qu'j'aimais, ceux qu'j'aimais bien Perché comme le chat, à l'affut du moindre écu J'ai trainé sous le sas, la capuche et la sécu' Le grabuge et la verdure, au milieu des blocs de béton Non, j'suis pas une pute mais j'ai d'jà vu des potes me per-trom Et ça joue les messieurs en mode macho et vieux jeu ? Mais au parlu' beaucoup dre-sus nous ramènent le me-seu On n'a plus grand chose à perdre, on est cru dans nos affaires Ça vole le pain des autres pour mettre un truc dans nos assiettes Mais ils sont cons, ne font que comparer Mais tant qu'on envoi des bombes, mes sons seront carrés J'ai pas fait le tour du monde en long, j'ai constaté Qu'à chaque fois qu'c'est les bons qui plongent, ils font qu's'taper Pour le respect en zonz ou s'tombe sans séparer Mais à la fin du compte, ils r'tombent, ils sont barrés Libérez Jeff et les autres qui tournent trop Une triplette, un mal de bite, ça peut s'embrouiller pour le trône Ganst'z5</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Du premier au troisième âge La vie c'est, du gamos au carénage Abimé, j'ai traversé les époques On m'oubliera un d'ces jours Père Lachaise ou peu importe, j'passerai y faire un séjour La sagesse une course de fond, la ligne d'arrivée c'est la mort Merde j'peux plus courir après l'bus sans cracher mes poumons A quoi bon, surtout ces banlieusards que j'ai défendu 30 me laisseront une place assise, sisi Arh si, mais j'suis comme un métisse, j'ai pas l'droit d'être raciste J'rechigne de faire des courses trois étages m'assoment J're-chie dans mes couches, j'nage dans l'humiliation J'ai eu raison d'garder cette femme elle fait tout pour que je meurs pas demain Oui vieillir célibataire c'est mourir sans témoin Mes gosses connaissent la haine, l'amour, la vie, j'ai fait mon devoir J'les aime du fond de mon cur abîmé même si ils passent moins me voir Ils ont pas eu leur mot à dire pendant le coït J'leur en veux pas, procréer est égoïste Ma vie va être infirme mais j'vous connais par cur Ma vie a été un film vous êtes d'excellents acteurs J'ai l'avantage d'avoir du vécu donc de savoir Pour éviter les déceptions, la trahison, les chaos , les poches vides Mais j'vais m'éteindre bientôt à quoi sert la connaissance accumulée tu peux pas résister pour dès l'enfance t'en servir J'suis noir jeune mais j'suis crevé ils peuvent rien faire Midas Tout se paye écrase les vers de terre, ils te boufferont plus tard Despo Rut's Bulldo'Zaïre Tout se paye écrase les vers de terre, ils te boufferont plus tard You might also like Vingt et une pige et dans quatre ans j'ai déjà un quart de siècle Là je sais que mon avenir dépend de tous les choix que je ferais Je dois quitter le domicile, voler de mes propres ailes Apprendre à devenir un homme j'm'efforcerais D'être intègre et digne de confiance Fier et oui j'veux qu'on ressente Que depuis tout gamin moi c'est d'un rien que j'me contente rien Les années passent si vite, j'ai fêté mes trente ans Métro boulot dodo ma femme et mes enfants Craquer, zapper, m'barrer, ouais c'est vrai qu'c'est tentant Mais navré j'les aime et j'sais qu'on finira ensemble Ils m'donnent de la force quand il faut se lever pour le taff' J'ai quarante ans j'vis pas si mal Et mes gosses ont tous le bac Les années passent de plus en plus vite Quarante-deuxquarante-quatre quarante-quatrequarante-six J'm'aperçois qu'mes réflexes ralentissent Et dans quelques années j'redeviendrais enfant Mais pour l'instant j'profite j'ai toute ma tête et j'ai cinquante ans ou-ou Guizyouzou Villeneuve la Garenne, les immeubles, la galère, les filles veulent la galète Zone sensible Et dans quelques années, j'redeviendrais enfant Mais pour l'instant j'profite j'ai toute ma tête et j'ai cinquante ans Sorti du ventre de ma mère, j'ai atterris dans un berceau Premier âge roulade quatre pattes recto-verso Premiers pas, premiers mots j'peux parler d'enfance heureuse Connu le sens du partage car issu d'une famille nombreuse Trois quatre cinq ans, c'est la maternelle Innocence, on donne peu d'importance au matériel A huit piges, j'comprends le vice et la triche Déjà le caractère bien trempé, fallait pas m'prendre pour une biche A douze piges, j'parle qu'à base de ta mère et ta gueule J'veux pas de tablette de chocolat, j'préfère celle d'chez Apple J'suis dans le swag, j'prends les stars pour modèle J'suis encore un mineur et j'passe mes nuits à l'hôtel A seize ans j'ai pas encore la valeur de la thune J'vais en cours fonce-dé, comme Armstrong j'suis dans la lune A dix-sept je bombe le torse, je sors les biceps Sur de moi je sais ce que je veux, surtout pas une vie de cleb's Majeur et vacciné j'suis devenu un grand J'peux passer mon permis de conduire, voter, tomber maintenant C'est seulement après le jour de mes vingt et un printemps Que j'pourrais dire hier encore j'avais vingt ans Ouais ouais, toujours dans la bonne direction Mokless, Scred Connexion jamais dans la tendance Et c'est seulement après le jour de mes vingt et un printemps Que j'pourrais dire hier encore j'avais vingt ansParoles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Du premier au troisième âge La vie c'est, du gamos au carénage Abimé, j'ai traversé les époques On m'oubliera un d'ces jours Père Lachaise ou peu importe, j'passerai y faire un séjour La sagesse une course de fond, la ligne d'arrivée c'est la mort Merde j'peux plus courir après l'bus sans cracher mes poumons A quoi bon, surtout ces banlieusards que j'ai défendu 30 me laisseront une place assise, sisi Arh si, mais j'suis comme un métisse, j'ai pas l'droit d'être raciste J'rechigne de faire des courses trois étages m'assoment J're-chie dans mes couches, j'nage dans l'humiliation J'ai eu raison d'garder cette femme elle fait tout pour que je meurs pas demain Oui vieillir célibataire c'est mourir sans témoin Mes gosses connaissent la haine, l'amour, la vie, j'ai fait mon devoir J'les aime du fond de mon cur abîmé même si ils passent moins me voir Ils ont pas eu leur mot à dire pendant le coït J'leur en veux pas, procréer est égoïste Ma vie va être infirme mais j'vous connais par cur Ma vie a été un film vous êtes d'excellents acteurs J'ai l'avantage d'avoir du vécu donc de savoir Pour éviter les déceptions, la trahison, les chaos , les poches vides Mais j'vais m'éteindre bientôt à quoi sert la connaissance accumulée tu peux pas résister pour dès l'enfance t'en servir J'suis noir jeune mais j'suis crevé ils peuvent rien faire Midas Tout se paye écrase les vers de terre, ils te boufferont plus tard Despo Rut's Bulldo'Zaïre Tout se paye écrase les vers de terre, ils te boufferont plus tard Vingt et une pige et dans quatre ans j'ai déjà un quart de siècle Là je sais que mon avenir dépend de tous les choix que je ferais Je dois quitter le domicile, voler de mes propres ailes Apprendre à devenir un homme j'm'efforcerais D'être intègre et digne de confiance Fier et oui j'veux qu'on ressente Que depuis tout gamin moi c'est d'un rien que j'me contente rien Les années passent si vite, j'ai fêté mes trente ans Métro boulot dodo ma femme et mes enfants Craquer, zapper, m'barrer, ouais c'est vrai qu'c'est tentant Mais navré j'les aime et j'sais qu'on finira ensemble Ils m'donnent de la force quand il faut se lever pour le taff' J'ai quarante ans j'vis pas si mal Et mes gosses ont tous le bac Les années passent de plus en plus vite Quarante-deuxquarante-quatre quarante-quatrequarante-six J'm'aperçois qu'mes réflexes ralentissent Et dans quelques années j'redeviendrais enfant Mais pour l'instant j'profite j'ai toute ma tête et j'ai cinquante ans ou-ou Guizyouzou Villeneuve la Garenne, les immeubles, la galère, les filles veulent la galète Zone sensible Et dans quelques années, j'redeviendrais enfant Mais pour l'instant j'profite j'ai toute ma tête et j'ai cinquante ans Sorti du ventre de ma mère, j'ai atterris dans un berceau Premier âge roulade quatre pattes recto-verso Premiers pas, premiers mots j'peux parler d'enfance heureuse Connu le sens du partage car issu d'une famille nombreuse Trois quatre cinq ans, c'est la maternelle Innocence, on donne peu d'importance au matériel A huit piges, j'comprends le vice et la triche Déjà le caractère bien trempé, fallait pas m'prendre pour une biche A douze piges, j'parle qu'à base de ta mère et ta gueule J'veux pas de tablette de chocolat, j'préfère celle d'chez Apple J'suis dans le swag, j'prends les stars pour modèle J'suis encore un mineur et j'passe mes nuits à l'hôtel A seize ans j'ai pas encore la valeur de la thune J'vais en cours fonce-dé, comme Armstrong j'suis dans la lune A dix-sept je bombe le torse, je sors les biceps Sur de moi je sais ce que je veux, surtout pas une vie de cleb's Majeur et vacciné j'suis devenu un grand J'peux passer mon permis de conduire, voter, tomber maintenant C'est seulement après le jour de mes vingt et un printemps Que j'pourrais dire hier encore j'avais vingt ans Ouais ouais, toujours dans la bonne direction Mokless, Scred Connexion jamais dans la tendance Et c'est seulement après le jour de mes vingt et un printemps Que j'pourrais dire hier encore j'avais vingt ansParoles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dans mon lit tard la nuit, j'repense à des ques-tru, mon passé, mon vécu, c'était très compliqué J'ai laissé mes études la pire de mes idées, pour une fois, grâce à toi, on m'a félicité Faut qu'tu le saches, la vie n'est pas facile, beaucoup d'épreuves et c'est c'qui nous façonnent Interdiction d'oublier tes racines, interdiction d'crier sur la daronne Écartes-toi du business, tu perdras ta gentillesse La vie peut laisser des marques si la rue te prend de vitesse Et je parle pas de l'ivresse, elle te mène à la violence L'innocence dans un berceau, une nouvelle vie qui commence Le bonheur n'est qu'une idée et je veux qu'on la partage Et si t'as pas mis ton gilet, je serais ton pare-balles Les potos m'appellent frérot, pour toi, ça s'ra papa Je serais dans ton dos, dans les guerres et dans les batailles La prudence, le respect, fidèle en amitié Le courage, la vaillance Fort comme ton père, sois fort comme ton père Fort comme ton père, sois fort comme ton père Fais attention, les choix sont décisifs On a les crocs, on a les incisives Putain de merde, on a grandi si vite Fais pas comme moi Et des fois, ça s'ra dur mais faudra assumer, la drogue et la police, tu devras les semer J't'imagine plus tard, j'en perds le sommeil, si à quinze ans, tu te mets à fumer Arrêtes-toi vite, c'est un p'tit conseil, que des dingueries quand je suis mal luné Sois économe quand tu feras de l'oseille, apprend à lire, apprend à calculer J'ai pas tout bien fait mais j'ai fait de mon mieux et d'mande à ta mère si un jour, t'es perdu Papa, où t'es ? Papa, où t'es ? Papa, il chante, il défend sa réput' Évite la rue, va pas niquer ta vie, l'école, c'est mieux qu'des nuits en garde à vue Sous les réverbères au milieu de la nuit, j'veux pas qu'tu finisses à traîner dans la rue Surtout pas ça, j'me suis trop battu, Ulysse est mort, il n'avait que treize ans Maëlys aussi nous a été enlevé, pense à ces gens qui ne sont plus présents J'ai perdu du temps parce que j'étais pressé, ne sois pas naïf, il faut rester méfiant Tu seras trahi, tu seras blessé parce que les plus gentils sont des méchants You might also like Tu es beau, tu es coloré, j'ai trop pillave et j'ai trop zoné Mon fils passe en 5ème et le Président, c'est Bolloré Tu es beau, tu es coloré, j'ai trop pillave et j'ai trop zoné Mon fils passe en 5ème et le Président, c'est Bolloré Putain d'merde, ah putain d'merde, putain d'merde Comment ça, c'est Bolloré ? Comment ça, c'est Bolloré ? Mon fils est coloré et j'en suis honoré Faubourg-Saint-Honoré, Madame est honorée Yonea Willy, Willy Yonea, même à l'envers ça marche Willy-Willy Ça va tout droit Sois fort comme ton père</t>
+          <t>Dans mon lit tard la nuit, j'repense à des ques-tru, mon passé, mon vécu, c'était très compliqué J'ai laissé mes études la pire de mes idées, pour une fois, grâce à toi, on m'a félicité Faut qu'tu le saches, la vie n'est pas facile, beaucoup d'épreuves et c'est c'qui nous façonnent Interdiction d'oublier tes racines, interdiction d'crier sur la daronne Écartes-toi du business, tu perdras ta gentillesse La vie peut laisser des marques si la rue te prend de vitesse Et je parle pas de l'ivresse, elle te mène à la violence L'innocence dans un berceau, une nouvelle vie qui commence Le bonheur n'est qu'une idée et je veux qu'on la partage Et si t'as pas mis ton gilet, je serais ton pare-balles Les potos m'appellent frérot, pour toi, ça s'ra papa Je serais dans ton dos, dans les guerres et dans les batailles La prudence, le respect, fidèle en amitié Le courage, la vaillance Fort comme ton père, sois fort comme ton père Fort comme ton père, sois fort comme ton père Fais attention, les choix sont décisifs On a les crocs, on a les incisives Putain de merde, on a grandi si vite Fais pas comme moi Et des fois, ça s'ra dur mais faudra assumer, la drogue et la police, tu devras les semer J't'imagine plus tard, j'en perds le sommeil, si à quinze ans, tu te mets à fumer Arrêtes-toi vite, c'est un p'tit conseil, que des dingueries quand je suis mal luné Sois économe quand tu feras de l'oseille, apprend à lire, apprend à calculer J'ai pas tout bien fait mais j'ai fait de mon mieux et d'mande à ta mère si un jour, t'es perdu Papa, où t'es ? Papa, où t'es ? Papa, il chante, il défend sa réput' Évite la rue, va pas niquer ta vie, l'école, c'est mieux qu'des nuits en garde à vue Sous les réverbères au milieu de la nuit, j'veux pas qu'tu finisses à traîner dans la rue Surtout pas ça, j'me suis trop battu, Ulysse est mort, il n'avait que treize ans Maëlys aussi nous a été enlevé, pense à ces gens qui ne sont plus présents J'ai perdu du temps parce que j'étais pressé, ne sois pas naïf, il faut rester méfiant Tu seras trahi, tu seras blessé parce que les plus gentils sont des méchants Tu es beau, tu es coloré, j'ai trop pillave et j'ai trop zoné Mon fils passe en 5ème et le Président, c'est Bolloré Tu es beau, tu es coloré, j'ai trop pillave et j'ai trop zoné Mon fils passe en 5ème et le Président, c'est Bolloré Putain d'merde, ah putain d'merde, putain d'merde Comment ça, c'est Bolloré ? Comment ça, c'est Bolloré ? Mon fils est coloré et j'en suis honoré Faubourg-Saint-Honoré, Madame est honorée Yonea Willy, Willy Yonea, même à l'envers ça marche Willy-Willy Ça va tout droit Sois fort comme ton père</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Pas d'auréole au-dessus de la tête, on avance dans le brouillard À moitié sur une autre planète, à moitié dans le trou noir On mène des vies à couper l'souffle, ils passent leur vie à couper l'courant Normal qu'on est des oufs, guette le tier-quar il est mourant Il est mourant depuis des années, entre flingues et zizanie De la cave aux escaliers, de la tonne aux petits trafics Des fois c'est la merde entre théorie et pratique Et l'égoïsme plait aux riches, ces vrais comiques me fatiguent Motherfucker, you know what I mean C'est du shit et pas du choco sur le couteau à Lamine Et ton tiek, c'est comment ? C'est pareil que dans le mien ? La débrouille, la galère, vends une barrette et prends deux joints Stressés comme des rats ils veulent nous dresser comme des chiens On va tous baiser comme lÉtat et j'vais tous laisser pour les miens J'pensais voir la lumière et elle s'est éteinte J'fais des dou'as pour tous ceux que j'aime et ceux que j'aimais bien Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête You might also like Perché comme le chat à la vue du moindre écu J'ai traîné sous le sas, la capuche et la sécu Le grabuge et la verdure au milieu des blocs de béton Non j'suis pas une pute mais j'ai déjà vu des potes me per-trom Et ça joue les messieurs en mode macho et vieux jeu Mais au parlu, beaucoup d'resseu nous ramènent le meusseu On a plus grand chose à perdre, on est crus dans nos affaires Ça vole le pain des autres pour mettre un truc dans nos assiettes Et mec les gens sont cons, ne font que comparer Mais tant que l'on voit des comptes mes sons seront carrés J'ai pas fait le tour du monde en long j'ai constaté Qu'à chaque fois que c'est les bons qui plongent, ils font que s'taper Pour le respect en zonz' on s'tombe sans séparer Mais à la fin du compte ils remontent ils sont tarés Putain libérez Jeff et les autres qui tournent trop Une triplette, un mal de bite ça peut s'embrouiller pour le trône Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête3</t>
+          <t>Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Pas d'auréole au-dessus de la tête, on avance dans le brouillard À moitié sur une autre planète, à moitié dans le trou noir On mène des vies à couper l'souffle, ils passent leur vie à couper l'courant Normal qu'on est des oufs, guette le tier-quar il est mourant Il est mourant depuis des années, entre flingues et zizanie De la cave aux escaliers, de la tonne aux petits trafics Des fois c'est la merde entre théorie et pratique Et l'égoïsme plait aux riches, ces vrais comiques me fatiguent Motherfucker, you know what I mean C'est du shit et pas du choco sur le couteau à Lamine Et ton tiek, c'est comment ? C'est pareil que dans le mien ? La débrouille, la galère, vends une barrette et prends deux joints Stressés comme des rats ils veulent nous dresser comme des chiens On va tous baiser comme lÉtat et j'vais tous laisser pour les miens J'pensais voir la lumière et elle s'est éteinte J'fais des dou'as pour tous ceux que j'aime et ceux que j'aimais bien Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Perché comme le chat à la vue du moindre écu J'ai traîné sous le sas, la capuche et la sécu Le grabuge et la verdure au milieu des blocs de béton Non j'suis pas une pute mais j'ai déjà vu des potes me per-trom Et ça joue les messieurs en mode macho et vieux jeu Mais au parlu, beaucoup d'resseu nous ramènent le meusseu On a plus grand chose à perdre, on est crus dans nos affaires Ça vole le pain des autres pour mettre un truc dans nos assiettes Et mec les gens sont cons, ne font que comparer Mais tant que l'on voit des comptes mes sons seront carrés J'ai pas fait le tour du monde en long j'ai constaté Qu'à chaque fois que c'est les bons qui plongent, ils font que s'taper Pour le respect en zonz' on s'tombe sans séparer Mais à la fin du compte ils remontent ils sont tarés Putain libérez Jeff et les autres qui tournent trop Une triplette, un mal de bite ça peut s'embrouiller pour le trône Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête Plus bas que terre Marre du macadam on veut la vue d'la mer Et chaque fois que les stups m'apaisent J'en oublie que j'ai des anges au-dessus de la tête3</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Hey yo j'ai 1000 et 1 histoires j'ai dealé plus de 1000 fois Sur un album entier j'ai kické une vie de caille Petit je t'emmène dans ma ville Bicrave et chômage les ti-pe s'engrènent dans la street S'enferme dans la tise et la cleptomanie Veulent fréquenter les restos de Paris Équipés d'un très gros calibre Hé ho mamie J'te conseil de prendre le taxi Ne traine pas ici, mes frèros ne pensent qu'au casse-pipe Et c'est pas des balivernes J'assume mes pulsions animales car j'oublie pas que l'homme n'est qu'un mammifère J'ai du mal à faire du bien même quand je fais l'amour J'te fais la coure pour une fellation mais tu veux des papouilles Chérie j'ai pas le temps C'est ce que mon p'tit reuf te diras toi t'aime sortir donc il feinte il est absent Il saura, mais t'inquiètes pas il fera balek Il évitera les as les dék pour que sa re-me soit pépére Il a une bière et un joint au bec Des millions de rêves dans la tête Mais de toute l'équipe c'est le moins honnête Il se rappelle de l'époque des vieilles pompes et des vestes claquées Maintenant c'est Armani, Boss, Levis' Versace You might also like Tu fais quoi? T'es en 3ème? et t'es jamais en cours Et quand t'y vas c'est pour bédave dans les toilettes Trop de zeb là J't'aime même cramé bicrave des doses de selaa Faut qu'tu restes là Maman s'inquiète petit frère Des fois je t'embrouille et j'te frappe mais tu sais que je dis vrai Et on a pas si mal grandit C'est juste qu'été comme hiver on est de ceux qu'on vu la capitale sans vie Des schtars qui braquent en ville Des grands frères au placard Petit frère se fait fouiller est à Nanterre au parloir On a vécu la même chose Les angoisses à l'arrivée du bulletin on sera pas privé du butin J'vais assurer, maman sera fiér de nous tous J'vais vendre des CD, forcer les barrières du bluetooth Y'avait les filles mal attentionnés la prison et la drogue Aujourd'hui j'fais du rap l'addiction est ma force Et j'ai de la chance petit J'ai faillit crever à cause de l'addiction sans accomplir ma mission Diggitychek, siggydisisi Oseille va chercher Figgydifreesbee Mais sache une chose Une fois les poches pleines tu feras un faux pas Comme quand t'es bourré et qu'tu dragues un vlo-tra Et j'sais de quoi j'parle J'connais ce délire en long et en large Maintenant j'suis en concert rage Et j'fais que m'enfoncer quand j'gratte J'suis vulgaire à chaque fois Comme mon père car j'l'ai vu faire à chaque fois Boubakar Diakité je t'aime à jamais Même si tu tu faisais rare comme un coupable acquitté Des fois j'regarde derrière j'me dis qu'il faut faire vite J'suis devenu dépressif à moitié schizophrénique Le cul entre un joint et une canette de bière J'arrive dans la place les gens se disent il est pas net ce mec En effet j'garde les stigmates de mon passé Des nuits blanches à écrire maintenant efficace est mon phrasé Laisse les baver j'crois qu'ils ont trop pris d'la cess Merci à Yonnea et Willy car ils m'ont sorti de la merde 2</t>
+          <t>Hey yo j'ai 1000 et 1 histoires j'ai dealé plus de 1000 fois Sur un album entier j'ai kické une vie de caille Petit je t'emmène dans ma ville Bicrave et chômage les ti-pe s'engrènent dans la street S'enferme dans la tise et la cleptomanie Veulent fréquenter les restos de Paris Équipés d'un très gros calibre Hé ho mamie J'te conseil de prendre le taxi Ne traine pas ici, mes frèros ne pensent qu'au casse-pipe Et c'est pas des balivernes J'assume mes pulsions animales car j'oublie pas que l'homme n'est qu'un mammifère J'ai du mal à faire du bien même quand je fais l'amour J'te fais la coure pour une fellation mais tu veux des papouilles Chérie j'ai pas le temps C'est ce que mon p'tit reuf te diras toi t'aime sortir donc il feinte il est absent Il saura, mais t'inquiètes pas il fera balek Il évitera les as les dék pour que sa re-me soit pépére Il a une bière et un joint au bec Des millions de rêves dans la tête Mais de toute l'équipe c'est le moins honnête Il se rappelle de l'époque des vieilles pompes et des vestes claquées Maintenant c'est Armani, Boss, Levis' Versace Tu fais quoi? T'es en 3ème? et t'es jamais en cours Et quand t'y vas c'est pour bédave dans les toilettes Trop de zeb là J't'aime même cramé bicrave des doses de selaa Faut qu'tu restes là Maman s'inquiète petit frère Des fois je t'embrouille et j'te frappe mais tu sais que je dis vrai Et on a pas si mal grandit C'est juste qu'été comme hiver on est de ceux qu'on vu la capitale sans vie Des schtars qui braquent en ville Des grands frères au placard Petit frère se fait fouiller est à Nanterre au parloir On a vécu la même chose Les angoisses à l'arrivée du bulletin on sera pas privé du butin J'vais assurer, maman sera fiér de nous tous J'vais vendre des CD, forcer les barrières du bluetooth Y'avait les filles mal attentionnés la prison et la drogue Aujourd'hui j'fais du rap l'addiction est ma force Et j'ai de la chance petit J'ai faillit crever à cause de l'addiction sans accomplir ma mission Diggitychek, siggydisisi Oseille va chercher Figgydifreesbee Mais sache une chose Une fois les poches pleines tu feras un faux pas Comme quand t'es bourré et qu'tu dragues un vlo-tra Et j'sais de quoi j'parle J'connais ce délire en long et en large Maintenant j'suis en concert rage Et j'fais que m'enfoncer quand j'gratte J'suis vulgaire à chaque fois Comme mon père car j'l'ai vu faire à chaque fois Boubakar Diakité je t'aime à jamais Même si tu tu faisais rare comme un coupable acquitté Des fois j'regarde derrière j'me dis qu'il faut faire vite J'suis devenu dépressif à moitié schizophrénique Le cul entre un joint et une canette de bière J'arrive dans la place les gens se disent il est pas net ce mec En effet j'garde les stigmates de mon passé Des nuits blanches à écrire maintenant efficace est mon phrasé Laisse les baver j'crois qu'ils ont trop pris d'la cess Merci à Yonnea et Willy car ils m'ont sorti de la merde 2</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Woo Woo ! J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale À court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'fais un tour sur moi-même, j'saute sur la pointe des pieds C'est chaud si tu viens m'défier On vit dans un thriller, normal qu'on est bad, que des bastons en balle dans des bars Woo Woo ! retiens le cri d'guerre En moonwalk j'reviens du cimetière Au quotidien, c'est le bruit, l'odeur, un film d'horreur et un flow qui vient Un oinj, une bière, un béret tu sais qui c'est Le MC métissé qui vous fait kiffer C'est trop facile, rapper dur avec un flow rapide Au tapis, on finit ceux qu'ont essayé de teste Guizmo Légendaire a effrayé le Game J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale You might also like Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit Yo, j'aime la nuit Ça va être morbide ChebMami Woo Woo ! J'aime la nuit Ça va être morbide ChebMami Yo, du pre-pro, y en a pas ici Pour une se-do, ils se scarifient C'est sale et c'est cru, je parle de rue pas de ces putes qui se bavent dessus AAAAAAAAHHHH ! Faut qu'j'me calme mais autour de moi y a trop de barges Faut qu'j'me calme mais autour de moi y a trop de barges Et ils sont méga fous, Skyrock FM GuizmoSelahSue T'as vu ? J'reviens de loin Sans jamais baisser mon froc, retiens-le bien Yonea Willy, au cro-mi j'ai le feeling, les tho-my j'élimine Ils marchent pas dans l'ghetto, ils brassent pas dans l'bédo C'est des mythos de pointeurs, huh huh Ils s'ficha au journal de 20 heures, huh C'est Guizmo le vainqueur Le schizo', l'extincteur Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit Cest la merde, mon gars, restons calmes Question dtime, bientôt jbrasse comme un chef comptable Guette mon style, cool dans la vie, smooth dans la zik Et quand jrappe bah cest tout ltemps magique Couz', dans ma team y a des niakseurs de shit Quont des valeurs de kings et quont pas peur de vivre La mort peut arriver dici peu Habitués au pire, on est tous dissipés Willy le barge, Yonea le stress Au cro-mi je clashe, les tho-my je baise Willy le barge, Yonea le stress Au cro-mi je clashe, les tho-my je baise Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit1</t>
+          <t>Woo Woo ! J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale À court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'fais un tour sur moi-même, j'saute sur la pointe des pieds C'est chaud si tu viens m'défier On vit dans un thriller, normal qu'on est bad, que des bastons en balle dans des bars Woo Woo ! retiens le cri d'guerre En moonwalk j'reviens du cimetière Au quotidien, c'est le bruit, l'odeur, un film d'horreur et un flow qui vient Un oinj, une bière, un béret tu sais qui c'est Le MC métissé qui vous fait kiffer C'est trop facile, rapper dur avec un flow rapide Au tapis, on finit ceux qu'ont essayé de teste Guizmo Légendaire a effrayé le Game J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit Yo, j'aime la nuit Ça va être morbide ChebMami Woo Woo ! J'aime la nuit Ça va être morbide ChebMami Yo, du pre-pro, y en a pas ici Pour une se-do, ils se scarifient C'est sale et c'est cru, je parle de rue pas de ces putes qui se bavent dessus AAAAAAAAHHHH ! Faut qu'j'me calme mais autour de moi y a trop de barges Faut qu'j'me calme mais autour de moi y a trop de barges Et ils sont méga fous, Skyrock FM GuizmoSelahSue T'as vu ? J'reviens de loin Sans jamais baisser mon froc, retiens-le bien Yonea Willy, au cro-mi j'ai le feeling, les tho-my j'élimine Ils marchent pas dans l'ghetto, ils brassent pas dans l'bédo C'est des mythos de pointeurs, huh huh Ils s'ficha au journal de 20 heures, huh C'est Guizmo le vainqueur Le schizo', l'extincteur Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit Cest la merde, mon gars, restons calmes Question dtime, bientôt jbrasse comme un chef comptable Guette mon style, cool dans la vie, smooth dans la zik Et quand jrappe bah cest tout ltemps magique Couz', dans ma team y a des niakseurs de shit Quont des valeurs de kings et quont pas peur de vivre La mort peut arriver dici peu Habitués au pire, on est tous dissipés Willy le barge, Yonea le stress Au cro-mi je clashe, les tho-my je baise Willy le barge, Yonea le stress Au cro-mi je clashe, les tho-my je baise Yo, j'aime la nuit Ça va être morbide ChebMami J'suis à court, gros J'dois faire mon cash en moonwalk sur ta pierre tombale Yo, j'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit J'aime la nuit1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Chaque fois qu'une porte s'ouvre Qu'une porte s'ouvre Chaque fois Chaque fois qu'une porte s'ouvre, j'me rends compte que je souffre Rien dans le portefeuille et mes espoirs à contre-jour Il faut que ça change tout de suite, pendre des flics S'en fout des risques, l'essentiel c'est d'prendre tout le fric A quoi bon, tu bé-tom et tu ressors en chien Prêts à faire des trucs de cons pour le support des anciens Que c'est bon d'être libre, arrivé en calèche Tu rêves d'une liberté dont les condés te privent Que c'est bon d'être ivre, mais après quelques bières Je n'ai d'amour que pour le son et le crime, ouais Tous mes potes se gourent, trop de de-mer Chaque fois qu'une porte s'ouvre, une autre se ferme Souvent mal entouré, mais j'suis salement doué J'reste fort mais vos bêtises m'ont gravement touché J'suis la salope de personne, j'ai pas peur des bastons Si mes phalanges te questionnent, interroges ton bastion A chaque fois j'ai peur de flancher A chaque fois j'effleure le danger Une porte qui s'ouvre, une autre qui se ferme Des potos qui partent, et des potos qui reviennent You might also like J'ai détalé quand les schmitts m'ont dit Diakité arrête toi ! J'ai palpité mais pas d'pitié car Maggie est avec moi Ca galère en équipe, ouais, Kalash, Mal et Elie On garde la calèche dans l'esprit Toujours calé quand j'écris, bagarre, bicrave Tasse-pé, Face B, la rage est dans mes tripes J'm'arrache, et prends les biffs, salopard T'es pas un refré si t'as bavé devant les flics Villeneuve la Garenne, Valenton Les Polognes Le bâtiment 9, les trafiquants de teush Eh poto, j'vais clamser, c'est comme ça C'est Lams qui Glock ceux qui veulent que nous taxer de force J'écorche les sales traîtres, c'est des putains de merdes Pour pas les buter il faudrait qu'j'me bute un teh Qu'j'me mette dans le mouv', en restant cool Tellement d'groove Bande d'enfoirés, mon putain de buzz je l'ai fait sans vous Chaque fois je me dis que c'est la dernière Mais j'peux pas, c'est ve-gra, j'dois tiser ma Heineken Cette addiction me rends fou, c'est ma partie sombre A la Ardisson, j'exhibe ma vision devant vous, bah ouais J'suis décalqué, déphasé j'ai la gueule de l'emploi J'ai cramé le R.A.P., maqué devant le Bois La porte qui se ferme, j'croyais que j'avais touché le fond Depuis qu'elle s'est ouverte, j'suis tourmenté toutes les secondes J'ai l'impression de crever, à force de fumette Devient suspect comme une fond de rre-ve Les yeux rouges vif, négro on tue le proc' Pour mes frères qui rêvent de soutifs et ceux qui suffoquent Ils ont des problemes de fric, dealent pour arrondir les fins d'mois Dépannent les sins-voi, même les poches pleines de vides Mais je reste digne, qui peut en dire autant ? Laissez place au charbon, écartez les tire-au-flanc 1</t>
+          <t>Chaque fois qu'une porte s'ouvre Qu'une porte s'ouvre Chaque fois Chaque fois qu'une porte s'ouvre, j'me rends compte que je souffre Rien dans le portefeuille et mes espoirs à contre-jour Il faut que ça change tout de suite, pendre des flics S'en fout des risques, l'essentiel c'est d'prendre tout le fric A quoi bon, tu bé-tom et tu ressors en chien Prêts à faire des trucs de cons pour le support des anciens Que c'est bon d'être libre, arrivé en calèche Tu rêves d'une liberté dont les condés te privent Que c'est bon d'être ivre, mais après quelques bières Je n'ai d'amour que pour le son et le crime, ouais Tous mes potes se gourent, trop de de-mer Chaque fois qu'une porte s'ouvre, une autre se ferme Souvent mal entouré, mais j'suis salement doué J'reste fort mais vos bêtises m'ont gravement touché J'suis la salope de personne, j'ai pas peur des bastons Si mes phalanges te questionnent, interroges ton bastion A chaque fois j'ai peur de flancher A chaque fois j'effleure le danger Une porte qui s'ouvre, une autre qui se ferme Des potos qui partent, et des potos qui reviennent J'ai détalé quand les schmitts m'ont dit Diakité arrête toi ! J'ai palpité mais pas d'pitié car Maggie est avec moi Ca galère en équipe, ouais, Kalash, Mal et Elie On garde la calèche dans l'esprit Toujours calé quand j'écris, bagarre, bicrave Tasse-pé, Face B, la rage est dans mes tripes J'm'arrache, et prends les biffs, salopard T'es pas un refré si t'as bavé devant les flics Villeneuve la Garenne, Valenton Les Polognes Le bâtiment 9, les trafiquants de teush Eh poto, j'vais clamser, c'est comme ça C'est Lams qui Glock ceux qui veulent que nous taxer de force J'écorche les sales traîtres, c'est des putains de merdes Pour pas les buter il faudrait qu'j'me bute un teh Qu'j'me mette dans le mouv', en restant cool Tellement d'groove Bande d'enfoirés, mon putain de buzz je l'ai fait sans vous Chaque fois je me dis que c'est la dernière Mais j'peux pas, c'est ve-gra, j'dois tiser ma Heineken Cette addiction me rends fou, c'est ma partie sombre A la Ardisson, j'exhibe ma vision devant vous, bah ouais J'suis décalqué, déphasé j'ai la gueule de l'emploi J'ai cramé le R.A.P., maqué devant le Bois La porte qui se ferme, j'croyais que j'avais touché le fond Depuis qu'elle s'est ouverte, j'suis tourmenté toutes les secondes J'ai l'impression de crever, à force de fumette Devient suspect comme une fond de rre-ve Les yeux rouges vif, négro on tue le proc' Pour mes frères qui rêvent de soutifs et ceux qui suffoquent Ils ont des problemes de fric, dealent pour arrondir les fins d'mois Dépannent les sins-voi, même les poches pleines de vides Mais je reste digne, qui peut en dire autant ? Laissez place au charbon, écartez les tire-au-flanc 1</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tout s'efface autour de moi, lorsque la ville s'endort J'pense à mes frères et à nos vies d'merde À petit feu, elles nous tuent, donc forcément, j'pense à nos surs qui pleurent au cimetière Café, seum et spliff d'herbe Dans ma cogite, j'me dis qu'il y a que l'ballon d'basket qui passe entre les filets Regarde nos vies, nos villes, nos cités-dortoirs Jamais dociles, on plie pas et s'plaint qu'au bloc opératoire Parce qu'on s'habitue à tout au manque d'amour, au manque de sous À cette France qui nous épuise et qui a d'quoi nous rendre fous, ouais Le rap, la merde, les vils-ci Au fond du trou, Guizi Ouzou c'est Kirikou après un pack de bière et dix spliffs Arrête de faire tes chichis enlève ta culotte, donne ta chatte T'es tombé sur un chien d'la casse, j'suis passé en mode zizi J'suis passé en mode pas l'temps, j'dois faire mes trucs vite et bien Tu bois trop, tu tiens pas la route c'est c'que m'a dit l'médecin Nan j'crois pas qu'tu m'a capté, même sans un sou à palper C'était hier, dans ma demer, y a qu'mes croûtes que j'ai gratté Y a qu'mon flouse que j'ai claqué, quand j'en avais un chouia Un pote qui s'tapait pas pour l'équipe bah c'était un trouillard Ouais j'ai ma bande de barges Tu cherches la merde à Barbès, à Villeneuve, à Valenton, cousin, tu tentes le Diable Chez moi ça sent le mal, défoncés on mange que dalle Et on rentre tard, tu viens l'matin et bah on s'venge le soir La vie s'marre, elle est moqueuse Devant l'tic-tac de la trotteuse J'me dis qu'personne survit au coup d'schlass de la Faucheuse You might also likeV.L.G, 92.390 Villeneuve-la-Garenne Les immeubles, la galère Les filles veuves, la galette LDC, 9.4 Et même, si j'mets un tas d'harissa dans mes casse-dalles Huh, j'suis plus çais-fran que Pascal Toi t'as qué-cra, tu m'as pris pour un reur-ti Parce que j'viens d'un quartier de queurs-bra et de lers-dea T'as cru que t'allais m'acheter Ceux qu'ont tenté de me michto finissent leurs jours en H.P T'es d'loin c'qu'on fait de mieux dans la lâcheté Va pas mentir aux gens en disant que c'est toi qui m'a jeté Salope Y a que des frimeurs Pour être dans l'ATP du rap, pas besoin d'faire de racket sur mineur Du côté des opprimés comme Robin des bois J'rappe pour les autres mais j'ai du mal à assumer mes déboires J'blague aps, le monde, il part en yeucous Ça peut venir d'un pote, nul n'est à l'abri d'un vieux coup Wallah L'humain vit dans légoïsme Hélas, coup de pute rime trop souvent avec automatisme Tu sais, nos daronnes charbonnent, sur ma vie, t'hallucines 11 mois les mains dans l'eau d'javel, 3 semaines au bord de la piscine Aujourd'hui, tout est cher et ça tu peux pas l'nier Pour amortir ma taxe d'habitation, j'suis devenu casanier J'me console seul tout Li fet met, c'est l'mektoub Mais en scred, je suis dead, mec Je n'suis pas un mytho, je joue pas de la flûte Quand t'écris avec un stylo, moi j'écris à la plume Ouais ouais, Mokless Paris, Barbès Scred Connex' Jamais dans la tendance mais toujours dans la bonne direction J'suis l'seul à pouvoir offrir une plaque à Sarko', blacko's J'aime pas avoir d'chauffeur noir il donne la priorité à gauche J'ai trop d'égo donc pas d'égal J'ai trop déconné, moi, les gars J'suis malade dans ma life et j'ai pas d'remède Une Zaïroise aux cheveux verts veut m'transformer en canard enchaîné je l'appelle Andromède Beaucoup d'bruit pour rien, tout pour l'PIB J'oublie l'passé colonial lusitanien devant le salaire de Pepe J'suis pauvre, c'est irréfléchi d'vouloir un bébé Tout pour le PIB, tout pour Pépé L'alcool tue plus que le crack en France mais y a trop de vignerons, de gens lourds pour qu'il soit prohibé On écoute plus nos parents, à notre age les p'tits les auraient traité d'merde parce que pas d'véhicule On écoute plus nos parents, c'est vrai qu'on a vécu trop d'choses qu'ils n'ont pas vécu J'ai dû lacher les cours, ouais frelot J'ai négligé bulletins et calculs J'regrette juste ma conseillère, Mme Labrousse avec son caleçon mi-teinte kaki Elle avait un peu d'Afrique en elle comme son nom l'indique putain, quel cul ! J'te pardonnerai tes rêves érotiques avec un autre si dans la réalité, c'est mal que j'te traite Dans son sommeil, une épouse frotti-frotte avec un grec à crête et un nègre à dreads Devant c'qu'il y a dans ton bed, elle est prète la nuit, on se mécr' quand un mec traiterait intègre et un traître Oki doki, j't'encule doggy, j'sens qut'es tranquille Ton mec cocu taffe dans la sécu', il va t'entendre dans son talkie-walkie J'suis un révolutionnaire qu'a envie d'remplir des salles Un père qui n'aime pas l'argent est irresponsable Ouais je veux ceci, ça, ça Despo Roots, Genius de Saza 9.3, 9.3 Lève-toi, lève-toi 9.3, 9.3 Lève-toi, lève-toi Tout s'efface autour de moi, lorsque la ville s'endort</t>
+          <t>Tout s'efface autour de moi, lorsque la ville s'endort J'pense à mes frères et à nos vies d'merde À petit feu, elles nous tuent, donc forcément, j'pense à nos surs qui pleurent au cimetière Café, seum et spliff d'herbe Dans ma cogite, j'me dis qu'il y a que l'ballon d'basket qui passe entre les filets Regarde nos vies, nos villes, nos cités-dortoirs Jamais dociles, on plie pas et s'plaint qu'au bloc opératoire Parce qu'on s'habitue à tout au manque d'amour, au manque de sous À cette France qui nous épuise et qui a d'quoi nous rendre fous, ouais Le rap, la merde, les vils-ci Au fond du trou, Guizi Ouzou c'est Kirikou après un pack de bière et dix spliffs Arrête de faire tes chichis enlève ta culotte, donne ta chatte T'es tombé sur un chien d'la casse, j'suis passé en mode zizi J'suis passé en mode pas l'temps, j'dois faire mes trucs vite et bien Tu bois trop, tu tiens pas la route c'est c'que m'a dit l'médecin Nan j'crois pas qu'tu m'a capté, même sans un sou à palper C'était hier, dans ma demer, y a qu'mes croûtes que j'ai gratté Y a qu'mon flouse que j'ai claqué, quand j'en avais un chouia Un pote qui s'tapait pas pour l'équipe bah c'était un trouillard Ouais j'ai ma bande de barges Tu cherches la merde à Barbès, à Villeneuve, à Valenton, cousin, tu tentes le Diable Chez moi ça sent le mal, défoncés on mange que dalle Et on rentre tard, tu viens l'matin et bah on s'venge le soir La vie s'marre, elle est moqueuse Devant l'tic-tac de la trotteuse J'me dis qu'personne survit au coup d'schlass de la Faucheuse V.L.G, 92.390 Villeneuve-la-Garenne Les immeubles, la galère Les filles veuves, la galette LDC, 9.4 Et même, si j'mets un tas d'harissa dans mes casse-dalles Huh, j'suis plus çais-fran que Pascal Toi t'as qué-cra, tu m'as pris pour un reur-ti Parce que j'viens d'un quartier de queurs-bra et de lers-dea T'as cru que t'allais m'acheter Ceux qu'ont tenté de me michto finissent leurs jours en H.P T'es d'loin c'qu'on fait de mieux dans la lâcheté Va pas mentir aux gens en disant que c'est toi qui m'a jeté Salope Y a que des frimeurs Pour être dans l'ATP du rap, pas besoin d'faire de racket sur mineur Du côté des opprimés comme Robin des bois J'rappe pour les autres mais j'ai du mal à assumer mes déboires J'blague aps, le monde, il part en yeucous Ça peut venir d'un pote, nul n'est à l'abri d'un vieux coup Wallah L'humain vit dans légoïsme Hélas, coup de pute rime trop souvent avec automatisme Tu sais, nos daronnes charbonnent, sur ma vie, t'hallucines 11 mois les mains dans l'eau d'javel, 3 semaines au bord de la piscine Aujourd'hui, tout est cher et ça tu peux pas l'nier Pour amortir ma taxe d'habitation, j'suis devenu casanier J'me console seul tout Li fet met, c'est l'mektoub Mais en scred, je suis dead, mec Je n'suis pas un mytho, je joue pas de la flûte Quand t'écris avec un stylo, moi j'écris à la plume Ouais ouais, Mokless Paris, Barbès Scred Connex' Jamais dans la tendance mais toujours dans la bonne direction J'suis l'seul à pouvoir offrir une plaque à Sarko', blacko's J'aime pas avoir d'chauffeur noir il donne la priorité à gauche J'ai trop d'égo donc pas d'égal J'ai trop déconné, moi, les gars J'suis malade dans ma life et j'ai pas d'remède Une Zaïroise aux cheveux verts veut m'transformer en canard enchaîné je l'appelle Andromède Beaucoup d'bruit pour rien, tout pour l'PIB J'oublie l'passé colonial lusitanien devant le salaire de Pepe J'suis pauvre, c'est irréfléchi d'vouloir un bébé Tout pour le PIB, tout pour Pépé L'alcool tue plus que le crack en France mais y a trop de vignerons, de gens lourds pour qu'il soit prohibé On écoute plus nos parents, à notre age les p'tits les auraient traité d'merde parce que pas d'véhicule On écoute plus nos parents, c'est vrai qu'on a vécu trop d'choses qu'ils n'ont pas vécu J'ai dû lacher les cours, ouais frelot J'ai négligé bulletins et calculs J'regrette juste ma conseillère, Mme Labrousse avec son caleçon mi-teinte kaki Elle avait un peu d'Afrique en elle comme son nom l'indique putain, quel cul ! J'te pardonnerai tes rêves érotiques avec un autre si dans la réalité, c'est mal que j'te traite Dans son sommeil, une épouse frotti-frotte avec un grec à crête et un nègre à dreads Devant c'qu'il y a dans ton bed, elle est prète la nuit, on se mécr' quand un mec traiterait intègre et un traître Oki doki, j't'encule doggy, j'sens qut'es tranquille Ton mec cocu taffe dans la sécu', il va t'entendre dans son talkie-walkie J'suis un révolutionnaire qu'a envie d'remplir des salles Un père qui n'aime pas l'argent est irresponsable Ouais je veux ceci, ça, ça Despo Roots, Genius de Saza 9.3, 9.3 Lève-toi, lève-toi 9.3, 9.3 Lève-toi, lève-toi Tout s'efface autour de moi, lorsque la ville s'endort</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ho HO Jiguidi check, jiguidi Guizmo C'est comme ça qu'on fait les choses bébé Moi j'représente, pour tous les ghettos de Ce-fran Qui s'nourrissent du business et qui sont peu francs On a la dalle alors on a la cailler'attitude Si on bédave et on tise c'est par habitude On fait nos études dans le BAC Bitume Et avec de lherbe, fraîche, on prend de l'altitude ouais On a des tas d'hommes et pas d'état dâme Pour calmer ta dalle tu dois cramer ta pomme non Ils savent pas ce qui se passe dans nos halls crade On caresse les keufs en attendant que l'état crame On vit ça tous les jours, ta vie c'est une parodie J'dis pas de la merde donc j'nique ton rappeur favoris 92, Caravelle, économie parallèle Test pas c'est pas la même ou pas la peine Remballe ta disquette on est là depuis Hill G On défonce ta petite schnek tu vas mangé la mixtape salope x2 Ça y est c'est l'arrivée de l'antidote, l'anti-propre, l'anti-flop Jette ça va dans l'anti-pop Qu'est-ce que tu vas faire tas-pé Guizmo légendaire baise les Faces B You might also like Y'a des blèmes que j'peux pas résoudre J'me remets constamment en question même si tu penses que je parait cool Et ça les saoule de voir que je remonte la pente Rap, rue et business c'est le soir que le monde m'attend Clame pas le nom de ma bande Ça fait des trucs pas très net Pour vesqui les Assedic on perd des hassanettes Ah les mecs J'suis venu innondé le biz' J'ai pas de filon mais avec un peu de pilon j'ai le style J'ai des problèmes j'en ai par dessus la tête Faut pas que tu te la pètes ou parle sur ma mère Mamen, ma fraiche, ma zik et les potes Le shit nous téléporte on veut tous niquer les porcs J'ai les phases qu'il te faut Ma clique de fauve, applique le flow Pendant que tes gars trafique le show Et en vrai à table j'suis avec mi familia Moi j'ai pas le bac, et sors d'une mille-fa tricar Troisième balle, j'dis ça parce que beaucoup parle de flingue Et tirent dans l'vent, et leur style sont déglingués P'tite pétasse, j'fais qu'péra, mec c'est grave, j'excelle dar T'es mé-cra, j'fais qu'péra, jette mes cartes, sais que c'est hard Dangereux lexique, viens là que j't'excise Dangereux comme je m'exprime Violent comme j't'excite C'est les grosses têtes fils Abonnés au ness-bi On fait des vrais guizgui on s'enfuit au Mexique Pourquoi j'ai besoin de me mettre mal pour vous mettre bien La rabta je vais y mettre fin sans médecin J'sais que taper, j'aime taper les dales-pé, extra-frais Test pas c'est gâté, j'vais te baffer si t'es claqué J'nique tout avec Izi XXX my man J'reste moi-même A chaque mesure crie Amen</t>
+          <t>Ho HO Jiguidi check, jiguidi Guizmo C'est comme ça qu'on fait les choses bébé Moi j'représente, pour tous les ghettos de Ce-fran Qui s'nourrissent du business et qui sont peu francs On a la dalle alors on a la cailler'attitude Si on bédave et on tise c'est par habitude On fait nos études dans le BAC Bitume Et avec de lherbe, fraîche, on prend de l'altitude ouais On a des tas d'hommes et pas d'état dâme Pour calmer ta dalle tu dois cramer ta pomme non Ils savent pas ce qui se passe dans nos halls crade On caresse les keufs en attendant que l'état crame On vit ça tous les jours, ta vie c'est une parodie J'dis pas de la merde donc j'nique ton rappeur favoris 92, Caravelle, économie parallèle Test pas c'est pas la même ou pas la peine Remballe ta disquette on est là depuis Hill G On défonce ta petite schnek tu vas mangé la mixtape salope x2 Ça y est c'est l'arrivée de l'antidote, l'anti-propre, l'anti-flop Jette ça va dans l'anti-pop Qu'est-ce que tu vas faire tas-pé Guizmo légendaire baise les Faces B Y'a des blèmes que j'peux pas résoudre J'me remets constamment en question même si tu penses que je parait cool Et ça les saoule de voir que je remonte la pente Rap, rue et business c'est le soir que le monde m'attend Clame pas le nom de ma bande Ça fait des trucs pas très net Pour vesqui les Assedic on perd des hassanettes Ah les mecs J'suis venu innondé le biz' J'ai pas de filon mais avec un peu de pilon j'ai le style J'ai des problèmes j'en ai par dessus la tête Faut pas que tu te la pètes ou parle sur ma mère Mamen, ma fraiche, ma zik et les potes Le shit nous téléporte on veut tous niquer les porcs J'ai les phases qu'il te faut Ma clique de fauve, applique le flow Pendant que tes gars trafique le show Et en vrai à table j'suis avec mi familia Moi j'ai pas le bac, et sors d'une mille-fa tricar Troisième balle, j'dis ça parce que beaucoup parle de flingue Et tirent dans l'vent, et leur style sont déglingués P'tite pétasse, j'fais qu'péra, mec c'est grave, j'excelle dar T'es mé-cra, j'fais qu'péra, jette mes cartes, sais que c'est hard Dangereux lexique, viens là que j't'excise Dangereux comme je m'exprime Violent comme j't'excite C'est les grosses têtes fils Abonnés au ness-bi On fait des vrais guizgui on s'enfuit au Mexique Pourquoi j'ai besoin de me mettre mal pour vous mettre bien La rabta je vais y mettre fin sans médecin J'sais que taper, j'aime taper les dales-pé, extra-frais Test pas c'est gâté, j'vais te baffer si t'es claqué J'nique tout avec Izi XXX my man J'reste moi-même A chaque mesure crie Amen</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Aboie, aboie, mais ils ne m'auront pas J'demande à boire en sachant qu'ils ne me donneront pas Ces chiens n'ont aucune role-pa Demande à la SPA, un chien qui aboie ça ne mord pas Pas facile d'évoluer quand on arrive au monde par portée Je n'sais pas ce que c'est qu'un pote J'ai que des aboiements pour m'border Attaché aux mamelles de maman, ça ne durera qu'un moment Malheureusement, avant que l'on vienne m'adopter Un solitaire à la recherche de compagnie De compléments, de sentiments Qui ne demandent qu'à être mon ami On ne m'as pas demandé mon avis On m'a mis une puce à l'oreille Cet ami, plutôt ce maitre était une pule-cra d'oseille Loin de mes frères de ma mère et de mes tatas On me dit que je suis un bon toutou Et que c'est l'heure d'se mettre à table Déboussolé, j'ai pris gout à ses caresses, à ses compliments Il dit que je suis le meilleur de tous les continents Même si les croquettes me rendent la gueule pâteuse Je n'me plains pas, je suis domestique Dehors ils mènent une vie affreuse Tiens y'a celui qui a un collier étrangleur, qui se contente d'obéir quand il voit la laisse il prend peur Et y'a l'autre pétasse et son brushing du toiletteur Le poil doré, mais enfermé, évidemment des fois elle pleure On nous a piégé avec le confort et les privilèges Blessés on doit tout à des maitres qui sont des criminels Du mal à trouver ma place, les chiens aboient La caravane passe, et les gitans comptent leurs liasses Forcés de les aimer, on ne les adore pas Mais mon maître a dit un chien qui aboie ne mord pas You might also like Aboie, aboie, mais ils ne m'auront pas J'demande à boire en sachant qu'ils ne me donneront pas Ces gens n'ont aucune role-pa Demande à la SPA, un chien qui aboie ça ne mord pas Ouais je me suis rendu compte de la supercherie J'ai grandi je suis moins mignon et on me laisse dans une porcherie On n'est pas bien peinard mais pour sauver le coup Certains ont un tonneau autour des leurs Sur la tête de Saint-Bernard Et puis la chasse, c'est fini, on nous a scié les crocs A quatre pattes marche au pas on nous a privé très tôt De liberté de rire de fierté Le bagne est plein de pisse, et ça peut vite faire chier Je ne vois plus de joie dans les yeux de cet homme Qui me baladait partout, comprends pourquoi je m'étonne Il me laisse plus aboyer, il m'a collé une muselière M'exposant devant ses amis je constate qu'il est plutôt fier Je ne suis qu'un chien, et je m'en rends compte Ce n'est que maintenant que j'envie la brute Qui mort et meurt en grande pompe Laissez-moi au veto la piquouse a plus de dignité Assis, couché, tout ça on faisait marcher Et on m'a tatoué pour faire plus dur Épater les imbéciles qui se foutaient de mon futur Je me sens seul, plongé dans l'oubli Cette vie m'intéresse plus je me surprends à envier Snoopy ! Je dois rester à la niche, amuser les gosses Sur mon dos il prend du bif, il a même capturé mes potes Le sage, le messager, et celui qui était plein de rage Ils ont même maqué celle qui se faisait brosser son pelage Je suis un chien domestique J'ai déjà envié les chiens de la casse Qui ne mangent rien de comestible Chaque os, chaque caresse est un piège Chaque boss, chaque maître est un traître J'ai déja envié les chiens de la casse Qui ne mangent rien de comestible Chaque caresse est un crime Je suis ce chien qui ne valait même pas 5 centimes Yonea Willy, Willy Yonea et tout l'bordel Wesh ma bande d'enfoirés Issam,Alm Bario, Alkaly Woolop Ma ZS jusqu'à la fin Les autres ces des chiens mon pote Bandes de chiens malfamés Ils changent de team comme ils changent de slip...1</t>
+          <t>Aboie, aboie, mais ils ne m'auront pas J'demande à boire en sachant qu'ils ne me donneront pas Ces chiens n'ont aucune role-pa Demande à la SPA, un chien qui aboie ça ne mord pas Pas facile d'évoluer quand on arrive au monde par portée Je n'sais pas ce que c'est qu'un pote J'ai que des aboiements pour m'border Attaché aux mamelles de maman, ça ne durera qu'un moment Malheureusement, avant que l'on vienne m'adopter Un solitaire à la recherche de compagnie De compléments, de sentiments Qui ne demandent qu'à être mon ami On ne m'as pas demandé mon avis On m'a mis une puce à l'oreille Cet ami, plutôt ce maitre était une pule-cra d'oseille Loin de mes frères de ma mère et de mes tatas On me dit que je suis un bon toutou Et que c'est l'heure d'se mettre à table Déboussolé, j'ai pris gout à ses caresses, à ses compliments Il dit que je suis le meilleur de tous les continents Même si les croquettes me rendent la gueule pâteuse Je n'me plains pas, je suis domestique Dehors ils mènent une vie affreuse Tiens y'a celui qui a un collier étrangleur, qui se contente d'obéir quand il voit la laisse il prend peur Et y'a l'autre pétasse et son brushing du toiletteur Le poil doré, mais enfermé, évidemment des fois elle pleure On nous a piégé avec le confort et les privilèges Blessés on doit tout à des maitres qui sont des criminels Du mal à trouver ma place, les chiens aboient La caravane passe, et les gitans comptent leurs liasses Forcés de les aimer, on ne les adore pas Mais mon maître a dit un chien qui aboie ne mord pas Aboie, aboie, mais ils ne m'auront pas J'demande à boire en sachant qu'ils ne me donneront pas Ces gens n'ont aucune role-pa Demande à la SPA, un chien qui aboie ça ne mord pas Ouais je me suis rendu compte de la supercherie J'ai grandi je suis moins mignon et on me laisse dans une porcherie On n'est pas bien peinard mais pour sauver le coup Certains ont un tonneau autour des leurs Sur la tête de Saint-Bernard Et puis la chasse, c'est fini, on nous a scié les crocs A quatre pattes marche au pas on nous a privé très tôt De liberté de rire de fierté Le bagne est plein de pisse, et ça peut vite faire chier Je ne vois plus de joie dans les yeux de cet homme Qui me baladait partout, comprends pourquoi je m'étonne Il me laisse plus aboyer, il m'a collé une muselière M'exposant devant ses amis je constate qu'il est plutôt fier Je ne suis qu'un chien, et je m'en rends compte Ce n'est que maintenant que j'envie la brute Qui mort et meurt en grande pompe Laissez-moi au veto la piquouse a plus de dignité Assis, couché, tout ça on faisait marcher Et on m'a tatoué pour faire plus dur Épater les imbéciles qui se foutaient de mon futur Je me sens seul, plongé dans l'oubli Cette vie m'intéresse plus je me surprends à envier Snoopy ! Je dois rester à la niche, amuser les gosses Sur mon dos il prend du bif, il a même capturé mes potes Le sage, le messager, et celui qui était plein de rage Ils ont même maqué celle qui se faisait brosser son pelage Je suis un chien domestique J'ai déjà envié les chiens de la casse Qui ne mangent rien de comestible Chaque os, chaque caresse est un piège Chaque boss, chaque maître est un traître J'ai déja envié les chiens de la casse Qui ne mangent rien de comestible Chaque caresse est un crime Je suis ce chien qui ne valait même pas 5 centimes Yonea Willy, Willy Yonea et tout l'bordel Wesh ma bande d'enfoirés Issam,Alm Bario, Alkaly Woolop Ma ZS jusqu'à la fin Les autres ces des chiens mon pote Bandes de chiens malfamés Ils changent de team comme ils changent de slip...1</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yonea Willy, Willy Yonea, business 9.4 sans fin GPGangster'zs Mothafuck J'étais posé à la Ruche On m'a parlé d'une histoire Mon pote s'est fait péter pour stup' 3 kilos dans le tiroir On kiffait dans toute la ville normal Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale J'étais posé chez Lascar J'entends parler d'un nouveau braquo On me propose le comptoir Ou bien de piloter la va-go J'étais posé à VLG J'étais posé VLT J'étais posé VDF Et j'en ai vu de toutes les couleurs Des cafards à la maison et des souris dans la ve-ca Mon daron dans la me-ca, seul Maxou connait ma douleur J'étais posé dans tous les secteurs J'étais posé dans toutes les cités Aucun d'entre eux ne peut me faire peur Même alcoolisé ou shité J'étais posé chez ma tass' Tisse-mé, gros fessier Elle m'a dit je t'aime j'ai dit moi aussi Mais bon là bébé je dois te laisser You might also like J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale J'étais posé au café J'écoute les histoires des anciens Les rappeurs c'est des mythos Ils ont rien fait, ils sont en chien J'étais posé dans ma bre-cham J'pense à Jeff A vendre la cess' Le temps ça blesse J'veux prendre ma pièce Posé dans le bloc à compter mes billets Moi et mon Glock, pas besoin de gilet J'ai mon escorte et crois moi ils sont givrés Personne n'est mort mais tout le monde peut te gifler Maman, pardon j'ai pas fait comme t'as dit Mais j'ai pas poucave ou braqué un taxi J'suis un vrai bonhomme, j'm'occupe de tes fils J'suis plus un grand frère, là je suis un daddy Mais j'pète les plombs A faire des sons Mais comme j't'ai dit Faut pas que je jette l'éponge Mia me regarde J'espère qu'elle m'en veut pas J'fais du mieux que je peux Mais en vrai je peux pas Mothafuck J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale Yonea Willy, Willy Yonea, business GPGangster'zs, illégal monnaie C'est tout ce qu'on connait Des blop blop Des fyup fyup Des bim bim C'est tout ce qu'on commet J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale</t>
+          <t>Yonea Willy, Willy Yonea, business 9.4 sans fin GPGangster'zs Mothafuck J'étais posé à la Ruche On m'a parlé d'une histoire Mon pote s'est fait péter pour stup' 3 kilos dans le tiroir On kiffait dans toute la ville normal Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale J'étais posé chez Lascar J'entends parler d'un nouveau braquo On me propose le comptoir Ou bien de piloter la va-go J'étais posé à VLG J'étais posé VLT J'étais posé VDF Et j'en ai vu de toutes les couleurs Des cafards à la maison et des souris dans la ve-ca Mon daron dans la me-ca, seul Maxou connait ma douleur J'étais posé dans tous les secteurs J'étais posé dans toutes les cités Aucun d'entre eux ne peut me faire peur Même alcoolisé ou shité J'étais posé chez ma tass' Tisse-mé, gros fessier Elle m'a dit je t'aime j'ai dit moi aussi Mais bon là bébé je dois te laisser J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale J'étais posé au café J'écoute les histoires des anciens Les rappeurs c'est des mythos Ils ont rien fait, ils sont en chien J'étais posé dans ma bre-cham J'pense à Jeff A vendre la cess' Le temps ça blesse J'veux prendre ma pièce Posé dans le bloc à compter mes billets Moi et mon Glock, pas besoin de gilet J'ai mon escorte et crois moi ils sont givrés Personne n'est mort mais tout le monde peut te gifler Maman, pardon j'ai pas fait comme t'as dit Mais j'ai pas poucave ou braqué un taxi J'suis un vrai bonhomme, j'm'occupe de tes fils J'suis plus un grand frère, là je suis un daddy Mais j'pète les plombs A faire des sons Mais comme j't'ai dit Faut pas que je jette l'éponge Mia me regarde J'espère qu'elle m'en veut pas J'fais du mieux que je peux Mais en vrai je peux pas Mothafuck J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale Yonea Willy, Willy Yonea, business GPGangster'zs, illégal monnaie C'est tout ce qu'on connait Des blop blop Des fyup fyup Des bim bim C'est tout ce qu'on commet J'étais posé à la Ruche On m'a parlé d'une histoire J'étais posé à la Ruche On m'a parlé d'une histoire On kiffait dans toute la ville Igo ça m'a fait du mal Mais bon tu connais la street On fait du fric, on fait du sale</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J'ai vu des trucs dégueulasses, j'ai vu maman torcher des vieilles Pour aller nous acheter deux glaces et voir son fils porter des J's J'ai vu papa ber-ger après quelques 8-6 Se lever pour vendre la 0.9 que les clients trouvaient 1010 J'ai vu mes potes braquer, me dire j'arrête Puis retourner braquer pour me redire j'arrête avant d'me faire plaquer Ça m'fait rire, on n'est pas bien faut du fric Avec un kilo d'bédo, j'deviens Jésus, les pains se dupliquent La roue tourne comme un joint d'me-sseu, bouge on est plein d'meu-geu Quand ma chatte est en chien, elle a b'soin d'monsieur Doux et je flingue dessus, rien qu'je fume plein d'pe-stu Où est le dingue qui fait l'dingue qu'on lui flingue dessus ? Quelques grammes de pure, tu finis sous écrou À force de jouer les durs, bah tu finis par t'faire bourrer l'mou il pour il, dent pour dent même si t'es aveugle et qu't'as plus d'chicos Une baraque au bled, tu m'revois plus d'si tôt Sur la tête du p'tit qu'j'ai pas, on est plein gros Synchro quand j'ai plus d'souffle, le DJ back C'est pour mes rabatteurs de cess, amateurs de zeb Tu savoures la victoire que quand t'as pas peur de perdre Et la vapeur me wet, il faut stopper la fume Ok j'abuse, j'ai peur qu'un jour elle fasse poser ma plume Personne ne sait c'que j'ai dans l'crâne hein Tout c'que j'prépare, c'que j'bédave, personne ne sait c'que j'fais dan l'rap Un j'représente, deux j'fais mes diez de décembre à janvier Clair et net, j'ai plus l'temps d'patienter bébé Nos vies c'est Woodstock, des flics, des foufs comme dans les films Parle pas d'tizz j'ai vidé tout l'stock Qui veux ma cagnotte ? J'suis d'Villeneuve La Garenne Les immeubles, la galère, j'connais des mecs qu'ont niqués ta salope Toujours en place, prêt à tout rafler Si chez moi y'a plus d'mafé, j'vais manger un couscous en face Lascar de tess, dis leur, j'tabasse le game direct Chez nous y'a plein d'dealer, non on n'a pas besoin d'tirettes Les re-nois voient rouge devant une carte bleue Demande pourquoi on t'répondra parce que y'a pas d'flouze Gang, y'a un boloss qui veux d'la C Jetez moi taser et gazeuse si y'a un colosse qui veut s'taper Moi, j'ai plus envie d'salir ma nouvelle paire de Nike Air J'vais t'shooter vers le bas, ouais j'te troue les fesses et va t'faire mettre J'ai pas d'adversaires, tacle à la gorge, nous parles pas d'fair-play Voué à les trouer, bat les couilles d'finir écroué J'suis en vie, que Dieu soit loué, j'suis pas venu pour échouer Et j'ai les punchs par dizaine, j'gueule pas, j'dis vrai Personne sait skier mais tout l'monde veut l'Val d'Isère La banlieue c'est chez moi, j'm'enfuis pas Même quand j'ai des dettes j'reste en bas d'la tess, ma femme fait l'esthète Et j'vais pas pleurnicher, ils voudraient qu'j'le fasse En attendant, j'suis bourré sous flash victime de leurs clichés Mec on est trop deter, sans abus moi, j'suis pas d'ceux qui vantent la rue J'suis d'ceux qui rappent pour les prolétaires Ta mère, ta sur, ton père, ton frère, ton cle-on Ta haine, ta bière, ta tess, ta fraiche, ton pe-pom Ta meuf, ta fraiche, ta clic et tous tes potes Ma gueule, j'abuse, j'ai peur de toutes mes fautes J'suis pas un fils exemplaire, j'donnais du fric sale à maman En m'demandant en même temps comment exister sans père J'ai quitté l'enfer, j'ai dit basta, c'était pas stable Dans les caves sales, j'ai dealé tant d'herbe Récit d'un esprit libre, rest in peace J'avais la langue pendue pour faire du lèche-vitrine Seize barres c'est rien, j'ai d'jà fait cent vingt mesures En un jour, quelques bières et puis trente joints purs Paranoïaque, j'doutais, à l'ammoniaque j'coupais Avec Alka prend pas la tête, bara nayek s'te plait Paranoïaque, j'doutais, à l'ammoniaque j'coupais Avec Alka prend pas la tête, bara nayek s'te plaitYou might also like1</t>
+          <t>J'ai vu des trucs dégueulasses, j'ai vu maman torcher des vieilles Pour aller nous acheter deux glaces et voir son fils porter des J's J'ai vu papa ber-ger après quelques 8-6 Se lever pour vendre la 0.9 que les clients trouvaient 1010 J'ai vu mes potes braquer, me dire j'arrête Puis retourner braquer pour me redire j'arrête avant d'me faire plaquer Ça m'fait rire, on n'est pas bien faut du fric Avec un kilo d'bédo, j'deviens Jésus, les pains se dupliquent La roue tourne comme un joint d'me-sseu, bouge on est plein d'meu-geu Quand ma chatte est en chien, elle a b'soin d'monsieur Doux et je flingue dessus, rien qu'je fume plein d'pe-stu Où est le dingue qui fait l'dingue qu'on lui flingue dessus ? Quelques grammes de pure, tu finis sous écrou À force de jouer les durs, bah tu finis par t'faire bourrer l'mou il pour il, dent pour dent même si t'es aveugle et qu't'as plus d'chicos Une baraque au bled, tu m'revois plus d'si tôt Sur la tête du p'tit qu'j'ai pas, on est plein gros Synchro quand j'ai plus d'souffle, le DJ back C'est pour mes rabatteurs de cess, amateurs de zeb Tu savoures la victoire que quand t'as pas peur de perdre Et la vapeur me wet, il faut stopper la fume Ok j'abuse, j'ai peur qu'un jour elle fasse poser ma plume Personne ne sait c'que j'ai dans l'crâne hein Tout c'que j'prépare, c'que j'bédave, personne ne sait c'que j'fais dan l'rap Un j'représente, deux j'fais mes diez de décembre à janvier Clair et net, j'ai plus l'temps d'patienter bébé Nos vies c'est Woodstock, des flics, des foufs comme dans les films Parle pas d'tizz j'ai vidé tout l'stock Qui veux ma cagnotte ? J'suis d'Villeneuve La Garenne Les immeubles, la galère, j'connais des mecs qu'ont niqués ta salope Toujours en place, prêt à tout rafler Si chez moi y'a plus d'mafé, j'vais manger un couscous en face Lascar de tess, dis leur, j'tabasse le game direct Chez nous y'a plein d'dealer, non on n'a pas besoin d'tirettes Les re-nois voient rouge devant une carte bleue Demande pourquoi on t'répondra parce que y'a pas d'flouze Gang, y'a un boloss qui veux d'la C Jetez moi taser et gazeuse si y'a un colosse qui veut s'taper Moi, j'ai plus envie d'salir ma nouvelle paire de Nike Air J'vais t'shooter vers le bas, ouais j'te troue les fesses et va t'faire mettre J'ai pas d'adversaires, tacle à la gorge, nous parles pas d'fair-play Voué à les trouer, bat les couilles d'finir écroué J'suis en vie, que Dieu soit loué, j'suis pas venu pour échouer Et j'ai les punchs par dizaine, j'gueule pas, j'dis vrai Personne sait skier mais tout l'monde veut l'Val d'Isère La banlieue c'est chez moi, j'm'enfuis pas Même quand j'ai des dettes j'reste en bas d'la tess, ma femme fait l'esthète Et j'vais pas pleurnicher, ils voudraient qu'j'le fasse En attendant, j'suis bourré sous flash victime de leurs clichés Mec on est trop deter, sans abus moi, j'suis pas d'ceux qui vantent la rue J'suis d'ceux qui rappent pour les prolétaires Ta mère, ta sur, ton père, ton frère, ton cle-on Ta haine, ta bière, ta tess, ta fraiche, ton pe-pom Ta meuf, ta fraiche, ta clic et tous tes potes Ma gueule, j'abuse, j'ai peur de toutes mes fautes J'suis pas un fils exemplaire, j'donnais du fric sale à maman En m'demandant en même temps comment exister sans père J'ai quitté l'enfer, j'ai dit basta, c'était pas stable Dans les caves sales, j'ai dealé tant d'herbe Récit d'un esprit libre, rest in peace J'avais la langue pendue pour faire du lèche-vitrine Seize barres c'est rien, j'ai d'jà fait cent vingt mesures En un jour, quelques bières et puis trente joints purs Paranoïaque, j'doutais, à l'ammoniaque j'coupais Avec Alka prend pas la tête, bara nayek s'te plait Paranoïaque, j'doutais, à l'ammoniaque j'coupais Avec Alka prend pas la tête, bara nayek s'te plait1</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fuck le monde, j'ai pas d'patience Les porcs se font les gars d'ma bande Je tords le son, les portes sont mées-fer, mais on a d'l'avance On passe par la fe-gue-nê-guê-tre, un schlass tu nous re-gue-mets-guets Les liasses faut qu'on brasse, si tu m'cannes bah j're-gue-nait-guait Vis comme un renégat, scred dans mes déplacements Traîne qu'avec des cas-soc', miss y'a rien d'épatant Et j'pense que la vie est belle, quand elle a taillé sa pipe Gros eins' gros cul, putain j'ai oublié d'appeler J'suis dans ma sphère génération 91 Pillave, bicrave on a du détail pas besoin d'cons' Moi j'ai prié avec foi, ma ville est avec moi On a la haine comme dans la squal cousin ma cité va quer-cra Igo, on est à se-l'ai dans nos baskets neuves Si c'est des liasses qu'elles veulent Elles auront pas ce qu'elles veulent Igo, j'la touche pas si elle a pas d'belles sseuf' Et si elle m'casse les ieups', moi j'me fais sa belle sur, Igo Envoie les feuilles j'vais nous rouler un deltaplane Laisse tomber ton vieux leur-dea Il t'parle de frappe y t'fait d'la caille non, non Moi j'représente, tout les coins et toutes les zones Va dans l'nord, jette un il y'a pas qu'des mecs qui fourrent des mômes Banlieusard y m'faut ma paire de quin-re, check le 20e, bête de joint d'beuh Ouais je tiens le choc, motherfuck', mec j'dormirai main-de Jusqu'à Saint Leu, j'ai faim le temps passe, j'embrasse de grandes liasses Et si Dieu veut le temps de la crise et bien vieux, j'suis un affamé j'ai faim de Si j'ai vu les flics c'est 22, rien à foutre tes potes sont blindés on veut juste brasser un peu, ouzou Rien à foutre tes potes sont blindés on veut juste brasser un peu J'ai la belle vie un peu, un peu Rien à foutre tes potes sont blindés on veut juste brasser un peu You might also like x2 J'ai la belle vie en visu my nizzo' je m'isole pour taffer, ces salopards n'auront jamais mon niveau J'me casse et j'ai mal au crâne à force de m'faire des rivaux Ces tasses-pé, méritent pas l'schlass même pas la paire de ciseaux2</t>
+          <t>Fuck le monde, j'ai pas d'patience Les porcs se font les gars d'ma bande Je tords le son, les portes sont mées-fer, mais on a d'l'avance On passe par la fe-gue-nê-guê-tre, un schlass tu nous re-gue-mets-guets Les liasses faut qu'on brasse, si tu m'cannes bah j're-gue-nait-guait Vis comme un renégat, scred dans mes déplacements Traîne qu'avec des cas-soc', miss y'a rien d'épatant Et j'pense que la vie est belle, quand elle a taillé sa pipe Gros eins' gros cul, putain j'ai oublié d'appeler J'suis dans ma sphère génération 91 Pillave, bicrave on a du détail pas besoin d'cons' Moi j'ai prié avec foi, ma ville est avec moi On a la haine comme dans la squal cousin ma cité va quer-cra Igo, on est à se-l'ai dans nos baskets neuves Si c'est des liasses qu'elles veulent Elles auront pas ce qu'elles veulent Igo, j'la touche pas si elle a pas d'belles sseuf' Et si elle m'casse les ieups', moi j'me fais sa belle sur, Igo Envoie les feuilles j'vais nous rouler un deltaplane Laisse tomber ton vieux leur-dea Il t'parle de frappe y t'fait d'la caille non, non Moi j'représente, tout les coins et toutes les zones Va dans l'nord, jette un il y'a pas qu'des mecs qui fourrent des mômes Banlieusard y m'faut ma paire de quin-re, check le 20e, bête de joint d'beuh Ouais je tiens le choc, motherfuck', mec j'dormirai main-de Jusqu'à Saint Leu, j'ai faim le temps passe, j'embrasse de grandes liasses Et si Dieu veut le temps de la crise et bien vieux, j'suis un affamé j'ai faim de Si j'ai vu les flics c'est 22, rien à foutre tes potes sont blindés on veut juste brasser un peu, ouzou Rien à foutre tes potes sont blindés on veut juste brasser un peu J'ai la belle vie un peu, un peu Rien à foutre tes potes sont blindés on veut juste brasser un peu x2 J'ai la belle vie en visu my nizzo' je m'isole pour taffer, ces salopards n'auront jamais mon niveau J'me casse et j'ai mal au crâne à force de m'faire des rivaux Ces tasses-pé, méritent pas l'schlass même pas la paire de ciseaux2</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Je me réveille à 15 heures et j'me défonce à la weed Je suis perdu sans ma sur, envie de sauter dans le vide Je me réveille en sueur, je suis pris d'angoisse je fais des crises Mais pour mon frère faut pas que je pleure alors je me défonce à la tise Pour mon frère il faut des sous, pour ma mère il faut des sous Pour ma femme il faut des lou, lou, lou, lou, lou Je fais que ramasser du blé, toi tu peux taper du pied Moi ce que je peux m'acheter, tu le loues loues loues Allez vous faire enculer, j'en ai marre de tout ça Je pense à Douma, Kalash et à mon frérot Foussin Jeff et LDT, Kenny K, motherfuck, parano et dépressif, j'ai un feu sous le coussin D Max, Siclips, je vais péter les plombs dites-moi qu'il faut pas que je le fasse Ces petits bâtards sont jaloux depuis qu'ils voient que j'ai des meufs et que je brasse Ces enculés font la fête quand j'suis pas bien C'que tu mets dans ton pet', c'est mon gagne-pain J'veux pas ramasser les miettes j'fais des larcins D'la beuh, du shit, du vol, des faux fafs et du tapin Met le tout dans ta, s'te plaît Met le tout dans ta, s'te plaît Met le tout dans ta chatte s'te plaît Et vas-y, passe la douane, faut des liasses de blé Je n'en n'ai rien à foutre les rappeurs ne font que de la flûte Et ils peuvent pousser la fonte moi je sais que c'est tous des putes J'suis défoncé à la skunk, dans mon plumard un gros 'uc Elle m'a laissé garder ma montre mais elle a enlevé mon fut' Et je pense à Lascar et toutes les meufs qu'on a tabassés Mon tout petit corps a démonté des gros tabassa Trois ou quatre fois dans la nuit, ma belle, ce sera pas assez Et une fois qu'j'ai finis il m'faut un spliff avec un massage Et puis j'me tire de la chambre d'hôtel en remettant mon glock dans mon pantalon Elle sort de la chambre d'hôtel avec une petite robe et des grands talons Voilà j'ai pillave du lean Les rappeurs parlent de flingues ou de bicrave du shit C'est v'là les baltringues, on a tricar le vice Oui vous passez à table devant ces trimards de schmit GP Gang Baba Rampir, Timzir, Bilou Prod que des vampires O.V.D.Z, N.M.G, Zone Sensible, c'est Chicago mais en pire Il y a du doré il y a du soké Il y a d'la cess il y a des me-ar Si t'es OP, on est OP Passe à la tess avec le gent-ar You might also like Vodka dans le gosier, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer, mais si tu joues au con y'aura plus de délais Ouais j'vais t'allumer comme les cow-boys ! Je bois plus que de raison J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau Je m'en bat les couilles de travailler les pecs J'monte à Because et j'vais chercher mon chèque La mula c'est tout ce que j'ai en tête On a foutu les gants quand toi tu faisais la fête Laissez-moi tranquille, j'suis pas d'bonne humeur J'veux pas vous causer Que des gros fumeurs, tous enfourailler, oui on peut les crosser On a les outils, on a les machins Elles ont le te-shi tout près du vagin Me dis pas ci ou me dis pas ça, le bruit ou l'odeur c'est mes voisins J'vais les baiser, j'ai fini de blaguer, c'est tous des enculés Ouais j'suis rancunier, le cerveau buté h24 en fumée Voilà c'est comment je donne les ordres et tu exécutes Ils parlent de moi mais c'est que d'la mala Bah ouais c'est tous des putes J'ai zoné, j'ai fraudé, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Je suis Guzman Loera, Guzman Loera Je suis Guzman Loera, appelle moi Guzman Loera A nouveau l'homme le plus recherché du pays mothafucka J'ai pas tout vu dans ma vie mais c'est déjà trop J'ai travaillé dans la vente avec des accros Tu peux connaître ma bande mais c'est des cassos Associés à des glocks et des bastos Ah merde ! Dis moi de quoi tu veux parler J'vais les allumer ces Charlots J'ai déjà vu mon père au parlu' Dans The Wire lui c'était Marlo J'suis dans ma bulle dans mon gamma bats les couilles de ton game dans mon GP c'est la rre-gue On veut la moula tout les jours on fait l'amour sans amour parce qu'on arrive qu'en Oui c'est la Zone Sensible on est pros dans l'biz mais pas trop gentils ! Ils s'demandent comment j'fais pour pé-ra en ayant fumé autant de shit ! J'suis doué, lyricalement que Dieu soit loué J'm'en bats les couilles de finir écroué J'continuerais à fourguer la beuh, le shit dans la foulée J'suis doué, toujours en vie que Dieu soit loué J'm'en bats les couilles de finir écroué J'continuerais à fourguer la beuh le shit dans la foulée J'ai vendu la cess et le crack, j'ai vendu des kilos d'shit Ouais avec la dèche et l'rap, à l'époque du frigo vide 9 millimètres et j't'éclate, j'suis pété j'suis psychotique Nique sa grand-mère à la jap, et à ces putains d'flics aussi Plongé dans ma folie mes pensées sont illogiques Et après quelques verres j'ai le Q.I d'un trisomique Bercé par la guerre et par le chant des hypocrites On a baigné dans la merde, on pé-ra on s'bute au spliff Tête de ma mère j'm'en bat la bite ouais j'suis flex, ouais j'suis flex Un en bas d'la street On croyait que c'était zen, et qu'on faisait le nécessaire Tu verrais la tête des frère depuis qu'ils ont pété Jeff C'est la merde, j'suis posé dans mon bendo J'ai trop d'ennemis j'me suis pris un deuxième extendo J'ai pas ton âge, vas-y j't'envoie mon petit frère Il bicrave dans mon dos et dans son froc, un glock 17 Me tentez pas j'vais faire une dinguerie Une vendetta, une chambre d'hôtel, ta petite sur en lingerie Mon GP vend toute sortes de saloperies Des bicraveurs, des malotrus, des tarots d'shit, t'as mal au cul C'est dans la zone qu'on a fait nos armes Bès-bar, Villeneuve, weed bédo crack Fais pas le fou nami, tu n'es qu'un fou gazi Ils lèchent des culs ils lèchent des bites ils lèchent J'ai vu des trucs dégueulasses, j'ai vu maman torcher des vieilles Pour aller nous acheter des glaces et voir son fils porter des J's Juste voir son fils porter des J's putain Tout les matins je la fume dans un aqua Avec mes yeux globuleux comme un poisson Pour m'attirer elle n'a pas besoin d'un appât Elle se balade dans mes veines comme la boisson J'suis dans les bas-fonds Elle est venue cacher sa tête dans mes caleçons Toujours d'humeur à faire la fête avec ma Skunk Poto c'est pas juste un gros pét', c'est une passion Et quand elle colle trop il faut un grinder, sinon c'est la merde pour la rouler On a pas peur on se balade avec toute la journée, me prends pas la tête fais la tourner Je t'ai achetée je t'ai bicrave On t'a capté sur mon visage Oui tu as calmé ma rage et on a fait des voyages Je n'avais même pas besoin de visa Aaaah, scotché au canapé, j'fume la fleur de cannabis J'ai pris celle du Wallabee, et j'vais mélanger à la tise Et j'vais dire à ma tasse-pé de rouler le prochain pendant que j'compte les llets-bi Elle est grasse et jamais je ne m'en lasse elle m'envoie dans l'espace avec son goût d'amnésie J'me suis posé des questions j'ai trouvé les réponses dans des spliffs de beuh Dans des feuilles blunts, dans des têtes de Skunk Envoie vite le feu, et bah oui monsieur, j'ai les yeux rouges écarlates Tu fais dodo s'tu veux goûter ma frappe, demande à Lolo on a toute les saveurs D'la OG kush qui a le goût des bananes Contre un billet bleu, t'auras 2 grammes de verte Fais un bisou au ton-car, pour tout mon Val de Zeb' Je l'effrite je la roule je la fume, igo parce que j'aime ça Ma ganja Du doré, du soké Faut qu'je fume faut qu'je fume, regarde la lune et la lune</t>
+          <t>Je me réveille à 15 heures et j'me défonce à la weed Je suis perdu sans ma sur, envie de sauter dans le vide Je me réveille en sueur, je suis pris d'angoisse je fais des crises Mais pour mon frère faut pas que je pleure alors je me défonce à la tise Pour mon frère il faut des sous, pour ma mère il faut des sous Pour ma femme il faut des lou, lou, lou, lou, lou Je fais que ramasser du blé, toi tu peux taper du pied Moi ce que je peux m'acheter, tu le loues loues loues Allez vous faire enculer, j'en ai marre de tout ça Je pense à Douma, Kalash et à mon frérot Foussin Jeff et LDT, Kenny K, motherfuck, parano et dépressif, j'ai un feu sous le coussin D Max, Siclips, je vais péter les plombs dites-moi qu'il faut pas que je le fasse Ces petits bâtards sont jaloux depuis qu'ils voient que j'ai des meufs et que je brasse Ces enculés font la fête quand j'suis pas bien C'que tu mets dans ton pet', c'est mon gagne-pain J'veux pas ramasser les miettes j'fais des larcins D'la beuh, du shit, du vol, des faux fafs et du tapin Met le tout dans ta, s'te plaît Met le tout dans ta, s'te plaît Met le tout dans ta chatte s'te plaît Et vas-y, passe la douane, faut des liasses de blé Je n'en n'ai rien à foutre les rappeurs ne font que de la flûte Et ils peuvent pousser la fonte moi je sais que c'est tous des putes J'suis défoncé à la skunk, dans mon plumard un gros 'uc Elle m'a laissé garder ma montre mais elle a enlevé mon fut' Et je pense à Lascar et toutes les meufs qu'on a tabassés Mon tout petit corps a démonté des gros tabassa Trois ou quatre fois dans la nuit, ma belle, ce sera pas assez Et une fois qu'j'ai finis il m'faut un spliff avec un massage Et puis j'me tire de la chambre d'hôtel en remettant mon glock dans mon pantalon Elle sort de la chambre d'hôtel avec une petite robe et des grands talons Voilà j'ai pillave du lean Les rappeurs parlent de flingues ou de bicrave du shit C'est v'là les baltringues, on a tricar le vice Oui vous passez à table devant ces trimards de schmit GP Gang Baba Rampir, Timzir, Bilou Prod que des vampires O.V.D.Z, N.M.G, Zone Sensible, c'est Chicago mais en pire Il y a du doré il y a du soké Il y a d'la cess il y a des me-ar Si t'es OP, on est OP Passe à la tess avec le gent-ar Vodka dans le gosier, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer, mais si tu joues au con y'aura plus de délais Ouais j'vais t'allumer comme les cow-boys ! Je bois plus que de raison J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau Je m'en bat les couilles de travailler les pecs J'monte à Because et j'vais chercher mon chèque La mula c'est tout ce que j'ai en tête On a foutu les gants quand toi tu faisais la fête Laissez-moi tranquille, j'suis pas d'bonne humeur J'veux pas vous causer Que des gros fumeurs, tous enfourailler, oui on peut les crosser On a les outils, on a les machins Elles ont le te-shi tout près du vagin Me dis pas ci ou me dis pas ça, le bruit ou l'odeur c'est mes voisins J'vais les baiser, j'ai fini de blaguer, c'est tous des enculés Ouais j'suis rancunier, le cerveau buté h24 en fumée Voilà c'est comment je donne les ordres et tu exécutes Ils parlent de moi mais c'est que d'la mala Bah ouais c'est tous des putes J'ai zoné, j'ai fraudé, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Je suis Guzman Loera, Guzman Loera Je suis Guzman Loera, appelle moi Guzman Loera A nouveau l'homme le plus recherché du pays mothafucka J'ai pas tout vu dans ma vie mais c'est déjà trop J'ai travaillé dans la vente avec des accros Tu peux connaître ma bande mais c'est des cassos Associés à des glocks et des bastos Ah merde ! Dis moi de quoi tu veux parler J'vais les allumer ces Charlots J'ai déjà vu mon père au parlu' Dans The Wire lui c'était Marlo J'suis dans ma bulle dans mon gamma bats les couilles de ton game dans mon GP c'est la rre-gue On veut la moula tout les jours on fait l'amour sans amour parce qu'on arrive qu'en Oui c'est la Zone Sensible on est pros dans l'biz mais pas trop gentils ! Ils s'demandent comment j'fais pour pé-ra en ayant fumé autant de shit ! J'suis doué, lyricalement que Dieu soit loué J'm'en bats les couilles de finir écroué J'continuerais à fourguer la beuh, le shit dans la foulée J'suis doué, toujours en vie que Dieu soit loué J'm'en bats les couilles de finir écroué J'continuerais à fourguer la beuh le shit dans la foulée J'ai vendu la cess et le crack, j'ai vendu des kilos d'shit Ouais avec la dèche et l'rap, à l'époque du frigo vide 9 millimètres et j't'éclate, j'suis pété j'suis psychotique Nique sa grand-mère à la jap, et à ces putains d'flics aussi Plongé dans ma folie mes pensées sont illogiques Et après quelques verres j'ai le Q.I d'un trisomique Bercé par la guerre et par le chant des hypocrites On a baigné dans la merde, on pé-ra on s'bute au spliff Tête de ma mère j'm'en bat la bite ouais j'suis flex, ouais j'suis flex Un en bas d'la street On croyait que c'était zen, et qu'on faisait le nécessaire Tu verrais la tête des frère depuis qu'ils ont pété Jeff C'est la merde, j'suis posé dans mon bendo J'ai trop d'ennemis j'me suis pris un deuxième extendo J'ai pas ton âge, vas-y j't'envoie mon petit frère Il bicrave dans mon dos et dans son froc, un glock 17 Me tentez pas j'vais faire une dinguerie Une vendetta, une chambre d'hôtel, ta petite sur en lingerie Mon GP vend toute sortes de saloperies Des bicraveurs, des malotrus, des tarots d'shit, t'as mal au cul C'est dans la zone qu'on a fait nos armes Bès-bar, Villeneuve, weed bédo crack Fais pas le fou nami, tu n'es qu'un fou gazi Ils lèchent des culs ils lèchent des bites ils lèchent J'ai vu des trucs dégueulasses, j'ai vu maman torcher des vieilles Pour aller nous acheter des glaces et voir son fils porter des J's Juste voir son fils porter des J's putain Tout les matins je la fume dans un aqua Avec mes yeux globuleux comme un poisson Pour m'attirer elle n'a pas besoin d'un appât Elle se balade dans mes veines comme la boisson J'suis dans les bas-fonds Elle est venue cacher sa tête dans mes caleçons Toujours d'humeur à faire la fête avec ma Skunk Poto c'est pas juste un gros pét', c'est une passion Et quand elle colle trop il faut un grinder, sinon c'est la merde pour la rouler On a pas peur on se balade avec toute la journée, me prends pas la tête fais la tourner Je t'ai achetée je t'ai bicrave On t'a capté sur mon visage Oui tu as calmé ma rage et on a fait des voyages Je n'avais même pas besoin de visa Aaaah, scotché au canapé, j'fume la fleur de cannabis J'ai pris celle du Wallabee, et j'vais mélanger à la tise Et j'vais dire à ma tasse-pé de rouler le prochain pendant que j'compte les llets-bi Elle est grasse et jamais je ne m'en lasse elle m'envoie dans l'espace avec son goût d'amnésie J'me suis posé des questions j'ai trouvé les réponses dans des spliffs de beuh Dans des feuilles blunts, dans des têtes de Skunk Envoie vite le feu, et bah oui monsieur, j'ai les yeux rouges écarlates Tu fais dodo s'tu veux goûter ma frappe, demande à Lolo on a toute les saveurs D'la OG kush qui a le goût des bananes Contre un billet bleu, t'auras 2 grammes de verte Fais un bisou au ton-car, pour tout mon Val de Zeb' Je l'effrite je la roule je la fume, igo parce que j'aime ça Ma ganja Du doré, du soké Faut qu'je fume faut qu'je fume, regarde la lune et la lune</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Deen, Nekfeu, S-Crew, ze-Quin, poto Marseille, Paname on est là, P.O.S, P.O.S, P.O.S, P.O.S Chosta, Nesquick, 92, OK, 390 Villeneuve-la-Garenne, mec, Villeneuve-la-Garenne, mec OK, c'est 1 pour mes couches-tard qui grattent les allocs 2 pour mes gosses beaux qui maquent des salopes 3 pour mon tiek's, 4 pour le tien 5, ça l'fait, mon son tourne bien 6, mec, reste à ta place Prends tes jambes à ton cou s't'as les deks à ta trace J'viens d'la tess à la base, j'lâche des textes à l'arrache Amateur ou pro, j'vais vous mettre à la page Faut qu'je m'en sorte, mec, les soucis m'caressent la patte Il faut pas que j'abaisse la garde à chaque fois que j'agresse la BAC Ça finit en garde à vue, ces bâtards sont à l'affût Ils veulent provoquer ta chute pour te voir en bas d'la rue Mais j'ai d'autres projets pour ma vie, j'viens d'là où les fous habitent Qu'les boycotteurs bouffent ma bite, Guizmo rappe et pousse la rime Dans ses derniers retranchements, je n'fais qu'me mettre en jambes Fous un cut et c'est tranchant This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction You might also like Moi, j'suis cynique à la Pierre Desproges, ça nique quand tu perds des proches Ou quand un schmitt appelle pour une carotte et que ton père décroche Donc gare aux flics, pas d'parodie, j'suis paro, petit, j'te garantis Je pars au cheat, garrot fine qui fait sortir ma carotide À ce qu'il paraît, on manque de buts, on est qu'un gang de brutes Mais tiens ta langue de pute pour les soirées où tu m'astiques la raie J'suis qu'un artiste carré, Paris me rend misanthrope Tu parles de love avec ta go mais tu fuis quand tu l'as mise en cloque Dans tous les couples, y'a des nnards-co, des connes, écoute, Sarko déconne C'est fou, à mon époque, tu bes-tom pour des cartes Pokémon Tant d'mauvaises conditions d'vices alors écoute, vermine J'élimine le doute permis, c'est dans nos textes qu'on dit ce qu'on vit J'serre des coquines en jogging ou Zadig Voltaire Allez dire à vos copines que Nekfeu vous a niqué vos mères Sadique est notre ère, regarde l'histoire de l'Amérique On fait du bruit dans tout Paname comme une victoire de l'Algérie This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction J'écris des vers tout l'temps percutants, j'ai des textes conscients Pour mes frères fonçant vers l'oseille, j'suis pas d'ces mecs pompants Le swag est trop squal pour faire bon genre Planque les cheveux raides sous l'dourag, juste pour faire moins blanc Tête plongeante dans leur face, pas là pour faire semblant Tous les jours, crémaillère le prochain qui veut teste, on l'pend Tu rêves, mon grand, nous, on gère nos plans même en sang On s'relève, trouble-fêtes mais nos phases mettent l'ambiance S'tu nous croise avec un smile c'est qu'on paye comptant Et on aura nos Breitlings, c'est qu'une question d'temps En parlant d'dèche, j'vois les jeunes s'enrager, s'entasser Dans l'quartier vendent d'la zeb, cherchent des plans tasse-pé De novembre à novembre, l'Amérique nous fait fantasmer Plus d'un bledard s'la joue Jay-Z au studio, sans papiers Street lauréat, j'pose un feat, c'est la tuerie Gratte à bord d'la DeLorean, j'appelle ça un futuerie This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction2</t>
+          <t>Deen, Nekfeu, S-Crew, ze-Quin, poto Marseille, Paname on est là, P.O.S, P.O.S, P.O.S, P.O.S Chosta, Nesquick, 92, OK, 390 Villeneuve-la-Garenne, mec, Villeneuve-la-Garenne, mec OK, c'est 1 pour mes couches-tard qui grattent les allocs 2 pour mes gosses beaux qui maquent des salopes 3 pour mon tiek's, 4 pour le tien 5, ça l'fait, mon son tourne bien 6, mec, reste à ta place Prends tes jambes à ton cou s't'as les deks à ta trace J'viens d'la tess à la base, j'lâche des textes à l'arrache Amateur ou pro, j'vais vous mettre à la page Faut qu'je m'en sorte, mec, les soucis m'caressent la patte Il faut pas que j'abaisse la garde à chaque fois que j'agresse la BAC Ça finit en garde à vue, ces bâtards sont à l'affût Ils veulent provoquer ta chute pour te voir en bas d'la rue Mais j'ai d'autres projets pour ma vie, j'viens d'là où les fous habitent Qu'les boycotteurs bouffent ma bite, Guizmo rappe et pousse la rime Dans ses derniers retranchements, je n'fais qu'me mettre en jambes Fous un cut et c'est tranchant This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction Moi, j'suis cynique à la Pierre Desproges, ça nique quand tu perds des proches Ou quand un schmitt appelle pour une carotte et que ton père décroche Donc gare aux flics, pas d'parodie, j'suis paro, petit, j'te garantis Je pars au cheat, garrot fine qui fait sortir ma carotide À ce qu'il paraît, on manque de buts, on est qu'un gang de brutes Mais tiens ta langue de pute pour les soirées où tu m'astiques la raie J'suis qu'un artiste carré, Paris me rend misanthrope Tu parles de love avec ta go mais tu fuis quand tu l'as mise en cloque Dans tous les couples, y'a des nnards-co, des connes, écoute, Sarko déconne C'est fou, à mon époque, tu bes-tom pour des cartes Pokémon Tant d'mauvaises conditions d'vices alors écoute, vermine J'élimine le doute permis, c'est dans nos textes qu'on dit ce qu'on vit J'serre des coquines en jogging ou Zadig Voltaire Allez dire à vos copines que Nekfeu vous a niqué vos mères Sadique est notre ère, regarde l'histoire de l'Amérique On fait du bruit dans tout Paname comme une victoire de l'Algérie This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction J'écris des vers tout l'temps percutants, j'ai des textes conscients Pour mes frères fonçant vers l'oseille, j'suis pas d'ces mecs pompants Le swag est trop squal pour faire bon genre Planque les cheveux raides sous l'dourag, juste pour faire moins blanc Tête plongeante dans leur face, pas là pour faire semblant Tous les jours, crémaillère le prochain qui veut teste, on l'pend Tu rêves, mon grand, nous, on gère nos plans même en sang On s'relève, trouble-fêtes mais nos phases mettent l'ambiance S'tu nous croise avec un smile c'est qu'on paye comptant Et on aura nos Breitlings, c'est qu'une question d'temps En parlant d'dèche, j'vois les jeunes s'enrager, s'entasser Dans l'quartier vendent d'la zeb, cherchent des plans tasse-pé De novembre à novembre, l'Amérique nous fait fantasmer Plus d'un bledard s'la joue Jay-Z au studio, sans papiers Street lauréat, j'pose un feat, c'est la tuerie Gratte à bord d'la DeLorean, j'appelle ça un futuerie This is a Big Bad Song which is coming around Give me the microphone be put the fire in a tongue Mean a black, no Nino Brown But me, put XXXXX the emcee in the front This is a Big Bad Song which is coming around Give me a revolution, give me satisfaction No one some action, no one a reaction A traction bring the sensation to the emcee destruction2</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh Hé yo Guizi légendaire avec ses spliffs et ses cents bières J'sers des verres d'enfer, maman j'crois pas qu'ton fils est exemplaire J'ai encore perdu ma te-tê, j'ai encore perdu ma che-frai J'ai encore acheté une yeu-té que j'achève pour m'achever Et sûrement y'aura du Chivas, j'aurais pas froid même sans gilet De la tristesse sur le visage, j'éclaterais mon dernier billet Pour ne pas réaliser que la vie peut m'tétaniser Que le truc qui m'a dévalisé, est légalisé Non c'est pas net, là faut qu'j'arrêtes toutes ces canettes pour ensevelir un mal-être Que je comble avec mes barrettes et je fais mes rêves de palais, de la vodka sur le palet J'finis plus bas que terre comme la poussière que tu balaies Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh You might also like L'addictologie a détruit ma psychologie Mes Gremlins picolent aussi, déchirez-vous et follow me Souvenirs de fou en colonie J'avais pas l'même age, pas de bédave, aspect sage, aucune rayure sur le carénage Et sous alcool, on paraît brave ? Mais on sait pas trop ce qu'on fait J'me réveille à côté d'ma tass', elle m'dit Guizmo, t'as trop ronflé. Moi qui voulait tirer un coup mais qui n'a fait qu'tuer l'amour Moi qui avait peur de lutter qui a préféré s'buter chaque jour De toute façon rien à cirer, il me faut ma bière et un flash Loin d'être un shlag, deux trois potos sur un terrain vague La vie est cruelle, la bouteille l'adoucie Et quand j'la trompe avec du shit, elle m'fait des crises de jalousie Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Comment leur dire que j'aime trop ça, ils pensent que j'ai un blème-pro grave Caché au fond d'un verre d'Cognac ? Ou dans mes sons de mélomanes ? Surtout une fois qu'j'suis déprimé, j'deviens l'chouchou d'mon épicier Quand j'suis rentré qu'j'ai tisé, toutes les dix minutes j'vais pisser Ça... ça va aller t'inquiète, c'est c'que j'leur dis Là ils m'disent Ça va pas ?, même si tu dis Ça va aller, t'inquiète Alors dès fois j'me calme, et puis brusquement ça repart D'une canette, on passe à deux À deux canettes, on s'fait un bar Un apéro entre tiseurs, qui peut tourner à la cata Décomposé vers les six heures tu rentres fonce-dé à la casa Et ce soir on va remettre ça après l'rendez-vous chez l'médecin Prendre la dispense du D.A.F et aller retourner se mettre bien Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh</t>
+          <t>Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh Hé yo Guizi légendaire avec ses spliffs et ses cents bières J'sers des verres d'enfer, maman j'crois pas qu'ton fils est exemplaire J'ai encore perdu ma te-tê, j'ai encore perdu ma che-frai J'ai encore acheté une yeu-té que j'achève pour m'achever Et sûrement y'aura du Chivas, j'aurais pas froid même sans gilet De la tristesse sur le visage, j'éclaterais mon dernier billet Pour ne pas réaliser que la vie peut m'tétaniser Que le truc qui m'a dévalisé, est légalisé Non c'est pas net, là faut qu'j'arrêtes toutes ces canettes pour ensevelir un mal-être Que je comble avec mes barrettes et je fais mes rêves de palais, de la vodka sur le palet J'finis plus bas que terre comme la poussière que tu balaies Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh L'addictologie a détruit ma psychologie Mes Gremlins picolent aussi, déchirez-vous et follow me Souvenirs de fou en colonie J'avais pas l'même age, pas de bédave, aspect sage, aucune rayure sur le carénage Et sous alcool, on paraît brave ? Mais on sait pas trop ce qu'on fait J'me réveille à côté d'ma tass', elle m'dit Guizmo, t'as trop ronflé. Moi qui voulait tirer un coup mais qui n'a fait qu'tuer l'amour Moi qui avait peur de lutter qui a préféré s'buter chaque jour De toute façon rien à cirer, il me faut ma bière et un flash Loin d'être un shlag, deux trois potos sur un terrain vague La vie est cruelle, la bouteille l'adoucie Et quand j'la trompe avec du shit, elle m'fait des crises de jalousie Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Comment leur dire que j'aime trop ça, ils pensent que j'ai un blème-pro grave Caché au fond d'un verre d'Cognac ? Ou dans mes sons de mélomanes ? Surtout une fois qu'j'suis déprimé, j'deviens l'chouchou d'mon épicier Quand j'suis rentré qu'j'ai tisé, toutes les dix minutes j'vais pisser Ça... ça va aller t'inquiète, c'est c'que j'leur dis Là ils m'disent Ça va pas ?, même si tu dis Ça va aller, t'inquiète Alors dès fois j'me calme, et puis brusquement ça repart D'une canette, on passe à deux À deux canettes, on s'fait un bar Un apéro entre tiseurs, qui peut tourner à la cata Décomposé vers les six heures tu rentres fonce-dé à la casa Et ce soir on va remettre ça après l'rendez-vous chez l'médecin Prendre la dispense du D.A.F et aller retourner se mettre bien Ils voulaient que j'arrête la pillave, mais j'ai dit No, no, no. Sur que j'aime ça, pur ça m'gène pas comme l'eau, l'eau, l'eau Il n'y a plus de Ballantines Il y a de la bière et du champagne Ils voulaient que j'arrête la pillave, mais j'suis accro, woh, woh</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Bienvenue dans ma tête Bienvenue dans ma tête Yo yo Bienvenue dans ma tête, j'comprends ceux qui veulent pas entrer, ceux qui veulent en sortir et ceux qui attendent à l'entrée Ya beaucoup de saleté d'idée tordu t'y goutera tôt ou tard tu finiras vampire si t'es mordu Cest facile de perdre des que la street te guète L'état te suit de près et il te conforte mais sache quil te berne Meuf, taff, dans les mains d'un soucieux Bah ça donne un coup de vieux pas une punchline Cest pas des histoires, non ce nest pas des blagues j'tassure Des beurres, des blancs, des ptits noirs deviennent des salles crapules Lart de la ruse ils l'ont pigé vite traque la tune blouson et p'tit levis finissent en garde à vue Sqouatte la rue comme si y'avait pas de maison pour en kiffé une seul t'as charbonné 3 saisons ça va donner du travail au tek pendant que tu bavardes au tieks pavanant croyant être une caillera honnête Mieux pour mieux tu seras mieux dans un trou loin de ton milieu Finir vieux sans un sous Les détaillants rêve de gros, les gros de n'avoir jamais commencé on t'a raconté une histoire mais on te lavait romancée Une pensée aux frères qui subissent l'incarcération il arrive il est en chien soyez sympas les garçons J'ai débuté, j'avais pas un sous en poche comme un fou j'bougeais ma tête, une instru du wu dans l'poste Jessayais d'grater des verres ouais j'avais de la fougue en stock tour des feuges caravelle Les grands bicravent la poudre en lock, ma génération a des rêves Malheureusement tous s'en moque alors elle pète un plomb dérape et elle perce un trou dans le coffre Comment lui dire je ne sais pas, on connait la vie de tierquars en cas d'pépin, ya pas d'pépin nan ton fidèle ami te sépare Et j'sais que c'est pareil pour mes guizmettes et gremlinz de toute la France on cavale bataille pour ce tour d'avance Restons fière, restons digne, faisons les choses proprement, restons fort, restons clean, voyons les choses autrement Repars en courant, j'vise la cad et les bouches car l'proverbe dit c'est il pour il dent pour dent Entre le rap, l'alcool, le shit, le stress, la street, les flics, ma vie chavire, j'évite de m'perdre. J'désarticule le beat Jsuis pas de ces Pinocchio guidé par des Gepetto qui manipulent le biz Nos habitudes de vie et salissure pousse à capituler Paris brule, moi j'simule sous calumé Allez dites-moi, qui va s'mettre sur mon chemin, j'vide ma teille, nique ma tête dite voie claire sur mon frein J'ai fait mes classes avec des amoureux du risque, savourant du shit Les cours ce nétait pas pour eux tu pige, alors on a lâché la school Mes chiens de la casse ne font pas de brushing, Sil vous plait ne me parler pas de snoop! Venez voir en France quand un Paris, Marseille dérape Des mecs finissent a l'hôpital, souvent ca crie, ça verse des larmes Fini de blaguer, j'vois que tous veulent damer Jcrois que si t'es pas vrai ou bien camé, tu t'fais casser le bras Les regards sont tristes, haineux ou enragé Mes refrè flippent vivent ténébreux ou engagés, vénéneux et entassé dans ces HLM encrassé Ca fait bien longtemps qu'on voit plus le temps passer Sans taffer, devant le hall aligné dans une zone quadrillé avec un palier qui sent le mafé Mes gars savent que je dis vrai, connaissent les bagarres, les garde a v', les braquages, la rue, les tracas de l'ivresse Isolé dans ma tête, prisonnier dans ma tess j'étais si mauvais que sans ma bière, j'picolais sans arrêt pété Jfinissais au sol diminué avec une envie d'pisser car trop tôt initié au rhum Jpleure des poèmes et j'arrêterai d'me niquer le foi juste une fois que j'aurais trouvé le cur du problème À cause du shit on a des trous dans la tête, si ya un trou dans la caisse, faut que t'en retrouve dans la semaine Sur les routes de l'ivresse, on roule à bien plus de 200, si tu nous fais une prise d'alcool Tu peux même trouver un peu de sang, laisse tomber tout ce que tu sais, cherche à savoir c'que t'ignores Ya ceux qui sont déjà morts dans le film et ceux qui dorment Juste au cas où, j'me disais qu'il fallait que jt'informe ici la vie nous mets des baffes Et sache quelle ny va pas de main morte Jaime les rues de ma ville quand ça tise, quand ça rap c'est dans la bat frère si ta rime sent la barquette Guiz dans la place, j'effrite dans la cave, j'sais que si j'vends d'la cam, mon esprit prendra flamme et j'écris sans la maille Jai même pas d'travail, j'traine dans la rue ou dans les keftas d'paname Et j'suis défoncé H24, pas bsoin de cam, tout va mieux après 4 joints d'frappe merde! Des raps bien sals ouais c'est tout c'que j'sais faire authentique sur le dos, j'porte le blues de mes frères Personne ne bouge, on écoute attentivement man sans tirmen Jte préviens nan j'le frai pas gentiment Jai super faim et j'compte bien laisser ma trace Il y a de la place pour tout le monde si chacun reste à sa place Jai super faim et j'compte bien laisser ma trace, il y a de place pour tout le monde si chacun reste a sa place GUIZIOUZOU sisi coucouParoles rédigées et annotées par la communauté française de Rap GeniusYou might also like</t>
+          <t>Bienvenue dans ma tête Bienvenue dans ma tête Yo yo Bienvenue dans ma tête, j'comprends ceux qui veulent pas entrer, ceux qui veulent en sortir et ceux qui attendent à l'entrée Ya beaucoup de saleté d'idée tordu t'y goutera tôt ou tard tu finiras vampire si t'es mordu Cest facile de perdre des que la street te guète L'état te suit de près et il te conforte mais sache quil te berne Meuf, taff, dans les mains d'un soucieux Bah ça donne un coup de vieux pas une punchline Cest pas des histoires, non ce nest pas des blagues j'tassure Des beurres, des blancs, des ptits noirs deviennent des salles crapules Lart de la ruse ils l'ont pigé vite traque la tune blouson et p'tit levis finissent en garde à vue Sqouatte la rue comme si y'avait pas de maison pour en kiffé une seul t'as charbonné 3 saisons ça va donner du travail au tek pendant que tu bavardes au tieks pavanant croyant être une caillera honnête Mieux pour mieux tu seras mieux dans un trou loin de ton milieu Finir vieux sans un sous Les détaillants rêve de gros, les gros de n'avoir jamais commencé on t'a raconté une histoire mais on te lavait romancée Une pensée aux frères qui subissent l'incarcération il arrive il est en chien soyez sympas les garçons J'ai débuté, j'avais pas un sous en poche comme un fou j'bougeais ma tête, une instru du wu dans l'poste Jessayais d'grater des verres ouais j'avais de la fougue en stock tour des feuges caravelle Les grands bicravent la poudre en lock, ma génération a des rêves Malheureusement tous s'en moque alors elle pète un plomb dérape et elle perce un trou dans le coffre Comment lui dire je ne sais pas, on connait la vie de tierquars en cas d'pépin, ya pas d'pépin nan ton fidèle ami te sépare Et j'sais que c'est pareil pour mes guizmettes et gremlinz de toute la France on cavale bataille pour ce tour d'avance Restons fière, restons digne, faisons les choses proprement, restons fort, restons clean, voyons les choses autrement Repars en courant, j'vise la cad et les bouches car l'proverbe dit c'est il pour il dent pour dent Entre le rap, l'alcool, le shit, le stress, la street, les flics, ma vie chavire, j'évite de m'perdre. J'désarticule le beat Jsuis pas de ces Pinocchio guidé par des Gepetto qui manipulent le biz Nos habitudes de vie et salissure pousse à capituler Paris brule, moi j'simule sous calumé Allez dites-moi, qui va s'mettre sur mon chemin, j'vide ma teille, nique ma tête dite voie claire sur mon frein J'ai fait mes classes avec des amoureux du risque, savourant du shit Les cours ce nétait pas pour eux tu pige, alors on a lâché la school Mes chiens de la casse ne font pas de brushing, Sil vous plait ne me parler pas de snoop! Venez voir en France quand un Paris, Marseille dérape Des mecs finissent a l'hôpital, souvent ca crie, ça verse des larmes Fini de blaguer, j'vois que tous veulent damer Jcrois que si t'es pas vrai ou bien camé, tu t'fais casser le bras Les regards sont tristes, haineux ou enragé Mes refrè flippent vivent ténébreux ou engagés, vénéneux et entassé dans ces HLM encrassé Ca fait bien longtemps qu'on voit plus le temps passer Sans taffer, devant le hall aligné dans une zone quadrillé avec un palier qui sent le mafé Mes gars savent que je dis vrai, connaissent les bagarres, les garde a v', les braquages, la rue, les tracas de l'ivresse Isolé dans ma tête, prisonnier dans ma tess j'étais si mauvais que sans ma bière, j'picolais sans arrêt pété Jfinissais au sol diminué avec une envie d'pisser car trop tôt initié au rhum Jpleure des poèmes et j'arrêterai d'me niquer le foi juste une fois que j'aurais trouvé le cur du problème À cause du shit on a des trous dans la tête, si ya un trou dans la caisse, faut que t'en retrouve dans la semaine Sur les routes de l'ivresse, on roule à bien plus de 200, si tu nous fais une prise d'alcool Tu peux même trouver un peu de sang, laisse tomber tout ce que tu sais, cherche à savoir c'que t'ignores Ya ceux qui sont déjà morts dans le film et ceux qui dorment Juste au cas où, j'me disais qu'il fallait que jt'informe ici la vie nous mets des baffes Et sache quelle ny va pas de main morte Jaime les rues de ma ville quand ça tise, quand ça rap c'est dans la bat frère si ta rime sent la barquette Guiz dans la place, j'effrite dans la cave, j'sais que si j'vends d'la cam, mon esprit prendra flamme et j'écris sans la maille Jai même pas d'travail, j'traine dans la rue ou dans les keftas d'paname Et j'suis défoncé H24, pas bsoin de cam, tout va mieux après 4 joints d'frappe merde! Des raps bien sals ouais c'est tout c'que j'sais faire authentique sur le dos, j'porte le blues de mes frères Personne ne bouge, on écoute attentivement man sans tirmen Jte préviens nan j'le frai pas gentiment Jai super faim et j'compte bien laisser ma trace Il y a de la place pour tout le monde si chacun reste à sa place Jai super faim et j'compte bien laisser ma trace, il y a de place pour tout le monde si chacun reste a sa place GUIZIOUZOU sisi coucouParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ma mère me manque, ça fait 3 jours j'ai pas dé-saouler J'ai le coeur à moitié troué, j'me roule un joint dans la foulée J'en parle la gorge nouée, négro j'suis à bout Longtemps j'était dévoué mais les négros tuent ma fougue Alors je traine dans la zup, j'fume pas sur les uc Ca bicrave des stups et puis toute sorte de truc Et des fils de putes me test, la vie de rue me blesse Oui je tue, oui je fume, c'est le négro qui te baises Mélancolique j'me tue la santé rien à foutre demain c'est comment ? J'suis alcoolique pied au plancher j'ai faillit creuver au volant Passe une bière et du shit collant tu verras j'vais développer ma plume Décrocher la lune, non j'rigole j'vais débloquer d'la tune Et frauder d'la pute une fois qu'le concert est plié La rue, la ruche, la zup ça tue si tu prend pas ton billet Les stups, les uc, les chutes , bah ça peut te faire vriller J'ai vu des luttes des trucs qui font des mamas crier motherfucker J'kick sur la prod... Pendant qu'j'tire sur ma drogue J't'ai dans la peau j't'ai dans l'sang, sans toi c'est la merde Ouais j't'embrasse et apres, c'est les crochets dans l'ventre Et on procède ensemble depuis pas mal de temps T'es souvent présent dans mes baguarre de bandes Sale pute, tu traines dans tous les bars de Paris Jusque tard dans la nuit Même des shlags de te calinent, mais j't'en veux pas Tu sais qu'j'ai besoin d'toi Toujours la même rengaine chaque fois je reviens d'voir Mais toi tu dis jamais rien, comme si ça comptais pas C'est pas bon présage Et moi j'y pense quand j'suis foncedé l'soir, quand on s'sépare Tu sais pas comment j'pete un plomb, j'me dis mec tiens bon Mais c'est tard là il m'reste qu'un fond Sale garce tu blesses un con, j'me suis laissé faire mais j'suis rester fier C'est pas moi qui baisse d'un ton T'façon faut pu que j'te vois même si j'en creve d'envie Nan il faut que j'reste en vie Et pas que j'me bute le soir et ça oui tu le vois, le coeur et l'estomac Moi j'en peux plus de voir, les pleurs et des comas Fait moi oublier qu'j'ai mal fais ça vite ouais, je t'aimerai à vie et j'vais roupiller tres tard Check, on écrira pour mes potes dans la rue qui dorment J'caresserais ton goulot et ta robe en aluminium Malgrés ça, je sais qu'tu veux ma perte Tu m'ammenes que d'la merde et j'le vois bien dans les yeux d'ma mere ! You might also likeSale pute !2</t>
+          <t>Ma mère me manque, ça fait 3 jours j'ai pas dé-saouler J'ai le coeur à moitié troué, j'me roule un joint dans la foulée J'en parle la gorge nouée, négro j'suis à bout Longtemps j'était dévoué mais les négros tuent ma fougue Alors je traine dans la zup, j'fume pas sur les uc Ca bicrave des stups et puis toute sorte de truc Et des fils de putes me test, la vie de rue me blesse Oui je tue, oui je fume, c'est le négro qui te baises Mélancolique j'me tue la santé rien à foutre demain c'est comment ? J'suis alcoolique pied au plancher j'ai faillit creuver au volant Passe une bière et du shit collant tu verras j'vais développer ma plume Décrocher la lune, non j'rigole j'vais débloquer d'la tune Et frauder d'la pute une fois qu'le concert est plié La rue, la ruche, la zup ça tue si tu prend pas ton billet Les stups, les uc, les chutes , bah ça peut te faire vriller J'ai vu des luttes des trucs qui font des mamas crier motherfucker J'kick sur la prod... Pendant qu'j'tire sur ma drogue J't'ai dans la peau j't'ai dans l'sang, sans toi c'est la merde Ouais j't'embrasse et apres, c'est les crochets dans l'ventre Et on procède ensemble depuis pas mal de temps T'es souvent présent dans mes baguarre de bandes Sale pute, tu traines dans tous les bars de Paris Jusque tard dans la nuit Même des shlags de te calinent, mais j't'en veux pas Tu sais qu'j'ai besoin d'toi Toujours la même rengaine chaque fois je reviens d'voir Mais toi tu dis jamais rien, comme si ça comptais pas C'est pas bon présage Et moi j'y pense quand j'suis foncedé l'soir, quand on s'sépare Tu sais pas comment j'pete un plomb, j'me dis mec tiens bon Mais c'est tard là il m'reste qu'un fond Sale garce tu blesses un con, j'me suis laissé faire mais j'suis rester fier C'est pas moi qui baisse d'un ton T'façon faut pu que j'te vois même si j'en creve d'envie Nan il faut que j'reste en vie Et pas que j'me bute le soir et ça oui tu le vois, le coeur et l'estomac Moi j'en peux plus de voir, les pleurs et des comas Fait moi oublier qu'j'ai mal fais ça vite ouais, je t'aimerai à vie et j'vais roupiller tres tard Check, on écrira pour mes potes dans la rue qui dorment J'caresserais ton goulot et ta robe en aluminium Malgrés ça, je sais qu'tu veux ma perte Tu m'ammenes que d'la merde et j'le vois bien dans les yeux d'ma mere ! Sale pute !2</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ooooh Bam, bam G2 Binks Guizi Ouzou YW, blé mafia Wesh Dimam'z GP Ganster'zs Guy2Binks, partout je vais, gros, la street est derrière mon dos On va tirer les ch'veux, dans ma jungle on casse tous les dos Amigo, amigo, amigo, m'cherche pas partout, j'suis dans le bando Tu m'appelles mais j'ai plusieurs bigos, on charbonne comme X pour être gosse beau Y'a qui pour la gue-gue-guerre ? Shuut, j'crois qu'ils sont tous cachés On déboule en fe-fe-fer, j'pense à ces bâtards j'ai du mal à mâcher Igo, hess, crack, bédo, j'suis dans l'espace Négro, Guy2, Bez', j'déboule, je pèse trop grave, c'est trop Ça va chier des gros billets, la tête de mes pom-pom-pom D'jà qu'ils le disent ça va, rien qu'ils pom-pom-pompent Te mets pas à côté de moi si tu pompes, pompes, pompes H-A-B-mafia ils sortent le pompe, pompe, pompe You might also like Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet J'ai vu mes ennemis me regarder en face comme si j'avais niquer leurs mères J'ai rodé toute la nuit, j'ai vidé mon pocheton, j'suis pété je n'ai plus d'repère Je sais c'que ça fait d's'endormir avec le ventre vide J'veux prendre le biff Et si ces bâtards veulent me bloquer, j'repartirais vendre le shit Je magouille et je baraude Des cagoules et des cassos J'suis parti en sucette Et ma mère croit que c'est de sa faute Coller, coller, coller, coller, coller la massa Allumer le pétard et fumer la gandja Tu verras que c'est la NASA 9 millimètre et le glock est de préférence On va t'allumer ton trou d'balle, ça f'ra du taf' pour le révérend Qui joue les fous à bès-Bar ou à Villeneuve ? Ta mère te cherche pendant trois jours, t'étais dans la cave d'un immeuble Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet</t>
+          <t>Ooooh Bam, bam G2 Binks Guizi Ouzou YW, blé mafia Wesh Dimam'z GP Ganster'zs Guy2Binks, partout je vais, gros, la street est derrière mon dos On va tirer les ch'veux, dans ma jungle on casse tous les dos Amigo, amigo, amigo, m'cherche pas partout, j'suis dans le bando Tu m'appelles mais j'ai plusieurs bigos, on charbonne comme X pour être gosse beau Y'a qui pour la gue-gue-guerre ? Shuut, j'crois qu'ils sont tous cachés On déboule en fe-fe-fer, j'pense à ces bâtards j'ai du mal à mâcher Igo, hess, crack, bédo, j'suis dans l'espace Négro, Guy2, Bez', j'déboule, je pèse trop grave, c'est trop Ça va chier des gros billets, la tête de mes pom-pom-pom D'jà qu'ils le disent ça va, rien qu'ils pom-pom-pompent Te mets pas à côté de moi si tu pompes, pompes, pompes H-A-B-mafia ils sortent le pompe, pompe, pompe Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet J'ai vu mes ennemis me regarder en face comme si j'avais niquer leurs mères J'ai rodé toute la nuit, j'ai vidé mon pocheton, j'suis pété je n'ai plus d'repère Je sais c'que ça fait d's'endormir avec le ventre vide J'veux prendre le biff Et si ces bâtards veulent me bloquer, j'repartirais vendre le shit Je magouille et je baraude Des cagoules et des cassos J'suis parti en sucette Et ma mère croit que c'est de sa faute Coller, coller, coller, coller, coller la massa Allumer le pétard et fumer la gandja Tu verras que c'est la NASA 9 millimètre et le glock est de préférence On va t'allumer ton trou d'balle, ça f'ra du taf' pour le révérend Qui joue les fous à bès-Bar ou à Villeneuve ? Ta mère te cherche pendant trois jours, t'étais dans la cave d'un immeuble Ils voulaient pas qu'on gagne, on a fini winner Ils voulaient tous qu'on chute, déjà étant mineur J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts Si ça part en couilles, on est prêts J'ves-qui les keufs, alléluia Ça fume la peuf, c'est la foulia Ça va chier, ça va, ça va chier Ça va chier, ça va, ça va chier J'ai cravaché, dans le sachet</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ya foye, ya foye ! Ok les gens sont blessés, les gens sont stressés Papa je suis fatigué s'il te plaît faut me laisser J'ai quitté la cité, j'ai besoin de m'apaiser Me changer les idées, ni téléphone ni pc Enfant du pays, je n'mange que du mafé La misère a sévit, on s'arrête pas de taffer Sénégal ou Mali, Côte d'Ivoire au Zaïre Jusqu'à la Mauritanie on veut juste faire nos valises C'est l'Homme qui a peur mais ya foye Ya foye, ya foye Y'a pas de problèmes... Ya foye, ya foye Sinon tout va très bien Ya foye, ya foye On a rien à perdre Ya foye, ya foye Besoin de m'évader, j'en ai marre d'être égaré Valenton, Villeneuve La Garenne, tous les jours on est dans l'arène J'suis un sénégalais qui s'endort avec ses galères Fuck les strass et puis les paillettes, j'veux des billets dans la mallette Et j'me vois au Camer posé avec les massas XXX J'pose au Congo, j'me sé-po dans un ganda Et comme en Gambie il fait chaud, y'a d'la ganja You might also like C'est l'Homme qui a peur mais ya foye Ya foye, ya foye Y'a pas de problèmes... Ya foye, ya foye Sinon tout va très bien Ya foye, ya foye On a rien à perdre Ya foye, ya foye J'appelle mon cousin du bled et comme d'hab il a faim C'est l'Homme qui a peur sinon il y a rien x24</t>
+          <t>Ya foye, ya foye ! Ok les gens sont blessés, les gens sont stressés Papa je suis fatigué s'il te plaît faut me laisser J'ai quitté la cité, j'ai besoin de m'apaiser Me changer les idées, ni téléphone ni pc Enfant du pays, je n'mange que du mafé La misère a sévit, on s'arrête pas de taffer Sénégal ou Mali, Côte d'Ivoire au Zaïre Jusqu'à la Mauritanie on veut juste faire nos valises C'est l'Homme qui a peur mais ya foye Ya foye, ya foye Y'a pas de problèmes... Ya foye, ya foye Sinon tout va très bien Ya foye, ya foye On a rien à perdre Ya foye, ya foye Besoin de m'évader, j'en ai marre d'être égaré Valenton, Villeneuve La Garenne, tous les jours on est dans l'arène J'suis un sénégalais qui s'endort avec ses galères Fuck les strass et puis les paillettes, j'veux des billets dans la mallette Et j'me vois au Camer posé avec les massas XXX J'pose au Congo, j'me sé-po dans un ganda Et comme en Gambie il fait chaud, y'a d'la ganja C'est l'Homme qui a peur mais ya foye Ya foye, ya foye Y'a pas de problèmes... Ya foye, ya foye Sinon tout va très bien Ya foye, ya foye On a rien à perdre Ya foye, ya foye J'appelle mon cousin du bled et comme d'hab il a faim C'est l'Homme qui a peur sinon il y a rien x24</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Chiguiricheck, yo ! Oh, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort c'est un flingue sur la tempe qu'j'arrive Des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillaient, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes, non ? Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elles détaillent à bas prix Ma reum au RSA, j'm'en bas les couilles d'bicrave à bas prix Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, mais on a jamais vu la mer Paris Plages à ris-pa p'tit frelon, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec eh ! Call of Duty, Street Fighter, comment tu veux qu'on soit peace ? Give me the lighter Aromatise avec la tise, motherfucker You might also like GPG dans les bacs depuis l'trois juin, YW Les Meilleures punchlines, c'est qui ? Hein ? Hein ? Les Meilleures punchlines, c'est qui ? Hein ? Hein ? Wesh ! Chiguiricheck, mec, c'est le ouzou guizi J'ai 25 ans maintenant, ouais J'ai 25 ans et dans un an, j'peux leur demander l'RSA Elle veut pas donner d'CDI, elle a cru qu'bicrave j'aimais ça Putain, c'est quoi les bails mec, on tise le sky sec Et ouais ma belle, on taffe 6 mois, on t'prends tes ASDEC Casquettes, baskets, ouais, c'est la dégaine Parfois, on fait des el connerie, tout ça parce qu'on a des guns Et bah ouais, on craint dégun, jusqu'à Marseille on t'emmerde Du 7-5 au ze-trei, tu sais que t'as r'connu lemblème Ok Mimi, t'es pas mimi On veut du taf' et l'milli mais tu t'en fous, tu veux nous voir trimer jusqu'à l'infinie C'est pour mes travailleurs, nique sa mère si elle passe la loi On prend du shit, un peu d'ke-co, heneni on passe la douane M'en fous du bling-bling, 9-4 c'est bim-bim C'est moi la neuvième bastos qu'a plombé Fifty Travailler plus, prendre le bus, pour une loi de fils de pute La sécurité de l'emploi n'existe plus Merde, on s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé han On s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé brraah Et je fais feu sur ces salopards wouh, wouh Toutes mes condoléances et un grand respect à toute la famille de Adama Traoré Allah y rahmo, ouais, ouais, ouais Tous ses proches, ses frères, ses soeurs, ses cousins, ses cousines, ses oncles, ses tantes Son grand-père, sa grand-mère, si ils sont toujours là Mobilisez-vous les gars, on s'fait shooter, on s'fait shooter Et c'est la merde mec, ouais c'est la merde mec Yo, j'ai vendu la CC, l'crack, j'ai vendu des kilos de shit Ouais y'avait qu'la dèche et le rap, à l'époque du frigo vide 9 millimètres et j't'éclate J'suis pété, j'suis psychotique Nique sa grand-mère à la JAP Et à ces putains d'flics aussi Plongé dans ma folie mes pensées sont illogiques Et après quelques verres j'ai le QI d'un trisomique Bercé par la guerre et par le chant des hypocrites On a baigné dans la merde, on per-ra on se bute au spliff Tête de ma mère j'men bas la bite Ouais j'suis flex dans mon tieks, roule un pet en bas d'la street On croyait qu'c'était zen et qu'on faisait l'nécessaire Tu verrais la tête des frères depuis qu'ils ont pété Jeff C'est la merde, j'suis posé dans mon bendo J'ai trop d'ennemis, j'me suis pris un deuxième Extendo J'ai pas ton âge, vas-y j'tenvois mon p'tit frère Il bicrave dans mon dos et dans son froc un Glock 17 Me tentez pas j'vais faire une dinguerie Une vendetta, une chambre d'hôtel et ta p'tite soeur en lingerie Yo, mon GP vend toutes sortes de saloperies Des bicraveurs, des malotrus Des tarots d'shit t'as mal au cul, hein C'est dans la zone qu'on a fait nos armes Bezbar, Villeneuve, weed, bedo, crack Fait pas les fous l'ami, tu n'es qu'un fugazi Il lèche des culs, il lèche des bites, il lèche des punanis Guizmo, c'est mortel, c'est l'bordel dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper alors me parle pas d'flow Guizmo, c'est mortel, c'est l'bordel dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper alors me parle pas d'flow ah Écoute-moi, yo, YW, Z.S écoute-moi, yo, check J'ai vu des trucs dégueulasses J'ai vu maman torcher des vieilles Pour aller nous acheter deux glaces Et voir son fils porter des J's J'ai vu papa ber-ger après quelques 8.6 Se lever pour vendre la 0.9 que les clients trouvaient 1010 J'ai vu mes potes braquer Me dire j'arrête puis retourner braquer Pour me redire j'arrête avant d'me faire plaquer Ça m'fait rire, on est pas bien faut du fric Avec un kilo d'bédo j'deviens Jésus les pains se dupliquent La roue tourne comme un joint d'me-sseu Bouge on est plein d'ne-jeu Quand ma chatte est en chien elle a besoin d'monsieur Doux et je flingue dessus, rien qu'je fume plein d'pe-stu Où est l'dingue qui fait l'dingue qu'on lui flingue dessus ? Quelques grammes de pure, tu finis sous écrous À force de jouer les durs tu finis par t'faire bourrer l'mou il pour il, dent pour dent même si t'es aveugle et qu't'as plus d'chicots Une baraque au bled, tu m'revois plus d'si tôt Sur la tête du p'tit qu'j'ai pas, on est plein gros Synchro quand j'ai plus d'souffle, le DJ back C'est pour mes rabatteurs de zeb, amateurs de zeb Qui savourent la victoire que quand t'as pas peur de perdre Et la vapeur me wet, il faut stopper la fume Ok j'abuse, j'ai peur qu'un jour elle fasse poser ma plume Personne ne sait c'que j'ai dans l'crâne hein Tout c'que j'prépare, c'que j'bédave, c'que j'fais dans l'rap Un j'représente Deux j'fais mes diez de décembre à janvier Clair et net j'ai plus l'temps d'patienter bébé Nos vies c'est Woodstock, des flics, des foufs comme dans les films Parle pas d'tise j'ai vidé tout l'stock Qui veux ma cagnotte ? J'suis d'Villeneuve-La-Garenne, les immeubles, la galère J'connais des mecs qu'ont niqués ta salope Toujours en place, prêt à tout rafler Si chez moi y'a plus d'mafé j'vais manger un couscous en face Lascar de tess dis leur, j'tabasse le game direct Chez nous y'a plein d'dealers, non on a pas besoin d'tirettes Les renois voient rouge devant une carte bleue Demande pourquoi, on t'répondra parce que y'a pas d'flouze Gang ! Y'a un bolosse qui veux d'la C Jetez moi taser et gazeuse si y'a un colosse qui veut s'taper Moi j'ai plus envie d'salir ma nouvelle paire de Nike Air J'vais t'shooter vers le bas, ouais j'te troue les fesses et va t'faire mettre J'ai pas d'adversaires, tacle à la gorge, me parles pas d'fair-play Voué à les trouer, bat les couilles d'finir écroué J'suis en vie, que Dieu soit loué, j'suis pas venu pour échouer Et j'ai les punchs par dizaine, j'gueule pas j'dis vrai Personne sait skier mais tout l'monde veut le Val d'Isère La banlieue c'est chez moi, j'm'enfuis pas Même quand j'ai des dettes j'reste en bas d'la tess mama fait l'esthète Et j'vais pas pleurnicher, ils voudraient qu'j'le fasse En attendant j'suis bourré sous flash victime de leurs clichés Mec on est trop déter' Ouais, ouais, ouais, quoi qu'on est trop déter' YW, les meilleures punchlines Guizmo, c'est moi l'meilleur et ça jusqu'à l'infinie Vous allez jamais l'avouer mais c'est moi l'boss, motherfucker woop ! Ouais c'est moi l'boss, motherfucker, bang !2</t>
+          <t>Chiguiricheck, yo ! Oh, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort c'est un flingue sur la tempe qu'j'arrive Des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillaient, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes, non ? Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elles détaillent à bas prix Ma reum au RSA, j'm'en bas les couilles d'bicrave à bas prix Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, mais on a jamais vu la mer Paris Plages à ris-pa p'tit frelon, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec eh ! Call of Duty, Street Fighter, comment tu veux qu'on soit peace ? Give me the lighter Aromatise avec la tise, motherfucker GPG dans les bacs depuis l'trois juin, YW Les Meilleures punchlines, c'est qui ? Hein ? Hein ? Les Meilleures punchlines, c'est qui ? Hein ? Hein ? Wesh ! Chiguiricheck, mec, c'est le ouzou guizi J'ai 25 ans maintenant, ouais J'ai 25 ans et dans un an, j'peux leur demander l'RSA Elle veut pas donner d'CDI, elle a cru qu'bicrave j'aimais ça Putain, c'est quoi les bails mec, on tise le sky sec Et ouais ma belle, on taffe 6 mois, on t'prends tes ASDEC Casquettes, baskets, ouais, c'est la dégaine Parfois, on fait des el connerie, tout ça parce qu'on a des guns Et bah ouais, on craint dégun, jusqu'à Marseille on t'emmerde Du 7-5 au ze-trei, tu sais que t'as r'connu lemblème Ok Mimi, t'es pas mimi On veut du taf' et l'milli mais tu t'en fous, tu veux nous voir trimer jusqu'à l'infinie C'est pour mes travailleurs, nique sa mère si elle passe la loi On prend du shit, un peu d'ke-co, heneni on passe la douane M'en fous du bling-bling, 9-4 c'est bim-bim C'est moi la neuvième bastos qu'a plombé Fifty Travailler plus, prendre le bus, pour une loi de fils de pute La sécurité de l'emploi n'existe plus Merde, on s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé han On s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé brraah Et je fais feu sur ces salopards wouh, wouh Toutes mes condoléances et un grand respect à toute la famille de Adama Traoré Allah y rahmo, ouais, ouais, ouais Tous ses proches, ses frères, ses soeurs, ses cousins, ses cousines, ses oncles, ses tantes Son grand-père, sa grand-mère, si ils sont toujours là Mobilisez-vous les gars, on s'fait shooter, on s'fait shooter Et c'est la merde mec, ouais c'est la merde mec Yo, j'ai vendu la CC, l'crack, j'ai vendu des kilos de shit Ouais y'avait qu'la dèche et le rap, à l'époque du frigo vide 9 millimètres et j't'éclate J'suis pété, j'suis psychotique Nique sa grand-mère à la JAP Et à ces putains d'flics aussi Plongé dans ma folie mes pensées sont illogiques Et après quelques verres j'ai le QI d'un trisomique Bercé par la guerre et par le chant des hypocrites On a baigné dans la merde, on per-ra on se bute au spliff Tête de ma mère j'men bas la bite Ouais j'suis flex dans mon tieks, roule un pet en bas d'la street On croyait qu'c'était zen et qu'on faisait l'nécessaire Tu verrais la tête des frères depuis qu'ils ont pété Jeff C'est la merde, j'suis posé dans mon bendo J'ai trop d'ennemis, j'me suis pris un deuxième Extendo J'ai pas ton âge, vas-y j'tenvois mon p'tit frère Il bicrave dans mon dos et dans son froc un Glock 17 Me tentez pas j'vais faire une dinguerie Une vendetta, une chambre d'hôtel et ta p'tite soeur en lingerie Yo, mon GP vend toutes sortes de saloperies Des bicraveurs, des malotrus Des tarots d'shit t'as mal au cul, hein C'est dans la zone qu'on a fait nos armes Bezbar, Villeneuve, weed, bedo, crack Fait pas les fous l'ami, tu n'es qu'un fugazi Il lèche des culs, il lèche des bites, il lèche des punanis Guizmo, c'est mortel, c'est l'bordel dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper alors me parle pas d'flow Guizmo, c'est mortel, c'est l'bordel dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper alors me parle pas d'flow ah Écoute-moi, yo, YW, Z.S écoute-moi, yo, check J'ai vu des trucs dégueulasses J'ai vu maman torcher des vieilles Pour aller nous acheter deux glaces Et voir son fils porter des J's J'ai vu papa ber-ger après quelques 8.6 Se lever pour vendre la 0.9 que les clients trouvaient 1010 J'ai vu mes potes braquer Me dire j'arrête puis retourner braquer Pour me redire j'arrête avant d'me faire plaquer Ça m'fait rire, on est pas bien faut du fric Avec un kilo d'bédo j'deviens Jésus les pains se dupliquent La roue tourne comme un joint d'me-sseu Bouge on est plein d'ne-jeu Quand ma chatte est en chien elle a besoin d'monsieur Doux et je flingue dessus, rien qu'je fume plein d'pe-stu Où est l'dingue qui fait l'dingue qu'on lui flingue dessus ? Quelques grammes de pure, tu finis sous écrous À force de jouer les durs tu finis par t'faire bourrer l'mou il pour il, dent pour dent même si t'es aveugle et qu't'as plus d'chicots Une baraque au bled, tu m'revois plus d'si tôt Sur la tête du p'tit qu'j'ai pas, on est plein gros Synchro quand j'ai plus d'souffle, le DJ back C'est pour mes rabatteurs de zeb, amateurs de zeb Qui savourent la victoire que quand t'as pas peur de perdre Et la vapeur me wet, il faut stopper la fume Ok j'abuse, j'ai peur qu'un jour elle fasse poser ma plume Personne ne sait c'que j'ai dans l'crâne hein Tout c'que j'prépare, c'que j'bédave, c'que j'fais dans l'rap Un j'représente Deux j'fais mes diez de décembre à janvier Clair et net j'ai plus l'temps d'patienter bébé Nos vies c'est Woodstock, des flics, des foufs comme dans les films Parle pas d'tise j'ai vidé tout l'stock Qui veux ma cagnotte ? J'suis d'Villeneuve-La-Garenne, les immeubles, la galère J'connais des mecs qu'ont niqués ta salope Toujours en place, prêt à tout rafler Si chez moi y'a plus d'mafé j'vais manger un couscous en face Lascar de tess dis leur, j'tabasse le game direct Chez nous y'a plein d'dealers, non on a pas besoin d'tirettes Les renois voient rouge devant une carte bleue Demande pourquoi, on t'répondra parce que y'a pas d'flouze Gang ! Y'a un bolosse qui veux d'la C Jetez moi taser et gazeuse si y'a un colosse qui veut s'taper Moi j'ai plus envie d'salir ma nouvelle paire de Nike Air J'vais t'shooter vers le bas, ouais j'te troue les fesses et va t'faire mettre J'ai pas d'adversaires, tacle à la gorge, me parles pas d'fair-play Voué à les trouer, bat les couilles d'finir écroué J'suis en vie, que Dieu soit loué, j'suis pas venu pour échouer Et j'ai les punchs par dizaine, j'gueule pas j'dis vrai Personne sait skier mais tout l'monde veut le Val d'Isère La banlieue c'est chez moi, j'm'enfuis pas Même quand j'ai des dettes j'reste en bas d'la tess mama fait l'esthète Et j'vais pas pleurnicher, ils voudraient qu'j'le fasse En attendant j'suis bourré sous flash victime de leurs clichés Mec on est trop déter' Ouais, ouais, ouais, quoi qu'on est trop déter' YW, les meilleures punchlines Guizmo, c'est moi l'meilleur et ça jusqu'à l'infinie Vous allez jamais l'avouer mais c'est moi l'boss, motherfucker woop ! Ouais c'est moi l'boss, motherfucker, bang !2</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Yo, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort si y'a un flingue sur la tempe J'arrive, des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillait, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elle détaille à bas prix Ma reum au RSA, j'm'en bas les couilles, bicrave le paki Call of Duty, Street Fighter! fighter Comment tu veux qu'on soit peace ? peace Il m'faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il faut mon public, mes gars, mes backers backer On a d'la weed, on a du shit on a du shit Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime You might also like Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, nous on a jamais vu la mer Paris Plages à ris-pa p'tit frère, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec Call of Duty, Street Fighter! Fighter! Comment tu veux qu'on soit peace ? peace Il faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il m'faut mon public, mes gars, mes backers backer! On a d'la weed, on a du shit on a du shit! Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime Yo, des soucis à la raque-ba, j'suis pas le seul à les connaître, non Faut rester connecté, ne pas caner bêtement On veut juste becter, pas finir les pieds devant Ne soyez pas vexé quand je dis que ces mecs mentent Ils parlent de cash, parlent de meuf, mais pas d'la CAF Ils parlent de baffes, parlent de puff, mais pas d'la cave Alors c'est sûr ils veulent nous mener en bateau J'fais partie des naufragés, j'préfère crever en radeau A se-lai au vago, bête de son à la radio Fonce-dé à la weed je fais les back comme un ado' J'suis pété comme mes Gremlin'zs, libre comme mes Guizmette'zs Dépêchez faut faire vite, on a besoin de biff mec Des frites et un beefsteak, si possible chez Hippo Illogique c'est Guizmo, j'hypnotise les rivaux Si ça marche plus, j'ferai du biff avec ma tess Un p'tit spliff et des Nike Air, viens pas m'piquer mes affaires Et si t'es un chien de la casse, tu peux nicher vers ma guerre Donne le hash, donne le cash, donne ton phone et ton adresse Ouais si t'es un chien de la casse, tu peux nicher vers ma guerre Donne le hash, donne le cash, donne ton phone et ton adresse Call of Duty, Street Fighter! Fighter! Comment tu veux qu'on soit peace ? peace Il faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il m'faut mon public, mes gars, mes backers backer! On a d'la weed, on a du shit on a du shit! Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime Y'a trop de 'blemes et quelques solutions On a rêvé des States, mais la bà chaise, rime avec électrocution C'est pour ma tess, pour la tienne, toutes les zones C'est pour ma zep, pour ma teille, pour mes khos YW, ziguidi zone sensible, jusqu'à l'infini, motherfucker's Y'a pas de thème parce que la vie en est un J'reste toujours le même quand les lumières sont éteintes Guizi Ouzou, sisi coucou Ziguidi woop woop, ah! X3 Ziguidi zone sensible, jusqu'à l'infini, motherfucker's! Bra Bra! Ziguidi check, ziguidi bang, c'est Guizmo! YW, woaah! Tu croyais quoi motherfucker ?! On allait se laisser faire comme ça ?! J'reprends mon pain mec, ok, ha ha! Dédicaces Yonea Willy Willy Yonea l'barge Même à l'envers ça marche! Met toi un doigt dans le cul motherfucker'zs! Woaaaahh! C'est qui les boss dis moi ? Hein ?! Ça fait 3 piges mec! Tu peux rien faire mec! On va t'la mettre mec! Guizi Ouzou, sisi coucou, Villeneuve jusqu'à l'infini! Haaaaaa! J'men bas les couilles! Haaaaaa! J'men bas les couilles! Haaaaa! Dédicaces Haaaaaa! J'men bas les couilles! Haaaaaa! Dans la cabine j'men bas les couilles! Et ouais, c'est comme ça qu'on fait les choses poupées Villeneuve la Garenne, les immeubles la galère, les filles veuves la galette et tout le reste, fils de pute! Ouais ouais, ouais ouais! Même quand j'te traite c'est cool X2 Et ouais mon pote, gros bisous! Dédicaces Tu peux rien faire, tu peux rien arrêter mec Dédicaces Ziguidi zone sensible, jusqu'à l'infini! Dédicaces3</t>
+          <t>Yo, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort si y'a un flingue sur la tempe J'arrive, des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillait, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elle détaille à bas prix Ma reum au RSA, j'm'en bas les couilles, bicrave le paki Call of Duty, Street Fighter! fighter Comment tu veux qu'on soit peace ? peace Il m'faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il faut mon public, mes gars, mes backers backer On a d'la weed, on a du shit on a du shit Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, nous on a jamais vu la mer Paris Plages à ris-pa p'tit frère, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec Call of Duty, Street Fighter! Fighter! Comment tu veux qu'on soit peace ? peace Il faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il m'faut mon public, mes gars, mes backers backer! On a d'la weed, on a du shit on a du shit! Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime Yo, des soucis à la raque-ba, j'suis pas le seul à les connaître, non Faut rester connecté, ne pas caner bêtement On veut juste becter, pas finir les pieds devant Ne soyez pas vexé quand je dis que ces mecs mentent Ils parlent de cash, parlent de meuf, mais pas d'la CAF Ils parlent de baffes, parlent de puff, mais pas d'la cave Alors c'est sûr ils veulent nous mener en bateau J'fais partie des naufragés, j'préfère crever en radeau A se-lai au vago, bête de son à la radio Fonce-dé à la weed je fais les back comme un ado' J'suis pété comme mes Gremlin'zs, libre comme mes Guizmette'zs Dépêchez faut faire vite, on a besoin de biff mec Des frites et un beefsteak, si possible chez Hippo Illogique c'est Guizmo, j'hypnotise les rivaux Si ça marche plus, j'ferai du biff avec ma tess Un p'tit spliff et des Nike Air, viens pas m'piquer mes affaires Et si t'es un chien de la casse, tu peux nicher vers ma guerre Donne le hash, donne le cash, donne ton phone et ton adresse Ouais si t'es un chien de la casse, tu peux nicher vers ma guerre Donne le hash, donne le cash, donne ton phone et ton adresse Call of Duty, Street Fighter! Fighter! Comment tu veux qu'on soit peace ? peace Il faut que j'me fusille, give me the lighter lighter Aromatise avec la tise Il m'faut mon public, mes gars, mes backers backer! On a d'la weed, on a du shit on a du shit! Il faut qu'je tue le beat, je l'éclate j'ai pas peur pas peur! Et j'suis subtile avec la rime Y'a trop de 'blemes et quelques solutions On a rêvé des States, mais la bà chaise, rime avec électrocution C'est pour ma tess, pour la tienne, toutes les zones C'est pour ma zep, pour ma teille, pour mes khos YW, ziguidi zone sensible, jusqu'à l'infini, motherfucker's Y'a pas de thème parce que la vie en est un J'reste toujours le même quand les lumières sont éteintes Guizi Ouzou, sisi coucou Ziguidi woop woop, ah! X3 Ziguidi zone sensible, jusqu'à l'infini, motherfucker's! Bra Bra! Ziguidi check, ziguidi bang, c'est Guizmo! YW, woaah! Tu croyais quoi motherfucker ?! On allait se laisser faire comme ça ?! J'reprends mon pain mec, ok, ha ha! Dédicaces Yonea Willy Willy Yonea l'barge Même à l'envers ça marche! Met toi un doigt dans le cul motherfucker'zs! Woaaaahh! C'est qui les boss dis moi ? Hein ?! Ça fait 3 piges mec! Tu peux rien faire mec! On va t'la mettre mec! Guizi Ouzou, sisi coucou, Villeneuve jusqu'à l'infini! Haaaaaa! J'men bas les couilles! Haaaaaa! J'men bas les couilles! Haaaaa! Dédicaces Haaaaaa! J'men bas les couilles! Haaaaaa! Dans la cabine j'men bas les couilles! Et ouais, c'est comme ça qu'on fait les choses poupées Villeneuve la Garenne, les immeubles la galère, les filles veuves la galette et tout le reste, fils de pute! Ouais ouais, ouais ouais! Même quand j'te traite c'est cool X2 Et ouais mon pote, gros bisous! Dédicaces Tu peux rien faire, tu peux rien arrêter mec Dédicaces Ziguidi zone sensible, jusqu'à l'infini! Dédicaces3</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Yakayakayakaya Guizi flame Guizi oùzoù Yonea Willy Willy Yonea business Casquette à l'envers j'prend mes billets comme un thug On m'voit dans toutes les cités, le renard n'aime pas les clubs Quelques grammes de cocaïne, je me dirige vers un pub Je vais livrer Caroline, elle sait que j'ai de la peuf Nouvelle montre suisse, j'suis au milieu de la tess Mille euros dans mon Levis, il faut bien gratter sa pièce Et bah ouais je sais qu'c'est triste, on senfume et on aggresse Mais ils s'prennent pour des pits, alors on les tient en laisse J'ai toujours le même objectif niquer toutes les prods et faire du textile Investir, une villa au bled avec un jet-ski Pourquoi tu ves-qui ? Tu dois du biff', tu le rends Messagerie, on vient chez toi sur le champ J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan You might also like Si on part en guerre y'a personne qui va s'en mêler On va sortir les milli', parce quon sait pas faire mollo Toujours une nouvelle paire, tu peux m'croiser en loc' T'as tiré avec le fer, il faut l'jeter dans un lac Quelques années en arrière, j'étais posé dans un block Il fallait des bénéfices, j'ai détaillé sur la plaque La police qui vient chez moi, ma mère qui subit un choc Après tout ça on déverse, ça va cuisiner des pâtes Aah, si t'es pas meilleur que moi igo tu fermes ta gueule Et mes ennemies et mes groupies ils ont qu'à faire la queue Y'a maman qui change les couches, y'a papa qui fume la kush Que du biff sur le terrain, j'suis trop deuss' J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan La pluspart des trucs que j'rappe bah j'ai plus envie d'les vivre Hier j'ai fait une bagarre, j'avais trop bu, j'étais ivre Igor au bout du fil, ça raconte quoi mon soss? J'me balade dans la ville en train d'chercher des pesos VLT Zoo c'est ma rue, j'ai du pilon sous ma raie Les tits-pe jettent des cailloux, y'a les condés sans arrêt Lamine Diakité, j'suis prêt depuis qu'j'suis né Le proc' a mis des mois, j'veux sortir il a dit non J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan j'e sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan J'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? A cause des jaloux et des ordures Je sais plus où j'en suis Je sais plus où j'en suis Je sais plus où j'en suis Je sais plus où j'en suis YW bizness Yonea Willy, Willy Yonea gang G.P Ouzou, si si coucou aah2</t>
+          <t>Yakayakayakaya Guizi flame Guizi oùzoù Yonea Willy Willy Yonea business Casquette à l'envers j'prend mes billets comme un thug On m'voit dans toutes les cités, le renard n'aime pas les clubs Quelques grammes de cocaïne, je me dirige vers un pub Je vais livrer Caroline, elle sait que j'ai de la peuf Nouvelle montre suisse, j'suis au milieu de la tess Mille euros dans mon Levis, il faut bien gratter sa pièce Et bah ouais je sais qu'c'est triste, on senfume et on aggresse Mais ils s'prennent pour des pits, alors on les tient en laisse J'ai toujours le même objectif niquer toutes les prods et faire du textile Investir, une villa au bled avec un jet-ski Pourquoi tu ves-qui ? Tu dois du biff', tu le rends Messagerie, on vient chez toi sur le champ J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan Si on part en guerre y'a personne qui va s'en mêler On va sortir les milli', parce quon sait pas faire mollo Toujours une nouvelle paire, tu peux m'croiser en loc' T'as tiré avec le fer, il faut l'jeter dans un lac Quelques années en arrière, j'étais posé dans un block Il fallait des bénéfices, j'ai détaillé sur la plaque La police qui vient chez moi, ma mère qui subit un choc Après tout ça on déverse, ça va cuisiner des pâtes Aah, si t'es pas meilleur que moi igo tu fermes ta gueule Et mes ennemies et mes groupies ils ont qu'à faire la queue Y'a maman qui change les couches, y'a papa qui fume la kush Que du biff sur le terrain, j'suis trop deuss' J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan La pluspart des trucs que j'rappe bah j'ai plus envie d'les vivre Hier j'ai fait une bagarre, j'avais trop bu, j'étais ivre Igor au bout du fil, ça raconte quoi mon soss? J'me balade dans la ville en train d'chercher des pesos VLT Zoo c'est ma rue, j'ai du pilon sous ma raie Les tits-pe jettent des cailloux, y'a les condés sans arrêt Lamine Diakité, j'suis prêt depuis qu'j'suis né Le proc' a mis des mois, j'veux sortir il a dit non J'ai toujours rêvé de dormir, j'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur, pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? Han yaya A cause des jaloux et des ordures, Rarara Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan j'e sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan je sais plus où j'en suis Je sais plus où j'en suis, je sais plus où j'en suis Nan je sais plus où j'en suis, nan nan nan nan J'ai toujours rêvé de dormir Pour ma mère il faut de l'or pur J'me demande pourquoi ce breli' ? A cause des jaloux et des ordures Je sais plus où j'en suis Je sais plus où j'en suis Je sais plus où j'en suis Je sais plus où j'en suis YW bizness Yonea Willy, Willy Yonea gang G.P Ouzou, si si coucou aah2</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>C'est avec la rue, que la tess' te maque Mes rimes t'estomaquent, 1-2 1-2 test au mic' Non n'viens pas test Thomas J'ai la vitesse d'une MacLaren, alors mate la rime Prends mon rap, comme un rail de cess dans chaque narine Tout l'monde s'écarte quand un nouveau black arrive Moi j'suis le nouvel attentat qui éclate Paris Aussi violent qu'Tony Montana dans un tas d'farine J'm'adresse aussi aux petites nanas qui n'ont pas d'maris Viens pas t'marrer, les rats d'ma rue f'ront mouiller les raz-de-marée Il est rare d'm'arrêter dès qu'j'suis lancé t'es mal barré J't'insulte mais, j'reste aimable, à c'qui parait t'encaisses les balles J'prendrais pas qu'tes restes man parce que ton rap empeste grave Sango passe un message quelque soit votre âge Si je jette l'encre sur ma feuille c'est pour éviter de faire un naufrage J'ai pas besoin de boire d'alcool sans ça j'déboîte la prod Et j'fais pas d'la broderie considère qu'j'te vends d'la drogue Prends ta dose, avant que j'mette pause, que j'explose J'te dis juste quelque chose avant d'laisser d'autres mecs poser Mes négros trippent sur mes égo-trips, et textes posés C'est quand j'expose des bonnes choses qu'on m'laisse causer Je reste bosser, pour que mon vu soit exaucé Mes ex aussi ont l'impression d'être excisées Je reste docile, pour n'pas avoir à m'excuser Avec les femmes on sait jamais toi-même tu sais c'que c'est C'est difficile pour moi, de transformer une pétasse en sur Donc, j'te montre tout c'que l'État censure même dans cet ascenseur Ça signe, à la SACEM, ça saigne lyrical assassin Et là ça sent le classique magique tu veux une place assise ? Non non non, je m'assagis parait-il qu'il s'agit d'une hémorragie Mes mots s'agitent alors cours vite si t'as les os fragiles J'suis celui, que les négros plagient celui qu't'imagines en train d'te mettre des gifles à cause des punchlines que t'emmagasines You might also like Yeah, on rap comme en 2011 L'Entourage Rappelle-toi l'époque, en 2011 mec Maintenant, 2019, c'est plus vraiment l'même On a les flows next level Tu rappais quoi à l'époque ? Qu'est-ce tu rappais à l'époque ? On disait genre balance un autre joint, ça f'sait genre Fennek resplendit, même dans l'ivresse, j'reste dandy Ex-bandit, tandis que j'baise, j'brandis le texte, qu'est-ce t'en dis ? Reste tranquille, j'pèse en finesse, baise en vitesse Tant pis, j'reste en ville, envie d'fesses mais pas d'gestes gentils Laisse j'estampille le Nek', faut m'backer si j'arrête J'fume pas mais pour draguer j'ai mon paquet d'cigarettes Mon ectoplasme, porte l'estocade même si j'rétrograde Et teste au mac depuis le berceau j'rappe donc viens pas test au mic Alpha o-wann Aka ''Sosa'' sous col-al dans un sonacotra Et comme les monarques, les MC's sont dans d'beaux draps J'déclenche furies climatiques avec les multi-syllabiques Les puristes m'imaginent en mélange Nubi B.Rabbit La théorie dit que ma rhétorique égo-trippe sur mes loli terrorisés perce la sclérotique des négroïdes Flow trop fat emcee cosmocats mes propos cassent l'omoplate Du sociopathe intouchable en rap comme un hologramme Hip-hopeur assidu d'habitude attitudes taciturnes, gaffe à ton matricule j'articule et tape les particules grave Ayo c'est Deen frérot, quoi d'neuf la mif Pas d'bluff j'arrive et les rappeurs balisent Fuck le récit d'blaireaux, ils gâchent leur salive S'ils font du rap thug moi j'veux voir leur calibre J'entends leurs merdes malgré moi comme un fumeur passif Mes khos aiguisent leurs canines, pire qu'des leaders d'manif' Si t'es une sister câline, j'deviens killer d'manix Allez dîtes-leur qu'j'arrive, ils sont pris d'peur panique Négro, j'ai pas fini de me prendre la tête Et vendre la verte, personne va m'tendre la perche J'chante ma haine et j'sens que ça plait J'entre à peine dans l'rap mais j'bicrave le temps qu'ça paye Y'a tant de tapette qui parle de tarot, graille le carreau Moi j'ai qu'une parole mais 30 facettes Le ventre à sec j'bédave des garots Mes gars t'éclatent au mic et si c'est pas l'cas ils t'plantent à sept L'entourage L'entourage, bébé À l'époque, en 2011, L'Entourage contrôlait l'shit Genre le, boule de freestyle, on s'en bat les Biiip, on fait la révolution mon gars Ils veulent interdire le hip-hop, on les Biiip ces p'tits pédés d'merde On va invoquer l'dragon sacré Cet enfoiré qui veut supprimer le Hip-hop, ramène le nous ET SACHES QU'EN 2019 LES MC'S PORTENTS DES BÉRETS Biiip Alors, mets toi à la page METS TOI À LA PUTAIN D'GE-PA, MON GARS</t>
+          <t>C'est avec la rue, que la tess' te maque Mes rimes t'estomaquent, 1-2 1-2 test au mic' Non n'viens pas test Thomas J'ai la vitesse d'une MacLaren, alors mate la rime Prends mon rap, comme un rail de cess dans chaque narine Tout l'monde s'écarte quand un nouveau black arrive Moi j'suis le nouvel attentat qui éclate Paris Aussi violent qu'Tony Montana dans un tas d'farine J'm'adresse aussi aux petites nanas qui n'ont pas d'maris Viens pas t'marrer, les rats d'ma rue f'ront mouiller les raz-de-marée Il est rare d'm'arrêter dès qu'j'suis lancé t'es mal barré J't'insulte mais, j'reste aimable, à c'qui parait t'encaisses les balles J'prendrais pas qu'tes restes man parce que ton rap empeste grave Sango passe un message quelque soit votre âge Si je jette l'encre sur ma feuille c'est pour éviter de faire un naufrage J'ai pas besoin de boire d'alcool sans ça j'déboîte la prod Et j'fais pas d'la broderie considère qu'j'te vends d'la drogue Prends ta dose, avant que j'mette pause, que j'explose J'te dis juste quelque chose avant d'laisser d'autres mecs poser Mes négros trippent sur mes égo-trips, et textes posés C'est quand j'expose des bonnes choses qu'on m'laisse causer Je reste bosser, pour que mon vu soit exaucé Mes ex aussi ont l'impression d'être excisées Je reste docile, pour n'pas avoir à m'excuser Avec les femmes on sait jamais toi-même tu sais c'que c'est C'est difficile pour moi, de transformer une pétasse en sur Donc, j'te montre tout c'que l'État censure même dans cet ascenseur Ça signe, à la SACEM, ça saigne lyrical assassin Et là ça sent le classique magique tu veux une place assise ? Non non non, je m'assagis parait-il qu'il s'agit d'une hémorragie Mes mots s'agitent alors cours vite si t'as les os fragiles J'suis celui, que les négros plagient celui qu't'imagines en train d'te mettre des gifles à cause des punchlines que t'emmagasines Yeah, on rap comme en 2011 L'Entourage Rappelle-toi l'époque, en 2011 mec Maintenant, 2019, c'est plus vraiment l'même On a les flows next level Tu rappais quoi à l'époque ? Qu'est-ce tu rappais à l'époque ? On disait genre balance un autre joint, ça f'sait genre Fennek resplendit, même dans l'ivresse, j'reste dandy Ex-bandit, tandis que j'baise, j'brandis le texte, qu'est-ce t'en dis ? Reste tranquille, j'pèse en finesse, baise en vitesse Tant pis, j'reste en ville, envie d'fesses mais pas d'gestes gentils Laisse j'estampille le Nek', faut m'backer si j'arrête J'fume pas mais pour draguer j'ai mon paquet d'cigarettes Mon ectoplasme, porte l'estocade même si j'rétrograde Et teste au mac depuis le berceau j'rappe donc viens pas test au mic Alpha o-wann Aka ''Sosa'' sous col-al dans un sonacotra Et comme les monarques, les MC's sont dans d'beaux draps J'déclenche furies climatiques avec les multi-syllabiques Les puristes m'imaginent en mélange Nubi B.Rabbit La théorie dit que ma rhétorique égo-trippe sur mes loli terrorisés perce la sclérotique des négroïdes Flow trop fat emcee cosmocats mes propos cassent l'omoplate Du sociopathe intouchable en rap comme un hologramme Hip-hopeur assidu d'habitude attitudes taciturnes, gaffe à ton matricule j'articule et tape les particules grave Ayo c'est Deen frérot, quoi d'neuf la mif Pas d'bluff j'arrive et les rappeurs balisent Fuck le récit d'blaireaux, ils gâchent leur salive S'ils font du rap thug moi j'veux voir leur calibre J'entends leurs merdes malgré moi comme un fumeur passif Mes khos aiguisent leurs canines, pire qu'des leaders d'manif' Si t'es une sister câline, j'deviens killer d'manix Allez dîtes-leur qu'j'arrive, ils sont pris d'peur panique Négro, j'ai pas fini de me prendre la tête Et vendre la verte, personne va m'tendre la perche J'chante ma haine et j'sens que ça plait J'entre à peine dans l'rap mais j'bicrave le temps qu'ça paye Y'a tant de tapette qui parle de tarot, graille le carreau Moi j'ai qu'une parole mais 30 facettes Le ventre à sec j'bédave des garots Mes gars t'éclatent au mic et si c'est pas l'cas ils t'plantent à sept L'entourage L'entourage, bébé À l'époque, en 2011, L'Entourage contrôlait l'shit Genre le, boule de freestyle, on s'en bat les Biiip, on fait la révolution mon gars Ils veulent interdire le hip-hop, on les Biiip ces p'tits pédés d'merde On va invoquer l'dragon sacré Cet enfoiré qui veut supprimer le Hip-hop, ramène le nous ET SACHES QU'EN 2019 LES MC'S PORTENTS DES BÉRETS Biiip Alors, mets toi à la page METS TOI À LA PUTAIN D'GE-PA, MON GARS</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan Jme remémore le meilleur comme De Niro dans un taxi Hey toi tu négliges tes classiques dans ma vie tout est darci Jarrive à péter le compte en banque dOmar Sy C.T.P.G.P.G , gros cest bestial Phonétiquement cest vrai quon kick sale Venu mettre les points sur les I comme Pixar Venu vous traumatiser comme un di-quesa Tellement fou jtassure jsuis fauché Jai la sale impression de me trouver dans un cul dsac On sait tous que cest la faucheuse qui va immortaliser le moment le plus crucial Bouteille de Despe, nos foies sont meurtris, je n'ai foi qu'en mes 16, ouais fuck les trap queen Un spécial respect à tous les leur-dea qui se soucis de lespèce mais pas comme Darwin Jai trainé dans la rue à men casser le cou, jai perdu la vue mais jai gardé le gout Ils ne mont pas cru quand jai braqué le push Jai tiré des coups ils mont appelé le ouf Tu gagnes la bataille mais jtencule à la guerre Lamour est dans le pré ? Ya des putes à la ferme La police a dit à ma mère que jai vendu du shit dans le bloc Je me suis fait tabasser mais jai tout nié en bloc Jsuis partie vendre un bloc, équipé dun glock Me regardait comme une loque, jvoulais juste rouler en loc Jsuis un poissard à vie, pas de paparazzi WAllahy Billay moi cest Dakar à vie jvous enculerais même dans la maladie 9 millimètres est dans la gabardine C.T.P.G.P.G on ta pas dit Petite tapette on tenverra Tai-Z Ze-dou dans le chapeau je fais de la magie You might also like Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan Paname on sait qucest crade, des grammes dans le crane on excédera Pour eux cest exécrable, dans le rap ya comme un excès dtrap Paname on sait qucest crade, des grammes dans le crane on excédera Pour eux cest exécrable, dans le rap ya comme un effet dtrappe Depuis que la tension est devenu palpable ya comme un gout de pare-balles Ya comme un gout de jparle pas, comme un gout de C-C dans les narines de papa Depuis que la tension est devenu palpable ya comme un gout de pare-balles Ya comme un gout de jparle pas, comme un gout de C-C dans les narines de papa Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan</t>
+          <t>Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan Jme remémore le meilleur comme De Niro dans un taxi Hey toi tu négliges tes classiques dans ma vie tout est darci Jarrive à péter le compte en banque dOmar Sy C.T.P.G.P.G , gros cest bestial Phonétiquement cest vrai quon kick sale Venu mettre les points sur les I comme Pixar Venu vous traumatiser comme un di-quesa Tellement fou jtassure jsuis fauché Jai la sale impression de me trouver dans un cul dsac On sait tous que cest la faucheuse qui va immortaliser le moment le plus crucial Bouteille de Despe, nos foies sont meurtris, je n'ai foi qu'en mes 16, ouais fuck les trap queen Un spécial respect à tous les leur-dea qui se soucis de lespèce mais pas comme Darwin Jai trainé dans la rue à men casser le cou, jai perdu la vue mais jai gardé le gout Ils ne mont pas cru quand jai braqué le push Jai tiré des coups ils mont appelé le ouf Tu gagnes la bataille mais jtencule à la guerre Lamour est dans le pré ? Ya des putes à la ferme La police a dit à ma mère que jai vendu du shit dans le bloc Je me suis fait tabasser mais jai tout nié en bloc Jsuis partie vendre un bloc, équipé dun glock Me regardait comme une loque, jvoulais juste rouler en loc Jsuis un poissard à vie, pas de paparazzi WAllahy Billay moi cest Dakar à vie jvous enculerais même dans la maladie 9 millimètres est dans la gabardine C.T.P.G.P.G on ta pas dit Petite tapette on tenverra Tai-Z Ze-dou dans le chapeau je fais de la magie Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan Paname on sait qucest crade, des grammes dans le crane on excédera Pour eux cest exécrable, dans le rap ya comme un excès dtrap Paname on sait qucest crade, des grammes dans le crane on excédera Pour eux cest exécrable, dans le rap ya comme un effet dtrappe Depuis que la tension est devenu palpable ya comme un gout de pare-balles Ya comme un gout de jparle pas, comme un gout de C-C dans les narines de papa Depuis que la tension est devenu palpable ya comme un gout de pare-balles Ya comme un gout de jparle pas, comme un gout de C-C dans les narines de papa Jai fait la street, jai fait mon fric, jai fait mes choix Surveille ton équipe, un jour ou lautre elle te déçoit Le reste jveux pas en parler, ouais tout le reste jveux pas en parler Naaaaan</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez On en a tous un, moi, je le sors quand j'me déplace Quand je m'endors, je le place sous le coussin En gros, je cache mes peines derrière un beau sourire Par contre, gros j'peux pas m'contenir quand j'vois un gosse souffrir Masques blancs, africains ou masques arabes La rue, c'est carnaval, tous complices de la mascarade Les masques tombent quand coule le mascara Crois-moi j'ai vu pleurer un tas de femmes et un tas de scar-la On parle de toi tel un ancêtre, t'es pas encore fini Tu peux renaître de tes cendres, cousin, comme Sergio Tacchini Mon masque est masculin et c'est ma carapace On m'fait respirer l'air libre avec un masque à gaz Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez You might also like Masque, casque, bask', une tass qui Cache à ses gosses qu'on lui crache sur le gloss trashhh J'pense qu'on rhalass les pochetons parce que Le passe-temps est de penser au constat non-stop Maman croit que j'ai stoppé la beuh elle veut m'emmener chez l'abbé Dans la défonce j'cherche la paix, chaque syllabe se fait chlapper Beaucoup d'gens cachent leurs vrai nature, se dévoilent devant la thune L'hypocrisie est une lacune d'amour propre l'aide ou la tue Souris devant tes opposants, fuck les en passant J'te dé-dé-débite du bon son meurt pour de faux comme un opossum J'reste le même peu importe, je slalome Les paroles blessent le muscle le plus puissant du corps humain c'est la langue Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez La France c'est comme ta mère, elle a plus de règles C'est pour ça qu'on kicke fils ouais j'te prends aux tripes un peu comme ton ulcère Voilà c'que mon masque dit, mais quand je l'enlève Tu t'retrouve face à un keu-mé qui s'emmerde et qui vend pas d'sque-di La vie est dure et on a tous une carapace Un sque-ma qui nous protège, nous fait croire qu'il n'y a pas d'attache Et j'ai avalé la tasse, pourquoi ? Parce que personne aime la burka alors que tout l'monde s'est voilé la face C'est un trouble jeu Le masque c'est une barbe, une paire de lunettes, une attitude ou une touffe de ch'veux Le moral plombé On sait qu'les masques c'est comme les potes, tôt ou tard ils vont tomber Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez</t>
+          <t>Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez On en a tous un, moi, je le sors quand j'me déplace Quand je m'endors, je le place sous le coussin En gros, je cache mes peines derrière un beau sourire Par contre, gros j'peux pas m'contenir quand j'vois un gosse souffrir Masques blancs, africains ou masques arabes La rue, c'est carnaval, tous complices de la mascarade Les masques tombent quand coule le mascara Crois-moi j'ai vu pleurer un tas de femmes et un tas de scar-la On parle de toi tel un ancêtre, t'es pas encore fini Tu peux renaître de tes cendres, cousin, comme Sergio Tacchini Mon masque est masculin et c'est ma carapace On m'fait respirer l'air libre avec un masque à gaz Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez Masque, casque, bask', une tass qui Cache à ses gosses qu'on lui crache sur le gloss trashhh J'pense qu'on rhalass les pochetons parce que Le passe-temps est de penser au constat non-stop Maman croit que j'ai stoppé la beuh elle veut m'emmener chez l'abbé Dans la défonce j'cherche la paix, chaque syllabe se fait chlapper Beaucoup d'gens cachent leurs vrai nature, se dévoilent devant la thune L'hypocrisie est une lacune d'amour propre l'aide ou la tue Souris devant tes opposants, fuck les en passant J'te dé-dé-débite du bon son meurt pour de faux comme un opossum J'reste le même peu importe, je slalome Les paroles blessent le muscle le plus puissant du corps humain c'est la langue Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez La France c'est comme ta mère, elle a plus de règles C'est pour ça qu'on kicke fils ouais j'te prends aux tripes un peu comme ton ulcère Voilà c'que mon masque dit, mais quand je l'enlève Tu t'retrouve face à un keu-mé qui s'emmerde et qui vend pas d'sque-di La vie est dure et on a tous une carapace Un sque-ma qui nous protège, nous fait croire qu'il n'y a pas d'attache Et j'ai avalé la tasse, pourquoi ? Parce que personne aime la burka alors que tout l'monde s'est voilé la face C'est un trouble jeu Le masque c'est une barbe, une paire de lunettes, une attitude ou une touffe de ch'veux Le moral plombé On sait qu'les masques c'est comme les potes, tôt ou tard ils vont tomber Quand j'enlève le masque je vois la vie autrement, simplement Et je suis moi-même Quand j'retire le masque le soir tu peux pas t'tromper On est bien à Paris et pas à Saint-Tropez</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yeah Yo, yo, yo Y avait plus d'place en enfer donc je suis revenu Être riche en taffant à l'usine, personne l'est devenu Pas b'soin d'être vieux pour avoir du vécu Pas b'soin d'avoir des lovés pour lever les vrais culs J'ai jamais eu besoin d'sécu', j'roule pas en Ferrari, c'est voulu J'ai du mal à m'faire à l'idée qu'les MC's prennent des fers-à-lisser pour leur chevelure Il est pas né le keuf qui m'fera glisser Super star des caravanes, on est les tanges de la télé-réalité Les poètes sont morts, j'm'en vais les réanimer J'ai les crocs d'un canidé et le flow à Cardi B À la cité, mes sarrasins jouent les thugs La chambre de mes filles, c'est un magasin JouéClub Et ouais, quand on aime, on compte pas Vous allez m'trouvez zarb', mais j'connais l'équation Quand vous aurez coupé tous les arbres, pêché tous les poissons Vous verrez que l'argent ne se mange pas On est venu transgresser les lois On casse la porte pour rentrer chez les goieb' Mes deux grands-pères, j'les déçois L'alcool m'a transpercé le foie Ils nous laissent bicrave pour mieux nous péter plus tard C'est c'qu'ils appellent engraisser les oies You might also like Street Life Six million ways to die Street Life Nothin' but the real shit Only the strong survive Street Life Six million ways to die Street Life, until you play your life away J'vends du cannabis avec mes copains, tous ces rappeurs veulent me copier Moi, j'ai connu les coups d'botins, j'ai rien dit quand j'étais coffré J'ai écrasé des cafards avant l'pera et les trophées Dans la cave avec un bâtard qui m'dit Viens, on fait associés Et j'connais la route par cur, une odeur de pute par terre J'ai vu mon daron partir, il s'est bouché les artères Un professeur et un renard, bienvenue dans l'expérience Que de l'excellence et bientôt, j'habite à Exelmans Le Diakité, c'est moi, j'suis calibré des fois J'suis agité, j'ai pas d'pitié, on va t'niquer chez toi Bats les couilles d'vos rappeurs, d'vos showcases et de vos vues Le pe-ra, il est à nous, il est sorti de nos rues Et j'vais finir dans un tombeau, p't-être sous les décombres Avant qu'on creuse ma tombe, faut que j'bataille pour le Congo Sa mère la pute à c'lui qui m'teste, j'ai un Glock, un p'tit 17 J'te tire dessus si tu t'la pètes comme 50 Cent Dans mes rêves, j'rappais avec Seth, j'le pliais sur un beat Il m'a donné l'occasion et j'ai pas refusé l'invit' Et ils sont trop choux, pour me battre, il faut tricher Si tu bois avec moi, tu finis mort saoul Franchement Nico, le rap français, il a bien changé J'suis invité aux dîners d'cons, c'est toujours mieux qu'rien manger J'ferais toujours mieux mais j'ferais tout pour l'blé Depuis quatorze ans et bah, j'suis toujours vieux Street Life Life as a shorty shouldn't be so rough Street Life, nothin' but the real shit Only the strong survive Yo yo, Gueko Guizmo yogayo Giguiriguiz, giguirigueks woop woop ! YW ssblaaouuchh Néochrome zdedededex Until you play your life away Yogayo, yogayo Han Until you play your life away Until you play your life away1</t>
+          <t>Yeah Yo, yo, yo Y avait plus d'place en enfer donc je suis revenu Être riche en taffant à l'usine, personne l'est devenu Pas b'soin d'être vieux pour avoir du vécu Pas b'soin d'avoir des lovés pour lever les vrais culs J'ai jamais eu besoin d'sécu', j'roule pas en Ferrari, c'est voulu J'ai du mal à m'faire à l'idée qu'les MC's prennent des fers-à-lisser pour leur chevelure Il est pas né le keuf qui m'fera glisser Super star des caravanes, on est les tanges de la télé-réalité Les poètes sont morts, j'm'en vais les réanimer J'ai les crocs d'un canidé et le flow à Cardi B À la cité, mes sarrasins jouent les thugs La chambre de mes filles, c'est un magasin JouéClub Et ouais, quand on aime, on compte pas Vous allez m'trouvez zarb', mais j'connais l'équation Quand vous aurez coupé tous les arbres, pêché tous les poissons Vous verrez que l'argent ne se mange pas On est venu transgresser les lois On casse la porte pour rentrer chez les goieb' Mes deux grands-pères, j'les déçois L'alcool m'a transpercé le foie Ils nous laissent bicrave pour mieux nous péter plus tard C'est c'qu'ils appellent engraisser les oies Street Life Six million ways to die Street Life Nothin' but the real shit Only the strong survive Street Life Six million ways to die Street Life, until you play your life away J'vends du cannabis avec mes copains, tous ces rappeurs veulent me copier Moi, j'ai connu les coups d'botins, j'ai rien dit quand j'étais coffré J'ai écrasé des cafards avant l'pera et les trophées Dans la cave avec un bâtard qui m'dit Viens, on fait associés Et j'connais la route par cur, une odeur de pute par terre J'ai vu mon daron partir, il s'est bouché les artères Un professeur et un renard, bienvenue dans l'expérience Que de l'excellence et bientôt, j'habite à Exelmans Le Diakité, c'est moi, j'suis calibré des fois J'suis agité, j'ai pas d'pitié, on va t'niquer chez toi Bats les couilles d'vos rappeurs, d'vos showcases et de vos vues Le pe-ra, il est à nous, il est sorti de nos rues Et j'vais finir dans un tombeau, p't-être sous les décombres Avant qu'on creuse ma tombe, faut que j'bataille pour le Congo Sa mère la pute à c'lui qui m'teste, j'ai un Glock, un p'tit 17 J'te tire dessus si tu t'la pètes comme 50 Cent Dans mes rêves, j'rappais avec Seth, j'le pliais sur un beat Il m'a donné l'occasion et j'ai pas refusé l'invit' Et ils sont trop choux, pour me battre, il faut tricher Si tu bois avec moi, tu finis mort saoul Franchement Nico, le rap français, il a bien changé J'suis invité aux dîners d'cons, c'est toujours mieux qu'rien manger J'ferais toujours mieux mais j'ferais tout pour l'blé Depuis quatorze ans et bah, j'suis toujours vieux Street Life Life as a shorty shouldn't be so rough Street Life, nothin' but the real shit Only the strong survive Yo yo, Gueko Guizmo yogayo Giguiriguiz, giguirigueks woop woop ! YW ssblaaouuchh Néochrome zdedededex Until you play your life away Yogayo, yogayo Han Until you play your life away Until you play your life away1</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yo, YW, Yonea Willy Willy Yonea Guiziouzou Remy Rem les mains d'fées Baby baby J'm'appelle Dawyne, non, en fait j'm'appelle Lamine J'ai tellement d'prénoms qu'devant les condés, j'm'appelle Ibrahim Et j'ai pas l'nez dans la farine j'ai pas cédé au showbiz Eh ouais baby, moi, j'suis félé, j'veux taquiner au cro-mi Les harceler puis les trainer dans le rap, c'est mon hobbies Quatre CDs à mon CV, j'envahis tous les ordis On chope le mal, on s'égosille dans le bar, on est trop ivres Bande de barges, banlieue crade gentleman de l'ego trip Ça fait un bail depuis Maman stp C'était pas pour l'argent, fais gaffe, j'suis un agent secret Du genre style et flow mélangé, j'suis un gros dérangé Hystéro tise bédo mélangé Et vous savez qui je suis, moi, je kicke la galère Non, j'veux pas vider mes couilles, moi, j'veux vider ma canette Et vibrer avec la foule me téléporte de planète Partouze avec San Goku et des tasses-pé de Namek Des bagarres, y'en a beaucoup avec des schlasses et des barettes Mec, on s'en bat les illes-cou, on fait des phases et des maquettes Okay, j'dynamique le dièse, les syllabiques te butent Les p'tits ravissent le pez et ça finit souvent en tentative de fuite Badboy fait les youv, c'est pas d'bol J'ai construis ma carrière avec des couplets one shot C'est la merde pour le premier que j'attrape Vous allez m'sucer les raisins et moi, j'vais pas lâcher la grappe You might also like J'ai pas le time pour tous ces vieux MCs à la bourre C'est toujours billets frimé, briller kiffé C'est toujours kické et comme d'hab', s'esquiver En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces J'suis un gentleman de la rime et puis quand j'regarde de Paris J'suis qu'un banlieusard dans le noir et je vois qu'j'me salis Fumer comme un porc, perpète dans les poumons Heineken dans l'estomac, mec à vingt-deux ans, c'est gore Mais on s'en fout, bah ouais, l'ébriété me permet pas d'oublier ce qui m'angoisse hiver, été Est-c'que mon rap va faire effet ? Des fois, ça m'empêche de midor Et y'a des centaines de mijoré qui n'ont sans cesse de picorer Y'a les enquêtes de ces gorets qui nous embettent mais tu connais On est dans le tiekson, y'a des emphètes et du doré Papa, Guizmo a mis des baffes de dingues Tu verrais ça, t'y croirais pas comme quand si y'avait des packs de quinze À tout ceux qu'j'ai déçu, qu'ils soient ou pas dans ma té-ci À toutes ces femmes a qui j'ai plu et que j'ai vu en bas résille J'suis un mac, faut pas m'en vouloir J'te laisse dormir a côté d'moi et j'te touche pas histoire que tu vois mon pouvoir Sa race, il fait tout noir dans mes rêves et dans mes pensées En détresse sans mes frères prolétaires et gens défoncés J'me lasse pas m'exterminer à l'alcool, t'es fracasse, t'es khabat, mec t'es lié à l'album De l'espoir sur le visage même si dans le fond, c'est trop tard Je n'écris que des images, mes chansons se regardent Z.S, YW, jusqu'à l'infini, je n'écris que des images mes chansons se regardent J'ai pas le time pour tous ces vieux MCs à la bourre C'est toujours billets frimé, briller kiffé C'est toujours kické et comme d'hab', s'esquiver Oh ah ah, si y'a du whisky, il faudra du coca Oh ah, oh ah ah, si y'a des bitchies, il faudra des potes-ca En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques, y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques, y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces</t>
+          <t>Yo, YW, Yonea Willy Willy Yonea Guiziouzou Remy Rem les mains d'fées Baby baby J'm'appelle Dawyne, non, en fait j'm'appelle Lamine J'ai tellement d'prénoms qu'devant les condés, j'm'appelle Ibrahim Et j'ai pas l'nez dans la farine j'ai pas cédé au showbiz Eh ouais baby, moi, j'suis félé, j'veux taquiner au cro-mi Les harceler puis les trainer dans le rap, c'est mon hobbies Quatre CDs à mon CV, j'envahis tous les ordis On chope le mal, on s'égosille dans le bar, on est trop ivres Bande de barges, banlieue crade gentleman de l'ego trip Ça fait un bail depuis Maman stp C'était pas pour l'argent, fais gaffe, j'suis un agent secret Du genre style et flow mélangé, j'suis un gros dérangé Hystéro tise bédo mélangé Et vous savez qui je suis, moi, je kicke la galère Non, j'veux pas vider mes couilles, moi, j'veux vider ma canette Et vibrer avec la foule me téléporte de planète Partouze avec San Goku et des tasses-pé de Namek Des bagarres, y'en a beaucoup avec des schlasses et des barettes Mec, on s'en bat les illes-cou, on fait des phases et des maquettes Okay, j'dynamique le dièse, les syllabiques te butent Les p'tits ravissent le pez et ça finit souvent en tentative de fuite Badboy fait les youv, c'est pas d'bol J'ai construis ma carrière avec des couplets one shot C'est la merde pour le premier que j'attrape Vous allez m'sucer les raisins et moi, j'vais pas lâcher la grappe J'ai pas le time pour tous ces vieux MCs à la bourre C'est toujours billets frimé, briller kiffé C'est toujours kické et comme d'hab', s'esquiver En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces J'suis un gentleman de la rime et puis quand j'regarde de Paris J'suis qu'un banlieusard dans le noir et je vois qu'j'me salis Fumer comme un porc, perpète dans les poumons Heineken dans l'estomac, mec à vingt-deux ans, c'est gore Mais on s'en fout, bah ouais, l'ébriété me permet pas d'oublier ce qui m'angoisse hiver, été Est-c'que mon rap va faire effet ? Des fois, ça m'empêche de midor Et y'a des centaines de mijoré qui n'ont sans cesse de picorer Y'a les enquêtes de ces gorets qui nous embettent mais tu connais On est dans le tiekson, y'a des emphètes et du doré Papa, Guizmo a mis des baffes de dingues Tu verrais ça, t'y croirais pas comme quand si y'avait des packs de quinze À tout ceux qu'j'ai déçu, qu'ils soient ou pas dans ma té-ci À toutes ces femmes a qui j'ai plu et que j'ai vu en bas résille J'suis un mac, faut pas m'en vouloir J'te laisse dormir a côté d'moi et j'te touche pas histoire que tu vois mon pouvoir Sa race, il fait tout noir dans mes rêves et dans mes pensées En détresse sans mes frères prolétaires et gens défoncés J'me lasse pas m'exterminer à l'alcool, t'es fracasse, t'es khabat, mec t'es lié à l'album De l'espoir sur le visage même si dans le fond, c'est trop tard Je n'écris que des images, mes chansons se regardent Z.S, YW, jusqu'à l'infini, je n'écris que des images mes chansons se regardent J'ai pas le time pour tous ces vieux MCs à la bourre C'est toujours billets frimé, briller kiffé C'est toujours kické et comme d'hab', s'esquiver Oh ah ah, si y'a du whisky, il faudra du coca Oh ah, oh ah ah, si y'a des bitchies, il faudra des potes-ca En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques, y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces En egotrip, j'suis le boss, moi, les faux types, je les sors J'suis alcoolique mais pas comique, dans mes chroniques, y'a du gore J'vois les thos-my qui dominent, oh oui, ils ont fait assez fort Je t'ai dit j'vomis au cro-mi la folie aussi a ses forces</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Guizmo, ouais, ouais, comme t'as jamais vu Yonea-Willy, Willy-Yonea Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn Et j'ai mes p'tits frères qui pètent une durite, cannabis et tests d'urine Tous les jours, on ne fait que du fric, j'ai peur que des mecs me fusillent, oh no Pour ôter la vie, ça coûte pas très cher T'auras pas c'que j'ai si t'es pas déter' Une balle dans la tête ou un cathéter Beaucoup d'inquiétude quand j'parle à mes frères C'est comme ça qu'on fait, c'est comme ça qu'on vit C'est comme ça qu'on se sait, c'est jamais ce qu'on se dit Secret, secret On s'connaît à peu près Secret, secret Jamais raconter nos regrets You might also like Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn Et j'en ai marre de cogiter, j'ai des problèmes avec le silence Mon banquier a la voix douce quand je vais compter mes finances J'ai sorti le nine, nine, nine, t'as appelé le nine-one-one Tu parles pas de mon frère et tu parles pas des autres et surtout, tu parles pas d'oi-m Alors nan, réveille pas mon renard et n'écoute pas les rumeurs J'ai jamais fait le crevard et pourtant, j'dormais dehors J'fais que d'dire des gros mots comme si j'ai Gilles de La Tourette J'ai ma tise et ma boulette, j'ai mon clic et ma roulette Laissez-moi tranquille, j'suis pas d'humeur et j'ai plus envie d'croire en l'amour Insulte ma daronne et wallah tu meurs, avec tout ça, moi, j'ai pas d'humour On soulève les motos comme à Baltimore, depuis adolescent, moi, je tiens les murs Un peu de joie, beaucoup de peine, on verra quand je serais mort C'est comme ça qu'on vit, c'est jamais ce qu'on se dit Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn C'est comme ça qu'on fait, c'est comme ça qu'on vit C'est comme ça qu'on se sait, c'est jamais ce qu'on se dit</t>
+          <t>Guizmo, ouais, ouais, comme t'as jamais vu Yonea-Willy, Willy-Yonea Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn Et j'ai mes p'tits frères qui pètent une durite, cannabis et tests d'urine Tous les jours, on ne fait que du fric, j'ai peur que des mecs me fusillent, oh no Pour ôter la vie, ça coûte pas très cher T'auras pas c'que j'ai si t'es pas déter' Une balle dans la tête ou un cathéter Beaucoup d'inquiétude quand j'parle à mes frères C'est comme ça qu'on fait, c'est comme ça qu'on vit C'est comme ça qu'on se sait, c'est jamais ce qu'on se dit Secret, secret On s'connaît à peu près Secret, secret Jamais raconter nos regrets Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn Et j'en ai marre de cogiter, j'ai des problèmes avec le silence Mon banquier a la voix douce quand je vais compter mes finances J'ai sorti le nine, nine, nine, t'as appelé le nine-one-one Tu parles pas de mon frère et tu parles pas des autres et surtout, tu parles pas d'oi-m Alors nan, réveille pas mon renard et n'écoute pas les rumeurs J'ai jamais fait le crevard et pourtant, j'dormais dehors J'fais que d'dire des gros mots comme si j'ai Gilles de La Tourette J'ai ma tise et ma boulette, j'ai mon clic et ma roulette Laissez-moi tranquille, j'suis pas d'humeur et j'ai plus envie d'croire en l'amour Insulte ma daronne et wallah tu meurs, avec tout ça, moi, j'ai pas d'humour On soulève les motos comme à Baltimore, depuis adolescent, moi, je tiens les murs Un peu de joie, beaucoup de peine, on verra quand je serais mort C'est comme ça qu'on vit, c'est jamais ce qu'on se dit Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Je sais pas trop c'qui m'arrive, j'ai l'impression que j'suis trop naïf C'est dans les eaux troubles que je navigue Que dans les eaux troubles que je navigue, ah no no Ils disent Guizmo, moi, je dis Lamine Y a que d'l'argent que je dilapide Dans ma cervelle, y a d'la dynamite Maman fait que prier, je dis amîn C'est comme ça qu'on fait, c'est comme ça qu'on vit C'est comme ça qu'on se sait, c'est jamais ce qu'on se dit</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Zekwe Ramos Mais non cabrão, c'est le Remixguel C'est comme ça qu'c'est bon C'est l'retour de Miguel, Miguel Kadhafinio Je veux la vie de rêve, pas d'Scarface mais d'Al Pacino J'serais plus beau même avec un plombage à chaque chicot Gros bisous à mes chimistes qui trafiquent la white widow, amigo Tu devines bien, que j'suis sale comme la malette de De Villepin L'argent brûle les doigts, paye nous ou on t'les fout dans le grille-pain Cabron t'as gagné un tatoo' à coup de pneu Michelin Tu vas t'souvenir du 91 septembre 2001 Wesh la famille, c'est Xavier de Ligonnès J'fais que me gaver de spliffs obèses, remplir l'cahier de rimes grotesques 9-1 Evry, tu es tombé dans l'chaudron comme Obélix Si j'me trompe de pédales... tu t'feras écraser comme FX Guizmo Appelle-moi la banquise J'ai des tonnes de rimes, une sorte de franchise Qui blessent à la Wolverine Je donne le rythme et fuck le beat Quand j'rime tes potes se disent que j'enquille des stocks de tiz' Ils ont bien raison moi je m'enivre le ventre vide Oui en ville je vends, je kick J'ai grandi dans le crime J'peux pas en vouloir à tous mes bandits de prendre des risques Depuis l'époque de billy jean j'ai la rage au bide J'en suis devenu alcoolique Et j'escroque les p'tites victimes Zekwé Ramos et les acolytes Wesh les vatos restez anonymes Faites les bracos et les narcotiques Sarko' et ces salauds de flics J'les aurais dans la poche avec des millions à la banque Et puis mon gros nez dans la blanche You might also likeAlkpote Appelle-moi John H Un grand consommateur de sson-boi J'tire pour du cash comme les braqueurs de convois Sache que l'rap n'est pas tel que tu le conçois L'aigle royal de Carthage te passe le bonsoir Zekwé m'a invité il a fait le bon choix De la vulgarité pour Carla et son hongrois A-L-K-P-O-T-E une sorte de taré Survivant d'l'enfer plus fort que jamais Dans la jungle urbaine ou dans la cambrousse Pas d'inversion sur la version tu m'kiffes en douce exact Appelle-moi pour ton remix C'est 1 500 euros le feat' après avoir sé-po j'te quitte Alpha Wann Appelle-oim Alph' Wann J'pratique le Krav Maga avec mon braquemart Sale dep' le jour j'suis Alfred La nuit j'suis Batman Galbé comme Mac Lesggy Ces tass' exquises qui graillent des pines Trouvent le Phaal sexy juste parce qu'il rappe terrible J'suis un Ronin nègre, leur truc sent le crotin dégueu' J'impose un vrai jeu Je fais attention à ma peau comme un lépreux Check mec j'suis hautain mais je suis l'prochain, j'ai ce truc Qui fait qu'à l'heure où te lèves ou tu te couches... j'fais aucun des deux Rien à foutre j'me mets à baver devant les gens Jeune shlag avant de parler punchline essaie de rapper dans les temps J'suis un as dans l'art de coudre La rime, un mac dans l'âme Un as dans l'rap J'repars en star comme Nas dans Barbecue Refrain Zekwé, c'est comme ça qu'c'est bon Zekwé, c'est comme ça qu'c'est bon Zekwé, c'est comme ça qu'c'est bon C'est comme ça qu'c'est bon Am1 o mic C'est AM1 fraîcheur Tic Tac Ton cauchemar en freestyle Ma technique étonne comme une burqa qui tape un Big Mac Faut pas qu'tu t'enflammes sauf si j'rappe la braise Pas de Salam ni de Khouya labes ? Ivry-sur-Seine faut qu'tu gardes la pêche C'est rafale dans ta mère khey on va te la mettre Envoie l'bad j'suis dans l'game narcotrafiquant d'haine Peu peu pratiquant d'guerre pla-pla-plastiquant l'game J'suis qua-quasiment fa-fascinant assassinant l'traître Ton rap de nazi ment, c'est bassinant T'as ma bite dans l'derche T'es abominable I'm sorry man T'as pas d'swag j'ai la classe comme Pépit' posé pépère à la botina Flow de batard, cause de ma hargne Ferme ta gueule fils de pute ne me cherche pas dans tes partouzes Tu m'trouveras que dans tes djeez de thunes Deen Burbigo Appelle-moi Chef Burbigo, bigo, Ahma ou bien Monsieur Deen Tant que vous prononcez mon blaze j'me fout de tout c'qui peut se dire J'ai des rimes que les reufs kiffent et le style que les reusses chipent Mes fenecs ont déjà baiser l'net On taffe le buzz street Mine aiguisée, fidélise les miss métisses et Leust clean Demande à Zek' nos kids auront le caviar sur le bavoir Burberry Pas des plus saints mais Je n'ai pas de coco dans l'sang J'aime pas l'foot j'serai jamais content d'voir un poto rentrant Nique la sortie de Detox J'attends la sortie de 10 potes King en ville Ma pire hantise n'est pas de merder dans l'hip-hop Si demain ça s'met à chier J'repartirai avec mes diplômes On n'me parle plus que de clics Je fais des rimes et j'nique leurs icônes Farage Appelle-moi Tarek Dhiab Sur le remix du vatos Miguel J'lâche des rafales di-gidi-tchek Purée de Bastos à la Michel C'est la seleção, 5 étoiles sur le maillot Mets les KO puta caralho Pour ça faut du matos nickel Tu peux toujours m'annoncer dead comme Castro Fidel Essayer d'expliquer le futur à tes australopithèques Parle sur nous piplette Personne nous ôtera le bifteck Depuis beat it tu rêves de drive-by en bicyclette J'crache pas dans la soupe j'glisse des gouttes d'arsenic J'préfère ça au péril tout acquérir par le ce-vi Cabron c'est la tropa de elite Pour eux t'as le teint si mate que t'es forcement l'principal protagoniste L'Indis Appelle-moi L'Indis ou le tueur des Bratisla Boys Tu pratiques la boxe mais sur ton gun y'a écrit factice, cabron Y'a qu'sur Megaupload qu'il est gratis l'album L'Indis change de flow après 3 pastis, d'la bonne Loin des arnaques mais toujours sur le tarmac L'Indis est près du barbac parce qu'il charbonne Crise d'asthme, hôpital, freestyle orbital Dans la lune, j'prends Rihanna pour Christiane Taubira J'me fout de l'argent qu'ils claquent J'me fout qu'il y ait peu d'gens qui captent La poisse me colle au iep, la Cotorep ignore ce handicap L'Indis, Zekwé Ramos une clique énorme T'auras pas des rimes fines parce que tu écris tes textes au critérium ! Refrain</t>
+          <t>Zekwe Ramos Mais non cabrão, c'est le Remixguel C'est comme ça qu'c'est bon C'est l'retour de Miguel, Miguel Kadhafinio Je veux la vie de rêve, pas d'Scarface mais d'Al Pacino J'serais plus beau même avec un plombage à chaque chicot Gros bisous à mes chimistes qui trafiquent la white widow, amigo Tu devines bien, que j'suis sale comme la malette de De Villepin L'argent brûle les doigts, paye nous ou on t'les fout dans le grille-pain Cabron t'as gagné un tatoo' à coup de pneu Michelin Tu vas t'souvenir du 91 septembre 2001 Wesh la famille, c'est Xavier de Ligonnès J'fais que me gaver de spliffs obèses, remplir l'cahier de rimes grotesques 9-1 Evry, tu es tombé dans l'chaudron comme Obélix Si j'me trompe de pédales... tu t'feras écraser comme FX Guizmo Appelle-moi la banquise J'ai des tonnes de rimes, une sorte de franchise Qui blessent à la Wolverine Je donne le rythme et fuck le beat Quand j'rime tes potes se disent que j'enquille des stocks de tiz' Ils ont bien raison moi je m'enivre le ventre vide Oui en ville je vends, je kick J'ai grandi dans le crime J'peux pas en vouloir à tous mes bandits de prendre des risques Depuis l'époque de billy jean j'ai la rage au bide J'en suis devenu alcoolique Et j'escroque les p'tites victimes Zekwé Ramos et les acolytes Wesh les vatos restez anonymes Faites les bracos et les narcotiques Sarko' et ces salauds de flics J'les aurais dans la poche avec des millions à la banque Et puis mon gros nez dans la blanche Alkpote Appelle-moi John H Un grand consommateur de sson-boi J'tire pour du cash comme les braqueurs de convois Sache que l'rap n'est pas tel que tu le conçois L'aigle royal de Carthage te passe le bonsoir Zekwé m'a invité il a fait le bon choix De la vulgarité pour Carla et son hongrois A-L-K-P-O-T-E une sorte de taré Survivant d'l'enfer plus fort que jamais Dans la jungle urbaine ou dans la cambrousse Pas d'inversion sur la version tu m'kiffes en douce exact Appelle-moi pour ton remix C'est 1 500 euros le feat' après avoir sé-po j'te quitte Alpha Wann Appelle-oim Alph' Wann J'pratique le Krav Maga avec mon braquemart Sale dep' le jour j'suis Alfred La nuit j'suis Batman Galbé comme Mac Lesggy Ces tass' exquises qui graillent des pines Trouvent le Phaal sexy juste parce qu'il rappe terrible J'suis un Ronin nègre, leur truc sent le crotin dégueu' J'impose un vrai jeu Je fais attention à ma peau comme un lépreux Check mec j'suis hautain mais je suis l'prochain, j'ai ce truc Qui fait qu'à l'heure où te lèves ou tu te couches... j'fais aucun des deux Rien à foutre j'me mets à baver devant les gens Jeune shlag avant de parler punchline essaie de rapper dans les temps J'suis un as dans l'art de coudre La rime, un mac dans l'âme Un as dans l'rap J'repars en star comme Nas dans Barbecue Refrain Zekwé, c'est comme ça qu'c'est bon Zekwé, c'est comme ça qu'c'est bon Zekwé, c'est comme ça qu'c'est bon C'est comme ça qu'c'est bon Am1 o mic C'est AM1 fraîcheur Tic Tac Ton cauchemar en freestyle Ma technique étonne comme une burqa qui tape un Big Mac Faut pas qu'tu t'enflammes sauf si j'rappe la braise Pas de Salam ni de Khouya labes ? Ivry-sur-Seine faut qu'tu gardes la pêche C'est rafale dans ta mère khey on va te la mettre Envoie l'bad j'suis dans l'game narcotrafiquant d'haine Peu peu pratiquant d'guerre pla-pla-plastiquant l'game J'suis qua-quasiment fa-fascinant assassinant l'traître Ton rap de nazi ment, c'est bassinant T'as ma bite dans l'derche T'es abominable I'm sorry man T'as pas d'swag j'ai la classe comme Pépit' posé pépère à la botina Flow de batard, cause de ma hargne Ferme ta gueule fils de pute ne me cherche pas dans tes partouzes Tu m'trouveras que dans tes djeez de thunes Deen Burbigo Appelle-moi Chef Burbigo, bigo, Ahma ou bien Monsieur Deen Tant que vous prononcez mon blaze j'me fout de tout c'qui peut se dire J'ai des rimes que les reufs kiffent et le style que les reusses chipent Mes fenecs ont déjà baiser l'net On taffe le buzz street Mine aiguisée, fidélise les miss métisses et Leust clean Demande à Zek' nos kids auront le caviar sur le bavoir Burberry Pas des plus saints mais Je n'ai pas de coco dans l'sang J'aime pas l'foot j'serai jamais content d'voir un poto rentrant Nique la sortie de Detox J'attends la sortie de 10 potes King en ville Ma pire hantise n'est pas de merder dans l'hip-hop Si demain ça s'met à chier J'repartirai avec mes diplômes On n'me parle plus que de clics Je fais des rimes et j'nique leurs icônes Farage Appelle-moi Tarek Dhiab Sur le remix du vatos Miguel J'lâche des rafales di-gidi-tchek Purée de Bastos à la Michel C'est la seleção, 5 étoiles sur le maillot Mets les KO puta caralho Pour ça faut du matos nickel Tu peux toujours m'annoncer dead comme Castro Fidel Essayer d'expliquer le futur à tes australopithèques Parle sur nous piplette Personne nous ôtera le bifteck Depuis beat it tu rêves de drive-by en bicyclette J'crache pas dans la soupe j'glisse des gouttes d'arsenic J'préfère ça au péril tout acquérir par le ce-vi Cabron c'est la tropa de elite Pour eux t'as le teint si mate que t'es forcement l'principal protagoniste L'Indis Appelle-moi L'Indis ou le tueur des Bratisla Boys Tu pratiques la boxe mais sur ton gun y'a écrit factice, cabron Y'a qu'sur Megaupload qu'il est gratis l'album L'Indis change de flow après 3 pastis, d'la bonne Loin des arnaques mais toujours sur le tarmac L'Indis est près du barbac parce qu'il charbonne Crise d'asthme, hôpital, freestyle orbital Dans la lune, j'prends Rihanna pour Christiane Taubira J'me fout de l'argent qu'ils claquent J'me fout qu'il y ait peu d'gens qui captent La poisse me colle au iep, la Cotorep ignore ce handicap L'Indis, Zekwé Ramos une clique énorme T'auras pas des rimes fines parce que tu écris tes textes au critérium ! Refrain</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Fais semblant, tu vois qu'autour de toi rien ne va plus, hein ? Garde les yeux grands ouverts, Y-W Despo Guizmo kless-Mo On a grandi dans la street, et son chahut Entre les sirènes des keufs et du SAMU Dans les la place du mort n'est pas pire que le coffre J'ai haï l'égocentrisme du riche, aimé le sens de l'entraide du pauvre Rien ne va plus, Nabil m'a offert un cuir à deux-milles Une meuf du ghetto a recalé ma pipe Parce que j'avais des Atémi Ouvre lil, faut qu'tu niques tes limites On est sept milliards d'connards c'est sur qu't'as moins d'amis qu'd'ennemis On veut te tuer tu ripostes avec un shlass La juge te jette au tard-mi même ta mère te cher-la Tu réponds aux insultes des racistes par la colère On t'taxe de communautaire, c'est la meilleure celle-là C'est donnant-donnant, Zemmour mon majeur t'honore J'peux pas être ta pute, j'suis un vrai bonhomme On plaint pas vraiment ta mort frelon C'est contre nature de mourir avant ses parents mais c'est presque beau nan ? Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le Sida Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus You might also like Nos petits frères n'ont plus de rêve en tête, ils restent en dèche C'est l'enfer, ils vivent comme des nomades parmi les sédentaires Ça deale, braque, vole, ça kiffe l'alcool La nuit tard ça freestyle et même les flics s'affolent Nos daronnes font de la peine, cette vie les terrorise Et depuis l'héroïne y'a que les fixes de dope qui ont d'la veine Plus rien ne va, on a tendance à se mettre dedans Depuis l'enfance on aime le chanvre et on engrange les pertes de temps Mais on attrape pas le coupable, normal qu'on aille pas bien On pèse trois fois rien face à Fatal Bazooka Plus rien ne va, y'a d'la coke sur les llets-bi Méfie-toi si tu paies une amende en liquide à un képi Bah ouais qu'on a du flair On vit dans une époque où la plupart des mariages sont entretenus par l'adultère Et j'ai beau pêcher je crois Qu'avec tout ce qu'il font, les prêtres ont plus à confesser que moi Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le SIDA Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus Règle numéro un toujours penser à remplir sa gamelle À trop vouloir sauver les autres, on s'oublie soi-même J'ai toujours le même rêve pour la daronne la villa Demande au Guiz' ça bouge pas comme les sourcils de Nabilla Rien ne va plus comment tu veux qu'on positive ? T'es pas content tu veux qu'j'me taise ? Pose un biff Y'a de plus en plus de grève, de manifs, de banderoles Assis sur leurs trônes, les présidents s'en branlent Quoi ? Qui vivra verra On a l'choix entre la peste et le choléra Jack Mess' et Mohamed Merah Rien ne va plus, ça deale en centre de désintoxication Ça rêve d'expulser le ministre de l'Immigration Pour certains on ne fait pas partie du peuple Quand t'as le cul entre deux chaises tu peux pas faire partie des meubles Demande pas à Despo Rutt's si c'est abusé C'est dangerous, comme voir son soce dans Faites entrer l'accusé Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le SIDA Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus T'as rien vu, t'as rien entendu Tu la prends dans le cul Ok, faites smoker Y-W double effet, mes kheyes sont tous bluffés On est les troubles fêtes Guizmo, Mokless, Despo Sois solidaire dans la classe et dans la taule Trente millions d'amis te l'ont dit c'est sous-terre la place des taupes Incapable d'aimer Styles P ou de faire un bon gâteau Elle me donne son cul, c'est quand même un bon cadeau Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Fais semblant, tu vois qu'autour de toi rien ne va plus, hein ? Garde les yeux grands ouverts, Y-W Despo Guizmo kless-Mo On a grandi dans la street, et son chahut Entre les sirènes des keufs et du SAMU Dans les la place du mort n'est pas pire que le coffre J'ai haï l'égocentrisme du riche, aimé le sens de l'entraide du pauvre Rien ne va plus, Nabil m'a offert un cuir à deux-milles Une meuf du ghetto a recalé ma pipe Parce que j'avais des Atémi Ouvre lil, faut qu'tu niques tes limites On est sept milliards d'connards c'est sur qu't'as moins d'amis qu'd'ennemis On veut te tuer tu ripostes avec un shlass La juge te jette au tard-mi même ta mère te cher-la Tu réponds aux insultes des racistes par la colère On t'taxe de communautaire, c'est la meilleure celle-là C'est donnant-donnant, Zemmour mon majeur t'honore J'peux pas être ta pute, j'suis un vrai bonhomme On plaint pas vraiment ta mort frelon C'est contre nature de mourir avant ses parents mais c'est presque beau nan ? Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le Sida Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus Nos petits frères n'ont plus de rêve en tête, ils restent en dèche C'est l'enfer, ils vivent comme des nomades parmi les sédentaires Ça deale, braque, vole, ça kiffe l'alcool La nuit tard ça freestyle et même les flics s'affolent Nos daronnes font de la peine, cette vie les terrorise Et depuis l'héroïne y'a que les fixes de dope qui ont d'la veine Plus rien ne va, on a tendance à se mettre dedans Depuis l'enfance on aime le chanvre et on engrange les pertes de temps Mais on attrape pas le coupable, normal qu'on aille pas bien On pèse trois fois rien face à Fatal Bazooka Plus rien ne va, y'a d'la coke sur les llets-bi Méfie-toi si tu paies une amende en liquide à un képi Bah ouais qu'on a du flair On vit dans une époque où la plupart des mariages sont entretenus par l'adultère Et j'ai beau pêcher je crois Qu'avec tout ce qu'il font, les prêtres ont plus à confesser que moi Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le SIDA Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus Règle numéro un toujours penser à remplir sa gamelle À trop vouloir sauver les autres, on s'oublie soi-même J'ai toujours le même rêve pour la daronne la villa Demande au Guiz' ça bouge pas comme les sourcils de Nabilla Rien ne va plus comment tu veux qu'on positive ? T'es pas content tu veux qu'j'me taise ? Pose un biff Y'a de plus en plus de grève, de manifs, de banderoles Assis sur leurs trônes, les présidents s'en branlent Quoi ? Qui vivra verra On a l'choix entre la peste et le choléra Jack Mess' et Mohamed Merah Rien ne va plus, ça deale en centre de désintoxication Ça rêve d'expulser le ministre de l'Immigration Pour certains on ne fait pas partie du peuple Quand t'as le cul entre deux chaises tu peux pas faire partie des meubles Demande pas à Despo Rutt's si c'est abusé C'est dangerous, comme voir son soce dans Faites entrer l'accusé Tu lis pas les journaux, tu suis pas l'actu Vois-tu pas qu'autour de toi rien ne va plus Banque Mondiale à découvert, qui paie les agios Vieux aux manettes, prend ta retraite comme Roberto Baggio Rien ne va plus, c'est le boxon ici bas L'homme est prêt à cacher le remède contre le SIDA Tu l'sais qu'pouvoir perd son charme sans abus Vois-tu pas qu'autour de toi rien ne va plus T'as rien vu, t'as rien entendu Tu la prends dans le cul Ok, faites smoker Y-W double effet, mes kheyes sont tous bluffés On est les troubles fêtes Guizmo, Mokless, Despo Sois solidaire dans la classe et dans la taule Trente millions d'amis te l'ont dit c'est sous-terre la place des taupes Incapable d'aimer Styles P ou de faire un bon gâteau Elle me donne son cul, c'est quand même un bon cadeau Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Nique toutes vos lois de fils de traîtres Vos sales emplois, vos fiches de paye J'ai de l'argent sale, des biz de zet' J'ai la mentale j'évite de me perdre J'ai encore fumé tout ce qui bouge Bande d'enculés, j'suis rancunier J'ai tant lutté pour becter, on dérange pas un loup qui bouffe Wesh mes gars, wesh mes chéries Dans l'illégal on est chiré On veut du sh-ca, pas de crédits, petit jespère que t'as tilté On fait les choses en temps de crise On est des fauves en manque de tise Baise le chrome, les neurones Pété dans une banlieue chic Paire de Nike, les petits ficelés de ceux que lÉtat veut diviser Si tu fais partie de ces gros vicieux, j'conseille ap' de timmiscer Katsende, mothafuck, nique sa mère cougna mamaw J'kicke ça sec, nique le proc', j'suis toujours où y'a de la maille moi Sénégal Mali, Diakité le nom de la Mafia Ces fils de pute vont se méfier Comme quand je bicrave de l'Aya J'plane quand j'suis déchiré, tu planes comme l'avion d'Aaliyah J'voulais juste niquer, pour ce qui est de tes problèmes j'suis pas psychiatre J'reste silencieux dans cette odeur pestilentielle Il y a des lovés, des vies en jeu alors nique les présidentielles Ouais moi et les autres on s'en balance Que de la gueule et pas de baloches Hémoglobine sur les phalanges Avec mon tazer j'te galoche Tu veux du shit bah on t'arrange Il y aura pas de chrome pour les salopes J'les entends rire que quand ça mange, bah ils vont bouffer des carottes C'est quoi les bails là vous êtes où ? Mes reufs et reus sous zetla, mes reufs et reus sous écrou Qui font les affaires en chette-ca Ok, la t'es pas au Karaoké, dans le zoo y'a que des scarlas OP Dans le pilon pas de parrain J'veux démonter Clara ok ? On est des braves, garde ta bave, trou du cul, ok Il y a pas d'épaves dans mon squat, trou du cul Si tu vois la vie en rose, c'est que t'as fumé que de la verte Ou t'as consommé quelques doses qui t'ont arraché toute la tête Poussez vous de là, moi je le sais pas Doutez vous de moi, ça je le sais déjà Tout est tout noir, où j'les foudroies, où j'les vouvoies mais ça j'aime pas You might also like x3 Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Ouais, ouais J'crois qu'il faut que j'les bloque, bloque, ratatata, Mr. Mothafuck en bas du bloc! J'crois qu'il faut que j'les bloque, bloques, ratatata, Mr. Mothafuck en bas du bloc Ribambelles de rimes pour votre esprit Guizi Ouzou, YW jusqu'à l'infini Mothafuck, c'est Mr. Mothafuck!2</t>
+          <t>Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Nique toutes vos lois de fils de traîtres Vos sales emplois, vos fiches de paye J'ai de l'argent sale, des biz de zet' J'ai la mentale j'évite de me perdre J'ai encore fumé tout ce qui bouge Bande d'enculés, j'suis rancunier J'ai tant lutté pour becter, on dérange pas un loup qui bouffe Wesh mes gars, wesh mes chéries Dans l'illégal on est chiré On veut du sh-ca, pas de crédits, petit jespère que t'as tilté On fait les choses en temps de crise On est des fauves en manque de tise Baise le chrome, les neurones Pété dans une banlieue chic Paire de Nike, les petits ficelés de ceux que lÉtat veut diviser Si tu fais partie de ces gros vicieux, j'conseille ap' de timmiscer Katsende, mothafuck, nique sa mère cougna mamaw J'kicke ça sec, nique le proc', j'suis toujours où y'a de la maille moi Sénégal Mali, Diakité le nom de la Mafia Ces fils de pute vont se méfier Comme quand je bicrave de l'Aya J'plane quand j'suis déchiré, tu planes comme l'avion d'Aaliyah J'voulais juste niquer, pour ce qui est de tes problèmes j'suis pas psychiatre J'reste silencieux dans cette odeur pestilentielle Il y a des lovés, des vies en jeu alors nique les présidentielles Ouais moi et les autres on s'en balance Que de la gueule et pas de baloches Hémoglobine sur les phalanges Avec mon tazer j'te galoche Tu veux du shit bah on t'arrange Il y aura pas de chrome pour les salopes J'les entends rire que quand ça mange, bah ils vont bouffer des carottes C'est quoi les bails là vous êtes où ? Mes reufs et reus sous zetla, mes reufs et reus sous écrou Qui font les affaires en chette-ca Ok, la t'es pas au Karaoké, dans le zoo y'a que des scarlas OP Dans le pilon pas de parrain J'veux démonter Clara ok ? On est des braves, garde ta bave, trou du cul, ok Il y a pas d'épaves dans mon squat, trou du cul Si tu vois la vie en rose, c'est que t'as fumé que de la verte Ou t'as consommé quelques doses qui t'ont arraché toute la tête Poussez vous de là, moi je le sais pas Doutez vous de moi, ça je le sais déjà Tout est tout noir, où j'les foudroies, où j'les vouvoies mais ça j'aime pas x3 Fuck les shmits et les poucaves Sur le beat j'te les foudroies Parle pas de biff et de you-voi Non tu me l'astiques et tu me vouvoies! Ouais, ouais J'crois qu'il faut que j'les bloque, bloque, ratatata, Mr. Mothafuck en bas du bloc! J'crois qu'il faut que j'les bloque, bloques, ratatata, Mr. Mothafuck en bas du bloc Ribambelles de rimes pour votre esprit Guizi Ouzou, YW jusqu'à l'infini Mothafuck, c'est Mr. Mothafuck!2</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Han, han, maman veut qu'jarrête de boire, mon fils veut jouer dans le square Jai avancé dans le noir et jai bicrave dans le square J'tai d'jà dit jsuis pas une star, j'me fais courser par les shtars 2007, Gare du Nord, jai pas vesqui la gare Une graine de banlieusard, on veut tout acheter pas cher Jaime mon père mais jlui en veux parce quil à lâché ma mère Et si chez toi cest la bataille, poto, chez moi cest la guerre Comme un frèr feuj à Clignancourt, gros jvais pas lâcher laffaire Et maman lavait ms requins, y avait du sang sur la paire Ouais quand jétais au fond du fleuve, ils mont pas tendu la perche Et jsuis pas dceux qui ont couru, d'ceux qui ont vendus la mèche Tu vas m'respecter ptite merde, jsuis un des grands du label Y avait dla haine et un marteau, il lui a fendu la tête Jai du l'menacer deux, trois fois et il ma rendu ma fraîche Ah, et cest pareil dans toute la France Ils croyaient qu'jétais en retard, gros javais un tour davance Et j'men branle de ton opinion, j'coupe le shit à lOpinel avec les miettes, j'fais un pillon Le daron d'mon pote il la marrave, il avait pillave du Dillon Dix ans plus tard, il a la rage et il prend quatre piges de prison Javais l'mort, jétais fauché et ils ont coupé leau chaude Grâce à Dieu, jai le mojo, dix ans plus tard sous les projos Dans ma tête, on est trop plein, dans la caisse y a un gros flingue Est-c'que ça sert à que'qu'chose à part blesser mon prochain ? You might also like Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre J'roule un joint, joint, joint, jm'envoie loin, loin, loin Jentends pilanli, jentends ouin ouin ouin On avait b'soin dun rien, on a vu plein plein dtchoins Bez-bar la nuit y a qudes zingoingoin Gros mon histoire, elle est pas nette, jsuis arrivé dune autre planète Que de la bière dans la canette, 600 euros sur la plaquette Gros jai du mal avec Lamine, gros jai du mal avec Mohamed Gros jai du mal avec la miff, gros jai du mal avec moi-même Et jsuis trop chaud sa mère, dépose ton flow par terre Sinon jarrive comme Sarkozy, jle nettoie au Karsher Et jsuis pas locataire, on parle de gros salaires Et on a traversé l'désert plus que les dromadaires Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Pas prêt à tout pour le papier, j'nage qu'là où j'ai pas pieds J'ai rappé, j'ai palpé, j'suis sorti du quartier Du coup d'foudre au coup d'feu à cause d'un p'tit regard Le rap français s'prend la tête sur le p'tit renard T'étais où quand j'tais en galère ? T'étais où quand j'tais en galère ? Quand j'rêvais de tous me les faire au pistolet ou l'arbalète Y a bagarre jamais on galope, on préfère bicrave la galette Achevez-moi si j'suis une salope ou bien planqué dans une cachette Et j'enfile le survêt' Lacoste assorti avec les claquettes J'ai exaucé tous mes vux quand j'ai frotté sur la canette Gros j'ai jamais bandé d'vant les strass et les paillettes Ils veulent nager dans l'grand bain mais la plupart, ils ont pas ieds-p J'ai rempli des instrus des téléphones et des cahiers J'rêvais d'une autre vie moi et mes frères, c'est pas gagné Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre</t>
+          <t>Han, han, maman veut qu'jarrête de boire, mon fils veut jouer dans le square Jai avancé dans le noir et jai bicrave dans le square J'tai d'jà dit jsuis pas une star, j'me fais courser par les shtars 2007, Gare du Nord, jai pas vesqui la gare Une graine de banlieusard, on veut tout acheter pas cher Jaime mon père mais jlui en veux parce quil à lâché ma mère Et si chez toi cest la bataille, poto, chez moi cest la guerre Comme un frèr feuj à Clignancourt, gros jvais pas lâcher laffaire Et maman lavait ms requins, y avait du sang sur la paire Ouais quand jétais au fond du fleuve, ils mont pas tendu la perche Et jsuis pas dceux qui ont couru, d'ceux qui ont vendus la mèche Tu vas m'respecter ptite merde, jsuis un des grands du label Y avait dla haine et un marteau, il lui a fendu la tête Jai du l'menacer deux, trois fois et il ma rendu ma fraîche Ah, et cest pareil dans toute la France Ils croyaient qu'jétais en retard, gros javais un tour davance Et j'men branle de ton opinion, j'coupe le shit à lOpinel avec les miettes, j'fais un pillon Le daron d'mon pote il la marrave, il avait pillave du Dillon Dix ans plus tard, il a la rage et il prend quatre piges de prison Javais l'mort, jétais fauché et ils ont coupé leau chaude Grâce à Dieu, jai le mojo, dix ans plus tard sous les projos Dans ma tête, on est trop plein, dans la caisse y a un gros flingue Est-c'que ça sert à que'qu'chose à part blesser mon prochain ? Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre J'roule un joint, joint, joint, jm'envoie loin, loin, loin Jentends pilanli, jentends ouin ouin ouin On avait b'soin dun rien, on a vu plein plein dtchoins Bez-bar la nuit y a qudes zingoingoin Gros mon histoire, elle est pas nette, jsuis arrivé dune autre planète Que de la bière dans la canette, 600 euros sur la plaquette Gros jai du mal avec Lamine, gros jai du mal avec Mohamed Gros jai du mal avec la miff, gros jai du mal avec moi-même Et jsuis trop chaud sa mère, dépose ton flow par terre Sinon jarrive comme Sarkozy, jle nettoie au Karsher Et jsuis pas locataire, on parle de gros salaires Et on a traversé l'désert plus que les dromadaires Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Pas prêt à tout pour le papier, j'nage qu'là où j'ai pas pieds J'ai rappé, j'ai palpé, j'suis sorti du quartier Du coup d'foudre au coup d'feu à cause d'un p'tit regard Le rap français s'prend la tête sur le p'tit renard T'étais où quand j'tais en galère ? T'étais où quand j'tais en galère ? Quand j'rêvais de tous me les faire au pistolet ou l'arbalète Y a bagarre jamais on galope, on préfère bicrave la galette Achevez-moi si j'suis une salope ou bien planqué dans une cachette Et j'enfile le survêt' Lacoste assorti avec les claquettes J'ai exaucé tous mes vux quand j'ai frotté sur la canette Gros j'ai jamais bandé d'vant les strass et les paillettes Ils veulent nager dans l'grand bain mais la plupart, ils ont pas ieds-p J'ai rempli des instrus des téléphones et des cahiers J'rêvais d'une autre vie moi et mes frères, c'est pas gagné Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre Jveux du vert, j'veux du jaune, j'veux du violet plein les poches Jme suis énervé tellement fort que jen ai réveillé les mioches Jai toujours dit qu'jétais le meilleur et qu'les autres ils étaient bof J'demande à Dieu tout c'que j'désire en appréciant tout ce quil moffre</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Gangsters, G.P. Gang man, YW, GPG Guizi Ouzou, bang 11h43, hein C'est pour tous mes gars ça 9-4, 9-2 Le chamane a décidé que c'était bientôt fini J'enchaîne les cigarettes et j'passe des nuits a l'hôpital Et puis j'ai commandé un de ces derniers 9 milli' Avant de m'arracher, faut canarder les faux qui parlent Enterrez moi au Bled, mettez du Bob Marley Dites à mes soldats que j'veux que personne pleure La vie n'est qu'une étape, la mort est inévitable Je vais rejoindre mes proches parce que personne meurt J'ai niqué ma jeunesse, en mon âme et conscience J'me prenais pour une vedette, j'avais aucun bon sens J'ai niqué des belettes en les payant comptant J'ai perdu ma santé, ma te-tê et mon temps Ah merde J'ai séché mes larmes et j'ai ouvert mes bras Je l'attends calmement mais je m'en bats les couilles Tant que d'ici là, j'ai le temps de revoir Maman You might also like Hein Protégez les vôtres, j'protégerais les miens Gangsters !1</t>
+          <t>Gangsters, G.P. Gang man, YW, GPG Guizi Ouzou, bang 11h43, hein C'est pour tous mes gars ça 9-4, 9-2 Le chamane a décidé que c'était bientôt fini J'enchaîne les cigarettes et j'passe des nuits a l'hôpital Et puis j'ai commandé un de ces derniers 9 milli' Avant de m'arracher, faut canarder les faux qui parlent Enterrez moi au Bled, mettez du Bob Marley Dites à mes soldats que j'veux que personne pleure La vie n'est qu'une étape, la mort est inévitable Je vais rejoindre mes proches parce que personne meurt J'ai niqué ma jeunesse, en mon âme et conscience J'me prenais pour une vedette, j'avais aucun bon sens J'ai niqué des belettes en les payant comptant J'ai perdu ma santé, ma te-tê et mon temps Ah merde J'ai séché mes larmes et j'ai ouvert mes bras Je l'attends calmement mais je m'en bats les couilles Tant que d'ici là, j'ai le temps de revoir Maman Hein Protégez les vôtres, j'protégerais les miens Gangsters !1</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Allo, ici Ahmed Koma en direct de Paris J'recherche appartement de bès-Bar à la place d'Italie On vit loin des rêves, telle est la réalité Personne n'est à l'abri de la rue et de la précarité Tu voulais juste un toit et on t'a pris pour un humoriste T'es pas sur le registre, t'as pas le piston du ministre Y a pas ton nom sur la bonne liste, t'auras la place que tu mérites Damné de la terre, tu seras classé parasite J'hésite pas à donner une petite pièce quand j'peux l'faire Dans la rue, dans le métro ou dans l'RER Tu sais c'est très dur en hiver quand on a pas d'toit Si j'peux j'aide, me remercie pas y a pas d'quoi Aime ton prochain comme toi-même Celui qui ère dans le froid dormirait même dans tes toilettes Ouais celui que personne n'écoute C'est bien d'se serrer la main, c'est mieux d'se tenir les coudes Ils veulent que j'tourne le dos à mes congénères Diviser pour mieux régner, c'est fou tout ce que ces cons génèrent Pas d'ceux qui s'entêtent à diaboliser l'riche Aide ton prochain, méfie-toi d'la police et XXX du fisc You might also like Dans ses problèmes chacun s'enferme, chacun s'enlise L'individualisme nous divise Solidarité requise surtout en temps d'crise Plus fort ensemble telle est ma devise</t>
+          <t>Allo, ici Ahmed Koma en direct de Paris J'recherche appartement de bès-Bar à la place d'Italie On vit loin des rêves, telle est la réalité Personne n'est à l'abri de la rue et de la précarité Tu voulais juste un toit et on t'a pris pour un humoriste T'es pas sur le registre, t'as pas le piston du ministre Y a pas ton nom sur la bonne liste, t'auras la place que tu mérites Damné de la terre, tu seras classé parasite J'hésite pas à donner une petite pièce quand j'peux l'faire Dans la rue, dans le métro ou dans l'RER Tu sais c'est très dur en hiver quand on a pas d'toit Si j'peux j'aide, me remercie pas y a pas d'quoi Aime ton prochain comme toi-même Celui qui ère dans le froid dormirait même dans tes toilettes Ouais celui que personne n'écoute C'est bien d'se serrer la main, c'est mieux d'se tenir les coudes Ils veulent que j'tourne le dos à mes congénères Diviser pour mieux régner, c'est fou tout ce que ces cons génèrent Pas d'ceux qui s'entêtent à diaboliser l'riche Aide ton prochain, méfie-toi d'la police et XXX du fisc Dans ses problèmes chacun s'enferme, chacun s'enlise L'individualisme nous divise Solidarité requise surtout en temps d'crise Plus fort ensemble telle est ma devise</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>On y pousse un peu de travers, tout dans ce qui faut pas faire Fous ton shit dans le cale-bard avant de connaître le calvaire On est des scélérats Ça fait 20 piges qu'on y est à toute de patates et ya pas moyen de décélérer Coûte que coûte on veut la fraîche, alors de temps en temps on triche Et on pèche, en faisant du mal à nos proches Fils, dis pas que la vie c'est de la merde On vit dans des Zup, Zac, zone, normal, que les flicard guette Bicrave, smicard, mec tricard et pique-assiette Solo en bas de ces tours, souvent j'me suis pris la tête Faut quon bouge de là comme MC So' Loin d'ceux qu'aiment sucer, nique les keufs et les physio' Ma façon de penser, elle est contestée Quand on vit dans un tiekson qui pousse à se défenestrer Des armes, des filles et d'la C, y'en a ras le block Ici des vies dépassées, on va pas me bloquer Les idées mal placées à force de bédave Les nerfs à vifs, j'deviens un autre quand ma mère arrive Villeneuve cest pas les Champs Y'a que des gens qui naiment pas les gens Tous à l'affût d'un business alléchant Une fois que t'y est, faut rester en place Une fois que ty est, c'est là que tu te dis, j'aurais dû rester en classe Fais pas tes choix sur un coup de tête, ou un coup de zgueg Sur le coup ça passe, mais après ça fout le seum You might also like 16 ans ça fait des gosses, eux ils appellent ça des gaffes Sauf quand y'a plus les loves et qu'il faut se pointer à la CAF Regarde autour de toi et apprécie Les appétits et la résine de la té-ci Ça crève au volant Tout ça parce que ça se prend pour le mec qui a une cape, un slip et un collant Quand à l'école, c'est tout ce qu'on connaît de légal Bon qu'à fumer des connes, à faire des tours de bécane Écoute le flow fils, l'ambiance y est propice Servi avec des punchs et des gros spliffs Paris la nuit, souvent ça sent la tate-pa Souvent des sons de P.38 et de lash-ka Moi et ma clique avec le shit on prend des smic En un peu moins d'une semaine, mais au grec on mange des frites Valenton, Villeneuve, la tour des feujs, bâtiment 9 Qu'est-ce qui s'en batte les couilles du buzz, y'a que des trafiquants de teush Mec on a appris dans le rush, sur ma vie, c'est la cascade Les gremlins et la bagarre, les front kick et des patates Et question meuf, ces derniers temps j'ai une pétasse Elle fait la cuisine, la vaisselle, roule ma peuf et fait le ménage Allez, passez-moi tout le fric, y'en a marre d'être sur la paille Que des porcs et des bâtards, j'crois que j'vais niakser un bout d'shit 92 porté fièrement sur la poitrine T'es déjà mort dans le scénario quand tu vois le film</t>
+          <t>On y pousse un peu de travers, tout dans ce qui faut pas faire Fous ton shit dans le cale-bard avant de connaître le calvaire On est des scélérats Ça fait 20 piges qu'on y est à toute de patates et ya pas moyen de décélérer Coûte que coûte on veut la fraîche, alors de temps en temps on triche Et on pèche, en faisant du mal à nos proches Fils, dis pas que la vie c'est de la merde On vit dans des Zup, Zac, zone, normal, que les flicard guette Bicrave, smicard, mec tricard et pique-assiette Solo en bas de ces tours, souvent j'me suis pris la tête Faut quon bouge de là comme MC So' Loin d'ceux qu'aiment sucer, nique les keufs et les physio' Ma façon de penser, elle est contestée Quand on vit dans un tiekson qui pousse à se défenestrer Des armes, des filles et d'la C, y'en a ras le block Ici des vies dépassées, on va pas me bloquer Les idées mal placées à force de bédave Les nerfs à vifs, j'deviens un autre quand ma mère arrive Villeneuve cest pas les Champs Y'a que des gens qui naiment pas les gens Tous à l'affût d'un business alléchant Une fois que t'y est, faut rester en place Une fois que ty est, c'est là que tu te dis, j'aurais dû rester en classe Fais pas tes choix sur un coup de tête, ou un coup de zgueg Sur le coup ça passe, mais après ça fout le seum 16 ans ça fait des gosses, eux ils appellent ça des gaffes Sauf quand y'a plus les loves et qu'il faut se pointer à la CAF Regarde autour de toi et apprécie Les appétits et la résine de la té-ci Ça crève au volant Tout ça parce que ça se prend pour le mec qui a une cape, un slip et un collant Quand à l'école, c'est tout ce qu'on connaît de légal Bon qu'à fumer des connes, à faire des tours de bécane Écoute le flow fils, l'ambiance y est propice Servi avec des punchs et des gros spliffs Paris la nuit, souvent ça sent la tate-pa Souvent des sons de P.38 et de lash-ka Moi et ma clique avec le shit on prend des smic En un peu moins d'une semaine, mais au grec on mange des frites Valenton, Villeneuve, la tour des feujs, bâtiment 9 Qu'est-ce qui s'en batte les couilles du buzz, y'a que des trafiquants de teush Mec on a appris dans le rush, sur ma vie, c'est la cascade Les gremlins et la bagarre, les front kick et des patates Et question meuf, ces derniers temps j'ai une pétasse Elle fait la cuisine, la vaisselle, roule ma peuf et fait le ménage Allez, passez-moi tout le fric, y'en a marre d'être sur la paille Que des porcs et des bâtards, j'crois que j'vais niakser un bout d'shit 92 porté fièrement sur la poitrine T'es déjà mort dans le scénario quand tu vois le film</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'suis dans le tieks J'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess Non c'est fini J'suis dans un Benz, Benz, Benz Yonea Willy Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent Ouzou bang J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans ma grotte Un appel masqué, mais c'est quoi ça encore ? L'argent ça rend beau L'argent ça rend con L'argent ça rend fou, la misère ça rend fort ouais J'suis validé depuis Paul Langevin 9.4 J'me déplace, mais j'dis pas où j'vais jamais J'suis un renard, tu sais pas où j'vis Si tu viens à moi, tu te mets en danger J'protége pas ma peau, j'protége ma fourrure J'ai fermé ma gueule, ils m'ont déférer J'suis pas comme vous les mecs, moi j'suis différent J'ai vendu du shit à ton préféré J'ai mal quand j'pense à ma mère J'ai mal quand j'pense à mon père encore plus Avant on rigolait bien c'est sûr J'ai l'impression c'était avant-hier You might also like J'suis dans le tieks J'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess Non c'est fini J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans le tieks ouais, je suis dans le tieks J'suis dans le binks, binks, binks J'suis plus en hess nan, j'suis plus en hess J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' rien à foutre Donne-moi ma pièce-pièce-pièce donne-moi ça Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ?Ahou Quel est mon métier ? Ahou Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou J'ai connu la rue avant l'âge de connaître le sexe Ramène mon grec et ramène ma bière Y'a 50 francs, tu peux garder le reste C'était ça Valenton dans les nineties Nos affaires dans des valises 9.4 Les loyers sont pas payés bordel Les huissiers nous font partir Mais j'reviens à la cité Dans ma tête j'ai des idées plein, plein Je m'endors dans la cave tard Mais je vole sans hésiter J'ai la tête dure comme un cailloux Toute ma jeunesse j'ai niqué à racailler Pourquoi il fait le fou ? Pourquoi il fait le voyou ? Cinq heures du mat', j'étais là quand y caillait J'suis dans le tieks j'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess nan, c'est fini J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans le tieks j'suis dans le tieks J'suis dans le binks, binks, binks J'suis plus en hess nan, j'suis plus en hess J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' rien à foutre Donne-moi ma pièce-pièce-pièce donne-moi ça Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou Le renard, le renard Guizi Ouzou bang bang C'est comme ça que j'fais les choses bébé Yonea Willy, Willy Yonea T'as capté ou pas ? Rah</t>
+          <t>J'suis dans le tieks J'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess Non c'est fini J'suis dans un Benz, Benz, Benz Yonea Willy Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent Ouzou bang J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans ma grotte Un appel masqué, mais c'est quoi ça encore ? L'argent ça rend beau L'argent ça rend con L'argent ça rend fou, la misère ça rend fort ouais J'suis validé depuis Paul Langevin 9.4 J'me déplace, mais j'dis pas où j'vais jamais J'suis un renard, tu sais pas où j'vis Si tu viens à moi, tu te mets en danger J'protége pas ma peau, j'protége ma fourrure J'ai fermé ma gueule, ils m'ont déférer J'suis pas comme vous les mecs, moi j'suis différent J'ai vendu du shit à ton préféré J'ai mal quand j'pense à ma mère J'ai mal quand j'pense à mon père encore plus Avant on rigolait bien c'est sûr J'ai l'impression c'était avant-hier J'suis dans le tieks J'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess Non c'est fini J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans le tieks ouais, je suis dans le tieks J'suis dans le binks, binks, binks J'suis plus en hess nan, j'suis plus en hess J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' rien à foutre Donne-moi ma pièce-pièce-pièce donne-moi ça Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ?Ahou Quel est mon métier ? Ahou Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou J'ai connu la rue avant l'âge de connaître le sexe Ramène mon grec et ramène ma bière Y'a 50 francs, tu peux garder le reste C'était ça Valenton dans les nineties Nos affaires dans des valises 9.4 Les loyers sont pas payés bordel Les huissiers nous font partir Mais j'reviens à la cité Dans ma tête j'ai des idées plein, plein Je m'endors dans la cave tard Mais je vole sans hésiter J'ai la tête dure comme un cailloux Toute ma jeunesse j'ai niqué à racailler Pourquoi il fait le fou ? Pourquoi il fait le voyou ? Cinq heures du mat', j'étais là quand y caillait J'suis dans le tieks j'suis à se-l'ai J'suis dans le binks, binks, binks J'suis plus en hess nan, c'est fini J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' bats les couilles Donne-moi ma pièce-pièce-pièce J'suis dans le tieks j'suis dans le tieks J'suis dans le binks, binks, binks J'suis plus en hess nan, j'suis plus en hess J'suis dans un Benz, Benz, Benz Pour de l'espèce pour de l'espèce Les p'tits t'agressent-gressent-gressent J'm'en fous qu'c'est la déch' rien à foutre Donne-moi ma pièce-pièce-pièce donne-moi ça Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou Me cassez pas les pieds Ahou Quel est mon quartier ? Ahou Est-ce que j'ai du papier ? Ahou Quel est mon métier ? Ahou Le renard, le renard Guizi Ouzou bang bang C'est comme ça que j'fais les choses bébé Yonea Willy, Willy Yonea T'as capté ou pas ? Rah</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>19 2Face - The Master 2Gunz - Aich L'Hip Hop 2Gunz - Alhamdulillah 2Gunz - Alter Ego 2Gunz - Colisée Nostra 2Gunz - Compilation I Love Islam 2Gunz - Derrière Les Barreaux 2Gunz - Influenza Rap 2Gunz - Loc Oujda 2Gunz - Ma Génération 2Gunz - Makanch Mouchkil 2Gunz - Malik Bla Taj 2Mido - Mgharba Fi Dem 2Nami - Kalimate Mefhoma 2Nami - Sadma 2Nami - Rap Sla7i 2Nami - Bghito Nmout 2Nami - L3asifa 2Said - Damazigh Double Face 7akmin ex NG Crew - Maxi 7akmin 7ari - Symphony 7ari - Omerta 7liwa - Baki ktabi 7liwa - Wald Fatema 7liwa - Seven 7-toun - Jwan o Brika 7-toun - Rakhia 9achla - Jibe Le3ezZ WeLa Ke7ezZ You might also like A 33 A-MED - Underground M9attar A-MED - Melli Le9loub Tenta9 A-MOfER - Speech A-MOfER - Hydroflowric A6Drizzy - Love Ep A6Gang - Reply A9das - Wa7d Alif A9das - Istira7a Al Faress - Ana Ntouma Ohia Al Faress - L7erfi feat DJ MED Al Faress - Ma3a Sab9 Al Israr Al Kayssar - The Best of Al Kayssar Al Kayssar - Valium 10 Al Mouwa7idin aka Jnoun L'Mic - 7asbou Kifma Bghiti Al Nasser - 3alam Al Nasser Al Nasser - Dima Underground Al Nasser - Kima bghit ana Amine 16-3 - Amine 16-3 Amine 16-3 - Rastafrass 1 Amine 16-3 - Rastafrass 2 Amine 16-3 - Rastafrass 3 Amine 16-3 - Rastafrass 4 Amine 16-3 - Rastafrass 5 Aminoffice - Kounna wKountou Aminoffice - Maak Dima Maak Aminoffice - Matloube Meyet Wella Hay Amir L9wafi - Majji Amiral - Infinity AMJCS - Tous Contre Le Sida Anouar Essif - Kanchoufk Anouar Essif - Men Bin Zna9i Antar - Plume Art Askri Dlam - Dalmawi Assad Din - Dayman ASYZ - Leaders Mixtape Awah - Le Retour Ayoun Elhak - Feen Ghadi ? Azed - Double Peine Azed - Ultimatum B 16 B-Ness - Choufa Dial Lyoum Bad Flow - 48 hours in the house Bad Flow - Dounya Bad Flow - L9et O Sba3 Bad Flow - M3ak nta Yalli Bad Flow - Sakhan Pardida Bad Mic - El 7a9 Bad Mic - Blinder Badr KL - Sextazy B-Gangsta - Chofti Ll 3alam B.I 4 - Fin Al 3chaka Big Breed - CD-9dim Big Breed - Mixtape The Best Of Big Breed Big Breed - Hada Howa L'Blan Big Breed - I'M Gone Big Breed - The Last Man Big Breed - Intikassa Big Breed - Infamous Soulja Big Breed - Madrassa L9adima Big Breed - Masslakha Vol.01 Big Breed - M.E.C.H.B.O.H Big Breed - L3afrita Big Breed - EP Sga3 Big Breed - Lmo2abbad Big Breed As Mr Biggi - Inti9am Muzik Big Breed - Rapcore Big Breed - Mama Lghola Big Breed - Psychiatre Big Breed - 1000 mter9a frass Bizz2risk - Révolution Bizzmakers - Double Z BlackRoc - Fhamni Wlla 7ot Stylo Black Jaguar - Ana Howa BMB-H - Underground Char9i Bow Kow - B.O.W Breezy - IB3 C 34 CAP10 - N9AYEMCHELLA Casa Crew - Khatwa Casa Crew - Al Bassma Casa System - Maroc System Cha3la Rap - Hrouf Lhiphop Cha3la Rap - Tawra Fo9 Lbeat Cha7t Man - Ana 7or Cha7t Man - Ana 7or Version Black Cha7t Man - Attawri Cha7t-Man - Chrou3a D'Rap Vol. 1 Cha7t-Man - Chrou3a D'Rap Vol. 2 Cha7t-Man - Chrou3a D'Rap Vol. 3 Cha7t-Man - Chrou3a D'Rap Vol. 4 Cha7t-Man - Chrou3a D'Rap Vol. 5 Cha7t-Man - Chrou3a D'Rap Vol. 6 Cha7t-Man - Chrou3a D'Rap Vol. 7 Cha7t-Man - Chrou3a D'Rap Vol. 8 Cha7t-Man - Chrou3a D'Rap Vol. 9 Cha7t-Man - Chrou3a D'Rap Vol. 10 Cha7t-Man - Fa9r W Chaja3a Cha7t Man - Khawatér Chouftchouf - Kolchi Bgha Ragga Chouftchouf - Rap Ragga Reggae Chrif aka Akhen - 7agar EP Chrif aka Akhen - Chinobi Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 1 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 2 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 3 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 4 Chrif aka Akhen - Sbata Aka Zero Four Chrif aka Akhen - Sbata Aka Zero Four The Mixtape Code Street - Phobia Crazy Man - Taht Laard Crazy Man - Dakhel Skhone Crazy Man - L'final Crazy Man - Départ Cut Killer - Opération Freestyle Maroc D 19 Da Son - The Beginning Dah Doc - Kirak Chuia Darkout - D.O Darkout - Undifined Darkout - With Or WithOut PEACE Diib - Dyal 90s Diib - Practice Dinasty - Zan9a Academy Diyaf Lah - Hadchi Li Kayn Diyaf Lah - Hakda Hna Dizzy Dros - 3azzy 3ando stylo Dogmatik - Sma3 Ola Ga3 Don Bigg - Byad Ou K7al Mixtape Don Bigg - Byad Ou K7al Don Bigg - Mgharba 'Tal Moute Don Bigg - Talet Dopage - Gitanos Dopage - Protocol Double A - Al ard bkat Double A - Wakie Dr Lile - 7adek Chaarta Dr Lile - Under F Demi Drawa - Balawi L'Mojtama3 D.L - Tafi Daw D.S - BRR-Ba7 D.S - Despit Your Mother E 1 Erore - Lmaghreb Essofy - Chkon Ba9i Chak F 6 Faat Crew - Lkhatwa Lawla Fez City Clan - Arde L'Baizz Nass Fez City Clan - Fès Fnaire - Laftouh Fnaïre - Yed El Henna Fnaïre - Al Basma G 8 Gamehdi - Buta Gam Gamehdi - CasaNostra Gamehdi - Haycha Gamehdi - Inti7ar Mousi9i Ghetto - Fes Lballi Ghost Project - Ghost Project Gnawi - Sekhta Good Man X3 - Rap Marocain Style Americain Guzman - Rouhanyate H 14 H-Kayne - Hdaw Dogs Jaw H-Kayne - 1 Son 2 Bled'Art H-Kayne - HK 1426 H-Kayne - H-Kaynology Hablo - Made in Zen9a 1 Hablo - Ma Ti9ch Hablo - Smmini Halogic - Diwane Hamada - Back To The Old School Hel Lmkane - Quartier Chaud Hel Lmkane - Sawt Cha3b Hell-Ouaf - Net-Tape Volume 1 Hell-Ouaf - Ard Essalam Hell-Ouaf feat. Mc Bohlal - Wassa3 Hill Flow - Sghar Men L'Mic HMK Flow - Blass Bla Flouss Hoofer TedX - PIB Hospital Underground - Matkhafch 3lina I 2 Imperial Skillz Empera - Imperial-ism Vol 2 Imperial Skillz Empera - Imperial-ism Vol 3 J 3 J-OK Dj K - The Unoffishall Mixtape Jackpott - Danger Public Jackpott - Khadem Aaqlek Jeka - Bombe Krimogene Jeka - Dirty Station Jen - Swi3a K 16 Kaf Line - Dima Lfoug Kaf Line - Dima Lfoug V.2 Katana - Life Style Katres - L'Arcade Tawrat Al Awbach Katres - Nevrose KeniClan - The H'tank Revolution KeniClan - Halwassa KeniClan - 9asse7 7sen Men Keddab Khalol - Maxi N 1 Kira7 - Allo Klam Fort K4 - Jenb L7it Klam Fort K4 - Micro Fdaly Klass-A - AURA Klass-A - Infected Virus Klass-A - Infected Virus Vol. 2 Klass-A - Infected Virus Vol. 3 Klass-A - Its not over Klass-A - Mythology Klika X - L'Cassetta Koman - Da Fowda Komy - Sociologie Kookh Mc - Ra Jma3t Rass Lmal Ou Bzaydd Kooyo - NoType 1 Kooyo - NoType 2 Krtas Nssa - Ep KN L 37 LJasos - ELMAMLAKA LJasos - Rabat DC L3arbé - 7en Tma7an L3arbé - 2 39ol L3arbé - Dem W Flous L7a9d - 3ayech Dyal Lah L7a9d - L7a9d men oukacha L7a9d - Laachra ou charwita L7a9d - M3LM L7a9d - Walo L7erfi - The Moroccan Cypher L7or - Amer L'Wa9i3 Lbenj - Galaxy Leader - Wassline Fine Lil Eytch - Kalash Lil Eytch - Leondàrio Lil Eytch - 6272Empire Lil Eytch - Calaboca Lil G - Do Re Mi Fabor Lil MC - Red Mic Lil One - Alwa9i3 L'Morphine - L'Morphiniya L'Morphine - Paprika L'Morphine - Excelsior L'Morphine - Costa Ya Watane L'Morphine - Chyata D L'Album L'Morphine - Total L'Morphine - Maxi L'Morphine L'Morphine - Maxi Mighnatis L'Morphine - Maxi na9ous L'Morphine - Niko L'Morphine - Gala Lmoutchou - Dars Khass 9abla l'Album Lmoutchou - Lmoutchou Family Lmoutchou - Dars Khass Ba3da L'album Lmoutchou - Fast Food Lmoutchou - Lmada Lkham Loco Lghadab - Lghadab Loco Lghadab - Conter Souljaz Loco Lghadab - 3youne Bakya Loco Lghadab - 7rouf L9ahra Loco Lghadab - Khalina Khout Lord Aminos - The Revival Of The Lord Ragga Lord Aminos - Casa On Air Lord Aminos - Le Maghrébin Lsan L7a9 - Tri9 L3ez Lsan L7a9 - FucK Enemiz Lsan L7a9 - Biin Druba L.Tzack - Drouba Day9in Vol 1 Lz3er - Weld Fes City L'Capitale M 61 Mafia DS - L7asa 6 Magma - Live Men Zanka Magma Feat. BmB H - Recto Vesro Magma - L9a3a Magnum - Cauchemar L7rouf Maho JAH - Blad Zionist M-Boy - Rih Maleek Morovic - 04 Maleek Morovic - Calabos Maleek Morovic - Calabos Vol. 2 Maleek Morovic - Calabos Mania Maleek Morovic - Go Fast Maleek Morovic - Kalimoro Maleek Morovic - Lex Talionis Maleek Morovic - L'Modawana Maleek Morovic - Zakamoria Maleek Morovic - Mistara Raj3ia MarStyle - Rap Du Bled Masta Flow - Smo 3lih MB1 - Hooligans MB1 - L'Bladologie MC Bizarre - Angry MC Bizarre - Trouble Mc Fifteen - Voltage Mc Fifteen - Story MC Flow Lsan L7a9 - Wa5a Sghor Rap Maghribi Tal 9bar MC Jo - B'Darija MC Jo - Côté Abstrait MC Jo - Entre 2 Actes Mc Rivo - Lwa9t Bdala Meedzo - I'm Coming Mixtape Meedzo - I'm Coming Mixtape Vol.2 Mehdi K-Libre - LMraya Meta4 - MVMF M-Gang - The New Comers Miradisc - Kolna Mgharba Mistah Vee - Veectory Mobystow Lmoutchou Plaistow - Ta Riel Mojahid - Round Lowl Mohammad Din - Influenza L Hip Hop MONS - Monsnation MONS - Saroute Mr.Draganov - Hall Of Fame Mr.Draganov - Khissous Mr.Draganov - Khissous V.2 Mr.Dragonov - SLLM Mr Crazy - Artiste Bin Droub Mr Crazy - L88 Mr Crazy - Laguerrvie Mr Crazy - Music To All People Mr Crazy - Sama3 l Rassi F S9il Mr Crazy - Validé Mr Crazy - Ya Khasar Ya Tkhasar Mr Danger - Moul. Chi Mr Hero - Hisoka The Mixtape Mr Hero - L'Khla Mr Hero - Taba9a Talta Mr L'artiste - Defend Rabat Mr Salah - Classic Shit Mr Salah - Kante Kangoule Mr Salah - Rap'N'Roll Mr Salah - So Good 1 Mr Salah - So Good 2 Mr Salah - Zayed Na9ass Mr Tigerap - Kantfaker Mr Tigerap - L'9atran Mr Volcano - KMK - Sef7a Jdida Muslim - Outlife Muslim - Strictly For My Souljaz Muslim - Katra Muslim - Bghini wela Krahni Muslim - Mor Ssor Muslim - Al Tamarrod Vol.1 Muslim - Al Tamarrod Vol.2 N 16 Nessyou - Amdra Nessyou - Anormal Nessyou - Nessyounal Gjamorapic NGR Nessyou - T9iwtat Nikotine - Men Tarf Lssani Nizzy Bee - Boite Vocale Nizzy Bee - Dakar Nizzy Bee - Infinity 93' Nizzy Bee - Men 9dam Lour Nizzy Bee - NY Nizzy Bee - Ruby Nizzy Bee - Rue123 Nizzy Bee - Supect Nores - Bit Ennar Nores - Gangsta Slawi NTA - Haine T-A O 6 Omis - Mn 9alb L9alb Opsirap - Chawchara Opsirap - Paranoia Oujda City Crew - Hurricane Oujou - Hakda 3aychine Out-Line - 7arb Flow Out-Line - Underground 3arbé P 8 Pause Flow - OffOn Pause - Metamorphose Pen Power - Base 11-50 Permouda - Bach Mabghiti Pirate - Folklor Hardcore PoweR'oFF 9.1.1 Proof Killah G - Derb Sultan Proof Killah G - Men Ga3 L9nat Pschool - Positive School Mixtape Psycho System - Black Team Psycho Q R 11 Rabat Crew - Sem Rim Rabat Voice ex Syouf Zan9a - Men 9alb Rabat City Raid - Blood Beauty Raid - Mixtape Aréopage V1 Raid - Mixtape Aréopage V2 Rap 4 Peace - Slam F'Rap Re-Vol - 30 Millions Re-Vol - I'm Back Again Rofix - Bla Nihaya Rofix - Clach Mour Clach Rofix - L'3foo Meni Rofix - La3b Kber Rofix - Karahiya Rofix - Kolchi K3aa..?? Rofix - Menk M Nass Rofix - Mennek Bezzaf Rofix - Rotoure De Gangster RoS - K7el Olla Byed S 35 Sa3er Man - Casseta Sa3er Man - Mrid B Rap Sa3er Man - Diftar Lwasakh Saad Eddin - Music Clean Saad Eddin - Octave Saad Eddin - Lktab Saad Eddin - Ep Passado Sad Jim - LFaceMa Sad Jim - The Moroccan Black Story Sage-T - Ila Konti Salah Edin - Hakma Salah Edin - Horr Salah Edin - The Official Mixtape Preview To The Album Horr Salim - Salim Salim Laguili - Drafa Salim Laguili - Hadchi Li Kayn Salim Laguili - KechMarra Ghetto Sharfa - Kif Ma Derna 7erna Shayfeen - Lénergie Shayfeen - EP 07 Sayf L'Artiste - Weld L'44 Sayflhak - 7Z Sayflhak - Hadana Sayflhak - Lkhat D 7yati Scabreux - L'Concept Sem Leklam - Trik Char Si Simo - Bach Jay Bach Dayer Slim Rabid Wave - Activated Small-X - Rap Tal Trab Smiley x K2bluminati - Lyrically Corrupted Soltan - Bismilah Soltan - Machi L Khatri Souf 909 90.9 The Mixtape Souf 909 909 The Mixtape Vol. 2 Souhail Ess Boy Crack Mixtape Sow Low - T3attalti Spoo Pow - Al Halwassa Spoo Pow - Hlibo Fad Spoo Pow - Indare moussi9i Spoo Pow - Maskhout Cha3b Spoo Pow - SP2O Spoo Pow - Tabwi9a wl Mosi9a Street Casa - Zna9i Lbayda Style Souss - Hayar Nouchkad T 6 Ta3bir L'7or - Hada Nharna Talos - Ostad Ep Teekay - Ana Rapper T-Flow - Dope Mixtape T-Flow - I'M The King T-Flow - LBS The Kings 48 - System Dawla Thug Face 9achla - 9amouss Zna9i 1 Thug Face 9achla - 9amouss Zna9i 2 Tiraline - Hlima Tiraline - Al Baraka Tiraline - Myouzik TMM Family - 15 Coups Toto - BNJ City Block Toto - Illicit U 4 Under-Man - Akhir Virage Under-Man - Bin l'7olm w l'7a9i9a Under-Man - Cicatrice Under-Man - Edaya3 Under-Man - Mrayti V 2 Various Artists - Les éclectiques Raptiviste V-Mic Ex Violator Mic - Demolition Violator Mic - Casawa W 7 Welad El Zman - Micro Welad El Zman Weld55 - Mixtape Weld55 West - Overdose Wlad Narjiss - New Style Wllad H1 - Wllad H1 WolfStreet - Style Rap Would Cha3b - Ghir Ma Mssalich Would Cha3b - L'Jadide Men l'Arde L'Sma X 4 XACTO - Extase XCEP - The Outline EP X-Flamme - Wje3 Rap X-Flow - Face Lakhour X-Side - Come Back Y 6 Yassine Rami - RAIRAP Yassine Rami - Aayen bayen Youss45 - Al7a9i9a Awalan Youss45 - Artiste Malheureusement Youss45 - B3id 9rib Youss45 - Despit Your Mother Youss45 - Truth Smiling Z 7 Zanka Flow - Tanjawa Daba Zanka Flow - Jebha Zanka Flow - Dem w Dmou3 Zanzan - Croatia Zanzan - Hada Makan Zanzan - Tnaket Zetra - Ma Vision Du Monde Albums, mixtapes, compil, maxi, rap marocain</t>
+          <t>19 2Face - The Master 2Gunz - Aich L'Hip Hop 2Gunz - Alhamdulillah 2Gunz - Alter Ego 2Gunz - Colisée Nostra 2Gunz - Compilation I Love Islam 2Gunz - Derrière Les Barreaux 2Gunz - Influenza Rap 2Gunz - Loc Oujda 2Gunz - Ma Génération 2Gunz - Makanch Mouchkil 2Gunz - Malik Bla Taj 2Mido - Mgharba Fi Dem 2Nami - Kalimate Mefhoma 2Nami - Sadma 2Nami - Rap Sla7i 2Nami - Bghito Nmout 2Nami - L3asifa 2Said - Damazigh Double Face 7akmin ex NG Crew - Maxi 7akmin 7ari - Symphony 7ari - Omerta 7liwa - Baki ktabi 7liwa - Wald Fatema 7liwa - Seven 7-toun - Jwan o Brika 7-toun - Rakhia 9achla - Jibe Le3ezZ WeLa Ke7ezZ A 33 A-MED - Underground M9attar A-MED - Melli Le9loub Tenta9 A-MOfER - Speech A-MOfER - Hydroflowric A6Drizzy - Love Ep A6Gang - Reply A9das - Wa7d Alif A9das - Istira7a Al Faress - Ana Ntouma Ohia Al Faress - L7erfi feat DJ MED Al Faress - Ma3a Sab9 Al Israr Al Kayssar - The Best of Al Kayssar Al Kayssar - Valium 10 Al Mouwa7idin aka Jnoun L'Mic - 7asbou Kifma Bghiti Al Nasser - 3alam Al Nasser Al Nasser - Dima Underground Al Nasser - Kima bghit ana Amine 16-3 - Amine 16-3 Amine 16-3 - Rastafrass 1 Amine 16-3 - Rastafrass 2 Amine 16-3 - Rastafrass 3 Amine 16-3 - Rastafrass 4 Amine 16-3 - Rastafrass 5 Aminoffice - Kounna wKountou Aminoffice - Maak Dima Maak Aminoffice - Matloube Meyet Wella Hay Amir L9wafi - Majji Amiral - Infinity AMJCS - Tous Contre Le Sida Anouar Essif - Kanchoufk Anouar Essif - Men Bin Zna9i Antar - Plume Art Askri Dlam - Dalmawi Assad Din - Dayman ASYZ - Leaders Mixtape Awah - Le Retour Ayoun Elhak - Feen Ghadi ? Azed - Double Peine Azed - Ultimatum B 16 B-Ness - Choufa Dial Lyoum Bad Flow - 48 hours in the house Bad Flow - Dounya Bad Flow - L9et O Sba3 Bad Flow - M3ak nta Yalli Bad Flow - Sakhan Pardida Bad Mic - El 7a9 Bad Mic - Blinder Badr KL - Sextazy B-Gangsta - Chofti Ll 3alam B.I 4 - Fin Al 3chaka Big Breed - CD-9dim Big Breed - Mixtape The Best Of Big Breed Big Breed - Hada Howa L'Blan Big Breed - I'M Gone Big Breed - The Last Man Big Breed - Intikassa Big Breed - Infamous Soulja Big Breed - Madrassa L9adima Big Breed - Masslakha Vol.01 Big Breed - M.E.C.H.B.O.H Big Breed - L3afrita Big Breed - EP Sga3 Big Breed - Lmo2abbad Big Breed As Mr Biggi - Inti9am Muzik Big Breed - Rapcore Big Breed - Mama Lghola Big Breed - Psychiatre Big Breed - 1000 mter9a frass Bizz2risk - Révolution Bizzmakers - Double Z BlackRoc - Fhamni Wlla 7ot Stylo Black Jaguar - Ana Howa BMB-H - Underground Char9i Bow Kow - B.O.W Breezy - IB3 C 34 CAP10 - N9AYEMCHELLA Casa Crew - Khatwa Casa Crew - Al Bassma Casa System - Maroc System Cha3la Rap - Hrouf Lhiphop Cha3la Rap - Tawra Fo9 Lbeat Cha7t Man - Ana 7or Cha7t Man - Ana 7or Version Black Cha7t Man - Attawri Cha7t-Man - Chrou3a D'Rap Vol. 1 Cha7t-Man - Chrou3a D'Rap Vol. 2 Cha7t-Man - Chrou3a D'Rap Vol. 3 Cha7t-Man - Chrou3a D'Rap Vol. 4 Cha7t-Man - Chrou3a D'Rap Vol. 5 Cha7t-Man - Chrou3a D'Rap Vol. 6 Cha7t-Man - Chrou3a D'Rap Vol. 7 Cha7t-Man - Chrou3a D'Rap Vol. 8 Cha7t-Man - Chrou3a D'Rap Vol. 9 Cha7t-Man - Chrou3a D'Rap Vol. 10 Cha7t-Man - Fa9r W Chaja3a Cha7t Man - Khawatér Chouftchouf - Kolchi Bgha Ragga Chouftchouf - Rap Ragga Reggae Chrif aka Akhen - 7agar EP Chrif aka Akhen - Chinobi Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 1 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 2 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 3 Chrif aka Akhen - L'Wa9t Edaye3 Mixtape Vol 4 Chrif aka Akhen - Sbata Aka Zero Four Chrif aka Akhen - Sbata Aka Zero Four The Mixtape Code Street - Phobia Crazy Man - Taht Laard Crazy Man - Dakhel Skhone Crazy Man - L'final Crazy Man - Départ Cut Killer - Opération Freestyle Maroc D 19 Da Son - The Beginning Dah Doc - Kirak Chuia Darkout - D.O Darkout - Undifined Darkout - With Or WithOut PEACE Diib - Dyal 90s Diib - Practice Dinasty - Zan9a Academy Diyaf Lah - Hadchi Li Kayn Diyaf Lah - Hakda Hna Dizzy Dros - 3azzy 3ando stylo Dogmatik - Sma3 Ola Ga3 Don Bigg - Byad Ou K7al Mixtape Don Bigg - Byad Ou K7al Don Bigg - Mgharba 'Tal Moute Don Bigg - Talet Dopage - Gitanos Dopage - Protocol Double A - Al ard bkat Double A - Wakie Dr Lile - 7adek Chaarta Dr Lile - Under F Demi Drawa - Balawi L'Mojtama3 D.L - Tafi Daw D.S - BRR-Ba7 D.S - Despit Your Mother E 1 Erore - Lmaghreb Essofy - Chkon Ba9i Chak F 6 Faat Crew - Lkhatwa Lawla Fez City Clan - Arde L'Baizz Nass Fez City Clan - Fès Fnaire - Laftouh Fnaïre - Yed El Henna Fnaïre - Al Basma G 8 Gamehdi - Buta Gam Gamehdi - CasaNostra Gamehdi - Haycha Gamehdi - Inti7ar Mousi9i Ghetto - Fes Lballi Ghost Project - Ghost Project Gnawi - Sekhta Good Man X3 - Rap Marocain Style Americain Guzman - Rouhanyate H 14 H-Kayne - Hdaw Dogs Jaw H-Kayne - 1 Son 2 Bled'Art H-Kayne - HK 1426 H-Kayne - H-Kaynology Hablo - Made in Zen9a 1 Hablo - Ma Ti9ch Hablo - Smmini Halogic - Diwane Hamada - Back To The Old School Hel Lmkane - Quartier Chaud Hel Lmkane - Sawt Cha3b Hell-Ouaf - Net-Tape Volume 1 Hell-Ouaf - Ard Essalam Hell-Ouaf feat. Mc Bohlal - Wassa3 Hill Flow - Sghar Men L'Mic HMK Flow - Blass Bla Flouss Hoofer TedX - PIB Hospital Underground - Matkhafch 3lina I 2 Imperial Skillz Empera - Imperial-ism Vol 2 Imperial Skillz Empera - Imperial-ism Vol 3 J 3 J-OK Dj K - The Unoffishall Mixtape Jackpott - Danger Public Jackpott - Khadem Aaqlek Jeka - Bombe Krimogene Jeka - Dirty Station Jen - Swi3a K 16 Kaf Line - Dima Lfoug Kaf Line - Dima Lfoug V.2 Katana - Life Style Katres - L'Arcade Tawrat Al Awbach Katres - Nevrose KeniClan - The H'tank Revolution KeniClan - Halwassa KeniClan - 9asse7 7sen Men Keddab Khalol - Maxi N 1 Kira7 - Allo Klam Fort K4 - Jenb L7it Klam Fort K4 - Micro Fdaly Klass-A - AURA Klass-A - Infected Virus Klass-A - Infected Virus Vol. 2 Klass-A - Infected Virus Vol. 3 Klass-A - Its not over Klass-A - Mythology Klika X - L'Cassetta Koman - Da Fowda Komy - Sociologie Kookh Mc - Ra Jma3t Rass Lmal Ou Bzaydd Kooyo - NoType 1 Kooyo - NoType 2 Krtas Nssa - Ep KN L 37 LJasos - ELMAMLAKA LJasos - Rabat DC L3arbé - 7en Tma7an L3arbé - 2 39ol L3arbé - Dem W Flous L7a9d - 3ayech Dyal Lah L7a9d - L7a9d men oukacha L7a9d - Laachra ou charwita L7a9d - M3LM L7a9d - Walo L7erfi - The Moroccan Cypher L7or - Amer L'Wa9i3 Lbenj - Galaxy Leader - Wassline Fine Lil Eytch - Kalash Lil Eytch - Leondàrio Lil Eytch - 6272Empire Lil Eytch - Calaboca Lil G - Do Re Mi Fabor Lil MC - Red Mic Lil One - Alwa9i3 L'Morphine - L'Morphiniya L'Morphine - Paprika L'Morphine - Excelsior L'Morphine - Costa Ya Watane L'Morphine - Chyata D L'Album L'Morphine - Total L'Morphine - Maxi L'Morphine L'Morphine - Maxi Mighnatis L'Morphine - Maxi na9ous L'Morphine - Niko L'Morphine - Gala Lmoutchou - Dars Khass 9abla l'Album Lmoutchou - Lmoutchou Family Lmoutchou - Dars Khass Ba3da L'album Lmoutchou - Fast Food Lmoutchou - Lmada Lkham Loco Lghadab - Lghadab Loco Lghadab - Conter Souljaz Loco Lghadab - 3youne Bakya Loco Lghadab - 7rouf L9ahra Loco Lghadab - Khalina Khout Lord Aminos - The Revival Of The Lord Ragga Lord Aminos - Casa On Air Lord Aminos - Le Maghrébin Lsan L7a9 - Tri9 L3ez Lsan L7a9 - FucK Enemiz Lsan L7a9 - Biin Druba L.Tzack - Drouba Day9in Vol 1 Lz3er - Weld Fes City L'Capitale M 61 Mafia DS - L7asa 6 Magma - Live Men Zanka Magma Feat. BmB H - Recto Vesro Magma - L9a3a Magnum - Cauchemar L7rouf Maho JAH - Blad Zionist M-Boy - Rih Maleek Morovic - 04 Maleek Morovic - Calabos Maleek Morovic - Calabos Vol. 2 Maleek Morovic - Calabos Mania Maleek Morovic - Go Fast Maleek Morovic - Kalimoro Maleek Morovic - Lex Talionis Maleek Morovic - L'Modawana Maleek Morovic - Zakamoria Maleek Morovic - Mistara Raj3ia MarStyle - Rap Du Bled Masta Flow - Smo 3lih MB1 - Hooligans MB1 - L'Bladologie MC Bizarre - Angry MC Bizarre - Trouble Mc Fifteen - Voltage Mc Fifteen - Story MC Flow Lsan L7a9 - Wa5a Sghor Rap Maghribi Tal 9bar MC Jo - B'Darija MC Jo - Côté Abstrait MC Jo - Entre 2 Actes Mc Rivo - Lwa9t Bdala Meedzo - I'm Coming Mixtape Meedzo - I'm Coming Mixtape Vol.2 Mehdi K-Libre - LMraya Meta4 - MVMF M-Gang - The New Comers Miradisc - Kolna Mgharba Mistah Vee - Veectory Mobystow Lmoutchou Plaistow - Ta Riel Mojahid - Round Lowl Mohammad Din - Influenza L Hip Hop MONS - Monsnation MONS - Saroute Mr.Draganov - Hall Of Fame Mr.Draganov - Khissous Mr.Draganov - Khissous V.2 Mr.Dragonov - SLLM Mr Crazy - Artiste Bin Droub Mr Crazy - L88 Mr Crazy - Laguerrvie Mr Crazy - Music To All People Mr Crazy - Sama3 l Rassi F S9il Mr Crazy - Validé Mr Crazy - Ya Khasar Ya Tkhasar Mr Danger - Moul. Chi Mr Hero - Hisoka The Mixtape Mr Hero - L'Khla Mr Hero - Taba9a Talta Mr L'artiste - Defend Rabat Mr Salah - Classic Shit Mr Salah - Kante Kangoule Mr Salah - Rap'N'Roll Mr Salah - So Good 1 Mr Salah - So Good 2 Mr Salah - Zayed Na9ass Mr Tigerap - Kantfaker Mr Tigerap - L'9atran Mr Volcano - KMK - Sef7a Jdida Muslim - Outlife Muslim - Strictly For My Souljaz Muslim - Katra Muslim - Bghini wela Krahni Muslim - Mor Ssor Muslim - Al Tamarrod Vol.1 Muslim - Al Tamarrod Vol.2 N 16 Nessyou - Amdra Nessyou - Anormal Nessyou - Nessyounal Gjamorapic NGR Nessyou - T9iwtat Nikotine - Men Tarf Lssani Nizzy Bee - Boite Vocale Nizzy Bee - Dakar Nizzy Bee - Infinity 93' Nizzy Bee - Men 9dam Lour Nizzy Bee - NY Nizzy Bee - Ruby Nizzy Bee - Rue123 Nizzy Bee - Supect Nores - Bit Ennar Nores - Gangsta Slawi NTA - Haine T-A O 6 Omis - Mn 9alb L9alb Opsirap - Chawchara Opsirap - Paranoia Oujda City Crew - Hurricane Oujou - Hakda 3aychine Out-Line - 7arb Flow Out-Line - Underground 3arbé P 8 Pause Flow - OffOn Pause - Metamorphose Pen Power - Base 11-50 Permouda - Bach Mabghiti Pirate - Folklor Hardcore PoweR'oFF 9.1.1 Proof Killah G - Derb Sultan Proof Killah G - Men Ga3 L9nat Pschool - Positive School Mixtape Psycho System - Black Team Psycho Q R 11 Rabat Crew - Sem Rim Rabat Voice ex Syouf Zan9a - Men 9alb Rabat City Raid - Blood Beauty Raid - Mixtape Aréopage V1 Raid - Mixtape Aréopage V2 Rap 4 Peace - Slam F'Rap Re-Vol - 30 Millions Re-Vol - I'm Back Again Rofix - Bla Nihaya Rofix - Clach Mour Clach Rofix - L'3foo Meni Rofix - La3b Kber Rofix - Karahiya Rofix - Kolchi K3aa..?? Rofix - Menk M Nass Rofix - Mennek Bezzaf Rofix - Rotoure De Gangster RoS - K7el Olla Byed S 35 Sa3er Man - Casseta Sa3er Man - Mrid B Rap Sa3er Man - Diftar Lwasakh Saad Eddin - Music Clean Saad Eddin - Octave Saad Eddin - Lktab Saad Eddin - Ep Passado Sad Jim - LFaceMa Sad Jim - The Moroccan Black Story Sage-T - Ila Konti Salah Edin - Hakma Salah Edin - Horr Salah Edin - The Official Mixtape Preview To The Album Horr Salim - Salim Salim Laguili - Drafa Salim Laguili - Hadchi Li Kayn Salim Laguili - KechMarra Ghetto Sharfa - Kif Ma Derna 7erna Shayfeen - Lénergie Shayfeen - EP 07 Sayf L'Artiste - Weld L'44 Sayflhak - 7Z Sayflhak - Hadana Sayflhak - Lkhat D 7yati Scabreux - L'Concept Sem Leklam - Trik Char Si Simo - Bach Jay Bach Dayer Slim Rabid Wave - Activated Small-X - Rap Tal Trab Smiley x K2bluminati - Lyrically Corrupted Soltan - Bismilah Soltan - Machi L Khatri Souf 909 90.9 The Mixtape Souf 909 909 The Mixtape Vol. 2 Souhail Ess Boy Crack Mixtape Sow Low - T3attalti Spoo Pow - Al Halwassa Spoo Pow - Hlibo Fad Spoo Pow - Indare moussi9i Spoo Pow - Maskhout Cha3b Spoo Pow - SP2O Spoo Pow - Tabwi9a wl Mosi9a Street Casa - Zna9i Lbayda Style Souss - Hayar Nouchkad T 6 Ta3bir L'7or - Hada Nharna Talos - Ostad Ep Teekay - Ana Rapper T-Flow - Dope Mixtape T-Flow - I'M The King T-Flow - LBS The Kings 48 - System Dawla Thug Face 9achla - 9amouss Zna9i 1 Thug Face 9achla - 9amouss Zna9i 2 Tiraline - Hlima Tiraline - Al Baraka Tiraline - Myouzik TMM Family - 15 Coups Toto - BNJ City Block Toto - Illicit U 4 Under-Man - Akhir Virage Under-Man - Bin l'7olm w l'7a9i9a Under-Man - Cicatrice Under-Man - Edaya3 Under-Man - Mrayti V 2 Various Artists - Les éclectiques Raptiviste V-Mic Ex Violator Mic - Demolition Violator Mic - Casawa W 7 Welad El Zman - Micro Welad El Zman Weld55 - Mixtape Weld55 West - Overdose Wlad Narjiss - New Style Wllad H1 - Wllad H1 WolfStreet - Style Rap Would Cha3b - Ghir Ma Mssalich Would Cha3b - L'Jadide Men l'Arde L'Sma X 4 XACTO - Extase XCEP - The Outline EP X-Flamme - Wje3 Rap X-Flow - Face Lakhour X-Side - Come Back Y 6 Yassine Rami - RAIRAP Yassine Rami - Aayen bayen Youss45 - Al7a9i9a Awalan Youss45 - Artiste Malheureusement Youss45 - B3id 9rib Youss45 - Despit Your Mother Youss45 - Truth Smiling Z 7 Zanka Flow - Tanjawa Daba Zanka Flow - Jebha Zanka Flow - Dem w Dmou3 Zanzan - Croatia Zanzan - Hada Makan Zanzan - Tnaket Zetra - Ma Vision Du Monde Albums, mixtapes, compil, maxi, rap marocain</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Yaaa Yo gars Ziguili-check Zbiguili-zbang Wooh wooh Ouzou Guizi Coucou sisi Gros jai un passé qui a plutôt une sale gueule Jai bu trop dalcool jai vomi sur ma feuille Javance à rculons comme si jétais Michael Jpensais à la mort quand jai écrit My Gun Et cest pas normal à 20 ans non À peine lâge de voter sa mère Et dehors jai vu des bains de sang aaah On na pas le sens de la propreté Jai volé en cachette Jai vendu des plaquettes Tout seul dans le noir jai fumé toute la barrette tout ça Me croise pas la nuit après 2h jsuis pas net tout ça Ya sheitan qui danse à chacune de mes cannettes jai fait tout ça Cest soit jtiens le coup soit je saute de la falaise Du feu dans le cur dans le regard de la braise hein La mort lassocié de la mafia calabraise Mais moi jaime leffort cest lennemi de la paresse merde You might also like Ya plus personne dans lallée plus personne dans lallée Depuis tout petit dans la calle depuis tout petit dans la calle Des souvenirs qui traumatisent que jai noté dans mon cahier Beaucoup dentre nous sont partis et nous ne serons pas épargnés jsuis dans le truc Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées Cest pas caner qui mfait peur Mon poto cest la manière hein Jsuis connu dans mon secteur ouais Jsuis connu pour ma carrière 9-4 Depuis mes 15 ans jsuis tricard aah Jvendais du shit à la barrière ouais Jai fait quelques choix bizarres wooh wooh Mais jpeux pas revenir en arrière Et moi jespère les rendre fiers hein Avant de passer larme à gauche hein Jai racaillé une vie entière toujours Et toujours rien dans la caboche bah ouais Et puis mes frères cest des gangsters Jveux pas un corbillard jveux un carrosse Tu rmontes pas à la surface si on tenterre hein Tu sras joyeux comme une fleur si on tarrose paw paw Et jsuis dans ltruc Mais jsais très bien quça peut finir demain Jouvre les livres et jveux savoir ce quil y a dedans rien à foutre Que Dieu me guide et éloigne tous les ennemis de mon chemin hein jsuis dans le truc Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées On crie arah dans la cité Il nous faut de nouvelles idées La guitare Johnny Hallyday Pra pra pra oh happy day On crie arah dans la cité Il nous faut de nouvelles idées La guitare Johnny Hallyday Pra pra pra oh happy day Si jpars demain jvais être pardonné Toute ma jeunesse à charbonner Jai djà mangé grâce aux abonnés Si jpars demain jvais être pardonné Toute ma jeunesse à charbonner Jai djà mangé grâce aux abonnés Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées Tsais comment ça se passe YW Zone sensible GP ouzou gang Hein Cest nous la meute Ah Ahou Cest Guizmo et Atanih Jfais du rap depuis lAtari Wesh la frangine Hein Remballe la ? Hehehe Si yen a un qui fait le fou, tu seras protégée par tes frangins</t>
+          <t>Yaaa Yo gars Ziguili-check Zbiguili-zbang Wooh wooh Ouzou Guizi Coucou sisi Gros jai un passé qui a plutôt une sale gueule Jai bu trop dalcool jai vomi sur ma feuille Javance à rculons comme si jétais Michael Jpensais à la mort quand jai écrit My Gun Et cest pas normal à 20 ans non À peine lâge de voter sa mère Et dehors jai vu des bains de sang aaah On na pas le sens de la propreté Jai volé en cachette Jai vendu des plaquettes Tout seul dans le noir jai fumé toute la barrette tout ça Me croise pas la nuit après 2h jsuis pas net tout ça Ya sheitan qui danse à chacune de mes cannettes jai fait tout ça Cest soit jtiens le coup soit je saute de la falaise Du feu dans le cur dans le regard de la braise hein La mort lassocié de la mafia calabraise Mais moi jaime leffort cest lennemi de la paresse merde Ya plus personne dans lallée plus personne dans lallée Depuis tout petit dans la calle depuis tout petit dans la calle Des souvenirs qui traumatisent que jai noté dans mon cahier Beaucoup dentre nous sont partis et nous ne serons pas épargnés jsuis dans le truc Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées Cest pas caner qui mfait peur Mon poto cest la manière hein Jsuis connu dans mon secteur ouais Jsuis connu pour ma carrière 9-4 Depuis mes 15 ans jsuis tricard aah Jvendais du shit à la barrière ouais Jai fait quelques choix bizarres wooh wooh Mais jpeux pas revenir en arrière Et moi jespère les rendre fiers hein Avant de passer larme à gauche hein Jai racaillé une vie entière toujours Et toujours rien dans la caboche bah ouais Et puis mes frères cest des gangsters Jveux pas un corbillard jveux un carrosse Tu rmontes pas à la surface si on tenterre hein Tu sras joyeux comme une fleur si on tarrose paw paw Et jsuis dans ltruc Mais jsais très bien quça peut finir demain Jouvre les livres et jveux savoir ce quil y a dedans rien à foutre Que Dieu me guide et éloigne tous les ennemis de mon chemin hein jsuis dans le truc Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées On crie arah dans la cité Il nous faut de nouvelles idées La guitare Johnny Hallyday Pra pra pra oh happy day On crie arah dans la cité Il nous faut de nouvelles idées La guitare Johnny Hallyday Pra pra pra oh happy day Si jpars demain jvais être pardonné Toute ma jeunesse à charbonner Jai djà mangé grâce aux abonnés Si jpars demain jvais être pardonné Toute ma jeunesse à charbonner Jai djà mangé grâce aux abonnés Souvent on sfait péter on crie arah dans la cité Malgré tout ça on formule encore trouve de nouvelles idées Souvent on sfait péter on crie arah dans la cité Malgré ça on formule encore trouve de nouvelles idées Tsais comment ça se passe YW Zone sensible GP ouzou gang Hein Cest nous la meute Ah Ahou Cest Guizmo et Atanih Jfais du rap depuis lAtari Wesh la frangine Hein Remballe la ? Hehehe Si yen a un qui fait le fou, tu seras protégée par tes frangins</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vous savez que la mort viendra de la guerre, des famines, de brusques changements climatique et de tremblements de terre violent. Sans aucun doute, nous allons tout droit vers Armageddon... J'additionne, je soustrais, je divise Les notes, multiplie les accords Avec Melopheelo et Zox' depuis un moment mes complices A Billancourt la Boulogne, à mi-chemin entre les quartiers sensibles et les grands hôtels On est d'accord, le corps humain est composé d'amour et de haine De jour et de pleine lune, plus de joie que de peine Mon ADN pure Merci à mon père à ma mère, qui me l'ont offert Ça m'a éviter pleins de problèmes, l'humain est perdu Regarde ce qu'il a fait de nos terres Massacre les verdures et fait la guerre depuis la nuit des temps Il a construit des pyramides puis ensuite détruis des temples Plus rien n'le perturbe, assis devant l'écran pendant qu'nos frères s'tuent Etant donné ma croyance en Dieu Je ne peux que prier pour ces pauvres pécheurs En espérant qu'ils soient touchés par cette divine fraîcheur Celle qui bénie les esprits sains et peut faire devenir les méchants pieux Des surs se font violées, j'entends des cris isolés Des tristes curs emprisonnés Des dictateurs qui rient au nez du peuple L'Afrique aurait déjà dû rayonner Pourquoi nos surs aiment se blanchir comme Rihanna ? On est pas tous né sous la même étoile Mais le soleil du Tout-Puissant brillera pour tout l'monde Ce fut écrit dans les livres sacré que je lu môme Et puis un beau matin la paix, l'amour ont mis les voiles You might also like Direction chaotique, mystique ville Armageddon La fin du monde est proche si on y est déjà pas, admettons Direction chaotique, mystique ville Armageddon La fin du monde est proche, prenons soin de nos proches Ça vient du cur et du fond de mon âme Et c'est comme un oiseau J'ai la vision du corbeau survolant la capitale Du haut du ciel j'ai vu l'humanité servant le mal Avec l'apparence d'un pupazzo Ils sont plus choqué par le voile que par la nudité Cette mère de famille s'est refait les seins En utilisant les allocations de ses gamins Plus rien n'est choquant, en vérité Plus on avance et plus on régresse On te dis de bosser dur et tu verras un jour la fortune Le burn-out, peut importe, faut rentrer des thunes Voilà comment pousser des gens au bout de la détresse4 avril 2015, 148 victimes On glorifie le mal, on glorifie le crime Et tout ceci devient banal sur ton écran Marche dans le feu, les pieds rouges emportés par le vent Mais le pire est dans ton assiette Monsanto industrie, engendre des recettes Ce monde est tellement corrompu Pourquoi on nous empoisonne ? Pourquoi on nous tue ? Blah ! Direction chaotique, mystique ville Armageddon La fin du monde est proche si on y est déjà pas, admettons Direction chaotique, mystique ville Armageddon La fin du monde est proche, prenons soin de nos proches Paraît qu'Amanda Lear c'est un keumé Qu'Berlusconi c'est une kema Avant d'partir j'me vois gueuler Les rues d'nos villes, il est dingue le bât' Le hall est ravagé, ma daronne est avachie Mon re-frè m'a dit va taffer, tu dégages ou t'assagit Ça part en couille dans les foyers, les loyers Vous voyez bien qu'on meurt de faim et qu'on va s'noyer Des barillets, des seringues dans l'escalier On va prier en sachant très bien qu'ils nous on quadrillé HLM résident, train de vie trépident T'as fait l'con dans une chambre d'hôtel, tu seras pas président La fin est proche, demande à ceux qui s'privent de tout Y en qui ont serrer les seufs fin deux mille ze-dou Quant à moi, j'ai peur pour mes proches et pour la fin du cycle J'suis réaliste alors j'ai besoin du shit Je garde la raison, je cherche la maison Le trac, la pression, c'est Armageddon Nous allons tout droit vers Armageddon...</t>
+          <t>Vous savez que la mort viendra de la guerre, des famines, de brusques changements climatique et de tremblements de terre violent. Sans aucun doute, nous allons tout droit vers Armageddon... J'additionne, je soustrais, je divise Les notes, multiplie les accords Avec Melopheelo et Zox' depuis un moment mes complices A Billancourt la Boulogne, à mi-chemin entre les quartiers sensibles et les grands hôtels On est d'accord, le corps humain est composé d'amour et de haine De jour et de pleine lune, plus de joie que de peine Mon ADN pure Merci à mon père à ma mère, qui me l'ont offert Ça m'a éviter pleins de problèmes, l'humain est perdu Regarde ce qu'il a fait de nos terres Massacre les verdures et fait la guerre depuis la nuit des temps Il a construit des pyramides puis ensuite détruis des temples Plus rien n'le perturbe, assis devant l'écran pendant qu'nos frères s'tuent Etant donné ma croyance en Dieu Je ne peux que prier pour ces pauvres pécheurs En espérant qu'ils soient touchés par cette divine fraîcheur Celle qui bénie les esprits sains et peut faire devenir les méchants pieux Des surs se font violées, j'entends des cris isolés Des tristes curs emprisonnés Des dictateurs qui rient au nez du peuple L'Afrique aurait déjà dû rayonner Pourquoi nos surs aiment se blanchir comme Rihanna ? On est pas tous né sous la même étoile Mais le soleil du Tout-Puissant brillera pour tout l'monde Ce fut écrit dans les livres sacré que je lu môme Et puis un beau matin la paix, l'amour ont mis les voiles Direction chaotique, mystique ville Armageddon La fin du monde est proche si on y est déjà pas, admettons Direction chaotique, mystique ville Armageddon La fin du monde est proche, prenons soin de nos proches Ça vient du cur et du fond de mon âme Et c'est comme un oiseau J'ai la vision du corbeau survolant la capitale Du haut du ciel j'ai vu l'humanité servant le mal Avec l'apparence d'un pupazzo Ils sont plus choqué par le voile que par la nudité Cette mère de famille s'est refait les seins En utilisant les allocations de ses gamins Plus rien n'est choquant, en vérité Plus on avance et plus on régresse On te dis de bosser dur et tu verras un jour la fortune Le burn-out, peut importe, faut rentrer des thunes Voilà comment pousser des gens au bout de la détresse4 avril 2015, 148 victimes On glorifie le mal, on glorifie le crime Et tout ceci devient banal sur ton écran Marche dans le feu, les pieds rouges emportés par le vent Mais le pire est dans ton assiette Monsanto industrie, engendre des recettes Ce monde est tellement corrompu Pourquoi on nous empoisonne ? Pourquoi on nous tue ? Blah ! Direction chaotique, mystique ville Armageddon La fin du monde est proche si on y est déjà pas, admettons Direction chaotique, mystique ville Armageddon La fin du monde est proche, prenons soin de nos proches Paraît qu'Amanda Lear c'est un keumé Qu'Berlusconi c'est une kema Avant d'partir j'me vois gueuler Les rues d'nos villes, il est dingue le bât' Le hall est ravagé, ma daronne est avachie Mon re-frè m'a dit va taffer, tu dégages ou t'assagit Ça part en couille dans les foyers, les loyers Vous voyez bien qu'on meurt de faim et qu'on va s'noyer Des barillets, des seringues dans l'escalier On va prier en sachant très bien qu'ils nous on quadrillé HLM résident, train de vie trépident T'as fait l'con dans une chambre d'hôtel, tu seras pas président La fin est proche, demande à ceux qui s'privent de tout Y en qui ont serrer les seufs fin deux mille ze-dou Quant à moi, j'ai peur pour mes proches et pour la fin du cycle J'suis réaliste alors j'ai besoin du shit Je garde la raison, je cherche la maison Le trac, la pression, c'est Armageddon Nous allons tout droit vers Armageddon...</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Demon One, Guizmo Dans l'impasse, au pied du mur On se surpasse, wesh, qu'est-ce qui s'passe ? Rhaaa Que Dieu pardonne mes erreurs, j'suis qu'un humain ne me juge pas Tant de fois j'me suis trompé, certains choix ne pardonnent pas Je sais qu'on n'sait jamais, beaucoup d'choses ne tiennent à rien J'ai perdu tant d'amis chers que j'ai connu sur le terrain La vie m'a trop déçu, tu connais, la nuit j'en dors plus J'fume des gros joints, la vie ne m'a que déplu Beaucoup d'personnes n'ont aucune reconnaissance Faut savoir lire entre les lignes, ça doit leurs donner sens J'ai galéré sur l'bitume, j'suis un ancien pourtant J'dis pas que j'suis indécent, j'ai mes défauts et mon côté bien Mon pire ennemi j'le connais, c'est moi-même On n'est jamais mieux détruit que par soi-même Depuis l'berceau j'combats l'Etat, fuck la colonisation Comme dit Mama tu peux fuir tes problèmes pas ta maison Méfie-toi de tes fréquentations, un homme averti en vaut 5 De la Goutte-d'Or à Villeneuve à Anvers pour mon 7.5 Mafia K'1 Fry, l'Entouseul Le mental reste, les temps changent Depuis tout p'tit on fait le biff dans l'ghetto On a appris dans l'ghetto mais on veut quitter l'ghetto You might also like Souvent pensif la nuit... Souvent pensif la nuit... Yo, souvent pensif la nuit, j'envie ma vie d'avant En ville s'trafique l'afghan, un kidnapping m'attend Des mecs veulent m'approcher, ils veulent ma peau Ils veulent m'imposer d'payer un impôt mais j'dois m'accrocher, ça c'est du sûr Mais j'retiens que même au sommet d'la montagne tu peux te retrouver au pied du mur On passe le temp à dealer, à frimer Le quartier est abîmé, ça bicrave pour s'habiller Puis yo, vas-y balance un manche de be-her Que j'oublie que c'est le de-mer de Paname à Rio On s'fait baiser par l'Etat, on s'fait péter pas les shtar A cause des salopes on est effrayé par les femmes Elles te font croirent qu'elle sont folles de toi Quand elles te larguent, tu t'mets à pillave et tu te cognes le foie C'que j'dis ça vient du fond du cur Tu peux t'faire passer à tabac même si t'es non-fumeur La nuit j'fais des cauchemars, mes démons tourmentent mes rêves Quand les souvenirs me rappellent c'est en sueur que j'me réveille Demon, y'a qu'la tise qui m'offre l'espoir J'suis aboulé quand j'vois que j'suis ma propre bête noire Le mot espoir m'a tué, aux galères j'suis habitué Un jour on sera jugé me raconte pas qui tu es Bah ouais, en c'moment ça s'agite A vrai dire c'est plutôt violent et la romance tape la fille L'amour m'a rayer, l'Enfer n'est rien A côté de la vengeance d'une femme retiens le bien Elles peuvent niquer ta vie et encore plus Depuis j'suis comme Demon et la nuit je ne dors plus J'fais les 100 pas, dans ma tête ça tourne en rond C'est la routine, c'est la merde et sur mon compte y'a pas un rond Mais malgré ça j'reste garé même si j'connais qu'des tarés Vaut mieux reculer que d'être à larrêt Okay, Valenton les Polognes, 9.4. 460, et tu l'sais Demon One, Choisy, Hakim, Lamine, ça bouge ap et tu l'sais L'Entouseul, Mafia K'1 Fry Whoo Biguidibang, ziguidizone sensible, 'Ouzou1</t>
+          <t>Demon One, Guizmo Dans l'impasse, au pied du mur On se surpasse, wesh, qu'est-ce qui s'passe ? Rhaaa Que Dieu pardonne mes erreurs, j'suis qu'un humain ne me juge pas Tant de fois j'me suis trompé, certains choix ne pardonnent pas Je sais qu'on n'sait jamais, beaucoup d'choses ne tiennent à rien J'ai perdu tant d'amis chers que j'ai connu sur le terrain La vie m'a trop déçu, tu connais, la nuit j'en dors plus J'fume des gros joints, la vie ne m'a que déplu Beaucoup d'personnes n'ont aucune reconnaissance Faut savoir lire entre les lignes, ça doit leurs donner sens J'ai galéré sur l'bitume, j'suis un ancien pourtant J'dis pas que j'suis indécent, j'ai mes défauts et mon côté bien Mon pire ennemi j'le connais, c'est moi-même On n'est jamais mieux détruit que par soi-même Depuis l'berceau j'combats l'Etat, fuck la colonisation Comme dit Mama tu peux fuir tes problèmes pas ta maison Méfie-toi de tes fréquentations, un homme averti en vaut 5 De la Goutte-d'Or à Villeneuve à Anvers pour mon 7.5 Mafia K'1 Fry, l'Entouseul Le mental reste, les temps changent Depuis tout p'tit on fait le biff dans l'ghetto On a appris dans l'ghetto mais on veut quitter l'ghetto Souvent pensif la nuit... Souvent pensif la nuit... Yo, souvent pensif la nuit, j'envie ma vie d'avant En ville s'trafique l'afghan, un kidnapping m'attend Des mecs veulent m'approcher, ils veulent ma peau Ils veulent m'imposer d'payer un impôt mais j'dois m'accrocher, ça c'est du sûr Mais j'retiens que même au sommet d'la montagne tu peux te retrouver au pied du mur On passe le temp à dealer, à frimer Le quartier est abîmé, ça bicrave pour s'habiller Puis yo, vas-y balance un manche de be-her Que j'oublie que c'est le de-mer de Paname à Rio On s'fait baiser par l'Etat, on s'fait péter pas les shtar A cause des salopes on est effrayé par les femmes Elles te font croirent qu'elle sont folles de toi Quand elles te larguent, tu t'mets à pillave et tu te cognes le foie C'que j'dis ça vient du fond du cur Tu peux t'faire passer à tabac même si t'es non-fumeur La nuit j'fais des cauchemars, mes démons tourmentent mes rêves Quand les souvenirs me rappellent c'est en sueur que j'me réveille Demon, y'a qu'la tise qui m'offre l'espoir J'suis aboulé quand j'vois que j'suis ma propre bête noire Le mot espoir m'a tué, aux galères j'suis habitué Un jour on sera jugé me raconte pas qui tu es Bah ouais, en c'moment ça s'agite A vrai dire c'est plutôt violent et la romance tape la fille L'amour m'a rayer, l'Enfer n'est rien A côté de la vengeance d'une femme retiens le bien Elles peuvent niquer ta vie et encore plus Depuis j'suis comme Demon et la nuit je ne dors plus J'fais les 100 pas, dans ma tête ça tourne en rond C'est la routine, c'est la merde et sur mon compte y'a pas un rond Mais malgré ça j'reste garé même si j'connais qu'des tarés Vaut mieux reculer que d'être à larrêt Okay, Valenton les Polognes, 9.4. 460, et tu l'sais Demon One, Choisy, Hakim, Lamine, ça bouge ap et tu l'sais L'Entouseul, Mafia K'1 Fry Whoo Biguidibang, ziguidizone sensible, 'Ouzou1</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Combien de soucis ? Combien de soucis... Combien de nuit à danser ? Combien Oh oh, oh Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier On est des gens étrange dérangé et tente souvent de freiner nos lancées Combien de soucis ? Ouais une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées Hey yo ça tape, téma quand on arrive Petit pas de MIA évidemment qu'on a le style Tampon sur le VISA, la seule envie c'est partir Dollar ou Dinar on va pas faire de caprice On a la pratique, le fond et la forme Du son des tas de rime, le bon et la bonne Calé sur la batterie, j'ai féconder l'album Et c'est pas un bad trip, mais j'ai défoncé la prod' On aime la nuit et pas que dans les nights club On change de soirée si dans celle-là y'a pas de meuf Tu t'demandes pourquoi, on te répondra parce que Parce que je suis le plus funky de tout ce foutu rap jeu Faites péter le Moët et le Veuve-Coquelicot On est des bohèmes pas des jeunes toxicos Mes potes c'est tes potes, mes copines c'est tes copines Un homme c'est un homme, une coquine c'est une coquine You might also like Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier On est des gens étrange dérangé et tente souvent de freiner nos lancées Combien de soucis ? Une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées Toutes les peines, et toute la haine est partie Sur les bords de Seine, sous les lumières de Paris Et toutes les peines, et toute la haine est partie Sur les bords de Seine, sous les lumières de Paris Yo, les jeunes de la zone sont dans les deux bois Gadjis et Gadjos de Marseille à Ris-Pa Bien sûr qu'ils ont la pêche et des billets dans les poches Pour ne pas manquer l'occas' de rentrer avec un top Saut dans le carré V.I.P, ne pas connaitre le flop Téquila avec un jean j'suis vrai mais je parais soft Et japerçois des leggings, j'peux te dire que c'est du propre Et on a du sang de king, mais on s'en fout mothafuck Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées1</t>
+          <t>Combien de soucis ? Combien de soucis... Combien de nuit à danser ? Combien Oh oh, oh Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier On est des gens étrange dérangé et tente souvent de freiner nos lancées Combien de soucis ? Ouais une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées Hey yo ça tape, téma quand on arrive Petit pas de MIA évidemment qu'on a le style Tampon sur le VISA, la seule envie c'est partir Dollar ou Dinar on va pas faire de caprice On a la pratique, le fond et la forme Du son des tas de rime, le bon et la bonne Calé sur la batterie, j'ai féconder l'album Et c'est pas un bad trip, mais j'ai défoncé la prod' On aime la nuit et pas que dans les nights club On change de soirée si dans celle-là y'a pas de meuf Tu t'demandes pourquoi, on te répondra parce que Parce que je suis le plus funky de tout ce foutu rap jeu Faites péter le Moët et le Veuve-Coquelicot On est des bohèmes pas des jeunes toxicos Mes potes c'est tes potes, mes copines c'est tes copines Un homme c'est un homme, une coquine c'est une coquine Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier On est des gens étrange dérangé et tente souvent de freiner nos lancées Combien de soucis ? Une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées Toutes les peines, et toute la haine est partie Sur les bords de Seine, sous les lumières de Paris Et toutes les peines, et toute la haine est partie Sur les bords de Seine, sous les lumières de Paris Yo, les jeunes de la zone sont dans les deux bois Gadjis et Gadjos de Marseille à Ris-Pa Bien sûr qu'ils ont la pêche et des billets dans les poches Pour ne pas manquer l'occas' de rentrer avec un top Saut dans le carré V.I.P, ne pas connaitre le flop Téquila avec un jean j'suis vrai mais je parais soft Et japerçois des leggings, j'peux te dire que c'est du propre Et on a du sang de king, mais on s'en fout mothafuck Combien de soucis ? Combien de nuit à danser Plongé dans l'oublie, on rêve que de s'ambiancer J'oublie mes soucis, qui m'empêchent de pioncer J'te passe un coup de fil, pour éviter de penser Combien de soucis ? Une vie en chantier Mais des gens étranges dérangés et tente souvent de freiner nos lancées1</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Jsuis avec mon joint et puis mon survet' dans le binks Elle ma épousé même si elle savais qujétais gangsta Une belle africaine belle miel et kiss french J'ai réservé une table et jai enfilé mon trench Pourquoi tu veux dun voyou ? Parce que tu sais que jsuis loyal Parce que je paye le loyer, parce que je fais pas la mala Et tes copines sont jalouses, elle sait que je temmène en voyage Je ne vends plus le caillou, maintenant on a de la caillasse Avant, cétait la mayo, maintenant on mange du caviar Quand on part en vacances, on choisit que les palaces Mais jaime trop la fraîche mais jaime trop la tess Un passade tout noir putain, jaime trop ma caisse Jtraine dans la rue et je vis comme un OG Jai dormi dans la cave, jte dis que tout est possible Jai niqué des fils de putes et ils mont niqué aussi Grandi dans un univers crapuleux et hostile You might also like Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Dans ma tête, cest la West side Je fume un pet, jte dis yessaï Parle pas trop dans les messages Et j'deviens agressif si tu mets du temps à payer Il mdoit du temps, il mdoit du biff et moi j'dois payer le loyer Jai fais des trucs de ouf des fois quand fallait grailler Il mavait proposé d'la shnouf, il ma dit tu vas mailler Javais un ptit chagrin dans la pierre, jallais me noyer Dans le manque dargent, jai toujours fait ce quil fallait Jai dit à ma mère tinquiètes pas, jvais réussir Jfais pas du rap pour diviser, jfais du rap pour réunir Jfais la fête avec mes gangstas, on est posés au restau Avant jvolais des fiestas, maintenant je mange du pesto Jai grandi comme un gangsta, tous tes potos me naissent-co Jsuis précis comme une Iniesta, j'suis violent comme Chevtchenko Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama</t>
+          <t>Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Jsuis avec mon joint et puis mon survet' dans le binks Elle ma épousé même si elle savais qujétais gangsta Une belle africaine belle miel et kiss french J'ai réservé une table et jai enfilé mon trench Pourquoi tu veux dun voyou ? Parce que tu sais que jsuis loyal Parce que je paye le loyer, parce que je fais pas la mala Et tes copines sont jalouses, elle sait que je temmène en voyage Je ne vends plus le caillou, maintenant on a de la caillasse Avant, cétait la mayo, maintenant on mange du caviar Quand on part en vacances, on choisit que les palaces Mais jaime trop la fraîche mais jaime trop la tess Un passade tout noir putain, jaime trop ma caisse Jtraine dans la rue et je vis comme un OG Jai dormi dans la cave, jte dis que tout est possible Jai niqué des fils de putes et ils mont niqué aussi Grandi dans un univers crapuleux et hostile Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Dans ma tête, cest la West side Je fume un pet, jte dis yessaï Parle pas trop dans les messages Et j'deviens agressif si tu mets du temps à payer Il mdoit du temps, il mdoit du biff et moi j'dois payer le loyer Jai fais des trucs de ouf des fois quand fallait grailler Il mavait proposé d'la shnouf, il ma dit tu vas mailler Javais un ptit chagrin dans la pierre, jallais me noyer Dans le manque dargent, jai toujours fait ce quil fallait Jai dit à ma mère tinquiètes pas, jvais réussir Jfais pas du rap pour diviser, jfais du rap pour réunir Jfais la fête avec mes gangstas, on est posés au restau Avant jvolais des fiestas, maintenant je mange du pesto Jai grandi comme un gangsta, tous tes potos me naissent-co Jsuis précis comme une Iniesta, j'suis violent comme Chevtchenko Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Quest c'quelles veulent de moi ? Je sais pas c'quelles veulent de moi Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama Oh, my baby mama, oh, my baby mama</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Oh ziguidi check, biguidi bang, Guizi Ouzou J'ai pas fait que du rap Grâce à Dieu, j'm'en suis sorti YW C'est comme ça qu'on fait les choses, écoute-moi boy 91, mon poto, j'suis né à la Pitié' Ils n'en n'auront aucune pour Lamine Diakité Je serai pas leur esclave à la Kunta Kinte Et remballe tes menaces, mais t'es fou, toi qui t'es ? Balaffré de bignoche on vend pas la mèche Un coup j'suis très gentil, un coup jsuis très méchant J'te prête pas mon vélo mais j'partage mon grec J'ai grandi très vite dans la tess en agressant Maman, s'te-plaît, j'veux des Nike comme Igor Valenton story, frérot, si tu l'ignores J'ai des potos qui se lèvent pour braquer oui J'ai des potos qui viennent chez toi quand tu mi-dor On soulève, on soulève, j'observe à la place J'ai 15 ou 16 ans mais j'ai déjà la rage Cinq euros dans ma poche, j'les vois compter des liasses Ça y'est c'est décidé, j'prends une plaquette en cash J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Et j'ai d'jà failli m'étouffer À en faire beaucoup trop Je l'ai fumé, je l'ai toussé Car c'était beaucoup trop J'ai tisé et je suis tombé Y'en avait beaucoup trop J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop You might also like 15 ou 16 ans première fois, j'prends le mic' J'ai bu deux-trois flashs, j'suis un peu dans le mal Un côté racailleux, un côté gentleman J'ai toujours bataillé, dans la rue j'rentre tard Et ma mère comprend pas, j'fais que sécher le foot Moi j'ai d'jà la mentale, j'en ai plus rien à foutre J'veux tout niquer dans le rap, j'ai des textes en moi full Diguidi-dji, Diguidi bang Des instru', des patrouilles Voilà ma vie à l'époque, la petite délinquance Les arnaques, les bagarres, le dépôt J't'avoue qu'on a fait tout ça par dépit Jamais donné un blaze dans ma dépo' jamais Et je grattais toute la nuit sans répit oui Percer, percer, je prends pas de repos Blessé, stressé, par un tas d'ennemis La ZS m'appelle, j'mets tout ça de té-cô J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop Un peu moins dans la rue, mais j'peux pas décrocher J'aime le traffic de stup', j'vais pas à mes procés jamais Mec j'ai vendu des disques et j'ai rempli des salles Toujours sous alcool à mon septième projet Tout ça pour dire que c'est hene J'ai tourné, j'ai traîné Quand y'avait des bagarres, toujours dans la mêlée Les poucaves, les bâtards, t'inquiète, on a géré J'vais prendre le 14, sur ma mère j'vais pas me gêner J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Et j'ai d'jà failli m'étouffer À en faire beaucoup trop Je l'ai fumé, je l'ai toussé Car c'était beaucoup trop J'ai tisé et je suis tombé Y'en avait beaucoup trop beaucoup trop J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop Yo, Diguidi check, Diguidi bang Guizi Ouzou, de la rue au rap Du rap à la rue C'est pas comme ça, boy C'est pas facile, boy L'argent est là Mais il n'est pas facile Les armes, c'est beaucoup trop La drogue, c'est beaucoup trop Les femmes, c'est beaucoup trop L'alcool, c'est beaucoup trop Tout ça c'est beaucoup trop Les boîtes, c'est beaucoup trop Le crack, c'est beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Beaucoup trop pour un seul homme Smoky beat</t>
+          <t>Oh ziguidi check, biguidi bang, Guizi Ouzou J'ai pas fait que du rap Grâce à Dieu, j'm'en suis sorti YW C'est comme ça qu'on fait les choses, écoute-moi boy 91, mon poto, j'suis né à la Pitié' Ils n'en n'auront aucune pour Lamine Diakité Je serai pas leur esclave à la Kunta Kinte Et remballe tes menaces, mais t'es fou, toi qui t'es ? Balaffré de bignoche on vend pas la mèche Un coup j'suis très gentil, un coup jsuis très méchant J'te prête pas mon vélo mais j'partage mon grec J'ai grandi très vite dans la tess en agressant Maman, s'te-plaît, j'veux des Nike comme Igor Valenton story, frérot, si tu l'ignores J'ai des potos qui se lèvent pour braquer oui J'ai des potos qui viennent chez toi quand tu mi-dor On soulève, on soulève, j'observe à la place J'ai 15 ou 16 ans mais j'ai déjà la rage Cinq euros dans ma poche, j'les vois compter des liasses Ça y'est c'est décidé, j'prends une plaquette en cash J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Et j'ai d'jà failli m'étouffer À en faire beaucoup trop Je l'ai fumé, je l'ai toussé Car c'était beaucoup trop J'ai tisé et je suis tombé Y'en avait beaucoup trop J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop 15 ou 16 ans première fois, j'prends le mic' J'ai bu deux-trois flashs, j'suis un peu dans le mal Un côté racailleux, un côté gentleman J'ai toujours bataillé, dans la rue j'rentre tard Et ma mère comprend pas, j'fais que sécher le foot Moi j'ai d'jà la mentale, j'en ai plus rien à foutre J'veux tout niquer dans le rap, j'ai des textes en moi full Diguidi-dji, Diguidi bang Des instru', des patrouilles Voilà ma vie à l'époque, la petite délinquance Les arnaques, les bagarres, le dépôt J't'avoue qu'on a fait tout ça par dépit Jamais donné un blaze dans ma dépo' jamais Et je grattais toute la nuit sans répit oui Percer, percer, je prends pas de repos Blessé, stressé, par un tas d'ennemis La ZS m'appelle, j'mets tout ça de té-cô J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop Un peu moins dans la rue, mais j'peux pas décrocher J'aime le traffic de stup', j'vais pas à mes procés jamais Mec j'ai vendu des disques et j'ai rempli des salles Toujours sous alcool à mon septième projet Tout ça pour dire que c'est hene J'ai tourné, j'ai traîné Quand y'avait des bagarres, toujours dans la mêlée Les poucaves, les bâtards, t'inquiète, on a géré J'vais prendre le 14, sur ma mère j'vais pas me gêner J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Et j'ai d'jà failli m'étouffer À en faire beaucoup trop Je l'ai fumé, je l'ai toussé Car c'était beaucoup trop J'ai tisé et je suis tombé Y'en avait beaucoup trop beaucoup trop J'ai vendu de la dope quand il fallait des sous Et puis j'ai mis des penalty quand il fallait ter-sau Toujours dans la première ligne quand venait la descente On a ramené les outils, là, dis-moi si t'es chaud Moi j'crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Je crois qu'c'est beaucoup trop Que ça mérite pas des coups de couteaux C'est beaucoup trop, c'est beaucoup trop Yo, Diguidi check, Diguidi bang Guizi Ouzou, de la rue au rap Du rap à la rue C'est pas comme ça, boy C'est pas facile, boy L'argent est là Mais il n'est pas facile Les armes, c'est beaucoup trop La drogue, c'est beaucoup trop Les femmes, c'est beaucoup trop L'alcool, c'est beaucoup trop Tout ça c'est beaucoup trop Les boîtes, c'est beaucoup trop Le crack, c'est beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop J'ai pas tout vu, j'ai pas tout fait Mais j'ai fait beaucoup trop Beaucoup trop pour un seul homme Smoky beat</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Yo Yonea Willy Yonea Willy business GP gangsters Wooh ! Tous les matins je la fume dans un aqua, avec mes yeux globuleux comme un poisson Pour m'attirer elle na pas besoin d'un appât, elle se balade dans mes veines comme la boisson god damn J'suis dans les bas fonds, elle est venue cacher sa tête dans mon caleçon Toujours dhumeur à faire la fête avec ma skunk, poto c'est pas juste un gros pet' c'est une passion Et quand lle colle trop, il m'faut un grinder sinon c'st la merde pour la rouler On a pas peur, se balade avec toute la journée, dans les vapeurs me prend pas la tête fais la tourner fais la tourner fais la tourner ! Oui je la fume et j'assume, j'ai toqué chez elle, elle ma prêté sa plume Ma donné des ailes quand j'ai donné ma thune, jai vu l'arc-en-ciel j'ai visité la lune j'ai visité la lune ! Tu me détends, accompagné dune HK pour la descente 1 joint 5 joints 9 joints 15 joints, j'suis enfin défoncé il était temps bordel ! Oui je me perds dans ton nuage oui !, quand tu me vole tous mes neurones putain Et puis j'me dis que j'ai plus l'âge, mais je te donne tous mes euros Je l'effrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja Je t'ai acheté je t'ai bicrave oui, on t'as capté sur mon visage oui Ouais tu as calmé ma rage et on a fait des voyages, je n'avais même pas besoin de visa pas besoin pas besoin, non ! Scotché au canapé scotché au canapé, j'fume la fleur de cannabis je la fume je la fume ! J'ai pris celle du Bois-L'Abbé j'ai pris celle du Bois-L'Abbé, je l'ai mélangée à la tise ouhw Et j'vais dire à ma tasse-pé de rouler le prochain pendant qu'jcompte mes illets-bi Elle est grasse et jamais je ne m'en lasse, elle envoie dans l'espace avec son goût d'amnésie elle est grasse elle est grasse J'me suis posé des questions, j'ai trouvé les réponses dans les spliffs de beuh dans les spliffs et dans les spliffs Dans des feuilles de blunt, dans des têtes de skunk, envoie moi vite le feu Et bah oui monsieur, j'ai les yeux rouges écarlates, tu fais dodo s'tu veux goûter ma frappe D'mande à Lolo, on a toutes les saveurs, d'la OG Kush qu'a le goût des bananes Contre un billet bleu, t'aura deux grammes de verte deux Fais un bisou au ton-car fais un bisou fais un bisou, pour tout mon Val-de-zeb 94 ! You might also like Je l'éffrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja Je l'éffrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja J'aime la fumer, ma ganja ganja ganja oh J'aime la fumer, ma ganja ganja ganja J'aime la fumer, ma ganja ganja ganja oh Willy Yonea Yonea business J'aime la fumer, ma ganja ganja ganja</t>
+          <t>Yo Yonea Willy Yonea Willy business GP gangsters Wooh ! Tous les matins je la fume dans un aqua, avec mes yeux globuleux comme un poisson Pour m'attirer elle na pas besoin d'un appât, elle se balade dans mes veines comme la boisson god damn J'suis dans les bas fonds, elle est venue cacher sa tête dans mon caleçon Toujours dhumeur à faire la fête avec ma skunk, poto c'est pas juste un gros pet' c'est une passion Et quand lle colle trop, il m'faut un grinder sinon c'st la merde pour la rouler On a pas peur, se balade avec toute la journée, dans les vapeurs me prend pas la tête fais la tourner fais la tourner fais la tourner ! Oui je la fume et j'assume, j'ai toqué chez elle, elle ma prêté sa plume Ma donné des ailes quand j'ai donné ma thune, jai vu l'arc-en-ciel j'ai visité la lune j'ai visité la lune ! Tu me détends, accompagné dune HK pour la descente 1 joint 5 joints 9 joints 15 joints, j'suis enfin défoncé il était temps bordel ! Oui je me perds dans ton nuage oui !, quand tu me vole tous mes neurones putain Et puis j'me dis que j'ai plus l'âge, mais je te donne tous mes euros Je l'effrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja Je t'ai acheté je t'ai bicrave oui, on t'as capté sur mon visage oui Ouais tu as calmé ma rage et on a fait des voyages, je n'avais même pas besoin de visa pas besoin pas besoin, non ! Scotché au canapé scotché au canapé, j'fume la fleur de cannabis je la fume je la fume ! J'ai pris celle du Bois-L'Abbé j'ai pris celle du Bois-L'Abbé, je l'ai mélangée à la tise ouhw Et j'vais dire à ma tasse-pé de rouler le prochain pendant qu'jcompte mes illets-bi Elle est grasse et jamais je ne m'en lasse, elle envoie dans l'espace avec son goût d'amnésie elle est grasse elle est grasse J'me suis posé des questions, j'ai trouvé les réponses dans les spliffs de beuh dans les spliffs et dans les spliffs Dans des feuilles de blunt, dans des têtes de skunk, envoie moi vite le feu Et bah oui monsieur, j'ai les yeux rouges écarlates, tu fais dodo s'tu veux goûter ma frappe D'mande à Lolo, on a toutes les saveurs, d'la OG Kush qu'a le goût des bananes Contre un billet bleu, t'aura deux grammes de verte deux Fais un bisou au ton-car fais un bisou fais un bisou, pour tout mon Val-de-zeb 94 ! Je l'éffrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja Je l'éffrite je la roule je la fume, igo parce que j'aime ça Je l'effrite je la roule je la fume, parce que j'aime ça Ma ganja, ma ganja ma ganja ma ganja oh ! Ma ganja, ma ganja ma ganja ma ganja J'aime la fumer, ma ganja ganja ganja oh J'aime la fumer, ma ganja ganja ganja J'aime la fumer, ma ganja ganja ganja oh Willy Yonea Yonea business J'aime la fumer, ma ganja ganja ganja</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Yonea-Willy, Willy-Yonea Mokless Guizmo-Despo Roots On reste roots Désabusés quand un frère se shoote Faut être du bon côté du pompe pour apprécier l'feu d'artifice Z.S Destiné à devenir quelqu'un, mais prédestiné à rien du tout J'ai prouvé tout seul que j'les bouffe et ils le prennent pas bien du tout Un labo dans la tête, j'écris mon expérience de street La main sur la barrette, j'effrite mon espérance de vie J'tise en essayant de fuir plus j'en bois, plus j'en veux J'ai presque envie d'niquer ma vie plus d'gent-ar, plus d'envieux Les gens n'ont pas d'pitié, passent du salam au NTM Aiment l'espèce plus que l'amitié mais comment s'faire des frères ? Demande à Des' une punch de trop et les débats se font Mais malgré ça on arrivera premiers dans un état second C'est pas la vie qui décide, c'est moi et Dieu Casse pas les couilles, t'as ton point d'vue cousin, tes yeux c'est pas mes yeux Chacun sa merde ok ? J'suis pas scato' Pas envie d'discuter Avec des p'tits enculés Qui rêveraient qu'on m'fasse la peau Même si c'est coupe gorge, on fonce droit devant Retiens qu'on est sous l'porche, et pas dedans You might also like Depuis qu'j'suis tout gamin j'ai toujours fait c'que j'ai à faire J'connais mieux l'bitume que les semelles de mes Nike Air Arrêtez de dire qu'on est trashhh On est juste comme des barges Quand nos frères restent en cage Tu coupes la coke, t'as trop trop la gaule, tu survis par la came Tu coules blacko, tu t'es fait les go des civils à Málaga Comprenez qu'vous avez gâté, vous vous cal-dé Quand on badait sur nos baskets blanches éclatées J'ai vésqui le cathé' On peut vous épater, pas des ânes bâtés Omar Sy ne mange pas d'porc, mais il a graillé tous les Pathé C'qui m'maintient debout c'est les sous et la haine Chérie j'rentre de Dallas j'étais allongé sous Ellen Y'a les couleurs de l'Afrique sur les bouteilles de JB J'suis financé par un pur produit CJT 30 000 dollars le mariage, 50 eu' la passe T'as un passé lourd, j'suis une branche d'acacia, tu t'accroches je me casse Thème passable qué pasa ? T'aimes pas, zappe T'as une Passat, freine pas srhab A fond dans la ville, on flirte avec la vitesse Masos, les fils de riche rêvent de la vie d'tess On peut tout dire mais tout dépend de comment on l'apporte Comme on dit pas à un SDF de balayer devant sa porte Je met de l'ordre, dans mes notes à chaque texte j'passe le BAC Dans mes rap je t'embarque mais j'suis pas un mec de la BAC Les rappeurs sont tombés si bas j'te le dis l'ami Qu'on va finir par trouver du pétrole à Miami Il est trop tard pour refaire mon éducation 1m90 à la hauteur de ma réputation Rien qu'ils nous parle d'Islam mais les problèmes sont ailleurs Chez moi une femme voilée a autant de classe qu'une fille en tailleur Depuis le 11 on trime tout les jours on raque Notre côte a fondu, rétrécie comme le rayon rap Pour me défendre j'suis pas le baveu qui connait les lois Mais j'compte les envoyer en l'air sans boire la potion des Gaullois Bah j'peux plus me taire, j'suis au bord, je sature C'est comme une journée en enfer mais ça fait plus d'20 ans que ça dure Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yonea-Willy, Willy-Yonea Mokless Guizmo-Despo Roots On reste roots Désabusés quand un frère se shoote Faut être du bon côté du pompe pour apprécier l'feu d'artifice Z.S Destiné à devenir quelqu'un, mais prédestiné à rien du tout J'ai prouvé tout seul que j'les bouffe et ils le prennent pas bien du tout Un labo dans la tête, j'écris mon expérience de street La main sur la barrette, j'effrite mon espérance de vie J'tise en essayant de fuir plus j'en bois, plus j'en veux J'ai presque envie d'niquer ma vie plus d'gent-ar, plus d'envieux Les gens n'ont pas d'pitié, passent du salam au NTM Aiment l'espèce plus que l'amitié mais comment s'faire des frères ? Demande à Des' une punch de trop et les débats se font Mais malgré ça on arrivera premiers dans un état second C'est pas la vie qui décide, c'est moi et Dieu Casse pas les couilles, t'as ton point d'vue cousin, tes yeux c'est pas mes yeux Chacun sa merde ok ? J'suis pas scato' Pas envie d'discuter Avec des p'tits enculés Qui rêveraient qu'on m'fasse la peau Même si c'est coupe gorge, on fonce droit devant Retiens qu'on est sous l'porche, et pas dedans Depuis qu'j'suis tout gamin j'ai toujours fait c'que j'ai à faire J'connais mieux l'bitume que les semelles de mes Nike Air Arrêtez de dire qu'on est trashhh On est juste comme des barges Quand nos frères restent en cage Tu coupes la coke, t'as trop trop la gaule, tu survis par la came Tu coules blacko, tu t'es fait les go des civils à Málaga Comprenez qu'vous avez gâté, vous vous cal-dé Quand on badait sur nos baskets blanches éclatées J'ai vésqui le cathé' On peut vous épater, pas des ânes bâtés Omar Sy ne mange pas d'porc, mais il a graillé tous les Pathé C'qui m'maintient debout c'est les sous et la haine Chérie j'rentre de Dallas j'étais allongé sous Ellen Y'a les couleurs de l'Afrique sur les bouteilles de JB J'suis financé par un pur produit CJT 30 000 dollars le mariage, 50 eu' la passe T'as un passé lourd, j'suis une branche d'acacia, tu t'accroches je me casse Thème passable qué pasa ? T'aimes pas, zappe T'as une Passat, freine pas srhab A fond dans la ville, on flirte avec la vitesse Masos, les fils de riche rêvent de la vie d'tess On peut tout dire mais tout dépend de comment on l'apporte Comme on dit pas à un SDF de balayer devant sa porte Je met de l'ordre, dans mes notes à chaque texte j'passe le BAC Dans mes rap je t'embarque mais j'suis pas un mec de la BAC Les rappeurs sont tombés si bas j'te le dis l'ami Qu'on va finir par trouver du pétrole à Miami Il est trop tard pour refaire mon éducation 1m90 à la hauteur de ma réputation Rien qu'ils nous parle d'Islam mais les problèmes sont ailleurs Chez moi une femme voilée a autant de classe qu'une fille en tailleur Depuis le 11 on trime tout les jours on raque Notre côte a fondu, rétrécie comme le rayon rap Pour me défendre j'suis pas le baveu qui connait les lois Mais j'compte les envoyer en l'air sans boire la potion des Gaullois Bah j'peux plus me taire, j'suis au bord, je sature C'est comme une journée en enfer mais ça fait plus d'20 ans que ça dure Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard J'aime ton regard et ton sourire, tu sais même pas comment ça me manque tu sais pas, tous nos délires et nos fou rires, et je sais pas comment on s'aime, à cause du rap game, même quand je réchauffe le biberon je réfléchis à un thème Ouais depuis mes 19 ans, bébé je suis à l'antenne jean legging et stan smith j'suis un keumé à l'ancienne, demande pas si j'ai du vécu pour cet argent j'étais têtu Une armée du shit détaillée de mon véhicule, j'ai assumé mes histoires jamais demandé de prendre la pilule, je sais pas ce qui m'arrive à chaque embrouille je sors le bidule Ça bicrave comme à l'usine les gens ne voient qu'l'amnésie et moi je n'suis qu'un homme torturé aux yeux du public, joue pas avec mes sentiments banlieue nord on est pudique J'ai connu des adultères qui se sont réglés avec un fusil Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Et souvent ça part en vrille surtout quand y'a des gosses, j'suis foncedé j'suis dans la ville et j'passe mon temps à négocier, j'ai toujours le splif au bec bas les couilles si t'es pas content, moi j'suis pas le genre de mec sur lequel on trouve des dossiers Et même quand on mange au grec ma batata est toujours contente, tu m'as jamais jugé à cause de la bière dans mon gosier, tu crois qu'j'te regarde de travers pendant que je te contemple, j'veux qu'tu profite de la vie et pas que t'en contente You might also likeMais j'suis toujours dans le zoo toujours il faut que j'reste dans le coup il faut que j'reste dans le coup j'sais que c'est compliqué entre nous, mais j'peux pas vivre sans les sous, y'a pas de strass ni de paillettes, j'vais chasser nos rêves à l'arbalète, y'a beaucoup de gens qui me croyait pas nettes, j'crois en l'alignement des planètes Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Tu peux m'croiser dans un bolide chez moi c'est trop speed parce qu'on est hostile aussi mais tu peux pas nier non tu peux pas nier non tu peux pas nier non tu peux pas nier, téma le profil que des mecs hostiles, gros splif, et j'me dis oh shit qui sont mes alliés c'est qui c'est qui qui sont mes alliés Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard</t>
+          <t>Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard J'aime ton regard et ton sourire, tu sais même pas comment ça me manque tu sais pas, tous nos délires et nos fou rires, et je sais pas comment on s'aime, à cause du rap game, même quand je réchauffe le biberon je réfléchis à un thème Ouais depuis mes 19 ans, bébé je suis à l'antenne jean legging et stan smith j'suis un keumé à l'ancienne, demande pas si j'ai du vécu pour cet argent j'étais têtu Une armée du shit détaillée de mon véhicule, j'ai assumé mes histoires jamais demandé de prendre la pilule, je sais pas ce qui m'arrive à chaque embrouille je sors le bidule Ça bicrave comme à l'usine les gens ne voient qu'l'amnésie et moi je n'suis qu'un homme torturé aux yeux du public, joue pas avec mes sentiments banlieue nord on est pudique J'ai connu des adultères qui se sont réglés avec un fusil Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Et souvent ça part en vrille surtout quand y'a des gosses, j'suis foncedé j'suis dans la ville et j'passe mon temps à négocier, j'ai toujours le splif au bec bas les couilles si t'es pas content, moi j'suis pas le genre de mec sur lequel on trouve des dossiers Et même quand on mange au grec ma batata est toujours contente, tu m'as jamais jugé à cause de la bière dans mon gosier, tu crois qu'j'te regarde de travers pendant que je te contemple, j'veux qu'tu profite de la vie et pas que t'en contente Mais j'suis toujours dans le zoo toujours il faut que j'reste dans le coup il faut que j'reste dans le coup j'sais que c'est compliqué entre nous, mais j'peux pas vivre sans les sous, y'a pas de strass ni de paillettes, j'vais chasser nos rêves à l'arbalète, y'a beaucoup de gens qui me croyait pas nettes, j'crois en l'alignement des planètes Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard Tu peux m'croiser dans un bolide chez moi c'est trop speed parce qu'on est hostile aussi mais tu peux pas nier non tu peux pas nier non tu peux pas nier non tu peux pas nier, téma le profil que des mecs hostiles, gros splif, et j'me dis oh shit qui sont mes alliés c'est qui c'est qui qui sont mes alliés Un coup j'suis tranquille, un coup j'suis dingue, un coup j'veux la paix, un coup j'veux un flingue Le guizmo il est bizarre le guizmo il est bizarre le guizmo il est bizarre Un coup j'veux la guerre, un coup j'veux la paix, des fois y'a d'la fraiche, des fois c'est la hess, on avance que dans le blizzard, ouais on avance que dans le blizzard</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Yaka yo ! Tu sais Une femme c'est comme un ouragan Ca arrive chaud et humide Ca repart avec la voiture et les meubles Yonea Willy, Willy Yonea gang J'suis moins au quartier j'lai quitté Mais j'y retourne quand j'veux méquiper J'suis étiqueté dans la veu-ca j'suis VIP Avec les cafards les souris les rats et les démons Ils veulent traîner avec Guizmo ils connaissent pas mon prénom J'suis dans la -sique j'fais du peu-ra pas du zouk Il faut surtout pas qu'tu l'croies s'il dit que c'est mon sin-c le crois pas Mon fils un ange que j'ai prénommé Isaac Il est à l'abri de tout et surtout loin de la zup Ca boit des packs de six, ça vend des grammes de shit Y en a qui foutent la cagoule et puis qui braquent le fric J'me fais péter mais gros c'est rien J'traite le chef de pas-de-couille les menottes elles sont trop serrées Notifie ma garde-à-vue j'connais déjà la procédure J'vend du shit j'vend d'la beuh nique sa mère il m'faut des thunes Tupac il est pas mort j'lui vend d'la beuh en bas d'la tess Billets cellophanés puis j'ai déjà vu sa cachette ah ouais Ouais j'ai déjà vu sa cachette Et appuyé sur la gâchette J'me suis mal réveillé, j'ai même pas envie d'sortir Si tu vois mon entourage putain mon dos c'est encore pire La boule au ventre la ça fait deux jours sans dormir Il donne mon nom à la police ce fils de pute il s'en sort vite J'aime pas Valentino, j'suis un Valentonnais J'veux que les smatcher comme si j'fais du volley Eh viens ici j'vais t'raconter une p'tite histoire Tu veux savoir c'est qui Titi ? Il est planqué dans l'p'tit tiroir HLM résident, j'suis au bigo j'entends des grésillements La vie d'ma mère Guizmo président J'suis pas un assassin J'ai fait du sale mais c'était nécessaire Depuis six ans j'vole dans les magasins Je n'sais que foutre la merde j'sais pas si j'ai toute ma tête Si les keufs ils viennent chez moi il faut pas qu'ils trouvent ma zeb J'suis pas Al Pacino, ça fait longtemps j'ai pas dessiné J'écris du Haram avec mon stylo, c'est quoi ma destinée ? J'ai laissé ça entre les mains de Dieu J'ai fait un cauchemar y avait plein de feux J'suis dans mon coin et j'fais du rap comme sonne-per J'dormais dans la rame de métro où ils affichent mes posters J'suis méga flex j'ai la panoplie Un 44 près du canapé même pas 30 ans j'suis un homme accompli Et j'dirais jamais le nom de mes complices nan nan Tu parles de coco parce que t'es pompiste You might also like Guizi flex Zbigili zbang gang Yonea Willy Willy Yonea gang scratchs</t>
+          <t>Yaka yo ! Tu sais Une femme c'est comme un ouragan Ca arrive chaud et humide Ca repart avec la voiture et les meubles Yonea Willy, Willy Yonea gang J'suis moins au quartier j'lai quitté Mais j'y retourne quand j'veux méquiper J'suis étiqueté dans la veu-ca j'suis VIP Avec les cafards les souris les rats et les démons Ils veulent traîner avec Guizmo ils connaissent pas mon prénom J'suis dans la -sique j'fais du peu-ra pas du zouk Il faut surtout pas qu'tu l'croies s'il dit que c'est mon sin-c le crois pas Mon fils un ange que j'ai prénommé Isaac Il est à l'abri de tout et surtout loin de la zup Ca boit des packs de six, ça vend des grammes de shit Y en a qui foutent la cagoule et puis qui braquent le fric J'me fais péter mais gros c'est rien J'traite le chef de pas-de-couille les menottes elles sont trop serrées Notifie ma garde-à-vue j'connais déjà la procédure J'vend du shit j'vend d'la beuh nique sa mère il m'faut des thunes Tupac il est pas mort j'lui vend d'la beuh en bas d'la tess Billets cellophanés puis j'ai déjà vu sa cachette ah ouais Ouais j'ai déjà vu sa cachette Et appuyé sur la gâchette J'me suis mal réveillé, j'ai même pas envie d'sortir Si tu vois mon entourage putain mon dos c'est encore pire La boule au ventre la ça fait deux jours sans dormir Il donne mon nom à la police ce fils de pute il s'en sort vite J'aime pas Valentino, j'suis un Valentonnais J'veux que les smatcher comme si j'fais du volley Eh viens ici j'vais t'raconter une p'tite histoire Tu veux savoir c'est qui Titi ? Il est planqué dans l'p'tit tiroir HLM résident, j'suis au bigo j'entends des grésillements La vie d'ma mère Guizmo président J'suis pas un assassin J'ai fait du sale mais c'était nécessaire Depuis six ans j'vole dans les magasins Je n'sais que foutre la merde j'sais pas si j'ai toute ma tête Si les keufs ils viennent chez moi il faut pas qu'ils trouvent ma zeb J'suis pas Al Pacino, ça fait longtemps j'ai pas dessiné J'écris du Haram avec mon stylo, c'est quoi ma destinée ? J'ai laissé ça entre les mains de Dieu J'ai fait un cauchemar y avait plein de feux J'suis dans mon coin et j'fais du rap comme sonne-per J'dormais dans la rame de métro où ils affichent mes posters J'suis méga flex j'ai la panoplie Un 44 près du canapé même pas 30 ans j'suis un homme accompli Et j'dirais jamais le nom de mes complices nan nan Tu parles de coco parce que t'es pompiste Guizi flex Zbigili zbang gang Yonea Willy Willy Yonea gang scratchs</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A la une, à la deux, à la trois, quatre, cinq 'teilles de sky Du gros son et une vingtaine de femmes Saint Ballantine's, 14 février Ramène la potion pour mes bad boys guerriers Ils ont la dalle et pas d'Valentine Alors on passe à l'épicier et ça s'barre en ville Hey Et j'payerais pas le restaurant C'est trop risqué, si après ça tu baises pas j'fais comment ? Non j'préfère me retrouver dans un plan sale Quitte à niquer une tapin même si c'est 50 balles Et j'finirais en tête à tête avec ma tiz Toujours la même rengaine quand j'fais la fête avec ma clique Le jour des amoureux, ma tisse-mé m'en parle bien Moi j'cherche à comprendre mais qui est ce Valentin ? Et c'est vrai que c'est tentant d'fêter ce truc Mais au final j'serais au quartier en train de déverser ce jus Et ça fait 5 'teilles de ballantines c'est Normal Quand les deks prennent mes gars en flag' on dort mal Et je tords ça quand je rime J'adore ça quand tu cries Tous ces gangstas sont futiles Et c'est normal dans ce biz' Cousin 5 'teilles de ballantines c'est Normal Que pour moi Le vrai alcoolo du gal-séné cousin You might also likeValentin, Valentine ou autres, vous êtes tous conviés sur Rap Genius France!</t>
+          <t>A la une, à la deux, à la trois, quatre, cinq 'teilles de sky Du gros son et une vingtaine de femmes Saint Ballantine's, 14 février Ramène la potion pour mes bad boys guerriers Ils ont la dalle et pas d'Valentine Alors on passe à l'épicier et ça s'barre en ville Hey Et j'payerais pas le restaurant C'est trop risqué, si après ça tu baises pas j'fais comment ? Non j'préfère me retrouver dans un plan sale Quitte à niquer une tapin même si c'est 50 balles Et j'finirais en tête à tête avec ma tiz Toujours la même rengaine quand j'fais la fête avec ma clique Le jour des amoureux, ma tisse-mé m'en parle bien Moi j'cherche à comprendre mais qui est ce Valentin ? Et c'est vrai que c'est tentant d'fêter ce truc Mais au final j'serais au quartier en train de déverser ce jus Et ça fait 5 'teilles de ballantines c'est Normal Quand les deks prennent mes gars en flag' on dort mal Et je tords ça quand je rime J'adore ça quand tu cries Tous ces gangstas sont futiles Et c'est normal dans ce biz' Cousin 5 'teilles de ballantines c'est Normal Que pour moi Le vrai alcoolo du gal-séné cousin Valentin, Valentine ou autres, vous êtes tous conviés sur Rap Genius France!</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Haroun, Scred Connexion Le Rat Luciano, Marseille Despo Rutt's, 93 Guizi Ouzou, Neuf-Deux Willy-Yona, Yonea-Willy Ok pousse DB que ma voix raisonne Cest lheure tfaire TD toi avoir raison Jarrive dans ta chambre, par voie des ondes Différent, jsuis pas les autres jsuis attachant jsuis Don Jason Souris tu es braqué, détends toi cnest qudu son Jsuis quelquun , quelque chose, jamais dix pieds au-dessus du sol Jsuis pas à la mode, pas un karlmoun Nait pas la mort, jsuis en talmoud Chacun sa merde, partout la même Cest soit la, soit la prendre soit la, soit la mettre Jai la main sur le cur, le cur sur la main Ça fait de la peine, mais mieux cent mères qui pleurent que la mienne Jvois rouge, jsuis taureau, doigt du milieu comme les couz Sils le font bien, le font mieux, jreste en plein milieu comme mes couilles A peine mortel, jsais en faire d'ces lettres pour un voyage du temps jle mettrai entre ses lèvres Welcome to the Zoo baby, dites-moi où est le fric Jarrive avec tout mes types, trouvez nous la bouffe les filles Le mode de vie est béton, lattitude est quartier La figure éclatée, résultat d'une vie dure et cramé Tu comprends si tu es dedans Sois patient même si tu casses le sablier, ça reste impossible de tuer le temps On a fait meilleur, sérieux Jpense à mes potes, qui crèchent là où les portes ne ferment que de lextérieur On vient des city sales, FF, ZS, YW pas de fellation, agression lyricale On vient des city sales, SDF, RSA, ANPE, en vrai nos vies ne sont que des initiales Bizarre comme le goût du com Cest pour ceux qui font le tour du bloc en rêvant de faire le tour du globe Quelques mesures et tu tadoucis, 92 Caravelle, guizi-guizi lucianuzi Grandi dans la dèche, les ptits les vieux dla tess Une affaire de pétard cest sûr quon est de mèche Ah terrible, si tu fais le calcul entre facture et ménage nos mères ont plus de couilles que Jacques Mesrine You might also like Autour de César, personne riait, criait Mais une fois son plan grillé, on la buté avec ses lauriers Si jsuis pourri, pourriez vous mdire pourquoi dans les terriers Mon skeud est comme ton barillet, enrayé ? Chirac était plus franc que ton grand, trop dcran, il a fait croqué avec les emplois fictifs escroc Tes élu président mon pote tu mets pas bien, t'es un bâtard Jsors de ma grotte oh non ya pas trois couronnes Yen a quune et on va tdéfoncer la gueule La rancune nest quun défenseur de lorgueil Jinspire les profs et les délinquants La réussite peut être insolente, ça me gène pas si tes clinquant Zlatan serait humble avec le maillot de Guingamp Ton fer est quelconque ton gamos tu décales quand ? Tu fourgues de la C au dé-clan, depuis quand ? Jespère que tu mets des gants kho, jespère que tu mets des gants On te laisse, tu sors des enfants, tu mouilles le maillot tas des pertes blanches dans tes comptes, tes quun con Quitte à inspirer les youv, pas la coupe de Val Kilmer Deux soldats qui sfont la guerre, c'est une grande armée qui meurt Capuche sur la tête, sourcils froncés Dope dans les veines tu vas tout défoncer Regard glacial, lunettes de soleil sur le zen Tu saisis chaque opportunité dfaire du 'zeille Tes dans ta matrice dactrice superficielle Tas soif de gloire et ton égo tire les ficelles Tu prends de haut toutes les victimes que tu fascines Pour faire une image que tu façonnes comme un métrosexuel Ta démarche, ta gestuelle, rien nest laissé pour compte Tout est millimétré mis à part ton rap d'illettré Et celui de sur qui tu pompes T'es ni le number one, ni le 2Pac Remercie Dieu d'avoir fait que le ridicule ne tue pas T'es la caricature de toi-même, la copie de la copie d'untel Au final, qu'est-ce que t'amènes ? Une pierre de plus à ce fichu rap game Le remake des affranchis joué par des acteurs bas de gamme Fin de séance, grosse banane C'est plus des disques d'or qu'il faut, c'est des bonnets d'âne2</t>
+          <t>Haroun, Scred Connexion Le Rat Luciano, Marseille Despo Rutt's, 93 Guizi Ouzou, Neuf-Deux Willy-Yona, Yonea-Willy Ok pousse DB que ma voix raisonne Cest lheure tfaire TD toi avoir raison Jarrive dans ta chambre, par voie des ondes Différent, jsuis pas les autres jsuis attachant jsuis Don Jason Souris tu es braqué, détends toi cnest qudu son Jsuis quelquun , quelque chose, jamais dix pieds au-dessus du sol Jsuis pas à la mode, pas un karlmoun Nait pas la mort, jsuis en talmoud Chacun sa merde, partout la même Cest soit la, soit la prendre soit la, soit la mettre Jai la main sur le cur, le cur sur la main Ça fait de la peine, mais mieux cent mères qui pleurent que la mienne Jvois rouge, jsuis taureau, doigt du milieu comme les couz Sils le font bien, le font mieux, jreste en plein milieu comme mes couilles A peine mortel, jsais en faire d'ces lettres pour un voyage du temps jle mettrai entre ses lèvres Welcome to the Zoo baby, dites-moi où est le fric Jarrive avec tout mes types, trouvez nous la bouffe les filles Le mode de vie est béton, lattitude est quartier La figure éclatée, résultat d'une vie dure et cramé Tu comprends si tu es dedans Sois patient même si tu casses le sablier, ça reste impossible de tuer le temps On a fait meilleur, sérieux Jpense à mes potes, qui crèchent là où les portes ne ferment que de lextérieur On vient des city sales, FF, ZS, YW pas de fellation, agression lyricale On vient des city sales, SDF, RSA, ANPE, en vrai nos vies ne sont que des initiales Bizarre comme le goût du com Cest pour ceux qui font le tour du bloc en rêvant de faire le tour du globe Quelques mesures et tu tadoucis, 92 Caravelle, guizi-guizi lucianuzi Grandi dans la dèche, les ptits les vieux dla tess Une affaire de pétard cest sûr quon est de mèche Ah terrible, si tu fais le calcul entre facture et ménage nos mères ont plus de couilles que Jacques Mesrine Autour de César, personne riait, criait Mais une fois son plan grillé, on la buté avec ses lauriers Si jsuis pourri, pourriez vous mdire pourquoi dans les terriers Mon skeud est comme ton barillet, enrayé ? Chirac était plus franc que ton grand, trop dcran, il a fait croqué avec les emplois fictifs escroc Tes élu président mon pote tu mets pas bien, t'es un bâtard Jsors de ma grotte oh non ya pas trois couronnes Yen a quune et on va tdéfoncer la gueule La rancune nest quun défenseur de lorgueil Jinspire les profs et les délinquants La réussite peut être insolente, ça me gène pas si tes clinquant Zlatan serait humble avec le maillot de Guingamp Ton fer est quelconque ton gamos tu décales quand ? Tu fourgues de la C au dé-clan, depuis quand ? Jespère que tu mets des gants kho, jespère que tu mets des gants On te laisse, tu sors des enfants, tu mouilles le maillot tas des pertes blanches dans tes comptes, tes quun con Quitte à inspirer les youv, pas la coupe de Val Kilmer Deux soldats qui sfont la guerre, c'est une grande armée qui meurt Capuche sur la tête, sourcils froncés Dope dans les veines tu vas tout défoncer Regard glacial, lunettes de soleil sur le zen Tu saisis chaque opportunité dfaire du 'zeille Tes dans ta matrice dactrice superficielle Tas soif de gloire et ton égo tire les ficelles Tu prends de haut toutes les victimes que tu fascines Pour faire une image que tu façonnes comme un métrosexuel Ta démarche, ta gestuelle, rien nest laissé pour compte Tout est millimétré mis à part ton rap d'illettré Et celui de sur qui tu pompes T'es ni le number one, ni le 2Pac Remercie Dieu d'avoir fait que le ridicule ne tue pas T'es la caricature de toi-même, la copie de la copie d'untel Au final, qu'est-ce que t'amènes ? Une pierre de plus à ce fichu rap game Le remake des affranchis joué par des acteurs bas de gamme Fin de séance, grosse banane C'est plus des disques d'or qu'il faut, c'est des bonnets d'âne2</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Guiziouzou, Sisi Coucou Booska-Public Enemy, Jamais 203 Yo, checke-moi OK Noir à la Ardisson, une trahison et tu n'es plus des miens Mes gars diront que le soleil brille même sur le cul des chiens Ma mère a pris des rides, comprends qu'elle soit hystérique Quand elle voit la vie d'ses fils, entre l'rap, la tise et l'shit On fait d'la merde, on s'en fout, on cache nos peines, on ressent tout Regarde nos têtes, on fume la verte, on s'rend fous On tourne en rond, comme des poisscailles dans le bocal Y'a plus de grand frère, on a mis Pascal dans le local Héhé Pause Cassette, y'a pas de sur le bitume mais les postes ont une bavette Les cross ont une bavette, les cross ont une bavette Y'a pas de sur le bitume mais les cross ont une bavette C'est dans nos... Yeah, Checke moi, OK J'avoue des fois percer comme 2Pac j'y pense Mais j'me dis qu'c'est pas gagné comme un toubab qui danse On aime parler cash, on a le goût d'la finance Click sur un chtar et là toute la ville danse Les coups d'crasse immenses c'est presque la routine J'me fous d'la science moi, quand est-ce que la roue tourne ? Vesqui la 3-6, j'aime kicker tard si Ya dla vodka et une barrette de bédo gras jdid Comme d'hab il fallait qu'j'en parle Les ptites tapettes s'emballent depuis qu'ma tess en bave Et si jamais j'vends pas, j'aurai tué du MC Fumé du Breitling pour user du lexique Guizmo, biz et alcool, triste et hardcore Kick des tas d'strophes et nique les sales porcs You might also likeMoi j'ai 1000 et 1 histoires j'ai dealé plus de 1000 fois Sur un album entier j'ai kické une vie de caille Petit je t'emmène dans ma ville Bicrave et chômage les ti-pe s'enferment dans la tise S'engrènent dans la street et la cleptomanie Veulent fréquenter les restos de Paris Équipés d'un très gros calibre Hé ho mami Ouzou, jamais 203, Despo Kless-Mo Yonea Willy Willy Yonea, Whaaat's up? Bah ouais, bah ouais, jsuis lmeilleur et ça cest dit Les aigreurs, les Assédics Jai du lâcher tout ça Quand même les vrais thugs, jles cace-dédi Les players qui chassent des bitchs, cest d'la merde Guiz' est plus fort que jamais Et ya qules belles meufs qui apprécient Heineken, teufs et d'la résine, oh oui Les textes pleuvent et ça ré-ti, zmo-Gui Jdéteste keufs et facéties, trop speed 'Blèmes, Skuff et amnésie, smoke weed Toute la night si ya moyen j'fourre ta femme, trouve la faille J'suis à droite, à gauche, en vrai jsuis dans tout Paname Fous la rage, et mes gars ne seront pas cléments Tas voulu faire le brave ? Putain, il fallait que jte schlasse vraiment La prochaine fois sera la bonne, j'vais m'le faire ce con En attendant j'suis à la mode et j'fais des bêtes de sons Coming Soon Jamais 203 Retenez-le bande d'enfoirés héhé Guiziouzou Sisi Coucou Yonea Willy Willy Yonea, Whaaat's up?</t>
+          <t>Guiziouzou, Sisi Coucou Booska-Public Enemy, Jamais 203 Yo, checke-moi OK Noir à la Ardisson, une trahison et tu n'es plus des miens Mes gars diront que le soleil brille même sur le cul des chiens Ma mère a pris des rides, comprends qu'elle soit hystérique Quand elle voit la vie d'ses fils, entre l'rap, la tise et l'shit On fait d'la merde, on s'en fout, on cache nos peines, on ressent tout Regarde nos têtes, on fume la verte, on s'rend fous On tourne en rond, comme des poisscailles dans le bocal Y'a plus de grand frère, on a mis Pascal dans le local Héhé Pause Cassette, y'a pas de sur le bitume mais les postes ont une bavette Les cross ont une bavette, les cross ont une bavette Y'a pas de sur le bitume mais les cross ont une bavette C'est dans nos... Yeah, Checke moi, OK J'avoue des fois percer comme 2Pac j'y pense Mais j'me dis qu'c'est pas gagné comme un toubab qui danse On aime parler cash, on a le goût d'la finance Click sur un chtar et là toute la ville danse Les coups d'crasse immenses c'est presque la routine J'me fous d'la science moi, quand est-ce que la roue tourne ? Vesqui la 3-6, j'aime kicker tard si Ya dla vodka et une barrette de bédo gras jdid Comme d'hab il fallait qu'j'en parle Les ptites tapettes s'emballent depuis qu'ma tess en bave Et si jamais j'vends pas, j'aurai tué du MC Fumé du Breitling pour user du lexique Guizmo, biz et alcool, triste et hardcore Kick des tas d'strophes et nique les sales porcs Moi j'ai 1000 et 1 histoires j'ai dealé plus de 1000 fois Sur un album entier j'ai kické une vie de caille Petit je t'emmène dans ma ville Bicrave et chômage les ti-pe s'enferment dans la tise S'engrènent dans la street et la cleptomanie Veulent fréquenter les restos de Paris Équipés d'un très gros calibre Hé ho mami Ouzou, jamais 203, Despo Kless-Mo Yonea Willy Willy Yonea, Whaaat's up? Bah ouais, bah ouais, jsuis lmeilleur et ça cest dit Les aigreurs, les Assédics Jai du lâcher tout ça Quand même les vrais thugs, jles cace-dédi Les players qui chassent des bitchs, cest d'la merde Guiz' est plus fort que jamais Et ya qules belles meufs qui apprécient Heineken, teufs et d'la résine, oh oui Les textes pleuvent et ça ré-ti, zmo-Gui Jdéteste keufs et facéties, trop speed 'Blèmes, Skuff et amnésie, smoke weed Toute la night si ya moyen j'fourre ta femme, trouve la faille J'suis à droite, à gauche, en vrai jsuis dans tout Paname Fous la rage, et mes gars ne seront pas cléments Tas voulu faire le brave ? Putain, il fallait que jte schlasse vraiment La prochaine fois sera la bonne, j'vais m'le faire ce con En attendant j'suis à la mode et j'fais des bêtes de sons Coming Soon Jamais 203 Retenez-le bande d'enfoirés héhé Guiziouzou Sisi Coucou Yonea Willy Willy Yonea, Whaaat's up?</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>J'ai essayé d'stopper la clope, j'ai fumé deux fois plus de shit Alors j'ai continué l'alcool, pour pas tomber dans un autre vice Bienvenue dans les années folles, du son en hall qui pue la pisse T'es arrivé tu faisais la conne, maintenant que t'es là-bas on t'la glisse Arrête de m'appeler mon petit. T'es pas mon père j'suis pas ton fils J'avance avec mes burnes, mes pétasses et mes complices Tout s'est déroulé devant moi, une schnek t'as mis une gifle Merde! Le MC chevelu s'en est arraché les tifs Alors allez vous faire mettre. Et nous cassez pas les couilles Y'aura peut-être une trêve quand j'aurai brassé v'la les sous J'rappe et casse des cous. Leur rats des sales égouts Petit Guiz' a bien grandi depuis qu'il est passé par l'écrou Toi tu crois que c'est cool ? Mais tu t'es trompé. Stup et fonce-dé Pour une gaffe à la con, tu t'fais gonfler ou meme plomber Allez stop, j'en ai assez dit Motherfuck, ils font qu'des flops, parlent de Glocks et jouent les postes devant les Assedic On té-cla trop d'spliff, des dégâts nocifs. A l'heure ou j'écris, le doc opère mon père adoptif J'ai besoin de prendre l'air un peu. Quand je teste un d'eux, j'pense à Ulysse qui nous a laissé ici Et j'vois qu'y a pas de meilleur, alors je m'auto-proclame Y'a que des tas de players avec des flow d'occas'. Ils ont des beaux costards Dans leurs rêves, signent des autographes mais en vrai ne sont qu'des merdes You might also likeVoilà pourquoi mes potos craquent. Venez là ou ça kick pour de vrai, s'nique pour le tieks P'tits troubles fêtes qui fument du shit pour se bercer. Ca devient dard de graille Etant petit, le seul poids que j'avais sur mes épaules c'était celui d'un sac de classe J'avais pas les yeux éclatés, le foie dans un sale état A jeun, je pouvais gratter, aujourd'hui c'est pas l'même cas Depuis qu'j'vends plus d'teu-shi, j'en bédave deux fois plus Contrôlé contre le mur. Là c'est les bleus qu'j'accuse J'croyais que c'était des loups mais en fait c'est des porcs Des putes, bons qu'à poster des photos De moi en mode sport étude C'était la belle vie, j'avais un avenir certain Pendant qu'tu représentes un quartier, on sait même pas si c'est le tien Ouzou... Les caravelles Bleh1</t>
+          <t>J'ai essayé d'stopper la clope, j'ai fumé deux fois plus de shit Alors j'ai continué l'alcool, pour pas tomber dans un autre vice Bienvenue dans les années folles, du son en hall qui pue la pisse T'es arrivé tu faisais la conne, maintenant que t'es là-bas on t'la glisse Arrête de m'appeler mon petit. T'es pas mon père j'suis pas ton fils J'avance avec mes burnes, mes pétasses et mes complices Tout s'est déroulé devant moi, une schnek t'as mis une gifle Merde! Le MC chevelu s'en est arraché les tifs Alors allez vous faire mettre. Et nous cassez pas les couilles Y'aura peut-être une trêve quand j'aurai brassé v'la les sous J'rappe et casse des cous. Leur rats des sales égouts Petit Guiz' a bien grandi depuis qu'il est passé par l'écrou Toi tu crois que c'est cool ? Mais tu t'es trompé. Stup et fonce-dé Pour une gaffe à la con, tu t'fais gonfler ou meme plomber Allez stop, j'en ai assez dit Motherfuck, ils font qu'des flops, parlent de Glocks et jouent les postes devant les Assedic On té-cla trop d'spliff, des dégâts nocifs. A l'heure ou j'écris, le doc opère mon père adoptif J'ai besoin de prendre l'air un peu. Quand je teste un d'eux, j'pense à Ulysse qui nous a laissé ici Et j'vois qu'y a pas de meilleur, alors je m'auto-proclame Y'a que des tas de players avec des flow d'occas'. Ils ont des beaux costards Dans leurs rêves, signent des autographes mais en vrai ne sont qu'des merdes Voilà pourquoi mes potos craquent. Venez là ou ça kick pour de vrai, s'nique pour le tieks P'tits troubles fêtes qui fument du shit pour se bercer. Ca devient dard de graille Etant petit, le seul poids que j'avais sur mes épaules c'était celui d'un sac de classe J'avais pas les yeux éclatés, le foie dans un sale état A jeun, je pouvais gratter, aujourd'hui c'est pas l'même cas Depuis qu'j'vends plus d'teu-shi, j'en bédave deux fois plus Contrôlé contre le mur. Là c'est les bleus qu'j'accuse J'croyais que c'était des loups mais en fait c'est des porcs Des putes, bons qu'à poster des photos De moi en mode sport étude C'était la belle vie, j'avais un avenir certain Pendant qu'tu représentes un quartier, on sait même pas si c'est le tien Ouzou... Les caravelles Bleh1</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Valenton cest pas les States Que la victoire on veut pas léchec Toutes vos salades on sen bat les steaks Tu viens pas pécho si ta pas despèces Jsuis pas gentil, jsuis pas méchant han Jsuis le reflet de cque tu dégages ouais Et jsais comment les nettoyer Ma daronne était femme de ménage Et puis les retards de loyer Ça annoncé les mauvais présages bordel Mais Madame ! Quest-ce qu vous croyez ? bordel Cest soit tu pays, soit tu déménages On a fini par dormir, jsais même plus où Et du coup ton fils à péter les plombs nan On avait pas dsous mais javais du goût Cétait surgelés pas de fait maison Et ya mon daron qui sest fait té-sau Parce que cest méchamment quil faisait des sous 15 ans plus-tard le petit té-chan Si tu me vois jsais qutes pas déçu Mais cest quoi cette histoire ? Soit jsuis triste, soit jsuis en colère Quelle drôle de vie, jsuis en prison Ils sont en premières Jvous entends plus, jvous vois plus jai mis des illères Quand jfume du shit jveux plus tentendre après mes 2 verres Jai capté où strouver la beuh, jai fais ma cueillette Un peu bourré au volant mais tinquiète je gère You might also likeJcrois quelle maime plus, jmen rappelle même plus ah ouais Javais ptêtre bu un peu trop Jcrois quelle maime plus, jsuis à larrêt dbus comme ça Jai pris un she-fla, mélange au RedBull Parce que jai pas de médicaments Jme suis défoncé comme 10 camés Bâtiment 9 comme Tu veux du shit bah digamé Pas ddéposition chez linspecteur Que des voyous dans mon secteur Des dealers, des tapeurs, des voleurs Wallah ya pas dskateur Jai le fric, jai la dégaine Quand jfais du rap je le dégomme Et cest plus violent que Tekken On tallumes si tu déconnes Dans la street je suis très zen Mais jétais violent à lécole Des cafards, des souris et des rats Bordel téma le décor 6h du mat po po po po cest pour un de mes frères ou moi Mais tout sa cest fini maman, jespère que tes fier au moins Jai repris ma vie en mains, cest fini les enfermements Jsuis devenu une étoile, jsuis maintenant à mon firmament Jai toujours fait confiance A mes couilles et mon discernement Le gros a dit la vérité, mais celui qui te visser te ments Jfume un joint en promenade Yen a deux qui se traînent dedans Jconnais la rue, la galère et les pertes de temps Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Je ne bédave que des 10 ech Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Laisse moi faire mon business Faut pas foirer ton coups Si tu bicrave dans la callé Un flash de trop et jsuis KO Toute ma tristesse dans un cahier Trop didées noires et jveux pas dormir Laisse moi tranquille gros jsuis pas dhumeur Jsuis devenu froid pire que Vladimir Guizmo est mort disait la rumeur Les dans mon hall ça na pas bougé Que des grosses peines comme John Abruzzi Jveux pas sa part quitte a avancé Payes tes me-chro cest pas mon soucis Et que Dieu me foudroie sil me voit sucer Cest pire que le viol ou que le suicide Jai rien demander avant le succès Javais la forme et jétais lucide Ya certains bruits qui me sont agréable Et ton poto il est malléable Jai limpression quil nest pas très fiable Jconnais la rue et ses aléas Mais jveux la vue sur les Baléares Ma grosse te-tê sous le cagnard Et ya plus lassui qui dort dehors Flouter dans la rue cest mon odyssée Jarrive au culot jfais pas daudition Jbicrave du pilon quand jsuis au lycée Diakité Mafia dans la commission Jattends encore cquon ma promis Même sans faire la course jarrive premier Toute façon nique sa mère, Ma femme, mes enfants et mes deniers Jsuis pas ton pote négro, jsuis pas ton négro mon pote Nous forces pas à lâcher les Pit ou dégainer avec des battes Le renard est trop fâché Maintenant il existe de gros cachet Mec de cité pas de punk à chien Guette toutes les rimes que jai propagé Et mais cest qui lauiss ? Jamais je lai vu dans le secteur Il traîne en bas où on cache la drogue Est-ce quil travaille pour linspecteur Qui connaît la vie, connaîtra la mort Cest inévitable mais ça fait peur Paradoxal je ne crains pas la mort Mais jaime la vie pour sa laideur Connaissent rien de nos vies, de nos soucis Depuis tit-peu jfais des sous sale Jai dormi dans le sous-sol Suivi par une assistante sociale Tu veux ma vie, prends la Même pas 2 semaine tu tmets une balle Je cherche le bout du tunnel Alcoolisé jcrois quça mène nulle part Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Je ne bédave que des 10 ech Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Laisse moi faire mon business</t>
+          <t>Valenton cest pas les States Que la victoire on veut pas léchec Toutes vos salades on sen bat les steaks Tu viens pas pécho si ta pas despèces Jsuis pas gentil, jsuis pas méchant han Jsuis le reflet de cque tu dégages ouais Et jsais comment les nettoyer Ma daronne était femme de ménage Et puis les retards de loyer Ça annoncé les mauvais présages bordel Mais Madame ! Quest-ce qu vous croyez ? bordel Cest soit tu pays, soit tu déménages On a fini par dormir, jsais même plus où Et du coup ton fils à péter les plombs nan On avait pas dsous mais javais du goût Cétait surgelés pas de fait maison Et ya mon daron qui sest fait té-sau Parce que cest méchamment quil faisait des sous 15 ans plus-tard le petit té-chan Si tu me vois jsais qutes pas déçu Mais cest quoi cette histoire ? Soit jsuis triste, soit jsuis en colère Quelle drôle de vie, jsuis en prison Ils sont en premières Jvous entends plus, jvous vois plus jai mis des illères Quand jfume du shit jveux plus tentendre après mes 2 verres Jai capté où strouver la beuh, jai fais ma cueillette Un peu bourré au volant mais tinquiète je gère Jcrois quelle maime plus, jmen rappelle même plus ah ouais Javais ptêtre bu un peu trop Jcrois quelle maime plus, jsuis à larrêt dbus comme ça Jai pris un she-fla, mélange au RedBull Parce que jai pas de médicaments Jme suis défoncé comme 10 camés Bâtiment 9 comme Tu veux du shit bah digamé Pas ddéposition chez linspecteur Que des voyous dans mon secteur Des dealers, des tapeurs, des voleurs Wallah ya pas dskateur Jai le fric, jai la dégaine Quand jfais du rap je le dégomme Et cest plus violent que Tekken On tallumes si tu déconnes Dans la street je suis très zen Mais jétais violent à lécole Des cafards, des souris et des rats Bordel téma le décor 6h du mat po po po po cest pour un de mes frères ou moi Mais tout sa cest fini maman, jespère que tes fier au moins Jai repris ma vie en mains, cest fini les enfermements Jsuis devenu une étoile, jsuis maintenant à mon firmament Jai toujours fait confiance A mes couilles et mon discernement Le gros a dit la vérité, mais celui qui te visser te ments Jfume un joint en promenade Yen a deux qui se traînent dedans Jconnais la rue, la galère et les pertes de temps Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Je ne bédave que des 10 ech Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Laisse moi faire mon business Faut pas foirer ton coups Si tu bicrave dans la callé Un flash de trop et jsuis KO Toute ma tristesse dans un cahier Trop didées noires et jveux pas dormir Laisse moi tranquille gros jsuis pas dhumeur Jsuis devenu froid pire que Vladimir Guizmo est mort disait la rumeur Les dans mon hall ça na pas bougé Que des grosses peines comme John Abruzzi Jveux pas sa part quitte a avancé Payes tes me-chro cest pas mon soucis Et que Dieu me foudroie sil me voit sucer Cest pire que le viol ou que le suicide Jai rien demander avant le succès Javais la forme et jétais lucide Ya certains bruits qui me sont agréable Et ton poto il est malléable Jai limpression quil nest pas très fiable Jconnais la rue et ses aléas Mais jveux la vue sur les Baléares Ma grosse te-tê sous le cagnard Et ya plus lassui qui dort dehors Flouter dans la rue cest mon odyssée Jarrive au culot jfais pas daudition Jbicrave du pilon quand jsuis au lycée Diakité Mafia dans la commission Jattends encore cquon ma promis Même sans faire la course jarrive premier Toute façon nique sa mère, Ma femme, mes enfants et mes deniers Jsuis pas ton pote négro, jsuis pas ton négro mon pote Nous forces pas à lâcher les Pit ou dégainer avec des battes Le renard est trop fâché Maintenant il existe de gros cachet Mec de cité pas de punk à chien Guette toutes les rimes que jai propagé Et mais cest qui lauiss ? Jamais je lai vu dans le secteur Il traîne en bas où on cache la drogue Est-ce quil travaille pour linspecteur Qui connaît la vie, connaîtra la mort Cest inévitable mais ça fait peur Paradoxal je ne crains pas la mort Mais jaime la vie pour sa laideur Connaissent rien de nos vies, de nos soucis Depuis tit-peu jfais des sous sale Jai dormi dans le sous-sol Suivi par une assistante sociale Tu veux ma vie, prends la Même pas 2 semaine tu tmets une balle Je cherche le bout du tunnel Alcoolisé jcrois quça mène nulle part Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Je ne bédave que des 10 ech Avant lfric dans la rue jétais par terre Demande a mes partenaires Avec nous tu peux pas tenir Ça vend du crack Cité Carter Laisse moi faire mon business Laisse moi faire mon business</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yo, guizi ouzou, si si coucou Youni wouli, wouli youni business Touli changs, bigidi sbang Cest moi contre moi-même Cest lhomme dans la glace Je me mets pas à ta place Cest moi contre moi-même Je me mets pas à ta place Je regarde lhomme dans la glace Yo mec, yo Je connais pas mes limites, jai un peu peur de moi Un coma éthylique ou un peu trop de peu-fra Je sais pas ce qui mirrite, limpression que je meurs de froid De la C, des viles-ci, du pilon, du que-cra Du temps à réfléchir, la plaquette je la fais cher C'est du paki ils déchirent, ils déchirent, ils déchirent Mais il y a des glocks si tu préfères Bagarrer cest bien, rafaler cest mieux Cest ce que nous chuchotes le sheitan à loreille Un pote du star qui mappel à loreille Jai tout mandaté, dans deux jours tas loseille Mais cest quoi cette vie, mais cest quoi cette vie Des fois jen parle comme si jen étais fier On a perdu un frère pour le nerf de la guerre Alors moi jaimerais cher, comme la chair de ma chair You might also like C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Cest moi contre moi Cest moi contre moi, qui va lemporter Dans ma tête ça va plus, jai la gueule de lemploi Ouais la gueule de lemploi Jai même pas un stick je vois les keufs à laffut, ouais je vois les keufs à laffut Et jai perdu patience, je sais pas si cest lâge ou laccumulation Jen sais rien, jen sais rien À trop cogiter, il y a que mon cerveau qui fait de la musculation Jai rempli des cahiers, jai mangé des cailloux Jai voulu racailler, jai rien gagné walou Tes potes à Pataya, toi tes sous les verrous On laisse sapapaya, sors moi de mes égouts Jai aimé, jai haï, jai menti, jai trompé Personne nest infaillible, mes péchés sont comptés Mais quest-ce qui nous arrive, jai dit attendez-moi La vérité cest que jai peur de les affronter C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Jai fumé mes regrets, tizé mes déceptions Une pin-up à lhôtel, je suis à la réception On sirote un cocktail sans aucune réflexion Je culpabiliserai demain à m'en péter le caisson Et j'ai dormi par terre sous le nez de la voisine Elle l'a dit à ma mère avec satisfaction Cinq ans après elle veut me donner sa fille J'ai fait deux trois tubes avec animal son Vagabonder comme le pire des clochards Wallay billay que j'ai compris la leçon Ma femme est enceinte, Inshallah c'est une fille Elle sera protégée par mon petit garçon Maman t'en fais pas, je prends tous les sous Je viens tout de suite, juste à côté de toi On boira du champagne, bouteille à dix mille Santé à tous ceux qui se moquaient de moi C'est moi contre moi-même C'est moi contre qui, c'est moi contre qui C'est moi contre moi-même C'est moi contre moi-même C'est moi contre moi-même C'est moi contre qui, c'est moi contre qui C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Y et W, zone sensible À tous ceux qui se battent contre eux-mêmes Qu'ont pas peur de se regarder dans la glace De se remettre en question Et se demander C'est quoi les bails, mecs ? Qu'est-ce qu'on fait, qu'est-ce qu'on vit ? C'est toi contre toi C'est moi contre moi Yah, zone sensible Guizi Ouzou, si si coucou Jiguidi check, Sbiguidi sban</t>
+          <t>Yo, guizi ouzou, si si coucou Youni wouli, wouli youni business Touli changs, bigidi sbang Cest moi contre moi-même Cest lhomme dans la glace Je me mets pas à ta place Cest moi contre moi-même Je me mets pas à ta place Je regarde lhomme dans la glace Yo mec, yo Je connais pas mes limites, jai un peu peur de moi Un coma éthylique ou un peu trop de peu-fra Je sais pas ce qui mirrite, limpression que je meurs de froid De la C, des viles-ci, du pilon, du que-cra Du temps à réfléchir, la plaquette je la fais cher C'est du paki ils déchirent, ils déchirent, ils déchirent Mais il y a des glocks si tu préfères Bagarrer cest bien, rafaler cest mieux Cest ce que nous chuchotes le sheitan à loreille Un pote du star qui mappel à loreille Jai tout mandaté, dans deux jours tas loseille Mais cest quoi cette vie, mais cest quoi cette vie Des fois jen parle comme si jen étais fier On a perdu un frère pour le nerf de la guerre Alors moi jaimerais cher, comme la chair de ma chair C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Cest moi contre moi Cest moi contre moi, qui va lemporter Dans ma tête ça va plus, jai la gueule de lemploi Ouais la gueule de lemploi Jai même pas un stick je vois les keufs à laffut, ouais je vois les keufs à laffut Et jai perdu patience, je sais pas si cest lâge ou laccumulation Jen sais rien, jen sais rien À trop cogiter, il y a que mon cerveau qui fait de la musculation Jai rempli des cahiers, jai mangé des cailloux Jai voulu racailler, jai rien gagné walou Tes potes à Pataya, toi tes sous les verrous On laisse sapapaya, sors moi de mes égouts Jai aimé, jai haï, jai menti, jai trompé Personne nest infaillible, mes péchés sont comptés Mais quest-ce qui nous arrive, jai dit attendez-moi La vérité cest que jai peur de les affronter C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Jai fumé mes regrets, tizé mes déceptions Une pin-up à lhôtel, je suis à la réception On sirote un cocktail sans aucune réflexion Je culpabiliserai demain à m'en péter le caisson Et j'ai dormi par terre sous le nez de la voisine Elle l'a dit à ma mère avec satisfaction Cinq ans après elle veut me donner sa fille J'ai fait deux trois tubes avec animal son Vagabonder comme le pire des clochards Wallay billay que j'ai compris la leçon Ma femme est enceinte, Inshallah c'est une fille Elle sera protégée par mon petit garçon Maman t'en fais pas, je prends tous les sous Je viens tout de suite, juste à côté de toi On boira du champagne, bouteille à dix mille Santé à tous ceux qui se moquaient de moi C'est moi contre moi-même C'est moi contre qui, c'est moi contre qui C'est moi contre moi-même C'est moi contre moi-même C'est moi contre moi-même C'est moi contre qui, c'est moi contre qui C'est moi contre moi-même Mes pulsions, mes vices, c'est le bédo et l'alcool C'est moi contre moi-même La prison et l'HP, le pilon de la réelle de de-mer C'est moi contre moi-même Mes pulsions, addictions, l'alcool et le bédo C'est moi contre moi-même c'est moi, c'est moi C'est moi contre moi-même c'est moi, c'est moi Y et W, zone sensible À tous ceux qui se battent contre eux-mêmes Qu'ont pas peur de se regarder dans la glace De se remettre en question Et se demander C'est quoi les bails, mecs ? Qu'est-ce qu'on fait, qu'est-ce qu'on vit ? C'est toi contre toi C'est moi contre moi Yah, zone sensible Guizi Ouzou, si si coucou Jiguidi check, Sbiguidi sban</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tout seul dans mon lit je me sent pas très bien On a zoné traîné entre galériens On s'est fait la guerre pour des trucs qui ne valaient rien Risquer nos vies c'est comme si on s'en bat les reins Des problèmes à la maison Des problèmes à l'école Des problèmes dans la rue Poto je connais que ça Elle ressemblait à ma mère dans une ruelle sombre J'ai quand même arraché le keussa C'était y'a 15 ans ouais Mais je me sent toujours un peut coupable J'ai vu des bains de sang Où ça frappait fort parlais tout bas J'aime trop lpe-ra Moi je peux pas vous faire de la Zumba jamais Je sais quje vais me remettre J'ai une pièce maîtresse Mon poto elle s'appelle Coumba Mon pistolet en ce moment c'est le même que les keufs Le prochain que je vais allumer c'est sur que ce sera un kif Je fais mes sous dans le pe-ra bas les couilles de la CAF J'ai mes gars qui remontent Le peufra vient du Rif You might also likeJ'avais des rêves ils se sont tous enfuis Ma putain de vie c'est un trou sans fond ouais Et où est passé mon P38 où ça J'ai un de mes ennemis qui joue aux cons brrr Ahh Je passe ma vie à fumer du shit Celui qui vient en premier je le shoot Pour me détendre je me tape un shot merde Et j'ai les nerfs à vif quand j'ai pas ma cons Je m'en bas les couilles de ce qui est à la mode hein Ça fait plus de 10 ans que je suis dans le onss' hein Et ouais Guiz le renard a kiffé la prod ouais Et puis c'est moi lchef Quand jrappe on se tait et on prend des notes Allumer des gars manier la guitare Ça c'est dans mes cordes Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est que c'était dit C'est que c'était écrit Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est quc'était dit C'est quc'était écrit Tout seul dans mon lit je me sent pas très bien On a zoné traîné enter galériens On s'est fait la guerre pour des trucs qui ne valaient rien Risquer nos vies c'est comme si on s'en bat les reins Crack cocaïne mais je touche pas l'héro non Taule et foyer que des va et vient ouais J'ai bu des litrons et fumé des kils Ah mon poto c'était aérien Je m'en bats les couilles de l'équipe d'en face Vous avez moins de couilles que mes deux fils moins C'est moi qui vends c'est moi qui khalass moi Money money je connais la devise J'ai trop bu je veux faire pipi Mon pistolet veux faire paow paow J'ai fumé comme un hippie Et j'ai fais la guerre comme un barbare Guizmo reste cool C'est que de la musique Il faut pas péter les plombs Non je fais pas de bad trip mais il me faut un tas de fric Et un putain de comptable qui me fait des comptes J'suis réel de chez réel j'suis comme Tom So' Je suis bourré et je fais de la dons de l'homme saoul Grandi entre les voleurs et les toxos Nous depuis le premier âge on veut trop de sous sku sku Moi je suis jeune et ambitieux Parfois je suis vicieux Tu connais pas ma vision tu connais rien Comme si j'avais 10 yeux Renard un grand monsieur Qui envoie des mandats dans toutes les prisons Je suis alone in the dark Et j'en ai ma claque ET m'en sortir c'est ma mission Je suis Superman et je suis Clark Je veux faire du cash et bâtir un empire pour mes fistons Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est que c'était dit C'est que c'était écrit Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est quc'était dit C'est quc'était écrit Je veux plus m'expliquer Je veux plus discuter J'en ai plus rien à foutre Tout seul sous la pluie La gare de Saint Denis Ouais c'est moi qui vendais de la foudre Je veux plus m'expliquer Je veux plus discuter J'en ai plus rien à foutre Tout seul dans mon lit je me sent pas très bien Tout seul dans mon lit je me sent pas très bien Tout seul dans mon lit je me sent pas très bien Guiz le renard A plus tard Tout seul sous la pluie La gare de Saint Denis Ouais c'est moi qui vendais de la foudre</t>
+          <t>Tout seul dans mon lit je me sent pas très bien On a zoné traîné entre galériens On s'est fait la guerre pour des trucs qui ne valaient rien Risquer nos vies c'est comme si on s'en bat les reins Des problèmes à la maison Des problèmes à l'école Des problèmes dans la rue Poto je connais que ça Elle ressemblait à ma mère dans une ruelle sombre J'ai quand même arraché le keussa C'était y'a 15 ans ouais Mais je me sent toujours un peut coupable J'ai vu des bains de sang Où ça frappait fort parlais tout bas J'aime trop lpe-ra Moi je peux pas vous faire de la Zumba jamais Je sais quje vais me remettre J'ai une pièce maîtresse Mon poto elle s'appelle Coumba Mon pistolet en ce moment c'est le même que les keufs Le prochain que je vais allumer c'est sur que ce sera un kif Je fais mes sous dans le pe-ra bas les couilles de la CAF J'ai mes gars qui remontent Le peufra vient du Rif J'avais des rêves ils se sont tous enfuis Ma putain de vie c'est un trou sans fond ouais Et où est passé mon P38 où ça J'ai un de mes ennemis qui joue aux cons brrr Ahh Je passe ma vie à fumer du shit Celui qui vient en premier je le shoot Pour me détendre je me tape un shot merde Et j'ai les nerfs à vif quand j'ai pas ma cons Je m'en bas les couilles de ce qui est à la mode hein Ça fait plus de 10 ans que je suis dans le onss' hein Et ouais Guiz le renard a kiffé la prod ouais Et puis c'est moi lchef Quand jrappe on se tait et on prend des notes Allumer des gars manier la guitare Ça c'est dans mes cordes Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est que c'était dit C'est que c'était écrit Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est quc'était dit C'est quc'était écrit Tout seul dans mon lit je me sent pas très bien On a zoné traîné enter galériens On s'est fait la guerre pour des trucs qui ne valaient rien Risquer nos vies c'est comme si on s'en bat les reins Crack cocaïne mais je touche pas l'héro non Taule et foyer que des va et vient ouais J'ai bu des litrons et fumé des kils Ah mon poto c'était aérien Je m'en bats les couilles de l'équipe d'en face Vous avez moins de couilles que mes deux fils moins C'est moi qui vends c'est moi qui khalass moi Money money je connais la devise J'ai trop bu je veux faire pipi Mon pistolet veux faire paow paow J'ai fumé comme un hippie Et j'ai fais la guerre comme un barbare Guizmo reste cool C'est que de la musique Il faut pas péter les plombs Non je fais pas de bad trip mais il me faut un tas de fric Et un putain de comptable qui me fait des comptes J'suis réel de chez réel j'suis comme Tom So' Je suis bourré et je fais de la dons de l'homme saoul Grandi entre les voleurs et les toxos Nous depuis le premier âge on veut trop de sous sku sku Moi je suis jeune et ambitieux Parfois je suis vicieux Tu connais pas ma vision tu connais rien Comme si j'avais 10 yeux Renard un grand monsieur Qui envoie des mandats dans toutes les prisons Je suis alone in the dark Et j'en ai ma claque ET m'en sortir c'est ma mission Je suis Superman et je suis Clark Je veux faire du cash et bâtir un empire pour mes fistons Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est que c'était dit C'est que c'était écrit Je me réveille j'ouvre la fenêtre Et sa mère il fait gris Le renard à lâché la bête Putain on m'a trop détruit J'ai regardé ton visage Dans ton regard y'avait du mépris Et si demain le pire arrive C'est quc'était dit C'est quc'était écrit Je veux plus m'expliquer Je veux plus discuter J'en ai plus rien à foutre Tout seul sous la pluie La gare de Saint Denis Ouais c'est moi qui vendais de la foudre Je veux plus m'expliquer Je veux plus discuter J'en ai plus rien à foutre Tout seul dans mon lit je me sent pas très bien Tout seul dans mon lit je me sent pas très bien Tout seul dans mon lit je me sent pas très bien Guiz le renard A plus tard Tout seul sous la pluie La gare de Saint Denis Ouais c'est moi qui vendais de la foudre</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Guiziouzou sisi coucou gremlins et guizmettes, me revoilà Laisse-moi te faire rire, laisse-moi t'occuper de toi Je peux lire ton avenir juste à l'aide de mes deux doigts Je sens déjà que tu vas jouir et tomber amoureuse de moi Ce qui me fera fuir, car les sentiments me lassent Alors propose un plan cul si tu ne veux pas m'faire peur Tu veux juste te faire smacké, je serais un basketteur Tu veux juste te faire rouler je serais un paquet feuille Tu veux juste te faire trouer, je serais un saleté d'gun Et si tu veux tout en même temps, bah je serais un couteau suisse Sinon je te boufferai pas les seins, parce que moi je suis plutôt cuisse La c'est plus costeau, j'en place une pour mes proxos Poto! y'a que dans une chatte que l'on n'est pas claustro Guiziouzou, Ibiza y'a trop de taspé, tu es un maccro J'tai mis ta gruge sur une phase B Fait moi voir sous tes sous-vêtements Jsuis un malade y'a que ta chatte qui peut me mettre sous traitement Oh! YW ça dit ça dit ça dit que Cette petite métisse d'Ibiza vit toujours dévêtue Elle adore le sexe intensif et les claques sur le cul Oui cette petite métisse d'Ibiza presque déjà toute nue Ne lui dit pas que je vous ai dit sa ou l'amour on n'fera plus Si tu vois guizmo, tu ferais mieux de te méfier YW c'est sur tu peux pas défié Jsuis sur un île paradisiaque, biatch et cocotier Tu cherches les jaloux regarde dessous nos piedsYou might also like1</t>
+          <t>Guiziouzou sisi coucou gremlins et guizmettes, me revoilà Laisse-moi te faire rire, laisse-moi t'occuper de toi Je peux lire ton avenir juste à l'aide de mes deux doigts Je sens déjà que tu vas jouir et tomber amoureuse de moi Ce qui me fera fuir, car les sentiments me lassent Alors propose un plan cul si tu ne veux pas m'faire peur Tu veux juste te faire smacké, je serais un basketteur Tu veux juste te faire rouler je serais un paquet feuille Tu veux juste te faire trouer, je serais un saleté d'gun Et si tu veux tout en même temps, bah je serais un couteau suisse Sinon je te boufferai pas les seins, parce que moi je suis plutôt cuisse La c'est plus costeau, j'en place une pour mes proxos Poto! y'a que dans une chatte que l'on n'est pas claustro Guiziouzou, Ibiza y'a trop de taspé, tu es un maccro J'tai mis ta gruge sur une phase B Fait moi voir sous tes sous-vêtements Jsuis un malade y'a que ta chatte qui peut me mettre sous traitement Oh! YW ça dit ça dit ça dit que Cette petite métisse d'Ibiza vit toujours dévêtue Elle adore le sexe intensif et les claques sur le cul Oui cette petite métisse d'Ibiza presque déjà toute nue Ne lui dit pas que je vous ai dit sa ou l'amour on n'fera plus Si tu vois guizmo, tu ferais mieux de te méfier YW c'est sur tu peux pas défié Jsuis sur un île paradisiaque, biatch et cocotier Tu cherches les jaloux regarde dessous nos pieds1</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Intro C'est pas la psychatrie mais presque Couplet 1 Trop de love, trop de peine, trop de guerre Trop de haine dans le bendo Pourquoi il a dit nique ta mère Ce fils de pute se fait crendo Cité HLM coupure de courant Un petit qui vend pour du kenzo Guizmo et Dwayne, Guizmo et Lamine, Ibrahim Un renard dans un benzo Rien que je déprime ma vie dans ma chambre Et ma touffe c'est du velcro J'm'en rappelle bâtiment 9 de Walid Cheveux coiffés au pento J'fais la guerre sérieusement Et je dis les choses belliqueusement Calibré derrière on est deux devant Il est même pas né celui qui dit que je mens Depuis gamin on fait des bêtises Et on condamne les traitrises Des CR des bagarres et du vol Puis vient l'heure de la perquise C'est qui, c'est qui ? C'est qui qui rouspète ? Negro who's Nerveux comme en Ouzbek Méfiez vous car Guizmo is back J'avais déjà de la drogue dans mon sac à dos Eastpak Tu me donnes pas l'argent tu deales Je deviens fou comme en Ouzbek Y a un peu de tout dans l'équipe Des rabza, des babtous et des black J'passais mon temps à fournir De la beuh du pilon et du crack You might also like Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir motherfuck mes ennemis J'suis qu'un gamin du bitume Qui raconte sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir motherfuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Couplet 2 Valenton me connait, Bèsbar me connait La JAP elle me connait, igo j'suis dans l'truc Des fois j'suis malhonnête, et tout ça pour la money Écartez vous tous j'ai un flingue dans l'fut Faut qu'on s'casse dans nos cités c'est la merde Boom, boom, boom pour un va niquer ta mère Vroom, vroom, vroom, ils ont allumé la bête Il a donné ton blase, il a annulé sa dette Oh merde M'en bats les couilles si sa caisse c'est pour aller au boulot j'ai volé ses jantes Obligé de tirer pour intimider, j'tire pas dans la tête mais j'ai visé les jambes J'ai accepté quelque chose de la vie comme mon ex compagne elle est bête et méchante J'ai vieilli trop vite comme une teille de vin Et toujours au foot on m'mettait devant Moi mon grand-père c'est un grand devin Il m'disait déjà que je niquais ma vie On sait ce qu'on aime pas ce qu'on devient J'ai bu ma tristesse comme un sans abri Bagarre et placard pas de vantardise On t'attrape on t'arnaque dans le grand baril Et j'veux mon fric pas dimanche, et pas lundi prochain Badaboom, badaboom Désolé pour les larmes de tes proches J'ai mis tout dans mes fouilles Et un peu à gauche en cas de procès Et si t'as ouvert ta mouille Y a quelqu'un qui va venir te crosser Eh tu vois ces grandes tours J'habitais en bas du rez-de-chaussée Toutes ces cités elles sont infestées J'bouchais pas mon nez quand ça re-pestait Les pates au pesto gros ça empestait Toujours à l'assaut pour te rebooster Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie 22 ans quand j'ai connu le roro À 20 ans j'louais déjà Ferrari Tous les rats de la ville et les bobo Sauf que Guizmo est vrai et fait pas crari Niquez vos mères vous me pompez l'air Jamais caillassé les pomeplard Tu parles de fric jamais fait des rares J'demande pardon si j'ai fait l'erreur Oh mais qui est qui ? Dis moi qui est qui ? J'débarque calibré complétement shité Alcoolisé pété Et ça fait zumba cafew j'fais tourner fais pas le con Et ça fait bra-da-da-da George Clooney film d'action On est pas dans un mood On est grave excités ma gueule Hercule mon Billie Jean, moonwalk Gros que j'suis comme Michael Le renard des champs Bats les couilles du regard des gens Tu te fais niquer si t'es ap méfiant J'suis défoncé mais j'suis ap déviant Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Chienne de vie sa mère</t>
+          <t>Intro C'est pas la psychatrie mais presque Couplet 1 Trop de love, trop de peine, trop de guerre Trop de haine dans le bendo Pourquoi il a dit nique ta mère Ce fils de pute se fait crendo Cité HLM coupure de courant Un petit qui vend pour du kenzo Guizmo et Dwayne, Guizmo et Lamine, Ibrahim Un renard dans un benzo Rien que je déprime ma vie dans ma chambre Et ma touffe c'est du velcro J'm'en rappelle bâtiment 9 de Walid Cheveux coiffés au pento J'fais la guerre sérieusement Et je dis les choses belliqueusement Calibré derrière on est deux devant Il est même pas né celui qui dit que je mens Depuis gamin on fait des bêtises Et on condamne les traitrises Des CR des bagarres et du vol Puis vient l'heure de la perquise C'est qui, c'est qui ? C'est qui qui rouspète ? Negro who's Nerveux comme en Ouzbek Méfiez vous car Guizmo is back J'avais déjà de la drogue dans mon sac à dos Eastpak Tu me donnes pas l'argent tu deales Je deviens fou comme en Ouzbek Y a un peu de tout dans l'équipe Des rabza, des babtous et des black J'passais mon temps à fournir De la beuh du pilon et du crack Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir motherfuck mes ennemis J'suis qu'un gamin du bitume Qui raconte sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir motherfuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Couplet 2 Valenton me connait, Bèsbar me connait La JAP elle me connait, igo j'suis dans l'truc Des fois j'suis malhonnête, et tout ça pour la money Écartez vous tous j'ai un flingue dans l'fut Faut qu'on s'casse dans nos cités c'est la merde Boom, boom, boom pour un va niquer ta mère Vroom, vroom, vroom, ils ont allumé la bête Il a donné ton blase, il a annulé sa dette Oh merde M'en bats les couilles si sa caisse c'est pour aller au boulot j'ai volé ses jantes Obligé de tirer pour intimider, j'tire pas dans la tête mais j'ai visé les jambes J'ai accepté quelque chose de la vie comme mon ex compagne elle est bête et méchante J'ai vieilli trop vite comme une teille de vin Et toujours au foot on m'mettait devant Moi mon grand-père c'est un grand devin Il m'disait déjà que je niquais ma vie On sait ce qu'on aime pas ce qu'on devient J'ai bu ma tristesse comme un sans abri Bagarre et placard pas de vantardise On t'attrape on t'arnaque dans le grand baril Et j'veux mon fric pas dimanche, et pas lundi prochain Badaboom, badaboom Désolé pour les larmes de tes proches J'ai mis tout dans mes fouilles Et un peu à gauche en cas de procès Et si t'as ouvert ta mouille Y a quelqu'un qui va venir te crosser Eh tu vois ces grandes tours J'habitais en bas du rez-de-chaussée Toutes ces cités elles sont infestées J'bouchais pas mon nez quand ça re-pestait Les pates au pesto gros ça empestait Toujours à l'assaut pour te rebooster Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie 22 ans quand j'ai connu le roro À 20 ans j'louais déjà Ferrari Tous les rats de la ville et les bobo Sauf que Guizmo est vrai et fait pas crari Niquez vos mères vous me pompez l'air Jamais caillassé les pomeplard Tu parles de fric jamais fait des rares J'demande pardon si j'ai fait l'erreur Oh mais qui est qui ? Dis moi qui est qui ? J'débarque calibré complétement shité Alcoolisé pété Et ça fait zumba cafew j'fais tourner fais pas le con Et ça fait bra-da-da-da George Clooney film d'action On est pas dans un mood On est grave excités ma gueule Hercule mon Billie Jean, moonwalk Gros que j'suis comme Michael Le renard des champs Bats les couilles du regard des gens Tu te fais niquer si t'es ap méfiant J'suis défoncé mais j'suis ap déviant Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Tu sais pas pourquoi j'suis défoncé toute la nuit Le passé est noir igo parle pas sur ma vie Le placard et parloir non fuck mes ennemis J'suis qu'un gamin du bitume Qui rappe pour sa chienne de vie Chienne de vie sa mère</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Yohann, Walter, Zoé, Savane en position YW, ZS J'en peux plus d'les voir en bas des bât', sérieux J'roule avec la BAC, messieurs Et puis quand y a pas d'mission Sous pinard, j'me tape des xeus À 200 sur le périph', à la recherche d'une grosse tête Un kil' ou deux, il m'les donnera si j'parle de grosses peines Toujours la même t'façon, ils jouent les boss mais c'est des rigolos Une bande d'enculés qui poussent à picoler J'te contrôle si t'as pas d'beuh, j't'en mets dans les poches Ta parole contre la mienne j'te nique et j't'emmène sans escorte C'est moi la loi, c'est moi qui fixe les règles Et si tu veux bicrave tranquille, il faut qu't'allonges les billets verts Et cette bande de racailles me répond, que la chance et la France tourneront, quand ils péteront les plombs Un d'ces rappeurs a même dit Vous m'sucerez la bite le jour où vous saurez comment j'retiens les petits Mais, on fera rien d'tout ça, ouais j'ai fait plein d'coups sales Mais j'ai des potes à l'IGS alors j'suis intouchable Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès You might also like J'fais pas dans les blagues Je me ferai buter la BRB, mes ennemis seront en transe Bande d'enculés ! Montre-moi ta plaque Connard, j'te ferai muter dans le trou du cul d'la France Un matelas pour l'avocat est toujours prêt Money, money, money J'filoche encore les dabistes de la BRED J'ai des connexions lourdes dans le Rif Ma justice est courte, s'compte en .22 Long Rifle Gouttes de sang dans mon coffre oui Les mauvais payeurs doivent servir d'exemple dans l'monde de la C Le dossier est bof J'sors de l'audience comme j'sors d'un salon d'massage thaï relaxé Aux prétentions, extorsions, blanchiments Malgré les détentions, la rédemption dans l'ciment J'ai des Féfés, compte le biff comme j'compte les soucis Si j'apprends qu'mon fils vend de la drogue on s'associe Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès Ahaaarh, fais voir tes fafs, négro Mais qu'est-ce tu m'fais, négro ? Fais voir tes fafs, négro Tu t'la pètes, négro Fais voir tes fafs, négro Reste cool, j'peux savoir où tes gosses vont à la school J'vais t'perquis' à 6 heures du mat' Tu vas faire quoi ? Et tu verras bleu, blanc, rouge Clic, clic, boum j'vais t'envoyer une équipe de l'Est J'serai au Mali quand les éboueurs retrouveront tes restes Où, où, où est passée la police ? C'est tellement des ripoux, qu'on se fait soi-même justice Tu peux être flic et en même temps un bad boy Ici c'est le western, ici c'est Cocaïne Cowboys Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès Où, où, où est passée la police ? C'est tellement des ripoux, qu'on se fait soi-même justice Tu peux être flic et en même temps un bad boy Ici c'est le western, ici c'est Cocaïne Cowboys Whoo, whoo, whoo, whoo, whoo</t>
+          <t>Yohann, Walter, Zoé, Savane en position YW, ZS J'en peux plus d'les voir en bas des bât', sérieux J'roule avec la BAC, messieurs Et puis quand y a pas d'mission Sous pinard, j'me tape des xeus À 200 sur le périph', à la recherche d'une grosse tête Un kil' ou deux, il m'les donnera si j'parle de grosses peines Toujours la même t'façon, ils jouent les boss mais c'est des rigolos Une bande d'enculés qui poussent à picoler J'te contrôle si t'as pas d'beuh, j't'en mets dans les poches Ta parole contre la mienne j'te nique et j't'emmène sans escorte C'est moi la loi, c'est moi qui fixe les règles Et si tu veux bicrave tranquille, il faut qu't'allonges les billets verts Et cette bande de racailles me répond, que la chance et la France tourneront, quand ils péteront les plombs Un d'ces rappeurs a même dit Vous m'sucerez la bite le jour où vous saurez comment j'retiens les petits Mais, on fera rien d'tout ça, ouais j'ai fait plein d'coups sales Mais j'ai des potes à l'IGS alors j'suis intouchable Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès J'fais pas dans les blagues Je me ferai buter la BRB, mes ennemis seront en transe Bande d'enculés ! Montre-moi ta plaque Connard, j'te ferai muter dans le trou du cul d'la France Un matelas pour l'avocat est toujours prêt Money, money, money J'filoche encore les dabistes de la BRED J'ai des connexions lourdes dans le Rif Ma justice est courte, s'compte en .22 Long Rifle Gouttes de sang dans mon coffre oui Les mauvais payeurs doivent servir d'exemple dans l'monde de la C Le dossier est bof J'sors de l'audience comme j'sors d'un salon d'massage thaï relaxé Aux prétentions, extorsions, blanchiments Malgré les détentions, la rédemption dans l'ciment J'ai des Féfés, compte le biff comme j'compte les soucis Si j'apprends qu'mon fils vend de la drogue on s'associe Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès Ahaaarh, fais voir tes fafs, négro Mais qu'est-ce tu m'fais, négro ? Fais voir tes fafs, négro Tu t'la pètes, négro Fais voir tes fafs, négro Reste cool, j'peux savoir où tes gosses vont à la school J'vais t'perquis' à 6 heures du mat' Tu vas faire quoi ? Et tu verras bleu, blanc, rouge Clic, clic, boum j'vais t'envoyer une équipe de l'Est J'serai au Mali quand les éboueurs retrouveront tes restes Où, où, où est passée la police ? C'est tellement des ripoux, qu'on se fait soi-même justice Tu peux être flic et en même temps un bad boy Ici c'est le western, ici c'est Cocaïne Cowboys Pas besoin d'aller à Miami pour voir Des flics qui s'la racontent, abus d'pouvoir Je compte teinter les vitres de ma caisse Au volant, victime, contrôle, délit d'faciès Où, où, où est passée la police ? C'est tellement des ripoux, qu'on se fait soi-même justice Tu peux être flic et en même temps un bad boy Ici c'est le western, ici c'est Cocaïne Cowboys Whoo, whoo, whoo, whoo, whoo</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Chiguili check Guiziouzou, si si coucou Zone sensible, jusqu'à l'infini C'est comme ça qu'on fait les choses bébé Ouzou, dites-moi qu'est-ce qu'on fait les frères Il caille sa mère, il fait pas beau, voilà le réveil d'un mec de tess Une bière ou deux, un peu de bédo, et je vais dehors gratter ma pièce Ça c'est ma vie gros, mais c'est aussi celle de tes gars Une daronne qui se casse le dos, un grand frère qu'essaye de décalle Et y'a 23 potes au chtar qui l'ont fermé quand faut se taire Pour des histoires de pochtar pendant que je suis sur des posters Rien à foutre du costard, on veut rouler en cos-mer On veut quitter ce cauchemar, avec le ventre et les poches pleines C'est pour mes DZs, mes maliens, mes tounsis, mes ivoiriens, mes congolais qui partagent nos soucis C'est pour mes galsens, mes gwadas, mes madininas, pour tous les gens diminués, qui meurent dans l'anonymat À mes babtous qui partagent quand c'est pas du cochon À tous mes potes qui mangent kasher, qui prennent le dessert à Fauchon À ma putain d'Ville, -neuve-La-Garenne, Valenton, les immeubles, la galère Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? You might also like J'ai l'caractère de grand-père et le regard de mamie Le jour des attentats mon frère, qu'on a pleuré pour nos mamans On y a laissé des amis, que Dieu les garde amine Ou amen t'façon c'est pareil quand le drame arrive J'ai vu la mort embrasser ma sur, lui dire je t'aime et l'emmener loin de moi Me demande pas pourquoi j'ai b'soin de boire La mère d'ton pote s'réveille à 5h pour le linge mais Il dort chez toi parce qu'elle est tombée sur son tarpé Et rien qu'on a des idées tordues Et depuis l'CP, CM1 nous on est tartés Et ça fait bien longtemps que je ne dort plus J'les revois traiter mon frère de sale attardé Même si tes potes te lâchent, faut garder les crocs tenaces Regarde-moi aujourd'hui j'fais plus de sous que mon prof de maths J'aurais pu finir en épave, c'est pas en regardant l'caniveau qu'on atteint les étoiles Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? J'ai le cur tellement noir, je ne sais plus quand j'ai mal Je sais pas si elle m'aime ou si elle est vénale La ce-Fran nous rend bête, on en perd les pédales Tu t'rappelles des épines, elle s'rappelle des pétales J'ai le cur tellement noir, je ne sais plus quand j'ai mal Je sais pas si elle m'aime ou si elle est vénale La ce-Fran nous rend bête, on en perd les pédales Tu t'rappelles des épines, elle s'rappelle des pétales On est ensemble hein On est ensemble ouais On est ensemble ou pas ? On est ensemble ouais On est ensemble hein On est ensemble ouais On est ensemble ou pas ? On est ensemble ouais Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Yonea-Willy, Willy-Yonea jusqu'à l'infini Guiziouzou bang C'est comme ça qu'j'fais les choses Comment on fait les frères ?</t>
+          <t>Chiguili check Guiziouzou, si si coucou Zone sensible, jusqu'à l'infini C'est comme ça qu'on fait les choses bébé Ouzou, dites-moi qu'est-ce qu'on fait les frères Il caille sa mère, il fait pas beau, voilà le réveil d'un mec de tess Une bière ou deux, un peu de bédo, et je vais dehors gratter ma pièce Ça c'est ma vie gros, mais c'est aussi celle de tes gars Une daronne qui se casse le dos, un grand frère qu'essaye de décalle Et y'a 23 potes au chtar qui l'ont fermé quand faut se taire Pour des histoires de pochtar pendant que je suis sur des posters Rien à foutre du costard, on veut rouler en cos-mer On veut quitter ce cauchemar, avec le ventre et les poches pleines C'est pour mes DZs, mes maliens, mes tounsis, mes ivoiriens, mes congolais qui partagent nos soucis C'est pour mes galsens, mes gwadas, mes madininas, pour tous les gens diminués, qui meurent dans l'anonymat À mes babtous qui partagent quand c'est pas du cochon À tous mes potes qui mangent kasher, qui prennent le dessert à Fauchon À ma putain d'Ville, -neuve-La-Garenne, Valenton, les immeubles, la galère Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? J'ai l'caractère de grand-père et le regard de mamie Le jour des attentats mon frère, qu'on a pleuré pour nos mamans On y a laissé des amis, que Dieu les garde amine Ou amen t'façon c'est pareil quand le drame arrive J'ai vu la mort embrasser ma sur, lui dire je t'aime et l'emmener loin de moi Me demande pas pourquoi j'ai b'soin de boire La mère d'ton pote s'réveille à 5h pour le linge mais Il dort chez toi parce qu'elle est tombée sur son tarpé Et rien qu'on a des idées tordues Et depuis l'CP, CM1 nous on est tartés Et ça fait bien longtemps que je ne dort plus J'les revois traiter mon frère de sale attardé Même si tes potes te lâchent, faut garder les crocs tenaces Regarde-moi aujourd'hui j'fais plus de sous que mon prof de maths J'aurais pu finir en épave, c'est pas en regardant l'caniveau qu'on atteint les étoiles Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? J'ai le cur tellement noir, je ne sais plus quand j'ai mal Je sais pas si elle m'aime ou si elle est vénale La ce-Fran nous rend bête, on en perd les pédales Tu t'rappelles des épines, elle s'rappelle des pétales J'ai le cur tellement noir, je ne sais plus quand j'ai mal Je sais pas si elle m'aime ou si elle est vénale La ce-Fran nous rend bête, on en perd les pédales Tu t'rappelles des épines, elle s'rappelle des pétales On est ensemble hein On est ensemble ouais On est ensemble ou pas ? On est ensemble ouais On est ensemble hein On est ensemble ouais On est ensemble ou pas ? On est ensemble ouais Toujours un truc chelou, un accident, un frère mort sur le coup Des bâtiments et pas d'issue d'secours Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Alors dites-moi qu'est-ce qu'on va faire les frères, hein ? Alors dites-moi qu'est-ce qu'on va faire les surs ? Yonea-Willy, Willy-Yonea jusqu'à l'infini Guiziouzou bang C'est comme ça qu'j'fais les choses Comment on fait les frères ?</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ils veulent coller des étiquettes à nos vies Mais ils savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Rappeur talentueux avec des problèmes de fric Envie de pendre mon banquier, shooter une douzaine de shmits Et quand la bouteille se vide, que les yeux deviennent vitreux Odeur de pisse dans le métro, on vagabonde même quand il pleut Ah, les nerfs à vif, qu'est-ce qu'on va dire à nos tits-pe ? Ils ont d'jà vu les grand taper, les balances crier sauve qui peut Ah, regarde nous fumer la douce et cacher nos faiblesses Un homme ment à sa femme quand il promet le mariage à sa maitresse Tout le monde se ballade, des barratins et des salades On dirait une bande de salopes qui va michtonner sur Paname Alors, viens pas me raconter ta vie Du genre, j'ai fait un feat avec j'sais pas qui T'façon j'm'en bats la bite, point You might also like Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser J'veux plus connaître l'échec, ou bien tous ces chocs Reçus à la tête à cause d'un beau-père qui connaît pas les claques Souvent j'repense à ces moments en tirant sur ma clope Et puis j'ai besoin de les oublier, alors j'me roule un pét' Dans nos quartiers, on a cassé les réverbères Ils ont promis de les réparer, mais ça c'était l'année dernière Bah ouais, on compte sur nous-même, le sourire aux lèvres On oublie nos peines En plein naufrage on dira tout baigne Ne pas se plaindre, c'est une régle qu'on nous a apprise De la colère dans nos proses, des fois faudrait qu'on se maîtrise Mais le 9.2 c'est pas L.A Y'a la crise mais pas la mer Et puis comme dirait Mokless On fume le shit pas trop la 'zer Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Oh Yonea Willy, Willy Yonea Ils me disent qu'ils préfèrent danser Guizi Ouzou Ziguidi check, Biguidi bang, 9.2 Ils me disent qu'ils préfèrent danser Danser, danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser</t>
+          <t>Ils veulent coller des étiquettes à nos vies Mais ils savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Rappeur talentueux avec des problèmes de fric Envie de pendre mon banquier, shooter une douzaine de shmits Et quand la bouteille se vide, que les yeux deviennent vitreux Odeur de pisse dans le métro, on vagabonde même quand il pleut Ah, les nerfs à vif, qu'est-ce qu'on va dire à nos tits-pe ? Ils ont d'jà vu les grand taper, les balances crier sauve qui peut Ah, regarde nous fumer la douce et cacher nos faiblesses Un homme ment à sa femme quand il promet le mariage à sa maitresse Tout le monde se ballade, des barratins et des salades On dirait une bande de salopes qui va michtonner sur Paname Alors, viens pas me raconter ta vie Du genre, j'ai fait un feat avec j'sais pas qui T'façon j'm'en bats la bite, point Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser J'veux plus connaître l'échec, ou bien tous ces chocs Reçus à la tête à cause d'un beau-père qui connaît pas les claques Souvent j'repense à ces moments en tirant sur ma clope Et puis j'ai besoin de les oublier, alors j'me roule un pét' Dans nos quartiers, on a cassé les réverbères Ils ont promis de les réparer, mais ça c'était l'année dernière Bah ouais, on compte sur nous-même, le sourire aux lèvres On oublie nos peines En plein naufrage on dira tout baigne Ne pas se plaindre, c'est une régle qu'on nous a apprise De la colère dans nos proses, des fois faudrait qu'on se maîtrise Mais le 9.2 c'est pas L.A Y'a la crise mais pas la mer Et puis comme dirait Mokless On fume le shit pas trop la 'zer Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Danser, danser Ils me disent qu'ils préfèrent danser Oh Yonea Willy, Willy Yonea Ils me disent qu'ils préfèrent danser Guizi Ouzou Ziguidi check, Biguidi bang, 9.2 Ils me disent qu'ils préfèrent danser Danser, danser, danser Ils me disent qu'ils préfèrent danser Ils veulent coller des étiquettes à nos vies Mais ils ne savent pas que ça ne fait que de commencer Ils veulent pas me voir chanter nos vies Ils me disent qu'ils préfèrent danser</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>J'suis toujours dans ma bulle, ouais j'suis toujours dans l'abus Nique l'atterrissage, igo, moi j'attends la chute J'suis toujours dans ma bulle et j'suis toujours dans l'abus Fuck l'atterrissage, igo, moi j'attends la chute J'suis pas bizzare, j'suis parano,c'est la rue qui m'a parrainé Il me faut mes Heineken et mon dix balles, jusqu'à six heures ça va traîner J'serais encore dans la mêlée, à me demander, qu'est-ce que j'fous là ? Y caille sa mère, mais nique sa mère, quand y'a les stup' y'a la moula Mais t'es qui ? Tu m'appelles khouya J'te jure qu'on te coupe un doigt, si tu payes pas ce que tu dois Et tant pis pour les lois, c'est sans permis que j'l'ai loué Macron voulait ma voix et j'l'ai envoyé se faire fourrer fils de pute Merde, ma cité craque au bord de la fracture Quand y'a 15 ans de placard dans le coffre de la voiture Frérot, on veut la Benz et l'habit Moi j'ai le glock dans le jean et la dope vient de Lima Moi j'vends des sapes, j'parle chinois J'paye en cash, pas de chichi, j'ai ma femme planquée chez moi C'est une bombe, c'est un missile Un peu de taule et des décès, j'suis pas remis de l'affaire non Et j'ai tisé pour faire le deuil, j'ai tout vomi par terre Alors on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché Trafic de stupéfiants, vol à l'arrachée Ouais, on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché On a grandi dehors et on s'est schlassé, ouais You might also like J'suis toujours dans ma bulle, ouais j'suis toujours dans l'abus Nique l'atterrissage, igo, moi j'attends la chute J'suis toujours dans ma bulle et j'suis toujours dans l'abus Fuck l'atterrissage, igo, moi j'attends la chute J'fais tous mes trucs en sous-marin Et j'ai du pilon sous ma raie Six heures du mat' ils viennent péter les Diakité, les Soumaré Deux jours avant ils ont pété les Belkacem et les Cohen Youpi, y'a des youpins qu'ont du roro et les poches pleines Rien que j'travaille et j'me demande J'ai fait des sous pour qui ? Les Yakuza m'ont financé le dernier Suzuki J'y vais direct, on s'en tape de la tirette Que du cash dans ce rap, c'est le bâtiment 9 millimètres J'suis désolé pour mon label et pour ma maison de disque Mais j'suis Guizmo, j'm'en bats les reins J'ai jamais fait ce qu'on me dit C'était une pute, bah j'ai maqué la rue Y'avait du pilon et du crack, ça m'a marqué à vie Que des bâtiments et des caves, ça m'a gâché la vue Et si j'te montrais mon vrai jour, tu croirais que c'est la nuit Que des bâtiments et des caves, ça m'a gâché la vue Et si j'te montrais mon vrai jour, tu croirais que c'est la nuit Alors on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché Trafic de stupéfiants, vol à l'arrachée Ouais, on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché On a grandi dehors et on s'est schlassé, ouais</t>
+          <t>J'suis toujours dans ma bulle, ouais j'suis toujours dans l'abus Nique l'atterrissage, igo, moi j'attends la chute J'suis toujours dans ma bulle et j'suis toujours dans l'abus Fuck l'atterrissage, igo, moi j'attends la chute J'suis pas bizzare, j'suis parano,c'est la rue qui m'a parrainé Il me faut mes Heineken et mon dix balles, jusqu'à six heures ça va traîner J'serais encore dans la mêlée, à me demander, qu'est-ce que j'fous là ? Y caille sa mère, mais nique sa mère, quand y'a les stup' y'a la moula Mais t'es qui ? Tu m'appelles khouya J'te jure qu'on te coupe un doigt, si tu payes pas ce que tu dois Et tant pis pour les lois, c'est sans permis que j'l'ai loué Macron voulait ma voix et j'l'ai envoyé se faire fourrer fils de pute Merde, ma cité craque au bord de la fracture Quand y'a 15 ans de placard dans le coffre de la voiture Frérot, on veut la Benz et l'habit Moi j'ai le glock dans le jean et la dope vient de Lima Moi j'vends des sapes, j'parle chinois J'paye en cash, pas de chichi, j'ai ma femme planquée chez moi C'est une bombe, c'est un missile Un peu de taule et des décès, j'suis pas remis de l'affaire non Et j'ai tisé pour faire le deuil, j'ai tout vomi par terre Alors on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché Trafic de stupéfiants, vol à l'arrachée Ouais, on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché On a grandi dehors et on s'est schlassé, ouais J'suis toujours dans ma bulle, ouais j'suis toujours dans l'abus Nique l'atterrissage, igo, moi j'attends la chute J'suis toujours dans ma bulle et j'suis toujours dans l'abus Fuck l'atterrissage, igo, moi j'attends la chute J'fais tous mes trucs en sous-marin Et j'ai du pilon sous ma raie Six heures du mat' ils viennent péter les Diakité, les Soumaré Deux jours avant ils ont pété les Belkacem et les Cohen Youpi, y'a des youpins qu'ont du roro et les poches pleines Rien que j'travaille et j'me demande J'ai fait des sous pour qui ? Les Yakuza m'ont financé le dernier Suzuki J'y vais direct, on s'en tape de la tirette Que du cash dans ce rap, c'est le bâtiment 9 millimètres J'suis désolé pour mon label et pour ma maison de disque Mais j'suis Guizmo, j'm'en bats les reins J'ai jamais fait ce qu'on me dit C'était une pute, bah j'ai maqué la rue Y'avait du pilon et du crack, ça m'a marqué à vie Que des bâtiments et des caves, ça m'a gâché la vue Et si j'te montrais mon vrai jour, tu croirais que c'est la nuit Que des bâtiments et des caves, ça m'a gâché la vue Et si j'te montrais mon vrai jour, tu croirais que c'est la nuit Alors on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché Trafic de stupéfiants, vol à l'arrachée Ouais, on sort les machins Couteau, pistolet, tout ce qui vient On a grandi dehors et on est fâché On a grandi dehors et on s'est schlassé, ouais</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>J'démarre la journée sur un spliff gé-char Le fric, les schmitts ça tire avec des bites d'états Les petites m'affilent toujours en bas quand il se fais tard Ça kick, ça deale, y'a pas d'argent on vis de l'espoir Qu'est-ce tu vas mapprendre, tu connais pas ma bande Une descente un tête à tête on viens jamais les bras ballants J'fais des sous en travaillant personne peut que j'suis pas vaillant Vous allez venir en cavalier, repartir en cavalant J'vous avertie j'suis pas galant, j'arrive en bas j'suis mal garé Ramène un paquet d'Phillips, si y'en a pas prend Marlboro Enfoiré fais pas l'taré on peut t'faire un tas de bobo Et mon copain t'es mal barré si tu viens m'traiter d'alcoolo J'suis dans le binks, binks, binks, dans mon vrai, vrai tieks J'suis un animal qui s'ai faire de l'espèce Il a baisé un travelo, elle était belle cette mec J'ai déjà fais un feat avec le vrai Seth Gueks J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes Et dans ma tête c'est Kaboul, j'ai déjà fais des sous avec la cagoule On était cramé dans la bagnole, les keufs me disaient qu'j'étais maboule You might also like Seul dans la rue j'suis dans l'espace, je ne rêve que de l'espèce Pas de messe basse, j'suis toujours dans une belle caisse Seul dans la rue j'suis dans l'espace, je ne rêve que de l'espèce Pas de messe basse, j'suis toujours dans une belle caisse Nique l'humour de Laurent Gérard, gros batard Si j'reprends la bicrave, j'ouvre un four mon frère le gérant Y'a trop d'truc qui sont passé que j'peux pas digérer J'suis très souvent incompris parce que j'suis différent Monsieur Lamine Diakité, on va vous déférer J'sors du dépôt sans lacé ma mère est en furie J'ai plus envie d'me prendre la tête avec vos plan foireux J'vais t'balafrer ton il et voila Nick Fury Et puis moi j'suis trop caillera, j'suis pas dans vos soirée J'me suis roulé un gros pétard j'ai perdu la sourie Wari Jane et fais ça dans les délais Il faut pas m'forcer à commettre un délit Y'en a pleins qui traîne avec moi par intérêt Poto tu m'as pris pour qui, t'es dans un délire Nos trains de vie gros c'est dramatique J'roule ma beuh direction Jamaïque J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes Et dans ma tête c'est Kaboul, j'ai déjà fais des sous avec la cagoule On était cramé dans la bagnole, les keufs me disaient qu'j'étais maboule Guiziouzou zbangueul Y'en a marre, vous rappez comme d'la merde Pour ma fusée faut qu'j'décolle Vous savez même pas écrire, retournez à l'école YW</t>
+          <t>J'démarre la journée sur un spliff gé-char Le fric, les schmitts ça tire avec des bites d'états Les petites m'affilent toujours en bas quand il se fais tard Ça kick, ça deale, y'a pas d'argent on vis de l'espoir Qu'est-ce tu vas mapprendre, tu connais pas ma bande Une descente un tête à tête on viens jamais les bras ballants J'fais des sous en travaillant personne peut que j'suis pas vaillant Vous allez venir en cavalier, repartir en cavalant J'vous avertie j'suis pas galant, j'arrive en bas j'suis mal garé Ramène un paquet d'Phillips, si y'en a pas prend Marlboro Enfoiré fais pas l'taré on peut t'faire un tas de bobo Et mon copain t'es mal barré si tu viens m'traiter d'alcoolo J'suis dans le binks, binks, binks, dans mon vrai, vrai tieks J'suis un animal qui s'ai faire de l'espèce Il a baisé un travelo, elle était belle cette mec J'ai déjà fais un feat avec le vrai Seth Gueks J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes Et dans ma tête c'est Kaboul, j'ai déjà fais des sous avec la cagoule On était cramé dans la bagnole, les keufs me disaient qu'j'étais maboule Seul dans la rue j'suis dans l'espace, je ne rêve que de l'espèce Pas de messe basse, j'suis toujours dans une belle caisse Seul dans la rue j'suis dans l'espace, je ne rêve que de l'espèce Pas de messe basse, j'suis toujours dans une belle caisse Nique l'humour de Laurent Gérard, gros batard Si j'reprends la bicrave, j'ouvre un four mon frère le gérant Y'a trop d'truc qui sont passé que j'peux pas digérer J'suis très souvent incompris parce que j'suis différent Monsieur Lamine Diakité, on va vous déférer J'sors du dépôt sans lacé ma mère est en furie J'ai plus envie d'me prendre la tête avec vos plan foireux J'vais t'balafrer ton il et voila Nick Fury Et puis moi j'suis trop caillera, j'suis pas dans vos soirée J'me suis roulé un gros pétard j'ai perdu la sourie Wari Jane et fais ça dans les délais Il faut pas m'forcer à commettre un délit Y'en a pleins qui traîne avec moi par intérêt Poto tu m'as pris pour qui, t'es dans un délire Nos trains de vie gros c'est dramatique J'roule ma beuh direction Jamaïque J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes J'roule mon joint j'suis dans l'espace J'leur ai vendu des trucs ils ont fais des spasmes Et dans ma tête c'est Kaboul, j'ai déjà fais des sous avec la cagoule On était cramé dans la bagnole, les keufs me disaient qu'j'étais maboule Guiziouzou zbangueul Y'en a marre, vous rappez comme d'la merde Pour ma fusée faut qu'j'décolle Vous savez même pas écrire, retournez à l'école YW</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ouzou Guizi, Ouzou Yonea Willy Willy Yonea Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella J'viens prendre le monopole CocaCola Leur danse est monocorde, ils font du copié-coller J'aime ton boule, tes formes mais faut pas s'affoler Chambre de tel-hô, aller-retour, en deux terrains, t'façon tu connais Gremlins, Guizmettes, Guizmettes Six bières en vitesse dans la rée-soi, et oui elles tisent Mets une belle veste, on part en virée Toutes les gazelles seront bien habillées Boules à facettes pour pas s'ennuyer Prend une bouteille, t'inquiètes c'est payé Ramène l'équipe, le beat est plié On vient pour gagner, s'en fout d'essayer Yonea Willy, les sapes sont stylées Site officiel, vient donc cliquer Whisky, Coca Zéro Blanc à barbe, Trocadéro You might also like Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Bouge la tête, pousse le son Fout la merde, pousse la fonte Une ligne de cess, sans façon On a une barrette dans le caleçon XX XX fait comme ça XXX Vide la teille de vodka ALMXXXX Tu veux tirer une taffe de weed tinquiète, il y a XXXXX Cayene de XXX Despo Mokless, certifié parigo Quoi tu me tapes, t'as moins de buzz que mon backeur Lascars L2C, Yonea Willy On avance, on a pas peur Depuis les scènes et les battles Habitué a mettre des claques Moi c'est le corps dÉlie Semoun avec la tête de 2Pac Performant depuis que j'ai débarqué Me parle pas de ton dico En concert on fout la merde, ça lève des bras, l'champagne et le bigo Mother fucker Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella J'ai fait lancer ce truc, j'étais encore imberbe 6 ans plus tard viens me tcheck, le bordel est impec Mes guizmettes sont dans le zoo, mes guizmettes sont dans le zoo Mes gremlin's sont dans le zoo, mes gremlin's sont dans le zoo C'est pour le 80 Ze-dou, et les quatre coins de la France Pendant qu'ils sont dans le trou, on a trois tours d'avance Ouais j'me la pète vieux Avec des diamants sur ma montre là j'pourrais te dire que le temps est précieux Ouais c'est la merde vieux, pour le coup de trop Le zoo le chaud, pas pour de faux, tu te prend une PM2 Un conseil fous un treillis sur ton ombre Madagascar, Sénégal et tous les pays du monde Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella4</t>
+          <t>Ouzou Guizi, Ouzou Yonea Willy Willy Yonea Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella J'viens prendre le monopole CocaCola Leur danse est monocorde, ils font du copié-coller J'aime ton boule, tes formes mais faut pas s'affoler Chambre de tel-hô, aller-retour, en deux terrains, t'façon tu connais Gremlins, Guizmettes, Guizmettes Six bières en vitesse dans la rée-soi, et oui elles tisent Mets une belle veste, on part en virée Toutes les gazelles seront bien habillées Boules à facettes pour pas s'ennuyer Prend une bouteille, t'inquiètes c'est payé Ramène l'équipe, le beat est plié On vient pour gagner, s'en fout d'essayer Yonea Willy, les sapes sont stylées Site officiel, vient donc cliquer Whisky, Coca Zéro Blanc à barbe, Trocadéro Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Bouge la tête, pousse le son Fout la merde, pousse la fonte Une ligne de cess, sans façon On a une barrette dans le caleçon XX XX fait comme ça XXX Vide la teille de vodka ALMXXXX Tu veux tirer une taffe de weed tinquiète, il y a XXXXX Cayene de XXX Despo Mokless, certifié parigo Quoi tu me tapes, t'as moins de buzz que mon backeur Lascars L2C, Yonea Willy On avance, on a pas peur Depuis les scènes et les battles Habitué a mettre des claques Moi c'est le corps dÉlie Semoun avec la tête de 2Pac Performant depuis que j'ai débarqué Me parle pas de ton dico En concert on fout la merde, ça lève des bras, l'champagne et le bigo Mother fucker Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella J'ai fait lancer ce truc, j'étais encore imberbe 6 ans plus tard viens me tcheck, le bordel est impec Mes guizmettes sont dans le zoo, mes guizmettes sont dans le zoo Mes gremlin's sont dans le zoo, mes gremlin's sont dans le zoo C'est pour le 80 Ze-dou, et les quatre coins de la France Pendant qu'ils sont dans le trou, on a trois tours d'avance Ouais j'me la pète vieux Avec des diamants sur ma montre là j'pourrais te dire que le temps est précieux Ouais c'est la merde vieux, pour le coup de trop Le zoo le chaud, pas pour de faux, tu te prend une PM2 Un conseil fous un treillis sur ton ombre Madagascar, Sénégal et tous les pays du monde Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella Mes guizmettes sont dans le zoo, mes gremlin's sont dans le zoo On arrive de l'en dessous et on fout le hella4</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sans aucune ambiguité, j'vais t'passer l'envie d'frimer Deen Bigo, Swift Guizmo tu nous vois en ville chiller Dealer des antiquités, planqués dans des disquaires J'chine des miss fraiches tard le soir sans tminiker Si y a l'équipe et d'la fraiche dans les poches de mon jean J'pars en studio, balance une dose pour tous les blocs que l'on vise Rappe quand la prod sonne yankee, tape comme en faisant des ??? Pourra crever comme Big pun, big-up tous les potes en banquise La vie de rue me blesse, mais j'vais pas claquer des seufs Vous allez m'ramener des keufs si des fils de pute me testent La tise ???? j'arrive je tue le dièse Nan ta clique n'a plus d'repère et Marine me suce le sexe Et j'me bute le cervelet vu qu'je sais, que les stup' me guettent J'vendais du schit et ils m'ont vu de près Ils ont voulu qu'je perde, j'ai saisi ça il m'faut bagarres Les vrais qui savent les traitent de bâtards J'débarque avec le mauvais il comme Alex d'Orange Mécanique Des rimes déballent un cercueil encaissent les offrandes métalliques Rictus de gentil garçon mais j'ai d'la violence en moi Pillave les fruits d'la passion ouais j'ai d'la romance dans l'foie Freestyle avec Deen et Guizmo bouge L'air est gratuit donc j'ai un gros zen comme Iznogoud Fais pas l'grizzli au mic ta voix t'as trop ??? Un enfant d'cur qui pe-ra ça donne un ??? à curés You might also like Vu l'pourboire que j'ramène dur d'la mettre en veilleuse Leur pouvoir a d'la haine et d'la merde dans les yeuz Nerveuse, ma plume reste la même emmerdeuse Fidèle à moi-même elle harcèle sans faire l'buzz J'connais leurs dièses, les poulets ???? Obéisse contre eux ??? toutes ces promesse à t'nir Grotesque, une sale odeur garde à ??? Ben ça s'aggrave, dire que l'bonheur tarde à venir J'pète le beat en toute délicatesse Délit d'faciès regarde ma gueule de l'Est l'ami j'écris d'la braise Détruis à l'aise, en m'grattant les burnes ils finissent borgnes J'fais des burns, bim dans les dents, tire des lates j'suis dans les temps Entrave même pas c'que j'pénav, faut qu'j'arrête de bédave Voici les bas fonds en personne pur seum de soifard guérav C'est l'écrit, sous la crasse le sol est gris, l'usine Toujours hardcore et puis ça sent la mort car le porc est cuit Écorché vif, égorge les flics que j'me mette à table Tremble, ma voix trouble, j'trempe ma plume dans une chnek qui avale Attention mon flow s'abat sur toi j'ai pas des gentils dossiers Marre de la dépression et de l'alcool qui m'remplit l'gosier J'ai préféré l'pe-ra parce que la France s'est senti violée Normal j'suis anti-faux c'est la chose qui m'donne envie d'cogner Viens voir en bas d'chez moi et tu verras des gens isolés La chance est saucissonnée, l'argent fait tant frissonner Fais péter la monnaie histoire d'être un peu ankylosé On prend des beats à l'ancienne et avec on tente d'innover L'inspi c'est comme ta femme quand t'as envie d'elle elle t'met des plans galères Le rap c'est pire qu'une fable remplie de faibles MC je plains ta mère J'arrive un brin amer, sans teint, jamais hautain, d'un air ancien, un flair de chien, j'adhère ça bien sur la caisse claire ça vient et j'emmerde Tous ces pédés j'veux les voir décédés y en a marre d'vos CD Ca sent la pétée dans le clan des fêlés quand je viens m'en mêler L'usine, tisez les gars, dites-le moi qui pourrait faire ça mieux J'viens pas viser le bras, j'tire dans le tas on vient faire des envieux</t>
+          <t>Sans aucune ambiguité, j'vais t'passer l'envie d'frimer Deen Bigo, Swift Guizmo tu nous vois en ville chiller Dealer des antiquités, planqués dans des disquaires J'chine des miss fraiches tard le soir sans tminiker Si y a l'équipe et d'la fraiche dans les poches de mon jean J'pars en studio, balance une dose pour tous les blocs que l'on vise Rappe quand la prod sonne yankee, tape comme en faisant des ??? Pourra crever comme Big pun, big-up tous les potes en banquise La vie de rue me blesse, mais j'vais pas claquer des seufs Vous allez m'ramener des keufs si des fils de pute me testent La tise ???? j'arrive je tue le dièse Nan ta clique n'a plus d'repère et Marine me suce le sexe Et j'me bute le cervelet vu qu'je sais, que les stup' me guettent J'vendais du schit et ils m'ont vu de près Ils ont voulu qu'je perde, j'ai saisi ça il m'faut bagarres Les vrais qui savent les traitent de bâtards J'débarque avec le mauvais il comme Alex d'Orange Mécanique Des rimes déballent un cercueil encaissent les offrandes métalliques Rictus de gentil garçon mais j'ai d'la violence en moi Pillave les fruits d'la passion ouais j'ai d'la romance dans l'foie Freestyle avec Deen et Guizmo bouge L'air est gratuit donc j'ai un gros zen comme Iznogoud Fais pas l'grizzli au mic ta voix t'as trop ??? Un enfant d'cur qui pe-ra ça donne un ??? à curés Vu l'pourboire que j'ramène dur d'la mettre en veilleuse Leur pouvoir a d'la haine et d'la merde dans les yeuz Nerveuse, ma plume reste la même emmerdeuse Fidèle à moi-même elle harcèle sans faire l'buzz J'connais leurs dièses, les poulets ???? Obéisse contre eux ??? toutes ces promesse à t'nir Grotesque, une sale odeur garde à ??? Ben ça s'aggrave, dire que l'bonheur tarde à venir J'pète le beat en toute délicatesse Délit d'faciès regarde ma gueule de l'Est l'ami j'écris d'la braise Détruis à l'aise, en m'grattant les burnes ils finissent borgnes J'fais des burns, bim dans les dents, tire des lates j'suis dans les temps Entrave même pas c'que j'pénav, faut qu'j'arrête de bédave Voici les bas fonds en personne pur seum de soifard guérav C'est l'écrit, sous la crasse le sol est gris, l'usine Toujours hardcore et puis ça sent la mort car le porc est cuit Écorché vif, égorge les flics que j'me mette à table Tremble, ma voix trouble, j'trempe ma plume dans une chnek qui avale Attention mon flow s'abat sur toi j'ai pas des gentils dossiers Marre de la dépression et de l'alcool qui m'remplit l'gosier J'ai préféré l'pe-ra parce que la France s'est senti violée Normal j'suis anti-faux c'est la chose qui m'donne envie d'cogner Viens voir en bas d'chez moi et tu verras des gens isolés La chance est saucissonnée, l'argent fait tant frissonner Fais péter la monnaie histoire d'être un peu ankylosé On prend des beats à l'ancienne et avec on tente d'innover L'inspi c'est comme ta femme quand t'as envie d'elle elle t'met des plans galères Le rap c'est pire qu'une fable remplie de faibles MC je plains ta mère J'arrive un brin amer, sans teint, jamais hautain, d'un air ancien, un flair de chien, j'adhère ça bien sur la caisse claire ça vient et j'emmerde Tous ces pédés j'veux les voir décédés y en a marre d'vos CD Ca sent la pétée dans le clan des fêlés quand je viens m'en mêler L'usine, tisez les gars, dites-le moi qui pourrait faire ça mieux J'viens pas viser le bras, j'tire dans le tas on vient faire des envieux</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>J'suis dérangé mais j'crois qu'il y'a plus rien à faire Yo Diguilicheck, zbiguilizbang, G.P.Gangster'z Guizi Ouzou Bye bye mes fistons Yonea Willy, Willy Yonea business Bye bye les biftons J'suis dérangé, je sais pas pourquoi J'ai vu le mur, j'ai foncé tout droit J'ai tout nié mais j'étais coupable J'allume un spliff et ça me soulage J'ai placé des papiers en Amérique Là bas je leurs ai dis qu'j'étais dans le rock Petit renard qui n'aime pas les flics Toujours du cannabis dans le froc T'as bien rigolé, c'était à mes frais Maintenant c'est fini négro j'veux mon fric Et ce bâtard il croit qu'il m'effraie Il sait pas qu'sur moi j'ai planqué mon truc Ohh ils sont stupéfiaient Ca vend la mort et ça s'tape ici La garde à vue ça fait plus d'effet 15 ou 16 ans y'a la calvitie You might also like Respecte moi où bien va niquer qui tu sait J'envoie des meufs donc fait belleck à qui tu gères Y'a des me-ar des munitions on fait pas genre J tallume ta mère pour mon papier et j'te dis chehh J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'ai deux trois salaires dans la poche pourtant j'recherche un Clio 2 Wallaye les gens t'portent lil, même pas l'prix d'un kilo d'beuh Regarde sur la table, j'ai posé mes couilles et mes billets Regarde dans la cave, j'ai planqué des douilles et un gilet Et j'traîne avec mes potes, ils sont en cavale ou bien grillés Mais j'm'en bat le couilles, ça fait déjà 15 ans d'amitié Posé dans ma caisse j'écoute David et Jonathan J'fume du shit et ça m'atteins mais bon ça va j'suis un batant Et si j'ai déjà pris tes patins et quand jt'appelle tu dis attend C'est qut'es la plus grande des catins j'vais devenir cru et être à cran Tellement de vices que tu connait pas J'suis défoncé dans le canapé J'suis défoncé dans le canapé J'suis dérangé on en parle plus tard J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'pardonne pas facilement t'avises pas de me trahir J'ai du mal à aimer je ne sais que haïr Si t'essayes de me baiser Si t'essayes de me salir Ton cur va s'arrêter et ton teint va pâlir J'dors plus la nuit ou je dors très mal J'ai pas réglé mes comptes avec le code pénal Encore une fiche, igo j'm'en fiche Dans v'la les comicos ils ont des portraits d'oim Et j'suis pas voyou mais j'peux t'en envoyer Ces gens là m'aiment beaucoup, font parti de mon noyau Combien d'fois dans la rue moi j'ai failli m'noyer Nan nan tous mes soldats me sont restés loyaux J'marche à Valenton comme en 96 Pour être despi on à pas besoin d'ces Pour t'faire un trou on à pas besoin d'aide On parle affaire au 187 J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'suis dérangé mais j'crois qu'il y'a plus rien à faire Tchikiditchek zbiguilizbang, 9446 Bye bye mes fistons VLD zou Bye bye les biftons 92 3.9.0 Villeneuve la Garenne Bès-bar tu connais l'boulevard</t>
+          <t>J'suis dérangé mais j'crois qu'il y'a plus rien à faire Yo Diguilicheck, zbiguilizbang, G.P.Gangster'z Guizi Ouzou Bye bye mes fistons Yonea Willy, Willy Yonea business Bye bye les biftons J'suis dérangé, je sais pas pourquoi J'ai vu le mur, j'ai foncé tout droit J'ai tout nié mais j'étais coupable J'allume un spliff et ça me soulage J'ai placé des papiers en Amérique Là bas je leurs ai dis qu'j'étais dans le rock Petit renard qui n'aime pas les flics Toujours du cannabis dans le froc T'as bien rigolé, c'était à mes frais Maintenant c'est fini négro j'veux mon fric Et ce bâtard il croit qu'il m'effraie Il sait pas qu'sur moi j'ai planqué mon truc Ohh ils sont stupéfiaient Ca vend la mort et ça s'tape ici La garde à vue ça fait plus d'effet 15 ou 16 ans y'a la calvitie Respecte moi où bien va niquer qui tu sait J'envoie des meufs donc fait belleck à qui tu gères Y'a des me-ar des munitions on fait pas genre J tallume ta mère pour mon papier et j'te dis chehh J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'ai deux trois salaires dans la poche pourtant j'recherche un Clio 2 Wallaye les gens t'portent lil, même pas l'prix d'un kilo d'beuh Regarde sur la table, j'ai posé mes couilles et mes billets Regarde dans la cave, j'ai planqué des douilles et un gilet Et j'traîne avec mes potes, ils sont en cavale ou bien grillés Mais j'm'en bat le couilles, ça fait déjà 15 ans d'amitié Posé dans ma caisse j'écoute David et Jonathan J'fume du shit et ça m'atteins mais bon ça va j'suis un batant Et si j'ai déjà pris tes patins et quand jt'appelle tu dis attend C'est qut'es la plus grande des catins j'vais devenir cru et être à cran Tellement de vices que tu connait pas J'suis défoncé dans le canapé J'suis défoncé dans le canapé J'suis dérangé on en parle plus tard J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'pardonne pas facilement t'avises pas de me trahir J'ai du mal à aimer je ne sais que haïr Si t'essayes de me baiser Si t'essayes de me salir Ton cur va s'arrêter et ton teint va pâlir J'dors plus la nuit ou je dors très mal J'ai pas réglé mes comptes avec le code pénal Encore une fiche, igo j'm'en fiche Dans v'la les comicos ils ont des portraits d'oim Et j'suis pas voyou mais j'peux t'en envoyer Ces gens là m'aiment beaucoup, font parti de mon noyau Combien d'fois dans la rue moi j'ai failli m'noyer Nan nan tous mes soldats me sont restés loyaux J'marche à Valenton comme en 96 Pour être despi on à pas besoin d'ces Pour t'faire un trou on à pas besoin d'aide On parle affaire au 187 J'suis dérangé mais j'crois qu'il y'a plus rien à faire J'suis dérangé parce que je n'ai plus rien à perdre Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'crois pas qu'j'suis béni, j'suis dérangé Bye bye mes fistons Bye bye ma chérie Bye bye les biftons J'suis dérangé Oh J'crois qu'jsuis dérangé, dérangé J'suis dérangé mais j'crois qu'il y'a plus rien à faire Tchikiditchek zbiguilizbang, 9446 Bye bye mes fistons VLD zou Bye bye les biftons 92 3.9.0 Villeneuve la Garenne Bès-bar tu connais l'boulevard</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Isma, Isma, Isma, Isma, Isma, Isma Han, mauvais départ, mauvais virage Que des cicatrices sur le visage Depuis l'adolescence j'ai tout niqué Ils ont dû m'emmener au village Et j'ai une armée de guerriers Qui s'est engouffré dans l'sillage Puis des fois on finit en prison À cause du deal ou du pillage Sa mère J'pense à des trucs, j'ai des frissons Et j'ai des larmes sur le visage Elle a refait ses nichons De quoi ? Ça peut masquer un tissage, ah, Sale pute Mauvais mélange, mauvais mariage Des trucs étranges, dans les bagages On était 30, dans la bagarre Dans la descente, tu suis Ragnar Qu'est-ce tu connais, de nos putains d'vie ? Tu connais quoi ? Fuck tant d'galères, à marcher sur un fil Il m'a mit des coups d'cross, mais il a plus d'un J'finit pas au post, gros j'ai plus 15 piges J'suis né avant la direction assisté Donc j'ai pris un mauvais tournant De quoi ? Des bagarres avec les kystées Des nuits à boire dans la tourmente Et la mort te prends tout Mais j'te jure que la vie, elle est gourmande Elle est là dans le tiercé, elle est la dans le binks' Si la mort on l'accueille, en lui souriant Et où est ma cons' ? Sur la tête de ma mère que j'suis furieux C'est où ? Elle m'raconte pas d'histoires, moi depuis p'tit je suis curieux Et on m'traitait d'sale noir, j'comprenais pas cette méchanceté Bâtard... 10 ans plus tard, donne ton argent fils de pute, je suis ganté You might also like C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers J'ai pas l'temps d't'écouter qu'tes fausses paroles j'les connais Ils sont douteux, j'ai pas tout découvert, où est passée mon aire ? Où sont passées mes vux ? Mêmes tes proches te trahissent, et mes proches me haïssent par manque de billets bleus Bande d'enfoirés Mais j'm'accroche à mon disque, et j'apprends sur les risques, j'apprends à être mieux qu'eux J'connais que mes , j'ai pas l'temps pour ces gens là Partir comme une légende à moi, j'ai finit placé dans l'passé moi Dit moi qui j'dois croire, j'ai parlé d'ma vie, mais ils veulent couler mon navire Essayer d'détruire mon avenir, j'ai pas l'temps pour eux, nan J'deviens parano quand j'vois ma vie en tournant, c'est troublant, frère J'ai perdu ma vie comme un passé, j'suis pas censé, c'est pas simple de vivre en plein hiver, ouais J'suis dans la ville comme un prince Pas d'principe comme quand j'vois les invités qui viennent manger Pas d'valeurs c'est mort, peu importe le contrat, le diable se cache juste derrière La chaleur d'ma femme m'apaise, m'adoucis dans ma peine, dans ma vie, comme guerrière Ah putain, Klem J'connais pas la douceur, j'suis levé à 12h J'enchaîne les bouteilles, j'ai même plus mal au veau-cer Le cur est épuisé, mes sentiments coffrées en prison J'voudrai bien re-vibré, essayer d'retrouver ma saison Où j'avais l'sourire de mes parents, non quand ils font semblant c'est pas bon Guiz, Klem C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers C'est pas comique, j'fume les pilons devant la police V'la les erreurs qu'on a commis J'fume le pollen, je m'atomise, ah la la Y a pas d'retours en arrière, t'as construit une carrière Mais tu prends aucune valeurs J'ai trop bu, j'vois en arrière, j'ai trop vu d'amis pas net Comprends si j'avance tout seul Bah ouais C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers</t>
+          <t>Isma, Isma, Isma, Isma, Isma, Isma Han, mauvais départ, mauvais virage Que des cicatrices sur le visage Depuis l'adolescence j'ai tout niqué Ils ont dû m'emmener au village Et j'ai une armée de guerriers Qui s'est engouffré dans l'sillage Puis des fois on finit en prison À cause du deal ou du pillage Sa mère J'pense à des trucs, j'ai des frissons Et j'ai des larmes sur le visage Elle a refait ses nichons De quoi ? Ça peut masquer un tissage, ah, Sale pute Mauvais mélange, mauvais mariage Des trucs étranges, dans les bagages On était 30, dans la bagarre Dans la descente, tu suis Ragnar Qu'est-ce tu connais, de nos putains d'vie ? Tu connais quoi ? Fuck tant d'galères, à marcher sur un fil Il m'a mit des coups d'cross, mais il a plus d'un J'finit pas au post, gros j'ai plus 15 piges J'suis né avant la direction assisté Donc j'ai pris un mauvais tournant De quoi ? Des bagarres avec les kystées Des nuits à boire dans la tourmente Et la mort te prends tout Mais j'te jure que la vie, elle est gourmande Elle est là dans le tiercé, elle est la dans le binks' Si la mort on l'accueille, en lui souriant Et où est ma cons' ? Sur la tête de ma mère que j'suis furieux C'est où ? Elle m'raconte pas d'histoires, moi depuis p'tit je suis curieux Et on m'traitait d'sale noir, j'comprenais pas cette méchanceté Bâtard... 10 ans plus tard, donne ton argent fils de pute, je suis ganté C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers J'ai pas l'temps d't'écouter qu'tes fausses paroles j'les connais Ils sont douteux, j'ai pas tout découvert, où est passée mon aire ? Où sont passées mes vux ? Mêmes tes proches te trahissent, et mes proches me haïssent par manque de billets bleus Bande d'enfoirés Mais j'm'accroche à mon disque, et j'apprends sur les risques, j'apprends à être mieux qu'eux J'connais que mes , j'ai pas l'temps pour ces gens là Partir comme une légende à moi, j'ai finit placé dans l'passé moi Dit moi qui j'dois croire, j'ai parlé d'ma vie, mais ils veulent couler mon navire Essayer d'détruire mon avenir, j'ai pas l'temps pour eux, nan J'deviens parano quand j'vois ma vie en tournant, c'est troublant, frère J'ai perdu ma vie comme un passé, j'suis pas censé, c'est pas simple de vivre en plein hiver, ouais J'suis dans la ville comme un prince Pas d'principe comme quand j'vois les invités qui viennent manger Pas d'valeurs c'est mort, peu importe le contrat, le diable se cache juste derrière La chaleur d'ma femme m'apaise, m'adoucis dans ma peine, dans ma vie, comme guerrière Ah putain, Klem J'connais pas la douceur, j'suis levé à 12h J'enchaîne les bouteilles, j'ai même plus mal au veau-cer Le cur est épuisé, mes sentiments coffrées en prison J'voudrai bien re-vibré, essayer d'retrouver ma saison Où j'avais l'sourire de mes parents, non quand ils font semblant c'est pas bon Guiz, Klem C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers C'est pas comique, j'fume les pilons devant la police V'la les erreurs qu'on a commis J'fume le pollen, je m'atomise, ah la la Y a pas d'retours en arrière, t'as construit une carrière Mais tu prends aucune valeurs J'ai trop bu, j'vois en arrière, j'ai trop vu d'amis pas net Comprends si j'avance tout seul Bah ouais C'est cassé dans le fond, donnez la vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs J'charbonne, comme un férailleur, j'suis vêt' d'lacoste à l'ancienne Pew C'est cassé dans le fond, donnez ma vie pour les gens qu'j'aime On m'a dit ça va tuer ta vie, j'vais les quand même J'ai survit, sans personne, j'réfléchit, j'me sens seul J'veux tracer vers ailleurs Dégoûté d'mon passé, putain j'suis écuré comme Marshall Mathers</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Le Renard YW Youpiyoup Toujours devant dans la bagarre, viens pas nous chercher on est malades viens Et puis nous raconte pas tes salades nan, enfants du tiers-monde et de Mada Vous venez à Nosy Be, et chez nous c'est pas si beau On a roulé les OCB, juste pour l'effet placebo oh nana Le monde il pue la pisse, ça m'a rendu lunatique Depuis petit j'ai vu la street ouais, j'ai eu mal et j'ai bu la tise Et le rnard il s'en bat les steaks ouais, il payra si t'envoies les chèques S'il y a la guerre on la fait je t'assure, on craint pas l'échec C'est nous les dits-ban, c'est eux les tapettes Dans le pe-ra j'me balade en claquettes En quelques secondes je suis rentré chez toi Et en une minute j'vais t'chourav la mallette J'veux des dolla dolla bill, marre de bicraver des kil' L'être humain est un chien et on s'croirait dans Boule Bill Et faut pas voler mes bill, ou chercher mon bénéfice Y'a eu des coups d'taser, l'ambiance était électrique J'suis l'esclave de sonne-per, je n's'rais jamais la bonne poire jamais Ma mère c'est une panthère, et mon père c'était fort man oh nana Paname, Île-de-France, moi j'suis connu dans le périmètre Pour les dealers, les intérimaires, jamais d'ma vie j'vendrais père et mère J'ai toujours grandi comme un bonhomme, coup d'pied dans la tête à la Boughanem J'parle en bambara j'parle en wolof, rrra-ta-ta-ta et j'vous dis salam You might also like J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? Ils ont pété un câble ils ont dit oui Moi j'suis resté normal et j'ai dit nan j'ai dit nan direct Ça va tartiner jusqu'à minuit ouais Je serais absent pour le dîner j's'rais pas là Et j'ai vendu avec les dits-ban ouais Parce que ma mère elle était ruinée L'esprit de mon père il est vivant Sénégal, Mali, Guinée Et j'suis dans l'tieks, j'fume la drogue, bat les couilles j'suis avec tous mes potes ouais J'ai d'la skunk, roule un blunt, rien à foutre on a tous les spots ouais Tire sur moi, bah j'tires sur toi, on s'en fout on a tous les glocks J'suis au States j'habite à Boston, là-bas j'leur ai dit que j'suis dans le rock J'ai pas eu le Bac et j'ai j'ai pas fait la fac J'ai vendu la beuh et j'ai vendu le crack J'ai investi mes sous et tu m'as fait un trou, espèce d'enfoiré tu vas manger des claques oh merde Elle m'a montré son tasaba, trois heures du mat' je l'ai tabassé J'ai séché la madrasa, et mon daron il m'a tabassé J'ai grandi avec des noirs, avec des arabes et des gitans Tous dans la même équipe ouais, et moi j'rentrais à la mi-temps Wesh les mecs ça va bien ou quoi ? Est-ce qu'il y a d'l'argent à ramasser ? y'a quoi là ? Et j'arrive le regard froid, parce que mon cur il est cadenassé J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'veux des dolla dolla bill, marre de bicraver des kil' L'être humain est un chien et on s'croirait dans Boule Bill Et faut pas voler mes bill, ou chercher mon bénéfice L'être humain est un chien et on s'croirait dans Boule Bill</t>
+          <t>Le Renard YW Youpiyoup Toujours devant dans la bagarre, viens pas nous chercher on est malades viens Et puis nous raconte pas tes salades nan, enfants du tiers-monde et de Mada Vous venez à Nosy Be, et chez nous c'est pas si beau On a roulé les OCB, juste pour l'effet placebo oh nana Le monde il pue la pisse, ça m'a rendu lunatique Depuis petit j'ai vu la street ouais, j'ai eu mal et j'ai bu la tise Et le rnard il s'en bat les steaks ouais, il payra si t'envoies les chèques S'il y a la guerre on la fait je t'assure, on craint pas l'échec C'est nous les dits-ban, c'est eux les tapettes Dans le pe-ra j'me balade en claquettes En quelques secondes je suis rentré chez toi Et en une minute j'vais t'chourav la mallette J'veux des dolla dolla bill, marre de bicraver des kil' L'être humain est un chien et on s'croirait dans Boule Bill Et faut pas voler mes bill, ou chercher mon bénéfice Y'a eu des coups d'taser, l'ambiance était électrique J'suis l'esclave de sonne-per, je n's'rais jamais la bonne poire jamais Ma mère c'est une panthère, et mon père c'était fort man oh nana Paname, Île-de-France, moi j'suis connu dans le périmètre Pour les dealers, les intérimaires, jamais d'ma vie j'vendrais père et mère J'ai toujours grandi comme un bonhomme, coup d'pied dans la tête à la Boughanem J'parle en bambara j'parle en wolof, rrra-ta-ta-ta et j'vous dis salam J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? Ils ont pété un câble ils ont dit oui Moi j'suis resté normal et j'ai dit nan j'ai dit nan direct Ça va tartiner jusqu'à minuit ouais Je serais absent pour le dîner j's'rais pas là Et j'ai vendu avec les dits-ban ouais Parce que ma mère elle était ruinée L'esprit de mon père il est vivant Sénégal, Mali, Guinée Et j'suis dans l'tieks, j'fume la drogue, bat les couilles j'suis avec tous mes potes ouais J'ai d'la skunk, roule un blunt, rien à foutre on a tous les spots ouais Tire sur moi, bah j'tires sur toi, on s'en fout on a tous les glocks J'suis au States j'habite à Boston, là-bas j'leur ai dit que j'suis dans le rock J'ai pas eu le Bac et j'ai j'ai pas fait la fac J'ai vendu la beuh et j'ai vendu le crack J'ai investi mes sous et tu m'as fait un trou, espèce d'enfoiré tu vas manger des claques oh merde Elle m'a montré son tasaba, trois heures du mat' je l'ai tabassé J'ai séché la madrasa, et mon daron il m'a tabassé J'ai grandi avec des noirs, avec des arabes et des gitans Tous dans la même équipe ouais, et moi j'rentrais à la mi-temps Wesh les mecs ça va bien ou quoi ? Est-ce qu'il y a d'l'argent à ramasser ? y'a quoi là ? Et j'arrive le regard froid, parce que mon cur il est cadenassé J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'suis dans l'tieks et j'vais m'en sortir m'en sortir J'n'arrive même plus à dormir j'n'arrive même plus à dormir Ring, ring, ring, ring Ring, ring, ring, ring Ring, ring, ring, ring Pourquoi ? J'veux des dolla dolla bill, marre de bicraver des kil' L'être humain est un chien et on s'croirait dans Boule Bill Et faut pas voler mes bill, ou chercher mon bénéfice L'être humain est un chien et on s'croirait dans Boule Bill</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Rien d'dramatique, rien d'trop démago' J'voulais juste en placer une à tous les étudiants là, euh, qui... Le gouvernement en ce moment, il casse les couilles, tous les mecs là qui sont en CDI, même vos parents, tout ça là, faut pas s'laisser faire cousin, ça va changer, pas b'soin d'citer d'noms, les gens ils l'savent Un gros doigt en l'air pour c'gouvernement d'fils de putes Tout le monde, déteste la police Tout le monde, déteste la police J'ai 25 ans et dans un an, j'peux leur demander l'RSA Elle veut plus donner d'CDI, elle a cru qu'bicrave j'aimais ça Putain, c'est quoi les bails mec, on tise le sky sec Et ouais ma belle, on taffe 6 mois, on t'prends tes ASDEC Casquettes, baskets, ouais, c'est la dégaine Parfois, on fait des el connerie, tout ça parce qu'on a des guns Bah ouais, on craint dégun, jusqu'à Marseille on t'emmerde Du 7-5 au ze-trei, tu sais que t'as r'connu lemblème Ok Mimi, t'es pas mimi On veut du taf' et l'milli mais tu t'en fous, tu veux nous voir trimer jusqu'à l'infinie C'est pour mes travailleurs, nique sa mère si elle passe la loi On prend du shit, un peu d'ke-co, heneni on passe la douane M'en fous du bling-bling, 9-4 c'est bim-bim C'est moi la neuvième bastos qu'a plombé Fifty Travailler plus, prendre le bus, pour une loi de fils de pute La sécurité de l'emploi n'existe plus Merde, on s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé han You might also like Chiguiricheck, mec, han J'en veux pas du minimum, nique sa mère à Myriam Ouais le Guiz' est filiforme mais il vise le milliard Ouais je vise le milliard, ouais je vise le milliard - Pour moi, y a pas de baisse de CDI et c'est le contrat qui est utilisé... - Le CDD, le CDD ne change pas ! - D'ailleurs, au niveau, au niveau... - D'ailleurs, c'est combien le CDD ? - Au niv... - On peut le renouveler combien de fois le CDD ? - Trois fois - Combien ? - Jusqu'à trois ans - Jusqu'à quoi ? Non mais combien madame El Khomri ? - Un CDD... - Trois fois ? Vous êtes certaine de ça ? Un CDD, combien ? - Un CDI peut être re... Un CDD peut être requalifié en C... Un CDD... Euh, pardon, un CDD... - Alors là, parce que je comprends plus - Un CDD peut être requalifié en CDI, quand justement, le cadre du recours au CDD n'a pas été... - Mais il peut être renouvelé combien de fois le CDD ? - Il peut être renouvelé plusieurs fois - Combien de fois ? Maximum ? - Je n'pourrais pas vous l'dire - Parce que vous ne le savez pas, deux fois ! Il peut être renouvelé deux fois ! Depuis... Savez-vous depuis quand ? Depuis le mois d'août dernier, qui est une mesure gouvernementale - Oui, c'est possible - De votre gouvernement, Myriam El Khomri - Oui - Bon, j'vous l'dis, franchement - J'ai dis trois fois et j'ai bien senti... - D'heures supplémentaires défiscalisées...</t>
+          <t>Rien d'dramatique, rien d'trop démago' J'voulais juste en placer une à tous les étudiants là, euh, qui... Le gouvernement en ce moment, il casse les couilles, tous les mecs là qui sont en CDI, même vos parents, tout ça là, faut pas s'laisser faire cousin, ça va changer, pas b'soin d'citer d'noms, les gens ils l'savent Un gros doigt en l'air pour c'gouvernement d'fils de putes Tout le monde, déteste la police Tout le monde, déteste la police J'ai 25 ans et dans un an, j'peux leur demander l'RSA Elle veut plus donner d'CDI, elle a cru qu'bicrave j'aimais ça Putain, c'est quoi les bails mec, on tise le sky sec Et ouais ma belle, on taffe 6 mois, on t'prends tes ASDEC Casquettes, baskets, ouais, c'est la dégaine Parfois, on fait des el connerie, tout ça parce qu'on a des guns Bah ouais, on craint dégun, jusqu'à Marseille on t'emmerde Du 7-5 au ze-trei, tu sais que t'as r'connu lemblème Ok Mimi, t'es pas mimi On veut du taf' et l'milli mais tu t'en fous, tu veux nous voir trimer jusqu'à l'infinie C'est pour mes travailleurs, nique sa mère si elle passe la loi On prend du shit, un peu d'ke-co, heneni on passe la douane M'en fous du bling-bling, 9-4 c'est bim-bim C'est moi la neuvième bastos qu'a plombé Fifty Travailler plus, prendre le bus, pour une loi de fils de pute La sécurité de l'emploi n'existe plus Merde, on s'est fait charcler, par une bande de tar-té J'arrive déter' dans la manif' avec mon tar-pé han Chiguiricheck, mec, han J'en veux pas du minimum, nique sa mère à Myriam Ouais le Guiz' est filiforme mais il vise le milliard Ouais je vise le milliard, ouais je vise le milliard - Pour moi, y a pas de baisse de CDI et c'est le contrat qui est utilisé... - Le CDD, le CDD ne change pas ! - D'ailleurs, au niveau, au niveau... - D'ailleurs, c'est combien le CDD ? - Au niv... - On peut le renouveler combien de fois le CDD ? - Trois fois - Combien ? - Jusqu'à trois ans - Jusqu'à quoi ? Non mais combien madame El Khomri ? - Un CDD... - Trois fois ? Vous êtes certaine de ça ? Un CDD, combien ? - Un CDI peut être re... Un CDD peut être requalifié en C... Un CDD... Euh, pardon, un CDD... - Alors là, parce que je comprends plus - Un CDD peut être requalifié en CDI, quand justement, le cadre du recours au CDD n'a pas été... - Mais il peut être renouvelé combien de fois le CDD ? - Il peut être renouvelé plusieurs fois - Combien de fois ? Maximum ? - Je n'pourrais pas vous l'dire - Parce que vous ne le savez pas, deux fois ! Il peut être renouvelé deux fois ! Depuis... Savez-vous depuis quand ? Depuis le mois d'août dernier, qui est une mesure gouvernementale - Oui, c'est possible - De votre gouvernement, Myriam El Khomri - Oui - Bon, j'vous l'dis, franchement - J'ai dis trois fois et j'ai bien senti... - D'heures supplémentaires défiscalisées...</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Yonea-Willy, Willy-Yonea business Guiziouzou bang Ziguili check Ouzouguizi coco sisi YW, zone sensible J'ai fait l'amour avec elle merde J'l'ai fait monter dans mon Scirocco j'l'ai fait monter, j'l'ai fait monter Elle était folle elle était belle elle était folle elle était belle Dom Perignon elle m'a fait siroter ouais, ouais Elle a trahi tous mes amis, m'a fait tirer sur mes ennemis Vendre le shit et puis la censi, hier je n'venais pas de l'élite Elle voulais pas du Zénith mais j'ai fini par y chanter À cause d'elle on m'recalait, j'suis Guizmo là laisse moi rentrer Et j'ai quitté tes travers, tes foyers et tes prisons Des fois tu me manques mais j'vois d'autres choses à l'horizon J'ai connu tes ascenseurs, tes halls tes cages d'escaliers Plus d'une fois j'ai failli caner, sur l'terrain même quand il caillait Elle s'est servi de moi, j'm'en battait les couilles des lois Et toutes ces batailles que j'gagne font remonter l'estime de moi Et j'ai menti à ma mère, j'ai fait le dur j'ai fait le mur À cause d'elle en cellule mais j'sais qu'la sortie c'est l'issue You might also like Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Moi je n'voulais que tes mapesa, m'acheter un peu de ppe-sa Mais pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le mois, ouais dis le moi Dis moi pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Je n'voulais que tes mapesa, m'acheter un peu de ppe-sa pourquoi? Elle m'a envoyé des traîtres elle m'a envoyé des traîtres Elle m'abandonne après l'adoption comment ça? Des gens qu'on a dû boxer Pour pas qu'ça devienne un boxon Et j'ai traîné comme un chien d'la casse j'ai zoné comme un chien Tu t'rends pas compte ça m'fait plus rien la crasse nan ça m'fait plus rien Ton matos est planqué dans la caisse ouais c'est dans la caisse Attends moi cinq minutes là j'arrive à la place j'arrive à la place Voilà c'qu'elle nous fait faire, tu nous trouves si tu nous che-cher Je sais c'que c'est d'manquer d'air, de m'demander quand j'vais cer-per Aaaah Tu nous as volé j't'en voudrais toute ma vie Tu m'as volé mon père j'ai vomi toute la nuit Elle est vulgaire, et elle s'en fout que tu d'viennes fou Ou dans un trou, ou dans ton zoo, t'façon elle nous tient par les sous Elle t'offrira pas l'ballon d'or, mais elle t'f'ra connaître le ballon J'ai dix-huit mois, j'suis dans un parloir, putain mais t'as pas honte ? Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Moi je n'voulais que tes mapesa, m'acheter un peu de ppe-sa Mais pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le mois, ouais dis le moi Dis moi pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Je n'voulais que tes mapesa, m'acheter un peu de ppe-sa pourquoi? Elle m'a fait boire, elle m'a fait fumer j'ai perdu la tête Elle m'a dit que j'irais mieux ça n'a pas marché Maman j'suis trop défoncé j'suis trop défoncé J'peux pas t'regarder dans les yeux excuse-moi J'ai encore traîné dans la tess avec mes copains qu't'aimes pas trop Toi tu t'réveilles à cinq heures, moi j'suis en bas et j'fais l'patron Mais je sors plus avec elle, maman j'te jure que c'est fini Elle a fait de moi Guizmo quand tu as fait de moi Guizi Tu m'as dit que j'l'avais cherché, tout ça parce qu'elle m'a bercé T'façon cette putain d'rue elle gagne toujours c'est comme le tiercé Tu m'as dit que j'l'avais cherché, tout ça parce qu'elle m'a bercé T'façon cette putain d'rue elle gagne toujours c'est comme au tiercé C'est fini Tes boîtes de nuit et tes Dom Per' Nique sa mère, c'est pas la rue à mon père Guiziouzou sisi coco Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Et pourquoi tu m'as fait ça? Et pourquoi tu m'as fait ça? eh, pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Pourquoi tu m'as fait ça? Et pourquoi?</t>
+          <t>Yonea-Willy, Willy-Yonea business Guiziouzou bang Ziguili check Ouzouguizi coco sisi YW, zone sensible J'ai fait l'amour avec elle merde J'l'ai fait monter dans mon Scirocco j'l'ai fait monter, j'l'ai fait monter Elle était folle elle était belle elle était folle elle était belle Dom Perignon elle m'a fait siroter ouais, ouais Elle a trahi tous mes amis, m'a fait tirer sur mes ennemis Vendre le shit et puis la censi, hier je n'venais pas de l'élite Elle voulais pas du Zénith mais j'ai fini par y chanter À cause d'elle on m'recalait, j'suis Guizmo là laisse moi rentrer Et j'ai quitté tes travers, tes foyers et tes prisons Des fois tu me manques mais j'vois d'autres choses à l'horizon J'ai connu tes ascenseurs, tes halls tes cages d'escaliers Plus d'une fois j'ai failli caner, sur l'terrain même quand il caillait Elle s'est servi de moi, j'm'en battait les couilles des lois Et toutes ces batailles que j'gagne font remonter l'estime de moi Et j'ai menti à ma mère, j'ai fait le dur j'ai fait le mur À cause d'elle en cellule mais j'sais qu'la sortie c'est l'issue Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Moi je n'voulais que tes mapesa, m'acheter un peu de ppe-sa Mais pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le mois, ouais dis le moi Dis moi pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Je n'voulais que tes mapesa, m'acheter un peu de ppe-sa pourquoi? Elle m'a envoyé des traîtres elle m'a envoyé des traîtres Elle m'abandonne après l'adoption comment ça? Des gens qu'on a dû boxer Pour pas qu'ça devienne un boxon Et j'ai traîné comme un chien d'la casse j'ai zoné comme un chien Tu t'rends pas compte ça m'fait plus rien la crasse nan ça m'fait plus rien Ton matos est planqué dans la caisse ouais c'est dans la caisse Attends moi cinq minutes là j'arrive à la place j'arrive à la place Voilà c'qu'elle nous fait faire, tu nous trouves si tu nous che-cher Je sais c'que c'est d'manquer d'air, de m'demander quand j'vais cer-per Aaaah Tu nous as volé j't'en voudrais toute ma vie Tu m'as volé mon père j'ai vomi toute la nuit Elle est vulgaire, et elle s'en fout que tu d'viennes fou Ou dans un trou, ou dans ton zoo, t'façon elle nous tient par les sous Elle t'offrira pas l'ballon d'or, mais elle t'f'ra connaître le ballon J'ai dix-huit mois, j'suis dans un parloir, putain mais t'as pas honte ? Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Moi je n'voulais que tes mapesa, m'acheter un peu de ppe-sa Mais pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le mois, ouais dis le moi Dis moi pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Je n'voulais que tes mapesa, m'acheter un peu de ppe-sa pourquoi? Elle m'a fait boire, elle m'a fait fumer j'ai perdu la tête Elle m'a dit que j'irais mieux ça n'a pas marché Maman j'suis trop défoncé j'suis trop défoncé J'peux pas t'regarder dans les yeux excuse-moi J'ai encore traîné dans la tess avec mes copains qu't'aimes pas trop Toi tu t'réveilles à cinq heures, moi j'suis en bas et j'fais l'patron Mais je sors plus avec elle, maman j'te jure que c'est fini Elle a fait de moi Guizmo quand tu as fait de moi Guizi Tu m'as dit que j'l'avais cherché, tout ça parce qu'elle m'a bercé T'façon cette putain d'rue elle gagne toujours c'est comme le tiercé Tu m'as dit que j'l'avais cherché, tout ça parce qu'elle m'a bercé T'façon cette putain d'rue elle gagne toujours c'est comme au tiercé C'est fini Tes boîtes de nuit et tes Dom Per' Nique sa mère, c'est pas la rue à mon père Guiziouzou sisi coco Et pourquoi tu m'as fait ça? mais pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis moi pourquoi tu m'as fait ça? Et pourquoi tu m'as fait ça? Et pourquoi tu m'as fait ça? eh, pourquoi tu m'as fait ça? Dis moi pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? dis le moi, ouais dis le moi Pourquoi tu m'as fait ça? pourquoi tu m'as fait ça? Pourquoi tu m'as fait ça? Et pourquoi?</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ya un verre qui sest cassé Un ferme ta gueule qui a suivi Mes nerfs mappellent, ma mère a peur Et je baisse ma feuille quand jai fini La porte a claqué quand jai gaffé Des idées noires comme le café taspe, tard elle mappelait me rabâcher que jétais pas près Merde jai tout gâché après quelques verres de taré Elle ne pouvait pas remplacer lamour celui qu jappelais père Susceptibl et fragile, elle souffrait en silence Loin de sa famille et ses amis Jai fait lenfoiré quand jy pense putain Prise de tête, crise de haine, crie de nerfs En pleine descente on veut rtemon Mais les démons qui reviennent mempêche de laimer comme je voudrais Les bons souvenirs me foudroient Je te jure que jétais fou delle, je te jure que je me sens coupable REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée You might also like Elle sest barrée du mépris dans le regard Tout part en vrille et tard en ville jte garantis que mes sales envies me ralentisse Jai pas le temps de rire ou mattendrir Jai fait du mal au ralenti Bédave sans vie parce que jai vu la haine dune femme Elle était décidée Des mensonges et des preuves elle a pas hésité Tout était vérifié Jai dévié et on doit se délier Quand a la chambre je ten parle pas cest un boxon Elle est tipar, je suis un trimard, un mec bizarre et un pochtron Et ouais je pensais qua ma gueule quand je lui ai giflé la sienne Et sans elle je me sens seul Même quand je fais kiffé ma chienne Jai pas calculé ses larmes quand jappréciais mes a cotes Ya plus ma femme ya que srabs quand jai une envie de papoter REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Jaimerais te demander de revenir mais ma fierté men empêche Ouais ma fierté men empêche, ouais ma fierté men empêche Jaimerais te demander de revenir mais ma fierté men empêche Ouais ma fierté men empêche, ouais ma fierté men empêche Ses copines lui chauffe le crane reviens pas cest quun enfoiré, cest quun salop, un alcoolique. Oublie le jour ou tu la croisais. Jai perdu mon acolyte A bout de bras elle tenait le foyer A force de faire légoïste mon couple je lai noyé Elle a dit non a ma folie quand elle na pas su me soigner Jai niqué ma love story Je nai plus que du noir a broyé Un verre cest cassé Jai crié avec rage Une gifle est partie Ouais elle est partie avec toi REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée putain elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrrée Ouais elle la fait elle sest barrée YW Yonea Willy Willy Yonea Zone sensible Guizi Ouzou Elle la fait et elle sest barrée</t>
+          <t>Ya un verre qui sest cassé Un ferme ta gueule qui a suivi Mes nerfs mappellent, ma mère a peur Et je baisse ma feuille quand jai fini La porte a claqué quand jai gaffé Des idées noires comme le café taspe, tard elle mappelait me rabâcher que jétais pas près Merde jai tout gâché après quelques verres de taré Elle ne pouvait pas remplacer lamour celui qu jappelais père Susceptibl et fragile, elle souffrait en silence Loin de sa famille et ses amis Jai fait lenfoiré quand jy pense putain Prise de tête, crise de haine, crie de nerfs En pleine descente on veut rtemon Mais les démons qui reviennent mempêche de laimer comme je voudrais Les bons souvenirs me foudroient Je te jure que jétais fou delle, je te jure que je me sens coupable REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle sest barrée du mépris dans le regard Tout part en vrille et tard en ville jte garantis que mes sales envies me ralentisse Jai pas le temps de rire ou mattendrir Jai fait du mal au ralenti Bédave sans vie parce que jai vu la haine dune femme Elle était décidée Des mensonges et des preuves elle a pas hésité Tout était vérifié Jai dévié et on doit se délier Quand a la chambre je ten parle pas cest un boxon Elle est tipar, je suis un trimard, un mec bizarre et un pochtron Et ouais je pensais qua ma gueule quand je lui ai giflé la sienne Et sans elle je me sens seul Même quand je fais kiffé ma chienne Jai pas calculé ses larmes quand jappréciais mes a cotes Ya plus ma femme ya que srabs quand jai une envie de papoter REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Jaimerais te demander de revenir mais ma fierté men empêche Ouais ma fierté men empêche, ouais ma fierté men empêche Jaimerais te demander de revenir mais ma fierté men empêche Ouais ma fierté men empêche, ouais ma fierté men empêche Ses copines lui chauffe le crane reviens pas cest quun enfoiré, cest quun salop, un alcoolique. Oublie le jour ou tu la croisais. Jai perdu mon acolyte A bout de bras elle tenait le foyer A force de faire légoïste mon couple je lai noyé Elle a dit non a ma folie quand elle na pas su me soigner Jai niqué ma love story Je nai plus que du noir a broyé Un verre cest cassé Jai crié avec rage Une gifle est partie Ouais elle est partie avec toi REFRAIN Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée putain elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrée Ouais elle la fait elle sest barrée Elle ma dit que jétais fou et quun jour je serais tout seul Que je manquerais de son amour, de sa fougue et de sa douceur Et elle la fait, elle sest barrrée Ouais elle la fait elle sest barrée YW Yonea Willy Willy Yonea Zone sensible Guizi Ouzou Elle la fait et elle sest barrée</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Oh, Ouh, ouh J'suis plus grillé que ma garette-ci, Guiz' et Maness, pas de ma-né-ci Crapuleux dans l'état d'esprit, nique ta mère et ton carré VIP ouais Pour mon papier, il faut pas qu'j'hésite non, j'fais des calculs à la Mac Lesggy ouh J'm'en bats les couilles de vos Assédic, j'suis défoncé mais j'suis pas débile jamais Qu'est-ce que tu vois dans mes yeux, gros ? Hein ? À part de la haine et des euros Hein ? À part de la peine, mon pote est à Fresnes pour les mes-ar et la gu-dro putain J'suis le gardien de mon frèr ouais, l'héritier de mon père ouais Je porterai le 9-4 et il portera Font-Vert Sur le périphérique, j'roule à fond la caisse fond la caisse Et j'm'en bats les couilles tout au fond d'la tess au fond d'la tess J'm'enfume j'm'enfume mais je m'ennuie mais je m'ennuie Je m'ennuie m'ennuie donc je m'enfume J'ai mis de la weed dans le calumet J'calcule pas ces bitches, j'fais partie des opprimés J'suis dans le bloc jusqu'à minuit, ouais ouais Jusqu'à minuit, ouais ouais Et quand la police casse la porte, lampe-torche allumée Mandat d'dépôt, gyro', dans le camion, écroué Et tu sais, y a très peu d'amis, ouais ouais Très peu d'amis, ouais ouais You might also like Vécu écorché, j'ai la boule au ventre quand j'entends au loin ces foutus gyro' En promenade, les balances, ça les plante parce que la langue, c'est l'plus grand des fardeaux La paire d'Zanotti, elle est en crocodile, j'vais m'faire tirer dessus par Brigitte Bardot J'ai touché une avance très intéressante, alors j'ai mis ma sur 200 kilos J'étais fucked up toute la journée, enfermé dans le bloc à dealer la came À surveiller le four comme l'huile sur le feu, à frapper les p'tits qui servent du Doliprane J'suis parti de rien, je titille la mort comme Jacques Mesrine face aux miradors Et j'crois bien qu'cette salope de 6ix9ine a donné plus de blases qu'Akinator Sur le périphérique, j'roule à fond la caisse fond la caisse Et j'm'en bats les couilles tout au fond d'la tess au fond d'la tess J'm'enfume j'm'enfume mais je m'ennuie mais je m'ennuie Je m'ennuie m'ennuie donc je m'enfume J'ai mis de la weed dans le calumet J'calcule pas ces bitches, j'fais partie des opprimés J'suis dans le bloc jusqu'à minuit, ouais ouais Jusqu'à minuit, ouais ouais Et quand la police casse la porte, lampe-torche allumée Mandat d'dépôt, gyro', dans le camion, écroué Et tu sais, y a très peu d'amis, ouais ouais Très peu d'amis, ouais ouais1</t>
+          <t>Oh, Ouh, ouh J'suis plus grillé que ma garette-ci, Guiz' et Maness, pas de ma-né-ci Crapuleux dans l'état d'esprit, nique ta mère et ton carré VIP ouais Pour mon papier, il faut pas qu'j'hésite non, j'fais des calculs à la Mac Lesggy ouh J'm'en bats les couilles de vos Assédic, j'suis défoncé mais j'suis pas débile jamais Qu'est-ce que tu vois dans mes yeux, gros ? Hein ? À part de la haine et des euros Hein ? À part de la peine, mon pote est à Fresnes pour les mes-ar et la gu-dro putain J'suis le gardien de mon frèr ouais, l'héritier de mon père ouais Je porterai le 9-4 et il portera Font-Vert Sur le périphérique, j'roule à fond la caisse fond la caisse Et j'm'en bats les couilles tout au fond d'la tess au fond d'la tess J'm'enfume j'm'enfume mais je m'ennuie mais je m'ennuie Je m'ennuie m'ennuie donc je m'enfume J'ai mis de la weed dans le calumet J'calcule pas ces bitches, j'fais partie des opprimés J'suis dans le bloc jusqu'à minuit, ouais ouais Jusqu'à minuit, ouais ouais Et quand la police casse la porte, lampe-torche allumée Mandat d'dépôt, gyro', dans le camion, écroué Et tu sais, y a très peu d'amis, ouais ouais Très peu d'amis, ouais ouais Vécu écorché, j'ai la boule au ventre quand j'entends au loin ces foutus gyro' En promenade, les balances, ça les plante parce que la langue, c'est l'plus grand des fardeaux La paire d'Zanotti, elle est en crocodile, j'vais m'faire tirer dessus par Brigitte Bardot J'ai touché une avance très intéressante, alors j'ai mis ma sur 200 kilos J'étais fucked up toute la journée, enfermé dans le bloc à dealer la came À surveiller le four comme l'huile sur le feu, à frapper les p'tits qui servent du Doliprane J'suis parti de rien, je titille la mort comme Jacques Mesrine face aux miradors Et j'crois bien qu'cette salope de 6ix9ine a donné plus de blases qu'Akinator Sur le périphérique, j'roule à fond la caisse fond la caisse Et j'm'en bats les couilles tout au fond d'la tess au fond d'la tess J'm'enfume j'm'enfume mais je m'ennuie mais je m'ennuie Je m'ennuie m'ennuie donc je m'enfume J'ai mis de la weed dans le calumet J'calcule pas ces bitches, j'fais partie des opprimés J'suis dans le bloc jusqu'à minuit, ouais ouais Jusqu'à minuit, ouais ouais Et quand la police casse la porte, lampe-torche allumée Mandat d'dépôt, gyro', dans le camion, écroué Et tu sais, y a très peu d'amis, ouais ouais Très peu d'amis, ouais ouais1</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Oh, Sili, Guizmo banlieue Sud Aïe, aïe, aïe Je suis en mode remix, en mode film X, en mode classique En mode rap street, en mode throw, en mode magique Je suis en mode aïe aïe aïe porn style, je défouraille Je suis en mode cascaraille, tes en mode funérailles Je suis en mode Gucci, LV, magnum de Belvé Corée du Nord, gilets jaunes, je suis en mode énervé Je suis en mode Casa del Papel, appelle-moi Tijuana Je réinvesti largent de la banque dans la Marijuana Tes en mode fake, en mode dette, en mode snap de bouteille En mode fausse Rolex, en mode vlà les contrats sur ta tête Je pars au bled, sur un coup de tête, je suis en mode Zizou On veut des khlel nous pas des vendeuses de tiramisu Tes en mode hess, je suis en mode six moins trois S en mode, S en mode, iPhone X, S au hebs, nique les SS Cest pour mes blacks et mes ar-bi, en mode tara ouais Qui restent debout devant les hommes et à genou que devant lhabit Balle dans la cervelle je suis en mode Denzel Ton rappeur préféré pue, il est en mode aisselle Elle me fait mal à la tête, je suis en mode Doliprane Je baise toi, lui et elle, je suis en mode polygame Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck You might also like Je suis en mode renard, alors jaime remplir mes fouilles Jaime pas trop les keufs, je suis en mode touche pas trop mes couilles Je suis en mode barrette, je suis en mode plaquette Et erzeulé dans ma cité je suis en mode claquette Té-ma ces tapettes, nous on tape la bavette Moi en Siliboy on débarque on prend la mallette Je suis en mode je connais la rue, je suis en mode je comptais ma tune Tétais même pas en sixième quand on ma donné ma plume Je suis en mode buer, et je suis en mode chichon Mes potes en mode chicha et si il y a des règles trichons Je suis en mode clichés, les keufs ils me prennent en photo En mode guerre, en mode peine, cest moi sur la moto Les poches pleines, je les emmerde, jai pas gagné au loto En mode je bois toute la nuit, ma sur est partie trop tôt En mode Valenton, les polen, la Lutèce, le fonx, on a inspiré le Bronx Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Ah, Siliboy le gangster, Guizy ouzou le renard Neuf un, neuf quatre motherfucker Nos jumeaux Valenton, cest comme ça quon fait les choses On tenvoie en réa, MA2S la réal, ouais, ouais Donne sa voix, bande de fils de putes Bonne soirée</t>
+          <t>Oh, Sili, Guizmo banlieue Sud Aïe, aïe, aïe Je suis en mode remix, en mode film X, en mode classique En mode rap street, en mode throw, en mode magique Je suis en mode aïe aïe aïe porn style, je défouraille Je suis en mode cascaraille, tes en mode funérailles Je suis en mode Gucci, LV, magnum de Belvé Corée du Nord, gilets jaunes, je suis en mode énervé Je suis en mode Casa del Papel, appelle-moi Tijuana Je réinvesti largent de la banque dans la Marijuana Tes en mode fake, en mode dette, en mode snap de bouteille En mode fausse Rolex, en mode vlà les contrats sur ta tête Je pars au bled, sur un coup de tête, je suis en mode Zizou On veut des khlel nous pas des vendeuses de tiramisu Tes en mode hess, je suis en mode six moins trois S en mode, S en mode, iPhone X, S au hebs, nique les SS Cest pour mes blacks et mes ar-bi, en mode tara ouais Qui restent debout devant les hommes et à genou que devant lhabit Balle dans la cervelle je suis en mode Denzel Ton rappeur préféré pue, il est en mode aisselle Elle me fait mal à la tête, je suis en mode Doliprane Je baise toi, lui et elle, je suis en mode polygame Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Je suis en mode renard, alors jaime remplir mes fouilles Jaime pas trop les keufs, je suis en mode touche pas trop mes couilles Je suis en mode barrette, je suis en mode plaquette Et erzeulé dans ma cité je suis en mode claquette Té-ma ces tapettes, nous on tape la bavette Moi en Siliboy on débarque on prend la mallette Je suis en mode je connais la rue, je suis en mode je comptais ma tune Tétais même pas en sixième quand on ma donné ma plume Je suis en mode buer, et je suis en mode chichon Mes potes en mode chicha et si il y a des règles trichons Je suis en mode clichés, les keufs ils me prennent en photo En mode guerre, en mode peine, cest moi sur la moto Les poches pleines, je les emmerde, jai pas gagné au loto En mode je bois toute la nuit, ma sur est partie trop tôt En mode Valenton, les polen, la Lutèce, le fonx, on a inspiré le Bronx Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Je suis en mode, neuf un Je suis en mode, neuf quatre Je suis en mode, AK Je suis en mode, bang bang Je suis en mode, perquis Je suis en mode, toc toc Je suis en mode, caïd Je suis en mode, motherfuck Ah, Siliboy le gangster, Guizy ouzou le renard Neuf un, neuf quatre motherfucker Nos jumeaux Valenton, cest comme ça quon fait les choses On tenvoie en réa, MA2S la réal, ouais, ouais Donne sa voix, bande de fils de putes Bonne soirée</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Yo, Ouzouguizi coucou sisi, YW, jeune et gagnant sale batard Comme un fou je suis dans mon gama Je veux des sous depuis que j'suis gamin Des absences des fois jsuis pas la Sert un verre ne perds pas la main Pas de game j'suis ailleurs je te préviens tout de suite J'malmene ses acteurs je fais leffet d'un coup de cric La retraite c'est pas l'heure, je te dis que je veux tout le fric Pas de theme n'ai pas peur je les kicks à la Bruce Lee Y.O.U.N.I, W.I.L.L.Y on les plient....oui c'est triste mais c'est direct pouaw C'est pour les agitateurs, les gars qui taffent ouais les machines à beurre Cest archi dar reste pas là si tas peur 'ttention je vais cramer la bande son Dans lfond, vous savez que je fais les meilleures chansons J'ai les plus beaux des gremlins, les plus belles des guizmets Des fois j'ai le vertige, je veux plus faire de business Je sais que des ennemis veulent me prendre de vitesse J'ai vesqui la zermi pour me manger la tristesse Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi jen bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala, des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Motherfuck You might also like Lève ton verre et le doigt du milieu OK motherfucker, OK motherfucker, OK Cinq albums en tête mais dis-moi qui dit mieux OK motherfucker, OK motherfucker, OK J'ai d'jà fait affaire avec des p'tits vicieux Qui coffrent un tas de lock Sortent v'la les lock Inch'Allah qu'ils finissent vieux J'suis pas rappeur j'suis une se-pha à moi tout seul Vas au quartier y'aura de la beuh, vers la Reca y'aura du seum J'éteins le bigo, ouais je veux rester dans mon plane C'est Casino et Training Day dans mon crane Ça ne fait que partir en vrille, j'en ai marre de moisir en ville J'en ai marre de squatter dans des cafés ou des bâtiments vides Faut j'dégage d'ici, non c'est trop vicieux T'es ruiné par l'épicerie, contrôlé par l'officier Lève ton verre et le doigt du milieu, fais un motherfuck Et regardes les étoiles même si t'es en bas des blocs Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala, des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Motherfuck J'ai jamais fait comme tout le monde, pour ça que ça fout le mort Kadhafi est dans la place, alors faites ce que je vous demande A l'époque de la cave j'étais pas convié a vos soirées Vous sucez beaucoup trop tard je suis désolé mais c'est foiré J'ai bu la potion que m'a préparé le druide A zeuler sur le gros son, toi c'est bof et moi c'est fluide Ca va foutre le boxon, faut que t'amène de la weed Tos-ma dans le pochton, c'est un moyen de fuir Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies, ta vieille smala Motherfucker, Guiziousou sisi-coucou En gard'a'gav on reste vrai Tu fais qu'mentir, c'est mon empire Gazaka mon respect 9.2, Villeneuve</t>
+          <t>Yo, Ouzouguizi coucou sisi, YW, jeune et gagnant sale batard Comme un fou je suis dans mon gama Je veux des sous depuis que j'suis gamin Des absences des fois jsuis pas la Sert un verre ne perds pas la main Pas de game j'suis ailleurs je te préviens tout de suite J'malmene ses acteurs je fais leffet d'un coup de cric La retraite c'est pas l'heure, je te dis que je veux tout le fric Pas de theme n'ai pas peur je les kicks à la Bruce Lee Y.O.U.N.I, W.I.L.L.Y on les plient....oui c'est triste mais c'est direct pouaw C'est pour les agitateurs, les gars qui taffent ouais les machines à beurre Cest archi dar reste pas là si tas peur 'ttention je vais cramer la bande son Dans lfond, vous savez que je fais les meilleures chansons J'ai les plus beaux des gremlins, les plus belles des guizmets Des fois j'ai le vertige, je veux plus faire de business Je sais que des ennemis veulent me prendre de vitesse J'ai vesqui la zermi pour me manger la tristesse Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi jen bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala, des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Motherfuck Lève ton verre et le doigt du milieu OK motherfucker, OK motherfucker, OK Cinq albums en tête mais dis-moi qui dit mieux OK motherfucker, OK motherfucker, OK J'ai d'jà fait affaire avec des p'tits vicieux Qui coffrent un tas de lock Sortent v'la les lock Inch'Allah qu'ils finissent vieux J'suis pas rappeur j'suis une se-pha à moi tout seul Vas au quartier y'aura de la beuh, vers la Reca y'aura du seum J'éteins le bigo, ouais je veux rester dans mon plane C'est Casino et Training Day dans mon crane Ça ne fait que partir en vrille, j'en ai marre de moisir en ville J'en ai marre de squatter dans des cafés ou des bâtiments vides Faut j'dégage d'ici, non c'est trop vicieux T'es ruiné par l'épicerie, contrôlé par l'officier Lève ton verre et le doigt du milieu, fais un motherfuck Et regardes les étoiles même si t'es en bas des blocs Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala, des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies et ta smala Motherfuck J'ai jamais fait comme tout le monde, pour ça que ça fout le mort Kadhafi est dans la place, alors faites ce que je vous demande A l'époque de la cave j'étais pas convié a vos soirées Vous sucez beaucoup trop tard je suis désolé mais c'est foiré J'ai bu la potion que m'a préparé le druide A zeuler sur le gros son, toi c'est bof et moi c'est fluide Ca va foutre le boxon, faut que t'amène de la weed Tos-ma dans le pochton, c'est un moyen de fuir Ils parlent de quoi là ? M.C tu parles de moi là ? Arrêtes de faire de la mala Des comme toi j'en bouffe dix wallah Les vrais ne connaissent rien, toi t'es faux tu fais que mentir Le 9.2 c'est mon empire, pas tes groupies, ta vieille smala Motherfucker, Guiziousou sisi-coucou En gard'a'gav on reste vrai Tu fais qu'mentir, c'est mon empire Gazaka mon respect 9.2, Villeneuve</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Dis moi ce que tu veux que je fasse Tu veux que je te sortes d'ici Que je t'aides à tenfuir Que je te laisses toute ta chance Pourquoi faire une folie pareille Le jour de mon jugement Quand je me présenterai devant Dieu Et qu'il me demandera pourquoi J'ai mal au crane à force de trop pnser J'suis pas d'humeur à romancer J'ai pas d tuteur je bédave du teush je sais même plus quand j'ai commencé Et allez dire à mon banquier qu'il peut se la mettre où je pense Moi je récupère ce que j'ai manqué Ou je perce ou je tranche J'ai mal au crane à cause des insomnies Je vais presque vomir des textes morbides je rêve de dormir jen rêve Jsuis fatigué de mes réflexions de me rendre fou Et mes questions de manque de sous les dépressions le chanvre le zoo J'ai mal au crane tu timagine même pas Mec on dilapide un tas de fric rapide les femmes les cicatrices et le hash L'état stigmatise mes cailles sur ma tête il faut que ça pète Dans ce game y'a trop de tapettes monte ton froc et hausse la tête You might also like Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère J'ai mal au cur à cause des trahisons des potos m'ont mis de coté Pour aller en discothèque et sucer le disc jockey J'ai mal au cur putain ces fils de putes de beau père Ces fils de putes de faux frères ces fils de putes je le tolère Ils ont pas mon estime je suis blessé définitivement Je préfère un ennemis sincère plutôt qu'un amis qui ment Ça confond gentille et faiblesse on se sent fier Sans prière le temps de s'y faire, les gens qui errent en détresse J'ai plus la force la première fois que j'ai vu l'alcool On m'a dit frère ça pue la mort T'as un ulcère et tu t'affoles Déboussolé sur le papier y'a plein de ratures J'ai tout donné et je suis claqué là je pourrais faire un infarctus Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Je rappes avec mes tripes depuis la première rime je suis stricte depuis mon premier deal Quand je kick c'est sans limite et ils se demandent Mais putain que fait il C'est simple j'ai mal au crane j'ai mal au cur En plein naufrage j'ai pas de sauveteur j'ai que mon aura mes droits d'auteur Mais je vais tout plier je veux rafler la mise et même sous pilon Je vais à la guerre sans bouclier J'ai la rage depuis nourrisson Vous savez tout de moi j'ai rien caché Dans chaque album j'ai bien capté qu'en cours de route beaucoup de vous se sont attachés Tu sais pas comment j'ai cravaché des heures des nuits j'ai pas lâché J'ai mal de vivre je suis balafré les gardes a vues les sales taspés putain Jsuis Guizmo en chaire et en bière Si il faut sucer pour faire la paix vous allez m'enterrer en guerre Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Qu'est ce que je pourrais lui dire Que c'était mon travail Tu parles d'un travail Vous pourrez dire au tout puissant Que c'était un acte de charité Je sens que vous en souffrez Et je sens en moi votre douleur Mais il faut que vous arrêtiez Je vais en finir avec tout ça Je vous jure Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron</t>
+          <t>Dis moi ce que tu veux que je fasse Tu veux que je te sortes d'ici Que je t'aides à tenfuir Que je te laisses toute ta chance Pourquoi faire une folie pareille Le jour de mon jugement Quand je me présenterai devant Dieu Et qu'il me demandera pourquoi J'ai mal au crane à force de trop pnser J'suis pas d'humeur à romancer J'ai pas d tuteur je bédave du teush je sais même plus quand j'ai commencé Et allez dire à mon banquier qu'il peut se la mettre où je pense Moi je récupère ce que j'ai manqué Ou je perce ou je tranche J'ai mal au crane à cause des insomnies Je vais presque vomir des textes morbides je rêve de dormir jen rêve Jsuis fatigué de mes réflexions de me rendre fou Et mes questions de manque de sous les dépressions le chanvre le zoo J'ai mal au crane tu timagine même pas Mec on dilapide un tas de fric rapide les femmes les cicatrices et le hash L'état stigmatise mes cailles sur ma tête il faut que ça pète Dans ce game y'a trop de tapettes monte ton froc et hausse la tête Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère J'ai mal au cur à cause des trahisons des potos m'ont mis de coté Pour aller en discothèque et sucer le disc jockey J'ai mal au cur putain ces fils de putes de beau père Ces fils de putes de faux frères ces fils de putes je le tolère Ils ont pas mon estime je suis blessé définitivement Je préfère un ennemis sincère plutôt qu'un amis qui ment Ça confond gentille et faiblesse on se sent fier Sans prière le temps de s'y faire, les gens qui errent en détresse J'ai plus la force la première fois que j'ai vu l'alcool On m'a dit frère ça pue la mort T'as un ulcère et tu t'affoles Déboussolé sur le papier y'a plein de ratures J'ai tout donné et je suis claqué là je pourrais faire un infarctus Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Je rappes avec mes tripes depuis la première rime je suis stricte depuis mon premier deal Quand je kick c'est sans limite et ils se demandent Mais putain que fait il C'est simple j'ai mal au crane j'ai mal au cur En plein naufrage j'ai pas de sauveteur j'ai que mon aura mes droits d'auteur Mais je vais tout plier je veux rafler la mise et même sous pilon Je vais à la guerre sans bouclier J'ai la rage depuis nourrisson Vous savez tout de moi j'ai rien caché Dans chaque album j'ai bien capté qu'en cours de route beaucoup de vous se sont attachés Tu sais pas comment j'ai cravaché des heures des nuits j'ai pas lâché J'ai mal de vivre je suis balafré les gardes a vues les sales taspés putain Jsuis Guizmo en chaire et en bière Si il faut sucer pour faire la paix vous allez m'enterrer en guerre Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Souvent j'ai envie d'abdiquer pardon Les gens n'ont pas de pitié et moi je suis fatigué patron Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Dans Valenton et Villeneuve la Garenne Toujours la même les immeubles la galère Entre ma vie de mec fauché entre ma vie de débauché Posé avec une petite meuf ça galère Qu'est ce que je pourrais lui dire Que c'était mon travail Tu parles d'un travail Vous pourrez dire au tout puissant Que c'était un acte de charité Je sens que vous en souffrez Et je sens en moi votre douleur Mais il faut que vous arrêtiez Je vais en finir avec tout ça Je vous jure Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron Je suis fatigué patron</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Gpgangster'z Bande d'enfoirés Ouzou Guizi, YW Zone sensible Yonea Willy, Willy Yonea zbangle Business hein J'ai pas dormi de la nuit, j'étais trop soucieux Des problèmes dans ma vie, j'en ai à profusion Alors j'ai roulé un shit qu'avait un goût d'beuh Flex à la mort, c'est ma solution Ça y'est j'suis flex, bien flex Capuché tout au fond de la tess C'est comment les gars faut de la tise J'vais pillave à l'arriere de la caisse J'suis le renard le plus fort du monde Toujours stylé mais jamais à la mode Et depuis qu'ma mère elle m'entend sur les ondes Pétage de câble elle crie Oh my god! Ils m'voyaient perdant, alors j'suis parti J'ai trainé partout, les halls et les parkings Je vous dirais pourquoi mais j'vous dirais pas qui J'veux pas être esclave au royaume des pouki Les balances ne peuvent pas être flex Décider d'quoi qu'se soit dans le tiequ's Et sa meuf bah c'est devenu son ex Elle sort avec un renoi plus flex Oh la rue c'est cruel Ça fait du bizz dans des petites ruelles Que des coups d'shlass, que des coups d'feu Plus de bagarre, plus de duel You might also like J'suis trop flex Un nouveau contrat, nouvel appart Ouais j'suis trop flex Un petit bébé, shopping pour madame J'suis trop flex J'suis trop flex Oh j'suis trop flex J'suis trop flex Ouai j'suis trop flex Flex, j'suis trop flex J'ai compris qu'la vie n'est qu'un test, oui J'suis défoncé c'est quoi cette weed On me répond c'est d'la Sensi Qu'elle a poussé vers la Belgique Ahhh j'suis bien trop flex Une apparition et j'prend ma pièce Quand ils ont vu c'que j'avais dans l'ventre Ils ont voulu savoir c'que j'ai dans la tête Ahahah, mais c'est pas possible Guiz le renard il est pas docile Avec les mots c'est un acrobate Avec sa bière c'est un alcoolique Poussé dans la merde j'avais pas prévu tout ça Pas complètement par terre mais bon j'étais prêt du sol C'est sûr que tu vas perdre si tu veux jouer avec moi J'ai déjà vu des cafards se balader dans mon bol Ahh putain de merde De l'or pour mes bébés, des diamants pour ma chérie Un pistolet pour papa, ça va mieux mais j'ai pas guéri Le bonheur n'est pas palpable Je décolle tu atteris Le renard le plus flex, HLM dans la prairie J'suis trop flex Un nouveau contrat, nouvel appart Ouais j'suis trop flex Un petit bébé, shopping pour madame J'suis trop flex J'suis trop flex Oh j'suis trop flex J'suis trop flex Ouai j'suis trop flex Flex, j'suis trop flex J'ai toujours les deux pieds dans le bangz yo J'ai le respect des p'tits moi j'suis flex yo J'ai le meilleur flow le meilleur texte yo Y et W tu peux pas test yo J'ai toujours les deux pieds dans le bangz yo J'ai le respect des p'tits moi j'suis flex yo J'ai le meilleur flow le meilleur texte yo Y et W tu peux pas test yo Yo gars yo VLT 9.4 Les polognes ça cogne mon pote 4.6.0 92 Villeneuve la Garenne les immeubles la galère Bès-bar tout le reste Ouais, ouais, ouais, G.P.Gangster'z Bande d'enfoirés Guizi flex Ok ok, ok ok Laisse couler Ok ok Laisse couler Ok ok Ecoutez Ok ok T'es dégouté Ok ok J'peux rien y faire, j'peux rien y faire J'bédave j'm'y perd J'conduis sans mis-per J'peux rien y faire, une putain d'bière J'conduis sans mis-per Et ils peuvent rien y faire</t>
+          <t>Gpgangster'z Bande d'enfoirés Ouzou Guizi, YW Zone sensible Yonea Willy, Willy Yonea zbangle Business hein J'ai pas dormi de la nuit, j'étais trop soucieux Des problèmes dans ma vie, j'en ai à profusion Alors j'ai roulé un shit qu'avait un goût d'beuh Flex à la mort, c'est ma solution Ça y'est j'suis flex, bien flex Capuché tout au fond de la tess C'est comment les gars faut de la tise J'vais pillave à l'arriere de la caisse J'suis le renard le plus fort du monde Toujours stylé mais jamais à la mode Et depuis qu'ma mère elle m'entend sur les ondes Pétage de câble elle crie Oh my god! Ils m'voyaient perdant, alors j'suis parti J'ai trainé partout, les halls et les parkings Je vous dirais pourquoi mais j'vous dirais pas qui J'veux pas être esclave au royaume des pouki Les balances ne peuvent pas être flex Décider d'quoi qu'se soit dans le tiequ's Et sa meuf bah c'est devenu son ex Elle sort avec un renoi plus flex Oh la rue c'est cruel Ça fait du bizz dans des petites ruelles Que des coups d'shlass, que des coups d'feu Plus de bagarre, plus de duel J'suis trop flex Un nouveau contrat, nouvel appart Ouais j'suis trop flex Un petit bébé, shopping pour madame J'suis trop flex J'suis trop flex Oh j'suis trop flex J'suis trop flex Ouai j'suis trop flex Flex, j'suis trop flex J'ai compris qu'la vie n'est qu'un test, oui J'suis défoncé c'est quoi cette weed On me répond c'est d'la Sensi Qu'elle a poussé vers la Belgique Ahhh j'suis bien trop flex Une apparition et j'prend ma pièce Quand ils ont vu c'que j'avais dans l'ventre Ils ont voulu savoir c'que j'ai dans la tête Ahahah, mais c'est pas possible Guiz le renard il est pas docile Avec les mots c'est un acrobate Avec sa bière c'est un alcoolique Poussé dans la merde j'avais pas prévu tout ça Pas complètement par terre mais bon j'étais prêt du sol C'est sûr que tu vas perdre si tu veux jouer avec moi J'ai déjà vu des cafards se balader dans mon bol Ahh putain de merde De l'or pour mes bébés, des diamants pour ma chérie Un pistolet pour papa, ça va mieux mais j'ai pas guéri Le bonheur n'est pas palpable Je décolle tu atteris Le renard le plus flex, HLM dans la prairie J'suis trop flex Un nouveau contrat, nouvel appart Ouais j'suis trop flex Un petit bébé, shopping pour madame J'suis trop flex J'suis trop flex Oh j'suis trop flex J'suis trop flex Ouai j'suis trop flex Flex, j'suis trop flex J'ai toujours les deux pieds dans le bangz yo J'ai le respect des p'tits moi j'suis flex yo J'ai le meilleur flow le meilleur texte yo Y et W tu peux pas test yo J'ai toujours les deux pieds dans le bangz yo J'ai le respect des p'tits moi j'suis flex yo J'ai le meilleur flow le meilleur texte yo Y et W tu peux pas test yo Yo gars yo VLT 9.4 Les polognes ça cogne mon pote 4.6.0 92 Villeneuve la Garenne les immeubles la galère Bès-bar tout le reste Ouais, ouais, ouais, G.P.Gangster'z Bande d'enfoirés Guizi flex Ok ok, ok ok Laisse couler Ok ok Laisse couler Ok ok Ecoutez Ok ok T'es dégouté Ok ok J'peux rien y faire, j'peux rien y faire J'bédave j'm'y perd J'conduis sans mis-per J'peux rien y faire, une putain d'bière J'conduis sans mis-per Et ils peuvent rien y faire</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>J'ai essayé d'stopper la clope, j'ai fumé deux fois plus de shit Alors j'ai continué l'alcool, pour pas tomber dans un autre vice Bienvenue dans les années folles, du son en hall qui pue la pisse T'es arrivé tu faisais la conne, maintenant que t'es là-bas on t'la glisse Arrête de m'appeler mon petit. T'es pas mon père j'suis pas ton fils J'avance avec mes burnes, mes pétasses et mes complices Tout s'est déroulé devant moi, une schnek t'as mis une gifle Merde! Le MC chevelu s'en est arraché les tifs Alors allez vous faire mettre. Et nous cassez pas les couilles Y'aura peut-être une trêve quand j'aurai brassé v'la les sous J'rappe et casse des cous. Leur rats des sales égouts Petit Guiz' a bien grandi depuis qu'il est passé par l'écrou Toi tu crois que c'est cool ? Mais tu t'es trompé. Stup et fonce-dé Pour une gaffe à la con, tu t'fais gonfler ou meme plomber Allez stop, j'en ai assez dit Motherfuck, ils font qu'des flops, parlent de Glocks et jouent les postes devant les Assedic On té-cla trop d'spliff, des dégâts nocifs. A l'heure ou j'écris, le doc opère mon père adoptif J'ai besoin de prendre l'air un peu. Quand je teste un d'eux, j'pense à Ulysse qui nous a laissé ici Et j'vois qu'y a pas de meilleur, alors je m'auto-proclame Y'a que des tas de players avec des flow d'occas'. Ils ont des beaux costards Dans leurs rêves, signent des autographes mais en vrai ne sont qu'des merdes Voilà pourquoi mes potos craquent. Venez là ou ça kick pour de vrai, s'nique pour le tieks P'tits troubles fêtes qui fument du shit pour se bercer. Ca devient dard de graille Etant petit, le seul poids que j'avais sur mes épaules c'était celui d'un sac de classe J'avais pas les yeux éclatés, le foie dans un sale état A jeun, je pouvais gratter, aujourd'hui c'est pas l'même cas Depuis qu'j'vends plus d'teu-shi, j'en bédave deux fois plus Contrôlé contre le mur. Là c'est les bleus qu'j'accuse J'croyais que c'était des loups mais en fait c'est des porcs Des putes, bons qu'à poster des photos De moi en mode sport étude C'était la belle vie, j'avais un avenir certain Pendant qu'tu représentes un quartier, on sait même pas si c'est le tien Ouzou... Les caravelles BlehYou might also like</t>
+          <t>J'ai essayé d'stopper la clope, j'ai fumé deux fois plus de shit Alors j'ai continué l'alcool, pour pas tomber dans un autre vice Bienvenue dans les années folles, du son en hall qui pue la pisse T'es arrivé tu faisais la conne, maintenant que t'es là-bas on t'la glisse Arrête de m'appeler mon petit. T'es pas mon père j'suis pas ton fils J'avance avec mes burnes, mes pétasses et mes complices Tout s'est déroulé devant moi, une schnek t'as mis une gifle Merde! Le MC chevelu s'en est arraché les tifs Alors allez vous faire mettre. Et nous cassez pas les couilles Y'aura peut-être une trêve quand j'aurai brassé v'la les sous J'rappe et casse des cous. Leur rats des sales égouts Petit Guiz' a bien grandi depuis qu'il est passé par l'écrou Toi tu crois que c'est cool ? Mais tu t'es trompé. Stup et fonce-dé Pour une gaffe à la con, tu t'fais gonfler ou meme plomber Allez stop, j'en ai assez dit Motherfuck, ils font qu'des flops, parlent de Glocks et jouent les postes devant les Assedic On té-cla trop d'spliff, des dégâts nocifs. A l'heure ou j'écris, le doc opère mon père adoptif J'ai besoin de prendre l'air un peu. Quand je teste un d'eux, j'pense à Ulysse qui nous a laissé ici Et j'vois qu'y a pas de meilleur, alors je m'auto-proclame Y'a que des tas de players avec des flow d'occas'. Ils ont des beaux costards Dans leurs rêves, signent des autographes mais en vrai ne sont qu'des merdes Voilà pourquoi mes potos craquent. Venez là ou ça kick pour de vrai, s'nique pour le tieks P'tits troubles fêtes qui fument du shit pour se bercer. Ca devient dard de graille Etant petit, le seul poids que j'avais sur mes épaules c'était celui d'un sac de classe J'avais pas les yeux éclatés, le foie dans un sale état A jeun, je pouvais gratter, aujourd'hui c'est pas l'même cas Depuis qu'j'vends plus d'teu-shi, j'en bédave deux fois plus Contrôlé contre le mur. Là c'est les bleus qu'j'accuse J'croyais que c'était des loups mais en fait c'est des porcs Des putes, bons qu'à poster des photos De moi en mode sport étude C'était la belle vie, j'avais un avenir certain Pendant qu'tu représentes un quartier, on sait même pas si c'est le tien Ouzou... Les caravelles Bleh</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Hein, yo gars yo gars yo gars flemme yo gars fire yo gars Guiziouzo Sisi coucou, Monsieur Renard ! YW... J'fais le tour de la ville, j'fume une cigarette Juste après, j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo Des années dans le noir à me poser des questions À fumer tiser dans le tiekson J'suis assez doué dans la gestion J'vends même du shit à l'ingé son Et j'suis impliqué dans l'agression J'fais la bagarre sans la pression Le crochet du gauche il est précis Le Commissariat c'est la maison J'viens de là où ça bosse très tard Les raclis font des gosses très tôt Par ici on est tous triquards De l'argent sale et des métaux Le bénéf' c'est mon pire ennemi Toujours un imbécile qui va m'parler d'trop Et il veut m'voir au trou Mais moi j'suis un pro Elle est malotrue Et puis j'ai les crocs J'suis pas ton tit-peu Y'a mon fiston qui dit papa J'fais des cadeaux à ma poupée Mille euros cash pour mon papy Les huissiers ils m'ont vus bébés 20 ans plus tard j'vend le paki Y'a personne qu'est venu nous aider Mon daron il buvait au Maquis 'Merde !' You might also likeJ'fais le tour de la ville, j'fume une cigarette Juste après j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo x2 Je suis fou d'ivresse Je suis ivre de folie À rechercher les espèces J'ai du livrer des colis Y'avait des trucs pas très nets Et des potes pas très nets Et des putes pas très nettes Posé dans le hall ça bicrave du pilon Pas beaucoup d'Hassanates Nique ta mère l'appétit Tu veux mon malheur et ça c'est clair et net Pour quelques billets ou des millions de vues Ils vendraient père et mère Ah putain d'merde c'est nous les chefs J'rappe trop bien et j'fais du chiffre J'men bat les couilles j'suis qui ? L'boss J'suis venu pour vous mettre des giffles J'finirai dans un corbillard, peut être à cause de mon sorcier Peu-être à cause de la cigarette 26 mégots dans le cendrier Dessine-moi un mouton J'vais lui égorger sa grand-mère Si j'appuie sur le bouton J'peux déchaîner les enfers J'fais le tour de la ville j'fume une cigarette Juste après j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo x2 Allez viens, un peu déviant d'Evian ? Toujours tranquille avec les gens Mais quand j'leur dit la vérité Ils disent tous que j'suis méchant Ce monde est fou, j'y pense des fois Je sais très bien que j'ai beaucoup de défauts Mais j'ai toujours relevé mes défis Toujours debout malgré tous les défunts Ouais quand j'avais faim, et quand j'avais froid J'pouvais compter que sur ma fourrure J'voyais le renard dans le miroir Combien de fois j'ai failli mourir Seul dans la rue j'suis pété sa mère J'ai mal au crâne et que des galères J'vends du pilon et j'en ai pas l'air Si t'as pas d'sous ils t'donnent même pas l'heure 'Aaah !' ... Outro</t>
+          <t>Hein, yo gars yo gars yo gars flemme yo gars fire yo gars Guiziouzo Sisi coucou, Monsieur Renard ! YW... J'fais le tour de la ville, j'fume une cigarette Juste après, j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo Des années dans le noir à me poser des questions À fumer tiser dans le tiekson J'suis assez doué dans la gestion J'vends même du shit à l'ingé son Et j'suis impliqué dans l'agression J'fais la bagarre sans la pression Le crochet du gauche il est précis Le Commissariat c'est la maison J'viens de là où ça bosse très tard Les raclis font des gosses très tôt Par ici on est tous triquards De l'argent sale et des métaux Le bénéf' c'est mon pire ennemi Toujours un imbécile qui va m'parler d'trop Et il veut m'voir au trou Mais moi j'suis un pro Elle est malotrue Et puis j'ai les crocs J'suis pas ton tit-peu Y'a mon fiston qui dit papa J'fais des cadeaux à ma poupée Mille euros cash pour mon papy Les huissiers ils m'ont vus bébés 20 ans plus tard j'vend le paki Y'a personne qu'est venu nous aider Mon daron il buvait au Maquis 'Merde !' J'fais le tour de la ville, j'fume une cigarette Juste après j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo x2 Je suis fou d'ivresse Je suis ivre de folie À rechercher les espèces J'ai du livrer des colis Y'avait des trucs pas très nets Et des potes pas très nets Et des putes pas très nettes Posé dans le hall ça bicrave du pilon Pas beaucoup d'Hassanates Nique ta mère l'appétit Tu veux mon malheur et ça c'est clair et net Pour quelques billets ou des millions de vues Ils vendraient père et mère Ah putain d'merde c'est nous les chefs J'rappe trop bien et j'fais du chiffre J'men bat les couilles j'suis qui ? L'boss J'suis venu pour vous mettre des giffles J'finirai dans un corbillard, peut être à cause de mon sorcier Peu-être à cause de la cigarette 26 mégots dans le cendrier Dessine-moi un mouton J'vais lui égorger sa grand-mère Si j'appuie sur le bouton J'peux déchaîner les enfers J'fais le tour de la ville j'fume une cigarette Juste après j'me roule un bédo Toujours là quand y'a d'la maille à faire Toujours là, posé dans le bendo x2 Allez viens, un peu déviant d'Evian ? Toujours tranquille avec les gens Mais quand j'leur dit la vérité Ils disent tous que j'suis méchant Ce monde est fou, j'y pense des fois Je sais très bien que j'ai beaucoup de défauts Mais j'ai toujours relevé mes défis Toujours debout malgré tous les défunts Ouais quand j'avais faim, et quand j'avais froid J'pouvais compter que sur ma fourrure J'voyais le renard dans le miroir Combien de fois j'ai failli mourir Seul dans la rue j'suis pété sa mère J'ai mal au crâne et que des galères J'vends du pilon et j'en ai pas l'air Si t'as pas d'sous ils t'donnent même pas l'heure 'Aaah !' ... Outro</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Le shaman a décidé que c'était bientôt fini J'enchaine les cigarettes et je passe des nuits à l'hôpital Et puis j'ai commandé un de ces dernier neuf milli Avant de m'arracher faut canarder les faux qui parlent Enterrez moi au bled Mettez du Bob Marley et dites à mes soldats que je veux que personne pleure La vie n'est qu'une étape La mort est inévitable Je vais rejoindre mes proches parce que personne meurt J'ai niqué ma jeunesse en mon âme et conscience Je me prenais pour une vedette j'avais aucun bon sens J'ai niqué des belettes en les payant comptant J'ai perdu ma santé, ma teté et mon temps Ah merde, j'ai séché mes larmes, j'ai ouvert mes bras, je l'attend calmement Et je m'en bats les couilles tant que d'ici là j'ai le temps de revoir maman Protégez les votres Je protégerai les miensYou might also like</t>
+          <t>Le shaman a décidé que c'était bientôt fini J'enchaine les cigarettes et je passe des nuits à l'hôpital Et puis j'ai commandé un de ces dernier neuf milli Avant de m'arracher faut canarder les faux qui parlent Enterrez moi au bled Mettez du Bob Marley et dites à mes soldats que je veux que personne pleure La vie n'est qu'une étape La mort est inévitable Je vais rejoindre mes proches parce que personne meurt J'ai niqué ma jeunesse en mon âme et conscience Je me prenais pour une vedette j'avais aucun bon sens J'ai niqué des belettes en les payant comptant J'ai perdu ma santé, ma teté et mon temps Ah merde, j'ai séché mes larmes, j'ai ouvert mes bras, je l'attend calmement Et je m'en bats les couilles tant que d'ici là j'ai le temps de revoir maman Protégez les votres Je protégerai les miens</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Jamais 2 sans 3 Jamais sans sang froid Ok C'est Despo Rutti Je rends ouf le MC comme un bout de shit en Gucci abruti Je défonce comme un bout de shit Avec mon sourire espiègle Tu veux pas que ton fils appelle un autre papa Trouve toi une mère porteuse lesbienne T'as embrassé la solitude car l'amitié t'as banni L'enfer est plein car même le diable a besoin de compagnie L'être humain st têtu envers de c qui le cogne Nul X, que John X a renoncé a l'alcool Si on était tous égaux, certain n'aurait pas dealer L'innocence du nourrisson meurt a partir du moment où il n'existe plus du lait La vie de rue n'est pas un jeu Petit j'espère que tu comprends Que défié l'état, de faire un smack a un cobra Beaucoup prient juste après avoir triché Moi j'attends pas l'eau de la pluie pour me laver de mes pêchés J'ai encore toute mes dents J'ai de la chance J'aime déconner car comme disait Coluche la connerie c'est la contraction de l'intelligence You might also likeA finir</t>
+          <t>Jamais 2 sans 3 Jamais sans sang froid Ok C'est Despo Rutti Je rends ouf le MC comme un bout de shit en Gucci abruti Je défonce comme un bout de shit Avec mon sourire espiègle Tu veux pas que ton fils appelle un autre papa Trouve toi une mère porteuse lesbienne T'as embrassé la solitude car l'amitié t'as banni L'enfer est plein car même le diable a besoin de compagnie L'être humain st têtu envers de c qui le cogne Nul X, que John X a renoncé a l'alcool Si on était tous égaux, certain n'aurait pas dealer L'innocence du nourrisson meurt a partir du moment où il n'existe plus du lait La vie de rue n'est pas un jeu Petit j'espère que tu comprends Que défié l'état, de faire un smack a un cobra Beaucoup prient juste après avoir triché Moi j'attends pas l'eau de la pluie pour me laver de mes pêchés J'ai encore toute mes dents J'ai de la chance J'aime déconner car comme disait Coluche la connerie c'est la contraction de l'intelligence A finir</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Je milite pour les minis-moi, mis dans lanonymat Les milliers de milice qui s'fichent de la bonne image Vifs à la Tony Jaa, oui, je m'alcoolise High kick galactique quand je kicke, prends des Doliprane Vite, quand la police passe, j'fuis car la folie gravite La nuit en une harmonie classique Là-çui, c'est un bon, j'entends les miens murmurer Près des murs peinturlurés à la suie et la bombe Et cette merde me colle à la peau comme un T-shirt moulant Sacrifice de Kolalapo, dark comme une p'tite soeur tournant Dark comme le flic se r'tournant, furie dans les pupilles Drogues cramés, Glocks chargés qui te fusillent et te mutilent Je n'sais plus quoi dire aux p'tits car en bas, les Carambar Se consomment sans papier jaune, les parents partent, il y'a pas d'rempart De part en part, on part en sachant qu'y'aura pas d'remplaçant Mes lettres célèbrent le mal-être face à la dette du temps passant L'école, j'l'ai désertée, j's'rai jamais VRP J'préfère fumer d'l'herbe et emmerder la BRB Drrraaahh You might also like J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant Comme la drogue et le biz Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les dek Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infects qui plaisent et qui baisent l'inspecteur J'reste impec, frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'afrique, j'sais c'que tu vis J'pète que du riz, bang j'fais des bêtes de tuerie Guette le supplice vivre sans la maille Style champ de bataille c'est normal que mes types vendent la came L'entourage, Barbès, ça dit quoi ? S-crew Ça fait, ça fait, ça fait Y a des dégâts cette année, gars, des cascades Et des casses sans partage qui dérapent, la caillasse se fait rare Ca s'castagne et pe-ra, dans lbarillet jinstalle mes phases Reste à lécart, on tbalaie cash, couz, quand ça stape Mes gars tarés te taclent, les femmes mariées me draguent Un pare-balle et jdébarque, patate dès le départ Pas d'cash au compte épargne, les tasses et la bédave Attaque, cest par étapes qu'la BAC embarque ta life Prends garde aux représailles, les vrais types cest Mekra Fennek et prenez garde, ma technique elle est sale les gars Les garces aiment les sauvages, le cash et les gros niacks Tu tcaches et cest trop tard, tas mon sperme dans lsophage Jai des phases terribles, jdépasse tes rimes et, gars, je teffrite Mec, passe tes times et cale des XXX, jaime pas les flics Tes là, tes prise, tu fais lsrab tes libre, tu masses des bites Cest ça ldélire, si tu gazes mes types, on tlâche les pits Pute tes pathétique, moi, je tai mé-cra, ouais, comme un satellite Et cRap débite et toi, tous tes gars, ouais, tu les caces-dédi Et jcase des feats quavec des braves, je tai dit Mais jte ldis cash, lady Jsors pas mon cash mais jte crache des litres Tu veux que jte frappe, vas-y cache tes strings Tu veux que j'te claque, salope, sale tass, je texcite Ah ouais, tavales très vite, poto, moi jtaffe des singles Jgratte dès quil pleut et bien sur graille les chickens Puis sur la table cest vide, ouais cest Mekra, tsais petit Jvais tmettre aux ASSEDIC, tas eu une peur bleue Comme quand tu vois des flics, fils, jdroite des types riches Et doigte des filles tristes et squatte les villes chics J'évolue dans de grosses orties, gosse sordide J'mets que des Nikes mais les poules mappellent le coq sportif Je job comme Steve et flotte comme John Ortiz J'dors dehors avec mes mange-morts comme Voldemort, fils Tu dis Quand est ce qu'il rince, Phaal ? J'suis une pince mais mince, hein, j'reste le Prince du 1-4 Sois infect quand tu vois l'inspecteur Ça s'règle en 2-4-6 au 3-5-7 Ouais, minot, j'veux visiter de vrais îlotiers M'baigner si l'eau est chaude et chiller dans ma Benz Vito Yeah, envie d'vacances du lundi au vendredi Le ventre vide, le centre ville j'arpente J'venge le hip-hop, branche le mic, crois-moi quand j'te dis Ils nous traitent comme des porcs, regarde nos tranches de vies J'cherche la somme, j'veux des bains et des sous Les mains sur les couilles, élémentaire mon cher Jackson Dernière instru la famille Aïe, aïe, aïe, gros freestyle sur Générations</t>
+          <t>Je milite pour les minis-moi, mis dans lanonymat Les milliers de milice qui s'fichent de la bonne image Vifs à la Tony Jaa, oui, je m'alcoolise High kick galactique quand je kicke, prends des Doliprane Vite, quand la police passe, j'fuis car la folie gravite La nuit en une harmonie classique Là-çui, c'est un bon, j'entends les miens murmurer Près des murs peinturlurés à la suie et la bombe Et cette merde me colle à la peau comme un T-shirt moulant Sacrifice de Kolalapo, dark comme une p'tite soeur tournant Dark comme le flic se r'tournant, furie dans les pupilles Drogues cramés, Glocks chargés qui te fusillent et te mutilent Je n'sais plus quoi dire aux p'tits car en bas, les Carambar Se consomment sans papier jaune, les parents partent, il y'a pas d'rempart De part en part, on part en sachant qu'y'aura pas d'remplaçant Mes lettres célèbrent le mal-être face à la dette du temps passant L'école, j'l'ai désertée, j's'rai jamais VRP J'préfère fumer d'l'herbe et emmerder la BRB Drrraaahh J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant Comme la drogue et le biz Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les dek Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infects qui plaisent et qui baisent l'inspecteur J'reste impec, frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'afrique, j'sais c'que tu vis J'pète que du riz, bang j'fais des bêtes de tuerie Guette le supplice vivre sans la maille Style champ de bataille c'est normal que mes types vendent la came L'entourage, Barbès, ça dit quoi ? S-crew Ça fait, ça fait, ça fait Y a des dégâts cette année, gars, des cascades Et des casses sans partage qui dérapent, la caillasse se fait rare Ca s'castagne et pe-ra, dans lbarillet jinstalle mes phases Reste à lécart, on tbalaie cash, couz, quand ça stape Mes gars tarés te taclent, les femmes mariées me draguent Un pare-balle et jdébarque, patate dès le départ Pas d'cash au compte épargne, les tasses et la bédave Attaque, cest par étapes qu'la BAC embarque ta life Prends garde aux représailles, les vrais types cest Mekra Fennek et prenez garde, ma technique elle est sale les gars Les garces aiment les sauvages, le cash et les gros niacks Tu tcaches et cest trop tard, tas mon sperme dans lsophage Jai des phases terribles, jdépasse tes rimes et, gars, je teffrite Mec, passe tes times et cale des XXX, jaime pas les flics Tes là, tes prise, tu fais lsrab tes libre, tu masses des bites Cest ça ldélire, si tu gazes mes types, on tlâche les pits Pute tes pathétique, moi, je tai mé-cra, ouais, comme un satellite Et cRap débite et toi, tous tes gars, ouais, tu les caces-dédi Et jcase des feats quavec des braves, je tai dit Mais jte ldis cash, lady Jsors pas mon cash mais jte crache des litres Tu veux que jte frappe, vas-y cache tes strings Tu veux que j'te claque, salope, sale tass, je texcite Ah ouais, tavales très vite, poto, moi jtaffe des singles Jgratte dès quil pleut et bien sur graille les chickens Puis sur la table cest vide, ouais cest Mekra, tsais petit Jvais tmettre aux ASSEDIC, tas eu une peur bleue Comme quand tu vois des flics, fils, jdroite des types riches Et doigte des filles tristes et squatte les villes chics J'évolue dans de grosses orties, gosse sordide J'mets que des Nikes mais les poules mappellent le coq sportif Je job comme Steve et flotte comme John Ortiz J'dors dehors avec mes mange-morts comme Voldemort, fils Tu dis Quand est ce qu'il rince, Phaal ? J'suis une pince mais mince, hein, j'reste le Prince du 1-4 Sois infect quand tu vois l'inspecteur Ça s'règle en 2-4-6 au 3-5-7 Ouais, minot, j'veux visiter de vrais îlotiers M'baigner si l'eau est chaude et chiller dans ma Benz Vito Yeah, envie d'vacances du lundi au vendredi Le ventre vide, le centre ville j'arpente J'venge le hip-hop, branche le mic, crois-moi quand j'te dis Ils nous traitent comme des porcs, regarde nos tranches de vies J'cherche la somme, j'veux des bains et des sous Les mains sur les couilles, élémentaire mon cher Jackson Dernière instru la famille Aïe, aïe, aïe, gros freestyle sur Générations</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Yo, Ouzou gangsters, G.P gangsters Dans les bacs depuis l'trois juin GPG, motherfucker Yo, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Mothrfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonn, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée Tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi, moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup, ow J'baise au pluriel Tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi J'lui rentre ça bien jusqu'au fond Évidemment qu'j'suis un cochon Qu'j'ai des potes-ca et des pochons Girl, écarte tes cuisses qu'on te shhlf motherfuck'-fuck' Girl, écarte tes cuisses qu'on te You might also like Pow, pow, pow, pow Han J'ai les phases d'un fou J'ai mes tass' de nuit et mes tass d'un jour Ça traine dans la ville avec quatre sins-cou J'suis dans ma té-ci, non j'habite pas Saint-Cloud Ça fait du ffe-bi, les tits-pe tapent un foot À se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup wouh ! On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé, demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Et tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai b'soin d'eux, non, j'ai des gavas surs et des shlass Même pas vingt mesures, t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de V.L.T m'coffraient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pé-cho ma p'tite gueule J'encule la trap dans ma zone à Villeneuve Un contre cinq nique sa mère j'suis single Cinq albums et toujours pas de single bande de fils de arhg Je m'appelle Guizmo, enculé Baloo, DJ Titaï, 8-8-2, motherfucker Générations, motherfucker YW, G.P gangsters jusqu'à l'infini Depuis l'trois juin, dans les motherfuckin' bacs, bande de bâtards Envoie ça, sa mère, eh Eh, nique toutes vos lois de fils de traîtres, vos sales emplois, vos fiches de paye J'ai de l'argent sale, des buis' de zet' Haan J'ai encore fumé tout ce qui bouge, bande d'enculés, j'suis rancunier J'ai tant lutté pour becter, on dérange pas un loup qui bouffe Wesh mes gars, wesh mes homies, dans l'illégal on On veut du she-ca, pas d'crédits, petit jespère que t'as tilté On fait les choses en temps de crise hm Baise le chrome, les neurones, pété dans une banlieue chic Paire de Nike, les petits ficelés de ceux que lÉtat veut diviser Si tu fais partie de ces gros vicieux, j'conseille ap' de timmiscer Katsende, motherfuck', nique sa mère cougna mamaw J'kicke ça sec, nique le proc', j'suis toujours où y'a de la maille moi Sénégal Mali, Diakité le nom de la Mafia Ces fils de pute vont se méfier, comme quand je bicrave de la hiya J'plane comme j'suis déchiré, tu planes comme l'avion d'Aaliyah J'voulais juste niquer, pour ce qui est de tes problèmes j'suis pas psychiatre J'reste en silencieux dans cette odeur pestilentielle Il y a des lovés, des vies en jeu, alors nique les présidentielles Moi et les autres on s'en balance, que de la gueule et pas de baloches Hémoglobine sur les phalanges, avec mon tazer j'te galoche Tu veux du shit, bah on s'arrange, y aura pas de chrome pour les salopes J'les entends rire que quand ça mange, bah ils vont bouffer des carottes C'est quoi les bails là vous êtes où ? Mes reufs et reu-soeu sous écrous Mes reufs et reu-soeu sous zetla qui font les affaires en chette-ca Ok, la t'es pas au Karaoké, dans l'pilon, pas d'parrain ok Dans l'zoo, y a pas d'scar-la, ok J'veux démonter Carla, ok ? Bande de singe va, motherfucker yiouu DJ Titaï au mix mon pote, Baloo ! Schiouf !</t>
+          <t>Yo, Ouzou gangsters, G.P gangsters Dans les bacs depuis l'trois juin GPG, motherfucker Yo, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Moi, j'aime les voir à quatre pattes quand elles transpirent et qu'elles sont nues Du biff, des sapes, une loc', un 4x4 j'te garantis qu'elle donne son cul Mothrfuck' j'suis fon' fon' fon' fon' fon' Vas-y Guizi, c'est bon bon bon bon bon Elle est bonn, elle est opé, elle me demande de goûter C'que j'ai dans l'caleçon-çon-çon-çon-çon Pétasse, j'aime quand t'es trempée Tu essayes d'me tenter Fais voir les garettes-ci avec le paquet de feuilles J'aime quand tu crois que t'es la seule Que mon amour est aveugle Moi j'suis en train d'te tromper Mais tu pourras m'avoir si ton tard-pé me rend fou J'veux pas cracher dans toi, moi je veux cracher dans vous Gros joint une pote-ca met toi à poil et on s'en fout Le toutou veut sa tte-cha et il veut pas rester en loup, ow J'baise au pluriel Tire plus de coup qu'une fusillade Qu'ce soit Christelle ou Murielle J'vais la rendre cool comme une image Elle veut m'faire une pe-pi, pe-pi J'lui rentre ça bien jusqu'au fond Évidemment qu'j'suis un cochon Qu'j'ai des potes-ca et des pochons Girl, écarte tes cuisses qu'on te shhlf motherfuck'-fuck' Girl, écarte tes cuisses qu'on te Pow, pow, pow, pow Han J'ai les phases d'un fou J'ai mes tass' de nuit et mes tass d'un jour Ça traine dans la ville avec quatre sins-cou J'suis dans ma té-ci, non j'habite pas Saint-Cloud Ça fait du ffe-bi, les tits-pe tapent un foot À se-l'ai dans la street avec un tapin j'roule Un oinj' de weed et puis j'pars d'un coup wouh ! On fait que du sale pour amasser tout le wari J'ai rempli des salles et des keumé, demande à Paris J'ai vendu des grammes et j'ai épargné mon âme Pour éviter les drames et les femmes que j'ai sali Pistolet dans le sound system, shit coffré y'a que des gars qui craignent J'suis dégouté, j'ai pas tout écoulé, j'ai encore deux ients-cli et j'suis en batterie faible Et tout l'monde roule un joint d'beuh, on va délirer dans l'espace Ces bouffons croient que j'ai b'soin d'eux, non, j'ai des gavas surs et des shlass Même pas vingt mesures, t'es pris de frissons Mec on tient les murs et nique la prison J'ai vendu d'la dure, j'ai fais des missions Les grands de V.L.T m'coffraient des litrons J'étais le Guiz de la cave, j'connais le vice et la came On veut plus trimer sa race, on veut du biff et d'la chatte Oui j'ai dealé d'la frappe, viens pé-cho ma p'tite gueule J'encule la trap dans ma zone à Villeneuve Un contre cinq nique sa mère j'suis single Cinq albums et toujours pas de single bande de fils de arhg Je m'appelle Guizmo, enculé Baloo, DJ Titaï, 8-8-2, motherfucker Générations, motherfucker YW, G.P gangsters jusqu'à l'infini Depuis l'trois juin, dans les motherfuckin' bacs, bande de bâtards Envoie ça, sa mère, eh Eh, nique toutes vos lois de fils de traîtres, vos sales emplois, vos fiches de paye J'ai de l'argent sale, des buis' de zet' Haan J'ai encore fumé tout ce qui bouge, bande d'enculés, j'suis rancunier J'ai tant lutté pour becter, on dérange pas un loup qui bouffe Wesh mes gars, wesh mes homies, dans l'illégal on On veut du she-ca, pas d'crédits, petit jespère que t'as tilté On fait les choses en temps de crise hm Baise le chrome, les neurones, pété dans une banlieue chic Paire de Nike, les petits ficelés de ceux que lÉtat veut diviser Si tu fais partie de ces gros vicieux, j'conseille ap' de timmiscer Katsende, motherfuck', nique sa mère cougna mamaw J'kicke ça sec, nique le proc', j'suis toujours où y'a de la maille moi Sénégal Mali, Diakité le nom de la Mafia Ces fils de pute vont se méfier, comme quand je bicrave de la hiya J'plane comme j'suis déchiré, tu planes comme l'avion d'Aaliyah J'voulais juste niquer, pour ce qui est de tes problèmes j'suis pas psychiatre J'reste en silencieux dans cette odeur pestilentielle Il y a des lovés, des vies en jeu, alors nique les présidentielles Moi et les autres on s'en balance, que de la gueule et pas de baloches Hémoglobine sur les phalanges, avec mon tazer j'te galoche Tu veux du shit, bah on s'arrange, y aura pas de chrome pour les salopes J'les entends rire que quand ça mange, bah ils vont bouffer des carottes C'est quoi les bails là vous êtes où ? Mes reufs et reu-soeu sous écrous Mes reufs et reu-soeu sous zetla qui font les affaires en chette-ca Ok, la t'es pas au Karaoké, dans l'pilon, pas d'parrain ok Dans l'zoo, y a pas d'scar-la, ok J'veux démonter Carla, ok ? Bande de singe va, motherfucker yiouu DJ Titaï au mix mon pote, Baloo ! Schiouf !</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Guiz' la Banquise, bande d'enfoirés Freestyle mémorable Han, l'Entourage, 2011 92 ans d'avance, évidemment Villeneuve-la-Garenne, évidemment Caravelle, évidemment Check, han J'passe mes journées à galérer avec 10 noirs sans crainte Le rap et Guizmo, mec, c'est l'histoire sans fin Le bonheur court vite, si j'l'attrape, je lui mets Les gens ne s'imaginent même pas c'que j'suis capable de fumer Quand le blues m'appelle Je vais au bout de ma peine, j'vois sur les joues de ma mère que je cause ma perte Elle dit qu'la rue, la connerie et ses vices, ça passe un temps Elle a du mal à s'faire à l'idée que son fils n'est pas un tendre En plus, pour moi, elle rêvait d'une autre vie Elle voulait pas entendre On a attrapé votre fils À tabasser un mec dans la rue d'à té-cô Pour une histoire bidon, surement les spliffs, la déconne Boum ! Ma voix te frappe comme un spliff de zeb Car mes phrases sont immatures comme une p'tite de 16 ans Tu croises un p'tit renoi foncedé qui gratte la rime Y a pas d'doute, poto, c'est Guiz' le rat d'Paris Et jvais m'mettre à bicrave mes 16, là j'ai trop d'kilos J'ai pas de prof d'philo mais j'arrive au top niveau Guizi You might also like Han, han Qu'est-ce tu croyais, négro ? Plus l'temps, plus d'pitié On s'en bat les couilles L'Entourage</t>
+          <t>Yeah, yeah, yeah Guiz' la Banquise, bande d'enfoirés Freestyle mémorable Han, l'Entourage, 2011 92 ans d'avance, évidemment Villeneuve-la-Garenne, évidemment Caravelle, évidemment Check, han J'passe mes journées à galérer avec 10 noirs sans crainte Le rap et Guizmo, mec, c'est l'histoire sans fin Le bonheur court vite, si j'l'attrape, je lui mets Les gens ne s'imaginent même pas c'que j'suis capable de fumer Quand le blues m'appelle Je vais au bout de ma peine, j'vois sur les joues de ma mère que je cause ma perte Elle dit qu'la rue, la connerie et ses vices, ça passe un temps Elle a du mal à s'faire à l'idée que son fils n'est pas un tendre En plus, pour moi, elle rêvait d'une autre vie Elle voulait pas entendre On a attrapé votre fils À tabasser un mec dans la rue d'à té-cô Pour une histoire bidon, surement les spliffs, la déconne Boum ! Ma voix te frappe comme un spliff de zeb Car mes phrases sont immatures comme une p'tite de 16 ans Tu croises un p'tit renoi foncedé qui gratte la rime Y a pas d'doute, poto, c'est Guiz' le rat d'Paris Et jvais m'mettre à bicrave mes 16, là j'ai trop d'kilos J'ai pas de prof d'philo mais j'arrive au top niveau Guizi Han, han Qu'est-ce tu croyais, négro ? Plus l'temps, plus d'pitié On s'en bat les couilles L'Entourage</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Tout les matins je la fume dans un aqua Avec mes yeux globuleux comme un poisson Pour m'attirer elle n'a pas besoin d'un appât Elle se balade dans mes veines comme la boisson J'suis dans les bas-fonds Elle est venue cacher sa tête dans mes caleçons Toujours d'humeur à faire la fête avec ma Skunk Poto c'est pas juste un gros pét', c'est une passion Oui je la fume et j'assume J'ai toqué chez elle, elle m'a prêté sa plume M'a donnée des ailes quand j'ai donné ma thune J'ai vue l'arc en ciel, j'ai visité la Lune Tu me détends Accompagné d'une lash-ka pour ma descente 1 joint 5 joint 9 joint 15 joint Je suis en train d'me défoncer il était temps Et je me perds dans ton nuage Quand tu me vole tout mes neurones Et puis je me dis que j'ai plus l'âge Mais je te donne tout mes euros Je l'effrite je la roule je la fume Ma ganja ma ganja Je l'effrite je la roule je la fume Parce que j'aime ça oui j'aime ça Je l'effrite je la roule je la fume Ganja, ma ganja Je t'ai achetée je t'ai bicrave On t'a capté sur mon visage Oui tu as calmé ma rage et on a fait des voyages Je n'avais même pas besoin de visa Ooooh, scotché au canapé, j'fume la fleur de cannabis J'ai pris celle du Bois l'Abbé, et j'vais mélanger à la tise Yeess Et j'vais dire à ma tasse-pé de rouler le prochain pendant que j'compte mes llets-bi Elle est grasse et jamais je ne m'en lasse elle m'envoie dans l'espace avec son goût d'amnésie J'me suis posé des questions j'ai trouvé les réponses dans des spliffs de beuh Dans des têtes de Skunk, dans des feuilles blunts Envoie moi vite le feu, et bah oui monsieur, j'ai les yeux rouges écarlates Tu fais dodo s'tu veux goûter ma frappe, demande à Lolo on a toute les saveurs D'la OG kush qui a le goût des bananes Contre un billet bleu, t'auras 2 grammes de zeb Fais un bisou au ton-car, pour tout mon Val de Zeb' You might also like94 OKLM guiziouzou bang C'est comme sa qu'on fais les choses bébé Je l'effrite je la roule je la fume Elle ma déjà donnée de la thune Je l'effrite je la roule je la fume Avec elle j'ai déjà fais de la thune hein YW mec GPGangsters Vodka dans le gosier, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer Mais si tu joues au con y'aura plus de délais, j'vais t'allumer comme les cow-boys Ils ont voulu ma mort j'suis vivant comme jamais je les baise avec le sourire J'ai fait des gros sous, côtoyé des voyous, pour le reste j'peux pas tout dire J'recherche un plan cul que ça dérangerait pas de baiser avec tous mes blackos Mettre ma famille à l'aise en en tuant pleins d'autres, philosophie El Chapo J'ai zoné, j'ai fraudé, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je bois plus que de raison J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau Je m'en bat les couilles de travailler les pecs J'monte à Because et j'vais chercher mon chèque La mula c'est tout ce que j'ai en tête On a foutu les gants quand toi tu faisais la fête Ces bâtards j'les maudit, les bagarres, les taudis On est là dedans, ça fais des années demandes à Lascar et Moby GP Gang ne peut pas mourir, la ZS ne peut pas courir Quatre décès en un an, ah putain c'est la merde le Guizi ne fait que souffrir Bang '</t>
+          <t>Tout les matins je la fume dans un aqua Avec mes yeux globuleux comme un poisson Pour m'attirer elle n'a pas besoin d'un appât Elle se balade dans mes veines comme la boisson J'suis dans les bas-fonds Elle est venue cacher sa tête dans mes caleçons Toujours d'humeur à faire la fête avec ma Skunk Poto c'est pas juste un gros pét', c'est une passion Oui je la fume et j'assume J'ai toqué chez elle, elle m'a prêté sa plume M'a donnée des ailes quand j'ai donné ma thune J'ai vue l'arc en ciel, j'ai visité la Lune Tu me détends Accompagné d'une lash-ka pour ma descente 1 joint 5 joint 9 joint 15 joint Je suis en train d'me défoncer il était temps Et je me perds dans ton nuage Quand tu me vole tout mes neurones Et puis je me dis que j'ai plus l'âge Mais je te donne tout mes euros Je l'effrite je la roule je la fume Ma ganja ma ganja Je l'effrite je la roule je la fume Parce que j'aime ça oui j'aime ça Je l'effrite je la roule je la fume Ganja, ma ganja Je t'ai achetée je t'ai bicrave On t'a capté sur mon visage Oui tu as calmé ma rage et on a fait des voyages Je n'avais même pas besoin de visa Ooooh, scotché au canapé, j'fume la fleur de cannabis J'ai pris celle du Bois l'Abbé, et j'vais mélanger à la tise Yeess Et j'vais dire à ma tasse-pé de rouler le prochain pendant que j'compte mes llets-bi Elle est grasse et jamais je ne m'en lasse elle m'envoie dans l'espace avec son goût d'amnésie J'me suis posé des questions j'ai trouvé les réponses dans des spliffs de beuh Dans des têtes de Skunk, dans des feuilles blunts Envoie moi vite le feu, et bah oui monsieur, j'ai les yeux rouges écarlates Tu fais dodo s'tu veux goûter ma frappe, demande à Lolo on a toute les saveurs D'la OG kush qui a le goût des bananes Contre un billet bleu, t'auras 2 grammes de zeb Fais un bisou au ton-car, pour tout mon Val de Zeb' 94 OKLM guiziouzou bang C'est comme sa qu'on fais les choses bébé Je l'effrite je la roule je la fume Elle ma déjà donnée de la thune Je l'effrite je la roule je la fume Avec elle j'ai déjà fais de la thune hein YW mec GPGangsters Vodka dans le gosier, j'étudie vos dossiers Ne tentez pas d'approcher, j'suis bizarre et j'suis névrosé Le rap j'le traite comme la pute qu'elle est J'ai d'autres soucis dans la rue, bicrave sur l'avenue Ouais j'peux t'avancer Mais si tu joues au con y'aura plus de délais, j'vais t'allumer comme les cow-boys Ils ont voulu ma mort j'suis vivant comme jamais je les baise avec le sourire J'ai fait des gros sous, côtoyé des voyous, pour le reste j'peux pas tout dire J'recherche un plan cul que ça dérangerait pas de baiser avec tous mes blackos Mettre ma famille à l'aise en en tuant pleins d'autres, philosophie El Chapo J'ai zoné, j'ai fraudé, j'ai volé la monnaie depuis écolier J'ai fraudé les tro-més, j'ai fait un deux feuilles et j'ai cru décollé Guzmán Loera, Guzmán Loera J'veux passer la drogue, canner mes ennemis comme Guzmán Loera Vous m'avez trahi, j'ai tout pris sur moi comme Guzmán Loera Je suis dans la rue depuis tout petit, ils ont le baccalauréat Guzmán Loera, Guzmán Loera Je bois plus que de raison J'ai ma puce et mon réseau J'ai ma pute à la maison J'suis sur mon cross quand il fait beau Je m'en bat les couilles de travailler les pecs J'monte à Because et j'vais chercher mon chèque La mula c'est tout ce que j'ai en tête On a foutu les gants quand toi tu faisais la fête Ces bâtards j'les maudit, les bagarres, les taudis On est là dedans, ça fais des années demandes à Lascar et Moby GP Gang ne peut pas mourir, la ZS ne peut pas courir Quatre décès en un an, ah putain c'est la merde le Guizi ne fait que souffrir Bang '</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Woup, chiguiricheck, biguiribang, Ouzou Eh, Guizi Ouzou, Preemo, c'est comme ça, rraah, eh Moi, dans ma tête j'suis dans un délire parano et méfiant Barack O. est président mais j'suis toujours un sale nègre Comme un malaise entre purs blancs et peaux foncés Ouais, c'est la merde quand l'jugement est prononcé C'est pour ça qu'il faut s'arracher d'ici Dans l'esprit, changer d'vie mais y'a pas assez d'liquide Alors mes frères se lancent dans des business illégaux Flics, cess', weed et chrome, bah ouais, ça fait pas rêver Mais souvent, mes frérots n'ont pas le choix Alors ils sortent la nuit, bicravent de l'héro', le hach', le crack Cousin, il faut un maximum de billets Alors comprends qu'après le platinium, je fuirai J'ai pas le temps, ni l'envie d'rester sur place Devenir ce mec en chien posé avec son cul d'niaks Nan, nan, j'me suis infiltré dans l'rap J'étais pas invité, alors j'suis indigné quand j'gratte Guizi Ouzou, du 9-2 à Tizi Ouzou Tu sais comment ça s'passe, eh Yonea Willy, Willy Yonea, Because Music Igoom, Clément Laisse tourner Connex, laisse tourner Connex Neuf minutes, on va l'faire, on va l'faire, on va l'faire You might also like Yo J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer puis se déchirer, j'en vois qui souffrent le martyr J'ai décidé d'éviter tout ce que j'admire car on m'le f'ra payer le jour de partir Qu'il est fou ce regard triste, abîmé par la vie, chagriné par la tise, chaque jour, attiré par la street On a les crocs dans ma ville parce qu'on est trop dans la mouise À Villeneuve, les rimes pleuvent, on a du flow en cabine, putain, j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière, j'me bute la tête avec mes deux joints d'shit Ce mode de vie me tue, les potes de rue me suivent Les porcs, je pisse dessus, j'm'efforce de vivre ici et fuck les p'tites tes-pu Et j'donne des rimes de brutes, elles sont tabous, les potes méditent dessus chaque jour et boxent les fils de putes Guizmo c'est mortel, c'est l'bordel, dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper, alors me parle pas d'flow Et moi, chaque fois je me dis que c'est la dernière Mais j'peux pas, c'est ve-gra, j'dois tiser ma Heineken Cette addiction me rends fou, c'est ma partie sombre A la Ardisson, j'exhibe ma vision devant vous, bah ouais J'suis décalqué, déphasé j'ai la gueule de l'emploi J'ai cramé le R.A.P., maqué devant le Bois La porte qui se ferme, j'croyais que j'avais touché le fond Depuis qu'elle s'est ouverte, j'suis tourmenté toutes les secondes J'ai l'impression de crever, à force de fumette Devient suspect comme une fond de rre-ve Les yeux rouges vif, négro on tue le proc' Pour mes frères qui rêvent de soutifs et ceux qui suffoquent Ils ont des problèmes de fric, dealent pour arrondir les fins d'mois Dépannent les sins-voi, même les poches pleines de vides Mais je reste digne, qui peut en dire autant ? Laissez place au charbon, écartez les tire-au-flanc On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genoux et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement, avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal, eh Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Ouzou, 460, 9-4 Yo Me tester, faut oser, fils de pute, là c'est Ouzou Tu sais qu'les oin-j sont toujours dosés Me tester, faut oser, fils de pute, là c'est Ouzou Les oin-j sont toujours dosés, posé T'sais comment ça s'passe, j'viens les exploser Je m'en bats les couilles moi, j'suis a-l là Eh, j'allais dire des grossièretés T'sais comment ça s'passe, Guizmo il a trop d'fierté, ouais Il est prêt à faire des trucs de ouf, pour sauver l'honneur Tu sais que j'ai jamais connu l'bonheur J'ai fais semblant d'sourire, semblant d'rigoler Semblant d'sourire, semblant d'rigoler That's the real J'le répète une autre fois parce qu'il faut qu'tu saches Que j'sais rien d'autre que vendre des sachets De la weed, du pilon, de l'ectasy D'la cocaïne, des gros calibres, cousin C'est trop facile, dans ma street, on connait ça Tu sais, de l'héroïne, moi j'ai donné ça À ton fils, à ta fille, à ton frère, à ton zinc' On s'en bat les couilles, tu sais que j'fume du oin-j Putain, du bédo, d'la beuh, du bédo, d'la beuh J'suis sé-po, j'suis sé-po, baveux Ouzou, si si, coucou Figuiri fils de pute, même quand j'te traite, c'est cool Keep it man Woup ! Ok, pour la peine Yo, Guizi Ouzou, si si, coucou Ohw ! Y'a des 'blèmes que j'peux pas résoudre J'me remets constamment en question même si tu penses que je parait cool Et ça les saoule, de voir que je remonte la pente Rap, rue et business, c'est le soir que le monde m'attend Clame pas le nom de ma bande, ça fait des trucs pas très net Pour, Assedic, hass' Ah les mecs, j'suis v'nu, j'ai pas Mais avec un peu de pilon j'ai le style Han, Willy buis', zone sensible, Guizi Ouzou Ok, ok, check, check, check J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz' a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant, comme la drogue et le buis' Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les deck Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infectes qui plaisent et qui baisent l'inspecteur J'reste impec', frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'Afrique, j'sais c'que tu vis J'pète que du riz, bang, j'fais des bêtes de tueries Guettes le supplice, vivre sans la maille Style champ de bataille, c'est normal que mes types vendent la came, cousin DJ Connex, trois minutes ? On peut gérer ça, vas-y, balance la sauce Balance moi une vraie sauce, énervée, énerve moi Yo, tu sais comment ça se passe J'flingue le beat, j'flingue la bass Fallait pas donner la rage à un chien d'la casse, passons J'viens d'l'asphalte qui peut nier ça ? Evite de crier quand l'equipe est dans un deal de billets falschs Y'avait des micros et des caméras ça pue la calèche Villeneuve la Garenne, y a que des schizos et des kadera Des bécannes de cross, des GP8, des T-Max, des gros gamos Mes gangstas se postent et té-squa le porche Des vrais liasses de boss, ça passe des nuits en bas Et ta ceinture à 800 balles, souvent ton Beretta te l'offre Et j'en ai vu l'faire, ils m'disaient Guizmo c'est trop facile, pour que ça marche, faut juste un gros calibre Tu parles, une perquis' et t'as plus d'étés Tu pètes un câble, repense aux preuves que t'as pu laissé Paranoïaque, tu repasses le film en boucle Bonjour aux arrivants, et adieu la vie en couple Elle est pas belle la vie, là ou ça pue la poisse De ma tess' à rue d'la Guade', on t'achève pour une ardoise Et y aura pas d'embrouilles et pas d'bruits Juste un coup d'schlass en traître, pour qu'tes troupes battent en r'traite T'es un youv, moi j'm'embête J'ai déjà défoncer les plus grands Evite de parler d'rue, mec, on sait qu't'es plus dedans Bref, on sait qui est qui et qui fait quoi Qui vé-squi et qui s'péta, qui est street et qui n'l'est pas Ouais j'débite des idées noires, dans un état depressif Mec, j't'avoue j'évite les shtars car ils aiment palper les slips Et j'ai du shit dans les burnes, j'kick quand j'ai bu Weed chambres et putes, j'fais du biff dans des rues sales Speed quand j'ai plus l'time, il m'faut plein de billets Ca sert à rien d'crier quand tu vois le flingue briller Et ouais c'est violent, on dis vient là Si tu fais l'mec affriolant, ma parole tu t'fais violer Les braves me disent virent les, pour ça qu'j'suis virulent Ils repartent tous en titubant après avoir pris deux pêches Oui, je blesse car cette vie me stress et j'suis pris de ver-tiges À cause de perquis' et des prises de zeb S'il te plaît tass-pé, fais voir tes cuisses de prêt ainsi que tes fiches de payes Si tu kiffes le diez ça le fait, le Guiz' te fait valser J'me connecte sur Facebook et j'balance une rumeur puisque t'aimes jacter Crise de nerf, tarpé, ville de merde, bah ouais Fils de gwere, braqué J'm'en bats les couilles que tu me dises que c'est moche Moi je risque mes miches quand je piste tes mioches Demande à Scar-la, le respect s'gagne On t'léchera pas la bite pour ton SLK On déteste ça, les pisseux, ces trous de balles qui sé-uss Ces putains qui choisissent le boulevard qui paye plus Chiguiricheck, biguiribang, Guizmo, L'entouseul Wesh Morpion, wesh , wesh Nénéss' Wesh Gorille, han, wesh Jeff Et tous les autres autour de moi, on n'oublie sonne-per Ça fume son pers', Skyrock bande d'enfoirés C'était Guizmo, en freestyle à l'instant sur Sky Booska-P !</t>
+          <t>Woup, chiguiricheck, biguiribang, Ouzou Eh, Guizi Ouzou, Preemo, c'est comme ça, rraah, eh Moi, dans ma tête j'suis dans un délire parano et méfiant Barack O. est président mais j'suis toujours un sale nègre Comme un malaise entre purs blancs et peaux foncés Ouais, c'est la merde quand l'jugement est prononcé C'est pour ça qu'il faut s'arracher d'ici Dans l'esprit, changer d'vie mais y'a pas assez d'liquide Alors mes frères se lancent dans des business illégaux Flics, cess', weed et chrome, bah ouais, ça fait pas rêver Mais souvent, mes frérots n'ont pas le choix Alors ils sortent la nuit, bicravent de l'héro', le hach', le crack Cousin, il faut un maximum de billets Alors comprends qu'après le platinium, je fuirai J'ai pas le temps, ni l'envie d'rester sur place Devenir ce mec en chien posé avec son cul d'niaks Nan, nan, j'me suis infiltré dans l'rap J'étais pas invité, alors j'suis indigné quand j'gratte Guizi Ouzou, du 9-2 à Tizi Ouzou Tu sais comment ça s'passe, eh Yonea Willy, Willy Yonea, Because Music Igoom, Clément Laisse tourner Connex, laisse tourner Connex Neuf minutes, on va l'faire, on va l'faire, on va l'faire Yo J'fais pas l'mytho, parfois j'picole pour oublier et pour roupiller, c'est Tétra-Hydro-Cannabinol Je vois des couples se bâtir, se désirer puis se déchirer, j'en vois qui souffrent le martyr J'ai décidé d'éviter tout ce que j'admire car on m'le f'ra payer le jour de partir Qu'il est fou ce regard triste, abîmé par la vie, chagriné par la tise, chaque jour, attiré par la street On a les crocs dans ma ville parce qu'on est trop dans la mouise À Villeneuve, les rimes pleuvent, on a du flow en cabine, putain, j'ai besoin de fric Et ouais ça pue la merde mais quand j'ai bu la bière, j'me bute la tête avec mes deux joints d'shit Ce mode de vie me tue, les potes de rue me suivent Les porcs, je pisse dessus, j'm'efforce de vivre ici et fuck les p'tites tes-pu Et j'donne des rimes de brutes, elles sont tabous, les potes méditent dessus chaque jour et boxent les fils de putes Guizmo c'est mortel, c'est l'bordel, dans l'top ten Chacune de mes phases est crue, comme un carpaccio MC tu sais pas rapper, alors me parle pas d'flow Et moi, chaque fois je me dis que c'est la dernière Mais j'peux pas, c'est ve-gra, j'dois tiser ma Heineken Cette addiction me rends fou, c'est ma partie sombre A la Ardisson, j'exhibe ma vision devant vous, bah ouais J'suis décalqué, déphasé j'ai la gueule de l'emploi J'ai cramé le R.A.P., maqué devant le Bois La porte qui se ferme, j'croyais que j'avais touché le fond Depuis qu'elle s'est ouverte, j'suis tourmenté toutes les secondes J'ai l'impression de crever, à force de fumette Devient suspect comme une fond de rre-ve Les yeux rouges vif, négro on tue le proc' Pour mes frères qui rêvent de soutifs et ceux qui suffoquent Ils ont des problèmes de fric, dealent pour arrondir les fins d'mois Dépannent les sins-voi, même les poches pleines de vides Mais je reste digne, qui peut en dire autant ? Laissez place au charbon, écartez les tire-au-flanc On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genoux et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement, avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal, eh Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Ouzou, 460, 9-4 Yo Me tester, faut oser, fils de pute, là c'est Ouzou Tu sais qu'les oin-j sont toujours dosés Me tester, faut oser, fils de pute, là c'est Ouzou Les oin-j sont toujours dosés, posé T'sais comment ça s'passe, j'viens les exploser Je m'en bats les couilles moi, j'suis a-l là Eh, j'allais dire des grossièretés T'sais comment ça s'passe, Guizmo il a trop d'fierté, ouais Il est prêt à faire des trucs de ouf, pour sauver l'honneur Tu sais que j'ai jamais connu l'bonheur J'ai fais semblant d'sourire, semblant d'rigoler Semblant d'sourire, semblant d'rigoler That's the real J'le répète une autre fois parce qu'il faut qu'tu saches Que j'sais rien d'autre que vendre des sachets De la weed, du pilon, de l'ectasy D'la cocaïne, des gros calibres, cousin C'est trop facile, dans ma street, on connait ça Tu sais, de l'héroïne, moi j'ai donné ça À ton fils, à ta fille, à ton frère, à ton zinc' On s'en bat les couilles, tu sais que j'fume du oin-j Putain, du bédo, d'la beuh, du bédo, d'la beuh J'suis sé-po, j'suis sé-po, baveux Ouzou, si si, coucou Figuiri fils de pute, même quand j'te traite, c'est cool Keep it man Woup ! Ok, pour la peine Yo, Guizi Ouzou, si si, coucou Ohw ! Y'a des 'blèmes que j'peux pas résoudre J'me remets constamment en question même si tu penses que je parait cool Et ça les saoule, de voir que je remonte la pente Rap, rue et business, c'est le soir que le monde m'attend Clame pas le nom de ma bande, ça fait des trucs pas très net Pour, Assedic, hass' Ah les mecs, j'suis v'nu, j'ai pas Mais avec un peu de pilon j'ai le style Han, Willy buis', zone sensible, Guizi Ouzou Ok, ok, check, check, check J'ai du mal à parler d'autre chose que d'alcool et de shit Nique la proc' et le smic, vite apportez le fric Guiz' a croqué le fruit tiser la bière, oui c'est la merde J'vis entre la corde et le vide A force que le Fisc harcèle les gens C'est un casse tête méchant, comme la drogue et le buis' Malcolm est le guide des gars d'mon équipe Parc'qu'on est vifs, le DAS et les tasses on évite Dar sont les villes ou ya plus d'argent Ca pue l'afghan les meurtres et les bastons défilent Affronter Guiz dans l'rap c'est dead J'men tape des mecs qui s'la jouent mais qui m'embrasse les ièp J'prends ça pépère, j'pense à mes frères Qui baisent toutes les balances qui rencardent les deck Remballe tes vers, j'fais dix fois mieux En 4-4 je bédave juste 4 taff de Zeb bien fraîche J'aime bien faire des textes infectes qui plaisent et qui baisent l'inspecteur J'reste impec', frotte pas ça pique Si l'rap était de l'air y'aurai trop d'asthmatique Sauvage d'Afrique, j'sais c'que tu vis J'pète que du riz, bang, j'fais des bêtes de tueries Guettes le supplice, vivre sans la maille Style champ de bataille, c'est normal que mes types vendent la came, cousin DJ Connex, trois minutes ? On peut gérer ça, vas-y, balance la sauce Balance moi une vraie sauce, énervée, énerve moi Yo, tu sais comment ça se passe J'flingue le beat, j'flingue la bass Fallait pas donner la rage à un chien d'la casse, passons J'viens d'l'asphalte qui peut nier ça ? Evite de crier quand l'equipe est dans un deal de billets falschs Y'avait des micros et des caméras ça pue la calèche Villeneuve la Garenne, y a que des schizos et des kadera Des bécannes de cross, des GP8, des T-Max, des gros gamos Mes gangstas se postent et té-squa le porche Des vrais liasses de boss, ça passe des nuits en bas Et ta ceinture à 800 balles, souvent ton Beretta te l'offre Et j'en ai vu l'faire, ils m'disaient Guizmo c'est trop facile, pour que ça marche, faut juste un gros calibre Tu parles, une perquis' et t'as plus d'étés Tu pètes un câble, repense aux preuves que t'as pu laissé Paranoïaque, tu repasses le film en boucle Bonjour aux arrivants, et adieu la vie en couple Elle est pas belle la vie, là ou ça pue la poisse De ma tess' à rue d'la Guade', on t'achève pour une ardoise Et y aura pas d'embrouilles et pas d'bruits Juste un coup d'schlass en traître, pour qu'tes troupes battent en r'traite T'es un youv, moi j'm'embête J'ai déjà défoncer les plus grands Evite de parler d'rue, mec, on sait qu't'es plus dedans Bref, on sait qui est qui et qui fait quoi Qui vé-squi et qui s'péta, qui est street et qui n'l'est pas Ouais j'débite des idées noires, dans un état depressif Mec, j't'avoue j'évite les shtars car ils aiment palper les slips Et j'ai du shit dans les burnes, j'kick quand j'ai bu Weed chambres et putes, j'fais du biff dans des rues sales Speed quand j'ai plus l'time, il m'faut plein de billets Ca sert à rien d'crier quand tu vois le flingue briller Et ouais c'est violent, on dis vient là Si tu fais l'mec affriolant, ma parole tu t'fais violer Les braves me disent virent les, pour ça qu'j'suis virulent Ils repartent tous en titubant après avoir pris deux pêches Oui, je blesse car cette vie me stress et j'suis pris de ver-tiges À cause de perquis' et des prises de zeb S'il te plaît tass-pé, fais voir tes cuisses de prêt ainsi que tes fiches de payes Si tu kiffes le diez ça le fait, le Guiz' te fait valser J'me connecte sur Facebook et j'balance une rumeur puisque t'aimes jacter Crise de nerf, tarpé, ville de merde, bah ouais Fils de gwere, braqué J'm'en bats les couilles que tu me dises que c'est moche Moi je risque mes miches quand je piste tes mioches Demande à Scar-la, le respect s'gagne On t'léchera pas la bite pour ton SLK On déteste ça, les pisseux, ces trous de balles qui sé-uss Ces putains qui choisissent le boulevard qui paye plus Chiguiricheck, biguiribang, Guizmo, L'entouseul Wesh Morpion, wesh , wesh Nénéss' Wesh Gorille, han, wesh Jeff Et tous les autres autour de moi, on n'oublie sonne-per Ça fume son pers', Skyrock bande d'enfoirés C'était Guizmo, en freestyle à l'instant sur Sky Booska-P !</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>J'ai toujours vu mon grand frère porter ses couilles Dépanner la mama avec ses forces et ses douilles Mec on est pas des pédales je suis pas morche , mais j'suis ouf Et tu peux ramener tes gars tout tes potes on les troue Tes potes on les bouffes P38 dans le zoo Dit moi tu vas faire quoi si sa part en illes-cou Villeneuve la garenne poto sa pue la lère-ga Tu peux te faire fumer pour un peu moins d'un ze-dou Sa triquar la tess sa bicrave la cess Des trimards, des flicards des ptits crament la zeb Efficace mais bizarre le visage des sistas des primes et des shlags Et les trimards latteste Mec on est malade paumés dans la te-ci Prends ton 20 balles ou nique ta mère si t'es indécis On peut te faire du mal dégage de la espèce dimbécile Je devient nerveux a force de fumer de la résine J'ai grandis dans les blocks de béton Poto la rue m'a charmé , j'ai fait du sale et puis je suis bé-tom Depuis que j'ai 15 ans je suis cramé J'ai déjà fait le tour du 77, le tour du 94,le tour du 92 Le tour des meufs plates, le tour des meufs crades Le tour des meufs qui voulait que le guizmo , et le tour des meufs classes Je veux mon biff et puis c'est tout J'ai mes bastos et mon six-coups Me compare pas a zifou , moi j'ai grandis dans la rue je pacte avec les loups Eh je veux mon biff et puis c'est tout x2 Plus gros que le monde , les yeux plus gros que Big Black M On fait que de la bombe, cousin té-ma le street market Aaah les yeux plus gros que Big Black M Aaah négro té-ma le street market GangYou might also like1</t>
+          <t>J'ai toujours vu mon grand frère porter ses couilles Dépanner la mama avec ses forces et ses douilles Mec on est pas des pédales je suis pas morche , mais j'suis ouf Et tu peux ramener tes gars tout tes potes on les troue Tes potes on les bouffes P38 dans le zoo Dit moi tu vas faire quoi si sa part en illes-cou Villeneuve la garenne poto sa pue la lère-ga Tu peux te faire fumer pour un peu moins d'un ze-dou Sa triquar la tess sa bicrave la cess Des trimards, des flicards des ptits crament la zeb Efficace mais bizarre le visage des sistas des primes et des shlags Et les trimards latteste Mec on est malade paumés dans la te-ci Prends ton 20 balles ou nique ta mère si t'es indécis On peut te faire du mal dégage de la espèce dimbécile Je devient nerveux a force de fumer de la résine J'ai grandis dans les blocks de béton Poto la rue m'a charmé , j'ai fait du sale et puis je suis bé-tom Depuis que j'ai 15 ans je suis cramé J'ai déjà fait le tour du 77, le tour du 94,le tour du 92 Le tour des meufs plates, le tour des meufs crades Le tour des meufs qui voulait que le guizmo , et le tour des meufs classes Je veux mon biff et puis c'est tout J'ai mes bastos et mon six-coups Me compare pas a zifou , moi j'ai grandis dans la rue je pacte avec les loups Eh je veux mon biff et puis c'est tout x2 Plus gros que le monde , les yeux plus gros que Big Black M On fait que de la bombe, cousin té-ma le street market Aaah les yeux plus gros que Big Black M Aaah négro té-ma le street market Gang1</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Yo, Yo Yo, Yo, Yo On est sous afghan, souvent dead Les MC sont des courants d'air Moi et mes potes, on est des ouragans À zoner dans nos ghettos, parsemés de ces gues-dro Qui vont t'appeler, même t'harceler Pour du bedo La jeunesse, faut se lever tôt Même si ça va, ça vient L'avenir nous appartient Fuck racailler sur le béton On vaut plus que ça J'crois pas que les juges le savent Dans le rap, dans le taf, pas traités à notre juste valeur Des leçons j'en donne pas, encore heureux Le futur nous sourira, pour l'instant on sort errer On s'accroche et on lâche pas le morceau Du poids sur les épaules et j'te parle pas de dorsaux Où sont nos rêves et nos révélations? Merde, on a ravalé ça Tout oublier pour oublier Comme des convalescents Les vrais voyous, ils portent pas de requins Ils sont en costard, gros plats Ou sur des plages de sable fin You might also like On sortira du quartier Du quartier on sortira Du département, d'la baraque ou de l'appartement Puis de l'appartement, on partira de la région On quittera le pays, p-être même sans donner de raisons Mais on reviendra au quartier, on reviendra au pays J'en ai besoin, m'en voulez pas comme Shotla Eteyi Il faut qu'on se serre les coudes Écoute, j'ai compris que quand tu suces des... Et bah tu perds tes boules Alors on reste fiers, la tête haute, sur les épaules Besoin de quelques pierre pour hurler mes fautes J'ai confiance en nous On vise haut, on vise loin On fuit le zoo, on file droit Où sont nos rêves et nos révélations? Merde, on a ravalé ça Tout oublier pour oublier Comme des convalescents Les vrais voyous, ils portent pas de requins Ils sont en costard, gros plats Ou sur des plages de sable fin</t>
+          <t>Yo, Yo Yo, Yo, Yo On est sous afghan, souvent dead Les MC sont des courants d'air Moi et mes potes, on est des ouragans À zoner dans nos ghettos, parsemés de ces gues-dro Qui vont t'appeler, même t'harceler Pour du bedo La jeunesse, faut se lever tôt Même si ça va, ça vient L'avenir nous appartient Fuck racailler sur le béton On vaut plus que ça J'crois pas que les juges le savent Dans le rap, dans le taf, pas traités à notre juste valeur Des leçons j'en donne pas, encore heureux Le futur nous sourira, pour l'instant on sort errer On s'accroche et on lâche pas le morceau Du poids sur les épaules et j'te parle pas de dorsaux Où sont nos rêves et nos révélations? Merde, on a ravalé ça Tout oublier pour oublier Comme des convalescents Les vrais voyous, ils portent pas de requins Ils sont en costard, gros plats Ou sur des plages de sable fin On sortira du quartier Du quartier on sortira Du département, d'la baraque ou de l'appartement Puis de l'appartement, on partira de la région On quittera le pays, p-être même sans donner de raisons Mais on reviendra au quartier, on reviendra au pays J'en ai besoin, m'en voulez pas comme Shotla Eteyi Il faut qu'on se serre les coudes Écoute, j'ai compris que quand tu suces des... Et bah tu perds tes boules Alors on reste fiers, la tête haute, sur les épaules Besoin de quelques pierre pour hurler mes fautes J'ai confiance en nous On vise haut, on vise loin On fuit le zoo, on file droit Où sont nos rêves et nos révélations? Merde, on a ravalé ça Tout oublier pour oublier Comme des convalescents Les vrais voyous, ils portent pas de requins Ils sont en costard, gros plats Ou sur des plages de sable fin</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Batiment 9, 23h30 Mon ient-cli et en chien va falloir que j'le rentre fils de pute J'ai bu la pisse du sheitan, et tout les jours j'suis shité Jétais un enfant très calme mais j'ai finit dissipé Men bas les couilles d'ici bas,J'vais m'barrer d'ici peu J'vai mourir dans pas longtemps parce-que c'est ma destinée Et j'men fou d'ton avis, tu ma jamais estimer J'suis partit a la pêche, t'es rentrer dans mes filets Et javais walou, walou Rien que j'fesait le voyou Un flash et des cigarettes, j'rappe comme un loup-garou J'me suis remis en renard, envie d'racheter un Runner Jachète un pompe a Gare du Nord Et j'vien vous niquer vos mères bandes de fils de putes Tu m'connais pas j'peut faire du sale gros J'envoie des balles j'fait plus de saltos J'tai respecter gratuit tétais un fils de pute fils de pute La tète de ma mère maintenant j'vise le but Tu veut un gramme toi ? Frérot calme toi Tu ma fait des truc bizarres et t'es ma femme toi ? On fait des truc de barges, whalla j'pète les plombs J'en ai marre, de ma vie, que j'traîne avec des cons J'ai le cur bloquer sous la carapace J'attend les condés avec mon masque a gaz Tu m'a jamais fait la passe quand jétais a la place J'vai tous vous enculer parce-que j'veut toujours plus Tu connais pas ma vie, té-ma la carcasse Ça fait au moin cinq piges que j'ai pas pris l'bus Le fric, le shit, le deal, la drogue gros fait belek a toi Le shit,le deal, le fric, la morgue c'est chacun son choix You might also likeEt toi tu fait pas chier ou ça fait blaka,blaka J'ai des potos qui manges des pâtes au placard Moi c'est Lamine et j'suis l'fils de Boubakar J'ai des re-frés ,j'ai des cousins, j'ai des cle-ons a Dakar He, ya ??? qui a voler dans ta ??? ??? on a fait la bagarre J'suis pas Leonard de Vinci mais tu vas sucer mon art Toi t'es un fils de pute tu respirera pas mon air Jétais en chien d'euros, maintenant j'penav en dolards Mon daron qui m'frappai, j'ai connu ma douleur Quelques années après bha j'suis devenu un taulard fils de, fils de, fils de pute fils de, fils de, fils de pute Fils de putain d'travailleuse Ma drogue est ravageuse Mon frère c'est un arracheur Mon potes c'est un arnaqueur Ça bicrave tout les 34 d'heures T'aura mon ex mais t'aura pas ma sur J'embrasse le front de ma mère et je voit la sueur J'ai connu les déceptions, j'connais pas la paix ??? ??? on a pas peur de toi même si tu connais des gents Fils de lâche J'prend mon biff et j'me nachave J'ai tout fait en cachette J'ai tout remplis dans l'sachet Dans le bain j'ai mis du kasher Et j'ai vendu du que-cra Parce-que a l'époque jétais par-terre Enculer, j'vai te fumer J'me réveille j'suis mal luné J'ai pas fumer mon joint J'suis pas rancunier de ces fumiers Fait pas ton bad-boy Quand t'a bu de l'alcool Tétais déjà fan de moi a mon premier album Lascar de tess on fait des tractions Et si tu m'doit du papiers on fait leffraction bha ouai J'ai du te-shi dans mon caleçon Si tu mattrape, comme Faïd j'fais lévasion</t>
+          <t>Batiment 9, 23h30 Mon ient-cli et en chien va falloir que j'le rentre fils de pute J'ai bu la pisse du sheitan, et tout les jours j'suis shité Jétais un enfant très calme mais j'ai finit dissipé Men bas les couilles d'ici bas,J'vais m'barrer d'ici peu J'vai mourir dans pas longtemps parce-que c'est ma destinée Et j'men fou d'ton avis, tu ma jamais estimer J'suis partit a la pêche, t'es rentrer dans mes filets Et javais walou, walou Rien que j'fesait le voyou Un flash et des cigarettes, j'rappe comme un loup-garou J'me suis remis en renard, envie d'racheter un Runner Jachète un pompe a Gare du Nord Et j'vien vous niquer vos mères bandes de fils de putes Tu m'connais pas j'peut faire du sale gros J'envoie des balles j'fait plus de saltos J'tai respecter gratuit tétais un fils de pute fils de pute La tète de ma mère maintenant j'vise le but Tu veut un gramme toi ? Frérot calme toi Tu ma fait des truc bizarres et t'es ma femme toi ? On fait des truc de barges, whalla j'pète les plombs J'en ai marre, de ma vie, que j'traîne avec des cons J'ai le cur bloquer sous la carapace J'attend les condés avec mon masque a gaz Tu m'a jamais fait la passe quand jétais a la place J'vai tous vous enculer parce-que j'veut toujours plus Tu connais pas ma vie, té-ma la carcasse Ça fait au moin cinq piges que j'ai pas pris l'bus Le fric, le shit, le deal, la drogue gros fait belek a toi Le shit,le deal, le fric, la morgue c'est chacun son choix Et toi tu fait pas chier ou ça fait blaka,blaka J'ai des potos qui manges des pâtes au placard Moi c'est Lamine et j'suis l'fils de Boubakar J'ai des re-frés ,j'ai des cousins, j'ai des cle-ons a Dakar He, ya ??? qui a voler dans ta ??? ??? on a fait la bagarre J'suis pas Leonard de Vinci mais tu vas sucer mon art Toi t'es un fils de pute tu respirera pas mon air Jétais en chien d'euros, maintenant j'penav en dolards Mon daron qui m'frappai, j'ai connu ma douleur Quelques années après bha j'suis devenu un taulard fils de, fils de, fils de pute fils de, fils de, fils de pute Fils de putain d'travailleuse Ma drogue est ravageuse Mon frère c'est un arracheur Mon potes c'est un arnaqueur Ça bicrave tout les 34 d'heures T'aura mon ex mais t'aura pas ma sur J'embrasse le front de ma mère et je voit la sueur J'ai connu les déceptions, j'connais pas la paix ??? ??? on a pas peur de toi même si tu connais des gents Fils de lâche J'prend mon biff et j'me nachave J'ai tout fait en cachette J'ai tout remplis dans l'sachet Dans le bain j'ai mis du kasher Et j'ai vendu du que-cra Parce-que a l'époque jétais par-terre Enculer, j'vai te fumer J'me réveille j'suis mal luné J'ai pas fumer mon joint J'suis pas rancunier de ces fumiers Fait pas ton bad-boy Quand t'a bu de l'alcool Tétais déjà fan de moi a mon premier album Lascar de tess on fait des tractions Et si tu m'doit du papiers on fait leffraction bha ouai J'ai du te-shi dans mon caleçon Si tu mattrape, comme Faïd j'fais lévasion</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Toujours sincère quand j'écris l'aubaine, parce que la vie nous a pris nos rêves Loin des primes et des prix Nobel Pistés, les flics aux fesses, ça nous rend tous oufs Les mecs se la jouent Jamel quand t'as besoin d'un coup d'pouce Plus solitaire que solidaire, plus prolétaire que aisé Et nos p'tits frères deviendront ceux qu'le commissaire veut serrer Et j'veux bien croire qu'on est pas condamné On attend qu'l'espoir nous contamine, marre de voir les bons caner Le 9.2 a fait Guizmo, tachez d'vous en rappeler Les nuits noires, les nuits blanches, et les nuits à rapper Le frigo vide comme chez beaucoup et le biff à chasser Les portes se ferment, alors y a qu'le deal a la clé Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères You might also like Guette comment on s'y prend, on fait nos trucs en silence Dans ces bâtiments de ciment pour un jour arrêter d'trimer Nan c'est pas évident mais y a pas de coïncidence Notre destinée est de briller On va même pas s'en faire, même si ça part en vrille On sait qu'un homme digne de c'nom n'connaîtra pas l'enfer Enfin on espère, fais ta route et le bien quand tu peux Un jour tu pars, mais c'est pas quand tu veux Quand t'as la flemme, bah en fait tu devrais pas Souvent tu réalises quand les refrés partent J'te parle de toi, de nous, de lui, de elle De vous, de ces valeurs qu'on respecte et qui tiennent debout Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Proche des miens, parce que la vie m'a apprit comme ça Depuis l'berceau, jusqu'à ma première grosse phase Proche des miens, parce que la vie m'a apprit comme ça Depuis l'berceau, jusqu'à ma première grosse phase Catalogué à tous les coups, on va pas de longs débats Top départ, on est de ceux qu'les condés traquent Envie d'vacances, de rébellion, de vendetta D'oublier qu'Papa et Maman sont endettés La vie c'est pas une cagoule, et un Beretta Evidemment que les condés vont enquêter On sait pas trop c'qu'il faut faire entre les hopitaux Et les toxicos, on est des gros schizophrènes Ça fait mal à la tête quand c'est la hess dans les vêtements Le terrain, les endettements Des angoisses, y'en a tellement Trop souvent ça finit bêtement, la cage ou les pieds d'vant Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères2</t>
+          <t>Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Toujours sincère quand j'écris l'aubaine, parce que la vie nous a pris nos rêves Loin des primes et des prix Nobel Pistés, les flics aux fesses, ça nous rend tous oufs Les mecs se la jouent Jamel quand t'as besoin d'un coup d'pouce Plus solitaire que solidaire, plus prolétaire que aisé Et nos p'tits frères deviendront ceux qu'le commissaire veut serrer Et j'veux bien croire qu'on est pas condamné On attend qu'l'espoir nous contamine, marre de voir les bons caner Le 9.2 a fait Guizmo, tachez d'vous en rappeler Les nuits noires, les nuits blanches, et les nuits à rapper Le frigo vide comme chez beaucoup et le biff à chasser Les portes se ferment, alors y a qu'le deal a la clé Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Guette comment on s'y prend, on fait nos trucs en silence Dans ces bâtiments de ciment pour un jour arrêter d'trimer Nan c'est pas évident mais y a pas de coïncidence Notre destinée est de briller On va même pas s'en faire, même si ça part en vrille On sait qu'un homme digne de c'nom n'connaîtra pas l'enfer Enfin on espère, fais ta route et le bien quand tu peux Un jour tu pars, mais c'est pas quand tu veux Quand t'as la flemme, bah en fait tu devrais pas Souvent tu réalises quand les refrés partent J'te parle de toi, de nous, de lui, de elle De vous, de ces valeurs qu'on respecte et qui tiennent debout Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Proche des miens, parce que la vie m'a apprit comme ça Depuis l'berceau, jusqu'à ma première grosse phase Proche des miens, parce que la vie m'a apprit comme ça Depuis l'berceau, jusqu'à ma première grosse phase Catalogué à tous les coups, on va pas de longs débats Top départ, on est de ceux qu'les condés traquent Envie d'vacances, de rébellion, de vendetta D'oublier qu'Papa et Maman sont endettés La vie c'est pas une cagoule, et un Beretta Evidemment que les condés vont enquêter On sait pas trop c'qu'il faut faire entre les hopitaux Et les toxicos, on est des gros schizophrènes Ça fait mal à la tête quand c'est la hess dans les vêtements Le terrain, les endettements Des angoisses, y'en a tellement Trop souvent ça finit bêtement, la cage ou les pieds d'vant Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères Vise le ciel, fais tourner la weed On a besoin de s'évader Juste le son, nos potes et nos familles Nous aident à surmonter nos galères2</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Guizmo YW Je t'aime, moi non plus Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim J'en ai connu des nanas avec un profil douteux Je jouais du piano debout alors elles voulaient coucher Mais moi j'ai besoin de sous et il m'faut un kil ou deux Elle veux m'raconter des choses elle veut me voir l'écouter Et quand elle m'regarde écrire elle m'demande une dédicace Je lui dis roule un joint de Weed soit gentille et délicate Il faut que j'retourne dehors à la conquête de mon biffe À la conquête de mon disque d'or tu n'as pas compris Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim You might also like Jeune galérien fait que des va-et-vient Il récolte de l'amour mais ne donne jamais le sien Jeune galérien, jeune galérien veut pas le monde à ses pieds non il le veut dans ses mains Tu veux que je sois ton Clyde tu veux être ma Bonnie Mais des fois je serais Ike et tu seras Tina J'te déteste à la mort et je t'aime à la folie Tu veux rencontrer ma mère et visiter ma villa Mais j'fais des va-et-vient j'fais des va-et-vient Tes problèmes c'est pas les miens pourquoi tu t'es refait les seins Renards insaisissables le cur endolori Je vois tout en noir et blanc toi tu vois tout en coloris Et je t'ai rendu triste parce que je le suis moi Prends ta sensualité, retourne toi et fuis moi Et j't'ai déjà dis arrête, je m'en vais pour toujours en te disant que je vais acheter des cigarettes Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Me revoilà dans la rue sous les lumières de la ville Sentiment de liberté ou bien sentiment de vide J'me rappelle quand j'écrivais tu venais derrière mon épaule Tu m'regardais comme un roi tu demandais une dédicace J't'envoyais rouler ma beuh j'étais un peu indélicat J'ai décollé j'attérris pas, j'en pense pas moins mais je le dis pas A toutes les femmes du monde qui voulait être ma Bonnie Va-et-vient j'suis abonné, je n'ai jamais rien promis Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Jeune galérien fais que des va-et-vient Il récolte de l'amour mais ne donne jamais le sien Jeune galérien, jeune galérien veut pas le monde à ses pieds non il le veut dans ses mains Ouai, Guizbourg se barre quand Guizbar se bourre YW Guiziouzou</t>
+          <t>Guizmo YW Je t'aime, moi non plus Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim J'en ai connu des nanas avec un profil douteux Je jouais du piano debout alors elles voulaient coucher Mais moi j'ai besoin de sous et il m'faut un kil ou deux Elle veux m'raconter des choses elle veut me voir l'écouter Et quand elle m'regarde écrire elle m'demande une dédicace Je lui dis roule un joint de Weed soit gentille et délicate Il faut que j'retourne dehors à la conquête de mon biffe À la conquête de mon disque d'or tu n'as pas compris Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Jeune galérien fait que des va-et-vient Il récolte de l'amour mais ne donne jamais le sien Jeune galérien, jeune galérien veut pas le monde à ses pieds non il le veut dans ses mains Tu veux que je sois ton Clyde tu veux être ma Bonnie Mais des fois je serais Ike et tu seras Tina J'te déteste à la mort et je t'aime à la folie Tu veux rencontrer ma mère et visiter ma villa Mais j'fais des va-et-vient j'fais des va-et-vient Tes problèmes c'est pas les miens pourquoi tu t'es refait les seins Renards insaisissables le cur endolori Je vois tout en noir et blanc toi tu vois tout en coloris Et je t'ai rendu triste parce que je le suis moi Prends ta sensualité, retourne toi et fuis moi Et j't'ai déjà dis arrête, je m'en vais pour toujours en te disant que je vais acheter des cigarettes Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Me revoilà dans la rue sous les lumières de la ville Sentiment de liberté ou bien sentiment de vide J'me rappelle quand j'écrivais tu venais derrière mon épaule Tu m'regardais comme un roi tu demandais une dédicace J't'envoyais rouler ma beuh j'étais un peu indélicat J'ai décollé j'attérris pas, j'en pense pas moins mais je le dis pas A toutes les femmes du monde qui voulait être ma Bonnie Va-et-vient j'suis abonné, je n'ai jamais rien promis Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Ancien jeune galérien fait des va-et-vient Entre Paris et Meda et puis même entre tes reins Il faut que je roule un joint il suffira d'un rien Tu me feras l'amour et à manger quand j'aurais faim Jeune galérien fais que des va-et-vient Il récolte de l'amour mais ne donne jamais le sien Jeune galérien, jeune galérien veut pas le monde à ses pieds non il le veut dans ses mains Ouai, Guizbourg se barre quand Guizbar se bourre YW Guiziouzou</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde You might also like Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
+          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>J'suis un gars fair-play mais je les vois alertés Quand je fais un concert avec Rizzle Kicks J'tiens juste à leur dire que la concurrence est pannée comme un chicken wings Et ça m'étonne pas que mon public soit pris de stupeur Du blé, des patates, un terrain, j'suis un agriculteur Et c'est la merde dans ma vie, souvent j'pètes un cable Ma meuf voulait kiffer la vibe avec son mec, j'lui ai offert un Diam's Et on copie personne Le ballon et la barre, c'est mes lascars pas Olive et Tom Et puis j'tavoue que j'vois le rap comme un grand couscous Depuis qu'j'suis plus d'dans y'a pas de rage donc c'est une entourloupe Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU Et j'rumine quand je rap, les gars j'traine plus dans le 78 depuis qu'Yvelines m'a mis dans une Trappes Et on tabassera le premier qui rira sur ma tèce J'suis muslim mais pour un beef j'mets une kippa sur ma têteYou might also like</t>
+          <t>J'suis un gars fair-play mais je les vois alertés Quand je fais un concert avec Rizzle Kicks J'tiens juste à leur dire que la concurrence est pannée comme un chicken wings Et ça m'étonne pas que mon public soit pris de stupeur Du blé, des patates, un terrain, j'suis un agriculteur Et c'est la merde dans ma vie, souvent j'pètes un cable Ma meuf voulait kiffer la vibe avec son mec, j'lui ai offert un Diam's Et on copie personne Le ballon et la barre, c'est mes lascars pas Olive et Tom Et puis j'tavoue que j'vois le rap comme un grand couscous Depuis qu'j'suis plus d'dans y'a pas de rage donc c'est une entourloupe Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU Et j'rumine quand je rap, les gars j'traine plus dans le 78 depuis qu'Yvelines m'a mis dans une Trappes Et on tabassera le premier qui rira sur ma tèce J'suis muslim mais pour un beef j'mets une kippa sur ma tête</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Hey Teez, Guiz Wooh YW Yagaya TAÏZ Baby Dis-leur Ouzou Guizi coucou sisi oui cest nous Ahou Jsuis venu au monde Jfaisais presque un mètre, presque 4 kilos Ma daronne cest Aretha Franklin, gros cest pas J.Lo Et puis mon daron en couilles, qui sprenait pour Al Pacino À trop tirer sur les gens, il sest tapé un tas dchimio Cest la crise, cest pas lenfer Mais cest intense Même derrière le masque on sourit à lenvers Comme des requins blancs Y a pas dsoleil à part quand ça lève le 50 Dans lstup ou dans lvol fait gaff à qui tu fais montrer ta planque Jfumais du shit quand jétais ptit jcroyais cétait funky Et aujourdhui, les yux fonce-dé comme la poupée Chucky Un pote denfance qui tape la C, il a même plus dchicots Passer du coté des dealeurs à celui des junkies Rixes et prises dotages Maillot qatari, nan, YW avec un ptit floquage De la sueur à la soie, du rire au larme On pèse le pour, le contre, et le shit au gramme, Teez You might also like Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Comme 9.4 80 pour les Spaggiari qui arrivent à paris Ceux qui font pas crari Tous illicites comme Salim Lakhdari, pas dpanique Cest Teez Guiz, fine équipe, cest inédit On tfait un film on fait kiffer ta bitch et les cinéphiles Jenlève mon caleçon, coup dboule comme Zinedine Le champagne est millésime, Guizmo, TAÏZ inédit Et un un instant ta vie sbrise, y a rien qui répare Tes athée mais tas cru en dieu quand tas crié Tirez pas ! Et quand y a le mini gremlins, le renard il débarque Jvois mon truc devant tout lmonde, et jarrive sans crier gare Y a les stups en bas dchez moi, ça marrangerait quils dégagent Et si tu veux du filtré, il faut grimper dix étages Allez viens ! Jsuis en bas du bloc, brolique dans le froc Si ils payent pas maintenant, tu sors pas du coffre Jsuis en bas du bloc, brolique dans le froc Si ils payent pas maintenant, tu sors pas du coffre Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule On a vécu les choses en vrai, pas en les racontant Et lautre qua donné mon ze-bla cest celui-là quon pend Rien quje cours, mais cest pas lbon sens Tes pas content Si tes un traitre, on t'bannit Texistes plus, comme le rap conscient On a vécu les choses en vrai, pas en les racontant Et lautre qua donné mon ze-bla cest celui-là quon pend Rien quje cours, mais cest pas lbon sens Tes pas content Si tes un traitre, on t'bannit Texistes plus, comme le rap conscient Bordel, Ha ha Hein, Yagaya Yagaflemme yagaflex Zbiguili-zbang ziguili-check Yah YW Maintenant tu connais le thème Guizmo TAIZ motherfucker Maintenant tu connais le thème Maintenant tu connais le thème Tes pas content on sort le Glock Wow Ça flingue ça flingue ça flingue ! Ils ont voulu fuir! comme la dit ldaron Yagaya Ahou Zbigilizbang rires Ah, ah Cest bon ?</t>
+          <t>Hey Teez, Guiz Wooh YW Yagaya TAÏZ Baby Dis-leur Ouzou Guizi coucou sisi oui cest nous Ahou Jsuis venu au monde Jfaisais presque un mètre, presque 4 kilos Ma daronne cest Aretha Franklin, gros cest pas J.Lo Et puis mon daron en couilles, qui sprenait pour Al Pacino À trop tirer sur les gens, il sest tapé un tas dchimio Cest la crise, cest pas lenfer Mais cest intense Même derrière le masque on sourit à lenvers Comme des requins blancs Y a pas dsoleil à part quand ça lève le 50 Dans lstup ou dans lvol fait gaff à qui tu fais montrer ta planque Jfumais du shit quand jétais ptit jcroyais cétait funky Et aujourdhui, les yux fonce-dé comme la poupée Chucky Un pote denfance qui tape la C, il a même plus dchicots Passer du coté des dealeurs à celui des junkies Rixes et prises dotages Maillot qatari, nan, YW avec un ptit floquage De la sueur à la soie, du rire au larme On pèse le pour, le contre, et le shit au gramme, Teez Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Comme 9.4 80 pour les Spaggiari qui arrivent à paris Ceux qui font pas crari Tous illicites comme Salim Lakhdari, pas dpanique Cest Teez Guiz, fine équipe, cest inédit On tfait un film on fait kiffer ta bitch et les cinéphiles Jenlève mon caleçon, coup dboule comme Zinedine Le champagne est millésime, Guizmo, TAÏZ inédit Et un un instant ta vie sbrise, y a rien qui répare Tes athée mais tas cru en dieu quand tas crié Tirez pas ! Et quand y a le mini gremlins, le renard il débarque Jvois mon truc devant tout lmonde, et jarrive sans crier gare Y a les stups en bas dchez moi, ça marrangerait quils dégagent Et si tu veux du filtré, il faut grimper dix étages Allez viens ! Jsuis en bas du bloc, brolique dans le froc Si ils payent pas maintenant, tu sors pas du coffre Jsuis en bas du bloc, brolique dans le froc Si ils payent pas maintenant, tu sors pas du coffre Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule Tas vécu quoi ? Des trucs de ouf ! Et moi aussi même si jai pas connu le gnouf Jétais énervé à lécole javais un couteau dans ma trousse Jétais solo dans la fosse, jvoulais sauter dans la foule On a vécu les choses en vrai, pas en les racontant Et lautre qua donné mon ze-bla cest celui-là quon pend Rien quje cours, mais cest pas lbon sens Tes pas content Si tes un traitre, on t'bannit Texistes plus, comme le rap conscient On a vécu les choses en vrai, pas en les racontant Et lautre qua donné mon ze-bla cest celui-là quon pend Rien quje cours, mais cest pas lbon sens Tes pas content Si tes un traitre, on t'bannit Texistes plus, comme le rap conscient Bordel, Ha ha Hein, Yagaya Yagaflemme yagaflex Zbiguili-zbang ziguili-check Yah YW Maintenant tu connais le thème Guizmo TAIZ motherfucker Maintenant tu connais le thème Maintenant tu connais le thème Tes pas content on sort le Glock Wow Ça flingue ça flingue ça flingue ! Ils ont voulu fuir! comme la dit ldaron Yagaya Ahou Zbigilizbang rires Ah, ah Cest bon ?</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Ayah rayah Leto, Guizmo Zbiguilizbang Wesh haineux C'est le côté noir de Paname noir, les ges-sh', les terrains qui débitent ges-sh' Les racailles en TN, en Lacoste ouais, les litrons de be-her, de te-shi non Les perquis' à 6 heures pile, commission rogatoire, c'est déjà trop tard Les T-MAX, les rafales en plein jour, les menteurs, les voleurs, les Dealeurs Les bécanes, les bavures policières ouh, les pertes et le bénéfice, chaque jour que Dieu fait, on prend des risques ouh T'auras beau crier au secours, aucune aide, le vestes se retournent oh J'viens de là où c'est méchant méchant, mais on s'accroche s'accroche Tu peux perdre la vie pour la sacoche bonbonne, que des têtes cramées sous la capuche capuche, capuche L'impossible devient possible possible, on rentabilise dans la came et la musique la drogue J'suis beaucoup moins sensible qu'avant et on s'contente plus du minimum non, non, non, non, non J'suis beaucoup moins sensible qu'avant et on s'contente plus du minimum double bang J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient You might also like Ça commence par un coup d'main, ça finit par un coup d'feu Les traîtres, les balances et les keufs, c'est ça qui rend soucieux Et à la cité, que des sous sales, du hall jusqu'au sous-sol Dans la rue, on s'fait tout seul, ils font pas dans le social J'insultais des mères, j'avais 6 ans oh, j'avais déjà un pét' dans mon bocal Ça sentait bizarre dans le parking, quand ils allaient fumer dans le local Cinq frérots dans la même bre-cham, deux potos sur la même tte-cha Un tireur sur la moto, pour des sous, faut pas plus que ça Que des fuckboy, des idées noires comme de l'afghan T'es mort si tu vas nous cafter, on t'apprendra quelques pas d'danse Ça décampe dans la cité, moi, j'suis posé et j'smoke un joint Ça vient d'Valenton, Barbès, en passant par Porte Saint-Ouen motherfuck J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient</t>
+          <t>Ayah rayah Leto, Guizmo Zbiguilizbang Wesh haineux C'est le côté noir de Paname noir, les ges-sh', les terrains qui débitent ges-sh' Les racailles en TN, en Lacoste ouais, les litrons de be-her, de te-shi non Les perquis' à 6 heures pile, commission rogatoire, c'est déjà trop tard Les T-MAX, les rafales en plein jour, les menteurs, les voleurs, les Dealeurs Les bécanes, les bavures policières ouh, les pertes et le bénéfice, chaque jour que Dieu fait, on prend des risques ouh T'auras beau crier au secours, aucune aide, le vestes se retournent oh J'viens de là où c'est méchant méchant, mais on s'accroche s'accroche Tu peux perdre la vie pour la sacoche bonbonne, que des têtes cramées sous la capuche capuche, capuche L'impossible devient possible possible, on rentabilise dans la came et la musique la drogue J'suis beaucoup moins sensible qu'avant et on s'contente plus du minimum non, non, non, non, non J'suis beaucoup moins sensible qu'avant et on s'contente plus du minimum double bang J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient Ça commence par un coup d'main, ça finit par un coup d'feu Les traîtres, les balances et les keufs, c'est ça qui rend soucieux Et à la cité, que des sous sales, du hall jusqu'au sous-sol Dans la rue, on s'fait tout seul, ils font pas dans le social J'insultais des mères, j'avais 6 ans oh, j'avais déjà un pét' dans mon bocal Ça sentait bizarre dans le parking, quand ils allaient fumer dans le local Cinq frérots dans la même bre-cham, deux potos sur la même tte-cha Un tireur sur la moto, pour des sous, faut pas plus que ça Que des fuckboy, des idées noires comme de l'afghan T'es mort si tu vas nous cafter, on t'apprendra quelques pas d'danse Ça décampe dans la cité, moi, j'suis posé et j'smoke un joint Ça vient d'Valenton, Barbès, en passant par Porte Saint-Ouen motherfuck J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie j'rappe ma vie, le hall, le bitume, les sourires, les coups durs, H24 le charbon J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient J'rappe ma vie et wAllah, c'est pas marrant On a vendu d'la marron pendant qu'les autres, ils mouraient</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Zbigili check YW Le motherfucking renard Guiziouzou, Guizmo Lamzo Diakité J'suis dans mon coin tout seul, jsuis sur mon joint, j'suis sur ma feuille, j'suis dans un hall tout sale, les képi reconnaissent ma gueule Du rap à la rue, de la rue au rap putain cétait douloureux mais c'était honorable J'ai faim, j'veux des bananes et du poisson pour ce soir Du bissap et du déguê pour le dessert On a des proches qu'on va plus jamais revoir J'ai fait du mal parce que c'était nécessaire j'te jure Allez check comment jfais des rimes, jsuis pas la pour fédérer J'traîn avec des Frédéric car leurs darons sont PDG Jsuis dans ma frénési et très souvent éméché Mon coeur bat toujours mais mes sentiments l'ont délaissé Alors des fois je pars en couille et puis ma poupée pleure Pas romantique le renard, y aura pas d'bouquets d'fleurs nan Et jverse une gorgée sur le sol pour ceux qui sont pas là J'fais des sous, j'vais pas caler ni tomber dans la mala J'ai le blues J'te l'ai d'jà dit J'suis dans le hood Que des tragédies Je vois des patrouilles Je vois des patrouilles En bas d'la té-ci Sur ma feuille j'me défoule Sur ma feuille j'me défoule Je ne dors plus la nuit Gros j'ai le blues ouai j'ai le blues nigga J'te l'ai d'jà dit et je l'ai déjà dit J'suis dans le hood j'suis dans le hood, 94 Que des tragédies Je vois des patrouilles je vois des patrouilles, woo En bas d'la té-ci juste en bas Sur ma feuille j'me défoule Sur ma feuille j'me défoule Je ne dors plus la nuit je ne dors plus You might also like Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine J'm'en fou de c'qu'ils disent, ils ont fumé leur premier joint l'année dernière, j'connais me-da depuis 2006 bha ouai Je navigue sans boussole au milieu des eaux tourmentées sale et l'orange du marchand moi j'l'ai volé pour manger toujours C.A.P boulanger ? Jamais d'la vie jamais Y a 520 palos, il m'faut 100g, ramène la weed Que ça part en couille, que ça traine la nuit Il s'fait allumer pour une histoire d'avant mais c'était même pas lui rrra Plus fort à chaque épreuve, que les keufs me privent, de mon bédo, ne savent même pas que j'écris des chef d'oeuvres J'suis à l'ancienne dans mon délire, j'écoute du Wu-Tang Clan J'suis partis commettre des délits mais j'sais pas ou tétais Alors enfoiré ? Dit-moi c'que j'te dois ? dit-moi C'que tu fais avec ta queue moi j'le fais avec 2 doigts normal Bah ouai enfoiré, dit-moi c'que j'te dois ? dit-moi C'que tu fais avec ta queue moi j'le fais avec 2 doigts J'ai le blues J'te l'ai d'jà dit J'suis dans le hood Que des tragédies Je vois des patrouilles je vois des patrouilles En bas d'la té-ci Sur ma feuille j'me défoule sur ma feuille j'me défoule Je ne dors plus la nuit Gros j'ai le blues ouai j'ai le blues nigga J'te l'ai d'jà dit et je l'ai déjà dit J'suis dans le hood j'suis dans le hood Que des tragédies Je vois des patrouilles je vois des patrouilles En bas d'la té-ci juste en bas Sur ma feuille j'me défoule sur ma feuille j'me défoule Je ne dors plus la nuit je ne dors plus Fait j'ai mal au coeur quand j'écris ma peine patrouilles J'ai mal à la tête quand j'écris ma haine juste en bas Et puis j'ai mal au foie quand j'ai bu la 'teille sur ma feuille j'me défoule J'avais b'soin d'une carapace mais c'est plus la peine je ne dors plus Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine Yeah! YW Ziguili-zone sensible motherfucker ahou! C'est moi même Zbigili, zbang, zbigili check, zbigili zbang C'est trop facile pour moi cette merde, j'arrête bientôt wallah Trop facile, trop facile, ça m'amuse plus C'est trop facile, trop facile Zbang</t>
+          <t>Zbigili check YW Le motherfucking renard Guiziouzou, Guizmo Lamzo Diakité J'suis dans mon coin tout seul, jsuis sur mon joint, j'suis sur ma feuille, j'suis dans un hall tout sale, les képi reconnaissent ma gueule Du rap à la rue, de la rue au rap putain cétait douloureux mais c'était honorable J'ai faim, j'veux des bananes et du poisson pour ce soir Du bissap et du déguê pour le dessert On a des proches qu'on va plus jamais revoir J'ai fait du mal parce que c'était nécessaire j'te jure Allez check comment jfais des rimes, jsuis pas la pour fédérer J'traîn avec des Frédéric car leurs darons sont PDG Jsuis dans ma frénési et très souvent éméché Mon coeur bat toujours mais mes sentiments l'ont délaissé Alors des fois je pars en couille et puis ma poupée pleure Pas romantique le renard, y aura pas d'bouquets d'fleurs nan Et jverse une gorgée sur le sol pour ceux qui sont pas là J'fais des sous, j'vais pas caler ni tomber dans la mala J'ai le blues J'te l'ai d'jà dit J'suis dans le hood Que des tragédies Je vois des patrouilles Je vois des patrouilles En bas d'la té-ci Sur ma feuille j'me défoule Sur ma feuille j'me défoule Je ne dors plus la nuit Gros j'ai le blues ouai j'ai le blues nigga J'te l'ai d'jà dit et je l'ai déjà dit J'suis dans le hood j'suis dans le hood, 94 Que des tragédies Je vois des patrouilles je vois des patrouilles, woo En bas d'la té-ci juste en bas Sur ma feuille j'me défoule Sur ma feuille j'me défoule Je ne dors plus la nuit je ne dors plus Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine J'm'en fou de c'qu'ils disent, ils ont fumé leur premier joint l'année dernière, j'connais me-da depuis 2006 bha ouai Je navigue sans boussole au milieu des eaux tourmentées sale et l'orange du marchand moi j'l'ai volé pour manger toujours C.A.P boulanger ? Jamais d'la vie jamais Y a 520 palos, il m'faut 100g, ramène la weed Que ça part en couille, que ça traine la nuit Il s'fait allumer pour une histoire d'avant mais c'était même pas lui rrra Plus fort à chaque épreuve, que les keufs me privent, de mon bédo, ne savent même pas que j'écris des chef d'oeuvres J'suis à l'ancienne dans mon délire, j'écoute du Wu-Tang Clan J'suis partis commettre des délits mais j'sais pas ou tétais Alors enfoiré ? Dit-moi c'que j'te dois ? dit-moi C'que tu fais avec ta queue moi j'le fais avec 2 doigts normal Bah ouai enfoiré, dit-moi c'que j'te dois ? dit-moi C'que tu fais avec ta queue moi j'le fais avec 2 doigts J'ai le blues J'te l'ai d'jà dit J'suis dans le hood Que des tragédies Je vois des patrouilles je vois des patrouilles En bas d'la té-ci Sur ma feuille j'me défoule sur ma feuille j'me défoule Je ne dors plus la nuit Gros j'ai le blues ouai j'ai le blues nigga J'te l'ai d'jà dit et je l'ai déjà dit J'suis dans le hood j'suis dans le hood Que des tragédies Je vois des patrouilles je vois des patrouilles En bas d'la té-ci juste en bas Sur ma feuille j'me défoule sur ma feuille j'me défoule Je ne dors plus la nuit je ne dors plus Fait j'ai mal au coeur quand j'écris ma peine patrouilles J'ai mal à la tête quand j'écris ma haine juste en bas Et puis j'ai mal au foie quand j'ai bu la 'teille sur ma feuille j'me défoule J'avais b'soin d'une carapace mais c'est plus la peine je ne dors plus Et j'ai mal au coeur quand j'écris ma peine ouai J'ai mal à la tête quand j'écris ma haine Et puis j'ai mal au foie quand j'ai bu la 'teille bordel J'avais b'soin d'une carapace mais c'est plus la peine plus la peine Yeah! YW Ziguili-zone sensible motherfucker ahou! C'est moi même Zbigili, zbang, zbigili check, zbigili zbang C'est trop facile pour moi cette merde, j'arrête bientôt wallah Trop facile, trop facile, ça m'amuse plus C'est trop facile, trop facile Zbang</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Yo GP ganstz YW Bang, Guizi Ouzou bang bang, bang Jusqu'à l'infini Ho Hiss la saucise J'étais dans le trou, je n'avais pas de sous J'ai revu des anciens potes une fois que j'étais dans le coup Et j'avais rien demandé, ils voulaient profiter de moi Plus rien ne me fait bander et je suis obligé de boire J'ai porté mes couilles, traîné dans des cités où la plupart peuvent pas rentrer J'ai fait cracher les douilles, sur la tête de ma mère, à l'époque j'voulais pas chanter Jamais rasé les murs, quelques bâtards à régler mais ça c'est du vite fait J'ai tous les visages, tous les noms, des adresses, mes généraux sont briefés Mais qu'est-ce que tu croyais ? Dis-moi, qu'est-ce que tu croyais ? Putain, qu'est-ce que tu croyais ? Qu'j'allais rester là à m'laisser noyer ? Djangale mes Diakhité mafia n'a peur d'aucun être humain Même Jamel Debbouze peut te gifler pour mettre une baffe il faut qu'une main Ils ont trahi Ils ont haï Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette Sur ma mère j'les baise en brochette Ah ouais Ils ont trahi Ils ont haït Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette You might also like J'ai fumé la drogue, et j'ai craché le feu Ils me parlent du game, je vais braquer le jeu La tête de mon Glock ça fera des heureux Balle dans la glotte, tu vas m'appeler monsieur Viens pas chez nous s'tu renseignes les f-keu On est chelous j'fume une grosse tête de beuh J'vi-ser un ien-cli dans un hall délabré J'prends les sous et j'me nachave en 4.5, 2.2 Je ne crois qu'en mon GP, ma mère et mon fusil Ça bicrave comme à l'usine, tu bédaves et t'hallucines J'ai connu la faim, des jours à bouffer des restes Si j'fais Koh-Lanta, c'est sûr j'prends les 100 000 pièces Et je vois ce monde de tarés, des poucaves et puis des coquines De la haine et de la saleté, je me demande comment c'est possible Et le marabout m'a parlé, il m'a dit que j'étais maudit Qu'il fallait tous les rafaler et rejoindre le paradis des OG's Ils ont trahi Ils ont haï Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette Sur ma mère j'les baise en brochette Ah ouais Ils ont trahi Ils ont haït Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette 7</t>
+          <t>Yo GP ganstz YW Bang, Guizi Ouzou bang bang, bang Jusqu'à l'infini Ho Hiss la saucise J'étais dans le trou, je n'avais pas de sous J'ai revu des anciens potes une fois que j'étais dans le coup Et j'avais rien demandé, ils voulaient profiter de moi Plus rien ne me fait bander et je suis obligé de boire J'ai porté mes couilles, traîné dans des cités où la plupart peuvent pas rentrer J'ai fait cracher les douilles, sur la tête de ma mère, à l'époque j'voulais pas chanter Jamais rasé les murs, quelques bâtards à régler mais ça c'est du vite fait J'ai tous les visages, tous les noms, des adresses, mes généraux sont briefés Mais qu'est-ce que tu croyais ? Dis-moi, qu'est-ce que tu croyais ? Putain, qu'est-ce que tu croyais ? Qu'j'allais rester là à m'laisser noyer ? Djangale mes Diakhité mafia n'a peur d'aucun être humain Même Jamel Debbouze peut te gifler pour mettre une baffe il faut qu'une main Ils ont trahi Ils ont haï Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette Sur ma mère j'les baise en brochette Ah ouais Ils ont trahi Ils ont haït Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette J'ai fumé la drogue, et j'ai craché le feu Ils me parlent du game, je vais braquer le jeu La tête de mon Glock ça fera des heureux Balle dans la glotte, tu vas m'appeler monsieur Viens pas chez nous s'tu renseignes les f-keu On est chelous j'fume une grosse tête de beuh J'vi-ser un ien-cli dans un hall délabré J'prends les sous et j'me nachave en 4.5, 2.2 Je ne crois qu'en mon GP, ma mère et mon fusil Ça bicrave comme à l'usine, tu bédaves et t'hallucines J'ai connu la faim, des jours à bouffer des restes Si j'fais Koh-Lanta, c'est sûr j'prends les 100 000 pièces Et je vois ce monde de tarés, des poucaves et puis des coquines De la haine et de la saleté, je me demande comment c'est possible Et le marabout m'a parlé, il m'a dit que j'étais maudit Qu'il fallait tous les rafaler et rejoindre le paradis des OG's Ils ont trahi Ils ont haï Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette Sur ma mère j'les baise en brochette Ah ouais Ils ont trahi Ils ont haït Ils m'ont sali J'les baise en brochette J'les baise en brochette J'les baise en brochette 7</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Y a que ma mère et ma femme qui connaissent mon vrai visage J'connais ma tess, j'connais ma ville poto je connais mon village Et j'suis une putain coupe afro les autres rappeurs c'est des tissages Madagascar, Mali, Sénégal enfant du métissage J'rappe comme un flingue j'écris comme un shlass Ami d'enfance qui devient dingue qui s'met à taper des traces Des geuches et des seringues y sont sur la place C'est pas ici qu'on fait la bringue guette la violence et la crasse Tu peux me croiser dans la rue gros j'suis toujours imppecable En train d'hésiter entre un pain de C, un pain de C4 Et puis la vérité tu peux la dire qu'à un P4 C'est les seuls qui ont pas d'équipe Qu'ont pas de me-ar, qu'ont pas de J'me cultivais avec les livres mais les ballons ça enseigne J'fume du shit et j'vends des kills comme mon daron à l'ancienne C'est la stricte vérité comme nous rappons à l'antenne Ce que j'ai je l'ai mérité depuis le ballon à Nanterre Dés le matin j'ai effrité alors ne partons pas en guerre J'ai un cocard j'me suis péta avec un gravon avant hier Courageux et téméraire pas du genre que tu vois rire Ça bicravais dans le R.E.R on s'fait courser par la voirie On a volé tout ces BR, 3 heures du mat sur Paris Ils peuvent pas attacher Neymar donc ils attachent les qataris God damn ils ont insulté la mère de celui qui fallait pas J'ai mis mes couilles dans ma musique donc négro bats les pattes J'ai bu deux trois verres de trop j'ai niqué le carénage Eh fais gaffe comment tu me parles gros on a pas le même âge Et c'est dans un braco que t'entendras bas les masques Ouais j'ai plus tourné en rond que j'ai fait de carré d'as You might also like Damn homie j'fais des reves homie Et j'dégaine homie, classique again and again You know my name homie pas de fame homie Guizmo comme promis toujours à la one again Moi j'suis de l'époque de Seyar, Son Goku et de Nicky Les sourcils froncés j'regardais mon daron J'croyais qu'il était pensif, il était foncedé Le con déballe sa science pendant qu'l'intelligent s'tait Gros on m'a trop vendu du rêve j'veux voir du concret J'ai entendu et fait des trucs j'peux pas te raconter J'pense à un cadeau pour mes fils quand j'affiche complet Y a la police vers le corner ils font ça pour me plaire Eux il faut les interdire laisser qu'les pompiers On a volé pour se vêtir il faut bien qu'on plaise Grandi dans la merde du vélo au compét Tous des déménageurs, d'éboueurs et de plombiers J'foutais la merde dans des soirée j'étais pas convié Les doses de crack sur le corner jamais de congé J'ai toujours eu la tête sous l'eau sans faire de plongée J'les vois comme des chiens qui cherchent un os à ronger Et dans ma tête c'est la pagaille on t'allume si tu bégayes Qu'est ce que tu racontes espèce de batard Si tu me j'te dégomme C'est le plomo ou le plata moi j'en veux depuis l'école J'suis en place au Senegal mon voisin s'appelle Akon J'suis sur j'ai déjà visser un keuf J'ai de la peufra des carré des garreteci envoie une ieuv Ton meilleur pote qui drague ta meuf Le genre de truc qui se règle à trois avec un neuf Damn homie j'fais des reves homie Et j'dégaine homie, classique again and again You know my name homie pas de fame homie Guizmo comme promis toujours à la one again Yonea Willy, Willy Yonea business Guizi Ouzou, sisi coucou Oui c'est moi, ah ouh Damn homie Dans l'game homie You know my name homie Damn homie Dans l'game homie You know my name homie Ouzou Damn homie Dans l'game homie You know my name homie</t>
+          <t>Y a que ma mère et ma femme qui connaissent mon vrai visage J'connais ma tess, j'connais ma ville poto je connais mon village Et j'suis une putain coupe afro les autres rappeurs c'est des tissages Madagascar, Mali, Sénégal enfant du métissage J'rappe comme un flingue j'écris comme un shlass Ami d'enfance qui devient dingue qui s'met à taper des traces Des geuches et des seringues y sont sur la place C'est pas ici qu'on fait la bringue guette la violence et la crasse Tu peux me croiser dans la rue gros j'suis toujours imppecable En train d'hésiter entre un pain de C, un pain de C4 Et puis la vérité tu peux la dire qu'à un P4 C'est les seuls qui ont pas d'équipe Qu'ont pas de me-ar, qu'ont pas de J'me cultivais avec les livres mais les ballons ça enseigne J'fume du shit et j'vends des kills comme mon daron à l'ancienne C'est la stricte vérité comme nous rappons à l'antenne Ce que j'ai je l'ai mérité depuis le ballon à Nanterre Dés le matin j'ai effrité alors ne partons pas en guerre J'ai un cocard j'me suis péta avec un gravon avant hier Courageux et téméraire pas du genre que tu vois rire Ça bicravais dans le R.E.R on s'fait courser par la voirie On a volé tout ces BR, 3 heures du mat sur Paris Ils peuvent pas attacher Neymar donc ils attachent les qataris God damn ils ont insulté la mère de celui qui fallait pas J'ai mis mes couilles dans ma musique donc négro bats les pattes J'ai bu deux trois verres de trop j'ai niqué le carénage Eh fais gaffe comment tu me parles gros on a pas le même âge Et c'est dans un braco que t'entendras bas les masques Ouais j'ai plus tourné en rond que j'ai fait de carré d'as Damn homie j'fais des reves homie Et j'dégaine homie, classique again and again You know my name homie pas de fame homie Guizmo comme promis toujours à la one again Moi j'suis de l'époque de Seyar, Son Goku et de Nicky Les sourcils froncés j'regardais mon daron J'croyais qu'il était pensif, il était foncedé Le con déballe sa science pendant qu'l'intelligent s'tait Gros on m'a trop vendu du rêve j'veux voir du concret J'ai entendu et fait des trucs j'peux pas te raconter J'pense à un cadeau pour mes fils quand j'affiche complet Y a la police vers le corner ils font ça pour me plaire Eux il faut les interdire laisser qu'les pompiers On a volé pour se vêtir il faut bien qu'on plaise Grandi dans la merde du vélo au compét Tous des déménageurs, d'éboueurs et de plombiers J'foutais la merde dans des soirée j'étais pas convié Les doses de crack sur le corner jamais de congé J'ai toujours eu la tête sous l'eau sans faire de plongée J'les vois comme des chiens qui cherchent un os à ronger Et dans ma tête c'est la pagaille on t'allume si tu bégayes Qu'est ce que tu racontes espèce de batard Si tu me j'te dégomme C'est le plomo ou le plata moi j'en veux depuis l'école J'suis en place au Senegal mon voisin s'appelle Akon J'suis sur j'ai déjà visser un keuf J'ai de la peufra des carré des garreteci envoie une ieuv Ton meilleur pote qui drague ta meuf Le genre de truc qui se règle à trois avec un neuf Damn homie j'fais des reves homie Et j'dégaine homie, classique again and again You know my name homie pas de fame homie Guizmo comme promis toujours à la one again Yonea Willy, Willy Yonea business Guizi Ouzou, sisi coucou Oui c'est moi, ah ouh Damn homie Dans l'game homie You know my name homie Damn homie Dans l'game homie You know my name homie Ouzou Damn homie Dans l'game homie You know my name homie</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>YW, Yonea Willy jusqu'à ce que je meurs Ouai ouai ! Il tire pour moi Il meurt pour moi Il bouge pour moi Il fume avec moi Il roule avec moi Il meurt avec moi C'est mon homme de main Mon homme de main il a jamais la classe Parce que la classe ça fait pas peur Mon homme de main c'est un casseur C'est le genre de mec il part en couille tu sais même pas pourquoi Il m'dit les gardav' et les fouilles igo c'est pas pour toi J'ai voulu sortir un calibre mais il l'a fait pour moi Il m'a déposé chez ma femme il est resté courtois Il est fidèle il est loyal Descendant de Soundiata son sang est royal Il a mis des mecs à genoux c'était incroyable A quinze heures ou six du mat toujours joignable Il m'a dit Guiz baise-les tous moi j'suis derrière La première fois qu'ils vont tester s'ra la dernière You might also like C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main Il m'dit toujours de rester méfiant Les gens sont mauvais ils sont méchants Il m'dit stop un peu l'alcool essaye de gé-chan Négro tu vas faire comment s'tu peux plus ter-chan J'ai voulu rassembler le peuple mais c'était peine perdu J'ai regarder mes semblables j'avais d'la peine pour eux Et puis mon homme de main avait d'la peine pour moi Il m'a dit j'vais tout niquer à deux-doigts d'foutre le feu Il est impulsif il est relou, j'suis un renard c'est un vieux loup Des coups d'schlass des coups d'genoux il a d'jà fait des trucs chelous Il veille sur moi comme un frère, parce que c'est mon frère Et puis il m'donne des conseils comme si c'était mon père C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main Et il m'a dit qu'ils allaient m'shooter J'étais têtu j'ai pas écouté On m'tire dessus et j'suis essoufflé Mon homme de main essaye d'les trouer Mais c'est trop tard ils nous ont trouvés Même armé il peut rien faire il est dégouté Et là c'est mon sang qu'il voit couler C'est la fin du dernier couplet Même mon ombre est jalouse de lui On va pas à la guerre avec un lance-pierre mon pote Respecte les tiens, respecte toi, tu seras aimé Fais beleck, fais beleck, prends-toi un homme de main Sois loyal, sois juste avec lui Il sera juste avec toi, il sera loyale avec toi Mais faut un homme de main Guiziouzou sisicoucou bande d'enfoirés Mon homme de main il s'appelle Brams Maka YW, Yonea et Willy jusqu'à ce que je meurs1</t>
+          <t>YW, Yonea Willy jusqu'à ce que je meurs Ouai ouai ! Il tire pour moi Il meurt pour moi Il bouge pour moi Il fume avec moi Il roule avec moi Il meurt avec moi C'est mon homme de main Mon homme de main il a jamais la classe Parce que la classe ça fait pas peur Mon homme de main c'est un casseur C'est le genre de mec il part en couille tu sais même pas pourquoi Il m'dit les gardav' et les fouilles igo c'est pas pour toi J'ai voulu sortir un calibre mais il l'a fait pour moi Il m'a déposé chez ma femme il est resté courtois Il est fidèle il est loyal Descendant de Soundiata son sang est royal Il a mis des mecs à genoux c'était incroyable A quinze heures ou six du mat toujours joignable Il m'a dit Guiz baise-les tous moi j'suis derrière La première fois qu'ils vont tester s'ra la dernière C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main Il m'dit toujours de rester méfiant Les gens sont mauvais ils sont méchants Il m'dit stop un peu l'alcool essaye de gé-chan Négro tu vas faire comment s'tu peux plus ter-chan J'ai voulu rassembler le peuple mais c'était peine perdu J'ai regarder mes semblables j'avais d'la peine pour eux Et puis mon homme de main avait d'la peine pour moi Il m'a dit j'vais tout niquer à deux-doigts d'foutre le feu Il est impulsif il est relou, j'suis un renard c'est un vieux loup Des coups d'schlass des coups d'genoux il a d'jà fait des trucs chelous Il veille sur moi comme un frère, parce que c'est mon frère Et puis il m'donne des conseils comme si c'était mon père C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main C'est pour mes ghettoyouth et pour mes hommes de main Fais belek à ta vie peut-être t'es mort demain De l'amour et du respect parce qu'elles donnent le sein S'ils s'en prennent à ma famille moi j'ai mon homme de main Et il m'a dit qu'ils allaient m'shooter J'étais têtu j'ai pas écouté On m'tire dessus et j'suis essoufflé Mon homme de main essaye d'les trouer Mais c'est trop tard ils nous ont trouvés Même armé il peut rien faire il est dégouté Et là c'est mon sang qu'il voit couler C'est la fin du dernier couplet Même mon ombre est jalouse de lui On va pas à la guerre avec un lance-pierre mon pote Respecte les tiens, respecte toi, tu seras aimé Fais beleck, fais beleck, prends-toi un homme de main Sois loyal, sois juste avec lui Il sera juste avec toi, il sera loyale avec toi Mais faut un homme de main Guiziouzou sisicoucou bande d'enfoirés Mon homme de main il s'appelle Brams Maka YW, Yonea et Willy jusqu'à ce que je meurs1</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>La violence et la parano, bah ça fait partie d'mes pulsions J'ai sept ans, j'rentre chez moi et j'vois un avis d'expulsion C'est pas la faute de maman J'les croirai pas ces fils de putes C'est eux qui nous mettent à la porte Alors c'est eux les fils de putes, voilà C'est pas la peine de raconter qu'j'suis trop vulgaire Moi, j'ai grandi dans l'ciment, du croco et des bulles d'air Du popo et des ulcères, ça a fracassé les anciens Mais y'a grave des légendes qui ont tabassé des gens biens Massacré les enceintes, ça fait des années qu'j'fais ça Du shit et un expresso, j'me mets à cracher des phases Ma mère a dit qu'j'étais béni, le marabout a dit l'contraire Et j't'avoue qu'c'était pénible de suivre les traces de mon père Pour lui l'rap, c'était pour les tapettes, il s'en battait la couille gauche Des braquages à la machette, des pétards dans sa fouille gros J'aime les p'tits frères, j'veux pas leur dire qu'c'est ça la vie Ce s'rait comme dire bismillah avant d'manger un salami Des défauts, j'en ai plein, j'me suis drogué dans les trains À quatorze ans dans l'hall avec de l'héro dans mes mains Putain d'merde, pourquoi t'as un flingue négro ? C'est minimum dix ans si tu fais l'dingue négro On s'entretue, la télé nous vend le luxe Bah ouais, j'les ai entretenus mais c'était qu'une bande de shhh Elles veulent du biff mec, croquer dans ton bifteck Elle boit du champagne, elle fume des spliffs d'herbe J'ai vu le jour une nuit d'hiver, je suis froid de nature Tu veux test, ah ouais ? J'te baise ta mère, c'est la loi de la ue-r You might also like</t>
+          <t>La violence et la parano, bah ça fait partie d'mes pulsions J'ai sept ans, j'rentre chez moi et j'vois un avis d'expulsion C'est pas la faute de maman J'les croirai pas ces fils de putes C'est eux qui nous mettent à la porte Alors c'est eux les fils de putes, voilà C'est pas la peine de raconter qu'j'suis trop vulgaire Moi, j'ai grandi dans l'ciment, du croco et des bulles d'air Du popo et des ulcères, ça a fracassé les anciens Mais y'a grave des légendes qui ont tabassé des gens biens Massacré les enceintes, ça fait des années qu'j'fais ça Du shit et un expresso, j'me mets à cracher des phases Ma mère a dit qu'j'étais béni, le marabout a dit l'contraire Et j't'avoue qu'c'était pénible de suivre les traces de mon père Pour lui l'rap, c'était pour les tapettes, il s'en battait la couille gauche Des braquages à la machette, des pétards dans sa fouille gros J'aime les p'tits frères, j'veux pas leur dire qu'c'est ça la vie Ce s'rait comme dire bismillah avant d'manger un salami Des défauts, j'en ai plein, j'me suis drogué dans les trains À quatorze ans dans l'hall avec de l'héro dans mes mains Putain d'merde, pourquoi t'as un flingue négro ? C'est minimum dix ans si tu fais l'dingue négro On s'entretue, la télé nous vend le luxe Bah ouais, j'les ai entretenus mais c'était qu'une bande de shhh Elles veulent du biff mec, croquer dans ton bifteck Elle boit du champagne, elle fume des spliffs d'herbe J'ai vu le jour une nuit d'hiver, je suis froid de nature Tu veux test, ah ouais ? J'te baise ta mère, c'est la loi de la ue-r</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Yogayo, Sidiki Diabaté On m'a fait du mal, j'avais tout donné HLM résident, tout est goudronné À 6 ou 7 ans, t'as la poudre aux yeux Dix ans plus tard, t'as la poudre au nez J'ai pardonné certains mais j'peux pas oublier J'vous ai donné mon cur vous l'avez bousillé Rancur et souvenirs, du mal à roupiller J'ai tout dans ma tête, j'tiens à le souligner Les keufs qui m'attrapent et ma mère qui m'en veut 19 ans c'est trop tôt pour faire un gosse Quand j'fume il fait beau, dehors il fait moche J'travaille pas les pecs mais j'ai bombé le torse Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner La jalousie des gens, et les filles intéressées Est-ce qu'il y'aurait tout ça, si j'étais au RSA ? nan Et mes amis d'enfance, que j'ai laissés au Mali putain J'travaille dur ici, pour envoyer les CFA Et j'veux pardonner mais oublier c'est dur Ma mère m'a négligé, m'a laissé tenir les murs Et il a sorti le tar-pé ça fait bom bom bom J'peux pas oublier ce mec qui tombe au sol han You might also like Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner Si tu connais la rue, tu connais l'protocole Je pardonne l'État, si mes potos sortent Si tu connais la rue, tu connais l'protocole Je pardonne l'État, si mes potos sortent Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner Pardonner, pardonner Oublier Pardonner, pardonner Oublier Pardonner</t>
+          <t>Yogayo, Sidiki Diabaté On m'a fait du mal, j'avais tout donné HLM résident, tout est goudronné À 6 ou 7 ans, t'as la poudre aux yeux Dix ans plus tard, t'as la poudre au nez J'ai pardonné certains mais j'peux pas oublier J'vous ai donné mon cur vous l'avez bousillé Rancur et souvenirs, du mal à roupiller J'ai tout dans ma tête, j'tiens à le souligner Les keufs qui m'attrapent et ma mère qui m'en veut 19 ans c'est trop tôt pour faire un gosse Quand j'fume il fait beau, dehors il fait moche J'travaille pas les pecs mais j'ai bombé le torse Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner La jalousie des gens, et les filles intéressées Est-ce qu'il y'aurait tout ça, si j'étais au RSA ? nan Et mes amis d'enfance, que j'ai laissés au Mali putain J'travaille dur ici, pour envoyer les CFA Et j'veux pardonner mais oublier c'est dur Ma mère m'a négligé, m'a laissé tenir les murs Et il a sorti le tar-pé ça fait bom bom bom J'peux pas oublier ce mec qui tombe au sol han Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner Si tu connais la rue, tu connais l'protocole Je pardonne l'État, si mes potos sortent Si tu connais la rue, tu connais l'protocole Je pardonne l'État, si mes potos sortent Je vais jamais oublier, oublier, oublier Je vais pardonner, mais je vais pardonner Je vais jamais oublier, oublier, oublier Mais je vais pardonner, mais je vais pardonner Pardonner, pardonner Oublier Pardonner, pardonner Oublier Pardonner</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>C'est l'histoire d'un p'tit renard Devenu chef YW Ouzou guizi bang Tous les renards, tous les renards Eh, tous les renards me connaissent ouai J'suis parrain d'tous ces connards nan, nan J'ai toujours tenu mes promesses bah ouais, tu fumeras pas sur mon collage allez Je passe par la toiture, je descends par la cheminée J'vole les clefs de la voiture comment ?, et j'démarre là c'est trop miné J'ai grandi à Valenton ouai, et dans la cave ça puait la piss 94 Y en a très peu qui m'ont fait la passe, t aujourd'hui ça se fait la bise Monsieur Zemmour, ça fait longtemps qu'on dit plus s'y-va, peut être tu préfères Zazie, mais nous on préfère la ziza largement J'ai été déçu tellement d'fois gros ça m'inquiète plus trop J'rentre dans la cabine avec des shlass derrière le dos c'est la merde J'ai toujours dit la vérité, chez moi y a pas d'mensonges songes C'est bien les voitures et les armes mais là y a plus d'messages Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez You might also like Et vous vous baffez comme des femmes, vous connaissez pas les drames Y a un p'tit con qui voulait faire un tête, j'ai dégainé ma lame Allez hop, moi j'vous fuck comme tous les jeunes de mon époque A 17 ans j'avais un glock, ma mère le trouve et c'est le choc A la baraque comme un malade, j'étais posé d'vant la Star Ac' Maman m'a dit Lamine c'est quoi ça ? et j'ai raconté des salades Et après bah c'est l'escalade quand tu cours après les skalapes Quand tu bicrave dans l'escalier y a qu'des geu-shla et des malades Et j'ai vadrouillé dans Paname, c'était pas pour faire des balades, j'grattais les murs comme un taré, ces enfoirés ils étaient pas là Oui j'ai d'jà menti aux poulets, dans ma fouille y avait une cala Si Paris c'est Wakanda, wallah Guizmo c'est T'challa Merde, putain d'merde donne moi l'fric ou on bute un mec Putain d'merde, putain d'merde, on voulait un verre on a bu la 'teille J'ai trop fumé j'suis K.O., mais j'me fais jamais couiller ?, sérieux on préfère les douiller Boulettes dans les fesses, inch'allah j'me fais pas fouiller Y avait des averses, le renard est rentré mouillé Putain d'merde Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez J'veux des euros, j'veux des dollars, j'fume le popo, ancien taulard,, j'suis pas trop beau, j'suis un zonard, j'suis dans l'auto, j'en fais un sauna J'veux des euros, j'veux des dollars, j'fume le popo, ancien taulard,, j'suis pas trop beau, j'suis un zonard, j'suis dans l'auto, j'en fais un sauna J'roule le pollen et j'me casse au Mali comment ça ? J'ai pris un tas d'shit, j'ai mis ça dans l'alu La plupart des rappeurs ils te parlent du bled, si ils viennent avec moi, ils attrapent le palu si ils viennent avec moi, ils attrapent le palu</t>
+          <t>C'est l'histoire d'un p'tit renard Devenu chef YW Ouzou guizi bang Tous les renards, tous les renards Eh, tous les renards me connaissent ouai J'suis parrain d'tous ces connards nan, nan J'ai toujours tenu mes promesses bah ouais, tu fumeras pas sur mon collage allez Je passe par la toiture, je descends par la cheminée J'vole les clefs de la voiture comment ?, et j'démarre là c'est trop miné J'ai grandi à Valenton ouai, et dans la cave ça puait la piss 94 Y en a très peu qui m'ont fait la passe, t aujourd'hui ça se fait la bise Monsieur Zemmour, ça fait longtemps qu'on dit plus s'y-va, peut être tu préfères Zazie, mais nous on préfère la ziza largement J'ai été déçu tellement d'fois gros ça m'inquiète plus trop J'rentre dans la cabine avec des shlass derrière le dos c'est la merde J'ai toujours dit la vérité, chez moi y a pas d'mensonges songes C'est bien les voitures et les armes mais là y a plus d'messages Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez Et vous vous baffez comme des femmes, vous connaissez pas les drames Y a un p'tit con qui voulait faire un tête, j'ai dégainé ma lame Allez hop, moi j'vous fuck comme tous les jeunes de mon époque A 17 ans j'avais un glock, ma mère le trouve et c'est le choc A la baraque comme un malade, j'étais posé d'vant la Star Ac' Maman m'a dit Lamine c'est quoi ça ? et j'ai raconté des salades Et après bah c'est l'escalade quand tu cours après les skalapes Quand tu bicrave dans l'escalier y a qu'des geu-shla et des malades Et j'ai vadrouillé dans Paname, c'était pas pour faire des balades, j'grattais les murs comme un taré, ces enfoirés ils étaient pas là Oui j'ai d'jà menti aux poulets, dans ma fouille y avait une cala Si Paris c'est Wakanda, wallah Guizmo c'est T'challa Merde, putain d'merde donne moi l'fric ou on bute un mec Putain d'merde, putain d'merde, on voulait un verre on a bu la 'teille J'ai trop fumé j'suis K.O., mais j'me fais jamais couiller ?, sérieux on préfère les douiller Boulettes dans les fesses, inch'allah j'me fais pas fouiller Y avait des averses, le renard est rentré mouillé Putain d'merde Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez Des gros niaks, du classique, du trafic et de la fausse monnaie C'est des artistes, ils font les gros bonnets J'suis dans la pratique depuis la morve au nez J'veux des euros, j'veux des dollars, j'fume le popo, ancien taulard,, j'suis pas trop beau, j'suis un zonard, j'suis dans l'auto, j'en fais un sauna J'veux des euros, j'veux des dollars, j'fume le popo, ancien taulard,, j'suis pas trop beau, j'suis un zonard, j'suis dans l'auto, j'en fais un sauna J'roule le pollen et j'me casse au Mali comment ça ? J'ai pris un tas d'shit, j'ai mis ça dans l'alu La plupart des rappeurs ils te parlent du bled, si ils viennent avec moi, ils attrapent le palu si ils viennent avec moi, ils attrapent le palu</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Yo, YW business jusqu'à l'infini Guizi Ouzou sisi coucou Oui c'est moi, le p'tit fou qu'emmène ta meuf au cinéma, merde Défoncé dans ma grotte, j'allume une cigarette Défoncé dans ma grotte, j'allume une cigarette en m'grattant les couilles Et en repensant aux fouilles que j'ai subit par ces flics pas nets Ma mère est loin, s'imagine pas comment j'me bourre la gueule Passe le temps à bourlinguer, quand ça va pas, j'trouve ma feuille À cause de mon ego bah j'ai brisé des curs Heureusement qu'j'ai mon pitbull, c'est pas comme si j'étais seul J'ai pris une clope, une feuille, d'la beuh, j'ai mis deux têtes Moi, j'suis pas comme Edith Piaf, y'a un tas de choses que j'regrette J'aurais jamais du boire mais bon j'broyais du noir Ça m'faisait oublier c'que j'aurais pas du voir J'ai traîné la nuit, très très tard la nuit, j'étais un apprenti ninja, j'suis dev'nu rat d'la ville J'ai fait du ch'min et ça, c'est grâce à Dieu, on m'a dit aide toi, le ciel t'aidera et j'me suis acheté une arme à feu J'm'étais perdu, la rue, le rap, la rue, le rap, la boule au ventre sur le tertus Très peu de vertu, beaucoup de fils dehors, le shit, le mord, on s'en fout on est têtu J'repense à mon beau-père, truc de ouf, coquard sur la paupière et un tas d'sang dans ma bouche fils de pute C'étais y'a des années, oublier ? Jamais l'absence de mon père m'a bousillé la tête Et j's'rai là pour mon fils, j'veux pas qu'il glisse dans les bras d'Iblis même si toute ma vie faut qu'j'me sacrifie J'ai pardonné des frères, ils ont cru qu'j'étais faible, on était dans la jungle, j'les ai rayé comme des zèbres J'écoute mes grands d'la tess', ils parlent de vendre la cess', de pistolets, de prisonniers qui veulent pas vendre la mèche jamais C'est crade mais c'est ainsi, d'la rage et des principes, jamais perdu mes couilles, t'inquiète pas j'en ai plein l'slip J'fais pas du rap, j'dis la vérité, c'est d'un voyou, j'ai hérité, dans l'ghetto, j'suis V.I.P, tu m'connais J'suis qu'un p'tit d'la rue qui bouquine et qui écrit des livres, une sorte de poète disparu Cette vie d'artiste n'arrête pas d'me nuire, j'suis posé à la maison d'vant la télé, ils veulent m'voir en boîte de nuit Et moi, j'arrête pas d'le dire qu'il faut qu'j'arrête cette merde j'arrête, qu'il faut qu'j'appelle Heineken faut qu'j'appelle Ils me doivent des sous ces enfoirés depuis l'temps qu'j'me bute Bourré sur le terrain, grillé faudrait qu'j'change de puce Et j'en ai marre de ce cercle vicieux, j'aime le shit les femmes et leur paire de cuisses J'te l'ai mise en pleine tête, t'es resté perplexe mais j'm'en bats la race, j'm'en bats les couilles, j'm'en bats la quéque tte J'suis Alimi, Yonea, Willy, Tai Z, je suis Kevin, Mehdi, Lawiis bah oui Je suis un business, tu n'es qu'un rappeur, j'bédave mon 10 eg, tu n'es qu'un gratteur T'as beau crier mais t'es qu'un passeur, ça c'est du ciné, tu n'es qu'un acteur J'ai pas eu d'piston, j'ai éclaté les barrières, t'es victime de ton buzz, je suis patron de ma carrière Tu veux quoi ? Du doré ou du soké ? À qui tu manques de respect ? T'es bourré ou t'es glocké ? Si c'est pas l'cas, j'vais t'choquer, déplacement sur le côté, coup d'taser et dans la tête reprise de volée Celle la, tu l'as pas volé, maintenant, tu t'mets à miauler, ça t'apprendra à croire qu'avec moi, on peut rigoler j'rigole ap' Même mes ennemies respectent mon courage, j'étais très mal entouré quand j'étais dans l'Entourage Guizi, c'est moi l'meilleur bande d'enculés You might also like Ils ont crus que j'étais dead, que j'allais tout foirer mais j'ai pas de temps à perdre pour cette bande d'enfoirés Je n'avais rien à perde, ma vue était voilée puis y'a tout ces requins qui veulent me noyer J'ai plus de temps à perdre, mets pas ton nez dans mes affaires J'ai plus de temps à perdre, j'dois lutter pour ma musique, ma famille, mon équipe, mon nessbi YW</t>
+          <t>Yo, YW business jusqu'à l'infini Guizi Ouzou sisi coucou Oui c'est moi, le p'tit fou qu'emmène ta meuf au cinéma, merde Défoncé dans ma grotte, j'allume une cigarette Défoncé dans ma grotte, j'allume une cigarette en m'grattant les couilles Et en repensant aux fouilles que j'ai subit par ces flics pas nets Ma mère est loin, s'imagine pas comment j'me bourre la gueule Passe le temps à bourlinguer, quand ça va pas, j'trouve ma feuille À cause de mon ego bah j'ai brisé des curs Heureusement qu'j'ai mon pitbull, c'est pas comme si j'étais seul J'ai pris une clope, une feuille, d'la beuh, j'ai mis deux têtes Moi, j'suis pas comme Edith Piaf, y'a un tas de choses que j'regrette J'aurais jamais du boire mais bon j'broyais du noir Ça m'faisait oublier c'que j'aurais pas du voir J'ai traîné la nuit, très très tard la nuit, j'étais un apprenti ninja, j'suis dev'nu rat d'la ville J'ai fait du ch'min et ça, c'est grâce à Dieu, on m'a dit aide toi, le ciel t'aidera et j'me suis acheté une arme à feu J'm'étais perdu, la rue, le rap, la rue, le rap, la boule au ventre sur le tertus Très peu de vertu, beaucoup de fils dehors, le shit, le mord, on s'en fout on est têtu J'repense à mon beau-père, truc de ouf, coquard sur la paupière et un tas d'sang dans ma bouche fils de pute C'étais y'a des années, oublier ? Jamais l'absence de mon père m'a bousillé la tête Et j's'rai là pour mon fils, j'veux pas qu'il glisse dans les bras d'Iblis même si toute ma vie faut qu'j'me sacrifie J'ai pardonné des frères, ils ont cru qu'j'étais faible, on était dans la jungle, j'les ai rayé comme des zèbres J'écoute mes grands d'la tess', ils parlent de vendre la cess', de pistolets, de prisonniers qui veulent pas vendre la mèche jamais C'est crade mais c'est ainsi, d'la rage et des principes, jamais perdu mes couilles, t'inquiète pas j'en ai plein l'slip J'fais pas du rap, j'dis la vérité, c'est d'un voyou, j'ai hérité, dans l'ghetto, j'suis V.I.P, tu m'connais J'suis qu'un p'tit d'la rue qui bouquine et qui écrit des livres, une sorte de poète disparu Cette vie d'artiste n'arrête pas d'me nuire, j'suis posé à la maison d'vant la télé, ils veulent m'voir en boîte de nuit Et moi, j'arrête pas d'le dire qu'il faut qu'j'arrête cette merde j'arrête, qu'il faut qu'j'appelle Heineken faut qu'j'appelle Ils me doivent des sous ces enfoirés depuis l'temps qu'j'me bute Bourré sur le terrain, grillé faudrait qu'j'change de puce Et j'en ai marre de ce cercle vicieux, j'aime le shit les femmes et leur paire de cuisses J'te l'ai mise en pleine tête, t'es resté perplexe mais j'm'en bats la race, j'm'en bats les couilles, j'm'en bats la quéque tte J'suis Alimi, Yonea, Willy, Tai Z, je suis Kevin, Mehdi, Lawiis bah oui Je suis un business, tu n'es qu'un rappeur, j'bédave mon 10 eg, tu n'es qu'un gratteur T'as beau crier mais t'es qu'un passeur, ça c'est du ciné, tu n'es qu'un acteur J'ai pas eu d'piston, j'ai éclaté les barrières, t'es victime de ton buzz, je suis patron de ma carrière Tu veux quoi ? Du doré ou du soké ? À qui tu manques de respect ? T'es bourré ou t'es glocké ? Si c'est pas l'cas, j'vais t'choquer, déplacement sur le côté, coup d'taser et dans la tête reprise de volée Celle la, tu l'as pas volé, maintenant, tu t'mets à miauler, ça t'apprendra à croire qu'avec moi, on peut rigoler j'rigole ap' Même mes ennemies respectent mon courage, j'étais très mal entouré quand j'étais dans l'Entourage Guizi, c'est moi l'meilleur bande d'enculés Ils ont crus que j'étais dead, que j'allais tout foirer mais j'ai pas de temps à perdre pour cette bande d'enfoirés Je n'avais rien à perde, ma vue était voilée puis y'a tout ces requins qui veulent me noyer J'ai plus de temps à perdre, mets pas ton nez dans mes affaires J'ai plus de temps à perdre, j'dois lutter pour ma musique, ma famille, mon équipe, mon nessbi YW</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Je sais pas qui vous êtes messieurs, savez-vous qui je suis messieurs ? J'suis un renard de type teigneux, j'fume que le jaune et ça pique les yeux Et j'dis à ma mère de pas sinquiéter, elle prend pas mes mots comme argent comptant Elle sait bien qu'son fils est entêté, j'prends des lovés, je perds pas mon temps Ça fait Plaquette, kilogramme, nouveau contrat d'édition Qui veut v'nir bicrave la came ? C'est moi, j'présente l'émission Moi, j'aime bien quand sa rafale, nique sa mère la précision J'suis l'plus p'tit mais c'est moi j'khalass donc je prends les décisions Qu'est-c'que tu veux négro? J'te dois R, j't'ai pas vu dans la cave ou dans mes galères Aujourd'hui, tu m'appelles parce que t'es par terre mais j'peux rien faire pour toi, moi, j'suis à la guerre Et je laisserai aucune empreinte, j'te fais ça comme un scientifique Sous mon lit, y'a un 45, j'suis comme Hifi, moi, j'anticipe Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Mon fils fait le bisou, ma femme, c'est un bijou Ma sur m'fait des câlins, elle dit pas Guizmo elle dit Guizou Guerrier du Mali, j'ai du sang de Galsen Comme les peuls de Guinée, j'ai des idées malsaines J'ai repris trois kilos, ça n'en valait pas la peine Elle m'a dit t'as une carrière, comment j'fais si t'es à Fresnes J'connais la météo, une pluie de problèmes et des éclaircies Ils rigolaient bien mais moi, j'ai percé, genou à terre, je le remercie Et dis à ton pote de rappeler plus tard, j'suis avec les mômes à la balançoire Et s'il espère qu'on va l'avancer, tu lui diras, c'est pas avant ce soir Ça fais deux jours que j'ai pas dormi, tu rigoles sur moi, t'es une saloperie J'connais la rue t'es une parodie, j'te mets au parfum c'est comme à Orly You might also like Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Toujours ma beuh et mon bédo, j'compte mes billets pour faire dodo Vendre du shit c'est mon dada, moi, j'aime pas trop la coco Toujours ma beuh et mon bédo, j'compte mes billets pour faire dodo Vendre du shit c'est mon dada, moi, j'aime pas trop la coco</t>
+          <t>Je sais pas qui vous êtes messieurs, savez-vous qui je suis messieurs ? J'suis un renard de type teigneux, j'fume que le jaune et ça pique les yeux Et j'dis à ma mère de pas sinquiéter, elle prend pas mes mots comme argent comptant Elle sait bien qu'son fils est entêté, j'prends des lovés, je perds pas mon temps Ça fait Plaquette, kilogramme, nouveau contrat d'édition Qui veut v'nir bicrave la came ? C'est moi, j'présente l'émission Moi, j'aime bien quand sa rafale, nique sa mère la précision J'suis l'plus p'tit mais c'est moi j'khalass donc je prends les décisions Qu'est-c'que tu veux négro? J'te dois R, j't'ai pas vu dans la cave ou dans mes galères Aujourd'hui, tu m'appelles parce que t'es par terre mais j'peux rien faire pour toi, moi, j'suis à la guerre Et je laisserai aucune empreinte, j'te fais ça comme un scientifique Sous mon lit, y'a un 45, j'suis comme Hifi, moi, j'anticipe Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Mon fils fait le bisou, ma femme, c'est un bijou Ma sur m'fait des câlins, elle dit pas Guizmo elle dit Guizou Guerrier du Mali, j'ai du sang de Galsen Comme les peuls de Guinée, j'ai des idées malsaines J'ai repris trois kilos, ça n'en valait pas la peine Elle m'a dit t'as une carrière, comment j'fais si t'es à Fresnes J'connais la météo, une pluie de problèmes et des éclaircies Ils rigolaient bien mais moi, j'ai percé, genou à terre, je le remercie Et dis à ton pote de rappeler plus tard, j'suis avec les mômes à la balançoire Et s'il espère qu'on va l'avancer, tu lui diras, c'est pas avant ce soir Ça fais deux jours que j'ai pas dormi, tu rigoles sur moi, t'es une saloperie J'connais la rue t'es une parodie, j'te mets au parfum c'est comme à Orly Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Je sais pas c'qu'ils veulent mais j'connais mes plans J'ouvre pas trop ma gueule mais je connais les gens J'ai pas fais la fac, j'ai versé mon sang J'ai percé dans le rap, j'ai arrosé le gang Toujours ma beuh et mon bédo, j'compte mes billets pour faire dodo Vendre du shit c'est mon dada, moi, j'aime pas trop la coco Toujours ma beuh et mon bédo, j'compte mes billets pour faire dodo Vendre du shit c'est mon dada, moi, j'aime pas trop la coco</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Han, zbigili zbang, zbang Le Renard motherfuckers YW J'fais du rap, c'est dans mon ADN ouais, en Y sur le KTM, 94, cité HLM Eh, j'connais ma rue, elle me connaît bien, on a fait des collages depuis qu'on est collégiens Valenton, c'est pas comme les autres villes, c'est hostile, c'est morbide, ça marche avec des gros spliffs Dis à ta mère que si tu t'plains, tu auras des représailles, j'ai fait des trucs, j'ai vu des trucs, j'en ai des regrets sales wAllah J'm suis mouillé plus d'une fois, poto, mes res-frè savnt, j'vais aller m'laver au village avec des vieux très sages inch'Allah Ça fait huit ans que j'suis en pro, ça va, pour un peu moins d'dix mille euros, ils lui ont pris sa vie C'était une histoire de drogue, je crois, une grosse carna, le tireur, il pète un câble, finit en psychiatrie Ça, c'est nos vies, gros, c'est pas celles des autres, ma daronne m'a enrichi quand à l'époque, on était pauvres Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Han, le cannabis me catapulte, j'te connais pas, t'es pas mon pote, d'vant l'OPJ, fais pas la pute j'te connais pas Si j'trouve pas l'argent chez moi, eh bah, j'le piste ailleurs, neuvième album, au début, j'étais qu'un freestyleur J'ai vu mon quartier s'effondrer comme les Twin Towers, j'ai eu l'poto au téléphone, il veut un kil' t'à l'heure Ah, une bande de potes qui voulait prospérer, j'ai levé la première fois avec un cross pourri Et nous, qu'est-ce qu'on avait, à part espérer ? Parce que les Restos du Cur, ils nous ont tous nourris D'où je vis, c'est crade, on a fait des crasses, on a mis des coups de crosse et tout niqué sur la place J'écoutais pas ma mère et j'm'en battais les couilles, les gardes à vue, les dépôts, j'te raconte la vie d'une 'caille J'ai mille euros et des garettes-ci dans ma fouille, ils m'ont coincé, ils m'ont traité comme du bétail You might also like Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Fais pas l'trafiquant, t'sais pas cuisiner tu sais pas, dans la casserole, y a l'écaille de poisson Au premier abord, on dirait, c'est d'la pâte, donne de l'ammoniaque, on t'en fait des glaçons Demande à ma femme, j'fais que des garçons, boules de billard posées dans mon caleçon J'ai trop pillave et j'ai compris la l'çon mais j'ai repris parce que c'est une passion Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Han, j'fais du rap, j'fais du putain d'rap Le Renard le plus fort du monde, Guizi zbang Yonea Willy, Willy Yonea, unilatéral, dans les deux sens En Guiziflex, comme tu veux, t'as capté ou pas ? C'est du vite fait, ça va</t>
+          <t>Han, zbigili zbang, zbang Le Renard motherfuckers YW J'fais du rap, c'est dans mon ADN ouais, en Y sur le KTM, 94, cité HLM Eh, j'connais ma rue, elle me connaît bien, on a fait des collages depuis qu'on est collégiens Valenton, c'est pas comme les autres villes, c'est hostile, c'est morbide, ça marche avec des gros spliffs Dis à ta mère que si tu t'plains, tu auras des représailles, j'ai fait des trucs, j'ai vu des trucs, j'en ai des regrets sales wAllah J'm suis mouillé plus d'une fois, poto, mes res-frè savnt, j'vais aller m'laver au village avec des vieux très sages inch'Allah Ça fait huit ans que j'suis en pro, ça va, pour un peu moins d'dix mille euros, ils lui ont pris sa vie C'était une histoire de drogue, je crois, une grosse carna, le tireur, il pète un câble, finit en psychiatrie Ça, c'est nos vies, gros, c'est pas celles des autres, ma daronne m'a enrichi quand à l'époque, on était pauvres Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Han, le cannabis me catapulte, j'te connais pas, t'es pas mon pote, d'vant l'OPJ, fais pas la pute j'te connais pas Si j'trouve pas l'argent chez moi, eh bah, j'le piste ailleurs, neuvième album, au début, j'étais qu'un freestyleur J'ai vu mon quartier s'effondrer comme les Twin Towers, j'ai eu l'poto au téléphone, il veut un kil' t'à l'heure Ah, une bande de potes qui voulait prospérer, j'ai levé la première fois avec un cross pourri Et nous, qu'est-ce qu'on avait, à part espérer ? Parce que les Restos du Cur, ils nous ont tous nourris D'où je vis, c'est crade, on a fait des crasses, on a mis des coups de crosse et tout niqué sur la place J'écoutais pas ma mère et j'm'en battais les couilles, les gardes à vue, les dépôts, j'te raconte la vie d'une 'caille J'ai mille euros et des garettes-ci dans ma fouille, ils m'ont coincé, ils m'ont traité comme du bétail Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Fais pas l'trafiquant, t'sais pas cuisiner tu sais pas, dans la casserole, y a l'écaille de poisson Au premier abord, on dirait, c'est d'la pâte, donne de l'ammoniaque, on t'en fait des glaçons Demande à ma femme, j'fais que des garçons, boules de billard posées dans mon caleçon J'ai trop pillave et j'ai compris la l'çon mais j'ai repris parce que c'est une passion Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Y en a, des trucs qui se sont passés, des frères ont trépassé, j'pense à eux, j'me dis Rendez-nous le R.A.P. J'fais du rap moi, j'fais du rap, j'fais du rap moi, ouais, j'fais du rap Han, j'fais du rap, j'fais du putain d'rap Le Renard le plus fort du monde, Guizi zbang Yonea Willy, Willy Yonea, unilatéral, dans les deux sens En Guiziflex, comme tu veux, t'as capté ou pas ? C'est du vite fait, ça va</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Zigidi zone sensible Yonea Willy, Willy Yonea Guizmo, VLG Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnz la force chaque jour, chaque jour Ouais vous m donner la force chaque jour, chaque jour J'suis Guzimo j'suis pas une star du rap J'connais mon public Pas du genre j'fais semblant en vrai j'les calcule ap Ouais j'parle de mes potes de mes frérot qu'on appelle fan Et pour moi c'est des héros sous la belle faille Ouais je sais comment tu penses, comment tu dors Sur un lit superposé voila je sais comment tu pionces T'as peut-être un demi frère, une demie sur T'écoute un peu de rap pour soulager une demie heure T'as tout les albums tous les magazines En concert et tes potes pas sur t'es de la partie Jamais à la maison t'es sur ton chemin T'écoute du rap à plein temps et tu penses à demain You might also like Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Depuis le début j'ai pas changé Depuis le début j'ai pas changé Depuis le début je te dis j'ai pas changé Guizi ouzou 92 J'suis resté le même, resté le même Malgré qu'on me freine, mes doutes et mes peines J'ai pas pris la haine J'ai partagé ma vie entre studio et la scène Mon public c'est moi et mon histoire c'est la sienne On avait le chemin, on avait les villes On avait les mecs biens partager les villas Et j'oublierai jamais Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Ouais elles sont belles et ça je le dis chaque jour Toujours à s'envoyer des mails Les rassurer quand elles disent plus d'amour Certaines sont mères au foyer elles se déplacent en concert Elles sont fortes, elles sont fières, évidemment qu'on s'aime On s'follow sur twitter partage nos insomnies Dire qu'y a deux trois ans certains disaient que c'était impossible Mais on l'a fait ensemble et la route est longue Mais la route est belle donc je la partage avec tout ce monde Merci à mes grémlins, mes guizmettes et mes frères de tess Donnez moi la force et je vais faire le reste J'peux pas crier famine on est ensemble CS YW signé Lamine Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Depuis le début j'ai pas changé J'suis resté le même, resté le même Malgré qu'on me freine, mes doutes et mes peines J'ai pas pris la haine J'ai partagé ma vie entre studio et la scène Mon public c'est moi et mon histoire c'est la sienne On avait le chemin, on avait les villes On avait les mecs biens partager les villas Et j'oublierai jamais</t>
+          <t>Zigidi zone sensible Yonea Willy, Willy Yonea Guizmo, VLG Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnz la force chaque jour, chaque jour Ouais vous m donner la force chaque jour, chaque jour J'suis Guzimo j'suis pas une star du rap J'connais mon public Pas du genre j'fais semblant en vrai j'les calcule ap Ouais j'parle de mes potes de mes frérot qu'on appelle fan Et pour moi c'est des héros sous la belle faille Ouais je sais comment tu penses, comment tu dors Sur un lit superposé voila je sais comment tu pionces T'as peut-être un demi frère, une demie sur T'écoute un peu de rap pour soulager une demie heure T'as tout les albums tous les magazines En concert et tes potes pas sur t'es de la partie Jamais à la maison t'es sur ton chemin T'écoute du rap à plein temps et tu penses à demain Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Depuis le début j'ai pas changé Depuis le début j'ai pas changé Depuis le début je te dis j'ai pas changé Guizi ouzou 92 J'suis resté le même, resté le même Malgré qu'on me freine, mes doutes et mes peines J'ai pas pris la haine J'ai partagé ma vie entre studio et la scène Mon public c'est moi et mon histoire c'est la sienne On avait le chemin, on avait les villes On avait les mecs biens partager les villas Et j'oublierai jamais Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Ouais elles sont belles et ça je le dis chaque jour Toujours à s'envoyer des mails Les rassurer quand elles disent plus d'amour Certaines sont mères au foyer elles se déplacent en concert Elles sont fortes, elles sont fières, évidemment qu'on s'aime On s'follow sur twitter partage nos insomnies Dire qu'y a deux trois ans certains disaient que c'était impossible Mais on l'a fait ensemble et la route est longue Mais la route est belle donc je la partage avec tout ce monde Merci à mes grémlins, mes guizmettes et mes frères de tess Donnez moi la force et je vais faire le reste J'peux pas crier famine on est ensemble CS YW signé Lamine Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Un nouveau jour se lève et je pense à vous Tout ces souvenirs de dingues Tout ces sauts dans la foule Vous me donnez la force chaque jour, chaque jour Ouais vous me donner la force chaque jour, chaque jour Depuis le début j'ai pas changé J'suis resté le même, resté le même Malgré qu'on me freine, mes doutes et mes peines J'ai pas pris la haine J'ai partagé ma vie entre studio et la scène Mon public c'est moi et mon histoire c'est la sienne On avait le chemin, on avait les villes On avait les mecs biens partager les villas Et j'oublierai jamais</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Jveux pas y aller, nan nan, jveux pas y aller Jveux rester à la maison et regarder la télé Jveux pas y aller, jveux pas sortir mon cartable Jveux mamuser et tweeter sur mon portable Jveux pas y aller, nan nan, jveux pas y aller Jveux restez à la maison et regarder la télé Jveux pas y aller, dfaçon maman jsuis malade Le prof est absent et jte jure quil y a pas classe Langoisse de la rentrée des classes Nouveaux potes, nouveaux profs, nouveau cartable, le français, les maths Eh ! Il va falloir sy faire, se déplacer pour étudier ce sera ltrain-train Même quand il fera froid lhiver, levé à sept heures et demi pour le ptit déj Avant dprendre le chemin de lécole en rêvant dweek-end Personne sait ce quil spasse dans ta ptite tête Ten as marre et quand ça sonne tu tbarres en vitesse Jétais dans lmême cas, je sais cque jdis Et le mercredi moi jattendais quça ! Jvoulais jouer au foot, balle aux prisonniers Dehors jme sentais libre, à lécole jétais isolé Ouai, jprends des notes quand ça mchante, et je chante souvent Les batailles deau, le goût de l'étude, jy repense tout ltemps Tas étudié, tu étudie et tu étudieras Certains matins tu feras comme moi, et tu diras You might also like Moi cétait bavardages avec les camarades En attendant la fin du mois djuin pour stailler à la plage A plein on était fous, touts seuls on était sages Et cest toujours le drame quand il y en a un qui déménage Heureusement que jai un meilleur soss Il dort chez moi, jdors chez lui, on est dans la même classe Bref cest mon meilleur soss Avec lui, des coups jen ai fait quatre-cent On fait la paire donc si lun a séché, lautre est absent Jadmets que grâce à ça, jdois remercier lécole Depuis ta rencontré du monde mais, mais eux cest des vrais potes Lécole cest fou, lécole cest nul, lécole cest trop bien Jusquà ce premier gros joint, et tu diras Jveux pas y aller, jsuis pas malade, jai juste envie dsécher les cours Trainer dans lsalon Jveux pas y aller, jsuis pas malade, jai juste envie de rester cool Allongé dans lsalon Cest beaucoup trop dtaf pour un bilan, trop dtaf pour un brevet Trop dtaf pour un bac, trop dtaf pour une licence Jveux pas y aller, jveux rester chez moi, tranquille pépère Bah ouais ! Jveux pas y aller, jveux rester chez moi, sans prise de tête Sans penser aux profs et au CPE, à la SVT, aux SES A lhistoire-géo et le reste Je rêve dune récréation à vie, et jla souhaite à la génération à venir Allons enfants du système scolaire, patience Il y a toujours une semaine de vacances quand on sfait arracher les molaires Nos parents disent quon en a besoin Pas convaincus on sdit jsuis obligé, alors je viens Jle sais parce que jai pensé la même chose Jaurais pu aller loin, mais jsuis passé à té-cô Animalsons Yonea-Willy, Willy-Yonea et tu lsais Jusquà linfini</t>
+          <t>Jveux pas y aller, nan nan, jveux pas y aller Jveux rester à la maison et regarder la télé Jveux pas y aller, jveux pas sortir mon cartable Jveux mamuser et tweeter sur mon portable Jveux pas y aller, nan nan, jveux pas y aller Jveux restez à la maison et regarder la télé Jveux pas y aller, dfaçon maman jsuis malade Le prof est absent et jte jure quil y a pas classe Langoisse de la rentrée des classes Nouveaux potes, nouveaux profs, nouveau cartable, le français, les maths Eh ! Il va falloir sy faire, se déplacer pour étudier ce sera ltrain-train Même quand il fera froid lhiver, levé à sept heures et demi pour le ptit déj Avant dprendre le chemin de lécole en rêvant dweek-end Personne sait ce quil spasse dans ta ptite tête Ten as marre et quand ça sonne tu tbarres en vitesse Jétais dans lmême cas, je sais cque jdis Et le mercredi moi jattendais quça ! Jvoulais jouer au foot, balle aux prisonniers Dehors jme sentais libre, à lécole jétais isolé Ouai, jprends des notes quand ça mchante, et je chante souvent Les batailles deau, le goût de l'étude, jy repense tout ltemps Tas étudié, tu étudie et tu étudieras Certains matins tu feras comme moi, et tu diras Moi cétait bavardages avec les camarades En attendant la fin du mois djuin pour stailler à la plage A plein on était fous, touts seuls on était sages Et cest toujours le drame quand il y en a un qui déménage Heureusement que jai un meilleur soss Il dort chez moi, jdors chez lui, on est dans la même classe Bref cest mon meilleur soss Avec lui, des coups jen ai fait quatre-cent On fait la paire donc si lun a séché, lautre est absent Jadmets que grâce à ça, jdois remercier lécole Depuis ta rencontré du monde mais, mais eux cest des vrais potes Lécole cest fou, lécole cest nul, lécole cest trop bien Jusquà ce premier gros joint, et tu diras Jveux pas y aller, jsuis pas malade, jai juste envie dsécher les cours Trainer dans lsalon Jveux pas y aller, jsuis pas malade, jai juste envie de rester cool Allongé dans lsalon Cest beaucoup trop dtaf pour un bilan, trop dtaf pour un brevet Trop dtaf pour un bac, trop dtaf pour une licence Jveux pas y aller, jveux rester chez moi, tranquille pépère Bah ouais ! Jveux pas y aller, jveux rester chez moi, sans prise de tête Sans penser aux profs et au CPE, à la SVT, aux SES A lhistoire-géo et le reste Je rêve dune récréation à vie, et jla souhaite à la génération à venir Allons enfants du système scolaire, patience Il y a toujours une semaine de vacances quand on sfait arracher les molaires Nos parents disent quon en a besoin Pas convaincus on sdit jsuis obligé, alors je viens Jle sais parce que jai pensé la même chose Jaurais pu aller loin, mais jsuis passé à té-cô Animalsons Yonea-Willy, Willy-Yonea et tu lsais Jusquà linfini</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>J'arrive en bal' comme à l'époque du VR6, avec mes gavas j'traîne en bas, j'ai rien à foutre de tes MCs Villeneuve-zoo, c'est deuspi comme K2000 Un kil', un 12, ça bouge pas, mes gars te livrent Des biz' grave louches que tu trouves dans chaque ville Villeneuve-zoo, c'est deuspi comme K2000 Ça parle de flingue et de bringue Ça fait que feinter les 22 qui nous épinglent Mais les dingues seront en planque jusqu'à main-de Moi j'ai tabassé toutes mes prods, c'est dans la rage que j'trouve mes forces De dérapages, on est ravagés tant qu'on n'a pas trouvé l'coffre Que les p'tites tapettes clamsent, ou bien j'les kill avec rage Un singe des villes, cousin j'maîtrise à la Michael Knight Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000 J'suis ravageur comme la me-ca J'ai pas la peur de la ve-ca Un baladeur en 34 d'heure, moi j'vous fait péter un ble-câ J'veux m'barrer sous le soleil J'm'en bats les couilles du sommeil J'vais finir déféré Quand j'vais t'braquer tout ton oseille Jouez pas les cons, mes gars fréquentent des allées sombres Des tas d'descentes, des noirs, des blancs, cousin tu connais la maison T'es évasif, j'suis créatif et réactif Arrête de t'poser des questions C'est la seule chose qui fait la dif' Vous allez craindre c'que ma mère a mis au monde Moi j'suis pas v'nu pour me plaindre, ou pour vivre dans vos ombres Remballez vos barres de rire, moi j'en ai pas marre de vivre J'en ai juste marre de dealer Dans ma tête c'est K2000 Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000 J'suis pas au RSA, mes adversaires sont RIP Ils veulent jouer les VIP, ils pèsent lourd comme le CFA Faites voir le fric putain, faites voir le fric Moi et ma clique on prend des risques avec le shit devant les flics putain Si on demande bah tu répondras qu't'en sais rien Quand j'ai rien dans les mains, j'écris moins et j'vends des pains Biz' grave louche que tu trouves dans chaque ville Villeneuve-sous c'est deuspi comme K2000 K2, K2, Villeneuve-zoo C'est deuspi comme K2000 K2, K2, Villeneuve-zoo C'est deuspi comme K2000 Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000You might also like</t>
+          <t>J'arrive en bal' comme à l'époque du VR6, avec mes gavas j'traîne en bas, j'ai rien à foutre de tes MCs Villeneuve-zoo, c'est deuspi comme K2000 Un kil', un 12, ça bouge pas, mes gars te livrent Des biz' grave louches que tu trouves dans chaque ville Villeneuve-zoo, c'est deuspi comme K2000 Ça parle de flingue et de bringue Ça fait que feinter les 22 qui nous épinglent Mais les dingues seront en planque jusqu'à main-de Moi j'ai tabassé toutes mes prods, c'est dans la rage que j'trouve mes forces De dérapages, on est ravagés tant qu'on n'a pas trouvé l'coffre Que les p'tites tapettes clamsent, ou bien j'les kill avec rage Un singe des villes, cousin j'maîtrise à la Michael Knight Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000 J'suis ravageur comme la me-ca J'ai pas la peur de la ve-ca Un baladeur en 34 d'heure, moi j'vous fait péter un ble-câ J'veux m'barrer sous le soleil J'm'en bats les couilles du sommeil J'vais finir déféré Quand j'vais t'braquer tout ton oseille Jouez pas les cons, mes gars fréquentent des allées sombres Des tas d'descentes, des noirs, des blancs, cousin tu connais la maison T'es évasif, j'suis créatif et réactif Arrête de t'poser des questions C'est la seule chose qui fait la dif' Vous allez craindre c'que ma mère a mis au monde Moi j'suis pas v'nu pour me plaindre, ou pour vivre dans vos ombres Remballez vos barres de rire, moi j'en ai pas marre de vivre J'en ai juste marre de dealer Dans ma tête c'est K2000 Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000 J'suis pas au RSA, mes adversaires sont RIP Ils veulent jouer les VIP, ils pèsent lourd comme le CFA Faites voir le fric putain, faites voir le fric Moi et ma clique on prend des risques avec le shit devant les flics putain Si on demande bah tu répondras qu't'en sais rien Quand j'ai rien dans les mains, j'écris moins et j'vends des pains Biz' grave louche que tu trouves dans chaque ville Villeneuve-sous c'est deuspi comme K2000 K2, K2, Villeneuve-zoo C'est deuspi comme K2000 K2, K2, Villeneuve-zoo C'est deuspi comme K2000 Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Des dérapages, des drive-by, des crash Des femmes classes, des drames Dans ma tête c'est K2000 Dans ma tête c'est K2000 Dans ma tête c'est K2 Dans ma tête c'est K2 Dans ma tête c'est K2000, K2000</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Quand autrefois dans les salons La jeune fille de la maison Venait chanter en rougissant Les invités serraient les dents Regrettant que rien ne prohibe Lalo, Lully, Léo Delibes A ces gosiers entreprenants Sans grand respect pour les tympans ! La demoiselle imperturbable Et d'une inconscience admirable Enchaînait notes malheureuses Et vocalises défectueuses Refrain Rendons hommage aux casseroles Qui chantent à tout hasard Jamais vraiment un bécarre Jamais vraiment un bémol Ô casseroles, ô faussets Ouvrez la chasse aux canards Et rassassinez Mozart Dans l'environ et le bizarre Dans la joie et l'à-peu-près Ô casseroles, ô faussets ! On a connu des Parisiennes Qui chantaient résolument faux Pourtant quand elles étaient sur scène Le monde entier braillait Bravo Une milliardaire américaine Voulut piauler de l'opéra C'qui nous valut quelques migraines Et puis un disque chez RCA Comme quoi, le gène de la justesse N'est pas celui de l'ambition De chanter faux -je le confesse- J'ai la secrète tentation You might also likeau Refrain Vous qui chantez comme des guimbardes Comme Assurancetourix, le barde Qu'avez une voix comme un outrage Une voix de mule, une voix de garage Chantez et prenez bien vos aises Avec les do, les la, les dièses Affranchis de toute harmonie Si vous saviez comme j' vous envie Chantez, chantons, c'est important Sans complexe et n'importe comment Ça sera pas pire et même plus beau Que ce qu'on entend à la radio ... parfois au Refrain ------- Florence Foster Jenkins</t>
+          <t>Quand autrefois dans les salons La jeune fille de la maison Venait chanter en rougissant Les invités serraient les dents Regrettant que rien ne prohibe Lalo, Lully, Léo Delibes A ces gosiers entreprenants Sans grand respect pour les tympans ! La demoiselle imperturbable Et d'une inconscience admirable Enchaînait notes malheureuses Et vocalises défectueuses Refrain Rendons hommage aux casseroles Qui chantent à tout hasard Jamais vraiment un bécarre Jamais vraiment un bémol Ô casseroles, ô faussets Ouvrez la chasse aux canards Et rassassinez Mozart Dans l'environ et le bizarre Dans la joie et l'à-peu-près Ô casseroles, ô faussets ! On a connu des Parisiennes Qui chantaient résolument faux Pourtant quand elles étaient sur scène Le monde entier braillait Bravo Une milliardaire américaine Voulut piauler de l'opéra C'qui nous valut quelques migraines Et puis un disque chez RCA Comme quoi, le gène de la justesse N'est pas celui de l'ambition De chanter faux -je le confesse- J'ai la secrète tentation au Refrain Vous qui chantez comme des guimbardes Comme Assurancetourix, le barde Qu'avez une voix comme un outrage Une voix de mule, une voix de garage Chantez et prenez bien vos aises Avec les do, les la, les dièses Affranchis de toute harmonie Si vous saviez comme j' vous envie Chantez, chantons, c'est important Sans complexe et n'importe comment Ça sera pas pire et même plus beau Que ce qu'on entend à la radio ... parfois au Refrain ------- Florence Foster Jenkins</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Wesh Dmax, wesh mon Dope Boys comme t'as jamais vu Wesh Dimeh, hein ? Comme j'le dis encore Ils ont des têtes à claques, on gère les têtes à queues narvalo Tu m'a sauvé la vie hein ? Salopard Yonea Willy Willy Yonza Gangsta'z Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Enfermé dans ma bulle, moi, j'me pète la tête au goulot J'suis pas d'ceux qu'on manipule pour du fric ou même un boulot J'suis chaud comme la canicule, le regard froid comme un yougo Faire du blé, c'est pas si dur, juste du shit avec un fourneau Tous les jours, je tiens les murs comme si sans moi, ils allaient tomber Et puis sans ma sur c'est dur, j'ai qu'une envie c'est d'me faire plomber J'suis plongé dans le noir, défoncé dans le square Je deal, je fume, je bois des bières, je baise et j'rentre tard Tous les jours, je chante le mal, j'suis l'plus sale des gentleman J'ai fait dans la vente de cess et puis même dans la vente de crack Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore You might also like J'ai mes tasses-pé qui m'cassent les couilles, j'ai ma femme qui m'les casse encore plus Être avec Guizmo, c'est pas la bonne place,j 'ai du bedo et un tarpé dans l'fut' Combien j'en ai vu des coups d'shlass ? Ça commence toujours par un coup d'pute Tu t'fais niquer ta mère et puis khlass, au pire, c'est taser avec un coup d'jus Ouais ça va vite négro, viens pas casser la bite négro Viens pas gratter un feat négro, comme à l'ancienne, on lâche les pits négro Tu prens la fuite pélo Ils ont des caleçons Versace mais ils ont même pas d'yeuks Si tu veux clash, on va clasher et j'me fais même ta meuf Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Savez vous qui je suis ? Je crois qu'vous n'imaginez pas J'me bute à l'alcool et au techi, j'étais foutu depuis l'départ Quand on m'a donné cette dope et qu'on m'a parlé bénéfice Le diable a pris mes vertus et puis, il m'a prêté ses vices J'étais qu'un novice, j'ai maillé, détaillé, racaillé pour grailler, rentré trop défoncé, dormi sur le palier Jamais perdu mes couilles demande à mes alliés J'suis monté sur des coups cagoulé grenaillé, j'ai zoné comme un rat et j'ai zoné comme un clebs Maman, j'fais d'la maille, ouais ton renoi est bien flex, des Louboutins, des bijoux, des restos Igo si t'as pas d'sous, tu peux pas gérer mon ex, elles ont fait de moi un salaud Parce que c'était toutes des salopes Il m'doit des sous, il m'rend paro, la prochaine fois, j'lui mets une carotte Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore</t>
+          <t>Wesh Dmax, wesh mon Dope Boys comme t'as jamais vu Wesh Dimeh, hein ? Comme j'le dis encore Ils ont des têtes à claques, on gère les têtes à queues narvalo Tu m'a sauvé la vie hein ? Salopard Yonea Willy Willy Yonza Gangsta'z Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Enfermé dans ma bulle, moi, j'me pète la tête au goulot J'suis pas d'ceux qu'on manipule pour du fric ou même un boulot J'suis chaud comme la canicule, le regard froid comme un yougo Faire du blé, c'est pas si dur, juste du shit avec un fourneau Tous les jours, je tiens les murs comme si sans moi, ils allaient tomber Et puis sans ma sur c'est dur, j'ai qu'une envie c'est d'me faire plomber J'suis plongé dans le noir, défoncé dans le square Je deal, je fume, je bois des bières, je baise et j'rentre tard Tous les jours, je chante le mal, j'suis l'plus sale des gentleman J'ai fait dans la vente de cess et puis même dans la vente de crack Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore J'ai mes tasses-pé qui m'cassent les couilles, j'ai ma femme qui m'les casse encore plus Être avec Guizmo, c'est pas la bonne place,j 'ai du bedo et un tarpé dans l'fut' Combien j'en ai vu des coups d'shlass ? Ça commence toujours par un coup d'pute Tu t'fais niquer ta mère et puis khlass, au pire, c'est taser avec un coup d'jus Ouais ça va vite négro, viens pas casser la bite négro Viens pas gratter un feat négro, comme à l'ancienne, on lâche les pits négro Tu prens la fuite pélo Ils ont des caleçons Versace mais ils ont même pas d'yeuks Si tu veux clash, on va clasher et j'me fais même ta meuf Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Savez vous qui je suis ? Je crois qu'vous n'imaginez pas J'me bute à l'alcool et au techi, j'étais foutu depuis l'départ Quand on m'a donné cette dope et qu'on m'a parlé bénéfice Le diable a pris mes vertus et puis, il m'a prêté ses vices J'étais qu'un novice, j'ai maillé, détaillé, racaillé pour grailler, rentré trop défoncé, dormi sur le palier Jamais perdu mes couilles demande à mes alliés J'suis monté sur des coups cagoulé grenaillé, j'ai zoné comme un rat et j'ai zoné comme un clebs Maman, j'fais d'la maille, ouais ton renoi est bien flex, des Louboutins, des bijoux, des restos Igo si t'as pas d'sous, tu peux pas gérer mon ex, elles ont fait de moi un salaud Parce que c'était toutes des salopes Il m'doit des sous, il m'rend paro, la prochaine fois, j'lui mets une carotte Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore Ils ont même pas d'fric, ils sont même pas forts, ils ont même pas d'shit, ils ont même pas d'or Maman s'teuplait, Maman s'teuplait, laisse-moi écrire que des textes hardcore</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>On nous a mis dans la matrice mais on n'a pas choisi la pilule Là, cest Mamadou et Bilel qui s'retrouvent tout seul en cellule Et y a même des Jeremy qui se retrouve sur le bitume Y a une grande différence entre misère et puis vie de rue J'ai peur de leur regard, jai peur de leur réaction J'ai peur de descendre de la bagnole quand ils veulent la palpation J'm'en rappelle à mes 20 ans, j'criais woop woop Aujourd'hui si tu fais le con, ça fait bloup bloup Joint au bec sur la moto, j'connais ça d'puis toujours En bas des tours, des aller-retour, ça casse les couilles les shtars, les fouilles Cest pas la vérité les histoires dans les séries drap Viens traîner dans mon quartier, là-bas tout est vérifiable Y a la misère sociale, y a les daronnes en galères Y a les darons qui s'lèvent à six du mat dans l'bus en colère Et y a pas beaucoup d'couleurs, par terre, y a que des molards Une rage de dents, ça fume du shit histoire d'calmer la douleur Jveux pas mourir comme mes grands frères Et j'veux plus vivre comme un gangster Y a trop de gens qu'on enterre Plus vivre comme un gangster Pas mourir comme mes grands frères You might also like Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Moi, j'ai pas tout vu mais j'oublie pas les anciens Qu'ont traversé les époques mais qui ont fini en chien Alors mon pote, réfléchis, il faut surtout pas flancher Aujourd'hui, j'ai des renards qui font péter les enceintes Ils font péter les enceintes et c'est des fils de prolos Ils m'donnent la force de Broly, grâce à eux j'ai eu l'gros lot Met ta capuche et tu bicraves même s'il y a la grêle Quand on m'dit ça à 15 ans, j't'assure que c'est pas drôle Villeneuve-La-Garenne, Valenton et tout le reste Rentrez dans l'hall et battez-vous, ça c'est pour le test Y a que des troubles fêtes, tous en bas des tours de tess Y a les grosses, les courtes peines, tout c'qu'on dit, c'est pour de vrai Quand j'étais à cour de zeb, fallait ravitaille les meuj J'ai pas fait ça pour te plaire, viens voir à la tour des feuj Ça vole comme Ali baba et toi vas-y, va là-bas Et aller prenez vos ripoux et rendez-nous Adama J'veux pas mourir comme mes grands frères Et j'veux plus vivre comme un gangster Y a trop de gens qu'on enterre Plus vivre comme un gangster Pas mourir comme mes grands frères Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Ouais, ouais, ouais Villeneuve-La-Garenne 92390 Valenton c'est mon zoo, 9.4.4.6 Tous mes frérots d'Bezbar T'connais l'boulevard hein Juste là Guiziouzou bang</t>
+          <t>On nous a mis dans la matrice mais on n'a pas choisi la pilule Là, cest Mamadou et Bilel qui s'retrouvent tout seul en cellule Et y a même des Jeremy qui se retrouve sur le bitume Y a une grande différence entre misère et puis vie de rue J'ai peur de leur regard, jai peur de leur réaction J'ai peur de descendre de la bagnole quand ils veulent la palpation J'm'en rappelle à mes 20 ans, j'criais woop woop Aujourd'hui si tu fais le con, ça fait bloup bloup Joint au bec sur la moto, j'connais ça d'puis toujours En bas des tours, des aller-retour, ça casse les couilles les shtars, les fouilles Cest pas la vérité les histoires dans les séries drap Viens traîner dans mon quartier, là-bas tout est vérifiable Y a la misère sociale, y a les daronnes en galères Y a les darons qui s'lèvent à six du mat dans l'bus en colère Et y a pas beaucoup d'couleurs, par terre, y a que des molards Une rage de dents, ça fume du shit histoire d'calmer la douleur Jveux pas mourir comme mes grands frères Et j'veux plus vivre comme un gangster Y a trop de gens qu'on enterre Plus vivre comme un gangster Pas mourir comme mes grands frères Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Moi, j'ai pas tout vu mais j'oublie pas les anciens Qu'ont traversé les époques mais qui ont fini en chien Alors mon pote, réfléchis, il faut surtout pas flancher Aujourd'hui, j'ai des renards qui font péter les enceintes Ils font péter les enceintes et c'est des fils de prolos Ils m'donnent la force de Broly, grâce à eux j'ai eu l'gros lot Met ta capuche et tu bicraves même s'il y a la grêle Quand on m'dit ça à 15 ans, j't'assure que c'est pas drôle Villeneuve-La-Garenne, Valenton et tout le reste Rentrez dans l'hall et battez-vous, ça c'est pour le test Y a que des troubles fêtes, tous en bas des tours de tess Y a les grosses, les courtes peines, tout c'qu'on dit, c'est pour de vrai Quand j'étais à cour de zeb, fallait ravitaille les meuj J'ai pas fait ça pour te plaire, viens voir à la tour des feuj Ça vole comme Ali baba et toi vas-y, va là-bas Et aller prenez vos ripoux et rendez-nous Adama J'veux pas mourir comme mes grands frères Et j'veux plus vivre comme un gangster Y a trop de gens qu'on enterre Plus vivre comme un gangster Pas mourir comme mes grands frères Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Dans l'ascenseur, ça pue la pisse En bas d'la rue, ça pue la poisse À tous mes frérots, rest in peace De Valenton à rue Laghouat Ouais, ouais, ouais Villeneuve-La-Garenne 92390 Valenton c'est mon zoo, 9.4.4.6 Tous mes frérots d'Bezbar T'connais l'boulevard hein Juste là Guiziouzou bang</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Combien ont tué pour des pesos ? Ils en avaient marre des pesetas Et puis chez nous, il pleut des bastos Y'en a qui font la loi avec des Berettas J'ai vu la foule, j'ai vu la foudre et la tempête Plus rien à foutre, alors j'ai pris la poudre d'escampette Et j'pars comme j'suis venu, tout seul et dans un bain de sang Le cauchemar de la veille se réalise maintenant Et moi j'ferai tout pour eux Mais des fois j'me dis, c'est tout pourri J'vais faire comment si je crève bourré Hein ? C'est pas la vie dont je rêvais Hier, j'étais avec Ulysse, quand je m'endors je le revois Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié non Oui, c'est tout ça qu'j'ai sacrifié tout ça Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié tout ça Oui, c'est tout ça qu'j'ai sacrifié You might also like Mi amor, on s'était mis d'accord Arrête de penser à moi quand tu vois le mirador Dans l'aquarium y'a des piranhas, des alligators Mais faut y aller, faut y aller, nique sa mère, j'ai pas peur Je sais très bien quand j'ai raison et quand j'ai tort Que Dieu pardonne l'âme de celui qui tire J'voulais du jaune, du mauve et j'en suis devenu mauvais Que le ciel me pardonne, j'me croyais dans un movie Tu vois là-bas, là, y'a un bâtiment en hess Figure-toi, que c'est les grands qui l'alimentent en cess On vit comme ça on met les habitants en stress J'suis défoncé et j'pense aux châtiments quand j'suis dans le binks Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié oui, c'est tout ça Oui, c'est tout ça qu'j'ai sacrifié tout ça, tout ça Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié tout ça, tout ça Oui, c'est tout ça qu'j'ai sacrifié tout ça Y'en a qui prennent des balles dans la tête dehors Des vies bizarres à la Jack Bauer, une équipe de banditos qui veut tout le power C'était pas moi j'le jure sur la tête de ma fiche de recherche Avant j'volais maintenant j'dis s'il-te-plaît Moi j'suis Guizmo mais j'suis pas comme tous les autres J'en ai vu plein sur le terrain et wallah, qu'ils ont fait des fautes Moi c'est Guizmo mais j'suis pas comme tous les autres J'en ai vu plein sur le terrain et wallah, qu'ils ont fait des fautes Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort</t>
+          <t>Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Combien ont tué pour des pesos ? Ils en avaient marre des pesetas Et puis chez nous, il pleut des bastos Y'en a qui font la loi avec des Berettas J'ai vu la foule, j'ai vu la foudre et la tempête Plus rien à foutre, alors j'ai pris la poudre d'escampette Et j'pars comme j'suis venu, tout seul et dans un bain de sang Le cauchemar de la veille se réalise maintenant Et moi j'ferai tout pour eux Mais des fois j'me dis, c'est tout pourri J'vais faire comment si je crève bourré Hein ? C'est pas la vie dont je rêvais Hier, j'étais avec Ulysse, quand je m'endors je le revois Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié non Oui, c'est tout ça qu'j'ai sacrifié tout ça Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié tout ça Oui, c'est tout ça qu'j'ai sacrifié Mi amor, on s'était mis d'accord Arrête de penser à moi quand tu vois le mirador Dans l'aquarium y'a des piranhas, des alligators Mais faut y aller, faut y aller, nique sa mère, j'ai pas peur Je sais très bien quand j'ai raison et quand j'ai tort Que Dieu pardonne l'âme de celui qui tire J'voulais du jaune, du mauve et j'en suis devenu mauvais Que le ciel me pardonne, j'me croyais dans un movie Tu vois là-bas, là, y'a un bâtiment en hess Figure-toi, que c'est les grands qui l'alimentent en cess On vit comme ça on met les habitants en stress J'suis défoncé et j'pense aux châtiments quand j'suis dans le binks Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié oui, c'est tout ça Oui, c'est tout ça qu'j'ai sacrifié tout ça, tout ça Une pluie de larmes, de sueur, de sang Oui, c'est tout ça qu'j'ai sacrifié tout ça, tout ça Oui, c'est tout ça qu'j'ai sacrifié tout ça Y'en a qui prennent des balles dans la tête dehors Des vies bizarres à la Jack Bauer, une équipe de banditos qui veut tout le power C'était pas moi j'le jure sur la tête de ma fiche de recherche Avant j'volais maintenant j'dis s'il-te-plaît Moi j'suis Guizmo mais j'suis pas comme tous les autres J'en ai vu plein sur le terrain et wallah, qu'ils ont fait des fautes Moi c'est Guizmo mais j'suis pas comme tous les autres J'en ai vu plein sur le terrain et wallah, qu'ils ont fait des fautes Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort Oui, ma belle je sais que tu m'as soutenu Mais maintenant c'est plus pareil Je suis dans le trou, je suis mort</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après You might also like Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
+          <t>On t'a mis une raclée à la gare À cause de toi on est passés à la barre Sale balance, j'rappe salement Tu mérites que mes genous et mes quatre phalanges Demande à L.A.S.C.A.R.S Vous êtes en France on est sur M.A.R.S Villeneuve-la-Garenne ça bédave normal Mais sur un contrôle les flics veulent ma barrette Bordel de merde, ok j'me perds Mais comment faire autrement avec mes problèmes d'oseille J'opère le game L'enfoiré est dans un sale état Fallait pas me foutre la rage maintenant chialez pas J'suis pas assistante sociale Je ne connais que la rue, la haine, le bâtiment, le local VLD, VLG on s'est tapé des barres J'me rappelle des raclées quand on ramenait les schtars La rue, la ruse, la vie, la caille et la son-pri Ça pue t'as vu dans mes freestyles tu l'as compris Que des zombies dans mon équipe Que des balances, des baltringues, des don-bi dans ton équipe Crois pas qu'on est quitte J'en ai gros sur la patate donc retiens que c'est chaud si tu parles mal Toujours bien sapé, faut des liasses Fuck les biatchs, ces conneries ça vient après Surveille les tiens car ils le font pour toi Ça bouge pas Comme des fois on se demande pourquoi Paraît qu'on se tue chaque soir Vodka ou eau de Cologne Les zombies y'en a pas que sur Call of Des histoires, moi, j'en ai pas plus qu'les autres Tout se ressemble vas-y tweete ça que mon chat déteste les hommes J'ai le flow qui baise le soul track Sans boys band Waouh ! Sors le Gospel de Whoopi Goldberg Non je délire compère, j'ai le droit de le faire parfois Je rappe depuis 96, à mes délires, les nouveaux clips à voir On devient maniables, maniaques, demande à Mo-guiz comment je manie l'art A manger l'instru, cannibale L'amour de l'encre, je te raconte pas une vie de freestyle YW comme un fast qui traverse l'Espagne Y'a rien de bestial, j'suis pas venu pour clasher Arabe c'est toi, t'as vu de chez toi, t'as reconnu le trajet Articule ou écoute, si tu ne sais pas chanter Speede pas avant d'apprendre le mot patienter C'est un message pour tous, pour tous, pour tous Évite le rap sale sinon on te refile un rap douche Mouille-toi là j'efface tout Défoule-toi, mets des coups Tu veux briller mais t'es grillé comme le billet de Gainsbourg Comme le billet de Gainsbourg... Tu veux me descendre pendant que je té-mon Arrête tes conneries avant que je sois rattrapé par mes vieux démons Laisse-moi te dire que l'espoir n'existe pas Qu'on est tous dans la merde parce que les stars méprisent le rap Et c'est la même du 34 au 92 Ouais on se la met mes semblables ont grave besoin de flouze Guizmo, Demi-P, de Sète à Ri-pas N'oublie pas qu'on a kické sur les faces B de la Cliqua Trop de jaloux font leur speech Tu m'as pris pour ta femme, okay ! Vas-y viens voir on va te faire des enfants N'importe qui s'enflamme et j'vois l'avenir en plus La justice veut me voir au parquet mais pas dans celui des bus</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Guizi ouzou Sisi coucou Yonea Willy, Willy Yonea Frérot nous sommes des princes descendants de rois Mais je comprends plus les règles et je comprends plus la loi J'ai connu les HLM viens ici et tu vas voir Respect et dignité on s'est battu pour les avoirs Mama qui frotte le sol, papa qui se sent seul Un gosse intelligent qu'on empêche de toucher le ciel Alors parfois on vole, on deal un peu, on traine La cellul est trop petite j peux pas déployer mes ailes Et on plaque les études parce que on court après le butin Capacités gâchées souvent écrit sur le bulletin Et ça casse les pieds on rêve d'un tas de métiers Même à la fac de Nanterre igo tu peux te faire arrêter Qui sont les mauvais qui a le bon rôle J'retiens mon souffle là je contrôle Faut batailler sans cesse faut pas tailler en retraite La vie c'est tenir les murs ou travailler en laisse J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparemment je ne suis pas commun J'ne comprends plus rien je suis dans le coma You might also like Ils ont créé l'oppression, on a créé la révolte et il faut le faire Quand il s'agit d'affronter des matraques et revolvers Quand on nous manipulait et qu'on est face à des faussaires Le quota veut pas de toi même si t'en a dans le veau-cer C'est trop guez et c'est pour ça qu'on est révolté Pour nous c'est important parce que ça nous a écorché J'ai dejà frôlé la mort j'ai jamais voté de ma vie Ai-je raison, ai-je tort ? moi je pense que c'est pas tragique J'ai rêvé de l'Elysée j'étais dans le bureau du boss Minorité est réfugiée avaient un toit et un job J'me bats contre l'injustice et pas contre le système Ne me fais pas croire qu'ici y a pas de racisme On veut pas s'imposer mais on a le droit d'exister On est pas des malades mais pour nos droits on résiste Alors on manifeste j'sais pas si tu me suis Spliff au bec 86 comme en 68 J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparament je ne suis pas commun J'ne comprends plus rien je suis dans le coma Y a des choses qui nous dépassent c'est notre argent qui le dépense On se noie dans la défonce et j'ai mal quand j'y repense Y a les potos qui lâchent et y a ceux qui se défendent Ceux qui se descendent froid comme en décembre Y a des choses qui nous dépassent c'est notre argent qui le dépense On se noie dans la défonce et j'ai mal quand j'y repense Y a les potos qui lâchent et y a ceux qui se défendent Ceux qui se descendent froid comme en décembre J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparemment je ne suis pas commun J'ne comprends plus rien je suis dans le coma Yonea Willy, Willy Yonea business Guizmo C'est comme ça que je fais les choses</t>
+          <t>Guizi ouzou Sisi coucou Yonea Willy, Willy Yonea Frérot nous sommes des princes descendants de rois Mais je comprends plus les règles et je comprends plus la loi J'ai connu les HLM viens ici et tu vas voir Respect et dignité on s'est battu pour les avoirs Mama qui frotte le sol, papa qui se sent seul Un gosse intelligent qu'on empêche de toucher le ciel Alors parfois on vole, on deal un peu, on traine La cellul est trop petite j peux pas déployer mes ailes Et on plaque les études parce que on court après le butin Capacités gâchées souvent écrit sur le bulletin Et ça casse les pieds on rêve d'un tas de métiers Même à la fac de Nanterre igo tu peux te faire arrêter Qui sont les mauvais qui a le bon rôle J'retiens mon souffle là je contrôle Faut batailler sans cesse faut pas tailler en retraite La vie c'est tenir les murs ou travailler en laisse J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparemment je ne suis pas commun J'ne comprends plus rien je suis dans le coma Ils ont créé l'oppression, on a créé la révolte et il faut le faire Quand il s'agit d'affronter des matraques et revolvers Quand on nous manipulait et qu'on est face à des faussaires Le quota veut pas de toi même si t'en a dans le veau-cer C'est trop guez et c'est pour ça qu'on est révolté Pour nous c'est important parce que ça nous a écorché J'ai dejà frôlé la mort j'ai jamais voté de ma vie Ai-je raison, ai-je tort ? moi je pense que c'est pas tragique J'ai rêvé de l'Elysée j'étais dans le bureau du boss Minorité est réfugiée avaient un toit et un job J'me bats contre l'injustice et pas contre le système Ne me fais pas croire qu'ici y a pas de racisme On veut pas s'imposer mais on a le droit d'exister On est pas des malades mais pour nos droits on résiste Alors on manifeste j'sais pas si tu me suis Spliff au bec 86 comme en 68 J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparament je ne suis pas commun J'ne comprends plus rien je suis dans le coma Y a des choses qui nous dépassent c'est notre argent qui le dépense On se noie dans la défonce et j'ai mal quand j'y repense Y a les potos qui lâchent et y a ceux qui se défendent Ceux qui se descendent froid comme en décembre Y a des choses qui nous dépassent c'est notre argent qui le dépense On se noie dans la défonce et j'ai mal quand j'y repense Y a les potos qui lâchent et y a ceux qui se défendent Ceux qui se descendent froid comme en décembre J'ai toujours cru que j'étais comme eux Et j'ai toujours cru qu'ils étaient comme moi Mais apparemment je ne suis pas commun J'ne comprends plus rien je suis dans le coma Yonea Willy, Willy Yonea business Guizmo C'est comme ça que je fais les choses</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Je viens d'là où la vie est brutale, on en a mal au cur Et quand on a mal aux dents, c'est le cannabis et pas l'docteur J'analyse les regards moqueur, j'ai la vengeance dans la peau On a vu des frères partir en vrille en rentrant dans la dope Oui, c'est tentant dans la zone, j'ai connu des vrais secteurs C'que vous appelez racaille c'est 20 d'vos électeurs Et ils nous font subir impunément mais quand on pète un plomb, ça leur fait bizarre de voir des lions rugir Je suis comme ma mère j'ai le regard un peu méfiant On s'fait contrôler par des gens qui sont littéralement déviants On est dimanche et comme d'hab', j'ai dit lundi, j'arrête Mais pour l'instant, j'suis dans mon hall j'bédave une cigarette Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité J'aime la bécane et tous qui va avec, un KTM et j'suis en trans', gros Mais j'ai peur de finir dans un transfo La vie de rue, ça fait kiffer les petits, ça fait vibrer les filles Mais en vrai, c'est mettre ses doigts dans une prise électrique L'Etat a ses lois, la rue à ses dits-bant Et t'en fais pas, si t'as mal, ça veut dire que t'es vivant Elle te fait boire et elle te paralyse et puis, c'est le cannabis qui te canalise Les gardes à vue, les sales bavures se banalisent Moi, j'ai grandi comme tous mes potes, des cafards et des ordures devant toutes les portes Dieu est le père de tous ces fils, l'oisiveté est la mère de tout les vices You might also like Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Des bâtiments, des caves et des patrouilles, la justice est nulle part mais la police est partout J'vous dis un truc et sur ma vie, j'suis radical, j'finirai plus les fesses à l'air sur la demande d'un magistrat jamais C'est quoi ces bés-chtar ? Mais vous êtes fou ou quoi ? Vous tirez sur les gens, moi et mes potes, on porte le kevlar C'est la merde, pourquoi tu crois qu'on niaks, nous ? Relancé par les huissiers, ils savent bien qu'on a pas de sous Dans mes galères, j'ai tout connu alors dites aux miens, que ça fait que deux ou trois ans que j'vois le frigo plein J'ai toutes une familles à guider, oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité</t>
+          <t>Je viens d'là où la vie est brutale, on en a mal au cur Et quand on a mal aux dents, c'est le cannabis et pas l'docteur J'analyse les regards moqueur, j'ai la vengeance dans la peau On a vu des frères partir en vrille en rentrant dans la dope Oui, c'est tentant dans la zone, j'ai connu des vrais secteurs C'que vous appelez racaille c'est 20 d'vos électeurs Et ils nous font subir impunément mais quand on pète un plomb, ça leur fait bizarre de voir des lions rugir Je suis comme ma mère j'ai le regard un peu méfiant On s'fait contrôler par des gens qui sont littéralement déviants On est dimanche et comme d'hab', j'ai dit lundi, j'arrête Mais pour l'instant, j'suis dans mon hall j'bédave une cigarette Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité J'aime la bécane et tous qui va avec, un KTM et j'suis en trans', gros Mais j'ai peur de finir dans un transfo La vie de rue, ça fait kiffer les petits, ça fait vibrer les filles Mais en vrai, c'est mettre ses doigts dans une prise électrique L'Etat a ses lois, la rue à ses dits-bant Et t'en fais pas, si t'as mal, ça veut dire que t'es vivant Elle te fait boire et elle te paralyse et puis, c'est le cannabis qui te canalise Les gardes à vue, les sales bavures se banalisent Moi, j'ai grandi comme tous mes potes, des cafards et des ordures devant toutes les portes Dieu est le père de tous ces fils, l'oisiveté est la mère de tout les vices Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Des bâtiments, des caves et des patrouilles, la justice est nulle part mais la police est partout J'vous dis un truc et sur ma vie, j'suis radical, j'finirai plus les fesses à l'air sur la demande d'un magistrat jamais C'est quoi ces bés-chtar ? Mais vous êtes fou ou quoi ? Vous tirez sur les gens, moi et mes potes, on porte le kevlar C'est la merde, pourquoi tu crois qu'on niaks, nous ? Relancé par les huissiers, ils savent bien qu'on a pas de sous Dans mes galères, j'ai tout connu alors dites aux miens, que ça fait que deux ou trois ans que j'vois le frigo plein J'ai toutes une familles à guider, oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité Dieu est le père de tous ces fils L'oisiveté est la mère de tous les vices J'ai toute une famille à guider Oubliez Guizmo, écoutez Lamine Diakité</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Han, tchigilitchek yo L'entourage, Guizmo 92 Tu connais le truc, mon pote La Caravelle tours des Feujs Han, yo ! Quand ça va mal, bah j'étanche ma peine avec la rue Remballe ta batte, moi je suis sans arret gardé à vue J'ai tant parler avec la juge, mais y'a rien à faire Et si on veut tout prendre Dis toi bien que c'est qu'il y'a rien à perdre Je peux te citer plein d'affaires De la carotte à l'enlevement De la cagnotte à l'enteremment Des mecs qui se flingues la tête Ouais j'ai connu l'angoisse Les coups de teilles pour les gros culs en boite Ecoutes mec, moi j'évolues en marge Les bouffes-schneck, et les faux-culs rendent barges C'est tout bête, j'découpe sec Mes couplets, t'éléctrocute, t'emballe Rester focus dans le rap C'est ce que je dois faire, mais C'est un bras de fer et c'est préoccupant grave Mec, j'ai des obus dans le crâne Et un brelica dans la gorge Depuis deux milles five, dans la drogue A tirer sur des joints Maintenant les gens ont kiffé sur les miens Ils vont même cliquer sur les liens, cousin You might also like Candy cotton, jeune S.D.P. mon soss Abou coach momo, c'est comme ça qu'on fait les choses Tchigilitchek, han C'est guizmo, 92 l'entourage Le fugitif, et, ET Et cette époque me la mise Des pètards, des potes, de la tise Quand les cops me fatiguent Dans les blocs de ma ville On écope de l'asile, ou de la prison ferme Le reste, rien à foutre depuis que la mort m'a pris mon père Et fiston laisse, ma clique gêrer le bail Ils ont le mis-per et le bac Mais au final tous ces petits cons pèsent Et vite on blesse Tu vois ça quand j'kick mon dièse Tard la nuit, on biz, on traine Et c'est les beats qu'on baise Mes nuits sont pleines de stress et d'amertumes, fils Quand le vice à presque blessé la vertue, j'rime Pour mes gars qui sont posé dans le 'tess, fusille Quand les chtars veulent nous coffrer dans la caisse, l'usine Nous est presque destinée Trève de mecs stylés J'veux juste mettre ma verge dans la schneck du fisc Et j'amene du style Yo, j'ai taffé pour ça Gratté pour ça Bientôt tu vas raquer pour ça C'est l'entourage ma poule C'est comme ça qu'on fait les choses, han !</t>
+          <t>Han, tchigilitchek yo L'entourage, Guizmo 92 Tu connais le truc, mon pote La Caravelle tours des Feujs Han, yo ! Quand ça va mal, bah j'étanche ma peine avec la rue Remballe ta batte, moi je suis sans arret gardé à vue J'ai tant parler avec la juge, mais y'a rien à faire Et si on veut tout prendre Dis toi bien que c'est qu'il y'a rien à perdre Je peux te citer plein d'affaires De la carotte à l'enlevement De la cagnotte à l'enteremment Des mecs qui se flingues la tête Ouais j'ai connu l'angoisse Les coups de teilles pour les gros culs en boite Ecoutes mec, moi j'évolues en marge Les bouffes-schneck, et les faux-culs rendent barges C'est tout bête, j'découpe sec Mes couplets, t'éléctrocute, t'emballe Rester focus dans le rap C'est ce que je dois faire, mais C'est un bras de fer et c'est préoccupant grave Mec, j'ai des obus dans le crâne Et un brelica dans la gorge Depuis deux milles five, dans la drogue A tirer sur des joints Maintenant les gens ont kiffé sur les miens Ils vont même cliquer sur les liens, cousin Candy cotton, jeune S.D.P. mon soss Abou coach momo, c'est comme ça qu'on fait les choses Tchigilitchek, han C'est guizmo, 92 l'entourage Le fugitif, et, ET Et cette époque me la mise Des pètards, des potes, de la tise Quand les cops me fatiguent Dans les blocs de ma ville On écope de l'asile, ou de la prison ferme Le reste, rien à foutre depuis que la mort m'a pris mon père Et fiston laisse, ma clique gêrer le bail Ils ont le mis-per et le bac Mais au final tous ces petits cons pèsent Et vite on blesse Tu vois ça quand j'kick mon dièse Tard la nuit, on biz, on traine Et c'est les beats qu'on baise Mes nuits sont pleines de stress et d'amertumes, fils Quand le vice à presque blessé la vertue, j'rime Pour mes gars qui sont posé dans le 'tess, fusille Quand les chtars veulent nous coffrer dans la caisse, l'usine Nous est presque destinée Trève de mecs stylés J'veux juste mettre ma verge dans la schneck du fisc Et j'amene du style Yo, j'ai taffé pour ça Gratté pour ça Bientôt tu vas raquer pour ça C'est l'entourage ma poule C'est comme ça qu'on fait les choses, han !</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Intro Wai×7 Ok tchuiguilitchek×2 92 villeneuve-la-garrene Les immeuble la galère wai le fugitif mon pote Tchek hun hun Wesh guizmo sa dit quoi Jvais rapper un truc Baffer l'instru Comme si j'allait claquer un cul J'aime pas les intru elles bavent sur mon flow Parlent sur mon dos Alors que j'en nai deja des phrase sur mon ??????? Moi jsuis un pro t'façon J'ose l'affront Les MC n'ont pas d'couille mais il sont trop d'caleçon La punchline du siècle Les jeune dame du 16 veulent m'atrapper Car elle veulent grave du sex Elle s'aiment les diban et les 16 mesure A poil sur le divant elle sont belle jte jurent J'aime les femme l'alcool et le shit Malcolm est le guide de pleins dgens qui flirte entre la corde et le vide Apportez le fric il faut de la mails et vite Jvais manier le biz C'est pour sa que jvais cramer le ????? Mes gars t'expliquent, qu'on casse des briques, qu'on s'casse-dédi ! Est entre 2 bollose on stappent des filles You might also likeSa fait guizmo c'est mortel×2 Lyric ecrit par Telmo si il ya des faute commentez</t>
+          <t>Intro Wai×7 Ok tchuiguilitchek×2 92 villeneuve-la-garrene Les immeuble la galère wai le fugitif mon pote Tchek hun hun Wesh guizmo sa dit quoi Jvais rapper un truc Baffer l'instru Comme si j'allait claquer un cul J'aime pas les intru elles bavent sur mon flow Parlent sur mon dos Alors que j'en nai deja des phrase sur mon ??????? Moi jsuis un pro t'façon J'ose l'affront Les MC n'ont pas d'couille mais il sont trop d'caleçon La punchline du siècle Les jeune dame du 16 veulent m'atrapper Car elle veulent grave du sex Elle s'aiment les diban et les 16 mesure A poil sur le divant elle sont belle jte jurent J'aime les femme l'alcool et le shit Malcolm est le guide de pleins dgens qui flirte entre la corde et le vide Apportez le fric il faut de la mails et vite Jvais manier le biz C'est pour sa que jvais cramer le ????? Mes gars t'expliquent, qu'on casse des briques, qu'on s'casse-dédi ! Est entre 2 bollose on stappent des filles Sa fait guizmo c'est mortel×2 Lyric ecrit par Telmo si il ya des faute commentez</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Yonea Willy, Willy Yonea business Guizmo Le renard, le renard Le plus fort du monde Depuis un moment jai le mojo Jai fait du papier jai pas changé Toujours en requins sur la moto Jeffrite un gros joint sur le cent G Jai vraiment la flemme de tapprendre à pé-ra Et cest pas dma faute si ton truc cest pourri Jsuis pas vnu ici pour me rendre agréable Tu gardes tes conseilles cest pas toi qui mnourri Nan, nan, nan, que des tralala Et viens pas mdire cest la family Jmen bats les couilles comme Makélélé Pas lgenre de mec qui smet en leuleu Tes pas mon copain si tes anti bédave Tes pas mon copain si tes anti bédave Oui je lavoue jsuis pas lgendre idéal Mais jfais du fric et je remplis des salles Ils veulent le renard cest pour ma fourrure Donc je dois protéger mes arrières Jveux pas quça prenne une mauvaise tournure Jsuis à labris que dans ma tanière Que du pilon dans la boite crânienne Le shit est bon il est tout crémeux Diakité mafia la rage est Malienne Si tu veux la guerre tas pas trouvé mieux On fait les choses, on sarrange Jvends pas la C, jvends de larsenic Jgarde la moustache à la Tom Selleck Jsuis au bigo avec las de pique Des fois je craque et je pète les plombs Jme dis jarrête et je jette léponge Ça fait quatre jours que jai pas dormi Me demande pas si je fais des songes Jai dis à Willy de me faire confiance Jai dis à Yonea de me laisser faire Une puce orange et une SFR Guiz le renard fait le nécessaire Okay, qui veut du fric, qui veut bosser, qui sort de taule Okay, qui veut ma place, qui veut mon cash, qui joue un rôle Jsais pas et ça rend fou Javais un cur je lai jetté au feu Hier jai trop bu je sais pas cque jai fait Jsuis déprimé wallah jai même pas faim Jdonnerai ma vie à un valentonnais Jsuis engagé comme Eric Cantona Quand tavais tout le renard il volait Bourré dans la rue à deux doigts du coma You might also like Jveux méloigner loin de tout Nan nan jai pas bsoin de vous Jfais beaucoup de bénéfice Car jachète à moindre coup Comme le renard Vazy danse comme le renard Vazy danse Jveux méloigner loin de tout Nan nan jai pas bsoin de vous Jfais beaucoup de bénéfice Car jachète à moindre coup Comme le renard Vazy danse comme le renard Ouai bébé danse comme le renard Mon gava danse comme le renard Guizi Ouzou Zbangeule Yonea Willy, Willy Yonea jusquà la mort motherfucker ahouh 13 Juillet dans les bacs motherfucker Soyez prêt wallay</t>
+          <t>Yonea Willy, Willy Yonea business Guizmo Le renard, le renard Le plus fort du monde Depuis un moment jai le mojo Jai fait du papier jai pas changé Toujours en requins sur la moto Jeffrite un gros joint sur le cent G Jai vraiment la flemme de tapprendre à pé-ra Et cest pas dma faute si ton truc cest pourri Jsuis pas vnu ici pour me rendre agréable Tu gardes tes conseilles cest pas toi qui mnourri Nan, nan, nan, que des tralala Et viens pas mdire cest la family Jmen bats les couilles comme Makélélé Pas lgenre de mec qui smet en leuleu Tes pas mon copain si tes anti bédave Tes pas mon copain si tes anti bédave Oui je lavoue jsuis pas lgendre idéal Mais jfais du fric et je remplis des salles Ils veulent le renard cest pour ma fourrure Donc je dois protéger mes arrières Jveux pas quça prenne une mauvaise tournure Jsuis à labris que dans ma tanière Que du pilon dans la boite crânienne Le shit est bon il est tout crémeux Diakité mafia la rage est Malienne Si tu veux la guerre tas pas trouvé mieux On fait les choses, on sarrange Jvends pas la C, jvends de larsenic Jgarde la moustache à la Tom Selleck Jsuis au bigo avec las de pique Des fois je craque et je pète les plombs Jme dis jarrête et je jette léponge Ça fait quatre jours que jai pas dormi Me demande pas si je fais des songes Jai dis à Willy de me faire confiance Jai dis à Yonea de me laisser faire Une puce orange et une SFR Guiz le renard fait le nécessaire Okay, qui veut du fric, qui veut bosser, qui sort de taule Okay, qui veut ma place, qui veut mon cash, qui joue un rôle Jsais pas et ça rend fou Javais un cur je lai jetté au feu Hier jai trop bu je sais pas cque jai fait Jsuis déprimé wallah jai même pas faim Jdonnerai ma vie à un valentonnais Jsuis engagé comme Eric Cantona Quand tavais tout le renard il volait Bourré dans la rue à deux doigts du coma Jveux méloigner loin de tout Nan nan jai pas bsoin de vous Jfais beaucoup de bénéfice Car jachète à moindre coup Comme le renard Vazy danse comme le renard Vazy danse Jveux méloigner loin de tout Nan nan jai pas bsoin de vous Jfais beaucoup de bénéfice Car jachète à moindre coup Comme le renard Vazy danse comme le renard Ouai bébé danse comme le renard Mon gava danse comme le renard Guizi Ouzou Zbangeule Yonea Willy, Willy Yonea jusquà la mort motherfucker ahouh 13 Juillet dans les bacs motherfucker Soyez prêt wallay</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Yonea, Willy, Willy Yonea business Guizmo Le renard, le renard Le plus fort du monde Depuis un moment j'ai le mojo J'ai fait du papier j'ai pas changé Toujours en Requins sur la moto J'effrite un gros joint sur le 100g J'ai vraiment la flemme de t'apprendre a pe-ra Et c'est pas de ma faute si ton truc c'est pourri J'suis pas venu ici pour me rendre agréable Tu gardes tes conseils c'est pas toi qui me nourrit Non non non, que des tralala Et viens pas me dire c'est la family Je m'en bat les couilles comme makélélé Pas le genre de mec qui se met en leuleu T'es pas mon copain si t'es anti-pétard ! T'es pas mon copain si t'es anti-bedave ! Oui je l'avoue j'suis pas le gendre idéal Mais je fais du fric et je remplis des salles ! Ils veulent le renard c'est pour ma fourrure Donc je dois protéger mes arrières J'veux pas que ça prenne une mauvaise tournure J'suis a l'abris que dans ma tanière Que du pilon dans la boite crânienne Le shit est bon il est tout cremeux Diakité mafia, la rage est malienne Si tu veux la guerre t'as pas trouvé mieux ! On fait les choses, on s'arrange, j'vends pas la c, j'vends de l'Arsenic J'garde la moustache a la Tom Selleck J'suis au bigo avec l'As de pique Des fois je craque et je pète les plombs J'me dit j'arrête et je jette l'éponge Ça fait quatre jours que j'ai pas dormis Me demande pas si j'ai fait des songes ! J'ai dit à Willy de me faire confiance J'ai dit a Yonea de me laisser faire Une puce orange et une SFR Guiz le renard fait le nécessaire, ok Qui veut du fric, qui veut bosser, qui sort de taule ? ok Qui veut ma place, qui veut mon cash qui joue un rôle ? J'sais pas Et ça rend fous, j'avais un coeur, je l'ai jeté au feu Hier j'ai trop bu je sais pas ce que j'ai fait J'suis déprimé wallah j'ai même pas faim J'donnerais ma vie a un valentonnais J'suis engagé comme Eric Cantona Quand t'avais tout, le renard il volait Bourré dans la rue à deux doigts du coma You might also like J'vais m'éloigner loin de tout Non non j'ai pas besoin de vous J'fais beaucoup de bénéfices, car j'achète a moindre coût Comme le renard ! Vas-y danse comme le renard, vas-y danse ! J'vais m'éloigner loin de tout Non non j'ai pas besoin de vous J'fais beaucoup de bénéfices, car j'achète a moindre coût Comme le renard, renard ! Vas-y danse comme le renard, le renard Ouais bébé danse comme le renard, le renard Mon gava danse comme le renard Guizi Ouzou Yonea, Willy, Willy Yonea jusqu'à la mort</t>
+          <t>Yonea, Willy, Willy Yonea business Guizmo Le renard, le renard Le plus fort du monde Depuis un moment j'ai le mojo J'ai fait du papier j'ai pas changé Toujours en Requins sur la moto J'effrite un gros joint sur le 100g J'ai vraiment la flemme de t'apprendre a pe-ra Et c'est pas de ma faute si ton truc c'est pourri J'suis pas venu ici pour me rendre agréable Tu gardes tes conseils c'est pas toi qui me nourrit Non non non, que des tralala Et viens pas me dire c'est la family Je m'en bat les couilles comme makélélé Pas le genre de mec qui se met en leuleu T'es pas mon copain si t'es anti-pétard ! T'es pas mon copain si t'es anti-bedave ! Oui je l'avoue j'suis pas le gendre idéal Mais je fais du fric et je remplis des salles ! Ils veulent le renard c'est pour ma fourrure Donc je dois protéger mes arrières J'veux pas que ça prenne une mauvaise tournure J'suis a l'abris que dans ma tanière Que du pilon dans la boite crânienne Le shit est bon il est tout cremeux Diakité mafia, la rage est malienne Si tu veux la guerre t'as pas trouvé mieux ! On fait les choses, on s'arrange, j'vends pas la c, j'vends de l'Arsenic J'garde la moustache a la Tom Selleck J'suis au bigo avec l'As de pique Des fois je craque et je pète les plombs J'me dit j'arrête et je jette l'éponge Ça fait quatre jours que j'ai pas dormis Me demande pas si j'ai fait des songes ! J'ai dit à Willy de me faire confiance J'ai dit a Yonea de me laisser faire Une puce orange et une SFR Guiz le renard fait le nécessaire, ok Qui veut du fric, qui veut bosser, qui sort de taule ? ok Qui veut ma place, qui veut mon cash qui joue un rôle ? J'sais pas Et ça rend fous, j'avais un coeur, je l'ai jeté au feu Hier j'ai trop bu je sais pas ce que j'ai fait J'suis déprimé wallah j'ai même pas faim J'donnerais ma vie a un valentonnais J'suis engagé comme Eric Cantona Quand t'avais tout, le renard il volait Bourré dans la rue à deux doigts du coma J'vais m'éloigner loin de tout Non non j'ai pas besoin de vous J'fais beaucoup de bénéfices, car j'achète a moindre coût Comme le renard ! Vas-y danse comme le renard, vas-y danse ! J'vais m'éloigner loin de tout Non non j'ai pas besoin de vous J'fais beaucoup de bénéfices, car j'achète a moindre coût Comme le renard, renard ! Vas-y danse comme le renard, le renard Ouais bébé danse comme le renard, le renard Mon gava danse comme le renard Guizi Ouzou Yonea, Willy, Willy Yonea jusqu'à la mort</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>YW business Le renard le renard Le renard le renard Guizi bang bang J'suis un renard à l'affut, j'en ai commis des méfaits Toujours rel'ver mes défis, jamais accepter l'échec J'suis, avec un pote qui sort du schtar ça f'sait un bail mon gros Moi je dors sur le ventre tellement on schlasse mon dos Tu veux du shit d'la beuh ou bien un truc qui scotch Ouai mon pote c'est pas des sketchs la rue m'a laissé des scratch J'suis venu en paix on m'a dis non, c'est la guerre ici D'abord il faudra qu'tu souffres après c'est la guérison J'ai pas tout vu, pas tout fait mais c'est déjà trop Aujourd'hui c'est moi l'patron c'est fini j'dors plus dans l'train Reste cool et me fais pas chier Fuck la B.A.C, moi j'aime le juice et le T.H.C J'suis pas parti en couille, habillé comme une caille Toujours habitué au fouille j'ai bien calé mon détail Les gens veulent te la mettre j'dois protéger ma raie J'ai mis la beuh dans une feuille OCB marron Toi t'es un fou toi t'es un chaud à c'qu'il parait Gros c'est bizarre dans ma cité on t'trouve marrant Un t-max, deux potos un frérot qui tombe au sol Six coups d'feu, sept coups d'feu y'a des gens qui font du sale Et ça rend parano on a la dalle comme des piranhas Parce que c'est la rue qui nous a parrainé Et c'est pas comme ça qu'on s'retrouvera au Paradis Côte à côte parce que le business est parallèle Jeffrite le shit j'consomme, pendant qu'ma vie s'consume C'est pas ça qui m'console, même si ça donne des thunes C'est pas ça qui m'console, moi j'suis marqué au fer Trop souvent au pieds du mur pas assez les pieds sur terre Flex comme mon rasta, fière j'le suis resté Mon 94 est gangsta wallaye faut pas tester Regarde moi bien, qu'est ce que tu vois dans mon regard J'suis pas un singe fils de pute j'suis un renard Ouai, fils de pute j'suis un renard You might also like Le renard le plus fort du monde toujours stylé mais jamais à la mode Wallaye billaye j'vous mets à l'amande Bah ouai j'ai t'effris dans toutes les téci Ciao ciao comme Léo Messi Renard le plus fort du monde toujours stylé mais jamais à la mode Wallaye billaye j'vous mets à l'amande Bah ouai j'ai t'effris dans toutes les téci Baw baw le tire est précis1</t>
+          <t>YW business Le renard le renard Le renard le renard Guizi bang bang J'suis un renard à l'affut, j'en ai commis des méfaits Toujours rel'ver mes défis, jamais accepter l'échec J'suis, avec un pote qui sort du schtar ça f'sait un bail mon gros Moi je dors sur le ventre tellement on schlasse mon dos Tu veux du shit d'la beuh ou bien un truc qui scotch Ouai mon pote c'est pas des sketchs la rue m'a laissé des scratch J'suis venu en paix on m'a dis non, c'est la guerre ici D'abord il faudra qu'tu souffres après c'est la guérison J'ai pas tout vu, pas tout fait mais c'est déjà trop Aujourd'hui c'est moi l'patron c'est fini j'dors plus dans l'train Reste cool et me fais pas chier Fuck la B.A.C, moi j'aime le juice et le T.H.C J'suis pas parti en couille, habillé comme une caille Toujours habitué au fouille j'ai bien calé mon détail Les gens veulent te la mettre j'dois protéger ma raie J'ai mis la beuh dans une feuille OCB marron Toi t'es un fou toi t'es un chaud à c'qu'il parait Gros c'est bizarre dans ma cité on t'trouve marrant Un t-max, deux potos un frérot qui tombe au sol Six coups d'feu, sept coups d'feu y'a des gens qui font du sale Et ça rend parano on a la dalle comme des piranhas Parce que c'est la rue qui nous a parrainé Et c'est pas comme ça qu'on s'retrouvera au Paradis Côte à côte parce que le business est parallèle Jeffrite le shit j'consomme, pendant qu'ma vie s'consume C'est pas ça qui m'console, même si ça donne des thunes C'est pas ça qui m'console, moi j'suis marqué au fer Trop souvent au pieds du mur pas assez les pieds sur terre Flex comme mon rasta, fière j'le suis resté Mon 94 est gangsta wallaye faut pas tester Regarde moi bien, qu'est ce que tu vois dans mon regard J'suis pas un singe fils de pute j'suis un renard Ouai, fils de pute j'suis un renard Le renard le plus fort du monde toujours stylé mais jamais à la mode Wallaye billaye j'vous mets à l'amande Bah ouai j'ai t'effris dans toutes les téci Ciao ciao comme Léo Messi Renard le plus fort du monde toujours stylé mais jamais à la mode Wallaye billaye j'vous mets à l'amande Bah ouai j'ai t'effris dans toutes les téci Baw baw le tire est précis1</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Dans mon quartier, le trafic est très rarement interrompu Ici les flics n'ont pas d'accent mais c'est quand même des corrompus Les bons, on peut les compter sur la main du fils de Kadhafi Ferme ta gueule si t'as pas d'avis Dans mon barrio c'est l'anarchie Tellement c'est l'feu au comico qu'ils n'ont même plus une seule archive Prêt à tirer si t'es pas exemplaire Les commissaires seraient des arbres si on peignait les cons en vert Chien, il est l'heure de reconnaître tes torts Là t'es pas tombé sur un os, là t'es tombé sur Skeletor En bas d'chez moi les clandé font du bruit Confonds pas l'marché Barbès avec le paradis du fruit Les juges nous montent au nez comme la moutarde Avec eux cherche pas à t'justifier sinon t'es coupable En quête de vérité, je cherche l'astuce Et je sais qu'les faux ignorent et qu'les vrais n'en savent pas plus Croco sur la tête, virgule sur mes nouvelles schlapp Entouré d'mecs qui passent toutes leurs journées à refourguer l'crack Flouze pé-ta, on est tous vite affamé Y'a des soucis à zapper, un p'tit bout d'shit à cramer Et c'est génération fuck les flics Vive ma fédération, loin des célébrations ou ces ségrégations coke et shit Vous faites pas l'poids Quand tu dis qu'tu pèses lourd sur Facebook, même ta balance elle te dit casse-toi Ouais j'viens tout grailler, les mettre K.O Tellement ça vole pas haut, on s'croirait dans un poulailler La mort me guette et la vie m'fait peur Depuis internet, j'vois que des disquetteurs qui ont fui l'secteur Ils tapent de la coke, fument du crack, couchent avec des p'tites Vous les écoutez mais dans vos crânes, vous savez que c'est triste Complétement fucked up, souvent j'pense à ma reum Juste un peu d'bonne drogue pour qu'je donne du temps à ma feuille You might also like On veut l'rendement, est-ce que t'entends, ma tête de bébé dit que J'en ai 21, ton foie lui dit que t'as 30 ans Guizmo, kless-Mo, Despo, en toute modestie On baise vos 16 gros et on s'v-esqui La rue XXX, fait perdre la raison avec les meilleurs tass T'as forniqué, t'es séropositif, t'es dans la merde, le DAS Viens t'asseoir à ma table, t'es charmante J'fais pas XXX, j'ai pas l'fer à Chamakh Le buzz à Oussama, j'ai pas d'virus J'suis un mac, je m'appelle Azul et Jean Marc J'apporte des Blunt, tu portes plainte T'es brave, t'as l'bras, tu braques, tu parles, les portes pètent , pas difficile, escorté par 6.6.6. Sheïtan Chier est une chose mais regarder sa merde avant de tirer la chasse c'est du narcissisme Dans les quartiers, on attend que le crime maigrisse D'un gris aigris, dans mes écrits mes cris, mes clips J'coupe pas ma pure à la censure, j'vous fait péter des câbles Les blocks paient, on court après l'équilibre Respect de la vie humaine bafoué La coke passe, le criminel est ingénieux, la douane l'a avoué J'ai assez parlé des coups d'fouet L'argent les calme et les frelots meurent sur le terrain comme Vivien Foé J'suis pas ton négro, sinon ça veut dire quoi ? J'suis ton esclave, ton chien mais pas ton frérot ? Le rap me fout la gerbe, pour ça qu'on fout la merde Dans c'biz, y'avait des mecs intègres mais ils sont sous la terre</t>
+          <t>Dans mon quartier, le trafic est très rarement interrompu Ici les flics n'ont pas d'accent mais c'est quand même des corrompus Les bons, on peut les compter sur la main du fils de Kadhafi Ferme ta gueule si t'as pas d'avis Dans mon barrio c'est l'anarchie Tellement c'est l'feu au comico qu'ils n'ont même plus une seule archive Prêt à tirer si t'es pas exemplaire Les commissaires seraient des arbres si on peignait les cons en vert Chien, il est l'heure de reconnaître tes torts Là t'es pas tombé sur un os, là t'es tombé sur Skeletor En bas d'chez moi les clandé font du bruit Confonds pas l'marché Barbès avec le paradis du fruit Les juges nous montent au nez comme la moutarde Avec eux cherche pas à t'justifier sinon t'es coupable En quête de vérité, je cherche l'astuce Et je sais qu'les faux ignorent et qu'les vrais n'en savent pas plus Croco sur la tête, virgule sur mes nouvelles schlapp Entouré d'mecs qui passent toutes leurs journées à refourguer l'crack Flouze pé-ta, on est tous vite affamé Y'a des soucis à zapper, un p'tit bout d'shit à cramer Et c'est génération fuck les flics Vive ma fédération, loin des célébrations ou ces ségrégations coke et shit Vous faites pas l'poids Quand tu dis qu'tu pèses lourd sur Facebook, même ta balance elle te dit casse-toi Ouais j'viens tout grailler, les mettre K.O Tellement ça vole pas haut, on s'croirait dans un poulailler La mort me guette et la vie m'fait peur Depuis internet, j'vois que des disquetteurs qui ont fui l'secteur Ils tapent de la coke, fument du crack, couchent avec des p'tites Vous les écoutez mais dans vos crânes, vous savez que c'est triste Complétement fucked up, souvent j'pense à ma reum Juste un peu d'bonne drogue pour qu'je donne du temps à ma feuille On veut l'rendement, est-ce que t'entends, ma tête de bébé dit que J'en ai 21, ton foie lui dit que t'as 30 ans Guizmo, kless-Mo, Despo, en toute modestie On baise vos 16 gros et on s'v-esqui La rue XXX, fait perdre la raison avec les meilleurs tass T'as forniqué, t'es séropositif, t'es dans la merde, le DAS Viens t'asseoir à ma table, t'es charmante J'fais pas XXX, j'ai pas l'fer à Chamakh Le buzz à Oussama, j'ai pas d'virus J'suis un mac, je m'appelle Azul et Jean Marc J'apporte des Blunt, tu portes plainte T'es brave, t'as l'bras, tu braques, tu parles, les portes pètent , pas difficile, escorté par 6.6.6. Sheïtan Chier est une chose mais regarder sa merde avant de tirer la chasse c'est du narcissisme Dans les quartiers, on attend que le crime maigrisse D'un gris aigris, dans mes écrits mes cris, mes clips J'coupe pas ma pure à la censure, j'vous fait péter des câbles Les blocks paient, on court après l'équilibre Respect de la vie humaine bafoué La coke passe, le criminel est ingénieux, la douane l'a avoué J'ai assez parlé des coups d'fouet L'argent les calme et les frelots meurent sur le terrain comme Vivien Foé J'suis pas ton négro, sinon ça veut dire quoi ? J'suis ton esclave, ton chien mais pas ton frérot ? Le rap me fout la gerbe, pour ça qu'on fout la merde Dans c'biz, y'avait des mecs intègres mais ils sont sous la terre</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Diguilitcheck Biguilibang 94 VLT Zoo Guiz' la renardise J'entends qu'untel s'est fait tiré dessus A sa daronne vous devez 1000 excuses Tu te rends compte? Tout ça pour fric et stups Où ira mon âme moi qui ne suit qu'un être impur? J'me demande c'est quoi cet enfer? Combien de temps la vie ça dure? Et puis je m'envole avec un 10 grammes de salade Mes sentiments je les montre pas Tout comme le visage de ma femme Et je rap pour me libérer C'est pour les miens derrière les barreaux Merci SFR merci Lebara J'ai le phrasé qui te shoot dans la tête Mes renards de VLT ont ramené le groove dans la tess La vie c'est couci-couça. Des fois le morale est cassé Me demande pas c'est quoi ça? Et fait pas le macaque ici Et je mets la gomme. Je vois bien que personne fait la passe Donc je te raquette comme René Lacoste Ma vie c'est pas la fête. C'est l'alcool, c'est le shit Les embrouilles avec Madame j'en ai mal à la tête You might also like J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Ouais et moi je n'ment pas sauf devant l'OPJ Je lui ai raconté une salade et il à rien pigé Et bah ouais j'ai viré des imbéciles! Ils parlaient de kilogrammes ils avaient pas 10g Ouais je suis Flex, les yeux rouges écarlates De la fumée dans la pièce je suis dans le moov' des rastas Ils m'ont frappé les keufs. Ils ont ramené des preuves Gros j'ai grandi dans la rue moi je n'sais pas draguer les meufs Produit prohibé en vente libre dans le tout-Paris La cocaïne livrée toute la nuit Je n'fais pas de caricature C'est moi toujours le même Guizmo nique la police et la magistrature! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Et sur la tête de ma re-mè faites Bellek les gars! Parce que moi je n'fais plus rien mais j'envoie des mandats Et j'ai trainé dans le tro-mé j'étais infréquentable Et j'enchainais les re-vés mais c'était lamentable Je me prenais pour un voyou Zarma J'ai la mentale Tu remets vite les pieds sur terre quand il y a un drame en face Qui connait ma vie? Qui connait mon histoire? Qui connait mes angoisses? Qui connait mes nuits noires? Personne! Moi je rêve de belle sommes Mon grand père en costard avec une paire de Weston J'ai un tas de choses à me reprocher Et maintenant j'ai un tas de soucis... Parce que je vais jamais à mes procès Et c'est pas moi le voyou. Mais c'est pas toi non plus Tes menaces et ton équipe tu peux te les foutre au cul! A Valenton on a pas grandi comme Peter Pan Une paire de requin une steu-vé Timberland J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Diguilitcheck Biguilibang bang bang! Bah oui c'est comme ça que ça se passe VLG Zoo VLT Zoo Baw!!</t>
+          <t>Diguilitcheck Biguilibang 94 VLT Zoo Guiz' la renardise J'entends qu'untel s'est fait tiré dessus A sa daronne vous devez 1000 excuses Tu te rends compte? Tout ça pour fric et stups Où ira mon âme moi qui ne suit qu'un être impur? J'me demande c'est quoi cet enfer? Combien de temps la vie ça dure? Et puis je m'envole avec un 10 grammes de salade Mes sentiments je les montre pas Tout comme le visage de ma femme Et je rap pour me libérer C'est pour les miens derrière les barreaux Merci SFR merci Lebara J'ai le phrasé qui te shoot dans la tête Mes renards de VLT ont ramené le groove dans la tess La vie c'est couci-couça. Des fois le morale est cassé Me demande pas c'est quoi ça? Et fait pas le macaque ici Et je mets la gomme. Je vois bien que personne fait la passe Donc je te raquette comme René Lacoste Ma vie c'est pas la fête. C'est l'alcool, c'est le shit Les embrouilles avec Madame j'en ai mal à la tête J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Ouais et moi je n'ment pas sauf devant l'OPJ Je lui ai raconté une salade et il à rien pigé Et bah ouais j'ai viré des imbéciles! Ils parlaient de kilogrammes ils avaient pas 10g Ouais je suis Flex, les yeux rouges écarlates De la fumée dans la pièce je suis dans le moov' des rastas Ils m'ont frappé les keufs. Ils ont ramené des preuves Gros j'ai grandi dans la rue moi je n'sais pas draguer les meufs Produit prohibé en vente libre dans le tout-Paris La cocaïne livrée toute la nuit Je n'fais pas de caricature C'est moi toujours le même Guizmo nique la police et la magistrature! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Et sur la tête de ma re-mè faites Bellek les gars! Parce que moi je n'fais plus rien mais j'envoie des mandats Et j'ai trainé dans le tro-mé j'étais infréquentable Et j'enchainais les re-vés mais c'était lamentable Je me prenais pour un voyou Zarma J'ai la mentale Tu remets vite les pieds sur terre quand il y a un drame en face Qui connait ma vie? Qui connait mon histoire? Qui connait mes angoisses? Qui connait mes nuits noires? Personne! Moi je rêve de belle sommes Mon grand père en costard avec une paire de Weston J'ai un tas de choses à me reprocher Et maintenant j'ai un tas de soucis... Parce que je vais jamais à mes procès Et c'est pas moi le voyou. Mais c'est pas toi non plus Tes menaces et ton équipe tu peux te les foutre au cul! A Valenton on a pas grandi comme Peter Pan Une paire de requin une steu-vé Timberland J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! J'ai grandi dans la rue je connais déjà les codes Un scooter, une paire de gants gros j'ai la méthode Un vagabond dans la rue nique sa mère l'école Eux ils font trop les chauds. Venez on les dégomme! Diguilitcheck Biguilibang bang bang! Bah oui c'est comme ça que ça se passe VLG Zoo VLT Zoo Baw!!</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Ils ont niqué ma vie, ils ont niqué ma vie Je suis perché comme un hibou, à mes enfants j'fais des bisous J'la voulais pour moi, j'la voulais pour moi J'suis parti la voler comme un bijou Ah ouai, c'est mon père qui m'l'a dit si ils veulent te test, il faudra qu'tu les baises, ces fils de putains voudront te faire la bise mais n'oublie jamais qu't'étais seul à la base Seul dans un hall où ça puait la pisse Guiz' le renard voulait quitter la cas' Manque de respect, gros j'ai sorti ma crosse Regarde dans les yeux quand tu m'croises à la place J'avais dix ans quand j'ai connu VR, dix ans plus tard on vient t'niquer ta race Ça fait longtemps qu'on les à tous jumpé, pas d'représailles, on s'en fout d'tes menaces J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro You might also like Tu veux la guerre ? On t'la fait Tu veux la vérité ? Eh bah on t'la dit Oui j'ai commis des méfaits Oui j'ai fait des trucs qui t'emmènent pas au paradis Oui, j'ai dormi dans la gove Oui à l'époque j'avais pas un radis Oui, j'écoutais les conseils de papa tu voles la journée, tu revends tout la nuit J'suis fier d'être un Bambara J'fais du fric, mais j'ai plus l'barreau Et si tu veux la guerre wallah protège toi, t'es rentré dans ma vie à cause d'un mauvais choix Et ma grand-mère moi, j'lui masse les pieds Depuis tout p'tit moi j'ai pas d'métier J'voulais faire du rap j'ai pas arrêté Une balle dans la tête ou un AVC J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto ils ont niqué ma vie Vendu de la gue-dro Mes mains sont jamais pre-pro J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro Je ne dors plus la nuit nan, nan, nan Ils ont niqué ma vie ouai, ouai J'appelle mon marabout eh, eh T'es plus ma diarabi ha no, no Je ne dors plus la nuit nan, nan, nan Ils ont niqué ma vie ouai, ouai J'appelle mon marabout eh, eh T'es plus ma diarabi ha no, no Ha nan, nan, nan Ils ont niqué ma vie Ils ont niqué ma vie ouai, ouai Ils ont niqué ma vie Ils ont niqué ma vie ouai, ouai</t>
+          <t>Ils ont niqué ma vie, ils ont niqué ma vie Je suis perché comme un hibou, à mes enfants j'fais des bisous J'la voulais pour moi, j'la voulais pour moi J'suis parti la voler comme un bijou Ah ouai, c'est mon père qui m'l'a dit si ils veulent te test, il faudra qu'tu les baises, ces fils de putains voudront te faire la bise mais n'oublie jamais qu't'étais seul à la base Seul dans un hall où ça puait la pisse Guiz' le renard voulait quitter la cas' Manque de respect, gros j'ai sorti ma crosse Regarde dans les yeux quand tu m'croises à la place J'avais dix ans quand j'ai connu VR, dix ans plus tard on vient t'niquer ta race Ça fait longtemps qu'on les à tous jumpé, pas d'représailles, on s'en fout d'tes menaces J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro Tu veux la guerre ? On t'la fait Tu veux la vérité ? Eh bah on t'la dit Oui j'ai commis des méfaits Oui j'ai fait des trucs qui t'emmènent pas au paradis Oui, j'ai dormi dans la gove Oui à l'époque j'avais pas un radis Oui, j'écoutais les conseils de papa tu voles la journée, tu revends tout la nuit J'suis fier d'être un Bambara J'fais du fric, mais j'ai plus l'barreau Et si tu veux la guerre wallah protège toi, t'es rentré dans ma vie à cause d'un mauvais choix Et ma grand-mère moi, j'lui masse les pieds Depuis tout p'tit moi j'ai pas d'métier J'voulais faire du rap j'ai pas arrêté Une balle dans la tête ou un AVC J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto ils ont niqué ma vie Vendu de la gue-dro Mes mains sont jamais pre-pro J'ai fumé, traîné, bicrave dans mon bendo J'ai grandi dans le ghetto Vendu de la gue-dro Mes mains sont jamais pre-pro Je ne dors plus la nuit nan, nan, nan Ils ont niqué ma vie ouai, ouai J'appelle mon marabout eh, eh T'es plus ma diarabi ha no, no Je ne dors plus la nuit nan, nan, nan Ils ont niqué ma vie ouai, ouai J'appelle mon marabout eh, eh T'es plus ma diarabi ha no, no Ha nan, nan, nan Ils ont niqué ma vie Ils ont niqué ma vie ouai, ouai Ils ont niqué ma vie Ils ont niqué ma vie ouai, ouai</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Tchikili-check yo ! Yo, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort si y'a un flingue sur la tempe J'arrive, des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillait, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elle détaille à bas prix Ma mère au RSA j'ment bat les couilles d'bicrave à bas prix Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, nous on a jamais vu la mer Paris Plages à ris-pa p'tit frère, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec You might also like Call of Duty, Street Fighter , comment tu veux qu'on soit peace ? Give me the lighter , aromatise avec la tise motherfucka</t>
+          <t>Tchikili-check yo ! Yo, j'suis le portrait craché de mon daron Colérique et pas trop stable, associable, taf au black Dans les bistrots grave rodave Pain sur la planche l'ami, bien sûr j'avancerai Tu menaces de mort si y'a un flingue sur la tempe J'arrive, des cicatrices des remords, j'vais peu fort Cette vie d'artiste m'éloigne de ma famille Le vice me pousse à tiser dehors Et j'perds du temps à vouloir bâtir un empire Pendant qu'au pays des vampires, on fait du jus avec du sang Et j'suis pas né dans les studios, mec, j'étudiais Mais tous ces soucis en tête me fusillait, il faut que je les oublies en fait Ma mère me parle d'une facture de téléphone, j'ai pas tilté J'me sens briser, mais les fractures ça fait les hommes Anti-FN, anti-flic, anti moi-même, mon grand, rend visite j'anticipe les gens qui samènent Des mains faites pour l'or, et elle détaille à bas prix Ma mère au RSA j'ment bat les couilles d'bicrave à bas prix Fuck les résolutions, on est tous effronté Vodka Red Bull défoncé, scotché devant Pro Evolution Dehors y'a des schlags en manque, on se croirait même pas en France Bonhomme depuis qu'on est petit, par chez nous y'a pas d'enfance On se bute au foot en salle, tout le temps died, tout le temps crado Y'a que des fous dans le bat', tout en noir voulant le mago Et la musique, c'était qu'un échappatoire Avant que j'bosse comme à l'usine et que j'me dise qu'elle va m'avoir On agit comme des abrutis, pète un fusible quand ça va pas Mec il faut rester futile, lié l'utile à la khabta Ile de France, nous on a jamais vu la mer Paris Plages à ris-pa p'tit frère, ça pue la merde Et à chaque piste, je cherche la grandeur vocale Parce que, ça pue la pisse dans nos ascenseurs sociales La queue, à la CAF et au parlu', ma mère l'a fait On a épousé la rue, même si c'est dur on reste avec Call of Duty, Street Fighter , comment tu veux qu'on soit peace ? Give me the lighter , aromatise avec la tise motherfucka</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Yoga-yoga-yoga flame Guizi Ouzou, bang, bang On traîne dans la rue depuis trop longtemps, fume la gue-dro pour te relaxer Bah ouais ma gueule, on n'est pas contents, depuis petits, on est désaxés depuis Ouais, il prend son flash à l'épicerie parce que la rue, elle est vicieuse, il a même arrêté l'lycée Pour mes Indiens, mes Pakis, on n'oublie pas le Sri Lanka Barbares comme en Afrique, ils arrivent et ils tirnt dans l'tas, tchou-tchou-tchou Et j'suis un dope boy, wouh, fais pas les cowboys, wouh J'ai mon Indienn, wouh, elle sent le monoï Qu'est-c'que t'as vu que j'ai pas fait ? Reste à l'affût, on va t'baffer Un gros joint d'herbe et un café, posé dans l'hall, négro, ça l'fait, ah Et j'ai v-esqui les plans pourris, une épicerie, une puce Lyca et du poulet tandoori Cigarettes à l'unité, du roro dans la cité Toujours gentil et discret, sous le matelas, des billets Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle You might also like Il est en bas d'la cité et sa bière, elle est givrée C'lui qui s'moque de mes gandu, tête de oi-m, on va l'niquer vie d'ma mère Des bagarres, des amitiés mais sa mère, elle me nnaît-co Eh vas-y, on est quittes, on met tout ça de té-cô Qu'est-c'que tu crois ? qu'est-ce que tu crois ?, depuis tout p'tits, on est en-ble-sem Des lascars, on en a blessés, les yeux ouverts quand c'est bre-som J'vois mes caralho qui s'entretuent, Seigneur, laisse-moi une chance de plus J'ai d'jà la maille, il manque le luxe, Krishnan, il faut qu'j'change de puce J'traîne dans les quartiers sombres, j'connais les rimes et les partitions Tout est noir à la Ardisson, j'ai qu'deux yeux mais un tas d'visions Pour mes harbis et mes timals, mes Chinois et mes babtous Afrique de l'Ouest, Afrique du Nord, sans oublier mes Tamouls Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Cigarettes à l'unité, du roro dans la cité Toujours gentil et discret, sous le matelas, des billets Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Merci Krishnan Han, Ouzou Yonea Willy, Willy Yonea business Lycamobile, Zone Sensible Djiguiri-djeks, biguili-zbrew, motherfucker, aouh</t>
+          <t>Yoga-yoga-yoga flame Guizi Ouzou, bang, bang On traîne dans la rue depuis trop longtemps, fume la gue-dro pour te relaxer Bah ouais ma gueule, on n'est pas contents, depuis petits, on est désaxés depuis Ouais, il prend son flash à l'épicerie parce que la rue, elle est vicieuse, il a même arrêté l'lycée Pour mes Indiens, mes Pakis, on n'oublie pas le Sri Lanka Barbares comme en Afrique, ils arrivent et ils tirnt dans l'tas, tchou-tchou-tchou Et j'suis un dope boy, wouh, fais pas les cowboys, wouh J'ai mon Indienn, wouh, elle sent le monoï Qu'est-c'que t'as vu que j'ai pas fait ? Reste à l'affût, on va t'baffer Un gros joint d'herbe et un café, posé dans l'hall, négro, ça l'fait, ah Et j'ai v-esqui les plans pourris, une épicerie, une puce Lyca et du poulet tandoori Cigarettes à l'unité, du roro dans la cité Toujours gentil et discret, sous le matelas, des billets Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Il est en bas d'la cité et sa bière, elle est givrée C'lui qui s'moque de mes gandu, tête de oi-m, on va l'niquer vie d'ma mère Des bagarres, des amitiés mais sa mère, elle me nnaît-co Eh vas-y, on est quittes, on met tout ça de té-cô Qu'est-c'que tu crois ? qu'est-ce que tu crois ?, depuis tout p'tits, on est en-ble-sem Des lascars, on en a blessés, les yeux ouverts quand c'est bre-som J'vois mes caralho qui s'entretuent, Seigneur, laisse-moi une chance de plus J'ai d'jà la maille, il manque le luxe, Krishnan, il faut qu'j'change de puce J'traîne dans les quartiers sombres, j'connais les rimes et les partitions Tout est noir à la Ardisson, j'ai qu'deux yeux mais un tas d'visions Pour mes harbis et mes timals, mes Chinois et mes babtous Afrique de l'Ouest, Afrique du Nord, sans oublier mes Tamouls Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Cigarettes à l'unité, du roro dans la cité Toujours gentil et discret, sous le matelas, des billets Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Il m'faut des clopes Lycamobile, il m'faut des feuilles Lycamobile Il m'faut un phone Lycamobile, il m'faut une puce Lycamobile Merci Krishnan merci, merci, merci Krishnan oh, super bien Oh, merci Krishnan oh, c'est super, ouais, merci Krishnan c'est d'la balle Merci Krishnan Han, Ouzou Yonea Willy, Willy Yonea business Lycamobile, Zone Sensible Djiguiri-djeks, biguili-zbrew, motherfucker, aouh</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Je sais pas trop faire semblant, jsuis désolé bébé Moi jai trop mal au cur, allô maman bobo Et si jamais tu maimes ne revient pas bébé, moi je fais des prières pour mon fils pendant quil fait dodo Et je suis paumé dans ma tête, jsuis bloqué dans ma tess Je moublier devant la gare où je roupiller dans ma caisse Cest pas facile pour los otros, des fois je dormais dehors, javais pas dadresse Jai déjà failli crever sur une moto cross, les grands nous donnaient de la monnaie, parce que cétait la crise ? Et on est pas des voyous, nous on est juste n colère Ça bedave pour s calmer, par terre, ya que des mollard Et puis, sur la ligne quatre, on me voyait comme un voleur On rêvait de liberté, on était juste des zonard On rapper pas pour la gloire, non cétait que pour lhonneur. Renard Oh madré mia, jai mal pour les miens On danse pas le mia, ici personne ne vis bien Oh madré mia, jai mal pour les miens On danse pas le mia, Personne ne vas ci bien Jai parlé de moi, jai parlé de nous Maman dans le binks et Papa dans le trou Il veut trois plaquette ? A 15h rendez-vous! Jsuis pas fier de moi, je te jure je lavoue Et jai plus le spliff au bec, parce que jramene mais fils au parc Jai jamais aimé les discothèques, là-bas, y a que des psychopathes Jsuis dans mon lit, jpeux pas dormir Jroule un joint, cest encore pire Et je la ressent la torpeur, les gens suce mon sang comme des vampires On a les boules, on va débouler et on tous peter un boulon On cest battu dans la mêler, pendant que nos mères cherchaient du boulot You might also like Oh madré mia, jai mal pour les miens On danse pas le mia, ici personne ne vis bien Oh madré mia, jai mal pour les miens On danse pas le mia, Personne ne vas ci bien x2 Ça devait pas se finir comme ça, mais ça sest fini comme ça Quand je rêve de toi la nuit, je sais que tu penses à moi La prière, la misère, la tristesse, y en a qui pète les plombs Intérimaires et hustler sur le corner faut pas quon jette léponge YW Zone sensible Yonea Willy, Willy Yonea business GUIZMO et tout le reste</t>
+          <t>Je sais pas trop faire semblant, jsuis désolé bébé Moi jai trop mal au cur, allô maman bobo Et si jamais tu maimes ne revient pas bébé, moi je fais des prières pour mon fils pendant quil fait dodo Et je suis paumé dans ma tête, jsuis bloqué dans ma tess Je moublier devant la gare où je roupiller dans ma caisse Cest pas facile pour los otros, des fois je dormais dehors, javais pas dadresse Jai déjà failli crever sur une moto cross, les grands nous donnaient de la monnaie, parce que cétait la crise ? Et on est pas des voyous, nous on est juste n colère Ça bedave pour s calmer, par terre, ya que des mollard Et puis, sur la ligne quatre, on me voyait comme un voleur On rêvait de liberté, on était juste des zonard On rapper pas pour la gloire, non cétait que pour lhonneur. Renard Oh madré mia, jai mal pour les miens On danse pas le mia, ici personne ne vis bien Oh madré mia, jai mal pour les miens On danse pas le mia, Personne ne vas ci bien Jai parlé de moi, jai parlé de nous Maman dans le binks et Papa dans le trou Il veut trois plaquette ? A 15h rendez-vous! Jsuis pas fier de moi, je te jure je lavoue Et jai plus le spliff au bec, parce que jramene mais fils au parc Jai jamais aimé les discothèques, là-bas, y a que des psychopathes Jsuis dans mon lit, jpeux pas dormir Jroule un joint, cest encore pire Et je la ressent la torpeur, les gens suce mon sang comme des vampires On a les boules, on va débouler et on tous peter un boulon On cest battu dans la mêler, pendant que nos mères cherchaient du boulot Oh madré mia, jai mal pour les miens On danse pas le mia, ici personne ne vis bien Oh madré mia, jai mal pour les miens On danse pas le mia, Personne ne vas ci bien x2 Ça devait pas se finir comme ça, mais ça sest fini comme ça Quand je rêve de toi la nuit, je sais que tu penses à moi La prière, la misère, la tristesse, y en a qui pète les plombs Intérimaires et hustler sur le corner faut pas quon jette léponge YW Zone sensible Yonea Willy, Willy Yonea business GUIZMO et tout le reste</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Wir sind zu nix in der Lage, sind für nix zu gebrauchen Der Geschichtslehrer sagt sogar schon Witzloser Haufen! Ich bin zwar in der Schule nicht oft aufgetaucht Aber ich hab' schon mit dreizehn inside out gebaut Und jetzt bringt mir die Gläser rein, ey, komm, wir trinken, bis wir blind sind Nur Mama dreht mir die Flasche auf, das krieg' ich nicht so gut hin, denn Ich interessier' mich nicht für so langweilige Themen Und was mich nicht interessiert, das wird von Mama schon geregelt Ich kann kein Fahrrad fahren, was hat mich lesen gejuckt? Ich krieg' die Schuhe nicht mal zu, hab' nie die Zähne geputzt Doch ich kann abgehen, abgehen Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama Ich erwarte von meiner Mum, dass sie Geduld an den Tag legt Immerhin ist sie ja selber schuld, dass ich da bin Früher Schulsachen tragen oder zum Fußballspiel fahren Heute 'nen Mutanten haben, nur mehr Groupies verjagen Meine Mama regelt diese Miese easy, du weißt Und ich mach' weiterhin mit Shneezin wieder auf Scheiße 257 for life, weil ich halt weiter nicht zählen kann Und so 'ne Mama wie meine Mama vereinfacht das Leben dann You might also like Ich kann kein Fahrrad fahren, was hat mich lesen gejuckt? Ich krieg' die Schuhe nicht mal zu, hab' nie die Zähne geputzt Doch ich kann abgehen, abgehen Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama Mama, du sollst doch nicht um deinen Jungen weinen Mama, wann wird das Schicksal wieder uns vereinen? Ich werde nie vergessen, was ich an dir hab' besessen Mama, du sollst doch nicht um deinen Jungen weinen Nein, nein, nein, nein, nein, nein, nein, nein, nein, nein, nein! Mama, du sollst doch nicht um deinen Jungen weinen Mama, wann wird das Schicksal wieder uns vereinen? Ich werde nie vergessen, was ich an dir hab' besessen Mama, du sollst doch nicht um deinen Jungen weinen Mama, Mama, Mama Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama</t>
+          <t>Wir sind zu nix in der Lage, sind für nix zu gebrauchen Der Geschichtslehrer sagt sogar schon Witzloser Haufen! Ich bin zwar in der Schule nicht oft aufgetaucht Aber ich hab' schon mit dreizehn inside out gebaut Und jetzt bringt mir die Gläser rein, ey, komm, wir trinken, bis wir blind sind Nur Mama dreht mir die Flasche auf, das krieg' ich nicht so gut hin, denn Ich interessier' mich nicht für so langweilige Themen Und was mich nicht interessiert, das wird von Mama schon geregelt Ich kann kein Fahrrad fahren, was hat mich lesen gejuckt? Ich krieg' die Schuhe nicht mal zu, hab' nie die Zähne geputzt Doch ich kann abgehen, abgehen Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama Ich erwarte von meiner Mum, dass sie Geduld an den Tag legt Immerhin ist sie ja selber schuld, dass ich da bin Früher Schulsachen tragen oder zum Fußballspiel fahren Heute 'nen Mutanten haben, nur mehr Groupies verjagen Meine Mama regelt diese Miese easy, du weißt Und ich mach' weiterhin mit Shneezin wieder auf Scheiße 257 for life, weil ich halt weiter nicht zählen kann Und so 'ne Mama wie meine Mama vereinfacht das Leben dann Ich kann kein Fahrrad fahren, was hat mich lesen gejuckt? Ich krieg' die Schuhe nicht mal zu, hab' nie die Zähne geputzt Doch ich kann abgehen, abgehen Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama Mama, du sollst doch nicht um deinen Jungen weinen Mama, wann wird das Schicksal wieder uns vereinen? Ich werde nie vergessen, was ich an dir hab' besessen Mama, du sollst doch nicht um deinen Jungen weinen Nein, nein, nein, nein, nein, nein, nein, nein, nein, nein, nein! Mama, du sollst doch nicht um deinen Jungen weinen Mama, wann wird das Schicksal wieder uns vereinen? Ich werde nie vergessen, was ich an dir hab' besessen Mama, du sollst doch nicht um deinen Jungen weinen Mama, Mama, Mama Für alles andere ruf' ich Mama Mama, Mama, Mama Für alles andere ruf' ich Mama</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Yonea Willy, Willy Yonea Gp ganstz Pour la conso c'est minimum 10G, pigé J'aime trop les femmes ça plait pas à la mienne J'bois pas de fé-ca j'suis pété à la bière Dans un sale état, le GP à la guerre J'ai été bercé par la guerre, élevé par un gangsta gangsta Paw paw la ferme et vide la caisse C'est quoi les bails ? Y'a un billet à faire ou quoi les frères Quand t'es imbibé ou bien plié c'est là qu'tu vois les vrais À 200 cents sur la voie d'excès, je bois une binouze à la ZUP Quand j'ferais trop d'cash même mon meilleur pote il voudra ma chute Entre mes tasses et mes billets, y'a le Mercure Hôtels Levrette toute la nuit, 7 heure du mat' j'me rappelle plus d'vos têtes Ngatie, katsande si tu veut ma paire Pfou si tu veut ma fraîche, Braah si tu veux ma tête Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil,et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré Oh mama j'suis égaré You might also like J'me réveille au crépuscule, j'ai mal au crane j'roule un pet Et vas-y j'laisse ma vie vogué au grec une plume Ok côté muscul' j'avoue j'ai la flemme grave Tous les soirs ça traîne tard pour vi-ser les mêmes grammes Ouai m'dame comme dirait mon gars Shotla J'vais pas faire le cachottier, on a déjà posé juste pour d'la vodka J'suis incapable de perdre, des bâtards de merdes On essayait de m'rabaisser sans savoir c'que j'étais cap de faire Ngatie, mon vécu est gâter, j'me réveille que pour palper C'est une ambiance de tarté la merde à cause du parquet Et j'en ai marre d'ces enfoirés qui rappe comme des pétasses Alcool et fiesta, trop défoncé vous racolez des tasses Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil, et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré Oh mama j'suis égaré Pas confiance pas d'pitié j'crois qu'c'est devenu ma règle d'or Dans ma tête j'ai un disque dur et des pensées qui frise le gorge J'les vois taper des lignes de pures avec mes gars c'est le shit, le sport Je les ai cramé ces fils de pute, ils sont jaloux, ils disent que j'dors Mais non j'suis dans ma zone accompagné du GPgang Y'a plus de balle dans mon chargeur que dans le corp de 50cent Whisky sec pour tout mes associés qu'on tous le cerveau caboché Sont cap de venir t'arroser, tu finis les jambes atrophiées Mon négro toujours pas d'rosé j'suis pété à la H Hash t'as si tu joue les fous, tu peux t'prendre un coup d'hâche Clash pas j'ai ma meute de loup qu'est sortie de la cage Ça vend des grammes à tout ces camé dans le but d'amasser du cash Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil, et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré x3</t>
+          <t>Yonea Willy, Willy Yonea Gp ganstz Pour la conso c'est minimum 10G, pigé J'aime trop les femmes ça plait pas à la mienne J'bois pas de fé-ca j'suis pété à la bière Dans un sale état, le GP à la guerre J'ai été bercé par la guerre, élevé par un gangsta gangsta Paw paw la ferme et vide la caisse C'est quoi les bails ? Y'a un billet à faire ou quoi les frères Quand t'es imbibé ou bien plié c'est là qu'tu vois les vrais À 200 cents sur la voie d'excès, je bois une binouze à la ZUP Quand j'ferais trop d'cash même mon meilleur pote il voudra ma chute Entre mes tasses et mes billets, y'a le Mercure Hôtels Levrette toute la nuit, 7 heure du mat' j'me rappelle plus d'vos têtes Ngatie, katsande si tu veut ma paire Pfou si tu veut ma fraîche, Braah si tu veux ma tête Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil,et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré Oh mama j'suis égaré J'me réveille au crépuscule, j'ai mal au crane j'roule un pet Et vas-y j'laisse ma vie vogué au grec une plume Ok côté muscul' j'avoue j'ai la flemme grave Tous les soirs ça traîne tard pour vi-ser les mêmes grammes Ouai m'dame comme dirait mon gars Shotla J'vais pas faire le cachottier, on a déjà posé juste pour d'la vodka J'suis incapable de perdre, des bâtards de merdes On essayait de m'rabaisser sans savoir c'que j'étais cap de faire Ngatie, mon vécu est gâter, j'me réveille que pour palper C'est une ambiance de tarté la merde à cause du parquet Et j'en ai marre d'ces enfoirés qui rappe comme des pétasses Alcool et fiesta, trop défoncé vous racolez des tasses Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil, et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré Oh mama j'suis égaré Pas confiance pas d'pitié j'crois qu'c'est devenu ma règle d'or Dans ma tête j'ai un disque dur et des pensées qui frise le gorge J'les vois taper des lignes de pures avec mes gars c'est le shit, le sport Je les ai cramé ces fils de pute, ils sont jaloux, ils disent que j'dors Mais non j'suis dans ma zone accompagné du GPgang Y'a plus de balle dans mon chargeur que dans le corp de 50cent Whisky sec pour tout mes associés qu'on tous le cerveau caboché Sont cap de venir t'arroser, tu finis les jambes atrophiées Mon négro toujours pas d'rosé j'suis pété à la H Hash t'as si tu joue les fous, tu peux t'prendre un coup d'hâche Clash pas j'ai ma meute de loup qu'est sortie de la cage Ça vend des grammes à tout ces camé dans le but d'amasser du cash Je ne dors pas la nuit, j'me bagarre avec mes démons Des fois je perds le fil, et j'en oublie même mon prénom Oh mama j'suis égaré, oh mama j'suis égaré Oh mama j'suis égaré, mama j'suis égaré x3</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères dis-lui, check J'suis pas un voyou, j'sors pas le Gui'-Gui' nan, nan, nan, indemne comme Willi ouh, comme Willi C'est comme ça qu'on fait les choses c'est comme ça, avant, j'ai vendu des doses ouais, j'ai vendu, j'ai vendu Mais avant c'était avant, et maintenant c'est maintenant maintenant c'est maintenant J'rêve de mon futur, truc de ouf j'ai des gosses, mais j'ai déjà vécu le plus dur ouais Moi, j'suis Karim ou Mamadou, y a personne qui peut m'aider, fais grave attention ma mère elle m'l'a déjà dit ouais J'découpe le flow, quand j'étais à court d'euros, y avait pas un d'ces fils de putes qui voulaient m'voir sur le trône Bâtard, bataradé, j'ai enterré ma grande sur, on m'disait Ça va aller oh damn Toi aussi, tu l'as vécu et j'suis derrière toi, incha'Allah qu'c'est la dernière fois Ma mère qui prie pour la énième fois, j'pense à mon père et ça fait bang, bang, bang Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères You might also like Ma maman m'a dit Ne traîne pas dehors, lève-toi tôt et ne perds pas le Nord Je l'aime à la mort, elle fait ça pour mon bien, j'aimerai qu'elle n'ait pas à s'demander Ça coûte combien ? Elle m'a dit La vie est une jungle, et il faut jongler Où est l'épingle de tous tes amis les plus cinglés ? Han Moi, j'veux pas c'parcours là nan, y a p't-être des cafards dans l'appart' mais on sera là pour toi Ma maman est belle, elle m'a dit Papa taffait dur donc quand j'ramène des punitions, je rase les murs Sois bien au taff si tu veux t'installer, c'est dommage, j'suis un brin nomade, un gringalet en plein dégringolade T'es en train d'faire un collage, toute la nuit à faire les chauds Les filles me recalent, m'en fiche, maman m'a dit qu'j'étais beau Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères Dis-moi, maman m'a dit, ma maman m'a dit Maman m'a dit, moi, maman m'a dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères</t>
+          <t>Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères dis-lui, check J'suis pas un voyou, j'sors pas le Gui'-Gui' nan, nan, nan, indemne comme Willi ouh, comme Willi C'est comme ça qu'on fait les choses c'est comme ça, avant, j'ai vendu des doses ouais, j'ai vendu, j'ai vendu Mais avant c'était avant, et maintenant c'est maintenant maintenant c'est maintenant J'rêve de mon futur, truc de ouf j'ai des gosses, mais j'ai déjà vécu le plus dur ouais Moi, j'suis Karim ou Mamadou, y a personne qui peut m'aider, fais grave attention ma mère elle m'l'a déjà dit ouais J'découpe le flow, quand j'étais à court d'euros, y avait pas un d'ces fils de putes qui voulaient m'voir sur le trône Bâtard, bataradé, j'ai enterré ma grande sur, on m'disait Ça va aller oh damn Toi aussi, tu l'as vécu et j'suis derrière toi, incha'Allah qu'c'est la dernière fois Ma mère qui prie pour la énième fois, j'pense à mon père et ça fait bang, bang, bang Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères Ma maman m'a dit Ne traîne pas dehors, lève-toi tôt et ne perds pas le Nord Je l'aime à la mort, elle fait ça pour mon bien, j'aimerai qu'elle n'ait pas à s'demander Ça coûte combien ? Elle m'a dit La vie est une jungle, et il faut jongler Où est l'épingle de tous tes amis les plus cinglés ? Han Moi, j'veux pas c'parcours là nan, y a p't-être des cafards dans l'appart' mais on sera là pour toi Ma maman est belle, elle m'a dit Papa taffait dur donc quand j'ramène des punitions, je rase les murs Sois bien au taff si tu veux t'installer, c'est dommage, j'suis un brin nomade, un gringalet en plein dégringolade T'es en train d'faire un collage, toute la nuit à faire les chauds Les filles me recalent, m'en fiche, maman m'a dit qu'j'étais beau Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas pardonner les traîtres Ma maman m'a dit de toujours rester le même Moi, je sais qu'elle m'aime donc j'écoute ce qu'elle me dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères Dis-moi, maman m'a dit, ma maman m'a dit Maman m'a dit, moi, maman m'a dit Ma maman m'a dit de toujours aider les faibles De ne pas jeter les restes, de ne pas dénoncer les frères</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Ok, ok, reste connecté, yo, Davodka, DJ Weedim, écoute Objets dconsommation, tous dans labus, cest vite dit La tête dans une tablette, ça les amuse dès huit piges Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Ce monde ma trop saoulé, laisse-moi qujdécuve Les mecs font dla gonflette pour être au même stade quHercule Ça veut le trône comme Ned Stark, ya pas de mecs stables Et ça sprend en photo pour qules regards sdécuplent On mène des vies virtuelles, entre les spams, les pubs Sur les réseaux c'est la bataille pour des likes, des vues Des stars, des culs, des stories Snap de gars montrant des sbars, des stups La vie virtuelle cest qudu vent, le but cest déviter ccourant dair Jai cette ouverture desprit mais la technologie nous renferme Ils veulent mla fermer, jen ai trop dit dans cson Se font berner, mènent des fausses vies dans lfond Ce que tu vis en 3D, moi jle rap en Indé, pour ça qumon son prend une autre dimension Bienvenue dans lfutur, si tu veux vivre avec ton temps, tes servi Bienvenue dans lfutur, sils te tendent la perche, cest juste pour prendre des selfies Je me tape un trip en kickant, big up à ceux qui madmirent en cliquant Mais dans 10 ans que sera notre monde ? Plus de noms, prénoms, il restera que des identifiants Objets dconsommation, tous dans labus, cest vite dit On est tous dépendant de ces virus qui dirigent Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Davodka, DJ Weedim, hey, reste branché You might also like Weedim, Gérard Baste, Kid Cubi est dans la boulang petit, hey, yeah Quand jétais petit, javais un walkman K7 auto reverse Si jsors ça aux kids, cest comme si jleur parlais dDick Rivers On remontait les K7 avec des Bics pour pas user les piles 1984, les vieux nous trouvaient déjà débiles 2018, cest la fête, jai mon smartphone, jai ma tablette Deux ordis, quatre consoles et une big télé d1 mètre 37 Ya 400 chaînes sur lcâble mais ya toujours un truc bizarre Ça fait 20 ans quy a jamais rien à regarder lmercredi soir hey ! Cest lmonde moderne Papa ouais ! Jle voyais bien comme ça, avec ses hauts et ses bas, ses côtés nuls et sympas Jme suis fait censurer, jai mis mon gros cul sur Insta ouais ! Pourquoi jdevrais rester tout seul, enfermé dans ma breuch À exploser des bonbecs en sniffant des lignes de Candy Crush Et jdeviens complétement barge quand jai pas la 4G à la campagne Jvais pt-être ressortir mon vieux Walkman Hologramme, hey, hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme skuuurr Jette ton Iphone, counia manman'w, bomboclat hey On scache derrière des arobases hey On scache encore derrière un écran sh-shmer Jsuis sur lpoint ddevenir associable heeey Moi jaurais plus diphone quand jserais grand sh-shmer Jconnais mieux le clavier quma vie han Jai tellement peur que mon coeur éclate Maman dit que jsuis devenu esclave Sauf que mes chaînes sont dans le cloud skuuurr Donc je parle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme Jette ton Iphone, counia manman'w, bomboclat hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage heeey Jparle avec ton hologramme Counia manman'w, bomboclat Quest ce que jferais sans mon iphone ? Pt-être que jparlerais en face-à-face avec les gens ? Jsais pas Salope veut changer mon menu hey Vu, venu, jai vaincu woo Fume beaucoup de oinj, on évacue wo De la monnaie pour les vacances skurt Mama spréoccupe pas des fins dmois sheesh Jpeux manger maintenant que jai faim moi jai faim Tu msouris devant mais parle sur moi skuur Ramène mon oseille et mes fins dtoi Des voitures quon a mis en cendres Des beaux parleurs quon a mis en sang On peut se dire quon est ensemble se dire quon est ensemble Mais est-ce que tes vraiment le sang ? sang, chaud Et jsuis en route pour la gloire, y a que les vrais que je remercie merci, merci Jfinis ce oinj au tabac et je fais ce loss rue Lemercier merci, merci La dégaine à Migos ouaaais Mais on fume pas le même pilon ouaaais Jsuis dans lhood en vrai Ta pétasse veut un coup et deux traits skuuurr Gros doigt pour les traîtres Bras va lever pour les longues peines À la même heure, au même restaurant, mais pas la même assiette skurr, skurr Hey, la Skylanderie ma gueule Yo, djiguidicheck, sbiguidisbang, djiguidiguizmo, YW, G.P. Gang jusquà la mort mothafucka Yo, yo, check-moi, hey Jai fait quelques péchés que je regrette vraiment Que tiser, ne rien faire, cétait vraiment plaisant Seul devant la vitrine, le rapport est payant Devant la vitrine, le rapport est payant Et jbois un quetru, on dirait cest dla pisse Si ta un petit plavon, poto fais-moi la passe Le terrain est mouillé, il faut pas quon glisse Faut pas quon subisse les supplices de limpasse Je suis un bout de scarla Tes mort si tu pousses par là Pas de place pour les froussards Soit t'achètes un pouchka ou soit tappelles un bout-mara Et jfais pas dego trip, cest vous qui trippez sur mon égo Toujours dans la street, même les babtous sont mes négros Premier xte-té, jdisais que vive la bière ! Viens même pas tmêler dma famille et dmes affaires On tcherchait la poucave, on avait quelques doutes Mais quand on était sûrs, on lui baisait sa mère Là jsuis dans mon coin avec ma bouteille et mon joint Jmalcoolise toute la journée, ils croient qujsuis là mais je suis loin Pas daffinités avec ces fils de putes Jsuis dans la musique ou dans ltrafic de stups Jsuis comme leau et lhuile, jaime pas mmélanger Vaut mieux técarter ou mon équipe te fume Et je kiffe le cul, quand les bitches me sucent Je lui tire le cul et elle rentre chez elle Tellement pété, tellement bourré Jai déjà fait lamour avec Claire Chazal On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Hey, ils ont fait des spasmes Tout le monde roule un joint dbeuh, on va délirer dans lespace ! Woo, ouzouguizi, coucou, si si, sbang Oui, oui, ouiii, Still Fresh, 360 Elle me dit quelle maime, cest des conneries Ce quelle aime cest ma money Moi et ma clique, on la connaît Grosse t siliconée Dans tous les cas, je vais quitter cglobe Leurs blases sur un Death Note Prendre la familia et mes vrais soces Faucon Millenimum, je me vé-sau Et je prie pour nos mères et nos pères yeah Pardonnez-moi, jai péché mon père hey En effet, mes habits sont propres Parce que jtraine dans de sales affaires sheesh Ils peuvent crever ces porcs fuck Moi je pense à mon sort On aime vraiment un homme quand il est mort bang bang Prouvez moi que jai tort yeah Jsuis dans la zone yeah Jsuis dans la zone Jsuis dans la zone oui Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone sheesh Still Fresh est dans la zone Jsuis dans la zone Coeur noir, jsuis dans la zone 360, jsuis dans la zone en 360 huh, yeah Jte mens pas, des fois jsuis à sec Tenté demprunter la A7 Quand le désespoir nous assiège Manger et risquer les assiettes Cette fille me dit quelle est triste huh Elle me dit quelle a besoin dune épaule Mais sur la mienne, y a un fusil brrrrrrrrah Et ça fait longtemps quil est sé-po Surhumain, oui la ce-for est sismique Surhumain, jles baise fort pendant six weeks Modèle et fort, je sais pas si jsuis suisse Mortel effort, ne pas sombrer sous 8.6 low On tolère pas la défaite, tous mes négros seront millionnaires Grosse mallette dans un jet, jvais jeter mes billets en lair yeah Des mères de famille prennent des risques dans cputain de trafic de dope yeah, huh Jvivais la crise du disque, tu vivais la crise dado huh Petit, jai dû gérer des responsabilités sur le dos Et jai eu du mal à digérer cette putain de pomme dAdam ouiiii Maintenant, jsuis dans la zone yeah Ouiiii Jsuis dans la zone yeah Ouiiii Jsuis dans la zone sheesh Ouiiii Jsuis dans la zone Ouiiii Still Fresh est dans la zone Ouiiii Jsuis dans la zone Ouiiii Coeur noir, jsuis dans la zone Ouiiii En 360, jsuis dans la zone Ouiiii Still Fresh Ouiiii Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Consomme-Consomme-Absurde La vie est devenue virtuelle Nos relations se numérisent Au paradis des pixels Les sentiments sémojisent Plaisirs artificiels ou réalité fictive ? Qui donc tire les ficelles De nos fils dactualité intensifs ? On se like, on se follow Puis on serase, top chrono Niveau de vie souvent sous zéro Jaurais de quoi freiner vos égos Les réseaux sont remplis dgens solos Qui cherchent lamour rayon couteau Connectés au monde entier Sans jamais rien à lui dire Bravo ! Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux La débilité a toujours connu le haut débit Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux On nse regarde plus le nombril On fait des selfies Si tout lmonde demandait la paix plutôt quun dernier poste de télévision Alors on aurait la paix, prolo Jsuis dans lcarré VIP Comme Hallyday, RIP Par les plus grands, jsuis validé Tas pas idée, mayday, tes pas aidé Jsuis djà en 2020, bande de vilains en Philipp Plein Jreviens vous lver, dla tête aux pieds en Louis V hein Jsuis un mec au logis, jlis les rubriques nécrologiques Jsuis plus écologie, que nouvelles technologies, logique Jsuis ce ptit mec de la campagne qui écoute Atlanta Celui qui rentre dans ltas et qui accompagne vos compagnes Logo dmon crew tatoué sur lavant-bras Tavais rarement ressenti ça avant moi Tes marrant toi, cest moi maintenant lroi 230 en toi, en un claquement ddoigt Vie cruelle est la réalité Virtuelle, telle une banalité Jtire à balles réelles sur ta médiocrité Et cest bien mérité Jsuis un retour vers le futur Toi un aller vers le passé Allez, laissez passer Jsuis lfutur tout tracé Pull up boyboy, hey, 75, bang Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Hey, hey, hey, hey, hey, hey On était chargés, calibrés quand on sortait On essayait desquiver le , les portraits Jtai secoué, cest tout poto, y avait pas mort dhomme Tas crié sur tous les toits que jmétais trop emporté boy Jme suis emporté, où est-cque tas mis mes lovés ? Jme mélange pas aux rappeurs, ils sont mégalos Ils ont jamais détaillé un demi-kilo Ils sprennent pour des tueurs, ils font les paranos Mais jvais passer la noche avec oit baby Viens nous voir au taff, cest un autre level Jai trainé avec Beethoven et Maurice Ravel Jai pas besoin dinstrument mais jai besoin dWanted Jdédicace Joe, jdédicace Ma Ta gueule sinon à la chaussée tu vas faire un smack Il fallait tout laver, mon pote tas ouvert un snack Jvais men aller car mon passé ma rendu instable Rime de louest, on mappelle John Wayne Jdégaine vite, jsuis un nouveau du game Monte en lair les vestiges Style de lest, on mappelle Malkovitch Poto fuck la tess, le business va trop vite Arrête de raconter dla merde Arrête de raconter ma ville Les lovés, les pétasses mappellent, my man Toi tu mailles, tu tinquiètes quand le Iphone vibre Réseaux sociaux, réseaux sociaux, mon uc Dans la vraie vie, tu nous croisais, tu tprenais pas pour Hulk Jme rappelle de toi, jpensais plus à Flash Que les sprinters dans lquartier den face Geneviève de Fontenay, oh yeah, tu connais, fiston Jfais plus daudience que Arte Jregarde plus le foot à la télé Jaime pas la france dantan Jvais décharger dans la mêlée Recharger tous mes péchés Jlie les atomes, pas lhuile et leau Jtire dans lvide et sur tes soces Prie pour ta vie, regarde en haut Cest fin du reportage Bienvenue au Moyen ge Tas les ièps dans lmarécage Jsuis quasi-sûr qucest pas légal Fais-toi sucer par un âne Va tfaire lustrer par létat Trou dans lbide comme Gogeta Regard fixe et quand y a rrraaah Faut lfaire loin des caméras Al dente, la cuisson des pâtes est al dente Autour de ton oeil, y a le delta Mes plats sont vulgaires à la Dante J'suis tentée de danser Mais j'vois quta tempe s'met à tremper Et jsais quta tante kiffe mon EP J't'ai foutu des crampes et des oedèmes Jcuisine comme grand-mère sous codé Ils me radotent Chilla, t'es sous-côtée J'te fous un point de côté Mais j'ai la recette un gobelet de thé Une pincée de gingembre mariné, ouais hey Bah nan, jn'ai pas fait les Gobelins Sans téléphone, tes comme un orphelin Jremonte le moral, jsuis leur Arlequin Et non pas lBon Samaritain Cook, cook, j't'emmerde toi fort et ta coke Si t'as foiré, c'est ta faute T'avais quà porter ta cause, ouais Cool, cool, j'avoue qu'parfois j'bédave trop Ça m'rend bécasse, j'fais la sotte J'réduis, j'cuisine, j'fais dla lotte Al dente, ma vision dla trap est al dente Jai passé un cap, jsuis al dente La cuisson du bail est al dente Al dente, al dente Jai passé un cap, jsuis al dente Ma vision dla trap est al dente La cuisson du bail est al dente Al dente, al dente Jeez, wow, cui-cui, téma, , yeah Ne viens pas chercher mes cailleras Toute mon équipe sur cette Zahia Frelo, on ten fera voir de toutes les couleurs comme un Zaïrois Les bons comptes font les bons amis Big up à ma banquière Habiba Jsuis trop haut, jmourrai fly 6rano alias Aaliyah cui-cui-cui-cui-cui-cui-cui Tu fais lfou parce que tas trop tisé mais taurais dû rester à jeun cui-cui, téma, woo Les négros nont plus drègles comme un vieux vagin Quand tu vois mes renois manger cui-cui Ya pas beaucoup de riz par terre cui-cui Les keufs voudraient nous voir plonger cui-cui Car Manaudou a pris sa rtraite jeez Ça cuit cuit cuit sur le réchaud Stu veux pécho, mec donne des peso-os Elle veut faire genre belle gosse blair gloss Mais tes Air Force ont lair fau-ausses Rien à perdre comme si jjouais à lOM woo Elle ouvre sa bouche à lhôtel Jvais cracher, Hadoken ! woo, Hadoken On fait pas exprès téma, téma Dfaire les cailleras On fait que courir wow, wow Après la maille Jveux être lhomme de ta nuit cui-cui-cui-cui Comme un Batman Ma jolie on mélange le produit Comme des barmen Les gars sen foutent Mes blédards font les 400 coups Avec un accent douf Et quand on na pas fait un gros billet On taffe un peu mieux nos disquettes et nos triceps Nos costards, survêt Coste-la Mes taulards ont des posters 3-1 Costa Elle sait qucest moi 6rano Elle veut vnir me voir mais elle nose pas cui-cui-cui-cui-cui-cui-cui</t>
+          <t>Ok, ok, reste connecté, yo, Davodka, DJ Weedim, écoute Objets dconsommation, tous dans labus, cest vite dit La tête dans une tablette, ça les amuse dès huit piges Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Ce monde ma trop saoulé, laisse-moi qujdécuve Les mecs font dla gonflette pour être au même stade quHercule Ça veut le trône comme Ned Stark, ya pas de mecs stables Et ça sprend en photo pour qules regards sdécuplent On mène des vies virtuelles, entre les spams, les pubs Sur les réseaux c'est la bataille pour des likes, des vues Des stars, des culs, des stories Snap de gars montrant des sbars, des stups La vie virtuelle cest qudu vent, le but cest déviter ccourant dair Jai cette ouverture desprit mais la technologie nous renferme Ils veulent mla fermer, jen ai trop dit dans cson Se font berner, mènent des fausses vies dans lfond Ce que tu vis en 3D, moi jle rap en Indé, pour ça qumon son prend une autre dimension Bienvenue dans lfutur, si tu veux vivre avec ton temps, tes servi Bienvenue dans lfutur, sils te tendent la perche, cest juste pour prendre des selfies Je me tape un trip en kickant, big up à ceux qui madmirent en cliquant Mais dans 10 ans que sera notre monde ? Plus de noms, prénoms, il restera que des identifiants Objets dconsommation, tous dans labus, cest vite dit On est tous dépendant de ces virus qui dirigent Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Davodka, DJ Weedim, hey, reste branché Weedim, Gérard Baste, Kid Cubi est dans la boulang petit, hey, yeah Quand jétais petit, javais un walkman K7 auto reverse Si jsors ça aux kids, cest comme si jleur parlais dDick Rivers On remontait les K7 avec des Bics pour pas user les piles 1984, les vieux nous trouvaient déjà débiles 2018, cest la fête, jai mon smartphone, jai ma tablette Deux ordis, quatre consoles et une big télé d1 mètre 37 Ya 400 chaînes sur lcâble mais ya toujours un truc bizarre Ça fait 20 ans quy a jamais rien à regarder lmercredi soir hey ! Cest lmonde moderne Papa ouais ! Jle voyais bien comme ça, avec ses hauts et ses bas, ses côtés nuls et sympas Jme suis fait censurer, jai mis mon gros cul sur Insta ouais ! Pourquoi jdevrais rester tout seul, enfermé dans ma breuch À exploser des bonbecs en sniffant des lignes de Candy Crush Et jdeviens complétement barge quand jai pas la 4G à la campagne Jvais pt-être ressortir mon vieux Walkman Hologramme, hey, hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme skuuurr Jette ton Iphone, counia manman'w, bomboclat hey On scache derrière des arobases hey On scache encore derrière un écran sh-shmer Jsuis sur lpoint ddevenir associable heeey Moi jaurais plus diphone quand jserais grand sh-shmer Jconnais mieux le clavier quma vie han Jai tellement peur que mon coeur éclate Maman dit que jsuis devenu esclave Sauf que mes chaînes sont dans le cloud skuuurr Donc je parle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme Jette ton Iphone, counia manman'w, bomboclat hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage heeey Jparle avec ton hologramme Counia manman'w, bomboclat Quest ce que jferais sans mon iphone ? Pt-être que jparlerais en face-à-face avec les gens ? Jsais pas Salope veut changer mon menu hey Vu, venu, jai vaincu woo Fume beaucoup de oinj, on évacue wo De la monnaie pour les vacances skurt Mama spréoccupe pas des fins dmois sheesh Jpeux manger maintenant que jai faim moi jai faim Tu msouris devant mais parle sur moi skuur Ramène mon oseille et mes fins dtoi Des voitures quon a mis en cendres Des beaux parleurs quon a mis en sang On peut se dire quon est ensemble se dire quon est ensemble Mais est-ce que tes vraiment le sang ? sang, chaud Et jsuis en route pour la gloire, y a que les vrais que je remercie merci, merci Jfinis ce oinj au tabac et je fais ce loss rue Lemercier merci, merci La dégaine à Migos ouaaais Mais on fume pas le même pilon ouaaais Jsuis dans lhood en vrai Ta pétasse veut un coup et deux traits skuuurr Gros doigt pour les traîtres Bras va lever pour les longues peines À la même heure, au même restaurant, mais pas la même assiette skurr, skurr Hey, la Skylanderie ma gueule Yo, djiguidicheck, sbiguidisbang, djiguidiguizmo, YW, G.P. Gang jusquà la mort mothafucka Yo, yo, check-moi, hey Jai fait quelques péchés que je regrette vraiment Que tiser, ne rien faire, cétait vraiment plaisant Seul devant la vitrine, le rapport est payant Devant la vitrine, le rapport est payant Et jbois un quetru, on dirait cest dla pisse Si ta un petit plavon, poto fais-moi la passe Le terrain est mouillé, il faut pas quon glisse Faut pas quon subisse les supplices de limpasse Je suis un bout de scarla Tes mort si tu pousses par là Pas de place pour les froussards Soit t'achètes un pouchka ou soit tappelles un bout-mara Et jfais pas dego trip, cest vous qui trippez sur mon égo Toujours dans la street, même les babtous sont mes négros Premier xte-té, jdisais que vive la bière ! Viens même pas tmêler dma famille et dmes affaires On tcherchait la poucave, on avait quelques doutes Mais quand on était sûrs, on lui baisait sa mère Là jsuis dans mon coin avec ma bouteille et mon joint Jmalcoolise toute la journée, ils croient qujsuis là mais je suis loin Pas daffinités avec ces fils de putes Jsuis dans la musique ou dans ltrafic de stups Jsuis comme leau et lhuile, jaime pas mmélanger Vaut mieux técarter ou mon équipe te fume Et je kiffe le cul, quand les bitches me sucent Je lui tire le cul et elle rentre chez elle Tellement pété, tellement bourré Jai déjà fait lamour avec Claire Chazal On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Hey, ils ont fait des spasmes Tout le monde roule un joint dbeuh, on va délirer dans lespace ! Woo, ouzouguizi, coucou, si si, sbang Oui, oui, ouiii, Still Fresh, 360 Elle me dit quelle maime, cest des conneries Ce quelle aime cest ma money Moi et ma clique, on la connaît Grosse t siliconée Dans tous les cas, je vais quitter cglobe Leurs blases sur un Death Note Prendre la familia et mes vrais soces Faucon Millenimum, je me vé-sau Et je prie pour nos mères et nos pères yeah Pardonnez-moi, jai péché mon père hey En effet, mes habits sont propres Parce que jtraine dans de sales affaires sheesh Ils peuvent crever ces porcs fuck Moi je pense à mon sort On aime vraiment un homme quand il est mort bang bang Prouvez moi que jai tort yeah Jsuis dans la zone yeah Jsuis dans la zone Jsuis dans la zone oui Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone sheesh Still Fresh est dans la zone Jsuis dans la zone Coeur noir, jsuis dans la zone 360, jsuis dans la zone en 360 huh, yeah Jte mens pas, des fois jsuis à sec Tenté demprunter la A7 Quand le désespoir nous assiège Manger et risquer les assiettes Cette fille me dit quelle est triste huh Elle me dit quelle a besoin dune épaule Mais sur la mienne, y a un fusil brrrrrrrrah Et ça fait longtemps quil est sé-po Surhumain, oui la ce-for est sismique Surhumain, jles baise fort pendant six weeks Modèle et fort, je sais pas si jsuis suisse Mortel effort, ne pas sombrer sous 8.6 low On tolère pas la défaite, tous mes négros seront millionnaires Grosse mallette dans un jet, jvais jeter mes billets en lair yeah Des mères de famille prennent des risques dans cputain de trafic de dope yeah, huh Jvivais la crise du disque, tu vivais la crise dado huh Petit, jai dû gérer des responsabilités sur le dos Et jai eu du mal à digérer cette putain de pomme dAdam ouiiii Maintenant, jsuis dans la zone yeah Ouiiii Jsuis dans la zone yeah Ouiiii Jsuis dans la zone sheesh Ouiiii Jsuis dans la zone Ouiiii Still Fresh est dans la zone Ouiiii Jsuis dans la zone Ouiiii Coeur noir, jsuis dans la zone Ouiiii En 360, jsuis dans la zone Ouiiii Still Fresh Ouiiii Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Consomme-Consomme-Absurde La vie est devenue virtuelle Nos relations se numérisent Au paradis des pixels Les sentiments sémojisent Plaisirs artificiels ou réalité fictive ? Qui donc tire les ficelles De nos fils dactualité intensifs ? On se like, on se follow Puis on serase, top chrono Niveau de vie souvent sous zéro Jaurais de quoi freiner vos égos Les réseaux sont remplis dgens solos Qui cherchent lamour rayon couteau Connectés au monde entier Sans jamais rien à lui dire Bravo ! Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux La débilité a toujours connu le haut débit Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux On nse regarde plus le nombril On fait des selfies Si tout lmonde demandait la paix plutôt quun dernier poste de télévision Alors on aurait la paix, prolo Jsuis dans lcarré VIP Comme Hallyday, RIP Par les plus grands, jsuis validé Tas pas idée, mayday, tes pas aidé Jsuis djà en 2020, bande de vilains en Philipp Plein Jreviens vous lver, dla tête aux pieds en Louis V hein Jsuis un mec au logis, jlis les rubriques nécrologiques Jsuis plus écologie, que nouvelles technologies, logique Jsuis ce ptit mec de la campagne qui écoute Atlanta Celui qui rentre dans ltas et qui accompagne vos compagnes Logo dmon crew tatoué sur lavant-bras Tavais rarement ressenti ça avant moi Tes marrant toi, cest moi maintenant lroi 230 en toi, en un claquement ddoigt Vie cruelle est la réalité Virtuelle, telle une banalité Jtire à balles réelles sur ta médiocrité Et cest bien mérité Jsuis un retour vers le futur Toi un aller vers le passé Allez, laissez passer Jsuis lfutur tout tracé Pull up boyboy, hey, 75, bang Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Hey, hey, hey, hey, hey, hey On était chargés, calibrés quand on sortait On essayait desquiver le , les portraits Jtai secoué, cest tout poto, y avait pas mort dhomme Tas crié sur tous les toits que jmétais trop emporté boy Jme suis emporté, où est-cque tas mis mes lovés ? Jme mélange pas aux rappeurs, ils sont mégalos Ils ont jamais détaillé un demi-kilo Ils sprennent pour des tueurs, ils font les paranos Mais jvais passer la noche avec oit baby Viens nous voir au taff, cest un autre level Jai trainé avec Beethoven et Maurice Ravel Jai pas besoin dinstrument mais jai besoin dWanted Jdédicace Joe, jdédicace Ma Ta gueule sinon à la chaussée tu vas faire un smack Il fallait tout laver, mon pote tas ouvert un snack Jvais men aller car mon passé ma rendu instable Rime de louest, on mappelle John Wayne Jdégaine vite, jsuis un nouveau du game Monte en lair les vestiges Style de lest, on mappelle Malkovitch Poto fuck la tess, le business va trop vite Arrête de raconter dla merde Arrête de raconter ma ville Les lovés, les pétasses mappellent, my man Toi tu mailles, tu tinquiètes quand le Iphone vibre Réseaux sociaux, réseaux sociaux, mon uc Dans la vraie vie, tu nous croisais, tu tprenais pas pour Hulk Jme rappelle de toi, jpensais plus à Flash Que les sprinters dans lquartier den face Geneviève de Fontenay, oh yeah, tu connais, fiston Jfais plus daudience que Arte Jregarde plus le foot à la télé Jaime pas la france dantan Jvais décharger dans la mêlée Recharger tous mes péchés Jlie les atomes, pas lhuile et leau Jtire dans lvide et sur tes soces Prie pour ta vie, regarde en haut Cest fin du reportage Bienvenue au Moyen ge Tas les ièps dans lmarécage Jsuis quasi-sûr qucest pas légal Fais-toi sucer par un âne Va tfaire lustrer par létat Trou dans lbide comme Gogeta Regard fixe et quand y a rrraaah Faut lfaire loin des caméras Al dente, la cuisson des pâtes est al dente Autour de ton oeil, y a le delta Mes plats sont vulgaires à la Dante J'suis tentée de danser Mais j'vois quta tempe s'met à tremper Et jsais quta tante kiffe mon EP J't'ai foutu des crampes et des oedèmes Jcuisine comme grand-mère sous codé Ils me radotent Chilla, t'es sous-côtée J'te fous un point de côté Mais j'ai la recette un gobelet de thé Une pincée de gingembre mariné, ouais hey Bah nan, jn'ai pas fait les Gobelins Sans téléphone, tes comme un orphelin Jremonte le moral, jsuis leur Arlequin Et non pas lBon Samaritain Cook, cook, j't'emmerde toi fort et ta coke Si t'as foiré, c'est ta faute T'avais quà porter ta cause, ouais Cool, cool, j'avoue qu'parfois j'bédave trop Ça m'rend bécasse, j'fais la sotte J'réduis, j'cuisine, j'fais dla lotte Al dente, ma vision dla trap est al dente Jai passé un cap, jsuis al dente La cuisson du bail est al dente Al dente, al dente Jai passé un cap, jsuis al dente Ma vision dla trap est al dente La cuisson du bail est al dente Al dente, al dente Jeez, wow, cui-cui, téma, , yeah Ne viens pas chercher mes cailleras Toute mon équipe sur cette Zahia Frelo, on ten fera voir de toutes les couleurs comme un Zaïrois Les bons comptes font les bons amis Big up à ma banquière Habiba Jsuis trop haut, jmourrai fly 6rano alias Aaliyah cui-cui-cui-cui-cui-cui-cui Tu fais lfou parce que tas trop tisé mais taurais dû rester à jeun cui-cui, téma, woo Les négros nont plus drègles comme un vieux vagin Quand tu vois mes renois manger cui-cui Ya pas beaucoup de riz par terre cui-cui Les keufs voudraient nous voir plonger cui-cui Car Manaudou a pris sa rtraite jeez Ça cuit cuit cuit sur le réchaud Stu veux pécho, mec donne des peso-os Elle veut faire genre belle gosse blair gloss Mais tes Air Force ont lair fau-ausses Rien à perdre comme si jjouais à lOM woo Elle ouvre sa bouche à lhôtel Jvais cracher, Hadoken ! woo, Hadoken On fait pas exprès téma, téma Dfaire les cailleras On fait que courir wow, wow Après la maille Jveux être lhomme de ta nuit cui-cui-cui-cui Comme un Batman Ma jolie on mélange le produit Comme des barmen Les gars sen foutent Mes blédards font les 400 coups Avec un accent douf Et quand on na pas fait un gros billet On taffe un peu mieux nos disquettes et nos triceps Nos costards, survêt Coste-la Mes taulards ont des posters 3-1 Costa Elle sait qucest moi 6rano Elle veut vnir me voir mais elle nose pas cui-cui-cui-cui-cui-cui-cui</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Yah Guizmo le renard, YW tinquiète, je gère Gros fils de pute si t'as déjà volé dans l'sac de ta mère J'men bats les couilles de ce que vous penser, jallais voler quand tallez danser Argent argent cest dans mes pensées, shit et alcool, ils sont mélangés Toujours traité comme un étranger, ça fait longtemps que j'suis dérangé Tu sors le jour, tu sors la nuit, pour un dix balles, tu t'fais étrangler Ça fait dix ans que jai vu l'métier, ça fait dix ans jai vu l'métier Ça pu la merde et ça pue des pieds, d'mande à mon banquier et mon lunetier Ils diront Guizi il est flex, ils crament les billets comme sa cigarette Il arrive, il est bourré mais il r'part avec six palettes Quest c'quil a dans le ciboulot, quelques oinj avec huit canettes Moi je n'fais que mon boulot, je fais du rap et les flics marrêtent Bordel mais quest c'quil me veulent, moi j'suis fonce-dé dans la ville Et jai arrêté le vol ouais ouais, bientôt je mettrait les voiles Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Demande pas j'suis passé où, j'suis dans la cave ou dans le zoo Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Si tu d'mandes un rendez-vous, j'suis à Barbès ou dans le zoo You might also like Jai traîné dans la rue, wAllah jai trop fait d'sale Elle ma pris pour un con, j'l'ai jeté comme mes chaussettes sales dégage direct De lundi à lundi, toute ma vie cest un open bar Elle ma dit je taime tes trop mignon, vas-y jai Tu veux l'renard, bah cest par ici, moitié banlieue, moitié parisien Les rappeurs comme moi ils ce rarifient, tu veux d'la frappe négro vas-y viens Hey et l'Pôle Emploi, j'lui nique sa mère nique sa mère J'deviens fou une fois qu'je bois la bière je bois la bière Des fois, j'suis fonce-dé ouais jexagère jexagère Toujours solo dans mon coin quand cest la merde quand cest la merde Et avec tout ce que je déblatère jdéblatère C'que j'dis, cest vrai, jen suis pas fier J'fais du rap et j'men sors pas trop mal J'ai fait la rue le rap et j'suis pas trop mal J'allais voler chez les gens, pas de taff au black J'allais voler chez les gens, ouais Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Demande pas j'suis passé où, j'suis dans la cave ou dans le zoo Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Si tu d'mandes un rendez-vous, j'suis à Barbès ou dans le zoo Les armes, quest c'que cest ? Les armes, cest ta seule vraie richesse. Cest des valeurs boursière, des uvres darts tu vois, des conneries qui se monnaient et qui grimpent en valeurs Wallah Zone Sensible , wAllah cest choquant Ouais rifier ouais ouais maitika, Youni Willy Willy business Cest quoi l'beurre ? Une caisse, des fringues une montre, toute cette camme de merde que tachètes et qui vaut plus rien une fois qu'tu las. Cherche pas ailleurs mec, des armes et du beurre, point barre. Vous êtes même pas fini...</t>
+          <t>Yah Guizmo le renard, YW tinquiète, je gère Gros fils de pute si t'as déjà volé dans l'sac de ta mère J'men bats les couilles de ce que vous penser, jallais voler quand tallez danser Argent argent cest dans mes pensées, shit et alcool, ils sont mélangés Toujours traité comme un étranger, ça fait longtemps que j'suis dérangé Tu sors le jour, tu sors la nuit, pour un dix balles, tu t'fais étrangler Ça fait dix ans que jai vu l'métier, ça fait dix ans jai vu l'métier Ça pu la merde et ça pue des pieds, d'mande à mon banquier et mon lunetier Ils diront Guizi il est flex, ils crament les billets comme sa cigarette Il arrive, il est bourré mais il r'part avec six palettes Quest c'quil a dans le ciboulot, quelques oinj avec huit canettes Moi je n'fais que mon boulot, je fais du rap et les flics marrêtent Bordel mais quest c'quil me veulent, moi j'suis fonce-dé dans la ville Et jai arrêté le vol ouais ouais, bientôt je mettrait les voiles Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Demande pas j'suis passé où, j'suis dans la cave ou dans le zoo Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Si tu d'mandes un rendez-vous, j'suis à Barbès ou dans le zoo Jai traîné dans la rue, wAllah jai trop fait d'sale Elle ma pris pour un con, j'l'ai jeté comme mes chaussettes sales dégage direct De lundi à lundi, toute ma vie cest un open bar Elle ma dit je taime tes trop mignon, vas-y jai Tu veux l'renard, bah cest par ici, moitié banlieue, moitié parisien Les rappeurs comme moi ils ce rarifient, tu veux d'la frappe négro vas-y viens Hey et l'Pôle Emploi, j'lui nique sa mère nique sa mère J'deviens fou une fois qu'je bois la bière je bois la bière Des fois, j'suis fonce-dé ouais jexagère jexagère Toujours solo dans mon coin quand cest la merde quand cest la merde Et avec tout ce que je déblatère jdéblatère C'que j'dis, cest vrai, jen suis pas fier J'fais du rap et j'men sors pas trop mal J'ai fait la rue le rap et j'suis pas trop mal J'allais voler chez les gens, pas de taff au black J'allais voler chez les gens, ouais Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Demande pas j'suis passé où, j'suis dans la cave ou dans le zoo Y a du shit dans mon cellophane, j'suis pas là pour plaire aux femmes Moi, je n'suis quun mélomane qua bicrave des kilogrammes J'suis dans l'tieks, toi tes où ? Y a les keufs tah les fous Si tu d'mandes un rendez-vous, j'suis à Barbès ou dans le zoo Les armes, quest c'que cest ? Les armes, cest ta seule vraie richesse. Cest des valeurs boursière, des uvres darts tu vois, des conneries qui se monnaient et qui grimpent en valeurs Wallah Zone Sensible , wAllah cest choquant Ouais rifier ouais ouais maitika, Youni Willy Willy business Cest quoi l'beurre ? Une caisse, des fringues une montre, toute cette camme de merde que tachètes et qui vaut plus rien une fois qu'tu las. Cherche pas ailleurs mec, des armes et du beurre, point barre. Vous êtes même pas fini...</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Ma rime t'harcèles dans Paris Larsen han J'manie larsen, j'glande, ma team tape sec j'prends Les petites tapettes qu'ont des petites baskettes manches ? Car j'carbure à la bine-ca, car j'bute à la byle-ka Un gars rapide là, même sans latte de cannabis, rai ! C'est sans bave de canabis, on kiffe les petites salles Sur scène ça sature pas, j't'emmène sur Saturne, gars Car on mène là, on assure la même signature, man Pour résoudre mes problèmes pas besoin d'la calculatrice Paris Sud, mon domaine, t'sais que j'ai des tas d'culs la miss Comme le Marsupilami, j'ai une grande queue Pas réglo, paraît que j'ai la classe, tu pues l'ami J'ai pas la peau d'XXX, t'es pas pour les kils Suce pas la police, nique la politique, on est les sénateurs C'est notre heure, j'suis pas poli p'tit, moi, j'enseigne le tir Tchek pour les tieks, une même signature Le stème-sy sature donc j'fume ma sensi nature Même si Plein d'MC's carburent et signent la même signature Dans ma ville trop de thons crus, à croire qu'Paris c'est Sushi West On sait qu't'as donné ton cul, fais pas crari, c'est sous ivresse Quand t'es pas riche les soucis restent, gros, j'arrive et c'coup-ci, j'reste Trop avide de bouze-ni fraîches, on lâche la tape la foule s'y presse Et m'appelle pas ni couz, ni frère, t'es qu'une vermine de plus S-Crew bientôt dans l'15 dans des berlines de luxe You might also like Mon cul posé sur les bancs d'la fac, j'prépare des plans d'attaque Stylo, cahier, instru, j'ai plus d'un tour dans l'cartable C'est rageant, j'te jure, c'est vrai, j'exagère, je suis un peu dur Mais MC j'ai des textes à faire, c'est juste un prétexte pour S'évader quelque part car j'ai besoin d'air, le cours me pompe le mien Il faut qu'je reste calme et puis qu'je presse le pas pour que j'encaisse le taff Donc frangin guette mes ses-pha, et check ma bête de voix En 2016, ça va chier dans les slips T'as raison d'être en stress, y'a qu'des givrés dans l'équipe Mec, donne nous ce qu'on veut et il y aura pas d'histoire J'te jure qu'on badine pas, mon flow te taquine grave Plus d'place dans l'agenda, le Rap a quasiment tout pris Du coup, j'décris l'ambiance de nos bâtiments tout gris Wesh, qui est le journaliste qu'a dit que chez moi ça craint ? Envoies-en deux ou trois, la vie d'ma mère, j'en massacre un ! J'suis un conservateur, le Rap ne va pas périmer Je sais rimer, j'le fais vibrer jusqu'à atteindre l'âge où je serais ridé Je n'fais que rider sur l'instrumental, j'te fais kiffer à ton insu mentale J'fais briller la zik mais les instruments parlent Blabla, ça cause de Rap, de flow, de technique, pas de problèmes ethniques Beaucoup d'éthique, nous surveillons juste l'esthétique Appelle moi Mister Clean, propre, tellement drôle que l'on m'appelle Mister Bean C'est Mister Keen-Pooch, celui qui louche sur toutes les maghrébines Sur la femme de mes rêves côtoyant l'homme de mes cauchemars J'mets des gauches-droites, pendant que la vie me fait des croches-pattes J'suis accro au Rap et j'ai juré que j'décroche pas N'approche pas les cons, faut écouter que quand tes proches parlent Si si si, bâtard, y'a trop d'bavards qui se disent terribles Ces MC's stériles confondent peu-ra et crise d'hystérie Avant d'rapper faut qu'tu sois sûr qu'tu maîtrises tes rimes T'as la voix cassée, est-ce que ta vocation c'est la diphtérie ? Si sur chaque amont ça marche, fait ça césure XXX, faut que t'assures, faut que tu te fondes dans la masse Faut que tu laisses ta trace, pas qu'on remplace les fils que t'as cousu Sinon XXX s'résume aux one shots, culs secs Tu sais qu'mes rimes j'embellis, mes lignes en filature pour un seul délit Plus haute qu'une figurine miniature car on est tous des mères nature A l'origine on a tous la même signature Je marche seul, j'encule l'âme-sur Moi l'amour j'l'ai trouvé dans un hamburger J'en ai gros sur le cur, comme un gros boulet Ça m'pèse, ça m'soule, j'crois qu'j'vais dégueuler J'en ai marre de la télé, j'ai envie d'crever l'écran Trop de feuilletons bidons, j'appuie sur les boutons De la télécommande, chaque seconde j'me demande Comment me faire de l'argent, sans me faire pé-cho par l'agent XXX S-Crew XXX freestyle XXX Toi, connaître, non ? Ecoutez maintenant XXX XXX XXX XXX connaitre XXX Viens là trouver un gosse qui vient faire tout exploser Rien à prouver donc j'me fous d'm'exposer Oser, un gars franc qui sait comment causer Sait comment doser et qui ne cherche pas à s'imposer Un gosse de plus, un gosse paumé dans sa tête Et dans c'monde étrange, ne sois pas étonné quand ça pète Donc un système qu'il est important d'fuir Autant t'dire, j'reste authentique jusqu'à c'que mort s'en suive On accepte ni fautes, ni ratures Si t'abuses on t'prend en filature, on tire à vue, t'iras nulle part Si tu vis d'la rue car les flics affluent, pars Profite si t'assumes pas, kiffe si t'as du taff On veut du biff vite sans envie d'vivre des p'tits biz Et vite fils, de sniffe d'la pure came Ici, tous roulent en Mercedes, couz, j'fais mes dièses Cool, Eff et S-Crew, même signature, man On fourre notre son comme une dinde de Thanks Giving Un XXX qui s'fait rare comme une paire de eins' divine En possession de ton attention XXX J'regarde ton swagg car tes paroles sont incompréhensibles T'as pas l'choix, t'es obligé d'te battre dans un conflit sensible Nous, on s'en tire vu qu't'es perdu comme un gratte-ciel sans cime J'visite c'monde déchu qui vit dans un sommeil permanent J'suis à deux doigts d'sombrer, qui m'aidera si j'perds ma main ? Mais étant donné qu'j'ouvre ma gueule, les MC's la ferment Si t'es pas d'la famille, on t'connait pas, faut qu'le S-Crew l'affirme Hey, yo, le boys-band est une image qui reste trop vieille Écoute nos 16 groover, c'est ce à quoi le S-Crew veille Les bons seizes trouvés, écoute le bruit des claques sur les wacks Et nos backs de Bach ? lancés par nos whites et nos blacks Se moquant des cakes et fakes à l'heure où les peureux défèquent En se rappelant quelques défaites, et les cons s'laissent trouer 3MC's nature XXX, XXX c'est fou Aime ces matières, XXX la même signature J'roule et j'lèche, je tire ma taffe Je gratte, je gratte, je taffe et je taffe Le daron touche le SMIC, la daronne la CAF Les mecs de Fresnes n'ont pas besoin d'équipe pour mettre des baffes Et dans la matrice de ma mère, j'ai gratté mes premières rimes Hé, poto, sache que ma naissance a été mon premier crime On m'appelle black foncé parce que j'ai l'teint foncé Garde les sourcils froncés quand j'nique le Rap français Parait qu'le S-Crew fait des siennes et prépare l'offensive Fonky Flav arrive en renfort quand le 15 ème régiment s'active Freestyler assassin, rien qu'ça sent la tuerie sur le sample Donc j'rappe, indécent d'Janvier à Décembre Les MC's se la racontent, politiciens mais ne savent pas parler Écoute ma jactance, j'éclate kick, snare et shirley Tiens, v'là 8 points d'suture, c'est cadeau Une même signature, Un Double Neuf Cinq sur l'panneau Écoutez les couplets d'Jaz, une voix, un prophète J'ai la troupe, l'impro, une fois l'intro faite Le Rap est tous ses états, le but est d'trouver les mots vrais Et dans tout ses états pour écrouer les mauvais En cellule quand c'est nul, sans pitié Armés de nos chants amplifiés sur des samples pitchés Les MC's assurent, les mêmes six gars sûr P.O.S, S-Crew, une même signature J'fais mon propre business, j'm'exporte, j'escroque J'rappe pas des strophes mais des stops MC despote alias le XXX XXX fait kiffer ces junkies comme un desktop XXX massif à la pharmacie mais tu récoltes, des phases, le Phaal Je largue des salves de lave sur ces larves nazes qui bavent et me blazent Qui peut rocker le bateau-phare seul ? Devinez Le col de Guinée, j'n'ai pas peur de prier Comme un plâtre au bras, ils veulent me signer J'ai le bic dans la poche, vite, ouvre le coffre Passe-moi la pioche, j'ai capté le coche Ouais, je veux du cash, la place du boss Ouais, je veux des liasses pour rouler ma bosse J'ai le bic dans la poche, ouais, je veux du cash T'as capté le coche, devenir le boss Pour ça que je bosse, pour avoir des liasses Pour rouler ma bosse, jusqu'à Las Vegas J'ai lÉlixir de l'arme dure, l'armature Du Rap par nature, je fais de l'art mature Dites-le S-Crew, toute la table ronde, le chevalier Fou allié vient plier ceux qui parleront comme Iznogoud Pas de bisous, on vise nos coudes et les miss nous coursent Dans le biz tout court, j'suis pas un bisounours Mais un grand timide, sans timinik, blanc qu'a grandi vite Dans son blockos, Chocosse, même signature, sans limite J'te l'ai déjà dit jadis, ici c'est moche faut qu'j'me fasse la belle Avant qu'j'me casse la boite crânienne avec du Jack Daniel J'te descend pas du regard, j'te mets à poil dans tous les sens du terme Mourir au front, mourir tout court de toute façon, tu crèves Les chances sont minces pour qu'j'puisse peser avant d'être balancé J'ai annoncé le poids des mots, tu risques de t'allonger Chacun d'mes textes est un extrait d'mon autobiographie Le Hip-Hop j'l'aime, à cette heure-ci, c'est l'seul amour d'ma vie A l'école de la vie, j'suis l'élève et le maître Sans blague, les shlags menottent et rêvent de m'les mettre Le Diable met du Prada dans mon tailleur, c'est Gucci J'ai lu que c'était mon heure sur l'Empire State Building Vu qu'c'est l'heure d'faire du biff, D.S.L. j'te calcule pas Nan, j'déconne comme l'ADSL à Calcuta Même signature, S-Crew, Plan A, mêmes immatures dans le game Mais on est tellement haut que même notre studio est dans le ciel Même signature, un MC nature Donne ça une fois d'plus et nique les amateurs On rappe ici comme des sécateurs à la hauteur Mic-froisseur, rare dans le Rap français comme un black hardeur Avec S-Crew, pas d'escroc Ni d'Escobar, on met la barre très haut Négro, on a l'flow, on rappe en impro On donne ça chaud et t'as senti l'niveau J'suis un charbonneur, pour le biff, j'me lève à la bonne heure Il est quelle heure ? Vas-y dis-leur ! J'ai à faire, à toute à l'heure, j'arrive à toute allure Mon flow bombarde, attache ta ceinture, à faire péter dans ta voiture Au fur et à mesure, le biff va rentrer J'commanderai mes sapes sur mesure Faut qu'j'assure, une chose est sûre Le S-Crew, Barka, c'est la même signature La même signature... J'démonte les imposteurs, quand j'kicke le beat augmente le master Mais qui va s'taire, j'mets strike, t'as quinze berges, j't'encule sur ghetto blaster Gars, j'ai 15 paires de couilles, va prier comme le pasteur Si t'espères me couler comme une douille J'te ferai roucouler comme ta poule quand j'la prends sur un lit douillet J'suis clepto-woman, ta meuf j'la couille eh Bouffe son clito comme un clebs, devant son MacDo, man Si t'as faim bah tcheck la schneck à Vincent MacDoom, man Tu sais c'est qui le B.O.S.S XXX j'exprime, rime des mots Tels speechs qui XXX pour le B.O.S.S Est-ce que vous avez, au fait, capté nos 16 ? XXX XXX des phases XXX se déplace XXX case départ XXX si tu rates la frappe, t'es naze XXX à la base XXX ça cassait des barres XXX car la j'dédicace XXX je t'écarte J'fais mon entrée sur l'freestyle, j'suis l'invité d'marque même si je connais pas ce gars C'est Logan, tu connais l'blaze, pour rentrer pas besoin d'Pascals Calé, venu pour tout niquer, preum's, j'prends la tête L'renoi, frisé, queue d'cheval et là j'parle pas d'ma tête Endetté, tu te terres, tu t'dis si t'était plus déter' On veut tes thunes, que ta tête tombe, tes tripes Mais pas tes textes, tu te détends, tant qu'le temps passe XXX XXX quoi qu'je fasse c'est entêtant Et quand je place c'est dans les temps Il n's'agit pas d'essayer, nan, il s'agit de faire La parole est d'argent donc pour ma part quand ça kicke j'te paye Je sais qu'c'est ça qui te plait, la droite, le high kick de l'Est Tu t'inclines, j'te blesse, toi et ta clique, j'te baise Ton mec rapplique, j'le vexe car mes phases rimes de tête Stoppe tes caprices s'te plait, remballe tes 5 lignes de merde Alors c'est ça l'style que t'aimes et n'importe qui peut l'faire Amène 5 litres de bière et tu viens salir le verbe Hey, wack MC, viens, j't'attends, nan, j'entends plus tes plaintes Car à vrai dire, j'm'en tamponne, fais un peu attention Tiens, regarde entre tes jambes, t'en fais tomber ton Tampax Plus l'temps passe, plus j'm'impose et pique ta place Appelle-moi l'As de Pic même sans poker, j'vous dévalise Mon compte bancaire est vide tant pis, l'argent j'le veux dans des valises Je ferai tomber vos dents en or même si je n'suis pas dentiste J'suis pas la petite souris, tu n'auras aucun bénéfice XXX même signature, ça vient du 15 et ça représente, man Mate bien le débit, c'est la patate que les reufrés XXX Aperçois mes canines, dans l'estomac j'ai un canon J'pourrais bouffer tes trois gamines, j'ai un stre-mon dans l'caleçon Maintenant, t'as l'seum han, mais ta tête bouge, nan ? J'vais te la mettre mais, t'inquiète pas, j'vais faire ça doucement Vous m'paraissez tous lents, vous étiez où depuis tout c'temps ? J'me pète la tête aux rimes, paraît qu'elles sont douces, nan J'dé-dé-dégaine un flow toxique La dé-dé-dégaine d'un peu trop psy Parait qu't'as retrouvé DMC, maintenant faisons mon autopsie Imagine l'air, seule ma plume est ma chimère Paraît qu'Paris c'est Disneyland, y'a trop caillera imaginaires, ok J'dé-dé-débite pour mes-mes-mes gars en filature J'te-te-t'éffrite, on a la même signature J'sais pas c'qui m'rend si mature mais jamais tu ne m'échapperas Moi, j'suis pas v'nu pour te faire chanter, ma gueule Mais faire péter tes chakras1</t>
+          <t>Ma rime t'harcèles dans Paris Larsen han J'manie larsen, j'glande, ma team tape sec j'prends Les petites tapettes qu'ont des petites baskettes manches ? Car j'carbure à la bine-ca, car j'bute à la byle-ka Un gars rapide là, même sans latte de cannabis, rai ! C'est sans bave de canabis, on kiffe les petites salles Sur scène ça sature pas, j't'emmène sur Saturne, gars Car on mène là, on assure la même signature, man Pour résoudre mes problèmes pas besoin d'la calculatrice Paris Sud, mon domaine, t'sais que j'ai des tas d'culs la miss Comme le Marsupilami, j'ai une grande queue Pas réglo, paraît que j'ai la classe, tu pues l'ami J'ai pas la peau d'XXX, t'es pas pour les kils Suce pas la police, nique la politique, on est les sénateurs C'est notre heure, j'suis pas poli p'tit, moi, j'enseigne le tir Tchek pour les tieks, une même signature Le stème-sy sature donc j'fume ma sensi nature Même si Plein d'MC's carburent et signent la même signature Dans ma ville trop de thons crus, à croire qu'Paris c'est Sushi West On sait qu't'as donné ton cul, fais pas crari, c'est sous ivresse Quand t'es pas riche les soucis restent, gros, j'arrive et c'coup-ci, j'reste Trop avide de bouze-ni fraîches, on lâche la tape la foule s'y presse Et m'appelle pas ni couz, ni frère, t'es qu'une vermine de plus S-Crew bientôt dans l'15 dans des berlines de luxe Mon cul posé sur les bancs d'la fac, j'prépare des plans d'attaque Stylo, cahier, instru, j'ai plus d'un tour dans l'cartable C'est rageant, j'te jure, c'est vrai, j'exagère, je suis un peu dur Mais MC j'ai des textes à faire, c'est juste un prétexte pour S'évader quelque part car j'ai besoin d'air, le cours me pompe le mien Il faut qu'je reste calme et puis qu'je presse le pas pour que j'encaisse le taff Donc frangin guette mes ses-pha, et check ma bête de voix En 2016, ça va chier dans les slips T'as raison d'être en stress, y'a qu'des givrés dans l'équipe Mec, donne nous ce qu'on veut et il y aura pas d'histoire J'te jure qu'on badine pas, mon flow te taquine grave Plus d'place dans l'agenda, le Rap a quasiment tout pris Du coup, j'décris l'ambiance de nos bâtiments tout gris Wesh, qui est le journaliste qu'a dit que chez moi ça craint ? Envoies-en deux ou trois, la vie d'ma mère, j'en massacre un ! J'suis un conservateur, le Rap ne va pas périmer Je sais rimer, j'le fais vibrer jusqu'à atteindre l'âge où je serais ridé Je n'fais que rider sur l'instrumental, j'te fais kiffer à ton insu mentale J'fais briller la zik mais les instruments parlent Blabla, ça cause de Rap, de flow, de technique, pas de problèmes ethniques Beaucoup d'éthique, nous surveillons juste l'esthétique Appelle moi Mister Clean, propre, tellement drôle que l'on m'appelle Mister Bean C'est Mister Keen-Pooch, celui qui louche sur toutes les maghrébines Sur la femme de mes rêves côtoyant l'homme de mes cauchemars J'mets des gauches-droites, pendant que la vie me fait des croches-pattes J'suis accro au Rap et j'ai juré que j'décroche pas N'approche pas les cons, faut écouter que quand tes proches parlent Si si si, bâtard, y'a trop d'bavards qui se disent terribles Ces MC's stériles confondent peu-ra et crise d'hystérie Avant d'rapper faut qu'tu sois sûr qu'tu maîtrises tes rimes T'as la voix cassée, est-ce que ta vocation c'est la diphtérie ? Si sur chaque amont ça marche, fait ça césure XXX, faut que t'assures, faut que tu te fondes dans la masse Faut que tu laisses ta trace, pas qu'on remplace les fils que t'as cousu Sinon XXX s'résume aux one shots, culs secs Tu sais qu'mes rimes j'embellis, mes lignes en filature pour un seul délit Plus haute qu'une figurine miniature car on est tous des mères nature A l'origine on a tous la même signature Je marche seul, j'encule l'âme-sur Moi l'amour j'l'ai trouvé dans un hamburger J'en ai gros sur le cur, comme un gros boulet Ça m'pèse, ça m'soule, j'crois qu'j'vais dégueuler J'en ai marre de la télé, j'ai envie d'crever l'écran Trop de feuilletons bidons, j'appuie sur les boutons De la télécommande, chaque seconde j'me demande Comment me faire de l'argent, sans me faire pé-cho par l'agent XXX S-Crew XXX freestyle XXX Toi, connaître, non ? Ecoutez maintenant XXX XXX XXX XXX connaitre XXX Viens là trouver un gosse qui vient faire tout exploser Rien à prouver donc j'me fous d'm'exposer Oser, un gars franc qui sait comment causer Sait comment doser et qui ne cherche pas à s'imposer Un gosse de plus, un gosse paumé dans sa tête Et dans c'monde étrange, ne sois pas étonné quand ça pète Donc un système qu'il est important d'fuir Autant t'dire, j'reste authentique jusqu'à c'que mort s'en suive On accepte ni fautes, ni ratures Si t'abuses on t'prend en filature, on tire à vue, t'iras nulle part Si tu vis d'la rue car les flics affluent, pars Profite si t'assumes pas, kiffe si t'as du taff On veut du biff vite sans envie d'vivre des p'tits biz Et vite fils, de sniffe d'la pure came Ici, tous roulent en Mercedes, couz, j'fais mes dièses Cool, Eff et S-Crew, même signature, man On fourre notre son comme une dinde de Thanks Giving Un XXX qui s'fait rare comme une paire de eins' divine En possession de ton attention XXX J'regarde ton swagg car tes paroles sont incompréhensibles T'as pas l'choix, t'es obligé d'te battre dans un conflit sensible Nous, on s'en tire vu qu't'es perdu comme un gratte-ciel sans cime J'visite c'monde déchu qui vit dans un sommeil permanent J'suis à deux doigts d'sombrer, qui m'aidera si j'perds ma main ? Mais étant donné qu'j'ouvre ma gueule, les MC's la ferment Si t'es pas d'la famille, on t'connait pas, faut qu'le S-Crew l'affirme Hey, yo, le boys-band est une image qui reste trop vieille Écoute nos 16 groover, c'est ce à quoi le S-Crew veille Les bons seizes trouvés, écoute le bruit des claques sur les wacks Et nos backs de Bach ? lancés par nos whites et nos blacks Se moquant des cakes et fakes à l'heure où les peureux défèquent En se rappelant quelques défaites, et les cons s'laissent trouer 3MC's nature XXX, XXX c'est fou Aime ces matières, XXX la même signature J'roule et j'lèche, je tire ma taffe Je gratte, je gratte, je taffe et je taffe Le daron touche le SMIC, la daronne la CAF Les mecs de Fresnes n'ont pas besoin d'équipe pour mettre des baffes Et dans la matrice de ma mère, j'ai gratté mes premières rimes Hé, poto, sache que ma naissance a été mon premier crime On m'appelle black foncé parce que j'ai l'teint foncé Garde les sourcils froncés quand j'nique le Rap français Parait qu'le S-Crew fait des siennes et prépare l'offensive Fonky Flav arrive en renfort quand le 15 ème régiment s'active Freestyler assassin, rien qu'ça sent la tuerie sur le sample Donc j'rappe, indécent d'Janvier à Décembre Les MC's se la racontent, politiciens mais ne savent pas parler Écoute ma jactance, j'éclate kick, snare et shirley Tiens, v'là 8 points d'suture, c'est cadeau Une même signature, Un Double Neuf Cinq sur l'panneau Écoutez les couplets d'Jaz, une voix, un prophète J'ai la troupe, l'impro, une fois l'intro faite Le Rap est tous ses états, le but est d'trouver les mots vrais Et dans tout ses états pour écrouer les mauvais En cellule quand c'est nul, sans pitié Armés de nos chants amplifiés sur des samples pitchés Les MC's assurent, les mêmes six gars sûr P.O.S, S-Crew, une même signature J'fais mon propre business, j'm'exporte, j'escroque J'rappe pas des strophes mais des stops MC despote alias le XXX XXX fait kiffer ces junkies comme un desktop XXX massif à la pharmacie mais tu récoltes, des phases, le Phaal Je largue des salves de lave sur ces larves nazes qui bavent et me blazent Qui peut rocker le bateau-phare seul ? Devinez Le col de Guinée, j'n'ai pas peur de prier Comme un plâtre au bras, ils veulent me signer J'ai le bic dans la poche, vite, ouvre le coffre Passe-moi la pioche, j'ai capté le coche Ouais, je veux du cash, la place du boss Ouais, je veux des liasses pour rouler ma bosse J'ai le bic dans la poche, ouais, je veux du cash T'as capté le coche, devenir le boss Pour ça que je bosse, pour avoir des liasses Pour rouler ma bosse, jusqu'à Las Vegas J'ai lÉlixir de l'arme dure, l'armature Du Rap par nature, je fais de l'art mature Dites-le S-Crew, toute la table ronde, le chevalier Fou allié vient plier ceux qui parleront comme Iznogoud Pas de bisous, on vise nos coudes et les miss nous coursent Dans le biz tout court, j'suis pas un bisounours Mais un grand timide, sans timinik, blanc qu'a grandi vite Dans son blockos, Chocosse, même signature, sans limite J'te l'ai déjà dit jadis, ici c'est moche faut qu'j'me fasse la belle Avant qu'j'me casse la boite crânienne avec du Jack Daniel J'te descend pas du regard, j'te mets à poil dans tous les sens du terme Mourir au front, mourir tout court de toute façon, tu crèves Les chances sont minces pour qu'j'puisse peser avant d'être balancé J'ai annoncé le poids des mots, tu risques de t'allonger Chacun d'mes textes est un extrait d'mon autobiographie Le Hip-Hop j'l'aime, à cette heure-ci, c'est l'seul amour d'ma vie A l'école de la vie, j'suis l'élève et le maître Sans blague, les shlags menottent et rêvent de m'les mettre Le Diable met du Prada dans mon tailleur, c'est Gucci J'ai lu que c'était mon heure sur l'Empire State Building Vu qu'c'est l'heure d'faire du biff, D.S.L. j'te calcule pas Nan, j'déconne comme l'ADSL à Calcuta Même signature, S-Crew, Plan A, mêmes immatures dans le game Mais on est tellement haut que même notre studio est dans le ciel Même signature, un MC nature Donne ça une fois d'plus et nique les amateurs On rappe ici comme des sécateurs à la hauteur Mic-froisseur, rare dans le Rap français comme un black hardeur Avec S-Crew, pas d'escroc Ni d'Escobar, on met la barre très haut Négro, on a l'flow, on rappe en impro On donne ça chaud et t'as senti l'niveau J'suis un charbonneur, pour le biff, j'me lève à la bonne heure Il est quelle heure ? Vas-y dis-leur ! J'ai à faire, à toute à l'heure, j'arrive à toute allure Mon flow bombarde, attache ta ceinture, à faire péter dans ta voiture Au fur et à mesure, le biff va rentrer J'commanderai mes sapes sur mesure Faut qu'j'assure, une chose est sûre Le S-Crew, Barka, c'est la même signature La même signature... J'démonte les imposteurs, quand j'kicke le beat augmente le master Mais qui va s'taire, j'mets strike, t'as quinze berges, j't'encule sur ghetto blaster Gars, j'ai 15 paires de couilles, va prier comme le pasteur Si t'espères me couler comme une douille J'te ferai roucouler comme ta poule quand j'la prends sur un lit douillet J'suis clepto-woman, ta meuf j'la couille eh Bouffe son clito comme un clebs, devant son MacDo, man Si t'as faim bah tcheck la schneck à Vincent MacDoom, man Tu sais c'est qui le B.O.S.S XXX j'exprime, rime des mots Tels speechs qui XXX pour le B.O.S.S Est-ce que vous avez, au fait, capté nos 16 ? XXX XXX des phases XXX se déplace XXX case départ XXX si tu rates la frappe, t'es naze XXX à la base XXX ça cassait des barres XXX car la j'dédicace XXX je t'écarte J'fais mon entrée sur l'freestyle, j'suis l'invité d'marque même si je connais pas ce gars C'est Logan, tu connais l'blaze, pour rentrer pas besoin d'Pascals Calé, venu pour tout niquer, preum's, j'prends la tête L'renoi, frisé, queue d'cheval et là j'parle pas d'ma tête Endetté, tu te terres, tu t'dis si t'était plus déter' On veut tes thunes, que ta tête tombe, tes tripes Mais pas tes textes, tu te détends, tant qu'le temps passe XXX XXX quoi qu'je fasse c'est entêtant Et quand je place c'est dans les temps Il n's'agit pas d'essayer, nan, il s'agit de faire La parole est d'argent donc pour ma part quand ça kicke j'te paye Je sais qu'c'est ça qui te plait, la droite, le high kick de l'Est Tu t'inclines, j'te blesse, toi et ta clique, j'te baise Ton mec rapplique, j'le vexe car mes phases rimes de tête Stoppe tes caprices s'te plait, remballe tes 5 lignes de merde Alors c'est ça l'style que t'aimes et n'importe qui peut l'faire Amène 5 litres de bière et tu viens salir le verbe Hey, wack MC, viens, j't'attends, nan, j'entends plus tes plaintes Car à vrai dire, j'm'en tamponne, fais un peu attention Tiens, regarde entre tes jambes, t'en fais tomber ton Tampax Plus l'temps passe, plus j'm'impose et pique ta place Appelle-moi l'As de Pic même sans poker, j'vous dévalise Mon compte bancaire est vide tant pis, l'argent j'le veux dans des valises Je ferai tomber vos dents en or même si je n'suis pas dentiste J'suis pas la petite souris, tu n'auras aucun bénéfice XXX même signature, ça vient du 15 et ça représente, man Mate bien le débit, c'est la patate que les reufrés XXX Aperçois mes canines, dans l'estomac j'ai un canon J'pourrais bouffer tes trois gamines, j'ai un stre-mon dans l'caleçon Maintenant, t'as l'seum han, mais ta tête bouge, nan ? J'vais te la mettre mais, t'inquiète pas, j'vais faire ça doucement Vous m'paraissez tous lents, vous étiez où depuis tout c'temps ? J'me pète la tête aux rimes, paraît qu'elles sont douces, nan J'dé-dé-dégaine un flow toxique La dé-dé-dégaine d'un peu trop psy Parait qu't'as retrouvé DMC, maintenant faisons mon autopsie Imagine l'air, seule ma plume est ma chimère Paraît qu'Paris c'est Disneyland, y'a trop caillera imaginaires, ok J'dé-dé-débite pour mes-mes-mes gars en filature J'te-te-t'éffrite, on a la même signature J'sais pas c'qui m'rend si mature mais jamais tu ne m'échapperas Moi, j'suis pas v'nu pour te faire chanter, ma gueule Mais faire péter tes chakras1</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>On était juste rentrés pour s'acheter une bière, j'en suis sorti complice de meurtre et de vol à main armée. C'est aussi dingue que ça le quartier des fois. On ne pouvait jamais dire ce qui allait arriver, ni quand Protège ton uc yo', protège ta nuque yo' Tu veux la guerre, on va la faire on sort le truc yo' Ça tire des grosses taffes, dans tous les halls crades J'ai connu la galère avant d'connaitre les spotlights Mes pots craquent, c'est trop hard de vivr dans ce zoo T'es comme un tigre dans une cage ou comme un livre sans un mot Et j'fume tout seul dans un coin d'la pièce À gratter des rimes comme un fou, à parler de mon zoo Parce que depuis gamin j'ai besoin d'ma tess Et j'm'en fou si ça vous parait ridicule Le renard est radical, un pétard et j're-décolle Pour un des miens j'tue un des vôtres parce qu'on s'est connu à l'école Qu'on a trempé dans l'illégal et qu'ça a laissé des séquelles J'vais chez l'coiffeur pour m'aimer un peu plus La défonce veut pas monter j'vais rouler un de plus Et j'ai regardé vos rappeurs mais ils ont rien de plus Et quand l'tournage est fini, ils prennent le train, le bus Dans la forêt, partout j'suis dans mon propre fief Moi j'ai dealé partout j'étais mon propre chef J'ai ton , 100 kilos patate de cowboy Dans la rue moi j'suis comme O-dog Et ouais j'ai fait du rap il faisait des hold-ups J'ai suivi le même chemin parce-que j'tais fucked up On arrive au tier-quar on nous dit whassup ? Valenton , Bezbar, ça fait bra-bra You might also like Posé en bas d'la rue j'vois débouler les schtars Ou des ptits qui bicravent pour des nouvelles air max On était jeunes, pas un coup d'pouce pour écouler les taz J'en connais des clous d'cercueils qui ont cloué des masses Depuis des années avec ma femme, j'm'en fou des pétasses On a fumé d'la beuer dans tous les étages J'arrive j'suis pris de secousses, j'regarde les fils de bourge Ça fume la beuer comme à Inglewood Si tu veux d'la frappe, vas y passe en ville Aujourd'hui ma liberté elle vaut 300 000 Au 18ème étage sur ma tour d'ivoire J'ai trop bédave, j'suis fonce-dé, j'ai raté l'cour d'histoire Y a des matins où j'me sens pas dans mon assiette J'me verrais bien dans un A4 en train d'rouler sur la A7 Et depuis ptit, moi gros j'ai volé en cachette Pani problème des grosses bagarres à la machette On fais l'amour, on se vole et on s'achète On traine dehors, ça vend d'la mort dans les sachets Et j'ai des potos au cachot, et les autres qui s'sont cachés Les bicraveurs de pavot et les autres qui font pas chier Et ça fait paf si ça part en couille, j't'emmerde tu fais pas l'endouille Du pilon, de la beuh, j'suis encore dans une Dans la forêt, partout j'suis dans mon propre fief Moi j'ai dealé partout j'étais mon propre chef J'ai ton , 100 kilos patate de cowboy Dans la rue moi j'suis comme O-dog Et ouais j'ai fait du rap ils faisaient des hold-ups J'ai suivi le même chemin parce-que j'tais fucked up On arrive au tier-quar on nous dit whassup ? Valenton , Bezbar, ça fait bra-bra 94-46, 92390, les immeubles la galère, les fever, la galette Y a des fois où c'était dingue dans le quartier, on ne savait jamais ce qui pouvait arriver, ni quand. J'en avais trop fait pour faire machine arrière et j'en avais trop fait pour continuer comme ça. Faut croire que les évènements gagnent toujours le pas sur vous</t>
+          <t>On était juste rentrés pour s'acheter une bière, j'en suis sorti complice de meurtre et de vol à main armée. C'est aussi dingue que ça le quartier des fois. On ne pouvait jamais dire ce qui allait arriver, ni quand Protège ton uc yo', protège ta nuque yo' Tu veux la guerre, on va la faire on sort le truc yo' Ça tire des grosses taffes, dans tous les halls crades J'ai connu la galère avant d'connaitre les spotlights Mes pots craquent, c'est trop hard de vivr dans ce zoo T'es comme un tigre dans une cage ou comme un livre sans un mot Et j'fume tout seul dans un coin d'la pièce À gratter des rimes comme un fou, à parler de mon zoo Parce que depuis gamin j'ai besoin d'ma tess Et j'm'en fou si ça vous parait ridicule Le renard est radical, un pétard et j're-décolle Pour un des miens j'tue un des vôtres parce qu'on s'est connu à l'école Qu'on a trempé dans l'illégal et qu'ça a laissé des séquelles J'vais chez l'coiffeur pour m'aimer un peu plus La défonce veut pas monter j'vais rouler un de plus Et j'ai regardé vos rappeurs mais ils ont rien de plus Et quand l'tournage est fini, ils prennent le train, le bus Dans la forêt, partout j'suis dans mon propre fief Moi j'ai dealé partout j'étais mon propre chef J'ai ton , 100 kilos patate de cowboy Dans la rue moi j'suis comme O-dog Et ouais j'ai fait du rap il faisait des hold-ups J'ai suivi le même chemin parce-que j'tais fucked up On arrive au tier-quar on nous dit whassup ? Valenton , Bezbar, ça fait bra-bra Posé en bas d'la rue j'vois débouler les schtars Ou des ptits qui bicravent pour des nouvelles air max On était jeunes, pas un coup d'pouce pour écouler les taz J'en connais des clous d'cercueils qui ont cloué des masses Depuis des années avec ma femme, j'm'en fou des pétasses On a fumé d'la beuer dans tous les étages J'arrive j'suis pris de secousses, j'regarde les fils de bourge Ça fume la beuer comme à Inglewood Si tu veux d'la frappe, vas y passe en ville Aujourd'hui ma liberté elle vaut 300 000 Au 18ème étage sur ma tour d'ivoire J'ai trop bédave, j'suis fonce-dé, j'ai raté l'cour d'histoire Y a des matins où j'me sens pas dans mon assiette J'me verrais bien dans un A4 en train d'rouler sur la A7 Et depuis ptit, moi gros j'ai volé en cachette Pani problème des grosses bagarres à la machette On fais l'amour, on se vole et on s'achète On traine dehors, ça vend d'la mort dans les sachets Et j'ai des potos au cachot, et les autres qui s'sont cachés Les bicraveurs de pavot et les autres qui font pas chier Et ça fait paf si ça part en couille, j't'emmerde tu fais pas l'endouille Du pilon, de la beuh, j'suis encore dans une Dans la forêt, partout j'suis dans mon propre fief Moi j'ai dealé partout j'étais mon propre chef J'ai ton , 100 kilos patate de cowboy Dans la rue moi j'suis comme O-dog Et ouais j'ai fait du rap ils faisaient des hold-ups J'ai suivi le même chemin parce-que j'tais fucked up On arrive au tier-quar on nous dit whassup ? Valenton , Bezbar, ça fait bra-bra 94-46, 92390, les immeubles la galère, les fever, la galette Y a des fois où c'était dingue dans le quartier, on ne savait jamais ce qui pouvait arriver, ni quand. J'en avais trop fait pour faire machine arrière et j'en avais trop fait pour continuer comme ça. Faut croire que les évènements gagnent toujours le pas sur vous</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Guiziouzou Si si, coucou Yonea Willy Willy Yonea, Motherfuckers Je vais tout caner dans le biz J'ai pioncé dans les foyers J'avais que dalle à part ma mère Petit Guizmo dans le ghetto On se levait tôt la cave la dèche Je suis pas un trou du cul Je sais que vous êtes pas bêtes J'ai pris un coups du coups je veux tout sauf être navré Il est dix heures, je bédave ma sixième clope avec une petite bière La cuite d'hier, les vil-ci et le proc' Ça fait mal au crâne, ramenez pas vos clashs On aime pas vos lois depuis qu'on est marié à XXX On y voit plus rien, on est rancunier Dans les embrouilles on voit rouge comme les Mancunien Pas le temps de parler je vais vous caner dans le biz Ce mec est taré voilà ce que les gens me disent Pas le temps de parler je vais vous caner dans le biz Et je rêve de me barrer avec le fric de l'entreprise Écoute-moi bien je viens de là où ça dégénère Entre braquage et délits mineurs je veux m'arracher quand j'ai les nerfs You might also like J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende Un jour ou l'autre ils vont attesté mon truc Ouai j'ai taffé comme un tarté en aparté mais j'ai pas baissé mon fute J'ai besoin d'apaiser mon putain de cerveau Apprécier mon but Arrêter les putains de blème-pro Agresser ton beat On fait la fête sans les boîtes Reste dans les cordes Même dans les squats Je traîne sans escorte, motherfucker Avec nos gueules de fous et nos démarches boiteuse Ouai ça bédave un tas de pétard et ça t'éclate les valseuses Mec, je crois que les crasseuse guettent J'écrase des têtes et déballe mes textes Je fais mes bails, ils sont en phase de retraite Phénomène inimitable, tes problèmes ne finissent ap Moi c'est mon domaine,t'es fou mec, retiens mes initiales Zmo-gui recopier dans la ville, si l'ambiance est parti, et bah elle revient quand j'arrive YW jusqu'à l'infini C'est toi qui te fait braquer, c'est moi qui cherche un alibi J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende Pas le temps de parler je vais vous caner dans le biz Ce mec est taré voilà ce que les gens me disent Pas le temps de parler je vais vous caner dans le biz Et je rêve de me barrer avec le fric de l'entreprise Écoute-moi bien je viens de là où ça dégénère Entre braquage et délits mineurs je veux m'arracher quand j'ai les nerfs Moi et ma smala, loin des barrages, un cigare de La Havana Un pavillon pour la mama, 6 mois par année j'suis pas là Nique les bâtards qui veulent pas voir tous mes lascars quitter l'asphalte J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende7</t>
+          <t>Guiziouzou Si si, coucou Yonea Willy Willy Yonea, Motherfuckers Je vais tout caner dans le biz J'ai pioncé dans les foyers J'avais que dalle à part ma mère Petit Guizmo dans le ghetto On se levait tôt la cave la dèche Je suis pas un trou du cul Je sais que vous êtes pas bêtes J'ai pris un coups du coups je veux tout sauf être navré Il est dix heures, je bédave ma sixième clope avec une petite bière La cuite d'hier, les vil-ci et le proc' Ça fait mal au crâne, ramenez pas vos clashs On aime pas vos lois depuis qu'on est marié à XXX On y voit plus rien, on est rancunier Dans les embrouilles on voit rouge comme les Mancunien Pas le temps de parler je vais vous caner dans le biz Ce mec est taré voilà ce que les gens me disent Pas le temps de parler je vais vous caner dans le biz Et je rêve de me barrer avec le fric de l'entreprise Écoute-moi bien je viens de là où ça dégénère Entre braquage et délits mineurs je veux m'arracher quand j'ai les nerfs J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende Un jour ou l'autre ils vont attesté mon truc Ouai j'ai taffé comme un tarté en aparté mais j'ai pas baissé mon fute J'ai besoin d'apaiser mon putain de cerveau Apprécier mon but Arrêter les putains de blème-pro Agresser ton beat On fait la fête sans les boîtes Reste dans les cordes Même dans les squats Je traîne sans escorte, motherfucker Avec nos gueules de fous et nos démarches boiteuse Ouai ça bédave un tas de pétard et ça t'éclate les valseuses Mec, je crois que les crasseuse guettent J'écrase des têtes et déballe mes textes Je fais mes bails, ils sont en phase de retraite Phénomène inimitable, tes problèmes ne finissent ap Moi c'est mon domaine,t'es fou mec, retiens mes initiales Zmo-gui recopier dans la ville, si l'ambiance est parti, et bah elle revient quand j'arrive YW jusqu'à l'infini C'est toi qui te fait braquer, c'est moi qui cherche un alibi J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende Pas le temps de parler je vais vous caner dans le biz Ce mec est taré voilà ce que les gens me disent Pas le temps de parler je vais vous caner dans le biz Et je rêve de me barrer avec le fric de l'entreprise Écoute-moi bien je viens de là où ça dégénère Entre braquage et délits mineurs je veux m'arracher quand j'ai les nerfs Moi et ma smala, loin des barrages, un cigare de La Havana Un pavillon pour la mama, 6 mois par année j'suis pas là Nique les bâtards qui veulent pas voir tous mes lascars quitter l'asphalte J'allume une cigarette, je sors une feuille et je mets le beat Avant que l'instru s'arrête reste seul vas y fais le vide Mets les à l'amende, mets les à l'amende Guizi Mets les à l'amende, mets les à l'amende Mon renoi Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non rebeu Mets les à l'amende, mets les à l'amende Non babtou Mets les à l'amende, mets les à l'amende7</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Yogayo Ouais ouais, wesh les polognes là 94 4.6.0, c'est comment ma gueule Bâtiment 9, 6ème étage, appartement 38, viens fils de pute Igor LDT, Guizmo OVDZ Music, YW C'est comme ça qu'on fais les choses bébé J'suis au pologne avec LDT, j'te dis pas combien de fois on s'est fait péter Pas de sous dans le zoo, on a fait des coups Donne moi l'argent j'veux pas me repeter Eeeeh j'en ai marre que ma mère elle me demande du fric Soit disque d'or ou l'argent du shit Une petite de Paname elle est sur un site Et je pense à son frère qui veut faire un feat Aaah c'est degueulasse Dealer voler on a fait comme as Tu veux faire la guerre c'est moi qui commence Deux coups de couteau pas besoin de kalash Et j'aime que la rue j'veux pas de la romance Ca fait longtemps j'crois plus aux promesses Que la bicrave et puis la violence Y'a que comme ça que je les tiens en laisse You might also like J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson Ouais j'ai l'ambition d'un Jackson S'te plaît 2 Tess n'arrête pas le son Ti-pe rigolo va tous rafler a la Patson Claquer notre flouze sur les champs évitez le bain de sang Ils veulent rapper dans tout les styles les textes n'ont pas de sens Mama m'a dit le vrai talent c'est d'avoir la patience Mais à l'école j'étais comme papa, toujours absent Je m'en sortirais plus tard mon fils aura l'accent Fuck voir la vie en rose j'veux que du violet Moi aussi je veux rouler mes joints sur un tas de billet de cent Je rentre dans la pièce mes gommies sont affolées Elles claquent des fesses en attendant le moment où 2 Tess chante A part toi dans ce game mon gros j'ai pas d'ami On fera pas comme eux ton pied mon pied peu importe la mise VR, Mopi à notre table le reste on fait la bise Si tout est noir mon gosse n'ira pas dans vos colonies Endetté jusqu'au cou et tu me parles d'économie J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Michael Jackson, Michael Jackson De LV à Barbès les poulets nous questionnent Igor LDT, Guiziouzou YW, OVDZ Music</t>
+          <t>Yogayo Ouais ouais, wesh les polognes là 94 4.6.0, c'est comment ma gueule Bâtiment 9, 6ème étage, appartement 38, viens fils de pute Igor LDT, Guizmo OVDZ Music, YW C'est comme ça qu'on fais les choses bébé J'suis au pologne avec LDT, j'te dis pas combien de fois on s'est fait péter Pas de sous dans le zoo, on a fait des coups Donne moi l'argent j'veux pas me repeter Eeeeh j'en ai marre que ma mère elle me demande du fric Soit disque d'or ou l'argent du shit Une petite de Paname elle est sur un site Et je pense à son frère qui veut faire un feat Aaah c'est degueulasse Dealer voler on a fait comme as Tu veux faire la guerre c'est moi qui commence Deux coups de couteau pas besoin de kalash Et j'aime que la rue j'veux pas de la romance Ca fait longtemps j'crois plus aux promesses Que la bicrave et puis la violence Y'a que comme ça que je les tiens en laisse J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson Ouais j'ai l'ambition d'un Jackson S'te plaît 2 Tess n'arrête pas le son Ti-pe rigolo va tous rafler a la Patson Claquer notre flouze sur les champs évitez le bain de sang Ils veulent rapper dans tout les styles les textes n'ont pas de sens Mama m'a dit le vrai talent c'est d'avoir la patience Mais à l'école j'étais comme papa, toujours absent Je m'en sortirais plus tard mon fils aura l'accent Fuck voir la vie en rose j'veux que du violet Moi aussi je veux rouler mes joints sur un tas de billet de cent Je rentre dans la pièce mes gommies sont affolées Elles claquent des fesses en attendant le moment où 2 Tess chante A part toi dans ce game mon gros j'ai pas d'ami On fera pas comme eux ton pied mon pied peu importe la mise VR, Mopi à notre table le reste on fait la bise Si tout est noir mon gosse n'ira pas dans vos colonies Endetté jusqu'au cou et tu me parles d'économie J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson J'sors de la tess, en moonwalk dans le game à la Michael Jackson Dans toutes les caisses, de LV à Barbès ça cuisine, les poulets nous questionnent J'sors de la tess, en moonwalk dans le game à la Michael Jackson Michael Jackson, Michael Jackson Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Yogayo Michael Jackson, Michael Jackson De LV à Barbès les poulets nous questionnent Igor LDT, Guiziouzou YW, OVDZ Music</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Guiziouzou YW J'en voulais plein dans mes poches alors j'suis parti à la pêche Avec 5 euros en poche, je ne rêvais que d'espèces Mais la vie n'est pas si moche, j'ai su esquiver la hess J'ai toujours bombé le torse, personne ne me tient en laisse Marie toi et fais des gosses, dis à personne ton adresse Traîner dans la rue c'est bof, à part si tu prends ta pièce Et puis quand les choses se corsent c'est pas tout le monde qui encaisse Vivre en tess' c'est hardcore, quand tu veux la place du bosse Le système me touche, incarcère mes reu-frés Que des histoires louches, de Fleury à ne-Fres J'repense à Doums, faut qui garde la che-pê J'rêvais d'amour, j'ai connu que la rre-gue La sacoche est pleine, les requins sont neuves Si un artiste est faux, personne retient son oeuvre J'me sentais virile quand j'ai sorti le neuf Tout seul au dépôt, pas une clope, pas une euille-f J'ai grandi à Paris, très loin des Qataris Les armes, la cocaïne, tout ça c'est pas facile Soumillon, Bazire, ils sont tous dans les paris On vend pas d'gâteaux, on vend tous de la farine Rararah moi je sais ce qui te fascine J'suis un cur de glace, quand tu me vois tu patine Elle était dans ma classe et aujourd'hui elle tapine La bite est toute dure mais elle veut de l'argent facile Rararah et redis moi c'est quoi les bails ? On a traîné ensemble tu m'as trahi pour de la maille T'es passé à la barre et puis tu faisais moins la caille J'fais ma peine sur un pied, les petits vont gérer le détail VLT dans mes plets-cou, ça détaille, ça découpe Les pétasses, les pétou, les étages, les écrous Ah starfoulilah j'dis tout ça, j'suis un époux J'dors plus la nuit, pour la rue j'ai du dégoût J'ai des problèmes avec mon passé, j'ai fais du pe-ra c'était ma passion L'alcool m'avait déphasé, j'veux faire des dollars à ma façon Petit renard a grandi trop vite, j'ai vu la police et j'ai mis tempête Je savais bien qu'ils voulaient mon shit, depuis le début ils menaient l'enquête Mais je m'en foutais il m'fallait du fric, fumer tiser poto tout ça, ça rend bête J'avais un peu maigris dans mon dernier clip, si tu savais tous c'que j'ai en tête Pas l'genre de mec qu'on apprivoise, rime de malade dans le grimoire Le cur gelé, mon pauvre bébé, je l'ai mis contre moi il a pris froid Opinel 12 dans le tiroir, reflet de renard dans le miroir Délinquant depuis mineur, j'allais voler dans la nuit noire You might also like Héhéhé Arrête de shiter Guiziouzou, fils de pute haaa Dégagés tous c'est moi qui prends les commandes What's up my nigga vas-y come on J'ai une chapka, une kalash' comme à Pologne Yves-Saint-Laurent j'sais pas c'est quoi de l'eau de Cologne Dégagés tous c'est moi qui prends les commandes What's up my nigga vas-y come on J'ai une chapka, une kalash' comme à Pologne Yves-Saint-Laurent j'sais pas c'est quoi de l'eau de Cologne</t>
+          <t>Guiziouzou YW J'en voulais plein dans mes poches alors j'suis parti à la pêche Avec 5 euros en poche, je ne rêvais que d'espèces Mais la vie n'est pas si moche, j'ai su esquiver la hess J'ai toujours bombé le torse, personne ne me tient en laisse Marie toi et fais des gosses, dis à personne ton adresse Traîner dans la rue c'est bof, à part si tu prends ta pièce Et puis quand les choses se corsent c'est pas tout le monde qui encaisse Vivre en tess' c'est hardcore, quand tu veux la place du bosse Le système me touche, incarcère mes reu-frés Que des histoires louches, de Fleury à ne-Fres J'repense à Doums, faut qui garde la che-pê J'rêvais d'amour, j'ai connu que la rre-gue La sacoche est pleine, les requins sont neuves Si un artiste est faux, personne retient son oeuvre J'me sentais virile quand j'ai sorti le neuf Tout seul au dépôt, pas une clope, pas une euille-f J'ai grandi à Paris, très loin des Qataris Les armes, la cocaïne, tout ça c'est pas facile Soumillon, Bazire, ils sont tous dans les paris On vend pas d'gâteaux, on vend tous de la farine Rararah moi je sais ce qui te fascine J'suis un cur de glace, quand tu me vois tu patine Elle était dans ma classe et aujourd'hui elle tapine La bite est toute dure mais elle veut de l'argent facile Rararah et redis moi c'est quoi les bails ? On a traîné ensemble tu m'as trahi pour de la maille T'es passé à la barre et puis tu faisais moins la caille J'fais ma peine sur un pied, les petits vont gérer le détail VLT dans mes plets-cou, ça détaille, ça découpe Les pétasses, les pétou, les étages, les écrous Ah starfoulilah j'dis tout ça, j'suis un époux J'dors plus la nuit, pour la rue j'ai du dégoût J'ai des problèmes avec mon passé, j'ai fais du pe-ra c'était ma passion L'alcool m'avait déphasé, j'veux faire des dollars à ma façon Petit renard a grandi trop vite, j'ai vu la police et j'ai mis tempête Je savais bien qu'ils voulaient mon shit, depuis le début ils menaient l'enquête Mais je m'en foutais il m'fallait du fric, fumer tiser poto tout ça, ça rend bête J'avais un peu maigris dans mon dernier clip, si tu savais tous c'que j'ai en tête Pas l'genre de mec qu'on apprivoise, rime de malade dans le grimoire Le cur gelé, mon pauvre bébé, je l'ai mis contre moi il a pris froid Opinel 12 dans le tiroir, reflet de renard dans le miroir Délinquant depuis mineur, j'allais voler dans la nuit noire Héhéhé Arrête de shiter Guiziouzou, fils de pute haaa Dégagés tous c'est moi qui prends les commandes What's up my nigga vas-y come on J'ai une chapka, une kalash' comme à Pologne Yves-Saint-Laurent j'sais pas c'est quoi de l'eau de Cologne Dégagés tous c'est moi qui prends les commandes What's up my nigga vas-y come on J'ai une chapka, une kalash' comme à Pologne Yves-Saint-Laurent j'sais pas c'est quoi de l'eau de Cologne</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>J'suis parti dehors, je voulais de l'or Si l'alcool c'est de l'eau, mon pilon c'est de l'air J'ai aussi de la verte, elle est bonne, elle est séche, elle est forte Mais j'me suis fait pété et là, c'est les bleus qui m'escortent Oh no, comment j'vais faire pour m'en sortir de là il faut qu'j'appelle Luciani Et si j'vais en taule, poto c'est pas grave y'a le rat Luciano Mais que Dieu me protège, la prison c'est trop guèze Brolique dans la jambe, ça finira en prothèse, oh no Que du pilon, que des tornades Ça fait longtemps que j'ai pas vu la promenade Et dehors, ils me regardent bizzare J'suis défoncé à la mort, ils sont trop mal Et les hyprocrites, ils passent la pommade J'les regarde même plus après mon collage J'nique ma vie depuis le collège Les profs, ils disaient c'est dommage Me fait pas chier, j'te fais pas fumer Poto, je sais pas où t'as mis ta bouche crasseux Y'a papa qui fume la kush crasseux Y'a mama qui change la couche Des fois j'suis dans des histoires louches Cigarette à la bouche et je tousse Sur mon nouveau casque, là y'a une tache Mais pourquoi j'ai roulé ce hnouf You might also like J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai dit à Igor on va se les faire tout seul Viens à Valenton, tu verra que c'est tout sale Et moi j'avançais sans boussole Tu crois qu'j'suis bien mais j'suis sous grav' Et moi j'en veux pas de vos pâtes aux thon J'veux que du boeuf et des batatas J'veux que du boeuf et des batatas Combien de fois les condés, ils m'ont pataté J'suis parti de haut, je voulais de l'or Si l'alcool c'est de l'eau, mon pilon c'est de l'air J'ai aussi de la verte, elle est bonne, elle est séche, elle est forte Mais j'me suis fait pété et là, c'est les bleus qui m'escortent Oh no, comment j'vais faire pour m'en sortir de là il faut qu'j'appelle Luciani Et si j'vais en taule, poto c'est pas grave y'a le rat Luciano Mais que Dieu me protège, la prison c'est trop guèze Brolique dans la jambe, ça finira en prothèse, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no</t>
+          <t>J'suis parti dehors, je voulais de l'or Si l'alcool c'est de l'eau, mon pilon c'est de l'air J'ai aussi de la verte, elle est bonne, elle est séche, elle est forte Mais j'me suis fait pété et là, c'est les bleus qui m'escortent Oh no, comment j'vais faire pour m'en sortir de là il faut qu'j'appelle Luciani Et si j'vais en taule, poto c'est pas grave y'a le rat Luciano Mais que Dieu me protège, la prison c'est trop guèze Brolique dans la jambe, ça finira en prothèse, oh no Que du pilon, que des tornades Ça fait longtemps que j'ai pas vu la promenade Et dehors, ils me regardent bizzare J'suis défoncé à la mort, ils sont trop mal Et les hyprocrites, ils passent la pommade J'les regarde même plus après mon collage J'nique ma vie depuis le collège Les profs, ils disaient c'est dommage Me fait pas chier, j'te fais pas fumer Poto, je sais pas où t'as mis ta bouche crasseux Y'a papa qui fume la kush crasseux Y'a mama qui change la couche Des fois j'suis dans des histoires louches Cigarette à la bouche et je tousse Sur mon nouveau casque, là y'a une tache Mais pourquoi j'ai roulé ce hnouf J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai dit à Igor on va se les faire tout seul Viens à Valenton, tu verra que c'est tout sale Et moi j'avançais sans boussole Tu crois qu'j'suis bien mais j'suis sous grav' Et moi j'en veux pas de vos pâtes aux thon J'veux que du boeuf et des batatas J'veux que du boeuf et des batatas Combien de fois les condés, ils m'ont pataté J'suis parti de haut, je voulais de l'or Si l'alcool c'est de l'eau, mon pilon c'est de l'air J'ai aussi de la verte, elle est bonne, elle est séche, elle est forte Mais j'me suis fait pété et là, c'est les bleus qui m'escortent Oh no, comment j'vais faire pour m'en sortir de là il faut qu'j'appelle Luciani Et si j'vais en taule, poto c'est pas grave y'a le rat Luciano Mais que Dieu me protège, la prison c'est trop guèze Brolique dans la jambe, ça finira en prothèse, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no J'ai pillave et j'ai fumé J'ai pillave et j'ai fumé Le tier-quar il m'a tué Sur mes lunettes, y'a la buée, oh no</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Couplet 1 Igo j'ai besoin dun père, malheureusement j'en ai pas Igo j'ai besoin dmes frères, ouai j'ai besoin de vendetta Et j'ai besoin d'affection, d'évacuer la pression Dans nos ruelles c'est trop cruelles, on a lutte et agression Et j'ai besoin de patience pour calmer mes crises de nerfs Souvent j'ai des absences, pour aimer cette vie de merde Et jai besoin daide parce que tout seul c'est impossible Je vis dure, je ris dure, dans le futur un gros spliff Jsuis pas celui qu'tu crois, j'ai besoin d'avancer tout droit Toujours au tribunal mais pas pour des études de droit Lamine Diakité, pauvre de moi-même Jai besoin d'être friqué, mais je coffre de la zeb Refrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh woh, oh wohX2 Couplet 2 J'ai besoin de sourire, en bas y'a que des sales gueules Besoin de m'ouvrir, d'être inoubliable comme Michael Besoin que ma mère trouve la paix, elle est veuve et ça l'fait pas trop Et j'ai besoin d'un gun quand elle s'fait hagar par son patron Besoin de plus de temps, j'ai la santé j'en prends pas soin J'savais pas nager, eux ils m'ont jeté dans le grand bassin Alors j'ai besoin d'air, des zéros sur les chèques gars Mais j'suis en galère à mettre du céllo' sur mes rettesba J'ai besoin de musique pour pas péter un fusible On réussi mais on s'isole comme si on taffait à l'usine Besoin de crédibilité face à l'Etat Je leur ai dis que j'étais rappeur, et il m'on dis qu'ça n'valait pas You might also likeRefrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2 Couplet 3 Besoin de Yonea et Willy, de Lascars et toute ma clique Besoin de Villeneuve, je peux pas renier où j'habite Besoin d'un fucking pupitre, juste pour gratter De mon fucking public, juste pour rapper Besoin d'indulgence, j'me mets à nu devant des gens qu'j'connais pas Mais j'étais tendre au départ, et j'peux pas m'vendre au détail Je suis entier, j'suis pas comme eux J'suis comme vous, c'est comme ça, en tout cas j'suis pas commun Besoin de rémission de peine, ma fiche me rends paro Et vos émissions de merde, c'est un pic et un garrot J'ai besoin de prendre le large, ici faut faire bellek On veut le magnum comme le H ou Tom Selleck Refrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2 Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2</t>
+          <t>Couplet 1 Igo j'ai besoin dun père, malheureusement j'en ai pas Igo j'ai besoin dmes frères, ouai j'ai besoin de vendetta Et j'ai besoin d'affection, d'évacuer la pression Dans nos ruelles c'est trop cruelles, on a lutte et agression Et j'ai besoin de patience pour calmer mes crises de nerfs Souvent j'ai des absences, pour aimer cette vie de merde Et jai besoin daide parce que tout seul c'est impossible Je vis dure, je ris dure, dans le futur un gros spliff Jsuis pas celui qu'tu crois, j'ai besoin d'avancer tout droit Toujours au tribunal mais pas pour des études de droit Lamine Diakité, pauvre de moi-même Jai besoin d'être friqué, mais je coffre de la zeb Refrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh woh, oh wohX2 Couplet 2 J'ai besoin de sourire, en bas y'a que des sales gueules Besoin de m'ouvrir, d'être inoubliable comme Michael Besoin que ma mère trouve la paix, elle est veuve et ça l'fait pas trop Et j'ai besoin d'un gun quand elle s'fait hagar par son patron Besoin de plus de temps, j'ai la santé j'en prends pas soin J'savais pas nager, eux ils m'ont jeté dans le grand bassin Alors j'ai besoin d'air, des zéros sur les chèques gars Mais j'suis en galère à mettre du céllo' sur mes rettesba J'ai besoin de musique pour pas péter un fusible On réussi mais on s'isole comme si on taffait à l'usine Besoin de crédibilité face à l'Etat Je leur ai dis que j'étais rappeur, et il m'on dis qu'ça n'valait pas Refrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2 Couplet 3 Besoin de Yonea et Willy, de Lascars et toute ma clique Besoin de Villeneuve, je peux pas renier où j'habite Besoin d'un fucking pupitre, juste pour gratter De mon fucking public, juste pour rapper Besoin d'indulgence, j'me mets à nu devant des gens qu'j'connais pas Mais j'étais tendre au départ, et j'peux pas m'vendre au détail Je suis entier, j'suis pas comme eux J'suis comme vous, c'est comme ça, en tout cas j'suis pas commun Besoin de rémission de peine, ma fiche me rends paro Et vos émissions de merde, c'est un pic et un garrot J'ai besoin de prendre le large, ici faut faire bellek On veut le magnum comme le H ou Tom Selleck Refrain Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2 Malgrès je me maintiens, je vis à l'instinct J'en ai ras le bol, spliff et heineken Tu pleures et tu t'questionne Je n'suis qu'un homme, j'ai mes secrets faut que j'les contiennes Tous les jours c'est oh oh, oh oh X2</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Guizi Ouzou, Yonea Willy Willy Yonea Business Dans ma tête rien qu'ça bouge Infrarouge YW, Guizmo, le Renard Hein J'connais la rue, ça me fais plus der-ban Fumer, tiser, c'est pour buter le temps Moi, j'ai tout dans la tête, t'as pas vu mes plans Plus lascension est haute, plus la chute est grande Et ils se demandent pourquoi j'suis méfiant Donnez-moi mon fric et j's'rai soulagé J'veux m'asseoir à la table, fumer un cigare Je veux pas un pourboire, j'veux un pourparler J'veux pas dire à ma femme de travailler J'fais les choses bien mais j'suis sous pilon Et y'a personne qui m'fera cravacher Nan, j'suis pas Bazir, j'suis pas sous million Ton pote est bé-tom, ta meuf est en cloque Fais tes valises ou bien gère c'que t'as fais Honore Madame, éduque le p'tit Autour de son cou, mets des graines de café Et j'fume le pilon car c'est nécessaire Moi, j'suis toujours devant quand il faut agir J'ai perdu des batailles, j'ai gagné des guerres Ici bas, y'a pas grand chose qui me traumatise Il lui reste un pilon, il va fumer seul Trois keumés, une bagarre, il finit au sol Il le sait dans la rue qu'il a fait du sale No pitié in business, c'est le protocole Et désolé maman, je sais qu'ça fait mal Ton fils traîne dans la rue va plus à l'école J'ai pas renié ton éducation Mais en bas de la cité, tu sais y'a des codes Merde You might also like J'aime les lumières dans la nuit Laissez-moi être un papillon Laissez-moi être un papillon Laissez-moi être un papillon J'ai déjà vu ma tête, en gros sur un vinyle Mon regard était froid, ce monde me force à être viril J'aime les lumières dans la nuit Laissez-moi être un papillon J'aime les lumières dans la nuit Laissez-moi être un papillon J'ai déjà vu ma tête, en gros sur un vinyle Mon regard était froid, ce monde me force à être viril Laissez-moi être un papillon, s'il vous plait Laissez-moi être un papillon Alone in my mind Alone all the time Alone, waiting for the last goodbye Alone in my mind Alone all the time Alone, waiting for the last goodbye1</t>
+          <t>Guizi Ouzou, Yonea Willy Willy Yonea Business Dans ma tête rien qu'ça bouge Infrarouge YW, Guizmo, le Renard Hein J'connais la rue, ça me fais plus der-ban Fumer, tiser, c'est pour buter le temps Moi, j'ai tout dans la tête, t'as pas vu mes plans Plus lascension est haute, plus la chute est grande Et ils se demandent pourquoi j'suis méfiant Donnez-moi mon fric et j's'rai soulagé J'veux m'asseoir à la table, fumer un cigare Je veux pas un pourboire, j'veux un pourparler J'veux pas dire à ma femme de travailler J'fais les choses bien mais j'suis sous pilon Et y'a personne qui m'fera cravacher Nan, j'suis pas Bazir, j'suis pas sous million Ton pote est bé-tom, ta meuf est en cloque Fais tes valises ou bien gère c'que t'as fais Honore Madame, éduque le p'tit Autour de son cou, mets des graines de café Et j'fume le pilon car c'est nécessaire Moi, j'suis toujours devant quand il faut agir J'ai perdu des batailles, j'ai gagné des guerres Ici bas, y'a pas grand chose qui me traumatise Il lui reste un pilon, il va fumer seul Trois keumés, une bagarre, il finit au sol Il le sait dans la rue qu'il a fait du sale No pitié in business, c'est le protocole Et désolé maman, je sais qu'ça fait mal Ton fils traîne dans la rue va plus à l'école J'ai pas renié ton éducation Mais en bas de la cité, tu sais y'a des codes Merde J'aime les lumières dans la nuit Laissez-moi être un papillon Laissez-moi être un papillon Laissez-moi être un papillon J'ai déjà vu ma tête, en gros sur un vinyle Mon regard était froid, ce monde me force à être viril J'aime les lumières dans la nuit Laissez-moi être un papillon J'aime les lumières dans la nuit Laissez-moi être un papillon J'ai déjà vu ma tête, en gros sur un vinyle Mon regard était froid, ce monde me force à être viril Laissez-moi être un papillon, s'il vous plait Laissez-moi être un papillon Alone in my mind Alone all the time Alone, waiting for the last goodbye Alone in my mind Alone all the time Alone, waiting for the last goodbye1</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Un d'ces soirs dans un d'ces piano bars On y va pleine barre, on pose pleine barre Un d'ces soirs dans un d'ces piano bars Avec mes loubards, y'a trop de cougars Un d'ces soirs dans un d'ces piano bars Ca sent la touze-par pour tous mes couches-tards Un d'ces soirs avec mes salopards Mes salopards du piano bar Toujours accompagné d'une meuf à mon bras Qui fait la pose Tagues moi ! à chaque caméra GHB plein les poches mais j'le partage pas Ne les trouves-tu pas déjà assez faciles comme ça ? Surkétaminé comme le Cheval de Troie Y'a une heure de queue aux toilettes Et tout le monde sait pourquoi Le club est inondé par l'argent des rents-pa Hey yo, grattes le mur et revends ça Ouais... Calvin Klein est dans la place Et... Même mes gars sûrs sucent pour une trace Dépôts dans la gorge, monde dégueulasse J'lui mets un 6 sur 10 puisqu'elle a l'cul flasque Et qu'elle est tellement plate, que c'en est immonde Vivement la première overdose ça va calmer tout l'monde Peu m'importe qu'elle soit rousse, brune, blonde J'veux pas d'une meuf qui grince tellement qu'elle a les dents qui tombent You might also like V'là l'zonard, viens pas test Guiz' flingue la Seine dans un piano bar Sale connard, j'ai des problèmes dans ma tête J'veux être refait dans ma tess', pas d'bobards Y'a un tas d'soldats, qui fond des abdos, des bracos Dans des va-gos de cas social Si t'es pas trop mal, j'te ken' bébé J'aime baiser, et tu deviens accro' grave Ouhlala, cool mama, j'te fais des dingueries sous l'drap-ga Cool, ça va, j'en fais pas trop Guiz' et MC Wacko Fout l'hala</t>
+          <t>Un d'ces soirs dans un d'ces piano bars On y va pleine barre, on pose pleine barre Un d'ces soirs dans un d'ces piano bars Avec mes loubards, y'a trop de cougars Un d'ces soirs dans un d'ces piano bars Ca sent la touze-par pour tous mes couches-tards Un d'ces soirs avec mes salopards Mes salopards du piano bar Toujours accompagné d'une meuf à mon bras Qui fait la pose Tagues moi ! à chaque caméra GHB plein les poches mais j'le partage pas Ne les trouves-tu pas déjà assez faciles comme ça ? Surkétaminé comme le Cheval de Troie Y'a une heure de queue aux toilettes Et tout le monde sait pourquoi Le club est inondé par l'argent des rents-pa Hey yo, grattes le mur et revends ça Ouais... Calvin Klein est dans la place Et... Même mes gars sûrs sucent pour une trace Dépôts dans la gorge, monde dégueulasse J'lui mets un 6 sur 10 puisqu'elle a l'cul flasque Et qu'elle est tellement plate, que c'en est immonde Vivement la première overdose ça va calmer tout l'monde Peu m'importe qu'elle soit rousse, brune, blonde J'veux pas d'une meuf qui grince tellement qu'elle a les dents qui tombent V'là l'zonard, viens pas test Guiz' flingue la Seine dans un piano bar Sale connard, j'ai des problèmes dans ma tête J'veux être refait dans ma tess', pas d'bobards Y'a un tas d'soldats, qui fond des abdos, des bracos Dans des va-gos de cas social Si t'es pas trop mal, j'te ken' bébé J'aime baiser, et tu deviens accro' grave Ouhlala, cool mama, j'te fais des dingueries sous l'drap-ga Cool, ça va, j'en fais pas trop Guiz' et MC Wacko Fout l'hala</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Villeneuve 92390 jusqu'à l'infini, YW D'où j'viens ça craint c'est la crise Crips et tout nous flinguent Mais c'est blindé d'artistes D'où viens-je, des îles et d'Afrique J'ai dealé la nuit pour plein d'raisons Comme le biff et la zik J'ai baffé la scène et niqué ma vie Vite j'ai appris que si tu veux me l'ôter Bah tu vas lâcher la tienne Amen t'as capté my men le raisonnement Quand tu grailles la gamelle tu vois que le réseau te manque Ça c'est pour Villeneuve ouais mon 3 9 0 Entouré d'immeuble non y'a pas d'bluff fréro Y'a pas d'keufs héros, que des scar-la qui les testent T'as un salam et un check si t'as tabassé le chef de poste J'reste propre, baise le proc Un joint, quelques binouzes et v'la des bêtes de strophes Un 16 pour la route, du sexe sous la douche Avec une tiss-mé qui me pep's pour l'amour Vas-y bloque sur mon blaze J'me présente en tant que Cayenne Mc pose tes phases moi je n'retiens que ton haleine Ils se disputerons le rap comme Palestine et Israël ZS en première place faut que les emcees disent Amen Qui va m'porter l'oeil dites le moi S'il faut prendre une place je reste une meuf mais je vise le roi Un salam aux mecs du business, un salam au sistas J'suis restée la même un joint de bonne weed et du Sizzla Éteins ton pilon sur ce sont c'est weed oui Moi j'arrive avec la bonne humeur comme ton départ en week Paris c'est magique zinc un peu comme ma zic Sur tes sons tu fais le chaud un coup d'épaule tu zigzagues J'ai fais mes premiers pas a DKR Sénégal Sachant que je viens de Dam ou même la zeb est légale Tu connais la frappe BARÇA ou REAL Moi j'suis juste une meuf honnête qui veut percer dans le rap You might also like J'ai un peu plus de fric j'ai beaucoup plus de stress Heureusement que j'ai mon public heureusement que j'ai la ZS J'ai quitté le quartier j'crois bien qu'il m'en a voulu Mais y'avais que moi et mon goulot tout seul quand j'avais tout bu C'est pas tes potes qui vont nourrir ta mère Ils vont s'ouvrir des portes au placard tu pourras même pas t'ouvrir ta fenêtre J'pense à Jefferson dans son trou loin du crew Mais chez nous y'a pas d'balances y'a que des pèse-personnes Aux familles de détenus je sais qu'ils vous avaient prévenus Ils voulaient pas la frite mais le vrai menu Evidemment faire du stup on est chiche Ils nous coupent en plein match mettent des pubs pour les riches J'suis comme Heineken sisi phénomène Génération bousillée de quoi dealer dans la semelle J'passe te check dans la semaine Reste à l'écoute si y'a blème on s'appelle mais perd pas tes couilles Nigga nigga what's up bienvenue chez les fous ZS ZS hardcore on sort tout droit du trou Gros j'veux check les disques de platine Pour du khalis si tu badines Y'en a qui bicravent la farine On est bien loin de l'époque des dentines YW hendek on prépare les attentats On est la où tu nous attends pas Yonea Willy bang bang pas d'pitié nous on rentre dans l'tas J'demande pardon à toutes les premières de ma classe Binoclardes boutonneuses un peu grosse Qu'un jour j'ai traité de thons La beauté n'est qu'une toute petite faveur que le ciel nous arrache avec le temps Pardon car l'intelligence est un don Avant qu'il s'perde braque s'pique ou ambitionne de devenir une te-tê Viens on explique à nos petits le risque de finir décapité Si la poudre nous rendait pas sourd J'demanderais à chacun de mes ennemis de distribuer des gilets pare-balles a chaque femme enceinte de mon quartier Mais penche toi par la fenêtre gros, drive-by en golf frère revolver pompes funèbres orphelin ....................................................... ............................................. ................................ ....................... ................ ......... .... ... .. . The rest coming soon</t>
+          <t>Villeneuve 92390 jusqu'à l'infini, YW D'où j'viens ça craint c'est la crise Crips et tout nous flinguent Mais c'est blindé d'artistes D'où viens-je, des îles et d'Afrique J'ai dealé la nuit pour plein d'raisons Comme le biff et la zik J'ai baffé la scène et niqué ma vie Vite j'ai appris que si tu veux me l'ôter Bah tu vas lâcher la tienne Amen t'as capté my men le raisonnement Quand tu grailles la gamelle tu vois que le réseau te manque Ça c'est pour Villeneuve ouais mon 3 9 0 Entouré d'immeuble non y'a pas d'bluff fréro Y'a pas d'keufs héros, que des scar-la qui les testent T'as un salam et un check si t'as tabassé le chef de poste J'reste propre, baise le proc Un joint, quelques binouzes et v'la des bêtes de strophes Un 16 pour la route, du sexe sous la douche Avec une tiss-mé qui me pep's pour l'amour Vas-y bloque sur mon blaze J'me présente en tant que Cayenne Mc pose tes phases moi je n'retiens que ton haleine Ils se disputerons le rap comme Palestine et Israël ZS en première place faut que les emcees disent Amen Qui va m'porter l'oeil dites le moi S'il faut prendre une place je reste une meuf mais je vise le roi Un salam aux mecs du business, un salam au sistas J'suis restée la même un joint de bonne weed et du Sizzla Éteins ton pilon sur ce sont c'est weed oui Moi j'arrive avec la bonne humeur comme ton départ en week Paris c'est magique zinc un peu comme ma zic Sur tes sons tu fais le chaud un coup d'épaule tu zigzagues J'ai fais mes premiers pas a DKR Sénégal Sachant que je viens de Dam ou même la zeb est légale Tu connais la frappe BARÇA ou REAL Moi j'suis juste une meuf honnête qui veut percer dans le rap J'ai un peu plus de fric j'ai beaucoup plus de stress Heureusement que j'ai mon public heureusement que j'ai la ZS J'ai quitté le quartier j'crois bien qu'il m'en a voulu Mais y'avais que moi et mon goulot tout seul quand j'avais tout bu C'est pas tes potes qui vont nourrir ta mère Ils vont s'ouvrir des portes au placard tu pourras même pas t'ouvrir ta fenêtre J'pense à Jefferson dans son trou loin du crew Mais chez nous y'a pas d'balances y'a que des pèse-personnes Aux familles de détenus je sais qu'ils vous avaient prévenus Ils voulaient pas la frite mais le vrai menu Evidemment faire du stup on est chiche Ils nous coupent en plein match mettent des pubs pour les riches J'suis comme Heineken sisi phénomène Génération bousillée de quoi dealer dans la semelle J'passe te check dans la semaine Reste à l'écoute si y'a blème on s'appelle mais perd pas tes couilles Nigga nigga what's up bienvenue chez les fous ZS ZS hardcore on sort tout droit du trou Gros j'veux check les disques de platine Pour du khalis si tu badines Y'en a qui bicravent la farine On est bien loin de l'époque des dentines YW hendek on prépare les attentats On est la où tu nous attends pas Yonea Willy bang bang pas d'pitié nous on rentre dans l'tas J'demande pardon à toutes les premières de ma classe Binoclardes boutonneuses un peu grosse Qu'un jour j'ai traité de thons La beauté n'est qu'une toute petite faveur que le ciel nous arrache avec le temps Pardon car l'intelligence est un don Avant qu'il s'perde braque s'pique ou ambitionne de devenir une te-tê Viens on explique à nos petits le risque de finir décapité Si la poudre nous rendait pas sourd J'demanderais à chacun de mes ennemis de distribuer des gilets pare-balles a chaque femme enceinte de mon quartier Mais penche toi par la fenêtre gros, drive-by en golf frère revolver pompes funèbres orphelin ....................................................... ............................................. ................................ ....................... ................ ......... .... ... .. . The rest coming soon</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Nique les p'tites zouzes du Neuvième qui se pper-sa à la friperie Pour se sentir différentes, les filles c'est chiant et c'est mystique J'peux pas faire la fête avec vous, j'traîne qu'avec des reurs-ti Ok, ton mec il est chou, mais c'est pas Pete Doherty Nique les gangs de pétasses qui traînent à Châtelet-les-Halles Elles ont toutes un gros pétard et c'est pour ça qu'elles font les balles Peu féminines, elles passent leur temps à tchiper P'tit leggings ou collants filés, hystériques Pour un rien elles veulent te gifler Avec leur fond d'teint orange et leurs cheveux falsh Quand elles sont dans les parages Tu les vois de loin comme mes pleins phares C'est dingue, elles ont trop d'copines Seul point commun avec Rihanna, igo, c'est sa photo d'profil Nique les connards d'l'école de commerce qui pillavent du pinard pas cher Sur les quais, toujours avachis, qui s'la ber-flam, à quoi ça sert ? Nique les banlieusards sur les Champs avec des sappes contrefaites Fausse montre, fausse sacoche, fausse ceinture, on se sait En mode Nabilla, chaussures pointues, défrisé Rentreront ce soir avec deux ou trois thons dans les filets Nique les bourges du Seizième, vous êtes habillés comme des sacs au Six Seven Tous pareils, j'distingue plus les hommes des femmes Nique les hipsters du Dixième, leur bonnet et leurs pompes en cuir d'autruche Ça bosse dans des boîtes de prod', sérieux, c'est des p'tites coqueluches Nique les Babs des Buttes-Chaumont, vous puez plus que vos cabots Sans inquiétude, pourrais-tu me gratter quand même des garrots ? Nique les skateurs du Troca', bande de ploucs, changez d'look Vous sentez l'bouc avec vos coupes de la pub Coca Tous vos délires et vos ppes-sa à la belle-pou Dans ma tête y'a que ça, j'vais que boire et je ken tout J'suis chaud dans l'biz et j'roule en ville, viens me soulever J'suis authentique, cousin, Y W Nique ton style, nique ta mode, nique la marque J'fais du fric, j'suis au top, j'vis la night Nique ton style, nique ta mode, nique la marque J'fais du fric, j'suis au top, j'vis la night You might also like Bah ouais Nique tous les moutons, tous les suiveurs Ceux qui portent des logos pour s'sentir exister Et nique les marques, Fk brands Wear attitude, mothafuckas Ouzo, brah1</t>
+          <t>Nique les p'tites zouzes du Neuvième qui se pper-sa à la friperie Pour se sentir différentes, les filles c'est chiant et c'est mystique J'peux pas faire la fête avec vous, j'traîne qu'avec des reurs-ti Ok, ton mec il est chou, mais c'est pas Pete Doherty Nique les gangs de pétasses qui traînent à Châtelet-les-Halles Elles ont toutes un gros pétard et c'est pour ça qu'elles font les balles Peu féminines, elles passent leur temps à tchiper P'tit leggings ou collants filés, hystériques Pour un rien elles veulent te gifler Avec leur fond d'teint orange et leurs cheveux falsh Quand elles sont dans les parages Tu les vois de loin comme mes pleins phares C'est dingue, elles ont trop d'copines Seul point commun avec Rihanna, igo, c'est sa photo d'profil Nique les connards d'l'école de commerce qui pillavent du pinard pas cher Sur les quais, toujours avachis, qui s'la ber-flam, à quoi ça sert ? Nique les banlieusards sur les Champs avec des sappes contrefaites Fausse montre, fausse sacoche, fausse ceinture, on se sait En mode Nabilla, chaussures pointues, défrisé Rentreront ce soir avec deux ou trois thons dans les filets Nique les bourges du Seizième, vous êtes habillés comme des sacs au Six Seven Tous pareils, j'distingue plus les hommes des femmes Nique les hipsters du Dixième, leur bonnet et leurs pompes en cuir d'autruche Ça bosse dans des boîtes de prod', sérieux, c'est des p'tites coqueluches Nique les Babs des Buttes-Chaumont, vous puez plus que vos cabots Sans inquiétude, pourrais-tu me gratter quand même des garrots ? Nique les skateurs du Troca', bande de ploucs, changez d'look Vous sentez l'bouc avec vos coupes de la pub Coca Tous vos délires et vos ppes-sa à la belle-pou Dans ma tête y'a que ça, j'vais que boire et je ken tout J'suis chaud dans l'biz et j'roule en ville, viens me soulever J'suis authentique, cousin, Y W Nique ton style, nique ta mode, nique la marque J'fais du fric, j'suis au top, j'vis la night Nique ton style, nique ta mode, nique la marque J'fais du fric, j'suis au top, j'vis la night Bah ouais Nique tous les moutons, tous les suiveurs Ceux qui portent des logos pour s'sentir exister Et nique les marques, Fk brands Wear attitude, mothafuckas Ouzo, brah1</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>C'est juste une question d'cran, question d'sincérité Juste le temps d'apprécier les battements, la postérité M'attend et j'suis loin d'vos exploits J'deploie mes ailes, j'excelle, j'fais quoi, c'est quoi ces extraits, nan ? C'est quoi ces zèles, c'est quoi ces excréments ? Jette moi tout ça à la benne J'reste le même terroriste, j'enchaîne Oussama à Laden Je reste extrêmement rusé, extrêmement fascinant Extrêmement usé de mes ex gênantes Affinant mon éloquence, j't'expédie, incident éclos Ainsi, dans les prés, les moutons restent assis dans l'enclos Mon arrogance est naturelle, j'sirote un mix de six rhums Ton flow c'est d'l'Actimel, le mien, une boisson pour surhomme Pour les vrais... J'aimerais plonger dans un bassin de sirènes ouais... Mais y'a qu'le ciment qui nous tourne autour et l'cash qui règnent J'attends pas demain, j'juge pas la XXX alarme, sirène N'me feront rien, je reste loin des sous, j'ai l'âme sereine J'viens modeler la punchline, les mots me prennent la feuille J'ai beau donner d'la gueule, man, je monterai pas seul Il faut que j'aide la seule femme qui m'a donné la vie Et puis faire croquer ma team pour ne pas qu'ils mènent la thug life J'ai beau faire l'artiste dans un terreau réaliste De ceux qu'le Soleil abîme mais c'est faux, je n'ai pas l'sunshine Frérot, réagis, sache que l'époque est tragique Parce que des cokés racistes gardent leur réseaux élastiques Parlent de bédo et trafic, mentent sciemment aux gens Entièrement faux, j'irai décoller l'affiche Ils sont dépossédés, obsédés, votent que l'école est laïque Ils ont décoré des gorets et promettent d'effacer l'Afrique Ça kicke en cercle, fout les politiques en stress J'vois la police qui s'entête à faire qu'on s'agite en scred Merde, j'vomis c'qui m'embête, j'reste poli si on m'respecte Pour les filles en dèch, j'reste joli sinon c'est dead Au lit, t'y prends plaisir, profite si ton désir Égoïste ne peut fléchir aux folies qui t'emmènent, yeah ! You might also like Je part de l'avant, regarde l'orage menaçant Me garde de rester, bail et taff retardent le cadran Je parle, le temps passe Et maintenant les aiguilles ont dû finir Le travail de la cellule creusant le sillon du vinyle Et, le cul loin des ambiances boites de nuit Je boite, je fuis, je fume, j'ai de quoi voir venir Je scrute, j'observe les environs, les tapes locales Et trop d'mes proches qui s'avèrent être, en fait, des bêtes sauvages Et ça transpire, ça gueule On a pas déjoué l'naufrage, man On squatte les bouées d'sauvetage pour contenir la peur Et y'a pas qu'dans l'foot que le maillot d'la France tire la gueule Les wacks cherchent tous le meilleur moyen d's'agrandir la teub On fait ça pour le kiff, personne nous promet Qu'on touchera des gros chèques Mais bon, tu peux remballer tes projets d'sons pour l'année prochaine J'ai jamais dit qu'j'allais vendre des millions d'disques dans l'heure Mais faut t'rendre à l'évidence, les p'tits ont pris d'l'ampleur Encore un énième texte où j'vais m'plaindre alors que j'ai l'air guez L'élite nous a mis une vraie merguez Mais elle-même sait, ce qu'elle fait de très malhonnête Excelle dans l'excès et puis te fait mal aux fesses Il suffit qu't'entendes un tel 16, pour qu'les mercenaires s'taisent Et qu'les mecs me versent de l'espèce que j'intercepte en Mercedes Les MC's désespèrent Parce qu'on m'regarde autant qu'la série des Experts Mais j'laisse faire ceux qui espère me faire taire J'reste fair-play et j'sais qu'ils finiront tous par terre J'suis un jeune pion parmi les loups et j'adore Goûter des femmes, en me demandant où est la bonne Lyrical, cocktail molotov, où est l'alcool ? Bande de brebis, il faut entendre c'que je dis Je n'vais pas vendre de sque-di, nan Je vais louer l'album Sango passe un message... J'enlève le cran d'arrêt, on vient pour empaler du grand dadais Si j'atteins 30 balais ce sera en kickant jusqu'au grand palais J'ai appris l'art de l'écriture comme on apprend Thalès Moi j'suis à 100 à l'heure et les MC's sont à 60, à l'aise Le flow t'a brûlé à l'acide ou à la soudanaise On frappe la fontanelle quand ça rappe J'vais pas baratiner, te dire que les infos ça m'aide Y'a trop de mouches à merde, trop d'alarmes, trop de fausses alertes Donc si t'es naze, pourtant fier de l'être, j'pèse ton cervelet Pour moi, tu n'existes pas plus que de la pierre de lait Si t'as pas d'cran, recycle-toi dans l'art de faire de l'air Étouffés par le crack, on nage en plein dans l'atmosphère de l'herbe La bombe est prête et pour l'allumer, ton cul sert de mèche Blanc et frais comme une avalanche de neige alors qu'tu sers les fesses Trop d'rimeurs ont pour ambition d'finir au Père Lachaise J'vide mon verre sec, j'les encule avec une paire de 16 Poétiquement incorrect, si j'étais coupeur de tête Je rajouterais, volontiers, celle du président à ma collèc' Du tac au tac, une claque au mic les fachos parlent d'une ratonnade Faut qu'j'taffe mon art avant que j'cane et qu'on crie paix à mon âme C'est Nino Ice, pas Nino Brown J'rappe pour réveiller les consciences, pas pour qu'les minots s'branlent Les yeux rouges comme certaines rues de Hollande Quand les thunes te manquent, chez nous on t'éduque à la dure On t'assure un coup de ceinture, si jamais tu t'lamentes Pour ta 'tasse, un peu de mon ADN blanc sur la langue Frangin, pour toi, un thé à la menthe, tcheck-en une Au lieu de t'plaindre sur ta situation, cherche-en une Pas de minima fiscal, on veut la paix la vie XXX Et qu'on s'envole pour les terre d'Africa, moi contre toi C'est comme l'euro versus le dollar Si j'meurs demain XXX dans ma mémoire Comme Nate Dogg dans lau-delà J'ai des tonnes de rimes à refourguer mais pour qu'y ait Pas d'mal-entendus, j'demande pas d'bourses et J'donne tout l'amour qu'j'ai pour ces Claps, que des grosses caisses frappent Amoureux des Kick fat même si cela n'm'enrichit ap' J'reste, un adepte d'la méthode Zuckerberg Un jour ou l'autre on m'supplira peut-être de vendre cette merde Un flow de rimes acides et acerbes L'encre gicle et j'accède à l'état d'transe, c'est ça qu'j'aime Des tas d'blèmes, aujourd'hui, c'est pas l'thème On est venus à la cool donc, c'est du flow qu'on parsème Pour aller au-delà des limites, toujours sur un fil Faudra la foi pour continuer avec un fils ou une fille J'file droit devant et on verra plus tard J'agis ainsi depuis tant d'temps, c'est devenu ma façon d'voir Clair, dans toute cette merde, la peur n'apporte rien à l'homme Et n t'empêche pas de couler quand la fuite dégomme Tu peux ap' me la mettre, passe de la fraîche Au black de la tess, gênant comme une blague de Lafesse Pendant qu'j'parle de la dèch, les autres tapent de la cess Draguent de la shneck, comprends qu'c'est les wacks que j'agresse Man, je t'amène du H, de la bière Parce que ça m'aide à oublier qu'un jour ou l'autre les shtars te la mettent C'est du sky que j'achète quand j'veux péter la boite Traîner la night et baiser la BAC J'ai blessé ma femme et les autres avec qui j'la trompe Ma vie, j'l'affronte quand j'taffe ou quand j'pisse la skunk et alors? J'fais la déprime, parler à la feuille J'veux palper pour zapper qu'on m'a craché à la gueule Et puis merde, j'veux rien oublier, j'ai besoin d'roupiller Ca m'fatigue d'être un simple ouvrier, destiné A m'éteindre ou briller, me plaindre ou prier J'ai fait l'choix entre feindre ou plier J'me lance à l'assaut tel un malade mental capable de tout Chaque fois j'me fous de c'qu'on m'dis J'en fais qu'à ma tête comme un cheval de course J'm'essoufle pas, j'prospère et promets, de prendre le crom' et choquer T'as du cran, mec, d'oser vouloir me détrôner A force d'essayer d'gommer mes défauts, ça finit par m'freiner Laisser un héritage est délicat, la flemme me dévisage dès qu'j'ai des Impératifs, j'fais qu'éviter, j'fais l'autruche, distrait mais robuste J'agis tel un sédatif à la vitesse des obus Vite fait, j'me place, excuse mais tu perds de quelques points T'es pris de baisse de tens', j'atteins rapidement ma vitesse de pointe T'as besoin d'divers soins après les coups d'mon couplets, écoute J'fais mouche et tout, tu trouves qu'c'est cool, j'm'en doutais Tu fuis direct, tu suis la foule quand tout pètes, autour d'toi J't'avais dit de n'jamais caresser la bête à rebrousse-poil C'est fou c'que les gens et les temps changent On transplante le Rap, pour y faire des sons chés-bran Sans penchants? soirées dansantes Tu penses t'en tirer, nan, nan, nan. Mon verbe est tranchant Jencense mes prédécesseurs sans m'vendre et surtout sans mésentente Franchement, pense aux conséquences car j'vois tes jambes trembler T'as du cran si tu prends les devants, tu flambes mais pense au plan B Yeah ! En un mot, moi, c'est Kawa Mate, c'est du XXX qu'on casse Je représente XXX et XXX City Une taff' de spliff me dit que j'ai pas l'temps Donc je pavane XXX comme devant un 12 de pur d'afghan A cran dans mon quotidien J'assure mes arrières sur un salaire de chien qui m'sert à rien Je tiens l'coup avant que mon cou s'brise sur un pare-brise Pour l'instant, j'vis sur les ASSEDIC comme beaucoup d'monde Cours après l'oseille si tel est ton but Moi, j'taffe mon lyrical et ma life au 7.7, XXX et XXX On dit quoi ? La trentaine Mais j'trempe toujours dans la même passion avec la même dégaine Garcon 23 piges que j'officie, sauf qu'ici Y'a partout des flics vils-ci donc fais pas trop le difficile Ouais, l'alcool dans ton sang se distille, ils sont fous, se disent-ils Et les miens, bravent les éléments ou en pensant ce qu'ils disent Vis de p'tit XXX pour récolter de p'tites mises Quand les ressources samenuisent J'suis du genre à claquer mon dernier biff sur Paname City Pour serrer les petites miss, et du genre à taxer ton dernier spliff Pour canaliser mon vice, j't'emmène en ballade vitesse Suffisamment pensif pour écouter c'que j'fais J'roule pour ma mif et n'ai pas de demi-frère J'connais l'effet du vice dans ta gauche hémisphère Ouais, continue comme aç et, toi et tes frères Ce sera gauche-droite mystère, t'es crispé, t'as perdu ta prise d'air Tristesse, tu te feras fister devant des condés qui s'taisent Allez, tu peux te rhabiller, ceci n'était qu'un p'tit texte Moi, j'aime pas trop les gens, j'suis la renaissance De l'essence, de l'aisance et depuis l'adolescence Je n'crois plus à vos légendes, nan Franchement, enclenche le lancement des pansements, tu m'entends ? J'suis dans une allée sombre, à l'aise, loin de ma maison Taré, j'fonce, mamen, j'n'ai plus la raison En plus il parait qu'on, y trouve des MC's qui n'font pas les cons Et même que ces mêmes gueux, taffent des sons J'les mate des toits, j'les toise, les croise Ils m'disent Alph', t'es là. Ouais, ouais, ouais, notre squad est bon Ils sont trois blanc, black, beur et rappent chacun 104 mesures Bref, je fais cracher les pompes Un million d'lyrics d'avance, le jeu d'la rime il a changé C'est bizarre, mais ici les malades finissent à la santé Pas d'messes basses, j'rappe comme Frank White Debré MC Alpha Wann, yo, dirige l'assemblée C'est une question d'cran, pas juste une question d'temps Pour l'instant, j'fais marrer les gens, pas sûr que j'plaise longtemps Allez, je respire, j'espère, j'laisse faire, j'esquive J'attends que les mecs s'taisent et, tranquille, je leur explique OK, quand j'rappe, tais-toi j'exerce mes lois J'emmerde lÉtat, depuis mon QG de Perpète-lès-Oies Et tu sais quoi ? Ce soir, j'ai bien envie d'partir en live Qu'on m'fasse un p'tit massage avec du sky 10 ans d'âge Et puis qu'on bouge, faire les barges dans une ville de bourges Si c'est la tienne, file avant qu'le flow de mon équipe de 12 Te transperce, j'marque l'essai, c'est du son d'Marne-et-Seine Pas d'stress car j'excelle dans l'art de pondre des pages de 16 Putain d'connexion, tu dois reconnaître qu'on pèse Même si on est cons, ajoute nous dans ta collection Yo, les gars ! Ils savent pas qu'on les connaît pas Ils peuvent pas contrôler ça, on a déjà creusé trop d'écart J'm'incruste dans toute sorte d'attroupement pour poser mes lyrics Sentir la douleur pendant l'accouchement et partager un trip Chaque mot compte, chaque membre de mon équipe Chaque énergie cosmique, les ondes s'excitent, chacun sa dynamique Tout ça phase, tous ça dynamite Son français, sa rhétorique, ses mimiques bons pour faire un hit Genre t'aimes ça, alors vas-y XXX Sans savoir qui est qui, le Hip-Hop file On m'demande si j'ai l'cran, j'réponds qu'jprends l'temps Tellement tentant que j'me mèle au boucan genre Boot Camp? J'kiffe le son depuis un bout d'temps J'en bouffe tant, j'pose mon Rap en swinguant</t>
+          <t>C'est juste une question d'cran, question d'sincérité Juste le temps d'apprécier les battements, la postérité M'attend et j'suis loin d'vos exploits J'deploie mes ailes, j'excelle, j'fais quoi, c'est quoi ces extraits, nan ? C'est quoi ces zèles, c'est quoi ces excréments ? Jette moi tout ça à la benne J'reste le même terroriste, j'enchaîne Oussama à Laden Je reste extrêmement rusé, extrêmement fascinant Extrêmement usé de mes ex gênantes Affinant mon éloquence, j't'expédie, incident éclos Ainsi, dans les prés, les moutons restent assis dans l'enclos Mon arrogance est naturelle, j'sirote un mix de six rhums Ton flow c'est d'l'Actimel, le mien, une boisson pour surhomme Pour les vrais... J'aimerais plonger dans un bassin de sirènes ouais... Mais y'a qu'le ciment qui nous tourne autour et l'cash qui règnent J'attends pas demain, j'juge pas la XXX alarme, sirène N'me feront rien, je reste loin des sous, j'ai l'âme sereine J'viens modeler la punchline, les mots me prennent la feuille J'ai beau donner d'la gueule, man, je monterai pas seul Il faut que j'aide la seule femme qui m'a donné la vie Et puis faire croquer ma team pour ne pas qu'ils mènent la thug life J'ai beau faire l'artiste dans un terreau réaliste De ceux qu'le Soleil abîme mais c'est faux, je n'ai pas l'sunshine Frérot, réagis, sache que l'époque est tragique Parce que des cokés racistes gardent leur réseaux élastiques Parlent de bédo et trafic, mentent sciemment aux gens Entièrement faux, j'irai décoller l'affiche Ils sont dépossédés, obsédés, votent que l'école est laïque Ils ont décoré des gorets et promettent d'effacer l'Afrique Ça kicke en cercle, fout les politiques en stress J'vois la police qui s'entête à faire qu'on s'agite en scred Merde, j'vomis c'qui m'embête, j'reste poli si on m'respecte Pour les filles en dèch, j'reste joli sinon c'est dead Au lit, t'y prends plaisir, profite si ton désir Égoïste ne peut fléchir aux folies qui t'emmènent, yeah ! Je part de l'avant, regarde l'orage menaçant Me garde de rester, bail et taff retardent le cadran Je parle, le temps passe Et maintenant les aiguilles ont dû finir Le travail de la cellule creusant le sillon du vinyle Et, le cul loin des ambiances boites de nuit Je boite, je fuis, je fume, j'ai de quoi voir venir Je scrute, j'observe les environs, les tapes locales Et trop d'mes proches qui s'avèrent être, en fait, des bêtes sauvages Et ça transpire, ça gueule On a pas déjoué l'naufrage, man On squatte les bouées d'sauvetage pour contenir la peur Et y'a pas qu'dans l'foot que le maillot d'la France tire la gueule Les wacks cherchent tous le meilleur moyen d's'agrandir la teub On fait ça pour le kiff, personne nous promet Qu'on touchera des gros chèques Mais bon, tu peux remballer tes projets d'sons pour l'année prochaine J'ai jamais dit qu'j'allais vendre des millions d'disques dans l'heure Mais faut t'rendre à l'évidence, les p'tits ont pris d'l'ampleur Encore un énième texte où j'vais m'plaindre alors que j'ai l'air guez L'élite nous a mis une vraie merguez Mais elle-même sait, ce qu'elle fait de très malhonnête Excelle dans l'excès et puis te fait mal aux fesses Il suffit qu't'entendes un tel 16, pour qu'les mercenaires s'taisent Et qu'les mecs me versent de l'espèce que j'intercepte en Mercedes Les MC's désespèrent Parce qu'on m'regarde autant qu'la série des Experts Mais j'laisse faire ceux qui espère me faire taire J'reste fair-play et j'sais qu'ils finiront tous par terre J'suis un jeune pion parmi les loups et j'adore Goûter des femmes, en me demandant où est la bonne Lyrical, cocktail molotov, où est l'alcool ? Bande de brebis, il faut entendre c'que je dis Je n'vais pas vendre de sque-di, nan Je vais louer l'album Sango passe un message... J'enlève le cran d'arrêt, on vient pour empaler du grand dadais Si j'atteins 30 balais ce sera en kickant jusqu'au grand palais J'ai appris l'art de l'écriture comme on apprend Thalès Moi j'suis à 100 à l'heure et les MC's sont à 60, à l'aise Le flow t'a brûlé à l'acide ou à la soudanaise On frappe la fontanelle quand ça rappe J'vais pas baratiner, te dire que les infos ça m'aide Y'a trop de mouches à merde, trop d'alarmes, trop de fausses alertes Donc si t'es naze, pourtant fier de l'être, j'pèse ton cervelet Pour moi, tu n'existes pas plus que de la pierre de lait Si t'as pas d'cran, recycle-toi dans l'art de faire de l'air Étouffés par le crack, on nage en plein dans l'atmosphère de l'herbe La bombe est prête et pour l'allumer, ton cul sert de mèche Blanc et frais comme une avalanche de neige alors qu'tu sers les fesses Trop d'rimeurs ont pour ambition d'finir au Père Lachaise J'vide mon verre sec, j'les encule avec une paire de 16 Poétiquement incorrect, si j'étais coupeur de tête Je rajouterais, volontiers, celle du président à ma collèc' Du tac au tac, une claque au mic les fachos parlent d'une ratonnade Faut qu'j'taffe mon art avant que j'cane et qu'on crie paix à mon âme C'est Nino Ice, pas Nino Brown J'rappe pour réveiller les consciences, pas pour qu'les minots s'branlent Les yeux rouges comme certaines rues de Hollande Quand les thunes te manquent, chez nous on t'éduque à la dure On t'assure un coup de ceinture, si jamais tu t'lamentes Pour ta 'tasse, un peu de mon ADN blanc sur la langue Frangin, pour toi, un thé à la menthe, tcheck-en une Au lieu de t'plaindre sur ta situation, cherche-en une Pas de minima fiscal, on veut la paix la vie XXX Et qu'on s'envole pour les terre d'Africa, moi contre toi C'est comme l'euro versus le dollar Si j'meurs demain XXX dans ma mémoire Comme Nate Dogg dans lau-delà J'ai des tonnes de rimes à refourguer mais pour qu'y ait Pas d'mal-entendus, j'demande pas d'bourses et J'donne tout l'amour qu'j'ai pour ces Claps, que des grosses caisses frappent Amoureux des Kick fat même si cela n'm'enrichit ap' J'reste, un adepte d'la méthode Zuckerberg Un jour ou l'autre on m'supplira peut-être de vendre cette merde Un flow de rimes acides et acerbes L'encre gicle et j'accède à l'état d'transe, c'est ça qu'j'aime Des tas d'blèmes, aujourd'hui, c'est pas l'thème On est venus à la cool donc, c'est du flow qu'on parsème Pour aller au-delà des limites, toujours sur un fil Faudra la foi pour continuer avec un fils ou une fille J'file droit devant et on verra plus tard J'agis ainsi depuis tant d'temps, c'est devenu ma façon d'voir Clair, dans toute cette merde, la peur n'apporte rien à l'homme Et n t'empêche pas de couler quand la fuite dégomme Tu peux ap' me la mettre, passe de la fraîche Au black de la tess, gênant comme une blague de Lafesse Pendant qu'j'parle de la dèch, les autres tapent de la cess Draguent de la shneck, comprends qu'c'est les wacks que j'agresse Man, je t'amène du H, de la bière Parce que ça m'aide à oublier qu'un jour ou l'autre les shtars te la mettent C'est du sky que j'achète quand j'veux péter la boite Traîner la night et baiser la BAC J'ai blessé ma femme et les autres avec qui j'la trompe Ma vie, j'l'affronte quand j'taffe ou quand j'pisse la skunk et alors? J'fais la déprime, parler à la feuille J'veux palper pour zapper qu'on m'a craché à la gueule Et puis merde, j'veux rien oublier, j'ai besoin d'roupiller Ca m'fatigue d'être un simple ouvrier, destiné A m'éteindre ou briller, me plaindre ou prier J'ai fait l'choix entre feindre ou plier J'me lance à l'assaut tel un malade mental capable de tout Chaque fois j'me fous de c'qu'on m'dis J'en fais qu'à ma tête comme un cheval de course J'm'essoufle pas, j'prospère et promets, de prendre le crom' et choquer T'as du cran, mec, d'oser vouloir me détrôner A force d'essayer d'gommer mes défauts, ça finit par m'freiner Laisser un héritage est délicat, la flemme me dévisage dès qu'j'ai des Impératifs, j'fais qu'éviter, j'fais l'autruche, distrait mais robuste J'agis tel un sédatif à la vitesse des obus Vite fait, j'me place, excuse mais tu perds de quelques points T'es pris de baisse de tens', j'atteins rapidement ma vitesse de pointe T'as besoin d'divers soins après les coups d'mon couplets, écoute J'fais mouche et tout, tu trouves qu'c'est cool, j'm'en doutais Tu fuis direct, tu suis la foule quand tout pètes, autour d'toi J't'avais dit de n'jamais caresser la bête à rebrousse-poil C'est fou c'que les gens et les temps changent On transplante le Rap, pour y faire des sons chés-bran Sans penchants? soirées dansantes Tu penses t'en tirer, nan, nan, nan. Mon verbe est tranchant Jencense mes prédécesseurs sans m'vendre et surtout sans mésentente Franchement, pense aux conséquences car j'vois tes jambes trembler T'as du cran si tu prends les devants, tu flambes mais pense au plan B Yeah ! En un mot, moi, c'est Kawa Mate, c'est du XXX qu'on casse Je représente XXX et XXX City Une taff' de spliff me dit que j'ai pas l'temps Donc je pavane XXX comme devant un 12 de pur d'afghan A cran dans mon quotidien J'assure mes arrières sur un salaire de chien qui m'sert à rien Je tiens l'coup avant que mon cou s'brise sur un pare-brise Pour l'instant, j'vis sur les ASSEDIC comme beaucoup d'monde Cours après l'oseille si tel est ton but Moi, j'taffe mon lyrical et ma life au 7.7, XXX et XXX On dit quoi ? La trentaine Mais j'trempe toujours dans la même passion avec la même dégaine Garcon 23 piges que j'officie, sauf qu'ici Y'a partout des flics vils-ci donc fais pas trop le difficile Ouais, l'alcool dans ton sang se distille, ils sont fous, se disent-ils Et les miens, bravent les éléments ou en pensant ce qu'ils disent Vis de p'tit XXX pour récolter de p'tites mises Quand les ressources samenuisent J'suis du genre à claquer mon dernier biff sur Paname City Pour serrer les petites miss, et du genre à taxer ton dernier spliff Pour canaliser mon vice, j't'emmène en ballade vitesse Suffisamment pensif pour écouter c'que j'fais J'roule pour ma mif et n'ai pas de demi-frère J'connais l'effet du vice dans ta gauche hémisphère Ouais, continue comme aç et, toi et tes frères Ce sera gauche-droite mystère, t'es crispé, t'as perdu ta prise d'air Tristesse, tu te feras fister devant des condés qui s'taisent Allez, tu peux te rhabiller, ceci n'était qu'un p'tit texte Moi, j'aime pas trop les gens, j'suis la renaissance De l'essence, de l'aisance et depuis l'adolescence Je n'crois plus à vos légendes, nan Franchement, enclenche le lancement des pansements, tu m'entends ? J'suis dans une allée sombre, à l'aise, loin de ma maison Taré, j'fonce, mamen, j'n'ai plus la raison En plus il parait qu'on, y trouve des MC's qui n'font pas les cons Et même que ces mêmes gueux, taffent des sons J'les mate des toits, j'les toise, les croise Ils m'disent Alph', t'es là. Ouais, ouais, ouais, notre squad est bon Ils sont trois blanc, black, beur et rappent chacun 104 mesures Bref, je fais cracher les pompes Un million d'lyrics d'avance, le jeu d'la rime il a changé C'est bizarre, mais ici les malades finissent à la santé Pas d'messes basses, j'rappe comme Frank White Debré MC Alpha Wann, yo, dirige l'assemblée C'est une question d'cran, pas juste une question d'temps Pour l'instant, j'fais marrer les gens, pas sûr que j'plaise longtemps Allez, je respire, j'espère, j'laisse faire, j'esquive J'attends que les mecs s'taisent et, tranquille, je leur explique OK, quand j'rappe, tais-toi j'exerce mes lois J'emmerde lÉtat, depuis mon QG de Perpète-lès-Oies Et tu sais quoi ? Ce soir, j'ai bien envie d'partir en live Qu'on m'fasse un p'tit massage avec du sky 10 ans d'âge Et puis qu'on bouge, faire les barges dans une ville de bourges Si c'est la tienne, file avant qu'le flow de mon équipe de 12 Te transperce, j'marque l'essai, c'est du son d'Marne-et-Seine Pas d'stress car j'excelle dans l'art de pondre des pages de 16 Putain d'connexion, tu dois reconnaître qu'on pèse Même si on est cons, ajoute nous dans ta collection Yo, les gars ! Ils savent pas qu'on les connaît pas Ils peuvent pas contrôler ça, on a déjà creusé trop d'écart J'm'incruste dans toute sorte d'attroupement pour poser mes lyrics Sentir la douleur pendant l'accouchement et partager un trip Chaque mot compte, chaque membre de mon équipe Chaque énergie cosmique, les ondes s'excitent, chacun sa dynamique Tout ça phase, tous ça dynamite Son français, sa rhétorique, ses mimiques bons pour faire un hit Genre t'aimes ça, alors vas-y XXX Sans savoir qui est qui, le Hip-Hop file On m'demande si j'ai l'cran, j'réponds qu'jprends l'temps Tellement tentant que j'me mèle au boucan genre Boot Camp? J'kiffe le son depuis un bout d'temps J'en bouffe tant, j'pose mon Rap en swinguant</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Yo Guizi Ouzou Yonea Willy, Willy Yonea J'me revois en 2005 avec un spliff dans le train Paire de Requin, jai ma sacoche et puis mon 6.35 Tu veux m'la mettre ? Allez, hop nique ta mère Le shit, la cess, le deal, la guerre Depuis que j'suis bébé, igo, la street mallaite J'effrite ma verte et nique sa mère à monde-tout le C'est comme ça que j'lui parle, c'est comme ça qu'le monde tourne Fonce-dé dans ma ve-ca, ouais j'attendais mon tour Les p'tits ont du Versace, on navait même pas les contours Bah ouais, jm'en bats la race Et jfais tout à l'arrache J't'envois du Guizi Montana, si tu veux jouer à la ouache Jrêvais d'une autre vie, j'étais qu'un p'tit dealer Attends, mets un cut, j'crois qu'y a mon fils qui pleure On m'a arraché le cur On m'a arraché les tripes Aujourd'hui ils demandent des sous C'est de l'amnésie sélective J'ai fait l'amour avec la mort Avancé tout seul dans le noir Quand ils ont recouvert son corps Et que j'me suis mis à boire You might also like La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? J'foutais la merde à la mort avec les p'tits d'mon foyer Aujourd'hui j'vais à la banque, j'retire le prix de ton loyer Mais j'suis dans le quartier, j'vais craquer La dave-bé, le papier Les tard-pé, la police et les putes Mon Dieu, c'qu'on a pas fait Les schlasser, les braquer Pour voir des jambes écartées, il faut filer des tunes Mais c'est quoi ce truc de fou ? On se ballade dans les trains On se bagarre comme des chiens même si vous êtes plus que nous On m'a dégainé un shlass, moi j'ai dégainé un flingue Et j'l'ai braqué sur ma tête, pour leur montrer que j'étais dingue Un kilo, deux kilo, trois kilo, j'fais les billets Quatre kilo, cinq kilo, six kilo, ils m'ont grillé C'est l'histoire de ma vie Je tombe et j'me relève J'ai chassé comme une tortue, j'suis rentré avec deux lièvres Tu connais pas mon parcour, j'connais la misère par cur J'ai grandi avec dix frères J'ai grandi avec trois surs J'pense à mon frère, jeter d'la terre sur son cercueil Ils disent que c'est la vie Moi j'crois plutôt qu'on nous jette l'il J'fais des cauchemars de fou Épuisé, j'en ai marre de tout J'ai les nerfs à vif, j't'encule ta mère si tu parles de nous La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Y'a les keufs de partout, gros ça sent le roussi Quand j'te parle de la rue, c'est cru comme un sushi J'en connais des voyous, dis-moi c'est quoi le soucis ? J'suis pas antisémite, j'ai commandé Uzi Y'a les keufs de partout, gros ça sent le roussi Quand j'te parle de la rue, c'est cru comme un sushi J'en connais des voyous, dis-moi c'est quoi le soucis ? J'suis pas antisémite, j'ai commandé Uzi La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? YW Fuck tous les tes-traî Pour tous les gangsters jusqu'à la mort, fuck</t>
+          <t>Yo Guizi Ouzou Yonea Willy, Willy Yonea J'me revois en 2005 avec un spliff dans le train Paire de Requin, jai ma sacoche et puis mon 6.35 Tu veux m'la mettre ? Allez, hop nique ta mère Le shit, la cess, le deal, la guerre Depuis que j'suis bébé, igo, la street mallaite J'effrite ma verte et nique sa mère à monde-tout le C'est comme ça que j'lui parle, c'est comme ça qu'le monde tourne Fonce-dé dans ma ve-ca, ouais j'attendais mon tour Les p'tits ont du Versace, on navait même pas les contours Bah ouais, jm'en bats la race Et jfais tout à l'arrache J't'envois du Guizi Montana, si tu veux jouer à la ouache Jrêvais d'une autre vie, j'étais qu'un p'tit dealer Attends, mets un cut, j'crois qu'y a mon fils qui pleure On m'a arraché le cur On m'a arraché les tripes Aujourd'hui ils demandent des sous C'est de l'amnésie sélective J'ai fait l'amour avec la mort Avancé tout seul dans le noir Quand ils ont recouvert son corps Et que j'me suis mis à boire La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? J'foutais la merde à la mort avec les p'tits d'mon foyer Aujourd'hui j'vais à la banque, j'retire le prix de ton loyer Mais j'suis dans le quartier, j'vais craquer La dave-bé, le papier Les tard-pé, la police et les putes Mon Dieu, c'qu'on a pas fait Les schlasser, les braquer Pour voir des jambes écartées, il faut filer des tunes Mais c'est quoi ce truc de fou ? On se ballade dans les trains On se bagarre comme des chiens même si vous êtes plus que nous On m'a dégainé un shlass, moi j'ai dégainé un flingue Et j'l'ai braqué sur ma tête, pour leur montrer que j'étais dingue Un kilo, deux kilo, trois kilo, j'fais les billets Quatre kilo, cinq kilo, six kilo, ils m'ont grillé C'est l'histoire de ma vie Je tombe et j'me relève J'ai chassé comme une tortue, j'suis rentré avec deux lièvres Tu connais pas mon parcour, j'connais la misère par cur J'ai grandi avec dix frères J'ai grandi avec trois surs J'pense à mon frère, jeter d'la terre sur son cercueil Ils disent que c'est la vie Moi j'crois plutôt qu'on nous jette l'il J'fais des cauchemars de fou Épuisé, j'en ai marre de tout J'ai les nerfs à vif, j't'encule ta mère si tu parles de nous La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Y'a les keufs de partout, gros ça sent le roussi Quand j'te parle de la rue, c'est cru comme un sushi J'en connais des voyous, dis-moi c'est quoi le soucis ? J'suis pas antisémite, j'ai commandé Uzi Y'a les keufs de partout, gros ça sent le roussi Quand j'te parle de la rue, c'est cru comme un sushi J'en connais des voyous, dis-moi c'est quoi le soucis ? J'suis pas antisémite, j'ai commandé Uzi La drogue, ça bute Les putes, les stup' Les flutes, et écume les coups de feu La rue te rend acteur Et là, t'es dans un double jeu Mais es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? Es-tu un ami ou un ennemi ? YW Fuck tous les tes-traî Pour tous les gangsters jusqu'à la mort, fuck</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Pourquoi les innocents sont-ils punis ? 3, 2, 1, devinez qui revient ? Sierra Tango Oscar Mike Yankee A-m-e-r est la secte maudite Comme le Predator, je ne sors que la nuit... J'en veux pas de leurs cartes de vote c'est pas la peine Rendez moi mes potes ça fera l'affaire Quand on va dire stop ce sera la Haine On va redoubler d'effort pour Adama et sa mère On a compté les décès, fils de pute de flics Qu'est-ce tu veux palper, tu vois bien mon sac de sport Tu sors le tard-pé et puis tu me palpes fort Mon négro t'inquiète pas on foutra le halla dehors Ils ont rabaissé les quartiers Tirés sur mes fréros Donnez nous les papiers On reprend tout à zéros Igo je demande jusquà Lyon à tous mes pélos Relevez la tête c'est eux les pédales, c'est nous les vélos Bam bam bam baaam Rien qui te nique la bac, rien qui te nique ta race Rien qu'il mente à ton mère, à ton père, à ta soeur, à ton frère zerma crise cardiaque On a fait des sales choses, on a tiré pour la moula Et c'est vrai qu'on avait pas de cause Mais on a pas tué Zyed et Bouna La daronne avait de l'arthrose, elle se demande ce qu'elle fout là Elle a ramoné vos chiottes, et on lui casse les couilles pour un foulard You might also like Mais qui sera le prochain x5 Souleymane, Fofana, Mamadou Dio Zyed et Bouna, J'devrais sacrifier un poulet Et deux trois collègues dans la foulée Contrôles abusifs toute la journée Vos coups de matraques nous rappellent les coups de fouets S'il y a manif je serais mouillé, j'finirais écroué Et au pire ils vont me douiller Marre de voir tout ce sang couler Les fréros sont cagoulés Dégoûtés, souvent bourrés Si j'baise la police comme Saïd, ils vont me fumer vomme Vince Mon frère va me venger comme Hubert C'est pas la chute qui compte non c'est latterrissage Et tu peux atterrir comme une merde Combien ? Il y a combien de mères qui pleurent des fils Il y a combien de surs qui pleurent des frères Victimes des bavures de la police, bientôt civile sera la guerre Mais qui sera le prochain x5 Souleymane, Fofana, Mamadou Dio Zyed et Bouna, 1</t>
+          <t>Pourquoi les innocents sont-ils punis ? 3, 2, 1, devinez qui revient ? Sierra Tango Oscar Mike Yankee A-m-e-r est la secte maudite Comme le Predator, je ne sors que la nuit... J'en veux pas de leurs cartes de vote c'est pas la peine Rendez moi mes potes ça fera l'affaire Quand on va dire stop ce sera la Haine On va redoubler d'effort pour Adama et sa mère On a compté les décès, fils de pute de flics Qu'est-ce tu veux palper, tu vois bien mon sac de sport Tu sors le tard-pé et puis tu me palpes fort Mon négro t'inquiète pas on foutra le halla dehors Ils ont rabaissé les quartiers Tirés sur mes fréros Donnez nous les papiers On reprend tout à zéros Igo je demande jusquà Lyon à tous mes pélos Relevez la tête c'est eux les pédales, c'est nous les vélos Bam bam bam baaam Rien qui te nique la bac, rien qui te nique ta race Rien qu'il mente à ton mère, à ton père, à ta soeur, à ton frère zerma crise cardiaque On a fait des sales choses, on a tiré pour la moula Et c'est vrai qu'on avait pas de cause Mais on a pas tué Zyed et Bouna La daronne avait de l'arthrose, elle se demande ce qu'elle fout là Elle a ramoné vos chiottes, et on lui casse les couilles pour un foulard Mais qui sera le prochain x5 Souleymane, Fofana, Mamadou Dio Zyed et Bouna, J'devrais sacrifier un poulet Et deux trois collègues dans la foulée Contrôles abusifs toute la journée Vos coups de matraques nous rappellent les coups de fouets S'il y a manif je serais mouillé, j'finirais écroué Et au pire ils vont me douiller Marre de voir tout ce sang couler Les fréros sont cagoulés Dégoûtés, souvent bourrés Si j'baise la police comme Saïd, ils vont me fumer vomme Vince Mon frère va me venger comme Hubert C'est pas la chute qui compte non c'est latterrissage Et tu peux atterrir comme une merde Combien ? Il y a combien de mères qui pleurent des fils Il y a combien de surs qui pleurent des frères Victimes des bavures de la police, bientôt civile sera la guerre Mais qui sera le prochain x5 Souleymane, Fofana, Mamadou Dio Zyed et Bouna, 1</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Redemption song Le renard le plus fort du monde Redemption song Ouais Redemption song Yeezi ouzou Fais le truc à la Bobby Redemption song Cest la guerre dans le quartier den face Encore un enfoiré qui a mis une rotte-ca Jai appris à grandir avec tous les rat-pi Jme bagarrais dehors quand jétais sous khapta Jai connu la rue et le manque damour Tout seul au foyer jétais loin de ma mère Jai chourav la nuit, et je revendais le jour Seul dans ma cave, jai besoin dma bière Et puis je cogite, jme bute au shit Après quelques verres jai plus aucune logique Je connais le zoo jpeux ten faire un croquis Deal de pilon, écoute téléphonique Billets tout jaunes, ils sont cellophanés Les voisins craquent, ils appellent la police Fleure de la rue a bien failli faner Tous ces rappeurs wallah cest des comiques You might also like Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Jai connu la détention Mais là je suis dans la rédemption Jme voyais pas à pôle emploi Jvoulais faire du fric jen ai fait dans le son Jai beaucoup manigancé, mais cétait que financier Devant la police je suis resté silencieux Et personne ma avancé la déter dans les yeux Le respect des anciens qui repose dans les yeux Bah ouais je suis un vrai renard Unique en mon genre donc jai de la valeur Je parle en euros et je parle en dollars Avant tout ça on me donnait pas lheure 9 4 VLT cest le QG Garde à vue à présent cest abusé Je menivre et je tire sur la fusée Je suis un chien de la casse Que personne pourra museler Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Je fais mal à Bobby Je suis fonce-dé comme Bobby Jai déjà fait mon papier Le rap cest mon hobby Je fais mal à Bobby Je suis fonce-dé comme Bobby Jai déjà fait mon papier Le rap cest mon hobby Il y a des trucs jaurais pas du faire Mais je me sentais seul et jétais duper Jai écouté papa et jai fait du fric Tout ce que jinvesti je le récupère Cest la chanson des repentis Comme une balle te passerait moi je rebondi Devant les profs à lécole moi je répondais Maintenant mes cd ils sont répandus Je suis une machine à fric Il y en a pleins qui sen lèchent les doigts Jaurais pu me vendre Nique sa mère gros, je suis resté moi Je veux la paix comme Bobby Un renard pas un babouin Je suis plongé dans ma folie La genja jen ai besoin Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Yeezi ouzou, si si coucou Le renard, youni gang Tous mes ginja man dans le benks Sbi sbang, wouhou Renard, 2.0 Hein je le fais pour la musique Je le fais juste pour la musique</t>
+          <t>Redemption song Le renard le plus fort du monde Redemption song Ouais Redemption song Yeezi ouzou Fais le truc à la Bobby Redemption song Cest la guerre dans le quartier den face Encore un enfoiré qui a mis une rotte-ca Jai appris à grandir avec tous les rat-pi Jme bagarrais dehors quand jétais sous khapta Jai connu la rue et le manque damour Tout seul au foyer jétais loin de ma mère Jai chourav la nuit, et je revendais le jour Seul dans ma cave, jai besoin dma bière Et puis je cogite, jme bute au shit Après quelques verres jai plus aucune logique Je connais le zoo jpeux ten faire un croquis Deal de pilon, écoute téléphonique Billets tout jaunes, ils sont cellophanés Les voisins craquent, ils appellent la police Fleure de la rue a bien failli faner Tous ces rappeurs wallah cest des comiques Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Jai connu la détention Mais là je suis dans la rédemption Jme voyais pas à pôle emploi Jvoulais faire du fric jen ai fait dans le son Jai beaucoup manigancé, mais cétait que financier Devant la police je suis resté silencieux Et personne ma avancé la déter dans les yeux Le respect des anciens qui repose dans les yeux Bah ouais je suis un vrai renard Unique en mon genre donc jai de la valeur Je parle en euros et je parle en dollars Avant tout ça on me donnait pas lheure 9 4 VLT cest le QG Garde à vue à présent cest abusé Je menivre et je tire sur la fusée Je suis un chien de la casse Que personne pourra museler Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Je fais mal à Bobby Je suis fonce-dé comme Bobby Jai déjà fait mon papier Le rap cest mon hobby Je fais mal à Bobby Je suis fonce-dé comme Bobby Jai déjà fait mon papier Le rap cest mon hobby Il y a des trucs jaurais pas du faire Mais je me sentais seul et jétais duper Jai écouté papa et jai fait du fric Tout ce que jinvesti je le récupère Cest la chanson des repentis Comme une balle te passerait moi je rebondi Devant les profs à lécole moi je répondais Maintenant mes cd ils sont répandus Je suis une machine à fric Il y en a pleins qui sen lèchent les doigts Jaurais pu me vendre Nique sa mère gros, je suis resté moi Je veux la paix comme Bobby Un renard pas un babouin Je suis plongé dans ma folie La genja jen ai besoin Onananana Ohhhh Redemptions song Redemptions song It's all I have Redemptions song Yeezi ouzou, si si coucou Le renard, youni gang Tous mes ginja man dans le benks Sbi sbang, wouhou Renard, 2.0 Hein je le fais pour la musique Je le fais juste pour la musique</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Yo Le Règlement, c'est votre patron les mecs Djiguidi Guizmo, wouh Ça fait chaud aux fesses hein ? Ah ouais C'est comme ça qu'j'fais Je supplie, je supplie Je supplie, je supplie Je supplie le ciel de se montrer clément J'ai fait quelques péchés que je regrette vraiment Que disait ne rien faire c'était vraiment plaisant Seul devant la vitrine, le rapport est payant Et j'bois un que-tru on dirait c'est d'la pisse Si t'as un petit plafond, poto, fais-moi la passe Le terrain est mouillé, faut pas qu'on glisse Faut pas qu'on subisse les supplices de l'impasse, de scarla T'es mort si tu pousses par là Pas de place pour les froussards Soit tachètes un pushka, soit tappelles un bout-mara Et j'fais pas d'egotrip, c'est vous qui trippez sur mon ego Toujours dans la street, même les babtous sont mes négros Promets qu'ce que vive la bière, viens même pas t'mêler d'ma famille et d'mes affaires On cherchait la poucave, on avait quelques doutes mais quand on était sûrs, on lui baisait sa mère Ah, j'suis dans mon coin avec ma bouteille et mon joint J'm'alcoolise toute la journée, ils croient qu'j'suis là mais je suis loin Pas d'affinités avec ces fils de putes J'suis dans la musique ou dans l'trafic de stup' J'suis comme l'eau et l'huile, j'aime pas m'mélanger Vaut mieux t'écarter ou mon équipe te fume Mais je kiffe le cul, quand les bitch me sucent, je lui tire le cul et elle rentre chez elles Tellement pété, tellement bourré, j'ai déjà fait l'amour avec Claire Chazal On a vendu du que-tru et ils ont fait des spasmes, ah, ils ont fait des spasmes On a vendu du que-tru et ils ont fait des spasmes, ah, ils ont fait des spasmes On a vendu du que-tru et ils ont fait des spasmes, ouais, ils ont fait des spasmes Tout le monde roule un joint d'beuh, on va délirer dans l'espace Guiz' You might also like C'est comme ça qu'j'flingue le mic' Un grand merci au Réglement Yeah, yeah, yeah Wesh mon gars Yoss' 93 Maitika L'as de pique mon ombre en personne Metta ma go sur YW, Yonea Willy jusqu'a la mort bande d'enfoiré GP Gangster'zs Ouais, ouais, ouais 94, 92 Hustler Musik, Hustler Musik, Hustler Musik Argent sale, la bicrave Hustler Musik</t>
+          <t>Yo Le Règlement, c'est votre patron les mecs Djiguidi Guizmo, wouh Ça fait chaud aux fesses hein ? Ah ouais C'est comme ça qu'j'fais Je supplie, je supplie Je supplie, je supplie Je supplie le ciel de se montrer clément J'ai fait quelques péchés que je regrette vraiment Que disait ne rien faire c'était vraiment plaisant Seul devant la vitrine, le rapport est payant Et j'bois un que-tru on dirait c'est d'la pisse Si t'as un petit plafond, poto, fais-moi la passe Le terrain est mouillé, faut pas qu'on glisse Faut pas qu'on subisse les supplices de l'impasse, de scarla T'es mort si tu pousses par là Pas de place pour les froussards Soit tachètes un pushka, soit tappelles un bout-mara Et j'fais pas d'egotrip, c'est vous qui trippez sur mon ego Toujours dans la street, même les babtous sont mes négros Promets qu'ce que vive la bière, viens même pas t'mêler d'ma famille et d'mes affaires On cherchait la poucave, on avait quelques doutes mais quand on était sûrs, on lui baisait sa mère Ah, j'suis dans mon coin avec ma bouteille et mon joint J'm'alcoolise toute la journée, ils croient qu'j'suis là mais je suis loin Pas d'affinités avec ces fils de putes J'suis dans la musique ou dans l'trafic de stup' J'suis comme l'eau et l'huile, j'aime pas m'mélanger Vaut mieux t'écarter ou mon équipe te fume Mais je kiffe le cul, quand les bitch me sucent, je lui tire le cul et elle rentre chez elles Tellement pété, tellement bourré, j'ai déjà fait l'amour avec Claire Chazal On a vendu du que-tru et ils ont fait des spasmes, ah, ils ont fait des spasmes On a vendu du que-tru et ils ont fait des spasmes, ah, ils ont fait des spasmes On a vendu du que-tru et ils ont fait des spasmes, ouais, ils ont fait des spasmes Tout le monde roule un joint d'beuh, on va délirer dans l'espace Guiz' C'est comme ça qu'j'flingue le mic' Un grand merci au Réglement Yeah, yeah, yeah Wesh mon gars Yoss' 93 Maitika L'as de pique mon ombre en personne Metta ma go sur YW, Yonea Willy jusqu'a la mort bande d'enfoiré GP Gangster'zs Ouais, ouais, ouais 94, 92 Hustler Musik, Hustler Musik, Hustler Musik Argent sale, la bicrave Hustler Musik</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Je suis le genre de mec qui, dans une boite de strip-tease, regarde le public Comme de l'héroïne planquée parmi les hosties, le ton est biblique J'ai promis d'arrêter la provoc', j'ai pas promis d'arrêter de mentir J'ai lu qu'écrire causait la mort, alors j'ai donc décidé d'arrêter de lire Mes mots viennent de ma plume, ma plume revient de la forge J'ai la force de la culture, face à la culture de la force Conçu à la missionnaire Baptisé Médine comme la ville, monsieur le Maire On a dit de mon peu-ra qu'il était trop scolaire Ils n'ont pas gouté à ma patate dictionnaire Don't Laïk quintuple contrôle du fisc Lorsque eux gèrent la France comme des turfistes Je suis Français approximatif Je me sens comme une girafe avec le vertige S Fiche, ça sent la perquis' Mon quartier donne raison aux catastrophistes T'façon dans la guerre, y a pas que du négatif Ça fait au moins réviser la géographie D'otage prise, menottage, vite Dans les canots de sauvetage, y a pas de carré VIP Leur politique se modernise On ne stoppe pas la faim avec des tirs nourris Ra-ta-ta sur les refugees On est pas dans le clip de Maya Mathangi Ra-ta-ta-ta sur civils et artistes, la réplique sera civilisatrice Je n'attends rien d'un gouvernement qui dépouille Pierre pour habiller Paul On est en plein tremblement de terre, et ces cons débutent une partie de golf Ils n'obtiendront que des courants d'air en dynamitant nos immeubles Leurs promesses sont des cartes de fidélités pour des crématoriums Être vert de colère décuple ma force comme Lou Ferrigno Bientôt, j'irai prendre des cours de solfège Rue de Solférino Être binationaux c'est être citoyen grosso modo Même en grandissant, les petits vélos ne deviennent pas de grosses motos You might also like J'ai pas tout vu dans ma vie mais c'est déjà trop J'ai travaillé dans la vente avec des accros Tu veux connaître ma bande mais c'est des cassos Associés à des glocks et des bastos Ah merde, dis-moi de quoi tu veux parler J'vais les allumer ces Charlots J'ai déjà vu mon père au parlu' Dans The Wire, lui, c'était Marlo Ah, j'suis dans ma bulle dans mon gamma, bats les couilles de ton game dans mon GP c'est la rre-gue On fait la moula tout les jours, on fait l'amour sans amour parce qu'on arrive qu'en rre-pié Oui, c'est la Zone Sensible, on est pros dans c'biz mais pas trop gentils, nan Ils s'demandent comment j'fais pour pé-ra en ayant fumé autant de shit J'suis doué, toujours en vie, que Dieu soit loué J'm'en bats les couilles de finir, écroué J'continuerais à fourguer la beuh, le shit dans la foulée J'suis doué, lyricalement que Dieu soit loué J'm'en bats les couilles de finir, écroué J'continuerais à fourguer la beuh le shit dans la foulée Fianso, Guizmo 1</t>
+          <t>Je suis le genre de mec qui, dans une boite de strip-tease, regarde le public Comme de l'héroïne planquée parmi les hosties, le ton est biblique J'ai promis d'arrêter la provoc', j'ai pas promis d'arrêter de mentir J'ai lu qu'écrire causait la mort, alors j'ai donc décidé d'arrêter de lire Mes mots viennent de ma plume, ma plume revient de la forge J'ai la force de la culture, face à la culture de la force Conçu à la missionnaire Baptisé Médine comme la ville, monsieur le Maire On a dit de mon peu-ra qu'il était trop scolaire Ils n'ont pas gouté à ma patate dictionnaire Don't Laïk quintuple contrôle du fisc Lorsque eux gèrent la France comme des turfistes Je suis Français approximatif Je me sens comme une girafe avec le vertige S Fiche, ça sent la perquis' Mon quartier donne raison aux catastrophistes T'façon dans la guerre, y a pas que du négatif Ça fait au moins réviser la géographie D'otage prise, menottage, vite Dans les canots de sauvetage, y a pas de carré VIP Leur politique se modernise On ne stoppe pas la faim avec des tirs nourris Ra-ta-ta sur les refugees On est pas dans le clip de Maya Mathangi Ra-ta-ta-ta sur civils et artistes, la réplique sera civilisatrice Je n'attends rien d'un gouvernement qui dépouille Pierre pour habiller Paul On est en plein tremblement de terre, et ces cons débutent une partie de golf Ils n'obtiendront que des courants d'air en dynamitant nos immeubles Leurs promesses sont des cartes de fidélités pour des crématoriums Être vert de colère décuple ma force comme Lou Ferrigno Bientôt, j'irai prendre des cours de solfège Rue de Solférino Être binationaux c'est être citoyen grosso modo Même en grandissant, les petits vélos ne deviennent pas de grosses motos J'ai pas tout vu dans ma vie mais c'est déjà trop J'ai travaillé dans la vente avec des accros Tu veux connaître ma bande mais c'est des cassos Associés à des glocks et des bastos Ah merde, dis-moi de quoi tu veux parler J'vais les allumer ces Charlots J'ai déjà vu mon père au parlu' Dans The Wire, lui, c'était Marlo Ah, j'suis dans ma bulle dans mon gamma, bats les couilles de ton game dans mon GP c'est la rre-gue On fait la moula tout les jours, on fait l'amour sans amour parce qu'on arrive qu'en rre-pié Oui, c'est la Zone Sensible, on est pros dans c'biz mais pas trop gentils, nan Ils s'demandent comment j'fais pour pé-ra en ayant fumé autant de shit J'suis doué, toujours en vie, que Dieu soit loué J'm'en bats les couilles de finir, écroué J'continuerais à fourguer la beuh, le shit dans la foulée J'suis doué, lyricalement que Dieu soit loué J'm'en bats les couilles de finir, écroué J'continuerais à fourguer la beuh le shit dans la foulée Fianso, Guizmo 1</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Yo gah yo ! whouhi whou ! Le renard le renard le renard le renard Whou whou whou ! Vous avez combattu en France les gars alors accordez moi la cigarette du condamné YW Ça vend la drogue dans la zone et t'es mort si tu donnes Moi j'en connais des crackers qui te schlassent pour un donut J'buvais d'la bière j'fumais du shit avec Bengué J'pleure tous les jours Allah y rahma Sonya Vous attacher j'suis cap mon frère est handicapé J'en ai brassé des plaques mais j'suis toujours au quartier Mes rabzouz et mes blacks jamais les jambes écartés La voisine elle vote FN elle dit c'est quand qu'vous partez Tu m'fais chier ça va barder j'vais pas tarder à m'barrer Moi et mon père dans la même taule j'y étais pas préparé J'dois pas conduire quand j'bois mais c'est moi j'l'ai garé Et j'ai bu un peu d'alcool on m'a traité d'égaré ring ring ring ring Et plus rien n'existe quand j'fume le bambou North Face requins té-ma la guaine-dé J'ai pris dix kilos d'beuhère je tiens le bon bout Et j'ai maître Luciani si il faut plaider Le pistolet ou le glock c'est pas c'que j'vais dire au proc' Mais p't-être qu'à la fin de ma phrase j'vais laché un motherfuck' eh ! Tu ne donnes pas par envie mais parce que t'as pas l'choix Et quand t'as dis lé lé la on a dit wah wah wah J'arrive au bled mon jetski il fait ouin ouin ouin Il croyait que j'm'étais ves-qui mais j'étais là là là Après deux flashs de whiskey j'étais loin loin loin J'ai jamais fait le miskine, pas de tralala Tu verra ma bite sur le net à la saint goin goin You might also like 92 mon bitume comme l'ancien Mala On démarre de nulle part mais on revient de loin On bicravait des ecstasys comme des tatata 9.4 Polognes zoo poto retiens-le bien Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes J'suis au quartier j'lève ma bouteille À tous les potes qui m'ont soutenu quand j'étais boiteux J'cachais mes mes-ar et mon teu-shi dans la poubelle Vendredi soir l'OPJ mange avec mon baveux Moi j'suis Guizi ouzou j'suis Lamine Diakité On s'en fou d'ton gourou on s'en fou d'ta pitié Descendant de Soundiata et de Kunta Kinté Avec de la canne à sucre ils font du cuba libre Et on peut tous les attacher avec du sparadrap Quand ils font du deux fois deux on fait du trois fois trois Survet' Lacoste paire de TN, Sénégal et Mali dans mon ADN Quand j'volais des clios j'roulais en BM j'roulais en BM Deux trois fois j'ai failli canner sur un KTM KTM Et la-uice il veut la guerre w'Allah j'le dégomme Y'a sa meuf qui a donné son adresse en DM en DM Et j'ai jamais tué personne cherche pas l'ADN Khamsa fi 3inik à l'enfoiré qui veut m'3ain C'est qui qui m'a poucave là j'suis dans un trou c'est qui Du coup, j'ai fais confiance à un trou du cul Y'avait de l'argent j'ai crossé l'gros du coin Ça t'apprendra à faire le m'as tu vu Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Aouhhh C'est comme ça c'est comme ça c'est comme ça que j'fais les choses Hehehe, c'est trop facile Police ! Police ! Coupe le contact ! Vous avez combattu en France les gars alors accordez moi la cigarette du condamné Coupe le contact du véhicule ! Mets les mains sur le volant ! Regarde devant toi ! C'est bon là pigé</t>
+          <t>Yo gah yo ! whouhi whou ! Le renard le renard le renard le renard Whou whou whou ! Vous avez combattu en France les gars alors accordez moi la cigarette du condamné YW Ça vend la drogue dans la zone et t'es mort si tu donnes Moi j'en connais des crackers qui te schlassent pour un donut J'buvais d'la bière j'fumais du shit avec Bengué J'pleure tous les jours Allah y rahma Sonya Vous attacher j'suis cap mon frère est handicapé J'en ai brassé des plaques mais j'suis toujours au quartier Mes rabzouz et mes blacks jamais les jambes écartés La voisine elle vote FN elle dit c'est quand qu'vous partez Tu m'fais chier ça va barder j'vais pas tarder à m'barrer Moi et mon père dans la même taule j'y étais pas préparé J'dois pas conduire quand j'bois mais c'est moi j'l'ai garé Et j'ai bu un peu d'alcool on m'a traité d'égaré ring ring ring ring Et plus rien n'existe quand j'fume le bambou North Face requins té-ma la guaine-dé J'ai pris dix kilos d'beuhère je tiens le bon bout Et j'ai maître Luciani si il faut plaider Le pistolet ou le glock c'est pas c'que j'vais dire au proc' Mais p't-être qu'à la fin de ma phrase j'vais laché un motherfuck' eh ! Tu ne donnes pas par envie mais parce que t'as pas l'choix Et quand t'as dis lé lé la on a dit wah wah wah J'arrive au bled mon jetski il fait ouin ouin ouin Il croyait que j'm'étais ves-qui mais j'étais là là là Après deux flashs de whiskey j'étais loin loin loin J'ai jamais fait le miskine, pas de tralala Tu verra ma bite sur le net à la saint goin goin 92 mon bitume comme l'ancien Mala On démarre de nulle part mais on revient de loin On bicravait des ecstasys comme des tatata 9.4 Polognes zoo poto retiens-le bien Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes J'suis au quartier j'lève ma bouteille À tous les potes qui m'ont soutenu quand j'étais boiteux J'cachais mes mes-ar et mon teu-shi dans la poubelle Vendredi soir l'OPJ mange avec mon baveux Moi j'suis Guizi ouzou j'suis Lamine Diakité On s'en fou d'ton gourou on s'en fou d'ta pitié Descendant de Soundiata et de Kunta Kinté Avec de la canne à sucre ils font du cuba libre Et on peut tous les attacher avec du sparadrap Quand ils font du deux fois deux on fait du trois fois trois Survet' Lacoste paire de TN, Sénégal et Mali dans mon ADN Quand j'volais des clios j'roulais en BM j'roulais en BM Deux trois fois j'ai failli canner sur un KTM KTM Et la-uice il veut la guerre w'Allah j'le dégomme Y'a sa meuf qui a donné son adresse en DM en DM Et j'ai jamais tué personne cherche pas l'ADN Khamsa fi 3inik à l'enfoiré qui veut m'3ain C'est qui qui m'a poucave là j'suis dans un trou c'est qui Du coup, j'ai fais confiance à un trou du cul Y'avait de l'argent j'ai crossé l'gros du coin Ça t'apprendra à faire le m'as tu vu Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Yoga yo yoga yo des sirènes et des flics Yoga yo le renard il débite où ça où ça Yoga yo j'suis malin ils sont débiles J'vendais du shit et avant j'volais des billes Aouhhh C'est comme ça c'est comme ça c'est comme ça que j'fais les choses Hehehe, c'est trop facile Police ! Police ! Coupe le contact ! Vous avez combattu en France les gars alors accordez moi la cigarette du condamné Coupe le contact du véhicule ! Mets les mains sur le volant ! Regarde devant toi ! C'est bon là pigé</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Hein, yo gars, yo gars yo Ouzou Guizi, coucou si si Yonea Willy, Willy Yonea, G.P.Gang motherfuker Ouais c'est moi, ouais c'est moi J'suis jamais à sec J'suis jamais à sec Va manger chez ta mère Mais pas dans mon assiette Un pétard et de la beuh Posé dans ma cachette Tire dans le tas et parle peu Y'a que comme ça qu'ils s'arrêtent C'est tous des schmet Bande d'enfoirés J'ai vendu le caillou avant vous fallait même pas traîner avec moi Opinel treize au cas où North Face et requin j'ai toujours la tenue adéquate Et j'suis défoncé je sais même pas j'fais quoi J'sors le 11,43 et puis j'le nettoie Encore une bière et je vais aux lettes-toi C'est moi j'ai raison, enculé tais-toi Bâtiment neuf, j'pense à nos soucis A toutes ces galères quand j'étais fauché Les grands du quartier sortaient les fusils Savent bien qu'une balle peux pas ricocher Ouzou bang You might also like Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo Attend deux secondes, attend deux secondes J'vais prendre ma douche et direct j'te rappelle Hier j'ai fait l'fou, j'ai vidé huit cannettes Ca va pas trop bien j'suis défoncé de la veille J'ai fait un cauchemar où j'me faisait fumer La police de partout et ma mère en pleurs Ma femme et mes fistons qui me regardent Pris d'un frisson je me lève en sueur Ah j'suis dans la rue nan j'fais pas semblant Mon p'tit frère me regarde il veut m'ressembler C'était pour le respect, j'l'ai braqué sans gants J'ai mis deux trois coups de crosse et j'l'ai molesté Batiment neuf, j'pense a nos soucis A toutes ces galères quand j'étais fauché Les grands du quartier sortaient les fusils Savent bien qu'une balle ne peux pas ricocher Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous Allez passe ma bière Eh allez passe ma bière Allez passe la bière Sinon ça va pas l'faire Peu importe d'où tu viens Peu importe qui tu connais Peu importe combien t'as tourné Peu importe combien t'as d'monnaie C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo Yo soit disant rappeurs Tenez vous prêt Le renard est dans la place, hein J'entend le loup le renard et la belette Tu vas voir la belette C'est comme ça qu'j'fais les choses YW jusqu'à la mort mon pote J'l'ai dis, j'l'ai fait Et j'vous encule Zbangueule</t>
+          <t>Hein, yo gars, yo gars yo Ouzou Guizi, coucou si si Yonea Willy, Willy Yonea, G.P.Gang motherfuker Ouais c'est moi, ouais c'est moi J'suis jamais à sec J'suis jamais à sec Va manger chez ta mère Mais pas dans mon assiette Un pétard et de la beuh Posé dans ma cachette Tire dans le tas et parle peu Y'a que comme ça qu'ils s'arrêtent C'est tous des schmet Bande d'enfoirés J'ai vendu le caillou avant vous fallait même pas traîner avec moi Opinel treize au cas où North Face et requin j'ai toujours la tenue adéquate Et j'suis défoncé je sais même pas j'fais quoi J'sors le 11,43 et puis j'le nettoie Encore une bière et je vais aux lettes-toi C'est moi j'ai raison, enculé tais-toi Bâtiment neuf, j'pense à nos soucis A toutes ces galères quand j'étais fauché Les grands du quartier sortaient les fusils Savent bien qu'une balle peux pas ricocher Ouzou bang Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo Attend deux secondes, attend deux secondes J'vais prendre ma douche et direct j'te rappelle Hier j'ai fait l'fou, j'ai vidé huit cannettes Ca va pas trop bien j'suis défoncé de la veille J'ai fait un cauchemar où j'me faisait fumer La police de partout et ma mère en pleurs Ma femme et mes fistons qui me regardent Pris d'un frisson je me lève en sueur Ah j'suis dans la rue nan j'fais pas semblant Mon p'tit frère me regarde il veut m'ressembler C'était pour le respect, j'l'ai braqué sans gants J'ai mis deux trois coups de crosse et j'l'ai molesté Batiment neuf, j'pense a nos soucis A toutes ces galères quand j'étais fauché Les grands du quartier sortaient les fusils Savent bien qu'une balle ne peux pas ricocher Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous Allez passe ma bière Eh allez passe ma bière Allez passe la bière Sinon ça va pas l'faire Peu importe d'où tu viens Peu importe qui tu connais Peu importe combien t'as tourné Peu importe combien t'as d'monnaie C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous C'est comme ça qu'ça s'passe chez nous Ah c'est comme ça qu'ça s'passe chez nous Yo gars yo J'suis toujours posé dans mon bendo Oh yo gars yo, yo gars yo Toujours ma Heineken et mon bédo Ah yo gars yo, yo gars yo J'me tire d'ici quand y'a du seille-o Yo gars yo, yo gars yo Yo gars yo, yo gars yo Yo soit disant rappeurs Tenez vous prêt Le renard est dans la place, hein J'entend le loup le renard et la belette Tu vas voir la belette C'est comme ça qu'j'fais les choses YW jusqu'à la mort mon pote J'l'ai dis, j'l'ai fait Et j'vous encule Zbangueule</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Elle ma dit que jsuis mignon Elle connaît pas le garçon Dans ma tête jai des visions Dans mon coeur jai un glaçon Et je sais ce qui lintéresse Snap avec moi posé en terrasse La bague au doigt ça cest dans tes rêves Dis pas je taime là tu membarrasses Ouais parce que ya pas de rêve bleu Une chambre dhôtel des têtes de beuh Jessaye dêtre romantique je fais cque jpeux Mais un fois qujsuis bourré bah jfais cque jveux Hein, ouais msdames que des bandits dans le périmètre Vous nous avez rendu parano Combien dtruc moi jai fais par amour Mes sentiments sont intérimaires Ça va ça vient cest comme sous la couette Ouais tas raison des fois jdeviens fou A cause de toi jai pas toute ma tête Pardon la belle jai rien à faire avec toi Jcrois quje perds mon temps Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Et jai vendu des grammes et puis jai fait du mal Alors jai fait du sale dehors toute la nuit Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit You might also like Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Les câlins cest pas mon dada Jveux pas qutu mappelles doudou Moi jveux qutu mappelles papa Jferais de toi ma nounou Quand jaurai du bon taga Et avec toi jsuis tout doux Dehors jsuis un gros batard Jpasserai te faire un coucou Parce que tu restes ma nana Jnai jamais fait le zoulou Au tieks ou bien au placard Tes contente dêtre avec un boss Devant tes copines on se fait la bise La pudeur quil ya entre nous Tu sais très bien que cest la base Et jy vais du tac au tac Ouais jy vais du tac au tac Pourquoi elle sattache à moi Elle sait très bien qujsuis un salopard Mais tes en caillera comme le renard Jtai connu tétais mineure Et moi jétais quun zonard Pardon la belle jai rien à faire avec toi Jcrois quje perds mon temps Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Et jai vendu des grammes et puis jai fait du mal Alors jai fait du sale dehors toute la nuit Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron</t>
+          <t>Elle ma dit que jsuis mignon Elle connaît pas le garçon Dans ma tête jai des visions Dans mon coeur jai un glaçon Et je sais ce qui lintéresse Snap avec moi posé en terrasse La bague au doigt ça cest dans tes rêves Dis pas je taime là tu membarrasses Ouais parce que ya pas de rêve bleu Une chambre dhôtel des têtes de beuh Jessaye dêtre romantique je fais cque jpeux Mais un fois qujsuis bourré bah jfais cque jveux Hein, ouais msdames que des bandits dans le périmètre Vous nous avez rendu parano Combien dtruc moi jai fais par amour Mes sentiments sont intérimaires Ça va ça vient cest comme sous la couette Ouais tas raison des fois jdeviens fou A cause de toi jai pas toute ma tête Pardon la belle jai rien à faire avec toi Jcrois quje perds mon temps Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Et jai vendu des grammes et puis jai fait du mal Alors jai fait du sale dehors toute la nuit Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Les câlins cest pas mon dada Jveux pas qutu mappelles doudou Moi jveux qutu mappelles papa Jferais de toi ma nounou Quand jaurai du bon taga Et avec toi jsuis tout doux Dehors jsuis un gros batard Jpasserai te faire un coucou Parce que tu restes ma nana Jnai jamais fait le zoulou Au tieks ou bien au placard Tes contente dêtre avec un boss Devant tes copines on se fait la bise La pudeur quil ya entre nous Tu sais très bien que cest la base Et jy vais du tac au tac Ouais jy vais du tac au tac Pourquoi elle sattache à moi Elle sait très bien qujsuis un salopard Mais tes en caillera comme le renard Jtai connu tétais mineure Et moi jétais quun zonard Pardon la belle jai rien à faire avec toi Jcrois quje perds mon temps Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Et jai vendu des grammes et puis jai fait du mal Alors jai fait du sale dehors toute la nuit Ouais jtai fait du mal mais jmen suis fait autant Et jen dors plus la nuit Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron Elle est archi mal jfais des sons Elle est archi mal jfais des ronds Elle demande le divorce pas dsoucis J'ai Archibald Celeyron</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>YW Yonea Willy Willy Yonea boy jusqu'à l'infini Poto j'suis pas né de la dernière chatte, pas sortie des couilles d'un puceau Que ta go tes gars s'écartent, si moi et mes crews on sort plus tôt J'pense aux frères qu'ont pas les fafs trop de condé a la foire du trône Dans la tess ou des les yer-fo, ils ont plus des dos mais des duplos On sait que l'état les a dupé jusqu'au trou de balle pire qu'un supo' Anesthésié par la fumée, réanimé par un zipo A la galère accoutumé depuis les sanctions de Nico J'vois pas l'bitume s'allumer qu'en dessous je tape un moonwalk En dessous du seuil de pauvreté certains sont devenus sous pauvres Laisse les dires qu'on est des sous merdes, on va peser comme des sumos Et des scar-la on le seum, pour ma survie je dois les seumer En tête à tête j'ai ma lame si mes poings ne font pas le poids Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors qu'est ce que t'en dis ma caille, on va pas s'rouler par terre Risquer des mois de placards, tu t'es juste fais niquer ta ah Fais un kiss à ta bitch d'ma part, elle a ah ah tout mon label Elle a hein hein toute ma clique, toute ma té-ci dans ton appart Et V.L.G où sont mes shaka, on arrive et on vous choque Dans le rap on est vos papas et vos cle-on sont nos potes J'ai connu l'époque des ve-ca et je m'étais des coup de bottes Ah mes ôte la reine et lopesa, qui passait sans dire woulop Comment ça t'as pa vu Guiz' oh, la ça fait des galères crados Mais tu n'avais pas l'air sado', parle pas de guerre sale faux Et nique ta mère, ton business, tes tasse-pé et tes Louboutins Dans le quartier nous c'est tous pour un, tu piques sa chatte le toutou viens You might also like Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Et V.L.G où sont mes shaka, on arrive et on vous choque Dans le rap on est vos papas et vos cle-on sont nos potes J'ai connu l'époque des ve-ca et je m'étais des coup de bottes Ah mes ote la reine et lopesa ,qui passait sans dire woulop Guizi, oui c'est comme ça qu'on m'appelle Des putins de lope-sa sur ma be-teu quand je les tè-je bah ça fais d'la peine Pas tendance à connaître la pitié quand t'as grandis dans les Hautes-Seines Et les tasses m'gratteront l'amitié quand elles sauront les poches pleines Bande de huh non j'veux dire mesdames sachez que je vous aimes Quand chez vous j'peut me mettre à se-l'ai, boucher tous les trous sauf le zen Boy fuck je diquesa, diquesa, traîne a laffût dans ris-Pa avec des petites cailles Tu cherches un 10 balles ou un 10 grammes il te dira quitte pas Fissa, fissa, c'est comme ça qu'on fait nos diez S'est éveiller qu'on fais nos rêves et nique sa mère le Père Noël Ils veulent signer chez la Z.S, les autres c'est bof nous c'est trop gang Poto j'suis jamais à la mode, mais j'suis un sacré phénomène Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause</t>
+          <t>YW Yonea Willy Willy Yonea boy jusqu'à l'infini Poto j'suis pas né de la dernière chatte, pas sortie des couilles d'un puceau Que ta go tes gars s'écartent, si moi et mes crews on sort plus tôt J'pense aux frères qu'ont pas les fafs trop de condé a la foire du trône Dans la tess ou des les yer-fo, ils ont plus des dos mais des duplos On sait que l'état les a dupé jusqu'au trou de balle pire qu'un supo' Anesthésié par la fumée, réanimé par un zipo A la galère accoutumé depuis les sanctions de Nico J'vois pas l'bitume s'allumer qu'en dessous je tape un moonwalk En dessous du seuil de pauvreté certains sont devenus sous pauvres Laisse les dires qu'on est des sous merdes, on va peser comme des sumos Et des scar-la on le seum, pour ma survie je dois les seumer En tête à tête j'ai ma lame si mes poings ne font pas le poids Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors qu'est ce que t'en dis ma caille, on va pas s'rouler par terre Risquer des mois de placards, tu t'es juste fais niquer ta ah Fais un kiss à ta bitch d'ma part, elle a ah ah tout mon label Elle a hein hein toute ma clique, toute ma té-ci dans ton appart Et V.L.G où sont mes shaka, on arrive et on vous choque Dans le rap on est vos papas et vos cle-on sont nos potes J'ai connu l'époque des ve-ca et je m'étais des coup de bottes Ah mes ôte la reine et lopesa, qui passait sans dire woulop Comment ça t'as pa vu Guiz' oh, la ça fait des galères crados Mais tu n'avais pas l'air sado', parle pas de guerre sale faux Et nique ta mère, ton business, tes tasse-pé et tes Louboutins Dans le quartier nous c'est tous pour un, tu piques sa chatte le toutou viens Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Et V.L.G où sont mes shaka, on arrive et on vous choque Dans le rap on est vos papas et vos cle-on sont nos potes J'ai connu l'époque des ve-ca et je m'étais des coup de bottes Ah mes ote la reine et lopesa ,qui passait sans dire woulop Guizi, oui c'est comme ça qu'on m'appelle Des putins de lope-sa sur ma be-teu quand je les tè-je bah ça fais d'la peine Pas tendance à connaître la pitié quand t'as grandis dans les Hautes-Seines Et les tasses m'gratteront l'amitié quand elles sauront les poches pleines Bande de huh non j'veux dire mesdames sachez que je vous aimes Quand chez vous j'peut me mettre à se-l'ai, boucher tous les trous sauf le zen Boy fuck je diquesa, diquesa, traîne a laffût dans ris-Pa avec des petites cailles Tu cherches un 10 balles ou un 10 grammes il te dira quitte pas Fissa, fissa, c'est comme ça qu'on fait nos diez S'est éveiller qu'on fais nos rêves et nique sa mère le Père Noël Ils veulent signer chez la Z.S, les autres c'est bof nous c'est trop gang Poto j'suis jamais à la mode, mais j'suis un sacré phénomène Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause Alors on traîne dans la ville comme si y'avait rien de mieux à faire, mais c'est comme ça qu'on voit les choses On traîne toute la nuit comme si on avait rien à perdre, mais peut-être qu'un jour on fera une pause</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Yaga yai Jibie Ouzou gang Oh oui wily wily wily wily Wouuuh Yaga ya Je connais la tentation han Je connais la tentation de quoi Une cagoule sur la tête hein Un pistolet dans mon pantalon grraah Et moi c'est tous les jours le week end han Nan c'est tous les jours la Heineken tous les jours Putain j'ai baisé cette chienne ahouu 16 ans placard à la première peine Aller bang dans la tête Dans ma cellule je suis tout seul pah pah pah pah J'appelle Lascar Ça dis quoi Il me dit pareille fou le zbrrr Et dans ma rue gros c'st miné Jugé depuis mineur Je pux les éliminer Je les ai dans mon viseur Le terrain ouvre à midi moi je suis là à 10 heures Mais qui tu m'a ramené là ton poto il est bizarre Ah je suis dans la bicrave et dans la prise de risques C'est Guizmo du 94 pas de Brice de Nice Si tu veux jouer avec moi gros je te brise l'anus han Et je vais aller fêter ça avec un gin tonic bou Calmement comme si c'est légal ahouu Algérie Mali Sénégal ahouu Ah je fumes la vanilla Si on se fait péter tout le monde va nier yeah Ton gang de zemel c'est des vauriens hein Ils vont cavaler devant mes alliers toutou tou Ah je suis péter je vais bé-ger Je cours derrière les beaux jours rhaa Mon 11 43 te dis bonsoir hein Et y'a la police qui me dit bonjour Fais pas le compassion je coupe ta nageoire ouais Tu va pas me doubler gros c'est mon tour Ton corps se fais trouer comme une passoire ha Même quand c'est la nuit on te dit bonjour tiens Many men Dans une autre vie j'étais LIM Et je m'en bat les couilles de l'école Moi rime je l'écris RIM Tu va planer si tu l'achètes Tu va canner si tu m'achètes ouais J'ai égorgé le mouton et j'ai bu la chèvre J'ai eu peur deux trois secondes c'était qu'une tapette c'était qu'une tapette Fils de pute pour la moula on est malins Met toi à quatre pattes et ne me parles pas de câlins Je suis dans mon 94 et on boit le Jack au miel A peine 18 ans gros j'avais déjà un moulon Ils se la pètent mais c'est que des branleurs 3000 personnes je fais lever les bras en l'air Je fume le chocolat de la couleur des brownies Je t'allumes ta mère si tu touches mon brother Brrrrrrrr Bruit de la machine à billets Brrrrrrrr Bruit de la bécane de Guizmo Brrrrrrrr Bruit que ça fait quand je vais tirer Brrrrrrrr Je sors le M 16 comme De Niro aller bah Gros je suis passé par le 18 Quand j'ai percé j'avais 19 ouais Aujourd'hui je peux m'acheter un R8 hein Et vendre de la cons à 10 000 keufs vroum vroum Téma le tassaba Téma le tassaba bordel ouais Ouais Mamadou Gassama Spider man avec un tas de problèmes Vous aller fuir Comme il a dit le daron ah ouais mon pote Avec son string en cuire Elle fait que m'appeler patron ouais Gros tu vois ce que je veux te dire c'est moi Là j'ai pris du gallon wouh wouh Je sors l'arme et je tire Ça fini au ballon ?? moi je peux péter les plombs Grandir a calle vendu sur le béton J'ai jamais fais de la chasse mais je connais les métaux Je vais tirer sur tout le monde allez fermer les stores piou piou piou piou piou Je connais des bouts je connais le milieu Malheureusement pas la fin de l'histoire Mon père le voyou oh elahmou Il dit qu'il travaille c'est un père castor J'ai rien vu j'ai rien dis rien han J'ai pas bu j'ai pas fumé que dalle Du lundi au lundi lundi au lundi monday monday Goutes a ma beuh elle est parfumée ah wow Tu crois que tu call Depuis petit bat les couilles de l'école hein Depuis petit on a roulé des cônes hein Cesare à son cul sur le trône On fait des menaces t'as cru c'était une blague On a finit dans ta planque C'est vous les mecs qui appellent les flics C'est nous les mecs qui ?? Et j'ai traîné dans ma rue Je suis baisé dans ma vie Bat les couilles du rap C'est la passion mon ami bah oui C'est mon que t'as vu en train de pillave dans la ville Le mec à l'affût qui dit akha mon ami toujours moi La bicrave le vol et la prison J'ai plus le temps pour ça Va te faire enculer avec tes vieux pourcents bah ouais Je connais le loup, je connais le renard et je connais la belette je les connais tous Je connais la foule , je connais les mouilles et je connais la vedette gang gang Y'a pleins de méchants dans ma tête sa mère Ah touche a mon petit reuf gros je te baise ta mère directement Ah, des balances des ennemis que je laisse par terre mais ils sont où Ah, t'as balancé j'ai ré-ti mais on était partenaires hehehe Je m'en bat les couilles d'avoir du flow Moi je veux que des sous ouais Trop souvent déçu hein Ah je suis indécis Bang bang Mafara bang bang Je suis vener si j'ai pas mon block bang bang Tout les jours la police veut me bloquer bang bang Ils prennent mon 12 et mon Glock 9 bang bang C'est le stricte minimum je la découpe au millimètre Et y'a personne qui fait comme moi skruu J'ai gratté beaucoup de sous menti à mon avocat Et pourtant je suis de bonne foie Pah pah pah C'est comme ça que je fais les choses ça flingue ça flingue C'est comme ça que je vends les doses Ah au déut c'était pour un grec Room room Et après c'était pour un break Room room Moi je te kick tu fais pas de break coco jojo Room room Je suis dans ma room je suis en train de la steak Quand tu crois que c'est fini c'est la que ça commence Mathefuckering toi et ta romance Le ti-peu à plus de détail il faut que je le relance Si je perds un tête à tête fils de pute je veux ma revanche Eh sur la tête de ma mère hein Sur la tombe de mon père ouais Le premier qui vient devant quoi Je le prend par derrière c'est sur Je l'ai mise à l'endroit à l'envers ouais Monsieur le renard hahaha J'ai écris quelques vers J'ai fini par les boire ahhhh You might also likeY et W Zigidi zone sensible Guizy ouzou Bigiri business On rêve d'un truc comme ça quoi T'as capté</t>
+          <t>Yaga yai Jibie Ouzou gang Oh oui wily wily wily wily Wouuuh Yaga ya Je connais la tentation han Je connais la tentation de quoi Une cagoule sur la tête hein Un pistolet dans mon pantalon grraah Et moi c'est tous les jours le week end han Nan c'est tous les jours la Heineken tous les jours Putain j'ai baisé cette chienne ahouu 16 ans placard à la première peine Aller bang dans la tête Dans ma cellule je suis tout seul pah pah pah pah J'appelle Lascar Ça dis quoi Il me dit pareille fou le zbrrr Et dans ma rue gros c'st miné Jugé depuis mineur Je pux les éliminer Je les ai dans mon viseur Le terrain ouvre à midi moi je suis là à 10 heures Mais qui tu m'a ramené là ton poto il est bizarre Ah je suis dans la bicrave et dans la prise de risques C'est Guizmo du 94 pas de Brice de Nice Si tu veux jouer avec moi gros je te brise l'anus han Et je vais aller fêter ça avec un gin tonic bou Calmement comme si c'est légal ahouu Algérie Mali Sénégal ahouu Ah je fumes la vanilla Si on se fait péter tout le monde va nier yeah Ton gang de zemel c'est des vauriens hein Ils vont cavaler devant mes alliers toutou tou Ah je suis péter je vais bé-ger Je cours derrière les beaux jours rhaa Mon 11 43 te dis bonsoir hein Et y'a la police qui me dit bonjour Fais pas le compassion je coupe ta nageoire ouais Tu va pas me doubler gros c'est mon tour Ton corps se fais trouer comme une passoire ha Même quand c'est la nuit on te dit bonjour tiens Many men Dans une autre vie j'étais LIM Et je m'en bat les couilles de l'école Moi rime je l'écris RIM Tu va planer si tu l'achètes Tu va canner si tu m'achètes ouais J'ai égorgé le mouton et j'ai bu la chèvre J'ai eu peur deux trois secondes c'était qu'une tapette c'était qu'une tapette Fils de pute pour la moula on est malins Met toi à quatre pattes et ne me parles pas de câlins Je suis dans mon 94 et on boit le Jack au miel A peine 18 ans gros j'avais déjà un moulon Ils se la pètent mais c'est que des branleurs 3000 personnes je fais lever les bras en l'air Je fume le chocolat de la couleur des brownies Je t'allumes ta mère si tu touches mon brother Brrrrrrrr Bruit de la machine à billets Brrrrrrrr Bruit de la bécane de Guizmo Brrrrrrrr Bruit que ça fait quand je vais tirer Brrrrrrrr Je sors le M 16 comme De Niro aller bah Gros je suis passé par le 18 Quand j'ai percé j'avais 19 ouais Aujourd'hui je peux m'acheter un R8 hein Et vendre de la cons à 10 000 keufs vroum vroum Téma le tassaba Téma le tassaba bordel ouais Ouais Mamadou Gassama Spider man avec un tas de problèmes Vous aller fuir Comme il a dit le daron ah ouais mon pote Avec son string en cuire Elle fait que m'appeler patron ouais Gros tu vois ce que je veux te dire c'est moi Là j'ai pris du gallon wouh wouh Je sors l'arme et je tire Ça fini au ballon ?? moi je peux péter les plombs Grandir a calle vendu sur le béton J'ai jamais fais de la chasse mais je connais les métaux Je vais tirer sur tout le monde allez fermer les stores piou piou piou piou piou Je connais des bouts je connais le milieu Malheureusement pas la fin de l'histoire Mon père le voyou oh elahmou Il dit qu'il travaille c'est un père castor J'ai rien vu j'ai rien dis rien han J'ai pas bu j'ai pas fumé que dalle Du lundi au lundi lundi au lundi monday monday Goutes a ma beuh elle est parfumée ah wow Tu crois que tu call Depuis petit bat les couilles de l'école hein Depuis petit on a roulé des cônes hein Cesare à son cul sur le trône On fait des menaces t'as cru c'était une blague On a finit dans ta planque C'est vous les mecs qui appellent les flics C'est nous les mecs qui ?? Et j'ai traîné dans ma rue Je suis baisé dans ma vie Bat les couilles du rap C'est la passion mon ami bah oui C'est mon que t'as vu en train de pillave dans la ville Le mec à l'affût qui dit akha mon ami toujours moi La bicrave le vol et la prison J'ai plus le temps pour ça Va te faire enculer avec tes vieux pourcents bah ouais Je connais le loup, je connais le renard et je connais la belette je les connais tous Je connais la foule , je connais les mouilles et je connais la vedette gang gang Y'a pleins de méchants dans ma tête sa mère Ah touche a mon petit reuf gros je te baise ta mère directement Ah, des balances des ennemis que je laisse par terre mais ils sont où Ah, t'as balancé j'ai ré-ti mais on était partenaires hehehe Je m'en bat les couilles d'avoir du flow Moi je veux que des sous ouais Trop souvent déçu hein Ah je suis indécis Bang bang Mafara bang bang Je suis vener si j'ai pas mon block bang bang Tout les jours la police veut me bloquer bang bang Ils prennent mon 12 et mon Glock 9 bang bang C'est le stricte minimum je la découpe au millimètre Et y'a personne qui fait comme moi skruu J'ai gratté beaucoup de sous menti à mon avocat Et pourtant je suis de bonne foie Pah pah pah C'est comme ça que je fais les choses ça flingue ça flingue C'est comme ça que je vends les doses Ah au déut c'était pour un grec Room room Et après c'était pour un break Room room Moi je te kick tu fais pas de break coco jojo Room room Je suis dans ma room je suis en train de la steak Quand tu crois que c'est fini c'est la que ça commence Mathefuckering toi et ta romance Le ti-peu à plus de détail il faut que je le relance Si je perds un tête à tête fils de pute je veux ma revanche Eh sur la tête de ma mère hein Sur la tombe de mon père ouais Le premier qui vient devant quoi Je le prend par derrière c'est sur Je l'ai mise à l'endroit à l'envers ouais Monsieur le renard hahaha J'ai écris quelques vers J'ai fini par les boire ahhhh Y et W Zigidi zone sensible Guizy ouzou Bigiri business On rêve d'un truc comme ça quoi T'as capté</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pour les frères à la fac, pour les frères au habs YW On rappe beaucoup mieux que ceux que tu pep's Tu vas tirer sur personne, psss Continue à tentraîner sur des canettes Schweppes Eh yo, on s'en bat les ille-cou, on voit personne, il y a que nous Allez tous vous faire enculer, j'ai capté qu'vous étiez chelous Ouais les négros veulent me fumer car j'ai tiré toutes leurs feumeus Attends un peu, mother fucker, moi dans l'peura, j'suis tout f-neu J'fais ce truc avec le feeling et j'm'en tape si ça va buzzer Ouais tu suces et t'es mimi mais tu n'auras pas de bisou Sale chienne, t'étais où quand j'avais pas d'seille ? Avec un rappeur plus connu et tu tapais d'la cess ? Merde, j'crois qu'tu sais pas qui t'as en face de ... Toi, j'fous la merde, j'emmerde les rageux Wah, tu parles de police et d'baveux J't'envoie des tonnes de meufs qui sortent de la MAF Vous avez trop d'swag, vous nous foutez la honte Des lingots d'or et quelques barres, on va pousser la fonte On est vifs et j'te dis Qu'on apprend pas c'que c'est qu'un trou d'balle à une ficelle de string Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent You might also like Belek à quand tu parles et quand t'écris, fais pas d'messes basses ou tu cries Elle est partie en Porsche grise, t'as maigri, gros, t'as des séquelles J'graille, vous êtes oufs, on m'a connu grâce à The Truth, j'suis béni, c'est clair, pénible BeanieSigel Tu mises sur ton gabarit sur Paris, le contraire des Qataris, des cainris, qu'Allah bénisse les guns On étouffe les balances, gueulent On dit qu'les pires femmes sont aux States, l'enfer s'prononce Hell C'est chelou le français, on fait du sale mais on t'nettoie On dit qu'pour être une star, faut 5 branches sur son étoile T'es un polygame ? T'as 5 femmes ? Aaanh, tes doigts ! Être les bests, on l'doit Nan, j'me prends pas pour de la merde, bah non et toi ? Les noirs sont sombres, ils se doivent de briller Laisse les sachets si tu prends pas ton biff Le Pape me dit qu'faut pas s'armer mais prier Et Monsieur s'achète une Papemobile Bref, le sujet c'est aif du gros-gros biff Si j'étais keuf, j'serai corrompu La came de tes gars, des dégâts, mets des gants, dégage la lette-ga, la morale té-cal, dans l'coca y a Colombie Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent Doucement, doucement, y a les mamans qui regardent S'te plait, ferme tes cuisses, cousine, fais pas tout d'suite le grand écart Entre le hallal et le haram, y a la Méditerranée Moi, j'suis en plein milieu en train de ramer J'habite à té-cô, l'flow j'l'ai pas pécho dans un caddie Je sais qui j'suis, pas comme la fille de Rachida Dati Moi j'ai fait Coup d'maître et j'ai rien à perdre Ne confond pas le Frelon Vert avec la mouche à merde Tous mes ennemis sont au bord de la crise de nerfs Tellement j'ai des phases bonnes comme une hôtesse de l'air Dis à tous ceux qui m'envient, à tous ces hatays Que j'ferai parti des grands MC et pas que par la taille Mes respects au H.I.P.H.O.P Qui n'a pas attendu Intouchables pour lancer des handicapés On sait tous tu bluffes, tu feintes C'est triste mais t'es pas d'la street Tu t'amuses, tu tâtes des gros einss Elles t'pigeonnent, ramènent ton fric J'ai pas besoin de laisser mon adresse Ils reconnaissent bien là le style du MC de Barbès Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent Salut les musclés !</t>
+          <t>Pour les frères à la fac, pour les frères au habs YW On rappe beaucoup mieux que ceux que tu pep's Tu vas tirer sur personne, psss Continue à tentraîner sur des canettes Schweppes Eh yo, on s'en bat les ille-cou, on voit personne, il y a que nous Allez tous vous faire enculer, j'ai capté qu'vous étiez chelous Ouais les négros veulent me fumer car j'ai tiré toutes leurs feumeus Attends un peu, mother fucker, moi dans l'peura, j'suis tout f-neu J'fais ce truc avec le feeling et j'm'en tape si ça va buzzer Ouais tu suces et t'es mimi mais tu n'auras pas de bisou Sale chienne, t'étais où quand j'avais pas d'seille ? Avec un rappeur plus connu et tu tapais d'la cess ? Merde, j'crois qu'tu sais pas qui t'as en face de ... Toi, j'fous la merde, j'emmerde les rageux Wah, tu parles de police et d'baveux J't'envoie des tonnes de meufs qui sortent de la MAF Vous avez trop d'swag, vous nous foutez la honte Des lingots d'or et quelques barres, on va pousser la fonte On est vifs et j'te dis Qu'on apprend pas c'que c'est qu'un trou d'balle à une ficelle de string Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent Belek à quand tu parles et quand t'écris, fais pas d'messes basses ou tu cries Elle est partie en Porsche grise, t'as maigri, gros, t'as des séquelles J'graille, vous êtes oufs, on m'a connu grâce à The Truth, j'suis béni, c'est clair, pénible BeanieSigel Tu mises sur ton gabarit sur Paris, le contraire des Qataris, des cainris, qu'Allah bénisse les guns On étouffe les balances, gueulent On dit qu'les pires femmes sont aux States, l'enfer s'prononce Hell C'est chelou le français, on fait du sale mais on t'nettoie On dit qu'pour être une star, faut 5 branches sur son étoile T'es un polygame ? T'as 5 femmes ? Aaanh, tes doigts ! Être les bests, on l'doit Nan, j'me prends pas pour de la merde, bah non et toi ? Les noirs sont sombres, ils se doivent de briller Laisse les sachets si tu prends pas ton biff Le Pape me dit qu'faut pas s'armer mais prier Et Monsieur s'achète une Papemobile Bref, le sujet c'est aif du gros-gros biff Si j'étais keuf, j'serai corrompu La came de tes gars, des dégâts, mets des gants, dégage la lette-ga, la morale té-cal, dans l'coca y a Colombie Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent Doucement, doucement, y a les mamans qui regardent S'te plait, ferme tes cuisses, cousine, fais pas tout d'suite le grand écart Entre le hallal et le haram, y a la Méditerranée Moi, j'suis en plein milieu en train de ramer J'habite à té-cô, l'flow j'l'ai pas pécho dans un caddie Je sais qui j'suis, pas comme la fille de Rachida Dati Moi j'ai fait Coup d'maître et j'ai rien à perdre Ne confond pas le Frelon Vert avec la mouche à merde Tous mes ennemis sont au bord de la crise de nerfs Tellement j'ai des phases bonnes comme une hôtesse de l'air Dis à tous ceux qui m'envient, à tous ces hatays Que j'ferai parti des grands MC et pas que par la taille Mes respects au H.I.P.H.O.P Qui n'a pas attendu Intouchables pour lancer des handicapés On sait tous tu bluffes, tu feintes C'est triste mais t'es pas d'la street Tu t'amuses, tu tâtes des gros einss Elles t'pigeonnent, ramènent ton fric J'ai pas besoin de laisser mon adresse Ils reconnaissent bien là le style du MC de Barbès Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a les mamans qui.. Salut les musclés ! Doucement, doucement, y a des renois qui regardent Salut les musclés !</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Yeah Uh Ayy I got dead men in my pocket, this shit gettin' scary, yeah Woo Big racks on me, I feel like 'Frigerator Perry Racks Bitch, I ball as necessary Yeah I'm as cool as Ben and Jerry If you don't like me, blame my parents Sit down if you can't stand me Yup, that bread, I gotta have it That bread That bread, I gotta have it That bread Bitch, I'm rich and blessed and savage I'm rich I'm rich and blessed and savage Yeah I'm rich and blessed and savage Yeah I'm rich and blessed and savage Rich Bitch, I'm rich and blessed and savage Bitch, bitch, bitch I'm rich and blessed and savage Yup, I'm rich and blessed and savage, uh Yeah, bitch, I'm immaculate Yeah, yeah Know my opps, they mad as fuck Know they mad I know my haters had enough Yeah, yeah Damn, Glock, you ballin' out, huh? Glock, you ballin' out Y'all got bitches fallin' out Yeah, my old ho callin' now Brrt Said she on my side of town Hello? But I just stalled her out I just stalled her out Bitch, I got more options now I got more options now Just left this thot-thot, yup, yup, I just got some Becky Just got some Becky, yeah, yeah And this bitch older than me, callin' me her zaddy Yeah, she callin' me her zaddy, yeah, yeah And this ho know that I'm richer than her daddy I'm richer than her daddy, yeah, yeah I just go, I be callin' plays like Madden Yeah You might also like I told that bitch I'm rich and blessed and savage The fuck? I'm rich and blessed and savage Yeah Bitch, I'm rich and blessed and savage I'm rich and blessed and savage Yeah, I'm rich and blessed and savage I'm rich and blessed and savage Bitch, I'm rich and blessed and savage I'm rich and blessed and savage Yeah, I'm rich and blessed and savage I'm rich I'm rich and blessed and savage Yeah Bitch, my neck and wrist Atlantic Uh My neck and wrist Atlantic Ocean Tripled up my cups, I poured it Glock, you got them hoes, I know it Duh Yeah, them racks and dope, I blow it Huh Racks and dope, bitch, you know it, yeah Yeah Bitch, you know it, yeah No way Bitch, you know it, I go hard Go hard Bitch, I play my part I been doin' this since the start Yeah, I finish what I start Now look at me, I'm a star Let's go I finish what I start Now look at me, I'm a star Yeah, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Yeah Yup, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, yeah Haha, bitch Yeah, yeah, yeah Yeah I'm rich and blessed and savage I'm rich and blessed and savage Yeah, yeah I'm rich and blessed and savage Yeah, yeah Bitch, I'm rich and blessed and savage I'm rich and blessed and savage, yup</t>
+          <t>Yeah Uh Ayy I got dead men in my pocket, this shit gettin' scary, yeah Woo Big racks on me, I feel like 'Frigerator Perry Racks Bitch, I ball as necessary Yeah I'm as cool as Ben and Jerry If you don't like me, blame my parents Sit down if you can't stand me Yup, that bread, I gotta have it That bread That bread, I gotta have it That bread Bitch, I'm rich and blessed and savage I'm rich I'm rich and blessed and savage Yeah I'm rich and blessed and savage Yeah I'm rich and blessed and savage Rich Bitch, I'm rich and blessed and savage Bitch, bitch, bitch I'm rich and blessed and savage Yup, I'm rich and blessed and savage, uh Yeah, bitch, I'm immaculate Yeah, yeah Know my opps, they mad as fuck Know they mad I know my haters had enough Yeah, yeah Damn, Glock, you ballin' out, huh? Glock, you ballin' out Y'all got bitches fallin' out Yeah, my old ho callin' now Brrt Said she on my side of town Hello? But I just stalled her out I just stalled her out Bitch, I got more options now I got more options now Just left this thot-thot, yup, yup, I just got some Becky Just got some Becky, yeah, yeah And this bitch older than me, callin' me her zaddy Yeah, she callin' me her zaddy, yeah, yeah And this ho know that I'm richer than her daddy I'm richer than her daddy, yeah, yeah I just go, I be callin' plays like Madden Yeah I told that bitch I'm rich and blessed and savage The fuck? I'm rich and blessed and savage Yeah Bitch, I'm rich and blessed and savage I'm rich and blessed and savage Yeah, I'm rich and blessed and savage I'm rich and blessed and savage Bitch, I'm rich and blessed and savage I'm rich and blessed and savage Yeah, I'm rich and blessed and savage I'm rich I'm rich and blessed and savage Yeah Bitch, my neck and wrist Atlantic Uh My neck and wrist Atlantic Ocean Tripled up my cups, I poured it Glock, you got them hoes, I know it Duh Yeah, them racks and dope, I blow it Huh Racks and dope, bitch, you know it, yeah Yeah Bitch, you know it, yeah No way Bitch, you know it, I go hard Go hard Bitch, I play my part I been doin' this since the start Yeah, I finish what I start Now look at me, I'm a star Let's go I finish what I start Now look at me, I'm a star Yeah, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Yeah Yup, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, I'm rich and blessed and savage Bitch I'm rich and blessed and savage Bitch, yeah Haha, bitch Yeah, yeah, yeah Yeah I'm rich and blessed and savage I'm rich and blessed and savage Yeah, yeah I'm rich and blessed and savage Yeah, yeah Bitch, I'm rich and blessed and savage I'm rich and blessed and savage, yup</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Han Ouzou guizi coucousisi zbangeul Lamso Diakité Tu sais déjà qui j'suis Mais moi j'sais pas qui t'es hein Check, check Eh yo! L'or c'est pas pour les hommes C'est pour les femmes et les disques Et c'est quand tu crois qu'on dort Mon poto qu'on prend des risques Et j'ai pas appelé mon grand frère pour prendre mes patins Bande de bâtards, bande de catins Si j'pète les plombs, j'en éclate un! J'ai déjà bu un flash de skyy, j'arrive à l'entrainement Mais j'la mets quand même dans la lulu après l'enchaînement Ton pot avec qui tu vends qui donne ds renseignements Dans la rue on sait c'que tu dis, pas c'que tu pense vraiment L'autre il s'amuse à mettre des grillz on va lui prendre ses dents J'me suis bousillé la santé, mon corps à 37 ans J'peux pas rester à l'arrière, je sais que prendre les devants Eh toi me fais pas l'ancien J'suis un d'tes grands d'tes grands Que dieu me pardonne d'avoir fait pleurer ma daronne J'fais des dingueries pour du drahem Vas d'mander j'ai qu'une seule parole Ça peut toquer à 6h quand mon sommeil il est paro Ma mule elle s'apelle Alison Et elle est derrière les barreaux J'suis l'ptit frère de l'As de Pique Mais j'peux te laisser sur le carreau Papa il dit Fils de pute Et Isaac il dit T'es pas beau Tellement la merde à la baraque On est à l'aise derrière les barreaux T'es un rappeur à la Star Ac' Et moi j'suis Pablo dans Narco Et Guizmo c'est une comète, w'Allah tous tes potes ils connaissent Tu sais pas les crimes qu'on commet Nan sérieux là vous êtes comiques J'suis le meilleur je le promets et j'vais défrayer la chronique Dans la street moi on me connaît On sait qu'j'fais des trucs insolites Et j'vais débarquer dans l'quartier avec Angelina Jolie Trop de saletés, on veut palper et puis s'arracher en bolide J'suis posé dans la calle avec Alkaly et Sonic Un coup c'est moi qu'ai tiré Un coup c'est moi qu'ai vendu le brolik Et depuis 2014, j'suis toujours plongé dans ma folie Tellement d'daronnes qui frottent le sol Gros, l'esclavage n'est pas aboli J'ai toujours été un leader Hors de question dev'nir un commis Mon pouchka devant le videur Qu'il arrête de s'prendre pour Broly À l'époque des vides ordures À la cité dans tous nos batiments Des familles qui jettent des poubelles Et puis des rats qui mangent La vie c'est fou des fois la guerre ça crée des ralliements J'ai caché mes sous au Mali pas dans les Caimans J'raconte nos vies de rue, jamais j'me chie dessus Encore une rics de plus Qui finit en fils de pute Pas d'tentative de tube, j'fais pas de hit j'te jure Essaye pas d'compter mes couplets gros ça fait X mesures Diguilitchek biguilibang depuis 2009 On n'est pas d'ceux qui ont coulé Nous on est d'ceux qui surfent Il a essayé d'me douiller c'était un demi d'peuf J'rappais déjà, tu bougeais ta tête sur Dirty Hous Et dans cette vie y'a ceux qui veulent Et puis y'a ceux qui peuvent J'connais des mecs v'la les grosses couilles Ils ont des petites teubs 8 mois fermes en préventive Ils ont qu'des petites preuves On est une grosse ethnie Ils nous prennent pour le petit peuple Aucun pouvoir sur mon Mektoub Loue-lui un 500 Abarth Mon poto, tu vas voir direct sa schnek s'ouvre J'dis pas qu'j'les baise tous Mais le renard il est bizarre quand il a vidé sa teille-bou Un dealer en liberté, un clandé en retention Les pointeurs pas inquiétés, qui payent même pas la pension J'suis un garçon particulier, je sais qu'j'les rend ouf Et j'crois bien que j'fume la même bé-ber que l'Professeur Raoult J'ai d'jà vécu un enfer, mais j'en suis revenu comme Haroun J'ai jamais porté d'oeillères mais j'ai d'jà porté la cagoule Ma belle-mère à la ZUP alors qu'j'suis avec sa fille J'fais du rap j'suis concentré si ça marche j'lui paye une villa J'm'appelle pas Thomas et ma femme c'est pas Nabilla Et quand ce jour arrivera j'le ferais Fissabilillah Tous paranos et tous nerveux dis pas qu'est ce qui y'a? Ils nous contrôlent, on est tranquille que sous Beldia Il a toujours le sourire tu sais pas c'qui vit Pour une affaire il voit son frère dans les médias Gros t'as vécu comme un chat zehma t'as 10 vies C'est à cause d'une balle dans la jambe qu'on danse le Mia Et j'crois qu'en Dieu, malgré les péchés Ouais y'aura Munkar et Nakîr dans mon corbillard Des fois j'culpabilise quand j'suis éméché J'réfléchis trop et j'me referme comme un coquillage J'suis Meek Mill en roue arrière qui a pas calculé Nicki Minaj Et mon daron au Loto y'avait des dettes dans ses tirages À une certaine époque sache que la dime c'était du pillage La vie est noire j'lai vu en rose c'était qu'un mirage Et quand j'te braque t'as peur du ukulele Starf'Allah j'me dis Oulalah c'est pas c'qu'enseignaient les ainés C'est une époque de fou malade à 17 ans c'est une traînée J'suis l'genre de mec qui poucave pas, quitte à finir enfermé On t'as jamais vu t'bagarrer mais dans ton snap tu t'entraînais On baraude comme des chiens d'traîneau Par la lune on est eclairés Tu peux pas nous piquer l'créneau J'suis l'meilleur et j'suis avéré Y'a mes spartiates derrière moi si jamais il faut vous gérer 94 VLT Zoo, les polognes et le parc Faut pas tout confondre on est nombreux comme des blattes J'ai arraché sans pitié sans savoir c'qui avait dans l'sac Maman je t'en veut pas du tout, mais dans l'frigo c'était sec Le daron mettait des patates dans le coma j'y étais presque J'ai pas qu'des bons souvenirs de vous Mais vous êtes quand même sur la fresque Mon meilleur pote fait des cauchemars à peine i dort Il vient d'remonter 200 kils de Benidorm Et nous raconte pas tes histoires de PGP T'es bétom à cause de quoi? Gros t'as pas payé l'TGV J'évite la drill leur flow c'est du déjà-vu On s'bagarrait à La Défense, eux ils s'bagarrent à CDG Gros j'ai jamais pris le melon j'ai toujours fumer le miel Ils font d'la flûte et du violon j'arrive à la one-again J'en ai vu de toutes les couleurs guizmo c'est un arc-en-ciel J'suis un motherfuckin renard. Je marche pas avec les hyènes Et poto j'te l'dis j'suis big un peu comme si j'm'appelle Ben De l'arsenic dans ton verre et puis tchin-tchin à la tienne Il a voulu faire le fou et i s'est mangé un K.O Comme Clara dans l'porno moi bientôt j'vous dis ciao J'suis rentré à 3 heure du mat, et elle m'as fait mon plat préféré Y'avait que elle hamdoullah, quand au parquet j'étais déféré Bah ouais j'ai toujours eu l'shit Pour me mettre dans des plans foireux Genre de truc où j'ai trop bu, en plein Paris bah j'ai dégainé Et complètement bourré Mes enfants ils croient qu'moi j'suis joyeux Alors que j'pleure de l'intérieur Mais faut pas le dire nan c'est mes joyaux Propriétaire en Amérique gros j'veux pas qu'tu m'parle de loyer Malé, Igor et Noam ouais mon poto c'est le noyau Et y'en a qui m'doivent des sous Et ils m'parlent comme si j'suis redevable Si ça a pas bardé pour vous, j'te jure c'est grâce à la beuh de Dam Ils m'ont rajouté 3 mois sa mère la pute il m'restait peu de time J'suis un putain d'volcan les autres rappeurs c'est des feux de paille On sait qu't'as rien fait dans la rue poto t'as que le style Allah y rahmo Las Montana Et puis Momo de Sky Ils sont paniqués quand j'arrive, j'ai des objectifs comme Chérif Tu carottes tu sais c'qui t'arrives, une fusillade sur le périph J'suis en gardav pas en vérif, ouais le renard il est terrible Parce que j'ai préféré la rue Pendant qu'mes frères ils f'saient l'intérim 2 ans d'écart avec ma femme j'ai rien à voir avec R.Kelly Le caviar c'est degeulasse gros j'ai grandi avec le keni Et viens pas m'gratter un stick si t'as pas les couille de caler Guette le film une deuxième fois igor et moi on est dans Belly Et là j'ai ma te-tan qu'est dans la maladie Que Dieu lui accorde la santé ou bien le paradis Fait pas ton regard menaçant on sais qu't'es qu'une tapette Tu parle de kil, t'es même pas cap de bicrave une plaquette J'ai ma fierté j's'rais jamais d'ceux que les gens achètent Aussi gracieux que Fred Astaire quand il danse les claquettes Tu vois Meek Mill la bécane j'maitrise mieux qu'lui Les soleils et les pizzas c'était y'a depuis J'men fou de Ferragamo, il m'faut un fer, un gamos Et les balles pleuvent de partout c'est pire qu'à Rolland Garros Y'a pas qu'les fleurs qu'on arrose, arrange moi sur les taros VIens on s'met autour d'un fé-ca et on bédave une garo Starfalillah j'ai d'jà mis d'la Vodka dans l'Bissap Si j'pouvais tout recommencer j'm'appellerai Isaac Dans tout les coins, dans tous les secteurs Han Nique les pookies, nique les inspecteurs Le terrain ouvre à midi gros faut qu'tu t'check l'heure Une daronne qui s'casse le dos, un père qui fait peur J'ai finis par plus rentrer besoin d'un bol d'air Moi j'veux du jaune et du violet comme les Lakers J'les appelle des fils de pute. Toi tu dis haters Je te l'ai dis d'puis 2011 Gros j'suis l'meilleur J'fais des cauchemars de fils de pute j'en ai des frayeurs Mais j'suis plus fort que tout ça moi j'suis comme Seyar La renardise YW Zbiguilizbangeul motherfucker AhouYou might also like</t>
+          <t>Han Ouzou guizi coucousisi zbangeul Lamso Diakité Tu sais déjà qui j'suis Mais moi j'sais pas qui t'es hein Check, check Eh yo! L'or c'est pas pour les hommes C'est pour les femmes et les disques Et c'est quand tu crois qu'on dort Mon poto qu'on prend des risques Et j'ai pas appelé mon grand frère pour prendre mes patins Bande de bâtards, bande de catins Si j'pète les plombs, j'en éclate un! J'ai déjà bu un flash de skyy, j'arrive à l'entrainement Mais j'la mets quand même dans la lulu après l'enchaînement Ton pot avec qui tu vends qui donne ds renseignements Dans la rue on sait c'que tu dis, pas c'que tu pense vraiment L'autre il s'amuse à mettre des grillz on va lui prendre ses dents J'me suis bousillé la santé, mon corps à 37 ans J'peux pas rester à l'arrière, je sais que prendre les devants Eh toi me fais pas l'ancien J'suis un d'tes grands d'tes grands Que dieu me pardonne d'avoir fait pleurer ma daronne J'fais des dingueries pour du drahem Vas d'mander j'ai qu'une seule parole Ça peut toquer à 6h quand mon sommeil il est paro Ma mule elle s'apelle Alison Et elle est derrière les barreaux J'suis l'ptit frère de l'As de Pique Mais j'peux te laisser sur le carreau Papa il dit Fils de pute Et Isaac il dit T'es pas beau Tellement la merde à la baraque On est à l'aise derrière les barreaux T'es un rappeur à la Star Ac' Et moi j'suis Pablo dans Narco Et Guizmo c'est une comète, w'Allah tous tes potes ils connaissent Tu sais pas les crimes qu'on commet Nan sérieux là vous êtes comiques J'suis le meilleur je le promets et j'vais défrayer la chronique Dans la street moi on me connaît On sait qu'j'fais des trucs insolites Et j'vais débarquer dans l'quartier avec Angelina Jolie Trop de saletés, on veut palper et puis s'arracher en bolide J'suis posé dans la calle avec Alkaly et Sonic Un coup c'est moi qu'ai tiré Un coup c'est moi qu'ai vendu le brolik Et depuis 2014, j'suis toujours plongé dans ma folie Tellement d'daronnes qui frottent le sol Gros, l'esclavage n'est pas aboli J'ai toujours été un leader Hors de question dev'nir un commis Mon pouchka devant le videur Qu'il arrête de s'prendre pour Broly À l'époque des vides ordures À la cité dans tous nos batiments Des familles qui jettent des poubelles Et puis des rats qui mangent La vie c'est fou des fois la guerre ça crée des ralliements J'ai caché mes sous au Mali pas dans les Caimans J'raconte nos vies de rue, jamais j'me chie dessus Encore une rics de plus Qui finit en fils de pute Pas d'tentative de tube, j'fais pas de hit j'te jure Essaye pas d'compter mes couplets gros ça fait X mesures Diguilitchek biguilibang depuis 2009 On n'est pas d'ceux qui ont coulé Nous on est d'ceux qui surfent Il a essayé d'me douiller c'était un demi d'peuf J'rappais déjà, tu bougeais ta tête sur Dirty Hous Et dans cette vie y'a ceux qui veulent Et puis y'a ceux qui peuvent J'connais des mecs v'la les grosses couilles Ils ont des petites teubs 8 mois fermes en préventive Ils ont qu'des petites preuves On est une grosse ethnie Ils nous prennent pour le petit peuple Aucun pouvoir sur mon Mektoub Loue-lui un 500 Abarth Mon poto, tu vas voir direct sa schnek s'ouvre J'dis pas qu'j'les baise tous Mais le renard il est bizarre quand il a vidé sa teille-bou Un dealer en liberté, un clandé en retention Les pointeurs pas inquiétés, qui payent même pas la pension J'suis un garçon particulier, je sais qu'j'les rend ouf Et j'crois bien que j'fume la même bé-ber que l'Professeur Raoult J'ai d'jà vécu un enfer, mais j'en suis revenu comme Haroun J'ai jamais porté d'oeillères mais j'ai d'jà porté la cagoule Ma belle-mère à la ZUP alors qu'j'suis avec sa fille J'fais du rap j'suis concentré si ça marche j'lui paye une villa J'm'appelle pas Thomas et ma femme c'est pas Nabilla Et quand ce jour arrivera j'le ferais Fissabilillah Tous paranos et tous nerveux dis pas qu'est ce qui y'a? Ils nous contrôlent, on est tranquille que sous Beldia Il a toujours le sourire tu sais pas c'qui vit Pour une affaire il voit son frère dans les médias Gros t'as vécu comme un chat zehma t'as 10 vies C'est à cause d'une balle dans la jambe qu'on danse le Mia Et j'crois qu'en Dieu, malgré les péchés Ouais y'aura Munkar et Nakîr dans mon corbillard Des fois j'culpabilise quand j'suis éméché J'réfléchis trop et j'me referme comme un coquillage J'suis Meek Mill en roue arrière qui a pas calculé Nicki Minaj Et mon daron au Loto y'avait des dettes dans ses tirages À une certaine époque sache que la dime c'était du pillage La vie est noire j'lai vu en rose c'était qu'un mirage Et quand j'te braque t'as peur du ukulele Starf'Allah j'me dis Oulalah c'est pas c'qu'enseignaient les ainés C'est une époque de fou malade à 17 ans c'est une traînée J'suis l'genre de mec qui poucave pas, quitte à finir enfermé On t'as jamais vu t'bagarrer mais dans ton snap tu t'entraînais On baraude comme des chiens d'traîneau Par la lune on est eclairés Tu peux pas nous piquer l'créneau J'suis l'meilleur et j'suis avéré Y'a mes spartiates derrière moi si jamais il faut vous gérer 94 VLT Zoo, les polognes et le parc Faut pas tout confondre on est nombreux comme des blattes J'ai arraché sans pitié sans savoir c'qui avait dans l'sac Maman je t'en veut pas du tout, mais dans l'frigo c'était sec Le daron mettait des patates dans le coma j'y étais presque J'ai pas qu'des bons souvenirs de vous Mais vous êtes quand même sur la fresque Mon meilleur pote fait des cauchemars à peine i dort Il vient d'remonter 200 kils de Benidorm Et nous raconte pas tes histoires de PGP T'es bétom à cause de quoi? Gros t'as pas payé l'TGV J'évite la drill leur flow c'est du déjà-vu On s'bagarrait à La Défense, eux ils s'bagarrent à CDG Gros j'ai jamais pris le melon j'ai toujours fumer le miel Ils font d'la flûte et du violon j'arrive à la one-again J'en ai vu de toutes les couleurs guizmo c'est un arc-en-ciel J'suis un motherfuckin renard. Je marche pas avec les hyènes Et poto j'te l'dis j'suis big un peu comme si j'm'appelle Ben De l'arsenic dans ton verre et puis tchin-tchin à la tienne Il a voulu faire le fou et i s'est mangé un K.O Comme Clara dans l'porno moi bientôt j'vous dis ciao J'suis rentré à 3 heure du mat, et elle m'as fait mon plat préféré Y'avait que elle hamdoullah, quand au parquet j'étais déféré Bah ouais j'ai toujours eu l'shit Pour me mettre dans des plans foireux Genre de truc où j'ai trop bu, en plein Paris bah j'ai dégainé Et complètement bourré Mes enfants ils croient qu'moi j'suis joyeux Alors que j'pleure de l'intérieur Mais faut pas le dire nan c'est mes joyaux Propriétaire en Amérique gros j'veux pas qu'tu m'parle de loyer Malé, Igor et Noam ouais mon poto c'est le noyau Et y'en a qui m'doivent des sous Et ils m'parlent comme si j'suis redevable Si ça a pas bardé pour vous, j'te jure c'est grâce à la beuh de Dam Ils m'ont rajouté 3 mois sa mère la pute il m'restait peu de time J'suis un putain d'volcan les autres rappeurs c'est des feux de paille On sait qu't'as rien fait dans la rue poto t'as que le style Allah y rahmo Las Montana Et puis Momo de Sky Ils sont paniqués quand j'arrive, j'ai des objectifs comme Chérif Tu carottes tu sais c'qui t'arrives, une fusillade sur le périph J'suis en gardav pas en vérif, ouais le renard il est terrible Parce que j'ai préféré la rue Pendant qu'mes frères ils f'saient l'intérim 2 ans d'écart avec ma femme j'ai rien à voir avec R.Kelly Le caviar c'est degeulasse gros j'ai grandi avec le keni Et viens pas m'gratter un stick si t'as pas les couille de caler Guette le film une deuxième fois igor et moi on est dans Belly Et là j'ai ma te-tan qu'est dans la maladie Que Dieu lui accorde la santé ou bien le paradis Fait pas ton regard menaçant on sais qu't'es qu'une tapette Tu parle de kil, t'es même pas cap de bicrave une plaquette J'ai ma fierté j's'rais jamais d'ceux que les gens achètent Aussi gracieux que Fred Astaire quand il danse les claquettes Tu vois Meek Mill la bécane j'maitrise mieux qu'lui Les soleils et les pizzas c'était y'a depuis J'men fou de Ferragamo, il m'faut un fer, un gamos Et les balles pleuvent de partout c'est pire qu'à Rolland Garros Y'a pas qu'les fleurs qu'on arrose, arrange moi sur les taros VIens on s'met autour d'un fé-ca et on bédave une garo Starfalillah j'ai d'jà mis d'la Vodka dans l'Bissap Si j'pouvais tout recommencer j'm'appellerai Isaac Dans tout les coins, dans tous les secteurs Han Nique les pookies, nique les inspecteurs Le terrain ouvre à midi gros faut qu'tu t'check l'heure Une daronne qui s'casse le dos, un père qui fait peur J'ai finis par plus rentrer besoin d'un bol d'air Moi j'veux du jaune et du violet comme les Lakers J'les appelle des fils de pute. Toi tu dis haters Je te l'ai dis d'puis 2011 Gros j'suis l'meilleur J'fais des cauchemars de fils de pute j'en ai des frayeurs Mais j'suis plus fort que tout ça moi j'suis comme Seyar La renardise YW Zbiguilizbangeul motherfucker Ahou</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Oh le renard, le renard Arrête de fumer Guizi Ouzou, YW Il faut qu'je smoke yeah Il faut quje smoke ouais, faut qu'je smoke Il faut qu'je smoke smoke Il faut quje smoke pas la fumée, que la fumée Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute c'est pas d'ma faute, nan, nan Mais il faut qu'je smoke Smoke J'fume une cigarette de shit Défoncé sur du Bobby Allez vite amène le fric Ou jme pointe avec mon beat Pour moi le rap cest trop facile Y'a pas do, ré, mi, fa, sol Jmesuis bourré, j'étais seul Y'a ma mère, il faut que j'désaoule Mais jétais un imbécile Qui pensait qu'à faire du sale Maintenant j'suis un indécis Qui ne pense qu'à faire des sous Et trop souvent déçu Aujourd'hui je vis de ça Mais on me prenait pour un fou Gros, j'vais pas te faire un dessin c'est pas la peine Des dollars, des euros ou des roupies, ma gueule Dans deux-trois ans, j'en aurai plus que les groupies d'Michael Et si jamais y'a embrouilles, faut pas que j'oublie my gun Après demain j'ai studio, faut pas que j'oublie ma feuille C'est pas vraiment ma faute C'est comme ça il faut qu'je smoke c'est pas ma faute Smoke You might also likeC'est pas vraiment de ma faute C'est comme ça il faut qu'je smoke c'est pas ma faute Smoke Il faut qu'je smoke ouais, il faut qu'je smoke Il faut qu'je smoke ouais, je smoke Il faut qu'je smoke je smoke de la weed Il faut qu'je smoke faut qu'je smoke du te-shi Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute mais nan, c'est pas d'ma faute Mais il faut qu'je smoke Smoke Et je smoke pour le réveil Et je smoke pour le dodo Smoke avec mes scar-la Et j'fais tourner à mes bobos Et là j'suis trop flex J'me rappelle plus de mon texte J'l'ai oublié un peu comme si c'était mon ex Et j'suis pas trop costaud, j'ai jamais kiffé la gonflette Ils cherchent tous le génie Mais il est caché dans mon pét' Deux ou trois verre, j't'avoue j'étais un peu pompette Et puis voilà j'ai soleillé sur le compet' J'ai un coffee dans mon slip De la d-wee dans mon spliff Mon 9.4 aime la bagarre Pas de brolique dans le jeans J'ai tiré comme un fusil Décolé comme la fusée Faut pas que j'pète un fusible, non Il faut qu'je smoke ouais, il faut qu'je smoke Il faut qu'je smoke faut qu'je smoke Il faut qu'je smoke je smoke Il faut qu'je smoke de la weed ou du shit Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute mais nan, c'est pas d'ma faute Mais il faut qu'je smoke bah, ouais Smoke J'ai trop de soucis dans ma tête Moi c'est pas comme vous Pourquoi tu veux savoir où j'vis ? Pourquoi tu veux savoir où j'vais ? Le renard c'est discret, rare et solitaire La gorilla dans mon veau-cer, et puis ça prolifère Dis à la BAC de nuit, que j'fais du rap qu'avec Je fais du cash, purée ça fait un bail Depuis tu m'aurais vu y'a dix ans J'étais perché dans le jaune Ça y est j'ai plus rien à dire Celle-là c'est pour tomso J'crois que c'est pas vraiment ma faute C'est comme ça il faut qu'je smoke Smoke C'est pas vraiment de ma faute C'est comme ça il faut qu'je smoke Smoke 9.4 V.L.T 92, La Caravelle, V.L.G Wesh la cave J'smoke, faut qu'je smoke Faut qu'je smoke</t>
+          <t>Oh le renard, le renard Arrête de fumer Guizi Ouzou, YW Il faut qu'je smoke yeah Il faut quje smoke ouais, faut qu'je smoke Il faut qu'je smoke smoke Il faut quje smoke pas la fumée, que la fumée Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute c'est pas d'ma faute, nan, nan Mais il faut qu'je smoke Smoke J'fume une cigarette de shit Défoncé sur du Bobby Allez vite amène le fric Ou jme pointe avec mon beat Pour moi le rap cest trop facile Y'a pas do, ré, mi, fa, sol Jmesuis bourré, j'étais seul Y'a ma mère, il faut que j'désaoule Mais jétais un imbécile Qui pensait qu'à faire du sale Maintenant j'suis un indécis Qui ne pense qu'à faire des sous Et trop souvent déçu Aujourd'hui je vis de ça Mais on me prenait pour un fou Gros, j'vais pas te faire un dessin c'est pas la peine Des dollars, des euros ou des roupies, ma gueule Dans deux-trois ans, j'en aurai plus que les groupies d'Michael Et si jamais y'a embrouilles, faut pas que j'oublie my gun Après demain j'ai studio, faut pas que j'oublie ma feuille C'est pas vraiment ma faute C'est comme ça il faut qu'je smoke c'est pas ma faute Smoke C'est pas vraiment de ma faute C'est comme ça il faut qu'je smoke c'est pas ma faute Smoke Il faut qu'je smoke ouais, il faut qu'je smoke Il faut qu'je smoke ouais, je smoke Il faut qu'je smoke je smoke de la weed Il faut qu'je smoke faut qu'je smoke du te-shi Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute mais nan, c'est pas d'ma faute Mais il faut qu'je smoke Smoke Et je smoke pour le réveil Et je smoke pour le dodo Smoke avec mes scar-la Et j'fais tourner à mes bobos Et là j'suis trop flex J'me rappelle plus de mon texte J'l'ai oublié un peu comme si c'était mon ex Et j'suis pas trop costaud, j'ai jamais kiffé la gonflette Ils cherchent tous le génie Mais il est caché dans mon pét' Deux ou trois verre, j't'avoue j'étais un peu pompette Et puis voilà j'ai soleillé sur le compet' J'ai un coffee dans mon slip De la d-wee dans mon spliff Mon 9.4 aime la bagarre Pas de brolique dans le jeans J'ai tiré comme un fusil Décolé comme la fusée Faut pas que j'pète un fusible, non Il faut qu'je smoke ouais, il faut qu'je smoke Il faut qu'je smoke faut qu'je smoke Il faut qu'je smoke je smoke Il faut qu'je smoke de la weed ou du shit Smoke smoke, smoke smoke Igo, il faut qu'je smoke C'est pas d'ma faute mais nan, c'est pas d'ma faute Mais il faut qu'je smoke bah, ouais Smoke J'ai trop de soucis dans ma tête Moi c'est pas comme vous Pourquoi tu veux savoir où j'vis ? Pourquoi tu veux savoir où j'vais ? Le renard c'est discret, rare et solitaire La gorilla dans mon veau-cer, et puis ça prolifère Dis à la BAC de nuit, que j'fais du rap qu'avec Je fais du cash, purée ça fait un bail Depuis tu m'aurais vu y'a dix ans J'étais perché dans le jaune Ça y est j'ai plus rien à dire Celle-là c'est pour tomso J'crois que c'est pas vraiment ma faute C'est comme ça il faut qu'je smoke Smoke C'est pas vraiment de ma faute C'est comme ça il faut qu'je smoke Smoke 9.4 V.L.T 92, La Caravelle, V.L.G Wesh la cave J'smoke, faut qu'je smoke Faut qu'je smoke</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Yo, GPG 2 Guizmo YW Toujours mon spliff au bec, mec Fais ce que t'as à faire Spliff au bec dans la rue Bats les couilles si y'a les keufs On se bagarre, on s'allume J'ai un pistolet tout neuf Le poker c'est pas mon truc J'ai jamais fait dans le bluff Et j'ai pas donné mon ul-c Quitte à bicrave de la peuf' Difficile de m'attraper, sur le terrain j'suis trop deus' Et j'ai plus aucune pitié depuis qu'j'ai enterré ma reuf J'me suis déjà évadé en mettant un truc dans ma yeuf Mais le lendemain matin, mon pote, j'te jure c'est pas la teuf Toujours un mec qui fait un truc chelou Celui que tu mets pas sur le coup Parce que cet enfoiré, il en veut plus que nous fils de pute J'suis dans les bacs, dans les blocs et dans les voitures ouais C'est le fruit de mon respect et de ma droiture The roof is on fire J'éclate la toiture, un poids plume Qui rappe comme un fêlé à cause des fractures The roof is on fire J'éclate la toiture, un poids plume Qui rappe comme un fêlé à cause des fractures You might also like Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Spliff au bec, au ciné Bats les couilles de la sécu' Le talent c'est inné Le travail c'est les écus J'ai fumé, j'ai tisé J'ai bousillé mes études On m'avait pourtant prévenu Mais le renard est têtu Mon pote, ça fait longtemps que j'ai décollé Mais j'ai du mal à atterrir Parce que mon cur, il veut pas guérir Le spliff au bec, c'est nécessaire J'ai du mal à m'assagir Descendant d'Aimé Césaire Moi j'veux crever en martyr Et c'est pas grave si j'pars avant mes fils Ils connaîtront mon courage bien avant mes vices Ma femme, j'vais à la guerre et inch'Allah, que j'la gagne Désolé, sur un contrôle, j'peux faire des mois de placard J'vais regretter ce que j'ai pas fait hier J'écris chacune de mes chansons comme un requiem J'vais regretter ce que j'ai pas fait hier J'écris chacune de mes chansons comme un requiem Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Guizmo, YW, Zone sensible GP Gansters Partout motherfucker Ahou, c'est comme ça qu'j'fais Avec le spliff au bec Ouais, ouais, GP Ouzou Yonea Willy, Willy Yonea business Qu'est-ce que tu vas faire ? Zbang</t>
+          <t>Yo, GPG 2 Guizmo YW Toujours mon spliff au bec, mec Fais ce que t'as à faire Spliff au bec dans la rue Bats les couilles si y'a les keufs On se bagarre, on s'allume J'ai un pistolet tout neuf Le poker c'est pas mon truc J'ai jamais fait dans le bluff Et j'ai pas donné mon ul-c Quitte à bicrave de la peuf' Difficile de m'attraper, sur le terrain j'suis trop deus' Et j'ai plus aucune pitié depuis qu'j'ai enterré ma reuf J'me suis déjà évadé en mettant un truc dans ma yeuf Mais le lendemain matin, mon pote, j'te jure c'est pas la teuf Toujours un mec qui fait un truc chelou Celui que tu mets pas sur le coup Parce que cet enfoiré, il en veut plus que nous fils de pute J'suis dans les bacs, dans les blocs et dans les voitures ouais C'est le fruit de mon respect et de ma droiture The roof is on fire J'éclate la toiture, un poids plume Qui rappe comme un fêlé à cause des fractures The roof is on fire J'éclate la toiture, un poids plume Qui rappe comme un fêlé à cause des fractures Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Spliff au bec, au ciné Bats les couilles de la sécu' Le talent c'est inné Le travail c'est les écus J'ai fumé, j'ai tisé J'ai bousillé mes études On m'avait pourtant prévenu Mais le renard est têtu Mon pote, ça fait longtemps que j'ai décollé Mais j'ai du mal à atterrir Parce que mon cur, il veut pas guérir Le spliff au bec, c'est nécessaire J'ai du mal à m'assagir Descendant d'Aimé Césaire Moi j'veux crever en martyr Et c'est pas grave si j'pars avant mes fils Ils connaîtront mon courage bien avant mes vices Ma femme, j'vais à la guerre et inch'Allah, que j'la gagne Désolé, sur un contrôle, j'peux faire des mois de placard J'vais regretter ce que j'ai pas fait hier J'écris chacune de mes chansons comme un requiem J'vais regretter ce que j'ai pas fait hier J'écris chacune de mes chansons comme un requiem Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Fais c'que t'as à faire Je sais c'que j'ai à faire Bouteille et boîte de nuit, c'est là-bas que vous faites la guerre Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Tu peux m'voir partout avec mon spliff au bec À traîner dans la rue j'ai fait des kilomètres Il me faut du cash pas de discothèque Alors j'les vis-ser avec le spliff au bec Guizmo, YW, Zone sensible GP Gansters Partout motherfucker Ahou, c'est comme ça qu'j'fais Avec le spliff au bec Ouais, ouais, GP Ouzou Yonea Willy, Willy Yonea business Qu'est-ce que tu vas faire ? Zbang</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Ouais, ouais ,ouais Ouais, eh dis leur là Yonea Willy c'est comment VLT 94, c'est comment Bès-bar, tu connais l'boulvard Yogayo, yogayo J'viens d'Valenton, c'est dans l'94, c'est pas connu mais c'est la crise à mort Et comme dis LDT si t'as l'pétard, tu décides qui a tort On vole un peu, bicrave un peu parce qu'on veut pas faire la queue et qu'on rigole avec la beuh bah ouais Mauvais élève, j'suis sur un stunt et je le lève Joint de cana' sur les lèvres J'me laisse aller avec Rico, faut les plages de Mexico Mais pour ça, il faut plus de toxicos Tom So' dit à Kalash il s'fait pas trop d'soucis J'ramène des sous chez sa daronne et j'vais pas chez Gucci Merde, t'allais caner sur c'putain d'YZ Flash de vodka et gros pilon c'était ton p'tit réflexe On a d'la frappe, on a d'la force et on a du panache J'vais mourir dans ma cité comme si j'étais Babash 94 VLT j'vais mourir dans ma cité comme si j'étais Babash C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait You might also like Bâtiment 9, c'est moi Bâtiment 9, c'est Malé Bâtiment 9, c'est mailla Bâtiment 9, c'est carré Dis leur Landri, on part tout seul dans un autre bled Et en aucun cas parce qu'on est wanted La rue, j'peux plus m'en passer, elle est v'nue m'embrasser Fin d'gardav, j'suis à jeun sans la C Yonea Willy, c'est jusqu'à l'infini Le renard veut pas freiner avant d'avoir le milli Parle avec mes potes on s'rappelle l'époque du scal-pa On était mômes on connaissait pas l'card-pla Dix ans plus tard de la drogue et de la garre-ba Eh les mecs, j'rentre chez moi, ça sent la tate-pa Parle avec mes potes on s'rappelle l'époque du scal-ba On était mômes, on connaissait pas l'card-pla Dix ans plus tard de la drogue et de la garre-ba Eh les mecs, j'rentre chez moi, ça sent la tate-pa C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait J'ai connu des potes en chemin Avant que j'bicrave d'la coke en chien J'étais en primaire à l'école Paul Langevin Demande aux p'tits comment j'suis apprécié Vas-y, j'vais abréger, j'arrachais des sacs à mains et pis j'agressais Voiture ? Pé-ta, téléphone ? Pé-ta Scooter ? Pé-ta, qui a fait ça ? J'sais pas Arrête de croire que t'es un chaud parce que tu fumes des spliffs Vingt ans avant, c'est l'poney club et allez suce des bites Avec Sofiane, j'fumais d'la beuh, j'étais catapulté J'me suis calmé, j'veux pas qu'on m'demande Papa où t'es ? D'mande à ma femme si mes enfants manquent de quoique ce soit J'monte sur un plan demain matin, tu vas en boîte ce soir C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et pour mes gavas Long est le brava Tu connais y'a que des braves J'rentre chez moi on me dit bravo Yonea Willy c'est comment Ouai la zooooone On va tout niquer mon renard Ouai, ouai, ouai, ouai Wesh la C là Wesh d'Valenton à Fresnes la Wesh d'Valenton à Fleury Wesh d'Valenton à Chauconin Wesh d'Valenton à Villepinte Wesh d'Valenton à Nanterre Wesh Valenton dans toutes les hebs Wesh Valenton dans toutes les tess Aaaaaah</t>
+          <t>Ouais, ouais ,ouais Ouais, eh dis leur là Yonea Willy c'est comment VLT 94, c'est comment Bès-bar, tu connais l'boulvard Yogayo, yogayo J'viens d'Valenton, c'est dans l'94, c'est pas connu mais c'est la crise à mort Et comme dis LDT si t'as l'pétard, tu décides qui a tort On vole un peu, bicrave un peu parce qu'on veut pas faire la queue et qu'on rigole avec la beuh bah ouais Mauvais élève, j'suis sur un stunt et je le lève Joint de cana' sur les lèvres J'me laisse aller avec Rico, faut les plages de Mexico Mais pour ça, il faut plus de toxicos Tom So' dit à Kalash il s'fait pas trop d'soucis J'ramène des sous chez sa daronne et j'vais pas chez Gucci Merde, t'allais caner sur c'putain d'YZ Flash de vodka et gros pilon c'était ton p'tit réflexe On a d'la frappe, on a d'la force et on a du panache J'vais mourir dans ma cité comme si j'étais Babash 94 VLT j'vais mourir dans ma cité comme si j'étais Babash C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait Bâtiment 9, c'est moi Bâtiment 9, c'est Malé Bâtiment 9, c'est mailla Bâtiment 9, c'est carré Dis leur Landri, on part tout seul dans un autre bled Et en aucun cas parce qu'on est wanted La rue, j'peux plus m'en passer, elle est v'nue m'embrasser Fin d'gardav, j'suis à jeun sans la C Yonea Willy, c'est jusqu'à l'infini Le renard veut pas freiner avant d'avoir le milli Parle avec mes potes on s'rappelle l'époque du scal-pa On était mômes on connaissait pas l'card-pla Dix ans plus tard de la drogue et de la garre-ba Eh les mecs, j'rentre chez moi, ça sent la tate-pa Parle avec mes potes on s'rappelle l'époque du scal-ba On était mômes, on connaissait pas l'card-pla Dix ans plus tard de la drogue et de la garre-ba Eh les mecs, j'rentre chez moi, ça sent la tate-pa C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait J'ai connu des potes en chemin Avant que j'bicrave d'la coke en chien J'étais en primaire à l'école Paul Langevin Demande aux p'tits comment j'suis apprécié Vas-y, j'vais abréger, j'arrachais des sacs à mains et pis j'agressais Voiture ? Pé-ta, téléphone ? Pé-ta Scooter ? Pé-ta, qui a fait ça ? J'sais pas Arrête de croire que t'es un chaud parce que tu fumes des spliffs Vingt ans avant, c'est l'poney club et allez suce des bites Avec Sofiane, j'fumais d'la beuh, j'étais catapulté J'me suis calmé, j'veux pas qu'on m'demande Papa où t'es ? D'mande à ma femme si mes enfants manquent de quoique ce soit J'monte sur un plan demain matin, tu vas en boîte ce soir C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et mes res-frè VLT mon putain d'refrain Si ça marche, c'est sûr on l'refera On veut tous porter les deux frères Grâce au shit ou au pe-ra Tous on finit refait C'est pour ma tess et pour mes gavas Long est le brava Tu connais y'a que des braves J'rentre chez moi on me dit bravo Yonea Willy c'est comment Ouai la zooooone On va tout niquer mon renard Ouai, ouai, ouai, ouai Wesh la C là Wesh d'Valenton à Fresnes la Wesh d'Valenton à Fleury Wesh d'Valenton à Chauconin Wesh d'Valenton à Villepinte Wesh d'Valenton à Nanterre Wesh Valenton dans toutes les hebs Wesh Valenton dans toutes les tess Aaaaaah</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Guiziouzou, 9.2, YW Journée comme les autres, tout est en désordre, shooté dans l'décor Tous étouffés dans tes tours où t'es r'douté quand t'es fort Manque de flouze et pensées gores, la vie va vite quand tu fatigues Tu t'imagines que c'est tragique, c'est moins tragique que quand t'es mort J'me prends la tête, j'sais bien qu'j'aurais pas d'Prix Nobel C'est pas qu'j'm'inquiète mais j'ai des dettes, j'suis pas en mode pa ni pwoblèm En plus de ça, j'ai mal au ventre, j'ressens comme une sorte de boule Qui s'balade vers l'estomac, à chaque fois qu'une porte s'ouvre J'suis sous pression, j'ai mes raisons quand j'vois c'qui s'passe à la maison Toutes les saisons, maman pète un câble, il enchaînait les liaisons J'suis réaliste y'a très peu d'gens qui s'épanouissent L'effet d'la tise me tétanise et y'a plus rien qu'j'idéalise Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané You might also like Laisse-moi te dire un truc, il se passe de vilaines choses De la Caravelle au Luth, des Pablo à la cité Rose Les mecs sont sans pitiés, se butent entre eux, faut pas faire le bout-en-train Ils fument entre eux, chutent entre eux, au placard, t'en a tout l'temps un Et les daronnes spectatrices et attristées On traîne la nuit, elles s'lèvent à six parce qu'au boulot faut rappliquer Et j'fais pas zehma la cité, j'y habitais mais j'mangeais bien Pas trop con mais j'me doutais qu'j'deviendrai pas un grand médecin J'suis chaud là, j'peux rapper toute la nuit si j'veux J'suis perché dans la milky way en train d'préparer dix mille skeuds J'fais pas du rap, j'fais un truc qui mets des baffes Schizophrène avec un mic, j'me dédouble et j'fais mes backs putain Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Y'a toute une jeunesse dans mon cas, là, ils peuvent pas fermer les yeux Un truc de malade, ils nous baladent, nos adversaires c'est les bleus La rage et la fierté, les deux, on apprends à vivre avec MasterCard peuvent rien y faire, c'est pas des trucs qui s'achète Du pognon, du flouze, du fric, des thunes, il m'en faut Du gros son, du groove, du style, des tueries dans l'flow J'fais ce truc depuis belle lurettes, ils croyaient qu'j'étais perdu mec Genre arrête de faire du rap et viens plutôt faire du zness' Laisse tomber, j'te jure, j'suis pas voyou Mais quand les poulets passent, toujours l'envie d'balancer un caillou C'est pas la vida loca, j'suis toujours fidèle au poste Un gros spliff, un local, posté, habillé beau gosse Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané On rêve de quitter cette ville 'neuve-la-garenne Car on est ivre entre les immeubles et la galère Ouzou, YW, ça bouge pas</t>
+          <t>Guiziouzou, 9.2, YW Journée comme les autres, tout est en désordre, shooté dans l'décor Tous étouffés dans tes tours où t'es r'douté quand t'es fort Manque de flouze et pensées gores, la vie va vite quand tu fatigues Tu t'imagines que c'est tragique, c'est moins tragique que quand t'es mort J'me prends la tête, j'sais bien qu'j'aurais pas d'Prix Nobel C'est pas qu'j'm'inquiète mais j'ai des dettes, j'suis pas en mode pa ni pwoblèm En plus de ça, j'ai mal au ventre, j'ressens comme une sorte de boule Qui s'balade vers l'estomac, à chaque fois qu'une porte s'ouvre J'suis sous pression, j'ai mes raisons quand j'vois c'qui s'passe à la maison Toutes les saisons, maman pète un câble, il enchaînait les liaisons J'suis réaliste y'a très peu d'gens qui s'épanouissent L'effet d'la tise me tétanise et y'a plus rien qu'j'idéalise Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Laisse-moi te dire un truc, il se passe de vilaines choses De la Caravelle au Luth, des Pablo à la cité Rose Les mecs sont sans pitiés, se butent entre eux, faut pas faire le bout-en-train Ils fument entre eux, chutent entre eux, au placard, t'en a tout l'temps un Et les daronnes spectatrices et attristées On traîne la nuit, elles s'lèvent à six parce qu'au boulot faut rappliquer Et j'fais pas zehma la cité, j'y habitais mais j'mangeais bien Pas trop con mais j'me doutais qu'j'deviendrai pas un grand médecin J'suis chaud là, j'peux rapper toute la nuit si j'veux J'suis perché dans la milky way en train d'préparer dix mille skeuds J'fais pas du rap, j'fais un truc qui mets des baffes Schizophrène avec un mic, j'me dédouble et j'fais mes backs putain Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Y'a toute une jeunesse dans mon cas, là, ils peuvent pas fermer les yeux Un truc de malade, ils nous baladent, nos adversaires c'est les bleus La rage et la fierté, les deux, on apprends à vivre avec MasterCard peuvent rien y faire, c'est pas des trucs qui s'achète Du pognon, du flouze, du fric, des thunes, il m'en faut Du gros son, du groove, du style, des tueries dans l'flow J'fais ce truc depuis belle lurettes, ils croyaient qu'j'étais perdu mec Genre arrête de faire du rap et viens plutôt faire du zness' Laisse tomber, j'te jure, j'suis pas voyou Mais quand les poulets passent, toujours l'envie d'balancer un caillou C'est pas la vida loca, j'suis toujours fidèle au poste Un gros spliff, un local, posté, habillé beau gosse Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané Enfumés toute l'année, se détruire pour planer Au milieu d'une ville où toutes les fleurs ont fané À croire qu'on est damné, condamné à ramer On rêve de quitter la ville où toutes les fleurs ont fané On rêve de quitter cette ville 'neuve-la-garenne Car on est ivre entre les immeubles et la galère Ouzou, YW, ça bouge pas</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Mokless-Guizmo, on n'cesse d'innover Tu le sais ce n'est pas nouveau Les autres, ils sont game over Ramollis comme de la guimauve Et dans ta tess, dans ton tieks, on sait pas qui tu es Moi j't'écoute, change de tête BonbonAcidulé Et ça fait renoi, rebeu, babtou, nois-chi, pikti Tous les goûts, toutes les leurs-cou QualityStreet Bah ouais, j'envoie la sauce si tu fais un geste de plus Du marron dans toute la pièce on s'croira chez Jeff de Bruges La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 You might also like Toujours en avance, on connait pas l'coude à coude Nos blazes sur toutes les lèvres, on est comme des Chupa Chups Chez nous t'es wanted, un peu comme Cheb Mami Toi t'es comme Annie, t'aimes les sucettes à l'anis On fait du rap moitié-propre, moitié-saligaud C'est pour les grands et les tits-pe Haribo On connait pas tes lyrics mais on a cramé tes feintesNous on fait la paire comme Twix, on t'sort deux-trois couplets fins La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Chercher à devenir quelqu'un dans la rue c'est courir à sa perte Quand tu grandis au square, t'as plus les mains sales qu'la main verte Faut qu'on s'en sorte même si faut qu'on fasse quelques sacrifices On fêtera la victoire, sortira les feux d'artifice On dira à Marine que rap rime pas avec illettré Depuis qu'j'écris sur un clavier mes frappes sont millimétrés KlessMo-Guizy, respect, vous allez tous y resterCôtes félés, nez cassé 28 jours d'ITT C'était que l'début, attendez-vous à une rafale Dans l'game, y a ceux qui crachent des textes et ceux qui avalent, cavale Face au danger tu files en tre-trai Veux faire la pluie et le beau temps Gillot-Pétré La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Ça s'prend pour Kadhafi, rappe comme Tabatha Cash Tagada Pink s'est pris pour un apache Il voudrait être à la Une mais n'est pas à la page Pour une réput', il serait prêt à faire un braquage Le Tagada Chpim, j'fais un Tagada Flash A Bou Dou Splish, A Bou Dou Splash KlessMo-Guizmo, Yonea-Willy, YW Tagada, Tagada Tagada Pink</t>
+          <t>La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Mokless-Guizmo, on n'cesse d'innover Tu le sais ce n'est pas nouveau Les autres, ils sont game over Ramollis comme de la guimauve Et dans ta tess, dans ton tieks, on sait pas qui tu es Moi j't'écoute, change de tête BonbonAcidulé Et ça fait renoi, rebeu, babtou, nois-chi, pikti Tous les goûts, toutes les leurs-cou QualityStreet Bah ouais, j'envoie la sauce si tu fais un geste de plus Du marron dans toute la pièce on s'croira chez Jeff de Bruges La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Toujours en avance, on connait pas l'coude à coude Nos blazes sur toutes les lèvres, on est comme des Chupa Chups Chez nous t'es wanted, un peu comme Cheb Mami Toi t'es comme Annie, t'aimes les sucettes à l'anis On fait du rap moitié-propre, moitié-saligaud C'est pour les grands et les tits-pe Haribo On connait pas tes lyrics mais on a cramé tes feintesNous on fait la paire comme Twix, on t'sort deux-trois couplets fins La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Chercher à devenir quelqu'un dans la rue c'est courir à sa perte Quand tu grandis au square, t'as plus les mains sales qu'la main verte Faut qu'on s'en sorte même si faut qu'on fasse quelques sacrifices On fêtera la victoire, sortira les feux d'artifice On dira à Marine que rap rime pas avec illettré Depuis qu'j'écris sur un clavier mes frappes sont millimétrés KlessMo-Guizy, respect, vous allez tous y resterCôtes félés, nez cassé 28 jours d'ITT C'était que l'début, attendez-vous à une rafale Dans l'game, y a ceux qui crachent des textes et ceux qui avalent, cavale Face au danger tu files en tre-trai Veux faire la pluie et le beau temps Gillot-Pétré La vérité c'est qu't'es endetté, tu nous fais croire qu't'as d'l'or en barre T'as le flow chamallow, tu sors des blagues de Carambar Tagada Pink et tu t'es cru dans un film Frère, ton compte bancaire, c'est ton code PIN Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Quatre fois 0, quatre fois 0 Ça s'prend pour Kadhafi, rappe comme Tabatha Cash Tagada Pink s'est pris pour un apache Il voudrait être à la Une mais n'est pas à la page Pour une réput', il serait prêt à faire un braquage Le Tagada Chpim, j'fais un Tagada Flash A Bou Dou Splish, A Bou Dou Splash KlessMo-Guizmo, Yonea-Willy, YW Tagada, Tagada Tagada Pink</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Tu crois qu'j'me prends la tête, pour écrire j'fais ça au feeling Vous faites la fête, on fait d'l'oseille négro, demande à Willy Ils sont tous là à baliser une fois qu'ils voient les chtars Nous on s'en bat les couilles, on fait du rap, on est des stars J'pourrais parler toute la nuit de ces rappeurs qui disent des conneries S'tu bouges la tête et que tu mouilles c'est qu'au micro c'est zmo-Gui J'suis l'meilleur dans cette merde et ça poto j'te l'garantis J'ai rappé sale, j'ai rappé vite et même au ralenti Cousin j'ai... pas l'time d'faire des feats Ils parlent grave, c'est des arnaques, j'y crois pas, c'est des lascars RMIstes Des lascars RMIstes, ouais Des lascars RMIstes Diggitycheck, diggitybang Tout va bien, tout va bien, j'ai du hasch sous la main Des res-bié plus une teille de sky que je garde pour la fin J'ai besoin de cette potion magique, besoin qu'elle me pénètre Pour entrer dans les ténèbres, et gratter des gros sons classiques Et j'vais pas culpabiliser On est d'la baise, le cul entre deux chaises, on a plus d'stabilité Qu'est c'tu veux faire plus tard ? Remballe ta question J'veux juste rester en vie, c'est du sérieux quand j'parle d'agression Mes négros se flinguent, mes négros se droguent Et quand ils voient qu't'es ienb', mes négros te fuckent Et j'les excuse pas, mais j'les comprends Ils crèvent dans un tier-quar pendant qu'les riches prennent du bon temps Mais bon sang, où est l'égalité dans tout ça ? T'es pauvre, on t'laisse crever, nan y'a pas d'pitié dans tout ça Alors je plane, pour oublier Que j'vis un drame et qu'on m'a tout pillé J'ai taffé c'rap de merde à en devenir fou Maintenant en 2012, tester Guizmo, qui est cap' de l'faire ? Cousin, dis à tes partenaires qu'on a de cesse de taffer pour être la relève On manie l'art de guerre C'est pas la même dans mon ghetto et l'tien Mais si jamais t'es en galère, sache que mon frérot c'est l'tien MC authentique, et oui j'rôde en ville J'ai écrit offensif C'est si chaud quand j'kickeYou might also like</t>
+          <t>Tu crois qu'j'me prends la tête, pour écrire j'fais ça au feeling Vous faites la fête, on fait d'l'oseille négro, demande à Willy Ils sont tous là à baliser une fois qu'ils voient les chtars Nous on s'en bat les couilles, on fait du rap, on est des stars J'pourrais parler toute la nuit de ces rappeurs qui disent des conneries S'tu bouges la tête et que tu mouilles c'est qu'au micro c'est zmo-Gui J'suis l'meilleur dans cette merde et ça poto j'te l'garantis J'ai rappé sale, j'ai rappé vite et même au ralenti Cousin j'ai... pas l'time d'faire des feats Ils parlent grave, c'est des arnaques, j'y crois pas, c'est des lascars RMIstes Des lascars RMIstes, ouais Des lascars RMIstes Diggitycheck, diggitybang Tout va bien, tout va bien, j'ai du hasch sous la main Des res-bié plus une teille de sky que je garde pour la fin J'ai besoin de cette potion magique, besoin qu'elle me pénètre Pour entrer dans les ténèbres, et gratter des gros sons classiques Et j'vais pas culpabiliser On est d'la baise, le cul entre deux chaises, on a plus d'stabilité Qu'est c'tu veux faire plus tard ? Remballe ta question J'veux juste rester en vie, c'est du sérieux quand j'parle d'agression Mes négros se flinguent, mes négros se droguent Et quand ils voient qu't'es ienb', mes négros te fuckent Et j'les excuse pas, mais j'les comprends Ils crèvent dans un tier-quar pendant qu'les riches prennent du bon temps Mais bon sang, où est l'égalité dans tout ça ? T'es pauvre, on t'laisse crever, nan y'a pas d'pitié dans tout ça Alors je plane, pour oublier Que j'vis un drame et qu'on m'a tout pillé J'ai taffé c'rap de merde à en devenir fou Maintenant en 2012, tester Guizmo, qui est cap' de l'faire ? Cousin, dis à tes partenaires qu'on a de cesse de taffer pour être la relève On manie l'art de guerre C'est pas la même dans mon ghetto et l'tien Mais si jamais t'es en galère, sache que mon frérot c'est l'tien MC authentique, et oui j'rôde en ville J'ai écrit offensif C'est si chaud quand j'kicke</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Y et W Maître de cérémonie, bien, beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Et sans remarque, les casques m'ont fait suivre la marque Les vrais pas cinq fois en direction de la Mecque Moi le visage pâle vois-tu le shit qui s'écoule ? Et quoi de mal d'accepter de croire que ma vie est cool ? Véhicule du concret car maintenu au ras du sol Ira dire elle est sale à chaque fois qu'il y aura du sang D'ici ça résonne même si ça plaît a personne De loin je t'aperçois mais regarde qui tu impressionnes Enlève ton costume tu vois bien qui je questionne Cautionne vois plus d'ombrageux qui s'additionnent Dessine-moi p'tit comme une Mini Austin Et les gamines se font grandes à la Witney Houston Tu t'étonnes, arrête ça car on peut tout attendre J'en vois rageux, presque prêts pour tout atteindre Terminus, terminus que les bâtards descendent Pour s'descendre, on attendra pas le mois de décembre Terminus, terminus que les bâtards descendent J'rap un rap de voyous ramène tes cendres x2 You might also like Les envieux sont la taxe du succès Grâce aux africains, les grosses auront toujours une vie sexuelle Tu veux te marier, tu rêves d'une vie de famille Tu te noies toi même, wesh, t'as chaud aux seufs Je penses pas que Dieu ait mis une graine dans le ventre de Marie Je pense qu'elle a trompé Joseph Tu tises tu triches dix dix Et dix-huit piges, victimes on est, victime oblige Fais pas la gaffe si tu fais le big deal Petit, je suis dramatique et subtile Y a que les numbos qui ne laissent pas béton Y a que Columbo qui te baise en te respectant On te séquestre pour ta Benz On te rend visite à lhôpital pour te déconseiller de porter plainte Jemmènerai les anges au paradise tu sais Rancunier, je cambriolerai les huissiers T'affole pas, le juge condamne le gros caïd Les avocats sont les riches de la cocaïne J'rappe les bagarres, le placard, le tagga, le haga, le hagal Le braquage, le battage, et l'attache, le partage et la tchatche Le saccage de la classe, le sarcasme et la trace Les chacals et la classe, la vengeance et les casses si je jacasse, ils m'agacent Comment je fait pour gérer mes démons imprévisibles J'arrive en retard à mon propre enterrement x2 Yo, j'aime pas me lever le matin, complètement déphasé Avec des yeuz' éclatés comme des sseu-fés de catin J'ai envie de glandouiller, couché à la maison Ouais je m'en bats les couilles, t'façon elles ont qu'à pendouiller J'ai pas envie de bosser de 5 à 7 Pour un patron et plein de tapettes qui te font la leçon et te flinguent la tête J'ai pas envie de pardonner mon beau père, il nous as laissés en chien Sa baraque et sa meuf au bled c'était son joker J'ai la haine contre presque toute la planète Moi et ma bière, je suis au fond du trou de la canette Tu ressens le blues, le mal-être, la rage dans les pupilles La bagarre dans les yeux cousin, je rappe sale quand c'est utile Du taga dans les futes, on s'arnaque et se fusille En placard, ça se mutile la bac passe et elle jubile Nos papas dans les usines fatigués de vivre Attristés depuis qu'ils ont appris que leurs fils ont trafiqué le shit La rue, c'est pas Joey et son zoum zoum zen Une dette, un flingue chromé et tu te fais boum boum bang ! Y a pas de boss ni de chef c'est l'anarchie totale Tape la tise pour se canaliser, aplati nos crânes Je crois que ça vire au drame, pas du tout d'humeur à festoyer Salis mon blaze et je t'assure que tu te fais nettoyer Guns, schlass dans les mains d'un soucieux Bah ça donne un coup de feu, pas une punchline ! x2 Sho-sho-shotla Barbès-bar Clan Y et W, Willy, Yonea Que les bâtards descendent Termi-termi-terminus Zone sensible Okay, on est là On représente, on a des choses à dire... x23</t>
+          <t>Y et W Maître de cérémonie, bien, beaucoup veulent serrer mon art Vu qu'on a su réunir tous les cochons en renards Et sans remarque, les casques m'ont fait suivre la marque Les vrais pas cinq fois en direction de la Mecque Moi le visage pâle vois-tu le shit qui s'écoule ? Et quoi de mal d'accepter de croire que ma vie est cool ? Véhicule du concret car maintenu au ras du sol Ira dire elle est sale à chaque fois qu'il y aura du sang D'ici ça résonne même si ça plaît a personne De loin je t'aperçois mais regarde qui tu impressionnes Enlève ton costume tu vois bien qui je questionne Cautionne vois plus d'ombrageux qui s'additionnent Dessine-moi p'tit comme une Mini Austin Et les gamines se font grandes à la Witney Houston Tu t'étonnes, arrête ça car on peut tout attendre J'en vois rageux, presque prêts pour tout atteindre Terminus, terminus que les bâtards descendent Pour s'descendre, on attendra pas le mois de décembre Terminus, terminus que les bâtards descendent J'rap un rap de voyous ramène tes cendres x2 Les envieux sont la taxe du succès Grâce aux africains, les grosses auront toujours une vie sexuelle Tu veux te marier, tu rêves d'une vie de famille Tu te noies toi même, wesh, t'as chaud aux seufs Je penses pas que Dieu ait mis une graine dans le ventre de Marie Je pense qu'elle a trompé Joseph Tu tises tu triches dix dix Et dix-huit piges, victimes on est, victime oblige Fais pas la gaffe si tu fais le big deal Petit, je suis dramatique et subtile Y a que les numbos qui ne laissent pas béton Y a que Columbo qui te baise en te respectant On te séquestre pour ta Benz On te rend visite à lhôpital pour te déconseiller de porter plainte Jemmènerai les anges au paradise tu sais Rancunier, je cambriolerai les huissiers T'affole pas, le juge condamne le gros caïd Les avocats sont les riches de la cocaïne J'rappe les bagarres, le placard, le tagga, le haga, le hagal Le braquage, le battage, et l'attache, le partage et la tchatche Le saccage de la classe, le sarcasme et la trace Les chacals et la classe, la vengeance et les casses si je jacasse, ils m'agacent Comment je fait pour gérer mes démons imprévisibles J'arrive en retard à mon propre enterrement x2 Yo, j'aime pas me lever le matin, complètement déphasé Avec des yeuz' éclatés comme des sseu-fés de catin J'ai envie de glandouiller, couché à la maison Ouais je m'en bats les couilles, t'façon elles ont qu'à pendouiller J'ai pas envie de bosser de 5 à 7 Pour un patron et plein de tapettes qui te font la leçon et te flinguent la tête J'ai pas envie de pardonner mon beau père, il nous as laissés en chien Sa baraque et sa meuf au bled c'était son joker J'ai la haine contre presque toute la planète Moi et ma bière, je suis au fond du trou de la canette Tu ressens le blues, le mal-être, la rage dans les pupilles La bagarre dans les yeux cousin, je rappe sale quand c'est utile Du taga dans les futes, on s'arnaque et se fusille En placard, ça se mutile la bac passe et elle jubile Nos papas dans les usines fatigués de vivre Attristés depuis qu'ils ont appris que leurs fils ont trafiqué le shit La rue, c'est pas Joey et son zoum zoum zen Une dette, un flingue chromé et tu te fais boum boum bang ! Y a pas de boss ni de chef c'est l'anarchie totale Tape la tise pour se canaliser, aplati nos crânes Je crois que ça vire au drame, pas du tout d'humeur à festoyer Salis mon blaze et je t'assure que tu te fais nettoyer Guns, schlass dans les mains d'un soucieux Bah ça donne un coup de feu, pas une punchline ! x2 Sho-sho-shotla Barbès-bar Clan Y et W, Willy, Yonea Que les bâtards descendent Termi-termi-terminus Zone sensible Okay, on est là On représente, on a des choses à dire... x23</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>O6 60 10 32 10 Si t'es chaude pour le guiz ecarte ton entrecuisse Eh ouais j'ai plus d'meuf plus rien à fêter Guiz la banquiz follow moi j'suis connecté Et jte parles sérieux j'suis pas un charlatan L'autre soir j'ai tiré une meuf BalleàBlanc J'rap salement j'les enfile par 20 Pas d'pitié pas d'cadeau elles sont toutes au parfum J'offre un cadeau a ma chienne J'mets un annaux autour de mon gland si elle aime J'veux te fourrer toute la journée qu'on soit bourré J'te tripotte et tu mouilles TouchéCoulé En levrette missionnaire même en lévitation J'te tire les cheveux , claques aux fesses appelle ça équitation Ma bite et mes couilles me disent de les tartiner Tartine-les toutes tartines-les Ouais passe le beurre, les biscottes et le cacao J'veux les tartiner avant qu'elles avalent mon Danao Tartines les tous tartine les Tartine les toutes tartine les J'aime les beurettes les babtous les fatous même les cachalot Le six-zero miss pas d'mytho c'est mon vrai numéroYou might also like</t>
+          <t>O6 60 10 32 10 Si t'es chaude pour le guiz ecarte ton entrecuisse Eh ouais j'ai plus d'meuf plus rien à fêter Guiz la banquiz follow moi j'suis connecté Et jte parles sérieux j'suis pas un charlatan L'autre soir j'ai tiré une meuf BalleàBlanc J'rap salement j'les enfile par 20 Pas d'pitié pas d'cadeau elles sont toutes au parfum J'offre un cadeau a ma chienne J'mets un annaux autour de mon gland si elle aime J'veux te fourrer toute la journée qu'on soit bourré J'te tripotte et tu mouilles TouchéCoulé En levrette missionnaire même en lévitation J'te tire les cheveux , claques aux fesses appelle ça équitation Ma bite et mes couilles me disent de les tartiner Tartine-les toutes tartines-les Ouais passe le beurre, les biscottes et le cacao J'veux les tartiner avant qu'elles avalent mon Danao Tartines les tous tartine les Tartine les toutes tartine les J'aime les beurettes les babtous les fatous même les cachalot Le six-zero miss pas d'mytho c'est mon vrai numéro</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>YW Guizmo Ziguidi zone sensible Villeneuve-la-Garenne, les immeubles, la galère J'suis rentré tard à la maison Elle me demande c'est quoi la raison J'lui dis que j'faisais ma musique Et qu'au studio y'a plus de réseau Du regard elle me fusille J'ai tisé, fumé de la résine Elle voit mes yeux, elle est quée-cho Elle croit qu'j'étais dans ma té-ci J'suis rusé comme le renard Mais moi je t'aime parce que t'es une lionne Même si des fois j'te dis t'es une folle Jamais de la vie j'te prends pour une conne Et jamais de ma vie j'te laisse pour une autre Chaque fois tu pardonnes et chaque fois je faute Chaque fois la rue et son bâtiment J'suis désolé, je sais que c'est glauque Tout le temps du placard, tu m'as pas lâché Ces fils de putain m'avaient attaché J'vais tout vous donner, mais c'est pas assez Pour toi et le p'tit j'vais tout arracher You might also like Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière J'fais encore des sous dehors Tu me dis arrête, on a tout ce qui faut Moi, j'écoute jamais, j'suis un bourricot J'aime les plaquettes et les toxicos C'est pas raisonnable, non, il faudrait que j'arrête Mes poignets serrés dans ces putains de menottes J't'aime plus que tout mais la rue elle m'arrête J't'aime plus que tout mais la rue elle me bloque C'est ton pied, mon pied J'crois que j'ai pas compris Tu m'as donné ton coeur, tu m'as donné mon fils Et même si t'avais peur, mes problèmes avec la police Tu es restée de marbre, nous sommes restés complices J'ai jamais eu peur de te marier À vie, la meilleure de mes alliés Tu t'en fous d'mon rap, tu t'en fous d'mon rap Tu t'en fous d'mon rap et d'mon papier Dire que t'es ma fierté, tu es validée En plus de l'amour, il y a l'amitié Je sais que t'aimes pas ça, mais j'fais ça pour nous Sur les terrains, j'vends la qualité Sur les terrains, j'vends la qualité Sur le terrain, j'vends la qualité Bébé c'est dur tu n'as pas idée Bébé c'est dur tu n'as pas idée Sur le terrain, j'vends la qualité Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière J'vais arrêter, tu seras fière Guiziouzou, si si, coucou Pour tous les mecs qui respectent leurs femmes, ouais, ouais Qui ont une vie active, qui font des tournées, des séminaires Ou peu importe, des trucs qui les ramènent des chambres d'hôtel Et qui préfèrent dormir seul et rentrer à la maison avec la conscience tranquille Tous les maris qui ont des femmes justes, qui ont des femmes droites Qui assument les gosses jusqu'à la mort, ça c'est ma mafia Mohamed, Lamine, Isaac, on leur fait quoi ? On leur fait quoi ? Merci Madame Diakité</t>
+          <t>YW Guizmo Ziguidi zone sensible Villeneuve-la-Garenne, les immeubles, la galère J'suis rentré tard à la maison Elle me demande c'est quoi la raison J'lui dis que j'faisais ma musique Et qu'au studio y'a plus de réseau Du regard elle me fusille J'ai tisé, fumé de la résine Elle voit mes yeux, elle est quée-cho Elle croit qu'j'étais dans ma té-ci J'suis rusé comme le renard Mais moi je t'aime parce que t'es une lionne Même si des fois j'te dis t'es une folle Jamais de la vie j'te prends pour une conne Et jamais de ma vie j'te laisse pour une autre Chaque fois tu pardonnes et chaque fois je faute Chaque fois la rue et son bâtiment J'suis désolé, je sais que c'est glauque Tout le temps du placard, tu m'as pas lâché Ces fils de putain m'avaient attaché J'vais tout vous donner, mais c'est pas assez Pour toi et le p'tit j'vais tout arracher Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière J'fais encore des sous dehors Tu me dis arrête, on a tout ce qui faut Moi, j'écoute jamais, j'suis un bourricot J'aime les plaquettes et les toxicos C'est pas raisonnable, non, il faudrait que j'arrête Mes poignets serrés dans ces putains de menottes J't'aime plus que tout mais la rue elle m'arrête J't'aime plus que tout mais la rue elle me bloque C'est ton pied, mon pied J'crois que j'ai pas compris Tu m'as donné ton coeur, tu m'as donné mon fils Et même si t'avais peur, mes problèmes avec la police Tu es restée de marbre, nous sommes restés complices J'ai jamais eu peur de te marier À vie, la meilleure de mes alliés Tu t'en fous d'mon rap, tu t'en fous d'mon rap Tu t'en fous d'mon rap et d'mon papier Dire que t'es ma fierté, tu es validée En plus de l'amour, il y a l'amitié Je sais que t'aimes pas ça, mais j'fais ça pour nous Sur les terrains, j'vends la qualité Sur les terrains, j'vends la qualité Sur le terrain, j'vends la qualité Bébé c'est dur tu n'as pas idée Bébé c'est dur tu n'as pas idée Sur le terrain, j'vends la qualité Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière Je t'aime encore plus que hier Je sais pour moi tu fais des prières Et j'me suis noyé dans la bière J'vais arrêter, tu seras fière J'vais arrêter, tu seras fière Guiziouzou, si si, coucou Pour tous les mecs qui respectent leurs femmes, ouais, ouais Qui ont une vie active, qui font des tournées, des séminaires Ou peu importe, des trucs qui les ramènent des chambres d'hôtel Et qui préfèrent dormir seul et rentrer à la maison avec la conscience tranquille Tous les maris qui ont des femmes justes, qui ont des femmes droites Qui assument les gosses jusqu'à la mort, ça c'est ma mafia Mohamed, Lamine, Isaac, on leur fait quoi ? On leur fait quoi ? Merci Madame Diakité</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Guiz' le renard Guiziouzou gang Shit cess' et cocaine, business et gros calibre Ivresse et dopamine, p'tite tess' mais gros trafic Oui j'aime la botanique, pété sur du Bob Marley T'as pas d'sous mais tu veux bicrave, si tu veux on peux en parler Northface en hiver, tu ne peux pas me voir Je suis au fond du hall, je suis en train de boire J'ai demandé à la lune Elle m'a répondu Qu'est-c'tu veux ? J'lui ai dis J'veux plus de thunes Et une voiture à cent mille eu Mais la vie n'est pas ainsi faite, dans mon passé j'en ai fais des fautes Maman qui pleure et papa qui m'fouette, je n'ai jamais fais comme tous les autres Valenton zoo on est malhonnête, depuis quinze ans, moi, j'ai les menottes Vingt mille euros tu fais la vedette, même pas assez pour payer la dote J'suis toujours vrai, j'suis toujours gang J'suis toujours là, j'suis dans mon binks J'suis resté vrai, j'suis toujours là J'suis toujours gang, j'suis dans mon binks You might also like Barrio barrio, barrio barrio barrio J'veux pas d'une Maria, j'aime le barrio, barrio Barrio barrio, barrio barrio J'veux pas d'une Maria, moi, j'aime le barrio Ils connaissent pas la vie, ils connaissent pas l'animal Quand tu dormais la nuit, j'ai dégagé des dix balles Tu veux du pilon ? Un kilo et je déboule Gros, c'est nous les dits-ban, Diakité sous la cagoule 9.4 sur le maillot, j'ai toujours voulu mailler Elle est trop belle, elle est trop hlel, direct, je l'ai marié J'ai demandé à la lune Elle m'a répondu Qu'est-c'tu veux ? J'avais un pistolet dans l'fut J'ai tiré pour des billets bleus J'suis toujours vrai, j'suis toujours gang J'suis toujours là, j'suis dans mon binks J'suis resté vrai, j'suis toujours là J'suis toujours gang, j'suis dans mon binks Barrio barrio, barrio barrio barrio J'veux pas d'une Maria, j'aime le barrio, barrio Barrio barrio, barrio barrio J'veux pas d'une Maria, moi, j'aime le barrio</t>
+          <t>Guiz' le renard Guiziouzou gang Shit cess' et cocaine, business et gros calibre Ivresse et dopamine, p'tite tess' mais gros trafic Oui j'aime la botanique, pété sur du Bob Marley T'as pas d'sous mais tu veux bicrave, si tu veux on peux en parler Northface en hiver, tu ne peux pas me voir Je suis au fond du hall, je suis en train de boire J'ai demandé à la lune Elle m'a répondu Qu'est-c'tu veux ? J'lui ai dis J'veux plus de thunes Et une voiture à cent mille eu Mais la vie n'est pas ainsi faite, dans mon passé j'en ai fais des fautes Maman qui pleure et papa qui m'fouette, je n'ai jamais fais comme tous les autres Valenton zoo on est malhonnête, depuis quinze ans, moi, j'ai les menottes Vingt mille euros tu fais la vedette, même pas assez pour payer la dote J'suis toujours vrai, j'suis toujours gang J'suis toujours là, j'suis dans mon binks J'suis resté vrai, j'suis toujours là J'suis toujours gang, j'suis dans mon binks Barrio barrio, barrio barrio barrio J'veux pas d'une Maria, j'aime le barrio, barrio Barrio barrio, barrio barrio J'veux pas d'une Maria, moi, j'aime le barrio Ils connaissent pas la vie, ils connaissent pas l'animal Quand tu dormais la nuit, j'ai dégagé des dix balles Tu veux du pilon ? Un kilo et je déboule Gros, c'est nous les dits-ban, Diakité sous la cagoule 9.4 sur le maillot, j'ai toujours voulu mailler Elle est trop belle, elle est trop hlel, direct, je l'ai marié J'ai demandé à la lune Elle m'a répondu Qu'est-c'tu veux ? J'avais un pistolet dans l'fut J'ai tiré pour des billets bleus J'suis toujours vrai, j'suis toujours gang J'suis toujours là, j'suis dans mon binks J'suis resté vrai, j'suis toujours là J'suis toujours gang, j'suis dans mon binks Barrio barrio, barrio barrio barrio J'veux pas d'une Maria, j'aime le barrio, barrio Barrio barrio, barrio barrio J'veux pas d'une Maria, moi, j'aime le barrio</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Lamine Diakité je suis le deuxième du nom Tu peux me peter avec des pubs Sur ma mère que je vais rien donner Et j'en ai rien à foutre de ceux qu'ils diront Je peux te piquer comme le véto Je peux te masser comme le kiné Je suis tout seul dans la ve-ca maintenant c'est l'heure de prier Ma montr elle fait 3 points mais c'est pas la NBA J suis pas un nègre de maison je veux pas danser YMCA C'est réel je suis dans la jungle mais j'ai crié Je vendais la drogue sous la pluie Tard la nuit Je suis bizarre j'ai que des frères j'ai pas d'amis J'ai jamais poukave jamais mangé du salami Gros t'es blessé par ton ex on est blessé par la vie Et fermez tous vos gueules Moi j'ai besoin d'aide pas de conseils Un renard dans une épicerie c'est ça le concept Les rappeurs c'est des piwi moi je suis un compète Arrête de croire que je suis bourré gros je suis pompette Ah j'écoute du rap depuis les Gundam Le guizzy à lui tout seul c'est une punchline A ma première condamnation j'avais une gueule d'ange Une foie en cellule y'a plus de sunshine J'étais posé bourré sur ce vieux banc Et je t'expliquais pourquoi les jeunes s'arment J'ai raconté toute ma haine sur une feuille blanche J'ai déjà bu une bière avec un vieux shlag Une jeunesse de merde à dealer dans les halls Il a fait le malin j'ai tiré dans l'épaule J'ai jamais poukave ou piqué dans les doses 19 ans j'avais la dalle j'ai signé sans les clauses Je suis un petit de la cité oublie alors les grands me déposent Comme une renard on en apprend des choses Et je m'arrache dans le sud une fois que je sens que c'est chaud Poto c'est du midi minuit on peut pas prendre des poses Ils savent pas ce qu'on est prêts à faire pour s'en sortir Et je suis pas le genre de raclo qu'on peut endormir Toujours bossé avec des tueurs sur le corner La police ils me contrôlent ils me disent encore lui La bécane elle est volée je la lève tu me connais Mon daron dans un parlu depuis toujours je suis en colère Javais même pas 14 ans quand j'ai fais mon premier collage J'ai ?? mes camarades je suis un cassos depuis le collège You might also likeTu peux me croiser dans une allée sombre Je dormais dans la cave j'avais pas de maison De la peufra dans la cargaison Lunette Cartier ça détaille 4 saisons Et c'est tout pour le bénef Frérot on fait ça pour le bénef Juste pour le bénef on fait ça pour le bénef Ouais tout ça pour le bénef ouais tout ça pour le bénef Il faut pas me chenef Tu peux me croiser dans une allée sombre tu peux me croiser Je dormais dans la cave j'avais pas de maison De la peufra dans la cargaison que de la frappe Lunette Cartier ça détaille 4 saisons Et c'est tout pour le bénef et c'est tout pour le bénef Frérot on fait ça pour le bénef on fait ça pour le bénef Juste pour le bénef Ouais tout ça pour le bénef tout ça pour le bénef sa mère Je connais le dehors et le manque de sous Les genres de trucs qui font mal au cur et qui peuvent me rendre fou On a fait le coup on a dit que ça restait entre nous Igor jouera plus au foot ils lui ont tiré dans le genoux Et c'est la merde mec ?? c'est réel Pistolet dans la boite de céréales Mon frère a fait des bêtises j'ai fais les mêmes J'étais un peut entêté on m'a viré au Sénégal Impliqué dans tout les vols toujours dans la CR Déjà fais le disque d'or je suis un peut comme ?? Je suis violant comme Malé j'suis méchant comme VR Des alcoolos des toxicos j'en connais peut des vieillards Parait que c'était la solution me noyer dans la pillave Des fois je pense à Heineken je demande combien ils génèrent Et 